--- a/WorkShop/01.docs/01.초기학습.xlsx
+++ b/WorkShop/01.docs/01.초기학습.xlsx
@@ -9,11 +9,17 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11850"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11850" activeTab="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="2" r:id="rId1"/>
+    <sheet name="00.참고" sheetId="2" r:id="rId1"/>
+    <sheet name="01.원칙" sheetId="4" r:id="rId2"/>
+    <sheet name="02.모의투자" sheetId="3" r:id="rId3"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'01.원칙'!$B$2:$E$2</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'02.모의투자'!$B$2:$I$2</definedName>
+  </definedNames>
   <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -23,9 +29,156 @@
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="35">
+  <si>
+    <t>https://stock79.tistory.com</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>시스템트레이더</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://kmisfactory.tistory.com</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>지식경영공장(Kevin)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>전업투자자 재해석</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>사이트명</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>URL</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>비고</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>기본개념잡기 좋음</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>퀀트공부시 필요</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>종목코드</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>종목명</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>매수일자</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>매도일자</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>수익률</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>비고</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>매수가</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>매도가</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>008600</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>윌비스</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2020-01-17</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>038620</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>위즈코프</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>051370</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>인터플렉스</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2020-01-20</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2020-01-21</t>
+  </si>
+  <si>
+    <t>https://jjisso.tistory.com/</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://reint.tistory.com/</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>찌소의 주식차트분석</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>기법공부시 필요</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>종류</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>내용</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>비고</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="3" x14ac:knownFonts="1">
+  <numFmts count="1">
+    <numFmt numFmtId="176" formatCode="&quot;₩&quot;#,##0"/>
+  </numFmts>
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -49,21 +202,68 @@
       <charset val="129"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="9"/>
+      <color theme="1"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color theme="1"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.14999847407452621"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
       <diagonal/>
     </border>
   </borders>
@@ -72,12 +272,75 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="4" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="4" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -359,17 +622,2221 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="B1:D34"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I25" sqref="I25"/>
+    <sheetView workbookViewId="0">
+      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="B1" sqref="B1"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
+      <selection pane="bottomRight" activeCell="D21" sqref="D21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="16384" width="9" style="1"/>
+    <col min="1" max="1" width="7.25" style="1" customWidth="1"/>
+    <col min="2" max="2" width="26.5" style="1" customWidth="1"/>
+    <col min="3" max="3" width="38.75" style="1" customWidth="1"/>
+    <col min="4" max="4" width="75.75" style="2" customWidth="1"/>
+    <col min="5" max="16384" width="9" style="1"/>
   </cols>
-  <sheetData/>
+  <sheetData>
+    <row r="1" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B1" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B2" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="D2" s="6" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B3" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C3" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="D3" s="6"/>
+    </row>
+    <row r="4" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B4" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C4" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="D4" s="6" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B5" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="C5" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="D5" s="6" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="6" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B6" s="4"/>
+      <c r="C6" s="4"/>
+      <c r="D6" s="6"/>
+    </row>
+    <row r="7" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B7" s="4"/>
+      <c r="C7" s="4"/>
+      <c r="D7" s="6"/>
+    </row>
+    <row r="8" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B8" s="4"/>
+      <c r="C8" s="4"/>
+      <c r="D8" s="6"/>
+    </row>
+    <row r="9" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B9" s="4"/>
+      <c r="C9" s="4"/>
+      <c r="D9" s="6"/>
+    </row>
+    <row r="10" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B10" s="4"/>
+      <c r="C10" s="4"/>
+      <c r="D10" s="6"/>
+    </row>
+    <row r="11" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B11" s="4"/>
+      <c r="C11" s="4"/>
+      <c r="D11" s="6"/>
+    </row>
+    <row r="12" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B12" s="4"/>
+      <c r="C12" s="4"/>
+      <c r="D12" s="6"/>
+    </row>
+    <row r="13" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B13" s="4"/>
+      <c r="C13" s="4"/>
+      <c r="D13" s="6"/>
+    </row>
+    <row r="14" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B14" s="4"/>
+      <c r="C14" s="4"/>
+      <c r="D14" s="6"/>
+    </row>
+    <row r="15" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B15" s="4"/>
+      <c r="C15" s="4"/>
+      <c r="D15" s="6"/>
+    </row>
+    <row r="16" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B16" s="4"/>
+      <c r="C16" s="4"/>
+      <c r="D16" s="6"/>
+    </row>
+    <row r="17" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B17" s="4"/>
+      <c r="C17" s="4"/>
+      <c r="D17" s="6"/>
+    </row>
+    <row r="18" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B18" s="4"/>
+      <c r="C18" s="4"/>
+      <c r="D18" s="6"/>
+    </row>
+    <row r="19" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B19" s="4"/>
+      <c r="C19" s="4"/>
+      <c r="D19" s="6"/>
+    </row>
+    <row r="20" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B20" s="4"/>
+      <c r="C20" s="4"/>
+      <c r="D20" s="6"/>
+    </row>
+    <row r="21" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B21" s="4"/>
+      <c r="C21" s="4"/>
+      <c r="D21" s="6"/>
+    </row>
+    <row r="22" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B22" s="4"/>
+      <c r="C22" s="4"/>
+      <c r="D22" s="6"/>
+    </row>
+    <row r="23" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B23" s="4"/>
+      <c r="C23" s="4"/>
+      <c r="D23" s="6"/>
+    </row>
+    <row r="24" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B24" s="4"/>
+      <c r="C24" s="4"/>
+      <c r="D24" s="6"/>
+    </row>
+    <row r="25" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B25" s="4"/>
+      <c r="C25" s="4"/>
+      <c r="D25" s="6"/>
+    </row>
+    <row r="26" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B26" s="4"/>
+      <c r="C26" s="4"/>
+      <c r="D26" s="6"/>
+    </row>
+    <row r="27" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B27" s="4"/>
+      <c r="C27" s="4"/>
+      <c r="D27" s="6"/>
+    </row>
+    <row r="28" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B28" s="4"/>
+      <c r="C28" s="4"/>
+      <c r="D28" s="6"/>
+    </row>
+    <row r="29" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B29" s="4"/>
+      <c r="C29" s="4"/>
+      <c r="D29" s="6"/>
+    </row>
+    <row r="30" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B30" s="4"/>
+      <c r="C30" s="4"/>
+      <c r="D30" s="6"/>
+    </row>
+    <row r="31" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B31" s="4"/>
+      <c r="C31" s="4"/>
+      <c r="D31" s="6"/>
+    </row>
+    <row r="32" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B32" s="4"/>
+      <c r="C32" s="4"/>
+      <c r="D32" s="6"/>
+    </row>
+    <row r="33" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B33" s="4"/>
+      <c r="C33" s="4"/>
+      <c r="D33" s="6"/>
+    </row>
+    <row r="34" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B34" s="4"/>
+      <c r="C34" s="4"/>
+      <c r="D34" s="6"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B2:E100"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <pane xSplit="1" ySplit="2" topLeftCell="B18" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="B1" sqref="B1"/>
+      <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
+      <selection pane="bottomRight" activeCell="D30" sqref="D30"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="6.5" style="19" customWidth="1"/>
+    <col min="2" max="2" width="12.25" style="17" customWidth="1"/>
+    <col min="3" max="3" width="16.625" style="17" customWidth="1"/>
+    <col min="4" max="4" width="91.625" style="19" customWidth="1"/>
+    <col min="5" max="5" width="39.25" style="19" customWidth="1"/>
+    <col min="6" max="16384" width="9" style="19"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:5" s="18" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B2" s="20" t="s">
+        <v>31</v>
+      </c>
+      <c r="C2" s="20" t="s">
+        <v>32</v>
+      </c>
+      <c r="D2" s="20" t="s">
+        <v>33</v>
+      </c>
+      <c r="E2" s="20" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="3" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B3" s="22"/>
+      <c r="C3" s="22"/>
+      <c r="D3" s="21"/>
+      <c r="E3" s="21"/>
+    </row>
+    <row r="4" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B4" s="22"/>
+      <c r="C4" s="22"/>
+      <c r="D4" s="21"/>
+      <c r="E4" s="21"/>
+    </row>
+    <row r="5" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B5" s="22"/>
+      <c r="C5" s="22"/>
+      <c r="D5" s="21"/>
+      <c r="E5" s="21"/>
+    </row>
+    <row r="6" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B6" s="22"/>
+      <c r="C6" s="22"/>
+      <c r="D6" s="21"/>
+      <c r="E6" s="21"/>
+    </row>
+    <row r="7" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B7" s="22"/>
+      <c r="C7" s="22"/>
+      <c r="D7" s="21"/>
+      <c r="E7" s="21"/>
+    </row>
+    <row r="8" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B8" s="22"/>
+      <c r="C8" s="22"/>
+      <c r="D8" s="21"/>
+      <c r="E8" s="21"/>
+    </row>
+    <row r="9" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B9" s="22"/>
+      <c r="C9" s="22"/>
+      <c r="D9" s="21"/>
+      <c r="E9" s="21"/>
+    </row>
+    <row r="10" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B10" s="22"/>
+      <c r="C10" s="22"/>
+      <c r="D10" s="21"/>
+      <c r="E10" s="21"/>
+    </row>
+    <row r="11" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B11" s="22"/>
+      <c r="C11" s="22"/>
+      <c r="D11" s="21"/>
+      <c r="E11" s="21"/>
+    </row>
+    <row r="12" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B12" s="22"/>
+      <c r="C12" s="22"/>
+      <c r="D12" s="21"/>
+      <c r="E12" s="21"/>
+    </row>
+    <row r="13" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B13" s="22"/>
+      <c r="C13" s="22"/>
+      <c r="D13" s="21"/>
+      <c r="E13" s="21"/>
+    </row>
+    <row r="14" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B14" s="22"/>
+      <c r="C14" s="22"/>
+      <c r="D14" s="21"/>
+      <c r="E14" s="21"/>
+    </row>
+    <row r="15" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B15" s="22"/>
+      <c r="C15" s="22"/>
+      <c r="D15" s="21"/>
+      <c r="E15" s="21"/>
+    </row>
+    <row r="16" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B16" s="22"/>
+      <c r="C16" s="22"/>
+      <c r="D16" s="21"/>
+      <c r="E16" s="21"/>
+    </row>
+    <row r="17" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B17" s="22"/>
+      <c r="C17" s="22"/>
+      <c r="D17" s="21"/>
+      <c r="E17" s="21"/>
+    </row>
+    <row r="18" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B18" s="22"/>
+      <c r="C18" s="22"/>
+      <c r="D18" s="21"/>
+      <c r="E18" s="21"/>
+    </row>
+    <row r="19" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B19" s="22"/>
+      <c r="C19" s="22"/>
+      <c r="D19" s="21"/>
+      <c r="E19" s="21"/>
+    </row>
+    <row r="20" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B20" s="22"/>
+      <c r="C20" s="22"/>
+      <c r="D20" s="21"/>
+      <c r="E20" s="21"/>
+    </row>
+    <row r="21" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B21" s="22"/>
+      <c r="C21" s="22"/>
+      <c r="D21" s="21"/>
+      <c r="E21" s="21"/>
+    </row>
+    <row r="22" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B22" s="22"/>
+      <c r="C22" s="22"/>
+      <c r="D22" s="21"/>
+      <c r="E22" s="21"/>
+    </row>
+    <row r="23" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B23" s="22"/>
+      <c r="C23" s="22"/>
+      <c r="D23" s="21"/>
+      <c r="E23" s="21"/>
+    </row>
+    <row r="24" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B24" s="22"/>
+      <c r="C24" s="22"/>
+      <c r="D24" s="21"/>
+      <c r="E24" s="21"/>
+    </row>
+    <row r="25" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B25" s="22"/>
+      <c r="C25" s="22"/>
+      <c r="D25" s="21"/>
+      <c r="E25" s="21"/>
+    </row>
+    <row r="26" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B26" s="22"/>
+      <c r="C26" s="22"/>
+      <c r="D26" s="21"/>
+      <c r="E26" s="21"/>
+    </row>
+    <row r="27" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B27" s="22"/>
+      <c r="C27" s="22"/>
+      <c r="D27" s="21"/>
+      <c r="E27" s="21"/>
+    </row>
+    <row r="28" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B28" s="22"/>
+      <c r="C28" s="22"/>
+      <c r="D28" s="21"/>
+      <c r="E28" s="21"/>
+    </row>
+    <row r="29" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B29" s="22"/>
+      <c r="C29" s="22"/>
+      <c r="D29" s="21"/>
+      <c r="E29" s="21"/>
+    </row>
+    <row r="30" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B30" s="22"/>
+      <c r="C30" s="22"/>
+      <c r="D30" s="21"/>
+      <c r="E30" s="21"/>
+    </row>
+    <row r="31" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B31" s="22"/>
+      <c r="C31" s="22"/>
+      <c r="D31" s="21"/>
+      <c r="E31" s="21"/>
+    </row>
+    <row r="32" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B32" s="22"/>
+      <c r="C32" s="22"/>
+      <c r="D32" s="21"/>
+      <c r="E32" s="21"/>
+    </row>
+    <row r="33" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B33" s="22"/>
+      <c r="C33" s="22"/>
+      <c r="D33" s="21"/>
+      <c r="E33" s="21"/>
+    </row>
+    <row r="34" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B34" s="22"/>
+      <c r="C34" s="22"/>
+      <c r="D34" s="21"/>
+      <c r="E34" s="21"/>
+    </row>
+    <row r="35" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B35" s="22"/>
+      <c r="C35" s="22"/>
+      <c r="D35" s="21"/>
+      <c r="E35" s="21"/>
+    </row>
+    <row r="36" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B36" s="22"/>
+      <c r="C36" s="22"/>
+      <c r="D36" s="21"/>
+      <c r="E36" s="21"/>
+    </row>
+    <row r="37" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B37" s="22"/>
+      <c r="C37" s="22"/>
+      <c r="D37" s="21"/>
+      <c r="E37" s="21"/>
+    </row>
+    <row r="38" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B38" s="22"/>
+      <c r="C38" s="22"/>
+      <c r="D38" s="21"/>
+      <c r="E38" s="21"/>
+    </row>
+    <row r="39" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B39" s="22"/>
+      <c r="C39" s="22"/>
+      <c r="D39" s="21"/>
+      <c r="E39" s="21"/>
+    </row>
+    <row r="40" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B40" s="22"/>
+      <c r="C40" s="22"/>
+      <c r="D40" s="21"/>
+      <c r="E40" s="21"/>
+    </row>
+    <row r="41" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B41" s="22"/>
+      <c r="C41" s="22"/>
+      <c r="D41" s="21"/>
+      <c r="E41" s="21"/>
+    </row>
+    <row r="42" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B42" s="22"/>
+      <c r="C42" s="22"/>
+      <c r="D42" s="21"/>
+      <c r="E42" s="21"/>
+    </row>
+    <row r="43" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B43" s="22"/>
+      <c r="C43" s="22"/>
+      <c r="D43" s="21"/>
+      <c r="E43" s="21"/>
+    </row>
+    <row r="44" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B44" s="22"/>
+      <c r="C44" s="22"/>
+      <c r="D44" s="21"/>
+      <c r="E44" s="21"/>
+    </row>
+    <row r="45" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B45" s="22"/>
+      <c r="C45" s="22"/>
+      <c r="D45" s="21"/>
+      <c r="E45" s="21"/>
+    </row>
+    <row r="46" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B46" s="22"/>
+      <c r="C46" s="22"/>
+      <c r="D46" s="21"/>
+      <c r="E46" s="21"/>
+    </row>
+    <row r="47" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B47" s="22"/>
+      <c r="C47" s="22"/>
+      <c r="D47" s="21"/>
+      <c r="E47" s="21"/>
+    </row>
+    <row r="48" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B48" s="22"/>
+      <c r="C48" s="22"/>
+      <c r="D48" s="21"/>
+      <c r="E48" s="21"/>
+    </row>
+    <row r="49" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B49" s="22"/>
+      <c r="C49" s="22"/>
+      <c r="D49" s="21"/>
+      <c r="E49" s="21"/>
+    </row>
+    <row r="50" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B50" s="22"/>
+      <c r="C50" s="22"/>
+      <c r="D50" s="21"/>
+      <c r="E50" s="21"/>
+    </row>
+    <row r="51" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B51" s="22"/>
+      <c r="C51" s="22"/>
+      <c r="D51" s="21"/>
+      <c r="E51" s="21"/>
+    </row>
+    <row r="52" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B52" s="22"/>
+      <c r="C52" s="22"/>
+      <c r="D52" s="21"/>
+      <c r="E52" s="21"/>
+    </row>
+    <row r="53" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B53" s="22"/>
+      <c r="C53" s="22"/>
+      <c r="D53" s="21"/>
+      <c r="E53" s="21"/>
+    </row>
+    <row r="54" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B54" s="22"/>
+      <c r="C54" s="22"/>
+      <c r="D54" s="21"/>
+      <c r="E54" s="21"/>
+    </row>
+    <row r="55" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B55" s="22"/>
+      <c r="C55" s="22"/>
+      <c r="D55" s="21"/>
+      <c r="E55" s="21"/>
+    </row>
+    <row r="56" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B56" s="22"/>
+      <c r="C56" s="22"/>
+      <c r="D56" s="21"/>
+      <c r="E56" s="21"/>
+    </row>
+    <row r="57" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B57" s="22"/>
+      <c r="C57" s="22"/>
+      <c r="D57" s="21"/>
+      <c r="E57" s="21"/>
+    </row>
+    <row r="58" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B58" s="22"/>
+      <c r="C58" s="22"/>
+      <c r="D58" s="21"/>
+      <c r="E58" s="21"/>
+    </row>
+    <row r="59" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B59" s="22"/>
+      <c r="C59" s="22"/>
+      <c r="D59" s="21"/>
+      <c r="E59" s="21"/>
+    </row>
+    <row r="60" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B60" s="22"/>
+      <c r="C60" s="22"/>
+      <c r="D60" s="21"/>
+      <c r="E60" s="21"/>
+    </row>
+    <row r="61" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B61" s="22"/>
+      <c r="C61" s="22"/>
+      <c r="D61" s="21"/>
+      <c r="E61" s="21"/>
+    </row>
+    <row r="62" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B62" s="22"/>
+      <c r="C62" s="22"/>
+      <c r="D62" s="21"/>
+      <c r="E62" s="21"/>
+    </row>
+    <row r="63" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B63" s="22"/>
+      <c r="C63" s="22"/>
+      <c r="D63" s="21"/>
+      <c r="E63" s="21"/>
+    </row>
+    <row r="64" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B64" s="22"/>
+      <c r="C64" s="22"/>
+      <c r="D64" s="21"/>
+      <c r="E64" s="21"/>
+    </row>
+    <row r="65" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B65" s="22"/>
+      <c r="C65" s="22"/>
+      <c r="D65" s="21"/>
+      <c r="E65" s="21"/>
+    </row>
+    <row r="66" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B66" s="22"/>
+      <c r="C66" s="22"/>
+      <c r="D66" s="21"/>
+      <c r="E66" s="21"/>
+    </row>
+    <row r="67" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B67" s="22"/>
+      <c r="C67" s="22"/>
+      <c r="D67" s="21"/>
+      <c r="E67" s="21"/>
+    </row>
+    <row r="68" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B68" s="22"/>
+      <c r="C68" s="22"/>
+      <c r="D68" s="21"/>
+      <c r="E68" s="21"/>
+    </row>
+    <row r="69" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B69" s="22"/>
+      <c r="C69" s="22"/>
+      <c r="D69" s="21"/>
+      <c r="E69" s="21"/>
+    </row>
+    <row r="70" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B70" s="22"/>
+      <c r="C70" s="22"/>
+      <c r="D70" s="21"/>
+      <c r="E70" s="21"/>
+    </row>
+    <row r="71" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B71" s="22"/>
+      <c r="C71" s="22"/>
+      <c r="D71" s="21"/>
+      <c r="E71" s="21"/>
+    </row>
+    <row r="72" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B72" s="22"/>
+      <c r="C72" s="22"/>
+      <c r="D72" s="21"/>
+      <c r="E72" s="21"/>
+    </row>
+    <row r="73" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B73" s="22"/>
+      <c r="C73" s="22"/>
+      <c r="D73" s="21"/>
+      <c r="E73" s="21"/>
+    </row>
+    <row r="74" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B74" s="22"/>
+      <c r="C74" s="22"/>
+      <c r="D74" s="21"/>
+      <c r="E74" s="21"/>
+    </row>
+    <row r="75" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B75" s="22"/>
+      <c r="C75" s="22"/>
+      <c r="D75" s="21"/>
+      <c r="E75" s="21"/>
+    </row>
+    <row r="76" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B76" s="22"/>
+      <c r="C76" s="22"/>
+      <c r="D76" s="21"/>
+      <c r="E76" s="21"/>
+    </row>
+    <row r="77" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B77" s="22"/>
+      <c r="C77" s="22"/>
+      <c r="D77" s="21"/>
+      <c r="E77" s="21"/>
+    </row>
+    <row r="78" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B78" s="22"/>
+      <c r="C78" s="22"/>
+      <c r="D78" s="21"/>
+      <c r="E78" s="21"/>
+    </row>
+    <row r="79" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B79" s="22"/>
+      <c r="C79" s="22"/>
+      <c r="D79" s="21"/>
+      <c r="E79" s="21"/>
+    </row>
+    <row r="80" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B80" s="22"/>
+      <c r="C80" s="22"/>
+      <c r="D80" s="21"/>
+      <c r="E80" s="21"/>
+    </row>
+    <row r="81" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B81" s="22"/>
+      <c r="C81" s="22"/>
+      <c r="D81" s="21"/>
+      <c r="E81" s="21"/>
+    </row>
+    <row r="82" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B82" s="22"/>
+      <c r="C82" s="22"/>
+      <c r="D82" s="21"/>
+      <c r="E82" s="21"/>
+    </row>
+    <row r="83" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B83" s="22"/>
+      <c r="C83" s="22"/>
+      <c r="D83" s="21"/>
+      <c r="E83" s="21"/>
+    </row>
+    <row r="84" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B84" s="22"/>
+      <c r="C84" s="22"/>
+      <c r="D84" s="21"/>
+      <c r="E84" s="21"/>
+    </row>
+    <row r="85" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B85" s="22"/>
+      <c r="C85" s="22"/>
+      <c r="D85" s="21"/>
+      <c r="E85" s="21"/>
+    </row>
+    <row r="86" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B86" s="22"/>
+      <c r="C86" s="22"/>
+      <c r="D86" s="21"/>
+      <c r="E86" s="21"/>
+    </row>
+    <row r="87" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B87" s="22"/>
+      <c r="C87" s="22"/>
+      <c r="D87" s="21"/>
+      <c r="E87" s="21"/>
+    </row>
+    <row r="88" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B88" s="22"/>
+      <c r="C88" s="22"/>
+      <c r="D88" s="21"/>
+      <c r="E88" s="21"/>
+    </row>
+    <row r="89" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B89" s="22"/>
+      <c r="C89" s="22"/>
+      <c r="D89" s="21"/>
+      <c r="E89" s="21"/>
+    </row>
+    <row r="90" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B90" s="22"/>
+      <c r="C90" s="22"/>
+      <c r="D90" s="21"/>
+      <c r="E90" s="21"/>
+    </row>
+    <row r="91" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B91" s="22"/>
+      <c r="C91" s="22"/>
+      <c r="D91" s="21"/>
+      <c r="E91" s="21"/>
+    </row>
+    <row r="92" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B92" s="22"/>
+      <c r="C92" s="22"/>
+      <c r="D92" s="21"/>
+      <c r="E92" s="21"/>
+    </row>
+    <row r="93" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B93" s="22"/>
+      <c r="C93" s="22"/>
+      <c r="D93" s="21"/>
+      <c r="E93" s="21"/>
+    </row>
+    <row r="94" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B94" s="22"/>
+      <c r="C94" s="22"/>
+      <c r="D94" s="21"/>
+      <c r="E94" s="21"/>
+    </row>
+    <row r="95" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B95" s="22"/>
+      <c r="C95" s="22"/>
+      <c r="D95" s="21"/>
+      <c r="E95" s="21"/>
+    </row>
+    <row r="96" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B96" s="22"/>
+      <c r="C96" s="22"/>
+      <c r="D96" s="21"/>
+      <c r="E96" s="21"/>
+    </row>
+    <row r="97" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B97" s="22"/>
+      <c r="C97" s="22"/>
+      <c r="D97" s="21"/>
+      <c r="E97" s="21"/>
+    </row>
+    <row r="98" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B98" s="22"/>
+      <c r="C98" s="22"/>
+      <c r="D98" s="21"/>
+      <c r="E98" s="21"/>
+    </row>
+    <row r="99" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B99" s="22"/>
+      <c r="C99" s="22"/>
+      <c r="D99" s="21"/>
+      <c r="E99" s="21"/>
+    </row>
+    <row r="100" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B100" s="22"/>
+      <c r="C100" s="22"/>
+      <c r="D100" s="21"/>
+      <c r="E100" s="21"/>
+    </row>
+  </sheetData>
+  <autoFilter ref="B2:E2"/>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B2:I100"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="1" ySplit="2" topLeftCell="B3" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="B1" sqref="B1"/>
+      <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
+      <selection pane="bottomRight" activeCell="I17" sqref="I17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="7.75" style="1" customWidth="1"/>
+    <col min="2" max="2" width="11.625" style="9" customWidth="1"/>
+    <col min="3" max="3" width="13.5" style="2" customWidth="1"/>
+    <col min="4" max="4" width="10.75" style="9" customWidth="1"/>
+    <col min="5" max="5" width="11" style="10" customWidth="1"/>
+    <col min="6" max="6" width="11.375" style="9" customWidth="1"/>
+    <col min="7" max="7" width="10" style="10" customWidth="1"/>
+    <col min="8" max="8" width="10.125" style="11" customWidth="1"/>
+    <col min="9" max="9" width="34.375" style="2" customWidth="1"/>
+    <col min="10" max="16384" width="9" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:9" s="8" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B2" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="E2" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="G2" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="H2" s="13" t="s">
+        <v>14</v>
+      </c>
+      <c r="I2" s="3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="3" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B3" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="C3" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="D3" s="14" t="s">
+        <v>20</v>
+      </c>
+      <c r="E3" s="15">
+        <v>1630</v>
+      </c>
+      <c r="F3" s="14" t="s">
+        <v>25</v>
+      </c>
+      <c r="G3" s="15">
+        <v>1685</v>
+      </c>
+      <c r="H3" s="16">
+        <f>IF(G3="", "", IFERROR( ((G3-E3)/E3), ""))</f>
+        <v>3.3742331288343558E-2</v>
+      </c>
+      <c r="I3" s="6"/>
+    </row>
+    <row r="4" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B4" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="C4" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="D4" s="14" t="s">
+        <v>20</v>
+      </c>
+      <c r="E4" s="15">
+        <v>1315</v>
+      </c>
+      <c r="F4" s="14" t="s">
+        <v>26</v>
+      </c>
+      <c r="G4" s="15">
+        <v>1200</v>
+      </c>
+      <c r="H4" s="16">
+        <f t="shared" ref="H4:H67" si="0">IF(G4="", "", IFERROR( ((G4-E4)/E4), ""))</f>
+        <v>-8.7452471482889732E-2</v>
+      </c>
+      <c r="I4" s="6"/>
+    </row>
+    <row r="5" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B5" s="14" t="s">
+        <v>23</v>
+      </c>
+      <c r="C5" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="D5" s="14" t="s">
+        <v>20</v>
+      </c>
+      <c r="E5" s="15">
+        <v>15800</v>
+      </c>
+      <c r="F5" s="14" t="s">
+        <v>25</v>
+      </c>
+      <c r="G5" s="15">
+        <v>15800</v>
+      </c>
+      <c r="H5" s="16">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I5" s="6"/>
+    </row>
+    <row r="6" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B6" s="14"/>
+      <c r="C6" s="6"/>
+      <c r="D6" s="14"/>
+      <c r="E6" s="15"/>
+      <c r="F6" s="14"/>
+      <c r="G6" s="15"/>
+      <c r="H6" s="16" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="I6" s="6"/>
+    </row>
+    <row r="7" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B7" s="14"/>
+      <c r="C7" s="6"/>
+      <c r="D7" s="14"/>
+      <c r="E7" s="15"/>
+      <c r="F7" s="14"/>
+      <c r="G7" s="15"/>
+      <c r="H7" s="16" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="I7" s="6"/>
+    </row>
+    <row r="8" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B8" s="14"/>
+      <c r="C8" s="6"/>
+      <c r="D8" s="14"/>
+      <c r="E8" s="15"/>
+      <c r="F8" s="14"/>
+      <c r="G8" s="15"/>
+      <c r="H8" s="16" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="I8" s="6"/>
+    </row>
+    <row r="9" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B9" s="14"/>
+      <c r="C9" s="6"/>
+      <c r="D9" s="14"/>
+      <c r="E9" s="15"/>
+      <c r="F9" s="14"/>
+      <c r="G9" s="15"/>
+      <c r="H9" s="16" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="I9" s="6"/>
+    </row>
+    <row r="10" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B10" s="14"/>
+      <c r="C10" s="6"/>
+      <c r="D10" s="14"/>
+      <c r="E10" s="15"/>
+      <c r="F10" s="14"/>
+      <c r="G10" s="15"/>
+      <c r="H10" s="16" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="I10" s="6"/>
+    </row>
+    <row r="11" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B11" s="14"/>
+      <c r="C11" s="6"/>
+      <c r="D11" s="14"/>
+      <c r="E11" s="15"/>
+      <c r="F11" s="14"/>
+      <c r="G11" s="15"/>
+      <c r="H11" s="16" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="I11" s="6"/>
+    </row>
+    <row r="12" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B12" s="14"/>
+      <c r="C12" s="6"/>
+      <c r="D12" s="14"/>
+      <c r="E12" s="15"/>
+      <c r="F12" s="14"/>
+      <c r="G12" s="15"/>
+      <c r="H12" s="16" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="I12" s="6"/>
+    </row>
+    <row r="13" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B13" s="14"/>
+      <c r="C13" s="6"/>
+      <c r="D13" s="14"/>
+      <c r="E13" s="15"/>
+      <c r="F13" s="14"/>
+      <c r="G13" s="15"/>
+      <c r="H13" s="16" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="I13" s="6"/>
+    </row>
+    <row r="14" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B14" s="14"/>
+      <c r="C14" s="6"/>
+      <c r="D14" s="14"/>
+      <c r="E14" s="15"/>
+      <c r="F14" s="14"/>
+      <c r="G14" s="15"/>
+      <c r="H14" s="16" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="I14" s="6"/>
+    </row>
+    <row r="15" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B15" s="14"/>
+      <c r="C15" s="6"/>
+      <c r="D15" s="14"/>
+      <c r="E15" s="15"/>
+      <c r="F15" s="14"/>
+      <c r="G15" s="15"/>
+      <c r="H15" s="16" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="I15" s="6"/>
+    </row>
+    <row r="16" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B16" s="14"/>
+      <c r="C16" s="6"/>
+      <c r="D16" s="14"/>
+      <c r="E16" s="15"/>
+      <c r="F16" s="14"/>
+      <c r="G16" s="15"/>
+      <c r="H16" s="16" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="I16" s="6"/>
+    </row>
+    <row r="17" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B17" s="14"/>
+      <c r="C17" s="6"/>
+      <c r="D17" s="14"/>
+      <c r="E17" s="15"/>
+      <c r="F17" s="14"/>
+      <c r="G17" s="15"/>
+      <c r="H17" s="16" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="I17" s="6"/>
+    </row>
+    <row r="18" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B18" s="14"/>
+      <c r="C18" s="6"/>
+      <c r="D18" s="14"/>
+      <c r="E18" s="15"/>
+      <c r="F18" s="14"/>
+      <c r="G18" s="15"/>
+      <c r="H18" s="16" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="I18" s="6"/>
+    </row>
+    <row r="19" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B19" s="14"/>
+      <c r="C19" s="6"/>
+      <c r="D19" s="14"/>
+      <c r="E19" s="15"/>
+      <c r="F19" s="14"/>
+      <c r="G19" s="15"/>
+      <c r="H19" s="16" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="I19" s="6"/>
+    </row>
+    <row r="20" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B20" s="14"/>
+      <c r="C20" s="6"/>
+      <c r="D20" s="14"/>
+      <c r="E20" s="15"/>
+      <c r="F20" s="14"/>
+      <c r="G20" s="15"/>
+      <c r="H20" s="16" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="I20" s="6"/>
+    </row>
+    <row r="21" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B21" s="14"/>
+      <c r="C21" s="6"/>
+      <c r="D21" s="14"/>
+      <c r="E21" s="15"/>
+      <c r="F21" s="14"/>
+      <c r="G21" s="15"/>
+      <c r="H21" s="16" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="I21" s="6"/>
+    </row>
+    <row r="22" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B22" s="14"/>
+      <c r="C22" s="6"/>
+      <c r="D22" s="14"/>
+      <c r="E22" s="15"/>
+      <c r="F22" s="14"/>
+      <c r="G22" s="15"/>
+      <c r="H22" s="16" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="I22" s="6"/>
+    </row>
+    <row r="23" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B23" s="14"/>
+      <c r="C23" s="6"/>
+      <c r="D23" s="14"/>
+      <c r="E23" s="15"/>
+      <c r="F23" s="14"/>
+      <c r="G23" s="15"/>
+      <c r="H23" s="16" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="I23" s="6"/>
+    </row>
+    <row r="24" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B24" s="14"/>
+      <c r="C24" s="6"/>
+      <c r="D24" s="14"/>
+      <c r="E24" s="15"/>
+      <c r="F24" s="14"/>
+      <c r="G24" s="15"/>
+      <c r="H24" s="16" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="I24" s="6"/>
+    </row>
+    <row r="25" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B25" s="14"/>
+      <c r="C25" s="6"/>
+      <c r="D25" s="14"/>
+      <c r="E25" s="15"/>
+      <c r="F25" s="14"/>
+      <c r="G25" s="15"/>
+      <c r="H25" s="16" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="I25" s="6"/>
+    </row>
+    <row r="26" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B26" s="14"/>
+      <c r="C26" s="6"/>
+      <c r="D26" s="14"/>
+      <c r="E26" s="15"/>
+      <c r="F26" s="14"/>
+      <c r="G26" s="15"/>
+      <c r="H26" s="16" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="I26" s="6"/>
+    </row>
+    <row r="27" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B27" s="14"/>
+      <c r="C27" s="6"/>
+      <c r="D27" s="14"/>
+      <c r="E27" s="15"/>
+      <c r="F27" s="14"/>
+      <c r="G27" s="15"/>
+      <c r="H27" s="16" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="I27" s="6"/>
+    </row>
+    <row r="28" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B28" s="14"/>
+      <c r="C28" s="6"/>
+      <c r="D28" s="14"/>
+      <c r="E28" s="15"/>
+      <c r="F28" s="14"/>
+      <c r="G28" s="15"/>
+      <c r="H28" s="16" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="I28" s="6"/>
+    </row>
+    <row r="29" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B29" s="14"/>
+      <c r="C29" s="6"/>
+      <c r="D29" s="14"/>
+      <c r="E29" s="15"/>
+      <c r="F29" s="14"/>
+      <c r="G29" s="15"/>
+      <c r="H29" s="16" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="I29" s="6"/>
+    </row>
+    <row r="30" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B30" s="14"/>
+      <c r="C30" s="6"/>
+      <c r="D30" s="14"/>
+      <c r="E30" s="15"/>
+      <c r="F30" s="14"/>
+      <c r="G30" s="15"/>
+      <c r="H30" s="16" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="I30" s="6"/>
+    </row>
+    <row r="31" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B31" s="14"/>
+      <c r="C31" s="6"/>
+      <c r="D31" s="14"/>
+      <c r="E31" s="15"/>
+      <c r="F31" s="14"/>
+      <c r="G31" s="15"/>
+      <c r="H31" s="16" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="I31" s="6"/>
+    </row>
+    <row r="32" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B32" s="14"/>
+      <c r="C32" s="6"/>
+      <c r="D32" s="14"/>
+      <c r="E32" s="15"/>
+      <c r="F32" s="14"/>
+      <c r="G32" s="15"/>
+      <c r="H32" s="16" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="I32" s="6"/>
+    </row>
+    <row r="33" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B33" s="14"/>
+      <c r="C33" s="6"/>
+      <c r="D33" s="14"/>
+      <c r="E33" s="15"/>
+      <c r="F33" s="14"/>
+      <c r="G33" s="15"/>
+      <c r="H33" s="16" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="I33" s="6"/>
+    </row>
+    <row r="34" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B34" s="14"/>
+      <c r="C34" s="6"/>
+      <c r="D34" s="14"/>
+      <c r="E34" s="15"/>
+      <c r="F34" s="14"/>
+      <c r="G34" s="15"/>
+      <c r="H34" s="16" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="I34" s="6"/>
+    </row>
+    <row r="35" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B35" s="14"/>
+      <c r="C35" s="6"/>
+      <c r="D35" s="14"/>
+      <c r="E35" s="15"/>
+      <c r="F35" s="14"/>
+      <c r="G35" s="15"/>
+      <c r="H35" s="16" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="I35" s="6"/>
+    </row>
+    <row r="36" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B36" s="14"/>
+      <c r="C36" s="6"/>
+      <c r="D36" s="14"/>
+      <c r="E36" s="15"/>
+      <c r="F36" s="14"/>
+      <c r="G36" s="15"/>
+      <c r="H36" s="16" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="I36" s="6"/>
+    </row>
+    <row r="37" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B37" s="14"/>
+      <c r="C37" s="6"/>
+      <c r="D37" s="14"/>
+      <c r="E37" s="15"/>
+      <c r="F37" s="14"/>
+      <c r="G37" s="15"/>
+      <c r="H37" s="16" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="I37" s="6"/>
+    </row>
+    <row r="38" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B38" s="14"/>
+      <c r="C38" s="6"/>
+      <c r="D38" s="14"/>
+      <c r="E38" s="15"/>
+      <c r="F38" s="14"/>
+      <c r="G38" s="15"/>
+      <c r="H38" s="16" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="I38" s="6"/>
+    </row>
+    <row r="39" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B39" s="14"/>
+      <c r="C39" s="6"/>
+      <c r="D39" s="14"/>
+      <c r="E39" s="15"/>
+      <c r="F39" s="14"/>
+      <c r="G39" s="15"/>
+      <c r="H39" s="16" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="I39" s="6"/>
+    </row>
+    <row r="40" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B40" s="14"/>
+      <c r="C40" s="6"/>
+      <c r="D40" s="14"/>
+      <c r="E40" s="15"/>
+      <c r="F40" s="14"/>
+      <c r="G40" s="15"/>
+      <c r="H40" s="16" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="I40" s="6"/>
+    </row>
+    <row r="41" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B41" s="14"/>
+      <c r="C41" s="6"/>
+      <c r="D41" s="14"/>
+      <c r="E41" s="15"/>
+      <c r="F41" s="14"/>
+      <c r="G41" s="15"/>
+      <c r="H41" s="16" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="I41" s="6"/>
+    </row>
+    <row r="42" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B42" s="14"/>
+      <c r="C42" s="6"/>
+      <c r="D42" s="14"/>
+      <c r="E42" s="15"/>
+      <c r="F42" s="14"/>
+      <c r="G42" s="15"/>
+      <c r="H42" s="16" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="I42" s="6"/>
+    </row>
+    <row r="43" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B43" s="14"/>
+      <c r="C43" s="6"/>
+      <c r="D43" s="14"/>
+      <c r="E43" s="15"/>
+      <c r="F43" s="14"/>
+      <c r="G43" s="15"/>
+      <c r="H43" s="16" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="I43" s="6"/>
+    </row>
+    <row r="44" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B44" s="14"/>
+      <c r="C44" s="6"/>
+      <c r="D44" s="14"/>
+      <c r="E44" s="15"/>
+      <c r="F44" s="14"/>
+      <c r="G44" s="15"/>
+      <c r="H44" s="16" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="I44" s="6"/>
+    </row>
+    <row r="45" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B45" s="14"/>
+      <c r="C45" s="6"/>
+      <c r="D45" s="14"/>
+      <c r="E45" s="15"/>
+      <c r="F45" s="14"/>
+      <c r="G45" s="15"/>
+      <c r="H45" s="16" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="I45" s="6"/>
+    </row>
+    <row r="46" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B46" s="14"/>
+      <c r="C46" s="6"/>
+      <c r="D46" s="14"/>
+      <c r="E46" s="15"/>
+      <c r="F46" s="14"/>
+      <c r="G46" s="15"/>
+      <c r="H46" s="16" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="I46" s="6"/>
+    </row>
+    <row r="47" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B47" s="14"/>
+      <c r="C47" s="6"/>
+      <c r="D47" s="14"/>
+      <c r="E47" s="15"/>
+      <c r="F47" s="14"/>
+      <c r="G47" s="15"/>
+      <c r="H47" s="16" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="I47" s="6"/>
+    </row>
+    <row r="48" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B48" s="14"/>
+      <c r="C48" s="6"/>
+      <c r="D48" s="14"/>
+      <c r="E48" s="15"/>
+      <c r="F48" s="14"/>
+      <c r="G48" s="15"/>
+      <c r="H48" s="16" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="I48" s="6"/>
+    </row>
+    <row r="49" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B49" s="14"/>
+      <c r="C49" s="6"/>
+      <c r="D49" s="14"/>
+      <c r="E49" s="15"/>
+      <c r="F49" s="14"/>
+      <c r="G49" s="15"/>
+      <c r="H49" s="16" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="I49" s="6"/>
+    </row>
+    <row r="50" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B50" s="14"/>
+      <c r="C50" s="6"/>
+      <c r="D50" s="14"/>
+      <c r="E50" s="15"/>
+      <c r="F50" s="14"/>
+      <c r="G50" s="15"/>
+      <c r="H50" s="16" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="I50" s="6"/>
+    </row>
+    <row r="51" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B51" s="14"/>
+      <c r="C51" s="6"/>
+      <c r="D51" s="14"/>
+      <c r="E51" s="15"/>
+      <c r="F51" s="14"/>
+      <c r="G51" s="15"/>
+      <c r="H51" s="16" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="I51" s="6"/>
+    </row>
+    <row r="52" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B52" s="14"/>
+      <c r="C52" s="6"/>
+      <c r="D52" s="14"/>
+      <c r="E52" s="15"/>
+      <c r="F52" s="14"/>
+      <c r="G52" s="15"/>
+      <c r="H52" s="16" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="I52" s="6"/>
+    </row>
+    <row r="53" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B53" s="14"/>
+      <c r="C53" s="6"/>
+      <c r="D53" s="14"/>
+      <c r="E53" s="15"/>
+      <c r="F53" s="14"/>
+      <c r="G53" s="15"/>
+      <c r="H53" s="16" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="I53" s="6"/>
+    </row>
+    <row r="54" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B54" s="14"/>
+      <c r="C54" s="6"/>
+      <c r="D54" s="14"/>
+      <c r="E54" s="15"/>
+      <c r="F54" s="14"/>
+      <c r="G54" s="15"/>
+      <c r="H54" s="16" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="I54" s="6"/>
+    </row>
+    <row r="55" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B55" s="14"/>
+      <c r="C55" s="6"/>
+      <c r="D55" s="14"/>
+      <c r="E55" s="15"/>
+      <c r="F55" s="14"/>
+      <c r="G55" s="15"/>
+      <c r="H55" s="16" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="I55" s="6"/>
+    </row>
+    <row r="56" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B56" s="14"/>
+      <c r="C56" s="6"/>
+      <c r="D56" s="14"/>
+      <c r="E56" s="15"/>
+      <c r="F56" s="14"/>
+      <c r="G56" s="15"/>
+      <c r="H56" s="16" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="I56" s="6"/>
+    </row>
+    <row r="57" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B57" s="14"/>
+      <c r="C57" s="6"/>
+      <c r="D57" s="14"/>
+      <c r="E57" s="15"/>
+      <c r="F57" s="14"/>
+      <c r="G57" s="15"/>
+      <c r="H57" s="16" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="I57" s="6"/>
+    </row>
+    <row r="58" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B58" s="14"/>
+      <c r="C58" s="6"/>
+      <c r="D58" s="14"/>
+      <c r="E58" s="15"/>
+      <c r="F58" s="14"/>
+      <c r="G58" s="15"/>
+      <c r="H58" s="16" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="I58" s="6"/>
+    </row>
+    <row r="59" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B59" s="14"/>
+      <c r="C59" s="6"/>
+      <c r="D59" s="14"/>
+      <c r="E59" s="15"/>
+      <c r="F59" s="14"/>
+      <c r="G59" s="15"/>
+      <c r="H59" s="16" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="I59" s="6"/>
+    </row>
+    <row r="60" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B60" s="14"/>
+      <c r="C60" s="6"/>
+      <c r="D60" s="14"/>
+      <c r="E60" s="15"/>
+      <c r="F60" s="14"/>
+      <c r="G60" s="15"/>
+      <c r="H60" s="16" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="I60" s="6"/>
+    </row>
+    <row r="61" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B61" s="14"/>
+      <c r="C61" s="6"/>
+      <c r="D61" s="14"/>
+      <c r="E61" s="15"/>
+      <c r="F61" s="14"/>
+      <c r="G61" s="15"/>
+      <c r="H61" s="16" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="I61" s="6"/>
+    </row>
+    <row r="62" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B62" s="14"/>
+      <c r="C62" s="6"/>
+      <c r="D62" s="14"/>
+      <c r="E62" s="15"/>
+      <c r="F62" s="14"/>
+      <c r="G62" s="15"/>
+      <c r="H62" s="16" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="I62" s="6"/>
+    </row>
+    <row r="63" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B63" s="14"/>
+      <c r="C63" s="6"/>
+      <c r="D63" s="14"/>
+      <c r="E63" s="15"/>
+      <c r="F63" s="14"/>
+      <c r="G63" s="15"/>
+      <c r="H63" s="16" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="I63" s="6"/>
+    </row>
+    <row r="64" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B64" s="14"/>
+      <c r="C64" s="6"/>
+      <c r="D64" s="14"/>
+      <c r="E64" s="15"/>
+      <c r="F64" s="14"/>
+      <c r="G64" s="15"/>
+      <c r="H64" s="16" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="I64" s="6"/>
+    </row>
+    <row r="65" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B65" s="14"/>
+      <c r="C65" s="6"/>
+      <c r="D65" s="14"/>
+      <c r="E65" s="15"/>
+      <c r="F65" s="14"/>
+      <c r="G65" s="15"/>
+      <c r="H65" s="16" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="I65" s="6"/>
+    </row>
+    <row r="66" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B66" s="14"/>
+      <c r="C66" s="6"/>
+      <c r="D66" s="14"/>
+      <c r="E66" s="15"/>
+      <c r="F66" s="14"/>
+      <c r="G66" s="15"/>
+      <c r="H66" s="16" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="I66" s="6"/>
+    </row>
+    <row r="67" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B67" s="14"/>
+      <c r="C67" s="6"/>
+      <c r="D67" s="14"/>
+      <c r="E67" s="15"/>
+      <c r="F67" s="14"/>
+      <c r="G67" s="15"/>
+      <c r="H67" s="16" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="I67" s="6"/>
+    </row>
+    <row r="68" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B68" s="14"/>
+      <c r="C68" s="6"/>
+      <c r="D68" s="14"/>
+      <c r="E68" s="15"/>
+      <c r="F68" s="14"/>
+      <c r="G68" s="15"/>
+      <c r="H68" s="16" t="str">
+        <f t="shared" ref="H68:H100" si="1">IF(G68="", "", IFERROR( ((G68-E68)/E68), ""))</f>
+        <v/>
+      </c>
+      <c r="I68" s="6"/>
+    </row>
+    <row r="69" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B69" s="14"/>
+      <c r="C69" s="6"/>
+      <c r="D69" s="14"/>
+      <c r="E69" s="15"/>
+      <c r="F69" s="14"/>
+      <c r="G69" s="15"/>
+      <c r="H69" s="16" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="I69" s="6"/>
+    </row>
+    <row r="70" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B70" s="14"/>
+      <c r="C70" s="6"/>
+      <c r="D70" s="14"/>
+      <c r="E70" s="15"/>
+      <c r="F70" s="14"/>
+      <c r="G70" s="15"/>
+      <c r="H70" s="16" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="I70" s="6"/>
+    </row>
+    <row r="71" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B71" s="14"/>
+      <c r="C71" s="6"/>
+      <c r="D71" s="14"/>
+      <c r="E71" s="15"/>
+      <c r="F71" s="14"/>
+      <c r="G71" s="15"/>
+      <c r="H71" s="16" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="I71" s="6"/>
+    </row>
+    <row r="72" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B72" s="14"/>
+      <c r="C72" s="6"/>
+      <c r="D72" s="14"/>
+      <c r="E72" s="15"/>
+      <c r="F72" s="14"/>
+      <c r="G72" s="15"/>
+      <c r="H72" s="16" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="I72" s="6"/>
+    </row>
+    <row r="73" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B73" s="14"/>
+      <c r="C73" s="6"/>
+      <c r="D73" s="14"/>
+      <c r="E73" s="15"/>
+      <c r="F73" s="14"/>
+      <c r="G73" s="15"/>
+      <c r="H73" s="16" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="I73" s="6"/>
+    </row>
+    <row r="74" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B74" s="14"/>
+      <c r="C74" s="6"/>
+      <c r="D74" s="14"/>
+      <c r="E74" s="15"/>
+      <c r="F74" s="14"/>
+      <c r="G74" s="15"/>
+      <c r="H74" s="16" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="I74" s="6"/>
+    </row>
+    <row r="75" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B75" s="14"/>
+      <c r="C75" s="6"/>
+      <c r="D75" s="14"/>
+      <c r="E75" s="15"/>
+      <c r="F75" s="14"/>
+      <c r="G75" s="15"/>
+      <c r="H75" s="16" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="I75" s="6"/>
+    </row>
+    <row r="76" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B76" s="14"/>
+      <c r="C76" s="6"/>
+      <c r="D76" s="14"/>
+      <c r="E76" s="15"/>
+      <c r="F76" s="14"/>
+      <c r="G76" s="15"/>
+      <c r="H76" s="16" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="I76" s="6"/>
+    </row>
+    <row r="77" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B77" s="14"/>
+      <c r="C77" s="6"/>
+      <c r="D77" s="14"/>
+      <c r="E77" s="15"/>
+      <c r="F77" s="14"/>
+      <c r="G77" s="15"/>
+      <c r="H77" s="16" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="I77" s="6"/>
+    </row>
+    <row r="78" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B78" s="14"/>
+      <c r="C78" s="6"/>
+      <c r="D78" s="14"/>
+      <c r="E78" s="15"/>
+      <c r="F78" s="14"/>
+      <c r="G78" s="15"/>
+      <c r="H78" s="16" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="I78" s="6"/>
+    </row>
+    <row r="79" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B79" s="14"/>
+      <c r="C79" s="6"/>
+      <c r="D79" s="14"/>
+      <c r="E79" s="15"/>
+      <c r="F79" s="14"/>
+      <c r="G79" s="15"/>
+      <c r="H79" s="16" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="I79" s="6"/>
+    </row>
+    <row r="80" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B80" s="14"/>
+      <c r="C80" s="6"/>
+      <c r="D80" s="14"/>
+      <c r="E80" s="15"/>
+      <c r="F80" s="14"/>
+      <c r="G80" s="15"/>
+      <c r="H80" s="16" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="I80" s="6"/>
+    </row>
+    <row r="81" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B81" s="14"/>
+      <c r="C81" s="6"/>
+      <c r="D81" s="14"/>
+      <c r="E81" s="15"/>
+      <c r="F81" s="14"/>
+      <c r="G81" s="15"/>
+      <c r="H81" s="16" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="I81" s="6"/>
+    </row>
+    <row r="82" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B82" s="14"/>
+      <c r="C82" s="6"/>
+      <c r="D82" s="14"/>
+      <c r="E82" s="15"/>
+      <c r="F82" s="14"/>
+      <c r="G82" s="15"/>
+      <c r="H82" s="16" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="I82" s="6"/>
+    </row>
+    <row r="83" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B83" s="14"/>
+      <c r="C83" s="6"/>
+      <c r="D83" s="14"/>
+      <c r="E83" s="15"/>
+      <c r="F83" s="14"/>
+      <c r="G83" s="15"/>
+      <c r="H83" s="16" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="I83" s="6"/>
+    </row>
+    <row r="84" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B84" s="14"/>
+      <c r="C84" s="6"/>
+      <c r="D84" s="14"/>
+      <c r="E84" s="15"/>
+      <c r="F84" s="14"/>
+      <c r="G84" s="15"/>
+      <c r="H84" s="16" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="I84" s="6"/>
+    </row>
+    <row r="85" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B85" s="14"/>
+      <c r="C85" s="6"/>
+      <c r="D85" s="14"/>
+      <c r="E85" s="15"/>
+      <c r="F85" s="14"/>
+      <c r="G85" s="15"/>
+      <c r="H85" s="16" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="I85" s="6"/>
+    </row>
+    <row r="86" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B86" s="14"/>
+      <c r="C86" s="6"/>
+      <c r="D86" s="14"/>
+      <c r="E86" s="15"/>
+      <c r="F86" s="14"/>
+      <c r="G86" s="15"/>
+      <c r="H86" s="16" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="I86" s="6"/>
+    </row>
+    <row r="87" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B87" s="14"/>
+      <c r="C87" s="6"/>
+      <c r="D87" s="14"/>
+      <c r="E87" s="15"/>
+      <c r="F87" s="14"/>
+      <c r="G87" s="15"/>
+      <c r="H87" s="16" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="I87" s="6"/>
+    </row>
+    <row r="88" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B88" s="14"/>
+      <c r="C88" s="6"/>
+      <c r="D88" s="14"/>
+      <c r="E88" s="15"/>
+      <c r="F88" s="14"/>
+      <c r="G88" s="15"/>
+      <c r="H88" s="16" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="I88" s="6"/>
+    </row>
+    <row r="89" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B89" s="14"/>
+      <c r="C89" s="6"/>
+      <c r="D89" s="14"/>
+      <c r="E89" s="15"/>
+      <c r="F89" s="14"/>
+      <c r="G89" s="15"/>
+      <c r="H89" s="16" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="I89" s="6"/>
+    </row>
+    <row r="90" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B90" s="14"/>
+      <c r="C90" s="6"/>
+      <c r="D90" s="14"/>
+      <c r="E90" s="15"/>
+      <c r="F90" s="14"/>
+      <c r="G90" s="15"/>
+      <c r="H90" s="16" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="I90" s="6"/>
+    </row>
+    <row r="91" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B91" s="14"/>
+      <c r="C91" s="6"/>
+      <c r="D91" s="14"/>
+      <c r="E91" s="15"/>
+      <c r="F91" s="14"/>
+      <c r="G91" s="15"/>
+      <c r="H91" s="16" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="I91" s="6"/>
+    </row>
+    <row r="92" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B92" s="14"/>
+      <c r="C92" s="6"/>
+      <c r="D92" s="14"/>
+      <c r="E92" s="15"/>
+      <c r="F92" s="14"/>
+      <c r="G92" s="15"/>
+      <c r="H92" s="16" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="I92" s="6"/>
+    </row>
+    <row r="93" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B93" s="14"/>
+      <c r="C93" s="6"/>
+      <c r="D93" s="14"/>
+      <c r="E93" s="15"/>
+      <c r="F93" s="14"/>
+      <c r="G93" s="15"/>
+      <c r="H93" s="16" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="I93" s="6"/>
+    </row>
+    <row r="94" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B94" s="14"/>
+      <c r="C94" s="6"/>
+      <c r="D94" s="14"/>
+      <c r="E94" s="15"/>
+      <c r="F94" s="14"/>
+      <c r="G94" s="15"/>
+      <c r="H94" s="16" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="I94" s="6"/>
+    </row>
+    <row r="95" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B95" s="14"/>
+      <c r="C95" s="6"/>
+      <c r="D95" s="14"/>
+      <c r="E95" s="15"/>
+      <c r="F95" s="14"/>
+      <c r="G95" s="15"/>
+      <c r="H95" s="16" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="I95" s="6"/>
+    </row>
+    <row r="96" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B96" s="14"/>
+      <c r="C96" s="6"/>
+      <c r="D96" s="14"/>
+      <c r="E96" s="15"/>
+      <c r="F96" s="14"/>
+      <c r="G96" s="15"/>
+      <c r="H96" s="16" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="I96" s="6"/>
+    </row>
+    <row r="97" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B97" s="14"/>
+      <c r="C97" s="6"/>
+      <c r="D97" s="14"/>
+      <c r="E97" s="15"/>
+      <c r="F97" s="14"/>
+      <c r="G97" s="15"/>
+      <c r="H97" s="16" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="I97" s="6"/>
+    </row>
+    <row r="98" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B98" s="14"/>
+      <c r="C98" s="6"/>
+      <c r="D98" s="14"/>
+      <c r="E98" s="15"/>
+      <c r="F98" s="14"/>
+      <c r="G98" s="15"/>
+      <c r="H98" s="16" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="I98" s="6"/>
+    </row>
+    <row r="99" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B99" s="14"/>
+      <c r="C99" s="6"/>
+      <c r="D99" s="14"/>
+      <c r="E99" s="15"/>
+      <c r="F99" s="14"/>
+      <c r="G99" s="15"/>
+      <c r="H99" s="16" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="I99" s="6"/>
+    </row>
+    <row r="100" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B100" s="14"/>
+      <c r="C100" s="6"/>
+      <c r="D100" s="14"/>
+      <c r="E100" s="15"/>
+      <c r="F100" s="14"/>
+      <c r="G100" s="15"/>
+      <c r="H100" s="16" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="I100" s="6"/>
+    </row>
+  </sheetData>
+  <autoFilter ref="B2:I2"/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/WorkShop/01.docs/01.초기학습.xlsx
+++ b/WorkShop/01.docs/01.초기학습.xlsx
@@ -18,7 +18,7 @@
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'01.원칙'!$B$2:$E$2</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'02.모의투자'!$B$2:$J$100</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'02.모의투자'!$B$2:$K$100</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
   <extLst>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="66">
   <si>
     <t>https://stock79.tistory.com</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -225,58 +225,81 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>114090</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>007570</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>034940</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>104040</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>206640</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>011040</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2020-01-28</t>
+  </si>
+  <si>
+    <t>2020-01-28</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>장초반 상승갭 30%</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>수익율</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>매출액증감</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>감소</t>
+  </si>
+  <si>
+    <t>증가</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve"> -4% 하락 후 손절. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>투자주의 기업임.</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>바디텍메드</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>114090</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>007570</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>034940</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>104040</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>206640</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>011040</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>경동제약</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>2020-01-28</t>
-  </si>
-  <si>
-    <t>일양약품 패턴과 유사</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2020-01-28</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>장초반 상승갭 30%</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve"> -4% 하락 후 손절</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>수익율</t>
+    <t>일양약품 패턴과 유사. 5% 익절.</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -287,7 +310,7 @@
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="&quot;₩&quot;#,##0"/>
   </numFmts>
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -334,6 +357,14 @@
       <color theme="1"/>
       <name val="맑은 고딕"/>
       <family val="2"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color rgb="FFFF0000"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
       <charset val="129"/>
       <scheme val="minor"/>
     </font>
@@ -452,7 +483,56 @@
   <cellStyles count="1">
     <cellStyle name="표준" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="1">
+  <dxfs count="8">
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FF0070C0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FF0070C0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FF0070C0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
     <dxf>
       <font>
         <b/>
@@ -1606,13 +1686,13 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:J100"/>
+  <dimension ref="B2:K100"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="2" topLeftCell="B3" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="2" topLeftCell="B6" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="D10" sqref="D10"/>
+      <selection pane="bottomRight" activeCell="K24" sqref="K24:K25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="12" x14ac:dyDescent="0.3"/>
@@ -1626,11 +1706,12 @@
     <col min="7" max="7" width="11.375" style="9" customWidth="1"/>
     <col min="8" max="8" width="10" style="10" customWidth="1"/>
     <col min="9" max="9" width="10.125" style="11" customWidth="1"/>
-    <col min="10" max="10" width="60.125" style="2" customWidth="1"/>
-    <col min="11" max="16384" width="9" style="1"/>
+    <col min="10" max="10" width="11.375" style="11" customWidth="1"/>
+    <col min="11" max="11" width="60.125" style="2" customWidth="1"/>
+    <col min="12" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:10" s="8" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="2:11" s="8" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B2" s="3" t="s">
         <v>38</v>
       </c>
@@ -1653,13 +1734,16 @@
         <v>16</v>
       </c>
       <c r="I2" s="12" t="s">
-        <v>62</v>
-      </c>
-      <c r="J2" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="J2" s="12" t="s">
+        <v>59</v>
+      </c>
+      <c r="K2" s="3" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="3" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="3" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B3" s="13"/>
       <c r="C3" s="13" t="s">
         <v>17</v>
@@ -1683,9 +1767,12 @@
         <f>IF(H3="", "", IFERROR( ((H3-F3)/F3), ""))</f>
         <v>3.3742331288343558E-2</v>
       </c>
-      <c r="J3" s="6"/>
-    </row>
-    <row r="4" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="J3" s="13" t="s">
+        <v>60</v>
+      </c>
+      <c r="K3" s="6"/>
+    </row>
+    <row r="4" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B4" s="13"/>
       <c r="C4" s="13" t="s">
         <v>20</v>
@@ -1709,9 +1796,12 @@
         <f t="shared" ref="I4:I67" si="0">IF(H4="", "", IFERROR( ((H4-F4)/F4), ""))</f>
         <v>-8.7452471482889732E-2</v>
       </c>
-      <c r="J4" s="6"/>
-    </row>
-    <row r="5" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="J4" s="13" t="s">
+        <v>61</v>
+      </c>
+      <c r="K4" s="6"/>
+    </row>
+    <row r="5" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B5" s="13"/>
       <c r="C5" s="13" t="s">
         <v>22</v>
@@ -1735,14 +1825,17 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="J5" s="6"/>
-    </row>
-    <row r="6" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="J5" s="13" t="s">
+        <v>60</v>
+      </c>
+      <c r="K5" s="6"/>
+    </row>
+    <row r="6" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B6" s="13" t="s">
         <v>40</v>
       </c>
       <c r="C6" s="13" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D6" s="6" t="s">
         <v>35</v>
@@ -1759,9 +1852,12 @@
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="J6" s="6"/>
-    </row>
-    <row r="7" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="J6" s="13" t="s">
+        <v>60</v>
+      </c>
+      <c r="K6" s="6"/>
+    </row>
+    <row r="7" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B7" s="13" t="s">
         <v>40</v>
       </c>
@@ -1783,16 +1879,19 @@
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="J7" s="6" t="s">
+      <c r="J7" s="13" t="s">
+        <v>60</v>
+      </c>
+      <c r="K7" s="6" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="8" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="8" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B8" s="13" t="s">
         <v>44</v>
       </c>
       <c r="C8" s="13" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D8" s="6" t="s">
         <v>46</v>
@@ -1804,7 +1903,7 @@
         <v>24550</v>
       </c>
       <c r="G8" s="13" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="H8" s="14">
         <v>27200</v>
@@ -1813,14 +1912,17 @@
         <f t="shared" si="0"/>
         <v>0.1079429735234216</v>
       </c>
-      <c r="J8" s="6"/>
-    </row>
-    <row r="9" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="J8" s="13" t="s">
+        <v>61</v>
+      </c>
+      <c r="K8" s="6"/>
+    </row>
+    <row r="9" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B9" s="13" t="s">
         <v>44</v>
       </c>
       <c r="C9" s="13" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D9" s="6" t="s">
         <v>47</v>
@@ -1832,7 +1934,7 @@
         <v>4210</v>
       </c>
       <c r="G9" s="13" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="H9" s="14">
         <v>4705</v>
@@ -1841,14 +1943,17 @@
         <f t="shared" si="0"/>
         <v>0.11757719714964371</v>
       </c>
-      <c r="J9" s="6"/>
-    </row>
-    <row r="10" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="J9" s="13" t="s">
+        <v>61</v>
+      </c>
+      <c r="K9" s="6"/>
+    </row>
+    <row r="10" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B10" s="13" t="s">
         <v>44</v>
       </c>
       <c r="C10" s="13" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D10" s="6" t="s">
         <v>48</v>
@@ -1860,7 +1965,7 @@
         <v>1515</v>
       </c>
       <c r="G10" s="13" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="H10" s="14">
         <v>1450</v>
@@ -1869,19 +1974,22 @@
         <f t="shared" si="0"/>
         <v>-4.2904290429042903E-2</v>
       </c>
-      <c r="J10" s="6" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="11" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="J10" s="13" t="s">
+        <v>60</v>
+      </c>
+      <c r="K10" s="6" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="11" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B11" s="13" t="s">
         <v>44</v>
       </c>
       <c r="C11" s="13" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D11" s="6" t="s">
-        <v>49</v>
+        <v>63</v>
       </c>
       <c r="E11" s="13" t="s">
         <v>34</v>
@@ -1890,7 +1998,7 @@
         <v>13000</v>
       </c>
       <c r="G11" s="13" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="H11" s="14">
         <v>16900</v>
@@ -1899,35 +2007,45 @@
         <f t="shared" si="0"/>
         <v>0.3</v>
       </c>
-      <c r="J11" s="6" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="12" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="J11" s="13" t="s">
+        <v>61</v>
+      </c>
+      <c r="K11" s="6" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="12" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B12" s="13"/>
       <c r="C12" s="13" t="s">
+        <v>54</v>
+      </c>
+      <c r="D12" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="E12" s="13" t="s">
         <v>55</v>
-      </c>
-      <c r="D12" s="6" t="s">
-        <v>56</v>
-      </c>
-      <c r="E12" s="13" t="s">
-        <v>57</v>
       </c>
       <c r="F12" s="14">
         <v>7980</v>
       </c>
-      <c r="G12" s="13"/>
-      <c r="H12" s="14"/>
-      <c r="I12" s="15" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="J12" s="6" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="13" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="G12" s="13" t="s">
+        <v>56</v>
+      </c>
+      <c r="H12" s="14">
+        <v>8410</v>
+      </c>
+      <c r="I12" s="15">
+        <f t="shared" si="0"/>
+        <v>5.3884711779448619E-2</v>
+      </c>
+      <c r="J12" s="13" t="s">
+        <v>61</v>
+      </c>
+      <c r="K12" s="6" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="13" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B13" s="13"/>
       <c r="C13" s="13"/>
       <c r="D13" s="6"/>
@@ -1939,9 +2057,10 @@
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="J13" s="6"/>
-    </row>
-    <row r="14" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="J13" s="13"/>
+      <c r="K13" s="6"/>
+    </row>
+    <row r="14" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B14" s="13"/>
       <c r="C14" s="13"/>
       <c r="D14" s="6"/>
@@ -1953,9 +2072,10 @@
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="J14" s="6"/>
-    </row>
-    <row r="15" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="J14" s="13"/>
+      <c r="K14" s="6"/>
+    </row>
+    <row r="15" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B15" s="13"/>
       <c r="C15" s="13"/>
       <c r="D15" s="6"/>
@@ -1967,9 +2087,10 @@
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="J15" s="6"/>
-    </row>
-    <row r="16" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="J15" s="13"/>
+      <c r="K15" s="6"/>
+    </row>
+    <row r="16" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B16" s="13"/>
       <c r="C16" s="13"/>
       <c r="D16" s="6"/>
@@ -1981,9 +2102,10 @@
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="J16" s="6"/>
-    </row>
-    <row r="17" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="J16" s="13"/>
+      <c r="K16" s="6"/>
+    </row>
+    <row r="17" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B17" s="13"/>
       <c r="C17" s="13"/>
       <c r="D17" s="6"/>
@@ -1995,9 +2117,10 @@
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="J17" s="6"/>
-    </row>
-    <row r="18" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="J17" s="13"/>
+      <c r="K17" s="6"/>
+    </row>
+    <row r="18" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B18" s="13"/>
       <c r="C18" s="13"/>
       <c r="D18" s="6"/>
@@ -2009,9 +2132,10 @@
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="J18" s="6"/>
-    </row>
-    <row r="19" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="J18" s="13"/>
+      <c r="K18" s="6"/>
+    </row>
+    <row r="19" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B19" s="13"/>
       <c r="C19" s="13"/>
       <c r="D19" s="6"/>
@@ -2023,9 +2147,10 @@
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="J19" s="6"/>
-    </row>
-    <row r="20" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="J19" s="13"/>
+      <c r="K19" s="6"/>
+    </row>
+    <row r="20" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B20" s="13"/>
       <c r="C20" s="13"/>
       <c r="D20" s="6"/>
@@ -2037,9 +2162,10 @@
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="J20" s="6"/>
-    </row>
-    <row r="21" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="J20" s="13"/>
+      <c r="K20" s="6"/>
+    </row>
+    <row r="21" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B21" s="13"/>
       <c r="C21" s="13"/>
       <c r="D21" s="6"/>
@@ -2051,9 +2177,10 @@
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="J21" s="6"/>
-    </row>
-    <row r="22" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="J21" s="13"/>
+      <c r="K21" s="6"/>
+    </row>
+    <row r="22" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B22" s="13"/>
       <c r="C22" s="13"/>
       <c r="D22" s="6"/>
@@ -2065,9 +2192,10 @@
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="J22" s="6"/>
-    </row>
-    <row r="23" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="J22" s="13"/>
+      <c r="K22" s="6"/>
+    </row>
+    <row r="23" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B23" s="13"/>
       <c r="C23" s="13"/>
       <c r="D23" s="6"/>
@@ -2079,9 +2207,10 @@
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="J23" s="6"/>
-    </row>
-    <row r="24" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="J23" s="13"/>
+      <c r="K23" s="6"/>
+    </row>
+    <row r="24" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B24" s="13"/>
       <c r="C24" s="13"/>
       <c r="D24" s="6"/>
@@ -2093,9 +2222,10 @@
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="J24" s="6"/>
-    </row>
-    <row r="25" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="J24" s="13"/>
+      <c r="K24" s="6"/>
+    </row>
+    <row r="25" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B25" s="13"/>
       <c r="C25" s="13"/>
       <c r="D25" s="6"/>
@@ -2107,9 +2237,10 @@
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="J25" s="6"/>
-    </row>
-    <row r="26" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="J25" s="13"/>
+      <c r="K25" s="6"/>
+    </row>
+    <row r="26" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B26" s="13"/>
       <c r="C26" s="13"/>
       <c r="D26" s="6"/>
@@ -2121,9 +2252,10 @@
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="J26" s="6"/>
-    </row>
-    <row r="27" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="J26" s="13"/>
+      <c r="K26" s="6"/>
+    </row>
+    <row r="27" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B27" s="13"/>
       <c r="C27" s="13"/>
       <c r="D27" s="6"/>
@@ -2135,9 +2267,10 @@
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="J27" s="6"/>
-    </row>
-    <row r="28" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="J27" s="13"/>
+      <c r="K27" s="6"/>
+    </row>
+    <row r="28" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B28" s="13"/>
       <c r="C28" s="13"/>
       <c r="D28" s="6"/>
@@ -2149,9 +2282,10 @@
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="J28" s="6"/>
-    </row>
-    <row r="29" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="J28" s="13"/>
+      <c r="K28" s="6"/>
+    </row>
+    <row r="29" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B29" s="13"/>
       <c r="C29" s="13"/>
       <c r="D29" s="6"/>
@@ -2163,9 +2297,10 @@
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="J29" s="6"/>
-    </row>
-    <row r="30" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="J29" s="13"/>
+      <c r="K29" s="6"/>
+    </row>
+    <row r="30" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B30" s="13"/>
       <c r="C30" s="13"/>
       <c r="D30" s="6"/>
@@ -2177,9 +2312,10 @@
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="J30" s="6"/>
-    </row>
-    <row r="31" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="J30" s="13"/>
+      <c r="K30" s="6"/>
+    </row>
+    <row r="31" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B31" s="13"/>
       <c r="C31" s="13"/>
       <c r="D31" s="6"/>
@@ -2191,9 +2327,10 @@
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="J31" s="6"/>
-    </row>
-    <row r="32" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="J31" s="13"/>
+      <c r="K31" s="6"/>
+    </row>
+    <row r="32" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B32" s="13"/>
       <c r="C32" s="13"/>
       <c r="D32" s="6"/>
@@ -2205,9 +2342,10 @@
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="J32" s="6"/>
-    </row>
-    <row r="33" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="J32" s="13"/>
+      <c r="K32" s="6"/>
+    </row>
+    <row r="33" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B33" s="13"/>
       <c r="C33" s="13"/>
       <c r="D33" s="6"/>
@@ -2219,9 +2357,10 @@
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="J33" s="6"/>
-    </row>
-    <row r="34" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="J33" s="13"/>
+      <c r="K33" s="6"/>
+    </row>
+    <row r="34" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B34" s="13"/>
       <c r="C34" s="13"/>
       <c r="D34" s="6"/>
@@ -2233,9 +2372,10 @@
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="J34" s="6"/>
-    </row>
-    <row r="35" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="J34" s="13"/>
+      <c r="K34" s="6"/>
+    </row>
+    <row r="35" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B35" s="13"/>
       <c r="C35" s="13"/>
       <c r="D35" s="6"/>
@@ -2247,9 +2387,10 @@
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="J35" s="6"/>
-    </row>
-    <row r="36" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="J35" s="13"/>
+      <c r="K35" s="6"/>
+    </row>
+    <row r="36" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B36" s="13"/>
       <c r="C36" s="13"/>
       <c r="D36" s="6"/>
@@ -2261,9 +2402,10 @@
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="J36" s="6"/>
-    </row>
-    <row r="37" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="J36" s="13"/>
+      <c r="K36" s="6"/>
+    </row>
+    <row r="37" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B37" s="13"/>
       <c r="C37" s="13"/>
       <c r="D37" s="6"/>
@@ -2275,9 +2417,10 @@
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="J37" s="6"/>
-    </row>
-    <row r="38" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="J37" s="13"/>
+      <c r="K37" s="6"/>
+    </row>
+    <row r="38" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B38" s="13"/>
       <c r="C38" s="13"/>
       <c r="D38" s="6"/>
@@ -2289,9 +2432,10 @@
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="J38" s="6"/>
-    </row>
-    <row r="39" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="J38" s="13"/>
+      <c r="K38" s="6"/>
+    </row>
+    <row r="39" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B39" s="13"/>
       <c r="C39" s="13"/>
       <c r="D39" s="6"/>
@@ -2303,9 +2447,10 @@
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="J39" s="6"/>
-    </row>
-    <row r="40" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="J39" s="13"/>
+      <c r="K39" s="6"/>
+    </row>
+    <row r="40" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B40" s="13"/>
       <c r="C40" s="13"/>
       <c r="D40" s="6"/>
@@ -2317,9 +2462,10 @@
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="J40" s="6"/>
-    </row>
-    <row r="41" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="J40" s="13"/>
+      <c r="K40" s="6"/>
+    </row>
+    <row r="41" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B41" s="13"/>
       <c r="C41" s="13"/>
       <c r="D41" s="6"/>
@@ -2331,9 +2477,10 @@
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="J41" s="6"/>
-    </row>
-    <row r="42" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="J41" s="13"/>
+      <c r="K41" s="6"/>
+    </row>
+    <row r="42" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B42" s="13"/>
       <c r="C42" s="13"/>
       <c r="D42" s="6"/>
@@ -2345,9 +2492,10 @@
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="J42" s="6"/>
-    </row>
-    <row r="43" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="J42" s="13"/>
+      <c r="K42" s="6"/>
+    </row>
+    <row r="43" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B43" s="13"/>
       <c r="C43" s="13"/>
       <c r="D43" s="6"/>
@@ -2359,9 +2507,10 @@
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="J43" s="6"/>
-    </row>
-    <row r="44" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="J43" s="13"/>
+      <c r="K43" s="6"/>
+    </row>
+    <row r="44" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B44" s="13"/>
       <c r="C44" s="13"/>
       <c r="D44" s="6"/>
@@ -2373,9 +2522,10 @@
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="J44" s="6"/>
-    </row>
-    <row r="45" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="J44" s="13"/>
+      <c r="K44" s="6"/>
+    </row>
+    <row r="45" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B45" s="13"/>
       <c r="C45" s="13"/>
       <c r="D45" s="6"/>
@@ -2387,9 +2537,10 @@
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="J45" s="6"/>
-    </row>
-    <row r="46" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="J45" s="13"/>
+      <c r="K45" s="6"/>
+    </row>
+    <row r="46" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B46" s="13"/>
       <c r="C46" s="13"/>
       <c r="D46" s="6"/>
@@ -2401,9 +2552,10 @@
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="J46" s="6"/>
-    </row>
-    <row r="47" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="J46" s="13"/>
+      <c r="K46" s="6"/>
+    </row>
+    <row r="47" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B47" s="13"/>
       <c r="C47" s="13"/>
       <c r="D47" s="6"/>
@@ -2415,9 +2567,10 @@
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="J47" s="6"/>
-    </row>
-    <row r="48" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="J47" s="13"/>
+      <c r="K47" s="6"/>
+    </row>
+    <row r="48" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B48" s="13"/>
       <c r="C48" s="13"/>
       <c r="D48" s="6"/>
@@ -2429,9 +2582,10 @@
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="J48" s="6"/>
-    </row>
-    <row r="49" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="J48" s="13"/>
+      <c r="K48" s="6"/>
+    </row>
+    <row r="49" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B49" s="13"/>
       <c r="C49" s="13"/>
       <c r="D49" s="6"/>
@@ -2443,9 +2597,10 @@
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="J49" s="6"/>
-    </row>
-    <row r="50" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="J49" s="13"/>
+      <c r="K49" s="6"/>
+    </row>
+    <row r="50" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B50" s="13"/>
       <c r="C50" s="13"/>
       <c r="D50" s="6"/>
@@ -2457,9 +2612,10 @@
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="J50" s="6"/>
-    </row>
-    <row r="51" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="J50" s="13"/>
+      <c r="K50" s="6"/>
+    </row>
+    <row r="51" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B51" s="13"/>
       <c r="C51" s="13"/>
       <c r="D51" s="6"/>
@@ -2471,9 +2627,10 @@
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="J51" s="6"/>
-    </row>
-    <row r="52" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="J51" s="13"/>
+      <c r="K51" s="6"/>
+    </row>
+    <row r="52" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B52" s="13"/>
       <c r="C52" s="13"/>
       <c r="D52" s="6"/>
@@ -2485,9 +2642,10 @@
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="J52" s="6"/>
-    </row>
-    <row r="53" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="J52" s="13"/>
+      <c r="K52" s="6"/>
+    </row>
+    <row r="53" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B53" s="13"/>
       <c r="C53" s="13"/>
       <c r="D53" s="6"/>
@@ -2499,9 +2657,10 @@
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="J53" s="6"/>
-    </row>
-    <row r="54" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="J53" s="13"/>
+      <c r="K53" s="6"/>
+    </row>
+    <row r="54" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B54" s="13"/>
       <c r="C54" s="13"/>
       <c r="D54" s="6"/>
@@ -2513,9 +2672,10 @@
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="J54" s="6"/>
-    </row>
-    <row r="55" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="J54" s="13"/>
+      <c r="K54" s="6"/>
+    </row>
+    <row r="55" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B55" s="13"/>
       <c r="C55" s="13"/>
       <c r="D55" s="6"/>
@@ -2527,9 +2687,10 @@
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="J55" s="6"/>
-    </row>
-    <row r="56" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="J55" s="13"/>
+      <c r="K55" s="6"/>
+    </row>
+    <row r="56" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B56" s="13"/>
       <c r="C56" s="13"/>
       <c r="D56" s="6"/>
@@ -2541,9 +2702,10 @@
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="J56" s="6"/>
-    </row>
-    <row r="57" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="J56" s="13"/>
+      <c r="K56" s="6"/>
+    </row>
+    <row r="57" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B57" s="13"/>
       <c r="C57" s="13"/>
       <c r="D57" s="6"/>
@@ -2555,9 +2717,10 @@
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="J57" s="6"/>
-    </row>
-    <row r="58" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="J57" s="13"/>
+      <c r="K57" s="6"/>
+    </row>
+    <row r="58" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B58" s="13"/>
       <c r="C58" s="13"/>
       <c r="D58" s="6"/>
@@ -2569,9 +2732,10 @@
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="J58" s="6"/>
-    </row>
-    <row r="59" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="J58" s="13"/>
+      <c r="K58" s="6"/>
+    </row>
+    <row r="59" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B59" s="13"/>
       <c r="C59" s="13"/>
       <c r="D59" s="6"/>
@@ -2583,9 +2747,10 @@
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="J59" s="6"/>
-    </row>
-    <row r="60" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="J59" s="13"/>
+      <c r="K59" s="6"/>
+    </row>
+    <row r="60" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B60" s="13"/>
       <c r="C60" s="13"/>
       <c r="D60" s="6"/>
@@ -2597,9 +2762,10 @@
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="J60" s="6"/>
-    </row>
-    <row r="61" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="J60" s="13"/>
+      <c r="K60" s="6"/>
+    </row>
+    <row r="61" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B61" s="13"/>
       <c r="C61" s="13"/>
       <c r="D61" s="6"/>
@@ -2611,9 +2777,10 @@
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="J61" s="6"/>
-    </row>
-    <row r="62" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="J61" s="13"/>
+      <c r="K61" s="6"/>
+    </row>
+    <row r="62" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B62" s="13"/>
       <c r="C62" s="13"/>
       <c r="D62" s="6"/>
@@ -2625,9 +2792,10 @@
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="J62" s="6"/>
-    </row>
-    <row r="63" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="J62" s="13"/>
+      <c r="K62" s="6"/>
+    </row>
+    <row r="63" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B63" s="13"/>
       <c r="C63" s="13"/>
       <c r="D63" s="6"/>
@@ -2639,9 +2807,10 @@
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="J63" s="6"/>
-    </row>
-    <row r="64" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="J63" s="13"/>
+      <c r="K63" s="6"/>
+    </row>
+    <row r="64" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B64" s="13"/>
       <c r="C64" s="13"/>
       <c r="D64" s="6"/>
@@ -2653,9 +2822,10 @@
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="J64" s="6"/>
-    </row>
-    <row r="65" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="J64" s="13"/>
+      <c r="K64" s="6"/>
+    </row>
+    <row r="65" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B65" s="13"/>
       <c r="C65" s="13"/>
       <c r="D65" s="6"/>
@@ -2667,9 +2837,10 @@
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="J65" s="6"/>
-    </row>
-    <row r="66" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="J65" s="13"/>
+      <c r="K65" s="6"/>
+    </row>
+    <row r="66" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B66" s="13"/>
       <c r="C66" s="13"/>
       <c r="D66" s="6"/>
@@ -2681,9 +2852,10 @@
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="J66" s="6"/>
-    </row>
-    <row r="67" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="J66" s="13"/>
+      <c r="K66" s="6"/>
+    </row>
+    <row r="67" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B67" s="13"/>
       <c r="C67" s="13"/>
       <c r="D67" s="6"/>
@@ -2695,9 +2867,10 @@
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="J67" s="6"/>
-    </row>
-    <row r="68" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="J67" s="13"/>
+      <c r="K67" s="6"/>
+    </row>
+    <row r="68" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B68" s="13"/>
       <c r="C68" s="13"/>
       <c r="D68" s="6"/>
@@ -2709,9 +2882,10 @@
         <f t="shared" ref="I68:I100" si="1">IF(H68="", "", IFERROR( ((H68-F68)/F68), ""))</f>
         <v/>
       </c>
-      <c r="J68" s="6"/>
-    </row>
-    <row r="69" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="J68" s="13"/>
+      <c r="K68" s="6"/>
+    </row>
+    <row r="69" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B69" s="13"/>
       <c r="C69" s="13"/>
       <c r="D69" s="6"/>
@@ -2723,9 +2897,10 @@
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="J69" s="6"/>
-    </row>
-    <row r="70" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="J69" s="13"/>
+      <c r="K69" s="6"/>
+    </row>
+    <row r="70" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B70" s="13"/>
       <c r="C70" s="13"/>
       <c r="D70" s="6"/>
@@ -2737,9 +2912,10 @@
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="J70" s="6"/>
-    </row>
-    <row r="71" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="J70" s="13"/>
+      <c r="K70" s="6"/>
+    </row>
+    <row r="71" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B71" s="13"/>
       <c r="C71" s="13"/>
       <c r="D71" s="6"/>
@@ -2751,9 +2927,10 @@
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="J71" s="6"/>
-    </row>
-    <row r="72" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="J71" s="13"/>
+      <c r="K71" s="6"/>
+    </row>
+    <row r="72" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B72" s="13"/>
       <c r="C72" s="13"/>
       <c r="D72" s="6"/>
@@ -2765,9 +2942,10 @@
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="J72" s="6"/>
-    </row>
-    <row r="73" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="J72" s="13"/>
+      <c r="K72" s="6"/>
+    </row>
+    <row r="73" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B73" s="13"/>
       <c r="C73" s="13"/>
       <c r="D73" s="6"/>
@@ -2779,9 +2957,10 @@
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="J73" s="6"/>
-    </row>
-    <row r="74" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="J73" s="13"/>
+      <c r="K73" s="6"/>
+    </row>
+    <row r="74" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B74" s="13"/>
       <c r="C74" s="13"/>
       <c r="D74" s="6"/>
@@ -2793,9 +2972,10 @@
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="J74" s="6"/>
-    </row>
-    <row r="75" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="J74" s="13"/>
+      <c r="K74" s="6"/>
+    </row>
+    <row r="75" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B75" s="13"/>
       <c r="C75" s="13"/>
       <c r="D75" s="6"/>
@@ -2807,9 +2987,10 @@
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="J75" s="6"/>
-    </row>
-    <row r="76" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="J75" s="13"/>
+      <c r="K75" s="6"/>
+    </row>
+    <row r="76" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B76" s="13"/>
       <c r="C76" s="13"/>
       <c r="D76" s="6"/>
@@ -2821,9 +3002,10 @@
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="J76" s="6"/>
-    </row>
-    <row r="77" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="J76" s="13"/>
+      <c r="K76" s="6"/>
+    </row>
+    <row r="77" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B77" s="13"/>
       <c r="C77" s="13"/>
       <c r="D77" s="6"/>
@@ -2835,9 +3017,10 @@
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="J77" s="6"/>
-    </row>
-    <row r="78" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="J77" s="13"/>
+      <c r="K77" s="6"/>
+    </row>
+    <row r="78" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B78" s="13"/>
       <c r="C78" s="13"/>
       <c r="D78" s="6"/>
@@ -2849,9 +3032,10 @@
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="J78" s="6"/>
-    </row>
-    <row r="79" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="J78" s="13"/>
+      <c r="K78" s="6"/>
+    </row>
+    <row r="79" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B79" s="13"/>
       <c r="C79" s="13"/>
       <c r="D79" s="6"/>
@@ -2863,9 +3047,10 @@
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="J79" s="6"/>
-    </row>
-    <row r="80" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="J79" s="13"/>
+      <c r="K79" s="6"/>
+    </row>
+    <row r="80" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B80" s="13"/>
       <c r="C80" s="13"/>
       <c r="D80" s="6"/>
@@ -2877,9 +3062,10 @@
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="J80" s="6"/>
-    </row>
-    <row r="81" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="J80" s="13"/>
+      <c r="K80" s="6"/>
+    </row>
+    <row r="81" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B81" s="13"/>
       <c r="C81" s="13"/>
       <c r="D81" s="6"/>
@@ -2891,9 +3077,10 @@
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="J81" s="6"/>
-    </row>
-    <row r="82" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="J81" s="13"/>
+      <c r="K81" s="6"/>
+    </row>
+    <row r="82" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B82" s="13"/>
       <c r="C82" s="13"/>
       <c r="D82" s="6"/>
@@ -2905,9 +3092,10 @@
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="J82" s="6"/>
-    </row>
-    <row r="83" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="J82" s="13"/>
+      <c r="K82" s="6"/>
+    </row>
+    <row r="83" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B83" s="13"/>
       <c r="C83" s="13"/>
       <c r="D83" s="6"/>
@@ -2919,9 +3107,10 @@
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="J83" s="6"/>
-    </row>
-    <row r="84" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="J83" s="13"/>
+      <c r="K83" s="6"/>
+    </row>
+    <row r="84" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B84" s="13"/>
       <c r="C84" s="13"/>
       <c r="D84" s="6"/>
@@ -2933,9 +3122,10 @@
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="J84" s="6"/>
-    </row>
-    <row r="85" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="J84" s="13"/>
+      <c r="K84" s="6"/>
+    </row>
+    <row r="85" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B85" s="13"/>
       <c r="C85" s="13"/>
       <c r="D85" s="6"/>
@@ -2947,9 +3137,10 @@
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="J85" s="6"/>
-    </row>
-    <row r="86" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="J85" s="13"/>
+      <c r="K85" s="6"/>
+    </row>
+    <row r="86" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B86" s="13"/>
       <c r="C86" s="13"/>
       <c r="D86" s="6"/>
@@ -2961,9 +3152,10 @@
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="J86" s="6"/>
-    </row>
-    <row r="87" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="J86" s="13"/>
+      <c r="K86" s="6"/>
+    </row>
+    <row r="87" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B87" s="13"/>
       <c r="C87" s="13"/>
       <c r="D87" s="6"/>
@@ -2975,9 +3167,10 @@
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="J87" s="6"/>
-    </row>
-    <row r="88" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="J87" s="13"/>
+      <c r="K87" s="6"/>
+    </row>
+    <row r="88" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B88" s="13"/>
       <c r="C88" s="13"/>
       <c r="D88" s="6"/>
@@ -2989,9 +3182,10 @@
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="J88" s="6"/>
-    </row>
-    <row r="89" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="J88" s="13"/>
+      <c r="K88" s="6"/>
+    </row>
+    <row r="89" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B89" s="13"/>
       <c r="C89" s="13"/>
       <c r="D89" s="6"/>
@@ -3003,9 +3197,10 @@
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="J89" s="6"/>
-    </row>
-    <row r="90" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="J89" s="13"/>
+      <c r="K89" s="6"/>
+    </row>
+    <row r="90" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B90" s="13"/>
       <c r="C90" s="13"/>
       <c r="D90" s="6"/>
@@ -3017,9 +3212,10 @@
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="J90" s="6"/>
-    </row>
-    <row r="91" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="J90" s="13"/>
+      <c r="K90" s="6"/>
+    </row>
+    <row r="91" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B91" s="13"/>
       <c r="C91" s="13"/>
       <c r="D91" s="6"/>
@@ -3031,9 +3227,10 @@
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="J91" s="6"/>
-    </row>
-    <row r="92" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="J91" s="13"/>
+      <c r="K91" s="6"/>
+    </row>
+    <row r="92" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B92" s="13"/>
       <c r="C92" s="13"/>
       <c r="D92" s="6"/>
@@ -3045,9 +3242,10 @@
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="J92" s="6"/>
-    </row>
-    <row r="93" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="J92" s="13"/>
+      <c r="K92" s="6"/>
+    </row>
+    <row r="93" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B93" s="13"/>
       <c r="C93" s="13"/>
       <c r="D93" s="6"/>
@@ -3059,9 +3257,10 @@
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="J93" s="6"/>
-    </row>
-    <row r="94" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="J93" s="13"/>
+      <c r="K93" s="6"/>
+    </row>
+    <row r="94" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B94" s="13"/>
       <c r="C94" s="13"/>
       <c r="D94" s="6"/>
@@ -3073,9 +3272,10 @@
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="J94" s="6"/>
-    </row>
-    <row r="95" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="J94" s="13"/>
+      <c r="K94" s="6"/>
+    </row>
+    <row r="95" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B95" s="13"/>
       <c r="C95" s="13"/>
       <c r="D95" s="6"/>
@@ -3087,9 +3287,10 @@
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="J95" s="6"/>
-    </row>
-    <row r="96" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="J95" s="13"/>
+      <c r="K95" s="6"/>
+    </row>
+    <row r="96" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B96" s="13"/>
       <c r="C96" s="13"/>
       <c r="D96" s="6"/>
@@ -3101,9 +3302,10 @@
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="J96" s="6"/>
-    </row>
-    <row r="97" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="J96" s="13"/>
+      <c r="K96" s="6"/>
+    </row>
+    <row r="97" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B97" s="13"/>
       <c r="C97" s="13"/>
       <c r="D97" s="6"/>
@@ -3115,9 +3317,10 @@
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="J97" s="6"/>
-    </row>
-    <row r="98" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="J97" s="13"/>
+      <c r="K97" s="6"/>
+    </row>
+    <row r="98" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B98" s="13"/>
       <c r="C98" s="13"/>
       <c r="D98" s="6"/>
@@ -3129,9 +3332,10 @@
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="J98" s="6"/>
-    </row>
-    <row r="99" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="J98" s="13"/>
+      <c r="K98" s="6"/>
+    </row>
+    <row r="99" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B99" s="13"/>
       <c r="C99" s="13"/>
       <c r="D99" s="6"/>
@@ -3143,9 +3347,10 @@
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="J99" s="6"/>
-    </row>
-    <row r="100" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="J99" s="13"/>
+      <c r="K99" s="6"/>
+    </row>
+    <row r="100" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B100" s="13"/>
       <c r="C100" s="13"/>
       <c r="D100" s="6"/>
@@ -3157,16 +3362,35 @@
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="J100" s="6"/>
+      <c r="J100" s="13"/>
+      <c r="K100" s="6"/>
     </row>
   </sheetData>
-  <autoFilter ref="B2:J100"/>
+  <autoFilter ref="B2:K100"/>
   <phoneticPr fontId="1" type="noConversion"/>
-  <conditionalFormatting sqref="I1 I3:I1048576">
-    <cfRule type="cellIs" dxfId="0" priority="1" operator="greaterThan">
+  <conditionalFormatting sqref="I1:J1 I101:J1048576 I3:I100">
+    <cfRule type="cellIs" dxfId="5" priority="4" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
+  <conditionalFormatting sqref="I1:J2 I101:J1048576 I3:I100">
+    <cfRule type="cellIs" dxfId="4" priority="3" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J3:J100">
+    <cfRule type="cellIs" dxfId="3" priority="2" operator="equal">
+      <formula>"증가"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="2" priority="1" operator="equal">
+      <formula>"감소"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <dataValidations count="1">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J3:J100">
+      <formula1>"증가,유지,감소"</formula1>
+    </dataValidation>
+  </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
   <extLst>

--- a/WorkShop/01.docs/01.초기학습.xlsx
+++ b/WorkShop/01.docs/01.초기학습.xlsx
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="66">
   <si>
     <t>https://stock79.tistory.com</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -483,7 +483,7 @@
   <cellStyles count="1">
     <cellStyle name="표준" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="8">
+  <dxfs count="4">
     <dxf>
       <font>
         <b/>
@@ -510,34 +510,6 @@
         <b/>
         <i val="0"/>
         <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FF0070C0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FF0070C0"/>
       </font>
     </dxf>
   </dxfs>
@@ -1689,10 +1661,10 @@
   <dimension ref="B2:K100"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="2" topLeftCell="B6" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="2" topLeftCell="B3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="K24" sqref="K24:K25"/>
+      <selection pane="bottomRight" activeCell="J17" sqref="J17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="12" x14ac:dyDescent="0.3"/>
@@ -1873,11 +1845,15 @@
       <c r="F7" s="14">
         <v>11400</v>
       </c>
-      <c r="G7" s="13"/>
-      <c r="H7" s="14"/>
-      <c r="I7" s="15" t="str">
-        <f t="shared" si="0"/>
-        <v/>
+      <c r="G7" s="13" t="s">
+        <v>56</v>
+      </c>
+      <c r="H7" s="14">
+        <v>11050</v>
+      </c>
+      <c r="I7" s="15">
+        <f t="shared" si="0"/>
+        <v>-3.0701754385964911E-2</v>
       </c>
       <c r="J7" s="13" t="s">
         <v>60</v>
@@ -3369,20 +3345,20 @@
   <autoFilter ref="B2:K100"/>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="I1:J1 I101:J1048576 I3:I100">
-    <cfRule type="cellIs" dxfId="5" priority="4" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="3" priority="4" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I1:J2 I101:J1048576 I3:I100">
-    <cfRule type="cellIs" dxfId="4" priority="3" operator="lessThan">
+    <cfRule type="cellIs" dxfId="2" priority="3" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J3:J100">
-    <cfRule type="cellIs" dxfId="3" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="1" priority="2" operator="equal">
       <formula>"증가"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="2" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
       <formula>"감소"</formula>
     </cfRule>
   </conditionalFormatting>

--- a/WorkShop/01.docs/01.초기학습.xlsx
+++ b/WorkShop/01.docs/01.초기학습.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\ProjectHome\Stocks\WorkShop\01.docs\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\WorkShop\AppHome\stocks\WorkShop\01.docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11850" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11856" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="00.참고" sheetId="2" r:id="rId1"/>
@@ -18,7 +18,7 @@
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'01.원칙'!$B$2:$E$2</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'02.모의투자'!$B$2:$K$100</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'02.모의투자'!$B$2:$J$100</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
   <extLst>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="71">
   <si>
     <t>https://stock79.tistory.com</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -187,13 +187,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>음양돌파급등_V0.1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>눌림목검색_V0.1</t>
-  </si>
-  <si>
     <t>차트</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -202,17 +195,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>My공식_CCI검색_V0.1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>My공식_급등주검색_V0.1</t>
-  </si>
-  <si>
-    <t>My공식_급등주검색_V0.1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>일양약품</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -245,10 +227,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>011040</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>2020-01-28</t>
   </si>
   <si>
@@ -262,16 +240,6 @@
   <si>
     <t>수익율</t>
     <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>매출액증감</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>감소</t>
-  </si>
-  <si>
-    <t>증가</t>
   </si>
   <si>
     <r>
@@ -300,6 +268,59 @@
   </si>
   <si>
     <t>일양약품 패턴과 유사. 5% 익절.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>눌림목검색_V0.01</t>
+  </si>
+  <si>
+    <t>눌림목검색_V0.01</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>음양돌파급등_V0.01</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>My공식_CCI검색_V0.01</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>My공식_급등주검색_V0.01</t>
+  </si>
+  <si>
+    <t>My공식_급등주검색_V0.01</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>My공식_급등주검색_V0.02</t>
+  </si>
+  <si>
+    <t>001060</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>JW중외제약</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>009290</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>광동제약</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>044480</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>바이오제네틱스</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>011040</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -483,21 +504,7 @@
   <cellStyles count="1">
     <cellStyle name="표준" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="4">
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FF0070C0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
+  <dxfs count="2">
     <dxf>
       <font>
         <b/>
@@ -797,16 +804,16 @@
       <selection pane="bottomRight" activeCell="D21" sqref="D21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="12" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.2" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="7.25" style="1" customWidth="1"/>
+    <col min="1" max="1" width="7.19921875" style="1" customWidth="1"/>
     <col min="2" max="2" width="26.5" style="1" customWidth="1"/>
-    <col min="3" max="3" width="38.75" style="1" customWidth="1"/>
-    <col min="4" max="4" width="75.75" style="2" customWidth="1"/>
+    <col min="3" max="3" width="38.69921875" style="1" customWidth="1"/>
+    <col min="4" max="4" width="75.69921875" style="2" customWidth="1"/>
     <col min="5" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="2:4" x14ac:dyDescent="0.4">
       <c r="B1" s="3" t="s">
         <v>5</v>
       </c>
@@ -817,7 +824,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="2" spans="2:4" x14ac:dyDescent="0.4">
       <c r="B2" s="4" t="s">
         <v>3</v>
       </c>
@@ -828,7 +835,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="3" spans="2:4" x14ac:dyDescent="0.4">
       <c r="B3" s="4" t="s">
         <v>1</v>
       </c>
@@ -837,7 +844,7 @@
       </c>
       <c r="D3" s="6"/>
     </row>
-    <row r="4" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:4" x14ac:dyDescent="0.4">
       <c r="B4" s="4" t="s">
         <v>4</v>
       </c>
@@ -848,7 +855,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="5" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="5" spans="2:4" x14ac:dyDescent="0.4">
       <c r="B5" s="4" t="s">
         <v>28</v>
       </c>
@@ -859,147 +866,147 @@
         <v>29</v>
       </c>
     </row>
-    <row r="6" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="6" spans="2:4" x14ac:dyDescent="0.4">
       <c r="B6" s="4"/>
       <c r="C6" s="4"/>
       <c r="D6" s="6"/>
     </row>
-    <row r="7" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="7" spans="2:4" x14ac:dyDescent="0.4">
       <c r="B7" s="4"/>
       <c r="C7" s="4"/>
       <c r="D7" s="6"/>
     </row>
-    <row r="8" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="8" spans="2:4" x14ac:dyDescent="0.4">
       <c r="B8" s="4"/>
       <c r="C8" s="4"/>
       <c r="D8" s="6"/>
     </row>
-    <row r="9" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="9" spans="2:4" x14ac:dyDescent="0.4">
       <c r="B9" s="4"/>
       <c r="C9" s="4"/>
       <c r="D9" s="6"/>
     </row>
-    <row r="10" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="10" spans="2:4" x14ac:dyDescent="0.4">
       <c r="B10" s="4"/>
       <c r="C10" s="4"/>
       <c r="D10" s="6"/>
     </row>
-    <row r="11" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="11" spans="2:4" x14ac:dyDescent="0.4">
       <c r="B11" s="4"/>
       <c r="C11" s="4"/>
       <c r="D11" s="6"/>
     </row>
-    <row r="12" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="12" spans="2:4" x14ac:dyDescent="0.4">
       <c r="B12" s="4"/>
       <c r="C12" s="4"/>
       <c r="D12" s="6"/>
     </row>
-    <row r="13" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="13" spans="2:4" x14ac:dyDescent="0.4">
       <c r="B13" s="4"/>
       <c r="C13" s="4"/>
       <c r="D13" s="6"/>
     </row>
-    <row r="14" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="14" spans="2:4" x14ac:dyDescent="0.4">
       <c r="B14" s="4"/>
       <c r="C14" s="4"/>
       <c r="D14" s="6"/>
     </row>
-    <row r="15" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="15" spans="2:4" x14ac:dyDescent="0.4">
       <c r="B15" s="4"/>
       <c r="C15" s="4"/>
       <c r="D15" s="6"/>
     </row>
-    <row r="16" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="16" spans="2:4" x14ac:dyDescent="0.4">
       <c r="B16" s="4"/>
       <c r="C16" s="4"/>
       <c r="D16" s="6"/>
     </row>
-    <row r="17" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="17" spans="2:4" x14ac:dyDescent="0.4">
       <c r="B17" s="4"/>
       <c r="C17" s="4"/>
       <c r="D17" s="6"/>
     </row>
-    <row r="18" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="18" spans="2:4" x14ac:dyDescent="0.4">
       <c r="B18" s="4"/>
       <c r="C18" s="4"/>
       <c r="D18" s="6"/>
     </row>
-    <row r="19" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="19" spans="2:4" x14ac:dyDescent="0.4">
       <c r="B19" s="4"/>
       <c r="C19" s="4"/>
       <c r="D19" s="6"/>
     </row>
-    <row r="20" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="20" spans="2:4" x14ac:dyDescent="0.4">
       <c r="B20" s="4"/>
       <c r="C20" s="4"/>
       <c r="D20" s="6"/>
     </row>
-    <row r="21" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="21" spans="2:4" x14ac:dyDescent="0.4">
       <c r="B21" s="4"/>
       <c r="C21" s="4"/>
       <c r="D21" s="6"/>
     </row>
-    <row r="22" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="22" spans="2:4" x14ac:dyDescent="0.4">
       <c r="B22" s="4"/>
       <c r="C22" s="4"/>
       <c r="D22" s="6"/>
     </row>
-    <row r="23" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="23" spans="2:4" x14ac:dyDescent="0.4">
       <c r="B23" s="4"/>
       <c r="C23" s="4"/>
       <c r="D23" s="6"/>
     </row>
-    <row r="24" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="24" spans="2:4" x14ac:dyDescent="0.4">
       <c r="B24" s="4"/>
       <c r="C24" s="4"/>
       <c r="D24" s="6"/>
     </row>
-    <row r="25" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="25" spans="2:4" x14ac:dyDescent="0.4">
       <c r="B25" s="4"/>
       <c r="C25" s="4"/>
       <c r="D25" s="6"/>
     </row>
-    <row r="26" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="26" spans="2:4" x14ac:dyDescent="0.4">
       <c r="B26" s="4"/>
       <c r="C26" s="4"/>
       <c r="D26" s="6"/>
     </row>
-    <row r="27" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="27" spans="2:4" x14ac:dyDescent="0.4">
       <c r="B27" s="4"/>
       <c r="C27" s="4"/>
       <c r="D27" s="6"/>
     </row>
-    <row r="28" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="28" spans="2:4" x14ac:dyDescent="0.4">
       <c r="B28" s="4"/>
       <c r="C28" s="4"/>
       <c r="D28" s="6"/>
     </row>
-    <row r="29" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="29" spans="2:4" x14ac:dyDescent="0.4">
       <c r="B29" s="4"/>
       <c r="C29" s="4"/>
       <c r="D29" s="6"/>
     </row>
-    <row r="30" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="30" spans="2:4" x14ac:dyDescent="0.4">
       <c r="B30" s="4"/>
       <c r="C30" s="4"/>
       <c r="D30" s="6"/>
     </row>
-    <row r="31" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="31" spans="2:4" x14ac:dyDescent="0.4">
       <c r="B31" s="4"/>
       <c r="C31" s="4"/>
       <c r="D31" s="6"/>
     </row>
-    <row r="32" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="32" spans="2:4" x14ac:dyDescent="0.4">
       <c r="B32" s="4"/>
       <c r="C32" s="4"/>
       <c r="D32" s="6"/>
     </row>
-    <row r="33" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="33" spans="2:4" x14ac:dyDescent="0.4">
       <c r="B33" s="4"/>
       <c r="C33" s="4"/>
       <c r="D33" s="6"/>
     </row>
-    <row r="34" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="34" spans="2:4" x14ac:dyDescent="0.4">
       <c r="B34" s="4"/>
       <c r="C34" s="4"/>
       <c r="D34" s="6"/>
@@ -1018,20 +1025,20 @@
       <pane xSplit="1" ySplit="2" topLeftCell="B3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="D13" sqref="D13"/>
+      <selection pane="bottomRight" activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="12" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.2" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="1" max="1" width="6.5" style="20" customWidth="1"/>
-    <col min="2" max="2" width="12.25" style="21" customWidth="1"/>
-    <col min="3" max="3" width="22.75" style="21" customWidth="1"/>
-    <col min="4" max="4" width="91.625" style="20" customWidth="1"/>
-    <col min="5" max="5" width="39.25" style="20" customWidth="1"/>
+    <col min="2" max="2" width="12.19921875" style="21" customWidth="1"/>
+    <col min="3" max="3" width="22.69921875" style="21" customWidth="1"/>
+    <col min="4" max="4" width="91.59765625" style="20" customWidth="1"/>
+    <col min="5" max="5" width="39.19921875" style="20" customWidth="1"/>
     <col min="6" max="16384" width="9" style="20"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:5" s="17" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="2:5" s="17" customFormat="1" x14ac:dyDescent="0.4">
       <c r="B2" s="16" t="s">
         <v>30</v>
       </c>
@@ -1045,605 +1052,609 @@
         <v>33</v>
       </c>
     </row>
-    <row r="3" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="3" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B3" s="18" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="C3" s="18" t="s">
-        <v>39</v>
+        <v>59</v>
       </c>
       <c r="D3" s="19"/>
       <c r="E3" s="19"/>
     </row>
-    <row r="4" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B4" s="18" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="C4" s="18" t="s">
-        <v>40</v>
+        <v>58</v>
       </c>
       <c r="D4" s="19"/>
       <c r="E4" s="19"/>
     </row>
-    <row r="5" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="5" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B5" s="18" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="C5" s="18" t="s">
-        <v>43</v>
+        <v>60</v>
       </c>
       <c r="D5" s="19"/>
       <c r="E5" s="19"/>
     </row>
-    <row r="6" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="6" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B6" s="18" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="C6" s="18" t="s">
-        <v>45</v>
+        <v>62</v>
       </c>
       <c r="D6" s="19"/>
       <c r="E6" s="19"/>
     </row>
-    <row r="7" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B7" s="18"/>
-      <c r="C7" s="18"/>
+    <row r="7" spans="2:5" x14ac:dyDescent="0.4">
+      <c r="B7" s="18" t="s">
+        <v>39</v>
+      </c>
+      <c r="C7" s="18" t="s">
+        <v>63</v>
+      </c>
       <c r="D7" s="19"/>
       <c r="E7" s="19"/>
     </row>
-    <row r="8" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="8" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B8" s="18"/>
       <c r="C8" s="18"/>
       <c r="D8" s="19"/>
       <c r="E8" s="19"/>
     </row>
-    <row r="9" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="9" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B9" s="18"/>
       <c r="C9" s="18"/>
       <c r="D9" s="19"/>
       <c r="E9" s="19"/>
     </row>
-    <row r="10" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="10" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B10" s="18"/>
       <c r="C10" s="18"/>
       <c r="D10" s="19"/>
       <c r="E10" s="19"/>
     </row>
-    <row r="11" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="11" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B11" s="18"/>
       <c r="C11" s="18"/>
       <c r="D11" s="19"/>
       <c r="E11" s="19"/>
     </row>
-    <row r="12" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="12" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B12" s="18"/>
       <c r="C12" s="18"/>
       <c r="D12" s="19"/>
       <c r="E12" s="19"/>
     </row>
-    <row r="13" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="13" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B13" s="18"/>
       <c r="C13" s="18"/>
       <c r="D13" s="19"/>
       <c r="E13" s="19"/>
     </row>
-    <row r="14" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="14" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B14" s="18"/>
       <c r="C14" s="18"/>
       <c r="D14" s="19"/>
       <c r="E14" s="19"/>
     </row>
-    <row r="15" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="15" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B15" s="18"/>
       <c r="C15" s="18"/>
       <c r="D15" s="19"/>
       <c r="E15" s="19"/>
     </row>
-    <row r="16" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="16" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B16" s="18"/>
       <c r="C16" s="18"/>
       <c r="D16" s="19"/>
       <c r="E16" s="19"/>
     </row>
-    <row r="17" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="17" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B17" s="18"/>
       <c r="C17" s="18"/>
       <c r="D17" s="19"/>
       <c r="E17" s="19"/>
     </row>
-    <row r="18" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="18" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B18" s="18"/>
       <c r="C18" s="18"/>
       <c r="D18" s="19"/>
       <c r="E18" s="19"/>
     </row>
-    <row r="19" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="19" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B19" s="18"/>
       <c r="C19" s="18"/>
       <c r="D19" s="19"/>
       <c r="E19" s="19"/>
     </row>
-    <row r="20" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="20" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B20" s="18"/>
       <c r="C20" s="18"/>
       <c r="D20" s="19"/>
       <c r="E20" s="19"/>
     </row>
-    <row r="21" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="21" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B21" s="18"/>
       <c r="C21" s="18"/>
       <c r="D21" s="19"/>
       <c r="E21" s="19"/>
     </row>
-    <row r="22" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="22" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B22" s="18"/>
       <c r="C22" s="18"/>
       <c r="D22" s="19"/>
       <c r="E22" s="19"/>
     </row>
-    <row r="23" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="23" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B23" s="18"/>
       <c r="C23" s="18"/>
       <c r="D23" s="19"/>
       <c r="E23" s="19"/>
     </row>
-    <row r="24" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="24" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B24" s="18"/>
       <c r="C24" s="18"/>
       <c r="D24" s="19"/>
       <c r="E24" s="19"/>
     </row>
-    <row r="25" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="25" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B25" s="18"/>
       <c r="C25" s="18"/>
       <c r="D25" s="19"/>
       <c r="E25" s="19"/>
     </row>
-    <row r="26" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="26" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B26" s="18"/>
       <c r="C26" s="18"/>
       <c r="D26" s="19"/>
       <c r="E26" s="19"/>
     </row>
-    <row r="27" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="27" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B27" s="18"/>
       <c r="C27" s="18"/>
       <c r="D27" s="19"/>
       <c r="E27" s="19"/>
     </row>
-    <row r="28" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="28" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B28" s="18"/>
       <c r="C28" s="18"/>
       <c r="D28" s="19"/>
       <c r="E28" s="19"/>
     </row>
-    <row r="29" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="29" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B29" s="18"/>
       <c r="C29" s="18"/>
       <c r="D29" s="19"/>
       <c r="E29" s="19"/>
     </row>
-    <row r="30" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="30" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B30" s="18"/>
       <c r="C30" s="18"/>
       <c r="D30" s="19"/>
       <c r="E30" s="19"/>
     </row>
-    <row r="31" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="31" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B31" s="18"/>
       <c r="C31" s="18"/>
       <c r="D31" s="19"/>
       <c r="E31" s="19"/>
     </row>
-    <row r="32" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="32" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B32" s="18"/>
       <c r="C32" s="18"/>
       <c r="D32" s="19"/>
       <c r="E32" s="19"/>
     </row>
-    <row r="33" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="33" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B33" s="18"/>
       <c r="C33" s="18"/>
       <c r="D33" s="19"/>
       <c r="E33" s="19"/>
     </row>
-    <row r="34" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="34" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B34" s="18"/>
       <c r="C34" s="18"/>
       <c r="D34" s="19"/>
       <c r="E34" s="19"/>
     </row>
-    <row r="35" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="35" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B35" s="18"/>
       <c r="C35" s="18"/>
       <c r="D35" s="19"/>
       <c r="E35" s="19"/>
     </row>
-    <row r="36" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="36" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B36" s="18"/>
       <c r="C36" s="18"/>
       <c r="D36" s="19"/>
       <c r="E36" s="19"/>
     </row>
-    <row r="37" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="37" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B37" s="18"/>
       <c r="C37" s="18"/>
       <c r="D37" s="19"/>
       <c r="E37" s="19"/>
     </row>
-    <row r="38" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="38" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B38" s="18"/>
       <c r="C38" s="18"/>
       <c r="D38" s="19"/>
       <c r="E38" s="19"/>
     </row>
-    <row r="39" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="39" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B39" s="18"/>
       <c r="C39" s="18"/>
       <c r="D39" s="19"/>
       <c r="E39" s="19"/>
     </row>
-    <row r="40" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="40" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B40" s="18"/>
       <c r="C40" s="18"/>
       <c r="D40" s="19"/>
       <c r="E40" s="19"/>
     </row>
-    <row r="41" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="41" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B41" s="18"/>
       <c r="C41" s="18"/>
       <c r="D41" s="19"/>
       <c r="E41" s="19"/>
     </row>
-    <row r="42" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="42" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B42" s="18"/>
       <c r="C42" s="18"/>
       <c r="D42" s="19"/>
       <c r="E42" s="19"/>
     </row>
-    <row r="43" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="43" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B43" s="18"/>
       <c r="C43" s="18"/>
       <c r="D43" s="19"/>
       <c r="E43" s="19"/>
     </row>
-    <row r="44" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="44" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B44" s="18"/>
       <c r="C44" s="18"/>
       <c r="D44" s="19"/>
       <c r="E44" s="19"/>
     </row>
-    <row r="45" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="45" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B45" s="18"/>
       <c r="C45" s="18"/>
       <c r="D45" s="19"/>
       <c r="E45" s="19"/>
     </row>
-    <row r="46" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="46" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B46" s="18"/>
       <c r="C46" s="18"/>
       <c r="D46" s="19"/>
       <c r="E46" s="19"/>
     </row>
-    <row r="47" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="47" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B47" s="18"/>
       <c r="C47" s="18"/>
       <c r="D47" s="19"/>
       <c r="E47" s="19"/>
     </row>
-    <row r="48" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="48" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B48" s="18"/>
       <c r="C48" s="18"/>
       <c r="D48" s="19"/>
       <c r="E48" s="19"/>
     </row>
-    <row r="49" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="49" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B49" s="18"/>
       <c r="C49" s="18"/>
       <c r="D49" s="19"/>
       <c r="E49" s="19"/>
     </row>
-    <row r="50" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="50" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B50" s="18"/>
       <c r="C50" s="18"/>
       <c r="D50" s="19"/>
       <c r="E50" s="19"/>
     </row>
-    <row r="51" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="51" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B51" s="18"/>
       <c r="C51" s="18"/>
       <c r="D51" s="19"/>
       <c r="E51" s="19"/>
     </row>
-    <row r="52" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="52" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B52" s="18"/>
       <c r="C52" s="18"/>
       <c r="D52" s="19"/>
       <c r="E52" s="19"/>
     </row>
-    <row r="53" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="53" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B53" s="18"/>
       <c r="C53" s="18"/>
       <c r="D53" s="19"/>
       <c r="E53" s="19"/>
     </row>
-    <row r="54" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="54" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B54" s="18"/>
       <c r="C54" s="18"/>
       <c r="D54" s="19"/>
       <c r="E54" s="19"/>
     </row>
-    <row r="55" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="55" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B55" s="18"/>
       <c r="C55" s="18"/>
       <c r="D55" s="19"/>
       <c r="E55" s="19"/>
     </row>
-    <row r="56" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="56" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B56" s="18"/>
       <c r="C56" s="18"/>
       <c r="D56" s="19"/>
       <c r="E56" s="19"/>
     </row>
-    <row r="57" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="57" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B57" s="18"/>
       <c r="C57" s="18"/>
       <c r="D57" s="19"/>
       <c r="E57" s="19"/>
     </row>
-    <row r="58" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="58" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B58" s="18"/>
       <c r="C58" s="18"/>
       <c r="D58" s="19"/>
       <c r="E58" s="19"/>
     </row>
-    <row r="59" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="59" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B59" s="18"/>
       <c r="C59" s="18"/>
       <c r="D59" s="19"/>
       <c r="E59" s="19"/>
     </row>
-    <row r="60" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="60" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B60" s="18"/>
       <c r="C60" s="18"/>
       <c r="D60" s="19"/>
       <c r="E60" s="19"/>
     </row>
-    <row r="61" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="61" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B61" s="18"/>
       <c r="C61" s="18"/>
       <c r="D61" s="19"/>
       <c r="E61" s="19"/>
     </row>
-    <row r="62" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="62" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B62" s="18"/>
       <c r="C62" s="18"/>
       <c r="D62" s="19"/>
       <c r="E62" s="19"/>
     </row>
-    <row r="63" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="63" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B63" s="18"/>
       <c r="C63" s="18"/>
       <c r="D63" s="19"/>
       <c r="E63" s="19"/>
     </row>
-    <row r="64" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="64" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B64" s="18"/>
       <c r="C64" s="18"/>
       <c r="D64" s="19"/>
       <c r="E64" s="19"/>
     </row>
-    <row r="65" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="65" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B65" s="18"/>
       <c r="C65" s="18"/>
       <c r="D65" s="19"/>
       <c r="E65" s="19"/>
     </row>
-    <row r="66" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="66" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B66" s="18"/>
       <c r="C66" s="18"/>
       <c r="D66" s="19"/>
       <c r="E66" s="19"/>
     </row>
-    <row r="67" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="67" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B67" s="18"/>
       <c r="C67" s="18"/>
       <c r="D67" s="19"/>
       <c r="E67" s="19"/>
     </row>
-    <row r="68" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="68" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B68" s="18"/>
       <c r="C68" s="18"/>
       <c r="D68" s="19"/>
       <c r="E68" s="19"/>
     </row>
-    <row r="69" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="69" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B69" s="18"/>
       <c r="C69" s="18"/>
       <c r="D69" s="19"/>
       <c r="E69" s="19"/>
     </row>
-    <row r="70" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="70" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B70" s="18"/>
       <c r="C70" s="18"/>
       <c r="D70" s="19"/>
       <c r="E70" s="19"/>
     </row>
-    <row r="71" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="71" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B71" s="18"/>
       <c r="C71" s="18"/>
       <c r="D71" s="19"/>
       <c r="E71" s="19"/>
     </row>
-    <row r="72" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="72" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B72" s="18"/>
       <c r="C72" s="18"/>
       <c r="D72" s="19"/>
       <c r="E72" s="19"/>
     </row>
-    <row r="73" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="73" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B73" s="18"/>
       <c r="C73" s="18"/>
       <c r="D73" s="19"/>
       <c r="E73" s="19"/>
     </row>
-    <row r="74" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="74" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B74" s="18"/>
       <c r="C74" s="18"/>
       <c r="D74" s="19"/>
       <c r="E74" s="19"/>
     </row>
-    <row r="75" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="75" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B75" s="18"/>
       <c r="C75" s="18"/>
       <c r="D75" s="19"/>
       <c r="E75" s="19"/>
     </row>
-    <row r="76" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="76" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B76" s="18"/>
       <c r="C76" s="18"/>
       <c r="D76" s="19"/>
       <c r="E76" s="19"/>
     </row>
-    <row r="77" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="77" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B77" s="18"/>
       <c r="C77" s="18"/>
       <c r="D77" s="19"/>
       <c r="E77" s="19"/>
     </row>
-    <row r="78" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="78" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B78" s="18"/>
       <c r="C78" s="18"/>
       <c r="D78" s="19"/>
       <c r="E78" s="19"/>
     </row>
-    <row r="79" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="79" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B79" s="18"/>
       <c r="C79" s="18"/>
       <c r="D79" s="19"/>
       <c r="E79" s="19"/>
     </row>
-    <row r="80" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="80" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B80" s="18"/>
       <c r="C80" s="18"/>
       <c r="D80" s="19"/>
       <c r="E80" s="19"/>
     </row>
-    <row r="81" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="81" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B81" s="18"/>
       <c r="C81" s="18"/>
       <c r="D81" s="19"/>
       <c r="E81" s="19"/>
     </row>
-    <row r="82" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="82" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B82" s="18"/>
       <c r="C82" s="18"/>
       <c r="D82" s="19"/>
       <c r="E82" s="19"/>
     </row>
-    <row r="83" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="83" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B83" s="18"/>
       <c r="C83" s="18"/>
       <c r="D83" s="19"/>
       <c r="E83" s="19"/>
     </row>
-    <row r="84" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="84" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B84" s="18"/>
       <c r="C84" s="18"/>
       <c r="D84" s="19"/>
       <c r="E84" s="19"/>
     </row>
-    <row r="85" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="85" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B85" s="18"/>
       <c r="C85" s="18"/>
       <c r="D85" s="19"/>
       <c r="E85" s="19"/>
     </row>
-    <row r="86" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="86" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B86" s="18"/>
       <c r="C86" s="18"/>
       <c r="D86" s="19"/>
       <c r="E86" s="19"/>
     </row>
-    <row r="87" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="87" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B87" s="18"/>
       <c r="C87" s="18"/>
       <c r="D87" s="19"/>
       <c r="E87" s="19"/>
     </row>
-    <row r="88" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="88" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B88" s="18"/>
       <c r="C88" s="18"/>
       <c r="D88" s="19"/>
       <c r="E88" s="19"/>
     </row>
-    <row r="89" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="89" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B89" s="18"/>
       <c r="C89" s="18"/>
       <c r="D89" s="19"/>
       <c r="E89" s="19"/>
     </row>
-    <row r="90" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="90" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B90" s="18"/>
       <c r="C90" s="18"/>
       <c r="D90" s="19"/>
       <c r="E90" s="19"/>
     </row>
-    <row r="91" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="91" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B91" s="18"/>
       <c r="C91" s="18"/>
       <c r="D91" s="19"/>
       <c r="E91" s="19"/>
     </row>
-    <row r="92" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="92" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B92" s="18"/>
       <c r="C92" s="18"/>
       <c r="D92" s="19"/>
       <c r="E92" s="19"/>
     </row>
-    <row r="93" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="93" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B93" s="18"/>
       <c r="C93" s="18"/>
       <c r="D93" s="19"/>
       <c r="E93" s="19"/>
     </row>
-    <row r="94" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="94" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B94" s="18"/>
       <c r="C94" s="18"/>
       <c r="D94" s="19"/>
       <c r="E94" s="19"/>
     </row>
-    <row r="95" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="95" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B95" s="18"/>
       <c r="C95" s="18"/>
       <c r="D95" s="19"/>
       <c r="E95" s="19"/>
     </row>
-    <row r="96" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="96" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B96" s="18"/>
       <c r="C96" s="18"/>
       <c r="D96" s="19"/>
       <c r="E96" s="19"/>
     </row>
-    <row r="97" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="97" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B97" s="18"/>
       <c r="C97" s="18"/>
       <c r="D97" s="19"/>
       <c r="E97" s="19"/>
     </row>
-    <row r="98" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="98" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B98" s="18"/>
       <c r="C98" s="18"/>
       <c r="D98" s="19"/>
       <c r="E98" s="19"/>
     </row>
-    <row r="99" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="99" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B99" s="18"/>
       <c r="C99" s="18"/>
       <c r="D99" s="19"/>
       <c r="E99" s="19"/>
     </row>
-    <row r="100" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="100" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B100" s="18"/>
       <c r="C100" s="18"/>
       <c r="D100" s="19"/>
@@ -1653,37 +1664,37 @@
   <autoFilter ref="B2:E2"/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:K100"/>
+  <dimension ref="B2:J100"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" ySplit="2" topLeftCell="B3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="J17" sqref="J17"/>
+      <selection pane="bottomRight" activeCell="G14" sqref="G14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="12" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.2" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="1" max="1" width="4.5" style="1" customWidth="1"/>
-    <col min="2" max="2" width="24.75" style="9" customWidth="1"/>
-    <col min="3" max="3" width="11.625" style="9" customWidth="1"/>
+    <col min="2" max="2" width="24.69921875" style="9" customWidth="1"/>
+    <col min="3" max="3" width="11.59765625" style="9" customWidth="1"/>
     <col min="4" max="4" width="13.5" style="2" customWidth="1"/>
-    <col min="5" max="5" width="10.75" style="9" customWidth="1"/>
+    <col min="5" max="5" width="10.69921875" style="9" customWidth="1"/>
     <col min="6" max="6" width="11" style="10" customWidth="1"/>
-    <col min="7" max="7" width="11.375" style="9" customWidth="1"/>
+    <col min="7" max="7" width="11.3984375" style="9" customWidth="1"/>
     <col min="8" max="8" width="10" style="10" customWidth="1"/>
-    <col min="9" max="9" width="10.125" style="11" customWidth="1"/>
-    <col min="10" max="10" width="11.375" style="11" customWidth="1"/>
-    <col min="11" max="11" width="60.125" style="2" customWidth="1"/>
-    <col min="12" max="16384" width="9" style="1"/>
+    <col min="9" max="9" width="10.09765625" style="11" customWidth="1"/>
+    <col min="10" max="10" width="60.09765625" style="2" customWidth="1"/>
+    <col min="11" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:11" s="8" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="2:10" s="8" customFormat="1" x14ac:dyDescent="0.4">
       <c r="B2" s="3" t="s">
         <v>38</v>
       </c>
@@ -1706,16 +1717,13 @@
         <v>16</v>
       </c>
       <c r="I2" s="12" t="s">
-        <v>58</v>
-      </c>
-      <c r="J2" s="12" t="s">
-        <v>59</v>
-      </c>
-      <c r="K2" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="J2" s="3" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="3" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="3" spans="2:10" x14ac:dyDescent="0.4">
       <c r="B3" s="13"/>
       <c r="C3" s="13" t="s">
         <v>17</v>
@@ -1739,12 +1747,9 @@
         <f>IF(H3="", "", IFERROR( ((H3-F3)/F3), ""))</f>
         <v>3.3742331288343558E-2</v>
       </c>
-      <c r="J3" s="13" t="s">
-        <v>60</v>
-      </c>
-      <c r="K3" s="6"/>
-    </row>
-    <row r="4" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="J3" s="6"/>
+    </row>
+    <row r="4" spans="2:10" x14ac:dyDescent="0.4">
       <c r="B4" s="13"/>
       <c r="C4" s="13" t="s">
         <v>20</v>
@@ -1768,12 +1773,9 @@
         <f t="shared" ref="I4:I67" si="0">IF(H4="", "", IFERROR( ((H4-F4)/F4), ""))</f>
         <v>-8.7452471482889732E-2</v>
       </c>
-      <c r="J4" s="13" t="s">
-        <v>61</v>
-      </c>
-      <c r="K4" s="6"/>
-    </row>
-    <row r="5" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="J4" s="6"/>
+    </row>
+    <row r="5" spans="2:10" x14ac:dyDescent="0.4">
       <c r="B5" s="13"/>
       <c r="C5" s="13" t="s">
         <v>22</v>
@@ -1797,17 +1799,14 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="J5" s="13" t="s">
-        <v>60</v>
-      </c>
-      <c r="K5" s="6"/>
-    </row>
-    <row r="6" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="J5" s="6"/>
+    </row>
+    <row r="6" spans="2:10" x14ac:dyDescent="0.4">
       <c r="B6" s="13" t="s">
-        <v>40</v>
+        <v>57</v>
       </c>
       <c r="C6" s="13" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="D6" s="6" t="s">
         <v>35</v>
@@ -1824,14 +1823,11 @@
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="J6" s="13" t="s">
-        <v>60</v>
-      </c>
-      <c r="K6" s="6"/>
-    </row>
-    <row r="7" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="J6" s="6"/>
+    </row>
+    <row r="7" spans="2:10" x14ac:dyDescent="0.4">
       <c r="B7" s="13" t="s">
-        <v>40</v>
+        <v>57</v>
       </c>
       <c r="C7" s="13" t="s">
         <v>36</v>
@@ -1846,7 +1842,7 @@
         <v>11400</v>
       </c>
       <c r="G7" s="13" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="H7" s="14">
         <v>11050</v>
@@ -1855,22 +1851,19 @@
         <f t="shared" si="0"/>
         <v>-3.0701754385964911E-2</v>
       </c>
-      <c r="J7" s="13" t="s">
-        <v>60</v>
-      </c>
-      <c r="K7" s="6" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="8" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="J7" s="6" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="8" spans="2:10" x14ac:dyDescent="0.4">
       <c r="B8" s="13" t="s">
-        <v>44</v>
+        <v>61</v>
       </c>
       <c r="C8" s="13" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="D8" s="6" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="E8" s="13" t="s">
         <v>34</v>
@@ -1879,7 +1872,7 @@
         <v>24550</v>
       </c>
       <c r="G8" s="13" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="H8" s="14">
         <v>27200</v>
@@ -1888,20 +1881,17 @@
         <f t="shared" si="0"/>
         <v>0.1079429735234216</v>
       </c>
-      <c r="J8" s="13" t="s">
+      <c r="J8" s="6"/>
+    </row>
+    <row r="9" spans="2:10" x14ac:dyDescent="0.4">
+      <c r="B9" s="13" t="s">
         <v>61</v>
       </c>
-      <c r="K8" s="6"/>
-    </row>
-    <row r="9" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B9" s="13" t="s">
-        <v>44</v>
-      </c>
       <c r="C9" s="13" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="D9" s="6" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="E9" s="13" t="s">
         <v>34</v>
@@ -1910,7 +1900,7 @@
         <v>4210</v>
       </c>
       <c r="G9" s="13" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="H9" s="14">
         <v>4705</v>
@@ -1919,20 +1909,17 @@
         <f t="shared" si="0"/>
         <v>0.11757719714964371</v>
       </c>
-      <c r="J9" s="13" t="s">
+      <c r="J9" s="6"/>
+    </row>
+    <row r="10" spans="2:10" x14ac:dyDescent="0.4">
+      <c r="B10" s="13" t="s">
         <v>61</v>
       </c>
-      <c r="K9" s="6"/>
-    </row>
-    <row r="10" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B10" s="13" t="s">
-        <v>44</v>
-      </c>
       <c r="C10" s="13" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="D10" s="6" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="E10" s="13" t="s">
         <v>34</v>
@@ -1941,7 +1928,7 @@
         <v>1515</v>
       </c>
       <c r="G10" s="13" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="H10" s="14">
         <v>1450</v>
@@ -1950,22 +1937,19 @@
         <f t="shared" si="0"/>
         <v>-4.2904290429042903E-2</v>
       </c>
-      <c r="J10" s="13" t="s">
-        <v>60</v>
-      </c>
-      <c r="K10" s="6" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="11" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="J10" s="6" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="11" spans="2:10" x14ac:dyDescent="0.4">
       <c r="B11" s="13" t="s">
-        <v>44</v>
+        <v>61</v>
       </c>
       <c r="C11" s="13" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="D11" s="6" t="s">
-        <v>63</v>
+        <v>54</v>
       </c>
       <c r="E11" s="13" t="s">
         <v>34</v>
@@ -1974,7 +1958,7 @@
         <v>13000</v>
       </c>
       <c r="G11" s="13" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="H11" s="14">
         <v>16900</v>
@@ -1983,29 +1967,26 @@
         <f t="shared" si="0"/>
         <v>0.3</v>
       </c>
-      <c r="J11" s="13" t="s">
-        <v>61</v>
-      </c>
-      <c r="K11" s="6" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="12" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="J11" s="6" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="12" spans="2:10" x14ac:dyDescent="0.4">
       <c r="B12" s="13"/>
       <c r="C12" s="13" t="s">
-        <v>54</v>
+        <v>70</v>
       </c>
       <c r="D12" s="6" t="s">
-        <v>64</v>
+        <v>55</v>
       </c>
       <c r="E12" s="13" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="F12" s="14">
         <v>7980</v>
       </c>
       <c r="G12" s="13" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="H12" s="14">
         <v>8410</v>
@@ -2014,59 +1995,83 @@
         <f t="shared" si="0"/>
         <v>5.3884711779448619E-2</v>
       </c>
-      <c r="J12" s="13" t="s">
-        <v>61</v>
-      </c>
-      <c r="K12" s="6" t="s">
+      <c r="J12" s="6" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="13" spans="2:10" x14ac:dyDescent="0.4">
+      <c r="B13" s="13" t="s">
+        <v>63</v>
+      </c>
+      <c r="C13" s="13" t="s">
+        <v>64</v>
+      </c>
+      <c r="D13" s="6" t="s">
         <v>65</v>
       </c>
-    </row>
-    <row r="13" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B13" s="13"/>
-      <c r="C13" s="13"/>
-      <c r="D13" s="6"/>
-      <c r="E13" s="13"/>
-      <c r="F13" s="14"/>
+      <c r="E13" s="13" t="s">
+        <v>49</v>
+      </c>
+      <c r="F13" s="14">
+        <v>32150</v>
+      </c>
       <c r="G13" s="13"/>
       <c r="H13" s="14"/>
       <c r="I13" s="15" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="J13" s="13"/>
-      <c r="K13" s="6"/>
-    </row>
-    <row r="14" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B14" s="13"/>
-      <c r="C14" s="13"/>
-      <c r="D14" s="6"/>
-      <c r="E14" s="13"/>
-      <c r="F14" s="14"/>
+      <c r="J13" s="6"/>
+    </row>
+    <row r="14" spans="2:10" x14ac:dyDescent="0.4">
+      <c r="B14" s="13" t="s">
+        <v>63</v>
+      </c>
+      <c r="C14" s="13" t="s">
+        <v>66</v>
+      </c>
+      <c r="D14" s="6" t="s">
+        <v>67</v>
+      </c>
+      <c r="E14" s="13" t="s">
+        <v>49</v>
+      </c>
+      <c r="F14" s="14">
+        <v>6970</v>
+      </c>
       <c r="G14" s="13"/>
       <c r="H14" s="14"/>
       <c r="I14" s="15" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="J14" s="13"/>
-      <c r="K14" s="6"/>
-    </row>
-    <row r="15" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B15" s="13"/>
-      <c r="C15" s="13"/>
-      <c r="D15" s="6"/>
-      <c r="E15" s="13"/>
-      <c r="F15" s="14"/>
+      <c r="J14" s="6"/>
+    </row>
+    <row r="15" spans="2:10" x14ac:dyDescent="0.4">
+      <c r="B15" s="13" t="s">
+        <v>63</v>
+      </c>
+      <c r="C15" s="13" t="s">
+        <v>68</v>
+      </c>
+      <c r="D15" s="6" t="s">
+        <v>69</v>
+      </c>
+      <c r="E15" s="13" t="s">
+        <v>49</v>
+      </c>
+      <c r="F15" s="14">
+        <v>7170</v>
+      </c>
       <c r="G15" s="13"/>
       <c r="H15" s="14"/>
       <c r="I15" s="15" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="J15" s="13"/>
-      <c r="K15" s="6"/>
-    </row>
-    <row r="16" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="J15" s="6"/>
+    </row>
+    <row r="16" spans="2:10" x14ac:dyDescent="0.4">
       <c r="B16" s="13"/>
       <c r="C16" s="13"/>
       <c r="D16" s="6"/>
@@ -2078,10 +2083,9 @@
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="J16" s="13"/>
-      <c r="K16" s="6"/>
-    </row>
-    <row r="17" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="J16" s="6"/>
+    </row>
+    <row r="17" spans="2:10" x14ac:dyDescent="0.4">
       <c r="B17" s="13"/>
       <c r="C17" s="13"/>
       <c r="D17" s="6"/>
@@ -2093,10 +2097,9 @@
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="J17" s="13"/>
-      <c r="K17" s="6"/>
-    </row>
-    <row r="18" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="J17" s="6"/>
+    </row>
+    <row r="18" spans="2:10" x14ac:dyDescent="0.4">
       <c r="B18" s="13"/>
       <c r="C18" s="13"/>
       <c r="D18" s="6"/>
@@ -2108,10 +2111,9 @@
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="J18" s="13"/>
-      <c r="K18" s="6"/>
-    </row>
-    <row r="19" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="J18" s="6"/>
+    </row>
+    <row r="19" spans="2:10" x14ac:dyDescent="0.4">
       <c r="B19" s="13"/>
       <c r="C19" s="13"/>
       <c r="D19" s="6"/>
@@ -2123,10 +2125,9 @@
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="J19" s="13"/>
-      <c r="K19" s="6"/>
-    </row>
-    <row r="20" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="J19" s="6"/>
+    </row>
+    <row r="20" spans="2:10" x14ac:dyDescent="0.4">
       <c r="B20" s="13"/>
       <c r="C20" s="13"/>
       <c r="D20" s="6"/>
@@ -2138,10 +2139,9 @@
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="J20" s="13"/>
-      <c r="K20" s="6"/>
-    </row>
-    <row r="21" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="J20" s="6"/>
+    </row>
+    <row r="21" spans="2:10" x14ac:dyDescent="0.4">
       <c r="B21" s="13"/>
       <c r="C21" s="13"/>
       <c r="D21" s="6"/>
@@ -2153,10 +2153,9 @@
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="J21" s="13"/>
-      <c r="K21" s="6"/>
-    </row>
-    <row r="22" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="J21" s="6"/>
+    </row>
+    <row r="22" spans="2:10" x14ac:dyDescent="0.4">
       <c r="B22" s="13"/>
       <c r="C22" s="13"/>
       <c r="D22" s="6"/>
@@ -2168,10 +2167,9 @@
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="J22" s="13"/>
-      <c r="K22" s="6"/>
-    </row>
-    <row r="23" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="J22" s="6"/>
+    </row>
+    <row r="23" spans="2:10" x14ac:dyDescent="0.4">
       <c r="B23" s="13"/>
       <c r="C23" s="13"/>
       <c r="D23" s="6"/>
@@ -2183,10 +2181,9 @@
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="J23" s="13"/>
-      <c r="K23" s="6"/>
-    </row>
-    <row r="24" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="J23" s="6"/>
+    </row>
+    <row r="24" spans="2:10" x14ac:dyDescent="0.4">
       <c r="B24" s="13"/>
       <c r="C24" s="13"/>
       <c r="D24" s="6"/>
@@ -2198,10 +2195,9 @@
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="J24" s="13"/>
-      <c r="K24" s="6"/>
-    </row>
-    <row r="25" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="J24" s="6"/>
+    </row>
+    <row r="25" spans="2:10" x14ac:dyDescent="0.4">
       <c r="B25" s="13"/>
       <c r="C25" s="13"/>
       <c r="D25" s="6"/>
@@ -2213,10 +2209,9 @@
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="J25" s="13"/>
-      <c r="K25" s="6"/>
-    </row>
-    <row r="26" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="J25" s="6"/>
+    </row>
+    <row r="26" spans="2:10" x14ac:dyDescent="0.4">
       <c r="B26" s="13"/>
       <c r="C26" s="13"/>
       <c r="D26" s="6"/>
@@ -2228,10 +2223,9 @@
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="J26" s="13"/>
-      <c r="K26" s="6"/>
-    </row>
-    <row r="27" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="J26" s="6"/>
+    </row>
+    <row r="27" spans="2:10" x14ac:dyDescent="0.4">
       <c r="B27" s="13"/>
       <c r="C27" s="13"/>
       <c r="D27" s="6"/>
@@ -2243,10 +2237,9 @@
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="J27" s="13"/>
-      <c r="K27" s="6"/>
-    </row>
-    <row r="28" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="J27" s="6"/>
+    </row>
+    <row r="28" spans="2:10" x14ac:dyDescent="0.4">
       <c r="B28" s="13"/>
       <c r="C28" s="13"/>
       <c r="D28" s="6"/>
@@ -2258,10 +2251,9 @@
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="J28" s="13"/>
-      <c r="K28" s="6"/>
-    </row>
-    <row r="29" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="J28" s="6"/>
+    </row>
+    <row r="29" spans="2:10" x14ac:dyDescent="0.4">
       <c r="B29" s="13"/>
       <c r="C29" s="13"/>
       <c r="D29" s="6"/>
@@ -2273,10 +2265,9 @@
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="J29" s="13"/>
-      <c r="K29" s="6"/>
-    </row>
-    <row r="30" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="J29" s="6"/>
+    </row>
+    <row r="30" spans="2:10" x14ac:dyDescent="0.4">
       <c r="B30" s="13"/>
       <c r="C30" s="13"/>
       <c r="D30" s="6"/>
@@ -2288,10 +2279,9 @@
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="J30" s="13"/>
-      <c r="K30" s="6"/>
-    </row>
-    <row r="31" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="J30" s="6"/>
+    </row>
+    <row r="31" spans="2:10" x14ac:dyDescent="0.4">
       <c r="B31" s="13"/>
       <c r="C31" s="13"/>
       <c r="D31" s="6"/>
@@ -2303,10 +2293,9 @@
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="J31" s="13"/>
-      <c r="K31" s="6"/>
-    </row>
-    <row r="32" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="J31" s="6"/>
+    </row>
+    <row r="32" spans="2:10" x14ac:dyDescent="0.4">
       <c r="B32" s="13"/>
       <c r="C32" s="13"/>
       <c r="D32" s="6"/>
@@ -2318,10 +2307,9 @@
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="J32" s="13"/>
-      <c r="K32" s="6"/>
-    </row>
-    <row r="33" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="J32" s="6"/>
+    </row>
+    <row r="33" spans="2:10" x14ac:dyDescent="0.4">
       <c r="B33" s="13"/>
       <c r="C33" s="13"/>
       <c r="D33" s="6"/>
@@ -2333,10 +2321,9 @@
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="J33" s="13"/>
-      <c r="K33" s="6"/>
-    </row>
-    <row r="34" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="J33" s="6"/>
+    </row>
+    <row r="34" spans="2:10" x14ac:dyDescent="0.4">
       <c r="B34" s="13"/>
       <c r="C34" s="13"/>
       <c r="D34" s="6"/>
@@ -2348,10 +2335,9 @@
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="J34" s="13"/>
-      <c r="K34" s="6"/>
-    </row>
-    <row r="35" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="J34" s="6"/>
+    </row>
+    <row r="35" spans="2:10" x14ac:dyDescent="0.4">
       <c r="B35" s="13"/>
       <c r="C35" s="13"/>
       <c r="D35" s="6"/>
@@ -2363,10 +2349,9 @@
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="J35" s="13"/>
-      <c r="K35" s="6"/>
-    </row>
-    <row r="36" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="J35" s="6"/>
+    </row>
+    <row r="36" spans="2:10" x14ac:dyDescent="0.4">
       <c r="B36" s="13"/>
       <c r="C36" s="13"/>
       <c r="D36" s="6"/>
@@ -2378,10 +2363,9 @@
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="J36" s="13"/>
-      <c r="K36" s="6"/>
-    </row>
-    <row r="37" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="J36" s="6"/>
+    </row>
+    <row r="37" spans="2:10" x14ac:dyDescent="0.4">
       <c r="B37" s="13"/>
       <c r="C37" s="13"/>
       <c r="D37" s="6"/>
@@ -2393,10 +2377,9 @@
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="J37" s="13"/>
-      <c r="K37" s="6"/>
-    </row>
-    <row r="38" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="J37" s="6"/>
+    </row>
+    <row r="38" spans="2:10" x14ac:dyDescent="0.4">
       <c r="B38" s="13"/>
       <c r="C38" s="13"/>
       <c r="D38" s="6"/>
@@ -2408,10 +2391,9 @@
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="J38" s="13"/>
-      <c r="K38" s="6"/>
-    </row>
-    <row r="39" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="J38" s="6"/>
+    </row>
+    <row r="39" spans="2:10" x14ac:dyDescent="0.4">
       <c r="B39" s="13"/>
       <c r="C39" s="13"/>
       <c r="D39" s="6"/>
@@ -2423,10 +2405,9 @@
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="J39" s="13"/>
-      <c r="K39" s="6"/>
-    </row>
-    <row r="40" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="J39" s="6"/>
+    </row>
+    <row r="40" spans="2:10" x14ac:dyDescent="0.4">
       <c r="B40" s="13"/>
       <c r="C40" s="13"/>
       <c r="D40" s="6"/>
@@ -2438,10 +2419,9 @@
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="J40" s="13"/>
-      <c r="K40" s="6"/>
-    </row>
-    <row r="41" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="J40" s="6"/>
+    </row>
+    <row r="41" spans="2:10" x14ac:dyDescent="0.4">
       <c r="B41" s="13"/>
       <c r="C41" s="13"/>
       <c r="D41" s="6"/>
@@ -2453,10 +2433,9 @@
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="J41" s="13"/>
-      <c r="K41" s="6"/>
-    </row>
-    <row r="42" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="J41" s="6"/>
+    </row>
+    <row r="42" spans="2:10" x14ac:dyDescent="0.4">
       <c r="B42" s="13"/>
       <c r="C42" s="13"/>
       <c r="D42" s="6"/>
@@ -2468,10 +2447,9 @@
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="J42" s="13"/>
-      <c r="K42" s="6"/>
-    </row>
-    <row r="43" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="J42" s="6"/>
+    </row>
+    <row r="43" spans="2:10" x14ac:dyDescent="0.4">
       <c r="B43" s="13"/>
       <c r="C43" s="13"/>
       <c r="D43" s="6"/>
@@ -2483,10 +2461,9 @@
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="J43" s="13"/>
-      <c r="K43" s="6"/>
-    </row>
-    <row r="44" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="J43" s="6"/>
+    </row>
+    <row r="44" spans="2:10" x14ac:dyDescent="0.4">
       <c r="B44" s="13"/>
       <c r="C44" s="13"/>
       <c r="D44" s="6"/>
@@ -2498,10 +2475,9 @@
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="J44" s="13"/>
-      <c r="K44" s="6"/>
-    </row>
-    <row r="45" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="J44" s="6"/>
+    </row>
+    <row r="45" spans="2:10" x14ac:dyDescent="0.4">
       <c r="B45" s="13"/>
       <c r="C45" s="13"/>
       <c r="D45" s="6"/>
@@ -2513,10 +2489,9 @@
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="J45" s="13"/>
-      <c r="K45" s="6"/>
-    </row>
-    <row r="46" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="J45" s="6"/>
+    </row>
+    <row r="46" spans="2:10" x14ac:dyDescent="0.4">
       <c r="B46" s="13"/>
       <c r="C46" s="13"/>
       <c r="D46" s="6"/>
@@ -2528,10 +2503,9 @@
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="J46" s="13"/>
-      <c r="K46" s="6"/>
-    </row>
-    <row r="47" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="J46" s="6"/>
+    </row>
+    <row r="47" spans="2:10" x14ac:dyDescent="0.4">
       <c r="B47" s="13"/>
       <c r="C47" s="13"/>
       <c r="D47" s="6"/>
@@ -2543,10 +2517,9 @@
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="J47" s="13"/>
-      <c r="K47" s="6"/>
-    </row>
-    <row r="48" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="J47" s="6"/>
+    </row>
+    <row r="48" spans="2:10" x14ac:dyDescent="0.4">
       <c r="B48" s="13"/>
       <c r="C48" s="13"/>
       <c r="D48" s="6"/>
@@ -2558,10 +2531,9 @@
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="J48" s="13"/>
-      <c r="K48" s="6"/>
-    </row>
-    <row r="49" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="J48" s="6"/>
+    </row>
+    <row r="49" spans="2:10" x14ac:dyDescent="0.4">
       <c r="B49" s="13"/>
       <c r="C49" s="13"/>
       <c r="D49" s="6"/>
@@ -2573,10 +2545,9 @@
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="J49" s="13"/>
-      <c r="K49" s="6"/>
-    </row>
-    <row r="50" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="J49" s="6"/>
+    </row>
+    <row r="50" spans="2:10" x14ac:dyDescent="0.4">
       <c r="B50" s="13"/>
       <c r="C50" s="13"/>
       <c r="D50" s="6"/>
@@ -2588,10 +2559,9 @@
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="J50" s="13"/>
-      <c r="K50" s="6"/>
-    </row>
-    <row r="51" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="J50" s="6"/>
+    </row>
+    <row r="51" spans="2:10" x14ac:dyDescent="0.4">
       <c r="B51" s="13"/>
       <c r="C51" s="13"/>
       <c r="D51" s="6"/>
@@ -2603,10 +2573,9 @@
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="J51" s="13"/>
-      <c r="K51" s="6"/>
-    </row>
-    <row r="52" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="J51" s="6"/>
+    </row>
+    <row r="52" spans="2:10" x14ac:dyDescent="0.4">
       <c r="B52" s="13"/>
       <c r="C52" s="13"/>
       <c r="D52" s="6"/>
@@ -2618,10 +2587,9 @@
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="J52" s="13"/>
-      <c r="K52" s="6"/>
-    </row>
-    <row r="53" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="J52" s="6"/>
+    </row>
+    <row r="53" spans="2:10" x14ac:dyDescent="0.4">
       <c r="B53" s="13"/>
       <c r="C53" s="13"/>
       <c r="D53" s="6"/>
@@ -2633,10 +2601,9 @@
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="J53" s="13"/>
-      <c r="K53" s="6"/>
-    </row>
-    <row r="54" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="J53" s="6"/>
+    </row>
+    <row r="54" spans="2:10" x14ac:dyDescent="0.4">
       <c r="B54" s="13"/>
       <c r="C54" s="13"/>
       <c r="D54" s="6"/>
@@ -2648,10 +2615,9 @@
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="J54" s="13"/>
-      <c r="K54" s="6"/>
-    </row>
-    <row r="55" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="J54" s="6"/>
+    </row>
+    <row r="55" spans="2:10" x14ac:dyDescent="0.4">
       <c r="B55" s="13"/>
       <c r="C55" s="13"/>
       <c r="D55" s="6"/>
@@ -2663,10 +2629,9 @@
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="J55" s="13"/>
-      <c r="K55" s="6"/>
-    </row>
-    <row r="56" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="J55" s="6"/>
+    </row>
+    <row r="56" spans="2:10" x14ac:dyDescent="0.4">
       <c r="B56" s="13"/>
       <c r="C56" s="13"/>
       <c r="D56" s="6"/>
@@ -2678,10 +2643,9 @@
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="J56" s="13"/>
-      <c r="K56" s="6"/>
-    </row>
-    <row r="57" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="J56" s="6"/>
+    </row>
+    <row r="57" spans="2:10" x14ac:dyDescent="0.4">
       <c r="B57" s="13"/>
       <c r="C57" s="13"/>
       <c r="D57" s="6"/>
@@ -2693,10 +2657,9 @@
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="J57" s="13"/>
-      <c r="K57" s="6"/>
-    </row>
-    <row r="58" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="J57" s="6"/>
+    </row>
+    <row r="58" spans="2:10" x14ac:dyDescent="0.4">
       <c r="B58" s="13"/>
       <c r="C58" s="13"/>
       <c r="D58" s="6"/>
@@ -2708,10 +2671,9 @@
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="J58" s="13"/>
-      <c r="K58" s="6"/>
-    </row>
-    <row r="59" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="J58" s="6"/>
+    </row>
+    <row r="59" spans="2:10" x14ac:dyDescent="0.4">
       <c r="B59" s="13"/>
       <c r="C59" s="13"/>
       <c r="D59" s="6"/>
@@ -2723,10 +2685,9 @@
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="J59" s="13"/>
-      <c r="K59" s="6"/>
-    </row>
-    <row r="60" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="J59" s="6"/>
+    </row>
+    <row r="60" spans="2:10" x14ac:dyDescent="0.4">
       <c r="B60" s="13"/>
       <c r="C60" s="13"/>
       <c r="D60" s="6"/>
@@ -2738,10 +2699,9 @@
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="J60" s="13"/>
-      <c r="K60" s="6"/>
-    </row>
-    <row r="61" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="J60" s="6"/>
+    </row>
+    <row r="61" spans="2:10" x14ac:dyDescent="0.4">
       <c r="B61" s="13"/>
       <c r="C61" s="13"/>
       <c r="D61" s="6"/>
@@ -2753,10 +2713,9 @@
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="J61" s="13"/>
-      <c r="K61" s="6"/>
-    </row>
-    <row r="62" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="J61" s="6"/>
+    </row>
+    <row r="62" spans="2:10" x14ac:dyDescent="0.4">
       <c r="B62" s="13"/>
       <c r="C62" s="13"/>
       <c r="D62" s="6"/>
@@ -2768,10 +2727,9 @@
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="J62" s="13"/>
-      <c r="K62" s="6"/>
-    </row>
-    <row r="63" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="J62" s="6"/>
+    </row>
+    <row r="63" spans="2:10" x14ac:dyDescent="0.4">
       <c r="B63" s="13"/>
       <c r="C63" s="13"/>
       <c r="D63" s="6"/>
@@ -2783,10 +2741,9 @@
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="J63" s="13"/>
-      <c r="K63" s="6"/>
-    </row>
-    <row r="64" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="J63" s="6"/>
+    </row>
+    <row r="64" spans="2:10" x14ac:dyDescent="0.4">
       <c r="B64" s="13"/>
       <c r="C64" s="13"/>
       <c r="D64" s="6"/>
@@ -2798,10 +2755,9 @@
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="J64" s="13"/>
-      <c r="K64" s="6"/>
-    </row>
-    <row r="65" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="J64" s="6"/>
+    </row>
+    <row r="65" spans="2:10" x14ac:dyDescent="0.4">
       <c r="B65" s="13"/>
       <c r="C65" s="13"/>
       <c r="D65" s="6"/>
@@ -2813,10 +2769,9 @@
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="J65" s="13"/>
-      <c r="K65" s="6"/>
-    </row>
-    <row r="66" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="J65" s="6"/>
+    </row>
+    <row r="66" spans="2:10" x14ac:dyDescent="0.4">
       <c r="B66" s="13"/>
       <c r="C66" s="13"/>
       <c r="D66" s="6"/>
@@ -2828,10 +2783,9 @@
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="J66" s="13"/>
-      <c r="K66" s="6"/>
-    </row>
-    <row r="67" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="J66" s="6"/>
+    </row>
+    <row r="67" spans="2:10" x14ac:dyDescent="0.4">
       <c r="B67" s="13"/>
       <c r="C67" s="13"/>
       <c r="D67" s="6"/>
@@ -2843,10 +2797,9 @@
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="J67" s="13"/>
-      <c r="K67" s="6"/>
-    </row>
-    <row r="68" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="J67" s="6"/>
+    </row>
+    <row r="68" spans="2:10" x14ac:dyDescent="0.4">
       <c r="B68" s="13"/>
       <c r="C68" s="13"/>
       <c r="D68" s="6"/>
@@ -2858,10 +2811,9 @@
         <f t="shared" ref="I68:I100" si="1">IF(H68="", "", IFERROR( ((H68-F68)/F68), ""))</f>
         <v/>
       </c>
-      <c r="J68" s="13"/>
-      <c r="K68" s="6"/>
-    </row>
-    <row r="69" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="J68" s="6"/>
+    </row>
+    <row r="69" spans="2:10" x14ac:dyDescent="0.4">
       <c r="B69" s="13"/>
       <c r="C69" s="13"/>
       <c r="D69" s="6"/>
@@ -2873,10 +2825,9 @@
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="J69" s="13"/>
-      <c r="K69" s="6"/>
-    </row>
-    <row r="70" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="J69" s="6"/>
+    </row>
+    <row r="70" spans="2:10" x14ac:dyDescent="0.4">
       <c r="B70" s="13"/>
       <c r="C70" s="13"/>
       <c r="D70" s="6"/>
@@ -2888,10 +2839,9 @@
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="J70" s="13"/>
-      <c r="K70" s="6"/>
-    </row>
-    <row r="71" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="J70" s="6"/>
+    </row>
+    <row r="71" spans="2:10" x14ac:dyDescent="0.4">
       <c r="B71" s="13"/>
       <c r="C71" s="13"/>
       <c r="D71" s="6"/>
@@ -2903,10 +2853,9 @@
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="J71" s="13"/>
-      <c r="K71" s="6"/>
-    </row>
-    <row r="72" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="J71" s="6"/>
+    </row>
+    <row r="72" spans="2:10" x14ac:dyDescent="0.4">
       <c r="B72" s="13"/>
       <c r="C72" s="13"/>
       <c r="D72" s="6"/>
@@ -2918,10 +2867,9 @@
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="J72" s="13"/>
-      <c r="K72" s="6"/>
-    </row>
-    <row r="73" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="J72" s="6"/>
+    </row>
+    <row r="73" spans="2:10" x14ac:dyDescent="0.4">
       <c r="B73" s="13"/>
       <c r="C73" s="13"/>
       <c r="D73" s="6"/>
@@ -2933,10 +2881,9 @@
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="J73" s="13"/>
-      <c r="K73" s="6"/>
-    </row>
-    <row r="74" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="J73" s="6"/>
+    </row>
+    <row r="74" spans="2:10" x14ac:dyDescent="0.4">
       <c r="B74" s="13"/>
       <c r="C74" s="13"/>
       <c r="D74" s="6"/>
@@ -2948,10 +2895,9 @@
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="J74" s="13"/>
-      <c r="K74" s="6"/>
-    </row>
-    <row r="75" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="J74" s="6"/>
+    </row>
+    <row r="75" spans="2:10" x14ac:dyDescent="0.4">
       <c r="B75" s="13"/>
       <c r="C75" s="13"/>
       <c r="D75" s="6"/>
@@ -2963,10 +2909,9 @@
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="J75" s="13"/>
-      <c r="K75" s="6"/>
-    </row>
-    <row r="76" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="J75" s="6"/>
+    </row>
+    <row r="76" spans="2:10" x14ac:dyDescent="0.4">
       <c r="B76" s="13"/>
       <c r="C76" s="13"/>
       <c r="D76" s="6"/>
@@ -2978,10 +2923,9 @@
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="J76" s="13"/>
-      <c r="K76" s="6"/>
-    </row>
-    <row r="77" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="J76" s="6"/>
+    </row>
+    <row r="77" spans="2:10" x14ac:dyDescent="0.4">
       <c r="B77" s="13"/>
       <c r="C77" s="13"/>
       <c r="D77" s="6"/>
@@ -2993,10 +2937,9 @@
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="J77" s="13"/>
-      <c r="K77" s="6"/>
-    </row>
-    <row r="78" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="J77" s="6"/>
+    </row>
+    <row r="78" spans="2:10" x14ac:dyDescent="0.4">
       <c r="B78" s="13"/>
       <c r="C78" s="13"/>
       <c r="D78" s="6"/>
@@ -3008,10 +2951,9 @@
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="J78" s="13"/>
-      <c r="K78" s="6"/>
-    </row>
-    <row r="79" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="J78" s="6"/>
+    </row>
+    <row r="79" spans="2:10" x14ac:dyDescent="0.4">
       <c r="B79" s="13"/>
       <c r="C79" s="13"/>
       <c r="D79" s="6"/>
@@ -3023,10 +2965,9 @@
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="J79" s="13"/>
-      <c r="K79" s="6"/>
-    </row>
-    <row r="80" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="J79" s="6"/>
+    </row>
+    <row r="80" spans="2:10" x14ac:dyDescent="0.4">
       <c r="B80" s="13"/>
       <c r="C80" s="13"/>
       <c r="D80" s="6"/>
@@ -3038,10 +2979,9 @@
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="J80" s="13"/>
-      <c r="K80" s="6"/>
-    </row>
-    <row r="81" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="J80" s="6"/>
+    </row>
+    <row r="81" spans="2:10" x14ac:dyDescent="0.4">
       <c r="B81" s="13"/>
       <c r="C81" s="13"/>
       <c r="D81" s="6"/>
@@ -3053,10 +2993,9 @@
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="J81" s="13"/>
-      <c r="K81" s="6"/>
-    </row>
-    <row r="82" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="J81" s="6"/>
+    </row>
+    <row r="82" spans="2:10" x14ac:dyDescent="0.4">
       <c r="B82" s="13"/>
       <c r="C82" s="13"/>
       <c r="D82" s="6"/>
@@ -3068,10 +3007,9 @@
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="J82" s="13"/>
-      <c r="K82" s="6"/>
-    </row>
-    <row r="83" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="J82" s="6"/>
+    </row>
+    <row r="83" spans="2:10" x14ac:dyDescent="0.4">
       <c r="B83" s="13"/>
       <c r="C83" s="13"/>
       <c r="D83" s="6"/>
@@ -3083,10 +3021,9 @@
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="J83" s="13"/>
-      <c r="K83" s="6"/>
-    </row>
-    <row r="84" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="J83" s="6"/>
+    </row>
+    <row r="84" spans="2:10" x14ac:dyDescent="0.4">
       <c r="B84" s="13"/>
       <c r="C84" s="13"/>
       <c r="D84" s="6"/>
@@ -3098,10 +3035,9 @@
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="J84" s="13"/>
-      <c r="K84" s="6"/>
-    </row>
-    <row r="85" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="J84" s="6"/>
+    </row>
+    <row r="85" spans="2:10" x14ac:dyDescent="0.4">
       <c r="B85" s="13"/>
       <c r="C85" s="13"/>
       <c r="D85" s="6"/>
@@ -3113,10 +3049,9 @@
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="J85" s="13"/>
-      <c r="K85" s="6"/>
-    </row>
-    <row r="86" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="J85" s="6"/>
+    </row>
+    <row r="86" spans="2:10" x14ac:dyDescent="0.4">
       <c r="B86" s="13"/>
       <c r="C86" s="13"/>
       <c r="D86" s="6"/>
@@ -3128,10 +3063,9 @@
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="J86" s="13"/>
-      <c r="K86" s="6"/>
-    </row>
-    <row r="87" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="J86" s="6"/>
+    </row>
+    <row r="87" spans="2:10" x14ac:dyDescent="0.4">
       <c r="B87" s="13"/>
       <c r="C87" s="13"/>
       <c r="D87" s="6"/>
@@ -3143,10 +3077,9 @@
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="J87" s="13"/>
-      <c r="K87" s="6"/>
-    </row>
-    <row r="88" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="J87" s="6"/>
+    </row>
+    <row r="88" spans="2:10" x14ac:dyDescent="0.4">
       <c r="B88" s="13"/>
       <c r="C88" s="13"/>
       <c r="D88" s="6"/>
@@ -3158,10 +3091,9 @@
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="J88" s="13"/>
-      <c r="K88" s="6"/>
-    </row>
-    <row r="89" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="J88" s="6"/>
+    </row>
+    <row r="89" spans="2:10" x14ac:dyDescent="0.4">
       <c r="B89" s="13"/>
       <c r="C89" s="13"/>
       <c r="D89" s="6"/>
@@ -3173,10 +3105,9 @@
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="J89" s="13"/>
-      <c r="K89" s="6"/>
-    </row>
-    <row r="90" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="J89" s="6"/>
+    </row>
+    <row r="90" spans="2:10" x14ac:dyDescent="0.4">
       <c r="B90" s="13"/>
       <c r="C90" s="13"/>
       <c r="D90" s="6"/>
@@ -3188,10 +3119,9 @@
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="J90" s="13"/>
-      <c r="K90" s="6"/>
-    </row>
-    <row r="91" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="J90" s="6"/>
+    </row>
+    <row r="91" spans="2:10" x14ac:dyDescent="0.4">
       <c r="B91" s="13"/>
       <c r="C91" s="13"/>
       <c r="D91" s="6"/>
@@ -3203,10 +3133,9 @@
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="J91" s="13"/>
-      <c r="K91" s="6"/>
-    </row>
-    <row r="92" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="J91" s="6"/>
+    </row>
+    <row r="92" spans="2:10" x14ac:dyDescent="0.4">
       <c r="B92" s="13"/>
       <c r="C92" s="13"/>
       <c r="D92" s="6"/>
@@ -3218,10 +3147,9 @@
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="J92" s="13"/>
-      <c r="K92" s="6"/>
-    </row>
-    <row r="93" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="J92" s="6"/>
+    </row>
+    <row r="93" spans="2:10" x14ac:dyDescent="0.4">
       <c r="B93" s="13"/>
       <c r="C93" s="13"/>
       <c r="D93" s="6"/>
@@ -3233,10 +3161,9 @@
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="J93" s="13"/>
-      <c r="K93" s="6"/>
-    </row>
-    <row r="94" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="J93" s="6"/>
+    </row>
+    <row r="94" spans="2:10" x14ac:dyDescent="0.4">
       <c r="B94" s="13"/>
       <c r="C94" s="13"/>
       <c r="D94" s="6"/>
@@ -3248,10 +3175,9 @@
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="J94" s="13"/>
-      <c r="K94" s="6"/>
-    </row>
-    <row r="95" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="J94" s="6"/>
+    </row>
+    <row r="95" spans="2:10" x14ac:dyDescent="0.4">
       <c r="B95" s="13"/>
       <c r="C95" s="13"/>
       <c r="D95" s="6"/>
@@ -3263,10 +3189,9 @@
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="J95" s="13"/>
-      <c r="K95" s="6"/>
-    </row>
-    <row r="96" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="J95" s="6"/>
+    </row>
+    <row r="96" spans="2:10" x14ac:dyDescent="0.4">
       <c r="B96" s="13"/>
       <c r="C96" s="13"/>
       <c r="D96" s="6"/>
@@ -3278,10 +3203,9 @@
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="J96" s="13"/>
-      <c r="K96" s="6"/>
-    </row>
-    <row r="97" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="J96" s="6"/>
+    </row>
+    <row r="97" spans="2:10" x14ac:dyDescent="0.4">
       <c r="B97" s="13"/>
       <c r="C97" s="13"/>
       <c r="D97" s="6"/>
@@ -3293,10 +3217,9 @@
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="J97" s="13"/>
-      <c r="K97" s="6"/>
-    </row>
-    <row r="98" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="J97" s="6"/>
+    </row>
+    <row r="98" spans="2:10" x14ac:dyDescent="0.4">
       <c r="B98" s="13"/>
       <c r="C98" s="13"/>
       <c r="D98" s="6"/>
@@ -3308,10 +3231,9 @@
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="J98" s="13"/>
-      <c r="K98" s="6"/>
-    </row>
-    <row r="99" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="J98" s="6"/>
+    </row>
+    <row r="99" spans="2:10" x14ac:dyDescent="0.4">
       <c r="B99" s="13"/>
       <c r="C99" s="13"/>
       <c r="D99" s="6"/>
@@ -3323,10 +3245,9 @@
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="J99" s="13"/>
-      <c r="K99" s="6"/>
-    </row>
-    <row r="100" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="J99" s="6"/>
+    </row>
+    <row r="100" spans="2:10" x14ac:dyDescent="0.4">
       <c r="B100" s="13"/>
       <c r="C100" s="13"/>
       <c r="D100" s="6"/>
@@ -3338,35 +3259,21 @@
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="J100" s="13"/>
-      <c r="K100" s="6"/>
+      <c r="J100" s="6"/>
     </row>
   </sheetData>
-  <autoFilter ref="B2:K100"/>
+  <autoFilter ref="B2:J100"/>
   <phoneticPr fontId="1" type="noConversion"/>
-  <conditionalFormatting sqref="I1:J1 I101:J1048576 I3:I100">
-    <cfRule type="cellIs" dxfId="3" priority="4" operator="greaterThan">
+  <conditionalFormatting sqref="I1 I3:I1048576">
+    <cfRule type="cellIs" dxfId="1" priority="4" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I1:J2 I101:J1048576 I3:I100">
-    <cfRule type="cellIs" dxfId="2" priority="3" operator="lessThan">
+  <conditionalFormatting sqref="I1:I1048576">
+    <cfRule type="cellIs" dxfId="0" priority="3" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J3:J100">
-    <cfRule type="cellIs" dxfId="1" priority="2" operator="equal">
-      <formula>"증가"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
-      <formula>"감소"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J3:J100">
-      <formula1>"증가,유지,감소"</formula1>
-    </dataValidation>
-  </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
   <extLst>

--- a/WorkShop/01.docs/01.초기학습.xlsx
+++ b/WorkShop/01.docs/01.초기학습.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\ProjectHome\Stocks\WorkShop\01.docs\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\WorkShop\AppHome\stocks\WorkShop\01.docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11850"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11856" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="00.참고" sheetId="2" r:id="rId1"/>
@@ -18,7 +18,7 @@
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'01.원칙'!$B$2:$E$2</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'02.모의투자'!$B$2:$J$100</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'02.모의투자'!$B$2:$J$96</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
   <extLst>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="94">
   <si>
     <t>https://stock79.tistory.com</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -98,41 +98,6 @@
   <si>
     <t>매도가</t>
     <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>008600</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>윌비스</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2020-01-17</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>038620</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>위즈코프</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>051370</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>인터플렉스</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2020-01-20</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2020-01-21</t>
   </si>
   <si>
     <t>https://jjisso.tistory.com/</t>
@@ -263,14 +228,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>경동제약</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>일양약품 패턴과 유사. 5% 익절.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>눌림목검색_V0.01</t>
   </si>
   <si>
@@ -320,15 +277,140 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>011040</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>https://blog1714.tistory.com/</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>노다지증권방송 한희태</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>004650</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>창해에탄올</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>006620</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>동구바이오제약</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>011090</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>에넥스</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>023150</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MH에탄올</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>031310</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>아이즈비전</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>126560</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>현대에이치씨엔</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2020-01-29</t>
+  </si>
+  <si>
+    <t>2020-01-29</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>053110</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>소리바다</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>090410</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>덕신하우징</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>눌림목검색_V0.02</t>
+  </si>
+  <si>
+    <t>종가매수검색_V0.01</t>
+  </si>
+  <si>
+    <t>종가매수검색_V0.01</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>014100</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>메디앙스</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>065950</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>웰크론</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>084650</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>랩지노믹스</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>091970</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>나노캠텍</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>102280</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>쌍방울</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>225430</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>케이엠제약</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -811,23 +893,23 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:D34"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="D6" sqref="D6"/>
+      <selection pane="bottomRight" activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="12" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.2" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="7.25" style="1" customWidth="1"/>
+    <col min="1" max="1" width="7.19921875" style="1" customWidth="1"/>
     <col min="2" max="2" width="26.5" style="1" customWidth="1"/>
-    <col min="3" max="3" width="38.75" style="1" customWidth="1"/>
-    <col min="4" max="4" width="75.75" style="2" customWidth="1"/>
+    <col min="3" max="3" width="38.69921875" style="1" customWidth="1"/>
+    <col min="4" max="4" width="75.69921875" style="2" customWidth="1"/>
     <col min="5" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="2:4" x14ac:dyDescent="0.4">
       <c r="B1" s="3" t="s">
         <v>5</v>
       </c>
@@ -838,7 +920,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="2" spans="2:4" x14ac:dyDescent="0.4">
       <c r="B2" s="4" t="s">
         <v>3</v>
       </c>
@@ -849,7 +931,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="3" spans="2:4" x14ac:dyDescent="0.4">
       <c r="B3" s="22" t="s">
         <v>1</v>
       </c>
@@ -858,175 +940,175 @@
       </c>
       <c r="D3" s="21"/>
     </row>
-    <row r="4" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:4" x14ac:dyDescent="0.4">
       <c r="B4" s="22" t="s">
         <v>4</v>
       </c>
       <c r="C4" s="6" t="s">
-        <v>27</v>
+        <v>18</v>
       </c>
       <c r="D4" s="21" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="5" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="5" spans="2:4" x14ac:dyDescent="0.4">
       <c r="B5" s="22" t="s">
-        <v>28</v>
+        <v>19</v>
       </c>
       <c r="C5" s="6" t="s">
-        <v>26</v>
+        <v>17</v>
       </c>
       <c r="D5" s="21" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="6" spans="2:4" x14ac:dyDescent="0.3">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="6" spans="2:4" x14ac:dyDescent="0.4">
       <c r="B6" s="22" t="s">
-        <v>72</v>
+        <v>60</v>
       </c>
       <c r="C6" s="23" t="s">
-        <v>71</v>
+        <v>59</v>
       </c>
       <c r="D6" s="21" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="7" spans="2:4" x14ac:dyDescent="0.3">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="7" spans="2:4" x14ac:dyDescent="0.4">
       <c r="B7" s="22"/>
       <c r="C7" s="22"/>
       <c r="D7" s="21"/>
     </row>
-    <row r="8" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="8" spans="2:4" x14ac:dyDescent="0.4">
       <c r="B8" s="4"/>
       <c r="C8" s="4"/>
       <c r="D8" s="5"/>
     </row>
-    <row r="9" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="9" spans="2:4" x14ac:dyDescent="0.4">
       <c r="B9" s="4"/>
       <c r="C9" s="4"/>
       <c r="D9" s="5"/>
     </row>
-    <row r="10" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="10" spans="2:4" x14ac:dyDescent="0.4">
       <c r="B10" s="4"/>
       <c r="C10" s="4"/>
       <c r="D10" s="5"/>
     </row>
-    <row r="11" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="11" spans="2:4" x14ac:dyDescent="0.4">
       <c r="B11" s="4"/>
       <c r="C11" s="4"/>
       <c r="D11" s="5"/>
     </row>
-    <row r="12" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="12" spans="2:4" x14ac:dyDescent="0.4">
       <c r="B12" s="4"/>
       <c r="C12" s="4"/>
       <c r="D12" s="5"/>
     </row>
-    <row r="13" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="13" spans="2:4" x14ac:dyDescent="0.4">
       <c r="B13" s="4"/>
       <c r="C13" s="4"/>
       <c r="D13" s="5"/>
     </row>
-    <row r="14" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="14" spans="2:4" x14ac:dyDescent="0.4">
       <c r="B14" s="4"/>
       <c r="C14" s="4"/>
       <c r="D14" s="5"/>
     </row>
-    <row r="15" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="15" spans="2:4" x14ac:dyDescent="0.4">
       <c r="B15" s="4"/>
       <c r="C15" s="4"/>
       <c r="D15" s="5"/>
     </row>
-    <row r="16" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="16" spans="2:4" x14ac:dyDescent="0.4">
       <c r="B16" s="4"/>
       <c r="C16" s="4"/>
       <c r="D16" s="5"/>
     </row>
-    <row r="17" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="17" spans="2:4" x14ac:dyDescent="0.4">
       <c r="B17" s="4"/>
       <c r="C17" s="4"/>
       <c r="D17" s="5"/>
     </row>
-    <row r="18" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="18" spans="2:4" x14ac:dyDescent="0.4">
       <c r="B18" s="4"/>
       <c r="C18" s="4"/>
       <c r="D18" s="5"/>
     </row>
-    <row r="19" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="19" spans="2:4" x14ac:dyDescent="0.4">
       <c r="B19" s="4"/>
       <c r="C19" s="4"/>
       <c r="D19" s="5"/>
     </row>
-    <row r="20" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="20" spans="2:4" x14ac:dyDescent="0.4">
       <c r="B20" s="4"/>
       <c r="C20" s="4"/>
       <c r="D20" s="5"/>
     </row>
-    <row r="21" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="21" spans="2:4" x14ac:dyDescent="0.4">
       <c r="B21" s="4"/>
       <c r="C21" s="4"/>
       <c r="D21" s="5"/>
     </row>
-    <row r="22" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="22" spans="2:4" x14ac:dyDescent="0.4">
       <c r="B22" s="4"/>
       <c r="C22" s="4"/>
       <c r="D22" s="5"/>
     </row>
-    <row r="23" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="23" spans="2:4" x14ac:dyDescent="0.4">
       <c r="B23" s="4"/>
       <c r="C23" s="4"/>
       <c r="D23" s="5"/>
     </row>
-    <row r="24" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="24" spans="2:4" x14ac:dyDescent="0.4">
       <c r="B24" s="4"/>
       <c r="C24" s="4"/>
       <c r="D24" s="5"/>
     </row>
-    <row r="25" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="25" spans="2:4" x14ac:dyDescent="0.4">
       <c r="B25" s="4"/>
       <c r="C25" s="4"/>
       <c r="D25" s="5"/>
     </row>
-    <row r="26" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="26" spans="2:4" x14ac:dyDescent="0.4">
       <c r="B26" s="4"/>
       <c r="C26" s="4"/>
       <c r="D26" s="5"/>
     </row>
-    <row r="27" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="27" spans="2:4" x14ac:dyDescent="0.4">
       <c r="B27" s="4"/>
       <c r="C27" s="4"/>
       <c r="D27" s="5"/>
     </row>
-    <row r="28" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="28" spans="2:4" x14ac:dyDescent="0.4">
       <c r="B28" s="4"/>
       <c r="C28" s="4"/>
       <c r="D28" s="5"/>
     </row>
-    <row r="29" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="29" spans="2:4" x14ac:dyDescent="0.4">
       <c r="B29" s="4"/>
       <c r="C29" s="4"/>
       <c r="D29" s="5"/>
     </row>
-    <row r="30" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="30" spans="2:4" x14ac:dyDescent="0.4">
       <c r="B30" s="4"/>
       <c r="C30" s="4"/>
       <c r="D30" s="5"/>
     </row>
-    <row r="31" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="31" spans="2:4" x14ac:dyDescent="0.4">
       <c r="B31" s="4"/>
       <c r="C31" s="4"/>
       <c r="D31" s="5"/>
     </row>
-    <row r="32" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="32" spans="2:4" x14ac:dyDescent="0.4">
       <c r="B32" s="4"/>
       <c r="C32" s="4"/>
       <c r="D32" s="5"/>
     </row>
-    <row r="33" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="33" spans="2:4" x14ac:dyDescent="0.4">
       <c r="B33" s="4"/>
       <c r="C33" s="4"/>
       <c r="D33" s="5"/>
     </row>
-    <row r="34" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="34" spans="2:4" x14ac:dyDescent="0.4">
       <c r="B34" s="4"/>
       <c r="C34" s="4"/>
       <c r="D34" s="5"/>
@@ -1039,646 +1121,660 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:E100"/>
+  <dimension ref="B2:E101"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="1" ySplit="2" topLeftCell="B3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="D9" sqref="D9"/>
+      <selection pane="bottomRight" activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="12" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.2" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="1" max="1" width="6.5" style="19" customWidth="1"/>
-    <col min="2" max="2" width="12.25" style="20" customWidth="1"/>
-    <col min="3" max="3" width="22.75" style="20" customWidth="1"/>
-    <col min="4" max="4" width="91.625" style="19" customWidth="1"/>
-    <col min="5" max="5" width="39.25" style="19" customWidth="1"/>
+    <col min="2" max="2" width="12.19921875" style="20" customWidth="1"/>
+    <col min="3" max="3" width="22.69921875" style="20" customWidth="1"/>
+    <col min="4" max="4" width="91.59765625" style="19" customWidth="1"/>
+    <col min="5" max="5" width="39.19921875" style="19" customWidth="1"/>
     <col min="6" max="16384" width="9" style="19"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:5" s="16" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="2:5" s="16" customFormat="1" x14ac:dyDescent="0.4">
       <c r="B2" s="15" t="s">
+        <v>21</v>
+      </c>
+      <c r="C2" s="15" t="s">
+        <v>22</v>
+      </c>
+      <c r="D2" s="15" t="s">
+        <v>23</v>
+      </c>
+      <c r="E2" s="15" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="3" spans="2:5" x14ac:dyDescent="0.4">
+      <c r="B3" s="17" t="s">
         <v>30</v>
       </c>
-      <c r="C2" s="15" t="s">
-        <v>31</v>
-      </c>
-      <c r="D2" s="15" t="s">
-        <v>32</v>
-      </c>
-      <c r="E2" s="15" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="3" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B3" s="17" t="s">
-        <v>39</v>
-      </c>
       <c r="C3" s="17" t="s">
-        <v>59</v>
+        <v>48</v>
       </c>
       <c r="D3" s="18"/>
       <c r="E3" s="18"/>
     </row>
-    <row r="4" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B4" s="17" t="s">
-        <v>39</v>
+        <v>30</v>
       </c>
       <c r="C4" s="17" t="s">
-        <v>58</v>
+        <v>47</v>
       </c>
       <c r="D4" s="18"/>
       <c r="E4" s="18"/>
     </row>
-    <row r="5" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="5" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B5" s="17" t="s">
-        <v>39</v>
+        <v>30</v>
       </c>
       <c r="C5" s="17" t="s">
-        <v>60</v>
+        <v>79</v>
       </c>
       <c r="D5" s="18"/>
       <c r="E5" s="18"/>
     </row>
-    <row r="6" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="6" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B6" s="17" t="s">
-        <v>39</v>
+        <v>30</v>
       </c>
       <c r="C6" s="17" t="s">
-        <v>62</v>
+        <v>49</v>
       </c>
       <c r="D6" s="18"/>
       <c r="E6" s="18"/>
     </row>
-    <row r="7" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="7" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B7" s="17" t="s">
-        <v>39</v>
+        <v>30</v>
       </c>
       <c r="C7" s="17" t="s">
-        <v>63</v>
+        <v>51</v>
       </c>
       <c r="D7" s="18"/>
       <c r="E7" s="18"/>
     </row>
-    <row r="8" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B8" s="17"/>
-      <c r="C8" s="17"/>
+    <row r="8" spans="2:5" x14ac:dyDescent="0.4">
+      <c r="B8" s="17" t="s">
+        <v>30</v>
+      </c>
+      <c r="C8" s="17" t="s">
+        <v>52</v>
+      </c>
       <c r="D8" s="18"/>
       <c r="E8" s="18"/>
     </row>
-    <row r="9" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B9" s="17"/>
-      <c r="C9" s="17"/>
+    <row r="9" spans="2:5" x14ac:dyDescent="0.4">
+      <c r="B9" s="17" t="s">
+        <v>30</v>
+      </c>
+      <c r="C9" s="17" t="s">
+        <v>81</v>
+      </c>
       <c r="D9" s="18"/>
       <c r="E9" s="18"/>
     </row>
-    <row r="10" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="10" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B10" s="17"/>
       <c r="C10" s="17"/>
       <c r="D10" s="18"/>
       <c r="E10" s="18"/>
     </row>
-    <row r="11" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="11" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B11" s="17"/>
       <c r="C11" s="17"/>
       <c r="D11" s="18"/>
       <c r="E11" s="18"/>
     </row>
-    <row r="12" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="12" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B12" s="17"/>
       <c r="C12" s="17"/>
       <c r="D12" s="18"/>
       <c r="E12" s="18"/>
     </row>
-    <row r="13" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="13" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B13" s="17"/>
       <c r="C13" s="17"/>
       <c r="D13" s="18"/>
       <c r="E13" s="18"/>
     </row>
-    <row r="14" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="14" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B14" s="17"/>
       <c r="C14" s="17"/>
       <c r="D14" s="18"/>
       <c r="E14" s="18"/>
     </row>
-    <row r="15" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="15" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B15" s="17"/>
       <c r="C15" s="17"/>
       <c r="D15" s="18"/>
       <c r="E15" s="18"/>
     </row>
-    <row r="16" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="16" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B16" s="17"/>
       <c r="C16" s="17"/>
       <c r="D16" s="18"/>
       <c r="E16" s="18"/>
     </row>
-    <row r="17" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="17" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B17" s="17"/>
       <c r="C17" s="17"/>
       <c r="D17" s="18"/>
       <c r="E17" s="18"/>
     </row>
-    <row r="18" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="18" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B18" s="17"/>
       <c r="C18" s="17"/>
       <c r="D18" s="18"/>
       <c r="E18" s="18"/>
     </row>
-    <row r="19" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="19" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B19" s="17"/>
       <c r="C19" s="17"/>
       <c r="D19" s="18"/>
       <c r="E19" s="18"/>
     </row>
-    <row r="20" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="20" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B20" s="17"/>
       <c r="C20" s="17"/>
       <c r="D20" s="18"/>
       <c r="E20" s="18"/>
     </row>
-    <row r="21" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="21" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B21" s="17"/>
       <c r="C21" s="17"/>
       <c r="D21" s="18"/>
       <c r="E21" s="18"/>
     </row>
-    <row r="22" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="22" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B22" s="17"/>
       <c r="C22" s="17"/>
       <c r="D22" s="18"/>
       <c r="E22" s="18"/>
     </row>
-    <row r="23" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="23" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B23" s="17"/>
       <c r="C23" s="17"/>
       <c r="D23" s="18"/>
       <c r="E23" s="18"/>
     </row>
-    <row r="24" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="24" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B24" s="17"/>
       <c r="C24" s="17"/>
       <c r="D24" s="18"/>
       <c r="E24" s="18"/>
     </row>
-    <row r="25" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="25" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B25" s="17"/>
       <c r="C25" s="17"/>
       <c r="D25" s="18"/>
       <c r="E25" s="18"/>
     </row>
-    <row r="26" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="26" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B26" s="17"/>
       <c r="C26" s="17"/>
       <c r="D26" s="18"/>
       <c r="E26" s="18"/>
     </row>
-    <row r="27" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="27" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B27" s="17"/>
       <c r="C27" s="17"/>
       <c r="D27" s="18"/>
       <c r="E27" s="18"/>
     </row>
-    <row r="28" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="28" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B28" s="17"/>
       <c r="C28" s="17"/>
       <c r="D28" s="18"/>
       <c r="E28" s="18"/>
     </row>
-    <row r="29" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="29" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B29" s="17"/>
       <c r="C29" s="17"/>
       <c r="D29" s="18"/>
       <c r="E29" s="18"/>
     </row>
-    <row r="30" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="30" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B30" s="17"/>
       <c r="C30" s="17"/>
       <c r="D30" s="18"/>
       <c r="E30" s="18"/>
     </row>
-    <row r="31" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="31" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B31" s="17"/>
       <c r="C31" s="17"/>
       <c r="D31" s="18"/>
       <c r="E31" s="18"/>
     </row>
-    <row r="32" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="32" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B32" s="17"/>
       <c r="C32" s="17"/>
       <c r="D32" s="18"/>
       <c r="E32" s="18"/>
     </row>
-    <row r="33" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="33" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B33" s="17"/>
       <c r="C33" s="17"/>
       <c r="D33" s="18"/>
       <c r="E33" s="18"/>
     </row>
-    <row r="34" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="34" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B34" s="17"/>
       <c r="C34" s="17"/>
       <c r="D34" s="18"/>
       <c r="E34" s="18"/>
     </row>
-    <row r="35" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="35" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B35" s="17"/>
       <c r="C35" s="17"/>
       <c r="D35" s="18"/>
       <c r="E35" s="18"/>
     </row>
-    <row r="36" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="36" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B36" s="17"/>
       <c r="C36" s="17"/>
       <c r="D36" s="18"/>
       <c r="E36" s="18"/>
     </row>
-    <row r="37" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="37" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B37" s="17"/>
       <c r="C37" s="17"/>
       <c r="D37" s="18"/>
       <c r="E37" s="18"/>
     </row>
-    <row r="38" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="38" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B38" s="17"/>
       <c r="C38" s="17"/>
       <c r="D38" s="18"/>
       <c r="E38" s="18"/>
     </row>
-    <row r="39" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="39" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B39" s="17"/>
       <c r="C39" s="17"/>
       <c r="D39" s="18"/>
       <c r="E39" s="18"/>
     </row>
-    <row r="40" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="40" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B40" s="17"/>
       <c r="C40" s="17"/>
       <c r="D40" s="18"/>
       <c r="E40" s="18"/>
     </row>
-    <row r="41" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="41" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B41" s="17"/>
       <c r="C41" s="17"/>
       <c r="D41" s="18"/>
       <c r="E41" s="18"/>
     </row>
-    <row r="42" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="42" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B42" s="17"/>
       <c r="C42" s="17"/>
       <c r="D42" s="18"/>
       <c r="E42" s="18"/>
     </row>
-    <row r="43" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="43" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B43" s="17"/>
       <c r="C43" s="17"/>
       <c r="D43" s="18"/>
       <c r="E43" s="18"/>
     </row>
-    <row r="44" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="44" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B44" s="17"/>
       <c r="C44" s="17"/>
       <c r="D44" s="18"/>
       <c r="E44" s="18"/>
     </row>
-    <row r="45" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="45" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B45" s="17"/>
       <c r="C45" s="17"/>
       <c r="D45" s="18"/>
       <c r="E45" s="18"/>
     </row>
-    <row r="46" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="46" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B46" s="17"/>
       <c r="C46" s="17"/>
       <c r="D46" s="18"/>
       <c r="E46" s="18"/>
     </row>
-    <row r="47" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="47" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B47" s="17"/>
       <c r="C47" s="17"/>
       <c r="D47" s="18"/>
       <c r="E47" s="18"/>
     </row>
-    <row r="48" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="48" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B48" s="17"/>
       <c r="C48" s="17"/>
       <c r="D48" s="18"/>
       <c r="E48" s="18"/>
     </row>
-    <row r="49" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="49" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B49" s="17"/>
       <c r="C49" s="17"/>
       <c r="D49" s="18"/>
       <c r="E49" s="18"/>
     </row>
-    <row r="50" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="50" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B50" s="17"/>
       <c r="C50" s="17"/>
       <c r="D50" s="18"/>
       <c r="E50" s="18"/>
     </row>
-    <row r="51" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="51" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B51" s="17"/>
       <c r="C51" s="17"/>
       <c r="D51" s="18"/>
       <c r="E51" s="18"/>
     </row>
-    <row r="52" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="52" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B52" s="17"/>
       <c r="C52" s="17"/>
       <c r="D52" s="18"/>
       <c r="E52" s="18"/>
     </row>
-    <row r="53" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="53" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B53" s="17"/>
       <c r="C53" s="17"/>
       <c r="D53" s="18"/>
       <c r="E53" s="18"/>
     </row>
-    <row r="54" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="54" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B54" s="17"/>
       <c r="C54" s="17"/>
       <c r="D54" s="18"/>
       <c r="E54" s="18"/>
     </row>
-    <row r="55" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="55" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B55" s="17"/>
       <c r="C55" s="17"/>
       <c r="D55" s="18"/>
       <c r="E55" s="18"/>
     </row>
-    <row r="56" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="56" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B56" s="17"/>
       <c r="C56" s="17"/>
       <c r="D56" s="18"/>
       <c r="E56" s="18"/>
     </row>
-    <row r="57" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="57" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B57" s="17"/>
       <c r="C57" s="17"/>
       <c r="D57" s="18"/>
       <c r="E57" s="18"/>
     </row>
-    <row r="58" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="58" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B58" s="17"/>
       <c r="C58" s="17"/>
       <c r="D58" s="18"/>
       <c r="E58" s="18"/>
     </row>
-    <row r="59" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="59" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B59" s="17"/>
       <c r="C59" s="17"/>
       <c r="D59" s="18"/>
       <c r="E59" s="18"/>
     </row>
-    <row r="60" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="60" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B60" s="17"/>
       <c r="C60" s="17"/>
       <c r="D60" s="18"/>
       <c r="E60" s="18"/>
     </row>
-    <row r="61" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="61" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B61" s="17"/>
       <c r="C61" s="17"/>
       <c r="D61" s="18"/>
       <c r="E61" s="18"/>
     </row>
-    <row r="62" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="62" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B62" s="17"/>
       <c r="C62" s="17"/>
       <c r="D62" s="18"/>
       <c r="E62" s="18"/>
     </row>
-    <row r="63" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="63" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B63" s="17"/>
       <c r="C63" s="17"/>
       <c r="D63" s="18"/>
       <c r="E63" s="18"/>
     </row>
-    <row r="64" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="64" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B64" s="17"/>
       <c r="C64" s="17"/>
       <c r="D64" s="18"/>
       <c r="E64" s="18"/>
     </row>
-    <row r="65" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="65" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B65" s="17"/>
       <c r="C65" s="17"/>
       <c r="D65" s="18"/>
       <c r="E65" s="18"/>
     </row>
-    <row r="66" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="66" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B66" s="17"/>
       <c r="C66" s="17"/>
       <c r="D66" s="18"/>
       <c r="E66" s="18"/>
     </row>
-    <row r="67" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="67" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B67" s="17"/>
       <c r="C67" s="17"/>
       <c r="D67" s="18"/>
       <c r="E67" s="18"/>
     </row>
-    <row r="68" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="68" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B68" s="17"/>
       <c r="C68" s="17"/>
       <c r="D68" s="18"/>
       <c r="E68" s="18"/>
     </row>
-    <row r="69" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="69" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B69" s="17"/>
       <c r="C69" s="17"/>
       <c r="D69" s="18"/>
       <c r="E69" s="18"/>
     </row>
-    <row r="70" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="70" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B70" s="17"/>
       <c r="C70" s="17"/>
       <c r="D70" s="18"/>
       <c r="E70" s="18"/>
     </row>
-    <row r="71" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="71" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B71" s="17"/>
       <c r="C71" s="17"/>
       <c r="D71" s="18"/>
       <c r="E71" s="18"/>
     </row>
-    <row r="72" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="72" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B72" s="17"/>
       <c r="C72" s="17"/>
       <c r="D72" s="18"/>
       <c r="E72" s="18"/>
     </row>
-    <row r="73" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="73" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B73" s="17"/>
       <c r="C73" s="17"/>
       <c r="D73" s="18"/>
       <c r="E73" s="18"/>
     </row>
-    <row r="74" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="74" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B74" s="17"/>
       <c r="C74" s="17"/>
       <c r="D74" s="18"/>
       <c r="E74" s="18"/>
     </row>
-    <row r="75" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="75" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B75" s="17"/>
       <c r="C75" s="17"/>
       <c r="D75" s="18"/>
       <c r="E75" s="18"/>
     </row>
-    <row r="76" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="76" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B76" s="17"/>
       <c r="C76" s="17"/>
       <c r="D76" s="18"/>
       <c r="E76" s="18"/>
     </row>
-    <row r="77" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="77" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B77" s="17"/>
       <c r="C77" s="17"/>
       <c r="D77" s="18"/>
       <c r="E77" s="18"/>
     </row>
-    <row r="78" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="78" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B78" s="17"/>
       <c r="C78" s="17"/>
       <c r="D78" s="18"/>
       <c r="E78" s="18"/>
     </row>
-    <row r="79" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="79" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B79" s="17"/>
       <c r="C79" s="17"/>
       <c r="D79" s="18"/>
       <c r="E79" s="18"/>
     </row>
-    <row r="80" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="80" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B80" s="17"/>
       <c r="C80" s="17"/>
       <c r="D80" s="18"/>
       <c r="E80" s="18"/>
     </row>
-    <row r="81" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="81" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B81" s="17"/>
       <c r="C81" s="17"/>
       <c r="D81" s="18"/>
       <c r="E81" s="18"/>
     </row>
-    <row r="82" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="82" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B82" s="17"/>
       <c r="C82" s="17"/>
       <c r="D82" s="18"/>
       <c r="E82" s="18"/>
     </row>
-    <row r="83" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="83" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B83" s="17"/>
       <c r="C83" s="17"/>
       <c r="D83" s="18"/>
       <c r="E83" s="18"/>
     </row>
-    <row r="84" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="84" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B84" s="17"/>
       <c r="C84" s="17"/>
       <c r="D84" s="18"/>
       <c r="E84" s="18"/>
     </row>
-    <row r="85" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="85" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B85" s="17"/>
       <c r="C85" s="17"/>
       <c r="D85" s="18"/>
       <c r="E85" s="18"/>
     </row>
-    <row r="86" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="86" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B86" s="17"/>
       <c r="C86" s="17"/>
       <c r="D86" s="18"/>
       <c r="E86" s="18"/>
     </row>
-    <row r="87" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="87" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B87" s="17"/>
       <c r="C87" s="17"/>
       <c r="D87" s="18"/>
       <c r="E87" s="18"/>
     </row>
-    <row r="88" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="88" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B88" s="17"/>
       <c r="C88" s="17"/>
       <c r="D88" s="18"/>
       <c r="E88" s="18"/>
     </row>
-    <row r="89" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="89" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B89" s="17"/>
       <c r="C89" s="17"/>
       <c r="D89" s="18"/>
       <c r="E89" s="18"/>
     </row>
-    <row r="90" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="90" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B90" s="17"/>
       <c r="C90" s="17"/>
       <c r="D90" s="18"/>
       <c r="E90" s="18"/>
     </row>
-    <row r="91" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="91" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B91" s="17"/>
       <c r="C91" s="17"/>
       <c r="D91" s="18"/>
       <c r="E91" s="18"/>
     </row>
-    <row r="92" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="92" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B92" s="17"/>
       <c r="C92" s="17"/>
       <c r="D92" s="18"/>
       <c r="E92" s="18"/>
     </row>
-    <row r="93" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="93" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B93" s="17"/>
       <c r="C93" s="17"/>
       <c r="D93" s="18"/>
       <c r="E93" s="18"/>
     </row>
-    <row r="94" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="94" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B94" s="17"/>
       <c r="C94" s="17"/>
       <c r="D94" s="18"/>
       <c r="E94" s="18"/>
     </row>
-    <row r="95" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="95" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B95" s="17"/>
       <c r="C95" s="17"/>
       <c r="D95" s="18"/>
       <c r="E95" s="18"/>
     </row>
-    <row r="96" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="96" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B96" s="17"/>
       <c r="C96" s="17"/>
       <c r="D96" s="18"/>
       <c r="E96" s="18"/>
     </row>
-    <row r="97" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="97" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B97" s="17"/>
       <c r="C97" s="17"/>
       <c r="D97" s="18"/>
       <c r="E97" s="18"/>
     </row>
-    <row r="98" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="98" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B98" s="17"/>
       <c r="C98" s="17"/>
       <c r="D98" s="18"/>
       <c r="E98" s="18"/>
     </row>
-    <row r="99" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="99" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B99" s="17"/>
       <c r="C99" s="17"/>
       <c r="D99" s="18"/>
       <c r="E99" s="18"/>
     </row>
-    <row r="100" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="100" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B100" s="17"/>
       <c r="C100" s="17"/>
       <c r="D100" s="18"/>
       <c r="E100" s="18"/>
+    </row>
+    <row r="101" spans="2:5" x14ac:dyDescent="0.4">
+      <c r="B101" s="17"/>
+      <c r="C101" s="17"/>
+      <c r="D101" s="18"/>
+      <c r="E101" s="18"/>
     </row>
   </sheetData>
   <autoFilter ref="B2:E2"/>
@@ -1690,33 +1786,33 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:J100"/>
+  <dimension ref="B2:J96"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" ySplit="2" topLeftCell="B3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="M31" sqref="M31"/>
+      <selection pane="bottomRight" activeCell="B21" sqref="B21:B25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="12" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.2" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="1" max="1" width="4.5" style="1" customWidth="1"/>
-    <col min="2" max="2" width="24.75" style="8" customWidth="1"/>
-    <col min="3" max="3" width="11.625" style="8" customWidth="1"/>
+    <col min="2" max="2" width="24.69921875" style="8" customWidth="1"/>
+    <col min="3" max="3" width="11.59765625" style="8" customWidth="1"/>
     <col min="4" max="4" width="13.5" style="2" customWidth="1"/>
-    <col min="5" max="5" width="10.75" style="8" customWidth="1"/>
+    <col min="5" max="5" width="10.69921875" style="8" customWidth="1"/>
     <col min="6" max="6" width="11" style="9" customWidth="1"/>
-    <col min="7" max="7" width="11.375" style="8" customWidth="1"/>
+    <col min="7" max="7" width="11.3984375" style="8" customWidth="1"/>
     <col min="8" max="8" width="10" style="9" customWidth="1"/>
-    <col min="9" max="9" width="10.125" style="10" customWidth="1"/>
-    <col min="10" max="10" width="60.125" style="2" customWidth="1"/>
+    <col min="9" max="9" width="10.09765625" style="10" customWidth="1"/>
+    <col min="10" max="10" width="60.09765625" style="2" customWidth="1"/>
     <col min="11" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:10" s="7" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="2:10" s="7" customFormat="1" x14ac:dyDescent="0.4">
       <c r="B2" s="3" t="s">
-        <v>38</v>
+        <v>29</v>
       </c>
       <c r="C2" s="3" t="s">
         <v>10</v>
@@ -1737,303 +1833,293 @@
         <v>16</v>
       </c>
       <c r="I2" s="11" t="s">
-        <v>52</v>
+        <v>43</v>
       </c>
       <c r="J2" s="3" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="3" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B3" s="12"/>
+    <row r="3" spans="2:10" x14ac:dyDescent="0.4">
+      <c r="B3" s="12" t="s">
+        <v>46</v>
+      </c>
       <c r="C3" s="12" t="s">
-        <v>17</v>
+        <v>35</v>
       </c>
       <c r="D3" s="5" t="s">
-        <v>18</v>
+        <v>26</v>
       </c>
       <c r="E3" s="12" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="F3" s="13">
-        <v>1630</v>
-      </c>
-      <c r="G3" s="12" t="s">
-        <v>24</v>
-      </c>
-      <c r="H3" s="13">
-        <v>1685</v>
-      </c>
-      <c r="I3" s="14">
-        <f>IF(H3="", "", IFERROR( ((H3-F3)/F3), ""))</f>
-        <v>3.3742331288343558E-2</v>
+        <v>21000</v>
+      </c>
+      <c r="G3" s="12"/>
+      <c r="H3" s="13"/>
+      <c r="I3" s="14" t="str">
+        <f t="shared" ref="I3:I63" si="0">IF(H3="", "", IFERROR( ((H3-F3)/F3), ""))</f>
+        <v/>
       </c>
       <c r="J3" s="5"/>
     </row>
-    <row r="4" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B4" s="12"/>
+    <row r="4" spans="2:10" x14ac:dyDescent="0.4">
+      <c r="B4" s="12" t="s">
+        <v>46</v>
+      </c>
       <c r="C4" s="12" t="s">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="D4" s="5" t="s">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="E4" s="12" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="F4" s="13">
-        <v>1315</v>
+        <v>11400</v>
       </c>
       <c r="G4" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="H4" s="13">
+        <v>11050</v>
+      </c>
+      <c r="I4" s="14">
+        <f t="shared" si="0"/>
+        <v>-3.0701754385964911E-2</v>
+      </c>
+      <c r="J4" s="5" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="5" spans="2:10" x14ac:dyDescent="0.4">
+      <c r="B5" s="12" t="s">
+        <v>50</v>
+      </c>
+      <c r="C5" s="12" t="s">
+        <v>36</v>
+      </c>
+      <c r="D5" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="E5" s="12" t="s">
         <v>25</v>
       </c>
-      <c r="H4" s="13">
-        <v>1200</v>
-      </c>
-      <c r="I4" s="14">
-        <f t="shared" ref="I4:I67" si="0">IF(H4="", "", IFERROR( ((H4-F4)/F4), ""))</f>
-        <v>-8.7452471482889732E-2</v>
-      </c>
-      <c r="J4" s="5"/>
-    </row>
-    <row r="5" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B5" s="12"/>
-      <c r="C5" s="12" t="s">
-        <v>22</v>
-      </c>
-      <c r="D5" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="E5" s="12" t="s">
-        <v>19</v>
-      </c>
       <c r="F5" s="13">
-        <v>15800</v>
+        <v>24550</v>
       </c>
       <c r="G5" s="12" t="s">
-        <v>24</v>
+        <v>41</v>
       </c>
       <c r="H5" s="13">
-        <v>15800</v>
+        <v>27200</v>
       </c>
       <c r="I5" s="14">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>0.1079429735234216</v>
       </c>
       <c r="J5" s="5"/>
     </row>
-    <row r="6" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="6" spans="2:10" x14ac:dyDescent="0.4">
       <c r="B6" s="12" t="s">
+        <v>50</v>
+      </c>
+      <c r="C6" s="12" t="s">
+        <v>37</v>
+      </c>
+      <c r="D6" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="E6" s="12" t="s">
+        <v>25</v>
+      </c>
+      <c r="F6" s="13">
+        <v>4210</v>
+      </c>
+      <c r="G6" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="H6" s="13">
+        <v>4705</v>
+      </c>
+      <c r="I6" s="14">
+        <f t="shared" si="0"/>
+        <v>0.11757719714964371</v>
+      </c>
+      <c r="J6" s="5"/>
+    </row>
+    <row r="7" spans="2:10" x14ac:dyDescent="0.4">
+      <c r="B7" s="12" t="s">
+        <v>50</v>
+      </c>
+      <c r="C7" s="12" t="s">
+        <v>38</v>
+      </c>
+      <c r="D7" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="E7" s="12" t="s">
+        <v>25</v>
+      </c>
+      <c r="F7" s="13">
+        <v>1515</v>
+      </c>
+      <c r="G7" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="H7" s="13">
+        <v>1450</v>
+      </c>
+      <c r="I7" s="14">
+        <f t="shared" si="0"/>
+        <v>-4.2904290429042903E-2</v>
+      </c>
+      <c r="J7" s="5" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="8" spans="2:10" x14ac:dyDescent="0.4">
+      <c r="B8" s="12" t="s">
+        <v>50</v>
+      </c>
+      <c r="C8" s="12" t="s">
+        <v>39</v>
+      </c>
+      <c r="D8" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="E8" s="12" t="s">
+        <v>25</v>
+      </c>
+      <c r="F8" s="13">
+        <v>13000</v>
+      </c>
+      <c r="G8" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="H8" s="13">
+        <v>16900</v>
+      </c>
+      <c r="I8" s="14">
+        <f t="shared" si="0"/>
+        <v>0.3</v>
+      </c>
+      <c r="J8" s="5" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="9" spans="2:10" x14ac:dyDescent="0.4">
+      <c r="B9" s="12" t="s">
+        <v>52</v>
+      </c>
+      <c r="C9" s="12" t="s">
+        <v>53</v>
+      </c>
+      <c r="D9" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="E9" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="F9" s="13">
+        <v>32150</v>
+      </c>
+      <c r="G9" s="12"/>
+      <c r="H9" s="13"/>
+      <c r="I9" s="14" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="J9" s="5"/>
+    </row>
+    <row r="10" spans="2:10" x14ac:dyDescent="0.4">
+      <c r="B10" s="12" t="s">
+        <v>52</v>
+      </c>
+      <c r="C10" s="12" t="s">
+        <v>55</v>
+      </c>
+      <c r="D10" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="E10" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="F10" s="13">
+        <v>6970</v>
+      </c>
+      <c r="G10" s="12"/>
+      <c r="H10" s="13"/>
+      <c r="I10" s="14" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="J10" s="5"/>
+    </row>
+    <row r="11" spans="2:10" x14ac:dyDescent="0.4">
+      <c r="B11" s="12" t="s">
+        <v>52</v>
+      </c>
+      <c r="C11" s="12" t="s">
         <v>57</v>
       </c>
-      <c r="C6" s="12" t="s">
-        <v>44</v>
-      </c>
-      <c r="D6" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="E6" s="12" t="s">
-        <v>34</v>
-      </c>
-      <c r="F6" s="13">
-        <v>21000</v>
-      </c>
-      <c r="G6" s="12"/>
-      <c r="H6" s="13"/>
-      <c r="I6" s="14" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="J6" s="5"/>
-    </row>
-    <row r="7" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B7" s="12" t="s">
-        <v>57</v>
-      </c>
-      <c r="C7" s="12" t="s">
-        <v>36</v>
-      </c>
-      <c r="D7" s="5" t="s">
-        <v>37</v>
-      </c>
-      <c r="E7" s="12" t="s">
-        <v>34</v>
-      </c>
-      <c r="F7" s="13">
-        <v>11400</v>
-      </c>
-      <c r="G7" s="12" t="s">
-        <v>50</v>
-      </c>
-      <c r="H7" s="13">
-        <v>11050</v>
-      </c>
-      <c r="I7" s="14">
-        <f t="shared" si="0"/>
-        <v>-3.0701754385964911E-2</v>
-      </c>
-      <c r="J7" s="5" t="s">
+      <c r="D11" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="E11" s="12" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="8" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B8" s="12" t="s">
+      <c r="F11" s="13">
+        <v>7170</v>
+      </c>
+      <c r="G11" s="12"/>
+      <c r="H11" s="13"/>
+      <c r="I11" s="14" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="J11" s="5"/>
+    </row>
+    <row r="12" spans="2:10" x14ac:dyDescent="0.4">
+      <c r="B12" s="12" t="s">
+        <v>52</v>
+      </c>
+      <c r="C12" s="12" t="s">
         <v>61</v>
       </c>
-      <c r="C8" s="12" t="s">
-        <v>45</v>
-      </c>
-      <c r="D8" s="5" t="s">
-        <v>41</v>
-      </c>
-      <c r="E8" s="12" t="s">
-        <v>34</v>
-      </c>
-      <c r="F8" s="13">
-        <v>24550</v>
-      </c>
-      <c r="G8" s="12" t="s">
-        <v>50</v>
-      </c>
-      <c r="H8" s="13">
-        <v>27200</v>
-      </c>
-      <c r="I8" s="14">
-        <f t="shared" si="0"/>
-        <v>0.1079429735234216</v>
-      </c>
-      <c r="J8" s="5"/>
-    </row>
-    <row r="9" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B9" s="12" t="s">
-        <v>61</v>
-      </c>
-      <c r="C9" s="12" t="s">
-        <v>46</v>
-      </c>
-      <c r="D9" s="5" t="s">
-        <v>42</v>
-      </c>
-      <c r="E9" s="12" t="s">
-        <v>34</v>
-      </c>
-      <c r="F9" s="13">
-        <v>4210</v>
-      </c>
-      <c r="G9" s="12" t="s">
-        <v>50</v>
-      </c>
-      <c r="H9" s="13">
-        <v>4705</v>
-      </c>
-      <c r="I9" s="14">
-        <f t="shared" si="0"/>
-        <v>0.11757719714964371</v>
-      </c>
-      <c r="J9" s="5"/>
-    </row>
-    <row r="10" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B10" s="12" t="s">
-        <v>61</v>
-      </c>
-      <c r="C10" s="12" t="s">
-        <v>47</v>
-      </c>
-      <c r="D10" s="5" t="s">
-        <v>43</v>
-      </c>
-      <c r="E10" s="12" t="s">
-        <v>34</v>
-      </c>
-      <c r="F10" s="13">
-        <v>1515</v>
-      </c>
-      <c r="G10" s="12" t="s">
-        <v>50</v>
-      </c>
-      <c r="H10" s="13">
-        <v>1450</v>
-      </c>
-      <c r="I10" s="14">
-        <f t="shared" si="0"/>
-        <v>-4.2904290429042903E-2</v>
-      </c>
-      <c r="J10" s="5" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="11" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B11" s="12" t="s">
-        <v>61</v>
-      </c>
-      <c r="C11" s="12" t="s">
-        <v>48</v>
-      </c>
-      <c r="D11" s="5" t="s">
-        <v>54</v>
-      </c>
-      <c r="E11" s="12" t="s">
-        <v>34</v>
-      </c>
-      <c r="F11" s="13">
-        <v>13000</v>
-      </c>
-      <c r="G11" s="12" t="s">
-        <v>50</v>
-      </c>
-      <c r="H11" s="13">
-        <v>16900</v>
-      </c>
-      <c r="I11" s="14">
-        <f t="shared" si="0"/>
-        <v>0.3</v>
-      </c>
-      <c r="J11" s="5" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="12" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B12" s="12"/>
-      <c r="C12" s="12" t="s">
-        <v>70</v>
-      </c>
       <c r="D12" s="5" t="s">
-        <v>55</v>
+        <v>62</v>
       </c>
       <c r="E12" s="12" t="s">
-        <v>49</v>
+        <v>74</v>
       </c>
       <c r="F12" s="13">
-        <v>7980</v>
-      </c>
-      <c r="G12" s="12" t="s">
-        <v>50</v>
-      </c>
-      <c r="H12" s="13">
-        <v>8410</v>
-      </c>
-      <c r="I12" s="14">
-        <f t="shared" si="0"/>
-        <v>5.3884711779448619E-2</v>
-      </c>
-      <c r="J12" s="5" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="13" spans="2:10" x14ac:dyDescent="0.3">
+        <v>13650</v>
+      </c>
+      <c r="G12" s="12"/>
+      <c r="H12" s="13"/>
+      <c r="I12" s="14" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="J12" s="5"/>
+    </row>
+    <row r="13" spans="2:10" x14ac:dyDescent="0.4">
       <c r="B13" s="12" t="s">
+        <v>52</v>
+      </c>
+      <c r="C13" s="12" t="s">
         <v>63</v>
       </c>
-      <c r="C13" s="12" t="s">
+      <c r="D13" s="5" t="s">
         <v>64</v>
       </c>
-      <c r="D13" s="5" t="s">
-        <v>65</v>
-      </c>
       <c r="E13" s="12" t="s">
-        <v>49</v>
+        <v>74</v>
       </c>
       <c r="F13" s="13">
-        <v>32150</v>
+        <v>20000</v>
       </c>
       <c r="G13" s="12"/>
       <c r="H13" s="13"/>
@@ -2043,21 +2129,21 @@
       </c>
       <c r="J13" s="5"/>
     </row>
-    <row r="14" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="14" spans="2:10" x14ac:dyDescent="0.4">
       <c r="B14" s="12" t="s">
-        <v>63</v>
+        <v>52</v>
       </c>
       <c r="C14" s="12" t="s">
+        <v>65</v>
+      </c>
+      <c r="D14" s="5" t="s">
         <v>66</v>
       </c>
-      <c r="D14" s="5" t="s">
-        <v>67</v>
-      </c>
       <c r="E14" s="12" t="s">
-        <v>49</v>
+        <v>73</v>
       </c>
       <c r="F14" s="13">
-        <v>6970</v>
+        <v>1350</v>
       </c>
       <c r="G14" s="12"/>
       <c r="H14" s="13"/>
@@ -2067,21 +2153,21 @@
       </c>
       <c r="J14" s="5"/>
     </row>
-    <row r="15" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="15" spans="2:10" x14ac:dyDescent="0.4">
       <c r="B15" s="12" t="s">
-        <v>63</v>
+        <v>52</v>
       </c>
       <c r="C15" s="12" t="s">
+        <v>67</v>
+      </c>
+      <c r="D15" s="5" t="s">
         <v>68</v>
       </c>
-      <c r="D15" s="5" t="s">
-        <v>69</v>
-      </c>
       <c r="E15" s="12" t="s">
-        <v>49</v>
+        <v>73</v>
       </c>
       <c r="F15" s="13">
-        <v>7170</v>
+        <v>6440</v>
       </c>
       <c r="G15" s="12"/>
       <c r="H15" s="13"/>
@@ -2091,12 +2177,22 @@
       </c>
       <c r="J15" s="5"/>
     </row>
-    <row r="16" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B16" s="12"/>
-      <c r="C16" s="12"/>
-      <c r="D16" s="5"/>
-      <c r="E16" s="12"/>
-      <c r="F16" s="13"/>
+    <row r="16" spans="2:10" x14ac:dyDescent="0.4">
+      <c r="B16" s="12" t="s">
+        <v>52</v>
+      </c>
+      <c r="C16" s="12" t="s">
+        <v>69</v>
+      </c>
+      <c r="D16" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="E16" s="12" t="s">
+        <v>73</v>
+      </c>
+      <c r="F16" s="13">
+        <v>4950</v>
+      </c>
       <c r="G16" s="12"/>
       <c r="H16" s="13"/>
       <c r="I16" s="14" t="str">
@@ -2105,12 +2201,22 @@
       </c>
       <c r="J16" s="5"/>
     </row>
-    <row r="17" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B17" s="12"/>
-      <c r="C17" s="12"/>
-      <c r="D17" s="5"/>
-      <c r="E17" s="12"/>
-      <c r="F17" s="13"/>
+    <row r="17" spans="2:10" x14ac:dyDescent="0.4">
+      <c r="B17" s="12" t="s">
+        <v>52</v>
+      </c>
+      <c r="C17" s="12" t="s">
+        <v>71</v>
+      </c>
+      <c r="D17" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="E17" s="12" t="s">
+        <v>73</v>
+      </c>
+      <c r="F17" s="13">
+        <v>3835</v>
+      </c>
       <c r="G17" s="12"/>
       <c r="H17" s="13"/>
       <c r="I17" s="14" t="str">
@@ -2119,12 +2225,22 @@
       </c>
       <c r="J17" s="5"/>
     </row>
-    <row r="18" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B18" s="12"/>
-      <c r="C18" s="12"/>
-      <c r="D18" s="5"/>
-      <c r="E18" s="12"/>
-      <c r="F18" s="13"/>
+    <row r="18" spans="2:10" x14ac:dyDescent="0.4">
+      <c r="B18" s="12" t="s">
+        <v>79</v>
+      </c>
+      <c r="C18" s="12" t="s">
+        <v>75</v>
+      </c>
+      <c r="D18" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="E18" s="12" t="s">
+        <v>73</v>
+      </c>
+      <c r="F18" s="13">
+        <v>1025</v>
+      </c>
       <c r="G18" s="12"/>
       <c r="H18" s="13"/>
       <c r="I18" s="14" t="str">
@@ -2133,12 +2249,22 @@
       </c>
       <c r="J18" s="5"/>
     </row>
-    <row r="19" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B19" s="12"/>
-      <c r="C19" s="12"/>
-      <c r="D19" s="5"/>
-      <c r="E19" s="12"/>
-      <c r="F19" s="13"/>
+    <row r="19" spans="2:10" x14ac:dyDescent="0.4">
+      <c r="B19" s="12" t="s">
+        <v>79</v>
+      </c>
+      <c r="C19" s="12" t="s">
+        <v>77</v>
+      </c>
+      <c r="D19" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="E19" s="12" t="s">
+        <v>73</v>
+      </c>
+      <c r="F19" s="13">
+        <v>1910</v>
+      </c>
       <c r="G19" s="12"/>
       <c r="H19" s="13"/>
       <c r="I19" s="14" t="str">
@@ -2147,12 +2273,22 @@
       </c>
       <c r="J19" s="5"/>
     </row>
-    <row r="20" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B20" s="12"/>
-      <c r="C20" s="12"/>
-      <c r="D20" s="5"/>
-      <c r="E20" s="12"/>
-      <c r="F20" s="13"/>
+    <row r="20" spans="2:10" x14ac:dyDescent="0.4">
+      <c r="B20" s="12" t="s">
+        <v>80</v>
+      </c>
+      <c r="C20" s="12" t="s">
+        <v>82</v>
+      </c>
+      <c r="D20" s="5" t="s">
+        <v>83</v>
+      </c>
+      <c r="E20" s="12" t="s">
+        <v>73</v>
+      </c>
+      <c r="F20" s="13">
+        <v>13250</v>
+      </c>
       <c r="G20" s="12"/>
       <c r="H20" s="13"/>
       <c r="I20" s="14" t="str">
@@ -2161,12 +2297,22 @@
       </c>
       <c r="J20" s="5"/>
     </row>
-    <row r="21" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B21" s="12"/>
-      <c r="C21" s="12"/>
-      <c r="D21" s="5"/>
-      <c r="E21" s="12"/>
-      <c r="F21" s="13"/>
+    <row r="21" spans="2:10" x14ac:dyDescent="0.4">
+      <c r="B21" s="12" t="s">
+        <v>80</v>
+      </c>
+      <c r="C21" s="12" t="s">
+        <v>84</v>
+      </c>
+      <c r="D21" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="E21" s="12" t="s">
+        <v>73</v>
+      </c>
+      <c r="F21" s="13">
+        <v>6020</v>
+      </c>
       <c r="G21" s="12"/>
       <c r="H21" s="13"/>
       <c r="I21" s="14" t="str">
@@ -2175,12 +2321,22 @@
       </c>
       <c r="J21" s="5"/>
     </row>
-    <row r="22" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B22" s="12"/>
-      <c r="C22" s="12"/>
-      <c r="D22" s="5"/>
-      <c r="E22" s="12"/>
-      <c r="F22" s="13"/>
+    <row r="22" spans="2:10" x14ac:dyDescent="0.4">
+      <c r="B22" s="12" t="s">
+        <v>80</v>
+      </c>
+      <c r="C22" s="12" t="s">
+        <v>86</v>
+      </c>
+      <c r="D22" s="5" t="s">
+        <v>87</v>
+      </c>
+      <c r="E22" s="12" t="s">
+        <v>73</v>
+      </c>
+      <c r="F22" s="13">
+        <v>7650</v>
+      </c>
       <c r="G22" s="12"/>
       <c r="H22" s="13"/>
       <c r="I22" s="14" t="str">
@@ -2189,12 +2345,22 @@
       </c>
       <c r="J22" s="5"/>
     </row>
-    <row r="23" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B23" s="12"/>
-      <c r="C23" s="12"/>
-      <c r="D23" s="5"/>
-      <c r="E23" s="12"/>
-      <c r="F23" s="13"/>
+    <row r="23" spans="2:10" x14ac:dyDescent="0.4">
+      <c r="B23" s="12" t="s">
+        <v>80</v>
+      </c>
+      <c r="C23" s="12" t="s">
+        <v>88</v>
+      </c>
+      <c r="D23" s="5" t="s">
+        <v>89</v>
+      </c>
+      <c r="E23" s="12" t="s">
+        <v>73</v>
+      </c>
+      <c r="F23" s="13">
+        <v>3650</v>
+      </c>
       <c r="G23" s="12"/>
       <c r="H23" s="13"/>
       <c r="I23" s="14" t="str">
@@ -2203,12 +2369,22 @@
       </c>
       <c r="J23" s="5"/>
     </row>
-    <row r="24" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B24" s="12"/>
-      <c r="C24" s="12"/>
-      <c r="D24" s="5"/>
-      <c r="E24" s="12"/>
-      <c r="F24" s="13"/>
+    <row r="24" spans="2:10" x14ac:dyDescent="0.4">
+      <c r="B24" s="12" t="s">
+        <v>80</v>
+      </c>
+      <c r="C24" s="12" t="s">
+        <v>90</v>
+      </c>
+      <c r="D24" s="5" t="s">
+        <v>91</v>
+      </c>
+      <c r="E24" s="12" t="s">
+        <v>73</v>
+      </c>
+      <c r="F24" s="13">
+        <v>1450</v>
+      </c>
       <c r="G24" s="12"/>
       <c r="H24" s="13"/>
       <c r="I24" s="14" t="str">
@@ -2217,12 +2393,22 @@
       </c>
       <c r="J24" s="5"/>
     </row>
-    <row r="25" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B25" s="12"/>
-      <c r="C25" s="12"/>
-      <c r="D25" s="5"/>
-      <c r="E25" s="12"/>
-      <c r="F25" s="13"/>
+    <row r="25" spans="2:10" x14ac:dyDescent="0.4">
+      <c r="B25" s="12" t="s">
+        <v>80</v>
+      </c>
+      <c r="C25" s="12" t="s">
+        <v>92</v>
+      </c>
+      <c r="D25" s="5" t="s">
+        <v>93</v>
+      </c>
+      <c r="E25" s="12" t="s">
+        <v>73</v>
+      </c>
+      <c r="F25" s="13">
+        <v>5400</v>
+      </c>
       <c r="G25" s="12"/>
       <c r="H25" s="13"/>
       <c r="I25" s="14" t="str">
@@ -2231,7 +2417,7 @@
       </c>
       <c r="J25" s="5"/>
     </row>
-    <row r="26" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="26" spans="2:10" x14ac:dyDescent="0.4">
       <c r="B26" s="12"/>
       <c r="C26" s="12"/>
       <c r="D26" s="5"/>
@@ -2245,7 +2431,7 @@
       </c>
       <c r="J26" s="5"/>
     </row>
-    <row r="27" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="27" spans="2:10" x14ac:dyDescent="0.4">
       <c r="B27" s="12"/>
       <c r="C27" s="12"/>
       <c r="D27" s="5"/>
@@ -2259,7 +2445,7 @@
       </c>
       <c r="J27" s="5"/>
     </row>
-    <row r="28" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="28" spans="2:10" x14ac:dyDescent="0.4">
       <c r="B28" s="12"/>
       <c r="C28" s="12"/>
       <c r="D28" s="5"/>
@@ -2273,7 +2459,7 @@
       </c>
       <c r="J28" s="5"/>
     </row>
-    <row r="29" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="29" spans="2:10" x14ac:dyDescent="0.4">
       <c r="B29" s="12"/>
       <c r="C29" s="12"/>
       <c r="D29" s="5"/>
@@ -2287,7 +2473,7 @@
       </c>
       <c r="J29" s="5"/>
     </row>
-    <row r="30" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="30" spans="2:10" x14ac:dyDescent="0.4">
       <c r="B30" s="12"/>
       <c r="C30" s="12"/>
       <c r="D30" s="5"/>
@@ -2301,7 +2487,7 @@
       </c>
       <c r="J30" s="5"/>
     </row>
-    <row r="31" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="31" spans="2:10" x14ac:dyDescent="0.4">
       <c r="B31" s="12"/>
       <c r="C31" s="12"/>
       <c r="D31" s="5"/>
@@ -2315,7 +2501,7 @@
       </c>
       <c r="J31" s="5"/>
     </row>
-    <row r="32" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="32" spans="2:10" x14ac:dyDescent="0.4">
       <c r="B32" s="12"/>
       <c r="C32" s="12"/>
       <c r="D32" s="5"/>
@@ -2329,7 +2515,7 @@
       </c>
       <c r="J32" s="5"/>
     </row>
-    <row r="33" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="33" spans="2:10" x14ac:dyDescent="0.4">
       <c r="B33" s="12"/>
       <c r="C33" s="12"/>
       <c r="D33" s="5"/>
@@ -2343,7 +2529,7 @@
       </c>
       <c r="J33" s="5"/>
     </row>
-    <row r="34" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="34" spans="2:10" x14ac:dyDescent="0.4">
       <c r="B34" s="12"/>
       <c r="C34" s="12"/>
       <c r="D34" s="5"/>
@@ -2357,7 +2543,7 @@
       </c>
       <c r="J34" s="5"/>
     </row>
-    <row r="35" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="35" spans="2:10" x14ac:dyDescent="0.4">
       <c r="B35" s="12"/>
       <c r="C35" s="12"/>
       <c r="D35" s="5"/>
@@ -2371,7 +2557,7 @@
       </c>
       <c r="J35" s="5"/>
     </row>
-    <row r="36" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="36" spans="2:10" x14ac:dyDescent="0.4">
       <c r="B36" s="12"/>
       <c r="C36" s="12"/>
       <c r="D36" s="5"/>
@@ -2385,7 +2571,7 @@
       </c>
       <c r="J36" s="5"/>
     </row>
-    <row r="37" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="37" spans="2:10" x14ac:dyDescent="0.4">
       <c r="B37" s="12"/>
       <c r="C37" s="12"/>
       <c r="D37" s="5"/>
@@ -2399,7 +2585,7 @@
       </c>
       <c r="J37" s="5"/>
     </row>
-    <row r="38" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="38" spans="2:10" x14ac:dyDescent="0.4">
       <c r="B38" s="12"/>
       <c r="C38" s="12"/>
       <c r="D38" s="5"/>
@@ -2413,7 +2599,7 @@
       </c>
       <c r="J38" s="5"/>
     </row>
-    <row r="39" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="39" spans="2:10" x14ac:dyDescent="0.4">
       <c r="B39" s="12"/>
       <c r="C39" s="12"/>
       <c r="D39" s="5"/>
@@ -2427,7 +2613,7 @@
       </c>
       <c r="J39" s="5"/>
     </row>
-    <row r="40" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="40" spans="2:10" x14ac:dyDescent="0.4">
       <c r="B40" s="12"/>
       <c r="C40" s="12"/>
       <c r="D40" s="5"/>
@@ -2441,7 +2627,7 @@
       </c>
       <c r="J40" s="5"/>
     </row>
-    <row r="41" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="41" spans="2:10" x14ac:dyDescent="0.4">
       <c r="B41" s="12"/>
       <c r="C41" s="12"/>
       <c r="D41" s="5"/>
@@ -2455,7 +2641,7 @@
       </c>
       <c r="J41" s="5"/>
     </row>
-    <row r="42" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="42" spans="2:10" x14ac:dyDescent="0.4">
       <c r="B42" s="12"/>
       <c r="C42" s="12"/>
       <c r="D42" s="5"/>
@@ -2469,7 +2655,7 @@
       </c>
       <c r="J42" s="5"/>
     </row>
-    <row r="43" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="43" spans="2:10" x14ac:dyDescent="0.4">
       <c r="B43" s="12"/>
       <c r="C43" s="12"/>
       <c r="D43" s="5"/>
@@ -2483,7 +2669,7 @@
       </c>
       <c r="J43" s="5"/>
     </row>
-    <row r="44" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="44" spans="2:10" x14ac:dyDescent="0.4">
       <c r="B44" s="12"/>
       <c r="C44" s="12"/>
       <c r="D44" s="5"/>
@@ -2497,7 +2683,7 @@
       </c>
       <c r="J44" s="5"/>
     </row>
-    <row r="45" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="45" spans="2:10" x14ac:dyDescent="0.4">
       <c r="B45" s="12"/>
       <c r="C45" s="12"/>
       <c r="D45" s="5"/>
@@ -2511,7 +2697,7 @@
       </c>
       <c r="J45" s="5"/>
     </row>
-    <row r="46" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="46" spans="2:10" x14ac:dyDescent="0.4">
       <c r="B46" s="12"/>
       <c r="C46" s="12"/>
       <c r="D46" s="5"/>
@@ -2525,7 +2711,7 @@
       </c>
       <c r="J46" s="5"/>
     </row>
-    <row r="47" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="47" spans="2:10" x14ac:dyDescent="0.4">
       <c r="B47" s="12"/>
       <c r="C47" s="12"/>
       <c r="D47" s="5"/>
@@ -2539,7 +2725,7 @@
       </c>
       <c r="J47" s="5"/>
     </row>
-    <row r="48" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="48" spans="2:10" x14ac:dyDescent="0.4">
       <c r="B48" s="12"/>
       <c r="C48" s="12"/>
       <c r="D48" s="5"/>
@@ -2553,7 +2739,7 @@
       </c>
       <c r="J48" s="5"/>
     </row>
-    <row r="49" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="49" spans="2:10" x14ac:dyDescent="0.4">
       <c r="B49" s="12"/>
       <c r="C49" s="12"/>
       <c r="D49" s="5"/>
@@ -2567,7 +2753,7 @@
       </c>
       <c r="J49" s="5"/>
     </row>
-    <row r="50" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="50" spans="2:10" x14ac:dyDescent="0.4">
       <c r="B50" s="12"/>
       <c r="C50" s="12"/>
       <c r="D50" s="5"/>
@@ -2581,7 +2767,7 @@
       </c>
       <c r="J50" s="5"/>
     </row>
-    <row r="51" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="51" spans="2:10" x14ac:dyDescent="0.4">
       <c r="B51" s="12"/>
       <c r="C51" s="12"/>
       <c r="D51" s="5"/>
@@ -2595,7 +2781,7 @@
       </c>
       <c r="J51" s="5"/>
     </row>
-    <row r="52" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="52" spans="2:10" x14ac:dyDescent="0.4">
       <c r="B52" s="12"/>
       <c r="C52" s="12"/>
       <c r="D52" s="5"/>
@@ -2609,7 +2795,7 @@
       </c>
       <c r="J52" s="5"/>
     </row>
-    <row r="53" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="53" spans="2:10" x14ac:dyDescent="0.4">
       <c r="B53" s="12"/>
       <c r="C53" s="12"/>
       <c r="D53" s="5"/>
@@ -2623,7 +2809,7 @@
       </c>
       <c r="J53" s="5"/>
     </row>
-    <row r="54" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="54" spans="2:10" x14ac:dyDescent="0.4">
       <c r="B54" s="12"/>
       <c r="C54" s="12"/>
       <c r="D54" s="5"/>
@@ -2637,7 +2823,7 @@
       </c>
       <c r="J54" s="5"/>
     </row>
-    <row r="55" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="55" spans="2:10" x14ac:dyDescent="0.4">
       <c r="B55" s="12"/>
       <c r="C55" s="12"/>
       <c r="D55" s="5"/>
@@ -2651,7 +2837,7 @@
       </c>
       <c r="J55" s="5"/>
     </row>
-    <row r="56" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="56" spans="2:10" x14ac:dyDescent="0.4">
       <c r="B56" s="12"/>
       <c r="C56" s="12"/>
       <c r="D56" s="5"/>
@@ -2665,7 +2851,7 @@
       </c>
       <c r="J56" s="5"/>
     </row>
-    <row r="57" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="57" spans="2:10" x14ac:dyDescent="0.4">
       <c r="B57" s="12"/>
       <c r="C57" s="12"/>
       <c r="D57" s="5"/>
@@ -2679,7 +2865,7 @@
       </c>
       <c r="J57" s="5"/>
     </row>
-    <row r="58" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="58" spans="2:10" x14ac:dyDescent="0.4">
       <c r="B58" s="12"/>
       <c r="C58" s="12"/>
       <c r="D58" s="5"/>
@@ -2693,7 +2879,7 @@
       </c>
       <c r="J58" s="5"/>
     </row>
-    <row r="59" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="59" spans="2:10" x14ac:dyDescent="0.4">
       <c r="B59" s="12"/>
       <c r="C59" s="12"/>
       <c r="D59" s="5"/>
@@ -2707,7 +2893,7 @@
       </c>
       <c r="J59" s="5"/>
     </row>
-    <row r="60" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="60" spans="2:10" x14ac:dyDescent="0.4">
       <c r="B60" s="12"/>
       <c r="C60" s="12"/>
       <c r="D60" s="5"/>
@@ -2721,7 +2907,7 @@
       </c>
       <c r="J60" s="5"/>
     </row>
-    <row r="61" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="61" spans="2:10" x14ac:dyDescent="0.4">
       <c r="B61" s="12"/>
       <c r="C61" s="12"/>
       <c r="D61" s="5"/>
@@ -2735,7 +2921,7 @@
       </c>
       <c r="J61" s="5"/>
     </row>
-    <row r="62" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="62" spans="2:10" x14ac:dyDescent="0.4">
       <c r="B62" s="12"/>
       <c r="C62" s="12"/>
       <c r="D62" s="5"/>
@@ -2749,7 +2935,7 @@
       </c>
       <c r="J62" s="5"/>
     </row>
-    <row r="63" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="63" spans="2:10" x14ac:dyDescent="0.4">
       <c r="B63" s="12"/>
       <c r="C63" s="12"/>
       <c r="D63" s="5"/>
@@ -2763,7 +2949,7 @@
       </c>
       <c r="J63" s="5"/>
     </row>
-    <row r="64" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="64" spans="2:10" x14ac:dyDescent="0.4">
       <c r="B64" s="12"/>
       <c r="C64" s="12"/>
       <c r="D64" s="5"/>
@@ -2772,12 +2958,12 @@
       <c r="G64" s="12"/>
       <c r="H64" s="13"/>
       <c r="I64" s="14" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" ref="I64:I96" si="1">IF(H64="", "", IFERROR( ((H64-F64)/F64), ""))</f>
         <v/>
       </c>
       <c r="J64" s="5"/>
     </row>
-    <row r="65" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="65" spans="2:10" x14ac:dyDescent="0.4">
       <c r="B65" s="12"/>
       <c r="C65" s="12"/>
       <c r="D65" s="5"/>
@@ -2786,12 +2972,12 @@
       <c r="G65" s="12"/>
       <c r="H65" s="13"/>
       <c r="I65" s="14" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="J65" s="5"/>
     </row>
-    <row r="66" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="66" spans="2:10" x14ac:dyDescent="0.4">
       <c r="B66" s="12"/>
       <c r="C66" s="12"/>
       <c r="D66" s="5"/>
@@ -2800,12 +2986,12 @@
       <c r="G66" s="12"/>
       <c r="H66" s="13"/>
       <c r="I66" s="14" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="J66" s="5"/>
     </row>
-    <row r="67" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="67" spans="2:10" x14ac:dyDescent="0.4">
       <c r="B67" s="12"/>
       <c r="C67" s="12"/>
       <c r="D67" s="5"/>
@@ -2814,12 +3000,12 @@
       <c r="G67" s="12"/>
       <c r="H67" s="13"/>
       <c r="I67" s="14" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="J67" s="5"/>
     </row>
-    <row r="68" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="68" spans="2:10" x14ac:dyDescent="0.4">
       <c r="B68" s="12"/>
       <c r="C68" s="12"/>
       <c r="D68" s="5"/>
@@ -2828,12 +3014,12 @@
       <c r="G68" s="12"/>
       <c r="H68" s="13"/>
       <c r="I68" s="14" t="str">
-        <f t="shared" ref="I68:I100" si="1">IF(H68="", "", IFERROR( ((H68-F68)/F68), ""))</f>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="J68" s="5"/>
     </row>
-    <row r="69" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="69" spans="2:10" x14ac:dyDescent="0.4">
       <c r="B69" s="12"/>
       <c r="C69" s="12"/>
       <c r="D69" s="5"/>
@@ -2847,7 +3033,7 @@
       </c>
       <c r="J69" s="5"/>
     </row>
-    <row r="70" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="70" spans="2:10" x14ac:dyDescent="0.4">
       <c r="B70" s="12"/>
       <c r="C70" s="12"/>
       <c r="D70" s="5"/>
@@ -2861,7 +3047,7 @@
       </c>
       <c r="J70" s="5"/>
     </row>
-    <row r="71" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="71" spans="2:10" x14ac:dyDescent="0.4">
       <c r="B71" s="12"/>
       <c r="C71" s="12"/>
       <c r="D71" s="5"/>
@@ -2875,7 +3061,7 @@
       </c>
       <c r="J71" s="5"/>
     </row>
-    <row r="72" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="72" spans="2:10" x14ac:dyDescent="0.4">
       <c r="B72" s="12"/>
       <c r="C72" s="12"/>
       <c r="D72" s="5"/>
@@ -2889,7 +3075,7 @@
       </c>
       <c r="J72" s="5"/>
     </row>
-    <row r="73" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="73" spans="2:10" x14ac:dyDescent="0.4">
       <c r="B73" s="12"/>
       <c r="C73" s="12"/>
       <c r="D73" s="5"/>
@@ -2903,7 +3089,7 @@
       </c>
       <c r="J73" s="5"/>
     </row>
-    <row r="74" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="74" spans="2:10" x14ac:dyDescent="0.4">
       <c r="B74" s="12"/>
       <c r="C74" s="12"/>
       <c r="D74" s="5"/>
@@ -2917,7 +3103,7 @@
       </c>
       <c r="J74" s="5"/>
     </row>
-    <row r="75" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="75" spans="2:10" x14ac:dyDescent="0.4">
       <c r="B75" s="12"/>
       <c r="C75" s="12"/>
       <c r="D75" s="5"/>
@@ -2931,7 +3117,7 @@
       </c>
       <c r="J75" s="5"/>
     </row>
-    <row r="76" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="76" spans="2:10" x14ac:dyDescent="0.4">
       <c r="B76" s="12"/>
       <c r="C76" s="12"/>
       <c r="D76" s="5"/>
@@ -2945,7 +3131,7 @@
       </c>
       <c r="J76" s="5"/>
     </row>
-    <row r="77" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="77" spans="2:10" x14ac:dyDescent="0.4">
       <c r="B77" s="12"/>
       <c r="C77" s="12"/>
       <c r="D77" s="5"/>
@@ -2959,7 +3145,7 @@
       </c>
       <c r="J77" s="5"/>
     </row>
-    <row r="78" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="78" spans="2:10" x14ac:dyDescent="0.4">
       <c r="B78" s="12"/>
       <c r="C78" s="12"/>
       <c r="D78" s="5"/>
@@ -2973,7 +3159,7 @@
       </c>
       <c r="J78" s="5"/>
     </row>
-    <row r="79" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="79" spans="2:10" x14ac:dyDescent="0.4">
       <c r="B79" s="12"/>
       <c r="C79" s="12"/>
       <c r="D79" s="5"/>
@@ -2987,7 +3173,7 @@
       </c>
       <c r="J79" s="5"/>
     </row>
-    <row r="80" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="80" spans="2:10" x14ac:dyDescent="0.4">
       <c r="B80" s="12"/>
       <c r="C80" s="12"/>
       <c r="D80" s="5"/>
@@ -3001,7 +3187,7 @@
       </c>
       <c r="J80" s="5"/>
     </row>
-    <row r="81" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="81" spans="2:10" x14ac:dyDescent="0.4">
       <c r="B81" s="12"/>
       <c r="C81" s="12"/>
       <c r="D81" s="5"/>
@@ -3015,7 +3201,7 @@
       </c>
       <c r="J81" s="5"/>
     </row>
-    <row r="82" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="82" spans="2:10" x14ac:dyDescent="0.4">
       <c r="B82" s="12"/>
       <c r="C82" s="12"/>
       <c r="D82" s="5"/>
@@ -3029,7 +3215,7 @@
       </c>
       <c r="J82" s="5"/>
     </row>
-    <row r="83" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="83" spans="2:10" x14ac:dyDescent="0.4">
       <c r="B83" s="12"/>
       <c r="C83" s="12"/>
       <c r="D83" s="5"/>
@@ -3043,7 +3229,7 @@
       </c>
       <c r="J83" s="5"/>
     </row>
-    <row r="84" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="84" spans="2:10" x14ac:dyDescent="0.4">
       <c r="B84" s="12"/>
       <c r="C84" s="12"/>
       <c r="D84" s="5"/>
@@ -3057,7 +3243,7 @@
       </c>
       <c r="J84" s="5"/>
     </row>
-    <row r="85" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="85" spans="2:10" x14ac:dyDescent="0.4">
       <c r="B85" s="12"/>
       <c r="C85" s="12"/>
       <c r="D85" s="5"/>
@@ -3071,7 +3257,7 @@
       </c>
       <c r="J85" s="5"/>
     </row>
-    <row r="86" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="86" spans="2:10" x14ac:dyDescent="0.4">
       <c r="B86" s="12"/>
       <c r="C86" s="12"/>
       <c r="D86" s="5"/>
@@ -3085,7 +3271,7 @@
       </c>
       <c r="J86" s="5"/>
     </row>
-    <row r="87" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="87" spans="2:10" x14ac:dyDescent="0.4">
       <c r="B87" s="12"/>
       <c r="C87" s="12"/>
       <c r="D87" s="5"/>
@@ -3099,7 +3285,7 @@
       </c>
       <c r="J87" s="5"/>
     </row>
-    <row r="88" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="88" spans="2:10" x14ac:dyDescent="0.4">
       <c r="B88" s="12"/>
       <c r="C88" s="12"/>
       <c r="D88" s="5"/>
@@ -3113,7 +3299,7 @@
       </c>
       <c r="J88" s="5"/>
     </row>
-    <row r="89" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="89" spans="2:10" x14ac:dyDescent="0.4">
       <c r="B89" s="12"/>
       <c r="C89" s="12"/>
       <c r="D89" s="5"/>
@@ -3127,7 +3313,7 @@
       </c>
       <c r="J89" s="5"/>
     </row>
-    <row r="90" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="90" spans="2:10" x14ac:dyDescent="0.4">
       <c r="B90" s="12"/>
       <c r="C90" s="12"/>
       <c r="D90" s="5"/>
@@ -3141,7 +3327,7 @@
       </c>
       <c r="J90" s="5"/>
     </row>
-    <row r="91" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="91" spans="2:10" x14ac:dyDescent="0.4">
       <c r="B91" s="12"/>
       <c r="C91" s="12"/>
       <c r="D91" s="5"/>
@@ -3155,7 +3341,7 @@
       </c>
       <c r="J91" s="5"/>
     </row>
-    <row r="92" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="92" spans="2:10" x14ac:dyDescent="0.4">
       <c r="B92" s="12"/>
       <c r="C92" s="12"/>
       <c r="D92" s="5"/>
@@ -3169,7 +3355,7 @@
       </c>
       <c r="J92" s="5"/>
     </row>
-    <row r="93" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="93" spans="2:10" x14ac:dyDescent="0.4">
       <c r="B93" s="12"/>
       <c r="C93" s="12"/>
       <c r="D93" s="5"/>
@@ -3183,7 +3369,7 @@
       </c>
       <c r="J93" s="5"/>
     </row>
-    <row r="94" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="94" spans="2:10" x14ac:dyDescent="0.4">
       <c r="B94" s="12"/>
       <c r="C94" s="12"/>
       <c r="D94" s="5"/>
@@ -3197,7 +3383,7 @@
       </c>
       <c r="J94" s="5"/>
     </row>
-    <row r="95" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="95" spans="2:10" x14ac:dyDescent="0.4">
       <c r="B95" s="12"/>
       <c r="C95" s="12"/>
       <c r="D95" s="5"/>
@@ -3211,7 +3397,7 @@
       </c>
       <c r="J95" s="5"/>
     </row>
-    <row r="96" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="96" spans="2:10" x14ac:dyDescent="0.4">
       <c r="B96" s="12"/>
       <c r="C96" s="12"/>
       <c r="D96" s="5"/>
@@ -3225,64 +3411,8 @@
       </c>
       <c r="J96" s="5"/>
     </row>
-    <row r="97" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B97" s="12"/>
-      <c r="C97" s="12"/>
-      <c r="D97" s="5"/>
-      <c r="E97" s="12"/>
-      <c r="F97" s="13"/>
-      <c r="G97" s="12"/>
-      <c r="H97" s="13"/>
-      <c r="I97" s="14" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="J97" s="5"/>
-    </row>
-    <row r="98" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B98" s="12"/>
-      <c r="C98" s="12"/>
-      <c r="D98" s="5"/>
-      <c r="E98" s="12"/>
-      <c r="F98" s="13"/>
-      <c r="G98" s="12"/>
-      <c r="H98" s="13"/>
-      <c r="I98" s="14" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="J98" s="5"/>
-    </row>
-    <row r="99" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B99" s="12"/>
-      <c r="C99" s="12"/>
-      <c r="D99" s="5"/>
-      <c r="E99" s="12"/>
-      <c r="F99" s="13"/>
-      <c r="G99" s="12"/>
-      <c r="H99" s="13"/>
-      <c r="I99" s="14" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="J99" s="5"/>
-    </row>
-    <row r="100" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B100" s="12"/>
-      <c r="C100" s="12"/>
-      <c r="D100" s="5"/>
-      <c r="E100" s="12"/>
-      <c r="F100" s="13"/>
-      <c r="G100" s="12"/>
-      <c r="H100" s="13"/>
-      <c r="I100" s="14" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="J100" s="5"/>
-    </row>
   </sheetData>
-  <autoFilter ref="B2:J100"/>
+  <autoFilter ref="B2:J96"/>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="I1 I3:I1048576">
     <cfRule type="cellIs" dxfId="1" priority="4" operator="greaterThan">
@@ -3301,9 +3431,9 @@
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
-            <xm:f>'01.원칙'!$C$3:$C$100</xm:f>
+            <xm:f>'01.원칙'!$C$3:$C$101</xm:f>
           </x14:formula1>
-          <xm:sqref>B3:B100</xm:sqref>
+          <xm:sqref>B3:B96</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>

--- a/WorkShop/01.docs/01.초기학습.xlsx
+++ b/WorkShop/01.docs/01.초기학습.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\WorkShop\AppHome\stocks\WorkShop\01.docs\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\ProjectHome\Stocks\WorkShop\01.docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11856" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11850" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="00.참고" sheetId="2" r:id="rId1"/>
@@ -30,27 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="94">
-  <si>
-    <t>https://stock79.tistory.com</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>시스템트레이더</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://kmisfactory.tistory.com</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>지식경영공장(Kevin)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>전업투자자 재해석</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="161" uniqueCount="103">
   <si>
     <t>사이트명</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -64,14 +44,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>기본개념잡기 좋음</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>퀀트공부시 필요</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>종목코드</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -97,22 +69,6 @@
   </si>
   <si>
     <t>매도가</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://jjisso.tistory.com/</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://reint.tistory.com/</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>찌소의 주식차트분석</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>기법공부시 필요</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -411,6 +367,86 @@
   </si>
   <si>
     <t>케이엠제약</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>지식경영공장(Kevin)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://kmisfactory.tistory.com</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>기본개념잡기 좋음</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>시스템트레이더</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://stock79.tistory.com</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>전업투자자 재해석</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://reint.tistory.com/</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>퀀트공부시 필요</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>찌소의 주식차트분석</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://jjisso.tistory.com/</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>기법공부시 필요</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>조건검색식매매의최강자</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://cafe.naver.com/kiwoomhippochart</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>조슈아의주식</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://blog.naver.com/owen75</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> -5% 하락 후 자동손절.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://blog.naver.com/mdew3854</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>주식하는쉐프</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://koostar.tistory.com/</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>리베로스탁보물상자</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -523,7 +559,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -593,7 +629,10 @@
     <xf numFmtId="49" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -897,218 +936,242 @@
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="C12" sqref="C12"/>
+      <selection pane="bottomRight" activeCell="D20" sqref="D20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.2" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="12" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="7.19921875" style="1" customWidth="1"/>
+    <col min="1" max="1" width="7.25" style="1" customWidth="1"/>
     <col min="2" max="2" width="26.5" style="1" customWidth="1"/>
-    <col min="3" max="3" width="38.69921875" style="1" customWidth="1"/>
-    <col min="4" max="4" width="75.69921875" style="2" customWidth="1"/>
+    <col min="3" max="3" width="38.75" style="1" customWidth="1"/>
+    <col min="4" max="4" width="75.75" style="2" customWidth="1"/>
     <col min="5" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:4" x14ac:dyDescent="0.4">
+    <row r="1" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B1" s="3" t="s">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="2" spans="2:4" x14ac:dyDescent="0.4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B2" s="4" t="s">
-        <v>3</v>
+        <v>83</v>
       </c>
       <c r="C2" s="6" t="s">
-        <v>2</v>
+        <v>84</v>
       </c>
       <c r="D2" s="21" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3" spans="2:4" x14ac:dyDescent="0.4">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="3" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B3" s="22" t="s">
-        <v>1</v>
+        <v>86</v>
       </c>
       <c r="C3" s="6" t="s">
-        <v>0</v>
+        <v>87</v>
       </c>
       <c r="D3" s="21"/>
     </row>
-    <row r="4" spans="2:4" x14ac:dyDescent="0.4">
+    <row r="4" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B4" s="22" t="s">
-        <v>4</v>
+        <v>88</v>
       </c>
       <c r="C4" s="6" t="s">
-        <v>18</v>
+        <v>89</v>
       </c>
       <c r="D4" s="21" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="5" spans="2:4" x14ac:dyDescent="0.4">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="5" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B5" s="22" t="s">
-        <v>19</v>
+        <v>91</v>
       </c>
       <c r="C5" s="6" t="s">
-        <v>17</v>
+        <v>92</v>
       </c>
       <c r="D5" s="21" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="6" spans="2:4" x14ac:dyDescent="0.4">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="6" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B6" s="22" t="s">
-        <v>60</v>
-      </c>
-      <c r="C6" s="23" t="s">
-        <v>59</v>
+        <v>49</v>
+      </c>
+      <c r="C6" s="6" t="s">
+        <v>48</v>
       </c>
       <c r="D6" s="21" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="7" spans="2:4" x14ac:dyDescent="0.4">
-      <c r="B7" s="22"/>
-      <c r="C7" s="22"/>
-      <c r="D7" s="21"/>
-    </row>
-    <row r="8" spans="2:4" x14ac:dyDescent="0.4">
-      <c r="B8" s="4"/>
-      <c r="C8" s="4"/>
-      <c r="D8" s="5"/>
-    </row>
-    <row r="9" spans="2:4" x14ac:dyDescent="0.4">
-      <c r="B9" s="4"/>
-      <c r="C9" s="4"/>
-      <c r="D9" s="5"/>
-    </row>
-    <row r="10" spans="2:4" x14ac:dyDescent="0.4">
-      <c r="B10" s="4"/>
-      <c r="C10" s="4"/>
-      <c r="D10" s="5"/>
-    </row>
-    <row r="11" spans="2:4" x14ac:dyDescent="0.4">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="7" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B7" s="22" t="s">
+        <v>94</v>
+      </c>
+      <c r="C7" s="23" t="s">
+        <v>95</v>
+      </c>
+      <c r="D7" s="21" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="8" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B8" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="C8" s="23" t="s">
+        <v>97</v>
+      </c>
+      <c r="D8" s="21" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="9" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B9" s="4" t="s">
+        <v>100</v>
+      </c>
+      <c r="C9" s="23" t="s">
+        <v>99</v>
+      </c>
+      <c r="D9" s="21" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="10" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B10" s="4" t="s">
+        <v>102</v>
+      </c>
+      <c r="C10" s="24" t="s">
+        <v>101</v>
+      </c>
+      <c r="D10" s="21" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="11" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B11" s="4"/>
       <c r="C11" s="4"/>
       <c r="D11" s="5"/>
     </row>
-    <row r="12" spans="2:4" x14ac:dyDescent="0.4">
+    <row r="12" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B12" s="4"/>
       <c r="C12" s="4"/>
       <c r="D12" s="5"/>
     </row>
-    <row r="13" spans="2:4" x14ac:dyDescent="0.4">
+    <row r="13" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B13" s="4"/>
       <c r="C13" s="4"/>
       <c r="D13" s="5"/>
     </row>
-    <row r="14" spans="2:4" x14ac:dyDescent="0.4">
+    <row r="14" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B14" s="4"/>
       <c r="C14" s="4"/>
       <c r="D14" s="5"/>
     </row>
-    <row r="15" spans="2:4" x14ac:dyDescent="0.4">
+    <row r="15" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B15" s="4"/>
       <c r="C15" s="4"/>
       <c r="D15" s="5"/>
     </row>
-    <row r="16" spans="2:4" x14ac:dyDescent="0.4">
+    <row r="16" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B16" s="4"/>
       <c r="C16" s="4"/>
       <c r="D16" s="5"/>
     </row>
-    <row r="17" spans="2:4" x14ac:dyDescent="0.4">
+    <row r="17" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B17" s="4"/>
       <c r="C17" s="4"/>
       <c r="D17" s="5"/>
     </row>
-    <row r="18" spans="2:4" x14ac:dyDescent="0.4">
+    <row r="18" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B18" s="4"/>
       <c r="C18" s="4"/>
       <c r="D18" s="5"/>
     </row>
-    <row r="19" spans="2:4" x14ac:dyDescent="0.4">
+    <row r="19" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B19" s="4"/>
       <c r="C19" s="4"/>
       <c r="D19" s="5"/>
     </row>
-    <row r="20" spans="2:4" x14ac:dyDescent="0.4">
+    <row r="20" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B20" s="4"/>
       <c r="C20" s="4"/>
       <c r="D20" s="5"/>
     </row>
-    <row r="21" spans="2:4" x14ac:dyDescent="0.4">
+    <row r="21" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B21" s="4"/>
       <c r="C21" s="4"/>
       <c r="D21" s="5"/>
     </row>
-    <row r="22" spans="2:4" x14ac:dyDescent="0.4">
+    <row r="22" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B22" s="4"/>
       <c r="C22" s="4"/>
       <c r="D22" s="5"/>
     </row>
-    <row r="23" spans="2:4" x14ac:dyDescent="0.4">
+    <row r="23" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B23" s="4"/>
       <c r="C23" s="4"/>
       <c r="D23" s="5"/>
     </row>
-    <row r="24" spans="2:4" x14ac:dyDescent="0.4">
+    <row r="24" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B24" s="4"/>
       <c r="C24" s="4"/>
       <c r="D24" s="5"/>
     </row>
-    <row r="25" spans="2:4" x14ac:dyDescent="0.4">
+    <row r="25" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B25" s="4"/>
       <c r="C25" s="4"/>
       <c r="D25" s="5"/>
     </row>
-    <row r="26" spans="2:4" x14ac:dyDescent="0.4">
+    <row r="26" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B26" s="4"/>
       <c r="C26" s="4"/>
       <c r="D26" s="5"/>
     </row>
-    <row r="27" spans="2:4" x14ac:dyDescent="0.4">
+    <row r="27" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B27" s="4"/>
       <c r="C27" s="4"/>
       <c r="D27" s="5"/>
     </row>
-    <row r="28" spans="2:4" x14ac:dyDescent="0.4">
+    <row r="28" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B28" s="4"/>
       <c r="C28" s="4"/>
       <c r="D28" s="5"/>
     </row>
-    <row r="29" spans="2:4" x14ac:dyDescent="0.4">
+    <row r="29" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B29" s="4"/>
       <c r="C29" s="4"/>
       <c r="D29" s="5"/>
     </row>
-    <row r="30" spans="2:4" x14ac:dyDescent="0.4">
+    <row r="30" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B30" s="4"/>
       <c r="C30" s="4"/>
       <c r="D30" s="5"/>
     </row>
-    <row r="31" spans="2:4" x14ac:dyDescent="0.4">
+    <row r="31" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B31" s="4"/>
       <c r="C31" s="4"/>
       <c r="D31" s="5"/>
     </row>
-    <row r="32" spans="2:4" x14ac:dyDescent="0.4">
+    <row r="32" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B32" s="4"/>
       <c r="C32" s="4"/>
       <c r="D32" s="5"/>
     </row>
-    <row r="33" spans="2:4" x14ac:dyDescent="0.4">
+    <row r="33" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B33" s="4"/>
       <c r="C33" s="4"/>
       <c r="D33" s="5"/>
     </row>
-    <row r="34" spans="2:4" x14ac:dyDescent="0.4">
+    <row r="34" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B34" s="4"/>
       <c r="C34" s="4"/>
       <c r="D34" s="5"/>
@@ -1130,647 +1193,647 @@
       <selection pane="bottomRight" activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.2" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="12" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="6.5" style="19" customWidth="1"/>
-    <col min="2" max="2" width="12.19921875" style="20" customWidth="1"/>
-    <col min="3" max="3" width="22.69921875" style="20" customWidth="1"/>
-    <col min="4" max="4" width="91.59765625" style="19" customWidth="1"/>
-    <col min="5" max="5" width="39.19921875" style="19" customWidth="1"/>
+    <col min="2" max="2" width="12.25" style="20" customWidth="1"/>
+    <col min="3" max="3" width="22.75" style="20" customWidth="1"/>
+    <col min="4" max="4" width="91.625" style="19" customWidth="1"/>
+    <col min="5" max="5" width="39.25" style="19" customWidth="1"/>
     <col min="6" max="16384" width="9" style="19"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:5" s="16" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="2" spans="2:5" s="16" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B2" s="15" t="s">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="C2" s="15" t="s">
-        <v>22</v>
+        <v>11</v>
       </c>
       <c r="D2" s="15" t="s">
-        <v>23</v>
+        <v>12</v>
       </c>
       <c r="E2" s="15" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="3" spans="2:5" x14ac:dyDescent="0.4">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="3" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B3" s="17" t="s">
-        <v>30</v>
+        <v>19</v>
       </c>
       <c r="C3" s="17" t="s">
-        <v>48</v>
+        <v>37</v>
       </c>
       <c r="D3" s="18"/>
       <c r="E3" s="18"/>
     </row>
-    <row r="4" spans="2:5" x14ac:dyDescent="0.4">
+    <row r="4" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B4" s="17" t="s">
-        <v>30</v>
+        <v>19</v>
       </c>
       <c r="C4" s="17" t="s">
-        <v>47</v>
+        <v>36</v>
       </c>
       <c r="D4" s="18"/>
       <c r="E4" s="18"/>
     </row>
-    <row r="5" spans="2:5" x14ac:dyDescent="0.4">
+    <row r="5" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B5" s="17" t="s">
-        <v>30</v>
+        <v>19</v>
       </c>
       <c r="C5" s="17" t="s">
-        <v>79</v>
+        <v>68</v>
       </c>
       <c r="D5" s="18"/>
       <c r="E5" s="18"/>
     </row>
-    <row r="6" spans="2:5" x14ac:dyDescent="0.4">
+    <row r="6" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B6" s="17" t="s">
-        <v>30</v>
+        <v>19</v>
       </c>
       <c r="C6" s="17" t="s">
-        <v>49</v>
+        <v>38</v>
       </c>
       <c r="D6" s="18"/>
       <c r="E6" s="18"/>
     </row>
-    <row r="7" spans="2:5" x14ac:dyDescent="0.4">
+    <row r="7" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B7" s="17" t="s">
-        <v>30</v>
+        <v>19</v>
       </c>
       <c r="C7" s="17" t="s">
-        <v>51</v>
+        <v>40</v>
       </c>
       <c r="D7" s="18"/>
       <c r="E7" s="18"/>
     </row>
-    <row r="8" spans="2:5" x14ac:dyDescent="0.4">
+    <row r="8" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B8" s="17" t="s">
-        <v>30</v>
+        <v>19</v>
       </c>
       <c r="C8" s="17" t="s">
-        <v>52</v>
+        <v>41</v>
       </c>
       <c r="D8" s="18"/>
       <c r="E8" s="18"/>
     </row>
-    <row r="9" spans="2:5" x14ac:dyDescent="0.4">
+    <row r="9" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B9" s="17" t="s">
-        <v>30</v>
+        <v>19</v>
       </c>
       <c r="C9" s="17" t="s">
-        <v>81</v>
+        <v>70</v>
       </c>
       <c r="D9" s="18"/>
       <c r="E9" s="18"/>
     </row>
-    <row r="10" spans="2:5" x14ac:dyDescent="0.4">
+    <row r="10" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B10" s="17"/>
       <c r="C10" s="17"/>
       <c r="D10" s="18"/>
       <c r="E10" s="18"/>
     </row>
-    <row r="11" spans="2:5" x14ac:dyDescent="0.4">
+    <row r="11" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B11" s="17"/>
       <c r="C11" s="17"/>
       <c r="D11" s="18"/>
       <c r="E11" s="18"/>
     </row>
-    <row r="12" spans="2:5" x14ac:dyDescent="0.4">
+    <row r="12" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B12" s="17"/>
       <c r="C12" s="17"/>
       <c r="D12" s="18"/>
       <c r="E12" s="18"/>
     </row>
-    <row r="13" spans="2:5" x14ac:dyDescent="0.4">
+    <row r="13" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B13" s="17"/>
       <c r="C13" s="17"/>
       <c r="D13" s="18"/>
       <c r="E13" s="18"/>
     </row>
-    <row r="14" spans="2:5" x14ac:dyDescent="0.4">
+    <row r="14" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B14" s="17"/>
       <c r="C14" s="17"/>
       <c r="D14" s="18"/>
       <c r="E14" s="18"/>
     </row>
-    <row r="15" spans="2:5" x14ac:dyDescent="0.4">
+    <row r="15" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B15" s="17"/>
       <c r="C15" s="17"/>
       <c r="D15" s="18"/>
       <c r="E15" s="18"/>
     </row>
-    <row r="16" spans="2:5" x14ac:dyDescent="0.4">
+    <row r="16" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B16" s="17"/>
       <c r="C16" s="17"/>
       <c r="D16" s="18"/>
       <c r="E16" s="18"/>
     </row>
-    <row r="17" spans="2:5" x14ac:dyDescent="0.4">
+    <row r="17" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B17" s="17"/>
       <c r="C17" s="17"/>
       <c r="D17" s="18"/>
       <c r="E17" s="18"/>
     </row>
-    <row r="18" spans="2:5" x14ac:dyDescent="0.4">
+    <row r="18" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B18" s="17"/>
       <c r="C18" s="17"/>
       <c r="D18" s="18"/>
       <c r="E18" s="18"/>
     </row>
-    <row r="19" spans="2:5" x14ac:dyDescent="0.4">
+    <row r="19" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B19" s="17"/>
       <c r="C19" s="17"/>
       <c r="D19" s="18"/>
       <c r="E19" s="18"/>
     </row>
-    <row r="20" spans="2:5" x14ac:dyDescent="0.4">
+    <row r="20" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B20" s="17"/>
       <c r="C20" s="17"/>
       <c r="D20" s="18"/>
       <c r="E20" s="18"/>
     </row>
-    <row r="21" spans="2:5" x14ac:dyDescent="0.4">
+    <row r="21" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B21" s="17"/>
       <c r="C21" s="17"/>
       <c r="D21" s="18"/>
       <c r="E21" s="18"/>
     </row>
-    <row r="22" spans="2:5" x14ac:dyDescent="0.4">
+    <row r="22" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B22" s="17"/>
       <c r="C22" s="17"/>
       <c r="D22" s="18"/>
       <c r="E22" s="18"/>
     </row>
-    <row r="23" spans="2:5" x14ac:dyDescent="0.4">
+    <row r="23" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B23" s="17"/>
       <c r="C23" s="17"/>
       <c r="D23" s="18"/>
       <c r="E23" s="18"/>
     </row>
-    <row r="24" spans="2:5" x14ac:dyDescent="0.4">
+    <row r="24" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B24" s="17"/>
       <c r="C24" s="17"/>
       <c r="D24" s="18"/>
       <c r="E24" s="18"/>
     </row>
-    <row r="25" spans="2:5" x14ac:dyDescent="0.4">
+    <row r="25" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B25" s="17"/>
       <c r="C25" s="17"/>
       <c r="D25" s="18"/>
       <c r="E25" s="18"/>
     </row>
-    <row r="26" spans="2:5" x14ac:dyDescent="0.4">
+    <row r="26" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B26" s="17"/>
       <c r="C26" s="17"/>
       <c r="D26" s="18"/>
       <c r="E26" s="18"/>
     </row>
-    <row r="27" spans="2:5" x14ac:dyDescent="0.4">
+    <row r="27" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B27" s="17"/>
       <c r="C27" s="17"/>
       <c r="D27" s="18"/>
       <c r="E27" s="18"/>
     </row>
-    <row r="28" spans="2:5" x14ac:dyDescent="0.4">
+    <row r="28" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B28" s="17"/>
       <c r="C28" s="17"/>
       <c r="D28" s="18"/>
       <c r="E28" s="18"/>
     </row>
-    <row r="29" spans="2:5" x14ac:dyDescent="0.4">
+    <row r="29" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B29" s="17"/>
       <c r="C29" s="17"/>
       <c r="D29" s="18"/>
       <c r="E29" s="18"/>
     </row>
-    <row r="30" spans="2:5" x14ac:dyDescent="0.4">
+    <row r="30" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B30" s="17"/>
       <c r="C30" s="17"/>
       <c r="D30" s="18"/>
       <c r="E30" s="18"/>
     </row>
-    <row r="31" spans="2:5" x14ac:dyDescent="0.4">
+    <row r="31" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B31" s="17"/>
       <c r="C31" s="17"/>
       <c r="D31" s="18"/>
       <c r="E31" s="18"/>
     </row>
-    <row r="32" spans="2:5" x14ac:dyDescent="0.4">
+    <row r="32" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B32" s="17"/>
       <c r="C32" s="17"/>
       <c r="D32" s="18"/>
       <c r="E32" s="18"/>
     </row>
-    <row r="33" spans="2:5" x14ac:dyDescent="0.4">
+    <row r="33" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B33" s="17"/>
       <c r="C33" s="17"/>
       <c r="D33" s="18"/>
       <c r="E33" s="18"/>
     </row>
-    <row r="34" spans="2:5" x14ac:dyDescent="0.4">
+    <row r="34" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B34" s="17"/>
       <c r="C34" s="17"/>
       <c r="D34" s="18"/>
       <c r="E34" s="18"/>
     </row>
-    <row r="35" spans="2:5" x14ac:dyDescent="0.4">
+    <row r="35" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B35" s="17"/>
       <c r="C35" s="17"/>
       <c r="D35" s="18"/>
       <c r="E35" s="18"/>
     </row>
-    <row r="36" spans="2:5" x14ac:dyDescent="0.4">
+    <row r="36" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B36" s="17"/>
       <c r="C36" s="17"/>
       <c r="D36" s="18"/>
       <c r="E36" s="18"/>
     </row>
-    <row r="37" spans="2:5" x14ac:dyDescent="0.4">
+    <row r="37" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B37" s="17"/>
       <c r="C37" s="17"/>
       <c r="D37" s="18"/>
       <c r="E37" s="18"/>
     </row>
-    <row r="38" spans="2:5" x14ac:dyDescent="0.4">
+    <row r="38" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B38" s="17"/>
       <c r="C38" s="17"/>
       <c r="D38" s="18"/>
       <c r="E38" s="18"/>
     </row>
-    <row r="39" spans="2:5" x14ac:dyDescent="0.4">
+    <row r="39" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B39" s="17"/>
       <c r="C39" s="17"/>
       <c r="D39" s="18"/>
       <c r="E39" s="18"/>
     </row>
-    <row r="40" spans="2:5" x14ac:dyDescent="0.4">
+    <row r="40" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B40" s="17"/>
       <c r="C40" s="17"/>
       <c r="D40" s="18"/>
       <c r="E40" s="18"/>
     </row>
-    <row r="41" spans="2:5" x14ac:dyDescent="0.4">
+    <row r="41" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B41" s="17"/>
       <c r="C41" s="17"/>
       <c r="D41" s="18"/>
       <c r="E41" s="18"/>
     </row>
-    <row r="42" spans="2:5" x14ac:dyDescent="0.4">
+    <row r="42" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B42" s="17"/>
       <c r="C42" s="17"/>
       <c r="D42" s="18"/>
       <c r="E42" s="18"/>
     </row>
-    <row r="43" spans="2:5" x14ac:dyDescent="0.4">
+    <row r="43" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B43" s="17"/>
       <c r="C43" s="17"/>
       <c r="D43" s="18"/>
       <c r="E43" s="18"/>
     </row>
-    <row r="44" spans="2:5" x14ac:dyDescent="0.4">
+    <row r="44" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B44" s="17"/>
       <c r="C44" s="17"/>
       <c r="D44" s="18"/>
       <c r="E44" s="18"/>
     </row>
-    <row r="45" spans="2:5" x14ac:dyDescent="0.4">
+    <row r="45" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B45" s="17"/>
       <c r="C45" s="17"/>
       <c r="D45" s="18"/>
       <c r="E45" s="18"/>
     </row>
-    <row r="46" spans="2:5" x14ac:dyDescent="0.4">
+    <row r="46" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B46" s="17"/>
       <c r="C46" s="17"/>
       <c r="D46" s="18"/>
       <c r="E46" s="18"/>
     </row>
-    <row r="47" spans="2:5" x14ac:dyDescent="0.4">
+    <row r="47" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B47" s="17"/>
       <c r="C47" s="17"/>
       <c r="D47" s="18"/>
       <c r="E47" s="18"/>
     </row>
-    <row r="48" spans="2:5" x14ac:dyDescent="0.4">
+    <row r="48" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B48" s="17"/>
       <c r="C48" s="17"/>
       <c r="D48" s="18"/>
       <c r="E48" s="18"/>
     </row>
-    <row r="49" spans="2:5" x14ac:dyDescent="0.4">
+    <row r="49" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B49" s="17"/>
       <c r="C49" s="17"/>
       <c r="D49" s="18"/>
       <c r="E49" s="18"/>
     </row>
-    <row r="50" spans="2:5" x14ac:dyDescent="0.4">
+    <row r="50" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B50" s="17"/>
       <c r="C50" s="17"/>
       <c r="D50" s="18"/>
       <c r="E50" s="18"/>
     </row>
-    <row r="51" spans="2:5" x14ac:dyDescent="0.4">
+    <row r="51" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B51" s="17"/>
       <c r="C51" s="17"/>
       <c r="D51" s="18"/>
       <c r="E51" s="18"/>
     </row>
-    <row r="52" spans="2:5" x14ac:dyDescent="0.4">
+    <row r="52" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B52" s="17"/>
       <c r="C52" s="17"/>
       <c r="D52" s="18"/>
       <c r="E52" s="18"/>
     </row>
-    <row r="53" spans="2:5" x14ac:dyDescent="0.4">
+    <row r="53" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B53" s="17"/>
       <c r="C53" s="17"/>
       <c r="D53" s="18"/>
       <c r="E53" s="18"/>
     </row>
-    <row r="54" spans="2:5" x14ac:dyDescent="0.4">
+    <row r="54" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B54" s="17"/>
       <c r="C54" s="17"/>
       <c r="D54" s="18"/>
       <c r="E54" s="18"/>
     </row>
-    <row r="55" spans="2:5" x14ac:dyDescent="0.4">
+    <row r="55" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B55" s="17"/>
       <c r="C55" s="17"/>
       <c r="D55" s="18"/>
       <c r="E55" s="18"/>
     </row>
-    <row r="56" spans="2:5" x14ac:dyDescent="0.4">
+    <row r="56" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B56" s="17"/>
       <c r="C56" s="17"/>
       <c r="D56" s="18"/>
       <c r="E56" s="18"/>
     </row>
-    <row r="57" spans="2:5" x14ac:dyDescent="0.4">
+    <row r="57" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B57" s="17"/>
       <c r="C57" s="17"/>
       <c r="D57" s="18"/>
       <c r="E57" s="18"/>
     </row>
-    <row r="58" spans="2:5" x14ac:dyDescent="0.4">
+    <row r="58" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B58" s="17"/>
       <c r="C58" s="17"/>
       <c r="D58" s="18"/>
       <c r="E58" s="18"/>
     </row>
-    <row r="59" spans="2:5" x14ac:dyDescent="0.4">
+    <row r="59" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B59" s="17"/>
       <c r="C59" s="17"/>
       <c r="D59" s="18"/>
       <c r="E59" s="18"/>
     </row>
-    <row r="60" spans="2:5" x14ac:dyDescent="0.4">
+    <row r="60" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B60" s="17"/>
       <c r="C60" s="17"/>
       <c r="D60" s="18"/>
       <c r="E60" s="18"/>
     </row>
-    <row r="61" spans="2:5" x14ac:dyDescent="0.4">
+    <row r="61" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B61" s="17"/>
       <c r="C61" s="17"/>
       <c r="D61" s="18"/>
       <c r="E61" s="18"/>
     </row>
-    <row r="62" spans="2:5" x14ac:dyDescent="0.4">
+    <row r="62" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B62" s="17"/>
       <c r="C62" s="17"/>
       <c r="D62" s="18"/>
       <c r="E62" s="18"/>
     </row>
-    <row r="63" spans="2:5" x14ac:dyDescent="0.4">
+    <row r="63" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B63" s="17"/>
       <c r="C63" s="17"/>
       <c r="D63" s="18"/>
       <c r="E63" s="18"/>
     </row>
-    <row r="64" spans="2:5" x14ac:dyDescent="0.4">
+    <row r="64" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B64" s="17"/>
       <c r="C64" s="17"/>
       <c r="D64" s="18"/>
       <c r="E64" s="18"/>
     </row>
-    <row r="65" spans="2:5" x14ac:dyDescent="0.4">
+    <row r="65" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B65" s="17"/>
       <c r="C65" s="17"/>
       <c r="D65" s="18"/>
       <c r="E65" s="18"/>
     </row>
-    <row r="66" spans="2:5" x14ac:dyDescent="0.4">
+    <row r="66" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B66" s="17"/>
       <c r="C66" s="17"/>
       <c r="D66" s="18"/>
       <c r="E66" s="18"/>
     </row>
-    <row r="67" spans="2:5" x14ac:dyDescent="0.4">
+    <row r="67" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B67" s="17"/>
       <c r="C67" s="17"/>
       <c r="D67" s="18"/>
       <c r="E67" s="18"/>
     </row>
-    <row r="68" spans="2:5" x14ac:dyDescent="0.4">
+    <row r="68" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B68" s="17"/>
       <c r="C68" s="17"/>
       <c r="D68" s="18"/>
       <c r="E68" s="18"/>
     </row>
-    <row r="69" spans="2:5" x14ac:dyDescent="0.4">
+    <row r="69" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B69" s="17"/>
       <c r="C69" s="17"/>
       <c r="D69" s="18"/>
       <c r="E69" s="18"/>
     </row>
-    <row r="70" spans="2:5" x14ac:dyDescent="0.4">
+    <row r="70" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B70" s="17"/>
       <c r="C70" s="17"/>
       <c r="D70" s="18"/>
       <c r="E70" s="18"/>
     </row>
-    <row r="71" spans="2:5" x14ac:dyDescent="0.4">
+    <row r="71" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B71" s="17"/>
       <c r="C71" s="17"/>
       <c r="D71" s="18"/>
       <c r="E71" s="18"/>
     </row>
-    <row r="72" spans="2:5" x14ac:dyDescent="0.4">
+    <row r="72" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B72" s="17"/>
       <c r="C72" s="17"/>
       <c r="D72" s="18"/>
       <c r="E72" s="18"/>
     </row>
-    <row r="73" spans="2:5" x14ac:dyDescent="0.4">
+    <row r="73" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B73" s="17"/>
       <c r="C73" s="17"/>
       <c r="D73" s="18"/>
       <c r="E73" s="18"/>
     </row>
-    <row r="74" spans="2:5" x14ac:dyDescent="0.4">
+    <row r="74" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B74" s="17"/>
       <c r="C74" s="17"/>
       <c r="D74" s="18"/>
       <c r="E74" s="18"/>
     </row>
-    <row r="75" spans="2:5" x14ac:dyDescent="0.4">
+    <row r="75" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B75" s="17"/>
       <c r="C75" s="17"/>
       <c r="D75" s="18"/>
       <c r="E75" s="18"/>
     </row>
-    <row r="76" spans="2:5" x14ac:dyDescent="0.4">
+    <row r="76" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B76" s="17"/>
       <c r="C76" s="17"/>
       <c r="D76" s="18"/>
       <c r="E76" s="18"/>
     </row>
-    <row r="77" spans="2:5" x14ac:dyDescent="0.4">
+    <row r="77" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B77" s="17"/>
       <c r="C77" s="17"/>
       <c r="D77" s="18"/>
       <c r="E77" s="18"/>
     </row>
-    <row r="78" spans="2:5" x14ac:dyDescent="0.4">
+    <row r="78" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B78" s="17"/>
       <c r="C78" s="17"/>
       <c r="D78" s="18"/>
       <c r="E78" s="18"/>
     </row>
-    <row r="79" spans="2:5" x14ac:dyDescent="0.4">
+    <row r="79" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B79" s="17"/>
       <c r="C79" s="17"/>
       <c r="D79" s="18"/>
       <c r="E79" s="18"/>
     </row>
-    <row r="80" spans="2:5" x14ac:dyDescent="0.4">
+    <row r="80" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B80" s="17"/>
       <c r="C80" s="17"/>
       <c r="D80" s="18"/>
       <c r="E80" s="18"/>
     </row>
-    <row r="81" spans="2:5" x14ac:dyDescent="0.4">
+    <row r="81" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B81" s="17"/>
       <c r="C81" s="17"/>
       <c r="D81" s="18"/>
       <c r="E81" s="18"/>
     </row>
-    <row r="82" spans="2:5" x14ac:dyDescent="0.4">
+    <row r="82" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B82" s="17"/>
       <c r="C82" s="17"/>
       <c r="D82" s="18"/>
       <c r="E82" s="18"/>
     </row>
-    <row r="83" spans="2:5" x14ac:dyDescent="0.4">
+    <row r="83" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B83" s="17"/>
       <c r="C83" s="17"/>
       <c r="D83" s="18"/>
       <c r="E83" s="18"/>
     </row>
-    <row r="84" spans="2:5" x14ac:dyDescent="0.4">
+    <row r="84" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B84" s="17"/>
       <c r="C84" s="17"/>
       <c r="D84" s="18"/>
       <c r="E84" s="18"/>
     </row>
-    <row r="85" spans="2:5" x14ac:dyDescent="0.4">
+    <row r="85" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B85" s="17"/>
       <c r="C85" s="17"/>
       <c r="D85" s="18"/>
       <c r="E85" s="18"/>
     </row>
-    <row r="86" spans="2:5" x14ac:dyDescent="0.4">
+    <row r="86" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B86" s="17"/>
       <c r="C86" s="17"/>
       <c r="D86" s="18"/>
       <c r="E86" s="18"/>
     </row>
-    <row r="87" spans="2:5" x14ac:dyDescent="0.4">
+    <row r="87" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B87" s="17"/>
       <c r="C87" s="17"/>
       <c r="D87" s="18"/>
       <c r="E87" s="18"/>
     </row>
-    <row r="88" spans="2:5" x14ac:dyDescent="0.4">
+    <row r="88" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B88" s="17"/>
       <c r="C88" s="17"/>
       <c r="D88" s="18"/>
       <c r="E88" s="18"/>
     </row>
-    <row r="89" spans="2:5" x14ac:dyDescent="0.4">
+    <row r="89" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B89" s="17"/>
       <c r="C89" s="17"/>
       <c r="D89" s="18"/>
       <c r="E89" s="18"/>
     </row>
-    <row r="90" spans="2:5" x14ac:dyDescent="0.4">
+    <row r="90" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B90" s="17"/>
       <c r="C90" s="17"/>
       <c r="D90" s="18"/>
       <c r="E90" s="18"/>
     </row>
-    <row r="91" spans="2:5" x14ac:dyDescent="0.4">
+    <row r="91" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B91" s="17"/>
       <c r="C91" s="17"/>
       <c r="D91" s="18"/>
       <c r="E91" s="18"/>
     </row>
-    <row r="92" spans="2:5" x14ac:dyDescent="0.4">
+    <row r="92" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B92" s="17"/>
       <c r="C92" s="17"/>
       <c r="D92" s="18"/>
       <c r="E92" s="18"/>
     </row>
-    <row r="93" spans="2:5" x14ac:dyDescent="0.4">
+    <row r="93" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B93" s="17"/>
       <c r="C93" s="17"/>
       <c r="D93" s="18"/>
       <c r="E93" s="18"/>
     </row>
-    <row r="94" spans="2:5" x14ac:dyDescent="0.4">
+    <row r="94" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B94" s="17"/>
       <c r="C94" s="17"/>
       <c r="D94" s="18"/>
       <c r="E94" s="18"/>
     </row>
-    <row r="95" spans="2:5" x14ac:dyDescent="0.4">
+    <row r="95" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B95" s="17"/>
       <c r="C95" s="17"/>
       <c r="D95" s="18"/>
       <c r="E95" s="18"/>
     </row>
-    <row r="96" spans="2:5" x14ac:dyDescent="0.4">
+    <row r="96" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B96" s="17"/>
       <c r="C96" s="17"/>
       <c r="D96" s="18"/>
       <c r="E96" s="18"/>
     </row>
-    <row r="97" spans="2:5" x14ac:dyDescent="0.4">
+    <row r="97" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B97" s="17"/>
       <c r="C97" s="17"/>
       <c r="D97" s="18"/>
       <c r="E97" s="18"/>
     </row>
-    <row r="98" spans="2:5" x14ac:dyDescent="0.4">
+    <row r="98" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B98" s="17"/>
       <c r="C98" s="17"/>
       <c r="D98" s="18"/>
       <c r="E98" s="18"/>
     </row>
-    <row r="99" spans="2:5" x14ac:dyDescent="0.4">
+    <row r="99" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B99" s="17"/>
       <c r="C99" s="17"/>
       <c r="D99" s="18"/>
       <c r="E99" s="18"/>
     </row>
-    <row r="100" spans="2:5" x14ac:dyDescent="0.4">
+    <row r="100" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B100" s="17"/>
       <c r="C100" s="17"/>
       <c r="D100" s="18"/>
       <c r="E100" s="18"/>
     </row>
-    <row r="101" spans="2:5" x14ac:dyDescent="0.4">
+    <row r="101" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B101" s="17"/>
       <c r="C101" s="17"/>
       <c r="D101" s="18"/>
@@ -1792,65 +1855,65 @@
       <pane xSplit="1" ySplit="2" topLeftCell="B3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="B21" sqref="B21:B25"/>
+      <selection pane="bottomRight" activeCell="J31" sqref="J31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.2" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="12" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="4.5" style="1" customWidth="1"/>
-    <col min="2" max="2" width="24.69921875" style="8" customWidth="1"/>
-    <col min="3" max="3" width="11.59765625" style="8" customWidth="1"/>
+    <col min="2" max="2" width="24.75" style="8" customWidth="1"/>
+    <col min="3" max="3" width="11.625" style="8" customWidth="1"/>
     <col min="4" max="4" width="13.5" style="2" customWidth="1"/>
-    <col min="5" max="5" width="10.69921875" style="8" customWidth="1"/>
+    <col min="5" max="5" width="10.75" style="8" customWidth="1"/>
     <col min="6" max="6" width="11" style="9" customWidth="1"/>
-    <col min="7" max="7" width="11.3984375" style="8" customWidth="1"/>
+    <col min="7" max="7" width="11.375" style="8" customWidth="1"/>
     <col min="8" max="8" width="10" style="9" customWidth="1"/>
-    <col min="9" max="9" width="10.09765625" style="10" customWidth="1"/>
-    <col min="10" max="10" width="60.09765625" style="2" customWidth="1"/>
+    <col min="9" max="9" width="10.125" style="10" customWidth="1"/>
+    <col min="10" max="10" width="60.125" style="2" customWidth="1"/>
     <col min="11" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:10" s="7" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="2" spans="2:10" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B2" s="3" t="s">
-        <v>29</v>
+        <v>18</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="F2" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="G2" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="H2" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="I2" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="J2" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B3" s="12" t="s">
+        <v>35</v>
+      </c>
+      <c r="C3" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="D3" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="G2" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="H2" s="11" t="s">
-        <v>16</v>
-      </c>
-      <c r="I2" s="11" t="s">
-        <v>43</v>
-      </c>
-      <c r="J2" s="3" t="s">
+      <c r="E3" s="12" t="s">
         <v>14</v>
-      </c>
-    </row>
-    <row r="3" spans="2:10" x14ac:dyDescent="0.4">
-      <c r="B3" s="12" t="s">
-        <v>46</v>
-      </c>
-      <c r="C3" s="12" t="s">
-        <v>35</v>
-      </c>
-      <c r="D3" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="E3" s="12" t="s">
-        <v>25</v>
       </c>
       <c r="F3" s="13">
         <v>21000</v>
@@ -1863,24 +1926,24 @@
       </c>
       <c r="J3" s="5"/>
     </row>
-    <row r="4" spans="2:10" x14ac:dyDescent="0.4">
+    <row r="4" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B4" s="12" t="s">
-        <v>46</v>
+        <v>35</v>
       </c>
       <c r="C4" s="12" t="s">
-        <v>27</v>
+        <v>16</v>
       </c>
       <c r="D4" s="5" t="s">
-        <v>28</v>
+        <v>17</v>
       </c>
       <c r="E4" s="12" t="s">
-        <v>25</v>
+        <v>14</v>
       </c>
       <c r="F4" s="13">
         <v>11400</v>
       </c>
       <c r="G4" s="12" t="s">
-        <v>41</v>
+        <v>30</v>
       </c>
       <c r="H4" s="13">
         <v>11050</v>
@@ -1890,27 +1953,27 @@
         <v>-3.0701754385964911E-2</v>
       </c>
       <c r="J4" s="5" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="5" spans="2:10" x14ac:dyDescent="0.4">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="5" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B5" s="12" t="s">
-        <v>50</v>
+        <v>39</v>
       </c>
       <c r="C5" s="12" t="s">
-        <v>36</v>
+        <v>25</v>
       </c>
       <c r="D5" s="5" t="s">
-        <v>32</v>
+        <v>21</v>
       </c>
       <c r="E5" s="12" t="s">
-        <v>25</v>
+        <v>14</v>
       </c>
       <c r="F5" s="13">
         <v>24550</v>
       </c>
       <c r="G5" s="12" t="s">
-        <v>41</v>
+        <v>30</v>
       </c>
       <c r="H5" s="13">
         <v>27200</v>
@@ -1921,24 +1984,24 @@
       </c>
       <c r="J5" s="5"/>
     </row>
-    <row r="6" spans="2:10" x14ac:dyDescent="0.4">
+    <row r="6" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B6" s="12" t="s">
-        <v>50</v>
+        <v>39</v>
       </c>
       <c r="C6" s="12" t="s">
-        <v>37</v>
+        <v>26</v>
       </c>
       <c r="D6" s="5" t="s">
-        <v>33</v>
+        <v>22</v>
       </c>
       <c r="E6" s="12" t="s">
-        <v>25</v>
+        <v>14</v>
       </c>
       <c r="F6" s="13">
         <v>4210</v>
       </c>
       <c r="G6" s="12" t="s">
-        <v>41</v>
+        <v>30</v>
       </c>
       <c r="H6" s="13">
         <v>4705</v>
@@ -1949,24 +2012,24 @@
       </c>
       <c r="J6" s="5"/>
     </row>
-    <row r="7" spans="2:10" x14ac:dyDescent="0.4">
+    <row r="7" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B7" s="12" t="s">
-        <v>50</v>
+        <v>39</v>
       </c>
       <c r="C7" s="12" t="s">
-        <v>38</v>
+        <v>27</v>
       </c>
       <c r="D7" s="5" t="s">
-        <v>34</v>
+        <v>23</v>
       </c>
       <c r="E7" s="12" t="s">
-        <v>25</v>
+        <v>14</v>
       </c>
       <c r="F7" s="13">
         <v>1515</v>
       </c>
       <c r="G7" s="12" t="s">
-        <v>41</v>
+        <v>30</v>
       </c>
       <c r="H7" s="13">
         <v>1450</v>
@@ -1976,27 +2039,27 @@
         <v>-4.2904290429042903E-2</v>
       </c>
       <c r="J7" s="5" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="8" spans="2:10" x14ac:dyDescent="0.4">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="8" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B8" s="12" t="s">
-        <v>50</v>
+        <v>39</v>
       </c>
       <c r="C8" s="12" t="s">
-        <v>39</v>
+        <v>28</v>
       </c>
       <c r="D8" s="5" t="s">
-        <v>45</v>
+        <v>34</v>
       </c>
       <c r="E8" s="12" t="s">
-        <v>25</v>
+        <v>14</v>
       </c>
       <c r="F8" s="13">
         <v>13000</v>
       </c>
       <c r="G8" s="12" t="s">
-        <v>41</v>
+        <v>30</v>
       </c>
       <c r="H8" s="13">
         <v>16900</v>
@@ -2006,93 +2069,109 @@
         <v>0.3</v>
       </c>
       <c r="J8" s="5" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="9" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B9" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="C9" s="12" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="9" spans="2:10" x14ac:dyDescent="0.4">
-      <c r="B9" s="12" t="s">
-        <v>52</v>
-      </c>
-      <c r="C9" s="12" t="s">
-        <v>53</v>
-      </c>
       <c r="D9" s="5" t="s">
-        <v>54</v>
+        <v>43</v>
       </c>
       <c r="E9" s="12" t="s">
-        <v>40</v>
+        <v>29</v>
       </c>
       <c r="F9" s="13">
         <v>32150</v>
       </c>
-      <c r="G9" s="12"/>
-      <c r="H9" s="13"/>
-      <c r="I9" s="14" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="J9" s="5"/>
-    </row>
-    <row r="10" spans="2:10" x14ac:dyDescent="0.4">
+      <c r="G9" s="12" t="s">
+        <v>62</v>
+      </c>
+      <c r="H9" s="13">
+        <v>30450</v>
+      </c>
+      <c r="I9" s="14">
+        <f t="shared" si="0"/>
+        <v>-5.2877138413685847E-2</v>
+      </c>
+      <c r="J9" s="5" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="10" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B10" s="12" t="s">
-        <v>52</v>
+        <v>41</v>
       </c>
       <c r="C10" s="12" t="s">
-        <v>55</v>
+        <v>44</v>
       </c>
       <c r="D10" s="5" t="s">
-        <v>56</v>
+        <v>45</v>
       </c>
       <c r="E10" s="12" t="s">
-        <v>40</v>
+        <v>29</v>
       </c>
       <c r="F10" s="13">
         <v>6970</v>
       </c>
-      <c r="G10" s="12"/>
-      <c r="H10" s="13"/>
-      <c r="I10" s="14" t="str">
-        <f t="shared" si="0"/>
-        <v/>
+      <c r="G10" s="12" t="s">
+        <v>62</v>
+      </c>
+      <c r="H10" s="13">
+        <v>6760</v>
+      </c>
+      <c r="I10" s="14">
+        <f t="shared" si="0"/>
+        <v>-3.0129124820659971E-2</v>
       </c>
       <c r="J10" s="5"/>
     </row>
-    <row r="11" spans="2:10" x14ac:dyDescent="0.4">
+    <row r="11" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B11" s="12" t="s">
-        <v>52</v>
+        <v>41</v>
       </c>
       <c r="C11" s="12" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="D11" s="5" t="s">
-        <v>58</v>
+        <v>47</v>
       </c>
       <c r="E11" s="12" t="s">
-        <v>40</v>
+        <v>29</v>
       </c>
       <c r="F11" s="13">
         <v>7170</v>
       </c>
-      <c r="G11" s="12"/>
-      <c r="H11" s="13"/>
-      <c r="I11" s="14" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="J11" s="5"/>
-    </row>
-    <row r="12" spans="2:10" x14ac:dyDescent="0.4">
+      <c r="G11" s="12" t="s">
+        <v>62</v>
+      </c>
+      <c r="H11" s="13">
+        <v>6810</v>
+      </c>
+      <c r="I11" s="14">
+        <f t="shared" si="0"/>
+        <v>-5.0209205020920501E-2</v>
+      </c>
+      <c r="J11" s="5" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="12" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B12" s="12" t="s">
-        <v>52</v>
+        <v>41</v>
       </c>
       <c r="C12" s="12" t="s">
-        <v>61</v>
+        <v>50</v>
       </c>
       <c r="D12" s="5" t="s">
-        <v>62</v>
+        <v>51</v>
       </c>
       <c r="E12" s="12" t="s">
-        <v>74</v>
+        <v>63</v>
       </c>
       <c r="F12" s="13">
         <v>13650</v>
@@ -2105,18 +2184,18 @@
       </c>
       <c r="J12" s="5"/>
     </row>
-    <row r="13" spans="2:10" x14ac:dyDescent="0.4">
+    <row r="13" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B13" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="C13" s="12" t="s">
         <v>52</v>
       </c>
-      <c r="C13" s="12" t="s">
+      <c r="D13" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="E13" s="12" t="s">
         <v>63</v>
-      </c>
-      <c r="D13" s="5" t="s">
-        <v>64</v>
-      </c>
-      <c r="E13" s="12" t="s">
-        <v>74</v>
       </c>
       <c r="F13" s="13">
         <v>20000</v>
@@ -2129,18 +2208,18 @@
       </c>
       <c r="J13" s="5"/>
     </row>
-    <row r="14" spans="2:10" x14ac:dyDescent="0.4">
+    <row r="14" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B14" s="12" t="s">
-        <v>52</v>
+        <v>41</v>
       </c>
       <c r="C14" s="12" t="s">
-        <v>65</v>
+        <v>54</v>
       </c>
       <c r="D14" s="5" t="s">
-        <v>66</v>
+        <v>55</v>
       </c>
       <c r="E14" s="12" t="s">
-        <v>73</v>
+        <v>62</v>
       </c>
       <c r="F14" s="13">
         <v>1350</v>
@@ -2153,18 +2232,18 @@
       </c>
       <c r="J14" s="5"/>
     </row>
-    <row r="15" spans="2:10" x14ac:dyDescent="0.4">
+    <row r="15" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B15" s="12" t="s">
-        <v>52</v>
+        <v>41</v>
       </c>
       <c r="C15" s="12" t="s">
-        <v>67</v>
+        <v>56</v>
       </c>
       <c r="D15" s="5" t="s">
-        <v>68</v>
+        <v>57</v>
       </c>
       <c r="E15" s="12" t="s">
-        <v>73</v>
+        <v>62</v>
       </c>
       <c r="F15" s="13">
         <v>6440</v>
@@ -2177,18 +2256,18 @@
       </c>
       <c r="J15" s="5"/>
     </row>
-    <row r="16" spans="2:10" x14ac:dyDescent="0.4">
+    <row r="16" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B16" s="12" t="s">
-        <v>52</v>
+        <v>41</v>
       </c>
       <c r="C16" s="12" t="s">
-        <v>69</v>
+        <v>58</v>
       </c>
       <c r="D16" s="5" t="s">
-        <v>70</v>
+        <v>59</v>
       </c>
       <c r="E16" s="12" t="s">
-        <v>73</v>
+        <v>62</v>
       </c>
       <c r="F16" s="13">
         <v>4950</v>
@@ -2201,18 +2280,18 @@
       </c>
       <c r="J16" s="5"/>
     </row>
-    <row r="17" spans="2:10" x14ac:dyDescent="0.4">
+    <row r="17" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B17" s="12" t="s">
-        <v>52</v>
+        <v>41</v>
       </c>
       <c r="C17" s="12" t="s">
-        <v>71</v>
+        <v>60</v>
       </c>
       <c r="D17" s="5" t="s">
-        <v>72</v>
+        <v>61</v>
       </c>
       <c r="E17" s="12" t="s">
-        <v>73</v>
+        <v>62</v>
       </c>
       <c r="F17" s="13">
         <v>3835</v>
@@ -2225,18 +2304,18 @@
       </c>
       <c r="J17" s="5"/>
     </row>
-    <row r="18" spans="2:10" x14ac:dyDescent="0.4">
+    <row r="18" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B18" s="12" t="s">
-        <v>79</v>
+        <v>68</v>
       </c>
       <c r="C18" s="12" t="s">
-        <v>75</v>
+        <v>64</v>
       </c>
       <c r="D18" s="5" t="s">
-        <v>76</v>
+        <v>65</v>
       </c>
       <c r="E18" s="12" t="s">
-        <v>73</v>
+        <v>62</v>
       </c>
       <c r="F18" s="13">
         <v>1025</v>
@@ -2249,18 +2328,18 @@
       </c>
       <c r="J18" s="5"/>
     </row>
-    <row r="19" spans="2:10" x14ac:dyDescent="0.4">
+    <row r="19" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B19" s="12" t="s">
-        <v>79</v>
+        <v>68</v>
       </c>
       <c r="C19" s="12" t="s">
-        <v>77</v>
+        <v>66</v>
       </c>
       <c r="D19" s="5" t="s">
-        <v>78</v>
+        <v>67</v>
       </c>
       <c r="E19" s="12" t="s">
-        <v>73</v>
+        <v>62</v>
       </c>
       <c r="F19" s="13">
         <v>1910</v>
@@ -2273,18 +2352,18 @@
       </c>
       <c r="J19" s="5"/>
     </row>
-    <row r="20" spans="2:10" x14ac:dyDescent="0.4">
+    <row r="20" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B20" s="12" t="s">
-        <v>80</v>
+        <v>69</v>
       </c>
       <c r="C20" s="12" t="s">
-        <v>82</v>
+        <v>71</v>
       </c>
       <c r="D20" s="5" t="s">
-        <v>83</v>
+        <v>72</v>
       </c>
       <c r="E20" s="12" t="s">
-        <v>73</v>
+        <v>62</v>
       </c>
       <c r="F20" s="13">
         <v>13250</v>
@@ -2297,18 +2376,18 @@
       </c>
       <c r="J20" s="5"/>
     </row>
-    <row r="21" spans="2:10" x14ac:dyDescent="0.4">
+    <row r="21" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B21" s="12" t="s">
-        <v>80</v>
+        <v>69</v>
       </c>
       <c r="C21" s="12" t="s">
-        <v>84</v>
+        <v>73</v>
       </c>
       <c r="D21" s="5" t="s">
-        <v>85</v>
+        <v>74</v>
       </c>
       <c r="E21" s="12" t="s">
-        <v>73</v>
+        <v>62</v>
       </c>
       <c r="F21" s="13">
         <v>6020</v>
@@ -2321,18 +2400,18 @@
       </c>
       <c r="J21" s="5"/>
     </row>
-    <row r="22" spans="2:10" x14ac:dyDescent="0.4">
+    <row r="22" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B22" s="12" t="s">
-        <v>80</v>
+        <v>69</v>
       </c>
       <c r="C22" s="12" t="s">
-        <v>86</v>
+        <v>75</v>
       </c>
       <c r="D22" s="5" t="s">
-        <v>87</v>
+        <v>76</v>
       </c>
       <c r="E22" s="12" t="s">
-        <v>73</v>
+        <v>62</v>
       </c>
       <c r="F22" s="13">
         <v>7650</v>
@@ -2345,18 +2424,18 @@
       </c>
       <c r="J22" s="5"/>
     </row>
-    <row r="23" spans="2:10" x14ac:dyDescent="0.4">
+    <row r="23" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B23" s="12" t="s">
-        <v>80</v>
+        <v>69</v>
       </c>
       <c r="C23" s="12" t="s">
-        <v>88</v>
+        <v>77</v>
       </c>
       <c r="D23" s="5" t="s">
-        <v>89</v>
+        <v>78</v>
       </c>
       <c r="E23" s="12" t="s">
-        <v>73</v>
+        <v>62</v>
       </c>
       <c r="F23" s="13">
         <v>3650</v>
@@ -2369,18 +2448,18 @@
       </c>
       <c r="J23" s="5"/>
     </row>
-    <row r="24" spans="2:10" x14ac:dyDescent="0.4">
+    <row r="24" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B24" s="12" t="s">
+        <v>69</v>
+      </c>
+      <c r="C24" s="12" t="s">
+        <v>79</v>
+      </c>
+      <c r="D24" s="5" t="s">
         <v>80</v>
       </c>
-      <c r="C24" s="12" t="s">
-        <v>90</v>
-      </c>
-      <c r="D24" s="5" t="s">
-        <v>91</v>
-      </c>
       <c r="E24" s="12" t="s">
-        <v>73</v>
+        <v>62</v>
       </c>
       <c r="F24" s="13">
         <v>1450</v>
@@ -2393,18 +2472,18 @@
       </c>
       <c r="J24" s="5"/>
     </row>
-    <row r="25" spans="2:10" x14ac:dyDescent="0.4">
+    <row r="25" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B25" s="12" t="s">
-        <v>80</v>
+        <v>69</v>
       </c>
       <c r="C25" s="12" t="s">
-        <v>92</v>
+        <v>81</v>
       </c>
       <c r="D25" s="5" t="s">
-        <v>93</v>
+        <v>82</v>
       </c>
       <c r="E25" s="12" t="s">
-        <v>73</v>
+        <v>62</v>
       </c>
       <c r="F25" s="13">
         <v>5400</v>
@@ -2417,7 +2496,7 @@
       </c>
       <c r="J25" s="5"/>
     </row>
-    <row r="26" spans="2:10" x14ac:dyDescent="0.4">
+    <row r="26" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B26" s="12"/>
       <c r="C26" s="12"/>
       <c r="D26" s="5"/>
@@ -2431,7 +2510,7 @@
       </c>
       <c r="J26" s="5"/>
     </row>
-    <row r="27" spans="2:10" x14ac:dyDescent="0.4">
+    <row r="27" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B27" s="12"/>
       <c r="C27" s="12"/>
       <c r="D27" s="5"/>
@@ -2445,7 +2524,7 @@
       </c>
       <c r="J27" s="5"/>
     </row>
-    <row r="28" spans="2:10" x14ac:dyDescent="0.4">
+    <row r="28" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B28" s="12"/>
       <c r="C28" s="12"/>
       <c r="D28" s="5"/>
@@ -2459,7 +2538,7 @@
       </c>
       <c r="J28" s="5"/>
     </row>
-    <row r="29" spans="2:10" x14ac:dyDescent="0.4">
+    <row r="29" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B29" s="12"/>
       <c r="C29" s="12"/>
       <c r="D29" s="5"/>
@@ -2473,7 +2552,7 @@
       </c>
       <c r="J29" s="5"/>
     </row>
-    <row r="30" spans="2:10" x14ac:dyDescent="0.4">
+    <row r="30" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B30" s="12"/>
       <c r="C30" s="12"/>
       <c r="D30" s="5"/>
@@ -2487,7 +2566,7 @@
       </c>
       <c r="J30" s="5"/>
     </row>
-    <row r="31" spans="2:10" x14ac:dyDescent="0.4">
+    <row r="31" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B31" s="12"/>
       <c r="C31" s="12"/>
       <c r="D31" s="5"/>
@@ -2501,7 +2580,7 @@
       </c>
       <c r="J31" s="5"/>
     </row>
-    <row r="32" spans="2:10" x14ac:dyDescent="0.4">
+    <row r="32" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B32" s="12"/>
       <c r="C32" s="12"/>
       <c r="D32" s="5"/>
@@ -2515,7 +2594,7 @@
       </c>
       <c r="J32" s="5"/>
     </row>
-    <row r="33" spans="2:10" x14ac:dyDescent="0.4">
+    <row r="33" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B33" s="12"/>
       <c r="C33" s="12"/>
       <c r="D33" s="5"/>
@@ -2529,7 +2608,7 @@
       </c>
       <c r="J33" s="5"/>
     </row>
-    <row r="34" spans="2:10" x14ac:dyDescent="0.4">
+    <row r="34" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B34" s="12"/>
       <c r="C34" s="12"/>
       <c r="D34" s="5"/>
@@ -2543,7 +2622,7 @@
       </c>
       <c r="J34" s="5"/>
     </row>
-    <row r="35" spans="2:10" x14ac:dyDescent="0.4">
+    <row r="35" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B35" s="12"/>
       <c r="C35" s="12"/>
       <c r="D35" s="5"/>
@@ -2557,7 +2636,7 @@
       </c>
       <c r="J35" s="5"/>
     </row>
-    <row r="36" spans="2:10" x14ac:dyDescent="0.4">
+    <row r="36" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B36" s="12"/>
       <c r="C36" s="12"/>
       <c r="D36" s="5"/>
@@ -2571,7 +2650,7 @@
       </c>
       <c r="J36" s="5"/>
     </row>
-    <row r="37" spans="2:10" x14ac:dyDescent="0.4">
+    <row r="37" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B37" s="12"/>
       <c r="C37" s="12"/>
       <c r="D37" s="5"/>
@@ -2585,7 +2664,7 @@
       </c>
       <c r="J37" s="5"/>
     </row>
-    <row r="38" spans="2:10" x14ac:dyDescent="0.4">
+    <row r="38" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B38" s="12"/>
       <c r="C38" s="12"/>
       <c r="D38" s="5"/>
@@ -2599,7 +2678,7 @@
       </c>
       <c r="J38" s="5"/>
     </row>
-    <row r="39" spans="2:10" x14ac:dyDescent="0.4">
+    <row r="39" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B39" s="12"/>
       <c r="C39" s="12"/>
       <c r="D39" s="5"/>
@@ -2613,7 +2692,7 @@
       </c>
       <c r="J39" s="5"/>
     </row>
-    <row r="40" spans="2:10" x14ac:dyDescent="0.4">
+    <row r="40" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B40" s="12"/>
       <c r="C40" s="12"/>
       <c r="D40" s="5"/>
@@ -2627,7 +2706,7 @@
       </c>
       <c r="J40" s="5"/>
     </row>
-    <row r="41" spans="2:10" x14ac:dyDescent="0.4">
+    <row r="41" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B41" s="12"/>
       <c r="C41" s="12"/>
       <c r="D41" s="5"/>
@@ -2641,7 +2720,7 @@
       </c>
       <c r="J41" s="5"/>
     </row>
-    <row r="42" spans="2:10" x14ac:dyDescent="0.4">
+    <row r="42" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B42" s="12"/>
       <c r="C42" s="12"/>
       <c r="D42" s="5"/>
@@ -2655,7 +2734,7 @@
       </c>
       <c r="J42" s="5"/>
     </row>
-    <row r="43" spans="2:10" x14ac:dyDescent="0.4">
+    <row r="43" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B43" s="12"/>
       <c r="C43" s="12"/>
       <c r="D43" s="5"/>
@@ -2669,7 +2748,7 @@
       </c>
       <c r="J43" s="5"/>
     </row>
-    <row r="44" spans="2:10" x14ac:dyDescent="0.4">
+    <row r="44" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B44" s="12"/>
       <c r="C44" s="12"/>
       <c r="D44" s="5"/>
@@ -2683,7 +2762,7 @@
       </c>
       <c r="J44" s="5"/>
     </row>
-    <row r="45" spans="2:10" x14ac:dyDescent="0.4">
+    <row r="45" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B45" s="12"/>
       <c r="C45" s="12"/>
       <c r="D45" s="5"/>
@@ -2697,7 +2776,7 @@
       </c>
       <c r="J45" s="5"/>
     </row>
-    <row r="46" spans="2:10" x14ac:dyDescent="0.4">
+    <row r="46" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B46" s="12"/>
       <c r="C46" s="12"/>
       <c r="D46" s="5"/>
@@ -2711,7 +2790,7 @@
       </c>
       <c r="J46" s="5"/>
     </row>
-    <row r="47" spans="2:10" x14ac:dyDescent="0.4">
+    <row r="47" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B47" s="12"/>
       <c r="C47" s="12"/>
       <c r="D47" s="5"/>
@@ -2725,7 +2804,7 @@
       </c>
       <c r="J47" s="5"/>
     </row>
-    <row r="48" spans="2:10" x14ac:dyDescent="0.4">
+    <row r="48" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B48" s="12"/>
       <c r="C48" s="12"/>
       <c r="D48" s="5"/>
@@ -2739,7 +2818,7 @@
       </c>
       <c r="J48" s="5"/>
     </row>
-    <row r="49" spans="2:10" x14ac:dyDescent="0.4">
+    <row r="49" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B49" s="12"/>
       <c r="C49" s="12"/>
       <c r="D49" s="5"/>
@@ -2753,7 +2832,7 @@
       </c>
       <c r="J49" s="5"/>
     </row>
-    <row r="50" spans="2:10" x14ac:dyDescent="0.4">
+    <row r="50" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B50" s="12"/>
       <c r="C50" s="12"/>
       <c r="D50" s="5"/>
@@ -2767,7 +2846,7 @@
       </c>
       <c r="J50" s="5"/>
     </row>
-    <row r="51" spans="2:10" x14ac:dyDescent="0.4">
+    <row r="51" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B51" s="12"/>
       <c r="C51" s="12"/>
       <c r="D51" s="5"/>
@@ -2781,7 +2860,7 @@
       </c>
       <c r="J51" s="5"/>
     </row>
-    <row r="52" spans="2:10" x14ac:dyDescent="0.4">
+    <row r="52" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B52" s="12"/>
       <c r="C52" s="12"/>
       <c r="D52" s="5"/>
@@ -2795,7 +2874,7 @@
       </c>
       <c r="J52" s="5"/>
     </row>
-    <row r="53" spans="2:10" x14ac:dyDescent="0.4">
+    <row r="53" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B53" s="12"/>
       <c r="C53" s="12"/>
       <c r="D53" s="5"/>
@@ -2809,7 +2888,7 @@
       </c>
       <c r="J53" s="5"/>
     </row>
-    <row r="54" spans="2:10" x14ac:dyDescent="0.4">
+    <row r="54" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B54" s="12"/>
       <c r="C54" s="12"/>
       <c r="D54" s="5"/>
@@ -2823,7 +2902,7 @@
       </c>
       <c r="J54" s="5"/>
     </row>
-    <row r="55" spans="2:10" x14ac:dyDescent="0.4">
+    <row r="55" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B55" s="12"/>
       <c r="C55" s="12"/>
       <c r="D55" s="5"/>
@@ -2837,7 +2916,7 @@
       </c>
       <c r="J55" s="5"/>
     </row>
-    <row r="56" spans="2:10" x14ac:dyDescent="0.4">
+    <row r="56" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B56" s="12"/>
       <c r="C56" s="12"/>
       <c r="D56" s="5"/>
@@ -2851,7 +2930,7 @@
       </c>
       <c r="J56" s="5"/>
     </row>
-    <row r="57" spans="2:10" x14ac:dyDescent="0.4">
+    <row r="57" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B57" s="12"/>
       <c r="C57" s="12"/>
       <c r="D57" s="5"/>
@@ -2865,7 +2944,7 @@
       </c>
       <c r="J57" s="5"/>
     </row>
-    <row r="58" spans="2:10" x14ac:dyDescent="0.4">
+    <row r="58" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B58" s="12"/>
       <c r="C58" s="12"/>
       <c r="D58" s="5"/>
@@ -2879,7 +2958,7 @@
       </c>
       <c r="J58" s="5"/>
     </row>
-    <row r="59" spans="2:10" x14ac:dyDescent="0.4">
+    <row r="59" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B59" s="12"/>
       <c r="C59" s="12"/>
       <c r="D59" s="5"/>
@@ -2893,7 +2972,7 @@
       </c>
       <c r="J59" s="5"/>
     </row>
-    <row r="60" spans="2:10" x14ac:dyDescent="0.4">
+    <row r="60" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B60" s="12"/>
       <c r="C60" s="12"/>
       <c r="D60" s="5"/>
@@ -2907,7 +2986,7 @@
       </c>
       <c r="J60" s="5"/>
     </row>
-    <row r="61" spans="2:10" x14ac:dyDescent="0.4">
+    <row r="61" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B61" s="12"/>
       <c r="C61" s="12"/>
       <c r="D61" s="5"/>
@@ -2921,7 +3000,7 @@
       </c>
       <c r="J61" s="5"/>
     </row>
-    <row r="62" spans="2:10" x14ac:dyDescent="0.4">
+    <row r="62" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B62" s="12"/>
       <c r="C62" s="12"/>
       <c r="D62" s="5"/>
@@ -2935,7 +3014,7 @@
       </c>
       <c r="J62" s="5"/>
     </row>
-    <row r="63" spans="2:10" x14ac:dyDescent="0.4">
+    <row r="63" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B63" s="12"/>
       <c r="C63" s="12"/>
       <c r="D63" s="5"/>
@@ -2949,7 +3028,7 @@
       </c>
       <c r="J63" s="5"/>
     </row>
-    <row r="64" spans="2:10" x14ac:dyDescent="0.4">
+    <row r="64" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B64" s="12"/>
       <c r="C64" s="12"/>
       <c r="D64" s="5"/>
@@ -2963,7 +3042,7 @@
       </c>
       <c r="J64" s="5"/>
     </row>
-    <row r="65" spans="2:10" x14ac:dyDescent="0.4">
+    <row r="65" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B65" s="12"/>
       <c r="C65" s="12"/>
       <c r="D65" s="5"/>
@@ -2977,7 +3056,7 @@
       </c>
       <c r="J65" s="5"/>
     </row>
-    <row r="66" spans="2:10" x14ac:dyDescent="0.4">
+    <row r="66" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B66" s="12"/>
       <c r="C66" s="12"/>
       <c r="D66" s="5"/>
@@ -2991,7 +3070,7 @@
       </c>
       <c r="J66" s="5"/>
     </row>
-    <row r="67" spans="2:10" x14ac:dyDescent="0.4">
+    <row r="67" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B67" s="12"/>
       <c r="C67" s="12"/>
       <c r="D67" s="5"/>
@@ -3005,7 +3084,7 @@
       </c>
       <c r="J67" s="5"/>
     </row>
-    <row r="68" spans="2:10" x14ac:dyDescent="0.4">
+    <row r="68" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B68" s="12"/>
       <c r="C68" s="12"/>
       <c r="D68" s="5"/>
@@ -3019,7 +3098,7 @@
       </c>
       <c r="J68" s="5"/>
     </row>
-    <row r="69" spans="2:10" x14ac:dyDescent="0.4">
+    <row r="69" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B69" s="12"/>
       <c r="C69" s="12"/>
       <c r="D69" s="5"/>
@@ -3033,7 +3112,7 @@
       </c>
       <c r="J69" s="5"/>
     </row>
-    <row r="70" spans="2:10" x14ac:dyDescent="0.4">
+    <row r="70" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B70" s="12"/>
       <c r="C70" s="12"/>
       <c r="D70" s="5"/>
@@ -3047,7 +3126,7 @@
       </c>
       <c r="J70" s="5"/>
     </row>
-    <row r="71" spans="2:10" x14ac:dyDescent="0.4">
+    <row r="71" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B71" s="12"/>
       <c r="C71" s="12"/>
       <c r="D71" s="5"/>
@@ -3061,7 +3140,7 @@
       </c>
       <c r="J71" s="5"/>
     </row>
-    <row r="72" spans="2:10" x14ac:dyDescent="0.4">
+    <row r="72" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B72" s="12"/>
       <c r="C72" s="12"/>
       <c r="D72" s="5"/>
@@ -3075,7 +3154,7 @@
       </c>
       <c r="J72" s="5"/>
     </row>
-    <row r="73" spans="2:10" x14ac:dyDescent="0.4">
+    <row r="73" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B73" s="12"/>
       <c r="C73" s="12"/>
       <c r="D73" s="5"/>
@@ -3089,7 +3168,7 @@
       </c>
       <c r="J73" s="5"/>
     </row>
-    <row r="74" spans="2:10" x14ac:dyDescent="0.4">
+    <row r="74" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B74" s="12"/>
       <c r="C74" s="12"/>
       <c r="D74" s="5"/>
@@ -3103,7 +3182,7 @@
       </c>
       <c r="J74" s="5"/>
     </row>
-    <row r="75" spans="2:10" x14ac:dyDescent="0.4">
+    <row r="75" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B75" s="12"/>
       <c r="C75" s="12"/>
       <c r="D75" s="5"/>
@@ -3117,7 +3196,7 @@
       </c>
       <c r="J75" s="5"/>
     </row>
-    <row r="76" spans="2:10" x14ac:dyDescent="0.4">
+    <row r="76" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B76" s="12"/>
       <c r="C76" s="12"/>
       <c r="D76" s="5"/>
@@ -3131,7 +3210,7 @@
       </c>
       <c r="J76" s="5"/>
     </row>
-    <row r="77" spans="2:10" x14ac:dyDescent="0.4">
+    <row r="77" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B77" s="12"/>
       <c r="C77" s="12"/>
       <c r="D77" s="5"/>
@@ -3145,7 +3224,7 @@
       </c>
       <c r="J77" s="5"/>
     </row>
-    <row r="78" spans="2:10" x14ac:dyDescent="0.4">
+    <row r="78" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B78" s="12"/>
       <c r="C78" s="12"/>
       <c r="D78" s="5"/>
@@ -3159,7 +3238,7 @@
       </c>
       <c r="J78" s="5"/>
     </row>
-    <row r="79" spans="2:10" x14ac:dyDescent="0.4">
+    <row r="79" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B79" s="12"/>
       <c r="C79" s="12"/>
       <c r="D79" s="5"/>
@@ -3173,7 +3252,7 @@
       </c>
       <c r="J79" s="5"/>
     </row>
-    <row r="80" spans="2:10" x14ac:dyDescent="0.4">
+    <row r="80" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B80" s="12"/>
       <c r="C80" s="12"/>
       <c r="D80" s="5"/>
@@ -3187,7 +3266,7 @@
       </c>
       <c r="J80" s="5"/>
     </row>
-    <row r="81" spans="2:10" x14ac:dyDescent="0.4">
+    <row r="81" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B81" s="12"/>
       <c r="C81" s="12"/>
       <c r="D81" s="5"/>
@@ -3201,7 +3280,7 @@
       </c>
       <c r="J81" s="5"/>
     </row>
-    <row r="82" spans="2:10" x14ac:dyDescent="0.4">
+    <row r="82" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B82" s="12"/>
       <c r="C82" s="12"/>
       <c r="D82" s="5"/>
@@ -3215,7 +3294,7 @@
       </c>
       <c r="J82" s="5"/>
     </row>
-    <row r="83" spans="2:10" x14ac:dyDescent="0.4">
+    <row r="83" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B83" s="12"/>
       <c r="C83" s="12"/>
       <c r="D83" s="5"/>
@@ -3229,7 +3308,7 @@
       </c>
       <c r="J83" s="5"/>
     </row>
-    <row r="84" spans="2:10" x14ac:dyDescent="0.4">
+    <row r="84" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B84" s="12"/>
       <c r="C84" s="12"/>
       <c r="D84" s="5"/>
@@ -3243,7 +3322,7 @@
       </c>
       <c r="J84" s="5"/>
     </row>
-    <row r="85" spans="2:10" x14ac:dyDescent="0.4">
+    <row r="85" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B85" s="12"/>
       <c r="C85" s="12"/>
       <c r="D85" s="5"/>
@@ -3257,7 +3336,7 @@
       </c>
       <c r="J85" s="5"/>
     </row>
-    <row r="86" spans="2:10" x14ac:dyDescent="0.4">
+    <row r="86" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B86" s="12"/>
       <c r="C86" s="12"/>
       <c r="D86" s="5"/>
@@ -3271,7 +3350,7 @@
       </c>
       <c r="J86" s="5"/>
     </row>
-    <row r="87" spans="2:10" x14ac:dyDescent="0.4">
+    <row r="87" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B87" s="12"/>
       <c r="C87" s="12"/>
       <c r="D87" s="5"/>
@@ -3285,7 +3364,7 @@
       </c>
       <c r="J87" s="5"/>
     </row>
-    <row r="88" spans="2:10" x14ac:dyDescent="0.4">
+    <row r="88" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B88" s="12"/>
       <c r="C88" s="12"/>
       <c r="D88" s="5"/>
@@ -3299,7 +3378,7 @@
       </c>
       <c r="J88" s="5"/>
     </row>
-    <row r="89" spans="2:10" x14ac:dyDescent="0.4">
+    <row r="89" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B89" s="12"/>
       <c r="C89" s="12"/>
       <c r="D89" s="5"/>
@@ -3313,7 +3392,7 @@
       </c>
       <c r="J89" s="5"/>
     </row>
-    <row r="90" spans="2:10" x14ac:dyDescent="0.4">
+    <row r="90" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B90" s="12"/>
       <c r="C90" s="12"/>
       <c r="D90" s="5"/>
@@ -3327,7 +3406,7 @@
       </c>
       <c r="J90" s="5"/>
     </row>
-    <row r="91" spans="2:10" x14ac:dyDescent="0.4">
+    <row r="91" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B91" s="12"/>
       <c r="C91" s="12"/>
       <c r="D91" s="5"/>
@@ -3341,7 +3420,7 @@
       </c>
       <c r="J91" s="5"/>
     </row>
-    <row r="92" spans="2:10" x14ac:dyDescent="0.4">
+    <row r="92" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B92" s="12"/>
       <c r="C92" s="12"/>
       <c r="D92" s="5"/>
@@ -3355,7 +3434,7 @@
       </c>
       <c r="J92" s="5"/>
     </row>
-    <row r="93" spans="2:10" x14ac:dyDescent="0.4">
+    <row r="93" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B93" s="12"/>
       <c r="C93" s="12"/>
       <c r="D93" s="5"/>
@@ -3369,7 +3448,7 @@
       </c>
       <c r="J93" s="5"/>
     </row>
-    <row r="94" spans="2:10" x14ac:dyDescent="0.4">
+    <row r="94" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B94" s="12"/>
       <c r="C94" s="12"/>
       <c r="D94" s="5"/>
@@ -3383,7 +3462,7 @@
       </c>
       <c r="J94" s="5"/>
     </row>
-    <row r="95" spans="2:10" x14ac:dyDescent="0.4">
+    <row r="95" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B95" s="12"/>
       <c r="C95" s="12"/>
       <c r="D95" s="5"/>
@@ -3397,7 +3476,7 @@
       </c>
       <c r="J95" s="5"/>
     </row>
-    <row r="96" spans="2:10" x14ac:dyDescent="0.4">
+    <row r="96" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B96" s="12"/>
       <c r="C96" s="12"/>
       <c r="D96" s="5"/>

--- a/WorkShop/01.docs/01.초기학습.xlsx
+++ b/WorkShop/01.docs/01.초기학습.xlsx
@@ -18,7 +18,7 @@
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'01.원칙'!$B$2:$E$2</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'02.모의투자'!$B$2:$J$96</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'02.모의투자'!$B$2:$J$90</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
   <extLst>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="161" uniqueCount="103">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="143" uniqueCount="91">
   <si>
     <t>사이트명</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -257,196 +257,149 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>에넥스</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MH에탄올</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>031310</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>아이즈비전</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>126560</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>현대에이치씨엔</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2020-01-29</t>
+  </si>
+  <si>
+    <t>2020-01-29</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>053110</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>소리바다</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>090410</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>덕신하우징</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>눌림목검색_V0.02</t>
+  </si>
+  <si>
+    <t>종가매수검색_V0.01</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>지식경영공장(Kevin)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://kmisfactory.tistory.com</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>기본개념잡기 좋음</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>시스템트레이더</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://stock79.tistory.com</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>전업투자자 재해석</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://reint.tistory.com/</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>퀀트공부시 필요</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>찌소의 주식차트분석</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://jjisso.tistory.com/</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>기법공부시 필요</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>조건검색식매매의최강자</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://cafe.naver.com/kiwoomhippochart</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>조슈아의주식</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://blog.naver.com/owen75</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> -5% 하락 후 자동손절.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://blog.naver.com/mdew3854</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>주식하는쉐프</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://koostar.tistory.com/</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>리베로스탁보물상자</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>011090</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>에넥스</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>023150</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>MH에탄올</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>031310</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>아이즈비전</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>126560</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>현대에이치씨엔</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2020-01-29</t>
-  </si>
-  <si>
-    <t>2020-01-29</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>053110</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>소리바다</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>090410</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>덕신하우징</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>눌림목검색_V0.02</t>
-  </si>
-  <si>
-    <t>종가매수검색_V0.01</t>
-  </si>
-  <si>
-    <t>종가매수검색_V0.01</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>014100</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>메디앙스</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>065950</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>웰크론</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>084650</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>랩지노믹스</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>091970</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>나노캠텍</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>102280</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>쌍방울</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>225430</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>케이엠제약</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>지식경영공장(Kevin)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://kmisfactory.tistory.com</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>기본개념잡기 좋음</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>시스템트레이더</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://stock79.tistory.com</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>전업투자자 재해석</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://reint.tistory.com/</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>퀀트공부시 필요</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>찌소의 주식차트분석</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://jjisso.tistory.com/</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>기법공부시 필요</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>조건검색식매매의최강자</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://cafe.naver.com/kiwoomhippochart</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>조슈아의주식</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://blog.naver.com/owen75</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve"> -5% 하락 후 자동손절.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://blog.naver.com/mdew3854</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>주식하는쉐프</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://koostar.tistory.com/</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>리베로스탁보물상자</t>
+    <t>2020-01-30</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -961,44 +914,44 @@
     </row>
     <row r="2" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B2" s="4" t="s">
-        <v>83</v>
+        <v>68</v>
       </c>
       <c r="C2" s="6" t="s">
-        <v>84</v>
+        <v>69</v>
       </c>
       <c r="D2" s="21" t="s">
-        <v>85</v>
+        <v>70</v>
       </c>
     </row>
     <row r="3" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B3" s="22" t="s">
-        <v>86</v>
+        <v>71</v>
       </c>
       <c r="C3" s="6" t="s">
-        <v>87</v>
+        <v>72</v>
       </c>
       <c r="D3" s="21"/>
     </row>
     <row r="4" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B4" s="22" t="s">
-        <v>88</v>
+        <v>73</v>
       </c>
       <c r="C4" s="6" t="s">
-        <v>89</v>
+        <v>74</v>
       </c>
       <c r="D4" s="21" t="s">
-        <v>90</v>
+        <v>75</v>
       </c>
     </row>
     <row r="5" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B5" s="22" t="s">
-        <v>91</v>
+        <v>76</v>
       </c>
       <c r="C5" s="6" t="s">
-        <v>92</v>
+        <v>77</v>
       </c>
       <c r="D5" s="21" t="s">
-        <v>93</v>
+        <v>78</v>
       </c>
     </row>
     <row r="6" spans="2:4" x14ac:dyDescent="0.3">
@@ -1009,51 +962,51 @@
         <v>48</v>
       </c>
       <c r="D6" s="21" t="s">
-        <v>93</v>
+        <v>78</v>
       </c>
     </row>
     <row r="7" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B7" s="22" t="s">
-        <v>94</v>
+        <v>79</v>
       </c>
       <c r="C7" s="23" t="s">
-        <v>95</v>
+        <v>80</v>
       </c>
       <c r="D7" s="21" t="s">
-        <v>93</v>
+        <v>78</v>
       </c>
     </row>
     <row r="8" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B8" s="4" t="s">
-        <v>96</v>
+        <v>81</v>
       </c>
       <c r="C8" s="23" t="s">
-        <v>97</v>
+        <v>82</v>
       </c>
       <c r="D8" s="21" t="s">
-        <v>93</v>
+        <v>78</v>
       </c>
     </row>
     <row r="9" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B9" s="4" t="s">
-        <v>100</v>
+        <v>85</v>
       </c>
       <c r="C9" s="23" t="s">
-        <v>99</v>
+        <v>84</v>
       </c>
       <c r="D9" s="21" t="s">
-        <v>93</v>
+        <v>78</v>
       </c>
     </row>
     <row r="10" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B10" s="4" t="s">
-        <v>102</v>
+        <v>87</v>
       </c>
       <c r="C10" s="24" t="s">
-        <v>101</v>
+        <v>86</v>
       </c>
       <c r="D10" s="21" t="s">
-        <v>93</v>
+        <v>78</v>
       </c>
     </row>
     <row r="11" spans="2:4" x14ac:dyDescent="0.3">
@@ -1242,7 +1195,7 @@
         <v>19</v>
       </c>
       <c r="C5" s="17" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="D5" s="18"/>
       <c r="E5" s="18"/>
@@ -1282,7 +1235,7 @@
         <v>19</v>
       </c>
       <c r="C9" s="17" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="D9" s="18"/>
       <c r="E9" s="18"/>
@@ -1849,13 +1802,13 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:J96"/>
+  <dimension ref="B2:J90"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" ySplit="2" topLeftCell="B3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="J31" sqref="J31"/>
+      <selection pane="bottomRight" activeCell="J22" sqref="J22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="12" x14ac:dyDescent="0.3"/>
@@ -1921,7 +1874,7 @@
       <c r="G3" s="12"/>
       <c r="H3" s="13"/>
       <c r="I3" s="14" t="str">
-        <f t="shared" ref="I3:I63" si="0">IF(H3="", "", IFERROR( ((H3-F3)/F3), ""))</f>
+        <f t="shared" ref="I3:I57" si="0">IF(H3="", "", IFERROR( ((H3-F3)/F3), ""))</f>
         <v/>
       </c>
       <c r="J3" s="5"/>
@@ -2089,7 +2042,7 @@
         <v>32150</v>
       </c>
       <c r="G9" s="12" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="H9" s="13">
         <v>30450</v>
@@ -2099,7 +2052,7 @@
         <v>-5.2877138413685847E-2</v>
       </c>
       <c r="J9" s="5" t="s">
-        <v>98</v>
+        <v>83</v>
       </c>
     </row>
     <row r="10" spans="2:10" x14ac:dyDescent="0.3">
@@ -2119,7 +2072,7 @@
         <v>6970</v>
       </c>
       <c r="G10" s="12" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="H10" s="13">
         <v>6760</v>
@@ -2147,7 +2100,7 @@
         <v>7170</v>
       </c>
       <c r="G11" s="12" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="H11" s="13">
         <v>6810</v>
@@ -2157,7 +2110,7 @@
         <v>-5.0209205020920501E-2</v>
       </c>
       <c r="J11" s="5" t="s">
-        <v>98</v>
+        <v>83</v>
       </c>
     </row>
     <row r="12" spans="2:10" x14ac:dyDescent="0.3">
@@ -2171,16 +2124,20 @@
         <v>51</v>
       </c>
       <c r="E12" s="12" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="F12" s="13">
         <v>13650</v>
       </c>
-      <c r="G12" s="12"/>
-      <c r="H12" s="13"/>
-      <c r="I12" s="14" t="str">
-        <f t="shared" si="0"/>
-        <v/>
+      <c r="G12" s="12" t="s">
+        <v>90</v>
+      </c>
+      <c r="H12" s="13">
+        <v>13550</v>
+      </c>
+      <c r="I12" s="14">
+        <f t="shared" si="0"/>
+        <v>-7.326007326007326E-3</v>
       </c>
       <c r="J12" s="5"/>
     </row>
@@ -2195,16 +2152,20 @@
         <v>53</v>
       </c>
       <c r="E13" s="12" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="F13" s="13">
         <v>20000</v>
       </c>
-      <c r="G13" s="12"/>
-      <c r="H13" s="13"/>
-      <c r="I13" s="14" t="str">
-        <f t="shared" si="0"/>
-        <v/>
+      <c r="G13" s="12" t="s">
+        <v>90</v>
+      </c>
+      <c r="H13" s="13">
+        <v>20100</v>
+      </c>
+      <c r="I13" s="14">
+        <f t="shared" si="0"/>
+        <v>5.0000000000000001E-3</v>
       </c>
       <c r="J13" s="5"/>
     </row>
@@ -2213,22 +2174,26 @@
         <v>41</v>
       </c>
       <c r="C14" s="12" t="s">
+        <v>88</v>
+      </c>
+      <c r="D14" s="5" t="s">
         <v>54</v>
       </c>
-      <c r="D14" s="5" t="s">
-        <v>55</v>
-      </c>
       <c r="E14" s="12" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="F14" s="13">
         <v>1350</v>
       </c>
-      <c r="G14" s="12"/>
-      <c r="H14" s="13"/>
-      <c r="I14" s="14" t="str">
-        <f t="shared" si="0"/>
-        <v/>
+      <c r="G14" s="12" t="s">
+        <v>90</v>
+      </c>
+      <c r="H14" s="13">
+        <v>1335</v>
+      </c>
+      <c r="I14" s="14">
+        <f t="shared" si="0"/>
+        <v>-1.1111111111111112E-2</v>
       </c>
       <c r="J14" s="5"/>
     </row>
@@ -2237,22 +2202,26 @@
         <v>41</v>
       </c>
       <c r="C15" s="12" t="s">
-        <v>56</v>
+        <v>89</v>
       </c>
       <c r="D15" s="5" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="E15" s="12" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="F15" s="13">
         <v>6440</v>
       </c>
-      <c r="G15" s="12"/>
-      <c r="H15" s="13"/>
-      <c r="I15" s="14" t="str">
-        <f t="shared" si="0"/>
-        <v/>
+      <c r="G15" s="12" t="s">
+        <v>90</v>
+      </c>
+      <c r="H15" s="13">
+        <v>6220</v>
+      </c>
+      <c r="I15" s="14">
+        <f t="shared" si="0"/>
+        <v>-3.4161490683229816E-2</v>
       </c>
       <c r="J15" s="5"/>
     </row>
@@ -2261,22 +2230,26 @@
         <v>41</v>
       </c>
       <c r="C16" s="12" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="D16" s="5" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="E16" s="12" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="F16" s="13">
         <v>4950</v>
       </c>
-      <c r="G16" s="12"/>
-      <c r="H16" s="13"/>
-      <c r="I16" s="14" t="str">
-        <f t="shared" si="0"/>
-        <v/>
+      <c r="G16" s="12" t="s">
+        <v>90</v>
+      </c>
+      <c r="H16" s="13">
+        <v>4990</v>
+      </c>
+      <c r="I16" s="14">
+        <f t="shared" si="0"/>
+        <v>8.0808080808080808E-3</v>
       </c>
       <c r="J16" s="5"/>
     </row>
@@ -2285,37 +2258,41 @@
         <v>41</v>
       </c>
       <c r="C17" s="12" t="s">
+        <v>58</v>
+      </c>
+      <c r="D17" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="E17" s="12" t="s">
         <v>60</v>
-      </c>
-      <c r="D17" s="5" t="s">
-        <v>61</v>
-      </c>
-      <c r="E17" s="12" t="s">
-        <v>62</v>
       </c>
       <c r="F17" s="13">
         <v>3835</v>
       </c>
-      <c r="G17" s="12"/>
-      <c r="H17" s="13"/>
-      <c r="I17" s="14" t="str">
-        <f t="shared" si="0"/>
-        <v/>
+      <c r="G17" s="12" t="s">
+        <v>90</v>
+      </c>
+      <c r="H17" s="13">
+        <v>3930</v>
+      </c>
+      <c r="I17" s="14">
+        <f t="shared" si="0"/>
+        <v>2.4771838331160364E-2</v>
       </c>
       <c r="J17" s="5"/>
     </row>
     <row r="18" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B18" s="12" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="C18" s="12" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="D18" s="5" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="E18" s="12" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="F18" s="13">
         <v>1025</v>
@@ -2330,16 +2307,16 @@
     </row>
     <row r="19" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B19" s="12" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="C19" s="12" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="D19" s="5" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="E19" s="12" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="F19" s="13">
         <v>1910</v>
@@ -2353,21 +2330,11 @@
       <c r="J19" s="5"/>
     </row>
     <row r="20" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B20" s="12" t="s">
-        <v>69</v>
-      </c>
-      <c r="C20" s="12" t="s">
-        <v>71</v>
-      </c>
-      <c r="D20" s="5" t="s">
-        <v>72</v>
-      </c>
-      <c r="E20" s="12" t="s">
-        <v>62</v>
-      </c>
-      <c r="F20" s="13">
-        <v>13250</v>
-      </c>
+      <c r="B20" s="12"/>
+      <c r="C20" s="12"/>
+      <c r="D20" s="5"/>
+      <c r="E20" s="12"/>
+      <c r="F20" s="13"/>
       <c r="G20" s="12"/>
       <c r="H20" s="13"/>
       <c r="I20" s="14" t="str">
@@ -2377,21 +2344,11 @@
       <c r="J20" s="5"/>
     </row>
     <row r="21" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B21" s="12" t="s">
-        <v>69</v>
-      </c>
-      <c r="C21" s="12" t="s">
-        <v>73</v>
-      </c>
-      <c r="D21" s="5" t="s">
-        <v>74</v>
-      </c>
-      <c r="E21" s="12" t="s">
-        <v>62</v>
-      </c>
-      <c r="F21" s="13">
-        <v>6020</v>
-      </c>
+      <c r="B21" s="12"/>
+      <c r="C21" s="12"/>
+      <c r="D21" s="5"/>
+      <c r="E21" s="12"/>
+      <c r="F21" s="13"/>
       <c r="G21" s="12"/>
       <c r="H21" s="13"/>
       <c r="I21" s="14" t="str">
@@ -2401,21 +2358,11 @@
       <c r="J21" s="5"/>
     </row>
     <row r="22" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B22" s="12" t="s">
-        <v>69</v>
-      </c>
-      <c r="C22" s="12" t="s">
-        <v>75</v>
-      </c>
-      <c r="D22" s="5" t="s">
-        <v>76</v>
-      </c>
-      <c r="E22" s="12" t="s">
-        <v>62</v>
-      </c>
-      <c r="F22" s="13">
-        <v>7650</v>
-      </c>
+      <c r="B22" s="12"/>
+      <c r="C22" s="12"/>
+      <c r="D22" s="5"/>
+      <c r="E22" s="12"/>
+      <c r="F22" s="13"/>
       <c r="G22" s="12"/>
       <c r="H22" s="13"/>
       <c r="I22" s="14" t="str">
@@ -2425,21 +2372,11 @@
       <c r="J22" s="5"/>
     </row>
     <row r="23" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B23" s="12" t="s">
-        <v>69</v>
-      </c>
-      <c r="C23" s="12" t="s">
-        <v>77</v>
-      </c>
-      <c r="D23" s="5" t="s">
-        <v>78</v>
-      </c>
-      <c r="E23" s="12" t="s">
-        <v>62</v>
-      </c>
-      <c r="F23" s="13">
-        <v>3650</v>
-      </c>
+      <c r="B23" s="12"/>
+      <c r="C23" s="12"/>
+      <c r="D23" s="5"/>
+      <c r="E23" s="12"/>
+      <c r="F23" s="13"/>
       <c r="G23" s="12"/>
       <c r="H23" s="13"/>
       <c r="I23" s="14" t="str">
@@ -2449,21 +2386,11 @@
       <c r="J23" s="5"/>
     </row>
     <row r="24" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B24" s="12" t="s">
-        <v>69</v>
-      </c>
-      <c r="C24" s="12" t="s">
-        <v>79</v>
-      </c>
-      <c r="D24" s="5" t="s">
-        <v>80</v>
-      </c>
-      <c r="E24" s="12" t="s">
-        <v>62</v>
-      </c>
-      <c r="F24" s="13">
-        <v>1450</v>
-      </c>
+      <c r="B24" s="12"/>
+      <c r="C24" s="12"/>
+      <c r="D24" s="5"/>
+      <c r="E24" s="12"/>
+      <c r="F24" s="13"/>
       <c r="G24" s="12"/>
       <c r="H24" s="13"/>
       <c r="I24" s="14" t="str">
@@ -2473,21 +2400,11 @@
       <c r="J24" s="5"/>
     </row>
     <row r="25" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B25" s="12" t="s">
-        <v>69</v>
-      </c>
-      <c r="C25" s="12" t="s">
-        <v>81</v>
-      </c>
-      <c r="D25" s="5" t="s">
-        <v>82</v>
-      </c>
-      <c r="E25" s="12" t="s">
-        <v>62</v>
-      </c>
-      <c r="F25" s="13">
-        <v>5400</v>
-      </c>
+      <c r="B25" s="12"/>
+      <c r="C25" s="12"/>
+      <c r="D25" s="5"/>
+      <c r="E25" s="12"/>
+      <c r="F25" s="13"/>
       <c r="G25" s="12"/>
       <c r="H25" s="13"/>
       <c r="I25" s="14" t="str">
@@ -2953,7 +2870,7 @@
       <c r="G58" s="12"/>
       <c r="H58" s="13"/>
       <c r="I58" s="14" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" ref="I58:I90" si="1">IF(H58="", "", IFERROR( ((H58-F58)/F58), ""))</f>
         <v/>
       </c>
       <c r="J58" s="5"/>
@@ -2967,7 +2884,7 @@
       <c r="G59" s="12"/>
       <c r="H59" s="13"/>
       <c r="I59" s="14" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="J59" s="5"/>
@@ -2981,7 +2898,7 @@
       <c r="G60" s="12"/>
       <c r="H60" s="13"/>
       <c r="I60" s="14" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="J60" s="5"/>
@@ -2995,7 +2912,7 @@
       <c r="G61" s="12"/>
       <c r="H61" s="13"/>
       <c r="I61" s="14" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="J61" s="5"/>
@@ -3009,7 +2926,7 @@
       <c r="G62" s="12"/>
       <c r="H62" s="13"/>
       <c r="I62" s="14" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="J62" s="5"/>
@@ -3023,7 +2940,7 @@
       <c r="G63" s="12"/>
       <c r="H63" s="13"/>
       <c r="I63" s="14" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="J63" s="5"/>
@@ -3037,7 +2954,7 @@
       <c r="G64" s="12"/>
       <c r="H64" s="13"/>
       <c r="I64" s="14" t="str">
-        <f t="shared" ref="I64:I96" si="1">IF(H64="", "", IFERROR( ((H64-F64)/F64), ""))</f>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="J64" s="5"/>
@@ -3406,92 +3323,8 @@
       </c>
       <c r="J90" s="5"/>
     </row>
-    <row r="91" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B91" s="12"/>
-      <c r="C91" s="12"/>
-      <c r="D91" s="5"/>
-      <c r="E91" s="12"/>
-      <c r="F91" s="13"/>
-      <c r="G91" s="12"/>
-      <c r="H91" s="13"/>
-      <c r="I91" s="14" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="J91" s="5"/>
-    </row>
-    <row r="92" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B92" s="12"/>
-      <c r="C92" s="12"/>
-      <c r="D92" s="5"/>
-      <c r="E92" s="12"/>
-      <c r="F92" s="13"/>
-      <c r="G92" s="12"/>
-      <c r="H92" s="13"/>
-      <c r="I92" s="14" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="J92" s="5"/>
-    </row>
-    <row r="93" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B93" s="12"/>
-      <c r="C93" s="12"/>
-      <c r="D93" s="5"/>
-      <c r="E93" s="12"/>
-      <c r="F93" s="13"/>
-      <c r="G93" s="12"/>
-      <c r="H93" s="13"/>
-      <c r="I93" s="14" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="J93" s="5"/>
-    </row>
-    <row r="94" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B94" s="12"/>
-      <c r="C94" s="12"/>
-      <c r="D94" s="5"/>
-      <c r="E94" s="12"/>
-      <c r="F94" s="13"/>
-      <c r="G94" s="12"/>
-      <c r="H94" s="13"/>
-      <c r="I94" s="14" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="J94" s="5"/>
-    </row>
-    <row r="95" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B95" s="12"/>
-      <c r="C95" s="12"/>
-      <c r="D95" s="5"/>
-      <c r="E95" s="12"/>
-      <c r="F95" s="13"/>
-      <c r="G95" s="12"/>
-      <c r="H95" s="13"/>
-      <c r="I95" s="14" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="J95" s="5"/>
-    </row>
-    <row r="96" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B96" s="12"/>
-      <c r="C96" s="12"/>
-      <c r="D96" s="5"/>
-      <c r="E96" s="12"/>
-      <c r="F96" s="13"/>
-      <c r="G96" s="12"/>
-      <c r="H96" s="13"/>
-      <c r="I96" s="14" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="J96" s="5"/>
-    </row>
   </sheetData>
-  <autoFilter ref="B2:J96"/>
+  <autoFilter ref="B2:J90"/>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="I1 I3:I1048576">
     <cfRule type="cellIs" dxfId="1" priority="4" operator="greaterThan">
@@ -3512,7 +3345,7 @@
           <x14:formula1>
             <xm:f>'01.원칙'!$C$3:$C$101</xm:f>
           </x14:formula1>
-          <xm:sqref>B3:B96</xm:sqref>
+          <xm:sqref>B3:B90</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>

--- a/WorkShop/01.docs/01.초기학습.xlsx
+++ b/WorkShop/01.docs/01.초기학습.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\ProjectHome\Stocks\WorkShop\01.docs\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\WorkShop\AppHome\stocks\WorkShop\01.docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11850" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11856" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="00.참고" sheetId="2" r:id="rId1"/>
@@ -18,7 +18,7 @@
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'01.원칙'!$B$2:$E$2</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'02.모의투자'!$B$2:$J$90</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'02.모의투자'!$B$2:$J$91</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
   <extLst>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="143" uniqueCount="91">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="159" uniqueCount="100">
   <si>
     <t>사이트명</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -400,6 +400,37 @@
   </si>
   <si>
     <t>2020-01-30</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>014160</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>대영포장</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2020-01-30</t>
+  </si>
+  <si>
+    <t>종가매수검색_V0.02</t>
+  </si>
+  <si>
+    <t>종가매수검색_V0.03</t>
+  </si>
+  <si>
+    <t>종가매수검색_V0.04</t>
+  </si>
+  <si>
+    <t>종가매수검색_V0.05</t>
+  </si>
+  <si>
+    <t>059090</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>미코</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -892,16 +923,16 @@
       <selection pane="bottomRight" activeCell="D20" sqref="D20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="12" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.2" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="7.25" style="1" customWidth="1"/>
+    <col min="1" max="1" width="7.19921875" style="1" customWidth="1"/>
     <col min="2" max="2" width="26.5" style="1" customWidth="1"/>
-    <col min="3" max="3" width="38.75" style="1" customWidth="1"/>
-    <col min="4" max="4" width="75.75" style="2" customWidth="1"/>
+    <col min="3" max="3" width="38.69921875" style="1" customWidth="1"/>
+    <col min="4" max="4" width="75.69921875" style="2" customWidth="1"/>
     <col min="5" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="2:4" x14ac:dyDescent="0.4">
       <c r="B1" s="3" t="s">
         <v>0</v>
       </c>
@@ -912,7 +943,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="2" spans="2:4" x14ac:dyDescent="0.4">
       <c r="B2" s="4" t="s">
         <v>68</v>
       </c>
@@ -923,7 +954,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="3" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="3" spans="2:4" x14ac:dyDescent="0.4">
       <c r="B3" s="22" t="s">
         <v>71</v>
       </c>
@@ -932,7 +963,7 @@
       </c>
       <c r="D3" s="21"/>
     </row>
-    <row r="4" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:4" x14ac:dyDescent="0.4">
       <c r="B4" s="22" t="s">
         <v>73</v>
       </c>
@@ -943,7 +974,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="5" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="5" spans="2:4" x14ac:dyDescent="0.4">
       <c r="B5" s="22" t="s">
         <v>76</v>
       </c>
@@ -954,7 +985,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="6" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="6" spans="2:4" x14ac:dyDescent="0.4">
       <c r="B6" s="22" t="s">
         <v>49</v>
       </c>
@@ -965,7 +996,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="7" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="7" spans="2:4" x14ac:dyDescent="0.4">
       <c r="B7" s="22" t="s">
         <v>79</v>
       </c>
@@ -976,7 +1007,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="8" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="8" spans="2:4" x14ac:dyDescent="0.4">
       <c r="B8" s="4" t="s">
         <v>81</v>
       </c>
@@ -987,7 +1018,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="9" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="9" spans="2:4" x14ac:dyDescent="0.4">
       <c r="B9" s="4" t="s">
         <v>85</v>
       </c>
@@ -998,7 +1029,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="10" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="10" spans="2:4" x14ac:dyDescent="0.4">
       <c r="B10" s="4" t="s">
         <v>87</v>
       </c>
@@ -1009,122 +1040,122 @@
         <v>78</v>
       </c>
     </row>
-    <row r="11" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="11" spans="2:4" x14ac:dyDescent="0.4">
       <c r="B11" s="4"/>
       <c r="C11" s="4"/>
       <c r="D11" s="5"/>
     </row>
-    <row r="12" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="12" spans="2:4" x14ac:dyDescent="0.4">
       <c r="B12" s="4"/>
       <c r="C12" s="4"/>
       <c r="D12" s="5"/>
     </row>
-    <row r="13" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="13" spans="2:4" x14ac:dyDescent="0.4">
       <c r="B13" s="4"/>
       <c r="C13" s="4"/>
       <c r="D13" s="5"/>
     </row>
-    <row r="14" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="14" spans="2:4" x14ac:dyDescent="0.4">
       <c r="B14" s="4"/>
       <c r="C14" s="4"/>
       <c r="D14" s="5"/>
     </row>
-    <row r="15" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="15" spans="2:4" x14ac:dyDescent="0.4">
       <c r="B15" s="4"/>
       <c r="C15" s="4"/>
       <c r="D15" s="5"/>
     </row>
-    <row r="16" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="16" spans="2:4" x14ac:dyDescent="0.4">
       <c r="B16" s="4"/>
       <c r="C16" s="4"/>
       <c r="D16" s="5"/>
     </row>
-    <row r="17" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="17" spans="2:4" x14ac:dyDescent="0.4">
       <c r="B17" s="4"/>
       <c r="C17" s="4"/>
       <c r="D17" s="5"/>
     </row>
-    <row r="18" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="18" spans="2:4" x14ac:dyDescent="0.4">
       <c r="B18" s="4"/>
       <c r="C18" s="4"/>
       <c r="D18" s="5"/>
     </row>
-    <row r="19" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="19" spans="2:4" x14ac:dyDescent="0.4">
       <c r="B19" s="4"/>
       <c r="C19" s="4"/>
       <c r="D19" s="5"/>
     </row>
-    <row r="20" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="20" spans="2:4" x14ac:dyDescent="0.4">
       <c r="B20" s="4"/>
       <c r="C20" s="4"/>
       <c r="D20" s="5"/>
     </row>
-    <row r="21" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="21" spans="2:4" x14ac:dyDescent="0.4">
       <c r="B21" s="4"/>
       <c r="C21" s="4"/>
       <c r="D21" s="5"/>
     </row>
-    <row r="22" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="22" spans="2:4" x14ac:dyDescent="0.4">
       <c r="B22" s="4"/>
       <c r="C22" s="4"/>
       <c r="D22" s="5"/>
     </row>
-    <row r="23" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="23" spans="2:4" x14ac:dyDescent="0.4">
       <c r="B23" s="4"/>
       <c r="C23" s="4"/>
       <c r="D23" s="5"/>
     </row>
-    <row r="24" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="24" spans="2:4" x14ac:dyDescent="0.4">
       <c r="B24" s="4"/>
       <c r="C24" s="4"/>
       <c r="D24" s="5"/>
     </row>
-    <row r="25" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="25" spans="2:4" x14ac:dyDescent="0.4">
       <c r="B25" s="4"/>
       <c r="C25" s="4"/>
       <c r="D25" s="5"/>
     </row>
-    <row r="26" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="26" spans="2:4" x14ac:dyDescent="0.4">
       <c r="B26" s="4"/>
       <c r="C26" s="4"/>
       <c r="D26" s="5"/>
     </row>
-    <row r="27" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="27" spans="2:4" x14ac:dyDescent="0.4">
       <c r="B27" s="4"/>
       <c r="C27" s="4"/>
       <c r="D27" s="5"/>
     </row>
-    <row r="28" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="28" spans="2:4" x14ac:dyDescent="0.4">
       <c r="B28" s="4"/>
       <c r="C28" s="4"/>
       <c r="D28" s="5"/>
     </row>
-    <row r="29" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="29" spans="2:4" x14ac:dyDescent="0.4">
       <c r="B29" s="4"/>
       <c r="C29" s="4"/>
       <c r="D29" s="5"/>
     </row>
-    <row r="30" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="30" spans="2:4" x14ac:dyDescent="0.4">
       <c r="B30" s="4"/>
       <c r="C30" s="4"/>
       <c r="D30" s="5"/>
     </row>
-    <row r="31" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="31" spans="2:4" x14ac:dyDescent="0.4">
       <c r="B31" s="4"/>
       <c r="C31" s="4"/>
       <c r="D31" s="5"/>
     </row>
-    <row r="32" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="32" spans="2:4" x14ac:dyDescent="0.4">
       <c r="B32" s="4"/>
       <c r="C32" s="4"/>
       <c r="D32" s="5"/>
     </row>
-    <row r="33" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="33" spans="2:4" x14ac:dyDescent="0.4">
       <c r="B33" s="4"/>
       <c r="C33" s="4"/>
       <c r="D33" s="5"/>
     </row>
-    <row r="34" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="34" spans="2:4" x14ac:dyDescent="0.4">
       <c r="B34" s="4"/>
       <c r="C34" s="4"/>
       <c r="D34" s="5"/>
@@ -1143,20 +1174,20 @@
       <pane xSplit="1" ySplit="2" topLeftCell="B3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="D17" sqref="D17"/>
+      <selection pane="bottomRight" activeCell="B8" sqref="B8:B13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="12" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.2" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="1" max="1" width="6.5" style="19" customWidth="1"/>
-    <col min="2" max="2" width="12.25" style="20" customWidth="1"/>
-    <col min="3" max="3" width="22.75" style="20" customWidth="1"/>
-    <col min="4" max="4" width="91.625" style="19" customWidth="1"/>
-    <col min="5" max="5" width="39.25" style="19" customWidth="1"/>
+    <col min="2" max="2" width="12.19921875" style="20" customWidth="1"/>
+    <col min="3" max="3" width="22.69921875" style="20" customWidth="1"/>
+    <col min="4" max="4" width="91.59765625" style="19" customWidth="1"/>
+    <col min="5" max="5" width="39.19921875" style="19" customWidth="1"/>
     <col min="6" max="16384" width="9" style="19"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:5" s="16" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="2:5" s="16" customFormat="1" x14ac:dyDescent="0.4">
       <c r="B2" s="15" t="s">
         <v>10</v>
       </c>
@@ -1170,7 +1201,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="3" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="3" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B3" s="17" t="s">
         <v>19</v>
       </c>
@@ -1180,7 +1211,7 @@
       <c r="D3" s="18"/>
       <c r="E3" s="18"/>
     </row>
-    <row r="4" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B4" s="17" t="s">
         <v>19</v>
       </c>
@@ -1190,7 +1221,7 @@
       <c r="D4" s="18"/>
       <c r="E4" s="18"/>
     </row>
-    <row r="5" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="5" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B5" s="17" t="s">
         <v>19</v>
       </c>
@@ -1200,7 +1231,7 @@
       <c r="D5" s="18"/>
       <c r="E5" s="18"/>
     </row>
-    <row r="6" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="6" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B6" s="17" t="s">
         <v>19</v>
       </c>
@@ -1210,7 +1241,7 @@
       <c r="D6" s="18"/>
       <c r="E6" s="18"/>
     </row>
-    <row r="7" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="7" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B7" s="17" t="s">
         <v>19</v>
       </c>
@@ -1220,7 +1251,7 @@
       <c r="D7" s="18"/>
       <c r="E7" s="18"/>
     </row>
-    <row r="8" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="8" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B8" s="17" t="s">
         <v>19</v>
       </c>
@@ -1230,7 +1261,7 @@
       <c r="D8" s="18"/>
       <c r="E8" s="18"/>
     </row>
-    <row r="9" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="9" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B9" s="17" t="s">
         <v>19</v>
       </c>
@@ -1240,553 +1271,569 @@
       <c r="D9" s="18"/>
       <c r="E9" s="18"/>
     </row>
-    <row r="10" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B10" s="17"/>
-      <c r="C10" s="17"/>
+    <row r="10" spans="2:5" x14ac:dyDescent="0.4">
+      <c r="B10" s="17" t="s">
+        <v>19</v>
+      </c>
+      <c r="C10" s="17" t="s">
+        <v>94</v>
+      </c>
       <c r="D10" s="18"/>
       <c r="E10" s="18"/>
     </row>
-    <row r="11" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B11" s="17"/>
-      <c r="C11" s="17"/>
+    <row r="11" spans="2:5" x14ac:dyDescent="0.4">
+      <c r="B11" s="17" t="s">
+        <v>19</v>
+      </c>
+      <c r="C11" s="17" t="s">
+        <v>95</v>
+      </c>
       <c r="D11" s="18"/>
       <c r="E11" s="18"/>
     </row>
-    <row r="12" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B12" s="17"/>
-      <c r="C12" s="17"/>
+    <row r="12" spans="2:5" x14ac:dyDescent="0.4">
+      <c r="B12" s="17" t="s">
+        <v>19</v>
+      </c>
+      <c r="C12" s="17" t="s">
+        <v>96</v>
+      </c>
       <c r="D12" s="18"/>
       <c r="E12" s="18"/>
     </row>
-    <row r="13" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B13" s="17"/>
-      <c r="C13" s="17"/>
+    <row r="13" spans="2:5" x14ac:dyDescent="0.4">
+      <c r="B13" s="17" t="s">
+        <v>19</v>
+      </c>
+      <c r="C13" s="17" t="s">
+        <v>97</v>
+      </c>
       <c r="D13" s="18"/>
       <c r="E13" s="18"/>
     </row>
-    <row r="14" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="14" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B14" s="17"/>
       <c r="C14" s="17"/>
       <c r="D14" s="18"/>
       <c r="E14" s="18"/>
     </row>
-    <row r="15" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="15" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B15" s="17"/>
       <c r="C15" s="17"/>
       <c r="D15" s="18"/>
       <c r="E15" s="18"/>
     </row>
-    <row r="16" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="16" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B16" s="17"/>
       <c r="C16" s="17"/>
       <c r="D16" s="18"/>
       <c r="E16" s="18"/>
     </row>
-    <row r="17" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="17" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B17" s="17"/>
       <c r="C17" s="17"/>
       <c r="D17" s="18"/>
       <c r="E17" s="18"/>
     </row>
-    <row r="18" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="18" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B18" s="17"/>
       <c r="C18" s="17"/>
       <c r="D18" s="18"/>
       <c r="E18" s="18"/>
     </row>
-    <row r="19" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="19" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B19" s="17"/>
       <c r="C19" s="17"/>
       <c r="D19" s="18"/>
       <c r="E19" s="18"/>
     </row>
-    <row r="20" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="20" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B20" s="17"/>
       <c r="C20" s="17"/>
       <c r="D20" s="18"/>
       <c r="E20" s="18"/>
     </row>
-    <row r="21" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="21" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B21" s="17"/>
       <c r="C21" s="17"/>
       <c r="D21" s="18"/>
       <c r="E21" s="18"/>
     </row>
-    <row r="22" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="22" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B22" s="17"/>
       <c r="C22" s="17"/>
       <c r="D22" s="18"/>
       <c r="E22" s="18"/>
     </row>
-    <row r="23" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="23" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B23" s="17"/>
       <c r="C23" s="17"/>
       <c r="D23" s="18"/>
       <c r="E23" s="18"/>
     </row>
-    <row r="24" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="24" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B24" s="17"/>
       <c r="C24" s="17"/>
       <c r="D24" s="18"/>
       <c r="E24" s="18"/>
     </row>
-    <row r="25" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="25" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B25" s="17"/>
       <c r="C25" s="17"/>
       <c r="D25" s="18"/>
       <c r="E25" s="18"/>
     </row>
-    <row r="26" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="26" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B26" s="17"/>
       <c r="C26" s="17"/>
       <c r="D26" s="18"/>
       <c r="E26" s="18"/>
     </row>
-    <row r="27" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="27" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B27" s="17"/>
       <c r="C27" s="17"/>
       <c r="D27" s="18"/>
       <c r="E27" s="18"/>
     </row>
-    <row r="28" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="28" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B28" s="17"/>
       <c r="C28" s="17"/>
       <c r="D28" s="18"/>
       <c r="E28" s="18"/>
     </row>
-    <row r="29" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="29" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B29" s="17"/>
       <c r="C29" s="17"/>
       <c r="D29" s="18"/>
       <c r="E29" s="18"/>
     </row>
-    <row r="30" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="30" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B30" s="17"/>
       <c r="C30" s="17"/>
       <c r="D30" s="18"/>
       <c r="E30" s="18"/>
     </row>
-    <row r="31" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="31" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B31" s="17"/>
       <c r="C31" s="17"/>
       <c r="D31" s="18"/>
       <c r="E31" s="18"/>
     </row>
-    <row r="32" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="32" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B32" s="17"/>
       <c r="C32" s="17"/>
       <c r="D32" s="18"/>
       <c r="E32" s="18"/>
     </row>
-    <row r="33" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="33" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B33" s="17"/>
       <c r="C33" s="17"/>
       <c r="D33" s="18"/>
       <c r="E33" s="18"/>
     </row>
-    <row r="34" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="34" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B34" s="17"/>
       <c r="C34" s="17"/>
       <c r="D34" s="18"/>
       <c r="E34" s="18"/>
     </row>
-    <row r="35" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="35" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B35" s="17"/>
       <c r="C35" s="17"/>
       <c r="D35" s="18"/>
       <c r="E35" s="18"/>
     </row>
-    <row r="36" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="36" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B36" s="17"/>
       <c r="C36" s="17"/>
       <c r="D36" s="18"/>
       <c r="E36" s="18"/>
     </row>
-    <row r="37" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="37" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B37" s="17"/>
       <c r="C37" s="17"/>
       <c r="D37" s="18"/>
       <c r="E37" s="18"/>
     </row>
-    <row r="38" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="38" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B38" s="17"/>
       <c r="C38" s="17"/>
       <c r="D38" s="18"/>
       <c r="E38" s="18"/>
     </row>
-    <row r="39" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="39" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B39" s="17"/>
       <c r="C39" s="17"/>
       <c r="D39" s="18"/>
       <c r="E39" s="18"/>
     </row>
-    <row r="40" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="40" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B40" s="17"/>
       <c r="C40" s="17"/>
       <c r="D40" s="18"/>
       <c r="E40" s="18"/>
     </row>
-    <row r="41" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="41" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B41" s="17"/>
       <c r="C41" s="17"/>
       <c r="D41" s="18"/>
       <c r="E41" s="18"/>
     </row>
-    <row r="42" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="42" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B42" s="17"/>
       <c r="C42" s="17"/>
       <c r="D42" s="18"/>
       <c r="E42" s="18"/>
     </row>
-    <row r="43" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="43" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B43" s="17"/>
       <c r="C43" s="17"/>
       <c r="D43" s="18"/>
       <c r="E43" s="18"/>
     </row>
-    <row r="44" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="44" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B44" s="17"/>
       <c r="C44" s="17"/>
       <c r="D44" s="18"/>
       <c r="E44" s="18"/>
     </row>
-    <row r="45" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="45" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B45" s="17"/>
       <c r="C45" s="17"/>
       <c r="D45" s="18"/>
       <c r="E45" s="18"/>
     </row>
-    <row r="46" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="46" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B46" s="17"/>
       <c r="C46" s="17"/>
       <c r="D46" s="18"/>
       <c r="E46" s="18"/>
     </row>
-    <row r="47" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="47" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B47" s="17"/>
       <c r="C47" s="17"/>
       <c r="D47" s="18"/>
       <c r="E47" s="18"/>
     </row>
-    <row r="48" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="48" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B48" s="17"/>
       <c r="C48" s="17"/>
       <c r="D48" s="18"/>
       <c r="E48" s="18"/>
     </row>
-    <row r="49" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="49" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B49" s="17"/>
       <c r="C49" s="17"/>
       <c r="D49" s="18"/>
       <c r="E49" s="18"/>
     </row>
-    <row r="50" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="50" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B50" s="17"/>
       <c r="C50" s="17"/>
       <c r="D50" s="18"/>
       <c r="E50" s="18"/>
     </row>
-    <row r="51" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="51" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B51" s="17"/>
       <c r="C51" s="17"/>
       <c r="D51" s="18"/>
       <c r="E51" s="18"/>
     </row>
-    <row r="52" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="52" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B52" s="17"/>
       <c r="C52" s="17"/>
       <c r="D52" s="18"/>
       <c r="E52" s="18"/>
     </row>
-    <row r="53" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="53" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B53" s="17"/>
       <c r="C53" s="17"/>
       <c r="D53" s="18"/>
       <c r="E53" s="18"/>
     </row>
-    <row r="54" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="54" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B54" s="17"/>
       <c r="C54" s="17"/>
       <c r="D54" s="18"/>
       <c r="E54" s="18"/>
     </row>
-    <row r="55" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="55" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B55" s="17"/>
       <c r="C55" s="17"/>
       <c r="D55" s="18"/>
       <c r="E55" s="18"/>
     </row>
-    <row r="56" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="56" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B56" s="17"/>
       <c r="C56" s="17"/>
       <c r="D56" s="18"/>
       <c r="E56" s="18"/>
     </row>
-    <row r="57" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="57" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B57" s="17"/>
       <c r="C57" s="17"/>
       <c r="D57" s="18"/>
       <c r="E57" s="18"/>
     </row>
-    <row r="58" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="58" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B58" s="17"/>
       <c r="C58" s="17"/>
       <c r="D58" s="18"/>
       <c r="E58" s="18"/>
     </row>
-    <row r="59" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="59" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B59" s="17"/>
       <c r="C59" s="17"/>
       <c r="D59" s="18"/>
       <c r="E59" s="18"/>
     </row>
-    <row r="60" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="60" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B60" s="17"/>
       <c r="C60" s="17"/>
       <c r="D60" s="18"/>
       <c r="E60" s="18"/>
     </row>
-    <row r="61" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="61" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B61" s="17"/>
       <c r="C61" s="17"/>
       <c r="D61" s="18"/>
       <c r="E61" s="18"/>
     </row>
-    <row r="62" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="62" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B62" s="17"/>
       <c r="C62" s="17"/>
       <c r="D62" s="18"/>
       <c r="E62" s="18"/>
     </row>
-    <row r="63" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="63" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B63" s="17"/>
       <c r="C63" s="17"/>
       <c r="D63" s="18"/>
       <c r="E63" s="18"/>
     </row>
-    <row r="64" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="64" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B64" s="17"/>
       <c r="C64" s="17"/>
       <c r="D64" s="18"/>
       <c r="E64" s="18"/>
     </row>
-    <row r="65" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="65" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B65" s="17"/>
       <c r="C65" s="17"/>
       <c r="D65" s="18"/>
       <c r="E65" s="18"/>
     </row>
-    <row r="66" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="66" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B66" s="17"/>
       <c r="C66" s="17"/>
       <c r="D66" s="18"/>
       <c r="E66" s="18"/>
     </row>
-    <row r="67" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="67" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B67" s="17"/>
       <c r="C67" s="17"/>
       <c r="D67" s="18"/>
       <c r="E67" s="18"/>
     </row>
-    <row r="68" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="68" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B68" s="17"/>
       <c r="C68" s="17"/>
       <c r="D68" s="18"/>
       <c r="E68" s="18"/>
     </row>
-    <row r="69" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="69" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B69" s="17"/>
       <c r="C69" s="17"/>
       <c r="D69" s="18"/>
       <c r="E69" s="18"/>
     </row>
-    <row r="70" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="70" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B70" s="17"/>
       <c r="C70" s="17"/>
       <c r="D70" s="18"/>
       <c r="E70" s="18"/>
     </row>
-    <row r="71" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="71" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B71" s="17"/>
       <c r="C71" s="17"/>
       <c r="D71" s="18"/>
       <c r="E71" s="18"/>
     </row>
-    <row r="72" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="72" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B72" s="17"/>
       <c r="C72" s="17"/>
       <c r="D72" s="18"/>
       <c r="E72" s="18"/>
     </row>
-    <row r="73" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="73" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B73" s="17"/>
       <c r="C73" s="17"/>
       <c r="D73" s="18"/>
       <c r="E73" s="18"/>
     </row>
-    <row r="74" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="74" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B74" s="17"/>
       <c r="C74" s="17"/>
       <c r="D74" s="18"/>
       <c r="E74" s="18"/>
     </row>
-    <row r="75" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="75" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B75" s="17"/>
       <c r="C75" s="17"/>
       <c r="D75" s="18"/>
       <c r="E75" s="18"/>
     </row>
-    <row r="76" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="76" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B76" s="17"/>
       <c r="C76" s="17"/>
       <c r="D76" s="18"/>
       <c r="E76" s="18"/>
     </row>
-    <row r="77" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="77" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B77" s="17"/>
       <c r="C77" s="17"/>
       <c r="D77" s="18"/>
       <c r="E77" s="18"/>
     </row>
-    <row r="78" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="78" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B78" s="17"/>
       <c r="C78" s="17"/>
       <c r="D78" s="18"/>
       <c r="E78" s="18"/>
     </row>
-    <row r="79" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="79" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B79" s="17"/>
       <c r="C79" s="17"/>
       <c r="D79" s="18"/>
       <c r="E79" s="18"/>
     </row>
-    <row r="80" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="80" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B80" s="17"/>
       <c r="C80" s="17"/>
       <c r="D80" s="18"/>
       <c r="E80" s="18"/>
     </row>
-    <row r="81" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="81" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B81" s="17"/>
       <c r="C81" s="17"/>
       <c r="D81" s="18"/>
       <c r="E81" s="18"/>
     </row>
-    <row r="82" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="82" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B82" s="17"/>
       <c r="C82" s="17"/>
       <c r="D82" s="18"/>
       <c r="E82" s="18"/>
     </row>
-    <row r="83" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="83" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B83" s="17"/>
       <c r="C83" s="17"/>
       <c r="D83" s="18"/>
       <c r="E83" s="18"/>
     </row>
-    <row r="84" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="84" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B84" s="17"/>
       <c r="C84" s="17"/>
       <c r="D84" s="18"/>
       <c r="E84" s="18"/>
     </row>
-    <row r="85" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="85" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B85" s="17"/>
       <c r="C85" s="17"/>
       <c r="D85" s="18"/>
       <c r="E85" s="18"/>
     </row>
-    <row r="86" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="86" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B86" s="17"/>
       <c r="C86" s="17"/>
       <c r="D86" s="18"/>
       <c r="E86" s="18"/>
     </row>
-    <row r="87" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="87" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B87" s="17"/>
       <c r="C87" s="17"/>
       <c r="D87" s="18"/>
       <c r="E87" s="18"/>
     </row>
-    <row r="88" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="88" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B88" s="17"/>
       <c r="C88" s="17"/>
       <c r="D88" s="18"/>
       <c r="E88" s="18"/>
     </row>
-    <row r="89" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="89" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B89" s="17"/>
       <c r="C89" s="17"/>
       <c r="D89" s="18"/>
       <c r="E89" s="18"/>
     </row>
-    <row r="90" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="90" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B90" s="17"/>
       <c r="C90" s="17"/>
       <c r="D90" s="18"/>
       <c r="E90" s="18"/>
     </row>
-    <row r="91" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="91" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B91" s="17"/>
       <c r="C91" s="17"/>
       <c r="D91" s="18"/>
       <c r="E91" s="18"/>
     </row>
-    <row r="92" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="92" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B92" s="17"/>
       <c r="C92" s="17"/>
       <c r="D92" s="18"/>
       <c r="E92" s="18"/>
     </row>
-    <row r="93" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="93" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B93" s="17"/>
       <c r="C93" s="17"/>
       <c r="D93" s="18"/>
       <c r="E93" s="18"/>
     </row>
-    <row r="94" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="94" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B94" s="17"/>
       <c r="C94" s="17"/>
       <c r="D94" s="18"/>
       <c r="E94" s="18"/>
     </row>
-    <row r="95" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="95" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B95" s="17"/>
       <c r="C95" s="17"/>
       <c r="D95" s="18"/>
       <c r="E95" s="18"/>
     </row>
-    <row r="96" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="96" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B96" s="17"/>
       <c r="C96" s="17"/>
       <c r="D96" s="18"/>
       <c r="E96" s="18"/>
     </row>
-    <row r="97" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="97" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B97" s="17"/>
       <c r="C97" s="17"/>
       <c r="D97" s="18"/>
       <c r="E97" s="18"/>
     </row>
-    <row r="98" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="98" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B98" s="17"/>
       <c r="C98" s="17"/>
       <c r="D98" s="18"/>
       <c r="E98" s="18"/>
     </row>
-    <row r="99" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="99" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B99" s="17"/>
       <c r="C99" s="17"/>
       <c r="D99" s="18"/>
       <c r="E99" s="18"/>
     </row>
-    <row r="100" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="100" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B100" s="17"/>
       <c r="C100" s="17"/>
       <c r="D100" s="18"/>
       <c r="E100" s="18"/>
     </row>
-    <row r="101" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="101" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B101" s="17"/>
       <c r="C101" s="17"/>
       <c r="D101" s="18"/>
@@ -1802,31 +1849,31 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:J90"/>
+  <dimension ref="B2:J91"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" ySplit="2" topLeftCell="B3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="J22" sqref="J22"/>
+      <selection pane="bottomRight" activeCell="I22" sqref="I22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="12" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.2" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="1" max="1" width="4.5" style="1" customWidth="1"/>
-    <col min="2" max="2" width="24.75" style="8" customWidth="1"/>
-    <col min="3" max="3" width="11.625" style="8" customWidth="1"/>
+    <col min="2" max="2" width="24.69921875" style="8" customWidth="1"/>
+    <col min="3" max="3" width="11.59765625" style="8" customWidth="1"/>
     <col min="4" max="4" width="13.5" style="2" customWidth="1"/>
-    <col min="5" max="5" width="10.75" style="8" customWidth="1"/>
+    <col min="5" max="5" width="10.69921875" style="8" customWidth="1"/>
     <col min="6" max="6" width="11" style="9" customWidth="1"/>
-    <col min="7" max="7" width="11.375" style="8" customWidth="1"/>
+    <col min="7" max="7" width="11.3984375" style="8" customWidth="1"/>
     <col min="8" max="8" width="10" style="9" customWidth="1"/>
-    <col min="9" max="9" width="10.125" style="10" customWidth="1"/>
-    <col min="10" max="10" width="60.125" style="2" customWidth="1"/>
+    <col min="9" max="9" width="10.09765625" style="10" customWidth="1"/>
+    <col min="10" max="10" width="60.09765625" style="2" customWidth="1"/>
     <col min="11" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:10" s="7" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="2:10" s="7" customFormat="1" x14ac:dyDescent="0.4">
       <c r="B2" s="3" t="s">
         <v>18</v>
       </c>
@@ -1855,7 +1902,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="3" spans="2:10" x14ac:dyDescent="0.4">
       <c r="B3" s="12" t="s">
         <v>35</v>
       </c>
@@ -1874,12 +1921,12 @@
       <c r="G3" s="12"/>
       <c r="H3" s="13"/>
       <c r="I3" s="14" t="str">
-        <f t="shared" ref="I3:I57" si="0">IF(H3="", "", IFERROR( ((H3-F3)/F3), ""))</f>
+        <f t="shared" ref="I3:I58" si="0">IF(H3="", "", IFERROR( ((H3-F3)/F3), ""))</f>
         <v/>
       </c>
       <c r="J3" s="5"/>
     </row>
-    <row r="4" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:10" x14ac:dyDescent="0.4">
       <c r="B4" s="12" t="s">
         <v>35</v>
       </c>
@@ -1909,7 +1956,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="5" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="5" spans="2:10" x14ac:dyDescent="0.4">
       <c r="B5" s="12" t="s">
         <v>39</v>
       </c>
@@ -1937,7 +1984,7 @@
       </c>
       <c r="J5" s="5"/>
     </row>
-    <row r="6" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="6" spans="2:10" x14ac:dyDescent="0.4">
       <c r="B6" s="12" t="s">
         <v>39</v>
       </c>
@@ -1965,7 +2012,7 @@
       </c>
       <c r="J6" s="5"/>
     </row>
-    <row r="7" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="7" spans="2:10" x14ac:dyDescent="0.4">
       <c r="B7" s="12" t="s">
         <v>39</v>
       </c>
@@ -1995,7 +2042,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="8" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="8" spans="2:10" x14ac:dyDescent="0.4">
       <c r="B8" s="12" t="s">
         <v>39</v>
       </c>
@@ -2025,7 +2072,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="9" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="9" spans="2:10" x14ac:dyDescent="0.4">
       <c r="B9" s="12" t="s">
         <v>41</v>
       </c>
@@ -2055,7 +2102,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="10" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="10" spans="2:10" x14ac:dyDescent="0.4">
       <c r="B10" s="12" t="s">
         <v>41</v>
       </c>
@@ -2083,7 +2130,7 @@
       </c>
       <c r="J10" s="5"/>
     </row>
-    <row r="11" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="11" spans="2:10" x14ac:dyDescent="0.4">
       <c r="B11" s="12" t="s">
         <v>41</v>
       </c>
@@ -2113,7 +2160,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="12" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="12" spans="2:10" x14ac:dyDescent="0.4">
       <c r="B12" s="12" t="s">
         <v>41</v>
       </c>
@@ -2141,7 +2188,7 @@
       </c>
       <c r="J12" s="5"/>
     </row>
-    <row r="13" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="13" spans="2:10" x14ac:dyDescent="0.4">
       <c r="B13" s="12" t="s">
         <v>41</v>
       </c>
@@ -2169,7 +2216,7 @@
       </c>
       <c r="J13" s="5"/>
     </row>
-    <row r="14" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="14" spans="2:10" x14ac:dyDescent="0.4">
       <c r="B14" s="12" t="s">
         <v>41</v>
       </c>
@@ -2197,7 +2244,7 @@
       </c>
       <c r="J14" s="5"/>
     </row>
-    <row r="15" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="15" spans="2:10" x14ac:dyDescent="0.4">
       <c r="B15" s="12" t="s">
         <v>41</v>
       </c>
@@ -2225,7 +2272,7 @@
       </c>
       <c r="J15" s="5"/>
     </row>
-    <row r="16" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="16" spans="2:10" x14ac:dyDescent="0.4">
       <c r="B16" s="12" t="s">
         <v>41</v>
       </c>
@@ -2253,7 +2300,7 @@
       </c>
       <c r="J16" s="5"/>
     </row>
-    <row r="17" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="17" spans="2:10" x14ac:dyDescent="0.4">
       <c r="B17" s="12" t="s">
         <v>41</v>
       </c>
@@ -2281,7 +2328,7 @@
       </c>
       <c r="J17" s="5"/>
     </row>
-    <row r="18" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="18" spans="2:10" x14ac:dyDescent="0.4">
       <c r="B18" s="12" t="s">
         <v>66</v>
       </c>
@@ -2305,7 +2352,7 @@
       </c>
       <c r="J18" s="5"/>
     </row>
-    <row r="19" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="19" spans="2:10" x14ac:dyDescent="0.4">
       <c r="B19" s="12" t="s">
         <v>66</v>
       </c>
@@ -2329,12 +2376,22 @@
       </c>
       <c r="J19" s="5"/>
     </row>
-    <row r="20" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B20" s="12"/>
-      <c r="C20" s="12"/>
-      <c r="D20" s="5"/>
-      <c r="E20" s="12"/>
-      <c r="F20" s="13"/>
+    <row r="20" spans="2:10" x14ac:dyDescent="0.4">
+      <c r="B20" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="C20" s="12" t="s">
+        <v>98</v>
+      </c>
+      <c r="D20" s="5" t="s">
+        <v>99</v>
+      </c>
+      <c r="E20" s="12" t="s">
+        <v>93</v>
+      </c>
+      <c r="F20" s="13">
+        <v>6850</v>
+      </c>
       <c r="G20" s="12"/>
       <c r="H20" s="13"/>
       <c r="I20" s="14" t="str">
@@ -2343,12 +2400,22 @@
       </c>
       <c r="J20" s="5"/>
     </row>
-    <row r="21" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B21" s="12"/>
-      <c r="C21" s="12"/>
-      <c r="D21" s="5"/>
-      <c r="E21" s="12"/>
-      <c r="F21" s="13"/>
+    <row r="21" spans="2:10" x14ac:dyDescent="0.4">
+      <c r="B21" s="12" t="s">
+        <v>97</v>
+      </c>
+      <c r="C21" s="12" t="s">
+        <v>91</v>
+      </c>
+      <c r="D21" s="5" t="s">
+        <v>92</v>
+      </c>
+      <c r="E21" s="12" t="s">
+        <v>93</v>
+      </c>
+      <c r="F21" s="13">
+        <v>1155</v>
+      </c>
       <c r="G21" s="12"/>
       <c r="H21" s="13"/>
       <c r="I21" s="14" t="str">
@@ -2357,7 +2424,7 @@
       </c>
       <c r="J21" s="5"/>
     </row>
-    <row r="22" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="22" spans="2:10" x14ac:dyDescent="0.4">
       <c r="B22" s="12"/>
       <c r="C22" s="12"/>
       <c r="D22" s="5"/>
@@ -2371,7 +2438,7 @@
       </c>
       <c r="J22" s="5"/>
     </row>
-    <row r="23" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="23" spans="2:10" x14ac:dyDescent="0.4">
       <c r="B23" s="12"/>
       <c r="C23" s="12"/>
       <c r="D23" s="5"/>
@@ -2385,7 +2452,7 @@
       </c>
       <c r="J23" s="5"/>
     </row>
-    <row r="24" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="24" spans="2:10" x14ac:dyDescent="0.4">
       <c r="B24" s="12"/>
       <c r="C24" s="12"/>
       <c r="D24" s="5"/>
@@ -2399,7 +2466,7 @@
       </c>
       <c r="J24" s="5"/>
     </row>
-    <row r="25" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="25" spans="2:10" x14ac:dyDescent="0.4">
       <c r="B25" s="12"/>
       <c r="C25" s="12"/>
       <c r="D25" s="5"/>
@@ -2413,7 +2480,7 @@
       </c>
       <c r="J25" s="5"/>
     </row>
-    <row r="26" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="26" spans="2:10" x14ac:dyDescent="0.4">
       <c r="B26" s="12"/>
       <c r="C26" s="12"/>
       <c r="D26" s="5"/>
@@ -2427,7 +2494,7 @@
       </c>
       <c r="J26" s="5"/>
     </row>
-    <row r="27" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="27" spans="2:10" x14ac:dyDescent="0.4">
       <c r="B27" s="12"/>
       <c r="C27" s="12"/>
       <c r="D27" s="5"/>
@@ -2441,7 +2508,7 @@
       </c>
       <c r="J27" s="5"/>
     </row>
-    <row r="28" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="28" spans="2:10" x14ac:dyDescent="0.4">
       <c r="B28" s="12"/>
       <c r="C28" s="12"/>
       <c r="D28" s="5"/>
@@ -2455,7 +2522,7 @@
       </c>
       <c r="J28" s="5"/>
     </row>
-    <row r="29" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="29" spans="2:10" x14ac:dyDescent="0.4">
       <c r="B29" s="12"/>
       <c r="C29" s="12"/>
       <c r="D29" s="5"/>
@@ -2469,7 +2536,7 @@
       </c>
       <c r="J29" s="5"/>
     </row>
-    <row r="30" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="30" spans="2:10" x14ac:dyDescent="0.4">
       <c r="B30" s="12"/>
       <c r="C30" s="12"/>
       <c r="D30" s="5"/>
@@ -2483,7 +2550,7 @@
       </c>
       <c r="J30" s="5"/>
     </row>
-    <row r="31" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="31" spans="2:10" x14ac:dyDescent="0.4">
       <c r="B31" s="12"/>
       <c r="C31" s="12"/>
       <c r="D31" s="5"/>
@@ -2497,7 +2564,7 @@
       </c>
       <c r="J31" s="5"/>
     </row>
-    <row r="32" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="32" spans="2:10" x14ac:dyDescent="0.4">
       <c r="B32" s="12"/>
       <c r="C32" s="12"/>
       <c r="D32" s="5"/>
@@ -2511,7 +2578,7 @@
       </c>
       <c r="J32" s="5"/>
     </row>
-    <row r="33" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="33" spans="2:10" x14ac:dyDescent="0.4">
       <c r="B33" s="12"/>
       <c r="C33" s="12"/>
       <c r="D33" s="5"/>
@@ -2525,7 +2592,7 @@
       </c>
       <c r="J33" s="5"/>
     </row>
-    <row r="34" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="34" spans="2:10" x14ac:dyDescent="0.4">
       <c r="B34" s="12"/>
       <c r="C34" s="12"/>
       <c r="D34" s="5"/>
@@ -2539,7 +2606,7 @@
       </c>
       <c r="J34" s="5"/>
     </row>
-    <row r="35" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="35" spans="2:10" x14ac:dyDescent="0.4">
       <c r="B35" s="12"/>
       <c r="C35" s="12"/>
       <c r="D35" s="5"/>
@@ -2553,7 +2620,7 @@
       </c>
       <c r="J35" s="5"/>
     </row>
-    <row r="36" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="36" spans="2:10" x14ac:dyDescent="0.4">
       <c r="B36" s="12"/>
       <c r="C36" s="12"/>
       <c r="D36" s="5"/>
@@ -2567,7 +2634,7 @@
       </c>
       <c r="J36" s="5"/>
     </row>
-    <row r="37" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="37" spans="2:10" x14ac:dyDescent="0.4">
       <c r="B37" s="12"/>
       <c r="C37" s="12"/>
       <c r="D37" s="5"/>
@@ -2581,7 +2648,7 @@
       </c>
       <c r="J37" s="5"/>
     </row>
-    <row r="38" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="38" spans="2:10" x14ac:dyDescent="0.4">
       <c r="B38" s="12"/>
       <c r="C38" s="12"/>
       <c r="D38" s="5"/>
@@ -2595,7 +2662,7 @@
       </c>
       <c r="J38" s="5"/>
     </row>
-    <row r="39" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="39" spans="2:10" x14ac:dyDescent="0.4">
       <c r="B39" s="12"/>
       <c r="C39" s="12"/>
       <c r="D39" s="5"/>
@@ -2609,7 +2676,7 @@
       </c>
       <c r="J39" s="5"/>
     </row>
-    <row r="40" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="40" spans="2:10" x14ac:dyDescent="0.4">
       <c r="B40" s="12"/>
       <c r="C40" s="12"/>
       <c r="D40" s="5"/>
@@ -2623,7 +2690,7 @@
       </c>
       <c r="J40" s="5"/>
     </row>
-    <row r="41" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="41" spans="2:10" x14ac:dyDescent="0.4">
       <c r="B41" s="12"/>
       <c r="C41" s="12"/>
       <c r="D41" s="5"/>
@@ -2637,7 +2704,7 @@
       </c>
       <c r="J41" s="5"/>
     </row>
-    <row r="42" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="42" spans="2:10" x14ac:dyDescent="0.4">
       <c r="B42" s="12"/>
       <c r="C42" s="12"/>
       <c r="D42" s="5"/>
@@ -2651,7 +2718,7 @@
       </c>
       <c r="J42" s="5"/>
     </row>
-    <row r="43" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="43" spans="2:10" x14ac:dyDescent="0.4">
       <c r="B43" s="12"/>
       <c r="C43" s="12"/>
       <c r="D43" s="5"/>
@@ -2665,7 +2732,7 @@
       </c>
       <c r="J43" s="5"/>
     </row>
-    <row r="44" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="44" spans="2:10" x14ac:dyDescent="0.4">
       <c r="B44" s="12"/>
       <c r="C44" s="12"/>
       <c r="D44" s="5"/>
@@ -2679,7 +2746,7 @@
       </c>
       <c r="J44" s="5"/>
     </row>
-    <row r="45" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="45" spans="2:10" x14ac:dyDescent="0.4">
       <c r="B45" s="12"/>
       <c r="C45" s="12"/>
       <c r="D45" s="5"/>
@@ -2693,7 +2760,7 @@
       </c>
       <c r="J45" s="5"/>
     </row>
-    <row r="46" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="46" spans="2:10" x14ac:dyDescent="0.4">
       <c r="B46" s="12"/>
       <c r="C46" s="12"/>
       <c r="D46" s="5"/>
@@ -2707,7 +2774,7 @@
       </c>
       <c r="J46" s="5"/>
     </row>
-    <row r="47" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="47" spans="2:10" x14ac:dyDescent="0.4">
       <c r="B47" s="12"/>
       <c r="C47" s="12"/>
       <c r="D47" s="5"/>
@@ -2721,7 +2788,7 @@
       </c>
       <c r="J47" s="5"/>
     </row>
-    <row r="48" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="48" spans="2:10" x14ac:dyDescent="0.4">
       <c r="B48" s="12"/>
       <c r="C48" s="12"/>
       <c r="D48" s="5"/>
@@ -2735,7 +2802,7 @@
       </c>
       <c r="J48" s="5"/>
     </row>
-    <row r="49" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="49" spans="2:10" x14ac:dyDescent="0.4">
       <c r="B49" s="12"/>
       <c r="C49" s="12"/>
       <c r="D49" s="5"/>
@@ -2749,7 +2816,7 @@
       </c>
       <c r="J49" s="5"/>
     </row>
-    <row r="50" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="50" spans="2:10" x14ac:dyDescent="0.4">
       <c r="B50" s="12"/>
       <c r="C50" s="12"/>
       <c r="D50" s="5"/>
@@ -2763,7 +2830,7 @@
       </c>
       <c r="J50" s="5"/>
     </row>
-    <row r="51" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="51" spans="2:10" x14ac:dyDescent="0.4">
       <c r="B51" s="12"/>
       <c r="C51" s="12"/>
       <c r="D51" s="5"/>
@@ -2777,7 +2844,7 @@
       </c>
       <c r="J51" s="5"/>
     </row>
-    <row r="52" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="52" spans="2:10" x14ac:dyDescent="0.4">
       <c r="B52" s="12"/>
       <c r="C52" s="12"/>
       <c r="D52" s="5"/>
@@ -2791,7 +2858,7 @@
       </c>
       <c r="J52" s="5"/>
     </row>
-    <row r="53" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="53" spans="2:10" x14ac:dyDescent="0.4">
       <c r="B53" s="12"/>
       <c r="C53" s="12"/>
       <c r="D53" s="5"/>
@@ -2805,7 +2872,7 @@
       </c>
       <c r="J53" s="5"/>
     </row>
-    <row r="54" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="54" spans="2:10" x14ac:dyDescent="0.4">
       <c r="B54" s="12"/>
       <c r="C54" s="12"/>
       <c r="D54" s="5"/>
@@ -2819,7 +2886,7 @@
       </c>
       <c r="J54" s="5"/>
     </row>
-    <row r="55" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="55" spans="2:10" x14ac:dyDescent="0.4">
       <c r="B55" s="12"/>
       <c r="C55" s="12"/>
       <c r="D55" s="5"/>
@@ -2833,7 +2900,7 @@
       </c>
       <c r="J55" s="5"/>
     </row>
-    <row r="56" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="56" spans="2:10" x14ac:dyDescent="0.4">
       <c r="B56" s="12"/>
       <c r="C56" s="12"/>
       <c r="D56" s="5"/>
@@ -2847,7 +2914,7 @@
       </c>
       <c r="J56" s="5"/>
     </row>
-    <row r="57" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="57" spans="2:10" x14ac:dyDescent="0.4">
       <c r="B57" s="12"/>
       <c r="C57" s="12"/>
       <c r="D57" s="5"/>
@@ -2861,7 +2928,7 @@
       </c>
       <c r="J57" s="5"/>
     </row>
-    <row r="58" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="58" spans="2:10" x14ac:dyDescent="0.4">
       <c r="B58" s="12"/>
       <c r="C58" s="12"/>
       <c r="D58" s="5"/>
@@ -2870,12 +2937,12 @@
       <c r="G58" s="12"/>
       <c r="H58" s="13"/>
       <c r="I58" s="14" t="str">
-        <f t="shared" ref="I58:I90" si="1">IF(H58="", "", IFERROR( ((H58-F58)/F58), ""))</f>
+        <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="J58" s="5"/>
     </row>
-    <row r="59" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="59" spans="2:10" x14ac:dyDescent="0.4">
       <c r="B59" s="12"/>
       <c r="C59" s="12"/>
       <c r="D59" s="5"/>
@@ -2884,12 +2951,12 @@
       <c r="G59" s="12"/>
       <c r="H59" s="13"/>
       <c r="I59" s="14" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" ref="I59:I91" si="1">IF(H59="", "", IFERROR( ((H59-F59)/F59), ""))</f>
         <v/>
       </c>
       <c r="J59" s="5"/>
     </row>
-    <row r="60" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="60" spans="2:10" x14ac:dyDescent="0.4">
       <c r="B60" s="12"/>
       <c r="C60" s="12"/>
       <c r="D60" s="5"/>
@@ -2903,7 +2970,7 @@
       </c>
       <c r="J60" s="5"/>
     </row>
-    <row r="61" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="61" spans="2:10" x14ac:dyDescent="0.4">
       <c r="B61" s="12"/>
       <c r="C61" s="12"/>
       <c r="D61" s="5"/>
@@ -2917,7 +2984,7 @@
       </c>
       <c r="J61" s="5"/>
     </row>
-    <row r="62" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="62" spans="2:10" x14ac:dyDescent="0.4">
       <c r="B62" s="12"/>
       <c r="C62" s="12"/>
       <c r="D62" s="5"/>
@@ -2931,7 +2998,7 @@
       </c>
       <c r="J62" s="5"/>
     </row>
-    <row r="63" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="63" spans="2:10" x14ac:dyDescent="0.4">
       <c r="B63" s="12"/>
       <c r="C63" s="12"/>
       <c r="D63" s="5"/>
@@ -2945,7 +3012,7 @@
       </c>
       <c r="J63" s="5"/>
     </row>
-    <row r="64" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="64" spans="2:10" x14ac:dyDescent="0.4">
       <c r="B64" s="12"/>
       <c r="C64" s="12"/>
       <c r="D64" s="5"/>
@@ -2959,7 +3026,7 @@
       </c>
       <c r="J64" s="5"/>
     </row>
-    <row r="65" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="65" spans="2:10" x14ac:dyDescent="0.4">
       <c r="B65" s="12"/>
       <c r="C65" s="12"/>
       <c r="D65" s="5"/>
@@ -2973,7 +3040,7 @@
       </c>
       <c r="J65" s="5"/>
     </row>
-    <row r="66" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="66" spans="2:10" x14ac:dyDescent="0.4">
       <c r="B66" s="12"/>
       <c r="C66" s="12"/>
       <c r="D66" s="5"/>
@@ -2987,7 +3054,7 @@
       </c>
       <c r="J66" s="5"/>
     </row>
-    <row r="67" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="67" spans="2:10" x14ac:dyDescent="0.4">
       <c r="B67" s="12"/>
       <c r="C67" s="12"/>
       <c r="D67" s="5"/>
@@ -3001,7 +3068,7 @@
       </c>
       <c r="J67" s="5"/>
     </row>
-    <row r="68" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="68" spans="2:10" x14ac:dyDescent="0.4">
       <c r="B68" s="12"/>
       <c r="C68" s="12"/>
       <c r="D68" s="5"/>
@@ -3015,7 +3082,7 @@
       </c>
       <c r="J68" s="5"/>
     </row>
-    <row r="69" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="69" spans="2:10" x14ac:dyDescent="0.4">
       <c r="B69" s="12"/>
       <c r="C69" s="12"/>
       <c r="D69" s="5"/>
@@ -3029,7 +3096,7 @@
       </c>
       <c r="J69" s="5"/>
     </row>
-    <row r="70" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="70" spans="2:10" x14ac:dyDescent="0.4">
       <c r="B70" s="12"/>
       <c r="C70" s="12"/>
       <c r="D70" s="5"/>
@@ -3043,7 +3110,7 @@
       </c>
       <c r="J70" s="5"/>
     </row>
-    <row r="71" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="71" spans="2:10" x14ac:dyDescent="0.4">
       <c r="B71" s="12"/>
       <c r="C71" s="12"/>
       <c r="D71" s="5"/>
@@ -3057,7 +3124,7 @@
       </c>
       <c r="J71" s="5"/>
     </row>
-    <row r="72" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="72" spans="2:10" x14ac:dyDescent="0.4">
       <c r="B72" s="12"/>
       <c r="C72" s="12"/>
       <c r="D72" s="5"/>
@@ -3071,7 +3138,7 @@
       </c>
       <c r="J72" s="5"/>
     </row>
-    <row r="73" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="73" spans="2:10" x14ac:dyDescent="0.4">
       <c r="B73" s="12"/>
       <c r="C73" s="12"/>
       <c r="D73" s="5"/>
@@ -3085,7 +3152,7 @@
       </c>
       <c r="J73" s="5"/>
     </row>
-    <row r="74" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="74" spans="2:10" x14ac:dyDescent="0.4">
       <c r="B74" s="12"/>
       <c r="C74" s="12"/>
       <c r="D74" s="5"/>
@@ -3099,7 +3166,7 @@
       </c>
       <c r="J74" s="5"/>
     </row>
-    <row r="75" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="75" spans="2:10" x14ac:dyDescent="0.4">
       <c r="B75" s="12"/>
       <c r="C75" s="12"/>
       <c r="D75" s="5"/>
@@ -3113,7 +3180,7 @@
       </c>
       <c r="J75" s="5"/>
     </row>
-    <row r="76" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="76" spans="2:10" x14ac:dyDescent="0.4">
       <c r="B76" s="12"/>
       <c r="C76" s="12"/>
       <c r="D76" s="5"/>
@@ -3127,7 +3194,7 @@
       </c>
       <c r="J76" s="5"/>
     </row>
-    <row r="77" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="77" spans="2:10" x14ac:dyDescent="0.4">
       <c r="B77" s="12"/>
       <c r="C77" s="12"/>
       <c r="D77" s="5"/>
@@ -3141,7 +3208,7 @@
       </c>
       <c r="J77" s="5"/>
     </row>
-    <row r="78" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="78" spans="2:10" x14ac:dyDescent="0.4">
       <c r="B78" s="12"/>
       <c r="C78" s="12"/>
       <c r="D78" s="5"/>
@@ -3155,7 +3222,7 @@
       </c>
       <c r="J78" s="5"/>
     </row>
-    <row r="79" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="79" spans="2:10" x14ac:dyDescent="0.4">
       <c r="B79" s="12"/>
       <c r="C79" s="12"/>
       <c r="D79" s="5"/>
@@ -3169,7 +3236,7 @@
       </c>
       <c r="J79" s="5"/>
     </row>
-    <row r="80" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="80" spans="2:10" x14ac:dyDescent="0.4">
       <c r="B80" s="12"/>
       <c r="C80" s="12"/>
       <c r="D80" s="5"/>
@@ -3183,7 +3250,7 @@
       </c>
       <c r="J80" s="5"/>
     </row>
-    <row r="81" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="81" spans="2:10" x14ac:dyDescent="0.4">
       <c r="B81" s="12"/>
       <c r="C81" s="12"/>
       <c r="D81" s="5"/>
@@ -3197,7 +3264,7 @@
       </c>
       <c r="J81" s="5"/>
     </row>
-    <row r="82" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="82" spans="2:10" x14ac:dyDescent="0.4">
       <c r="B82" s="12"/>
       <c r="C82" s="12"/>
       <c r="D82" s="5"/>
@@ -3211,7 +3278,7 @@
       </c>
       <c r="J82" s="5"/>
     </row>
-    <row r="83" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="83" spans="2:10" x14ac:dyDescent="0.4">
       <c r="B83" s="12"/>
       <c r="C83" s="12"/>
       <c r="D83" s="5"/>
@@ -3225,7 +3292,7 @@
       </c>
       <c r="J83" s="5"/>
     </row>
-    <row r="84" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="84" spans="2:10" x14ac:dyDescent="0.4">
       <c r="B84" s="12"/>
       <c r="C84" s="12"/>
       <c r="D84" s="5"/>
@@ -3239,7 +3306,7 @@
       </c>
       <c r="J84" s="5"/>
     </row>
-    <row r="85" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="85" spans="2:10" x14ac:dyDescent="0.4">
       <c r="B85" s="12"/>
       <c r="C85" s="12"/>
       <c r="D85" s="5"/>
@@ -3253,7 +3320,7 @@
       </c>
       <c r="J85" s="5"/>
     </row>
-    <row r="86" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="86" spans="2:10" x14ac:dyDescent="0.4">
       <c r="B86" s="12"/>
       <c r="C86" s="12"/>
       <c r="D86" s="5"/>
@@ -3267,7 +3334,7 @@
       </c>
       <c r="J86" s="5"/>
     </row>
-    <row r="87" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="87" spans="2:10" x14ac:dyDescent="0.4">
       <c r="B87" s="12"/>
       <c r="C87" s="12"/>
       <c r="D87" s="5"/>
@@ -3281,7 +3348,7 @@
       </c>
       <c r="J87" s="5"/>
     </row>
-    <row r="88" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="88" spans="2:10" x14ac:dyDescent="0.4">
       <c r="B88" s="12"/>
       <c r="C88" s="12"/>
       <c r="D88" s="5"/>
@@ -3295,7 +3362,7 @@
       </c>
       <c r="J88" s="5"/>
     </row>
-    <row r="89" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="89" spans="2:10" x14ac:dyDescent="0.4">
       <c r="B89" s="12"/>
       <c r="C89" s="12"/>
       <c r="D89" s="5"/>
@@ -3309,7 +3376,7 @@
       </c>
       <c r="J89" s="5"/>
     </row>
-    <row r="90" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="90" spans="2:10" x14ac:dyDescent="0.4">
       <c r="B90" s="12"/>
       <c r="C90" s="12"/>
       <c r="D90" s="5"/>
@@ -3323,8 +3390,22 @@
       </c>
       <c r="J90" s="5"/>
     </row>
+    <row r="91" spans="2:10" x14ac:dyDescent="0.4">
+      <c r="B91" s="12"/>
+      <c r="C91" s="12"/>
+      <c r="D91" s="5"/>
+      <c r="E91" s="12"/>
+      <c r="F91" s="13"/>
+      <c r="G91" s="12"/>
+      <c r="H91" s="13"/>
+      <c r="I91" s="14" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="J91" s="5"/>
+    </row>
   </sheetData>
-  <autoFilter ref="B2:J90"/>
+  <autoFilter ref="B2:J91"/>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="I1 I3:I1048576">
     <cfRule type="cellIs" dxfId="1" priority="4" operator="greaterThan">
@@ -3345,7 +3426,7 @@
           <x14:formula1>
             <xm:f>'01.원칙'!$C$3:$C$101</xm:f>
           </x14:formula1>
-          <xm:sqref>B3:B90</xm:sqref>
+          <xm:sqref>B3:B91</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>

--- a/WorkShop/01.docs/01.초기학습.xlsx
+++ b/WorkShop/01.docs/01.초기학습.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\WorkShop\AppHome\stocks\WorkShop\01.docs\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\ProjectHome\Stocks\WorkShop\01.docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11856" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11850" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="00.참고" sheetId="2" r:id="rId1"/>
@@ -18,7 +18,7 @@
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'01.원칙'!$B$2:$E$2</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'02.모의투자'!$B$2:$J$91</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'02.모의투자'!$B$2:$J$89</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
   <extLst>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="159" uniqueCount="100">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="178" uniqueCount="113">
   <si>
     <t>사이트명</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -92,18 +92,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>GLK</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>159580</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>제로투세븐</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>전략</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -112,10 +100,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>당장은 저항맞고 떨어질 가능성이 크지만 상승주기가 다시 시작될걸로 기대.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>일양약품</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -125,10 +109,6 @@
   </si>
   <si>
     <t>대성파인텍</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>114090</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -185,9 +165,6 @@
   </si>
   <si>
     <t>눌림목검색_V0.01</t>
-  </si>
-  <si>
-    <t>눌림목검색_V0.01</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -403,34 +380,108 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>대영포장</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2020-01-30</t>
+  </si>
+  <si>
+    <t>종가매수검색_V0.02</t>
+  </si>
+  <si>
+    <t>종가매수검색_V0.03</t>
+  </si>
+  <si>
+    <t>종가매수검색_V0.04</t>
+  </si>
+  <si>
+    <t>종가매수검색_V0.05</t>
+  </si>
+  <si>
+    <t>059090</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>미코</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>014160</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>대영포장</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2020-01-30</t>
-  </si>
-  <si>
-    <t>종가매수검색_V0.02</t>
-  </si>
-  <si>
-    <t>종가매수검색_V0.03</t>
-  </si>
-  <si>
-    <t>종가매수검색_V0.04</t>
-  </si>
-  <si>
-    <t>종가매수검색_V0.05</t>
-  </si>
-  <si>
-    <t>059090</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>미코</t>
+    <t>눌림목검색(20일선)_V0.01</t>
+  </si>
+  <si>
+    <t>눌림목검색(20일선)_V0.01</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>눌림목검색(N자)_V0.01</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>045520</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>크린앤사이언스</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>086060</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>진바이오텍</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2020-01-31</t>
+  </si>
+  <si>
+    <t>당일매도하지 못하고 1일 이후 매도.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>종가배팅</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>전략명</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>내용</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>외인/기관 수급이 들어오는가?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>분류</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>수급</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>전고점을 갖 돌파하는 패턴인가?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>차트</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>실적</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>실적이 양호한가? (실적이 대폭개선되면 급등 기대가능)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -914,25 +965,25 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:D34"/>
+  <dimension ref="B1:D75"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B20" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="D20" sqref="D20"/>
+      <selection pane="bottomRight" activeCell="G32" sqref="G32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.2" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="12" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="7.19921875" style="1" customWidth="1"/>
+    <col min="1" max="1" width="7.25" style="1" customWidth="1"/>
     <col min="2" max="2" width="26.5" style="1" customWidth="1"/>
-    <col min="3" max="3" width="38.69921875" style="1" customWidth="1"/>
-    <col min="4" max="4" width="75.69921875" style="2" customWidth="1"/>
+    <col min="3" max="3" width="38.75" style="1" customWidth="1"/>
+    <col min="4" max="4" width="75.75" style="2" customWidth="1"/>
     <col min="5" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:4" x14ac:dyDescent="0.4">
+    <row r="1" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B1" s="3" t="s">
         <v>0</v>
       </c>
@@ -943,222 +994,442 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="2:4" x14ac:dyDescent="0.4">
+    <row r="2" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B2" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="C2" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="D2" s="21" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="3" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B3" s="22" t="s">
+        <v>65</v>
+      </c>
+      <c r="C3" s="6" t="s">
+        <v>66</v>
+      </c>
+      <c r="D3" s="21"/>
+    </row>
+    <row r="4" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B4" s="22" t="s">
+        <v>67</v>
+      </c>
+      <c r="C4" s="6" t="s">
         <v>68</v>
       </c>
-      <c r="C2" s="6" t="s">
+      <c r="D4" s="21" t="s">
         <v>69</v>
       </c>
-      <c r="D2" s="21" t="s">
+    </row>
+    <row r="5" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B5" s="22" t="s">
         <v>70</v>
       </c>
-    </row>
-    <row r="3" spans="2:4" x14ac:dyDescent="0.4">
-      <c r="B3" s="22" t="s">
+      <c r="C5" s="6" t="s">
         <v>71</v>
       </c>
-      <c r="C3" s="6" t="s">
+      <c r="D5" s="21" t="s">
         <v>72</v>
       </c>
-      <c r="D3" s="21"/>
-    </row>
-    <row r="4" spans="2:4" x14ac:dyDescent="0.4">
-      <c r="B4" s="22" t="s">
+    </row>
+    <row r="6" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B6" s="22" t="s">
+        <v>43</v>
+      </c>
+      <c r="C6" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="D6" s="21" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="7" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B7" s="22" t="s">
         <v>73</v>
       </c>
-      <c r="C4" s="6" t="s">
+      <c r="C7" s="23" t="s">
         <v>74</v>
       </c>
-      <c r="D4" s="21" t="s">
+      <c r="D7" s="21" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="8" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B8" s="4" t="s">
         <v>75</v>
       </c>
-    </row>
-    <row r="5" spans="2:4" x14ac:dyDescent="0.4">
-      <c r="B5" s="22" t="s">
+      <c r="C8" s="23" t="s">
         <v>76</v>
       </c>
-      <c r="C5" s="6" t="s">
-        <v>77</v>
-      </c>
-      <c r="D5" s="21" t="s">
+      <c r="D8" s="21" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="9" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B9" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="C9" s="23" t="s">
         <v>78</v>
       </c>
-    </row>
-    <row r="6" spans="2:4" x14ac:dyDescent="0.4">
-      <c r="B6" s="22" t="s">
-        <v>49</v>
-      </c>
-      <c r="C6" s="6" t="s">
-        <v>48</v>
-      </c>
-      <c r="D6" s="21" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="7" spans="2:4" x14ac:dyDescent="0.4">
-      <c r="B7" s="22" t="s">
-        <v>79</v>
-      </c>
-      <c r="C7" s="23" t="s">
+      <c r="D9" s="21" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="10" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B10" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="C10" s="24" t="s">
         <v>80</v>
       </c>
-      <c r="D7" s="21" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="8" spans="2:4" x14ac:dyDescent="0.4">
-      <c r="B8" s="4" t="s">
-        <v>81</v>
-      </c>
-      <c r="C8" s="23" t="s">
-        <v>82</v>
-      </c>
-      <c r="D8" s="21" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="9" spans="2:4" x14ac:dyDescent="0.4">
-      <c r="B9" s="4" t="s">
-        <v>85</v>
-      </c>
-      <c r="C9" s="23" t="s">
-        <v>84</v>
-      </c>
-      <c r="D9" s="21" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="10" spans="2:4" x14ac:dyDescent="0.4">
-      <c r="B10" s="4" t="s">
-        <v>87</v>
-      </c>
-      <c r="C10" s="24" t="s">
-        <v>86</v>
-      </c>
       <c r="D10" s="21" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="11" spans="2:4" x14ac:dyDescent="0.4">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="11" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B11" s="4"/>
       <c r="C11" s="4"/>
       <c r="D11" s="5"/>
     </row>
-    <row r="12" spans="2:4" x14ac:dyDescent="0.4">
+    <row r="12" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B12" s="4"/>
       <c r="C12" s="4"/>
       <c r="D12" s="5"/>
     </row>
-    <row r="13" spans="2:4" x14ac:dyDescent="0.4">
+    <row r="13" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B13" s="4"/>
       <c r="C13" s="4"/>
       <c r="D13" s="5"/>
     </row>
-    <row r="14" spans="2:4" x14ac:dyDescent="0.4">
+    <row r="14" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B14" s="4"/>
       <c r="C14" s="4"/>
       <c r="D14" s="5"/>
     </row>
-    <row r="15" spans="2:4" x14ac:dyDescent="0.4">
+    <row r="15" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B15" s="4"/>
       <c r="C15" s="4"/>
       <c r="D15" s="5"/>
     </row>
-    <row r="16" spans="2:4" x14ac:dyDescent="0.4">
+    <row r="16" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B16" s="4"/>
       <c r="C16" s="4"/>
       <c r="D16" s="5"/>
     </row>
-    <row r="17" spans="2:4" x14ac:dyDescent="0.4">
+    <row r="17" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B17" s="4"/>
       <c r="C17" s="4"/>
       <c r="D17" s="5"/>
     </row>
-    <row r="18" spans="2:4" x14ac:dyDescent="0.4">
+    <row r="18" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B18" s="4"/>
       <c r="C18" s="4"/>
       <c r="D18" s="5"/>
     </row>
-    <row r="19" spans="2:4" x14ac:dyDescent="0.4">
+    <row r="19" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B19" s="4"/>
       <c r="C19" s="4"/>
       <c r="D19" s="5"/>
     </row>
-    <row r="20" spans="2:4" x14ac:dyDescent="0.4">
+    <row r="20" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B20" s="4"/>
       <c r="C20" s="4"/>
       <c r="D20" s="5"/>
     </row>
-    <row r="21" spans="2:4" x14ac:dyDescent="0.4">
+    <row r="21" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B21" s="4"/>
       <c r="C21" s="4"/>
       <c r="D21" s="5"/>
     </row>
-    <row r="22" spans="2:4" x14ac:dyDescent="0.4">
+    <row r="22" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B22" s="4"/>
       <c r="C22" s="4"/>
       <c r="D22" s="5"/>
     </row>
-    <row r="23" spans="2:4" x14ac:dyDescent="0.4">
+    <row r="23" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B23" s="4"/>
       <c r="C23" s="4"/>
       <c r="D23" s="5"/>
     </row>
-    <row r="24" spans="2:4" x14ac:dyDescent="0.4">
+    <row r="24" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B24" s="4"/>
       <c r="C24" s="4"/>
       <c r="D24" s="5"/>
     </row>
-    <row r="25" spans="2:4" x14ac:dyDescent="0.4">
+    <row r="25" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B25" s="4"/>
       <c r="C25" s="4"/>
       <c r="D25" s="5"/>
     </row>
-    <row r="26" spans="2:4" x14ac:dyDescent="0.4">
+    <row r="26" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B26" s="4"/>
       <c r="C26" s="4"/>
       <c r="D26" s="5"/>
     </row>
-    <row r="27" spans="2:4" x14ac:dyDescent="0.4">
+    <row r="27" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B27" s="4"/>
       <c r="C27" s="4"/>
       <c r="D27" s="5"/>
     </row>
-    <row r="28" spans="2:4" x14ac:dyDescent="0.4">
+    <row r="28" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B28" s="4"/>
       <c r="C28" s="4"/>
       <c r="D28" s="5"/>
     </row>
-    <row r="29" spans="2:4" x14ac:dyDescent="0.4">
+    <row r="29" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B29" s="4"/>
       <c r="C29" s="4"/>
       <c r="D29" s="5"/>
     </row>
-    <row r="30" spans="2:4" x14ac:dyDescent="0.4">
+    <row r="30" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B30" s="4"/>
       <c r="C30" s="4"/>
       <c r="D30" s="5"/>
     </row>
-    <row r="31" spans="2:4" x14ac:dyDescent="0.4">
+    <row r="31" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B31" s="4"/>
       <c r="C31" s="4"/>
       <c r="D31" s="5"/>
     </row>
-    <row r="32" spans="2:4" x14ac:dyDescent="0.4">
+    <row r="32" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B32" s="4"/>
       <c r="C32" s="4"/>
       <c r="D32" s="5"/>
     </row>
-    <row r="33" spans="2:4" x14ac:dyDescent="0.4">
+    <row r="33" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B33" s="4"/>
       <c r="C33" s="4"/>
       <c r="D33" s="5"/>
     </row>
-    <row r="34" spans="2:4" x14ac:dyDescent="0.4">
+    <row r="34" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B34" s="4"/>
       <c r="C34" s="4"/>
       <c r="D34" s="5"/>
+    </row>
+    <row r="36" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B36" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="C36" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="D36" s="3" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="37" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B37" s="4" t="s">
+        <v>103</v>
+      </c>
+      <c r="C37" s="4"/>
+      <c r="D37" s="5"/>
+    </row>
+    <row r="38" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B38" s="4"/>
+      <c r="C38" s="4"/>
+      <c r="D38" s="4"/>
+    </row>
+    <row r="39" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B39" s="4"/>
+      <c r="C39" s="4"/>
+      <c r="D39" s="4"/>
+    </row>
+    <row r="40" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B40" s="4"/>
+      <c r="C40" s="4" t="s">
+        <v>108</v>
+      </c>
+      <c r="D40" s="5" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="41" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B41" s="4"/>
+      <c r="C41" s="4"/>
+      <c r="D41" s="4"/>
+    </row>
+    <row r="42" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B42" s="4"/>
+      <c r="C42" s="4"/>
+      <c r="D42" s="5"/>
+    </row>
+    <row r="43" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B43" s="4"/>
+      <c r="C43" s="4" t="s">
+        <v>110</v>
+      </c>
+      <c r="D43" s="5" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="44" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B44" s="4"/>
+      <c r="C44" s="4"/>
+      <c r="D44" s="5"/>
+    </row>
+    <row r="45" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B45" s="4"/>
+      <c r="C45" s="4"/>
+      <c r="D45" s="5"/>
+    </row>
+    <row r="46" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B46" s="4"/>
+      <c r="C46" s="4" t="s">
+        <v>111</v>
+      </c>
+      <c r="D46" s="5" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="47" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B47" s="4"/>
+      <c r="C47" s="4"/>
+      <c r="D47" s="5"/>
+    </row>
+    <row r="48" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B48" s="4"/>
+      <c r="C48" s="4"/>
+      <c r="D48" s="5"/>
+    </row>
+    <row r="49" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B49" s="4"/>
+      <c r="C49" s="4"/>
+      <c r="D49" s="5"/>
+    </row>
+    <row r="50" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B50" s="4"/>
+      <c r="C50" s="4"/>
+      <c r="D50" s="5"/>
+    </row>
+    <row r="51" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B51" s="4"/>
+      <c r="C51" s="4"/>
+      <c r="D51" s="5"/>
+    </row>
+    <row r="52" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B52" s="4"/>
+      <c r="C52" s="4"/>
+      <c r="D52" s="5"/>
+    </row>
+    <row r="53" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B53" s="4"/>
+      <c r="C53" s="4"/>
+      <c r="D53" s="5"/>
+    </row>
+    <row r="54" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B54" s="4"/>
+      <c r="C54" s="4"/>
+      <c r="D54" s="5"/>
+    </row>
+    <row r="55" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B55" s="4"/>
+      <c r="C55" s="4"/>
+      <c r="D55" s="5"/>
+    </row>
+    <row r="56" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B56" s="4"/>
+      <c r="C56" s="4"/>
+      <c r="D56" s="5"/>
+    </row>
+    <row r="57" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B57" s="4"/>
+      <c r="C57" s="4"/>
+      <c r="D57" s="5"/>
+    </row>
+    <row r="58" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B58" s="4"/>
+      <c r="C58" s="4"/>
+      <c r="D58" s="5"/>
+    </row>
+    <row r="59" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B59" s="4"/>
+      <c r="C59" s="4"/>
+      <c r="D59" s="5"/>
+    </row>
+    <row r="60" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B60" s="4"/>
+      <c r="C60" s="4"/>
+      <c r="D60" s="5"/>
+    </row>
+    <row r="61" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B61" s="4"/>
+      <c r="C61" s="4"/>
+      <c r="D61" s="5"/>
+    </row>
+    <row r="62" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B62" s="4"/>
+      <c r="C62" s="4"/>
+      <c r="D62" s="5"/>
+    </row>
+    <row r="63" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B63" s="4"/>
+      <c r="C63" s="4"/>
+      <c r="D63" s="5"/>
+    </row>
+    <row r="64" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B64" s="4"/>
+      <c r="C64" s="4"/>
+      <c r="D64" s="5"/>
+    </row>
+    <row r="65" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B65" s="4"/>
+      <c r="C65" s="4"/>
+      <c r="D65" s="5"/>
+    </row>
+    <row r="66" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B66" s="4"/>
+      <c r="C66" s="4"/>
+      <c r="D66" s="5"/>
+    </row>
+    <row r="67" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B67" s="4"/>
+      <c r="C67" s="4"/>
+      <c r="D67" s="5"/>
+    </row>
+    <row r="68" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B68" s="4"/>
+      <c r="C68" s="4"/>
+      <c r="D68" s="5"/>
+    </row>
+    <row r="69" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B69" s="4"/>
+      <c r="C69" s="4"/>
+      <c r="D69" s="5"/>
+    </row>
+    <row r="70" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B70" s="4"/>
+      <c r="C70" s="4"/>
+      <c r="D70" s="5"/>
+    </row>
+    <row r="71" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B71" s="4"/>
+      <c r="C71" s="4"/>
+      <c r="D71" s="5"/>
+    </row>
+    <row r="72" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B72" s="4"/>
+      <c r="C72" s="4"/>
+      <c r="D72" s="5"/>
+    </row>
+    <row r="73" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B73" s="4"/>
+      <c r="C73" s="4"/>
+      <c r="D73" s="5"/>
+    </row>
+    <row r="74" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B74" s="4"/>
+      <c r="C74" s="4"/>
+      <c r="D74" s="5"/>
+    </row>
+    <row r="75" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B75" s="4"/>
+      <c r="C75" s="4"/>
+      <c r="D75" s="5"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -1168,26 +1439,26 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:E101"/>
+  <dimension ref="B2:E103"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="1" ySplit="2" topLeftCell="B3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="B8" sqref="B8:B13"/>
+      <selection pane="bottomRight" activeCell="D42" sqref="D42"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.2" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="12" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="6.5" style="19" customWidth="1"/>
-    <col min="2" max="2" width="12.19921875" style="20" customWidth="1"/>
-    <col min="3" max="3" width="22.69921875" style="20" customWidth="1"/>
-    <col min="4" max="4" width="91.59765625" style="19" customWidth="1"/>
-    <col min="5" max="5" width="39.19921875" style="19" customWidth="1"/>
+    <col min="2" max="2" width="12.25" style="20" customWidth="1"/>
+    <col min="3" max="3" width="22.75" style="20" customWidth="1"/>
+    <col min="4" max="4" width="91.625" style="19" customWidth="1"/>
+    <col min="5" max="5" width="39.25" style="19" customWidth="1"/>
     <col min="6" max="16384" width="9" style="19"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:5" s="16" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="2" spans="2:5" s="16" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B2" s="15" t="s">
         <v>10</v>
       </c>
@@ -1201,643 +1472,663 @@
         <v>13</v>
       </c>
     </row>
-    <row r="3" spans="2:5" x14ac:dyDescent="0.4">
+    <row r="3" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B3" s="17" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="C3" s="17" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="D3" s="18"/>
       <c r="E3" s="18"/>
     </row>
-    <row r="4" spans="2:5" x14ac:dyDescent="0.4">
+    <row r="4" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B4" s="17" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="C4" s="17" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="D4" s="18"/>
       <c r="E4" s="18"/>
     </row>
-    <row r="5" spans="2:5" x14ac:dyDescent="0.4">
+    <row r="5" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B5" s="17" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="C5" s="17" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
       <c r="D5" s="18"/>
       <c r="E5" s="18"/>
     </row>
-    <row r="6" spans="2:5" x14ac:dyDescent="0.4">
+    <row r="6" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B6" s="17" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="C6" s="17" t="s">
-        <v>38</v>
+        <v>95</v>
       </c>
       <c r="D6" s="18"/>
       <c r="E6" s="18"/>
     </row>
-    <row r="7" spans="2:5" x14ac:dyDescent="0.4">
+    <row r="7" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B7" s="17" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="C7" s="17" t="s">
-        <v>40</v>
+        <v>96</v>
       </c>
       <c r="D7" s="18"/>
       <c r="E7" s="18"/>
     </row>
-    <row r="8" spans="2:5" x14ac:dyDescent="0.4">
+    <row r="8" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B8" s="17" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="C8" s="17" t="s">
-        <v>41</v>
+        <v>32</v>
       </c>
       <c r="D8" s="18"/>
       <c r="E8" s="18"/>
     </row>
-    <row r="9" spans="2:5" x14ac:dyDescent="0.4">
+    <row r="9" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B9" s="17" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="C9" s="17" t="s">
-        <v>67</v>
+        <v>34</v>
       </c>
       <c r="D9" s="18"/>
       <c r="E9" s="18"/>
     </row>
-    <row r="10" spans="2:5" x14ac:dyDescent="0.4">
+    <row r="10" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B10" s="17" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="C10" s="17" t="s">
-        <v>94</v>
+        <v>35</v>
       </c>
       <c r="D10" s="18"/>
       <c r="E10" s="18"/>
     </row>
-    <row r="11" spans="2:5" x14ac:dyDescent="0.4">
+    <row r="11" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B11" s="17" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="C11" s="17" t="s">
-        <v>95</v>
+        <v>61</v>
       </c>
       <c r="D11" s="18"/>
       <c r="E11" s="18"/>
     </row>
-    <row r="12" spans="2:5" x14ac:dyDescent="0.4">
+    <row r="12" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B12" s="17" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="C12" s="17" t="s">
-        <v>96</v>
+        <v>87</v>
       </c>
       <c r="D12" s="18"/>
       <c r="E12" s="18"/>
     </row>
-    <row r="13" spans="2:5" x14ac:dyDescent="0.4">
+    <row r="13" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B13" s="17" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="C13" s="17" t="s">
-        <v>97</v>
+        <v>88</v>
       </c>
       <c r="D13" s="18"/>
       <c r="E13" s="18"/>
     </row>
-    <row r="14" spans="2:5" x14ac:dyDescent="0.4">
-      <c r="B14" s="17"/>
-      <c r="C14" s="17"/>
+    <row r="14" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B14" s="17" t="s">
+        <v>16</v>
+      </c>
+      <c r="C14" s="17" t="s">
+        <v>89</v>
+      </c>
       <c r="D14" s="18"/>
       <c r="E14" s="18"/>
     </row>
-    <row r="15" spans="2:5" x14ac:dyDescent="0.4">
-      <c r="B15" s="17"/>
-      <c r="C15" s="17"/>
+    <row r="15" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B15" s="17" t="s">
+        <v>16</v>
+      </c>
+      <c r="C15" s="17" t="s">
+        <v>90</v>
+      </c>
       <c r="D15" s="18"/>
       <c r="E15" s="18"/>
     </row>
-    <row r="16" spans="2:5" x14ac:dyDescent="0.4">
+    <row r="16" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B16" s="17"/>
       <c r="C16" s="17"/>
       <c r="D16" s="18"/>
       <c r="E16" s="18"/>
     </row>
-    <row r="17" spans="2:5" x14ac:dyDescent="0.4">
+    <row r="17" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B17" s="17"/>
       <c r="C17" s="17"/>
       <c r="D17" s="18"/>
       <c r="E17" s="18"/>
     </row>
-    <row r="18" spans="2:5" x14ac:dyDescent="0.4">
+    <row r="18" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B18" s="17"/>
       <c r="C18" s="17"/>
       <c r="D18" s="18"/>
       <c r="E18" s="18"/>
     </row>
-    <row r="19" spans="2:5" x14ac:dyDescent="0.4">
+    <row r="19" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B19" s="17"/>
       <c r="C19" s="17"/>
       <c r="D19" s="18"/>
       <c r="E19" s="18"/>
     </row>
-    <row r="20" spans="2:5" x14ac:dyDescent="0.4">
+    <row r="20" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B20" s="17"/>
       <c r="C20" s="17"/>
       <c r="D20" s="18"/>
       <c r="E20" s="18"/>
     </row>
-    <row r="21" spans="2:5" x14ac:dyDescent="0.4">
+    <row r="21" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B21" s="17"/>
       <c r="C21" s="17"/>
       <c r="D21" s="18"/>
       <c r="E21" s="18"/>
     </row>
-    <row r="22" spans="2:5" x14ac:dyDescent="0.4">
+    <row r="22" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B22" s="17"/>
       <c r="C22" s="17"/>
       <c r="D22" s="18"/>
       <c r="E22" s="18"/>
     </row>
-    <row r="23" spans="2:5" x14ac:dyDescent="0.4">
+    <row r="23" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B23" s="17"/>
       <c r="C23" s="17"/>
       <c r="D23" s="18"/>
       <c r="E23" s="18"/>
     </row>
-    <row r="24" spans="2:5" x14ac:dyDescent="0.4">
+    <row r="24" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B24" s="17"/>
       <c r="C24" s="17"/>
       <c r="D24" s="18"/>
       <c r="E24" s="18"/>
     </row>
-    <row r="25" spans="2:5" x14ac:dyDescent="0.4">
+    <row r="25" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B25" s="17"/>
       <c r="C25" s="17"/>
       <c r="D25" s="18"/>
       <c r="E25" s="18"/>
     </row>
-    <row r="26" spans="2:5" x14ac:dyDescent="0.4">
+    <row r="26" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B26" s="17"/>
       <c r="C26" s="17"/>
       <c r="D26" s="18"/>
       <c r="E26" s="18"/>
     </row>
-    <row r="27" spans="2:5" x14ac:dyDescent="0.4">
+    <row r="27" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B27" s="17"/>
       <c r="C27" s="17"/>
       <c r="D27" s="18"/>
       <c r="E27" s="18"/>
     </row>
-    <row r="28" spans="2:5" x14ac:dyDescent="0.4">
+    <row r="28" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B28" s="17"/>
       <c r="C28" s="17"/>
       <c r="D28" s="18"/>
       <c r="E28" s="18"/>
     </row>
-    <row r="29" spans="2:5" x14ac:dyDescent="0.4">
+    <row r="29" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B29" s="17"/>
       <c r="C29" s="17"/>
       <c r="D29" s="18"/>
       <c r="E29" s="18"/>
     </row>
-    <row r="30" spans="2:5" x14ac:dyDescent="0.4">
+    <row r="30" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B30" s="17"/>
       <c r="C30" s="17"/>
       <c r="D30" s="18"/>
       <c r="E30" s="18"/>
     </row>
-    <row r="31" spans="2:5" x14ac:dyDescent="0.4">
+    <row r="31" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B31" s="17"/>
       <c r="C31" s="17"/>
       <c r="D31" s="18"/>
       <c r="E31" s="18"/>
     </row>
-    <row r="32" spans="2:5" x14ac:dyDescent="0.4">
+    <row r="32" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B32" s="17"/>
       <c r="C32" s="17"/>
       <c r="D32" s="18"/>
       <c r="E32" s="18"/>
     </row>
-    <row r="33" spans="2:5" x14ac:dyDescent="0.4">
+    <row r="33" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B33" s="17"/>
       <c r="C33" s="17"/>
       <c r="D33" s="18"/>
       <c r="E33" s="18"/>
     </row>
-    <row r="34" spans="2:5" x14ac:dyDescent="0.4">
+    <row r="34" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B34" s="17"/>
       <c r="C34" s="17"/>
       <c r="D34" s="18"/>
       <c r="E34" s="18"/>
     </row>
-    <row r="35" spans="2:5" x14ac:dyDescent="0.4">
+    <row r="35" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B35" s="17"/>
       <c r="C35" s="17"/>
       <c r="D35" s="18"/>
       <c r="E35" s="18"/>
     </row>
-    <row r="36" spans="2:5" x14ac:dyDescent="0.4">
+    <row r="36" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B36" s="17"/>
       <c r="C36" s="17"/>
       <c r="D36" s="18"/>
       <c r="E36" s="18"/>
     </row>
-    <row r="37" spans="2:5" x14ac:dyDescent="0.4">
+    <row r="37" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B37" s="17"/>
       <c r="C37" s="17"/>
       <c r="D37" s="18"/>
       <c r="E37" s="18"/>
     </row>
-    <row r="38" spans="2:5" x14ac:dyDescent="0.4">
+    <row r="38" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B38" s="17"/>
       <c r="C38" s="17"/>
       <c r="D38" s="18"/>
       <c r="E38" s="18"/>
     </row>
-    <row r="39" spans="2:5" x14ac:dyDescent="0.4">
+    <row r="39" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B39" s="17"/>
       <c r="C39" s="17"/>
       <c r="D39" s="18"/>
       <c r="E39" s="18"/>
     </row>
-    <row r="40" spans="2:5" x14ac:dyDescent="0.4">
+    <row r="40" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B40" s="17"/>
       <c r="C40" s="17"/>
       <c r="D40" s="18"/>
       <c r="E40" s="18"/>
     </row>
-    <row r="41" spans="2:5" x14ac:dyDescent="0.4">
+    <row r="41" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B41" s="17"/>
       <c r="C41" s="17"/>
       <c r="D41" s="18"/>
       <c r="E41" s="18"/>
     </row>
-    <row r="42" spans="2:5" x14ac:dyDescent="0.4">
+    <row r="42" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B42" s="17"/>
       <c r="C42" s="17"/>
       <c r="D42" s="18"/>
       <c r="E42" s="18"/>
     </row>
-    <row r="43" spans="2:5" x14ac:dyDescent="0.4">
+    <row r="43" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B43" s="17"/>
       <c r="C43" s="17"/>
       <c r="D43" s="18"/>
       <c r="E43" s="18"/>
     </row>
-    <row r="44" spans="2:5" x14ac:dyDescent="0.4">
+    <row r="44" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B44" s="17"/>
       <c r="C44" s="17"/>
       <c r="D44" s="18"/>
       <c r="E44" s="18"/>
     </row>
-    <row r="45" spans="2:5" x14ac:dyDescent="0.4">
+    <row r="45" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B45" s="17"/>
       <c r="C45" s="17"/>
       <c r="D45" s="18"/>
       <c r="E45" s="18"/>
     </row>
-    <row r="46" spans="2:5" x14ac:dyDescent="0.4">
+    <row r="46" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B46" s="17"/>
       <c r="C46" s="17"/>
       <c r="D46" s="18"/>
       <c r="E46" s="18"/>
     </row>
-    <row r="47" spans="2:5" x14ac:dyDescent="0.4">
+    <row r="47" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B47" s="17"/>
       <c r="C47" s="17"/>
       <c r="D47" s="18"/>
       <c r="E47" s="18"/>
     </row>
-    <row r="48" spans="2:5" x14ac:dyDescent="0.4">
+    <row r="48" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B48" s="17"/>
       <c r="C48" s="17"/>
       <c r="D48" s="18"/>
       <c r="E48" s="18"/>
     </row>
-    <row r="49" spans="2:5" x14ac:dyDescent="0.4">
+    <row r="49" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B49" s="17"/>
       <c r="C49" s="17"/>
       <c r="D49" s="18"/>
       <c r="E49" s="18"/>
     </row>
-    <row r="50" spans="2:5" x14ac:dyDescent="0.4">
+    <row r="50" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B50" s="17"/>
       <c r="C50" s="17"/>
       <c r="D50" s="18"/>
       <c r="E50" s="18"/>
     </row>
-    <row r="51" spans="2:5" x14ac:dyDescent="0.4">
+    <row r="51" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B51" s="17"/>
       <c r="C51" s="17"/>
       <c r="D51" s="18"/>
       <c r="E51" s="18"/>
     </row>
-    <row r="52" spans="2:5" x14ac:dyDescent="0.4">
+    <row r="52" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B52" s="17"/>
       <c r="C52" s="17"/>
       <c r="D52" s="18"/>
       <c r="E52" s="18"/>
     </row>
-    <row r="53" spans="2:5" x14ac:dyDescent="0.4">
+    <row r="53" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B53" s="17"/>
       <c r="C53" s="17"/>
       <c r="D53" s="18"/>
       <c r="E53" s="18"/>
     </row>
-    <row r="54" spans="2:5" x14ac:dyDescent="0.4">
+    <row r="54" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B54" s="17"/>
       <c r="C54" s="17"/>
       <c r="D54" s="18"/>
       <c r="E54" s="18"/>
     </row>
-    <row r="55" spans="2:5" x14ac:dyDescent="0.4">
+    <row r="55" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B55" s="17"/>
       <c r="C55" s="17"/>
       <c r="D55" s="18"/>
       <c r="E55" s="18"/>
     </row>
-    <row r="56" spans="2:5" x14ac:dyDescent="0.4">
+    <row r="56" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B56" s="17"/>
       <c r="C56" s="17"/>
       <c r="D56" s="18"/>
       <c r="E56" s="18"/>
     </row>
-    <row r="57" spans="2:5" x14ac:dyDescent="0.4">
+    <row r="57" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B57" s="17"/>
       <c r="C57" s="17"/>
       <c r="D57" s="18"/>
       <c r="E57" s="18"/>
     </row>
-    <row r="58" spans="2:5" x14ac:dyDescent="0.4">
+    <row r="58" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B58" s="17"/>
       <c r="C58" s="17"/>
       <c r="D58" s="18"/>
       <c r="E58" s="18"/>
     </row>
-    <row r="59" spans="2:5" x14ac:dyDescent="0.4">
+    <row r="59" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B59" s="17"/>
       <c r="C59" s="17"/>
       <c r="D59" s="18"/>
       <c r="E59" s="18"/>
     </row>
-    <row r="60" spans="2:5" x14ac:dyDescent="0.4">
+    <row r="60" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B60" s="17"/>
       <c r="C60" s="17"/>
       <c r="D60" s="18"/>
       <c r="E60" s="18"/>
     </row>
-    <row r="61" spans="2:5" x14ac:dyDescent="0.4">
+    <row r="61" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B61" s="17"/>
       <c r="C61" s="17"/>
       <c r="D61" s="18"/>
       <c r="E61" s="18"/>
     </row>
-    <row r="62" spans="2:5" x14ac:dyDescent="0.4">
+    <row r="62" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B62" s="17"/>
       <c r="C62" s="17"/>
       <c r="D62" s="18"/>
       <c r="E62" s="18"/>
     </row>
-    <row r="63" spans="2:5" x14ac:dyDescent="0.4">
+    <row r="63" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B63" s="17"/>
       <c r="C63" s="17"/>
       <c r="D63" s="18"/>
       <c r="E63" s="18"/>
     </row>
-    <row r="64" spans="2:5" x14ac:dyDescent="0.4">
+    <row r="64" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B64" s="17"/>
       <c r="C64" s="17"/>
       <c r="D64" s="18"/>
       <c r="E64" s="18"/>
     </row>
-    <row r="65" spans="2:5" x14ac:dyDescent="0.4">
+    <row r="65" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B65" s="17"/>
       <c r="C65" s="17"/>
       <c r="D65" s="18"/>
       <c r="E65" s="18"/>
     </row>
-    <row r="66" spans="2:5" x14ac:dyDescent="0.4">
+    <row r="66" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B66" s="17"/>
       <c r="C66" s="17"/>
       <c r="D66" s="18"/>
       <c r="E66" s="18"/>
     </row>
-    <row r="67" spans="2:5" x14ac:dyDescent="0.4">
+    <row r="67" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B67" s="17"/>
       <c r="C67" s="17"/>
       <c r="D67" s="18"/>
       <c r="E67" s="18"/>
     </row>
-    <row r="68" spans="2:5" x14ac:dyDescent="0.4">
+    <row r="68" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B68" s="17"/>
       <c r="C68" s="17"/>
       <c r="D68" s="18"/>
       <c r="E68" s="18"/>
     </row>
-    <row r="69" spans="2:5" x14ac:dyDescent="0.4">
+    <row r="69" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B69" s="17"/>
       <c r="C69" s="17"/>
       <c r="D69" s="18"/>
       <c r="E69" s="18"/>
     </row>
-    <row r="70" spans="2:5" x14ac:dyDescent="0.4">
+    <row r="70" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B70" s="17"/>
       <c r="C70" s="17"/>
       <c r="D70" s="18"/>
       <c r="E70" s="18"/>
     </row>
-    <row r="71" spans="2:5" x14ac:dyDescent="0.4">
+    <row r="71" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B71" s="17"/>
       <c r="C71" s="17"/>
       <c r="D71" s="18"/>
       <c r="E71" s="18"/>
     </row>
-    <row r="72" spans="2:5" x14ac:dyDescent="0.4">
+    <row r="72" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B72" s="17"/>
       <c r="C72" s="17"/>
       <c r="D72" s="18"/>
       <c r="E72" s="18"/>
     </row>
-    <row r="73" spans="2:5" x14ac:dyDescent="0.4">
+    <row r="73" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B73" s="17"/>
       <c r="C73" s="17"/>
       <c r="D73" s="18"/>
       <c r="E73" s="18"/>
     </row>
-    <row r="74" spans="2:5" x14ac:dyDescent="0.4">
+    <row r="74" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B74" s="17"/>
       <c r="C74" s="17"/>
       <c r="D74" s="18"/>
       <c r="E74" s="18"/>
     </row>
-    <row r="75" spans="2:5" x14ac:dyDescent="0.4">
+    <row r="75" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B75" s="17"/>
       <c r="C75" s="17"/>
       <c r="D75" s="18"/>
       <c r="E75" s="18"/>
     </row>
-    <row r="76" spans="2:5" x14ac:dyDescent="0.4">
+    <row r="76" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B76" s="17"/>
       <c r="C76" s="17"/>
       <c r="D76" s="18"/>
       <c r="E76" s="18"/>
     </row>
-    <row r="77" spans="2:5" x14ac:dyDescent="0.4">
+    <row r="77" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B77" s="17"/>
       <c r="C77" s="17"/>
       <c r="D77" s="18"/>
       <c r="E77" s="18"/>
     </row>
-    <row r="78" spans="2:5" x14ac:dyDescent="0.4">
+    <row r="78" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B78" s="17"/>
       <c r="C78" s="17"/>
       <c r="D78" s="18"/>
       <c r="E78" s="18"/>
     </row>
-    <row r="79" spans="2:5" x14ac:dyDescent="0.4">
+    <row r="79" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B79" s="17"/>
       <c r="C79" s="17"/>
       <c r="D79" s="18"/>
       <c r="E79" s="18"/>
     </row>
-    <row r="80" spans="2:5" x14ac:dyDescent="0.4">
+    <row r="80" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B80" s="17"/>
       <c r="C80" s="17"/>
       <c r="D80" s="18"/>
       <c r="E80" s="18"/>
     </row>
-    <row r="81" spans="2:5" x14ac:dyDescent="0.4">
+    <row r="81" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B81" s="17"/>
       <c r="C81" s="17"/>
       <c r="D81" s="18"/>
       <c r="E81" s="18"/>
     </row>
-    <row r="82" spans="2:5" x14ac:dyDescent="0.4">
+    <row r="82" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B82" s="17"/>
       <c r="C82" s="17"/>
       <c r="D82" s="18"/>
       <c r="E82" s="18"/>
     </row>
-    <row r="83" spans="2:5" x14ac:dyDescent="0.4">
+    <row r="83" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B83" s="17"/>
       <c r="C83" s="17"/>
       <c r="D83" s="18"/>
       <c r="E83" s="18"/>
     </row>
-    <row r="84" spans="2:5" x14ac:dyDescent="0.4">
+    <row r="84" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B84" s="17"/>
       <c r="C84" s="17"/>
       <c r="D84" s="18"/>
       <c r="E84" s="18"/>
     </row>
-    <row r="85" spans="2:5" x14ac:dyDescent="0.4">
+    <row r="85" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B85" s="17"/>
       <c r="C85" s="17"/>
       <c r="D85" s="18"/>
       <c r="E85" s="18"/>
     </row>
-    <row r="86" spans="2:5" x14ac:dyDescent="0.4">
+    <row r="86" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B86" s="17"/>
       <c r="C86" s="17"/>
       <c r="D86" s="18"/>
       <c r="E86" s="18"/>
     </row>
-    <row r="87" spans="2:5" x14ac:dyDescent="0.4">
+    <row r="87" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B87" s="17"/>
       <c r="C87" s="17"/>
       <c r="D87" s="18"/>
       <c r="E87" s="18"/>
     </row>
-    <row r="88" spans="2:5" x14ac:dyDescent="0.4">
+    <row r="88" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B88" s="17"/>
       <c r="C88" s="17"/>
       <c r="D88" s="18"/>
       <c r="E88" s="18"/>
     </row>
-    <row r="89" spans="2:5" x14ac:dyDescent="0.4">
+    <row r="89" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B89" s="17"/>
       <c r="C89" s="17"/>
       <c r="D89" s="18"/>
       <c r="E89" s="18"/>
     </row>
-    <row r="90" spans="2:5" x14ac:dyDescent="0.4">
+    <row r="90" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B90" s="17"/>
       <c r="C90" s="17"/>
       <c r="D90" s="18"/>
       <c r="E90" s="18"/>
     </row>
-    <row r="91" spans="2:5" x14ac:dyDescent="0.4">
+    <row r="91" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B91" s="17"/>
       <c r="C91" s="17"/>
       <c r="D91" s="18"/>
       <c r="E91" s="18"/>
     </row>
-    <row r="92" spans="2:5" x14ac:dyDescent="0.4">
+    <row r="92" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B92" s="17"/>
       <c r="C92" s="17"/>
       <c r="D92" s="18"/>
       <c r="E92" s="18"/>
     </row>
-    <row r="93" spans="2:5" x14ac:dyDescent="0.4">
+    <row r="93" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B93" s="17"/>
       <c r="C93" s="17"/>
       <c r="D93" s="18"/>
       <c r="E93" s="18"/>
     </row>
-    <row r="94" spans="2:5" x14ac:dyDescent="0.4">
+    <row r="94" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B94" s="17"/>
       <c r="C94" s="17"/>
       <c r="D94" s="18"/>
       <c r="E94" s="18"/>
     </row>
-    <row r="95" spans="2:5" x14ac:dyDescent="0.4">
+    <row r="95" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B95" s="17"/>
       <c r="C95" s="17"/>
       <c r="D95" s="18"/>
       <c r="E95" s="18"/>
     </row>
-    <row r="96" spans="2:5" x14ac:dyDescent="0.4">
+    <row r="96" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B96" s="17"/>
       <c r="C96" s="17"/>
       <c r="D96" s="18"/>
       <c r="E96" s="18"/>
     </row>
-    <row r="97" spans="2:5" x14ac:dyDescent="0.4">
+    <row r="97" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B97" s="17"/>
       <c r="C97" s="17"/>
       <c r="D97" s="18"/>
       <c r="E97" s="18"/>
     </row>
-    <row r="98" spans="2:5" x14ac:dyDescent="0.4">
+    <row r="98" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B98" s="17"/>
       <c r="C98" s="17"/>
       <c r="D98" s="18"/>
       <c r="E98" s="18"/>
     </row>
-    <row r="99" spans="2:5" x14ac:dyDescent="0.4">
+    <row r="99" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B99" s="17"/>
       <c r="C99" s="17"/>
       <c r="D99" s="18"/>
       <c r="E99" s="18"/>
     </row>
-    <row r="100" spans="2:5" x14ac:dyDescent="0.4">
+    <row r="100" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B100" s="17"/>
       <c r="C100" s="17"/>
       <c r="D100" s="18"/>
       <c r="E100" s="18"/>
     </row>
-    <row r="101" spans="2:5" x14ac:dyDescent="0.4">
+    <row r="101" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B101" s="17"/>
       <c r="C101" s="17"/>
       <c r="D101" s="18"/>
       <c r="E101" s="18"/>
+    </row>
+    <row r="102" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B102" s="17"/>
+      <c r="C102" s="17"/>
+      <c r="D102" s="18"/>
+      <c r="E102" s="18"/>
+    </row>
+    <row r="103" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B103" s="17"/>
+      <c r="C103" s="17"/>
+      <c r="D103" s="18"/>
+      <c r="E103" s="18"/>
     </row>
   </sheetData>
   <autoFilter ref="B2:E2"/>
@@ -1849,33 +2140,33 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:J91"/>
+  <dimension ref="B2:J89"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" ySplit="2" topLeftCell="B3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="I22" sqref="I22"/>
+      <selection pane="bottomRight" activeCell="B18" sqref="B18:I21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.2" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="12" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="4.5" style="1" customWidth="1"/>
-    <col min="2" max="2" width="24.69921875" style="8" customWidth="1"/>
-    <col min="3" max="3" width="11.59765625" style="8" customWidth="1"/>
+    <col min="2" max="2" width="24.75" style="8" customWidth="1"/>
+    <col min="3" max="3" width="11.625" style="8" customWidth="1"/>
     <col min="4" max="4" width="13.5" style="2" customWidth="1"/>
-    <col min="5" max="5" width="10.69921875" style="8" customWidth="1"/>
+    <col min="5" max="5" width="10.75" style="8" customWidth="1"/>
     <col min="6" max="6" width="11" style="9" customWidth="1"/>
-    <col min="7" max="7" width="11.3984375" style="8" customWidth="1"/>
+    <col min="7" max="7" width="11.375" style="8" customWidth="1"/>
     <col min="8" max="8" width="10" style="9" customWidth="1"/>
-    <col min="9" max="9" width="10.09765625" style="10" customWidth="1"/>
-    <col min="10" max="10" width="60.09765625" style="2" customWidth="1"/>
+    <col min="9" max="9" width="10.125" style="10" customWidth="1"/>
+    <col min="10" max="10" width="60.125" style="2" customWidth="1"/>
     <col min="11" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:10" s="7" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="2" spans="2:10" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B2" s="3" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="C2" s="3" t="s">
         <v>3</v>
@@ -1896,215 +2187,219 @@
         <v>9</v>
       </c>
       <c r="I2" s="11" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="J2" s="3" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="2:10" x14ac:dyDescent="0.4">
+    <row r="3" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B3" s="12" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="C3" s="12" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="D3" s="5" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="E3" s="12" t="s">
         <v>14</v>
       </c>
       <c r="F3" s="13">
-        <v>21000</v>
-      </c>
-      <c r="G3" s="12"/>
-      <c r="H3" s="13"/>
-      <c r="I3" s="14" t="str">
-        <f t="shared" ref="I3:I58" si="0">IF(H3="", "", IFERROR( ((H3-F3)/F3), ""))</f>
-        <v/>
+        <v>24550</v>
+      </c>
+      <c r="G3" s="12" t="s">
+        <v>25</v>
+      </c>
+      <c r="H3" s="13">
+        <v>27200</v>
+      </c>
+      <c r="I3" s="14">
+        <f t="shared" ref="I3:I56" si="0">IF(H3="", "", IFERROR( ((H3-F3)/F3), ""))</f>
+        <v>0.1079429735234216</v>
       </c>
       <c r="J3" s="5"/>
     </row>
-    <row r="4" spans="2:10" x14ac:dyDescent="0.4">
+    <row r="4" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B4" s="12" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="C4" s="12" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="D4" s="5" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E4" s="12" t="s">
         <v>14</v>
       </c>
       <c r="F4" s="13">
-        <v>11400</v>
+        <v>4210</v>
       </c>
       <c r="G4" s="12" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="H4" s="13">
-        <v>11050</v>
+        <v>4705</v>
       </c>
       <c r="I4" s="14">
         <f t="shared" si="0"/>
-        <v>-3.0701754385964911E-2</v>
-      </c>
-      <c r="J4" s="5" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="5" spans="2:10" x14ac:dyDescent="0.4">
+        <v>0.11757719714964371</v>
+      </c>
+      <c r="J4" s="5"/>
+    </row>
+    <row r="5" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B5" s="12" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="C5" s="12" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="D5" s="5" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="E5" s="12" t="s">
         <v>14</v>
       </c>
       <c r="F5" s="13">
-        <v>24550</v>
+        <v>1515</v>
       </c>
       <c r="G5" s="12" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="H5" s="13">
-        <v>27200</v>
+        <v>1450</v>
       </c>
       <c r="I5" s="14">
         <f t="shared" si="0"/>
-        <v>0.1079429735234216</v>
-      </c>
-      <c r="J5" s="5"/>
-    </row>
-    <row r="6" spans="2:10" x14ac:dyDescent="0.4">
+        <v>-4.2904290429042903E-2</v>
+      </c>
+      <c r="J5" s="5" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="6" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B6" s="12" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="C6" s="12" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="D6" s="5" t="s">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="E6" s="12" t="s">
         <v>14</v>
       </c>
       <c r="F6" s="13">
-        <v>4210</v>
+        <v>13000</v>
       </c>
       <c r="G6" s="12" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="H6" s="13">
-        <v>4705</v>
+        <v>16900</v>
       </c>
       <c r="I6" s="14">
         <f t="shared" si="0"/>
-        <v>0.11757719714964371</v>
-      </c>
-      <c r="J6" s="5"/>
-    </row>
-    <row r="7" spans="2:10" x14ac:dyDescent="0.4">
+        <v>0.3</v>
+      </c>
+      <c r="J6" s="5" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="7" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B7" s="12" t="s">
+        <v>35</v>
+      </c>
+      <c r="C7" s="12" t="s">
+        <v>36</v>
+      </c>
+      <c r="D7" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="E7" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="F7" s="13">
+        <v>32150</v>
+      </c>
+      <c r="G7" s="12" t="s">
+        <v>54</v>
+      </c>
+      <c r="H7" s="13">
+        <v>30450</v>
+      </c>
+      <c r="I7" s="14">
+        <f t="shared" si="0"/>
+        <v>-5.2877138413685847E-2</v>
+      </c>
+      <c r="J7" s="5" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="8" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B8" s="12" t="s">
+        <v>35</v>
+      </c>
+      <c r="C8" s="12" t="s">
+        <v>38</v>
+      </c>
+      <c r="D8" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="C7" s="12" t="s">
-        <v>27</v>
-      </c>
-      <c r="D7" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="E7" s="12" t="s">
-        <v>14</v>
-      </c>
-      <c r="F7" s="13">
-        <v>1515</v>
-      </c>
-      <c r="G7" s="12" t="s">
-        <v>30</v>
-      </c>
-      <c r="H7" s="13">
-        <v>1450</v>
-      </c>
-      <c r="I7" s="14">
-        <f t="shared" si="0"/>
-        <v>-4.2904290429042903E-2</v>
-      </c>
-      <c r="J7" s="5" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="8" spans="2:10" x14ac:dyDescent="0.4">
-      <c r="B8" s="12" t="s">
-        <v>39</v>
-      </c>
-      <c r="C8" s="12" t="s">
-        <v>28</v>
-      </c>
-      <c r="D8" s="5" t="s">
-        <v>34</v>
-      </c>
       <c r="E8" s="12" t="s">
-        <v>14</v>
+        <v>24</v>
       </c>
       <c r="F8" s="13">
-        <v>13000</v>
+        <v>6970</v>
       </c>
       <c r="G8" s="12" t="s">
-        <v>30</v>
+        <v>54</v>
       </c>
       <c r="H8" s="13">
-        <v>16900</v>
+        <v>6760</v>
       </c>
       <c r="I8" s="14">
         <f t="shared" si="0"/>
-        <v>0.3</v>
-      </c>
-      <c r="J8" s="5" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="9" spans="2:10" x14ac:dyDescent="0.4">
+        <v>-3.0129124820659971E-2</v>
+      </c>
+      <c r="J8" s="5"/>
+    </row>
+    <row r="9" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B9" s="12" t="s">
+        <v>35</v>
+      </c>
+      <c r="C9" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="D9" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="C9" s="12" t="s">
-        <v>42</v>
-      </c>
-      <c r="D9" s="5" t="s">
-        <v>43</v>
-      </c>
       <c r="E9" s="12" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="F9" s="13">
-        <v>32150</v>
+        <v>7170</v>
       </c>
       <c r="G9" s="12" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="H9" s="13">
-        <v>30450</v>
+        <v>6810</v>
       </c>
       <c r="I9" s="14">
         <f t="shared" si="0"/>
-        <v>-5.2877138413685847E-2</v>
+        <v>-5.0209205020920501E-2</v>
       </c>
       <c r="J9" s="5" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="10" spans="2:10" x14ac:dyDescent="0.4">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="10" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B10" s="12" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="C10" s="12" t="s">
         <v>44</v>
@@ -2113,26 +2408,26 @@
         <v>45</v>
       </c>
       <c r="E10" s="12" t="s">
-        <v>29</v>
+        <v>55</v>
       </c>
       <c r="F10" s="13">
-        <v>6970</v>
+        <v>13650</v>
       </c>
       <c r="G10" s="12" t="s">
-        <v>60</v>
+        <v>84</v>
       </c>
       <c r="H10" s="13">
-        <v>6760</v>
+        <v>13550</v>
       </c>
       <c r="I10" s="14">
         <f t="shared" si="0"/>
-        <v>-3.0129124820659971E-2</v>
+        <v>-7.326007326007326E-3</v>
       </c>
       <c r="J10" s="5"/>
     </row>
-    <row r="11" spans="2:10" x14ac:dyDescent="0.4">
+    <row r="11" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B11" s="12" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="C11" s="12" t="s">
         <v>46</v>
@@ -2141,140 +2436,138 @@
         <v>47</v>
       </c>
       <c r="E11" s="12" t="s">
-        <v>29</v>
+        <v>55</v>
       </c>
       <c r="F11" s="13">
-        <v>7170</v>
+        <v>20000</v>
       </c>
       <c r="G11" s="12" t="s">
+        <v>84</v>
+      </c>
+      <c r="H11" s="13">
+        <v>20100</v>
+      </c>
+      <c r="I11" s="14">
+        <f t="shared" si="0"/>
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="J11" s="5"/>
+    </row>
+    <row r="12" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B12" s="12" t="s">
+        <v>35</v>
+      </c>
+      <c r="C12" s="12" t="s">
+        <v>82</v>
+      </c>
+      <c r="D12" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="E12" s="12" t="s">
+        <v>54</v>
+      </c>
+      <c r="F12" s="13">
+        <v>1350</v>
+      </c>
+      <c r="G12" s="12" t="s">
+        <v>84</v>
+      </c>
+      <c r="H12" s="13">
+        <v>1335</v>
+      </c>
+      <c r="I12" s="14">
+        <f t="shared" si="0"/>
+        <v>-1.1111111111111112E-2</v>
+      </c>
+      <c r="J12" s="5"/>
+    </row>
+    <row r="13" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B13" s="12" t="s">
+        <v>35</v>
+      </c>
+      <c r="C13" s="12" t="s">
+        <v>83</v>
+      </c>
+      <c r="D13" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="E13" s="12" t="s">
+        <v>54</v>
+      </c>
+      <c r="F13" s="13">
+        <v>6440</v>
+      </c>
+      <c r="G13" s="12" t="s">
+        <v>84</v>
+      </c>
+      <c r="H13" s="13">
+        <v>6220</v>
+      </c>
+      <c r="I13" s="14">
+        <f t="shared" si="0"/>
+        <v>-3.4161490683229816E-2</v>
+      </c>
+      <c r="J13" s="5"/>
+    </row>
+    <row r="14" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B14" s="12" t="s">
+        <v>35</v>
+      </c>
+      <c r="C14" s="12" t="s">
+        <v>50</v>
+      </c>
+      <c r="D14" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="E14" s="12" t="s">
+        <v>54</v>
+      </c>
+      <c r="F14" s="13">
+        <v>4950</v>
+      </c>
+      <c r="G14" s="12" t="s">
+        <v>84</v>
+      </c>
+      <c r="H14" s="13">
+        <v>4990</v>
+      </c>
+      <c r="I14" s="14">
+        <f t="shared" si="0"/>
+        <v>8.0808080808080808E-3</v>
+      </c>
+      <c r="J14" s="5"/>
+    </row>
+    <row r="15" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B15" s="12" t="s">
+        <v>35</v>
+      </c>
+      <c r="C15" s="12" t="s">
+        <v>52</v>
+      </c>
+      <c r="D15" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="E15" s="12" t="s">
+        <v>54</v>
+      </c>
+      <c r="F15" s="13">
+        <v>3835</v>
+      </c>
+      <c r="G15" s="12" t="s">
+        <v>84</v>
+      </c>
+      <c r="H15" s="13">
+        <v>3930</v>
+      </c>
+      <c r="I15" s="14">
+        <f t="shared" si="0"/>
+        <v>2.4771838331160364E-2</v>
+      </c>
+      <c r="J15" s="5"/>
+    </row>
+    <row r="16" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B16" s="12" t="s">
         <v>60</v>
-      </c>
-      <c r="H11" s="13">
-        <v>6810</v>
-      </c>
-      <c r="I11" s="14">
-        <f t="shared" si="0"/>
-        <v>-5.0209205020920501E-2</v>
-      </c>
-      <c r="J11" s="5" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="12" spans="2:10" x14ac:dyDescent="0.4">
-      <c r="B12" s="12" t="s">
-        <v>41</v>
-      </c>
-      <c r="C12" s="12" t="s">
-        <v>50</v>
-      </c>
-      <c r="D12" s="5" t="s">
-        <v>51</v>
-      </c>
-      <c r="E12" s="12" t="s">
-        <v>61</v>
-      </c>
-      <c r="F12" s="13">
-        <v>13650</v>
-      </c>
-      <c r="G12" s="12" t="s">
-        <v>90</v>
-      </c>
-      <c r="H12" s="13">
-        <v>13550</v>
-      </c>
-      <c r="I12" s="14">
-        <f t="shared" si="0"/>
-        <v>-7.326007326007326E-3</v>
-      </c>
-      <c r="J12" s="5"/>
-    </row>
-    <row r="13" spans="2:10" x14ac:dyDescent="0.4">
-      <c r="B13" s="12" t="s">
-        <v>41</v>
-      </c>
-      <c r="C13" s="12" t="s">
-        <v>52</v>
-      </c>
-      <c r="D13" s="5" t="s">
-        <v>53</v>
-      </c>
-      <c r="E13" s="12" t="s">
-        <v>61</v>
-      </c>
-      <c r="F13" s="13">
-        <v>20000</v>
-      </c>
-      <c r="G13" s="12" t="s">
-        <v>90</v>
-      </c>
-      <c r="H13" s="13">
-        <v>20100</v>
-      </c>
-      <c r="I13" s="14">
-        <f t="shared" si="0"/>
-        <v>5.0000000000000001E-3</v>
-      </c>
-      <c r="J13" s="5"/>
-    </row>
-    <row r="14" spans="2:10" x14ac:dyDescent="0.4">
-      <c r="B14" s="12" t="s">
-        <v>41</v>
-      </c>
-      <c r="C14" s="12" t="s">
-        <v>88</v>
-      </c>
-      <c r="D14" s="5" t="s">
-        <v>54</v>
-      </c>
-      <c r="E14" s="12" t="s">
-        <v>60</v>
-      </c>
-      <c r="F14" s="13">
-        <v>1350</v>
-      </c>
-      <c r="G14" s="12" t="s">
-        <v>90</v>
-      </c>
-      <c r="H14" s="13">
-        <v>1335</v>
-      </c>
-      <c r="I14" s="14">
-        <f t="shared" si="0"/>
-        <v>-1.1111111111111112E-2</v>
-      </c>
-      <c r="J14" s="5"/>
-    </row>
-    <row r="15" spans="2:10" x14ac:dyDescent="0.4">
-      <c r="B15" s="12" t="s">
-        <v>41</v>
-      </c>
-      <c r="C15" s="12" t="s">
-        <v>89</v>
-      </c>
-      <c r="D15" s="5" t="s">
-        <v>55</v>
-      </c>
-      <c r="E15" s="12" t="s">
-        <v>60</v>
-      </c>
-      <c r="F15" s="13">
-        <v>6440</v>
-      </c>
-      <c r="G15" s="12" t="s">
-        <v>90</v>
-      </c>
-      <c r="H15" s="13">
-        <v>6220</v>
-      </c>
-      <c r="I15" s="14">
-        <f t="shared" si="0"/>
-        <v>-3.4161490683229816E-2</v>
-      </c>
-      <c r="J15" s="5"/>
-    </row>
-    <row r="16" spans="2:10" x14ac:dyDescent="0.4">
-      <c r="B16" s="12" t="s">
-        <v>41</v>
       </c>
       <c r="C16" s="12" t="s">
         <v>56</v>
@@ -2283,26 +2576,28 @@
         <v>57</v>
       </c>
       <c r="E16" s="12" t="s">
+        <v>54</v>
+      </c>
+      <c r="F16" s="13">
+        <v>1025</v>
+      </c>
+      <c r="G16" s="12" t="s">
+        <v>101</v>
+      </c>
+      <c r="H16" s="13">
+        <v>1030</v>
+      </c>
+      <c r="I16" s="14">
+        <f t="shared" si="0"/>
+        <v>4.8780487804878049E-3</v>
+      </c>
+      <c r="J16" s="5" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="17" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B17" s="12" t="s">
         <v>60</v>
-      </c>
-      <c r="F16" s="13">
-        <v>4950</v>
-      </c>
-      <c r="G16" s="12" t="s">
-        <v>90</v>
-      </c>
-      <c r="H16" s="13">
-        <v>4990</v>
-      </c>
-      <c r="I16" s="14">
-        <f t="shared" si="0"/>
-        <v>8.0808080808080808E-3</v>
-      </c>
-      <c r="J16" s="5"/>
-    </row>
-    <row r="17" spans="2:10" x14ac:dyDescent="0.4">
-      <c r="B17" s="12" t="s">
-        <v>41</v>
       </c>
       <c r="C17" s="12" t="s">
         <v>58</v>
@@ -2311,120 +2606,136 @@
         <v>59</v>
       </c>
       <c r="E17" s="12" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="F17" s="13">
-        <v>3835</v>
+        <v>1910</v>
       </c>
       <c r="G17" s="12" t="s">
+        <v>101</v>
+      </c>
+      <c r="H17" s="13">
+        <v>1590</v>
+      </c>
+      <c r="I17" s="14">
+        <f t="shared" si="0"/>
+        <v>-0.16753926701570682</v>
+      </c>
+      <c r="J17" s="5"/>
+    </row>
+    <row r="18" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B18" s="12" t="s">
+        <v>35</v>
+      </c>
+      <c r="C18" s="12" t="s">
+        <v>91</v>
+      </c>
+      <c r="D18" s="5" t="s">
+        <v>92</v>
+      </c>
+      <c r="E18" s="12" t="s">
+        <v>86</v>
+      </c>
+      <c r="F18" s="13">
+        <v>6850</v>
+      </c>
+      <c r="G18" s="12" t="s">
+        <v>101</v>
+      </c>
+      <c r="H18" s="13">
+        <v>6440</v>
+      </c>
+      <c r="I18" s="14">
+        <f t="shared" si="0"/>
+        <v>-5.9854014598540145E-2</v>
+      </c>
+      <c r="J18" s="5"/>
+    </row>
+    <row r="19" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B19" s="12" t="s">
         <v>90</v>
       </c>
-      <c r="H17" s="13">
-        <v>3930</v>
-      </c>
-      <c r="I17" s="14">
-        <f t="shared" si="0"/>
-        <v>2.4771838331160364E-2</v>
-      </c>
-      <c r="J17" s="5"/>
-    </row>
-    <row r="18" spans="2:10" x14ac:dyDescent="0.4">
-      <c r="B18" s="12" t="s">
-        <v>66</v>
-      </c>
-      <c r="C18" s="12" t="s">
-        <v>62</v>
-      </c>
-      <c r="D18" s="5" t="s">
-        <v>63</v>
-      </c>
-      <c r="E18" s="12" t="s">
-        <v>60</v>
-      </c>
-      <c r="F18" s="13">
-        <v>1025</v>
-      </c>
-      <c r="G18" s="12"/>
-      <c r="H18" s="13"/>
-      <c r="I18" s="14" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="J18" s="5"/>
-    </row>
-    <row r="19" spans="2:10" x14ac:dyDescent="0.4">
-      <c r="B19" s="12" t="s">
-        <v>66</v>
-      </c>
       <c r="C19" s="12" t="s">
-        <v>64</v>
+        <v>93</v>
       </c>
       <c r="D19" s="5" t="s">
-        <v>65</v>
+        <v>85</v>
       </c>
       <c r="E19" s="12" t="s">
-        <v>60</v>
+        <v>86</v>
       </c>
       <c r="F19" s="13">
-        <v>1910</v>
-      </c>
-      <c r="G19" s="12"/>
-      <c r="H19" s="13"/>
-      <c r="I19" s="14" t="str">
-        <f t="shared" si="0"/>
-        <v/>
+        <v>1155</v>
+      </c>
+      <c r="G19" s="12" t="s">
+        <v>101</v>
+      </c>
+      <c r="H19" s="13">
+        <v>1410</v>
+      </c>
+      <c r="I19" s="14">
+        <f t="shared" si="0"/>
+        <v>0.22077922077922077</v>
       </c>
       <c r="J19" s="5"/>
     </row>
-    <row r="20" spans="2:10" x14ac:dyDescent="0.4">
+    <row r="20" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B20" s="12" t="s">
-        <v>41</v>
+        <v>94</v>
       </c>
       <c r="C20" s="12" t="s">
+        <v>97</v>
+      </c>
+      <c r="D20" s="5" t="s">
         <v>98</v>
       </c>
-      <c r="D20" s="5" t="s">
+      <c r="E20" s="12" t="s">
+        <v>86</v>
+      </c>
+      <c r="F20" s="13">
+        <v>29200</v>
+      </c>
+      <c r="G20" s="12" t="s">
+        <v>101</v>
+      </c>
+      <c r="H20" s="13">
+        <v>30050</v>
+      </c>
+      <c r="I20" s="14">
+        <f t="shared" si="0"/>
+        <v>2.9109589041095889E-2</v>
+      </c>
+      <c r="J20" s="5"/>
+    </row>
+    <row r="21" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B21" s="12" t="s">
+        <v>94</v>
+      </c>
+      <c r="C21" s="12" t="s">
         <v>99</v>
       </c>
-      <c r="E20" s="12" t="s">
-        <v>93</v>
-      </c>
-      <c r="F20" s="13">
-        <v>6850</v>
-      </c>
-      <c r="G20" s="12"/>
-      <c r="H20" s="13"/>
-      <c r="I20" s="14" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="J20" s="5"/>
-    </row>
-    <row r="21" spans="2:10" x14ac:dyDescent="0.4">
-      <c r="B21" s="12" t="s">
-        <v>97</v>
-      </c>
-      <c r="C21" s="12" t="s">
-        <v>91</v>
-      </c>
       <c r="D21" s="5" t="s">
-        <v>92</v>
+        <v>100</v>
       </c>
       <c r="E21" s="12" t="s">
-        <v>93</v>
+        <v>86</v>
       </c>
       <c r="F21" s="13">
-        <v>1155</v>
-      </c>
-      <c r="G21" s="12"/>
-      <c r="H21" s="13"/>
-      <c r="I21" s="14" t="str">
-        <f t="shared" si="0"/>
-        <v/>
+        <v>6290</v>
+      </c>
+      <c r="G21" s="12" t="s">
+        <v>101</v>
+      </c>
+      <c r="H21" s="13">
+        <v>5810</v>
+      </c>
+      <c r="I21" s="14">
+        <f t="shared" si="0"/>
+        <v>-7.6311605723370424E-2</v>
       </c>
       <c r="J21" s="5"/>
     </row>
-    <row r="22" spans="2:10" x14ac:dyDescent="0.4">
+    <row r="22" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B22" s="12"/>
       <c r="C22" s="12"/>
       <c r="D22" s="5"/>
@@ -2438,7 +2749,7 @@
       </c>
       <c r="J22" s="5"/>
     </row>
-    <row r="23" spans="2:10" x14ac:dyDescent="0.4">
+    <row r="23" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B23" s="12"/>
       <c r="C23" s="12"/>
       <c r="D23" s="5"/>
@@ -2452,7 +2763,7 @@
       </c>
       <c r="J23" s="5"/>
     </row>
-    <row r="24" spans="2:10" x14ac:dyDescent="0.4">
+    <row r="24" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B24" s="12"/>
       <c r="C24" s="12"/>
       <c r="D24" s="5"/>
@@ -2466,7 +2777,7 @@
       </c>
       <c r="J24" s="5"/>
     </row>
-    <row r="25" spans="2:10" x14ac:dyDescent="0.4">
+    <row r="25" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B25" s="12"/>
       <c r="C25" s="12"/>
       <c r="D25" s="5"/>
@@ -2480,7 +2791,7 @@
       </c>
       <c r="J25" s="5"/>
     </row>
-    <row r="26" spans="2:10" x14ac:dyDescent="0.4">
+    <row r="26" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B26" s="12"/>
       <c r="C26" s="12"/>
       <c r="D26" s="5"/>
@@ -2494,7 +2805,7 @@
       </c>
       <c r="J26" s="5"/>
     </row>
-    <row r="27" spans="2:10" x14ac:dyDescent="0.4">
+    <row r="27" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B27" s="12"/>
       <c r="C27" s="12"/>
       <c r="D27" s="5"/>
@@ -2508,7 +2819,7 @@
       </c>
       <c r="J27" s="5"/>
     </row>
-    <row r="28" spans="2:10" x14ac:dyDescent="0.4">
+    <row r="28" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B28" s="12"/>
       <c r="C28" s="12"/>
       <c r="D28" s="5"/>
@@ -2522,7 +2833,7 @@
       </c>
       <c r="J28" s="5"/>
     </row>
-    <row r="29" spans="2:10" x14ac:dyDescent="0.4">
+    <row r="29" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B29" s="12"/>
       <c r="C29" s="12"/>
       <c r="D29" s="5"/>
@@ -2536,7 +2847,7 @@
       </c>
       <c r="J29" s="5"/>
     </row>
-    <row r="30" spans="2:10" x14ac:dyDescent="0.4">
+    <row r="30" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B30" s="12"/>
       <c r="C30" s="12"/>
       <c r="D30" s="5"/>
@@ -2550,7 +2861,7 @@
       </c>
       <c r="J30" s="5"/>
     </row>
-    <row r="31" spans="2:10" x14ac:dyDescent="0.4">
+    <row r="31" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B31" s="12"/>
       <c r="C31" s="12"/>
       <c r="D31" s="5"/>
@@ -2564,7 +2875,7 @@
       </c>
       <c r="J31" s="5"/>
     </row>
-    <row r="32" spans="2:10" x14ac:dyDescent="0.4">
+    <row r="32" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B32" s="12"/>
       <c r="C32" s="12"/>
       <c r="D32" s="5"/>
@@ -2578,7 +2889,7 @@
       </c>
       <c r="J32" s="5"/>
     </row>
-    <row r="33" spans="2:10" x14ac:dyDescent="0.4">
+    <row r="33" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B33" s="12"/>
       <c r="C33" s="12"/>
       <c r="D33" s="5"/>
@@ -2592,7 +2903,7 @@
       </c>
       <c r="J33" s="5"/>
     </row>
-    <row r="34" spans="2:10" x14ac:dyDescent="0.4">
+    <row r="34" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B34" s="12"/>
       <c r="C34" s="12"/>
       <c r="D34" s="5"/>
@@ -2606,7 +2917,7 @@
       </c>
       <c r="J34" s="5"/>
     </row>
-    <row r="35" spans="2:10" x14ac:dyDescent="0.4">
+    <row r="35" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B35" s="12"/>
       <c r="C35" s="12"/>
       <c r="D35" s="5"/>
@@ -2620,7 +2931,7 @@
       </c>
       <c r="J35" s="5"/>
     </row>
-    <row r="36" spans="2:10" x14ac:dyDescent="0.4">
+    <row r="36" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B36" s="12"/>
       <c r="C36" s="12"/>
       <c r="D36" s="5"/>
@@ -2634,7 +2945,7 @@
       </c>
       <c r="J36" s="5"/>
     </row>
-    <row r="37" spans="2:10" x14ac:dyDescent="0.4">
+    <row r="37" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B37" s="12"/>
       <c r="C37" s="12"/>
       <c r="D37" s="5"/>
@@ -2648,7 +2959,7 @@
       </c>
       <c r="J37" s="5"/>
     </row>
-    <row r="38" spans="2:10" x14ac:dyDescent="0.4">
+    <row r="38" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B38" s="12"/>
       <c r="C38" s="12"/>
       <c r="D38" s="5"/>
@@ -2662,7 +2973,7 @@
       </c>
       <c r="J38" s="5"/>
     </row>
-    <row r="39" spans="2:10" x14ac:dyDescent="0.4">
+    <row r="39" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B39" s="12"/>
       <c r="C39" s="12"/>
       <c r="D39" s="5"/>
@@ -2676,7 +2987,7 @@
       </c>
       <c r="J39" s="5"/>
     </row>
-    <row r="40" spans="2:10" x14ac:dyDescent="0.4">
+    <row r="40" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B40" s="12"/>
       <c r="C40" s="12"/>
       <c r="D40" s="5"/>
@@ -2690,7 +3001,7 @@
       </c>
       <c r="J40" s="5"/>
     </row>
-    <row r="41" spans="2:10" x14ac:dyDescent="0.4">
+    <row r="41" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B41" s="12"/>
       <c r="C41" s="12"/>
       <c r="D41" s="5"/>
@@ -2704,7 +3015,7 @@
       </c>
       <c r="J41" s="5"/>
     </row>
-    <row r="42" spans="2:10" x14ac:dyDescent="0.4">
+    <row r="42" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B42" s="12"/>
       <c r="C42" s="12"/>
       <c r="D42" s="5"/>
@@ -2718,7 +3029,7 @@
       </c>
       <c r="J42" s="5"/>
     </row>
-    <row r="43" spans="2:10" x14ac:dyDescent="0.4">
+    <row r="43" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B43" s="12"/>
       <c r="C43" s="12"/>
       <c r="D43" s="5"/>
@@ -2732,7 +3043,7 @@
       </c>
       <c r="J43" s="5"/>
     </row>
-    <row r="44" spans="2:10" x14ac:dyDescent="0.4">
+    <row r="44" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B44" s="12"/>
       <c r="C44" s="12"/>
       <c r="D44" s="5"/>
@@ -2746,7 +3057,7 @@
       </c>
       <c r="J44" s="5"/>
     </row>
-    <row r="45" spans="2:10" x14ac:dyDescent="0.4">
+    <row r="45" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B45" s="12"/>
       <c r="C45" s="12"/>
       <c r="D45" s="5"/>
@@ -2760,7 +3071,7 @@
       </c>
       <c r="J45" s="5"/>
     </row>
-    <row r="46" spans="2:10" x14ac:dyDescent="0.4">
+    <row r="46" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B46" s="12"/>
       <c r="C46" s="12"/>
       <c r="D46" s="5"/>
@@ -2774,7 +3085,7 @@
       </c>
       <c r="J46" s="5"/>
     </row>
-    <row r="47" spans="2:10" x14ac:dyDescent="0.4">
+    <row r="47" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B47" s="12"/>
       <c r="C47" s="12"/>
       <c r="D47" s="5"/>
@@ -2788,7 +3099,7 @@
       </c>
       <c r="J47" s="5"/>
     </row>
-    <row r="48" spans="2:10" x14ac:dyDescent="0.4">
+    <row r="48" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B48" s="12"/>
       <c r="C48" s="12"/>
       <c r="D48" s="5"/>
@@ -2802,7 +3113,7 @@
       </c>
       <c r="J48" s="5"/>
     </row>
-    <row r="49" spans="2:10" x14ac:dyDescent="0.4">
+    <row r="49" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B49" s="12"/>
       <c r="C49" s="12"/>
       <c r="D49" s="5"/>
@@ -2816,7 +3127,7 @@
       </c>
       <c r="J49" s="5"/>
     </row>
-    <row r="50" spans="2:10" x14ac:dyDescent="0.4">
+    <row r="50" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B50" s="12"/>
       <c r="C50" s="12"/>
       <c r="D50" s="5"/>
@@ -2830,7 +3141,7 @@
       </c>
       <c r="J50" s="5"/>
     </row>
-    <row r="51" spans="2:10" x14ac:dyDescent="0.4">
+    <row r="51" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B51" s="12"/>
       <c r="C51" s="12"/>
       <c r="D51" s="5"/>
@@ -2844,7 +3155,7 @@
       </c>
       <c r="J51" s="5"/>
     </row>
-    <row r="52" spans="2:10" x14ac:dyDescent="0.4">
+    <row r="52" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B52" s="12"/>
       <c r="C52" s="12"/>
       <c r="D52" s="5"/>
@@ -2858,7 +3169,7 @@
       </c>
       <c r="J52" s="5"/>
     </row>
-    <row r="53" spans="2:10" x14ac:dyDescent="0.4">
+    <row r="53" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B53" s="12"/>
       <c r="C53" s="12"/>
       <c r="D53" s="5"/>
@@ -2872,7 +3183,7 @@
       </c>
       <c r="J53" s="5"/>
     </row>
-    <row r="54" spans="2:10" x14ac:dyDescent="0.4">
+    <row r="54" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B54" s="12"/>
       <c r="C54" s="12"/>
       <c r="D54" s="5"/>
@@ -2886,7 +3197,7 @@
       </c>
       <c r="J54" s="5"/>
     </row>
-    <row r="55" spans="2:10" x14ac:dyDescent="0.4">
+    <row r="55" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B55" s="12"/>
       <c r="C55" s="12"/>
       <c r="D55" s="5"/>
@@ -2900,7 +3211,7 @@
       </c>
       <c r="J55" s="5"/>
     </row>
-    <row r="56" spans="2:10" x14ac:dyDescent="0.4">
+    <row r="56" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B56" s="12"/>
       <c r="C56" s="12"/>
       <c r="D56" s="5"/>
@@ -2914,7 +3225,7 @@
       </c>
       <c r="J56" s="5"/>
     </row>
-    <row r="57" spans="2:10" x14ac:dyDescent="0.4">
+    <row r="57" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B57" s="12"/>
       <c r="C57" s="12"/>
       <c r="D57" s="5"/>
@@ -2923,12 +3234,12 @@
       <c r="G57" s="12"/>
       <c r="H57" s="13"/>
       <c r="I57" s="14" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" ref="I57:I89" si="1">IF(H57="", "", IFERROR( ((H57-F57)/F57), ""))</f>
         <v/>
       </c>
       <c r="J57" s="5"/>
     </row>
-    <row r="58" spans="2:10" x14ac:dyDescent="0.4">
+    <row r="58" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B58" s="12"/>
       <c r="C58" s="12"/>
       <c r="D58" s="5"/>
@@ -2937,12 +3248,12 @@
       <c r="G58" s="12"/>
       <c r="H58" s="13"/>
       <c r="I58" s="14" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="J58" s="5"/>
     </row>
-    <row r="59" spans="2:10" x14ac:dyDescent="0.4">
+    <row r="59" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B59" s="12"/>
       <c r="C59" s="12"/>
       <c r="D59" s="5"/>
@@ -2951,12 +3262,12 @@
       <c r="G59" s="12"/>
       <c r="H59" s="13"/>
       <c r="I59" s="14" t="str">
-        <f t="shared" ref="I59:I91" si="1">IF(H59="", "", IFERROR( ((H59-F59)/F59), ""))</f>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="J59" s="5"/>
     </row>
-    <row r="60" spans="2:10" x14ac:dyDescent="0.4">
+    <row r="60" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B60" s="12"/>
       <c r="C60" s="12"/>
       <c r="D60" s="5"/>
@@ -2970,7 +3281,7 @@
       </c>
       <c r="J60" s="5"/>
     </row>
-    <row r="61" spans="2:10" x14ac:dyDescent="0.4">
+    <row r="61" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B61" s="12"/>
       <c r="C61" s="12"/>
       <c r="D61" s="5"/>
@@ -2984,7 +3295,7 @@
       </c>
       <c r="J61" s="5"/>
     </row>
-    <row r="62" spans="2:10" x14ac:dyDescent="0.4">
+    <row r="62" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B62" s="12"/>
       <c r="C62" s="12"/>
       <c r="D62" s="5"/>
@@ -2998,7 +3309,7 @@
       </c>
       <c r="J62" s="5"/>
     </row>
-    <row r="63" spans="2:10" x14ac:dyDescent="0.4">
+    <row r="63" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B63" s="12"/>
       <c r="C63" s="12"/>
       <c r="D63" s="5"/>
@@ -3012,7 +3323,7 @@
       </c>
       <c r="J63" s="5"/>
     </row>
-    <row r="64" spans="2:10" x14ac:dyDescent="0.4">
+    <row r="64" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B64" s="12"/>
       <c r="C64" s="12"/>
       <c r="D64" s="5"/>
@@ -3026,7 +3337,7 @@
       </c>
       <c r="J64" s="5"/>
     </row>
-    <row r="65" spans="2:10" x14ac:dyDescent="0.4">
+    <row r="65" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B65" s="12"/>
       <c r="C65" s="12"/>
       <c r="D65" s="5"/>
@@ -3040,7 +3351,7 @@
       </c>
       <c r="J65" s="5"/>
     </row>
-    <row r="66" spans="2:10" x14ac:dyDescent="0.4">
+    <row r="66" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B66" s="12"/>
       <c r="C66" s="12"/>
       <c r="D66" s="5"/>
@@ -3054,7 +3365,7 @@
       </c>
       <c r="J66" s="5"/>
     </row>
-    <row r="67" spans="2:10" x14ac:dyDescent="0.4">
+    <row r="67" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B67" s="12"/>
       <c r="C67" s="12"/>
       <c r="D67" s="5"/>
@@ -3068,7 +3379,7 @@
       </c>
       <c r="J67" s="5"/>
     </row>
-    <row r="68" spans="2:10" x14ac:dyDescent="0.4">
+    <row r="68" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B68" s="12"/>
       <c r="C68" s="12"/>
       <c r="D68" s="5"/>
@@ -3082,7 +3393,7 @@
       </c>
       <c r="J68" s="5"/>
     </row>
-    <row r="69" spans="2:10" x14ac:dyDescent="0.4">
+    <row r="69" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B69" s="12"/>
       <c r="C69" s="12"/>
       <c r="D69" s="5"/>
@@ -3096,7 +3407,7 @@
       </c>
       <c r="J69" s="5"/>
     </row>
-    <row r="70" spans="2:10" x14ac:dyDescent="0.4">
+    <row r="70" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B70" s="12"/>
       <c r="C70" s="12"/>
       <c r="D70" s="5"/>
@@ -3110,7 +3421,7 @@
       </c>
       <c r="J70" s="5"/>
     </row>
-    <row r="71" spans="2:10" x14ac:dyDescent="0.4">
+    <row r="71" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B71" s="12"/>
       <c r="C71" s="12"/>
       <c r="D71" s="5"/>
@@ -3124,7 +3435,7 @@
       </c>
       <c r="J71" s="5"/>
     </row>
-    <row r="72" spans="2:10" x14ac:dyDescent="0.4">
+    <row r="72" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B72" s="12"/>
       <c r="C72" s="12"/>
       <c r="D72" s="5"/>
@@ -3138,7 +3449,7 @@
       </c>
       <c r="J72" s="5"/>
     </row>
-    <row r="73" spans="2:10" x14ac:dyDescent="0.4">
+    <row r="73" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B73" s="12"/>
       <c r="C73" s="12"/>
       <c r="D73" s="5"/>
@@ -3152,7 +3463,7 @@
       </c>
       <c r="J73" s="5"/>
     </row>
-    <row r="74" spans="2:10" x14ac:dyDescent="0.4">
+    <row r="74" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B74" s="12"/>
       <c r="C74" s="12"/>
       <c r="D74" s="5"/>
@@ -3166,7 +3477,7 @@
       </c>
       <c r="J74" s="5"/>
     </row>
-    <row r="75" spans="2:10" x14ac:dyDescent="0.4">
+    <row r="75" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B75" s="12"/>
       <c r="C75" s="12"/>
       <c r="D75" s="5"/>
@@ -3180,7 +3491,7 @@
       </c>
       <c r="J75" s="5"/>
     </row>
-    <row r="76" spans="2:10" x14ac:dyDescent="0.4">
+    <row r="76" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B76" s="12"/>
       <c r="C76" s="12"/>
       <c r="D76" s="5"/>
@@ -3194,7 +3505,7 @@
       </c>
       <c r="J76" s="5"/>
     </row>
-    <row r="77" spans="2:10" x14ac:dyDescent="0.4">
+    <row r="77" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B77" s="12"/>
       <c r="C77" s="12"/>
       <c r="D77" s="5"/>
@@ -3208,7 +3519,7 @@
       </c>
       <c r="J77" s="5"/>
     </row>
-    <row r="78" spans="2:10" x14ac:dyDescent="0.4">
+    <row r="78" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B78" s="12"/>
       <c r="C78" s="12"/>
       <c r="D78" s="5"/>
@@ -3222,7 +3533,7 @@
       </c>
       <c r="J78" s="5"/>
     </row>
-    <row r="79" spans="2:10" x14ac:dyDescent="0.4">
+    <row r="79" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B79" s="12"/>
       <c r="C79" s="12"/>
       <c r="D79" s="5"/>
@@ -3236,7 +3547,7 @@
       </c>
       <c r="J79" s="5"/>
     </row>
-    <row r="80" spans="2:10" x14ac:dyDescent="0.4">
+    <row r="80" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B80" s="12"/>
       <c r="C80" s="12"/>
       <c r="D80" s="5"/>
@@ -3250,7 +3561,7 @@
       </c>
       <c r="J80" s="5"/>
     </row>
-    <row r="81" spans="2:10" x14ac:dyDescent="0.4">
+    <row r="81" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B81" s="12"/>
       <c r="C81" s="12"/>
       <c r="D81" s="5"/>
@@ -3264,7 +3575,7 @@
       </c>
       <c r="J81" s="5"/>
     </row>
-    <row r="82" spans="2:10" x14ac:dyDescent="0.4">
+    <row r="82" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B82" s="12"/>
       <c r="C82" s="12"/>
       <c r="D82" s="5"/>
@@ -3278,7 +3589,7 @@
       </c>
       <c r="J82" s="5"/>
     </row>
-    <row r="83" spans="2:10" x14ac:dyDescent="0.4">
+    <row r="83" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B83" s="12"/>
       <c r="C83" s="12"/>
       <c r="D83" s="5"/>
@@ -3292,7 +3603,7 @@
       </c>
       <c r="J83" s="5"/>
     </row>
-    <row r="84" spans="2:10" x14ac:dyDescent="0.4">
+    <row r="84" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B84" s="12"/>
       <c r="C84" s="12"/>
       <c r="D84" s="5"/>
@@ -3306,7 +3617,7 @@
       </c>
       <c r="J84" s="5"/>
     </row>
-    <row r="85" spans="2:10" x14ac:dyDescent="0.4">
+    <row r="85" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B85" s="12"/>
       <c r="C85" s="12"/>
       <c r="D85" s="5"/>
@@ -3320,7 +3631,7 @@
       </c>
       <c r="J85" s="5"/>
     </row>
-    <row r="86" spans="2:10" x14ac:dyDescent="0.4">
+    <row r="86" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B86" s="12"/>
       <c r="C86" s="12"/>
       <c r="D86" s="5"/>
@@ -3334,7 +3645,7 @@
       </c>
       <c r="J86" s="5"/>
     </row>
-    <row r="87" spans="2:10" x14ac:dyDescent="0.4">
+    <row r="87" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B87" s="12"/>
       <c r="C87" s="12"/>
       <c r="D87" s="5"/>
@@ -3348,7 +3659,7 @@
       </c>
       <c r="J87" s="5"/>
     </row>
-    <row r="88" spans="2:10" x14ac:dyDescent="0.4">
+    <row r="88" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B88" s="12"/>
       <c r="C88" s="12"/>
       <c r="D88" s="5"/>
@@ -3362,7 +3673,7 @@
       </c>
       <c r="J88" s="5"/>
     </row>
-    <row r="89" spans="2:10" x14ac:dyDescent="0.4">
+    <row r="89" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B89" s="12"/>
       <c r="C89" s="12"/>
       <c r="D89" s="5"/>
@@ -3376,36 +3687,8 @@
       </c>
       <c r="J89" s="5"/>
     </row>
-    <row r="90" spans="2:10" x14ac:dyDescent="0.4">
-      <c r="B90" s="12"/>
-      <c r="C90" s="12"/>
-      <c r="D90" s="5"/>
-      <c r="E90" s="12"/>
-      <c r="F90" s="13"/>
-      <c r="G90" s="12"/>
-      <c r="H90" s="13"/>
-      <c r="I90" s="14" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="J90" s="5"/>
-    </row>
-    <row r="91" spans="2:10" x14ac:dyDescent="0.4">
-      <c r="B91" s="12"/>
-      <c r="C91" s="12"/>
-      <c r="D91" s="5"/>
-      <c r="E91" s="12"/>
-      <c r="F91" s="13"/>
-      <c r="G91" s="12"/>
-      <c r="H91" s="13"/>
-      <c r="I91" s="14" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="J91" s="5"/>
-    </row>
   </sheetData>
-  <autoFilter ref="B2:J91"/>
+  <autoFilter ref="B2:J89"/>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="I1 I3:I1048576">
     <cfRule type="cellIs" dxfId="1" priority="4" operator="greaterThan">
@@ -3424,9 +3707,9 @@
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
-            <xm:f>'01.원칙'!$C$3:$C$101</xm:f>
+            <xm:f>'01.원칙'!$C$3:$C$103</xm:f>
           </x14:formula1>
-          <xm:sqref>B3:B91</xm:sqref>
+          <xm:sqref>B3:B89</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>

--- a/WorkShop/01.docs/01.초기학습.xlsx
+++ b/WorkShop/01.docs/01.초기학습.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\ProjectHome\Stocks\WorkShop\01.docs\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\WorkShop\AppHome\stocks\WorkShop\01.docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11850" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11856" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="00.참고" sheetId="2" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="178" uniqueCount="113">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="170" uniqueCount="117">
   <si>
     <t>사이트명</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -93,10 +93,6 @@
   </si>
   <si>
     <t>전략</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>차트</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -164,25 +160,9 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>눌림목검색_V0.01</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>음양돌파급등_V0.01</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>My공식_CCI검색_V0.01</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>My공식_급등주검색_V0.01</t>
   </si>
   <si>
-    <t>My공식_급등주검색_V0.01</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>My공식_급등주검색_V0.02</t>
   </si>
   <si>
@@ -284,10 +264,6 @@
     <t>눌림목검색_V0.02</t>
   </si>
   <si>
-    <t>종가매수검색_V0.01</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>지식경영공장(Kevin)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -387,15 +363,6 @@
     <t>2020-01-30</t>
   </si>
   <si>
-    <t>종가매수검색_V0.02</t>
-  </si>
-  <si>
-    <t>종가매수검색_V0.03</t>
-  </si>
-  <si>
-    <t>종가매수검색_V0.04</t>
-  </si>
-  <si>
     <t>종가매수검색_V0.05</t>
   </si>
   <si>
@@ -414,14 +381,6 @@
     <t>눌림목검색(20일선)_V0.01</t>
   </si>
   <si>
-    <t>눌림목검색(20일선)_V0.01</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>눌림목검색(N자)_V0.01</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>045520</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -482,6 +441,83 @@
   </si>
   <si>
     <t>실적이 양호한가? (실적이 대폭개선되면 급등 기대가능)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>My공식_종가매수_돌파후유지_V0.02</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>My공식_종가매수_돌파매매_V0.03</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>034120</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SBS</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2020-02-03</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>021050</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>서원</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>My공식_종가매수_돌파매매_V0.03</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>종가배팅</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1. 당일 거래량이 높고 최근 시장 주도주나 대장주 종목
+2. 당일과 최근 거래일이내 기관이나 외인의 수급이 좋은 종목
+3. 개인주체의 테마성 종목은 제외시킨다
+4. 전날 혹은 당일 증권방송 및 증권사 추천 종목중 5거래일 기관 수급이 높은 종목
+5. 금요일에는 되도록 거래를 하지 않는다
+6. 선물을 보며[0783] 외인의 선물매도세가 끊이지 않을 경우 주의를 하며 배팅한다.
+7. 시황이 매우 안좋거나 외인의 선물매도세가 멈추지 않을 경우 아예 종가배팅을 하지 않거나 동시호가에 한다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>My공식_종가매수_5종배기법_V0.01</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1. 당일종가가 5일선 아래에서 끝남
+2. 당일캔들이 20일선 위에 위치하고 20일선이 상향
+3. 전일캔들이 5일선 위에 위치
+4. 당일 5, 10, 20 선 정배열
+5. 최근 상승중 조정
+6. 이평선의 이격이 살짝 벌어져 있음.
+7. 수익이 발생하지 않았을 경우 추가매수 고려. 최대 2일</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>My공식_종가매수_기준봉_V0.01</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1. 매수기준봉은 5~20% 양봉. 이후 매수여력이 익일 발현되기를 기대.(익일 매수여력이 충분히 매도세력을 압도하는지가 관건)
+2. 거래량 30000 이상.
+3. 강세패턴구간이 시작되는 시점.
+4. 볼린저밴드 돌파
+5. 스토캐스틱 상승 추세
+6. 저항이 적은 구간 OR 기준봉이 세력인 봉</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>My공식_종가매수_테소_V0.01</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -594,7 +630,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -649,9 +685,6 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -669,6 +702,15 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -974,16 +1016,16 @@
       <selection pane="bottomRight" activeCell="G32" sqref="G32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="12" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.2" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="7.25" style="1" customWidth="1"/>
+    <col min="1" max="1" width="7.19921875" style="1" customWidth="1"/>
     <col min="2" max="2" width="26.5" style="1" customWidth="1"/>
-    <col min="3" max="3" width="38.75" style="1" customWidth="1"/>
-    <col min="4" max="4" width="75.75" style="2" customWidth="1"/>
+    <col min="3" max="3" width="38.69921875" style="1" customWidth="1"/>
+    <col min="4" max="4" width="75.69921875" style="2" customWidth="1"/>
     <col min="5" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="2:4" x14ac:dyDescent="0.4">
       <c r="B1" s="3" t="s">
         <v>0</v>
       </c>
@@ -994,439 +1036,439 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="2" spans="2:4" x14ac:dyDescent="0.4">
       <c r="B2" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="C2" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="D2" s="20" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="3" spans="2:4" x14ac:dyDescent="0.4">
+      <c r="B3" s="21" t="s">
+        <v>59</v>
+      </c>
+      <c r="C3" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="D3" s="20"/>
+    </row>
+    <row r="4" spans="2:4" x14ac:dyDescent="0.4">
+      <c r="B4" s="21" t="s">
+        <v>61</v>
+      </c>
+      <c r="C4" s="6" t="s">
         <v>62</v>
       </c>
-      <c r="C2" s="6" t="s">
+      <c r="D4" s="20" t="s">
         <v>63</v>
       </c>
-      <c r="D2" s="21" t="s">
+    </row>
+    <row r="5" spans="2:4" x14ac:dyDescent="0.4">
+      <c r="B5" s="21" t="s">
         <v>64</v>
       </c>
-    </row>
-    <row r="3" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B3" s="22" t="s">
+      <c r="C5" s="6" t="s">
         <v>65</v>
       </c>
-      <c r="C3" s="6" t="s">
+      <c r="D5" s="20" t="s">
         <v>66</v>
       </c>
-      <c r="D3" s="21"/>
-    </row>
-    <row r="4" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B4" s="22" t="s">
+    </row>
+    <row r="6" spans="2:4" x14ac:dyDescent="0.4">
+      <c r="B6" s="21" t="s">
+        <v>38</v>
+      </c>
+      <c r="C6" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="D6" s="20" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="7" spans="2:4" x14ac:dyDescent="0.4">
+      <c r="B7" s="21" t="s">
         <v>67</v>
       </c>
-      <c r="C4" s="6" t="s">
+      <c r="C7" s="22" t="s">
         <v>68</v>
       </c>
-      <c r="D4" s="21" t="s">
+      <c r="D7" s="20" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="8" spans="2:4" x14ac:dyDescent="0.4">
+      <c r="B8" s="4" t="s">
         <v>69</v>
       </c>
-    </row>
-    <row r="5" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B5" s="22" t="s">
+      <c r="C8" s="22" t="s">
         <v>70</v>
       </c>
-      <c r="C5" s="6" t="s">
-        <v>71</v>
-      </c>
-      <c r="D5" s="21" t="s">
+      <c r="D8" s="20" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="9" spans="2:4" x14ac:dyDescent="0.4">
+      <c r="B9" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="C9" s="22" t="s">
         <v>72</v>
       </c>
-    </row>
-    <row r="6" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B6" s="22" t="s">
-        <v>43</v>
-      </c>
-      <c r="C6" s="6" t="s">
-        <v>42</v>
-      </c>
-      <c r="D6" s="21" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="7" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B7" s="22" t="s">
-        <v>73</v>
-      </c>
-      <c r="C7" s="23" t="s">
+      <c r="D9" s="20" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="10" spans="2:4" x14ac:dyDescent="0.4">
+      <c r="B10" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="C10" s="23" t="s">
         <v>74</v>
       </c>
-      <c r="D7" s="21" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="8" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B8" s="4" t="s">
-        <v>75</v>
-      </c>
-      <c r="C8" s="23" t="s">
-        <v>76</v>
-      </c>
-      <c r="D8" s="21" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="9" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B9" s="4" t="s">
-        <v>79</v>
-      </c>
-      <c r="C9" s="23" t="s">
-        <v>78</v>
-      </c>
-      <c r="D9" s="21" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="10" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B10" s="4" t="s">
-        <v>81</v>
-      </c>
-      <c r="C10" s="24" t="s">
-        <v>80</v>
-      </c>
-      <c r="D10" s="21" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="11" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="D10" s="20" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="11" spans="2:4" x14ac:dyDescent="0.4">
       <c r="B11" s="4"/>
       <c r="C11" s="4"/>
       <c r="D11" s="5"/>
     </row>
-    <row r="12" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="12" spans="2:4" x14ac:dyDescent="0.4">
       <c r="B12" s="4"/>
       <c r="C12" s="4"/>
       <c r="D12" s="5"/>
     </row>
-    <row r="13" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="13" spans="2:4" x14ac:dyDescent="0.4">
       <c r="B13" s="4"/>
       <c r="C13" s="4"/>
       <c r="D13" s="5"/>
     </row>
-    <row r="14" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="14" spans="2:4" x14ac:dyDescent="0.4">
       <c r="B14" s="4"/>
       <c r="C14" s="4"/>
       <c r="D14" s="5"/>
     </row>
-    <row r="15" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="15" spans="2:4" x14ac:dyDescent="0.4">
       <c r="B15" s="4"/>
       <c r="C15" s="4"/>
       <c r="D15" s="5"/>
     </row>
-    <row r="16" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="16" spans="2:4" x14ac:dyDescent="0.4">
       <c r="B16" s="4"/>
       <c r="C16" s="4"/>
       <c r="D16" s="5"/>
     </row>
-    <row r="17" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="17" spans="2:4" x14ac:dyDescent="0.4">
       <c r="B17" s="4"/>
       <c r="C17" s="4"/>
       <c r="D17" s="5"/>
     </row>
-    <row r="18" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="18" spans="2:4" x14ac:dyDescent="0.4">
       <c r="B18" s="4"/>
       <c r="C18" s="4"/>
       <c r="D18" s="5"/>
     </row>
-    <row r="19" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="19" spans="2:4" x14ac:dyDescent="0.4">
       <c r="B19" s="4"/>
       <c r="C19" s="4"/>
       <c r="D19" s="5"/>
     </row>
-    <row r="20" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="20" spans="2:4" x14ac:dyDescent="0.4">
       <c r="B20" s="4"/>
       <c r="C20" s="4"/>
       <c r="D20" s="5"/>
     </row>
-    <row r="21" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="21" spans="2:4" x14ac:dyDescent="0.4">
       <c r="B21" s="4"/>
       <c r="C21" s="4"/>
       <c r="D21" s="5"/>
     </row>
-    <row r="22" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="22" spans="2:4" x14ac:dyDescent="0.4">
       <c r="B22" s="4"/>
       <c r="C22" s="4"/>
       <c r="D22" s="5"/>
     </row>
-    <row r="23" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="23" spans="2:4" x14ac:dyDescent="0.4">
       <c r="B23" s="4"/>
       <c r="C23" s="4"/>
       <c r="D23" s="5"/>
     </row>
-    <row r="24" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="24" spans="2:4" x14ac:dyDescent="0.4">
       <c r="B24" s="4"/>
       <c r="C24" s="4"/>
       <c r="D24" s="5"/>
     </row>
-    <row r="25" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="25" spans="2:4" x14ac:dyDescent="0.4">
       <c r="B25" s="4"/>
       <c r="C25" s="4"/>
       <c r="D25" s="5"/>
     </row>
-    <row r="26" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="26" spans="2:4" x14ac:dyDescent="0.4">
       <c r="B26" s="4"/>
       <c r="C26" s="4"/>
       <c r="D26" s="5"/>
     </row>
-    <row r="27" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="27" spans="2:4" x14ac:dyDescent="0.4">
       <c r="B27" s="4"/>
       <c r="C27" s="4"/>
       <c r="D27" s="5"/>
     </row>
-    <row r="28" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="28" spans="2:4" x14ac:dyDescent="0.4">
       <c r="B28" s="4"/>
       <c r="C28" s="4"/>
       <c r="D28" s="5"/>
     </row>
-    <row r="29" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="29" spans="2:4" x14ac:dyDescent="0.4">
       <c r="B29" s="4"/>
       <c r="C29" s="4"/>
       <c r="D29" s="5"/>
     </row>
-    <row r="30" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="30" spans="2:4" x14ac:dyDescent="0.4">
       <c r="B30" s="4"/>
       <c r="C30" s="4"/>
       <c r="D30" s="5"/>
     </row>
-    <row r="31" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="31" spans="2:4" x14ac:dyDescent="0.4">
       <c r="B31" s="4"/>
       <c r="C31" s="4"/>
       <c r="D31" s="5"/>
     </row>
-    <row r="32" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="32" spans="2:4" x14ac:dyDescent="0.4">
       <c r="B32" s="4"/>
       <c r="C32" s="4"/>
       <c r="D32" s="5"/>
     </row>
-    <row r="33" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="33" spans="2:4" x14ac:dyDescent="0.4">
       <c r="B33" s="4"/>
       <c r="C33" s="4"/>
       <c r="D33" s="5"/>
     </row>
-    <row r="34" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="34" spans="2:4" x14ac:dyDescent="0.4">
       <c r="B34" s="4"/>
       <c r="C34" s="4"/>
       <c r="D34" s="5"/>
     </row>
-    <row r="36" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="36" spans="2:4" x14ac:dyDescent="0.4">
       <c r="B36" s="3" t="s">
-        <v>104</v>
+        <v>93</v>
       </c>
       <c r="C36" s="3" t="s">
-        <v>107</v>
+        <v>96</v>
       </c>
       <c r="D36" s="3" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="37" spans="2:4" x14ac:dyDescent="0.3">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="37" spans="2:4" x14ac:dyDescent="0.4">
       <c r="B37" s="4" t="s">
-        <v>103</v>
+        <v>92</v>
       </c>
       <c r="C37" s="4"/>
       <c r="D37" s="5"/>
     </row>
-    <row r="38" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="38" spans="2:4" x14ac:dyDescent="0.4">
       <c r="B38" s="4"/>
       <c r="C38" s="4"/>
       <c r="D38" s="4"/>
     </row>
-    <row r="39" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="39" spans="2:4" x14ac:dyDescent="0.4">
       <c r="B39" s="4"/>
       <c r="C39" s="4"/>
       <c r="D39" s="4"/>
     </row>
-    <row r="40" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="40" spans="2:4" x14ac:dyDescent="0.4">
       <c r="B40" s="4"/>
       <c r="C40" s="4" t="s">
-        <v>108</v>
+        <v>97</v>
       </c>
       <c r="D40" s="5" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="41" spans="2:4" x14ac:dyDescent="0.3">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="41" spans="2:4" x14ac:dyDescent="0.4">
       <c r="B41" s="4"/>
       <c r="C41" s="4"/>
       <c r="D41" s="4"/>
     </row>
-    <row r="42" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="42" spans="2:4" x14ac:dyDescent="0.4">
       <c r="B42" s="4"/>
       <c r="C42" s="4"/>
       <c r="D42" s="5"/>
     </row>
-    <row r="43" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="43" spans="2:4" x14ac:dyDescent="0.4">
       <c r="B43" s="4"/>
       <c r="C43" s="4" t="s">
-        <v>110</v>
+        <v>99</v>
       </c>
       <c r="D43" s="5" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="44" spans="2:4" x14ac:dyDescent="0.3">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="44" spans="2:4" x14ac:dyDescent="0.4">
       <c r="B44" s="4"/>
       <c r="C44" s="4"/>
       <c r="D44" s="5"/>
     </row>
-    <row r="45" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="45" spans="2:4" x14ac:dyDescent="0.4">
       <c r="B45" s="4"/>
       <c r="C45" s="4"/>
       <c r="D45" s="5"/>
     </row>
-    <row r="46" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="46" spans="2:4" x14ac:dyDescent="0.4">
       <c r="B46" s="4"/>
       <c r="C46" s="4" t="s">
-        <v>111</v>
+        <v>100</v>
       </c>
       <c r="D46" s="5" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="47" spans="2:4" x14ac:dyDescent="0.3">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="47" spans="2:4" x14ac:dyDescent="0.4">
       <c r="B47" s="4"/>
       <c r="C47" s="4"/>
       <c r="D47" s="5"/>
     </row>
-    <row r="48" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="48" spans="2:4" x14ac:dyDescent="0.4">
       <c r="B48" s="4"/>
       <c r="C48" s="4"/>
       <c r="D48" s="5"/>
     </row>
-    <row r="49" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="49" spans="2:4" x14ac:dyDescent="0.4">
       <c r="B49" s="4"/>
       <c r="C49" s="4"/>
       <c r="D49" s="5"/>
     </row>
-    <row r="50" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="50" spans="2:4" x14ac:dyDescent="0.4">
       <c r="B50" s="4"/>
       <c r="C50" s="4"/>
       <c r="D50" s="5"/>
     </row>
-    <row r="51" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="51" spans="2:4" x14ac:dyDescent="0.4">
       <c r="B51" s="4"/>
       <c r="C51" s="4"/>
       <c r="D51" s="5"/>
     </row>
-    <row r="52" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="52" spans="2:4" x14ac:dyDescent="0.4">
       <c r="B52" s="4"/>
       <c r="C52" s="4"/>
       <c r="D52" s="5"/>
     </row>
-    <row r="53" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="53" spans="2:4" x14ac:dyDescent="0.4">
       <c r="B53" s="4"/>
       <c r="C53" s="4"/>
       <c r="D53" s="5"/>
     </row>
-    <row r="54" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="54" spans="2:4" x14ac:dyDescent="0.4">
       <c r="B54" s="4"/>
       <c r="C54" s="4"/>
       <c r="D54" s="5"/>
     </row>
-    <row r="55" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="55" spans="2:4" x14ac:dyDescent="0.4">
       <c r="B55" s="4"/>
       <c r="C55" s="4"/>
       <c r="D55" s="5"/>
     </row>
-    <row r="56" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="56" spans="2:4" x14ac:dyDescent="0.4">
       <c r="B56" s="4"/>
       <c r="C56" s="4"/>
       <c r="D56" s="5"/>
     </row>
-    <row r="57" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="57" spans="2:4" x14ac:dyDescent="0.4">
       <c r="B57" s="4"/>
       <c r="C57" s="4"/>
       <c r="D57" s="5"/>
     </row>
-    <row r="58" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="58" spans="2:4" x14ac:dyDescent="0.4">
       <c r="B58" s="4"/>
       <c r="C58" s="4"/>
       <c r="D58" s="5"/>
     </row>
-    <row r="59" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="59" spans="2:4" x14ac:dyDescent="0.4">
       <c r="B59" s="4"/>
       <c r="C59" s="4"/>
       <c r="D59" s="5"/>
     </row>
-    <row r="60" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="60" spans="2:4" x14ac:dyDescent="0.4">
       <c r="B60" s="4"/>
       <c r="C60" s="4"/>
       <c r="D60" s="5"/>
     </row>
-    <row r="61" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="61" spans="2:4" x14ac:dyDescent="0.4">
       <c r="B61" s="4"/>
       <c r="C61" s="4"/>
       <c r="D61" s="5"/>
     </row>
-    <row r="62" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="62" spans="2:4" x14ac:dyDescent="0.4">
       <c r="B62" s="4"/>
       <c r="C62" s="4"/>
       <c r="D62" s="5"/>
     </row>
-    <row r="63" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="63" spans="2:4" x14ac:dyDescent="0.4">
       <c r="B63" s="4"/>
       <c r="C63" s="4"/>
       <c r="D63" s="5"/>
     </row>
-    <row r="64" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="64" spans="2:4" x14ac:dyDescent="0.4">
       <c r="B64" s="4"/>
       <c r="C64" s="4"/>
       <c r="D64" s="5"/>
     </row>
-    <row r="65" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="65" spans="2:4" x14ac:dyDescent="0.4">
       <c r="B65" s="4"/>
       <c r="C65" s="4"/>
       <c r="D65" s="5"/>
     </row>
-    <row r="66" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="66" spans="2:4" x14ac:dyDescent="0.4">
       <c r="B66" s="4"/>
       <c r="C66" s="4"/>
       <c r="D66" s="5"/>
     </row>
-    <row r="67" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="67" spans="2:4" x14ac:dyDescent="0.4">
       <c r="B67" s="4"/>
       <c r="C67" s="4"/>
       <c r="D67" s="5"/>
     </row>
-    <row r="68" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="68" spans="2:4" x14ac:dyDescent="0.4">
       <c r="B68" s="4"/>
       <c r="C68" s="4"/>
       <c r="D68" s="5"/>
     </row>
-    <row r="69" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="69" spans="2:4" x14ac:dyDescent="0.4">
       <c r="B69" s="4"/>
       <c r="C69" s="4"/>
       <c r="D69" s="5"/>
     </row>
-    <row r="70" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="70" spans="2:4" x14ac:dyDescent="0.4">
       <c r="B70" s="4"/>
       <c r="C70" s="4"/>
       <c r="D70" s="5"/>
     </row>
-    <row r="71" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="71" spans="2:4" x14ac:dyDescent="0.4">
       <c r="B71" s="4"/>
       <c r="C71" s="4"/>
       <c r="D71" s="5"/>
     </row>
-    <row r="72" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="72" spans="2:4" x14ac:dyDescent="0.4">
       <c r="B72" s="4"/>
       <c r="C72" s="4"/>
       <c r="D72" s="5"/>
     </row>
-    <row r="73" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="73" spans="2:4" x14ac:dyDescent="0.4">
       <c r="B73" s="4"/>
       <c r="C73" s="4"/>
       <c r="D73" s="5"/>
     </row>
-    <row r="74" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="74" spans="2:4" x14ac:dyDescent="0.4">
       <c r="B74" s="4"/>
       <c r="C74" s="4"/>
       <c r="D74" s="5"/>
     </row>
-    <row r="75" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="75" spans="2:4" x14ac:dyDescent="0.4">
       <c r="B75" s="4"/>
       <c r="C75" s="4"/>
       <c r="D75" s="5"/>
@@ -1441,24 +1483,24 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:E103"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="2" topLeftCell="B3" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <pane xSplit="1" ySplit="2" topLeftCell="B4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="D42" sqref="D42"/>
+      <selection pane="bottomRight" activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="12" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.2" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="6.5" style="19" customWidth="1"/>
-    <col min="2" max="2" width="12.25" style="20" customWidth="1"/>
-    <col min="3" max="3" width="22.75" style="20" customWidth="1"/>
-    <col min="4" max="4" width="91.625" style="19" customWidth="1"/>
-    <col min="5" max="5" width="39.25" style="19" customWidth="1"/>
-    <col min="6" max="16384" width="9" style="19"/>
+    <col min="1" max="1" width="6.5" style="18" customWidth="1"/>
+    <col min="2" max="2" width="8.3984375" style="19" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="26" style="19" customWidth="1"/>
+    <col min="4" max="4" width="91.59765625" style="25" customWidth="1"/>
+    <col min="5" max="5" width="39.19921875" style="25" customWidth="1"/>
+    <col min="6" max="16384" width="9" style="18"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:5" s="16" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="2:5" s="16" customFormat="1" x14ac:dyDescent="0.4">
       <c r="B2" s="15" t="s">
         <v>10</v>
       </c>
@@ -1472,663 +1514,631 @@
         <v>13</v>
       </c>
     </row>
-    <row r="3" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="3" spans="2:5" ht="92.4" x14ac:dyDescent="0.4">
       <c r="B3" s="17" t="s">
-        <v>16</v>
+        <v>110</v>
       </c>
       <c r="C3" s="17" t="s">
-        <v>31</v>
-      </c>
-      <c r="D3" s="18"/>
-      <c r="E3" s="18"/>
-    </row>
-    <row r="4" spans="2:5" x14ac:dyDescent="0.3">
+        <v>109</v>
+      </c>
+      <c r="D3" s="26" t="s">
+        <v>111</v>
+      </c>
+      <c r="E3" s="24"/>
+    </row>
+    <row r="4" spans="2:5" ht="92.4" x14ac:dyDescent="0.4">
       <c r="B4" s="17" t="s">
-        <v>16</v>
+        <v>110</v>
       </c>
       <c r="C4" s="17" t="s">
-        <v>30</v>
-      </c>
-      <c r="D4" s="18"/>
-      <c r="E4" s="18"/>
-    </row>
-    <row r="5" spans="2:5" x14ac:dyDescent="0.3">
+        <v>112</v>
+      </c>
+      <c r="D4" s="26" t="s">
+        <v>113</v>
+      </c>
+      <c r="E4" s="24"/>
+    </row>
+    <row r="5" spans="2:5" ht="79.2" x14ac:dyDescent="0.4">
       <c r="B5" s="17" t="s">
-        <v>16</v>
+        <v>110</v>
       </c>
       <c r="C5" s="17" t="s">
-        <v>60</v>
-      </c>
-      <c r="D5" s="18"/>
-      <c r="E5" s="18"/>
-    </row>
-    <row r="6" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B6" s="17" t="s">
-        <v>16</v>
-      </c>
+        <v>114</v>
+      </c>
+      <c r="D5" s="26" t="s">
+        <v>115</v>
+      </c>
+      <c r="E5" s="24"/>
+    </row>
+    <row r="6" spans="2:5" x14ac:dyDescent="0.4">
+      <c r="B6" s="17"/>
       <c r="C6" s="17" t="s">
-        <v>95</v>
-      </c>
-      <c r="D6" s="18"/>
-      <c r="E6" s="18"/>
-    </row>
-    <row r="7" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B7" s="17" t="s">
-        <v>16</v>
-      </c>
-      <c r="C7" s="17" t="s">
-        <v>96</v>
-      </c>
-      <c r="D7" s="18"/>
-      <c r="E7" s="18"/>
-    </row>
-    <row r="8" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B8" s="17" t="s">
-        <v>16</v>
-      </c>
-      <c r="C8" s="17" t="s">
-        <v>32</v>
-      </c>
-      <c r="D8" s="18"/>
-      <c r="E8" s="18"/>
-    </row>
-    <row r="9" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B9" s="17" t="s">
-        <v>16</v>
-      </c>
-      <c r="C9" s="17" t="s">
-        <v>34</v>
-      </c>
-      <c r="D9" s="18"/>
-      <c r="E9" s="18"/>
-    </row>
-    <row r="10" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B10" s="17" t="s">
-        <v>16</v>
-      </c>
-      <c r="C10" s="17" t="s">
-        <v>35</v>
-      </c>
-      <c r="D10" s="18"/>
-      <c r="E10" s="18"/>
-    </row>
-    <row r="11" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B11" s="17" t="s">
-        <v>16</v>
-      </c>
-      <c r="C11" s="17" t="s">
-        <v>61</v>
-      </c>
-      <c r="D11" s="18"/>
-      <c r="E11" s="18"/>
-    </row>
-    <row r="12" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B12" s="17" t="s">
-        <v>16</v>
-      </c>
-      <c r="C12" s="17" t="s">
-        <v>87</v>
-      </c>
-      <c r="D12" s="18"/>
-      <c r="E12" s="18"/>
-    </row>
-    <row r="13" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B13" s="17" t="s">
-        <v>16</v>
-      </c>
-      <c r="C13" s="17" t="s">
-        <v>88</v>
-      </c>
-      <c r="D13" s="18"/>
-      <c r="E13" s="18"/>
-    </row>
-    <row r="14" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B14" s="17" t="s">
-        <v>16</v>
-      </c>
-      <c r="C14" s="17" t="s">
-        <v>89</v>
-      </c>
-      <c r="D14" s="18"/>
-      <c r="E14" s="18"/>
-    </row>
-    <row r="15" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B15" s="17" t="s">
-        <v>16</v>
-      </c>
-      <c r="C15" s="17" t="s">
-        <v>90</v>
-      </c>
-      <c r="D15" s="18"/>
-      <c r="E15" s="18"/>
-    </row>
-    <row r="16" spans="2:5" x14ac:dyDescent="0.3">
+        <v>116</v>
+      </c>
+      <c r="D6" s="24"/>
+      <c r="E6" s="24"/>
+    </row>
+    <row r="7" spans="2:5" x14ac:dyDescent="0.4">
+      <c r="B7" s="17"/>
+      <c r="C7" s="17"/>
+      <c r="D7" s="24"/>
+      <c r="E7" s="24"/>
+    </row>
+    <row r="8" spans="2:5" x14ac:dyDescent="0.4">
+      <c r="B8" s="17"/>
+      <c r="C8" s="17"/>
+      <c r="D8" s="24"/>
+      <c r="E8" s="24"/>
+    </row>
+    <row r="9" spans="2:5" x14ac:dyDescent="0.4">
+      <c r="B9" s="17"/>
+      <c r="C9" s="17"/>
+      <c r="D9" s="24"/>
+      <c r="E9" s="24"/>
+    </row>
+    <row r="10" spans="2:5" x14ac:dyDescent="0.4">
+      <c r="B10" s="17"/>
+      <c r="C10" s="17"/>
+      <c r="D10" s="24"/>
+      <c r="E10" s="24"/>
+    </row>
+    <row r="11" spans="2:5" x14ac:dyDescent="0.4">
+      <c r="B11" s="17"/>
+      <c r="C11" s="17"/>
+      <c r="D11" s="24"/>
+      <c r="E11" s="24"/>
+    </row>
+    <row r="12" spans="2:5" x14ac:dyDescent="0.4">
+      <c r="B12" s="17"/>
+      <c r="C12" s="17"/>
+      <c r="D12" s="24"/>
+      <c r="E12" s="24"/>
+    </row>
+    <row r="13" spans="2:5" x14ac:dyDescent="0.4">
+      <c r="B13" s="17"/>
+      <c r="C13" s="17"/>
+      <c r="D13" s="24"/>
+      <c r="E13" s="24"/>
+    </row>
+    <row r="14" spans="2:5" x14ac:dyDescent="0.4">
+      <c r="B14" s="17"/>
+      <c r="C14" s="17"/>
+      <c r="D14" s="24"/>
+      <c r="E14" s="24"/>
+    </row>
+    <row r="15" spans="2:5" x14ac:dyDescent="0.4">
+      <c r="B15" s="17"/>
+      <c r="C15" s="17"/>
+      <c r="D15" s="24"/>
+      <c r="E15" s="24"/>
+    </row>
+    <row r="16" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B16" s="17"/>
       <c r="C16" s="17"/>
-      <c r="D16" s="18"/>
-      <c r="E16" s="18"/>
-    </row>
-    <row r="17" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="D16" s="24"/>
+      <c r="E16" s="24"/>
+    </row>
+    <row r="17" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B17" s="17"/>
       <c r="C17" s="17"/>
-      <c r="D17" s="18"/>
-      <c r="E17" s="18"/>
-    </row>
-    <row r="18" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="D17" s="24"/>
+      <c r="E17" s="24"/>
+    </row>
+    <row r="18" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B18" s="17"/>
       <c r="C18" s="17"/>
-      <c r="D18" s="18"/>
-      <c r="E18" s="18"/>
-    </row>
-    <row r="19" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="D18" s="24"/>
+      <c r="E18" s="24"/>
+    </row>
+    <row r="19" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B19" s="17"/>
       <c r="C19" s="17"/>
-      <c r="D19" s="18"/>
-      <c r="E19" s="18"/>
-    </row>
-    <row r="20" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="D19" s="24"/>
+      <c r="E19" s="24"/>
+    </row>
+    <row r="20" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B20" s="17"/>
       <c r="C20" s="17"/>
-      <c r="D20" s="18"/>
-      <c r="E20" s="18"/>
-    </row>
-    <row r="21" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="D20" s="24"/>
+      <c r="E20" s="24"/>
+    </row>
+    <row r="21" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B21" s="17"/>
       <c r="C21" s="17"/>
-      <c r="D21" s="18"/>
-      <c r="E21" s="18"/>
-    </row>
-    <row r="22" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="D21" s="24"/>
+      <c r="E21" s="24"/>
+    </row>
+    <row r="22" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B22" s="17"/>
       <c r="C22" s="17"/>
-      <c r="D22" s="18"/>
-      <c r="E22" s="18"/>
-    </row>
-    <row r="23" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="D22" s="24"/>
+      <c r="E22" s="24"/>
+    </row>
+    <row r="23" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B23" s="17"/>
       <c r="C23" s="17"/>
-      <c r="D23" s="18"/>
-      <c r="E23" s="18"/>
-    </row>
-    <row r="24" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="D23" s="24"/>
+      <c r="E23" s="24"/>
+    </row>
+    <row r="24" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B24" s="17"/>
       <c r="C24" s="17"/>
-      <c r="D24" s="18"/>
-      <c r="E24" s="18"/>
-    </row>
-    <row r="25" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="D24" s="24"/>
+      <c r="E24" s="24"/>
+    </row>
+    <row r="25" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B25" s="17"/>
       <c r="C25" s="17"/>
-      <c r="D25" s="18"/>
-      <c r="E25" s="18"/>
-    </row>
-    <row r="26" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="D25" s="24"/>
+      <c r="E25" s="24"/>
+    </row>
+    <row r="26" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B26" s="17"/>
       <c r="C26" s="17"/>
-      <c r="D26" s="18"/>
-      <c r="E26" s="18"/>
-    </row>
-    <row r="27" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="D26" s="24"/>
+      <c r="E26" s="24"/>
+    </row>
+    <row r="27" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B27" s="17"/>
       <c r="C27" s="17"/>
-      <c r="D27" s="18"/>
-      <c r="E27" s="18"/>
-    </row>
-    <row r="28" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="D27" s="24"/>
+      <c r="E27" s="24"/>
+    </row>
+    <row r="28" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B28" s="17"/>
       <c r="C28" s="17"/>
-      <c r="D28" s="18"/>
-      <c r="E28" s="18"/>
-    </row>
-    <row r="29" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="D28" s="24"/>
+      <c r="E28" s="24"/>
+    </row>
+    <row r="29" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B29" s="17"/>
       <c r="C29" s="17"/>
-      <c r="D29" s="18"/>
-      <c r="E29" s="18"/>
-    </row>
-    <row r="30" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="D29" s="24"/>
+      <c r="E29" s="24"/>
+    </row>
+    <row r="30" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B30" s="17"/>
       <c r="C30" s="17"/>
-      <c r="D30" s="18"/>
-      <c r="E30" s="18"/>
-    </row>
-    <row r="31" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="D30" s="24"/>
+      <c r="E30" s="24"/>
+    </row>
+    <row r="31" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B31" s="17"/>
       <c r="C31" s="17"/>
-      <c r="D31" s="18"/>
-      <c r="E31" s="18"/>
-    </row>
-    <row r="32" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="D31" s="24"/>
+      <c r="E31" s="24"/>
+    </row>
+    <row r="32" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B32" s="17"/>
       <c r="C32" s="17"/>
-      <c r="D32" s="18"/>
-      <c r="E32" s="18"/>
-    </row>
-    <row r="33" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="D32" s="24"/>
+      <c r="E32" s="24"/>
+    </row>
+    <row r="33" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B33" s="17"/>
       <c r="C33" s="17"/>
-      <c r="D33" s="18"/>
-      <c r="E33" s="18"/>
-    </row>
-    <row r="34" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="D33" s="24"/>
+      <c r="E33" s="24"/>
+    </row>
+    <row r="34" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B34" s="17"/>
       <c r="C34" s="17"/>
-      <c r="D34" s="18"/>
-      <c r="E34" s="18"/>
-    </row>
-    <row r="35" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="D34" s="24"/>
+      <c r="E34" s="24"/>
+    </row>
+    <row r="35" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B35" s="17"/>
       <c r="C35" s="17"/>
-      <c r="D35" s="18"/>
-      <c r="E35" s="18"/>
-    </row>
-    <row r="36" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="D35" s="24"/>
+      <c r="E35" s="24"/>
+    </row>
+    <row r="36" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B36" s="17"/>
       <c r="C36" s="17"/>
-      <c r="D36" s="18"/>
-      <c r="E36" s="18"/>
-    </row>
-    <row r="37" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="D36" s="24"/>
+      <c r="E36" s="24"/>
+    </row>
+    <row r="37" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B37" s="17"/>
       <c r="C37" s="17"/>
-      <c r="D37" s="18"/>
-      <c r="E37" s="18"/>
-    </row>
-    <row r="38" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="D37" s="24"/>
+      <c r="E37" s="24"/>
+    </row>
+    <row r="38" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B38" s="17"/>
       <c r="C38" s="17"/>
-      <c r="D38" s="18"/>
-      <c r="E38" s="18"/>
-    </row>
-    <row r="39" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="D38" s="24"/>
+      <c r="E38" s="24"/>
+    </row>
+    <row r="39" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B39" s="17"/>
       <c r="C39" s="17"/>
-      <c r="D39" s="18"/>
-      <c r="E39" s="18"/>
-    </row>
-    <row r="40" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="D39" s="24"/>
+      <c r="E39" s="24"/>
+    </row>
+    <row r="40" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B40" s="17"/>
       <c r="C40" s="17"/>
-      <c r="D40" s="18"/>
-      <c r="E40" s="18"/>
-    </row>
-    <row r="41" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="D40" s="24"/>
+      <c r="E40" s="24"/>
+    </row>
+    <row r="41" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B41" s="17"/>
       <c r="C41" s="17"/>
-      <c r="D41" s="18"/>
-      <c r="E41" s="18"/>
-    </row>
-    <row r="42" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="D41" s="24"/>
+      <c r="E41" s="24"/>
+    </row>
+    <row r="42" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B42" s="17"/>
       <c r="C42" s="17"/>
-      <c r="D42" s="18"/>
-      <c r="E42" s="18"/>
-    </row>
-    <row r="43" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="D42" s="24"/>
+      <c r="E42" s="24"/>
+    </row>
+    <row r="43" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B43" s="17"/>
       <c r="C43" s="17"/>
-      <c r="D43" s="18"/>
-      <c r="E43" s="18"/>
-    </row>
-    <row r="44" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="D43" s="24"/>
+      <c r="E43" s="24"/>
+    </row>
+    <row r="44" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B44" s="17"/>
       <c r="C44" s="17"/>
-      <c r="D44" s="18"/>
-      <c r="E44" s="18"/>
-    </row>
-    <row r="45" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="D44" s="24"/>
+      <c r="E44" s="24"/>
+    </row>
+    <row r="45" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B45" s="17"/>
       <c r="C45" s="17"/>
-      <c r="D45" s="18"/>
-      <c r="E45" s="18"/>
-    </row>
-    <row r="46" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="D45" s="24"/>
+      <c r="E45" s="24"/>
+    </row>
+    <row r="46" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B46" s="17"/>
       <c r="C46" s="17"/>
-      <c r="D46" s="18"/>
-      <c r="E46" s="18"/>
-    </row>
-    <row r="47" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="D46" s="24"/>
+      <c r="E46" s="24"/>
+    </row>
+    <row r="47" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B47" s="17"/>
       <c r="C47" s="17"/>
-      <c r="D47" s="18"/>
-      <c r="E47" s="18"/>
-    </row>
-    <row r="48" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="D47" s="24"/>
+      <c r="E47" s="24"/>
+    </row>
+    <row r="48" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B48" s="17"/>
       <c r="C48" s="17"/>
-      <c r="D48" s="18"/>
-      <c r="E48" s="18"/>
-    </row>
-    <row r="49" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="D48" s="24"/>
+      <c r="E48" s="24"/>
+    </row>
+    <row r="49" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B49" s="17"/>
       <c r="C49" s="17"/>
-      <c r="D49" s="18"/>
-      <c r="E49" s="18"/>
-    </row>
-    <row r="50" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="D49" s="24"/>
+      <c r="E49" s="24"/>
+    </row>
+    <row r="50" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B50" s="17"/>
       <c r="C50" s="17"/>
-      <c r="D50" s="18"/>
-      <c r="E50" s="18"/>
-    </row>
-    <row r="51" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="D50" s="24"/>
+      <c r="E50" s="24"/>
+    </row>
+    <row r="51" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B51" s="17"/>
       <c r="C51" s="17"/>
-      <c r="D51" s="18"/>
-      <c r="E51" s="18"/>
-    </row>
-    <row r="52" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="D51" s="24"/>
+      <c r="E51" s="24"/>
+    </row>
+    <row r="52" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B52" s="17"/>
       <c r="C52" s="17"/>
-      <c r="D52" s="18"/>
-      <c r="E52" s="18"/>
-    </row>
-    <row r="53" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="D52" s="24"/>
+      <c r="E52" s="24"/>
+    </row>
+    <row r="53" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B53" s="17"/>
       <c r="C53" s="17"/>
-      <c r="D53" s="18"/>
-      <c r="E53" s="18"/>
-    </row>
-    <row r="54" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="D53" s="24"/>
+      <c r="E53" s="24"/>
+    </row>
+    <row r="54" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B54" s="17"/>
       <c r="C54" s="17"/>
-      <c r="D54" s="18"/>
-      <c r="E54" s="18"/>
-    </row>
-    <row r="55" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="D54" s="24"/>
+      <c r="E54" s="24"/>
+    </row>
+    <row r="55" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B55" s="17"/>
       <c r="C55" s="17"/>
-      <c r="D55" s="18"/>
-      <c r="E55" s="18"/>
-    </row>
-    <row r="56" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="D55" s="24"/>
+      <c r="E55" s="24"/>
+    </row>
+    <row r="56" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B56" s="17"/>
       <c r="C56" s="17"/>
-      <c r="D56" s="18"/>
-      <c r="E56" s="18"/>
-    </row>
-    <row r="57" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="D56" s="24"/>
+      <c r="E56" s="24"/>
+    </row>
+    <row r="57" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B57" s="17"/>
       <c r="C57" s="17"/>
-      <c r="D57" s="18"/>
-      <c r="E57" s="18"/>
-    </row>
-    <row r="58" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="D57" s="24"/>
+      <c r="E57" s="24"/>
+    </row>
+    <row r="58" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B58" s="17"/>
       <c r="C58" s="17"/>
-      <c r="D58" s="18"/>
-      <c r="E58" s="18"/>
-    </row>
-    <row r="59" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="D58" s="24"/>
+      <c r="E58" s="24"/>
+    </row>
+    <row r="59" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B59" s="17"/>
       <c r="C59" s="17"/>
-      <c r="D59" s="18"/>
-      <c r="E59" s="18"/>
-    </row>
-    <row r="60" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="D59" s="24"/>
+      <c r="E59" s="24"/>
+    </row>
+    <row r="60" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B60" s="17"/>
       <c r="C60" s="17"/>
-      <c r="D60" s="18"/>
-      <c r="E60" s="18"/>
-    </row>
-    <row r="61" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="D60" s="24"/>
+      <c r="E60" s="24"/>
+    </row>
+    <row r="61" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B61" s="17"/>
       <c r="C61" s="17"/>
-      <c r="D61" s="18"/>
-      <c r="E61" s="18"/>
-    </row>
-    <row r="62" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="D61" s="24"/>
+      <c r="E61" s="24"/>
+    </row>
+    <row r="62" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B62" s="17"/>
       <c r="C62" s="17"/>
-      <c r="D62" s="18"/>
-      <c r="E62" s="18"/>
-    </row>
-    <row r="63" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="D62" s="24"/>
+      <c r="E62" s="24"/>
+    </row>
+    <row r="63" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B63" s="17"/>
       <c r="C63" s="17"/>
-      <c r="D63" s="18"/>
-      <c r="E63" s="18"/>
-    </row>
-    <row r="64" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="D63" s="24"/>
+      <c r="E63" s="24"/>
+    </row>
+    <row r="64" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B64" s="17"/>
       <c r="C64" s="17"/>
-      <c r="D64" s="18"/>
-      <c r="E64" s="18"/>
-    </row>
-    <row r="65" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="D64" s="24"/>
+      <c r="E64" s="24"/>
+    </row>
+    <row r="65" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B65" s="17"/>
       <c r="C65" s="17"/>
-      <c r="D65" s="18"/>
-      <c r="E65" s="18"/>
-    </row>
-    <row r="66" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="D65" s="24"/>
+      <c r="E65" s="24"/>
+    </row>
+    <row r="66" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B66" s="17"/>
       <c r="C66" s="17"/>
-      <c r="D66" s="18"/>
-      <c r="E66" s="18"/>
-    </row>
-    <row r="67" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="D66" s="24"/>
+      <c r="E66" s="24"/>
+    </row>
+    <row r="67" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B67" s="17"/>
       <c r="C67" s="17"/>
-      <c r="D67" s="18"/>
-      <c r="E67" s="18"/>
-    </row>
-    <row r="68" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="D67" s="24"/>
+      <c r="E67" s="24"/>
+    </row>
+    <row r="68" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B68" s="17"/>
       <c r="C68" s="17"/>
-      <c r="D68" s="18"/>
-      <c r="E68" s="18"/>
-    </row>
-    <row r="69" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="D68" s="24"/>
+      <c r="E68" s="24"/>
+    </row>
+    <row r="69" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B69" s="17"/>
       <c r="C69" s="17"/>
-      <c r="D69" s="18"/>
-      <c r="E69" s="18"/>
-    </row>
-    <row r="70" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="D69" s="24"/>
+      <c r="E69" s="24"/>
+    </row>
+    <row r="70" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B70" s="17"/>
       <c r="C70" s="17"/>
-      <c r="D70" s="18"/>
-      <c r="E70" s="18"/>
-    </row>
-    <row r="71" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="D70" s="24"/>
+      <c r="E70" s="24"/>
+    </row>
+    <row r="71" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B71" s="17"/>
       <c r="C71" s="17"/>
-      <c r="D71" s="18"/>
-      <c r="E71" s="18"/>
-    </row>
-    <row r="72" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="D71" s="24"/>
+      <c r="E71" s="24"/>
+    </row>
+    <row r="72" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B72" s="17"/>
       <c r="C72" s="17"/>
-      <c r="D72" s="18"/>
-      <c r="E72" s="18"/>
-    </row>
-    <row r="73" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="D72" s="24"/>
+      <c r="E72" s="24"/>
+    </row>
+    <row r="73" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B73" s="17"/>
       <c r="C73" s="17"/>
-      <c r="D73" s="18"/>
-      <c r="E73" s="18"/>
-    </row>
-    <row r="74" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="D73" s="24"/>
+      <c r="E73" s="24"/>
+    </row>
+    <row r="74" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B74" s="17"/>
       <c r="C74" s="17"/>
-      <c r="D74" s="18"/>
-      <c r="E74" s="18"/>
-    </row>
-    <row r="75" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="D74" s="24"/>
+      <c r="E74" s="24"/>
+    </row>
+    <row r="75" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B75" s="17"/>
       <c r="C75" s="17"/>
-      <c r="D75" s="18"/>
-      <c r="E75" s="18"/>
-    </row>
-    <row r="76" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="D75" s="24"/>
+      <c r="E75" s="24"/>
+    </row>
+    <row r="76" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B76" s="17"/>
       <c r="C76" s="17"/>
-      <c r="D76" s="18"/>
-      <c r="E76" s="18"/>
-    </row>
-    <row r="77" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="D76" s="24"/>
+      <c r="E76" s="24"/>
+    </row>
+    <row r="77" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B77" s="17"/>
       <c r="C77" s="17"/>
-      <c r="D77" s="18"/>
-      <c r="E77" s="18"/>
-    </row>
-    <row r="78" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="D77" s="24"/>
+      <c r="E77" s="24"/>
+    </row>
+    <row r="78" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B78" s="17"/>
       <c r="C78" s="17"/>
-      <c r="D78" s="18"/>
-      <c r="E78" s="18"/>
-    </row>
-    <row r="79" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="D78" s="24"/>
+      <c r="E78" s="24"/>
+    </row>
+    <row r="79" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B79" s="17"/>
       <c r="C79" s="17"/>
-      <c r="D79" s="18"/>
-      <c r="E79" s="18"/>
-    </row>
-    <row r="80" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="D79" s="24"/>
+      <c r="E79" s="24"/>
+    </row>
+    <row r="80" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B80" s="17"/>
       <c r="C80" s="17"/>
-      <c r="D80" s="18"/>
-      <c r="E80" s="18"/>
-    </row>
-    <row r="81" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="D80" s="24"/>
+      <c r="E80" s="24"/>
+    </row>
+    <row r="81" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B81" s="17"/>
       <c r="C81" s="17"/>
-      <c r="D81" s="18"/>
-      <c r="E81" s="18"/>
-    </row>
-    <row r="82" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="D81" s="24"/>
+      <c r="E81" s="24"/>
+    </row>
+    <row r="82" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B82" s="17"/>
       <c r="C82" s="17"/>
-      <c r="D82" s="18"/>
-      <c r="E82" s="18"/>
-    </row>
-    <row r="83" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="D82" s="24"/>
+      <c r="E82" s="24"/>
+    </row>
+    <row r="83" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B83" s="17"/>
       <c r="C83" s="17"/>
-      <c r="D83" s="18"/>
-      <c r="E83" s="18"/>
-    </row>
-    <row r="84" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="D83" s="24"/>
+      <c r="E83" s="24"/>
+    </row>
+    <row r="84" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B84" s="17"/>
       <c r="C84" s="17"/>
-      <c r="D84" s="18"/>
-      <c r="E84" s="18"/>
-    </row>
-    <row r="85" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="D84" s="24"/>
+      <c r="E84" s="24"/>
+    </row>
+    <row r="85" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B85" s="17"/>
       <c r="C85" s="17"/>
-      <c r="D85" s="18"/>
-      <c r="E85" s="18"/>
-    </row>
-    <row r="86" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="D85" s="24"/>
+      <c r="E85" s="24"/>
+    </row>
+    <row r="86" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B86" s="17"/>
       <c r="C86" s="17"/>
-      <c r="D86" s="18"/>
-      <c r="E86" s="18"/>
-    </row>
-    <row r="87" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="D86" s="24"/>
+      <c r="E86" s="24"/>
+    </row>
+    <row r="87" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B87" s="17"/>
       <c r="C87" s="17"/>
-      <c r="D87" s="18"/>
-      <c r="E87" s="18"/>
-    </row>
-    <row r="88" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="D87" s="24"/>
+      <c r="E87" s="24"/>
+    </row>
+    <row r="88" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B88" s="17"/>
       <c r="C88" s="17"/>
-      <c r="D88" s="18"/>
-      <c r="E88" s="18"/>
-    </row>
-    <row r="89" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="D88" s="24"/>
+      <c r="E88" s="24"/>
+    </row>
+    <row r="89" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B89" s="17"/>
       <c r="C89" s="17"/>
-      <c r="D89" s="18"/>
-      <c r="E89" s="18"/>
-    </row>
-    <row r="90" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="D89" s="24"/>
+      <c r="E89" s="24"/>
+    </row>
+    <row r="90" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B90" s="17"/>
       <c r="C90" s="17"/>
-      <c r="D90" s="18"/>
-      <c r="E90" s="18"/>
-    </row>
-    <row r="91" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="D90" s="24"/>
+      <c r="E90" s="24"/>
+    </row>
+    <row r="91" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B91" s="17"/>
       <c r="C91" s="17"/>
-      <c r="D91" s="18"/>
-      <c r="E91" s="18"/>
-    </row>
-    <row r="92" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="D91" s="24"/>
+      <c r="E91" s="24"/>
+    </row>
+    <row r="92" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B92" s="17"/>
       <c r="C92" s="17"/>
-      <c r="D92" s="18"/>
-      <c r="E92" s="18"/>
-    </row>
-    <row r="93" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="D92" s="24"/>
+      <c r="E92" s="24"/>
+    </row>
+    <row r="93" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B93" s="17"/>
       <c r="C93" s="17"/>
-      <c r="D93" s="18"/>
-      <c r="E93" s="18"/>
-    </row>
-    <row r="94" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="D93" s="24"/>
+      <c r="E93" s="24"/>
+    </row>
+    <row r="94" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B94" s="17"/>
       <c r="C94" s="17"/>
-      <c r="D94" s="18"/>
-      <c r="E94" s="18"/>
-    </row>
-    <row r="95" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="D94" s="24"/>
+      <c r="E94" s="24"/>
+    </row>
+    <row r="95" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B95" s="17"/>
       <c r="C95" s="17"/>
-      <c r="D95" s="18"/>
-      <c r="E95" s="18"/>
-    </row>
-    <row r="96" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="D95" s="24"/>
+      <c r="E95" s="24"/>
+    </row>
+    <row r="96" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B96" s="17"/>
       <c r="C96" s="17"/>
-      <c r="D96" s="18"/>
-      <c r="E96" s="18"/>
-    </row>
-    <row r="97" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="D96" s="24"/>
+      <c r="E96" s="24"/>
+    </row>
+    <row r="97" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B97" s="17"/>
       <c r="C97" s="17"/>
-      <c r="D97" s="18"/>
-      <c r="E97" s="18"/>
-    </row>
-    <row r="98" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="D97" s="24"/>
+      <c r="E97" s="24"/>
+    </row>
+    <row r="98" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B98" s="17"/>
       <c r="C98" s="17"/>
-      <c r="D98" s="18"/>
-      <c r="E98" s="18"/>
-    </row>
-    <row r="99" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="D98" s="24"/>
+      <c r="E98" s="24"/>
+    </row>
+    <row r="99" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B99" s="17"/>
       <c r="C99" s="17"/>
-      <c r="D99" s="18"/>
-      <c r="E99" s="18"/>
-    </row>
-    <row r="100" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="D99" s="24"/>
+      <c r="E99" s="24"/>
+    </row>
+    <row r="100" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B100" s="17"/>
       <c r="C100" s="17"/>
-      <c r="D100" s="18"/>
-      <c r="E100" s="18"/>
-    </row>
-    <row r="101" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="D100" s="24"/>
+      <c r="E100" s="24"/>
+    </row>
+    <row r="101" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B101" s="17"/>
       <c r="C101" s="17"/>
-      <c r="D101" s="18"/>
-      <c r="E101" s="18"/>
-    </row>
-    <row r="102" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="D101" s="24"/>
+      <c r="E101" s="24"/>
+    </row>
+    <row r="102" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B102" s="17"/>
       <c r="C102" s="17"/>
-      <c r="D102" s="18"/>
-      <c r="E102" s="18"/>
-    </row>
-    <row r="103" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="D102" s="24"/>
+      <c r="E102" s="24"/>
+    </row>
+    <row r="103" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B103" s="17"/>
       <c r="C103" s="17"/>
-      <c r="D103" s="18"/>
-      <c r="E103" s="18"/>
+      <c r="D103" s="24"/>
+      <c r="E103" s="24"/>
     </row>
   </sheetData>
   <autoFilter ref="B2:E2"/>
@@ -2142,29 +2152,29 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:J89"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="2" topLeftCell="B3" activePane="bottomRight" state="frozen"/>
+    <sheetView workbookViewId="0">
+      <pane xSplit="1" ySplit="2" topLeftCell="B12" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="B18" sqref="B18:I21"/>
+      <selection pane="bottomRight" activeCell="F23" sqref="F23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="12" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.2" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="1" max="1" width="4.5" style="1" customWidth="1"/>
-    <col min="2" max="2" width="24.75" style="8" customWidth="1"/>
-    <col min="3" max="3" width="11.625" style="8" customWidth="1"/>
+    <col min="2" max="2" width="24.69921875" style="8" customWidth="1"/>
+    <col min="3" max="3" width="11.59765625" style="8" customWidth="1"/>
     <col min="4" max="4" width="13.5" style="2" customWidth="1"/>
-    <col min="5" max="5" width="10.75" style="8" customWidth="1"/>
+    <col min="5" max="5" width="10.69921875" style="8" customWidth="1"/>
     <col min="6" max="6" width="11" style="9" customWidth="1"/>
-    <col min="7" max="7" width="11.375" style="8" customWidth="1"/>
+    <col min="7" max="7" width="11.3984375" style="8" customWidth="1"/>
     <col min="8" max="8" width="10" style="9" customWidth="1"/>
-    <col min="9" max="9" width="10.125" style="10" customWidth="1"/>
-    <col min="10" max="10" width="60.125" style="2" customWidth="1"/>
+    <col min="9" max="9" width="10.09765625" style="10" customWidth="1"/>
+    <col min="10" max="10" width="60.09765625" style="2" customWidth="1"/>
     <col min="11" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:10" s="7" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="2:10" s="7" customFormat="1" x14ac:dyDescent="0.4">
       <c r="B2" s="3" t="s">
         <v>15</v>
       </c>
@@ -2187,21 +2197,21 @@
         <v>9</v>
       </c>
       <c r="I2" s="11" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="J2" s="3" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B3" s="12" t="s">
-        <v>33</v>
+    <row r="3" spans="2:10" x14ac:dyDescent="0.4">
+      <c r="B3" s="4" t="s">
+        <v>29</v>
       </c>
       <c r="C3" s="12" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D3" s="5" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E3" s="12" t="s">
         <v>14</v>
@@ -2210,7 +2220,7 @@
         <v>24550</v>
       </c>
       <c r="G3" s="12" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="H3" s="13">
         <v>27200</v>
@@ -2221,15 +2231,15 @@
       </c>
       <c r="J3" s="5"/>
     </row>
-    <row r="4" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B4" s="12" t="s">
-        <v>33</v>
+    <row r="4" spans="2:10" x14ac:dyDescent="0.4">
+      <c r="B4" s="4" t="s">
+        <v>29</v>
       </c>
       <c r="C4" s="12" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D4" s="5" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E4" s="12" t="s">
         <v>14</v>
@@ -2238,7 +2248,7 @@
         <v>4210</v>
       </c>
       <c r="G4" s="12" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="H4" s="13">
         <v>4705</v>
@@ -2249,15 +2259,15 @@
       </c>
       <c r="J4" s="5"/>
     </row>
-    <row r="5" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B5" s="12" t="s">
-        <v>33</v>
+    <row r="5" spans="2:10" x14ac:dyDescent="0.4">
+      <c r="B5" s="4" t="s">
+        <v>29</v>
       </c>
       <c r="C5" s="12" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D5" s="5" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E5" s="12" t="s">
         <v>14</v>
@@ -2266,7 +2276,7 @@
         <v>1515</v>
       </c>
       <c r="G5" s="12" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="H5" s="13">
         <v>1450</v>
@@ -2276,18 +2286,18 @@
         <v>-4.2904290429042903E-2</v>
       </c>
       <c r="J5" s="5" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="6" spans="2:10" x14ac:dyDescent="0.4">
+      <c r="B6" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="C6" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="D6" s="5" t="s">
         <v>28</v>
-      </c>
-    </row>
-    <row r="6" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B6" s="12" t="s">
-        <v>33</v>
-      </c>
-      <c r="C6" s="12" t="s">
-        <v>23</v>
-      </c>
-      <c r="D6" s="5" t="s">
-        <v>29</v>
       </c>
       <c r="E6" s="12" t="s">
         <v>14</v>
@@ -2296,7 +2306,7 @@
         <v>13000</v>
       </c>
       <c r="G6" s="12" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="H6" s="13">
         <v>16900</v>
@@ -2306,27 +2316,27 @@
         <v>0.3</v>
       </c>
       <c r="J6" s="5" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="7" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B7" s="12" t="s">
-        <v>35</v>
+        <v>25</v>
+      </c>
+    </row>
+    <row r="7" spans="2:10" x14ac:dyDescent="0.4">
+      <c r="B7" s="4" t="s">
+        <v>30</v>
       </c>
       <c r="C7" s="12" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="D7" s="5" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="E7" s="12" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F7" s="13">
         <v>32150</v>
       </c>
       <c r="G7" s="12" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="H7" s="13">
         <v>30450</v>
@@ -2336,27 +2346,27 @@
         <v>-5.2877138413685847E-2</v>
       </c>
       <c r="J7" s="5" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="8" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B8" s="12" t="s">
-        <v>35</v>
+        <v>71</v>
+      </c>
+    </row>
+    <row r="8" spans="2:10" x14ac:dyDescent="0.4">
+      <c r="B8" s="4" t="s">
+        <v>30</v>
       </c>
       <c r="C8" s="12" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="D8" s="5" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="E8" s="12" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F8" s="13">
         <v>6970</v>
       </c>
       <c r="G8" s="12" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="H8" s="13">
         <v>6760</v>
@@ -2367,24 +2377,24 @@
       </c>
       <c r="J8" s="5"/>
     </row>
-    <row r="9" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B9" s="12" t="s">
+    <row r="9" spans="2:10" x14ac:dyDescent="0.4">
+      <c r="B9" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="C9" s="12" t="s">
         <v>35</v>
       </c>
-      <c r="C9" s="12" t="s">
-        <v>40</v>
-      </c>
       <c r="D9" s="5" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="E9" s="12" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F9" s="13">
         <v>7170</v>
       </c>
       <c r="G9" s="12" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="H9" s="13">
         <v>6810</v>
@@ -2394,27 +2404,27 @@
         <v>-5.0209205020920501E-2</v>
       </c>
       <c r="J9" s="5" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="10" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B10" s="12" t="s">
-        <v>35</v>
+        <v>71</v>
+      </c>
+    </row>
+    <row r="10" spans="2:10" x14ac:dyDescent="0.4">
+      <c r="B10" s="4" t="s">
+        <v>30</v>
       </c>
       <c r="C10" s="12" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="D10" s="5" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="E10" s="12" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="F10" s="13">
         <v>13650</v>
       </c>
       <c r="G10" s="12" t="s">
-        <v>84</v>
+        <v>78</v>
       </c>
       <c r="H10" s="13">
         <v>13550</v>
@@ -2425,24 +2435,24 @@
       </c>
       <c r="J10" s="5"/>
     </row>
-    <row r="11" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B11" s="12" t="s">
-        <v>35</v>
+    <row r="11" spans="2:10" x14ac:dyDescent="0.4">
+      <c r="B11" s="4" t="s">
+        <v>30</v>
       </c>
       <c r="C11" s="12" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="D11" s="5" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="E11" s="12" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="F11" s="13">
         <v>20000</v>
       </c>
       <c r="G11" s="12" t="s">
-        <v>84</v>
+        <v>78</v>
       </c>
       <c r="H11" s="13">
         <v>20100</v>
@@ -2453,24 +2463,24 @@
       </c>
       <c r="J11" s="5"/>
     </row>
-    <row r="12" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B12" s="12" t="s">
-        <v>35</v>
+    <row r="12" spans="2:10" x14ac:dyDescent="0.4">
+      <c r="B12" s="4" t="s">
+        <v>30</v>
       </c>
       <c r="C12" s="12" t="s">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="D12" s="5" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="E12" s="12" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="F12" s="13">
         <v>1350</v>
       </c>
       <c r="G12" s="12" t="s">
-        <v>84</v>
+        <v>78</v>
       </c>
       <c r="H12" s="13">
         <v>1335</v>
@@ -2481,24 +2491,24 @@
       </c>
       <c r="J12" s="5"/>
     </row>
-    <row r="13" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B13" s="12" t="s">
-        <v>35</v>
+    <row r="13" spans="2:10" x14ac:dyDescent="0.4">
+      <c r="B13" s="4" t="s">
+        <v>30</v>
       </c>
       <c r="C13" s="12" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="D13" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="E13" s="12" t="s">
         <v>49</v>
-      </c>
-      <c r="E13" s="12" t="s">
-        <v>54</v>
       </c>
       <c r="F13" s="13">
         <v>6440</v>
       </c>
       <c r="G13" s="12" t="s">
-        <v>84</v>
+        <v>78</v>
       </c>
       <c r="H13" s="13">
         <v>6220</v>
@@ -2509,24 +2519,24 @@
       </c>
       <c r="J13" s="5"/>
     </row>
-    <row r="14" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B14" s="12" t="s">
-        <v>35</v>
+    <row r="14" spans="2:10" x14ac:dyDescent="0.4">
+      <c r="B14" s="4" t="s">
+        <v>30</v>
       </c>
       <c r="C14" s="12" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="D14" s="5" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="E14" s="12" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="F14" s="13">
         <v>4950</v>
       </c>
       <c r="G14" s="12" t="s">
-        <v>84</v>
+        <v>78</v>
       </c>
       <c r="H14" s="13">
         <v>4990</v>
@@ -2537,24 +2547,24 @@
       </c>
       <c r="J14" s="5"/>
     </row>
-    <row r="15" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B15" s="12" t="s">
-        <v>35</v>
+    <row r="15" spans="2:10" x14ac:dyDescent="0.4">
+      <c r="B15" s="4" t="s">
+        <v>30</v>
       </c>
       <c r="C15" s="12" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="D15" s="5" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="E15" s="12" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="F15" s="13">
         <v>3835</v>
       </c>
       <c r="G15" s="12" t="s">
-        <v>84</v>
+        <v>78</v>
       </c>
       <c r="H15" s="13">
         <v>3930</v>
@@ -2565,24 +2575,24 @@
       </c>
       <c r="J15" s="5"/>
     </row>
-    <row r="16" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B16" s="12" t="s">
-        <v>60</v>
+    <row r="16" spans="2:10" x14ac:dyDescent="0.4">
+      <c r="B16" s="4" t="s">
+        <v>55</v>
       </c>
       <c r="C16" s="12" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="D16" s="5" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="E16" s="12" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="F16" s="13">
         <v>1025</v>
       </c>
       <c r="G16" s="12" t="s">
-        <v>101</v>
+        <v>90</v>
       </c>
       <c r="H16" s="13">
         <v>1030</v>
@@ -2592,27 +2602,27 @@
         <v>4.8780487804878049E-3</v>
       </c>
       <c r="J16" s="5" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="17" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B17" s="12" t="s">
-        <v>60</v>
+        <v>91</v>
+      </c>
+    </row>
+    <row r="17" spans="2:10" x14ac:dyDescent="0.4">
+      <c r="B17" s="4" t="s">
+        <v>55</v>
       </c>
       <c r="C17" s="12" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="D17" s="5" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="E17" s="12" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="F17" s="13">
         <v>1910</v>
       </c>
       <c r="G17" s="12" t="s">
-        <v>101</v>
+        <v>90</v>
       </c>
       <c r="H17" s="13">
         <v>1590</v>
@@ -2623,24 +2633,24 @@
       </c>
       <c r="J17" s="5"/>
     </row>
-    <row r="18" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B18" s="12" t="s">
-        <v>35</v>
+    <row r="18" spans="2:10" x14ac:dyDescent="0.4">
+      <c r="B18" s="4" t="s">
+        <v>30</v>
       </c>
       <c r="C18" s="12" t="s">
-        <v>91</v>
+        <v>82</v>
       </c>
       <c r="D18" s="5" t="s">
-        <v>92</v>
+        <v>83</v>
       </c>
       <c r="E18" s="12" t="s">
-        <v>86</v>
+        <v>80</v>
       </c>
       <c r="F18" s="13">
         <v>6850</v>
       </c>
       <c r="G18" s="12" t="s">
-        <v>101</v>
+        <v>90</v>
       </c>
       <c r="H18" s="13">
         <v>6440</v>
@@ -2651,24 +2661,24 @@
       </c>
       <c r="J18" s="5"/>
     </row>
-    <row r="19" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B19" s="12" t="s">
-        <v>90</v>
+    <row r="19" spans="2:10" x14ac:dyDescent="0.4">
+      <c r="B19" s="4" t="s">
+        <v>81</v>
       </c>
       <c r="C19" s="12" t="s">
-        <v>93</v>
+        <v>84</v>
       </c>
       <c r="D19" s="5" t="s">
-        <v>85</v>
+        <v>79</v>
       </c>
       <c r="E19" s="12" t="s">
-        <v>86</v>
+        <v>80</v>
       </c>
       <c r="F19" s="13">
         <v>1155</v>
       </c>
       <c r="G19" s="12" t="s">
-        <v>101</v>
+        <v>90</v>
       </c>
       <c r="H19" s="13">
         <v>1410</v>
@@ -2679,24 +2689,24 @@
       </c>
       <c r="J19" s="5"/>
     </row>
-    <row r="20" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B20" s="12" t="s">
-        <v>94</v>
+    <row r="20" spans="2:10" x14ac:dyDescent="0.4">
+      <c r="B20" s="4" t="s">
+        <v>85</v>
       </c>
       <c r="C20" s="12" t="s">
-        <v>97</v>
+        <v>86</v>
       </c>
       <c r="D20" s="5" t="s">
-        <v>98</v>
+        <v>87</v>
       </c>
       <c r="E20" s="12" t="s">
-        <v>86</v>
+        <v>80</v>
       </c>
       <c r="F20" s="13">
         <v>29200</v>
       </c>
       <c r="G20" s="12" t="s">
-        <v>101</v>
+        <v>90</v>
       </c>
       <c r="H20" s="13">
         <v>30050</v>
@@ -2707,24 +2717,24 @@
       </c>
       <c r="J20" s="5"/>
     </row>
-    <row r="21" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B21" s="12" t="s">
-        <v>94</v>
+    <row r="21" spans="2:10" x14ac:dyDescent="0.4">
+      <c r="B21" s="4" t="s">
+        <v>85</v>
       </c>
       <c r="C21" s="12" t="s">
-        <v>99</v>
+        <v>88</v>
       </c>
       <c r="D21" s="5" t="s">
-        <v>100</v>
+        <v>89</v>
       </c>
       <c r="E21" s="12" t="s">
-        <v>86</v>
+        <v>80</v>
       </c>
       <c r="F21" s="13">
         <v>6290</v>
       </c>
       <c r="G21" s="12" t="s">
-        <v>101</v>
+        <v>90</v>
       </c>
       <c r="H21" s="13">
         <v>5810</v>
@@ -2735,12 +2745,22 @@
       </c>
       <c r="J21" s="5"/>
     </row>
-    <row r="22" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B22" s="12"/>
-      <c r="C22" s="12"/>
-      <c r="D22" s="5"/>
-      <c r="E22" s="12"/>
-      <c r="F22" s="13"/>
+    <row r="22" spans="2:10" x14ac:dyDescent="0.4">
+      <c r="B22" s="4" t="s">
+        <v>102</v>
+      </c>
+      <c r="C22" s="12" t="s">
+        <v>107</v>
+      </c>
+      <c r="D22" s="5" t="s">
+        <v>108</v>
+      </c>
+      <c r="E22" s="12" t="s">
+        <v>106</v>
+      </c>
+      <c r="F22" s="13">
+        <v>3680</v>
+      </c>
       <c r="G22" s="12"/>
       <c r="H22" s="13"/>
       <c r="I22" s="14" t="str">
@@ -2749,12 +2769,22 @@
       </c>
       <c r="J22" s="5"/>
     </row>
-    <row r="23" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B23" s="12"/>
-      <c r="C23" s="12"/>
-      <c r="D23" s="5"/>
-      <c r="E23" s="12"/>
-      <c r="F23" s="13"/>
+    <row r="23" spans="2:10" x14ac:dyDescent="0.4">
+      <c r="B23" s="4" t="s">
+        <v>103</v>
+      </c>
+      <c r="C23" s="12" t="s">
+        <v>104</v>
+      </c>
+      <c r="D23" s="5" t="s">
+        <v>105</v>
+      </c>
+      <c r="E23" s="12" t="s">
+        <v>106</v>
+      </c>
+      <c r="F23" s="13">
+        <v>23450</v>
+      </c>
       <c r="G23" s="12"/>
       <c r="H23" s="13"/>
       <c r="I23" s="14" t="str">
@@ -2763,8 +2793,8 @@
       </c>
       <c r="J23" s="5"/>
     </row>
-    <row r="24" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B24" s="12"/>
+    <row r="24" spans="2:10" x14ac:dyDescent="0.4">
+      <c r="B24" s="4"/>
       <c r="C24" s="12"/>
       <c r="D24" s="5"/>
       <c r="E24" s="12"/>
@@ -2777,8 +2807,8 @@
       </c>
       <c r="J24" s="5"/>
     </row>
-    <row r="25" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B25" s="12"/>
+    <row r="25" spans="2:10" x14ac:dyDescent="0.4">
+      <c r="B25" s="4"/>
       <c r="C25" s="12"/>
       <c r="D25" s="5"/>
       <c r="E25" s="12"/>
@@ -2791,8 +2821,8 @@
       </c>
       <c r="J25" s="5"/>
     </row>
-    <row r="26" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B26" s="12"/>
+    <row r="26" spans="2:10" x14ac:dyDescent="0.4">
+      <c r="B26" s="4"/>
       <c r="C26" s="12"/>
       <c r="D26" s="5"/>
       <c r="E26" s="12"/>
@@ -2805,8 +2835,8 @@
       </c>
       <c r="J26" s="5"/>
     </row>
-    <row r="27" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B27" s="12"/>
+    <row r="27" spans="2:10" x14ac:dyDescent="0.4">
+      <c r="B27" s="4"/>
       <c r="C27" s="12"/>
       <c r="D27" s="5"/>
       <c r="E27" s="12"/>
@@ -2819,8 +2849,8 @@
       </c>
       <c r="J27" s="5"/>
     </row>
-    <row r="28" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B28" s="12"/>
+    <row r="28" spans="2:10" x14ac:dyDescent="0.4">
+      <c r="B28" s="4"/>
       <c r="C28" s="12"/>
       <c r="D28" s="5"/>
       <c r="E28" s="12"/>
@@ -2833,8 +2863,8 @@
       </c>
       <c r="J28" s="5"/>
     </row>
-    <row r="29" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B29" s="12"/>
+    <row r="29" spans="2:10" x14ac:dyDescent="0.4">
+      <c r="B29" s="4"/>
       <c r="C29" s="12"/>
       <c r="D29" s="5"/>
       <c r="E29" s="12"/>
@@ -2847,8 +2877,8 @@
       </c>
       <c r="J29" s="5"/>
     </row>
-    <row r="30" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B30" s="12"/>
+    <row r="30" spans="2:10" x14ac:dyDescent="0.4">
+      <c r="B30" s="4"/>
       <c r="C30" s="12"/>
       <c r="D30" s="5"/>
       <c r="E30" s="12"/>
@@ -2861,8 +2891,8 @@
       </c>
       <c r="J30" s="5"/>
     </row>
-    <row r="31" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B31" s="12"/>
+    <row r="31" spans="2:10" x14ac:dyDescent="0.4">
+      <c r="B31" s="4"/>
       <c r="C31" s="12"/>
       <c r="D31" s="5"/>
       <c r="E31" s="12"/>
@@ -2875,8 +2905,8 @@
       </c>
       <c r="J31" s="5"/>
     </row>
-    <row r="32" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B32" s="12"/>
+    <row r="32" spans="2:10" x14ac:dyDescent="0.4">
+      <c r="B32" s="4"/>
       <c r="C32" s="12"/>
       <c r="D32" s="5"/>
       <c r="E32" s="12"/>
@@ -2889,8 +2919,8 @@
       </c>
       <c r="J32" s="5"/>
     </row>
-    <row r="33" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B33" s="12"/>
+    <row r="33" spans="2:10" x14ac:dyDescent="0.4">
+      <c r="B33" s="4"/>
       <c r="C33" s="12"/>
       <c r="D33" s="5"/>
       <c r="E33" s="12"/>
@@ -2903,8 +2933,8 @@
       </c>
       <c r="J33" s="5"/>
     </row>
-    <row r="34" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B34" s="12"/>
+    <row r="34" spans="2:10" x14ac:dyDescent="0.4">
+      <c r="B34" s="4"/>
       <c r="C34" s="12"/>
       <c r="D34" s="5"/>
       <c r="E34" s="12"/>
@@ -2917,8 +2947,8 @@
       </c>
       <c r="J34" s="5"/>
     </row>
-    <row r="35" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B35" s="12"/>
+    <row r="35" spans="2:10" x14ac:dyDescent="0.4">
+      <c r="B35" s="4"/>
       <c r="C35" s="12"/>
       <c r="D35" s="5"/>
       <c r="E35" s="12"/>
@@ -2931,8 +2961,8 @@
       </c>
       <c r="J35" s="5"/>
     </row>
-    <row r="36" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B36" s="12"/>
+    <row r="36" spans="2:10" x14ac:dyDescent="0.4">
+      <c r="B36" s="4"/>
       <c r="C36" s="12"/>
       <c r="D36" s="5"/>
       <c r="E36" s="12"/>
@@ -2945,8 +2975,8 @@
       </c>
       <c r="J36" s="5"/>
     </row>
-    <row r="37" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B37" s="12"/>
+    <row r="37" spans="2:10" x14ac:dyDescent="0.4">
+      <c r="B37" s="4"/>
       <c r="C37" s="12"/>
       <c r="D37" s="5"/>
       <c r="E37" s="12"/>
@@ -2959,8 +2989,8 @@
       </c>
       <c r="J37" s="5"/>
     </row>
-    <row r="38" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B38" s="12"/>
+    <row r="38" spans="2:10" x14ac:dyDescent="0.4">
+      <c r="B38" s="4"/>
       <c r="C38" s="12"/>
       <c r="D38" s="5"/>
       <c r="E38" s="12"/>
@@ -2973,8 +3003,8 @@
       </c>
       <c r="J38" s="5"/>
     </row>
-    <row r="39" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B39" s="12"/>
+    <row r="39" spans="2:10" x14ac:dyDescent="0.4">
+      <c r="B39" s="4"/>
       <c r="C39" s="12"/>
       <c r="D39" s="5"/>
       <c r="E39" s="12"/>
@@ -2987,8 +3017,8 @@
       </c>
       <c r="J39" s="5"/>
     </row>
-    <row r="40" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B40" s="12"/>
+    <row r="40" spans="2:10" x14ac:dyDescent="0.4">
+      <c r="B40" s="4"/>
       <c r="C40" s="12"/>
       <c r="D40" s="5"/>
       <c r="E40" s="12"/>
@@ -3001,8 +3031,8 @@
       </c>
       <c r="J40" s="5"/>
     </row>
-    <row r="41" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B41" s="12"/>
+    <row r="41" spans="2:10" x14ac:dyDescent="0.4">
+      <c r="B41" s="4"/>
       <c r="C41" s="12"/>
       <c r="D41" s="5"/>
       <c r="E41" s="12"/>
@@ -3015,8 +3045,8 @@
       </c>
       <c r="J41" s="5"/>
     </row>
-    <row r="42" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B42" s="12"/>
+    <row r="42" spans="2:10" x14ac:dyDescent="0.4">
+      <c r="B42" s="4"/>
       <c r="C42" s="12"/>
       <c r="D42" s="5"/>
       <c r="E42" s="12"/>
@@ -3029,8 +3059,8 @@
       </c>
       <c r="J42" s="5"/>
     </row>
-    <row r="43" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B43" s="12"/>
+    <row r="43" spans="2:10" x14ac:dyDescent="0.4">
+      <c r="B43" s="4"/>
       <c r="C43" s="12"/>
       <c r="D43" s="5"/>
       <c r="E43" s="12"/>
@@ -3043,8 +3073,8 @@
       </c>
       <c r="J43" s="5"/>
     </row>
-    <row r="44" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B44" s="12"/>
+    <row r="44" spans="2:10" x14ac:dyDescent="0.4">
+      <c r="B44" s="4"/>
       <c r="C44" s="12"/>
       <c r="D44" s="5"/>
       <c r="E44" s="12"/>
@@ -3057,8 +3087,8 @@
       </c>
       <c r="J44" s="5"/>
     </row>
-    <row r="45" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B45" s="12"/>
+    <row r="45" spans="2:10" x14ac:dyDescent="0.4">
+      <c r="B45" s="4"/>
       <c r="C45" s="12"/>
       <c r="D45" s="5"/>
       <c r="E45" s="12"/>
@@ -3071,8 +3101,8 @@
       </c>
       <c r="J45" s="5"/>
     </row>
-    <row r="46" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B46" s="12"/>
+    <row r="46" spans="2:10" x14ac:dyDescent="0.4">
+      <c r="B46" s="4"/>
       <c r="C46" s="12"/>
       <c r="D46" s="5"/>
       <c r="E46" s="12"/>
@@ -3085,8 +3115,8 @@
       </c>
       <c r="J46" s="5"/>
     </row>
-    <row r="47" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B47" s="12"/>
+    <row r="47" spans="2:10" x14ac:dyDescent="0.4">
+      <c r="B47" s="4"/>
       <c r="C47" s="12"/>
       <c r="D47" s="5"/>
       <c r="E47" s="12"/>
@@ -3099,8 +3129,8 @@
       </c>
       <c r="J47" s="5"/>
     </row>
-    <row r="48" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B48" s="12"/>
+    <row r="48" spans="2:10" x14ac:dyDescent="0.4">
+      <c r="B48" s="4"/>
       <c r="C48" s="12"/>
       <c r="D48" s="5"/>
       <c r="E48" s="12"/>
@@ -3113,8 +3143,8 @@
       </c>
       <c r="J48" s="5"/>
     </row>
-    <row r="49" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B49" s="12"/>
+    <row r="49" spans="2:10" x14ac:dyDescent="0.4">
+      <c r="B49" s="4"/>
       <c r="C49" s="12"/>
       <c r="D49" s="5"/>
       <c r="E49" s="12"/>
@@ -3127,8 +3157,8 @@
       </c>
       <c r="J49" s="5"/>
     </row>
-    <row r="50" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B50" s="12"/>
+    <row r="50" spans="2:10" x14ac:dyDescent="0.4">
+      <c r="B50" s="4"/>
       <c r="C50" s="12"/>
       <c r="D50" s="5"/>
       <c r="E50" s="12"/>
@@ -3141,8 +3171,8 @@
       </c>
       <c r="J50" s="5"/>
     </row>
-    <row r="51" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B51" s="12"/>
+    <row r="51" spans="2:10" x14ac:dyDescent="0.4">
+      <c r="B51" s="4"/>
       <c r="C51" s="12"/>
       <c r="D51" s="5"/>
       <c r="E51" s="12"/>
@@ -3155,8 +3185,8 @@
       </c>
       <c r="J51" s="5"/>
     </row>
-    <row r="52" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B52" s="12"/>
+    <row r="52" spans="2:10" x14ac:dyDescent="0.4">
+      <c r="B52" s="4"/>
       <c r="C52" s="12"/>
       <c r="D52" s="5"/>
       <c r="E52" s="12"/>
@@ -3169,8 +3199,8 @@
       </c>
       <c r="J52" s="5"/>
     </row>
-    <row r="53" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B53" s="12"/>
+    <row r="53" spans="2:10" x14ac:dyDescent="0.4">
+      <c r="B53" s="4"/>
       <c r="C53" s="12"/>
       <c r="D53" s="5"/>
       <c r="E53" s="12"/>
@@ -3183,8 +3213,8 @@
       </c>
       <c r="J53" s="5"/>
     </row>
-    <row r="54" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B54" s="12"/>
+    <row r="54" spans="2:10" x14ac:dyDescent="0.4">
+      <c r="B54" s="4"/>
       <c r="C54" s="12"/>
       <c r="D54" s="5"/>
       <c r="E54" s="12"/>
@@ -3197,8 +3227,8 @@
       </c>
       <c r="J54" s="5"/>
     </row>
-    <row r="55" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B55" s="12"/>
+    <row r="55" spans="2:10" x14ac:dyDescent="0.4">
+      <c r="B55" s="4"/>
       <c r="C55" s="12"/>
       <c r="D55" s="5"/>
       <c r="E55" s="12"/>
@@ -3211,8 +3241,8 @@
       </c>
       <c r="J55" s="5"/>
     </row>
-    <row r="56" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B56" s="12"/>
+    <row r="56" spans="2:10" x14ac:dyDescent="0.4">
+      <c r="B56" s="4"/>
       <c r="C56" s="12"/>
       <c r="D56" s="5"/>
       <c r="E56" s="12"/>
@@ -3225,8 +3255,8 @@
       </c>
       <c r="J56" s="5"/>
     </row>
-    <row r="57" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B57" s="12"/>
+    <row r="57" spans="2:10" x14ac:dyDescent="0.4">
+      <c r="B57" s="4"/>
       <c r="C57" s="12"/>
       <c r="D57" s="5"/>
       <c r="E57" s="12"/>
@@ -3239,8 +3269,8 @@
       </c>
       <c r="J57" s="5"/>
     </row>
-    <row r="58" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B58" s="12"/>
+    <row r="58" spans="2:10" x14ac:dyDescent="0.4">
+      <c r="B58" s="4"/>
       <c r="C58" s="12"/>
       <c r="D58" s="5"/>
       <c r="E58" s="12"/>
@@ -3253,8 +3283,8 @@
       </c>
       <c r="J58" s="5"/>
     </row>
-    <row r="59" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B59" s="12"/>
+    <row r="59" spans="2:10" x14ac:dyDescent="0.4">
+      <c r="B59" s="4"/>
       <c r="C59" s="12"/>
       <c r="D59" s="5"/>
       <c r="E59" s="12"/>
@@ -3267,8 +3297,8 @@
       </c>
       <c r="J59" s="5"/>
     </row>
-    <row r="60" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B60" s="12"/>
+    <row r="60" spans="2:10" x14ac:dyDescent="0.4">
+      <c r="B60" s="4"/>
       <c r="C60" s="12"/>
       <c r="D60" s="5"/>
       <c r="E60" s="12"/>
@@ -3281,8 +3311,8 @@
       </c>
       <c r="J60" s="5"/>
     </row>
-    <row r="61" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B61" s="12"/>
+    <row r="61" spans="2:10" x14ac:dyDescent="0.4">
+      <c r="B61" s="4"/>
       <c r="C61" s="12"/>
       <c r="D61" s="5"/>
       <c r="E61" s="12"/>
@@ -3295,8 +3325,8 @@
       </c>
       <c r="J61" s="5"/>
     </row>
-    <row r="62" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B62" s="12"/>
+    <row r="62" spans="2:10" x14ac:dyDescent="0.4">
+      <c r="B62" s="4"/>
       <c r="C62" s="12"/>
       <c r="D62" s="5"/>
       <c r="E62" s="12"/>
@@ -3309,8 +3339,8 @@
       </c>
       <c r="J62" s="5"/>
     </row>
-    <row r="63" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B63" s="12"/>
+    <row r="63" spans="2:10" x14ac:dyDescent="0.4">
+      <c r="B63" s="4"/>
       <c r="C63" s="12"/>
       <c r="D63" s="5"/>
       <c r="E63" s="12"/>
@@ -3323,8 +3353,8 @@
       </c>
       <c r="J63" s="5"/>
     </row>
-    <row r="64" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B64" s="12"/>
+    <row r="64" spans="2:10" x14ac:dyDescent="0.4">
+      <c r="B64" s="4"/>
       <c r="C64" s="12"/>
       <c r="D64" s="5"/>
       <c r="E64" s="12"/>
@@ -3337,8 +3367,8 @@
       </c>
       <c r="J64" s="5"/>
     </row>
-    <row r="65" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B65" s="12"/>
+    <row r="65" spans="2:10" x14ac:dyDescent="0.4">
+      <c r="B65" s="4"/>
       <c r="C65" s="12"/>
       <c r="D65" s="5"/>
       <c r="E65" s="12"/>
@@ -3351,8 +3381,8 @@
       </c>
       <c r="J65" s="5"/>
     </row>
-    <row r="66" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B66" s="12"/>
+    <row r="66" spans="2:10" x14ac:dyDescent="0.4">
+      <c r="B66" s="4"/>
       <c r="C66" s="12"/>
       <c r="D66" s="5"/>
       <c r="E66" s="12"/>
@@ -3365,8 +3395,8 @@
       </c>
       <c r="J66" s="5"/>
     </row>
-    <row r="67" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B67" s="12"/>
+    <row r="67" spans="2:10" x14ac:dyDescent="0.4">
+      <c r="B67" s="4"/>
       <c r="C67" s="12"/>
       <c r="D67" s="5"/>
       <c r="E67" s="12"/>
@@ -3379,8 +3409,8 @@
       </c>
       <c r="J67" s="5"/>
     </row>
-    <row r="68" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B68" s="12"/>
+    <row r="68" spans="2:10" x14ac:dyDescent="0.4">
+      <c r="B68" s="4"/>
       <c r="C68" s="12"/>
       <c r="D68" s="5"/>
       <c r="E68" s="12"/>
@@ -3393,8 +3423,8 @@
       </c>
       <c r="J68" s="5"/>
     </row>
-    <row r="69" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B69" s="12"/>
+    <row r="69" spans="2:10" x14ac:dyDescent="0.4">
+      <c r="B69" s="4"/>
       <c r="C69" s="12"/>
       <c r="D69" s="5"/>
       <c r="E69" s="12"/>
@@ -3407,8 +3437,8 @@
       </c>
       <c r="J69" s="5"/>
     </row>
-    <row r="70" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B70" s="12"/>
+    <row r="70" spans="2:10" x14ac:dyDescent="0.4">
+      <c r="B70" s="4"/>
       <c r="C70" s="12"/>
       <c r="D70" s="5"/>
       <c r="E70" s="12"/>
@@ -3421,8 +3451,8 @@
       </c>
       <c r="J70" s="5"/>
     </row>
-    <row r="71" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B71" s="12"/>
+    <row r="71" spans="2:10" x14ac:dyDescent="0.4">
+      <c r="B71" s="4"/>
       <c r="C71" s="12"/>
       <c r="D71" s="5"/>
       <c r="E71" s="12"/>
@@ -3435,8 +3465,8 @@
       </c>
       <c r="J71" s="5"/>
     </row>
-    <row r="72" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B72" s="12"/>
+    <row r="72" spans="2:10" x14ac:dyDescent="0.4">
+      <c r="B72" s="4"/>
       <c r="C72" s="12"/>
       <c r="D72" s="5"/>
       <c r="E72" s="12"/>
@@ -3449,8 +3479,8 @@
       </c>
       <c r="J72" s="5"/>
     </row>
-    <row r="73" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B73" s="12"/>
+    <row r="73" spans="2:10" x14ac:dyDescent="0.4">
+      <c r="B73" s="4"/>
       <c r="C73" s="12"/>
       <c r="D73" s="5"/>
       <c r="E73" s="12"/>
@@ -3463,8 +3493,8 @@
       </c>
       <c r="J73" s="5"/>
     </row>
-    <row r="74" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B74" s="12"/>
+    <row r="74" spans="2:10" x14ac:dyDescent="0.4">
+      <c r="B74" s="4"/>
       <c r="C74" s="12"/>
       <c r="D74" s="5"/>
       <c r="E74" s="12"/>
@@ -3477,8 +3507,8 @@
       </c>
       <c r="J74" s="5"/>
     </row>
-    <row r="75" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B75" s="12"/>
+    <row r="75" spans="2:10" x14ac:dyDescent="0.4">
+      <c r="B75" s="4"/>
       <c r="C75" s="12"/>
       <c r="D75" s="5"/>
       <c r="E75" s="12"/>
@@ -3491,8 +3521,8 @@
       </c>
       <c r="J75" s="5"/>
     </row>
-    <row r="76" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B76" s="12"/>
+    <row r="76" spans="2:10" x14ac:dyDescent="0.4">
+      <c r="B76" s="4"/>
       <c r="C76" s="12"/>
       <c r="D76" s="5"/>
       <c r="E76" s="12"/>
@@ -3505,8 +3535,8 @@
       </c>
       <c r="J76" s="5"/>
     </row>
-    <row r="77" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B77" s="12"/>
+    <row r="77" spans="2:10" x14ac:dyDescent="0.4">
+      <c r="B77" s="4"/>
       <c r="C77" s="12"/>
       <c r="D77" s="5"/>
       <c r="E77" s="12"/>
@@ -3519,8 +3549,8 @@
       </c>
       <c r="J77" s="5"/>
     </row>
-    <row r="78" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B78" s="12"/>
+    <row r="78" spans="2:10" x14ac:dyDescent="0.4">
+      <c r="B78" s="4"/>
       <c r="C78" s="12"/>
       <c r="D78" s="5"/>
       <c r="E78" s="12"/>
@@ -3533,8 +3563,8 @@
       </c>
       <c r="J78" s="5"/>
     </row>
-    <row r="79" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B79" s="12"/>
+    <row r="79" spans="2:10" x14ac:dyDescent="0.4">
+      <c r="B79" s="4"/>
       <c r="C79" s="12"/>
       <c r="D79" s="5"/>
       <c r="E79" s="12"/>
@@ -3547,8 +3577,8 @@
       </c>
       <c r="J79" s="5"/>
     </row>
-    <row r="80" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B80" s="12"/>
+    <row r="80" spans="2:10" x14ac:dyDescent="0.4">
+      <c r="B80" s="4"/>
       <c r="C80" s="12"/>
       <c r="D80" s="5"/>
       <c r="E80" s="12"/>
@@ -3561,8 +3591,8 @@
       </c>
       <c r="J80" s="5"/>
     </row>
-    <row r="81" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B81" s="12"/>
+    <row r="81" spans="2:10" x14ac:dyDescent="0.4">
+      <c r="B81" s="4"/>
       <c r="C81" s="12"/>
       <c r="D81" s="5"/>
       <c r="E81" s="12"/>
@@ -3575,8 +3605,8 @@
       </c>
       <c r="J81" s="5"/>
     </row>
-    <row r="82" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B82" s="12"/>
+    <row r="82" spans="2:10" x14ac:dyDescent="0.4">
+      <c r="B82" s="4"/>
       <c r="C82" s="12"/>
       <c r="D82" s="5"/>
       <c r="E82" s="12"/>
@@ -3589,8 +3619,8 @@
       </c>
       <c r="J82" s="5"/>
     </row>
-    <row r="83" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B83" s="12"/>
+    <row r="83" spans="2:10" x14ac:dyDescent="0.4">
+      <c r="B83" s="4"/>
       <c r="C83" s="12"/>
       <c r="D83" s="5"/>
       <c r="E83" s="12"/>
@@ -3603,8 +3633,8 @@
       </c>
       <c r="J83" s="5"/>
     </row>
-    <row r="84" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B84" s="12"/>
+    <row r="84" spans="2:10" x14ac:dyDescent="0.4">
+      <c r="B84" s="4"/>
       <c r="C84" s="12"/>
       <c r="D84" s="5"/>
       <c r="E84" s="12"/>
@@ -3617,8 +3647,8 @@
       </c>
       <c r="J84" s="5"/>
     </row>
-    <row r="85" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B85" s="12"/>
+    <row r="85" spans="2:10" x14ac:dyDescent="0.4">
+      <c r="B85" s="4"/>
       <c r="C85" s="12"/>
       <c r="D85" s="5"/>
       <c r="E85" s="12"/>
@@ -3631,8 +3661,8 @@
       </c>
       <c r="J85" s="5"/>
     </row>
-    <row r="86" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B86" s="12"/>
+    <row r="86" spans="2:10" x14ac:dyDescent="0.4">
+      <c r="B86" s="4"/>
       <c r="C86" s="12"/>
       <c r="D86" s="5"/>
       <c r="E86" s="12"/>
@@ -3645,8 +3675,8 @@
       </c>
       <c r="J86" s="5"/>
     </row>
-    <row r="87" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B87" s="12"/>
+    <row r="87" spans="2:10" x14ac:dyDescent="0.4">
+      <c r="B87" s="4"/>
       <c r="C87" s="12"/>
       <c r="D87" s="5"/>
       <c r="E87" s="12"/>
@@ -3659,8 +3689,8 @@
       </c>
       <c r="J87" s="5"/>
     </row>
-    <row r="88" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B88" s="12"/>
+    <row r="88" spans="2:10" x14ac:dyDescent="0.4">
+      <c r="B88" s="4"/>
       <c r="C88" s="12"/>
       <c r="D88" s="5"/>
       <c r="E88" s="12"/>
@@ -3673,8 +3703,8 @@
       </c>
       <c r="J88" s="5"/>
     </row>
-    <row r="89" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B89" s="12"/>
+    <row r="89" spans="2:10" x14ac:dyDescent="0.4">
+      <c r="B89" s="4"/>
       <c r="C89" s="12"/>
       <c r="D89" s="5"/>
       <c r="E89" s="12"/>
@@ -3702,17 +3732,5 @@
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
-      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
-          <x14:formula1>
-            <xm:f>'01.원칙'!$C$3:$C$103</xm:f>
-          </x14:formula1>
-          <xm:sqref>B3:B89</xm:sqref>
-        </x14:dataValidation>
-      </x14:dataValidations>
-    </ext>
-  </extLst>
 </worksheet>
 </file>
--- a/WorkShop/01.docs/01.초기학습.xlsx
+++ b/WorkShop/01.docs/01.초기학습.xlsx
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="170" uniqueCount="117">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="169" uniqueCount="116">
   <si>
     <t>사이트명</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -514,10 +514,6 @@
 4. 볼린저밴드 돌파
 5. 스토캐스틱 상승 추세
 6. 저항이 적은 구간 OR 기준봉이 세력인 봉</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>My공식_종가매수_테소_V0.01</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1487,7 +1483,7 @@
       <pane xSplit="1" ySplit="2" topLeftCell="B4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="D6" sqref="D6"/>
+      <selection pane="bottomRight" activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.2" x14ac:dyDescent="0.4"/>
@@ -1552,9 +1548,7 @@
     </row>
     <row r="6" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B6" s="17"/>
-      <c r="C6" s="17" t="s">
-        <v>116</v>
-      </c>
+      <c r="C6" s="17"/>
       <c r="D6" s="24"/>
       <c r="E6" s="24"/>
     </row>

--- a/WorkShop/01.docs/01.초기학습.xlsx
+++ b/WorkShop/01.docs/01.초기학습.xlsx
@@ -5,20 +5,21 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\WorkShop\AppHome\stocks\WorkShop\01.docs\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\ProjectHome\Stocks\WorkShop\01.docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11856" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11850" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="00.참고" sheetId="2" r:id="rId1"/>
     <sheet name="01.원칙" sheetId="4" r:id="rId2"/>
-    <sheet name="02.모의투자" sheetId="3" r:id="rId3"/>
+    <sheet name="02.스탑로스" sheetId="5" r:id="rId3"/>
+    <sheet name="03.모의투자" sheetId="3" r:id="rId4"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'01.원칙'!$B$2:$E$2</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'02.모의투자'!$B$2:$J$89</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">'03.모의투자'!$B$2:$J$88</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
   <extLst>
@@ -30,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="169" uniqueCount="116">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="220" uniqueCount="146">
   <si>
     <t>사이트명</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -81,10 +82,6 @@
   </si>
   <si>
     <t>내용</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>비고</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -404,89 +401,35 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>내용</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>My공식_종가매수_돌파후유지_V0.02</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>034120</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SBS</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2020-02-03</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>021050</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>서원</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>종가배팅</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>전략명</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>내용</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>외인/기관 수급이 들어오는가?</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>분류</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>수급</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>전고점을 갖 돌파하는 패턴인가?</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>차트</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>실적</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>실적이 양호한가? (실적이 대폭개선되면 급등 기대가능)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>My공식_종가매수_돌파후유지_V0.02</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>My공식_종가매수_돌파매매_V0.03</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>034120</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>SBS</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2020-02-03</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>021050</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>서원</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>My공식_종가매수_돌파매매_V0.03</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>종가배팅</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1. 당일 거래량이 높고 최근 시장 주도주나 대장주 종목
-2. 당일과 최근 거래일이내 기관이나 외인의 수급이 좋은 종목
-3. 개인주체의 테마성 종목은 제외시킨다
-4. 전날 혹은 당일 증권방송 및 증권사 추천 종목중 5거래일 기관 수급이 높은 종목
-5. 금요일에는 되도록 거래를 하지 않는다
-6. 선물을 보며[0783] 외인의 선물매도세가 끊이지 않을 경우 주의를 하며 배팅한다.
-7. 시황이 매우 안좋거나 외인의 선물매도세가 멈추지 않을 경우 아예 종가배팅을 하지 않거나 동시호가에 한다.</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -514,6 +457,315 @@
 4. 볼린저밴드 돌파
 5. 스토캐스틱 상승 추세
 6. 저항이 적은 구간 OR 기준봉이 세력인 봉</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2020-02-05</t>
+  </si>
+  <si>
+    <t>2020-02-05</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>195500</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>마니커에프앤지</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2020-02-04</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>레이언스</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>228850</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>피엔이솔루션</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>131390</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>상신이디피</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>091580</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>042370</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>비츠로테크</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2020-02-06</t>
+  </si>
+  <si>
+    <t>&lt;스탑로스&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>기준가대비 1.5 %</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>손실제한</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;트레일링스탑&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>목표가사용</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>감시기준가 : 매입단가</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.5 % 하락시 스탑주문</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>목표가 : 1 %</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>돌파매매_V0.03</t>
+  </si>
+  <si>
+    <t>돌파매매_V0.03</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>파미셀</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>007460</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>005690</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>에이프로젠 KIC</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>KTB투자증권</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>030210</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>222800</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>심텍</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>돌파매매_V0.03</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>지수명</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">  - SAR = 전일SAR + (가속변수 * (최고가혹은최저가 - 전일 SAR))
+  - 주가아래에 있다가 주가와 만나고 주가위로 뛰게 되는데 만나는 지점이 매수 포인트.
+  - 주가위에 있다가 주가와 만나고 주가아래로 떨어지게 되는데 만나는 지점이 매도 포인트.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">Parabolic(가속변수, 가속변수최대값) </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">Bollinger Band(중심선이될이평선, 표준편차) </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">  - 중심선 : 중심선이될이평선
+  - 상한선 : 중심선이될이평선 + 표준편차.
+  - 하한선 : 중심선이될이평선 - 표준편차. 
+  - 주가등락폭이 적은 상황에서 밴드의 상-하한선폭도 작아진다. 이때는 조만간 가격의 변동성이 커질 가능성이 높다.
+  - 주가등락폭이 큰 상황에서 밴드의 상-하한선폭도 확대된다. 이때는 본격적인 추세전환의 가능성이 높다.
+  - 주가가 상한선에 접근하고 지표가 강세면 매수, 주가가 하한선에 접근하고 지표가 약세면 매도.
+  - 주가가 상한선을 여러번 건드리지만 주가지표가 약세면 상한선 근처에서 매도.
+  - 주가가 하한선을 여러번 건드리지만 주가지표가 강세면 하한선 근처에서 매수.
+  - 밴드가 수렴되었다가 폭이 넓어지면서 상한선을 강하게 돌파하면 매수.
+  - 주가가 밴드의 상한선을 충분히 이탈하면 매도.(과매수)
+  - 주가가 밴드의 하한선을 충분히 이탈하면 매수.(과매도)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">  - 분석기간의 최고가격과 최저가격을 계산해서 현재 주가가 어느위치에 있는지 파악하기 위한 지표.
+  - 분석기간 : %K를 구하기위한변수. %K는 최근 분석기간만큼의 과거일수중 가장 놓은 종가를 100%, 낮은 종가를 0%로 
+    봤을때 현재 가격의 위치.
+  - Fast지수이동평균 : %D를 구하기위한변수. %D는 %K을 Fast지수이동평균만큼 이동평균을 낸 수치. =&gt; Fast Stochastic
+  - Slow지수이동평균 : Fast Stochastic을 Slow지수이동평균만큼 이동평균을 낸 수치. =&gt; Slow Stochastic</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">Stochastic(분석기간, Fast지수이동평균, Slow지수이동평균) </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>일목균형표(분석기간, 기준선기간, 선행스팬2기간)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">  - 전환선 : (분석기간 중 최고가격 + 분석기간 중 최저가격) / 2
+  - 기준선 = (기준선기간 중 최고가격 + 기준선기간 중 최저가격) / 2
+  - 후행스팬 = 현재주가를 기준선기간일 뒤로 보내서 연결한 선
+  - 선행스팬1 = (기준선 + 전환선 ) /2 의 값을 기준선기간일 선행하여 그린 선
+</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">지표 내용
+A [일]거래량:30000이상 999999999이하
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> ==&gt; 당일 거래량이 높고 최근 시장 주도주나 대장주 종목</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+J [일]0봉전 Parabolic(0.02,0.2) 종가가 Parabolic을 상향돌파
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> ==&gt; 주가상승 가속도가 붙는 종목</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+E [일]0봉전 Bollinger Band(20,2) 종가가 상한선 상향돌파
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> ==&gt;&gt; 당일 주가가 터진 종목</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+F [일]0봉전 Stochastic slow(12,5,5) slow %K 1봉 연속상승
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> ==&gt;&gt; 주가가 상승중인 종목</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+G [일]0봉전 일목균형표(9,26,52) 1봉이내 주가 선행스팬 2 상향돌파후 지속
+H [일]0봉전 일목균형표(9,26,52) 선행스팬 2 &lt;= 주가
+I [일]0봉전 DI(14) -DI 0이상 8이하
+K 상장주식수 대비 2일전 외국인 순매수수량 0.05%이상 10%이하
+L 상장주식수 대비 2일전 기관 순매수수량 0.05%이상 10%이하
+N 상장주식수 대비 1일전 외국인 순매수수량 0.05%이상 10%이하
+O 상장주식수 대비 1일전 기관 순매수수량 0.05%이상 10%이하
+Q 0봉전 10일중 2일 외국인 순매수발생 최소순매매수량 10000주
+R 0봉전 10일중 2일 기관 순매수발생 최소순매매수량 10000주
+S 체결강도 100%이상 500%이하
+A and J and E and F and (G or H) and (!I) and (K or L or N or O) and (Q or R) and S
+1. 당일 거래량이 높고 최근 시장 주도주나 대장주 종목
+2. 당일과 최근 거래일이내 기관이나 외인의 수급이 좋은 종목
+3. 개인주체의 테마성 종목은 제외시킨다
+4. 전날 혹은 당일 증권방송 및 증권사 추천 종목중 5거래일 기관 수급이 높은 종목
+5. 금요일에는 되도록 거래를 하지 않는다
+6. 선물을 보며[0783] 외인의 선물매도세가 끊이지 않을 경우 주의를 하며 배팅한다.
+7. 시황이 매우 안좋거나 외인의 선물매도세가 멈추지 않을 경우 아예 종가배팅을 하지 않거나 동시호가에 한다.</t>
+    </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -524,7 +776,7 @@
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="&quot;₩&quot;#,##0"/>
   </numFmts>
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -582,8 +834,42 @@
       <charset val="129"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="맑은 고딕"/>
+      <family val="2"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF0070C0"/>
+      <name val="맑은 고딕"/>
+      <family val="2"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color rgb="FF0070C0"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -596,8 +882,20 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="2">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -620,13 +918,39 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="39">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -708,6 +1032,42 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="10" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="10" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="표준" xfId="0" builtinId="0"/>
@@ -738,6 +1098,152 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>156882</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>11206</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>11206</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="7" name="직선 화살표 연결선 6"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="156882" y="1490382"/>
+          <a:ext cx="1221442" cy="11206"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="3">
+          <a:schemeClr val="accent2"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent2"/>
+        </a:fillRef>
+        <a:effectRef idx="2">
+          <a:schemeClr val="accent2"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>163606</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>107578</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>17930</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>118784</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="13" name="직선 화살표 연결선 12"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="163606" y="2236696"/>
+          <a:ext cx="1221442" cy="11206"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="3">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>100853</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>681318</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>11206</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="21" name="직선 화살표 연결선 20"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="4202206" y="1490382"/>
+          <a:ext cx="1264024" cy="11206"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="3">
+          <a:schemeClr val="accent2"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent2"/>
+        </a:fillRef>
+        <a:effectRef idx="2">
+          <a:schemeClr val="accent2"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1006,22 +1512,22 @@
   <dimension ref="B1:D75"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B20" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B17" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="G32" sqref="G32"/>
+      <selection pane="bottomRight" activeCell="D37" sqref="D37"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.2" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="12" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="7.19921875" style="1" customWidth="1"/>
-    <col min="2" max="2" width="26.5" style="1" customWidth="1"/>
-    <col min="3" max="3" width="38.69921875" style="1" customWidth="1"/>
-    <col min="4" max="4" width="75.69921875" style="2" customWidth="1"/>
+    <col min="1" max="1" width="7.25" style="1" customWidth="1"/>
+    <col min="2" max="2" width="31.875" style="1" customWidth="1"/>
+    <col min="3" max="3" width="31.5" style="1" customWidth="1"/>
+    <col min="4" max="4" width="102.875" style="2" customWidth="1"/>
     <col min="5" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:4" x14ac:dyDescent="0.4">
+    <row r="1" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B1" s="3" t="s">
         <v>0</v>
       </c>
@@ -1032,444 +1538,486 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="2:4" x14ac:dyDescent="0.4">
+    <row r="2" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B2" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="C2" s="6" t="s">
         <v>56</v>
       </c>
-      <c r="C2" s="6" t="s">
+      <c r="D2" s="20" t="s">
         <v>57</v>
       </c>
-      <c r="D2" s="20" t="s">
+    </row>
+    <row r="3" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B3" s="21" t="s">
         <v>58</v>
       </c>
-    </row>
-    <row r="3" spans="2:4" x14ac:dyDescent="0.4">
-      <c r="B3" s="21" t="s">
+      <c r="C3" s="6" t="s">
         <v>59</v>
       </c>
-      <c r="C3" s="6" t="s">
+      <c r="D3" s="20"/>
+    </row>
+    <row r="4" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B4" s="21" t="s">
         <v>60</v>
       </c>
-      <c r="D3" s="20"/>
-    </row>
-    <row r="4" spans="2:4" x14ac:dyDescent="0.4">
-      <c r="B4" s="21" t="s">
+      <c r="C4" s="6" t="s">
         <v>61</v>
       </c>
-      <c r="C4" s="6" t="s">
+      <c r="D4" s="20" t="s">
         <v>62</v>
       </c>
-      <c r="D4" s="20" t="s">
+    </row>
+    <row r="5" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B5" s="21" t="s">
         <v>63</v>
       </c>
-    </row>
-    <row r="5" spans="2:4" x14ac:dyDescent="0.4">
-      <c r="B5" s="21" t="s">
+      <c r="C5" s="6" t="s">
         <v>64</v>
       </c>
-      <c r="C5" s="6" t="s">
+      <c r="D5" s="20" t="s">
         <v>65</v>
       </c>
-      <c r="D5" s="20" t="s">
+    </row>
+    <row r="6" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B6" s="21" t="s">
+        <v>37</v>
+      </c>
+      <c r="C6" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="D6" s="20" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="7" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B7" s="21" t="s">
         <v>66</v>
       </c>
-    </row>
-    <row r="6" spans="2:4" x14ac:dyDescent="0.4">
-      <c r="B6" s="21" t="s">
-        <v>38</v>
-      </c>
-      <c r="C6" s="6" t="s">
-        <v>37</v>
-      </c>
-      <c r="D6" s="20" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="7" spans="2:4" x14ac:dyDescent="0.4">
-      <c r="B7" s="21" t="s">
+      <c r="C7" s="22" t="s">
         <v>67</v>
       </c>
-      <c r="C7" s="22" t="s">
+      <c r="D7" s="20" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="8" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B8" s="4" t="s">
         <v>68</v>
       </c>
-      <c r="D7" s="20" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="8" spans="2:4" x14ac:dyDescent="0.4">
-      <c r="B8" s="4" t="s">
+      <c r="C8" s="22" t="s">
         <v>69</v>
       </c>
-      <c r="C8" s="22" t="s">
-        <v>70</v>
-      </c>
       <c r="D8" s="20" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="9" spans="2:4" x14ac:dyDescent="0.4">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="9" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B9" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="C9" s="22" t="s">
+        <v>71</v>
+      </c>
+      <c r="D9" s="20" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="10" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B10" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="C10" s="23" t="s">
         <v>73</v>
       </c>
-      <c r="C9" s="22" t="s">
-        <v>72</v>
-      </c>
-      <c r="D9" s="20" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="10" spans="2:4" x14ac:dyDescent="0.4">
-      <c r="B10" s="4" t="s">
-        <v>75</v>
-      </c>
-      <c r="C10" s="23" t="s">
-        <v>74</v>
-      </c>
       <c r="D10" s="20" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="11" spans="2:4" x14ac:dyDescent="0.4">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="11" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B11" s="4"/>
       <c r="C11" s="4"/>
       <c r="D11" s="5"/>
     </row>
-    <row r="12" spans="2:4" x14ac:dyDescent="0.4">
+    <row r="12" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B12" s="4"/>
       <c r="C12" s="4"/>
       <c r="D12" s="5"/>
     </row>
-    <row r="13" spans="2:4" x14ac:dyDescent="0.4">
+    <row r="13" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B13" s="4"/>
       <c r="C13" s="4"/>
       <c r="D13" s="5"/>
     </row>
-    <row r="14" spans="2:4" x14ac:dyDescent="0.4">
+    <row r="14" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B14" s="4"/>
       <c r="C14" s="4"/>
       <c r="D14" s="5"/>
     </row>
-    <row r="15" spans="2:4" x14ac:dyDescent="0.4">
+    <row r="15" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B15" s="4"/>
       <c r="C15" s="4"/>
       <c r="D15" s="5"/>
     </row>
-    <row r="16" spans="2:4" x14ac:dyDescent="0.4">
+    <row r="16" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B16" s="4"/>
       <c r="C16" s="4"/>
       <c r="D16" s="5"/>
     </row>
-    <row r="17" spans="2:4" x14ac:dyDescent="0.4">
+    <row r="17" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B17" s="4"/>
       <c r="C17" s="4"/>
       <c r="D17" s="5"/>
     </row>
-    <row r="18" spans="2:4" x14ac:dyDescent="0.4">
+    <row r="18" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B18" s="4"/>
       <c r="C18" s="4"/>
       <c r="D18" s="5"/>
     </row>
-    <row r="19" spans="2:4" x14ac:dyDescent="0.4">
+    <row r="19" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B19" s="4"/>
       <c r="C19" s="4"/>
       <c r="D19" s="5"/>
     </row>
-    <row r="20" spans="2:4" x14ac:dyDescent="0.4">
+    <row r="20" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B20" s="4"/>
       <c r="C20" s="4"/>
       <c r="D20" s="5"/>
     </row>
-    <row r="21" spans="2:4" x14ac:dyDescent="0.4">
+    <row r="21" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B21" s="4"/>
       <c r="C21" s="4"/>
       <c r="D21" s="5"/>
     </row>
-    <row r="22" spans="2:4" x14ac:dyDescent="0.4">
+    <row r="22" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B22" s="4"/>
       <c r="C22" s="4"/>
       <c r="D22" s="5"/>
     </row>
-    <row r="23" spans="2:4" x14ac:dyDescent="0.4">
+    <row r="23" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B23" s="4"/>
       <c r="C23" s="4"/>
       <c r="D23" s="5"/>
     </row>
-    <row r="24" spans="2:4" x14ac:dyDescent="0.4">
+    <row r="24" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B24" s="4"/>
       <c r="C24" s="4"/>
       <c r="D24" s="5"/>
     </row>
-    <row r="25" spans="2:4" x14ac:dyDescent="0.4">
+    <row r="25" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B25" s="4"/>
       <c r="C25" s="4"/>
       <c r="D25" s="5"/>
     </row>
-    <row r="26" spans="2:4" x14ac:dyDescent="0.4">
+    <row r="26" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B26" s="4"/>
       <c r="C26" s="4"/>
       <c r="D26" s="5"/>
     </row>
-    <row r="27" spans="2:4" x14ac:dyDescent="0.4">
+    <row r="27" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B27" s="4"/>
       <c r="C27" s="4"/>
       <c r="D27" s="5"/>
     </row>
-    <row r="28" spans="2:4" x14ac:dyDescent="0.4">
+    <row r="28" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B28" s="4"/>
       <c r="C28" s="4"/>
       <c r="D28" s="5"/>
     </row>
-    <row r="29" spans="2:4" x14ac:dyDescent="0.4">
+    <row r="29" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B29" s="4"/>
       <c r="C29" s="4"/>
       <c r="D29" s="5"/>
     </row>
-    <row r="30" spans="2:4" x14ac:dyDescent="0.4">
+    <row r="30" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B30" s="4"/>
       <c r="C30" s="4"/>
       <c r="D30" s="5"/>
     </row>
-    <row r="31" spans="2:4" x14ac:dyDescent="0.4">
+    <row r="31" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B31" s="4"/>
       <c r="C31" s="4"/>
       <c r="D31" s="5"/>
     </row>
-    <row r="32" spans="2:4" x14ac:dyDescent="0.4">
+    <row r="32" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B32" s="4"/>
       <c r="C32" s="4"/>
       <c r="D32" s="5"/>
     </row>
-    <row r="33" spans="2:4" x14ac:dyDescent="0.4">
+    <row r="33" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B33" s="4"/>
       <c r="C33" s="4"/>
       <c r="D33" s="5"/>
     </row>
-    <row r="34" spans="2:4" x14ac:dyDescent="0.4">
+    <row r="34" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B34" s="4"/>
       <c r="C34" s="4"/>
       <c r="D34" s="5"/>
     </row>
-    <row r="36" spans="2:4" x14ac:dyDescent="0.4">
-      <c r="B36" s="3" t="s">
-        <v>93</v>
-      </c>
-      <c r="C36" s="3" t="s">
-        <v>96</v>
-      </c>
+    <row r="36" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B36" s="35" t="s">
+        <v>136</v>
+      </c>
+      <c r="C36" s="36"/>
       <c r="D36" s="3" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="37" spans="2:4" x14ac:dyDescent="0.4">
-      <c r="B37" s="4" t="s">
-        <v>92</v>
-      </c>
-      <c r="C37" s="4"/>
-      <c r="D37" s="5"/>
-    </row>
-    <row r="38" spans="2:4" x14ac:dyDescent="0.4">
-      <c r="B38" s="4"/>
-      <c r="C38" s="4"/>
-      <c r="D38" s="4"/>
-    </row>
-    <row r="39" spans="2:4" x14ac:dyDescent="0.4">
-      <c r="B39" s="4"/>
-      <c r="C39" s="4"/>
-      <c r="D39" s="4"/>
-    </row>
-    <row r="40" spans="2:4" x14ac:dyDescent="0.4">
-      <c r="B40" s="4"/>
-      <c r="C40" s="4" t="s">
-        <v>97</v>
-      </c>
-      <c r="D40" s="5" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="41" spans="2:4" x14ac:dyDescent="0.4">
-      <c r="B41" s="4"/>
-      <c r="C41" s="4"/>
+        <v>91</v>
+      </c>
+    </row>
+    <row r="37" spans="2:4" ht="36" x14ac:dyDescent="0.3">
+      <c r="B37" s="37" t="s">
+        <v>138</v>
+      </c>
+      <c r="C37" s="38"/>
+      <c r="D37" s="33" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="38" spans="2:4" ht="144" x14ac:dyDescent="0.3">
+      <c r="B38" s="37" t="s">
+        <v>139</v>
+      </c>
+      <c r="C38" s="38"/>
+      <c r="D38" s="34" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="39" spans="2:4" ht="60" x14ac:dyDescent="0.3">
+      <c r="B39" s="37" t="s">
+        <v>142</v>
+      </c>
+      <c r="C39" s="38"/>
+      <c r="D39" s="34" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="40" spans="2:4" ht="96" x14ac:dyDescent="0.3">
+      <c r="B40" s="37" t="s">
+        <v>143</v>
+      </c>
+      <c r="C40" s="38"/>
+      <c r="D40" s="33" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="41" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B41" s="37"/>
+      <c r="C41" s="38"/>
       <c r="D41" s="4"/>
     </row>
-    <row r="42" spans="2:4" x14ac:dyDescent="0.4">
-      <c r="B42" s="4"/>
-      <c r="C42" s="4"/>
+    <row r="42" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B42" s="37"/>
+      <c r="C42" s="38"/>
       <c r="D42" s="5"/>
     </row>
-    <row r="43" spans="2:4" x14ac:dyDescent="0.4">
-      <c r="B43" s="4"/>
-      <c r="C43" s="4" t="s">
-        <v>99</v>
-      </c>
-      <c r="D43" s="5" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="44" spans="2:4" x14ac:dyDescent="0.4">
-      <c r="B44" s="4"/>
-      <c r="C44" s="4"/>
+    <row r="43" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B43" s="37"/>
+      <c r="C43" s="38"/>
+      <c r="D43" s="5"/>
+    </row>
+    <row r="44" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B44" s="37"/>
+      <c r="C44" s="38"/>
       <c r="D44" s="5"/>
     </row>
-    <row r="45" spans="2:4" x14ac:dyDescent="0.4">
-      <c r="B45" s="4"/>
-      <c r="C45" s="4"/>
+    <row r="45" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B45" s="37"/>
+      <c r="C45" s="38"/>
       <c r="D45" s="5"/>
     </row>
-    <row r="46" spans="2:4" x14ac:dyDescent="0.4">
-      <c r="B46" s="4"/>
-      <c r="C46" s="4" t="s">
-        <v>100</v>
-      </c>
-      <c r="D46" s="5" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="47" spans="2:4" x14ac:dyDescent="0.4">
-      <c r="B47" s="4"/>
-      <c r="C47" s="4"/>
+    <row r="46" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B46" s="37"/>
+      <c r="C46" s="38"/>
+      <c r="D46" s="5"/>
+    </row>
+    <row r="47" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B47" s="37"/>
+      <c r="C47" s="38"/>
       <c r="D47" s="5"/>
     </row>
-    <row r="48" spans="2:4" x14ac:dyDescent="0.4">
-      <c r="B48" s="4"/>
-      <c r="C48" s="4"/>
+    <row r="48" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B48" s="37"/>
+      <c r="C48" s="38"/>
       <c r="D48" s="5"/>
     </row>
-    <row r="49" spans="2:4" x14ac:dyDescent="0.4">
-      <c r="B49" s="4"/>
-      <c r="C49" s="4"/>
+    <row r="49" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B49" s="37"/>
+      <c r="C49" s="38"/>
       <c r="D49" s="5"/>
     </row>
-    <row r="50" spans="2:4" x14ac:dyDescent="0.4">
-      <c r="B50" s="4"/>
-      <c r="C50" s="4"/>
+    <row r="50" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B50" s="37"/>
+      <c r="C50" s="38"/>
       <c r="D50" s="5"/>
     </row>
-    <row r="51" spans="2:4" x14ac:dyDescent="0.4">
-      <c r="B51" s="4"/>
-      <c r="C51" s="4"/>
+    <row r="51" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B51" s="37"/>
+      <c r="C51" s="38"/>
       <c r="D51" s="5"/>
     </row>
-    <row r="52" spans="2:4" x14ac:dyDescent="0.4">
-      <c r="B52" s="4"/>
-      <c r="C52" s="4"/>
+    <row r="52" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B52" s="37"/>
+      <c r="C52" s="38"/>
       <c r="D52" s="5"/>
     </row>
-    <row r="53" spans="2:4" x14ac:dyDescent="0.4">
-      <c r="B53" s="4"/>
-      <c r="C53" s="4"/>
+    <row r="53" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B53" s="37"/>
+      <c r="C53" s="38"/>
       <c r="D53" s="5"/>
     </row>
-    <row r="54" spans="2:4" x14ac:dyDescent="0.4">
-      <c r="B54" s="4"/>
-      <c r="C54" s="4"/>
+    <row r="54" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B54" s="37"/>
+      <c r="C54" s="38"/>
       <c r="D54" s="5"/>
     </row>
-    <row r="55" spans="2:4" x14ac:dyDescent="0.4">
-      <c r="B55" s="4"/>
-      <c r="C55" s="4"/>
+    <row r="55" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B55" s="37"/>
+      <c r="C55" s="38"/>
       <c r="D55" s="5"/>
     </row>
-    <row r="56" spans="2:4" x14ac:dyDescent="0.4">
-      <c r="B56" s="4"/>
-      <c r="C56" s="4"/>
+    <row r="56" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B56" s="37"/>
+      <c r="C56" s="38"/>
       <c r="D56" s="5"/>
     </row>
-    <row r="57" spans="2:4" x14ac:dyDescent="0.4">
-      <c r="B57" s="4"/>
-      <c r="C57" s="4"/>
+    <row r="57" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B57" s="37"/>
+      <c r="C57" s="38"/>
       <c r="D57" s="5"/>
     </row>
-    <row r="58" spans="2:4" x14ac:dyDescent="0.4">
-      <c r="B58" s="4"/>
-      <c r="C58" s="4"/>
+    <row r="58" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B58" s="37"/>
+      <c r="C58" s="38"/>
       <c r="D58" s="5"/>
     </row>
-    <row r="59" spans="2:4" x14ac:dyDescent="0.4">
-      <c r="B59" s="4"/>
-      <c r="C59" s="4"/>
+    <row r="59" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B59" s="37"/>
+      <c r="C59" s="38"/>
       <c r="D59" s="5"/>
     </row>
-    <row r="60" spans="2:4" x14ac:dyDescent="0.4">
-      <c r="B60" s="4"/>
-      <c r="C60" s="4"/>
+    <row r="60" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B60" s="37"/>
+      <c r="C60" s="38"/>
       <c r="D60" s="5"/>
     </row>
-    <row r="61" spans="2:4" x14ac:dyDescent="0.4">
-      <c r="B61" s="4"/>
-      <c r="C61" s="4"/>
+    <row r="61" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B61" s="37"/>
+      <c r="C61" s="38"/>
       <c r="D61" s="5"/>
     </row>
-    <row r="62" spans="2:4" x14ac:dyDescent="0.4">
-      <c r="B62" s="4"/>
-      <c r="C62" s="4"/>
+    <row r="62" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B62" s="37"/>
+      <c r="C62" s="38"/>
       <c r="D62" s="5"/>
     </row>
-    <row r="63" spans="2:4" x14ac:dyDescent="0.4">
-      <c r="B63" s="4"/>
-      <c r="C63" s="4"/>
+    <row r="63" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B63" s="37"/>
+      <c r="C63" s="38"/>
       <c r="D63" s="5"/>
     </row>
-    <row r="64" spans="2:4" x14ac:dyDescent="0.4">
-      <c r="B64" s="4"/>
-      <c r="C64" s="4"/>
+    <row r="64" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B64" s="37"/>
+      <c r="C64" s="38"/>
       <c r="D64" s="5"/>
     </row>
-    <row r="65" spans="2:4" x14ac:dyDescent="0.4">
-      <c r="B65" s="4"/>
-      <c r="C65" s="4"/>
+    <row r="65" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B65" s="37"/>
+      <c r="C65" s="38"/>
       <c r="D65" s="5"/>
     </row>
-    <row r="66" spans="2:4" x14ac:dyDescent="0.4">
-      <c r="B66" s="4"/>
-      <c r="C66" s="4"/>
+    <row r="66" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B66" s="37"/>
+      <c r="C66" s="38"/>
       <c r="D66" s="5"/>
     </row>
-    <row r="67" spans="2:4" x14ac:dyDescent="0.4">
-      <c r="B67" s="4"/>
-      <c r="C67" s="4"/>
+    <row r="67" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B67" s="37"/>
+      <c r="C67" s="38"/>
       <c r="D67" s="5"/>
     </row>
-    <row r="68" spans="2:4" x14ac:dyDescent="0.4">
-      <c r="B68" s="4"/>
-      <c r="C68" s="4"/>
+    <row r="68" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B68" s="37"/>
+      <c r="C68" s="38"/>
       <c r="D68" s="5"/>
     </row>
-    <row r="69" spans="2:4" x14ac:dyDescent="0.4">
-      <c r="B69" s="4"/>
-      <c r="C69" s="4"/>
+    <row r="69" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B69" s="37"/>
+      <c r="C69" s="38"/>
       <c r="D69" s="5"/>
     </row>
-    <row r="70" spans="2:4" x14ac:dyDescent="0.4">
-      <c r="B70" s="4"/>
-      <c r="C70" s="4"/>
+    <row r="70" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B70" s="37"/>
+      <c r="C70" s="38"/>
       <c r="D70" s="5"/>
     </row>
-    <row r="71" spans="2:4" x14ac:dyDescent="0.4">
-      <c r="B71" s="4"/>
-      <c r="C71" s="4"/>
+    <row r="71" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B71" s="37"/>
+      <c r="C71" s="38"/>
       <c r="D71" s="5"/>
     </row>
-    <row r="72" spans="2:4" x14ac:dyDescent="0.4">
-      <c r="B72" s="4"/>
-      <c r="C72" s="4"/>
+    <row r="72" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B72" s="37"/>
+      <c r="C72" s="38"/>
       <c r="D72" s="5"/>
     </row>
-    <row r="73" spans="2:4" x14ac:dyDescent="0.4">
-      <c r="B73" s="4"/>
-      <c r="C73" s="4"/>
+    <row r="73" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B73" s="37"/>
+      <c r="C73" s="38"/>
       <c r="D73" s="5"/>
     </row>
-    <row r="74" spans="2:4" x14ac:dyDescent="0.4">
-      <c r="B74" s="4"/>
-      <c r="C74" s="4"/>
+    <row r="74" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B74" s="37"/>
+      <c r="C74" s="38"/>
       <c r="D74" s="5"/>
     </row>
-    <row r="75" spans="2:4" x14ac:dyDescent="0.4">
-      <c r="B75" s="4"/>
-      <c r="C75" s="4"/>
+    <row r="75" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B75" s="37"/>
+      <c r="C75" s="38"/>
       <c r="D75" s="5"/>
     </row>
   </sheetData>
+  <mergeCells count="40">
+    <mergeCell ref="B72:C72"/>
+    <mergeCell ref="B73:C73"/>
+    <mergeCell ref="B74:C74"/>
+    <mergeCell ref="B75:C75"/>
+    <mergeCell ref="B66:C66"/>
+    <mergeCell ref="B67:C67"/>
+    <mergeCell ref="B68:C68"/>
+    <mergeCell ref="B69:C69"/>
+    <mergeCell ref="B70:C70"/>
+    <mergeCell ref="B71:C71"/>
+    <mergeCell ref="B60:C60"/>
+    <mergeCell ref="B61:C61"/>
+    <mergeCell ref="B62:C62"/>
+    <mergeCell ref="B63:C63"/>
+    <mergeCell ref="B64:C64"/>
+    <mergeCell ref="B65:C65"/>
+    <mergeCell ref="B54:C54"/>
+    <mergeCell ref="B55:C55"/>
+    <mergeCell ref="B56:C56"/>
+    <mergeCell ref="B57:C57"/>
+    <mergeCell ref="B58:C58"/>
+    <mergeCell ref="B59:C59"/>
+    <mergeCell ref="B48:C48"/>
+    <mergeCell ref="B49:C49"/>
+    <mergeCell ref="B50:C50"/>
+    <mergeCell ref="B51:C51"/>
+    <mergeCell ref="B52:C52"/>
+    <mergeCell ref="B53:C53"/>
+    <mergeCell ref="B42:C42"/>
+    <mergeCell ref="B43:C43"/>
+    <mergeCell ref="B44:C44"/>
+    <mergeCell ref="B45:C45"/>
+    <mergeCell ref="B46:C46"/>
+    <mergeCell ref="B47:C47"/>
+    <mergeCell ref="B36:C36"/>
+    <mergeCell ref="B37:C37"/>
+    <mergeCell ref="B38:C38"/>
+    <mergeCell ref="B39:C39"/>
+    <mergeCell ref="B40:C40"/>
+    <mergeCell ref="B41:C41"/>
+  </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -1477,26 +2025,26 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:E103"/>
+  <dimension ref="B2:E101"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="2" topLeftCell="B4" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="C6" sqref="C6"/>
+      <selection pane="bottomRight" activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.2" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="12" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="6.5" style="18" customWidth="1"/>
-    <col min="2" max="2" width="8.3984375" style="19" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="2.625" style="18" customWidth="1"/>
+    <col min="2" max="2" width="8.375" style="19" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="26" style="19" customWidth="1"/>
-    <col min="4" max="4" width="91.59765625" style="25" customWidth="1"/>
-    <col min="5" max="5" width="39.19921875" style="25" customWidth="1"/>
+    <col min="4" max="4" width="112.125" style="25" customWidth="1"/>
+    <col min="5" max="5" width="81.75" style="25" customWidth="1"/>
     <col min="6" max="16384" width="9" style="18"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:5" s="16" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="2" spans="2:5" s="16" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B2" s="15" t="s">
         <v>10</v>
       </c>
@@ -1507,632 +2055,620 @@
         <v>12</v>
       </c>
       <c r="E2" s="15" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="3" spans="2:5" ht="92.4" x14ac:dyDescent="0.4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="2:5" ht="84" x14ac:dyDescent="0.3">
       <c r="B3" s="17" t="s">
-        <v>110</v>
+        <v>98</v>
       </c>
       <c r="C3" s="17" t="s">
-        <v>109</v>
+        <v>99</v>
       </c>
       <c r="D3" s="26" t="s">
-        <v>111</v>
+        <v>100</v>
       </c>
       <c r="E3" s="24"/>
     </row>
-    <row r="4" spans="2:5" ht="92.4" x14ac:dyDescent="0.4">
+    <row r="4" spans="2:5" ht="72" x14ac:dyDescent="0.3">
       <c r="B4" s="17" t="s">
-        <v>110</v>
+        <v>98</v>
       </c>
       <c r="C4" s="17" t="s">
-        <v>112</v>
+        <v>101</v>
       </c>
       <c r="D4" s="26" t="s">
-        <v>113</v>
+        <v>102</v>
       </c>
       <c r="E4" s="24"/>
     </row>
-    <row r="5" spans="2:5" ht="79.2" x14ac:dyDescent="0.4">
+    <row r="5" spans="2:5" ht="348" x14ac:dyDescent="0.3">
       <c r="B5" s="17" t="s">
-        <v>110</v>
+        <v>98</v>
       </c>
       <c r="C5" s="17" t="s">
-        <v>114</v>
+        <v>135</v>
       </c>
       <c r="D5" s="26" t="s">
-        <v>115</v>
-      </c>
-      <c r="E5" s="24"/>
-    </row>
-    <row r="6" spans="2:5" x14ac:dyDescent="0.4">
+        <v>145</v>
+      </c>
+      <c r="E5" s="26"/>
+    </row>
+    <row r="6" spans="2:5" ht="159" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B6" s="17"/>
       <c r="C6" s="17"/>
       <c r="D6" s="24"/>
-      <c r="E6" s="24"/>
-    </row>
-    <row r="7" spans="2:5" x14ac:dyDescent="0.4">
+      <c r="E6" s="26"/>
+    </row>
+    <row r="7" spans="2:5" ht="86.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B7" s="17"/>
       <c r="C7" s="17"/>
       <c r="D7" s="24"/>
-      <c r="E7" s="24"/>
-    </row>
-    <row r="8" spans="2:5" x14ac:dyDescent="0.4">
+      <c r="E7" s="26"/>
+    </row>
+    <row r="8" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B8" s="17"/>
       <c r="C8" s="17"/>
       <c r="D8" s="24"/>
       <c r="E8" s="24"/>
     </row>
-    <row r="9" spans="2:5" x14ac:dyDescent="0.4">
+    <row r="9" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B9" s="17"/>
       <c r="C9" s="17"/>
       <c r="D9" s="24"/>
       <c r="E9" s="24"/>
     </row>
-    <row r="10" spans="2:5" x14ac:dyDescent="0.4">
+    <row r="10" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B10" s="17"/>
       <c r="C10" s="17"/>
       <c r="D10" s="24"/>
       <c r="E10" s="24"/>
     </row>
-    <row r="11" spans="2:5" x14ac:dyDescent="0.4">
+    <row r="11" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B11" s="17"/>
       <c r="C11" s="17"/>
       <c r="D11" s="24"/>
       <c r="E11" s="24"/>
     </row>
-    <row r="12" spans="2:5" x14ac:dyDescent="0.4">
+    <row r="12" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B12" s="17"/>
       <c r="C12" s="17"/>
       <c r="D12" s="24"/>
       <c r="E12" s="24"/>
     </row>
-    <row r="13" spans="2:5" x14ac:dyDescent="0.4">
+    <row r="13" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B13" s="17"/>
       <c r="C13" s="17"/>
       <c r="D13" s="24"/>
       <c r="E13" s="24"/>
     </row>
-    <row r="14" spans="2:5" x14ac:dyDescent="0.4">
+    <row r="14" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B14" s="17"/>
       <c r="C14" s="17"/>
       <c r="D14" s="24"/>
       <c r="E14" s="24"/>
     </row>
-    <row r="15" spans="2:5" x14ac:dyDescent="0.4">
+    <row r="15" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B15" s="17"/>
       <c r="C15" s="17"/>
       <c r="D15" s="24"/>
       <c r="E15" s="24"/>
     </row>
-    <row r="16" spans="2:5" x14ac:dyDescent="0.4">
+    <row r="16" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B16" s="17"/>
       <c r="C16" s="17"/>
       <c r="D16" s="24"/>
       <c r="E16" s="24"/>
     </row>
-    <row r="17" spans="2:5" x14ac:dyDescent="0.4">
+    <row r="17" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B17" s="17"/>
       <c r="C17" s="17"/>
       <c r="D17" s="24"/>
       <c r="E17" s="24"/>
     </row>
-    <row r="18" spans="2:5" x14ac:dyDescent="0.4">
+    <row r="18" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B18" s="17"/>
       <c r="C18" s="17"/>
       <c r="D18" s="24"/>
       <c r="E18" s="24"/>
     </row>
-    <row r="19" spans="2:5" x14ac:dyDescent="0.4">
+    <row r="19" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B19" s="17"/>
       <c r="C19" s="17"/>
       <c r="D19" s="24"/>
       <c r="E19" s="24"/>
     </row>
-    <row r="20" spans="2:5" x14ac:dyDescent="0.4">
+    <row r="20" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B20" s="17"/>
       <c r="C20" s="17"/>
       <c r="D20" s="24"/>
       <c r="E20" s="24"/>
     </row>
-    <row r="21" spans="2:5" x14ac:dyDescent="0.4">
+    <row r="21" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B21" s="17"/>
       <c r="C21" s="17"/>
       <c r="D21" s="24"/>
       <c r="E21" s="24"/>
     </row>
-    <row r="22" spans="2:5" x14ac:dyDescent="0.4">
+    <row r="22" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B22" s="17"/>
       <c r="C22" s="17"/>
       <c r="D22" s="24"/>
       <c r="E22" s="24"/>
     </row>
-    <row r="23" spans="2:5" x14ac:dyDescent="0.4">
+    <row r="23" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B23" s="17"/>
       <c r="C23" s="17"/>
       <c r="D23" s="24"/>
       <c r="E23" s="24"/>
     </row>
-    <row r="24" spans="2:5" x14ac:dyDescent="0.4">
+    <row r="24" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B24" s="17"/>
       <c r="C24" s="17"/>
       <c r="D24" s="24"/>
       <c r="E24" s="24"/>
     </row>
-    <row r="25" spans="2:5" x14ac:dyDescent="0.4">
+    <row r="25" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B25" s="17"/>
       <c r="C25" s="17"/>
       <c r="D25" s="24"/>
       <c r="E25" s="24"/>
     </row>
-    <row r="26" spans="2:5" x14ac:dyDescent="0.4">
+    <row r="26" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B26" s="17"/>
       <c r="C26" s="17"/>
       <c r="D26" s="24"/>
       <c r="E26" s="24"/>
     </row>
-    <row r="27" spans="2:5" x14ac:dyDescent="0.4">
+    <row r="27" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B27" s="17"/>
       <c r="C27" s="17"/>
       <c r="D27" s="24"/>
       <c r="E27" s="24"/>
     </row>
-    <row r="28" spans="2:5" x14ac:dyDescent="0.4">
+    <row r="28" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B28" s="17"/>
       <c r="C28" s="17"/>
       <c r="D28" s="24"/>
       <c r="E28" s="24"/>
     </row>
-    <row r="29" spans="2:5" x14ac:dyDescent="0.4">
+    <row r="29" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B29" s="17"/>
       <c r="C29" s="17"/>
       <c r="D29" s="24"/>
       <c r="E29" s="24"/>
     </row>
-    <row r="30" spans="2:5" x14ac:dyDescent="0.4">
+    <row r="30" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B30" s="17"/>
       <c r="C30" s="17"/>
       <c r="D30" s="24"/>
       <c r="E30" s="24"/>
     </row>
-    <row r="31" spans="2:5" x14ac:dyDescent="0.4">
+    <row r="31" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B31" s="17"/>
       <c r="C31" s="17"/>
       <c r="D31" s="24"/>
       <c r="E31" s="24"/>
     </row>
-    <row r="32" spans="2:5" x14ac:dyDescent="0.4">
+    <row r="32" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B32" s="17"/>
       <c r="C32" s="17"/>
       <c r="D32" s="24"/>
       <c r="E32" s="24"/>
     </row>
-    <row r="33" spans="2:5" x14ac:dyDescent="0.4">
+    <row r="33" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B33" s="17"/>
       <c r="C33" s="17"/>
       <c r="D33" s="24"/>
       <c r="E33" s="24"/>
     </row>
-    <row r="34" spans="2:5" x14ac:dyDescent="0.4">
+    <row r="34" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B34" s="17"/>
       <c r="C34" s="17"/>
       <c r="D34" s="24"/>
       <c r="E34" s="24"/>
     </row>
-    <row r="35" spans="2:5" x14ac:dyDescent="0.4">
+    <row r="35" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B35" s="17"/>
       <c r="C35" s="17"/>
       <c r="D35" s="24"/>
       <c r="E35" s="24"/>
     </row>
-    <row r="36" spans="2:5" x14ac:dyDescent="0.4">
+    <row r="36" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B36" s="17"/>
       <c r="C36" s="17"/>
       <c r="D36" s="24"/>
       <c r="E36" s="24"/>
     </row>
-    <row r="37" spans="2:5" x14ac:dyDescent="0.4">
+    <row r="37" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B37" s="17"/>
       <c r="C37" s="17"/>
       <c r="D37" s="24"/>
       <c r="E37" s="24"/>
     </row>
-    <row r="38" spans="2:5" x14ac:dyDescent="0.4">
+    <row r="38" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B38" s="17"/>
       <c r="C38" s="17"/>
       <c r="D38" s="24"/>
       <c r="E38" s="24"/>
     </row>
-    <row r="39" spans="2:5" x14ac:dyDescent="0.4">
+    <row r="39" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B39" s="17"/>
       <c r="C39" s="17"/>
       <c r="D39" s="24"/>
       <c r="E39" s="24"/>
     </row>
-    <row r="40" spans="2:5" x14ac:dyDescent="0.4">
+    <row r="40" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B40" s="17"/>
       <c r="C40" s="17"/>
       <c r="D40" s="24"/>
       <c r="E40" s="24"/>
     </row>
-    <row r="41" spans="2:5" x14ac:dyDescent="0.4">
+    <row r="41" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B41" s="17"/>
       <c r="C41" s="17"/>
       <c r="D41" s="24"/>
       <c r="E41" s="24"/>
     </row>
-    <row r="42" spans="2:5" x14ac:dyDescent="0.4">
+    <row r="42" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B42" s="17"/>
       <c r="C42" s="17"/>
       <c r="D42" s="24"/>
       <c r="E42" s="24"/>
     </row>
-    <row r="43" spans="2:5" x14ac:dyDescent="0.4">
+    <row r="43" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B43" s="17"/>
       <c r="C43" s="17"/>
       <c r="D43" s="24"/>
       <c r="E43" s="24"/>
     </row>
-    <row r="44" spans="2:5" x14ac:dyDescent="0.4">
+    <row r="44" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B44" s="17"/>
       <c r="C44" s="17"/>
       <c r="D44" s="24"/>
       <c r="E44" s="24"/>
     </row>
-    <row r="45" spans="2:5" x14ac:dyDescent="0.4">
+    <row r="45" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B45" s="17"/>
       <c r="C45" s="17"/>
       <c r="D45" s="24"/>
       <c r="E45" s="24"/>
     </row>
-    <row r="46" spans="2:5" x14ac:dyDescent="0.4">
+    <row r="46" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B46" s="17"/>
       <c r="C46" s="17"/>
       <c r="D46" s="24"/>
       <c r="E46" s="24"/>
     </row>
-    <row r="47" spans="2:5" x14ac:dyDescent="0.4">
+    <row r="47" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B47" s="17"/>
       <c r="C47" s="17"/>
       <c r="D47" s="24"/>
       <c r="E47" s="24"/>
     </row>
-    <row r="48" spans="2:5" x14ac:dyDescent="0.4">
+    <row r="48" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B48" s="17"/>
       <c r="C48" s="17"/>
       <c r="D48" s="24"/>
       <c r="E48" s="24"/>
     </row>
-    <row r="49" spans="2:5" x14ac:dyDescent="0.4">
+    <row r="49" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B49" s="17"/>
       <c r="C49" s="17"/>
       <c r="D49" s="24"/>
       <c r="E49" s="24"/>
     </row>
-    <row r="50" spans="2:5" x14ac:dyDescent="0.4">
+    <row r="50" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B50" s="17"/>
       <c r="C50" s="17"/>
       <c r="D50" s="24"/>
       <c r="E50" s="24"/>
     </row>
-    <row r="51" spans="2:5" x14ac:dyDescent="0.4">
+    <row r="51" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B51" s="17"/>
       <c r="C51" s="17"/>
       <c r="D51" s="24"/>
       <c r="E51" s="24"/>
     </row>
-    <row r="52" spans="2:5" x14ac:dyDescent="0.4">
+    <row r="52" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B52" s="17"/>
       <c r="C52" s="17"/>
       <c r="D52" s="24"/>
       <c r="E52" s="24"/>
     </row>
-    <row r="53" spans="2:5" x14ac:dyDescent="0.4">
+    <row r="53" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B53" s="17"/>
       <c r="C53" s="17"/>
       <c r="D53" s="24"/>
       <c r="E53" s="24"/>
     </row>
-    <row r="54" spans="2:5" x14ac:dyDescent="0.4">
+    <row r="54" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B54" s="17"/>
       <c r="C54" s="17"/>
       <c r="D54" s="24"/>
       <c r="E54" s="24"/>
     </row>
-    <row r="55" spans="2:5" x14ac:dyDescent="0.4">
+    <row r="55" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B55" s="17"/>
       <c r="C55" s="17"/>
       <c r="D55" s="24"/>
       <c r="E55" s="24"/>
     </row>
-    <row r="56" spans="2:5" x14ac:dyDescent="0.4">
+    <row r="56" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B56" s="17"/>
       <c r="C56" s="17"/>
       <c r="D56" s="24"/>
       <c r="E56" s="24"/>
     </row>
-    <row r="57" spans="2:5" x14ac:dyDescent="0.4">
+    <row r="57" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B57" s="17"/>
       <c r="C57" s="17"/>
       <c r="D57" s="24"/>
       <c r="E57" s="24"/>
     </row>
-    <row r="58" spans="2:5" x14ac:dyDescent="0.4">
+    <row r="58" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B58" s="17"/>
       <c r="C58" s="17"/>
       <c r="D58" s="24"/>
       <c r="E58" s="24"/>
     </row>
-    <row r="59" spans="2:5" x14ac:dyDescent="0.4">
+    <row r="59" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B59" s="17"/>
       <c r="C59" s="17"/>
       <c r="D59" s="24"/>
       <c r="E59" s="24"/>
     </row>
-    <row r="60" spans="2:5" x14ac:dyDescent="0.4">
+    <row r="60" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B60" s="17"/>
       <c r="C60" s="17"/>
       <c r="D60" s="24"/>
       <c r="E60" s="24"/>
     </row>
-    <row r="61" spans="2:5" x14ac:dyDescent="0.4">
+    <row r="61" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B61" s="17"/>
       <c r="C61" s="17"/>
       <c r="D61" s="24"/>
       <c r="E61" s="24"/>
     </row>
-    <row r="62" spans="2:5" x14ac:dyDescent="0.4">
+    <row r="62" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B62" s="17"/>
       <c r="C62" s="17"/>
       <c r="D62" s="24"/>
       <c r="E62" s="24"/>
     </row>
-    <row r="63" spans="2:5" x14ac:dyDescent="0.4">
+    <row r="63" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B63" s="17"/>
       <c r="C63" s="17"/>
       <c r="D63" s="24"/>
       <c r="E63" s="24"/>
     </row>
-    <row r="64" spans="2:5" x14ac:dyDescent="0.4">
+    <row r="64" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B64" s="17"/>
       <c r="C64" s="17"/>
       <c r="D64" s="24"/>
       <c r="E64" s="24"/>
     </row>
-    <row r="65" spans="2:5" x14ac:dyDescent="0.4">
+    <row r="65" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B65" s="17"/>
       <c r="C65" s="17"/>
       <c r="D65" s="24"/>
       <c r="E65" s="24"/>
     </row>
-    <row r="66" spans="2:5" x14ac:dyDescent="0.4">
+    <row r="66" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B66" s="17"/>
       <c r="C66" s="17"/>
       <c r="D66" s="24"/>
       <c r="E66" s="24"/>
     </row>
-    <row r="67" spans="2:5" x14ac:dyDescent="0.4">
+    <row r="67" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B67" s="17"/>
       <c r="C67" s="17"/>
       <c r="D67" s="24"/>
       <c r="E67" s="24"/>
     </row>
-    <row r="68" spans="2:5" x14ac:dyDescent="0.4">
+    <row r="68" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B68" s="17"/>
       <c r="C68" s="17"/>
       <c r="D68" s="24"/>
       <c r="E68" s="24"/>
     </row>
-    <row r="69" spans="2:5" x14ac:dyDescent="0.4">
+    <row r="69" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B69" s="17"/>
       <c r="C69" s="17"/>
       <c r="D69" s="24"/>
       <c r="E69" s="24"/>
     </row>
-    <row r="70" spans="2:5" x14ac:dyDescent="0.4">
+    <row r="70" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B70" s="17"/>
       <c r="C70" s="17"/>
       <c r="D70" s="24"/>
       <c r="E70" s="24"/>
     </row>
-    <row r="71" spans="2:5" x14ac:dyDescent="0.4">
+    <row r="71" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B71" s="17"/>
       <c r="C71" s="17"/>
       <c r="D71" s="24"/>
       <c r="E71" s="24"/>
     </row>
-    <row r="72" spans="2:5" x14ac:dyDescent="0.4">
+    <row r="72" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B72" s="17"/>
       <c r="C72" s="17"/>
       <c r="D72" s="24"/>
       <c r="E72" s="24"/>
     </row>
-    <row r="73" spans="2:5" x14ac:dyDescent="0.4">
+    <row r="73" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B73" s="17"/>
       <c r="C73" s="17"/>
       <c r="D73" s="24"/>
       <c r="E73" s="24"/>
     </row>
-    <row r="74" spans="2:5" x14ac:dyDescent="0.4">
+    <row r="74" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B74" s="17"/>
       <c r="C74" s="17"/>
       <c r="D74" s="24"/>
       <c r="E74" s="24"/>
     </row>
-    <row r="75" spans="2:5" x14ac:dyDescent="0.4">
+    <row r="75" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B75" s="17"/>
       <c r="C75" s="17"/>
       <c r="D75" s="24"/>
       <c r="E75" s="24"/>
     </row>
-    <row r="76" spans="2:5" x14ac:dyDescent="0.4">
+    <row r="76" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B76" s="17"/>
       <c r="C76" s="17"/>
       <c r="D76" s="24"/>
       <c r="E76" s="24"/>
     </row>
-    <row r="77" spans="2:5" x14ac:dyDescent="0.4">
+    <row r="77" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B77" s="17"/>
       <c r="C77" s="17"/>
       <c r="D77" s="24"/>
       <c r="E77" s="24"/>
     </row>
-    <row r="78" spans="2:5" x14ac:dyDescent="0.4">
+    <row r="78" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B78" s="17"/>
       <c r="C78" s="17"/>
       <c r="D78" s="24"/>
       <c r="E78" s="24"/>
     </row>
-    <row r="79" spans="2:5" x14ac:dyDescent="0.4">
+    <row r="79" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B79" s="17"/>
       <c r="C79" s="17"/>
       <c r="D79" s="24"/>
       <c r="E79" s="24"/>
     </row>
-    <row r="80" spans="2:5" x14ac:dyDescent="0.4">
+    <row r="80" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B80" s="17"/>
       <c r="C80" s="17"/>
       <c r="D80" s="24"/>
       <c r="E80" s="24"/>
     </row>
-    <row r="81" spans="2:5" x14ac:dyDescent="0.4">
+    <row r="81" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B81" s="17"/>
       <c r="C81" s="17"/>
       <c r="D81" s="24"/>
       <c r="E81" s="24"/>
     </row>
-    <row r="82" spans="2:5" x14ac:dyDescent="0.4">
+    <row r="82" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B82" s="17"/>
       <c r="C82" s="17"/>
       <c r="D82" s="24"/>
       <c r="E82" s="24"/>
     </row>
-    <row r="83" spans="2:5" x14ac:dyDescent="0.4">
+    <row r="83" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B83" s="17"/>
       <c r="C83" s="17"/>
       <c r="D83" s="24"/>
       <c r="E83" s="24"/>
     </row>
-    <row r="84" spans="2:5" x14ac:dyDescent="0.4">
+    <row r="84" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B84" s="17"/>
       <c r="C84" s="17"/>
       <c r="D84" s="24"/>
       <c r="E84" s="24"/>
     </row>
-    <row r="85" spans="2:5" x14ac:dyDescent="0.4">
+    <row r="85" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B85" s="17"/>
       <c r="C85" s="17"/>
       <c r="D85" s="24"/>
       <c r="E85" s="24"/>
     </row>
-    <row r="86" spans="2:5" x14ac:dyDescent="0.4">
+    <row r="86" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B86" s="17"/>
       <c r="C86" s="17"/>
       <c r="D86" s="24"/>
       <c r="E86" s="24"/>
     </row>
-    <row r="87" spans="2:5" x14ac:dyDescent="0.4">
+    <row r="87" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B87" s="17"/>
       <c r="C87" s="17"/>
       <c r="D87" s="24"/>
       <c r="E87" s="24"/>
     </row>
-    <row r="88" spans="2:5" x14ac:dyDescent="0.4">
+    <row r="88" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B88" s="17"/>
       <c r="C88" s="17"/>
       <c r="D88" s="24"/>
       <c r="E88" s="24"/>
     </row>
-    <row r="89" spans="2:5" x14ac:dyDescent="0.4">
+    <row r="89" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B89" s="17"/>
       <c r="C89" s="17"/>
       <c r="D89" s="24"/>
       <c r="E89" s="24"/>
     </row>
-    <row r="90" spans="2:5" x14ac:dyDescent="0.4">
+    <row r="90" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B90" s="17"/>
       <c r="C90" s="17"/>
       <c r="D90" s="24"/>
       <c r="E90" s="24"/>
     </row>
-    <row r="91" spans="2:5" x14ac:dyDescent="0.4">
+    <row r="91" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B91" s="17"/>
       <c r="C91" s="17"/>
       <c r="D91" s="24"/>
       <c r="E91" s="24"/>
     </row>
-    <row r="92" spans="2:5" x14ac:dyDescent="0.4">
+    <row r="92" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B92" s="17"/>
       <c r="C92" s="17"/>
       <c r="D92" s="24"/>
       <c r="E92" s="24"/>
     </row>
-    <row r="93" spans="2:5" x14ac:dyDescent="0.4">
+    <row r="93" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B93" s="17"/>
       <c r="C93" s="17"/>
       <c r="D93" s="24"/>
       <c r="E93" s="24"/>
     </row>
-    <row r="94" spans="2:5" x14ac:dyDescent="0.4">
+    <row r="94" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B94" s="17"/>
       <c r="C94" s="17"/>
       <c r="D94" s="24"/>
       <c r="E94" s="24"/>
     </row>
-    <row r="95" spans="2:5" x14ac:dyDescent="0.4">
+    <row r="95" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B95" s="17"/>
       <c r="C95" s="17"/>
       <c r="D95" s="24"/>
       <c r="E95" s="24"/>
     </row>
-    <row r="96" spans="2:5" x14ac:dyDescent="0.4">
+    <row r="96" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B96" s="17"/>
       <c r="C96" s="17"/>
       <c r="D96" s="24"/>
       <c r="E96" s="24"/>
     </row>
-    <row r="97" spans="2:5" x14ac:dyDescent="0.4">
+    <row r="97" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B97" s="17"/>
       <c r="C97" s="17"/>
       <c r="D97" s="24"/>
       <c r="E97" s="24"/>
     </row>
-    <row r="98" spans="2:5" x14ac:dyDescent="0.4">
+    <row r="98" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B98" s="17"/>
       <c r="C98" s="17"/>
       <c r="D98" s="24"/>
       <c r="E98" s="24"/>
     </row>
-    <row r="99" spans="2:5" x14ac:dyDescent="0.4">
+    <row r="99" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B99" s="17"/>
       <c r="C99" s="17"/>
       <c r="D99" s="24"/>
       <c r="E99" s="24"/>
     </row>
-    <row r="100" spans="2:5" x14ac:dyDescent="0.4">
+    <row r="100" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B100" s="17"/>
       <c r="C100" s="17"/>
       <c r="D100" s="24"/>
       <c r="E100" s="24"/>
     </row>
-    <row r="101" spans="2:5" x14ac:dyDescent="0.4">
+    <row r="101" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B101" s="17"/>
       <c r="C101" s="17"/>
       <c r="D101" s="24"/>
       <c r="E101" s="24"/>
-    </row>
-    <row r="102" spans="2:5" x14ac:dyDescent="0.4">
-      <c r="B102" s="17"/>
-      <c r="C102" s="17"/>
-      <c r="D102" s="24"/>
-      <c r="E102" s="24"/>
-    </row>
-    <row r="103" spans="2:5" x14ac:dyDescent="0.4">
-      <c r="B103" s="17"/>
-      <c r="C103" s="17"/>
-      <c r="D103" s="24"/>
-      <c r="E103" s="24"/>
     </row>
   </sheetData>
   <autoFilter ref="B2:E2"/>
@@ -2144,33 +2680,222 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:J89"/>
+  <dimension ref="B2:H23"/>
+  <sheetViews>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="M23" sqref="M23"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="2" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B2" s="27">
+        <v>8</v>
+      </c>
+      <c r="C2" s="28"/>
+      <c r="D2" s="28"/>
+      <c r="E2" s="28"/>
+      <c r="F2" s="28"/>
+      <c r="G2" s="28"/>
+      <c r="H2" s="28"/>
+    </row>
+    <row r="3" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B3" s="27">
+        <v>7</v>
+      </c>
+      <c r="C3" s="28"/>
+      <c r="D3" s="28"/>
+      <c r="E3" s="28"/>
+      <c r="F3" s="28"/>
+      <c r="G3" s="28"/>
+      <c r="H3" s="28"/>
+    </row>
+    <row r="4" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B4" s="27">
+        <v>6</v>
+      </c>
+      <c r="C4" s="28"/>
+      <c r="D4" s="28"/>
+      <c r="E4" s="28"/>
+      <c r="F4" s="28"/>
+      <c r="G4" s="28"/>
+      <c r="H4" s="28"/>
+    </row>
+    <row r="5" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B5" s="27">
+        <v>5</v>
+      </c>
+      <c r="C5" s="28"/>
+      <c r="D5" s="28"/>
+      <c r="E5" s="28"/>
+      <c r="F5" s="29"/>
+      <c r="G5" s="28"/>
+      <c r="H5" s="28"/>
+    </row>
+    <row r="6" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B6" s="27">
+        <v>4</v>
+      </c>
+      <c r="C6" s="28"/>
+      <c r="D6" s="28"/>
+      <c r="E6" s="29"/>
+      <c r="F6" s="28"/>
+      <c r="G6" s="29"/>
+      <c r="H6" s="28"/>
+    </row>
+    <row r="7" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B7" s="27">
+        <v>3</v>
+      </c>
+      <c r="C7" s="28"/>
+      <c r="D7" s="29"/>
+      <c r="E7" s="28"/>
+      <c r="F7" s="28"/>
+      <c r="G7" s="28"/>
+      <c r="H7" s="29"/>
+    </row>
+    <row r="8" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B8" s="27">
+        <v>2</v>
+      </c>
+      <c r="C8" s="29"/>
+      <c r="D8" s="28"/>
+      <c r="E8" s="28"/>
+      <c r="F8" s="28"/>
+      <c r="G8" s="28"/>
+      <c r="H8" s="28"/>
+    </row>
+    <row r="9" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B9" s="27">
+        <v>1</v>
+      </c>
+      <c r="C9" s="29"/>
+      <c r="D9" s="28"/>
+      <c r="E9" s="28"/>
+      <c r="F9" s="28"/>
+      <c r="G9" s="28"/>
+      <c r="H9" s="28"/>
+    </row>
+    <row r="10" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B10" s="30">
+        <v>-1</v>
+      </c>
+      <c r="C10" s="31"/>
+      <c r="D10" s="28"/>
+      <c r="E10" s="28"/>
+      <c r="F10" s="28"/>
+      <c r="G10" s="28"/>
+      <c r="H10" s="28"/>
+    </row>
+    <row r="11" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B11" s="30">
+        <v>-2</v>
+      </c>
+      <c r="C11" s="31"/>
+      <c r="D11" s="28"/>
+      <c r="E11" s="28"/>
+      <c r="F11" s="28"/>
+      <c r="G11" s="28"/>
+      <c r="H11" s="28"/>
+    </row>
+    <row r="12" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B12" s="30">
+        <v>-3</v>
+      </c>
+      <c r="C12" s="28"/>
+      <c r="D12" s="28"/>
+      <c r="E12" s="28"/>
+      <c r="F12" s="28"/>
+      <c r="G12" s="28"/>
+      <c r="H12" s="28"/>
+    </row>
+    <row r="13" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B13" s="30">
+        <v>-4</v>
+      </c>
+      <c r="C13" s="28"/>
+      <c r="D13" s="28"/>
+      <c r="E13" s="28"/>
+      <c r="F13" s="28"/>
+      <c r="G13" s="28"/>
+      <c r="H13" s="28"/>
+    </row>
+    <row r="16" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B16" s="32" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="17" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="C17" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="18" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="D18" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="19" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B19" s="32" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="20" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="C20" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="21" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="D21" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="22" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="D22" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="23" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="D23" t="s">
+        <v>123</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B2:J88"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="1" ySplit="2" topLeftCell="B12" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="2" topLeftCell="B3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="F23" sqref="F23"/>
+      <selection pane="bottomRight" activeCell="G41" sqref="G41"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.2" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="12" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="4.5" style="1" customWidth="1"/>
-    <col min="2" max="2" width="24.69921875" style="8" customWidth="1"/>
-    <col min="3" max="3" width="11.59765625" style="8" customWidth="1"/>
+    <col min="2" max="2" width="24.75" style="8" customWidth="1"/>
+    <col min="3" max="3" width="11.625" style="8" customWidth="1"/>
     <col min="4" max="4" width="13.5" style="2" customWidth="1"/>
-    <col min="5" max="5" width="10.69921875" style="8" customWidth="1"/>
+    <col min="5" max="5" width="10.75" style="8" customWidth="1"/>
     <col min="6" max="6" width="11" style="9" customWidth="1"/>
-    <col min="7" max="7" width="11.3984375" style="8" customWidth="1"/>
+    <col min="7" max="7" width="11.375" style="8" customWidth="1"/>
     <col min="8" max="8" width="10" style="9" customWidth="1"/>
-    <col min="9" max="9" width="10.09765625" style="10" customWidth="1"/>
-    <col min="10" max="10" width="60.09765625" style="2" customWidth="1"/>
+    <col min="9" max="9" width="10.125" style="10" customWidth="1"/>
+    <col min="10" max="10" width="60.125" style="2" customWidth="1"/>
     <col min="11" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:10" s="7" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="2" spans="2:10" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B2" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C2" s="3" t="s">
         <v>3</v>
@@ -2191,58 +2916,58 @@
         <v>9</v>
       </c>
       <c r="I2" s="11" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="J2" s="3" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="2:10" x14ac:dyDescent="0.4">
+    <row r="3" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B3" s="4" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C3" s="12" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D3" s="5" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E3" s="12" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F3" s="13">
         <v>24550</v>
       </c>
       <c r="G3" s="12" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="H3" s="13">
         <v>27200</v>
       </c>
       <c r="I3" s="14">
-        <f t="shared" ref="I3:I56" si="0">IF(H3="", "", IFERROR( ((H3-F3)/F3), ""))</f>
+        <f t="shared" ref="I3:I55" si="0">IF(H3="", "", IFERROR( ((H3-F3)/F3), ""))</f>
         <v>0.1079429735234216</v>
       </c>
       <c r="J3" s="5"/>
     </row>
-    <row r="4" spans="2:10" x14ac:dyDescent="0.4">
+    <row r="4" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B4" s="4" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C4" s="12" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D4" s="5" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E4" s="12" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F4" s="13">
         <v>4210</v>
       </c>
       <c r="G4" s="12" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="H4" s="13">
         <v>4705</v>
@@ -2253,24 +2978,24 @@
       </c>
       <c r="J4" s="5"/>
     </row>
-    <row r="5" spans="2:10" x14ac:dyDescent="0.4">
+    <row r="5" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B5" s="4" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C5" s="12" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D5" s="5" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E5" s="12" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F5" s="13">
         <v>1515</v>
       </c>
       <c r="G5" s="12" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="H5" s="13">
         <v>1450</v>
@@ -2280,27 +3005,27 @@
         <v>-4.2904290429042903E-2</v>
       </c>
       <c r="J5" s="5" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="6" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B6" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="C6" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="D6" s="5" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="6" spans="2:10" x14ac:dyDescent="0.4">
-      <c r="B6" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="C6" s="12" t="s">
-        <v>22</v>
-      </c>
-      <c r="D6" s="5" t="s">
-        <v>28</v>
-      </c>
       <c r="E6" s="12" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F6" s="13">
         <v>13000</v>
       </c>
       <c r="G6" s="12" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="H6" s="13">
         <v>16900</v>
@@ -2310,27 +3035,27 @@
         <v>0.3</v>
       </c>
       <c r="J6" s="5" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="7" spans="2:10" x14ac:dyDescent="0.4">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="7" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B7" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="C7" s="12" t="s">
         <v>30</v>
       </c>
-      <c r="C7" s="12" t="s">
+      <c r="D7" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="D7" s="5" t="s">
-        <v>32</v>
-      </c>
       <c r="E7" s="12" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F7" s="13">
         <v>32150</v>
       </c>
       <c r="G7" s="12" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="H7" s="13">
         <v>30450</v>
@@ -2340,27 +3065,27 @@
         <v>-5.2877138413685847E-2</v>
       </c>
       <c r="J7" s="5" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="8" spans="2:10" x14ac:dyDescent="0.4">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="8" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B8" s="4" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C8" s="12" t="s">
+        <v>32</v>
+      </c>
+      <c r="D8" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="D8" s="5" t="s">
-        <v>34</v>
-      </c>
       <c r="E8" s="12" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F8" s="13">
         <v>6970</v>
       </c>
       <c r="G8" s="12" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="H8" s="13">
         <v>6760</v>
@@ -2371,24 +3096,24 @@
       </c>
       <c r="J8" s="5"/>
     </row>
-    <row r="9" spans="2:10" x14ac:dyDescent="0.4">
+    <row r="9" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B9" s="4" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C9" s="12" t="s">
+        <v>34</v>
+      </c>
+      <c r="D9" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="D9" s="5" t="s">
-        <v>36</v>
-      </c>
       <c r="E9" s="12" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F9" s="13">
         <v>7170</v>
       </c>
       <c r="G9" s="12" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="H9" s="13">
         <v>6810</v>
@@ -2398,27 +3123,27 @@
         <v>-5.0209205020920501E-2</v>
       </c>
       <c r="J9" s="5" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="10" spans="2:10" x14ac:dyDescent="0.4">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="10" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B10" s="4" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C10" s="12" t="s">
+        <v>38</v>
+      </c>
+      <c r="D10" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="D10" s="5" t="s">
-        <v>40</v>
-      </c>
       <c r="E10" s="12" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F10" s="13">
         <v>13650</v>
       </c>
       <c r="G10" s="12" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="H10" s="13">
         <v>13550</v>
@@ -2429,24 +3154,24 @@
       </c>
       <c r="J10" s="5"/>
     </row>
-    <row r="11" spans="2:10" x14ac:dyDescent="0.4">
+    <row r="11" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B11" s="4" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C11" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="D11" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="D11" s="5" t="s">
-        <v>42</v>
-      </c>
       <c r="E11" s="12" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F11" s="13">
         <v>20000</v>
       </c>
       <c r="G11" s="12" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="H11" s="13">
         <v>20100</v>
@@ -2457,24 +3182,24 @@
       </c>
       <c r="J11" s="5"/>
     </row>
-    <row r="12" spans="2:10" x14ac:dyDescent="0.4">
+    <row r="12" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B12" s="4" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C12" s="12" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D12" s="5" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E12" s="12" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F12" s="13">
         <v>1350</v>
       </c>
       <c r="G12" s="12" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="H12" s="13">
         <v>1335</v>
@@ -2485,24 +3210,24 @@
       </c>
       <c r="J12" s="5"/>
     </row>
-    <row r="13" spans="2:10" x14ac:dyDescent="0.4">
+    <row r="13" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B13" s="4" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C13" s="12" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D13" s="5" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E13" s="12" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F13" s="13">
         <v>6440</v>
       </c>
       <c r="G13" s="12" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="H13" s="13">
         <v>6220</v>
@@ -2513,24 +3238,24 @@
       </c>
       <c r="J13" s="5"/>
     </row>
-    <row r="14" spans="2:10" x14ac:dyDescent="0.4">
+    <row r="14" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B14" s="4" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C14" s="12" t="s">
+        <v>44</v>
+      </c>
+      <c r="D14" s="5" t="s">
         <v>45</v>
       </c>
-      <c r="D14" s="5" t="s">
-        <v>46</v>
-      </c>
       <c r="E14" s="12" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F14" s="13">
         <v>4950</v>
       </c>
       <c r="G14" s="12" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="H14" s="13">
         <v>4990</v>
@@ -2541,24 +3266,24 @@
       </c>
       <c r="J14" s="5"/>
     </row>
-    <row r="15" spans="2:10" x14ac:dyDescent="0.4">
+    <row r="15" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B15" s="4" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C15" s="12" t="s">
+        <v>46</v>
+      </c>
+      <c r="D15" s="5" t="s">
         <v>47</v>
       </c>
-      <c r="D15" s="5" t="s">
+      <c r="E15" s="12" t="s">
         <v>48</v>
-      </c>
-      <c r="E15" s="12" t="s">
-        <v>49</v>
       </c>
       <c r="F15" s="13">
         <v>3835</v>
       </c>
       <c r="G15" s="12" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="H15" s="13">
         <v>3930</v>
@@ -2569,24 +3294,24 @@
       </c>
       <c r="J15" s="5"/>
     </row>
-    <row r="16" spans="2:10" x14ac:dyDescent="0.4">
+    <row r="16" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B16" s="4" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C16" s="12" t="s">
+        <v>50</v>
+      </c>
+      <c r="D16" s="5" t="s">
         <v>51</v>
       </c>
-      <c r="D16" s="5" t="s">
-        <v>52</v>
-      </c>
       <c r="E16" s="12" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F16" s="13">
         <v>1025</v>
       </c>
       <c r="G16" s="12" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="H16" s="13">
         <v>1030</v>
@@ -2596,27 +3321,27 @@
         <v>4.8780487804878049E-3</v>
       </c>
       <c r="J16" s="5" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="17" spans="2:10" x14ac:dyDescent="0.4">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="17" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B17" s="4" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C17" s="12" t="s">
+        <v>52</v>
+      </c>
+      <c r="D17" s="5" t="s">
         <v>53</v>
       </c>
-      <c r="D17" s="5" t="s">
-        <v>54</v>
-      </c>
       <c r="E17" s="12" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F17" s="13">
         <v>1910</v>
       </c>
       <c r="G17" s="12" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="H17" s="13">
         <v>1590</v>
@@ -2627,24 +3352,24 @@
       </c>
       <c r="J17" s="5"/>
     </row>
-    <row r="18" spans="2:10" x14ac:dyDescent="0.4">
+    <row r="18" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B18" s="4" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C18" s="12" t="s">
+        <v>81</v>
+      </c>
+      <c r="D18" s="5" t="s">
         <v>82</v>
       </c>
-      <c r="D18" s="5" t="s">
-        <v>83</v>
-      </c>
       <c r="E18" s="12" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="F18" s="13">
         <v>6850</v>
       </c>
       <c r="G18" s="12" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="H18" s="13">
         <v>6440</v>
@@ -2655,24 +3380,24 @@
       </c>
       <c r="J18" s="5"/>
     </row>
-    <row r="19" spans="2:10" x14ac:dyDescent="0.4">
+    <row r="19" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B19" s="4" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C19" s="12" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D19" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="E19" s="12" t="s">
         <v>79</v>
-      </c>
-      <c r="E19" s="12" t="s">
-        <v>80</v>
       </c>
       <c r="F19" s="13">
         <v>1155</v>
       </c>
       <c r="G19" s="12" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="H19" s="13">
         <v>1410</v>
@@ -2683,24 +3408,24 @@
       </c>
       <c r="J19" s="5"/>
     </row>
-    <row r="20" spans="2:10" x14ac:dyDescent="0.4">
+    <row r="20" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B20" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="C20" s="12" t="s">
         <v>85</v>
       </c>
-      <c r="C20" s="12" t="s">
+      <c r="D20" s="5" t="s">
         <v>86</v>
       </c>
-      <c r="D20" s="5" t="s">
-        <v>87</v>
-      </c>
       <c r="E20" s="12" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="F20" s="13">
         <v>29200</v>
       </c>
       <c r="G20" s="12" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="H20" s="13">
         <v>30050</v>
@@ -2711,24 +3436,24 @@
       </c>
       <c r="J20" s="5"/>
     </row>
-    <row r="21" spans="2:10" x14ac:dyDescent="0.4">
+    <row r="21" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B21" s="4" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C21" s="12" t="s">
+        <v>87</v>
+      </c>
+      <c r="D21" s="5" t="s">
         <v>88</v>
       </c>
-      <c r="D21" s="5" t="s">
-        <v>89</v>
-      </c>
       <c r="E21" s="12" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="F21" s="13">
         <v>6290</v>
       </c>
       <c r="G21" s="12" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="H21" s="13">
         <v>5810</v>
@@ -2739,130 +3464,218 @@
       </c>
       <c r="J21" s="5"/>
     </row>
-    <row r="22" spans="2:10" x14ac:dyDescent="0.4">
+    <row r="22" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B22" s="4" t="s">
-        <v>102</v>
+        <v>92</v>
       </c>
       <c r="C22" s="12" t="s">
-        <v>107</v>
+        <v>96</v>
       </c>
       <c r="D22" s="5" t="s">
-        <v>108</v>
+        <v>97</v>
       </c>
       <c r="E22" s="12" t="s">
-        <v>106</v>
+        <v>95</v>
       </c>
       <c r="F22" s="13">
         <v>3680</v>
       </c>
-      <c r="G22" s="12"/>
-      <c r="H22" s="13"/>
-      <c r="I22" s="14" t="str">
-        <f t="shared" si="0"/>
-        <v/>
+      <c r="G22" s="12" t="s">
+        <v>107</v>
+      </c>
+      <c r="H22" s="13">
+        <v>3680</v>
+      </c>
+      <c r="I22" s="14">
+        <f t="shared" si="0"/>
+        <v>0</v>
       </c>
       <c r="J22" s="5"/>
     </row>
-    <row r="23" spans="2:10" x14ac:dyDescent="0.4">
+    <row r="23" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B23" s="4" t="s">
-        <v>103</v>
+        <v>126</v>
       </c>
       <c r="C23" s="12" t="s">
-        <v>104</v>
+        <v>93</v>
       </c>
       <c r="D23" s="5" t="s">
-        <v>105</v>
+        <v>94</v>
       </c>
       <c r="E23" s="12" t="s">
-        <v>106</v>
+        <v>95</v>
       </c>
       <c r="F23" s="13">
         <v>23450</v>
       </c>
-      <c r="G23" s="12"/>
-      <c r="H23" s="13"/>
-      <c r="I23" s="14" t="str">
-        <f t="shared" si="0"/>
-        <v/>
+      <c r="G23" s="12" t="s">
+        <v>107</v>
+      </c>
+      <c r="H23" s="13">
+        <v>23350</v>
+      </c>
+      <c r="I23" s="14">
+        <f t="shared" si="0"/>
+        <v>-4.2643923240938165E-3</v>
       </c>
       <c r="J23" s="5"/>
     </row>
-    <row r="24" spans="2:10" x14ac:dyDescent="0.4">
-      <c r="B24" s="4"/>
-      <c r="C24" s="12"/>
-      <c r="D24" s="5"/>
-      <c r="E24" s="12"/>
-      <c r="F24" s="13"/>
-      <c r="G24" s="12"/>
-      <c r="H24" s="13"/>
-      <c r="I24" s="14" t="str">
-        <f t="shared" si="0"/>
-        <v/>
+    <row r="24" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B24" s="4" t="s">
+        <v>126</v>
+      </c>
+      <c r="C24" s="12" t="s">
+        <v>105</v>
+      </c>
+      <c r="D24" s="5" t="s">
+        <v>106</v>
+      </c>
+      <c r="E24" s="12" t="s">
+        <v>107</v>
+      </c>
+      <c r="F24" s="13">
+        <v>9160</v>
+      </c>
+      <c r="G24" s="12" t="s">
+        <v>104</v>
+      </c>
+      <c r="H24" s="13">
+        <v>9573</v>
+      </c>
+      <c r="I24" s="14">
+        <f t="shared" si="0"/>
+        <v>4.5087336244541483E-2</v>
       </c>
       <c r="J24" s="5"/>
     </row>
-    <row r="25" spans="2:10" x14ac:dyDescent="0.4">
-      <c r="B25" s="4"/>
-      <c r="C25" s="12"/>
-      <c r="D25" s="5"/>
-      <c r="E25" s="12"/>
-      <c r="F25" s="13"/>
-      <c r="G25" s="12"/>
-      <c r="H25" s="13"/>
-      <c r="I25" s="14" t="str">
-        <f t="shared" si="0"/>
-        <v/>
+    <row r="25" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B25" s="4" t="s">
+        <v>125</v>
+      </c>
+      <c r="C25" s="12" t="s">
+        <v>109</v>
+      </c>
+      <c r="D25" s="5" t="s">
+        <v>108</v>
+      </c>
+      <c r="E25" s="12" t="s">
+        <v>103</v>
+      </c>
+      <c r="F25" s="13">
+        <v>14221</v>
+      </c>
+      <c r="G25" s="12" t="s">
+        <v>116</v>
+      </c>
+      <c r="H25" s="13">
+        <v>14321</v>
+      </c>
+      <c r="I25" s="14">
+        <f t="shared" si="0"/>
+        <v>7.0318542999789043E-3</v>
       </c>
       <c r="J25" s="5"/>
     </row>
-    <row r="26" spans="2:10" x14ac:dyDescent="0.4">
-      <c r="B26" s="4"/>
-      <c r="C26" s="12"/>
-      <c r="D26" s="5"/>
-      <c r="E26" s="12"/>
-      <c r="F26" s="13"/>
-      <c r="G26" s="12"/>
-      <c r="H26" s="13"/>
-      <c r="I26" s="14" t="str">
-        <f t="shared" si="0"/>
-        <v/>
+    <row r="26" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B26" s="4" t="s">
+        <v>125</v>
+      </c>
+      <c r="C26" s="12" t="s">
+        <v>111</v>
+      </c>
+      <c r="D26" s="5" t="s">
+        <v>110</v>
+      </c>
+      <c r="E26" s="12" t="s">
+        <v>103</v>
+      </c>
+      <c r="F26" s="13">
+        <v>12682</v>
+      </c>
+      <c r="G26" s="12" t="s">
+        <v>116</v>
+      </c>
+      <c r="H26" s="13">
+        <v>12500</v>
+      </c>
+      <c r="I26" s="14">
+        <f t="shared" si="0"/>
+        <v>-1.4351048730484151E-2</v>
       </c>
       <c r="J26" s="5"/>
     </row>
-    <row r="27" spans="2:10" x14ac:dyDescent="0.4">
-      <c r="B27" s="4"/>
-      <c r="C27" s="12"/>
-      <c r="D27" s="5"/>
-      <c r="E27" s="12"/>
-      <c r="F27" s="13"/>
-      <c r="G27" s="12"/>
-      <c r="H27" s="13"/>
-      <c r="I27" s="14" t="str">
-        <f t="shared" si="0"/>
-        <v/>
+    <row r="27" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B27" s="4" t="s">
+        <v>125</v>
+      </c>
+      <c r="C27" s="12" t="s">
+        <v>113</v>
+      </c>
+      <c r="D27" s="5" t="s">
+        <v>112</v>
+      </c>
+      <c r="E27" s="12" t="s">
+        <v>103</v>
+      </c>
+      <c r="F27" s="13">
+        <v>10000</v>
+      </c>
+      <c r="G27" s="12" t="s">
+        <v>116</v>
+      </c>
+      <c r="H27" s="13">
+        <v>9918</v>
+      </c>
+      <c r="I27" s="14">
+        <f t="shared" si="0"/>
+        <v>-8.2000000000000007E-3</v>
       </c>
       <c r="J27" s="5"/>
     </row>
-    <row r="28" spans="2:10" x14ac:dyDescent="0.4">
-      <c r="B28" s="4"/>
-      <c r="C28" s="12"/>
-      <c r="D28" s="5"/>
-      <c r="E28" s="12"/>
-      <c r="F28" s="13"/>
-      <c r="G28" s="12"/>
-      <c r="H28" s="13"/>
-      <c r="I28" s="14" t="str">
-        <f t="shared" si="0"/>
-        <v/>
+    <row r="28" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B28" s="4" t="s">
+        <v>125</v>
+      </c>
+      <c r="C28" s="12" t="s">
+        <v>114</v>
+      </c>
+      <c r="D28" s="5" t="s">
+        <v>115</v>
+      </c>
+      <c r="E28" s="12" t="s">
+        <v>103</v>
+      </c>
+      <c r="F28" s="13">
+        <v>6981</v>
+      </c>
+      <c r="G28" s="12" t="s">
+        <v>116</v>
+      </c>
+      <c r="H28" s="13">
+        <v>6930</v>
+      </c>
+      <c r="I28" s="14">
+        <f t="shared" si="0"/>
+        <v>-7.30554361839278E-3</v>
       </c>
       <c r="J28" s="5"/>
     </row>
-    <row r="29" spans="2:10" x14ac:dyDescent="0.4">
-      <c r="B29" s="4"/>
-      <c r="C29" s="12"/>
-      <c r="D29" s="5"/>
-      <c r="E29" s="12"/>
-      <c r="F29" s="13"/>
+    <row r="29" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B29" s="4" t="s">
+        <v>125</v>
+      </c>
+      <c r="C29" s="12" t="s">
+        <v>129</v>
+      </c>
+      <c r="D29" s="5" t="s">
+        <v>127</v>
+      </c>
+      <c r="E29" s="12" t="s">
+        <v>116</v>
+      </c>
+      <c r="F29" s="13">
+        <v>8765</v>
+      </c>
       <c r="G29" s="12"/>
       <c r="H29" s="13"/>
       <c r="I29" s="14" t="str">
@@ -2871,12 +3684,22 @@
       </c>
       <c r="J29" s="5"/>
     </row>
-    <row r="30" spans="2:10" x14ac:dyDescent="0.4">
-      <c r="B30" s="4"/>
-      <c r="C30" s="12"/>
-      <c r="D30" s="5"/>
-      <c r="E30" s="12"/>
-      <c r="F30" s="13"/>
+    <row r="30" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B30" s="4" t="s">
+        <v>125</v>
+      </c>
+      <c r="C30" s="12" t="s">
+        <v>128</v>
+      </c>
+      <c r="D30" s="33" t="s">
+        <v>130</v>
+      </c>
+      <c r="E30" s="12" t="s">
+        <v>116</v>
+      </c>
+      <c r="F30" s="13">
+        <v>2945</v>
+      </c>
       <c r="G30" s="12"/>
       <c r="H30" s="13"/>
       <c r="I30" s="14" t="str">
@@ -2885,12 +3708,22 @@
       </c>
       <c r="J30" s="5"/>
     </row>
-    <row r="31" spans="2:10" x14ac:dyDescent="0.4">
-      <c r="B31" s="4"/>
-      <c r="C31" s="12"/>
-      <c r="D31" s="5"/>
-      <c r="E31" s="12"/>
-      <c r="F31" s="13"/>
+    <row r="31" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B31" s="4" t="s">
+        <v>125</v>
+      </c>
+      <c r="C31" s="12" t="s">
+        <v>132</v>
+      </c>
+      <c r="D31" s="33" t="s">
+        <v>131</v>
+      </c>
+      <c r="E31" s="12" t="s">
+        <v>116</v>
+      </c>
+      <c r="F31" s="13">
+        <v>2475</v>
+      </c>
       <c r="G31" s="12"/>
       <c r="H31" s="13"/>
       <c r="I31" s="14" t="str">
@@ -2899,12 +3732,22 @@
       </c>
       <c r="J31" s="5"/>
     </row>
-    <row r="32" spans="2:10" x14ac:dyDescent="0.4">
-      <c r="B32" s="4"/>
-      <c r="C32" s="12"/>
-      <c r="D32" s="5"/>
-      <c r="E32" s="12"/>
-      <c r="F32" s="13"/>
+    <row r="32" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B32" s="4" t="s">
+        <v>125</v>
+      </c>
+      <c r="C32" s="12" t="s">
+        <v>133</v>
+      </c>
+      <c r="D32" s="5" t="s">
+        <v>134</v>
+      </c>
+      <c r="E32" s="12" t="s">
+        <v>116</v>
+      </c>
+      <c r="F32" s="13">
+        <v>14050</v>
+      </c>
       <c r="G32" s="12"/>
       <c r="H32" s="13"/>
       <c r="I32" s="14" t="str">
@@ -2913,7 +3756,7 @@
       </c>
       <c r="J32" s="5"/>
     </row>
-    <row r="33" spans="2:10" x14ac:dyDescent="0.4">
+    <row r="33" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B33" s="4"/>
       <c r="C33" s="12"/>
       <c r="D33" s="5"/>
@@ -2927,7 +3770,7 @@
       </c>
       <c r="J33" s="5"/>
     </row>
-    <row r="34" spans="2:10" x14ac:dyDescent="0.4">
+    <row r="34" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B34" s="4"/>
       <c r="C34" s="12"/>
       <c r="D34" s="5"/>
@@ -2941,7 +3784,7 @@
       </c>
       <c r="J34" s="5"/>
     </row>
-    <row r="35" spans="2:10" x14ac:dyDescent="0.4">
+    <row r="35" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B35" s="4"/>
       <c r="C35" s="12"/>
       <c r="D35" s="5"/>
@@ -2955,7 +3798,7 @@
       </c>
       <c r="J35" s="5"/>
     </row>
-    <row r="36" spans="2:10" x14ac:dyDescent="0.4">
+    <row r="36" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B36" s="4"/>
       <c r="C36" s="12"/>
       <c r="D36" s="5"/>
@@ -2969,7 +3812,7 @@
       </c>
       <c r="J36" s="5"/>
     </row>
-    <row r="37" spans="2:10" x14ac:dyDescent="0.4">
+    <row r="37" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B37" s="4"/>
       <c r="C37" s="12"/>
       <c r="D37" s="5"/>
@@ -2983,7 +3826,7 @@
       </c>
       <c r="J37" s="5"/>
     </row>
-    <row r="38" spans="2:10" x14ac:dyDescent="0.4">
+    <row r="38" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B38" s="4"/>
       <c r="C38" s="12"/>
       <c r="D38" s="5"/>
@@ -2997,7 +3840,7 @@
       </c>
       <c r="J38" s="5"/>
     </row>
-    <row r="39" spans="2:10" x14ac:dyDescent="0.4">
+    <row r="39" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B39" s="4"/>
       <c r="C39" s="12"/>
       <c r="D39" s="5"/>
@@ -3011,7 +3854,7 @@
       </c>
       <c r="J39" s="5"/>
     </row>
-    <row r="40" spans="2:10" x14ac:dyDescent="0.4">
+    <row r="40" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B40" s="4"/>
       <c r="C40" s="12"/>
       <c r="D40" s="5"/>
@@ -3025,7 +3868,7 @@
       </c>
       <c r="J40" s="5"/>
     </row>
-    <row r="41" spans="2:10" x14ac:dyDescent="0.4">
+    <row r="41" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B41" s="4"/>
       <c r="C41" s="12"/>
       <c r="D41" s="5"/>
@@ -3039,7 +3882,7 @@
       </c>
       <c r="J41" s="5"/>
     </row>
-    <row r="42" spans="2:10" x14ac:dyDescent="0.4">
+    <row r="42" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B42" s="4"/>
       <c r="C42" s="12"/>
       <c r="D42" s="5"/>
@@ -3053,7 +3896,7 @@
       </c>
       <c r="J42" s="5"/>
     </row>
-    <row r="43" spans="2:10" x14ac:dyDescent="0.4">
+    <row r="43" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B43" s="4"/>
       <c r="C43" s="12"/>
       <c r="D43" s="5"/>
@@ -3067,7 +3910,7 @@
       </c>
       <c r="J43" s="5"/>
     </row>
-    <row r="44" spans="2:10" x14ac:dyDescent="0.4">
+    <row r="44" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B44" s="4"/>
       <c r="C44" s="12"/>
       <c r="D44" s="5"/>
@@ -3081,7 +3924,7 @@
       </c>
       <c r="J44" s="5"/>
     </row>
-    <row r="45" spans="2:10" x14ac:dyDescent="0.4">
+    <row r="45" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B45" s="4"/>
       <c r="C45" s="12"/>
       <c r="D45" s="5"/>
@@ -3095,7 +3938,7 @@
       </c>
       <c r="J45" s="5"/>
     </row>
-    <row r="46" spans="2:10" x14ac:dyDescent="0.4">
+    <row r="46" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B46" s="4"/>
       <c r="C46" s="12"/>
       <c r="D46" s="5"/>
@@ -3109,7 +3952,7 @@
       </c>
       <c r="J46" s="5"/>
     </row>
-    <row r="47" spans="2:10" x14ac:dyDescent="0.4">
+    <row r="47" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B47" s="4"/>
       <c r="C47" s="12"/>
       <c r="D47" s="5"/>
@@ -3123,7 +3966,7 @@
       </c>
       <c r="J47" s="5"/>
     </row>
-    <row r="48" spans="2:10" x14ac:dyDescent="0.4">
+    <row r="48" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B48" s="4"/>
       <c r="C48" s="12"/>
       <c r="D48" s="5"/>
@@ -3137,7 +3980,7 @@
       </c>
       <c r="J48" s="5"/>
     </row>
-    <row r="49" spans="2:10" x14ac:dyDescent="0.4">
+    <row r="49" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B49" s="4"/>
       <c r="C49" s="12"/>
       <c r="D49" s="5"/>
@@ -3151,7 +3994,7 @@
       </c>
       <c r="J49" s="5"/>
     </row>
-    <row r="50" spans="2:10" x14ac:dyDescent="0.4">
+    <row r="50" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B50" s="4"/>
       <c r="C50" s="12"/>
       <c r="D50" s="5"/>
@@ -3165,7 +4008,7 @@
       </c>
       <c r="J50" s="5"/>
     </row>
-    <row r="51" spans="2:10" x14ac:dyDescent="0.4">
+    <row r="51" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B51" s="4"/>
       <c r="C51" s="12"/>
       <c r="D51" s="5"/>
@@ -3179,7 +4022,7 @@
       </c>
       <c r="J51" s="5"/>
     </row>
-    <row r="52" spans="2:10" x14ac:dyDescent="0.4">
+    <row r="52" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B52" s="4"/>
       <c r="C52" s="12"/>
       <c r="D52" s="5"/>
@@ -3193,7 +4036,7 @@
       </c>
       <c r="J52" s="5"/>
     </row>
-    <row r="53" spans="2:10" x14ac:dyDescent="0.4">
+    <row r="53" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B53" s="4"/>
       <c r="C53" s="12"/>
       <c r="D53" s="5"/>
@@ -3207,7 +4050,7 @@
       </c>
       <c r="J53" s="5"/>
     </row>
-    <row r="54" spans="2:10" x14ac:dyDescent="0.4">
+    <row r="54" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B54" s="4"/>
       <c r="C54" s="12"/>
       <c r="D54" s="5"/>
@@ -3221,7 +4064,7 @@
       </c>
       <c r="J54" s="5"/>
     </row>
-    <row r="55" spans="2:10" x14ac:dyDescent="0.4">
+    <row r="55" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B55" s="4"/>
       <c r="C55" s="12"/>
       <c r="D55" s="5"/>
@@ -3235,7 +4078,7 @@
       </c>
       <c r="J55" s="5"/>
     </row>
-    <row r="56" spans="2:10" x14ac:dyDescent="0.4">
+    <row r="56" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B56" s="4"/>
       <c r="C56" s="12"/>
       <c r="D56" s="5"/>
@@ -3244,12 +4087,12 @@
       <c r="G56" s="12"/>
       <c r="H56" s="13"/>
       <c r="I56" s="14" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" ref="I56:I88" si="1">IF(H56="", "", IFERROR( ((H56-F56)/F56), ""))</f>
         <v/>
       </c>
       <c r="J56" s="5"/>
     </row>
-    <row r="57" spans="2:10" x14ac:dyDescent="0.4">
+    <row r="57" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B57" s="4"/>
       <c r="C57" s="12"/>
       <c r="D57" s="5"/>
@@ -3258,12 +4101,12 @@
       <c r="G57" s="12"/>
       <c r="H57" s="13"/>
       <c r="I57" s="14" t="str">
-        <f t="shared" ref="I57:I89" si="1">IF(H57="", "", IFERROR( ((H57-F57)/F57), ""))</f>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="J57" s="5"/>
     </row>
-    <row r="58" spans="2:10" x14ac:dyDescent="0.4">
+    <row r="58" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B58" s="4"/>
       <c r="C58" s="12"/>
       <c r="D58" s="5"/>
@@ -3277,7 +4120,7 @@
       </c>
       <c r="J58" s="5"/>
     </row>
-    <row r="59" spans="2:10" x14ac:dyDescent="0.4">
+    <row r="59" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B59" s="4"/>
       <c r="C59" s="12"/>
       <c r="D59" s="5"/>
@@ -3291,7 +4134,7 @@
       </c>
       <c r="J59" s="5"/>
     </row>
-    <row r="60" spans="2:10" x14ac:dyDescent="0.4">
+    <row r="60" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B60" s="4"/>
       <c r="C60" s="12"/>
       <c r="D60" s="5"/>
@@ -3305,7 +4148,7 @@
       </c>
       <c r="J60" s="5"/>
     </row>
-    <row r="61" spans="2:10" x14ac:dyDescent="0.4">
+    <row r="61" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B61" s="4"/>
       <c r="C61" s="12"/>
       <c r="D61" s="5"/>
@@ -3319,7 +4162,7 @@
       </c>
       <c r="J61" s="5"/>
     </row>
-    <row r="62" spans="2:10" x14ac:dyDescent="0.4">
+    <row r="62" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B62" s="4"/>
       <c r="C62" s="12"/>
       <c r="D62" s="5"/>
@@ -3333,7 +4176,7 @@
       </c>
       <c r="J62" s="5"/>
     </row>
-    <row r="63" spans="2:10" x14ac:dyDescent="0.4">
+    <row r="63" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B63" s="4"/>
       <c r="C63" s="12"/>
       <c r="D63" s="5"/>
@@ -3347,7 +4190,7 @@
       </c>
       <c r="J63" s="5"/>
     </row>
-    <row r="64" spans="2:10" x14ac:dyDescent="0.4">
+    <row r="64" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B64" s="4"/>
       <c r="C64" s="12"/>
       <c r="D64" s="5"/>
@@ -3361,7 +4204,7 @@
       </c>
       <c r="J64" s="5"/>
     </row>
-    <row r="65" spans="2:10" x14ac:dyDescent="0.4">
+    <row r="65" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B65" s="4"/>
       <c r="C65" s="12"/>
       <c r="D65" s="5"/>
@@ -3375,7 +4218,7 @@
       </c>
       <c r="J65" s="5"/>
     </row>
-    <row r="66" spans="2:10" x14ac:dyDescent="0.4">
+    <row r="66" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B66" s="4"/>
       <c r="C66" s="12"/>
       <c r="D66" s="5"/>
@@ -3389,7 +4232,7 @@
       </c>
       <c r="J66" s="5"/>
     </row>
-    <row r="67" spans="2:10" x14ac:dyDescent="0.4">
+    <row r="67" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B67" s="4"/>
       <c r="C67" s="12"/>
       <c r="D67" s="5"/>
@@ -3403,7 +4246,7 @@
       </c>
       <c r="J67" s="5"/>
     </row>
-    <row r="68" spans="2:10" x14ac:dyDescent="0.4">
+    <row r="68" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B68" s="4"/>
       <c r="C68" s="12"/>
       <c r="D68" s="5"/>
@@ -3417,7 +4260,7 @@
       </c>
       <c r="J68" s="5"/>
     </row>
-    <row r="69" spans="2:10" x14ac:dyDescent="0.4">
+    <row r="69" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B69" s="4"/>
       <c r="C69" s="12"/>
       <c r="D69" s="5"/>
@@ -3431,7 +4274,7 @@
       </c>
       <c r="J69" s="5"/>
     </row>
-    <row r="70" spans="2:10" x14ac:dyDescent="0.4">
+    <row r="70" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B70" s="4"/>
       <c r="C70" s="12"/>
       <c r="D70" s="5"/>
@@ -3445,7 +4288,7 @@
       </c>
       <c r="J70" s="5"/>
     </row>
-    <row r="71" spans="2:10" x14ac:dyDescent="0.4">
+    <row r="71" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B71" s="4"/>
       <c r="C71" s="12"/>
       <c r="D71" s="5"/>
@@ -3459,7 +4302,7 @@
       </c>
       <c r="J71" s="5"/>
     </row>
-    <row r="72" spans="2:10" x14ac:dyDescent="0.4">
+    <row r="72" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B72" s="4"/>
       <c r="C72" s="12"/>
       <c r="D72" s="5"/>
@@ -3473,7 +4316,7 @@
       </c>
       <c r="J72" s="5"/>
     </row>
-    <row r="73" spans="2:10" x14ac:dyDescent="0.4">
+    <row r="73" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B73" s="4"/>
       <c r="C73" s="12"/>
       <c r="D73" s="5"/>
@@ -3487,7 +4330,7 @@
       </c>
       <c r="J73" s="5"/>
     </row>
-    <row r="74" spans="2:10" x14ac:dyDescent="0.4">
+    <row r="74" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B74" s="4"/>
       <c r="C74" s="12"/>
       <c r="D74" s="5"/>
@@ -3501,7 +4344,7 @@
       </c>
       <c r="J74" s="5"/>
     </row>
-    <row r="75" spans="2:10" x14ac:dyDescent="0.4">
+    <row r="75" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B75" s="4"/>
       <c r="C75" s="12"/>
       <c r="D75" s="5"/>
@@ -3515,7 +4358,7 @@
       </c>
       <c r="J75" s="5"/>
     </row>
-    <row r="76" spans="2:10" x14ac:dyDescent="0.4">
+    <row r="76" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B76" s="4"/>
       <c r="C76" s="12"/>
       <c r="D76" s="5"/>
@@ -3529,7 +4372,7 @@
       </c>
       <c r="J76" s="5"/>
     </row>
-    <row r="77" spans="2:10" x14ac:dyDescent="0.4">
+    <row r="77" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B77" s="4"/>
       <c r="C77" s="12"/>
       <c r="D77" s="5"/>
@@ -3543,7 +4386,7 @@
       </c>
       <c r="J77" s="5"/>
     </row>
-    <row r="78" spans="2:10" x14ac:dyDescent="0.4">
+    <row r="78" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B78" s="4"/>
       <c r="C78" s="12"/>
       <c r="D78" s="5"/>
@@ -3557,7 +4400,7 @@
       </c>
       <c r="J78" s="5"/>
     </row>
-    <row r="79" spans="2:10" x14ac:dyDescent="0.4">
+    <row r="79" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B79" s="4"/>
       <c r="C79" s="12"/>
       <c r="D79" s="5"/>
@@ -3571,7 +4414,7 @@
       </c>
       <c r="J79" s="5"/>
     </row>
-    <row r="80" spans="2:10" x14ac:dyDescent="0.4">
+    <row r="80" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B80" s="4"/>
       <c r="C80" s="12"/>
       <c r="D80" s="5"/>
@@ -3585,7 +4428,7 @@
       </c>
       <c r="J80" s="5"/>
     </row>
-    <row r="81" spans="2:10" x14ac:dyDescent="0.4">
+    <row r="81" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B81" s="4"/>
       <c r="C81" s="12"/>
       <c r="D81" s="5"/>
@@ -3599,7 +4442,7 @@
       </c>
       <c r="J81" s="5"/>
     </row>
-    <row r="82" spans="2:10" x14ac:dyDescent="0.4">
+    <row r="82" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B82" s="4"/>
       <c r="C82" s="12"/>
       <c r="D82" s="5"/>
@@ -3613,7 +4456,7 @@
       </c>
       <c r="J82" s="5"/>
     </row>
-    <row r="83" spans="2:10" x14ac:dyDescent="0.4">
+    <row r="83" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B83" s="4"/>
       <c r="C83" s="12"/>
       <c r="D83" s="5"/>
@@ -3627,7 +4470,7 @@
       </c>
       <c r="J83" s="5"/>
     </row>
-    <row r="84" spans="2:10" x14ac:dyDescent="0.4">
+    <row r="84" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B84" s="4"/>
       <c r="C84" s="12"/>
       <c r="D84" s="5"/>
@@ -3641,7 +4484,7 @@
       </c>
       <c r="J84" s="5"/>
     </row>
-    <row r="85" spans="2:10" x14ac:dyDescent="0.4">
+    <row r="85" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B85" s="4"/>
       <c r="C85" s="12"/>
       <c r="D85" s="5"/>
@@ -3655,7 +4498,7 @@
       </c>
       <c r="J85" s="5"/>
     </row>
-    <row r="86" spans="2:10" x14ac:dyDescent="0.4">
+    <row r="86" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B86" s="4"/>
       <c r="C86" s="12"/>
       <c r="D86" s="5"/>
@@ -3669,7 +4512,7 @@
       </c>
       <c r="J86" s="5"/>
     </row>
-    <row r="87" spans="2:10" x14ac:dyDescent="0.4">
+    <row r="87" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B87" s="4"/>
       <c r="C87" s="12"/>
       <c r="D87" s="5"/>
@@ -3683,7 +4526,7 @@
       </c>
       <c r="J87" s="5"/>
     </row>
-    <row r="88" spans="2:10" x14ac:dyDescent="0.4">
+    <row r="88" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B88" s="4"/>
       <c r="C88" s="12"/>
       <c r="D88" s="5"/>
@@ -3697,22 +4540,8 @@
       </c>
       <c r="J88" s="5"/>
     </row>
-    <row r="89" spans="2:10" x14ac:dyDescent="0.4">
-      <c r="B89" s="4"/>
-      <c r="C89" s="12"/>
-      <c r="D89" s="5"/>
-      <c r="E89" s="12"/>
-      <c r="F89" s="13"/>
-      <c r="G89" s="12"/>
-      <c r="H89" s="13"/>
-      <c r="I89" s="14" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="J89" s="5"/>
-    </row>
   </sheetData>
-  <autoFilter ref="B2:J89"/>
+  <autoFilter ref="B2:J88"/>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="I1 I3:I1048576">
     <cfRule type="cellIs" dxfId="1" priority="4" operator="greaterThan">

--- a/WorkShop/01.docs/01.초기학습.xlsx
+++ b/WorkShop/01.docs/01.초기학습.xlsx
@@ -13,13 +13,15 @@
   </bookViews>
   <sheets>
     <sheet name="00.참고" sheetId="2" r:id="rId1"/>
-    <sheet name="01.원칙" sheetId="4" r:id="rId2"/>
-    <sheet name="02.스탑로스" sheetId="5" r:id="rId3"/>
+    <sheet name="01.지수" sheetId="6" r:id="rId2"/>
+    <sheet name="02.원칙" sheetId="4" r:id="rId3"/>
     <sheet name="03.모의투자" sheetId="3" r:id="rId4"/>
+    <sheet name="04.스탑로스" sheetId="5" r:id="rId5"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'01.원칙'!$B$2:$E$2</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">'03.모의투자'!$B$2:$J$88</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'01.지수'!$B$1:$E$9</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'02.원칙'!$B$2:$E$2</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">'03.모의투자'!$B$2:$J$87</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
   <extLst>
@@ -31,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="220" uniqueCount="146">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="236" uniqueCount="154">
   <si>
     <t>사이트명</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -542,10 +544,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>목표가 : 1 %</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>돌파매매_V0.03</t>
   </si>
   <si>
@@ -577,14 +575,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>222800</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>심텍</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>돌파매매_V0.03</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -593,24 +583,28 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t xml:space="preserve">  - SAR = 전일SAR + (가속변수 * (최고가혹은최저가 - 전일 SAR))
-  - 주가아래에 있다가 주가와 만나고 주가위로 뛰게 되는데 만나는 지점이 매수 포인트.
+    <t xml:space="preserve">Parabolic(가속변수, 가속변수최대값) </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">Bollinger Band(중심선이될이평선, 표준편차) </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>설명</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>활용</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">  - 주가아래에 있다가 주가와 만나고 주가위로 뛰게 되는데 만나는 지점이 매수 포인트.
   - 주가위에 있다가 주가와 만나고 주가아래로 떨어지게 되는데 만나는 지점이 매도 포인트.</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t xml:space="preserve">Parabolic(가속변수, 가속변수최대값) </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">Bollinger Band(중심선이될이평선, 표준편차) </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">  - 중심선 : 중심선이될이평선
-  - 상한선 : 중심선이될이평선 + 표준편차.
-  - 하한선 : 중심선이될이평선 - 표준편차. 
-  - 주가등락폭이 적은 상황에서 밴드의 상-하한선폭도 작아진다. 이때는 조만간 가격의 변동성이 커질 가능성이 높다.
+    <t xml:space="preserve">  - 주가등락폭이 적은 상황에서 밴드의 상-하한선폭도 작아진다. 이때는 조만간 가격의 변동성이 커질 가능성이 높다.
   - 주가등락폭이 큰 상황에서 밴드의 상-하한선폭도 확대된다. 이때는 본격적인 추세전환의 가능성이 높다.
   - 주가가 상한선에 접근하고 지표가 강세면 매수, 주가가 하한선에 접근하고 지표가 약세면 매도.
   - 주가가 상한선을 여러번 건드리지만 주가지표가 약세면 상한선 근처에서 매도.
@@ -621,27 +615,174 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t xml:space="preserve">  - 분석기간의 최고가격과 최저가격을 계산해서 현재 주가가 어느위치에 있는지 파악하기 위한 지표.
+    <t xml:space="preserve">  * %K 값이 %D값을 돌파하느냐 하향이탈하느냐, %K의 수준이 85이상이냐 70이상이냐 30이하이냐 15이하이냐 두가지를 동시에 봐주어야 함.
+  - %K 값이 %D 선을 상향돌파하면 매수 신호
+  - %K 값이 %D 선을 하향이탈하면 매도 신호
+  - %K 값이 85이상이면 상승추세이기는 하지만 과매수구간으로 판단하여 매도
+  - %K 값이 70이상이면 일반적인 상승추세
+  - %K 값이 30이하이면 일반적인 하락추세
+  - %K 값이 15이하이면 너무많은 과매도구간으로 판단하여 매수</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">  * 구름대는 저항을 의미.
+  - 주가가 파란구름대 밑에 있다가 상향돌파하면 상승추세로 전환될 가능성이 커짐. 주의를 기울이기 시작.
+  - 주가가 붉은구름대 위에 있다가 하향돌파하면 하락추세로 전환될 가능성이 커짐. 주의를 기울이기 시작.
+  - 후행스팬이 과거주가를 돌파하면 주가가 상승할 가능성이 높음.
+  - 후행스팬과 과거주가가 서로 교차하면서 횡보를 하면(꽈배기) 다음에 큰 파동이 나올 징조.(상향 혹은 하향)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DMI</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2020-02-07</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Stochastic(분석기간, Fast지수이동평균, Slow지수이동평균) </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>일목균형표(전환선, 기준선, 후행스팬, 선행스팬1, 선행스팬2)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">  * 일본에서 개발된 지표로 주가의 움직임을 5개의 의미 있는 선을 이용하여 주가를 예측하는 지표.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+  - 전환선 : (9일 중 최고가격 + 9일 중 최저가격) / 2
+  - 기준선 = (26일 중 최고가격 + 26일 중 최저가격) / 2
+  - 후행스팬 = 현재주가를 26일 뒤로 보내서 연결한 선(현재주가를 26일 과거로 보냈을 때의 기준선)
+  - 선행스팬1 = (기준선 + 전환선 ) /2 의 값을 26일 선행하여 그린 선
+  - 선행스팬2 = (52일 중 최고가격 + 52일 중 최저가격)/2의 수치를 26일 선행하여 그린 선
+  - (붉은)구름대(양운) = 선행스팬1이 선행스팬2보다 높은위치에 있는 구간.(상승구간)
+  - (파란)구름대(음운) = 선행스팬1이 선행스팬2보다 낮은위치에 있는 구간.(하락구간)</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">  * 일정기간동안의 주가변동폭중에서 금일종가의 위치를 백분률로 나타내는 지표로서 주가가 움직이는 특성을 가장 잘 반영하는 지표중의 하나.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+  - 분석기간의 최고가격과 최저가격을 계산해서 현재 주가가 어느위치에 있는지 파악하기 위한 지표.
   - 분석기간 : %K를 구하기위한변수. %K는 최근 분석기간만큼의 과거일수중 가장 놓은 종가를 100%, 낮은 종가를 0%로 
     봤을때 현재 가격의 위치.
   - Fast지수이동평균 : %D를 구하기위한변수. %D는 %K을 Fast지수이동평균만큼 이동평균을 낸 수치. =&gt; Fast Stochastic
   - Slow지수이동평균 : Fast Stochastic을 Slow지수이동평균만큼 이동평균을 낸 수치. =&gt; Slow Stochastic</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">Stochastic(분석기간, Fast지수이동평균, Slow지수이동평균) </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>일목균형표(분석기간, 기준선기간, 선행스팬2기간)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">  - 전환선 : (분석기간 중 최고가격 + 분석기간 중 최저가격) / 2
-  - 기준선 = (기준선기간 중 최고가격 + 기준선기간 중 최저가격) / 2
-  - 후행스팬 = 현재주가를 기준선기간일 뒤로 보내서 연결한 선
-  - 선행스팬1 = (기준선 + 전환선 ) /2 의 값을 기준선기간일 선행하여 그린 선
-</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">  * 주가의 변동에 따라 상하밴드의 폭이 같이 움직이게하여 주가의 움직임을 밴드 내에서 판단하고자 고안된 주가지표.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+  - 중심선 : 중심선이될이평선
+  - 상한선 : 중심선이될이평선 + 표준편차.
+  - 하한선 : 중심선이될이평선 - 표준편차. </t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">  * 주가의 변동속도를 측정해주는 지표.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+  - SAR = 전일SAR + (가속변수 * (최고가혹은최저가 - 전일 SAR))</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">  - 오늘주가가 어제보다 위에 있으면 +DM
+  - 오늘주가가 어제보다 아래에 있으면 -DM
+  - 오늘주가가 어제주가의 범위내에 있으면 DM은 0
+  - 오늘주가범위가 전일의 범위를 넘을 경우에는 넘는범위가 큰쪽이 위이면 +DM이고 아래이면 -DM 
+  - 통상 +DM선과 -DM선의 차이가 클수록 추세는 강하다.
+  - +DM 가 -DM를 상향돌파하면 매수기회(바로 매수하기보다는 교차일의 주가고점보다 주가가 더 상승했을 때가 매수 시점)
+  - +DM 가 -DM를 하향돌파하면 매도기회(바로 매도하기보다는 교차일의 주가저점보다 주가가 더 하락했을 때가 매도 시점)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">  * 시장의 추세를 알아보는 지표.(Directional Movement Index)
+  - +DM : (당일고가-전일고가) &gt; 0 이고 (당일고가-전일고가 &gt; 전일저가-당일저가) 이면 (당일고가-전일고가) 아니면 0
+  - -DM  : (전일저가-당일저가) &gt; 0 이고 (당일고가-전일고가 &gt; 전일저가-당일저가) 이면 (전일저가-당일저가) 아니면 0
+  - TR : (고가-저가), (전일종가-당일고가)의 절대값, (전일종가-당일저가)의 절대값중 최대값.
+  - DMI : (+DM 빼기 -DM)의 절대값/(+DM 더하기 -DM) * 100</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -685,7 +826,7 @@
         <charset val="129"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve"> ==&gt; 주가상승 가속도가 붙는 종목</t>
+      <t xml:space="preserve"> ==&gt; 금일주가상승 가속도가 붙는 종목</t>
     </r>
     <r>
       <rPr>
@@ -748,8 +889,80 @@
       </rPr>
       <t xml:space="preserve">
 G [일]0봉전 일목균형표(9,26,52) 1봉이내 주가 선행스팬 2 상향돌파후 지속
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> ==&gt;&gt; 주가가 상승추세인 종목</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
 H [일]0봉전 일목균형표(9,26,52) 선행스팬 2 &lt;= 주가
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> ==&gt;&gt; 주가가 상승추세인 종목</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
 I [일]0봉전 DI(14) -DI 0이상 8이하
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> ==&gt;&gt; 정확한 의미 모르겠음.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
 K 상장주식수 대비 2일전 외국인 순매수수량 0.05%이상 10%이하
 L 상장주식수 대비 2일전 기관 순매수수량 0.05%이상 10%이하
 N 상장주식수 대비 1일전 외국인 순매수수량 0.05%이상 10%이하
@@ -768,6 +981,10 @@
     </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>목표가 : 15 %</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
@@ -776,7 +993,7 @@
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="&quot;₩&quot;#,##0"/>
   </numFmts>
-  <fonts count="11" x14ac:knownFonts="1">
+  <fonts count="12" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -868,6 +1085,15 @@
       <charset val="129"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color rgb="FFFF0000"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="5">
     <fill>
@@ -895,7 +1121,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="4">
+  <borders count="8">
     <border>
       <left/>
       <right/>
@@ -944,13 +1170,57 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="39">
+  <cellXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1053,8 +1323,14 @@
     <xf numFmtId="49" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+    <xf numFmtId="49" fontId="10" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="10" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="10" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="4" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1062,11 +1338,35 @@
     <xf numFmtId="49" fontId="4" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="10" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="10" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="10" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="10" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="10" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="10" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="10" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1101,6 +1401,71 @@
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>5343525</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>38101</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>8886824</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>1095375</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="그림 1"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="10668000" y="7353301"/>
+          <a:ext cx="3543299" cy="1057274"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+        </a:ln>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -1509,13 +1874,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:D75"/>
+  <dimension ref="B1:D34"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B17" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="D37" sqref="D37"/>
+      <selection pane="bottomRight" activeCell="C34" sqref="C34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="12" x14ac:dyDescent="0.3"/>
@@ -1755,269 +2120,7 @@
       <c r="C34" s="4"/>
       <c r="D34" s="5"/>
     </row>
-    <row r="36" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B36" s="35" t="s">
-        <v>136</v>
-      </c>
-      <c r="C36" s="36"/>
-      <c r="D36" s="3" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="37" spans="2:4" ht="36" x14ac:dyDescent="0.3">
-      <c r="B37" s="37" t="s">
-        <v>138</v>
-      </c>
-      <c r="C37" s="38"/>
-      <c r="D37" s="33" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="38" spans="2:4" ht="144" x14ac:dyDescent="0.3">
-      <c r="B38" s="37" t="s">
-        <v>139</v>
-      </c>
-      <c r="C38" s="38"/>
-      <c r="D38" s="34" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="39" spans="2:4" ht="60" x14ac:dyDescent="0.3">
-      <c r="B39" s="37" t="s">
-        <v>142</v>
-      </c>
-      <c r="C39" s="38"/>
-      <c r="D39" s="34" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="40" spans="2:4" ht="96" x14ac:dyDescent="0.3">
-      <c r="B40" s="37" t="s">
-        <v>143</v>
-      </c>
-      <c r="C40" s="38"/>
-      <c r="D40" s="33" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="41" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B41" s="37"/>
-      <c r="C41" s="38"/>
-      <c r="D41" s="4"/>
-    </row>
-    <row r="42" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B42" s="37"/>
-      <c r="C42" s="38"/>
-      <c r="D42" s="5"/>
-    </row>
-    <row r="43" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B43" s="37"/>
-      <c r="C43" s="38"/>
-      <c r="D43" s="5"/>
-    </row>
-    <row r="44" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B44" s="37"/>
-      <c r="C44" s="38"/>
-      <c r="D44" s="5"/>
-    </row>
-    <row r="45" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B45" s="37"/>
-      <c r="C45" s="38"/>
-      <c r="D45" s="5"/>
-    </row>
-    <row r="46" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B46" s="37"/>
-      <c r="C46" s="38"/>
-      <c r="D46" s="5"/>
-    </row>
-    <row r="47" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B47" s="37"/>
-      <c r="C47" s="38"/>
-      <c r="D47" s="5"/>
-    </row>
-    <row r="48" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B48" s="37"/>
-      <c r="C48" s="38"/>
-      <c r="D48" s="5"/>
-    </row>
-    <row r="49" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B49" s="37"/>
-      <c r="C49" s="38"/>
-      <c r="D49" s="5"/>
-    </row>
-    <row r="50" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B50" s="37"/>
-      <c r="C50" s="38"/>
-      <c r="D50" s="5"/>
-    </row>
-    <row r="51" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B51" s="37"/>
-      <c r="C51" s="38"/>
-      <c r="D51" s="5"/>
-    </row>
-    <row r="52" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B52" s="37"/>
-      <c r="C52" s="38"/>
-      <c r="D52" s="5"/>
-    </row>
-    <row r="53" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B53" s="37"/>
-      <c r="C53" s="38"/>
-      <c r="D53" s="5"/>
-    </row>
-    <row r="54" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B54" s="37"/>
-      <c r="C54" s="38"/>
-      <c r="D54" s="5"/>
-    </row>
-    <row r="55" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B55" s="37"/>
-      <c r="C55" s="38"/>
-      <c r="D55" s="5"/>
-    </row>
-    <row r="56" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B56" s="37"/>
-      <c r="C56" s="38"/>
-      <c r="D56" s="5"/>
-    </row>
-    <row r="57" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B57" s="37"/>
-      <c r="C57" s="38"/>
-      <c r="D57" s="5"/>
-    </row>
-    <row r="58" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B58" s="37"/>
-      <c r="C58" s="38"/>
-      <c r="D58" s="5"/>
-    </row>
-    <row r="59" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B59" s="37"/>
-      <c r="C59" s="38"/>
-      <c r="D59" s="5"/>
-    </row>
-    <row r="60" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B60" s="37"/>
-      <c r="C60" s="38"/>
-      <c r="D60" s="5"/>
-    </row>
-    <row r="61" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B61" s="37"/>
-      <c r="C61" s="38"/>
-      <c r="D61" s="5"/>
-    </row>
-    <row r="62" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B62" s="37"/>
-      <c r="C62" s="38"/>
-      <c r="D62" s="5"/>
-    </row>
-    <row r="63" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B63" s="37"/>
-      <c r="C63" s="38"/>
-      <c r="D63" s="5"/>
-    </row>
-    <row r="64" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B64" s="37"/>
-      <c r="C64" s="38"/>
-      <c r="D64" s="5"/>
-    </row>
-    <row r="65" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B65" s="37"/>
-      <c r="C65" s="38"/>
-      <c r="D65" s="5"/>
-    </row>
-    <row r="66" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B66" s="37"/>
-      <c r="C66" s="38"/>
-      <c r="D66" s="5"/>
-    </row>
-    <row r="67" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B67" s="37"/>
-      <c r="C67" s="38"/>
-      <c r="D67" s="5"/>
-    </row>
-    <row r="68" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B68" s="37"/>
-      <c r="C68" s="38"/>
-      <c r="D68" s="5"/>
-    </row>
-    <row r="69" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B69" s="37"/>
-      <c r="C69" s="38"/>
-      <c r="D69" s="5"/>
-    </row>
-    <row r="70" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B70" s="37"/>
-      <c r="C70" s="38"/>
-      <c r="D70" s="5"/>
-    </row>
-    <row r="71" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B71" s="37"/>
-      <c r="C71" s="38"/>
-      <c r="D71" s="5"/>
-    </row>
-    <row r="72" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B72" s="37"/>
-      <c r="C72" s="38"/>
-      <c r="D72" s="5"/>
-    </row>
-    <row r="73" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B73" s="37"/>
-      <c r="C73" s="38"/>
-      <c r="D73" s="5"/>
-    </row>
-    <row r="74" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B74" s="37"/>
-      <c r="C74" s="38"/>
-      <c r="D74" s="5"/>
-    </row>
-    <row r="75" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B75" s="37"/>
-      <c r="C75" s="38"/>
-      <c r="D75" s="5"/>
-    </row>
   </sheetData>
-  <mergeCells count="40">
-    <mergeCell ref="B72:C72"/>
-    <mergeCell ref="B73:C73"/>
-    <mergeCell ref="B74:C74"/>
-    <mergeCell ref="B75:C75"/>
-    <mergeCell ref="B66:C66"/>
-    <mergeCell ref="B67:C67"/>
-    <mergeCell ref="B68:C68"/>
-    <mergeCell ref="B69:C69"/>
-    <mergeCell ref="B70:C70"/>
-    <mergeCell ref="B71:C71"/>
-    <mergeCell ref="B60:C60"/>
-    <mergeCell ref="B61:C61"/>
-    <mergeCell ref="B62:C62"/>
-    <mergeCell ref="B63:C63"/>
-    <mergeCell ref="B64:C64"/>
-    <mergeCell ref="B65:C65"/>
-    <mergeCell ref="B54:C54"/>
-    <mergeCell ref="B55:C55"/>
-    <mergeCell ref="B56:C56"/>
-    <mergeCell ref="B57:C57"/>
-    <mergeCell ref="B58:C58"/>
-    <mergeCell ref="B59:C59"/>
-    <mergeCell ref="B48:C48"/>
-    <mergeCell ref="B49:C49"/>
-    <mergeCell ref="B50:C50"/>
-    <mergeCell ref="B51:C51"/>
-    <mergeCell ref="B52:C52"/>
-    <mergeCell ref="B53:C53"/>
-    <mergeCell ref="B42:C42"/>
-    <mergeCell ref="B43:C43"/>
-    <mergeCell ref="B44:C44"/>
-    <mergeCell ref="B45:C45"/>
-    <mergeCell ref="B46:C46"/>
-    <mergeCell ref="B47:C47"/>
-    <mergeCell ref="B36:C36"/>
-    <mergeCell ref="B37:C37"/>
-    <mergeCell ref="B38:C38"/>
-    <mergeCell ref="B39:C39"/>
-    <mergeCell ref="B40:C40"/>
-    <mergeCell ref="B41:C41"/>
-  </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -2025,10 +2128,394 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B1:E43"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="B1" sqref="B1"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
+      <selection pane="bottomRight" activeCell="B2" sqref="B2:C3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="12" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="7.25" style="1" customWidth="1"/>
+    <col min="2" max="2" width="31.875" style="1" customWidth="1"/>
+    <col min="3" max="4" width="15.375" style="1" customWidth="1"/>
+    <col min="5" max="5" width="118.125" style="46" customWidth="1"/>
+    <col min="6" max="16384" width="9" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B1" s="37" t="s">
+        <v>133</v>
+      </c>
+      <c r="C1" s="38"/>
+      <c r="D1" s="37" t="s">
+        <v>91</v>
+      </c>
+      <c r="E1" s="38"/>
+    </row>
+    <row r="2" spans="2:5" ht="24" x14ac:dyDescent="0.3">
+      <c r="B2" s="39" t="s">
+        <v>134</v>
+      </c>
+      <c r="C2" s="40"/>
+      <c r="D2" s="43" t="s">
+        <v>136</v>
+      </c>
+      <c r="E2" s="48" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="3" spans="2:5" ht="24" x14ac:dyDescent="0.3">
+      <c r="B3" s="41"/>
+      <c r="C3" s="42"/>
+      <c r="D3" s="43" t="s">
+        <v>137</v>
+      </c>
+      <c r="E3" s="44" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="4" spans="2:5" ht="48" x14ac:dyDescent="0.3">
+      <c r="B4" s="39" t="s">
+        <v>135</v>
+      </c>
+      <c r="C4" s="40"/>
+      <c r="D4" s="43" t="s">
+        <v>136</v>
+      </c>
+      <c r="E4" s="48" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="5" spans="2:5" ht="96" x14ac:dyDescent="0.3">
+      <c r="B5" s="41"/>
+      <c r="C5" s="42"/>
+      <c r="D5" s="43" t="s">
+        <v>137</v>
+      </c>
+      <c r="E5" s="44" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="6" spans="2:5" ht="72" x14ac:dyDescent="0.3">
+      <c r="B6" s="39" t="s">
+        <v>144</v>
+      </c>
+      <c r="C6" s="40"/>
+      <c r="D6" s="43" t="s">
+        <v>136</v>
+      </c>
+      <c r="E6" s="48" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="7" spans="2:5" ht="84" x14ac:dyDescent="0.3">
+      <c r="B7" s="41"/>
+      <c r="C7" s="42"/>
+      <c r="D7" s="43" t="s">
+        <v>137</v>
+      </c>
+      <c r="E7" s="44" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="8" spans="2:5" ht="96" x14ac:dyDescent="0.3">
+      <c r="B8" s="47" t="s">
+        <v>145</v>
+      </c>
+      <c r="C8" s="40"/>
+      <c r="D8" s="43" t="s">
+        <v>136</v>
+      </c>
+      <c r="E8" s="48" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="9" spans="2:5" ht="60" x14ac:dyDescent="0.3">
+      <c r="B9" s="41"/>
+      <c r="C9" s="42"/>
+      <c r="D9" s="43" t="s">
+        <v>137</v>
+      </c>
+      <c r="E9" s="44" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="10" spans="2:5" ht="60" x14ac:dyDescent="0.3">
+      <c r="B10" s="39" t="s">
+        <v>142</v>
+      </c>
+      <c r="C10" s="40"/>
+      <c r="D10" s="43" t="s">
+        <v>136</v>
+      </c>
+      <c r="E10" s="48" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="11" spans="2:5" ht="125.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B11" s="41"/>
+      <c r="C11" s="42"/>
+      <c r="D11" s="43" t="s">
+        <v>137</v>
+      </c>
+      <c r="E11" s="44" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="12" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B12" s="35"/>
+      <c r="C12" s="36"/>
+      <c r="D12" s="34"/>
+      <c r="E12" s="45"/>
+    </row>
+    <row r="13" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B13" s="35"/>
+      <c r="C13" s="36"/>
+      <c r="D13" s="34"/>
+      <c r="E13" s="45"/>
+    </row>
+    <row r="14" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B14" s="35"/>
+      <c r="C14" s="36"/>
+      <c r="D14" s="34"/>
+      <c r="E14" s="45"/>
+    </row>
+    <row r="15" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B15" s="35"/>
+      <c r="C15" s="36"/>
+      <c r="D15" s="34"/>
+      <c r="E15" s="45"/>
+    </row>
+    <row r="16" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B16" s="35"/>
+      <c r="C16" s="36"/>
+      <c r="D16" s="34"/>
+      <c r="E16" s="45"/>
+    </row>
+    <row r="17" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B17" s="35"/>
+      <c r="C17" s="36"/>
+      <c r="D17" s="34"/>
+      <c r="E17" s="45"/>
+    </row>
+    <row r="18" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B18" s="35"/>
+      <c r="C18" s="36"/>
+      <c r="D18" s="34"/>
+      <c r="E18" s="45"/>
+    </row>
+    <row r="19" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B19" s="35"/>
+      <c r="C19" s="36"/>
+      <c r="D19" s="34"/>
+      <c r="E19" s="45"/>
+    </row>
+    <row r="20" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B20" s="35"/>
+      <c r="C20" s="36"/>
+      <c r="D20" s="34"/>
+      <c r="E20" s="45"/>
+    </row>
+    <row r="21" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B21" s="35"/>
+      <c r="C21" s="36"/>
+      <c r="D21" s="34"/>
+      <c r="E21" s="45"/>
+    </row>
+    <row r="22" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B22" s="35"/>
+      <c r="C22" s="36"/>
+      <c r="D22" s="34"/>
+      <c r="E22" s="45"/>
+    </row>
+    <row r="23" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B23" s="35"/>
+      <c r="C23" s="36"/>
+      <c r="D23" s="34"/>
+      <c r="E23" s="45"/>
+    </row>
+    <row r="24" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B24" s="35"/>
+      <c r="C24" s="36"/>
+      <c r="D24" s="34"/>
+      <c r="E24" s="45"/>
+    </row>
+    <row r="25" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B25" s="35"/>
+      <c r="C25" s="36"/>
+      <c r="D25" s="34"/>
+      <c r="E25" s="45"/>
+    </row>
+    <row r="26" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B26" s="35"/>
+      <c r="C26" s="36"/>
+      <c r="D26" s="34"/>
+      <c r="E26" s="45"/>
+    </row>
+    <row r="27" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B27" s="35"/>
+      <c r="C27" s="36"/>
+      <c r="D27" s="34"/>
+      <c r="E27" s="45"/>
+    </row>
+    <row r="28" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B28" s="35"/>
+      <c r="C28" s="36"/>
+      <c r="D28" s="34"/>
+      <c r="E28" s="45"/>
+    </row>
+    <row r="29" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B29" s="35"/>
+      <c r="C29" s="36"/>
+      <c r="D29" s="34"/>
+      <c r="E29" s="45"/>
+    </row>
+    <row r="30" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B30" s="35"/>
+      <c r="C30" s="36"/>
+      <c r="D30" s="34"/>
+      <c r="E30" s="45"/>
+    </row>
+    <row r="31" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B31" s="35"/>
+      <c r="C31" s="36"/>
+      <c r="D31" s="34"/>
+      <c r="E31" s="45"/>
+    </row>
+    <row r="32" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B32" s="35"/>
+      <c r="C32" s="36"/>
+      <c r="D32" s="34"/>
+      <c r="E32" s="45"/>
+    </row>
+    <row r="33" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B33" s="35"/>
+      <c r="C33" s="36"/>
+      <c r="D33" s="34"/>
+      <c r="E33" s="45"/>
+    </row>
+    <row r="34" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B34" s="35"/>
+      <c r="C34" s="36"/>
+      <c r="D34" s="34"/>
+      <c r="E34" s="45"/>
+    </row>
+    <row r="35" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B35" s="35"/>
+      <c r="C35" s="36"/>
+      <c r="D35" s="34"/>
+      <c r="E35" s="45"/>
+    </row>
+    <row r="36" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B36" s="35"/>
+      <c r="C36" s="36"/>
+      <c r="D36" s="34"/>
+      <c r="E36" s="45"/>
+    </row>
+    <row r="37" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B37" s="35"/>
+      <c r="C37" s="36"/>
+      <c r="D37" s="34"/>
+      <c r="E37" s="45"/>
+    </row>
+    <row r="38" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B38" s="35"/>
+      <c r="C38" s="36"/>
+      <c r="D38" s="34"/>
+      <c r="E38" s="45"/>
+    </row>
+    <row r="39" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B39" s="35"/>
+      <c r="C39" s="36"/>
+      <c r="D39" s="34"/>
+      <c r="E39" s="45"/>
+    </row>
+    <row r="40" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B40" s="35"/>
+      <c r="C40" s="36"/>
+      <c r="D40" s="34"/>
+      <c r="E40" s="45"/>
+    </row>
+    <row r="41" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B41" s="35"/>
+      <c r="C41" s="36"/>
+      <c r="D41" s="34"/>
+      <c r="E41" s="45"/>
+    </row>
+    <row r="42" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B42" s="35"/>
+      <c r="C42" s="36"/>
+      <c r="D42" s="34"/>
+      <c r="E42" s="45"/>
+    </row>
+    <row r="43" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B43" s="35"/>
+      <c r="C43" s="36"/>
+      <c r="D43" s="34"/>
+      <c r="E43" s="45"/>
+    </row>
+  </sheetData>
+  <autoFilter ref="B1:E9">
+    <filterColumn colId="0" showButton="0"/>
+    <filterColumn colId="2" showButton="0"/>
+  </autoFilter>
+  <mergeCells count="39">
+    <mergeCell ref="D1:E1"/>
+    <mergeCell ref="B10:C11"/>
+    <mergeCell ref="B40:C40"/>
+    <mergeCell ref="B41:C41"/>
+    <mergeCell ref="B42:C42"/>
+    <mergeCell ref="B43:C43"/>
+    <mergeCell ref="B2:C3"/>
+    <mergeCell ref="B4:C5"/>
+    <mergeCell ref="B6:C7"/>
+    <mergeCell ref="B8:C9"/>
+    <mergeCell ref="B34:C34"/>
+    <mergeCell ref="B35:C35"/>
+    <mergeCell ref="B36:C36"/>
+    <mergeCell ref="B37:C37"/>
+    <mergeCell ref="B38:C38"/>
+    <mergeCell ref="B39:C39"/>
+    <mergeCell ref="B28:C28"/>
+    <mergeCell ref="B29:C29"/>
+    <mergeCell ref="B30:C30"/>
+    <mergeCell ref="B31:C31"/>
+    <mergeCell ref="B32:C32"/>
+    <mergeCell ref="B33:C33"/>
+    <mergeCell ref="B22:C22"/>
+    <mergeCell ref="B23:C23"/>
+    <mergeCell ref="B24:C24"/>
+    <mergeCell ref="B25:C25"/>
+    <mergeCell ref="B26:C26"/>
+    <mergeCell ref="B27:C27"/>
+    <mergeCell ref="B16:C16"/>
+    <mergeCell ref="B17:C17"/>
+    <mergeCell ref="B18:C18"/>
+    <mergeCell ref="B19:C19"/>
+    <mergeCell ref="B20:C20"/>
+    <mergeCell ref="B21:C21"/>
+    <mergeCell ref="B12:C12"/>
+    <mergeCell ref="B13:C13"/>
+    <mergeCell ref="B14:C14"/>
+    <mergeCell ref="B15:C15"/>
+    <mergeCell ref="B1:C1"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:E101"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <pane xSplit="1" ySplit="2" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
       <selection pane="bottomRight" activeCell="D5" sqref="D5"/>
@@ -2082,15 +2569,15 @@
       </c>
       <c r="E4" s="24"/>
     </row>
-    <row r="5" spans="2:5" ht="348" x14ac:dyDescent="0.3">
+    <row r="5" spans="2:5" ht="384" x14ac:dyDescent="0.3">
       <c r="B5" s="17" t="s">
         <v>98</v>
       </c>
       <c r="C5" s="17" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="D5" s="26" t="s">
-        <v>145</v>
+        <v>152</v>
       </c>
       <c r="E5" s="26"/>
     </row>
@@ -2678,204 +3165,15 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:H23"/>
-  <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="M23" sqref="M23"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
-  <sheetData>
-    <row r="2" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B2" s="27">
-        <v>8</v>
-      </c>
-      <c r="C2" s="28"/>
-      <c r="D2" s="28"/>
-      <c r="E2" s="28"/>
-      <c r="F2" s="28"/>
-      <c r="G2" s="28"/>
-      <c r="H2" s="28"/>
-    </row>
-    <row r="3" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B3" s="27">
-        <v>7</v>
-      </c>
-      <c r="C3" s="28"/>
-      <c r="D3" s="28"/>
-      <c r="E3" s="28"/>
-      <c r="F3" s="28"/>
-      <c r="G3" s="28"/>
-      <c r="H3" s="28"/>
-    </row>
-    <row r="4" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B4" s="27">
-        <v>6</v>
-      </c>
-      <c r="C4" s="28"/>
-      <c r="D4" s="28"/>
-      <c r="E4" s="28"/>
-      <c r="F4" s="28"/>
-      <c r="G4" s="28"/>
-      <c r="H4" s="28"/>
-    </row>
-    <row r="5" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B5" s="27">
-        <v>5</v>
-      </c>
-      <c r="C5" s="28"/>
-      <c r="D5" s="28"/>
-      <c r="E5" s="28"/>
-      <c r="F5" s="29"/>
-      <c r="G5" s="28"/>
-      <c r="H5" s="28"/>
-    </row>
-    <row r="6" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B6" s="27">
-        <v>4</v>
-      </c>
-      <c r="C6" s="28"/>
-      <c r="D6" s="28"/>
-      <c r="E6" s="29"/>
-      <c r="F6" s="28"/>
-      <c r="G6" s="29"/>
-      <c r="H6" s="28"/>
-    </row>
-    <row r="7" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B7" s="27">
-        <v>3</v>
-      </c>
-      <c r="C7" s="28"/>
-      <c r="D7" s="29"/>
-      <c r="E7" s="28"/>
-      <c r="F7" s="28"/>
-      <c r="G7" s="28"/>
-      <c r="H7" s="29"/>
-    </row>
-    <row r="8" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B8" s="27">
-        <v>2</v>
-      </c>
-      <c r="C8" s="29"/>
-      <c r="D8" s="28"/>
-      <c r="E8" s="28"/>
-      <c r="F8" s="28"/>
-      <c r="G8" s="28"/>
-      <c r="H8" s="28"/>
-    </row>
-    <row r="9" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B9" s="27">
-        <v>1</v>
-      </c>
-      <c r="C9" s="29"/>
-      <c r="D9" s="28"/>
-      <c r="E9" s="28"/>
-      <c r="F9" s="28"/>
-      <c r="G9" s="28"/>
-      <c r="H9" s="28"/>
-    </row>
-    <row r="10" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B10" s="30">
-        <v>-1</v>
-      </c>
-      <c r="C10" s="31"/>
-      <c r="D10" s="28"/>
-      <c r="E10" s="28"/>
-      <c r="F10" s="28"/>
-      <c r="G10" s="28"/>
-      <c r="H10" s="28"/>
-    </row>
-    <row r="11" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B11" s="30">
-        <v>-2</v>
-      </c>
-      <c r="C11" s="31"/>
-      <c r="D11" s="28"/>
-      <c r="E11" s="28"/>
-      <c r="F11" s="28"/>
-      <c r="G11" s="28"/>
-      <c r="H11" s="28"/>
-    </row>
-    <row r="12" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B12" s="30">
-        <v>-3</v>
-      </c>
-      <c r="C12" s="28"/>
-      <c r="D12" s="28"/>
-      <c r="E12" s="28"/>
-      <c r="F12" s="28"/>
-      <c r="G12" s="28"/>
-      <c r="H12" s="28"/>
-    </row>
-    <row r="13" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B13" s="30">
-        <v>-4</v>
-      </c>
-      <c r="C13" s="28"/>
-      <c r="D13" s="28"/>
-      <c r="E13" s="28"/>
-      <c r="F13" s="28"/>
-      <c r="G13" s="28"/>
-      <c r="H13" s="28"/>
-    </row>
-    <row r="16" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B16" s="32" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="17" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="C17" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="18" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="D18" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="19" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B19" s="32" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="20" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="C20" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="21" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="D21" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="22" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="D22" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="23" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="D23" t="s">
-        <v>123</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
-</worksheet>
-</file>
-
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:J88"/>
+  <dimension ref="B2:J87"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="2" topLeftCell="B3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="G41" sqref="G41"/>
+      <selection pane="bottomRight" activeCell="I36" sqref="I36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="12" x14ac:dyDescent="0.3"/>
@@ -2945,7 +3243,7 @@
         <v>27200</v>
       </c>
       <c r="I3" s="14">
-        <f t="shared" ref="I3:I55" si="0">IF(H3="", "", IFERROR( ((H3-F3)/F3), ""))</f>
+        <f t="shared" ref="I3:I54" si="0">IF(H3="", "", IFERROR( ((H3-F3)/F3), ""))</f>
         <v>0.1079429735234216</v>
       </c>
       <c r="J3" s="5"/>
@@ -3494,7 +3792,7 @@
     </row>
     <row r="23" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B23" s="4" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C23" s="12" t="s">
         <v>93</v>
@@ -3522,7 +3820,7 @@
     </row>
     <row r="24" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B24" s="4" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C24" s="12" t="s">
         <v>105</v>
@@ -3550,7 +3848,7 @@
     </row>
     <row r="25" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B25" s="4" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C25" s="12" t="s">
         <v>109</v>
@@ -3578,7 +3876,7 @@
     </row>
     <row r="26" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B26" s="4" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C26" s="12" t="s">
         <v>111</v>
@@ -3606,7 +3904,7 @@
     </row>
     <row r="27" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B27" s="4" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C27" s="12" t="s">
         <v>113</v>
@@ -3634,7 +3932,7 @@
     </row>
     <row r="28" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B28" s="4" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C28" s="12" t="s">
         <v>114</v>
@@ -3662,13 +3960,13 @@
     </row>
     <row r="29" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B29" s="4" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C29" s="12" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="D29" s="5" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="E29" s="12" t="s">
         <v>116</v>
@@ -3676,23 +3974,27 @@
       <c r="F29" s="13">
         <v>8765</v>
       </c>
-      <c r="G29" s="12"/>
-      <c r="H29" s="13"/>
-      <c r="I29" s="14" t="str">
+      <c r="G29" s="12" t="s">
+        <v>143</v>
+      </c>
+      <c r="H29" s="13">
+        <v>8860</v>
+      </c>
+      <c r="I29" s="14">
         <f t="shared" si="0"/>
-        <v/>
+        <v>1.0838562464346835E-2</v>
       </c>
       <c r="J29" s="5"/>
     </row>
     <row r="30" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B30" s="4" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C30" s="12" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="D30" s="33" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="E30" s="12" t="s">
         <v>116</v>
@@ -3700,23 +4002,27 @@
       <c r="F30" s="13">
         <v>2945</v>
       </c>
-      <c r="G30" s="12"/>
-      <c r="H30" s="13"/>
-      <c r="I30" s="14" t="str">
+      <c r="G30" s="12" t="s">
+        <v>143</v>
+      </c>
+      <c r="H30" s="13">
+        <v>2905</v>
+      </c>
+      <c r="I30" s="14">
         <f t="shared" si="0"/>
-        <v/>
+        <v>-1.3582342954159592E-2</v>
       </c>
       <c r="J30" s="5"/>
     </row>
     <row r="31" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B31" s="4" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C31" s="12" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="D31" s="33" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="E31" s="12" t="s">
         <v>116</v>
@@ -3724,30 +4030,24 @@
       <c r="F31" s="13">
         <v>2475</v>
       </c>
-      <c r="G31" s="12"/>
-      <c r="H31" s="13"/>
-      <c r="I31" s="14" t="str">
+      <c r="G31" s="12" t="s">
+        <v>143</v>
+      </c>
+      <c r="H31" s="13">
+        <v>2470</v>
+      </c>
+      <c r="I31" s="14">
         <f t="shared" si="0"/>
-        <v/>
+        <v>-2.0202020202020202E-3</v>
       </c>
       <c r="J31" s="5"/>
     </row>
     <row r="32" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B32" s="4" t="s">
-        <v>125</v>
-      </c>
-      <c r="C32" s="12" t="s">
-        <v>133</v>
-      </c>
-      <c r="D32" s="5" t="s">
-        <v>134</v>
-      </c>
-      <c r="E32" s="12" t="s">
-        <v>116</v>
-      </c>
-      <c r="F32" s="13">
-        <v>14050</v>
-      </c>
+      <c r="B32" s="4"/>
+      <c r="C32" s="12"/>
+      <c r="D32" s="5"/>
+      <c r="E32" s="12"/>
+      <c r="F32" s="13"/>
       <c r="G32" s="12"/>
       <c r="H32" s="13"/>
       <c r="I32" s="14" t="str">
@@ -4073,7 +4373,7 @@
       <c r="G55" s="12"/>
       <c r="H55" s="13"/>
       <c r="I55" s="14" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" ref="I55:I87" si="1">IF(H55="", "", IFERROR( ((H55-F55)/F55), ""))</f>
         <v/>
       </c>
       <c r="J55" s="5"/>
@@ -4087,7 +4387,7 @@
       <c r="G56" s="12"/>
       <c r="H56" s="13"/>
       <c r="I56" s="14" t="str">
-        <f t="shared" ref="I56:I88" si="1">IF(H56="", "", IFERROR( ((H56-F56)/F56), ""))</f>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="J56" s="5"/>
@@ -4526,22 +4826,8 @@
       </c>
       <c r="J87" s="5"/>
     </row>
-    <row r="88" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B88" s="4"/>
-      <c r="C88" s="12"/>
-      <c r="D88" s="5"/>
-      <c r="E88" s="12"/>
-      <c r="F88" s="13"/>
-      <c r="G88" s="12"/>
-      <c r="H88" s="13"/>
-      <c r="I88" s="14" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="J88" s="5"/>
-    </row>
   </sheetData>
-  <autoFilter ref="B2:J88"/>
+  <autoFilter ref="B2:J87"/>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="I1 I3:I1048576">
     <cfRule type="cellIs" dxfId="1" priority="4" operator="greaterThan">
@@ -4556,4 +4842,193 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B2:H23"/>
+  <sheetViews>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="F17" sqref="F17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="2" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B2" s="27">
+        <v>8</v>
+      </c>
+      <c r="C2" s="28"/>
+      <c r="D2" s="28"/>
+      <c r="E2" s="28"/>
+      <c r="F2" s="28"/>
+      <c r="G2" s="28"/>
+      <c r="H2" s="28"/>
+    </row>
+    <row r="3" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B3" s="27">
+        <v>7</v>
+      </c>
+      <c r="C3" s="28"/>
+      <c r="D3" s="28"/>
+      <c r="E3" s="28"/>
+      <c r="F3" s="28"/>
+      <c r="G3" s="28"/>
+      <c r="H3" s="28"/>
+    </row>
+    <row r="4" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B4" s="27">
+        <v>6</v>
+      </c>
+      <c r="C4" s="28"/>
+      <c r="D4" s="28"/>
+      <c r="E4" s="28"/>
+      <c r="F4" s="28"/>
+      <c r="G4" s="28"/>
+      <c r="H4" s="28"/>
+    </row>
+    <row r="5" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B5" s="27">
+        <v>5</v>
+      </c>
+      <c r="C5" s="28"/>
+      <c r="D5" s="28"/>
+      <c r="E5" s="28"/>
+      <c r="F5" s="29"/>
+      <c r="G5" s="28"/>
+      <c r="H5" s="28"/>
+    </row>
+    <row r="6" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B6" s="27">
+        <v>4</v>
+      </c>
+      <c r="C6" s="28"/>
+      <c r="D6" s="28"/>
+      <c r="E6" s="29"/>
+      <c r="F6" s="28"/>
+      <c r="G6" s="29"/>
+      <c r="H6" s="28"/>
+    </row>
+    <row r="7" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B7" s="27">
+        <v>3</v>
+      </c>
+      <c r="C7" s="28"/>
+      <c r="D7" s="29"/>
+      <c r="E7" s="28"/>
+      <c r="F7" s="28"/>
+      <c r="G7" s="28"/>
+      <c r="H7" s="29"/>
+    </row>
+    <row r="8" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B8" s="27">
+        <v>2</v>
+      </c>
+      <c r="C8" s="29"/>
+      <c r="D8" s="28"/>
+      <c r="E8" s="28"/>
+      <c r="F8" s="28"/>
+      <c r="G8" s="28"/>
+      <c r="H8" s="28"/>
+    </row>
+    <row r="9" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B9" s="27">
+        <v>1</v>
+      </c>
+      <c r="C9" s="29"/>
+      <c r="D9" s="28"/>
+      <c r="E9" s="28"/>
+      <c r="F9" s="28"/>
+      <c r="G9" s="28"/>
+      <c r="H9" s="28"/>
+    </row>
+    <row r="10" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B10" s="30">
+        <v>-1</v>
+      </c>
+      <c r="C10" s="31"/>
+      <c r="D10" s="28"/>
+      <c r="E10" s="28"/>
+      <c r="F10" s="28"/>
+      <c r="G10" s="28"/>
+      <c r="H10" s="28"/>
+    </row>
+    <row r="11" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B11" s="30">
+        <v>-2</v>
+      </c>
+      <c r="C11" s="31"/>
+      <c r="D11" s="28"/>
+      <c r="E11" s="28"/>
+      <c r="F11" s="28"/>
+      <c r="G11" s="28"/>
+      <c r="H11" s="28"/>
+    </row>
+    <row r="12" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B12" s="30">
+        <v>-3</v>
+      </c>
+      <c r="C12" s="28"/>
+      <c r="D12" s="28"/>
+      <c r="E12" s="28"/>
+      <c r="F12" s="28"/>
+      <c r="G12" s="28"/>
+      <c r="H12" s="28"/>
+    </row>
+    <row r="13" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B13" s="30">
+        <v>-4</v>
+      </c>
+      <c r="C13" s="28"/>
+      <c r="D13" s="28"/>
+      <c r="E13" s="28"/>
+      <c r="F13" s="28"/>
+      <c r="G13" s="28"/>
+      <c r="H13" s="28"/>
+    </row>
+    <row r="16" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B16" s="32" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="17" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="C17" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="18" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="D18" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="19" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B19" s="32" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="20" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="C20" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="21" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="D21" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="22" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="D22" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="23" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="D23" t="s">
+        <v>123</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
 </file>
--- a/WorkShop/01.docs/01.초기학습.xlsx
+++ b/WorkShop/01.docs/01.초기학습.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11850" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11850" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="00.참고" sheetId="2" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="236" uniqueCount="154">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="238" uniqueCount="156">
   <si>
     <t>사이트명</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -783,6 +783,23 @@
   - -DM  : (전일저가-당일저가) &gt; 0 이고 (당일고가-전일고가 &gt; 전일저가-당일저가) 이면 (전일저가-당일저가) 아니면 0
   - TR : (고가-저가), (전일종가-당일고가)의 절대값, (전일종가-당일저가)의 절대값중 최대값.
   - DMI : (+DM 빼기 -DM)의 절대값/(+DM 더하기 -DM) * 100</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>목표가 : 15 %</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1. 전고점 돌파
+2. 1봉전 윗꼬리가 달린 장대양봉
+3. 1봉전 장대양봉이 0봉전 캔들을 감싸는 형태
+4. 0봉전 거래량 &lt;= 1봉전 거래량/4
+5. 모멘텀(주가가 상승/하락 하는-움직이는 경향) 존재
+6. 외인/기관 매수량</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>용식_종가매매_V0.01</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -979,10 +996,6 @@
 6. 선물을 보며[0783] 외인의 선물매도세가 끊이지 않을 경우 주의를 하며 배팅한다.
 7. 시황이 매우 안좋거나 외인의 선물매도세가 멈추지 않을 경우 아예 종가배팅을 하지 않거나 동시호가에 한다.</t>
     </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>목표가 : 15 %</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1326,11 +1339,20 @@
     <xf numFmtId="49" fontId="10" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="10" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="10" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="4" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1350,23 +1372,14 @@
     <xf numFmtId="49" fontId="10" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="49" fontId="10" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
+    <xf numFmtId="49" fontId="10" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="10" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2130,11 +2143,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:E43"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="B2" sqref="B2:C3"/>
+      <selection pane="bottomRight" activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="12" x14ac:dyDescent="0.3"/>
@@ -2142,321 +2155,321 @@
     <col min="1" max="1" width="7.25" style="1" customWidth="1"/>
     <col min="2" max="2" width="31.875" style="1" customWidth="1"/>
     <col min="3" max="4" width="15.375" style="1" customWidth="1"/>
-    <col min="5" max="5" width="118.125" style="46" customWidth="1"/>
+    <col min="5" max="5" width="118.125" style="38" customWidth="1"/>
     <col min="6" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B1" s="37" t="s">
+      <c r="B1" s="40" t="s">
         <v>133</v>
       </c>
-      <c r="C1" s="38"/>
-      <c r="D1" s="37" t="s">
+      <c r="C1" s="41"/>
+      <c r="D1" s="40" t="s">
         <v>91</v>
       </c>
-      <c r="E1" s="38"/>
+      <c r="E1" s="41"/>
     </row>
     <row r="2" spans="2:5" ht="24" x14ac:dyDescent="0.3">
-      <c r="B2" s="39" t="s">
+      <c r="B2" s="42" t="s">
         <v>134</v>
       </c>
-      <c r="C2" s="40"/>
-      <c r="D2" s="43" t="s">
+      <c r="C2" s="43"/>
+      <c r="D2" s="35" t="s">
         <v>136</v>
       </c>
-      <c r="E2" s="48" t="s">
+      <c r="E2" s="39" t="s">
         <v>149</v>
       </c>
     </row>
     <row r="3" spans="2:5" ht="24" x14ac:dyDescent="0.3">
-      <c r="B3" s="41"/>
-      <c r="C3" s="42"/>
-      <c r="D3" s="43" t="s">
+      <c r="B3" s="44"/>
+      <c r="C3" s="45"/>
+      <c r="D3" s="35" t="s">
         <v>137</v>
       </c>
-      <c r="E3" s="44" t="s">
+      <c r="E3" s="36" t="s">
         <v>138</v>
       </c>
     </row>
     <row r="4" spans="2:5" ht="48" x14ac:dyDescent="0.3">
-      <c r="B4" s="39" t="s">
+      <c r="B4" s="42" t="s">
         <v>135</v>
       </c>
-      <c r="C4" s="40"/>
-      <c r="D4" s="43" t="s">
+      <c r="C4" s="43"/>
+      <c r="D4" s="35" t="s">
         <v>136</v>
       </c>
-      <c r="E4" s="48" t="s">
+      <c r="E4" s="39" t="s">
         <v>148</v>
       </c>
     </row>
     <row r="5" spans="2:5" ht="96" x14ac:dyDescent="0.3">
-      <c r="B5" s="41"/>
-      <c r="C5" s="42"/>
-      <c r="D5" s="43" t="s">
+      <c r="B5" s="44"/>
+      <c r="C5" s="45"/>
+      <c r="D5" s="35" t="s">
         <v>137</v>
       </c>
-      <c r="E5" s="44" t="s">
+      <c r="E5" s="36" t="s">
         <v>139</v>
       </c>
     </row>
     <row r="6" spans="2:5" ht="72" x14ac:dyDescent="0.3">
-      <c r="B6" s="39" t="s">
+      <c r="B6" s="42" t="s">
         <v>144</v>
       </c>
-      <c r="C6" s="40"/>
-      <c r="D6" s="43" t="s">
+      <c r="C6" s="43"/>
+      <c r="D6" s="35" t="s">
         <v>136</v>
       </c>
-      <c r="E6" s="48" t="s">
+      <c r="E6" s="39" t="s">
         <v>147</v>
       </c>
     </row>
     <row r="7" spans="2:5" ht="84" x14ac:dyDescent="0.3">
-      <c r="B7" s="41"/>
-      <c r="C7" s="42"/>
-      <c r="D7" s="43" t="s">
+      <c r="B7" s="44"/>
+      <c r="C7" s="45"/>
+      <c r="D7" s="35" t="s">
         <v>137</v>
       </c>
-      <c r="E7" s="44" t="s">
+      <c r="E7" s="36" t="s">
         <v>140</v>
       </c>
     </row>
     <row r="8" spans="2:5" ht="96" x14ac:dyDescent="0.3">
-      <c r="B8" s="47" t="s">
+      <c r="B8" s="48" t="s">
         <v>145</v>
       </c>
-      <c r="C8" s="40"/>
-      <c r="D8" s="43" t="s">
+      <c r="C8" s="43"/>
+      <c r="D8" s="35" t="s">
         <v>136</v>
       </c>
-      <c r="E8" s="48" t="s">
+      <c r="E8" s="39" t="s">
         <v>146</v>
       </c>
     </row>
     <row r="9" spans="2:5" ht="60" x14ac:dyDescent="0.3">
-      <c r="B9" s="41"/>
-      <c r="C9" s="42"/>
-      <c r="D9" s="43" t="s">
+      <c r="B9" s="44"/>
+      <c r="C9" s="45"/>
+      <c r="D9" s="35" t="s">
         <v>137</v>
       </c>
-      <c r="E9" s="44" t="s">
+      <c r="E9" s="36" t="s">
         <v>141</v>
       </c>
     </row>
     <row r="10" spans="2:5" ht="60" x14ac:dyDescent="0.3">
-      <c r="B10" s="39" t="s">
+      <c r="B10" s="42" t="s">
         <v>142</v>
       </c>
-      <c r="C10" s="40"/>
-      <c r="D10" s="43" t="s">
+      <c r="C10" s="43"/>
+      <c r="D10" s="35" t="s">
         <v>136</v>
       </c>
-      <c r="E10" s="48" t="s">
+      <c r="E10" s="39" t="s">
         <v>151</v>
       </c>
     </row>
     <row r="11" spans="2:5" ht="125.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B11" s="41"/>
-      <c r="C11" s="42"/>
-      <c r="D11" s="43" t="s">
+      <c r="B11" s="44"/>
+      <c r="C11" s="45"/>
+      <c r="D11" s="35" t="s">
         <v>137</v>
       </c>
-      <c r="E11" s="44" t="s">
+      <c r="E11" s="36" t="s">
         <v>150</v>
       </c>
     </row>
     <row r="12" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B12" s="35"/>
-      <c r="C12" s="36"/>
+      <c r="B12" s="46"/>
+      <c r="C12" s="47"/>
       <c r="D12" s="34"/>
-      <c r="E12" s="45"/>
+      <c r="E12" s="37"/>
     </row>
     <row r="13" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B13" s="35"/>
-      <c r="C13" s="36"/>
+      <c r="B13" s="46"/>
+      <c r="C13" s="47"/>
       <c r="D13" s="34"/>
-      <c r="E13" s="45"/>
+      <c r="E13" s="37"/>
     </row>
     <row r="14" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B14" s="35"/>
-      <c r="C14" s="36"/>
+      <c r="B14" s="46"/>
+      <c r="C14" s="47"/>
       <c r="D14" s="34"/>
-      <c r="E14" s="45"/>
+      <c r="E14" s="37"/>
     </row>
     <row r="15" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B15" s="35"/>
-      <c r="C15" s="36"/>
+      <c r="B15" s="46"/>
+      <c r="C15" s="47"/>
       <c r="D15" s="34"/>
-      <c r="E15" s="45"/>
+      <c r="E15" s="37"/>
     </row>
     <row r="16" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B16" s="35"/>
-      <c r="C16" s="36"/>
+      <c r="B16" s="46"/>
+      <c r="C16" s="47"/>
       <c r="D16" s="34"/>
-      <c r="E16" s="45"/>
+      <c r="E16" s="37"/>
     </row>
     <row r="17" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B17" s="35"/>
-      <c r="C17" s="36"/>
+      <c r="B17" s="46"/>
+      <c r="C17" s="47"/>
       <c r="D17" s="34"/>
-      <c r="E17" s="45"/>
+      <c r="E17" s="37"/>
     </row>
     <row r="18" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B18" s="35"/>
-      <c r="C18" s="36"/>
+      <c r="B18" s="46"/>
+      <c r="C18" s="47"/>
       <c r="D18" s="34"/>
-      <c r="E18" s="45"/>
+      <c r="E18" s="37"/>
     </row>
     <row r="19" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B19" s="35"/>
-      <c r="C19" s="36"/>
+      <c r="B19" s="46"/>
+      <c r="C19" s="47"/>
       <c r="D19" s="34"/>
-      <c r="E19" s="45"/>
+      <c r="E19" s="37"/>
     </row>
     <row r="20" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B20" s="35"/>
-      <c r="C20" s="36"/>
+      <c r="B20" s="46"/>
+      <c r="C20" s="47"/>
       <c r="D20" s="34"/>
-      <c r="E20" s="45"/>
+      <c r="E20" s="37"/>
     </row>
     <row r="21" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B21" s="35"/>
-      <c r="C21" s="36"/>
+      <c r="B21" s="46"/>
+      <c r="C21" s="47"/>
       <c r="D21" s="34"/>
-      <c r="E21" s="45"/>
+      <c r="E21" s="37"/>
     </row>
     <row r="22" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B22" s="35"/>
-      <c r="C22" s="36"/>
+      <c r="B22" s="46"/>
+      <c r="C22" s="47"/>
       <c r="D22" s="34"/>
-      <c r="E22" s="45"/>
+      <c r="E22" s="37"/>
     </row>
     <row r="23" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B23" s="35"/>
-      <c r="C23" s="36"/>
+      <c r="B23" s="46"/>
+      <c r="C23" s="47"/>
       <c r="D23" s="34"/>
-      <c r="E23" s="45"/>
+      <c r="E23" s="37"/>
     </row>
     <row r="24" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B24" s="35"/>
-      <c r="C24" s="36"/>
+      <c r="B24" s="46"/>
+      <c r="C24" s="47"/>
       <c r="D24" s="34"/>
-      <c r="E24" s="45"/>
+      <c r="E24" s="37"/>
     </row>
     <row r="25" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B25" s="35"/>
-      <c r="C25" s="36"/>
+      <c r="B25" s="46"/>
+      <c r="C25" s="47"/>
       <c r="D25" s="34"/>
-      <c r="E25" s="45"/>
+      <c r="E25" s="37"/>
     </row>
     <row r="26" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B26" s="35"/>
-      <c r="C26" s="36"/>
+      <c r="B26" s="46"/>
+      <c r="C26" s="47"/>
       <c r="D26" s="34"/>
-      <c r="E26" s="45"/>
+      <c r="E26" s="37"/>
     </row>
     <row r="27" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B27" s="35"/>
-      <c r="C27" s="36"/>
+      <c r="B27" s="46"/>
+      <c r="C27" s="47"/>
       <c r="D27" s="34"/>
-      <c r="E27" s="45"/>
+      <c r="E27" s="37"/>
     </row>
     <row r="28" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B28" s="35"/>
-      <c r="C28" s="36"/>
+      <c r="B28" s="46"/>
+      <c r="C28" s="47"/>
       <c r="D28" s="34"/>
-      <c r="E28" s="45"/>
+      <c r="E28" s="37"/>
     </row>
     <row r="29" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B29" s="35"/>
-      <c r="C29" s="36"/>
+      <c r="B29" s="46"/>
+      <c r="C29" s="47"/>
       <c r="D29" s="34"/>
-      <c r="E29" s="45"/>
+      <c r="E29" s="37"/>
     </row>
     <row r="30" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B30" s="35"/>
-      <c r="C30" s="36"/>
+      <c r="B30" s="46"/>
+      <c r="C30" s="47"/>
       <c r="D30" s="34"/>
-      <c r="E30" s="45"/>
+      <c r="E30" s="37"/>
     </row>
     <row r="31" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B31" s="35"/>
-      <c r="C31" s="36"/>
+      <c r="B31" s="46"/>
+      <c r="C31" s="47"/>
       <c r="D31" s="34"/>
-      <c r="E31" s="45"/>
+      <c r="E31" s="37"/>
     </row>
     <row r="32" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B32" s="35"/>
-      <c r="C32" s="36"/>
+      <c r="B32" s="46"/>
+      <c r="C32" s="47"/>
       <c r="D32" s="34"/>
-      <c r="E32" s="45"/>
+      <c r="E32" s="37"/>
     </row>
     <row r="33" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B33" s="35"/>
-      <c r="C33" s="36"/>
+      <c r="B33" s="46"/>
+      <c r="C33" s="47"/>
       <c r="D33" s="34"/>
-      <c r="E33" s="45"/>
+      <c r="E33" s="37"/>
     </row>
     <row r="34" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B34" s="35"/>
-      <c r="C34" s="36"/>
+      <c r="B34" s="46"/>
+      <c r="C34" s="47"/>
       <c r="D34" s="34"/>
-      <c r="E34" s="45"/>
+      <c r="E34" s="37"/>
     </row>
     <row r="35" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B35" s="35"/>
-      <c r="C35" s="36"/>
+      <c r="B35" s="46"/>
+      <c r="C35" s="47"/>
       <c r="D35" s="34"/>
-      <c r="E35" s="45"/>
+      <c r="E35" s="37"/>
     </row>
     <row r="36" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B36" s="35"/>
-      <c r="C36" s="36"/>
+      <c r="B36" s="46"/>
+      <c r="C36" s="47"/>
       <c r="D36" s="34"/>
-      <c r="E36" s="45"/>
+      <c r="E36" s="37"/>
     </row>
     <row r="37" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B37" s="35"/>
-      <c r="C37" s="36"/>
+      <c r="B37" s="46"/>
+      <c r="C37" s="47"/>
       <c r="D37" s="34"/>
-      <c r="E37" s="45"/>
+      <c r="E37" s="37"/>
     </row>
     <row r="38" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B38" s="35"/>
-      <c r="C38" s="36"/>
+      <c r="B38" s="46"/>
+      <c r="C38" s="47"/>
       <c r="D38" s="34"/>
-      <c r="E38" s="45"/>
+      <c r="E38" s="37"/>
     </row>
     <row r="39" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B39" s="35"/>
-      <c r="C39" s="36"/>
+      <c r="B39" s="46"/>
+      <c r="C39" s="47"/>
       <c r="D39" s="34"/>
-      <c r="E39" s="45"/>
+      <c r="E39" s="37"/>
     </row>
     <row r="40" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B40" s="35"/>
-      <c r="C40" s="36"/>
+      <c r="B40" s="46"/>
+      <c r="C40" s="47"/>
       <c r="D40" s="34"/>
-      <c r="E40" s="45"/>
+      <c r="E40" s="37"/>
     </row>
     <row r="41" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B41" s="35"/>
-      <c r="C41" s="36"/>
+      <c r="B41" s="46"/>
+      <c r="C41" s="47"/>
       <c r="D41" s="34"/>
-      <c r="E41" s="45"/>
+      <c r="E41" s="37"/>
     </row>
     <row r="42" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B42" s="35"/>
-      <c r="C42" s="36"/>
+      <c r="B42" s="46"/>
+      <c r="C42" s="47"/>
       <c r="D42" s="34"/>
-      <c r="E42" s="45"/>
+      <c r="E42" s="37"/>
     </row>
     <row r="43" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B43" s="35"/>
-      <c r="C43" s="36"/>
+      <c r="B43" s="46"/>
+      <c r="C43" s="47"/>
       <c r="D43" s="34"/>
-      <c r="E43" s="45"/>
+      <c r="E43" s="37"/>
     </row>
   </sheetData>
   <autoFilter ref="B1:E9">
@@ -2464,11 +2477,13 @@
     <filterColumn colId="2" showButton="0"/>
   </autoFilter>
   <mergeCells count="39">
-    <mergeCell ref="D1:E1"/>
-    <mergeCell ref="B10:C11"/>
-    <mergeCell ref="B40:C40"/>
-    <mergeCell ref="B41:C41"/>
-    <mergeCell ref="B42:C42"/>
+    <mergeCell ref="B1:C1"/>
+    <mergeCell ref="B20:C20"/>
+    <mergeCell ref="B21:C21"/>
+    <mergeCell ref="B12:C12"/>
+    <mergeCell ref="B13:C13"/>
+    <mergeCell ref="B14:C14"/>
+    <mergeCell ref="B15:C15"/>
     <mergeCell ref="B43:C43"/>
     <mergeCell ref="B2:C3"/>
     <mergeCell ref="B4:C5"/>
@@ -2485,6 +2500,11 @@
     <mergeCell ref="B30:C30"/>
     <mergeCell ref="B31:C31"/>
     <mergeCell ref="B32:C32"/>
+    <mergeCell ref="D1:E1"/>
+    <mergeCell ref="B10:C11"/>
+    <mergeCell ref="B40:C40"/>
+    <mergeCell ref="B41:C41"/>
+    <mergeCell ref="B42:C42"/>
     <mergeCell ref="B33:C33"/>
     <mergeCell ref="B22:C22"/>
     <mergeCell ref="B23:C23"/>
@@ -2496,13 +2516,6 @@
     <mergeCell ref="B17:C17"/>
     <mergeCell ref="B18:C18"/>
     <mergeCell ref="B19:C19"/>
-    <mergeCell ref="B20:C20"/>
-    <mergeCell ref="B21:C21"/>
-    <mergeCell ref="B12:C12"/>
-    <mergeCell ref="B13:C13"/>
-    <mergeCell ref="B14:C14"/>
-    <mergeCell ref="B15:C15"/>
-    <mergeCell ref="B1:C1"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2514,7 +2527,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:E101"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="1" ySplit="2" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
@@ -2577,14 +2590,18 @@
         <v>132</v>
       </c>
       <c r="D5" s="26" t="s">
-        <v>152</v>
+        <v>155</v>
       </c>
       <c r="E5" s="26"/>
     </row>
     <row r="6" spans="2:5" ht="159" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B6" s="17"/>
-      <c r="C6" s="17"/>
-      <c r="D6" s="24"/>
+      <c r="C6" s="17" t="s">
+        <v>154</v>
+      </c>
+      <c r="D6" s="26" t="s">
+        <v>153</v>
+      </c>
       <c r="E6" s="26"/>
     </row>
     <row r="7" spans="2:5" ht="86.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -5018,7 +5035,7 @@
     </row>
     <row r="22" spans="2:4" x14ac:dyDescent="0.3">
       <c r="D22" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="23" spans="2:4" x14ac:dyDescent="0.3">

--- a/WorkShop/01.docs/01.초기학습.xlsx
+++ b/WorkShop/01.docs/01.초기학습.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11850" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11850"/>
   </bookViews>
   <sheets>
     <sheet name="00.참고" sheetId="2" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="238" uniqueCount="156">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="241" uniqueCount="158">
   <si>
     <t>사이트명</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -996,6 +996,14 @@
 6. 선물을 보며[0783] 외인의 선물매도세가 끊이지 않을 경우 주의를 하며 배팅한다.
 7. 시황이 매우 안좋거나 외인의 선물매도세가 멈추지 않을 경우 아예 종가배팅을 하지 않거나 동시호가에 한다.</t>
     </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://m.cafe.daum.net/astock/Lbi5/1581?q=D_ATrkY1VNuXk0&amp;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>볼린저밴드돌파시초가 따라잡기</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1360,6 +1368,12 @@
     <xf numFmtId="49" fontId="4" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="49" fontId="10" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="10" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="49" fontId="10" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -1370,12 +1384,6 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="10" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="10" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="10" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="10" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1889,11 +1897,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:D34"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="C34" sqref="C34"/>
+      <selection pane="bottomRight" activeCell="D23" sqref="D23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="12" x14ac:dyDescent="0.3"/>
@@ -2014,9 +2022,15 @@
       </c>
     </row>
     <row r="11" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B11" s="4"/>
-      <c r="C11" s="4"/>
-      <c r="D11" s="5"/>
+      <c r="B11" s="4" t="s">
+        <v>157</v>
+      </c>
+      <c r="C11" s="23" t="s">
+        <v>156</v>
+      </c>
+      <c r="D11" s="20" t="s">
+        <v>65</v>
+      </c>
     </row>
     <row r="12" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B12" s="4"/>
@@ -2170,10 +2184,10 @@
       <c r="E1" s="41"/>
     </row>
     <row r="2" spans="2:5" ht="24" x14ac:dyDescent="0.3">
-      <c r="B2" s="42" t="s">
+      <c r="B2" s="44" t="s">
         <v>134</v>
       </c>
-      <c r="C2" s="43"/>
+      <c r="C2" s="45"/>
       <c r="D2" s="35" t="s">
         <v>136</v>
       </c>
@@ -2182,8 +2196,8 @@
       </c>
     </row>
     <row r="3" spans="2:5" ht="24" x14ac:dyDescent="0.3">
-      <c r="B3" s="44"/>
-      <c r="C3" s="45"/>
+      <c r="B3" s="46"/>
+      <c r="C3" s="47"/>
       <c r="D3" s="35" t="s">
         <v>137</v>
       </c>
@@ -2192,10 +2206,10 @@
       </c>
     </row>
     <row r="4" spans="2:5" ht="48" x14ac:dyDescent="0.3">
-      <c r="B4" s="42" t="s">
+      <c r="B4" s="44" t="s">
         <v>135</v>
       </c>
-      <c r="C4" s="43"/>
+      <c r="C4" s="45"/>
       <c r="D4" s="35" t="s">
         <v>136</v>
       </c>
@@ -2204,8 +2218,8 @@
       </c>
     </row>
     <row r="5" spans="2:5" ht="96" x14ac:dyDescent="0.3">
-      <c r="B5" s="44"/>
-      <c r="C5" s="45"/>
+      <c r="B5" s="46"/>
+      <c r="C5" s="47"/>
       <c r="D5" s="35" t="s">
         <v>137</v>
       </c>
@@ -2214,10 +2228,10 @@
       </c>
     </row>
     <row r="6" spans="2:5" ht="72" x14ac:dyDescent="0.3">
-      <c r="B6" s="42" t="s">
+      <c r="B6" s="44" t="s">
         <v>144</v>
       </c>
-      <c r="C6" s="43"/>
+      <c r="C6" s="45"/>
       <c r="D6" s="35" t="s">
         <v>136</v>
       </c>
@@ -2226,8 +2240,8 @@
       </c>
     </row>
     <row r="7" spans="2:5" ht="84" x14ac:dyDescent="0.3">
-      <c r="B7" s="44"/>
-      <c r="C7" s="45"/>
+      <c r="B7" s="46"/>
+      <c r="C7" s="47"/>
       <c r="D7" s="35" t="s">
         <v>137</v>
       </c>
@@ -2239,7 +2253,7 @@
       <c r="B8" s="48" t="s">
         <v>145</v>
       </c>
-      <c r="C8" s="43"/>
+      <c r="C8" s="45"/>
       <c r="D8" s="35" t="s">
         <v>136</v>
       </c>
@@ -2248,8 +2262,8 @@
       </c>
     </row>
     <row r="9" spans="2:5" ht="60" x14ac:dyDescent="0.3">
-      <c r="B9" s="44"/>
-      <c r="C9" s="45"/>
+      <c r="B9" s="46"/>
+      <c r="C9" s="47"/>
       <c r="D9" s="35" t="s">
         <v>137</v>
       </c>
@@ -2258,10 +2272,10 @@
       </c>
     </row>
     <row r="10" spans="2:5" ht="60" x14ac:dyDescent="0.3">
-      <c r="B10" s="42" t="s">
+      <c r="B10" s="44" t="s">
         <v>142</v>
       </c>
-      <c r="C10" s="43"/>
+      <c r="C10" s="45"/>
       <c r="D10" s="35" t="s">
         <v>136</v>
       </c>
@@ -2270,8 +2284,8 @@
       </c>
     </row>
     <row r="11" spans="2:5" ht="125.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B11" s="44"/>
-      <c r="C11" s="45"/>
+      <c r="B11" s="46"/>
+      <c r="C11" s="47"/>
       <c r="D11" s="35" t="s">
         <v>137</v>
       </c>
@@ -2280,194 +2294,194 @@
       </c>
     </row>
     <row r="12" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B12" s="46"/>
-      <c r="C12" s="47"/>
+      <c r="B12" s="42"/>
+      <c r="C12" s="43"/>
       <c r="D12" s="34"/>
       <c r="E12" s="37"/>
     </row>
     <row r="13" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B13" s="46"/>
-      <c r="C13" s="47"/>
+      <c r="B13" s="42"/>
+      <c r="C13" s="43"/>
       <c r="D13" s="34"/>
       <c r="E13" s="37"/>
     </row>
     <row r="14" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B14" s="46"/>
-      <c r="C14" s="47"/>
+      <c r="B14" s="42"/>
+      <c r="C14" s="43"/>
       <c r="D14" s="34"/>
       <c r="E14" s="37"/>
     </row>
     <row r="15" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B15" s="46"/>
-      <c r="C15" s="47"/>
+      <c r="B15" s="42"/>
+      <c r="C15" s="43"/>
       <c r="D15" s="34"/>
       <c r="E15" s="37"/>
     </row>
     <row r="16" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B16" s="46"/>
-      <c r="C16" s="47"/>
+      <c r="B16" s="42"/>
+      <c r="C16" s="43"/>
       <c r="D16" s="34"/>
       <c r="E16" s="37"/>
     </row>
     <row r="17" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B17" s="46"/>
-      <c r="C17" s="47"/>
+      <c r="B17" s="42"/>
+      <c r="C17" s="43"/>
       <c r="D17" s="34"/>
       <c r="E17" s="37"/>
     </row>
     <row r="18" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B18" s="46"/>
-      <c r="C18" s="47"/>
+      <c r="B18" s="42"/>
+      <c r="C18" s="43"/>
       <c r="D18" s="34"/>
       <c r="E18" s="37"/>
     </row>
     <row r="19" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B19" s="46"/>
-      <c r="C19" s="47"/>
+      <c r="B19" s="42"/>
+      <c r="C19" s="43"/>
       <c r="D19" s="34"/>
       <c r="E19" s="37"/>
     </row>
     <row r="20" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B20" s="46"/>
-      <c r="C20" s="47"/>
+      <c r="B20" s="42"/>
+      <c r="C20" s="43"/>
       <c r="D20" s="34"/>
       <c r="E20" s="37"/>
     </row>
     <row r="21" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B21" s="46"/>
-      <c r="C21" s="47"/>
+      <c r="B21" s="42"/>
+      <c r="C21" s="43"/>
       <c r="D21" s="34"/>
       <c r="E21" s="37"/>
     </row>
     <row r="22" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B22" s="46"/>
-      <c r="C22" s="47"/>
+      <c r="B22" s="42"/>
+      <c r="C22" s="43"/>
       <c r="D22" s="34"/>
       <c r="E22" s="37"/>
     </row>
     <row r="23" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B23" s="46"/>
-      <c r="C23" s="47"/>
+      <c r="B23" s="42"/>
+      <c r="C23" s="43"/>
       <c r="D23" s="34"/>
       <c r="E23" s="37"/>
     </row>
     <row r="24" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B24" s="46"/>
-      <c r="C24" s="47"/>
+      <c r="B24" s="42"/>
+      <c r="C24" s="43"/>
       <c r="D24" s="34"/>
       <c r="E24" s="37"/>
     </row>
     <row r="25" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B25" s="46"/>
-      <c r="C25" s="47"/>
+      <c r="B25" s="42"/>
+      <c r="C25" s="43"/>
       <c r="D25" s="34"/>
       <c r="E25" s="37"/>
     </row>
     <row r="26" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B26" s="46"/>
-      <c r="C26" s="47"/>
+      <c r="B26" s="42"/>
+      <c r="C26" s="43"/>
       <c r="D26" s="34"/>
       <c r="E26" s="37"/>
     </row>
     <row r="27" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B27" s="46"/>
-      <c r="C27" s="47"/>
+      <c r="B27" s="42"/>
+      <c r="C27" s="43"/>
       <c r="D27" s="34"/>
       <c r="E27" s="37"/>
     </row>
     <row r="28" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B28" s="46"/>
-      <c r="C28" s="47"/>
+      <c r="B28" s="42"/>
+      <c r="C28" s="43"/>
       <c r="D28" s="34"/>
       <c r="E28" s="37"/>
     </row>
     <row r="29" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B29" s="46"/>
-      <c r="C29" s="47"/>
+      <c r="B29" s="42"/>
+      <c r="C29" s="43"/>
       <c r="D29" s="34"/>
       <c r="E29" s="37"/>
     </row>
     <row r="30" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B30" s="46"/>
-      <c r="C30" s="47"/>
+      <c r="B30" s="42"/>
+      <c r="C30" s="43"/>
       <c r="D30" s="34"/>
       <c r="E30" s="37"/>
     </row>
     <row r="31" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B31" s="46"/>
-      <c r="C31" s="47"/>
+      <c r="B31" s="42"/>
+      <c r="C31" s="43"/>
       <c r="D31" s="34"/>
       <c r="E31" s="37"/>
     </row>
     <row r="32" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B32" s="46"/>
-      <c r="C32" s="47"/>
+      <c r="B32" s="42"/>
+      <c r="C32" s="43"/>
       <c r="D32" s="34"/>
       <c r="E32" s="37"/>
     </row>
     <row r="33" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B33" s="46"/>
-      <c r="C33" s="47"/>
+      <c r="B33" s="42"/>
+      <c r="C33" s="43"/>
       <c r="D33" s="34"/>
       <c r="E33" s="37"/>
     </row>
     <row r="34" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B34" s="46"/>
-      <c r="C34" s="47"/>
+      <c r="B34" s="42"/>
+      <c r="C34" s="43"/>
       <c r="D34" s="34"/>
       <c r="E34" s="37"/>
     </row>
     <row r="35" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B35" s="46"/>
-      <c r="C35" s="47"/>
+      <c r="B35" s="42"/>
+      <c r="C35" s="43"/>
       <c r="D35" s="34"/>
       <c r="E35" s="37"/>
     </row>
     <row r="36" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B36" s="46"/>
-      <c r="C36" s="47"/>
+      <c r="B36" s="42"/>
+      <c r="C36" s="43"/>
       <c r="D36" s="34"/>
       <c r="E36" s="37"/>
     </row>
     <row r="37" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B37" s="46"/>
-      <c r="C37" s="47"/>
+      <c r="B37" s="42"/>
+      <c r="C37" s="43"/>
       <c r="D37" s="34"/>
       <c r="E37" s="37"/>
     </row>
     <row r="38" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B38" s="46"/>
-      <c r="C38" s="47"/>
+      <c r="B38" s="42"/>
+      <c r="C38" s="43"/>
       <c r="D38" s="34"/>
       <c r="E38" s="37"/>
     </row>
     <row r="39" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B39" s="46"/>
-      <c r="C39" s="47"/>
+      <c r="B39" s="42"/>
+      <c r="C39" s="43"/>
       <c r="D39" s="34"/>
       <c r="E39" s="37"/>
     </row>
     <row r="40" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B40" s="46"/>
-      <c r="C40" s="47"/>
+      <c r="B40" s="42"/>
+      <c r="C40" s="43"/>
       <c r="D40" s="34"/>
       <c r="E40" s="37"/>
     </row>
     <row r="41" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B41" s="46"/>
-      <c r="C41" s="47"/>
+      <c r="B41" s="42"/>
+      <c r="C41" s="43"/>
       <c r="D41" s="34"/>
       <c r="E41" s="37"/>
     </row>
     <row r="42" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B42" s="46"/>
-      <c r="C42" s="47"/>
+      <c r="B42" s="42"/>
+      <c r="C42" s="43"/>
       <c r="D42" s="34"/>
       <c r="E42" s="37"/>
     </row>
     <row r="43" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B43" s="46"/>
-      <c r="C43" s="47"/>
+      <c r="B43" s="42"/>
+      <c r="C43" s="43"/>
       <c r="D43" s="34"/>
       <c r="E43" s="37"/>
     </row>
@@ -2477,13 +2491,22 @@
     <filterColumn colId="2" showButton="0"/>
   </autoFilter>
   <mergeCells count="39">
-    <mergeCell ref="B1:C1"/>
-    <mergeCell ref="B20:C20"/>
-    <mergeCell ref="B21:C21"/>
-    <mergeCell ref="B12:C12"/>
-    <mergeCell ref="B13:C13"/>
-    <mergeCell ref="B14:C14"/>
-    <mergeCell ref="B15:C15"/>
+    <mergeCell ref="D1:E1"/>
+    <mergeCell ref="B10:C11"/>
+    <mergeCell ref="B40:C40"/>
+    <mergeCell ref="B41:C41"/>
+    <mergeCell ref="B42:C42"/>
+    <mergeCell ref="B33:C33"/>
+    <mergeCell ref="B22:C22"/>
+    <mergeCell ref="B23:C23"/>
+    <mergeCell ref="B24:C24"/>
+    <mergeCell ref="B25:C25"/>
+    <mergeCell ref="B26:C26"/>
+    <mergeCell ref="B27:C27"/>
+    <mergeCell ref="B16:C16"/>
+    <mergeCell ref="B17:C17"/>
+    <mergeCell ref="B18:C18"/>
+    <mergeCell ref="B19:C19"/>
     <mergeCell ref="B43:C43"/>
     <mergeCell ref="B2:C3"/>
     <mergeCell ref="B4:C5"/>
@@ -2500,22 +2523,13 @@
     <mergeCell ref="B30:C30"/>
     <mergeCell ref="B31:C31"/>
     <mergeCell ref="B32:C32"/>
-    <mergeCell ref="D1:E1"/>
-    <mergeCell ref="B10:C11"/>
-    <mergeCell ref="B40:C40"/>
-    <mergeCell ref="B41:C41"/>
-    <mergeCell ref="B42:C42"/>
-    <mergeCell ref="B33:C33"/>
-    <mergeCell ref="B22:C22"/>
-    <mergeCell ref="B23:C23"/>
-    <mergeCell ref="B24:C24"/>
-    <mergeCell ref="B25:C25"/>
-    <mergeCell ref="B26:C26"/>
-    <mergeCell ref="B27:C27"/>
-    <mergeCell ref="B16:C16"/>
-    <mergeCell ref="B17:C17"/>
-    <mergeCell ref="B18:C18"/>
-    <mergeCell ref="B19:C19"/>
+    <mergeCell ref="B1:C1"/>
+    <mergeCell ref="B20:C20"/>
+    <mergeCell ref="B21:C21"/>
+    <mergeCell ref="B12:C12"/>
+    <mergeCell ref="B13:C13"/>
+    <mergeCell ref="B14:C14"/>
+    <mergeCell ref="B15:C15"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2527,8 +2541,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:E101"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="2" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <pane xSplit="1" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
       <selection pane="bottomRight" activeCell="D5" sqref="D5"/>

--- a/WorkShop/01.docs/01.초기학습.xlsx
+++ b/WorkShop/01.docs/01.초기학습.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\ProjectHome\Stocks\WorkShop\01.docs\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\WorkShop\AppHome\stocks\WorkShop\01.docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11850"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11856" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="00.참고" sheetId="2" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="241" uniqueCount="158">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="245" uniqueCount="161">
   <si>
     <t>사이트명</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -778,14 +778,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t xml:space="preserve">  * 시장의 추세를 알아보는 지표.(Directional Movement Index)
-  - +DM : (당일고가-전일고가) &gt; 0 이고 (당일고가-전일고가 &gt; 전일저가-당일저가) 이면 (당일고가-전일고가) 아니면 0
-  - -DM  : (전일저가-당일저가) &gt; 0 이고 (당일고가-전일고가 &gt; 전일저가-당일저가) 이면 (전일저가-당일저가) 아니면 0
-  - TR : (고가-저가), (전일종가-당일고가)의 절대값, (전일종가-당일저가)의 절대값중 최대값.
-  - DMI : (+DM 빼기 -DM)의 절대값/(+DM 더하기 -DM) * 100</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>목표가 : 15 %</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -796,10 +788,6 @@
 4. 0봉전 거래량 &lt;= 1봉전 거래량/4
 5. 모멘텀(주가가 상승/하락 하는-움직이는 경향) 존재
 6. 외인/기관 매수량</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>용식_종가매매_V0.01</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -999,11 +987,86 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>https://m.cafe.daum.net/astock/Lbi5/1581?q=D_ATrkY1VNuXk0&amp;</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>볼린저밴드돌파시초가 따라잡기</t>
+    <t>RSI</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">  * 시장의 추세를 알아보는 지표.(Directional Movement Index)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+  - +DM : (당일고가-전일고가) &gt; 0 이고 (당일고가-전일고가 &gt; 전일저가-당일저가) 이면 (당일고가-전일고가) 아니면 0
+  - -DM  : (전일저가-당일저가) &gt; 0 이고 (당일고가-전일고가 &gt; 전일저가-당일저가) 이면 (전일저가-당일저가) 아니면 0
+  - TR : (고가-저가), (전일종가-당일고가)의 절대값, (전일종가-당일저가)의 절대값중 최대값.
+  - DMI : (+DM 빼기 -DM)의 절대값/(+DM 더하기 -DM) * 100</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">  * 주가상승세와 주가하락세를 상호 비교하여 추출한 주가상승세의 상대강도지수</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+  - RSI = (N일간의 주가 상승폭 합계 / (N일간의 주가 상승폭 합계+N일간의 주가 하락폭 합계)) *100</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">  - 선행지수 혹은 동행지수로 사용가능.
+  - 50% 이상이면 매수세가 강했던 경우
+  - 50% 이하이면 매도세가 강했던 경우</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>용식_종가매매_눌림목_V0.01</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>용식_종가매매_기본_V0.01</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1. 당일거래량이 높고 최근 시장주도주나 대장주 종목
+2. 당일과 최근5거래일이내 기관/외인의 수급이 좋은 종목
+3. 개인주체의 테마성 제외( 예:반기문주, …..)
+4. 전날 혹은 당일 증권방송 및 증권사 추천종목중 5거래일 기관의 수급이 좋은 종목
+5. 금요일에는 되도록 거래하지 않음.</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1897,23 +1960,23 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:D34"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="D23" sqref="D23"/>
+      <selection pane="bottomRight" activeCell="C34" sqref="C34"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="12" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.2" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="7.25" style="1" customWidth="1"/>
-    <col min="2" max="2" width="31.875" style="1" customWidth="1"/>
+    <col min="1" max="1" width="7.19921875" style="1" customWidth="1"/>
+    <col min="2" max="2" width="31.8984375" style="1" customWidth="1"/>
     <col min="3" max="3" width="31.5" style="1" customWidth="1"/>
-    <col min="4" max="4" width="102.875" style="2" customWidth="1"/>
+    <col min="4" max="4" width="102.8984375" style="2" customWidth="1"/>
     <col min="5" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="2:4" x14ac:dyDescent="0.4">
       <c r="B1" s="3" t="s">
         <v>0</v>
       </c>
@@ -1924,7 +1987,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="2" spans="2:4" x14ac:dyDescent="0.4">
       <c r="B2" s="4" t="s">
         <v>55</v>
       </c>
@@ -1935,7 +1998,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="3" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="3" spans="2:4" x14ac:dyDescent="0.4">
       <c r="B3" s="21" t="s">
         <v>58</v>
       </c>
@@ -1944,7 +2007,7 @@
       </c>
       <c r="D3" s="20"/>
     </row>
-    <row r="4" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:4" x14ac:dyDescent="0.4">
       <c r="B4" s="21" t="s">
         <v>60</v>
       </c>
@@ -1955,7 +2018,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="5" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="5" spans="2:4" x14ac:dyDescent="0.4">
       <c r="B5" s="21" t="s">
         <v>63</v>
       </c>
@@ -1966,7 +2029,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="6" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="6" spans="2:4" x14ac:dyDescent="0.4">
       <c r="B6" s="21" t="s">
         <v>37</v>
       </c>
@@ -1977,7 +2040,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="7" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="7" spans="2:4" x14ac:dyDescent="0.4">
       <c r="B7" s="21" t="s">
         <v>66</v>
       </c>
@@ -1988,7 +2051,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="8" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="8" spans="2:4" x14ac:dyDescent="0.4">
       <c r="B8" s="4" t="s">
         <v>68</v>
       </c>
@@ -1999,7 +2062,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="9" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="9" spans="2:4" x14ac:dyDescent="0.4">
       <c r="B9" s="4" t="s">
         <v>72</v>
       </c>
@@ -2010,7 +2073,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="10" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="10" spans="2:4" x14ac:dyDescent="0.4">
       <c r="B10" s="4" t="s">
         <v>74</v>
       </c>
@@ -2021,128 +2084,122 @@
         <v>65</v>
       </c>
     </row>
-    <row r="11" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B11" s="4" t="s">
-        <v>157</v>
-      </c>
-      <c r="C11" s="23" t="s">
-        <v>156</v>
-      </c>
-      <c r="D11" s="20" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="12" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="11" spans="2:4" x14ac:dyDescent="0.4">
+      <c r="B11" s="4"/>
+      <c r="C11" s="4"/>
+      <c r="D11" s="5"/>
+    </row>
+    <row r="12" spans="2:4" x14ac:dyDescent="0.4">
       <c r="B12" s="4"/>
       <c r="C12" s="4"/>
       <c r="D12" s="5"/>
     </row>
-    <row r="13" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="13" spans="2:4" x14ac:dyDescent="0.4">
       <c r="B13" s="4"/>
       <c r="C13" s="4"/>
       <c r="D13" s="5"/>
     </row>
-    <row r="14" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="14" spans="2:4" x14ac:dyDescent="0.4">
       <c r="B14" s="4"/>
       <c r="C14" s="4"/>
       <c r="D14" s="5"/>
     </row>
-    <row r="15" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="15" spans="2:4" x14ac:dyDescent="0.4">
       <c r="B15" s="4"/>
       <c r="C15" s="4"/>
       <c r="D15" s="5"/>
     </row>
-    <row r="16" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="16" spans="2:4" x14ac:dyDescent="0.4">
       <c r="B16" s="4"/>
       <c r="C16" s="4"/>
       <c r="D16" s="5"/>
     </row>
-    <row r="17" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="17" spans="2:4" x14ac:dyDescent="0.4">
       <c r="B17" s="4"/>
       <c r="C17" s="4"/>
       <c r="D17" s="5"/>
     </row>
-    <row r="18" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="18" spans="2:4" x14ac:dyDescent="0.4">
       <c r="B18" s="4"/>
       <c r="C18" s="4"/>
       <c r="D18" s="5"/>
     </row>
-    <row r="19" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="19" spans="2:4" x14ac:dyDescent="0.4">
       <c r="B19" s="4"/>
       <c r="C19" s="4"/>
       <c r="D19" s="5"/>
     </row>
-    <row r="20" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="20" spans="2:4" x14ac:dyDescent="0.4">
       <c r="B20" s="4"/>
       <c r="C20" s="4"/>
       <c r="D20" s="5"/>
     </row>
-    <row r="21" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="21" spans="2:4" x14ac:dyDescent="0.4">
       <c r="B21" s="4"/>
       <c r="C21" s="4"/>
       <c r="D21" s="5"/>
     </row>
-    <row r="22" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="22" spans="2:4" x14ac:dyDescent="0.4">
       <c r="B22" s="4"/>
       <c r="C22" s="4"/>
       <c r="D22" s="5"/>
     </row>
-    <row r="23" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="23" spans="2:4" x14ac:dyDescent="0.4">
       <c r="B23" s="4"/>
       <c r="C23" s="4"/>
       <c r="D23" s="5"/>
     </row>
-    <row r="24" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="24" spans="2:4" x14ac:dyDescent="0.4">
       <c r="B24" s="4"/>
       <c r="C24" s="4"/>
       <c r="D24" s="5"/>
     </row>
-    <row r="25" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="25" spans="2:4" x14ac:dyDescent="0.4">
       <c r="B25" s="4"/>
       <c r="C25" s="4"/>
       <c r="D25" s="5"/>
     </row>
-    <row r="26" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="26" spans="2:4" x14ac:dyDescent="0.4">
       <c r="B26" s="4"/>
       <c r="C26" s="4"/>
       <c r="D26" s="5"/>
     </row>
-    <row r="27" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="27" spans="2:4" x14ac:dyDescent="0.4">
       <c r="B27" s="4"/>
       <c r="C27" s="4"/>
       <c r="D27" s="5"/>
     </row>
-    <row r="28" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="28" spans="2:4" x14ac:dyDescent="0.4">
       <c r="B28" s="4"/>
       <c r="C28" s="4"/>
       <c r="D28" s="5"/>
     </row>
-    <row r="29" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="29" spans="2:4" x14ac:dyDescent="0.4">
       <c r="B29" s="4"/>
       <c r="C29" s="4"/>
       <c r="D29" s="5"/>
     </row>
-    <row r="30" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="30" spans="2:4" x14ac:dyDescent="0.4">
       <c r="B30" s="4"/>
       <c r="C30" s="4"/>
       <c r="D30" s="5"/>
     </row>
-    <row r="31" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="31" spans="2:4" x14ac:dyDescent="0.4">
       <c r="B31" s="4"/>
       <c r="C31" s="4"/>
       <c r="D31" s="5"/>
     </row>
-    <row r="32" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="32" spans="2:4" x14ac:dyDescent="0.4">
       <c r="B32" s="4"/>
       <c r="C32" s="4"/>
       <c r="D32" s="5"/>
     </row>
-    <row r="33" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="33" spans="2:4" x14ac:dyDescent="0.4">
       <c r="B33" s="4"/>
       <c r="C33" s="4"/>
       <c r="D33" s="5"/>
     </row>
-    <row r="34" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="34" spans="2:4" x14ac:dyDescent="0.4">
       <c r="B34" s="4"/>
       <c r="C34" s="4"/>
       <c r="D34" s="5"/>
@@ -2158,22 +2215,22 @@
   <dimension ref="B1:E43"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B11" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="E8" sqref="E8"/>
+      <selection pane="bottomRight" activeCell="B17" sqref="B17:C17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="12" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.2" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="7.25" style="1" customWidth="1"/>
-    <col min="2" max="2" width="31.875" style="1" customWidth="1"/>
-    <col min="3" max="4" width="15.375" style="1" customWidth="1"/>
-    <col min="5" max="5" width="118.125" style="38" customWidth="1"/>
+    <col min="1" max="1" width="7.19921875" style="1" customWidth="1"/>
+    <col min="2" max="2" width="31.8984375" style="1" customWidth="1"/>
+    <col min="3" max="4" width="15.3984375" style="1" customWidth="1"/>
+    <col min="5" max="5" width="118.09765625" style="38" customWidth="1"/>
     <col min="6" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="1" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B1" s="40" t="s">
         <v>133</v>
       </c>
@@ -2183,7 +2240,7 @@
       </c>
       <c r="E1" s="41"/>
     </row>
-    <row r="2" spans="2:5" ht="24" x14ac:dyDescent="0.3">
+    <row r="2" spans="2:5" ht="26.4" x14ac:dyDescent="0.4">
       <c r="B2" s="44" t="s">
         <v>134</v>
       </c>
@@ -2195,7 +2252,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="3" spans="2:5" ht="24" x14ac:dyDescent="0.3">
+    <row r="3" spans="2:5" ht="26.4" x14ac:dyDescent="0.4">
       <c r="B3" s="46"/>
       <c r="C3" s="47"/>
       <c r="D3" s="35" t="s">
@@ -2205,7 +2262,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="4" spans="2:5" ht="48" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:5" ht="52.8" x14ac:dyDescent="0.4">
       <c r="B4" s="44" t="s">
         <v>135</v>
       </c>
@@ -2217,7 +2274,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="5" spans="2:5" ht="96" x14ac:dyDescent="0.3">
+    <row r="5" spans="2:5" ht="105.6" x14ac:dyDescent="0.4">
       <c r="B5" s="46"/>
       <c r="C5" s="47"/>
       <c r="D5" s="35" t="s">
@@ -2227,7 +2284,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="6" spans="2:5" ht="72" x14ac:dyDescent="0.3">
+    <row r="6" spans="2:5" ht="79.2" x14ac:dyDescent="0.4">
       <c r="B6" s="44" t="s">
         <v>144</v>
       </c>
@@ -2239,7 +2296,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="7" spans="2:5" ht="84" x14ac:dyDescent="0.3">
+    <row r="7" spans="2:5" ht="92.4" x14ac:dyDescent="0.4">
       <c r="B7" s="46"/>
       <c r="C7" s="47"/>
       <c r="D7" s="35" t="s">
@@ -2249,7 +2306,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="8" spans="2:5" ht="96" x14ac:dyDescent="0.3">
+    <row r="8" spans="2:5" ht="105.6" x14ac:dyDescent="0.4">
       <c r="B8" s="48" t="s">
         <v>145</v>
       </c>
@@ -2261,7 +2318,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="9" spans="2:5" ht="60" x14ac:dyDescent="0.3">
+    <row r="9" spans="2:5" ht="66" x14ac:dyDescent="0.4">
       <c r="B9" s="46"/>
       <c r="C9" s="47"/>
       <c r="D9" s="35" t="s">
@@ -2271,7 +2328,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="10" spans="2:5" ht="60" x14ac:dyDescent="0.3">
+    <row r="10" spans="2:5" ht="66" x14ac:dyDescent="0.4">
       <c r="B10" s="44" t="s">
         <v>142</v>
       </c>
@@ -2280,10 +2337,10 @@
         <v>136</v>
       </c>
       <c r="E10" s="39" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="11" spans="2:5" ht="125.25" customHeight="1" x14ac:dyDescent="0.3">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="11" spans="2:5" ht="142.19999999999999" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B11" s="46"/>
       <c r="C11" s="47"/>
       <c r="D11" s="35" t="s">
@@ -2293,193 +2350,203 @@
         <v>150</v>
       </c>
     </row>
-    <row r="12" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B12" s="42"/>
-      <c r="C12" s="43"/>
-      <c r="D12" s="34"/>
-      <c r="E12" s="37"/>
-    </row>
-    <row r="13" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B13" s="42"/>
-      <c r="C13" s="43"/>
-      <c r="D13" s="34"/>
-      <c r="E13" s="37"/>
-    </row>
-    <row r="14" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="12" spans="2:5" ht="26.4" x14ac:dyDescent="0.4">
+      <c r="B12" s="44" t="s">
+        <v>154</v>
+      </c>
+      <c r="C12" s="45"/>
+      <c r="D12" s="35" t="s">
+        <v>136</v>
+      </c>
+      <c r="E12" s="39" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="13" spans="2:5" ht="39.6" x14ac:dyDescent="0.4">
+      <c r="B13" s="46"/>
+      <c r="C13" s="47"/>
+      <c r="D13" s="35" t="s">
+        <v>137</v>
+      </c>
+      <c r="E13" s="36" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="14" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B14" s="42"/>
       <c r="C14" s="43"/>
       <c r="D14" s="34"/>
       <c r="E14" s="37"/>
     </row>
-    <row r="15" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="15" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B15" s="42"/>
       <c r="C15" s="43"/>
       <c r="D15" s="34"/>
       <c r="E15" s="37"/>
     </row>
-    <row r="16" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="16" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B16" s="42"/>
       <c r="C16" s="43"/>
       <c r="D16" s="34"/>
       <c r="E16" s="37"/>
     </row>
-    <row r="17" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="17" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B17" s="42"/>
       <c r="C17" s="43"/>
       <c r="D17" s="34"/>
       <c r="E17" s="37"/>
     </row>
-    <row r="18" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="18" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B18" s="42"/>
       <c r="C18" s="43"/>
       <c r="D18" s="34"/>
       <c r="E18" s="37"/>
     </row>
-    <row r="19" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="19" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B19" s="42"/>
       <c r="C19" s="43"/>
       <c r="D19" s="34"/>
       <c r="E19" s="37"/>
     </row>
-    <row r="20" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="20" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B20" s="42"/>
       <c r="C20" s="43"/>
       <c r="D20" s="34"/>
       <c r="E20" s="37"/>
     </row>
-    <row r="21" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="21" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B21" s="42"/>
       <c r="C21" s="43"/>
       <c r="D21" s="34"/>
       <c r="E21" s="37"/>
     </row>
-    <row r="22" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="22" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B22" s="42"/>
       <c r="C22" s="43"/>
       <c r="D22" s="34"/>
       <c r="E22" s="37"/>
     </row>
-    <row r="23" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="23" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B23" s="42"/>
       <c r="C23" s="43"/>
       <c r="D23" s="34"/>
       <c r="E23" s="37"/>
     </row>
-    <row r="24" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="24" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B24" s="42"/>
       <c r="C24" s="43"/>
       <c r="D24" s="34"/>
       <c r="E24" s="37"/>
     </row>
-    <row r="25" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="25" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B25" s="42"/>
       <c r="C25" s="43"/>
       <c r="D25" s="34"/>
       <c r="E25" s="37"/>
     </row>
-    <row r="26" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="26" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B26" s="42"/>
       <c r="C26" s="43"/>
       <c r="D26" s="34"/>
       <c r="E26" s="37"/>
     </row>
-    <row r="27" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="27" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B27" s="42"/>
       <c r="C27" s="43"/>
       <c r="D27" s="34"/>
       <c r="E27" s="37"/>
     </row>
-    <row r="28" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="28" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B28" s="42"/>
       <c r="C28" s="43"/>
       <c r="D28" s="34"/>
       <c r="E28" s="37"/>
     </row>
-    <row r="29" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="29" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B29" s="42"/>
       <c r="C29" s="43"/>
       <c r="D29" s="34"/>
       <c r="E29" s="37"/>
     </row>
-    <row r="30" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="30" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B30" s="42"/>
       <c r="C30" s="43"/>
       <c r="D30" s="34"/>
       <c r="E30" s="37"/>
     </row>
-    <row r="31" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="31" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B31" s="42"/>
       <c r="C31" s="43"/>
       <c r="D31" s="34"/>
       <c r="E31" s="37"/>
     </row>
-    <row r="32" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="32" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B32" s="42"/>
       <c r="C32" s="43"/>
       <c r="D32" s="34"/>
       <c r="E32" s="37"/>
     </row>
-    <row r="33" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="33" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B33" s="42"/>
       <c r="C33" s="43"/>
       <c r="D33" s="34"/>
       <c r="E33" s="37"/>
     </row>
-    <row r="34" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="34" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B34" s="42"/>
       <c r="C34" s="43"/>
       <c r="D34" s="34"/>
       <c r="E34" s="37"/>
     </row>
-    <row r="35" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="35" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B35" s="42"/>
       <c r="C35" s="43"/>
       <c r="D35" s="34"/>
       <c r="E35" s="37"/>
     </row>
-    <row r="36" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="36" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B36" s="42"/>
       <c r="C36" s="43"/>
       <c r="D36" s="34"/>
       <c r="E36" s="37"/>
     </row>
-    <row r="37" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="37" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B37" s="42"/>
       <c r="C37" s="43"/>
       <c r="D37" s="34"/>
       <c r="E37" s="37"/>
     </row>
-    <row r="38" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="38" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B38" s="42"/>
       <c r="C38" s="43"/>
       <c r="D38" s="34"/>
       <c r="E38" s="37"/>
     </row>
-    <row r="39" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="39" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B39" s="42"/>
       <c r="C39" s="43"/>
       <c r="D39" s="34"/>
       <c r="E39" s="37"/>
     </row>
-    <row r="40" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="40" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B40" s="42"/>
       <c r="C40" s="43"/>
       <c r="D40" s="34"/>
       <c r="E40" s="37"/>
     </row>
-    <row r="41" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="41" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B41" s="42"/>
       <c r="C41" s="43"/>
       <c r="D41" s="34"/>
       <c r="E41" s="37"/>
     </row>
-    <row r="42" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="42" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B42" s="42"/>
       <c r="C42" s="43"/>
       <c r="D42" s="34"/>
       <c r="E42" s="37"/>
     </row>
-    <row r="43" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="43" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B43" s="42"/>
       <c r="C43" s="43"/>
       <c r="D43" s="34"/>
@@ -2490,7 +2557,7 @@
     <filterColumn colId="0" showButton="0"/>
     <filterColumn colId="2" showButton="0"/>
   </autoFilter>
-  <mergeCells count="39">
+  <mergeCells count="38">
     <mergeCell ref="D1:E1"/>
     <mergeCell ref="B10:C11"/>
     <mergeCell ref="B40:C40"/>
@@ -2526,14 +2593,14 @@
     <mergeCell ref="B1:C1"/>
     <mergeCell ref="B20:C20"/>
     <mergeCell ref="B21:C21"/>
-    <mergeCell ref="B12:C12"/>
-    <mergeCell ref="B13:C13"/>
     <mergeCell ref="B14:C14"/>
     <mergeCell ref="B15:C15"/>
+    <mergeCell ref="B12:C13"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -2541,24 +2608,24 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:E101"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <pane xSplit="1" ySplit="2" topLeftCell="C6" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="D5" sqref="D5"/>
+      <selection pane="bottomRight" activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="12" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.2" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="2.625" style="18" customWidth="1"/>
-    <col min="2" max="2" width="8.375" style="19" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="2.59765625" style="18" customWidth="1"/>
+    <col min="2" max="2" width="8.3984375" style="19" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="26" style="19" customWidth="1"/>
-    <col min="4" max="4" width="112.125" style="25" customWidth="1"/>
-    <col min="5" max="5" width="81.75" style="25" customWidth="1"/>
+    <col min="4" max="4" width="112.09765625" style="25" customWidth="1"/>
+    <col min="5" max="5" width="81.69921875" style="25" customWidth="1"/>
     <col min="6" max="16384" width="9" style="18"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:5" s="16" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="2:5" s="16" customFormat="1" x14ac:dyDescent="0.4">
       <c r="B2" s="15" t="s">
         <v>10</v>
       </c>
@@ -2572,7 +2639,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="2:5" ht="84" x14ac:dyDescent="0.3">
+    <row r="3" spans="2:5" ht="92.4" x14ac:dyDescent="0.4">
       <c r="B3" s="17" t="s">
         <v>98</v>
       </c>
@@ -2584,7 +2651,7 @@
       </c>
       <c r="E3" s="24"/>
     </row>
-    <row r="4" spans="2:5" ht="72" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:5" ht="79.2" x14ac:dyDescent="0.4">
       <c r="B4" s="17" t="s">
         <v>98</v>
       </c>
@@ -2596,7 +2663,7 @@
       </c>
       <c r="E4" s="24"/>
     </row>
-    <row r="5" spans="2:5" ht="384" x14ac:dyDescent="0.3">
+    <row r="5" spans="2:5" ht="409.6" x14ac:dyDescent="0.4">
       <c r="B5" s="17" t="s">
         <v>98</v>
       </c>
@@ -2604,585 +2671,589 @@
         <v>132</v>
       </c>
       <c r="D5" s="26" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="E5" s="26"/>
     </row>
-    <row r="6" spans="2:5" ht="159" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="2:5" ht="114" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B6" s="17"/>
       <c r="C6" s="17" t="s">
-        <v>154</v>
+        <v>159</v>
       </c>
       <c r="D6" s="26" t="s">
-        <v>153</v>
+        <v>160</v>
       </c>
       <c r="E6" s="26"/>
     </row>
-    <row r="7" spans="2:5" ht="86.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="2:5" ht="86.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B7" s="17"/>
-      <c r="C7" s="17"/>
-      <c r="D7" s="24"/>
+      <c r="C7" s="17" t="s">
+        <v>158</v>
+      </c>
+      <c r="D7" s="26" t="s">
+        <v>152</v>
+      </c>
       <c r="E7" s="26"/>
     </row>
-    <row r="8" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="8" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B8" s="17"/>
       <c r="C8" s="17"/>
       <c r="D8" s="24"/>
       <c r="E8" s="24"/>
     </row>
-    <row r="9" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="9" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B9" s="17"/>
       <c r="C9" s="17"/>
       <c r="D9" s="24"/>
       <c r="E9" s="24"/>
     </row>
-    <row r="10" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="10" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B10" s="17"/>
       <c r="C10" s="17"/>
       <c r="D10" s="24"/>
       <c r="E10" s="24"/>
     </row>
-    <row r="11" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="11" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B11" s="17"/>
       <c r="C11" s="17"/>
       <c r="D11" s="24"/>
       <c r="E11" s="24"/>
     </row>
-    <row r="12" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="12" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B12" s="17"/>
       <c r="C12" s="17"/>
       <c r="D12" s="24"/>
       <c r="E12" s="24"/>
     </row>
-    <row r="13" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="13" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B13" s="17"/>
       <c r="C13" s="17"/>
       <c r="D13" s="24"/>
       <c r="E13" s="24"/>
     </row>
-    <row r="14" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="14" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B14" s="17"/>
       <c r="C14" s="17"/>
       <c r="D14" s="24"/>
       <c r="E14" s="24"/>
     </row>
-    <row r="15" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="15" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B15" s="17"/>
       <c r="C15" s="17"/>
       <c r="D15" s="24"/>
       <c r="E15" s="24"/>
     </row>
-    <row r="16" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="16" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B16" s="17"/>
       <c r="C16" s="17"/>
       <c r="D16" s="24"/>
       <c r="E16" s="24"/>
     </row>
-    <row r="17" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="17" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B17" s="17"/>
       <c r="C17" s="17"/>
       <c r="D17" s="24"/>
       <c r="E17" s="24"/>
     </row>
-    <row r="18" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="18" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B18" s="17"/>
       <c r="C18" s="17"/>
       <c r="D18" s="24"/>
       <c r="E18" s="24"/>
     </row>
-    <row r="19" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="19" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B19" s="17"/>
       <c r="C19" s="17"/>
       <c r="D19" s="24"/>
       <c r="E19" s="24"/>
     </row>
-    <row r="20" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="20" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B20" s="17"/>
       <c r="C20" s="17"/>
       <c r="D20" s="24"/>
       <c r="E20" s="24"/>
     </row>
-    <row r="21" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="21" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B21" s="17"/>
       <c r="C21" s="17"/>
       <c r="D21" s="24"/>
       <c r="E21" s="24"/>
     </row>
-    <row r="22" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="22" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B22" s="17"/>
       <c r="C22" s="17"/>
       <c r="D22" s="24"/>
       <c r="E22" s="24"/>
     </row>
-    <row r="23" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="23" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B23" s="17"/>
       <c r="C23" s="17"/>
       <c r="D23" s="24"/>
       <c r="E23" s="24"/>
     </row>
-    <row r="24" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="24" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B24" s="17"/>
       <c r="C24" s="17"/>
       <c r="D24" s="24"/>
       <c r="E24" s="24"/>
     </row>
-    <row r="25" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="25" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B25" s="17"/>
       <c r="C25" s="17"/>
       <c r="D25" s="24"/>
       <c r="E25" s="24"/>
     </row>
-    <row r="26" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="26" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B26" s="17"/>
       <c r="C26" s="17"/>
       <c r="D26" s="24"/>
       <c r="E26" s="24"/>
     </row>
-    <row r="27" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="27" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B27" s="17"/>
       <c r="C27" s="17"/>
       <c r="D27" s="24"/>
       <c r="E27" s="24"/>
     </row>
-    <row r="28" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="28" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B28" s="17"/>
       <c r="C28" s="17"/>
       <c r="D28" s="24"/>
       <c r="E28" s="24"/>
     </row>
-    <row r="29" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="29" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B29" s="17"/>
       <c r="C29" s="17"/>
       <c r="D29" s="24"/>
       <c r="E29" s="24"/>
     </row>
-    <row r="30" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="30" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B30" s="17"/>
       <c r="C30" s="17"/>
       <c r="D30" s="24"/>
       <c r="E30" s="24"/>
     </row>
-    <row r="31" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="31" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B31" s="17"/>
       <c r="C31" s="17"/>
       <c r="D31" s="24"/>
       <c r="E31" s="24"/>
     </row>
-    <row r="32" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="32" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B32" s="17"/>
       <c r="C32" s="17"/>
       <c r="D32" s="24"/>
       <c r="E32" s="24"/>
     </row>
-    <row r="33" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="33" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B33" s="17"/>
       <c r="C33" s="17"/>
       <c r="D33" s="24"/>
       <c r="E33" s="24"/>
     </row>
-    <row r="34" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="34" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B34" s="17"/>
       <c r="C34" s="17"/>
       <c r="D34" s="24"/>
       <c r="E34" s="24"/>
     </row>
-    <row r="35" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="35" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B35" s="17"/>
       <c r="C35" s="17"/>
       <c r="D35" s="24"/>
       <c r="E35" s="24"/>
     </row>
-    <row r="36" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="36" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B36" s="17"/>
       <c r="C36" s="17"/>
       <c r="D36" s="24"/>
       <c r="E36" s="24"/>
     </row>
-    <row r="37" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="37" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B37" s="17"/>
       <c r="C37" s="17"/>
       <c r="D37" s="24"/>
       <c r="E37" s="24"/>
     </row>
-    <row r="38" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="38" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B38" s="17"/>
       <c r="C38" s="17"/>
       <c r="D38" s="24"/>
       <c r="E38" s="24"/>
     </row>
-    <row r="39" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="39" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B39" s="17"/>
       <c r="C39" s="17"/>
       <c r="D39" s="24"/>
       <c r="E39" s="24"/>
     </row>
-    <row r="40" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="40" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B40" s="17"/>
       <c r="C40" s="17"/>
       <c r="D40" s="24"/>
       <c r="E40" s="24"/>
     </row>
-    <row r="41" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="41" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B41" s="17"/>
       <c r="C41" s="17"/>
       <c r="D41" s="24"/>
       <c r="E41" s="24"/>
     </row>
-    <row r="42" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="42" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B42" s="17"/>
       <c r="C42" s="17"/>
       <c r="D42" s="24"/>
       <c r="E42" s="24"/>
     </row>
-    <row r="43" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="43" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B43" s="17"/>
       <c r="C43" s="17"/>
       <c r="D43" s="24"/>
       <c r="E43" s="24"/>
     </row>
-    <row r="44" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="44" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B44" s="17"/>
       <c r="C44" s="17"/>
       <c r="D44" s="24"/>
       <c r="E44" s="24"/>
     </row>
-    <row r="45" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="45" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B45" s="17"/>
       <c r="C45" s="17"/>
       <c r="D45" s="24"/>
       <c r="E45" s="24"/>
     </row>
-    <row r="46" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="46" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B46" s="17"/>
       <c r="C46" s="17"/>
       <c r="D46" s="24"/>
       <c r="E46" s="24"/>
     </row>
-    <row r="47" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="47" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B47" s="17"/>
       <c r="C47" s="17"/>
       <c r="D47" s="24"/>
       <c r="E47" s="24"/>
     </row>
-    <row r="48" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="48" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B48" s="17"/>
       <c r="C48" s="17"/>
       <c r="D48" s="24"/>
       <c r="E48" s="24"/>
     </row>
-    <row r="49" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="49" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B49" s="17"/>
       <c r="C49" s="17"/>
       <c r="D49" s="24"/>
       <c r="E49" s="24"/>
     </row>
-    <row r="50" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="50" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B50" s="17"/>
       <c r="C50" s="17"/>
       <c r="D50" s="24"/>
       <c r="E50" s="24"/>
     </row>
-    <row r="51" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="51" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B51" s="17"/>
       <c r="C51" s="17"/>
       <c r="D51" s="24"/>
       <c r="E51" s="24"/>
     </row>
-    <row r="52" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="52" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B52" s="17"/>
       <c r="C52" s="17"/>
       <c r="D52" s="24"/>
       <c r="E52" s="24"/>
     </row>
-    <row r="53" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="53" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B53" s="17"/>
       <c r="C53" s="17"/>
       <c r="D53" s="24"/>
       <c r="E53" s="24"/>
     </row>
-    <row r="54" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="54" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B54" s="17"/>
       <c r="C54" s="17"/>
       <c r="D54" s="24"/>
       <c r="E54" s="24"/>
     </row>
-    <row r="55" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="55" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B55" s="17"/>
       <c r="C55" s="17"/>
       <c r="D55" s="24"/>
       <c r="E55" s="24"/>
     </row>
-    <row r="56" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="56" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B56" s="17"/>
       <c r="C56" s="17"/>
       <c r="D56" s="24"/>
       <c r="E56" s="24"/>
     </row>
-    <row r="57" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="57" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B57" s="17"/>
       <c r="C57" s="17"/>
       <c r="D57" s="24"/>
       <c r="E57" s="24"/>
     </row>
-    <row r="58" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="58" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B58" s="17"/>
       <c r="C58" s="17"/>
       <c r="D58" s="24"/>
       <c r="E58" s="24"/>
     </row>
-    <row r="59" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="59" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B59" s="17"/>
       <c r="C59" s="17"/>
       <c r="D59" s="24"/>
       <c r="E59" s="24"/>
     </row>
-    <row r="60" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="60" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B60" s="17"/>
       <c r="C60" s="17"/>
       <c r="D60" s="24"/>
       <c r="E60" s="24"/>
     </row>
-    <row r="61" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="61" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B61" s="17"/>
       <c r="C61" s="17"/>
       <c r="D61" s="24"/>
       <c r="E61" s="24"/>
     </row>
-    <row r="62" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="62" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B62" s="17"/>
       <c r="C62" s="17"/>
       <c r="D62" s="24"/>
       <c r="E62" s="24"/>
     </row>
-    <row r="63" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="63" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B63" s="17"/>
       <c r="C63" s="17"/>
       <c r="D63" s="24"/>
       <c r="E63" s="24"/>
     </row>
-    <row r="64" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="64" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B64" s="17"/>
       <c r="C64" s="17"/>
       <c r="D64" s="24"/>
       <c r="E64" s="24"/>
     </row>
-    <row r="65" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="65" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B65" s="17"/>
       <c r="C65" s="17"/>
       <c r="D65" s="24"/>
       <c r="E65" s="24"/>
     </row>
-    <row r="66" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="66" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B66" s="17"/>
       <c r="C66" s="17"/>
       <c r="D66" s="24"/>
       <c r="E66" s="24"/>
     </row>
-    <row r="67" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="67" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B67" s="17"/>
       <c r="C67" s="17"/>
       <c r="D67" s="24"/>
       <c r="E67" s="24"/>
     </row>
-    <row r="68" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="68" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B68" s="17"/>
       <c r="C68" s="17"/>
       <c r="D68" s="24"/>
       <c r="E68" s="24"/>
     </row>
-    <row r="69" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="69" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B69" s="17"/>
       <c r="C69" s="17"/>
       <c r="D69" s="24"/>
       <c r="E69" s="24"/>
     </row>
-    <row r="70" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="70" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B70" s="17"/>
       <c r="C70" s="17"/>
       <c r="D70" s="24"/>
       <c r="E70" s="24"/>
     </row>
-    <row r="71" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="71" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B71" s="17"/>
       <c r="C71" s="17"/>
       <c r="D71" s="24"/>
       <c r="E71" s="24"/>
     </row>
-    <row r="72" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="72" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B72" s="17"/>
       <c r="C72" s="17"/>
       <c r="D72" s="24"/>
       <c r="E72" s="24"/>
     </row>
-    <row r="73" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="73" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B73" s="17"/>
       <c r="C73" s="17"/>
       <c r="D73" s="24"/>
       <c r="E73" s="24"/>
     </row>
-    <row r="74" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="74" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B74" s="17"/>
       <c r="C74" s="17"/>
       <c r="D74" s="24"/>
       <c r="E74" s="24"/>
     </row>
-    <row r="75" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="75" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B75" s="17"/>
       <c r="C75" s="17"/>
       <c r="D75" s="24"/>
       <c r="E75" s="24"/>
     </row>
-    <row r="76" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="76" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B76" s="17"/>
       <c r="C76" s="17"/>
       <c r="D76" s="24"/>
       <c r="E76" s="24"/>
     </row>
-    <row r="77" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="77" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B77" s="17"/>
       <c r="C77" s="17"/>
       <c r="D77" s="24"/>
       <c r="E77" s="24"/>
     </row>
-    <row r="78" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="78" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B78" s="17"/>
       <c r="C78" s="17"/>
       <c r="D78" s="24"/>
       <c r="E78" s="24"/>
     </row>
-    <row r="79" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="79" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B79" s="17"/>
       <c r="C79" s="17"/>
       <c r="D79" s="24"/>
       <c r="E79" s="24"/>
     </row>
-    <row r="80" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="80" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B80" s="17"/>
       <c r="C80" s="17"/>
       <c r="D80" s="24"/>
       <c r="E80" s="24"/>
     </row>
-    <row r="81" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="81" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B81" s="17"/>
       <c r="C81" s="17"/>
       <c r="D81" s="24"/>
       <c r="E81" s="24"/>
     </row>
-    <row r="82" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="82" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B82" s="17"/>
       <c r="C82" s="17"/>
       <c r="D82" s="24"/>
       <c r="E82" s="24"/>
     </row>
-    <row r="83" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="83" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B83" s="17"/>
       <c r="C83" s="17"/>
       <c r="D83" s="24"/>
       <c r="E83" s="24"/>
     </row>
-    <row r="84" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="84" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B84" s="17"/>
       <c r="C84" s="17"/>
       <c r="D84" s="24"/>
       <c r="E84" s="24"/>
     </row>
-    <row r="85" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="85" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B85" s="17"/>
       <c r="C85" s="17"/>
       <c r="D85" s="24"/>
       <c r="E85" s="24"/>
     </row>
-    <row r="86" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="86" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B86" s="17"/>
       <c r="C86" s="17"/>
       <c r="D86" s="24"/>
       <c r="E86" s="24"/>
     </row>
-    <row r="87" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="87" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B87" s="17"/>
       <c r="C87" s="17"/>
       <c r="D87" s="24"/>
       <c r="E87" s="24"/>
     </row>
-    <row r="88" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="88" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B88" s="17"/>
       <c r="C88" s="17"/>
       <c r="D88" s="24"/>
       <c r="E88" s="24"/>
     </row>
-    <row r="89" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="89" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B89" s="17"/>
       <c r="C89" s="17"/>
       <c r="D89" s="24"/>
       <c r="E89" s="24"/>
     </row>
-    <row r="90" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="90" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B90" s="17"/>
       <c r="C90" s="17"/>
       <c r="D90" s="24"/>
       <c r="E90" s="24"/>
     </row>
-    <row r="91" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="91" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B91" s="17"/>
       <c r="C91" s="17"/>
       <c r="D91" s="24"/>
       <c r="E91" s="24"/>
     </row>
-    <row r="92" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="92" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B92" s="17"/>
       <c r="C92" s="17"/>
       <c r="D92" s="24"/>
       <c r="E92" s="24"/>
     </row>
-    <row r="93" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="93" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B93" s="17"/>
       <c r="C93" s="17"/>
       <c r="D93" s="24"/>
       <c r="E93" s="24"/>
     </row>
-    <row r="94" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="94" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B94" s="17"/>
       <c r="C94" s="17"/>
       <c r="D94" s="24"/>
       <c r="E94" s="24"/>
     </row>
-    <row r="95" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="95" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B95" s="17"/>
       <c r="C95" s="17"/>
       <c r="D95" s="24"/>
       <c r="E95" s="24"/>
     </row>
-    <row r="96" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="96" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B96" s="17"/>
       <c r="C96" s="17"/>
       <c r="D96" s="24"/>
       <c r="E96" s="24"/>
     </row>
-    <row r="97" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="97" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B97" s="17"/>
       <c r="C97" s="17"/>
       <c r="D97" s="24"/>
       <c r="E97" s="24"/>
     </row>
-    <row r="98" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="98" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B98" s="17"/>
       <c r="C98" s="17"/>
       <c r="D98" s="24"/>
       <c r="E98" s="24"/>
     </row>
-    <row r="99" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="99" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B99" s="17"/>
       <c r="C99" s="17"/>
       <c r="D99" s="24"/>
       <c r="E99" s="24"/>
     </row>
-    <row r="100" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="100" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B100" s="17"/>
       <c r="C100" s="17"/>
       <c r="D100" s="24"/>
       <c r="E100" s="24"/>
     </row>
-    <row r="101" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="101" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B101" s="17"/>
       <c r="C101" s="17"/>
       <c r="D101" s="24"/>
@@ -3201,28 +3272,28 @@
   <dimension ref="B2:J87"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="1" ySplit="2" topLeftCell="B3" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="2" topLeftCell="B6" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
       <selection pane="bottomRight" activeCell="I36" sqref="I36"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="12" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.2" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="1" max="1" width="4.5" style="1" customWidth="1"/>
-    <col min="2" max="2" width="24.75" style="8" customWidth="1"/>
-    <col min="3" max="3" width="11.625" style="8" customWidth="1"/>
+    <col min="2" max="2" width="24.69921875" style="8" customWidth="1"/>
+    <col min="3" max="3" width="11.59765625" style="8" customWidth="1"/>
     <col min="4" max="4" width="13.5" style="2" customWidth="1"/>
-    <col min="5" max="5" width="10.75" style="8" customWidth="1"/>
+    <col min="5" max="5" width="10.69921875" style="8" customWidth="1"/>
     <col min="6" max="6" width="11" style="9" customWidth="1"/>
-    <col min="7" max="7" width="11.375" style="8" customWidth="1"/>
+    <col min="7" max="7" width="11.3984375" style="8" customWidth="1"/>
     <col min="8" max="8" width="10" style="9" customWidth="1"/>
-    <col min="9" max="9" width="10.125" style="10" customWidth="1"/>
-    <col min="10" max="10" width="60.125" style="2" customWidth="1"/>
+    <col min="9" max="9" width="10.09765625" style="10" customWidth="1"/>
+    <col min="10" max="10" width="60.09765625" style="2" customWidth="1"/>
     <col min="11" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:10" s="7" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="2:10" s="7" customFormat="1" x14ac:dyDescent="0.4">
       <c r="B2" s="3" t="s">
         <v>14</v>
       </c>
@@ -3251,7 +3322,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="3" spans="2:10" x14ac:dyDescent="0.4">
       <c r="B3" s="4" t="s">
         <v>28</v>
       </c>
@@ -3279,7 +3350,7 @@
       </c>
       <c r="J3" s="5"/>
     </row>
-    <row r="4" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:10" x14ac:dyDescent="0.4">
       <c r="B4" s="4" t="s">
         <v>28</v>
       </c>
@@ -3307,7 +3378,7 @@
       </c>
       <c r="J4" s="5"/>
     </row>
-    <row r="5" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="5" spans="2:10" x14ac:dyDescent="0.4">
       <c r="B5" s="4" t="s">
         <v>28</v>
       </c>
@@ -3337,7 +3408,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="6" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="6" spans="2:10" x14ac:dyDescent="0.4">
       <c r="B6" s="4" t="s">
         <v>28</v>
       </c>
@@ -3367,7 +3438,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="7" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="7" spans="2:10" x14ac:dyDescent="0.4">
       <c r="B7" s="4" t="s">
         <v>29</v>
       </c>
@@ -3397,7 +3468,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="8" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="8" spans="2:10" x14ac:dyDescent="0.4">
       <c r="B8" s="4" t="s">
         <v>29</v>
       </c>
@@ -3425,7 +3496,7 @@
       </c>
       <c r="J8" s="5"/>
     </row>
-    <row r="9" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="9" spans="2:10" x14ac:dyDescent="0.4">
       <c r="B9" s="4" t="s">
         <v>29</v>
       </c>
@@ -3455,7 +3526,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="10" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="10" spans="2:10" x14ac:dyDescent="0.4">
       <c r="B10" s="4" t="s">
         <v>29</v>
       </c>
@@ -3483,7 +3554,7 @@
       </c>
       <c r="J10" s="5"/>
     </row>
-    <row r="11" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="11" spans="2:10" x14ac:dyDescent="0.4">
       <c r="B11" s="4" t="s">
         <v>29</v>
       </c>
@@ -3511,7 +3582,7 @@
       </c>
       <c r="J11" s="5"/>
     </row>
-    <row r="12" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="12" spans="2:10" x14ac:dyDescent="0.4">
       <c r="B12" s="4" t="s">
         <v>29</v>
       </c>
@@ -3539,7 +3610,7 @@
       </c>
       <c r="J12" s="5"/>
     </row>
-    <row r="13" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="13" spans="2:10" x14ac:dyDescent="0.4">
       <c r="B13" s="4" t="s">
         <v>29</v>
       </c>
@@ -3567,7 +3638,7 @@
       </c>
       <c r="J13" s="5"/>
     </row>
-    <row r="14" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="14" spans="2:10" x14ac:dyDescent="0.4">
       <c r="B14" s="4" t="s">
         <v>29</v>
       </c>
@@ -3595,7 +3666,7 @@
       </c>
       <c r="J14" s="5"/>
     </row>
-    <row r="15" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="15" spans="2:10" x14ac:dyDescent="0.4">
       <c r="B15" s="4" t="s">
         <v>29</v>
       </c>
@@ -3623,7 +3694,7 @@
       </c>
       <c r="J15" s="5"/>
     </row>
-    <row r="16" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="16" spans="2:10" x14ac:dyDescent="0.4">
       <c r="B16" s="4" t="s">
         <v>54</v>
       </c>
@@ -3653,7 +3724,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="17" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="17" spans="2:10" x14ac:dyDescent="0.4">
       <c r="B17" s="4" t="s">
         <v>54</v>
       </c>
@@ -3681,7 +3752,7 @@
       </c>
       <c r="J17" s="5"/>
     </row>
-    <row r="18" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="18" spans="2:10" x14ac:dyDescent="0.4">
       <c r="B18" s="4" t="s">
         <v>29</v>
       </c>
@@ -3709,7 +3780,7 @@
       </c>
       <c r="J18" s="5"/>
     </row>
-    <row r="19" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="19" spans="2:10" x14ac:dyDescent="0.4">
       <c r="B19" s="4" t="s">
         <v>80</v>
       </c>
@@ -3737,7 +3808,7 @@
       </c>
       <c r="J19" s="5"/>
     </row>
-    <row r="20" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="20" spans="2:10" x14ac:dyDescent="0.4">
       <c r="B20" s="4" t="s">
         <v>84</v>
       </c>
@@ -3765,7 +3836,7 @@
       </c>
       <c r="J20" s="5"/>
     </row>
-    <row r="21" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="21" spans="2:10" x14ac:dyDescent="0.4">
       <c r="B21" s="4" t="s">
         <v>84</v>
       </c>
@@ -3793,7 +3864,7 @@
       </c>
       <c r="J21" s="5"/>
     </row>
-    <row r="22" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="22" spans="2:10" x14ac:dyDescent="0.4">
       <c r="B22" s="4" t="s">
         <v>92</v>
       </c>
@@ -3821,7 +3892,7 @@
       </c>
       <c r="J22" s="5"/>
     </row>
-    <row r="23" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="23" spans="2:10" x14ac:dyDescent="0.4">
       <c r="B23" s="4" t="s">
         <v>125</v>
       </c>
@@ -3849,7 +3920,7 @@
       </c>
       <c r="J23" s="5"/>
     </row>
-    <row r="24" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="24" spans="2:10" x14ac:dyDescent="0.4">
       <c r="B24" s="4" t="s">
         <v>125</v>
       </c>
@@ -3877,7 +3948,7 @@
       </c>
       <c r="J24" s="5"/>
     </row>
-    <row r="25" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="25" spans="2:10" x14ac:dyDescent="0.4">
       <c r="B25" s="4" t="s">
         <v>124</v>
       </c>
@@ -3905,7 +3976,7 @@
       </c>
       <c r="J25" s="5"/>
     </row>
-    <row r="26" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="26" spans="2:10" x14ac:dyDescent="0.4">
       <c r="B26" s="4" t="s">
         <v>124</v>
       </c>
@@ -3933,7 +4004,7 @@
       </c>
       <c r="J26" s="5"/>
     </row>
-    <row r="27" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="27" spans="2:10" x14ac:dyDescent="0.4">
       <c r="B27" s="4" t="s">
         <v>124</v>
       </c>
@@ -3961,7 +4032,7 @@
       </c>
       <c r="J27" s="5"/>
     </row>
-    <row r="28" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="28" spans="2:10" x14ac:dyDescent="0.4">
       <c r="B28" s="4" t="s">
         <v>124</v>
       </c>
@@ -3989,7 +4060,7 @@
       </c>
       <c r="J28" s="5"/>
     </row>
-    <row r="29" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="29" spans="2:10" x14ac:dyDescent="0.4">
       <c r="B29" s="4" t="s">
         <v>124</v>
       </c>
@@ -4017,7 +4088,7 @@
       </c>
       <c r="J29" s="5"/>
     </row>
-    <row r="30" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="30" spans="2:10" x14ac:dyDescent="0.4">
       <c r="B30" s="4" t="s">
         <v>124</v>
       </c>
@@ -4045,7 +4116,7 @@
       </c>
       <c r="J30" s="5"/>
     </row>
-    <row r="31" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="31" spans="2:10" x14ac:dyDescent="0.4">
       <c r="B31" s="4" t="s">
         <v>124</v>
       </c>
@@ -4073,7 +4144,7 @@
       </c>
       <c r="J31" s="5"/>
     </row>
-    <row r="32" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="32" spans="2:10" x14ac:dyDescent="0.4">
       <c r="B32" s="4"/>
       <c r="C32" s="12"/>
       <c r="D32" s="5"/>
@@ -4087,7 +4158,7 @@
       </c>
       <c r="J32" s="5"/>
     </row>
-    <row r="33" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="33" spans="2:10" x14ac:dyDescent="0.4">
       <c r="B33" s="4"/>
       <c r="C33" s="12"/>
       <c r="D33" s="5"/>
@@ -4101,7 +4172,7 @@
       </c>
       <c r="J33" s="5"/>
     </row>
-    <row r="34" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="34" spans="2:10" x14ac:dyDescent="0.4">
       <c r="B34" s="4"/>
       <c r="C34" s="12"/>
       <c r="D34" s="5"/>
@@ -4115,7 +4186,7 @@
       </c>
       <c r="J34" s="5"/>
     </row>
-    <row r="35" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="35" spans="2:10" x14ac:dyDescent="0.4">
       <c r="B35" s="4"/>
       <c r="C35" s="12"/>
       <c r="D35" s="5"/>
@@ -4129,7 +4200,7 @@
       </c>
       <c r="J35" s="5"/>
     </row>
-    <row r="36" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="36" spans="2:10" x14ac:dyDescent="0.4">
       <c r="B36" s="4"/>
       <c r="C36" s="12"/>
       <c r="D36" s="5"/>
@@ -4143,7 +4214,7 @@
       </c>
       <c r="J36" s="5"/>
     </row>
-    <row r="37" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="37" spans="2:10" x14ac:dyDescent="0.4">
       <c r="B37" s="4"/>
       <c r="C37" s="12"/>
       <c r="D37" s="5"/>
@@ -4157,7 +4228,7 @@
       </c>
       <c r="J37" s="5"/>
     </row>
-    <row r="38" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="38" spans="2:10" x14ac:dyDescent="0.4">
       <c r="B38" s="4"/>
       <c r="C38" s="12"/>
       <c r="D38" s="5"/>
@@ -4171,7 +4242,7 @@
       </c>
       <c r="J38" s="5"/>
     </row>
-    <row r="39" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="39" spans="2:10" x14ac:dyDescent="0.4">
       <c r="B39" s="4"/>
       <c r="C39" s="12"/>
       <c r="D39" s="5"/>
@@ -4185,7 +4256,7 @@
       </c>
       <c r="J39" s="5"/>
     </row>
-    <row r="40" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="40" spans="2:10" x14ac:dyDescent="0.4">
       <c r="B40" s="4"/>
       <c r="C40" s="12"/>
       <c r="D40" s="5"/>
@@ -4199,7 +4270,7 @@
       </c>
       <c r="J40" s="5"/>
     </row>
-    <row r="41" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="41" spans="2:10" x14ac:dyDescent="0.4">
       <c r="B41" s="4"/>
       <c r="C41" s="12"/>
       <c r="D41" s="5"/>
@@ -4213,7 +4284,7 @@
       </c>
       <c r="J41" s="5"/>
     </row>
-    <row r="42" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="42" spans="2:10" x14ac:dyDescent="0.4">
       <c r="B42" s="4"/>
       <c r="C42" s="12"/>
       <c r="D42" s="5"/>
@@ -4227,7 +4298,7 @@
       </c>
       <c r="J42" s="5"/>
     </row>
-    <row r="43" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="43" spans="2:10" x14ac:dyDescent="0.4">
       <c r="B43" s="4"/>
       <c r="C43" s="12"/>
       <c r="D43" s="5"/>
@@ -4241,7 +4312,7 @@
       </c>
       <c r="J43" s="5"/>
     </row>
-    <row r="44" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="44" spans="2:10" x14ac:dyDescent="0.4">
       <c r="B44" s="4"/>
       <c r="C44" s="12"/>
       <c r="D44" s="5"/>
@@ -4255,7 +4326,7 @@
       </c>
       <c r="J44" s="5"/>
     </row>
-    <row r="45" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="45" spans="2:10" x14ac:dyDescent="0.4">
       <c r="B45" s="4"/>
       <c r="C45" s="12"/>
       <c r="D45" s="5"/>
@@ -4269,7 +4340,7 @@
       </c>
       <c r="J45" s="5"/>
     </row>
-    <row r="46" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="46" spans="2:10" x14ac:dyDescent="0.4">
       <c r="B46" s="4"/>
       <c r="C46" s="12"/>
       <c r="D46" s="5"/>
@@ -4283,7 +4354,7 @@
       </c>
       <c r="J46" s="5"/>
     </row>
-    <row r="47" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="47" spans="2:10" x14ac:dyDescent="0.4">
       <c r="B47" s="4"/>
       <c r="C47" s="12"/>
       <c r="D47" s="5"/>
@@ -4297,7 +4368,7 @@
       </c>
       <c r="J47" s="5"/>
     </row>
-    <row r="48" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="48" spans="2:10" x14ac:dyDescent="0.4">
       <c r="B48" s="4"/>
       <c r="C48" s="12"/>
       <c r="D48" s="5"/>
@@ -4311,7 +4382,7 @@
       </c>
       <c r="J48" s="5"/>
     </row>
-    <row r="49" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="49" spans="2:10" x14ac:dyDescent="0.4">
       <c r="B49" s="4"/>
       <c r="C49" s="12"/>
       <c r="D49" s="5"/>
@@ -4325,7 +4396,7 @@
       </c>
       <c r="J49" s="5"/>
     </row>
-    <row r="50" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="50" spans="2:10" x14ac:dyDescent="0.4">
       <c r="B50" s="4"/>
       <c r="C50" s="12"/>
       <c r="D50" s="5"/>
@@ -4339,7 +4410,7 @@
       </c>
       <c r="J50" s="5"/>
     </row>
-    <row r="51" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="51" spans="2:10" x14ac:dyDescent="0.4">
       <c r="B51" s="4"/>
       <c r="C51" s="12"/>
       <c r="D51" s="5"/>
@@ -4353,7 +4424,7 @@
       </c>
       <c r="J51" s="5"/>
     </row>
-    <row r="52" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="52" spans="2:10" x14ac:dyDescent="0.4">
       <c r="B52" s="4"/>
       <c r="C52" s="12"/>
       <c r="D52" s="5"/>
@@ -4367,7 +4438,7 @@
       </c>
       <c r="J52" s="5"/>
     </row>
-    <row r="53" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="53" spans="2:10" x14ac:dyDescent="0.4">
       <c r="B53" s="4"/>
       <c r="C53" s="12"/>
       <c r="D53" s="5"/>
@@ -4381,7 +4452,7 @@
       </c>
       <c r="J53" s="5"/>
     </row>
-    <row r="54" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="54" spans="2:10" x14ac:dyDescent="0.4">
       <c r="B54" s="4"/>
       <c r="C54" s="12"/>
       <c r="D54" s="5"/>
@@ -4395,7 +4466,7 @@
       </c>
       <c r="J54" s="5"/>
     </row>
-    <row r="55" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="55" spans="2:10" x14ac:dyDescent="0.4">
       <c r="B55" s="4"/>
       <c r="C55" s="12"/>
       <c r="D55" s="5"/>
@@ -4409,7 +4480,7 @@
       </c>
       <c r="J55" s="5"/>
     </row>
-    <row r="56" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="56" spans="2:10" x14ac:dyDescent="0.4">
       <c r="B56" s="4"/>
       <c r="C56" s="12"/>
       <c r="D56" s="5"/>
@@ -4423,7 +4494,7 @@
       </c>
       <c r="J56" s="5"/>
     </row>
-    <row r="57" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="57" spans="2:10" x14ac:dyDescent="0.4">
       <c r="B57" s="4"/>
       <c r="C57" s="12"/>
       <c r="D57" s="5"/>
@@ -4437,7 +4508,7 @@
       </c>
       <c r="J57" s="5"/>
     </row>
-    <row r="58" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="58" spans="2:10" x14ac:dyDescent="0.4">
       <c r="B58" s="4"/>
       <c r="C58" s="12"/>
       <c r="D58" s="5"/>
@@ -4451,7 +4522,7 @@
       </c>
       <c r="J58" s="5"/>
     </row>
-    <row r="59" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="59" spans="2:10" x14ac:dyDescent="0.4">
       <c r="B59" s="4"/>
       <c r="C59" s="12"/>
       <c r="D59" s="5"/>
@@ -4465,7 +4536,7 @@
       </c>
       <c r="J59" s="5"/>
     </row>
-    <row r="60" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="60" spans="2:10" x14ac:dyDescent="0.4">
       <c r="B60" s="4"/>
       <c r="C60" s="12"/>
       <c r="D60" s="5"/>
@@ -4479,7 +4550,7 @@
       </c>
       <c r="J60" s="5"/>
     </row>
-    <row r="61" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="61" spans="2:10" x14ac:dyDescent="0.4">
       <c r="B61" s="4"/>
       <c r="C61" s="12"/>
       <c r="D61" s="5"/>
@@ -4493,7 +4564,7 @@
       </c>
       <c r="J61" s="5"/>
     </row>
-    <row r="62" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="62" spans="2:10" x14ac:dyDescent="0.4">
       <c r="B62" s="4"/>
       <c r="C62" s="12"/>
       <c r="D62" s="5"/>
@@ -4507,7 +4578,7 @@
       </c>
       <c r="J62" s="5"/>
     </row>
-    <row r="63" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="63" spans="2:10" x14ac:dyDescent="0.4">
       <c r="B63" s="4"/>
       <c r="C63" s="12"/>
       <c r="D63" s="5"/>
@@ -4521,7 +4592,7 @@
       </c>
       <c r="J63" s="5"/>
     </row>
-    <row r="64" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="64" spans="2:10" x14ac:dyDescent="0.4">
       <c r="B64" s="4"/>
       <c r="C64" s="12"/>
       <c r="D64" s="5"/>
@@ -4535,7 +4606,7 @@
       </c>
       <c r="J64" s="5"/>
     </row>
-    <row r="65" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="65" spans="2:10" x14ac:dyDescent="0.4">
       <c r="B65" s="4"/>
       <c r="C65" s="12"/>
       <c r="D65" s="5"/>
@@ -4549,7 +4620,7 @@
       </c>
       <c r="J65" s="5"/>
     </row>
-    <row r="66" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="66" spans="2:10" x14ac:dyDescent="0.4">
       <c r="B66" s="4"/>
       <c r="C66" s="12"/>
       <c r="D66" s="5"/>
@@ -4563,7 +4634,7 @@
       </c>
       <c r="J66" s="5"/>
     </row>
-    <row r="67" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="67" spans="2:10" x14ac:dyDescent="0.4">
       <c r="B67" s="4"/>
       <c r="C67" s="12"/>
       <c r="D67" s="5"/>
@@ -4577,7 +4648,7 @@
       </c>
       <c r="J67" s="5"/>
     </row>
-    <row r="68" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="68" spans="2:10" x14ac:dyDescent="0.4">
       <c r="B68" s="4"/>
       <c r="C68" s="12"/>
       <c r="D68" s="5"/>
@@ -4591,7 +4662,7 @@
       </c>
       <c r="J68" s="5"/>
     </row>
-    <row r="69" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="69" spans="2:10" x14ac:dyDescent="0.4">
       <c r="B69" s="4"/>
       <c r="C69" s="12"/>
       <c r="D69" s="5"/>
@@ -4605,7 +4676,7 @@
       </c>
       <c r="J69" s="5"/>
     </row>
-    <row r="70" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="70" spans="2:10" x14ac:dyDescent="0.4">
       <c r="B70" s="4"/>
       <c r="C70" s="12"/>
       <c r="D70" s="5"/>
@@ -4619,7 +4690,7 @@
       </c>
       <c r="J70" s="5"/>
     </row>
-    <row r="71" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="71" spans="2:10" x14ac:dyDescent="0.4">
       <c r="B71" s="4"/>
       <c r="C71" s="12"/>
       <c r="D71" s="5"/>
@@ -4633,7 +4704,7 @@
       </c>
       <c r="J71" s="5"/>
     </row>
-    <row r="72" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="72" spans="2:10" x14ac:dyDescent="0.4">
       <c r="B72" s="4"/>
       <c r="C72" s="12"/>
       <c r="D72" s="5"/>
@@ -4647,7 +4718,7 @@
       </c>
       <c r="J72" s="5"/>
     </row>
-    <row r="73" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="73" spans="2:10" x14ac:dyDescent="0.4">
       <c r="B73" s="4"/>
       <c r="C73" s="12"/>
       <c r="D73" s="5"/>
@@ -4661,7 +4732,7 @@
       </c>
       <c r="J73" s="5"/>
     </row>
-    <row r="74" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="74" spans="2:10" x14ac:dyDescent="0.4">
       <c r="B74" s="4"/>
       <c r="C74" s="12"/>
       <c r="D74" s="5"/>
@@ -4675,7 +4746,7 @@
       </c>
       <c r="J74" s="5"/>
     </row>
-    <row r="75" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="75" spans="2:10" x14ac:dyDescent="0.4">
       <c r="B75" s="4"/>
       <c r="C75" s="12"/>
       <c r="D75" s="5"/>
@@ -4689,7 +4760,7 @@
       </c>
       <c r="J75" s="5"/>
     </row>
-    <row r="76" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="76" spans="2:10" x14ac:dyDescent="0.4">
       <c r="B76" s="4"/>
       <c r="C76" s="12"/>
       <c r="D76" s="5"/>
@@ -4703,7 +4774,7 @@
       </c>
       <c r="J76" s="5"/>
     </row>
-    <row r="77" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="77" spans="2:10" x14ac:dyDescent="0.4">
       <c r="B77" s="4"/>
       <c r="C77" s="12"/>
       <c r="D77" s="5"/>
@@ -4717,7 +4788,7 @@
       </c>
       <c r="J77" s="5"/>
     </row>
-    <row r="78" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="78" spans="2:10" x14ac:dyDescent="0.4">
       <c r="B78" s="4"/>
       <c r="C78" s="12"/>
       <c r="D78" s="5"/>
@@ -4731,7 +4802,7 @@
       </c>
       <c r="J78" s="5"/>
     </row>
-    <row r="79" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="79" spans="2:10" x14ac:dyDescent="0.4">
       <c r="B79" s="4"/>
       <c r="C79" s="12"/>
       <c r="D79" s="5"/>
@@ -4745,7 +4816,7 @@
       </c>
       <c r="J79" s="5"/>
     </row>
-    <row r="80" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="80" spans="2:10" x14ac:dyDescent="0.4">
       <c r="B80" s="4"/>
       <c r="C80" s="12"/>
       <c r="D80" s="5"/>
@@ -4759,7 +4830,7 @@
       </c>
       <c r="J80" s="5"/>
     </row>
-    <row r="81" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="81" spans="2:10" x14ac:dyDescent="0.4">
       <c r="B81" s="4"/>
       <c r="C81" s="12"/>
       <c r="D81" s="5"/>
@@ -4773,7 +4844,7 @@
       </c>
       <c r="J81" s="5"/>
     </row>
-    <row r="82" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="82" spans="2:10" x14ac:dyDescent="0.4">
       <c r="B82" s="4"/>
       <c r="C82" s="12"/>
       <c r="D82" s="5"/>
@@ -4787,7 +4858,7 @@
       </c>
       <c r="J82" s="5"/>
     </row>
-    <row r="83" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="83" spans="2:10" x14ac:dyDescent="0.4">
       <c r="B83" s="4"/>
       <c r="C83" s="12"/>
       <c r="D83" s="5"/>
@@ -4801,7 +4872,7 @@
       </c>
       <c r="J83" s="5"/>
     </row>
-    <row r="84" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="84" spans="2:10" x14ac:dyDescent="0.4">
       <c r="B84" s="4"/>
       <c r="C84" s="12"/>
       <c r="D84" s="5"/>
@@ -4815,7 +4886,7 @@
       </c>
       <c r="J84" s="5"/>
     </row>
-    <row r="85" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="85" spans="2:10" x14ac:dyDescent="0.4">
       <c r="B85" s="4"/>
       <c r="C85" s="12"/>
       <c r="D85" s="5"/>
@@ -4829,7 +4900,7 @@
       </c>
       <c r="J85" s="5"/>
     </row>
-    <row r="86" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="86" spans="2:10" x14ac:dyDescent="0.4">
       <c r="B86" s="4"/>
       <c r="C86" s="12"/>
       <c r="D86" s="5"/>
@@ -4843,7 +4914,7 @@
       </c>
       <c r="J86" s="5"/>
     </row>
-    <row r="87" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="87" spans="2:10" x14ac:dyDescent="0.4">
       <c r="B87" s="4"/>
       <c r="C87" s="12"/>
       <c r="D87" s="5"/>
@@ -4883,9 +4954,9 @@
       <selection activeCell="F17" sqref="F17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <sheetData>
-    <row r="2" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="2" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B2" s="27">
         <v>8</v>
       </c>
@@ -4896,7 +4967,7 @@
       <c r="G2" s="28"/>
       <c r="H2" s="28"/>
     </row>
-    <row r="3" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="3" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B3" s="27">
         <v>7</v>
       </c>
@@ -4907,7 +4978,7 @@
       <c r="G3" s="28"/>
       <c r="H3" s="28"/>
     </row>
-    <row r="4" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B4" s="27">
         <v>6</v>
       </c>
@@ -4918,7 +4989,7 @@
       <c r="G4" s="28"/>
       <c r="H4" s="28"/>
     </row>
-    <row r="5" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="5" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B5" s="27">
         <v>5</v>
       </c>
@@ -4929,7 +5000,7 @@
       <c r="G5" s="28"/>
       <c r="H5" s="28"/>
     </row>
-    <row r="6" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="6" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B6" s="27">
         <v>4</v>
       </c>
@@ -4940,7 +5011,7 @@
       <c r="G6" s="29"/>
       <c r="H6" s="28"/>
     </row>
-    <row r="7" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="7" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B7" s="27">
         <v>3</v>
       </c>
@@ -4951,7 +5022,7 @@
       <c r="G7" s="28"/>
       <c r="H7" s="29"/>
     </row>
-    <row r="8" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="8" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B8" s="27">
         <v>2</v>
       </c>
@@ -4962,7 +5033,7 @@
       <c r="G8" s="28"/>
       <c r="H8" s="28"/>
     </row>
-    <row r="9" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="9" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B9" s="27">
         <v>1</v>
       </c>
@@ -4973,7 +5044,7 @@
       <c r="G9" s="28"/>
       <c r="H9" s="28"/>
     </row>
-    <row r="10" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="10" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B10" s="30">
         <v>-1</v>
       </c>
@@ -4984,7 +5055,7 @@
       <c r="G10" s="28"/>
       <c r="H10" s="28"/>
     </row>
-    <row r="11" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="11" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B11" s="30">
         <v>-2</v>
       </c>
@@ -4995,7 +5066,7 @@
       <c r="G11" s="28"/>
       <c r="H11" s="28"/>
     </row>
-    <row r="12" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="12" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B12" s="30">
         <v>-3</v>
       </c>
@@ -5006,7 +5077,7 @@
       <c r="G12" s="28"/>
       <c r="H12" s="28"/>
     </row>
-    <row r="13" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="13" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B13" s="30">
         <v>-4</v>
       </c>
@@ -5017,42 +5088,42 @@
       <c r="G13" s="28"/>
       <c r="H13" s="28"/>
     </row>
-    <row r="16" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="16" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B16" s="32" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="17" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="17" spans="2:4" x14ac:dyDescent="0.4">
       <c r="C17" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="18" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="18" spans="2:4" x14ac:dyDescent="0.4">
       <c r="D18" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="19" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="19" spans="2:4" x14ac:dyDescent="0.4">
       <c r="B19" s="32" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="20" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="20" spans="2:4" x14ac:dyDescent="0.4">
       <c r="C20" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="21" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="21" spans="2:4" x14ac:dyDescent="0.4">
       <c r="D21" t="s">
         <v>122</v>
       </c>
     </row>
-    <row r="22" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="22" spans="2:4" x14ac:dyDescent="0.4">
       <c r="D22" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="23" spans="2:4" x14ac:dyDescent="0.3">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="23" spans="2:4" x14ac:dyDescent="0.4">
       <c r="D23" t="s">
         <v>123</v>
       </c>

--- a/WorkShop/01.docs/01.초기학습.xlsx
+++ b/WorkShop/01.docs/01.초기학습.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\WorkShop\AppHome\stocks\WorkShop\01.docs\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\ProjectHome\Stocks\WorkShop\01.docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11856" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11850" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="00.참고" sheetId="2" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="245" uniqueCount="161">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="248" uniqueCount="164">
   <si>
     <t>사이트명</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1067,6 +1067,18 @@
 3. 개인주체의 테마성 제외( 예:반기문주, …..)
 4. 전날 혹은 당일 증권방송 및 증권사 추천종목중 5거래일 기관의 수급이 좋은 종목
 5. 금요일에는 되도록 거래하지 않음.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=258D9JM8CP8</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>종가 배팅을 위한 종목 선정 간편 검색식</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>종가배팅을 위한 검색식 및 진행방법 참고(영웅문)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1431,12 +1443,6 @@
     <xf numFmtId="49" fontId="4" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="10" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="10" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="49" fontId="10" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -1447,6 +1453,12 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="10" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="10" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="10" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="10" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1964,19 +1976,19 @@
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="C34" sqref="C34"/>
+      <selection pane="bottomRight" activeCell="C23" sqref="C23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.2" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="12" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="7.19921875" style="1" customWidth="1"/>
-    <col min="2" max="2" width="31.8984375" style="1" customWidth="1"/>
+    <col min="1" max="1" width="7.25" style="1" customWidth="1"/>
+    <col min="2" max="2" width="31.875" style="1" customWidth="1"/>
     <col min="3" max="3" width="31.5" style="1" customWidth="1"/>
-    <col min="4" max="4" width="102.8984375" style="2" customWidth="1"/>
+    <col min="4" max="4" width="102.875" style="2" customWidth="1"/>
     <col min="5" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:4" x14ac:dyDescent="0.4">
+    <row r="1" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B1" s="3" t="s">
         <v>0</v>
       </c>
@@ -1987,7 +1999,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="2:4" x14ac:dyDescent="0.4">
+    <row r="2" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B2" s="4" t="s">
         <v>55</v>
       </c>
@@ -1998,7 +2010,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="3" spans="2:4" x14ac:dyDescent="0.4">
+    <row r="3" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B3" s="21" t="s">
         <v>58</v>
       </c>
@@ -2007,7 +2019,7 @@
       </c>
       <c r="D3" s="20"/>
     </row>
-    <row r="4" spans="2:4" x14ac:dyDescent="0.4">
+    <row r="4" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B4" s="21" t="s">
         <v>60</v>
       </c>
@@ -2018,7 +2030,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="5" spans="2:4" x14ac:dyDescent="0.4">
+    <row r="5" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B5" s="21" t="s">
         <v>63</v>
       </c>
@@ -2029,7 +2041,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="6" spans="2:4" x14ac:dyDescent="0.4">
+    <row r="6" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B6" s="21" t="s">
         <v>37</v>
       </c>
@@ -2040,7 +2052,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="7" spans="2:4" x14ac:dyDescent="0.4">
+    <row r="7" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B7" s="21" t="s">
         <v>66</v>
       </c>
@@ -2051,7 +2063,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="8" spans="2:4" x14ac:dyDescent="0.4">
+    <row r="8" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B8" s="4" t="s">
         <v>68</v>
       </c>
@@ -2062,7 +2074,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="9" spans="2:4" x14ac:dyDescent="0.4">
+    <row r="9" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B9" s="4" t="s">
         <v>72</v>
       </c>
@@ -2073,7 +2085,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="10" spans="2:4" x14ac:dyDescent="0.4">
+    <row r="10" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B10" s="4" t="s">
         <v>74</v>
       </c>
@@ -2084,122 +2096,128 @@
         <v>65</v>
       </c>
     </row>
-    <row r="11" spans="2:4" x14ac:dyDescent="0.4">
-      <c r="B11" s="4"/>
-      <c r="C11" s="4"/>
-      <c r="D11" s="5"/>
-    </row>
-    <row r="12" spans="2:4" x14ac:dyDescent="0.4">
+    <row r="11" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B11" s="4" t="s">
+        <v>162</v>
+      </c>
+      <c r="C11" s="23" t="s">
+        <v>161</v>
+      </c>
+      <c r="D11" s="5" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="12" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B12" s="4"/>
       <c r="C12" s="4"/>
       <c r="D12" s="5"/>
     </row>
-    <row r="13" spans="2:4" x14ac:dyDescent="0.4">
+    <row r="13" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B13" s="4"/>
       <c r="C13" s="4"/>
       <c r="D13" s="5"/>
     </row>
-    <row r="14" spans="2:4" x14ac:dyDescent="0.4">
+    <row r="14" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B14" s="4"/>
       <c r="C14" s="4"/>
       <c r="D14" s="5"/>
     </row>
-    <row r="15" spans="2:4" x14ac:dyDescent="0.4">
+    <row r="15" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B15" s="4"/>
       <c r="C15" s="4"/>
       <c r="D15" s="5"/>
     </row>
-    <row r="16" spans="2:4" x14ac:dyDescent="0.4">
+    <row r="16" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B16" s="4"/>
       <c r="C16" s="4"/>
       <c r="D16" s="5"/>
     </row>
-    <row r="17" spans="2:4" x14ac:dyDescent="0.4">
+    <row r="17" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B17" s="4"/>
       <c r="C17" s="4"/>
       <c r="D17" s="5"/>
     </row>
-    <row r="18" spans="2:4" x14ac:dyDescent="0.4">
+    <row r="18" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B18" s="4"/>
       <c r="C18" s="4"/>
       <c r="D18" s="5"/>
     </row>
-    <row r="19" spans="2:4" x14ac:dyDescent="0.4">
+    <row r="19" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B19" s="4"/>
       <c r="C19" s="4"/>
       <c r="D19" s="5"/>
     </row>
-    <row r="20" spans="2:4" x14ac:dyDescent="0.4">
+    <row r="20" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B20" s="4"/>
       <c r="C20" s="4"/>
       <c r="D20" s="5"/>
     </row>
-    <row r="21" spans="2:4" x14ac:dyDescent="0.4">
+    <row r="21" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B21" s="4"/>
       <c r="C21" s="4"/>
       <c r="D21" s="5"/>
     </row>
-    <row r="22" spans="2:4" x14ac:dyDescent="0.4">
+    <row r="22" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B22" s="4"/>
       <c r="C22" s="4"/>
       <c r="D22" s="5"/>
     </row>
-    <row r="23" spans="2:4" x14ac:dyDescent="0.4">
+    <row r="23" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B23" s="4"/>
       <c r="C23" s="4"/>
       <c r="D23" s="5"/>
     </row>
-    <row r="24" spans="2:4" x14ac:dyDescent="0.4">
+    <row r="24" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B24" s="4"/>
       <c r="C24" s="4"/>
       <c r="D24" s="5"/>
     </row>
-    <row r="25" spans="2:4" x14ac:dyDescent="0.4">
+    <row r="25" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B25" s="4"/>
       <c r="C25" s="4"/>
       <c r="D25" s="5"/>
     </row>
-    <row r="26" spans="2:4" x14ac:dyDescent="0.4">
+    <row r="26" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B26" s="4"/>
       <c r="C26" s="4"/>
       <c r="D26" s="5"/>
     </row>
-    <row r="27" spans="2:4" x14ac:dyDescent="0.4">
+    <row r="27" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B27" s="4"/>
       <c r="C27" s="4"/>
       <c r="D27" s="5"/>
     </row>
-    <row r="28" spans="2:4" x14ac:dyDescent="0.4">
+    <row r="28" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B28" s="4"/>
       <c r="C28" s="4"/>
       <c r="D28" s="5"/>
     </row>
-    <row r="29" spans="2:4" x14ac:dyDescent="0.4">
+    <row r="29" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B29" s="4"/>
       <c r="C29" s="4"/>
       <c r="D29" s="5"/>
     </row>
-    <row r="30" spans="2:4" x14ac:dyDescent="0.4">
+    <row r="30" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B30" s="4"/>
       <c r="C30" s="4"/>
       <c r="D30" s="5"/>
     </row>
-    <row r="31" spans="2:4" x14ac:dyDescent="0.4">
+    <row r="31" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B31" s="4"/>
       <c r="C31" s="4"/>
       <c r="D31" s="5"/>
     </row>
-    <row r="32" spans="2:4" x14ac:dyDescent="0.4">
+    <row r="32" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B32" s="4"/>
       <c r="C32" s="4"/>
       <c r="D32" s="5"/>
     </row>
-    <row r="33" spans="2:4" x14ac:dyDescent="0.4">
+    <row r="33" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B33" s="4"/>
       <c r="C33" s="4"/>
       <c r="D33" s="5"/>
     </row>
-    <row r="34" spans="2:4" x14ac:dyDescent="0.4">
+    <row r="34" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B34" s="4"/>
       <c r="C34" s="4"/>
       <c r="D34" s="5"/>
@@ -2214,23 +2232,23 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:E43"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B11" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <pane xSplit="1" ySplit="1" topLeftCell="B8" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="B17" sqref="B17:C17"/>
+      <selection pane="bottomRight" activeCell="B12" sqref="B12:C13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.2" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="12" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="7.19921875" style="1" customWidth="1"/>
-    <col min="2" max="2" width="31.8984375" style="1" customWidth="1"/>
-    <col min="3" max="4" width="15.3984375" style="1" customWidth="1"/>
-    <col min="5" max="5" width="118.09765625" style="38" customWidth="1"/>
+    <col min="1" max="1" width="7.25" style="1" customWidth="1"/>
+    <col min="2" max="2" width="31.875" style="1" customWidth="1"/>
+    <col min="3" max="4" width="15.375" style="1" customWidth="1"/>
+    <col min="5" max="5" width="118.125" style="38" customWidth="1"/>
     <col min="6" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:5" x14ac:dyDescent="0.4">
+    <row r="1" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B1" s="40" t="s">
         <v>133</v>
       </c>
@@ -2240,11 +2258,11 @@
       </c>
       <c r="E1" s="41"/>
     </row>
-    <row r="2" spans="2:5" ht="26.4" x14ac:dyDescent="0.4">
-      <c r="B2" s="44" t="s">
+    <row r="2" spans="2:5" ht="24" x14ac:dyDescent="0.3">
+      <c r="B2" s="42" t="s">
         <v>134</v>
       </c>
-      <c r="C2" s="45"/>
+      <c r="C2" s="43"/>
       <c r="D2" s="35" t="s">
         <v>136</v>
       </c>
@@ -2252,9 +2270,9 @@
         <v>149</v>
       </c>
     </row>
-    <row r="3" spans="2:5" ht="26.4" x14ac:dyDescent="0.4">
-      <c r="B3" s="46"/>
-      <c r="C3" s="47"/>
+    <row r="3" spans="2:5" ht="24" x14ac:dyDescent="0.3">
+      <c r="B3" s="44"/>
+      <c r="C3" s="45"/>
       <c r="D3" s="35" t="s">
         <v>137</v>
       </c>
@@ -2262,11 +2280,11 @@
         <v>138</v>
       </c>
     </row>
-    <row r="4" spans="2:5" ht="52.8" x14ac:dyDescent="0.4">
-      <c r="B4" s="44" t="s">
+    <row r="4" spans="2:5" ht="48" x14ac:dyDescent="0.3">
+      <c r="B4" s="42" t="s">
         <v>135</v>
       </c>
-      <c r="C4" s="45"/>
+      <c r="C4" s="43"/>
       <c r="D4" s="35" t="s">
         <v>136</v>
       </c>
@@ -2274,9 +2292,9 @@
         <v>148</v>
       </c>
     </row>
-    <row r="5" spans="2:5" ht="105.6" x14ac:dyDescent="0.4">
-      <c r="B5" s="46"/>
-      <c r="C5" s="47"/>
+    <row r="5" spans="2:5" ht="96" x14ac:dyDescent="0.3">
+      <c r="B5" s="44"/>
+      <c r="C5" s="45"/>
       <c r="D5" s="35" t="s">
         <v>137</v>
       </c>
@@ -2284,11 +2302,11 @@
         <v>139</v>
       </c>
     </row>
-    <row r="6" spans="2:5" ht="79.2" x14ac:dyDescent="0.4">
-      <c r="B6" s="44" t="s">
+    <row r="6" spans="2:5" ht="72" x14ac:dyDescent="0.3">
+      <c r="B6" s="42" t="s">
         <v>144</v>
       </c>
-      <c r="C6" s="45"/>
+      <c r="C6" s="43"/>
       <c r="D6" s="35" t="s">
         <v>136</v>
       </c>
@@ -2296,9 +2314,9 @@
         <v>147</v>
       </c>
     </row>
-    <row r="7" spans="2:5" ht="92.4" x14ac:dyDescent="0.4">
-      <c r="B7" s="46"/>
-      <c r="C7" s="47"/>
+    <row r="7" spans="2:5" ht="84" x14ac:dyDescent="0.3">
+      <c r="B7" s="44"/>
+      <c r="C7" s="45"/>
       <c r="D7" s="35" t="s">
         <v>137</v>
       </c>
@@ -2306,11 +2324,11 @@
         <v>140</v>
       </c>
     </row>
-    <row r="8" spans="2:5" ht="105.6" x14ac:dyDescent="0.4">
+    <row r="8" spans="2:5" ht="96" x14ac:dyDescent="0.3">
       <c r="B8" s="48" t="s">
         <v>145</v>
       </c>
-      <c r="C8" s="45"/>
+      <c r="C8" s="43"/>
       <c r="D8" s="35" t="s">
         <v>136</v>
       </c>
@@ -2318,9 +2336,9 @@
         <v>146</v>
       </c>
     </row>
-    <row r="9" spans="2:5" ht="66" x14ac:dyDescent="0.4">
-      <c r="B9" s="46"/>
-      <c r="C9" s="47"/>
+    <row r="9" spans="2:5" ht="60" x14ac:dyDescent="0.3">
+      <c r="B9" s="44"/>
+      <c r="C9" s="45"/>
       <c r="D9" s="35" t="s">
         <v>137</v>
       </c>
@@ -2328,11 +2346,11 @@
         <v>141</v>
       </c>
     </row>
-    <row r="10" spans="2:5" ht="66" x14ac:dyDescent="0.4">
-      <c r="B10" s="44" t="s">
+    <row r="10" spans="2:5" ht="60" x14ac:dyDescent="0.3">
+      <c r="B10" s="42" t="s">
         <v>142</v>
       </c>
-      <c r="C10" s="45"/>
+      <c r="C10" s="43"/>
       <c r="D10" s="35" t="s">
         <v>136</v>
       </c>
@@ -2340,9 +2358,9 @@
         <v>155</v>
       </c>
     </row>
-    <row r="11" spans="2:5" ht="142.19999999999999" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B11" s="46"/>
-      <c r="C11" s="47"/>
+    <row r="11" spans="2:5" ht="142.15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B11" s="44"/>
+      <c r="C11" s="45"/>
       <c r="D11" s="35" t="s">
         <v>137</v>
       </c>
@@ -2350,11 +2368,11 @@
         <v>150</v>
       </c>
     </row>
-    <row r="12" spans="2:5" ht="26.4" x14ac:dyDescent="0.4">
-      <c r="B12" s="44" t="s">
+    <row r="12" spans="2:5" ht="24" x14ac:dyDescent="0.3">
+      <c r="B12" s="42" t="s">
         <v>154</v>
       </c>
-      <c r="C12" s="45"/>
+      <c r="C12" s="43"/>
       <c r="D12" s="35" t="s">
         <v>136</v>
       </c>
@@ -2362,9 +2380,9 @@
         <v>156</v>
       </c>
     </row>
-    <row r="13" spans="2:5" ht="39.6" x14ac:dyDescent="0.4">
-      <c r="B13" s="46"/>
-      <c r="C13" s="47"/>
+    <row r="13" spans="2:5" ht="36" x14ac:dyDescent="0.3">
+      <c r="B13" s="44"/>
+      <c r="C13" s="45"/>
       <c r="D13" s="35" t="s">
         <v>137</v>
       </c>
@@ -2372,183 +2390,183 @@
         <v>157</v>
       </c>
     </row>
-    <row r="14" spans="2:5" x14ac:dyDescent="0.4">
-      <c r="B14" s="42"/>
-      <c r="C14" s="43"/>
+    <row r="14" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B14" s="46"/>
+      <c r="C14" s="47"/>
       <c r="D14" s="34"/>
       <c r="E14" s="37"/>
     </row>
-    <row r="15" spans="2:5" x14ac:dyDescent="0.4">
-      <c r="B15" s="42"/>
-      <c r="C15" s="43"/>
+    <row r="15" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B15" s="46"/>
+      <c r="C15" s="47"/>
       <c r="D15" s="34"/>
       <c r="E15" s="37"/>
     </row>
-    <row r="16" spans="2:5" x14ac:dyDescent="0.4">
-      <c r="B16" s="42"/>
-      <c r="C16" s="43"/>
+    <row r="16" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B16" s="46"/>
+      <c r="C16" s="47"/>
       <c r="D16" s="34"/>
       <c r="E16" s="37"/>
     </row>
-    <row r="17" spans="2:5" x14ac:dyDescent="0.4">
-      <c r="B17" s="42"/>
-      <c r="C17" s="43"/>
+    <row r="17" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B17" s="46"/>
+      <c r="C17" s="47"/>
       <c r="D17" s="34"/>
       <c r="E17" s="37"/>
     </row>
-    <row r="18" spans="2:5" x14ac:dyDescent="0.4">
-      <c r="B18" s="42"/>
-      <c r="C18" s="43"/>
+    <row r="18" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B18" s="46"/>
+      <c r="C18" s="47"/>
       <c r="D18" s="34"/>
       <c r="E18" s="37"/>
     </row>
-    <row r="19" spans="2:5" x14ac:dyDescent="0.4">
-      <c r="B19" s="42"/>
-      <c r="C19" s="43"/>
+    <row r="19" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B19" s="46"/>
+      <c r="C19" s="47"/>
       <c r="D19" s="34"/>
       <c r="E19" s="37"/>
     </row>
-    <row r="20" spans="2:5" x14ac:dyDescent="0.4">
-      <c r="B20" s="42"/>
-      <c r="C20" s="43"/>
+    <row r="20" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B20" s="46"/>
+      <c r="C20" s="47"/>
       <c r="D20" s="34"/>
       <c r="E20" s="37"/>
     </row>
-    <row r="21" spans="2:5" x14ac:dyDescent="0.4">
-      <c r="B21" s="42"/>
-      <c r="C21" s="43"/>
+    <row r="21" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B21" s="46"/>
+      <c r="C21" s="47"/>
       <c r="D21" s="34"/>
       <c r="E21" s="37"/>
     </row>
-    <row r="22" spans="2:5" x14ac:dyDescent="0.4">
-      <c r="B22" s="42"/>
-      <c r="C22" s="43"/>
+    <row r="22" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B22" s="46"/>
+      <c r="C22" s="47"/>
       <c r="D22" s="34"/>
       <c r="E22" s="37"/>
     </row>
-    <row r="23" spans="2:5" x14ac:dyDescent="0.4">
-      <c r="B23" s="42"/>
-      <c r="C23" s="43"/>
+    <row r="23" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B23" s="46"/>
+      <c r="C23" s="47"/>
       <c r="D23" s="34"/>
       <c r="E23" s="37"/>
     </row>
-    <row r="24" spans="2:5" x14ac:dyDescent="0.4">
-      <c r="B24" s="42"/>
-      <c r="C24" s="43"/>
+    <row r="24" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B24" s="46"/>
+      <c r="C24" s="47"/>
       <c r="D24" s="34"/>
       <c r="E24" s="37"/>
     </row>
-    <row r="25" spans="2:5" x14ac:dyDescent="0.4">
-      <c r="B25" s="42"/>
-      <c r="C25" s="43"/>
+    <row r="25" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B25" s="46"/>
+      <c r="C25" s="47"/>
       <c r="D25" s="34"/>
       <c r="E25" s="37"/>
     </row>
-    <row r="26" spans="2:5" x14ac:dyDescent="0.4">
-      <c r="B26" s="42"/>
-      <c r="C26" s="43"/>
+    <row r="26" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B26" s="46"/>
+      <c r="C26" s="47"/>
       <c r="D26" s="34"/>
       <c r="E26" s="37"/>
     </row>
-    <row r="27" spans="2:5" x14ac:dyDescent="0.4">
-      <c r="B27" s="42"/>
-      <c r="C27" s="43"/>
+    <row r="27" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B27" s="46"/>
+      <c r="C27" s="47"/>
       <c r="D27" s="34"/>
       <c r="E27" s="37"/>
     </row>
-    <row r="28" spans="2:5" x14ac:dyDescent="0.4">
-      <c r="B28" s="42"/>
-      <c r="C28" s="43"/>
+    <row r="28" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B28" s="46"/>
+      <c r="C28" s="47"/>
       <c r="D28" s="34"/>
       <c r="E28" s="37"/>
     </row>
-    <row r="29" spans="2:5" x14ac:dyDescent="0.4">
-      <c r="B29" s="42"/>
-      <c r="C29" s="43"/>
+    <row r="29" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B29" s="46"/>
+      <c r="C29" s="47"/>
       <c r="D29" s="34"/>
       <c r="E29" s="37"/>
     </row>
-    <row r="30" spans="2:5" x14ac:dyDescent="0.4">
-      <c r="B30" s="42"/>
-      <c r="C30" s="43"/>
+    <row r="30" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B30" s="46"/>
+      <c r="C30" s="47"/>
       <c r="D30" s="34"/>
       <c r="E30" s="37"/>
     </row>
-    <row r="31" spans="2:5" x14ac:dyDescent="0.4">
-      <c r="B31" s="42"/>
-      <c r="C31" s="43"/>
+    <row r="31" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B31" s="46"/>
+      <c r="C31" s="47"/>
       <c r="D31" s="34"/>
       <c r="E31" s="37"/>
     </row>
-    <row r="32" spans="2:5" x14ac:dyDescent="0.4">
-      <c r="B32" s="42"/>
-      <c r="C32" s="43"/>
+    <row r="32" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B32" s="46"/>
+      <c r="C32" s="47"/>
       <c r="D32" s="34"/>
       <c r="E32" s="37"/>
     </row>
-    <row r="33" spans="2:5" x14ac:dyDescent="0.4">
-      <c r="B33" s="42"/>
-      <c r="C33" s="43"/>
+    <row r="33" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B33" s="46"/>
+      <c r="C33" s="47"/>
       <c r="D33" s="34"/>
       <c r="E33" s="37"/>
     </row>
-    <row r="34" spans="2:5" x14ac:dyDescent="0.4">
-      <c r="B34" s="42"/>
-      <c r="C34" s="43"/>
+    <row r="34" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B34" s="46"/>
+      <c r="C34" s="47"/>
       <c r="D34" s="34"/>
       <c r="E34" s="37"/>
     </row>
-    <row r="35" spans="2:5" x14ac:dyDescent="0.4">
-      <c r="B35" s="42"/>
-      <c r="C35" s="43"/>
+    <row r="35" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B35" s="46"/>
+      <c r="C35" s="47"/>
       <c r="D35" s="34"/>
       <c r="E35" s="37"/>
     </row>
-    <row r="36" spans="2:5" x14ac:dyDescent="0.4">
-      <c r="B36" s="42"/>
-      <c r="C36" s="43"/>
+    <row r="36" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B36" s="46"/>
+      <c r="C36" s="47"/>
       <c r="D36" s="34"/>
       <c r="E36" s="37"/>
     </row>
-    <row r="37" spans="2:5" x14ac:dyDescent="0.4">
-      <c r="B37" s="42"/>
-      <c r="C37" s="43"/>
+    <row r="37" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B37" s="46"/>
+      <c r="C37" s="47"/>
       <c r="D37" s="34"/>
       <c r="E37" s="37"/>
     </row>
-    <row r="38" spans="2:5" x14ac:dyDescent="0.4">
-      <c r="B38" s="42"/>
-      <c r="C38" s="43"/>
+    <row r="38" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B38" s="46"/>
+      <c r="C38" s="47"/>
       <c r="D38" s="34"/>
       <c r="E38" s="37"/>
     </row>
-    <row r="39" spans="2:5" x14ac:dyDescent="0.4">
-      <c r="B39" s="42"/>
-      <c r="C39" s="43"/>
+    <row r="39" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B39" s="46"/>
+      <c r="C39" s="47"/>
       <c r="D39" s="34"/>
       <c r="E39" s="37"/>
     </row>
-    <row r="40" spans="2:5" x14ac:dyDescent="0.4">
-      <c r="B40" s="42"/>
-      <c r="C40" s="43"/>
+    <row r="40" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B40" s="46"/>
+      <c r="C40" s="47"/>
       <c r="D40" s="34"/>
       <c r="E40" s="37"/>
     </row>
-    <row r="41" spans="2:5" x14ac:dyDescent="0.4">
-      <c r="B41" s="42"/>
-      <c r="C41" s="43"/>
+    <row r="41" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B41" s="46"/>
+      <c r="C41" s="47"/>
       <c r="D41" s="34"/>
       <c r="E41" s="37"/>
     </row>
-    <row r="42" spans="2:5" x14ac:dyDescent="0.4">
-      <c r="B42" s="42"/>
-      <c r="C42" s="43"/>
+    <row r="42" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B42" s="46"/>
+      <c r="C42" s="47"/>
       <c r="D42" s="34"/>
       <c r="E42" s="37"/>
     </row>
-    <row r="43" spans="2:5" x14ac:dyDescent="0.4">
-      <c r="B43" s="42"/>
-      <c r="C43" s="43"/>
+    <row r="43" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B43" s="46"/>
+      <c r="C43" s="47"/>
       <c r="D43" s="34"/>
       <c r="E43" s="37"/>
     </row>
@@ -2558,6 +2576,28 @@
     <filterColumn colId="2" showButton="0"/>
   </autoFilter>
   <mergeCells count="38">
+    <mergeCell ref="B1:C1"/>
+    <mergeCell ref="B20:C20"/>
+    <mergeCell ref="B21:C21"/>
+    <mergeCell ref="B14:C14"/>
+    <mergeCell ref="B15:C15"/>
+    <mergeCell ref="B12:C13"/>
+    <mergeCell ref="B43:C43"/>
+    <mergeCell ref="B2:C3"/>
+    <mergeCell ref="B4:C5"/>
+    <mergeCell ref="B6:C7"/>
+    <mergeCell ref="B8:C9"/>
+    <mergeCell ref="B34:C34"/>
+    <mergeCell ref="B35:C35"/>
+    <mergeCell ref="B36:C36"/>
+    <mergeCell ref="B37:C37"/>
+    <mergeCell ref="B38:C38"/>
+    <mergeCell ref="B39:C39"/>
+    <mergeCell ref="B28:C28"/>
+    <mergeCell ref="B29:C29"/>
+    <mergeCell ref="B30:C30"/>
+    <mergeCell ref="B31:C31"/>
+    <mergeCell ref="B32:C32"/>
     <mergeCell ref="D1:E1"/>
     <mergeCell ref="B10:C11"/>
     <mergeCell ref="B40:C40"/>
@@ -2574,28 +2614,6 @@
     <mergeCell ref="B17:C17"/>
     <mergeCell ref="B18:C18"/>
     <mergeCell ref="B19:C19"/>
-    <mergeCell ref="B43:C43"/>
-    <mergeCell ref="B2:C3"/>
-    <mergeCell ref="B4:C5"/>
-    <mergeCell ref="B6:C7"/>
-    <mergeCell ref="B8:C9"/>
-    <mergeCell ref="B34:C34"/>
-    <mergeCell ref="B35:C35"/>
-    <mergeCell ref="B36:C36"/>
-    <mergeCell ref="B37:C37"/>
-    <mergeCell ref="B38:C38"/>
-    <mergeCell ref="B39:C39"/>
-    <mergeCell ref="B28:C28"/>
-    <mergeCell ref="B29:C29"/>
-    <mergeCell ref="B30:C30"/>
-    <mergeCell ref="B31:C31"/>
-    <mergeCell ref="B32:C32"/>
-    <mergeCell ref="B1:C1"/>
-    <mergeCell ref="B20:C20"/>
-    <mergeCell ref="B21:C21"/>
-    <mergeCell ref="B14:C14"/>
-    <mergeCell ref="B15:C15"/>
-    <mergeCell ref="B12:C13"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2608,24 +2626,24 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:E101"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="1" ySplit="2" topLeftCell="C6" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
       <selection pane="bottomRight" activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.2" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="12" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="2.59765625" style="18" customWidth="1"/>
-    <col min="2" max="2" width="8.3984375" style="19" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="2.625" style="18" customWidth="1"/>
+    <col min="2" max="2" width="8.375" style="19" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="26" style="19" customWidth="1"/>
-    <col min="4" max="4" width="112.09765625" style="25" customWidth="1"/>
-    <col min="5" max="5" width="81.69921875" style="25" customWidth="1"/>
+    <col min="4" max="4" width="112.125" style="25" customWidth="1"/>
+    <col min="5" max="5" width="81.75" style="25" customWidth="1"/>
     <col min="6" max="16384" width="9" style="18"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:5" s="16" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="2" spans="2:5" s="16" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B2" s="15" t="s">
         <v>10</v>
       </c>
@@ -2639,7 +2657,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="2:5" ht="92.4" x14ac:dyDescent="0.4">
+    <row r="3" spans="2:5" ht="84" x14ac:dyDescent="0.3">
       <c r="B3" s="17" t="s">
         <v>98</v>
       </c>
@@ -2651,7 +2669,7 @@
       </c>
       <c r="E3" s="24"/>
     </row>
-    <row r="4" spans="2:5" ht="79.2" x14ac:dyDescent="0.4">
+    <row r="4" spans="2:5" ht="72" x14ac:dyDescent="0.3">
       <c r="B4" s="17" t="s">
         <v>98</v>
       </c>
@@ -2663,7 +2681,7 @@
       </c>
       <c r="E4" s="24"/>
     </row>
-    <row r="5" spans="2:5" ht="409.6" x14ac:dyDescent="0.4">
+    <row r="5" spans="2:5" ht="384" x14ac:dyDescent="0.3">
       <c r="B5" s="17" t="s">
         <v>98</v>
       </c>
@@ -2675,7 +2693,7 @@
       </c>
       <c r="E5" s="26"/>
     </row>
-    <row r="6" spans="2:5" ht="114" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="6" spans="2:5" ht="114" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B6" s="17"/>
       <c r="C6" s="17" t="s">
         <v>159</v>
@@ -2685,7 +2703,7 @@
       </c>
       <c r="E6" s="26"/>
     </row>
-    <row r="7" spans="2:5" ht="86.25" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="7" spans="2:5" ht="86.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B7" s="17"/>
       <c r="C7" s="17" t="s">
         <v>158</v>
@@ -2695,565 +2713,565 @@
       </c>
       <c r="E7" s="26"/>
     </row>
-    <row r="8" spans="2:5" x14ac:dyDescent="0.4">
+    <row r="8" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B8" s="17"/>
       <c r="C8" s="17"/>
       <c r="D8" s="24"/>
       <c r="E8" s="24"/>
     </row>
-    <row r="9" spans="2:5" x14ac:dyDescent="0.4">
+    <row r="9" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B9" s="17"/>
       <c r="C9" s="17"/>
       <c r="D9" s="24"/>
       <c r="E9" s="24"/>
     </row>
-    <row r="10" spans="2:5" x14ac:dyDescent="0.4">
+    <row r="10" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B10" s="17"/>
       <c r="C10" s="17"/>
       <c r="D10" s="24"/>
       <c r="E10" s="24"/>
     </row>
-    <row r="11" spans="2:5" x14ac:dyDescent="0.4">
+    <row r="11" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B11" s="17"/>
       <c r="C11" s="17"/>
       <c r="D11" s="24"/>
       <c r="E11" s="24"/>
     </row>
-    <row r="12" spans="2:5" x14ac:dyDescent="0.4">
+    <row r="12" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B12" s="17"/>
       <c r="C12" s="17"/>
       <c r="D12" s="24"/>
       <c r="E12" s="24"/>
     </row>
-    <row r="13" spans="2:5" x14ac:dyDescent="0.4">
+    <row r="13" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B13" s="17"/>
       <c r="C13" s="17"/>
       <c r="D13" s="24"/>
       <c r="E13" s="24"/>
     </row>
-    <row r="14" spans="2:5" x14ac:dyDescent="0.4">
+    <row r="14" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B14" s="17"/>
       <c r="C14" s="17"/>
       <c r="D14" s="24"/>
       <c r="E14" s="24"/>
     </row>
-    <row r="15" spans="2:5" x14ac:dyDescent="0.4">
+    <row r="15" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B15" s="17"/>
       <c r="C15" s="17"/>
       <c r="D15" s="24"/>
       <c r="E15" s="24"/>
     </row>
-    <row r="16" spans="2:5" x14ac:dyDescent="0.4">
+    <row r="16" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B16" s="17"/>
       <c r="C16" s="17"/>
       <c r="D16" s="24"/>
       <c r="E16" s="24"/>
     </row>
-    <row r="17" spans="2:5" x14ac:dyDescent="0.4">
+    <row r="17" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B17" s="17"/>
       <c r="C17" s="17"/>
       <c r="D17" s="24"/>
       <c r="E17" s="24"/>
     </row>
-    <row r="18" spans="2:5" x14ac:dyDescent="0.4">
+    <row r="18" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B18" s="17"/>
       <c r="C18" s="17"/>
       <c r="D18" s="24"/>
       <c r="E18" s="24"/>
     </row>
-    <row r="19" spans="2:5" x14ac:dyDescent="0.4">
+    <row r="19" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B19" s="17"/>
       <c r="C19" s="17"/>
       <c r="D19" s="24"/>
       <c r="E19" s="24"/>
     </row>
-    <row r="20" spans="2:5" x14ac:dyDescent="0.4">
+    <row r="20" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B20" s="17"/>
       <c r="C20" s="17"/>
       <c r="D20" s="24"/>
       <c r="E20" s="24"/>
     </row>
-    <row r="21" spans="2:5" x14ac:dyDescent="0.4">
+    <row r="21" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B21" s="17"/>
       <c r="C21" s="17"/>
       <c r="D21" s="24"/>
       <c r="E21" s="24"/>
     </row>
-    <row r="22" spans="2:5" x14ac:dyDescent="0.4">
+    <row r="22" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B22" s="17"/>
       <c r="C22" s="17"/>
       <c r="D22" s="24"/>
       <c r="E22" s="24"/>
     </row>
-    <row r="23" spans="2:5" x14ac:dyDescent="0.4">
+    <row r="23" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B23" s="17"/>
       <c r="C23" s="17"/>
       <c r="D23" s="24"/>
       <c r="E23" s="24"/>
     </row>
-    <row r="24" spans="2:5" x14ac:dyDescent="0.4">
+    <row r="24" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B24" s="17"/>
       <c r="C24" s="17"/>
       <c r="D24" s="24"/>
       <c r="E24" s="24"/>
     </row>
-    <row r="25" spans="2:5" x14ac:dyDescent="0.4">
+    <row r="25" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B25" s="17"/>
       <c r="C25" s="17"/>
       <c r="D25" s="24"/>
       <c r="E25" s="24"/>
     </row>
-    <row r="26" spans="2:5" x14ac:dyDescent="0.4">
+    <row r="26" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B26" s="17"/>
       <c r="C26" s="17"/>
       <c r="D26" s="24"/>
       <c r="E26" s="24"/>
     </row>
-    <row r="27" spans="2:5" x14ac:dyDescent="0.4">
+    <row r="27" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B27" s="17"/>
       <c r="C27" s="17"/>
       <c r="D27" s="24"/>
       <c r="E27" s="24"/>
     </row>
-    <row r="28" spans="2:5" x14ac:dyDescent="0.4">
+    <row r="28" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B28" s="17"/>
       <c r="C28" s="17"/>
       <c r="D28" s="24"/>
       <c r="E28" s="24"/>
     </row>
-    <row r="29" spans="2:5" x14ac:dyDescent="0.4">
+    <row r="29" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B29" s="17"/>
       <c r="C29" s="17"/>
       <c r="D29" s="24"/>
       <c r="E29" s="24"/>
     </row>
-    <row r="30" spans="2:5" x14ac:dyDescent="0.4">
+    <row r="30" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B30" s="17"/>
       <c r="C30" s="17"/>
       <c r="D30" s="24"/>
       <c r="E30" s="24"/>
     </row>
-    <row r="31" spans="2:5" x14ac:dyDescent="0.4">
+    <row r="31" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B31" s="17"/>
       <c r="C31" s="17"/>
       <c r="D31" s="24"/>
       <c r="E31" s="24"/>
     </row>
-    <row r="32" spans="2:5" x14ac:dyDescent="0.4">
+    <row r="32" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B32" s="17"/>
       <c r="C32" s="17"/>
       <c r="D32" s="24"/>
       <c r="E32" s="24"/>
     </row>
-    <row r="33" spans="2:5" x14ac:dyDescent="0.4">
+    <row r="33" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B33" s="17"/>
       <c r="C33" s="17"/>
       <c r="D33" s="24"/>
       <c r="E33" s="24"/>
     </row>
-    <row r="34" spans="2:5" x14ac:dyDescent="0.4">
+    <row r="34" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B34" s="17"/>
       <c r="C34" s="17"/>
       <c r="D34" s="24"/>
       <c r="E34" s="24"/>
     </row>
-    <row r="35" spans="2:5" x14ac:dyDescent="0.4">
+    <row r="35" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B35" s="17"/>
       <c r="C35" s="17"/>
       <c r="D35" s="24"/>
       <c r="E35" s="24"/>
     </row>
-    <row r="36" spans="2:5" x14ac:dyDescent="0.4">
+    <row r="36" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B36" s="17"/>
       <c r="C36" s="17"/>
       <c r="D36" s="24"/>
       <c r="E36" s="24"/>
     </row>
-    <row r="37" spans="2:5" x14ac:dyDescent="0.4">
+    <row r="37" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B37" s="17"/>
       <c r="C37" s="17"/>
       <c r="D37" s="24"/>
       <c r="E37" s="24"/>
     </row>
-    <row r="38" spans="2:5" x14ac:dyDescent="0.4">
+    <row r="38" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B38" s="17"/>
       <c r="C38" s="17"/>
       <c r="D38" s="24"/>
       <c r="E38" s="24"/>
     </row>
-    <row r="39" spans="2:5" x14ac:dyDescent="0.4">
+    <row r="39" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B39" s="17"/>
       <c r="C39" s="17"/>
       <c r="D39" s="24"/>
       <c r="E39" s="24"/>
     </row>
-    <row r="40" spans="2:5" x14ac:dyDescent="0.4">
+    <row r="40" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B40" s="17"/>
       <c r="C40" s="17"/>
       <c r="D40" s="24"/>
       <c r="E40" s="24"/>
     </row>
-    <row r="41" spans="2:5" x14ac:dyDescent="0.4">
+    <row r="41" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B41" s="17"/>
       <c r="C41" s="17"/>
       <c r="D41" s="24"/>
       <c r="E41" s="24"/>
     </row>
-    <row r="42" spans="2:5" x14ac:dyDescent="0.4">
+    <row r="42" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B42" s="17"/>
       <c r="C42" s="17"/>
       <c r="D42" s="24"/>
       <c r="E42" s="24"/>
     </row>
-    <row r="43" spans="2:5" x14ac:dyDescent="0.4">
+    <row r="43" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B43" s="17"/>
       <c r="C43" s="17"/>
       <c r="D43" s="24"/>
       <c r="E43" s="24"/>
     </row>
-    <row r="44" spans="2:5" x14ac:dyDescent="0.4">
+    <row r="44" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B44" s="17"/>
       <c r="C44" s="17"/>
       <c r="D44" s="24"/>
       <c r="E44" s="24"/>
     </row>
-    <row r="45" spans="2:5" x14ac:dyDescent="0.4">
+    <row r="45" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B45" s="17"/>
       <c r="C45" s="17"/>
       <c r="D45" s="24"/>
       <c r="E45" s="24"/>
     </row>
-    <row r="46" spans="2:5" x14ac:dyDescent="0.4">
+    <row r="46" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B46" s="17"/>
       <c r="C46" s="17"/>
       <c r="D46" s="24"/>
       <c r="E46" s="24"/>
     </row>
-    <row r="47" spans="2:5" x14ac:dyDescent="0.4">
+    <row r="47" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B47" s="17"/>
       <c r="C47" s="17"/>
       <c r="D47" s="24"/>
       <c r="E47" s="24"/>
     </row>
-    <row r="48" spans="2:5" x14ac:dyDescent="0.4">
+    <row r="48" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B48" s="17"/>
       <c r="C48" s="17"/>
       <c r="D48" s="24"/>
       <c r="E48" s="24"/>
     </row>
-    <row r="49" spans="2:5" x14ac:dyDescent="0.4">
+    <row r="49" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B49" s="17"/>
       <c r="C49" s="17"/>
       <c r="D49" s="24"/>
       <c r="E49" s="24"/>
     </row>
-    <row r="50" spans="2:5" x14ac:dyDescent="0.4">
+    <row r="50" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B50" s="17"/>
       <c r="C50" s="17"/>
       <c r="D50" s="24"/>
       <c r="E50" s="24"/>
     </row>
-    <row r="51" spans="2:5" x14ac:dyDescent="0.4">
+    <row r="51" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B51" s="17"/>
       <c r="C51" s="17"/>
       <c r="D51" s="24"/>
       <c r="E51" s="24"/>
     </row>
-    <row r="52" spans="2:5" x14ac:dyDescent="0.4">
+    <row r="52" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B52" s="17"/>
       <c r="C52" s="17"/>
       <c r="D52" s="24"/>
       <c r="E52" s="24"/>
     </row>
-    <row r="53" spans="2:5" x14ac:dyDescent="0.4">
+    <row r="53" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B53" s="17"/>
       <c r="C53" s="17"/>
       <c r="D53" s="24"/>
       <c r="E53" s="24"/>
     </row>
-    <row r="54" spans="2:5" x14ac:dyDescent="0.4">
+    <row r="54" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B54" s="17"/>
       <c r="C54" s="17"/>
       <c r="D54" s="24"/>
       <c r="E54" s="24"/>
     </row>
-    <row r="55" spans="2:5" x14ac:dyDescent="0.4">
+    <row r="55" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B55" s="17"/>
       <c r="C55" s="17"/>
       <c r="D55" s="24"/>
       <c r="E55" s="24"/>
     </row>
-    <row r="56" spans="2:5" x14ac:dyDescent="0.4">
+    <row r="56" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B56" s="17"/>
       <c r="C56" s="17"/>
       <c r="D56" s="24"/>
       <c r="E56" s="24"/>
     </row>
-    <row r="57" spans="2:5" x14ac:dyDescent="0.4">
+    <row r="57" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B57" s="17"/>
       <c r="C57" s="17"/>
       <c r="D57" s="24"/>
       <c r="E57" s="24"/>
     </row>
-    <row r="58" spans="2:5" x14ac:dyDescent="0.4">
+    <row r="58" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B58" s="17"/>
       <c r="C58" s="17"/>
       <c r="D58" s="24"/>
       <c r="E58" s="24"/>
     </row>
-    <row r="59" spans="2:5" x14ac:dyDescent="0.4">
+    <row r="59" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B59" s="17"/>
       <c r="C59" s="17"/>
       <c r="D59" s="24"/>
       <c r="E59" s="24"/>
     </row>
-    <row r="60" spans="2:5" x14ac:dyDescent="0.4">
+    <row r="60" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B60" s="17"/>
       <c r="C60" s="17"/>
       <c r="D60" s="24"/>
       <c r="E60" s="24"/>
     </row>
-    <row r="61" spans="2:5" x14ac:dyDescent="0.4">
+    <row r="61" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B61" s="17"/>
       <c r="C61" s="17"/>
       <c r="D61" s="24"/>
       <c r="E61" s="24"/>
     </row>
-    <row r="62" spans="2:5" x14ac:dyDescent="0.4">
+    <row r="62" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B62" s="17"/>
       <c r="C62" s="17"/>
       <c r="D62" s="24"/>
       <c r="E62" s="24"/>
     </row>
-    <row r="63" spans="2:5" x14ac:dyDescent="0.4">
+    <row r="63" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B63" s="17"/>
       <c r="C63" s="17"/>
       <c r="D63" s="24"/>
       <c r="E63" s="24"/>
     </row>
-    <row r="64" spans="2:5" x14ac:dyDescent="0.4">
+    <row r="64" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B64" s="17"/>
       <c r="C64" s="17"/>
       <c r="D64" s="24"/>
       <c r="E64" s="24"/>
     </row>
-    <row r="65" spans="2:5" x14ac:dyDescent="0.4">
+    <row r="65" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B65" s="17"/>
       <c r="C65" s="17"/>
       <c r="D65" s="24"/>
       <c r="E65" s="24"/>
     </row>
-    <row r="66" spans="2:5" x14ac:dyDescent="0.4">
+    <row r="66" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B66" s="17"/>
       <c r="C66" s="17"/>
       <c r="D66" s="24"/>
       <c r="E66" s="24"/>
     </row>
-    <row r="67" spans="2:5" x14ac:dyDescent="0.4">
+    <row r="67" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B67" s="17"/>
       <c r="C67" s="17"/>
       <c r="D67" s="24"/>
       <c r="E67" s="24"/>
     </row>
-    <row r="68" spans="2:5" x14ac:dyDescent="0.4">
+    <row r="68" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B68" s="17"/>
       <c r="C68" s="17"/>
       <c r="D68" s="24"/>
       <c r="E68" s="24"/>
     </row>
-    <row r="69" spans="2:5" x14ac:dyDescent="0.4">
+    <row r="69" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B69" s="17"/>
       <c r="C69" s="17"/>
       <c r="D69" s="24"/>
       <c r="E69" s="24"/>
     </row>
-    <row r="70" spans="2:5" x14ac:dyDescent="0.4">
+    <row r="70" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B70" s="17"/>
       <c r="C70" s="17"/>
       <c r="D70" s="24"/>
       <c r="E70" s="24"/>
     </row>
-    <row r="71" spans="2:5" x14ac:dyDescent="0.4">
+    <row r="71" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B71" s="17"/>
       <c r="C71" s="17"/>
       <c r="D71" s="24"/>
       <c r="E71" s="24"/>
     </row>
-    <row r="72" spans="2:5" x14ac:dyDescent="0.4">
+    <row r="72" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B72" s="17"/>
       <c r="C72" s="17"/>
       <c r="D72" s="24"/>
       <c r="E72" s="24"/>
     </row>
-    <row r="73" spans="2:5" x14ac:dyDescent="0.4">
+    <row r="73" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B73" s="17"/>
       <c r="C73" s="17"/>
       <c r="D73" s="24"/>
       <c r="E73" s="24"/>
     </row>
-    <row r="74" spans="2:5" x14ac:dyDescent="0.4">
+    <row r="74" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B74" s="17"/>
       <c r="C74" s="17"/>
       <c r="D74" s="24"/>
       <c r="E74" s="24"/>
     </row>
-    <row r="75" spans="2:5" x14ac:dyDescent="0.4">
+    <row r="75" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B75" s="17"/>
       <c r="C75" s="17"/>
       <c r="D75" s="24"/>
       <c r="E75" s="24"/>
     </row>
-    <row r="76" spans="2:5" x14ac:dyDescent="0.4">
+    <row r="76" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B76" s="17"/>
       <c r="C76" s="17"/>
       <c r="D76" s="24"/>
       <c r="E76" s="24"/>
     </row>
-    <row r="77" spans="2:5" x14ac:dyDescent="0.4">
+    <row r="77" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B77" s="17"/>
       <c r="C77" s="17"/>
       <c r="D77" s="24"/>
       <c r="E77" s="24"/>
     </row>
-    <row r="78" spans="2:5" x14ac:dyDescent="0.4">
+    <row r="78" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B78" s="17"/>
       <c r="C78" s="17"/>
       <c r="D78" s="24"/>
       <c r="E78" s="24"/>
     </row>
-    <row r="79" spans="2:5" x14ac:dyDescent="0.4">
+    <row r="79" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B79" s="17"/>
       <c r="C79" s="17"/>
       <c r="D79" s="24"/>
       <c r="E79" s="24"/>
     </row>
-    <row r="80" spans="2:5" x14ac:dyDescent="0.4">
+    <row r="80" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B80" s="17"/>
       <c r="C80" s="17"/>
       <c r="D80" s="24"/>
       <c r="E80" s="24"/>
     </row>
-    <row r="81" spans="2:5" x14ac:dyDescent="0.4">
+    <row r="81" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B81" s="17"/>
       <c r="C81" s="17"/>
       <c r="D81" s="24"/>
       <c r="E81" s="24"/>
     </row>
-    <row r="82" spans="2:5" x14ac:dyDescent="0.4">
+    <row r="82" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B82" s="17"/>
       <c r="C82" s="17"/>
       <c r="D82" s="24"/>
       <c r="E82" s="24"/>
     </row>
-    <row r="83" spans="2:5" x14ac:dyDescent="0.4">
+    <row r="83" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B83" s="17"/>
       <c r="C83" s="17"/>
       <c r="D83" s="24"/>
       <c r="E83" s="24"/>
     </row>
-    <row r="84" spans="2:5" x14ac:dyDescent="0.4">
+    <row r="84" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B84" s="17"/>
       <c r="C84" s="17"/>
       <c r="D84" s="24"/>
       <c r="E84" s="24"/>
     </row>
-    <row r="85" spans="2:5" x14ac:dyDescent="0.4">
+    <row r="85" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B85" s="17"/>
       <c r="C85" s="17"/>
       <c r="D85" s="24"/>
       <c r="E85" s="24"/>
     </row>
-    <row r="86" spans="2:5" x14ac:dyDescent="0.4">
+    <row r="86" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B86" s="17"/>
       <c r="C86" s="17"/>
       <c r="D86" s="24"/>
       <c r="E86" s="24"/>
     </row>
-    <row r="87" spans="2:5" x14ac:dyDescent="0.4">
+    <row r="87" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B87" s="17"/>
       <c r="C87" s="17"/>
       <c r="D87" s="24"/>
       <c r="E87" s="24"/>
     </row>
-    <row r="88" spans="2:5" x14ac:dyDescent="0.4">
+    <row r="88" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B88" s="17"/>
       <c r="C88" s="17"/>
       <c r="D88" s="24"/>
       <c r="E88" s="24"/>
     </row>
-    <row r="89" spans="2:5" x14ac:dyDescent="0.4">
+    <row r="89" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B89" s="17"/>
       <c r="C89" s="17"/>
       <c r="D89" s="24"/>
       <c r="E89" s="24"/>
     </row>
-    <row r="90" spans="2:5" x14ac:dyDescent="0.4">
+    <row r="90" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B90" s="17"/>
       <c r="C90" s="17"/>
       <c r="D90" s="24"/>
       <c r="E90" s="24"/>
     </row>
-    <row r="91" spans="2:5" x14ac:dyDescent="0.4">
+    <row r="91" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B91" s="17"/>
       <c r="C91" s="17"/>
       <c r="D91" s="24"/>
       <c r="E91" s="24"/>
     </row>
-    <row r="92" spans="2:5" x14ac:dyDescent="0.4">
+    <row r="92" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B92" s="17"/>
       <c r="C92" s="17"/>
       <c r="D92" s="24"/>
       <c r="E92" s="24"/>
     </row>
-    <row r="93" spans="2:5" x14ac:dyDescent="0.4">
+    <row r="93" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B93" s="17"/>
       <c r="C93" s="17"/>
       <c r="D93" s="24"/>
       <c r="E93" s="24"/>
     </row>
-    <row r="94" spans="2:5" x14ac:dyDescent="0.4">
+    <row r="94" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B94" s="17"/>
       <c r="C94" s="17"/>
       <c r="D94" s="24"/>
       <c r="E94" s="24"/>
     </row>
-    <row r="95" spans="2:5" x14ac:dyDescent="0.4">
+    <row r="95" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B95" s="17"/>
       <c r="C95" s="17"/>
       <c r="D95" s="24"/>
       <c r="E95" s="24"/>
     </row>
-    <row r="96" spans="2:5" x14ac:dyDescent="0.4">
+    <row r="96" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B96" s="17"/>
       <c r="C96" s="17"/>
       <c r="D96" s="24"/>
       <c r="E96" s="24"/>
     </row>
-    <row r="97" spans="2:5" x14ac:dyDescent="0.4">
+    <row r="97" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B97" s="17"/>
       <c r="C97" s="17"/>
       <c r="D97" s="24"/>
       <c r="E97" s="24"/>
     </row>
-    <row r="98" spans="2:5" x14ac:dyDescent="0.4">
+    <row r="98" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B98" s="17"/>
       <c r="C98" s="17"/>
       <c r="D98" s="24"/>
       <c r="E98" s="24"/>
     </row>
-    <row r="99" spans="2:5" x14ac:dyDescent="0.4">
+    <row r="99" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B99" s="17"/>
       <c r="C99" s="17"/>
       <c r="D99" s="24"/>
       <c r="E99" s="24"/>
     </row>
-    <row r="100" spans="2:5" x14ac:dyDescent="0.4">
+    <row r="100" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B100" s="17"/>
       <c r="C100" s="17"/>
       <c r="D100" s="24"/>
       <c r="E100" s="24"/>
     </row>
-    <row r="101" spans="2:5" x14ac:dyDescent="0.4">
+    <row r="101" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B101" s="17"/>
       <c r="C101" s="17"/>
       <c r="D101" s="24"/>
@@ -3278,22 +3296,22 @@
       <selection pane="bottomRight" activeCell="I36" sqref="I36"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.2" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="12" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="4.5" style="1" customWidth="1"/>
-    <col min="2" max="2" width="24.69921875" style="8" customWidth="1"/>
-    <col min="3" max="3" width="11.59765625" style="8" customWidth="1"/>
+    <col min="2" max="2" width="24.75" style="8" customWidth="1"/>
+    <col min="3" max="3" width="11.625" style="8" customWidth="1"/>
     <col min="4" max="4" width="13.5" style="2" customWidth="1"/>
-    <col min="5" max="5" width="10.69921875" style="8" customWidth="1"/>
+    <col min="5" max="5" width="10.75" style="8" customWidth="1"/>
     <col min="6" max="6" width="11" style="9" customWidth="1"/>
-    <col min="7" max="7" width="11.3984375" style="8" customWidth="1"/>
+    <col min="7" max="7" width="11.375" style="8" customWidth="1"/>
     <col min="8" max="8" width="10" style="9" customWidth="1"/>
-    <col min="9" max="9" width="10.09765625" style="10" customWidth="1"/>
-    <col min="10" max="10" width="60.09765625" style="2" customWidth="1"/>
+    <col min="9" max="9" width="10.125" style="10" customWidth="1"/>
+    <col min="10" max="10" width="60.125" style="2" customWidth="1"/>
     <col min="11" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:10" s="7" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="2" spans="2:10" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B2" s="3" t="s">
         <v>14</v>
       </c>
@@ -3322,7 +3340,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="2:10" x14ac:dyDescent="0.4">
+    <row r="3" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B3" s="4" t="s">
         <v>28</v>
       </c>
@@ -3350,7 +3368,7 @@
       </c>
       <c r="J3" s="5"/>
     </row>
-    <row r="4" spans="2:10" x14ac:dyDescent="0.4">
+    <row r="4" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B4" s="4" t="s">
         <v>28</v>
       </c>
@@ -3378,7 +3396,7 @@
       </c>
       <c r="J4" s="5"/>
     </row>
-    <row r="5" spans="2:10" x14ac:dyDescent="0.4">
+    <row r="5" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B5" s="4" t="s">
         <v>28</v>
       </c>
@@ -3408,7 +3426,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="6" spans="2:10" x14ac:dyDescent="0.4">
+    <row r="6" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B6" s="4" t="s">
         <v>28</v>
       </c>
@@ -3438,7 +3456,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="7" spans="2:10" x14ac:dyDescent="0.4">
+    <row r="7" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B7" s="4" t="s">
         <v>29</v>
       </c>
@@ -3468,7 +3486,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="8" spans="2:10" x14ac:dyDescent="0.4">
+    <row r="8" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B8" s="4" t="s">
         <v>29</v>
       </c>
@@ -3496,7 +3514,7 @@
       </c>
       <c r="J8" s="5"/>
     </row>
-    <row r="9" spans="2:10" x14ac:dyDescent="0.4">
+    <row r="9" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B9" s="4" t="s">
         <v>29</v>
       </c>
@@ -3526,7 +3544,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="10" spans="2:10" x14ac:dyDescent="0.4">
+    <row r="10" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B10" s="4" t="s">
         <v>29</v>
       </c>
@@ -3554,7 +3572,7 @@
       </c>
       <c r="J10" s="5"/>
     </row>
-    <row r="11" spans="2:10" x14ac:dyDescent="0.4">
+    <row r="11" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B11" s="4" t="s">
         <v>29</v>
       </c>
@@ -3582,7 +3600,7 @@
       </c>
       <c r="J11" s="5"/>
     </row>
-    <row r="12" spans="2:10" x14ac:dyDescent="0.4">
+    <row r="12" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B12" s="4" t="s">
         <v>29</v>
       </c>
@@ -3610,7 +3628,7 @@
       </c>
       <c r="J12" s="5"/>
     </row>
-    <row r="13" spans="2:10" x14ac:dyDescent="0.4">
+    <row r="13" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B13" s="4" t="s">
         <v>29</v>
       </c>
@@ -3638,7 +3656,7 @@
       </c>
       <c r="J13" s="5"/>
     </row>
-    <row r="14" spans="2:10" x14ac:dyDescent="0.4">
+    <row r="14" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B14" s="4" t="s">
         <v>29</v>
       </c>
@@ -3666,7 +3684,7 @@
       </c>
       <c r="J14" s="5"/>
     </row>
-    <row r="15" spans="2:10" x14ac:dyDescent="0.4">
+    <row r="15" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B15" s="4" t="s">
         <v>29</v>
       </c>
@@ -3694,7 +3712,7 @@
       </c>
       <c r="J15" s="5"/>
     </row>
-    <row r="16" spans="2:10" x14ac:dyDescent="0.4">
+    <row r="16" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B16" s="4" t="s">
         <v>54</v>
       </c>
@@ -3724,7 +3742,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="17" spans="2:10" x14ac:dyDescent="0.4">
+    <row r="17" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B17" s="4" t="s">
         <v>54</v>
       </c>
@@ -3752,7 +3770,7 @@
       </c>
       <c r="J17" s="5"/>
     </row>
-    <row r="18" spans="2:10" x14ac:dyDescent="0.4">
+    <row r="18" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B18" s="4" t="s">
         <v>29</v>
       </c>
@@ -3780,7 +3798,7 @@
       </c>
       <c r="J18" s="5"/>
     </row>
-    <row r="19" spans="2:10" x14ac:dyDescent="0.4">
+    <row r="19" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B19" s="4" t="s">
         <v>80</v>
       </c>
@@ -3808,7 +3826,7 @@
       </c>
       <c r="J19" s="5"/>
     </row>
-    <row r="20" spans="2:10" x14ac:dyDescent="0.4">
+    <row r="20" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B20" s="4" t="s">
         <v>84</v>
       </c>
@@ -3836,7 +3854,7 @@
       </c>
       <c r="J20" s="5"/>
     </row>
-    <row r="21" spans="2:10" x14ac:dyDescent="0.4">
+    <row r="21" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B21" s="4" t="s">
         <v>84</v>
       </c>
@@ -3864,7 +3882,7 @@
       </c>
       <c r="J21" s="5"/>
     </row>
-    <row r="22" spans="2:10" x14ac:dyDescent="0.4">
+    <row r="22" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B22" s="4" t="s">
         <v>92</v>
       </c>
@@ -3892,7 +3910,7 @@
       </c>
       <c r="J22" s="5"/>
     </row>
-    <row r="23" spans="2:10" x14ac:dyDescent="0.4">
+    <row r="23" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B23" s="4" t="s">
         <v>125</v>
       </c>
@@ -3920,7 +3938,7 @@
       </c>
       <c r="J23" s="5"/>
     </row>
-    <row r="24" spans="2:10" x14ac:dyDescent="0.4">
+    <row r="24" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B24" s="4" t="s">
         <v>125</v>
       </c>
@@ -3948,7 +3966,7 @@
       </c>
       <c r="J24" s="5"/>
     </row>
-    <row r="25" spans="2:10" x14ac:dyDescent="0.4">
+    <row r="25" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B25" s="4" t="s">
         <v>124</v>
       </c>
@@ -3976,7 +3994,7 @@
       </c>
       <c r="J25" s="5"/>
     </row>
-    <row r="26" spans="2:10" x14ac:dyDescent="0.4">
+    <row r="26" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B26" s="4" t="s">
         <v>124</v>
       </c>
@@ -4004,7 +4022,7 @@
       </c>
       <c r="J26" s="5"/>
     </row>
-    <row r="27" spans="2:10" x14ac:dyDescent="0.4">
+    <row r="27" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B27" s="4" t="s">
         <v>124</v>
       </c>
@@ -4032,7 +4050,7 @@
       </c>
       <c r="J27" s="5"/>
     </row>
-    <row r="28" spans="2:10" x14ac:dyDescent="0.4">
+    <row r="28" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B28" s="4" t="s">
         <v>124</v>
       </c>
@@ -4060,7 +4078,7 @@
       </c>
       <c r="J28" s="5"/>
     </row>
-    <row r="29" spans="2:10" x14ac:dyDescent="0.4">
+    <row r="29" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B29" s="4" t="s">
         <v>124</v>
       </c>
@@ -4088,7 +4106,7 @@
       </c>
       <c r="J29" s="5"/>
     </row>
-    <row r="30" spans="2:10" x14ac:dyDescent="0.4">
+    <row r="30" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B30" s="4" t="s">
         <v>124</v>
       </c>
@@ -4116,7 +4134,7 @@
       </c>
       <c r="J30" s="5"/>
     </row>
-    <row r="31" spans="2:10" x14ac:dyDescent="0.4">
+    <row r="31" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B31" s="4" t="s">
         <v>124</v>
       </c>
@@ -4144,7 +4162,7 @@
       </c>
       <c r="J31" s="5"/>
     </row>
-    <row r="32" spans="2:10" x14ac:dyDescent="0.4">
+    <row r="32" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B32" s="4"/>
       <c r="C32" s="12"/>
       <c r="D32" s="5"/>
@@ -4158,7 +4176,7 @@
       </c>
       <c r="J32" s="5"/>
     </row>
-    <row r="33" spans="2:10" x14ac:dyDescent="0.4">
+    <row r="33" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B33" s="4"/>
       <c r="C33" s="12"/>
       <c r="D33" s="5"/>
@@ -4172,7 +4190,7 @@
       </c>
       <c r="J33" s="5"/>
     </row>
-    <row r="34" spans="2:10" x14ac:dyDescent="0.4">
+    <row r="34" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B34" s="4"/>
       <c r="C34" s="12"/>
       <c r="D34" s="5"/>
@@ -4186,7 +4204,7 @@
       </c>
       <c r="J34" s="5"/>
     </row>
-    <row r="35" spans="2:10" x14ac:dyDescent="0.4">
+    <row r="35" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B35" s="4"/>
       <c r="C35" s="12"/>
       <c r="D35" s="5"/>
@@ -4200,7 +4218,7 @@
       </c>
       <c r="J35" s="5"/>
     </row>
-    <row r="36" spans="2:10" x14ac:dyDescent="0.4">
+    <row r="36" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B36" s="4"/>
       <c r="C36" s="12"/>
       <c r="D36" s="5"/>
@@ -4214,7 +4232,7 @@
       </c>
       <c r="J36" s="5"/>
     </row>
-    <row r="37" spans="2:10" x14ac:dyDescent="0.4">
+    <row r="37" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B37" s="4"/>
       <c r="C37" s="12"/>
       <c r="D37" s="5"/>
@@ -4228,7 +4246,7 @@
       </c>
       <c r="J37" s="5"/>
     </row>
-    <row r="38" spans="2:10" x14ac:dyDescent="0.4">
+    <row r="38" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B38" s="4"/>
       <c r="C38" s="12"/>
       <c r="D38" s="5"/>
@@ -4242,7 +4260,7 @@
       </c>
       <c r="J38" s="5"/>
     </row>
-    <row r="39" spans="2:10" x14ac:dyDescent="0.4">
+    <row r="39" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B39" s="4"/>
       <c r="C39" s="12"/>
       <c r="D39" s="5"/>
@@ -4256,7 +4274,7 @@
       </c>
       <c r="J39" s="5"/>
     </row>
-    <row r="40" spans="2:10" x14ac:dyDescent="0.4">
+    <row r="40" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B40" s="4"/>
       <c r="C40" s="12"/>
       <c r="D40" s="5"/>
@@ -4270,7 +4288,7 @@
       </c>
       <c r="J40" s="5"/>
     </row>
-    <row r="41" spans="2:10" x14ac:dyDescent="0.4">
+    <row r="41" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B41" s="4"/>
       <c r="C41" s="12"/>
       <c r="D41" s="5"/>
@@ -4284,7 +4302,7 @@
       </c>
       <c r="J41" s="5"/>
     </row>
-    <row r="42" spans="2:10" x14ac:dyDescent="0.4">
+    <row r="42" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B42" s="4"/>
       <c r="C42" s="12"/>
       <c r="D42" s="5"/>
@@ -4298,7 +4316,7 @@
       </c>
       <c r="J42" s="5"/>
     </row>
-    <row r="43" spans="2:10" x14ac:dyDescent="0.4">
+    <row r="43" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B43" s="4"/>
       <c r="C43" s="12"/>
       <c r="D43" s="5"/>
@@ -4312,7 +4330,7 @@
       </c>
       <c r="J43" s="5"/>
     </row>
-    <row r="44" spans="2:10" x14ac:dyDescent="0.4">
+    <row r="44" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B44" s="4"/>
       <c r="C44" s="12"/>
       <c r="D44" s="5"/>
@@ -4326,7 +4344,7 @@
       </c>
       <c r="J44" s="5"/>
     </row>
-    <row r="45" spans="2:10" x14ac:dyDescent="0.4">
+    <row r="45" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B45" s="4"/>
       <c r="C45" s="12"/>
       <c r="D45" s="5"/>
@@ -4340,7 +4358,7 @@
       </c>
       <c r="J45" s="5"/>
     </row>
-    <row r="46" spans="2:10" x14ac:dyDescent="0.4">
+    <row r="46" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B46" s="4"/>
       <c r="C46" s="12"/>
       <c r="D46" s="5"/>
@@ -4354,7 +4372,7 @@
       </c>
       <c r="J46" s="5"/>
     </row>
-    <row r="47" spans="2:10" x14ac:dyDescent="0.4">
+    <row r="47" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B47" s="4"/>
       <c r="C47" s="12"/>
       <c r="D47" s="5"/>
@@ -4368,7 +4386,7 @@
       </c>
       <c r="J47" s="5"/>
     </row>
-    <row r="48" spans="2:10" x14ac:dyDescent="0.4">
+    <row r="48" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B48" s="4"/>
       <c r="C48" s="12"/>
       <c r="D48" s="5"/>
@@ -4382,7 +4400,7 @@
       </c>
       <c r="J48" s="5"/>
     </row>
-    <row r="49" spans="2:10" x14ac:dyDescent="0.4">
+    <row r="49" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B49" s="4"/>
       <c r="C49" s="12"/>
       <c r="D49" s="5"/>
@@ -4396,7 +4414,7 @@
       </c>
       <c r="J49" s="5"/>
     </row>
-    <row r="50" spans="2:10" x14ac:dyDescent="0.4">
+    <row r="50" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B50" s="4"/>
       <c r="C50" s="12"/>
       <c r="D50" s="5"/>
@@ -4410,7 +4428,7 @@
       </c>
       <c r="J50" s="5"/>
     </row>
-    <row r="51" spans="2:10" x14ac:dyDescent="0.4">
+    <row r="51" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B51" s="4"/>
       <c r="C51" s="12"/>
       <c r="D51" s="5"/>
@@ -4424,7 +4442,7 @@
       </c>
       <c r="J51" s="5"/>
     </row>
-    <row r="52" spans="2:10" x14ac:dyDescent="0.4">
+    <row r="52" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B52" s="4"/>
       <c r="C52" s="12"/>
       <c r="D52" s="5"/>
@@ -4438,7 +4456,7 @@
       </c>
       <c r="J52" s="5"/>
     </row>
-    <row r="53" spans="2:10" x14ac:dyDescent="0.4">
+    <row r="53" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B53" s="4"/>
       <c r="C53" s="12"/>
       <c r="D53" s="5"/>
@@ -4452,7 +4470,7 @@
       </c>
       <c r="J53" s="5"/>
     </row>
-    <row r="54" spans="2:10" x14ac:dyDescent="0.4">
+    <row r="54" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B54" s="4"/>
       <c r="C54" s="12"/>
       <c r="D54" s="5"/>
@@ -4466,7 +4484,7 @@
       </c>
       <c r="J54" s="5"/>
     </row>
-    <row r="55" spans="2:10" x14ac:dyDescent="0.4">
+    <row r="55" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B55" s="4"/>
       <c r="C55" s="12"/>
       <c r="D55" s="5"/>
@@ -4480,7 +4498,7 @@
       </c>
       <c r="J55" s="5"/>
     </row>
-    <row r="56" spans="2:10" x14ac:dyDescent="0.4">
+    <row r="56" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B56" s="4"/>
       <c r="C56" s="12"/>
       <c r="D56" s="5"/>
@@ -4494,7 +4512,7 @@
       </c>
       <c r="J56" s="5"/>
     </row>
-    <row r="57" spans="2:10" x14ac:dyDescent="0.4">
+    <row r="57" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B57" s="4"/>
       <c r="C57" s="12"/>
       <c r="D57" s="5"/>
@@ -4508,7 +4526,7 @@
       </c>
       <c r="J57" s="5"/>
     </row>
-    <row r="58" spans="2:10" x14ac:dyDescent="0.4">
+    <row r="58" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B58" s="4"/>
       <c r="C58" s="12"/>
       <c r="D58" s="5"/>
@@ -4522,7 +4540,7 @@
       </c>
       <c r="J58" s="5"/>
     </row>
-    <row r="59" spans="2:10" x14ac:dyDescent="0.4">
+    <row r="59" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B59" s="4"/>
       <c r="C59" s="12"/>
       <c r="D59" s="5"/>
@@ -4536,7 +4554,7 @@
       </c>
       <c r="J59" s="5"/>
     </row>
-    <row r="60" spans="2:10" x14ac:dyDescent="0.4">
+    <row r="60" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B60" s="4"/>
       <c r="C60" s="12"/>
       <c r="D60" s="5"/>
@@ -4550,7 +4568,7 @@
       </c>
       <c r="J60" s="5"/>
     </row>
-    <row r="61" spans="2:10" x14ac:dyDescent="0.4">
+    <row r="61" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B61" s="4"/>
       <c r="C61" s="12"/>
       <c r="D61" s="5"/>
@@ -4564,7 +4582,7 @@
       </c>
       <c r="J61" s="5"/>
     </row>
-    <row r="62" spans="2:10" x14ac:dyDescent="0.4">
+    <row r="62" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B62" s="4"/>
       <c r="C62" s="12"/>
       <c r="D62" s="5"/>
@@ -4578,7 +4596,7 @@
       </c>
       <c r="J62" s="5"/>
     </row>
-    <row r="63" spans="2:10" x14ac:dyDescent="0.4">
+    <row r="63" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B63" s="4"/>
       <c r="C63" s="12"/>
       <c r="D63" s="5"/>
@@ -4592,7 +4610,7 @@
       </c>
       <c r="J63" s="5"/>
     </row>
-    <row r="64" spans="2:10" x14ac:dyDescent="0.4">
+    <row r="64" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B64" s="4"/>
       <c r="C64" s="12"/>
       <c r="D64" s="5"/>
@@ -4606,7 +4624,7 @@
       </c>
       <c r="J64" s="5"/>
     </row>
-    <row r="65" spans="2:10" x14ac:dyDescent="0.4">
+    <row r="65" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B65" s="4"/>
       <c r="C65" s="12"/>
       <c r="D65" s="5"/>
@@ -4620,7 +4638,7 @@
       </c>
       <c r="J65" s="5"/>
     </row>
-    <row r="66" spans="2:10" x14ac:dyDescent="0.4">
+    <row r="66" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B66" s="4"/>
       <c r="C66" s="12"/>
       <c r="D66" s="5"/>
@@ -4634,7 +4652,7 @@
       </c>
       <c r="J66" s="5"/>
     </row>
-    <row r="67" spans="2:10" x14ac:dyDescent="0.4">
+    <row r="67" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B67" s="4"/>
       <c r="C67" s="12"/>
       <c r="D67" s="5"/>
@@ -4648,7 +4666,7 @@
       </c>
       <c r="J67" s="5"/>
     </row>
-    <row r="68" spans="2:10" x14ac:dyDescent="0.4">
+    <row r="68" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B68" s="4"/>
       <c r="C68" s="12"/>
       <c r="D68" s="5"/>
@@ -4662,7 +4680,7 @@
       </c>
       <c r="J68" s="5"/>
     </row>
-    <row r="69" spans="2:10" x14ac:dyDescent="0.4">
+    <row r="69" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B69" s="4"/>
       <c r="C69" s="12"/>
       <c r="D69" s="5"/>
@@ -4676,7 +4694,7 @@
       </c>
       <c r="J69" s="5"/>
     </row>
-    <row r="70" spans="2:10" x14ac:dyDescent="0.4">
+    <row r="70" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B70" s="4"/>
       <c r="C70" s="12"/>
       <c r="D70" s="5"/>
@@ -4690,7 +4708,7 @@
       </c>
       <c r="J70" s="5"/>
     </row>
-    <row r="71" spans="2:10" x14ac:dyDescent="0.4">
+    <row r="71" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B71" s="4"/>
       <c r="C71" s="12"/>
       <c r="D71" s="5"/>
@@ -4704,7 +4722,7 @@
       </c>
       <c r="J71" s="5"/>
     </row>
-    <row r="72" spans="2:10" x14ac:dyDescent="0.4">
+    <row r="72" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B72" s="4"/>
       <c r="C72" s="12"/>
       <c r="D72" s="5"/>
@@ -4718,7 +4736,7 @@
       </c>
       <c r="J72" s="5"/>
     </row>
-    <row r="73" spans="2:10" x14ac:dyDescent="0.4">
+    <row r="73" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B73" s="4"/>
       <c r="C73" s="12"/>
       <c r="D73" s="5"/>
@@ -4732,7 +4750,7 @@
       </c>
       <c r="J73" s="5"/>
     </row>
-    <row r="74" spans="2:10" x14ac:dyDescent="0.4">
+    <row r="74" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B74" s="4"/>
       <c r="C74" s="12"/>
       <c r="D74" s="5"/>
@@ -4746,7 +4764,7 @@
       </c>
       <c r="J74" s="5"/>
     </row>
-    <row r="75" spans="2:10" x14ac:dyDescent="0.4">
+    <row r="75" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B75" s="4"/>
       <c r="C75" s="12"/>
       <c r="D75" s="5"/>
@@ -4760,7 +4778,7 @@
       </c>
       <c r="J75" s="5"/>
     </row>
-    <row r="76" spans="2:10" x14ac:dyDescent="0.4">
+    <row r="76" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B76" s="4"/>
       <c r="C76" s="12"/>
       <c r="D76" s="5"/>
@@ -4774,7 +4792,7 @@
       </c>
       <c r="J76" s="5"/>
     </row>
-    <row r="77" spans="2:10" x14ac:dyDescent="0.4">
+    <row r="77" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B77" s="4"/>
       <c r="C77" s="12"/>
       <c r="D77" s="5"/>
@@ -4788,7 +4806,7 @@
       </c>
       <c r="J77" s="5"/>
     </row>
-    <row r="78" spans="2:10" x14ac:dyDescent="0.4">
+    <row r="78" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B78" s="4"/>
       <c r="C78" s="12"/>
       <c r="D78" s="5"/>
@@ -4802,7 +4820,7 @@
       </c>
       <c r="J78" s="5"/>
     </row>
-    <row r="79" spans="2:10" x14ac:dyDescent="0.4">
+    <row r="79" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B79" s="4"/>
       <c r="C79" s="12"/>
       <c r="D79" s="5"/>
@@ -4816,7 +4834,7 @@
       </c>
       <c r="J79" s="5"/>
     </row>
-    <row r="80" spans="2:10" x14ac:dyDescent="0.4">
+    <row r="80" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B80" s="4"/>
       <c r="C80" s="12"/>
       <c r="D80" s="5"/>
@@ -4830,7 +4848,7 @@
       </c>
       <c r="J80" s="5"/>
     </row>
-    <row r="81" spans="2:10" x14ac:dyDescent="0.4">
+    <row r="81" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B81" s="4"/>
       <c r="C81" s="12"/>
       <c r="D81" s="5"/>
@@ -4844,7 +4862,7 @@
       </c>
       <c r="J81" s="5"/>
     </row>
-    <row r="82" spans="2:10" x14ac:dyDescent="0.4">
+    <row r="82" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B82" s="4"/>
       <c r="C82" s="12"/>
       <c r="D82" s="5"/>
@@ -4858,7 +4876,7 @@
       </c>
       <c r="J82" s="5"/>
     </row>
-    <row r="83" spans="2:10" x14ac:dyDescent="0.4">
+    <row r="83" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B83" s="4"/>
       <c r="C83" s="12"/>
       <c r="D83" s="5"/>
@@ -4872,7 +4890,7 @@
       </c>
       <c r="J83" s="5"/>
     </row>
-    <row r="84" spans="2:10" x14ac:dyDescent="0.4">
+    <row r="84" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B84" s="4"/>
       <c r="C84" s="12"/>
       <c r="D84" s="5"/>
@@ -4886,7 +4904,7 @@
       </c>
       <c r="J84" s="5"/>
     </row>
-    <row r="85" spans="2:10" x14ac:dyDescent="0.4">
+    <row r="85" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B85" s="4"/>
       <c r="C85" s="12"/>
       <c r="D85" s="5"/>
@@ -4900,7 +4918,7 @@
       </c>
       <c r="J85" s="5"/>
     </row>
-    <row r="86" spans="2:10" x14ac:dyDescent="0.4">
+    <row r="86" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B86" s="4"/>
       <c r="C86" s="12"/>
       <c r="D86" s="5"/>
@@ -4914,7 +4932,7 @@
       </c>
       <c r="J86" s="5"/>
     </row>
-    <row r="87" spans="2:10" x14ac:dyDescent="0.4">
+    <row r="87" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B87" s="4"/>
       <c r="C87" s="12"/>
       <c r="D87" s="5"/>
@@ -4954,9 +4972,9 @@
       <selection activeCell="F17" sqref="F17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="2" spans="2:8" x14ac:dyDescent="0.4">
+    <row r="2" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B2" s="27">
         <v>8</v>
       </c>
@@ -4967,7 +4985,7 @@
       <c r="G2" s="28"/>
       <c r="H2" s="28"/>
     </row>
-    <row r="3" spans="2:8" x14ac:dyDescent="0.4">
+    <row r="3" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B3" s="27">
         <v>7</v>
       </c>
@@ -4978,7 +4996,7 @@
       <c r="G3" s="28"/>
       <c r="H3" s="28"/>
     </row>
-    <row r="4" spans="2:8" x14ac:dyDescent="0.4">
+    <row r="4" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B4" s="27">
         <v>6</v>
       </c>
@@ -4989,7 +5007,7 @@
       <c r="G4" s="28"/>
       <c r="H4" s="28"/>
     </row>
-    <row r="5" spans="2:8" x14ac:dyDescent="0.4">
+    <row r="5" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B5" s="27">
         <v>5</v>
       </c>
@@ -5000,7 +5018,7 @@
       <c r="G5" s="28"/>
       <c r="H5" s="28"/>
     </row>
-    <row r="6" spans="2:8" x14ac:dyDescent="0.4">
+    <row r="6" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B6" s="27">
         <v>4</v>
       </c>
@@ -5011,7 +5029,7 @@
       <c r="G6" s="29"/>
       <c r="H6" s="28"/>
     </row>
-    <row r="7" spans="2:8" x14ac:dyDescent="0.4">
+    <row r="7" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B7" s="27">
         <v>3</v>
       </c>
@@ -5022,7 +5040,7 @@
       <c r="G7" s="28"/>
       <c r="H7" s="29"/>
     </row>
-    <row r="8" spans="2:8" x14ac:dyDescent="0.4">
+    <row r="8" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B8" s="27">
         <v>2</v>
       </c>
@@ -5033,7 +5051,7 @@
       <c r="G8" s="28"/>
       <c r="H8" s="28"/>
     </row>
-    <row r="9" spans="2:8" x14ac:dyDescent="0.4">
+    <row r="9" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B9" s="27">
         <v>1</v>
       </c>
@@ -5044,7 +5062,7 @@
       <c r="G9" s="28"/>
       <c r="H9" s="28"/>
     </row>
-    <row r="10" spans="2:8" x14ac:dyDescent="0.4">
+    <row r="10" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B10" s="30">
         <v>-1</v>
       </c>
@@ -5055,7 +5073,7 @@
       <c r="G10" s="28"/>
       <c r="H10" s="28"/>
     </row>
-    <row r="11" spans="2:8" x14ac:dyDescent="0.4">
+    <row r="11" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B11" s="30">
         <v>-2</v>
       </c>
@@ -5066,7 +5084,7 @@
       <c r="G11" s="28"/>
       <c r="H11" s="28"/>
     </row>
-    <row r="12" spans="2:8" x14ac:dyDescent="0.4">
+    <row r="12" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B12" s="30">
         <v>-3</v>
       </c>
@@ -5077,7 +5095,7 @@
       <c r="G12" s="28"/>
       <c r="H12" s="28"/>
     </row>
-    <row r="13" spans="2:8" x14ac:dyDescent="0.4">
+    <row r="13" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B13" s="30">
         <v>-4</v>
       </c>
@@ -5088,42 +5106,42 @@
       <c r="G13" s="28"/>
       <c r="H13" s="28"/>
     </row>
-    <row r="16" spans="2:8" x14ac:dyDescent="0.4">
+    <row r="16" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B16" s="32" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="17" spans="2:4" x14ac:dyDescent="0.4">
+    <row r="17" spans="2:4" x14ac:dyDescent="0.3">
       <c r="C17" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="18" spans="2:4" x14ac:dyDescent="0.4">
+    <row r="18" spans="2:4" x14ac:dyDescent="0.3">
       <c r="D18" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="19" spans="2:4" x14ac:dyDescent="0.4">
+    <row r="19" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B19" s="32" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="20" spans="2:4" x14ac:dyDescent="0.4">
+    <row r="20" spans="2:4" x14ac:dyDescent="0.3">
       <c r="C20" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="21" spans="2:4" x14ac:dyDescent="0.4">
+    <row r="21" spans="2:4" x14ac:dyDescent="0.3">
       <c r="D21" t="s">
         <v>122</v>
       </c>
     </row>
-    <row r="22" spans="2:4" x14ac:dyDescent="0.4">
+    <row r="22" spans="2:4" x14ac:dyDescent="0.3">
       <c r="D22" t="s">
         <v>151</v>
       </c>
     </row>
-    <row r="23" spans="2:4" x14ac:dyDescent="0.4">
+    <row r="23" spans="2:4" x14ac:dyDescent="0.3">
       <c r="D23" t="s">
         <v>123</v>
       </c>

--- a/WorkShop/01.docs/01.초기학습.xlsx
+++ b/WorkShop/01.docs/01.초기학습.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11850" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11850" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="00.참고" sheetId="2" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="248" uniqueCount="164">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="264" uniqueCount="174">
   <si>
     <t>사이트명</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -765,16 +765,6 @@
       <t xml:space="preserve">
   - SAR = 전일SAR + (가속변수 * (최고가혹은최저가 - 전일 SAR))</t>
     </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">  - 오늘주가가 어제보다 위에 있으면 +DM
-  - 오늘주가가 어제보다 아래에 있으면 -DM
-  - 오늘주가가 어제주가의 범위내에 있으면 DM은 0
-  - 오늘주가범위가 전일의 범위를 넘을 경우에는 넘는범위가 큰쪽이 위이면 +DM이고 아래이면 -DM 
-  - 통상 +DM선과 -DM선의 차이가 클수록 추세는 강하다.
-  - +DM 가 -DM를 상향돌파하면 매수기회(바로 매수하기보다는 교차일의 주가고점보다 주가가 더 상승했을 때가 매수 시점)
-  - +DM 가 -DM를 하향돌파하면 매도기회(바로 매도하기보다는 교차일의 주가저점보다 주가가 더 하락했을 때가 매도 시점)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -1079,6 +1069,55 @@
   </si>
   <si>
     <t>종가배팅을 위한 검색식 및 진행방법 참고(영웅문)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">  - 오늘주가가 어제보다 위에 있으면 +DM
+  - 오늘주가가 어제보다 아래에 있으면 -DM
+  - 오늘주가가 어제주가의 범위내에 있으면 DM은 0
+  - 오늘주가범위가 전일의 범위를 넘을 경우에는 넘는범위가 큰쪽이 위이면 +DM이고 아래이면 -DM 
+  - 통상 +DM선과 -DM선의 차이가 클수록 추세는 강하다.
+  - +DM 가 -DM를 상향돌파하면 매수기회(바로 매수하기보다는 교차일의 주가고점보다 주가가 더 상승했을 때가 매수 시점)
+  - +DM 가 -DM를 하향돌파하면 매도기회(바로 매도하기보다는 교차일의 주가저점보다 주가가 더 하락했을 때가 매도 시점)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>용식_종가매매_V0.01</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>011280</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>태림포장</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>086520</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>에코프로</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>102120</t>
+  </si>
+  <si>
+    <t>어보브반도체</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>137400</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>피엔티</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2020-02-11</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1316,7 +1355,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="49">
+  <cellXfs count="48">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1386,9 +1425,6 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
@@ -1443,6 +1479,12 @@
     <xf numFmtId="49" fontId="4" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="49" fontId="10" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="10" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="49" fontId="10" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -1453,12 +1495,6 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="10" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="10" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="10" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="10" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1976,7 +2012,7 @@
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="C23" sqref="C23"/>
+      <selection pane="bottomRight" activeCell="D26" sqref="D26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="12" x14ac:dyDescent="0.3"/>
@@ -2089,7 +2125,7 @@
       <c r="B10" s="4" t="s">
         <v>74</v>
       </c>
-      <c r="C10" s="23" t="s">
+      <c r="C10" s="22" t="s">
         <v>73</v>
       </c>
       <c r="D10" s="20" t="s">
@@ -2098,13 +2134,13 @@
     </row>
     <row r="11" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B11" s="4" t="s">
+        <v>161</v>
+      </c>
+      <c r="C11" s="22" t="s">
+        <v>160</v>
+      </c>
+      <c r="D11" s="5" t="s">
         <v>162</v>
-      </c>
-      <c r="C11" s="23" t="s">
-        <v>161</v>
-      </c>
-      <c r="D11" s="5" t="s">
-        <v>163</v>
       </c>
     </row>
     <row r="12" spans="2:4" x14ac:dyDescent="0.3">
@@ -2232,11 +2268,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:E43"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B8" activePane="bottomRight" state="frozen"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="B12" sqref="B12:C13"/>
+      <selection pane="bottomRight" activeCell="H8" sqref="H8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="12" x14ac:dyDescent="0.3"/>
@@ -2244,331 +2280,331 @@
     <col min="1" max="1" width="7.25" style="1" customWidth="1"/>
     <col min="2" max="2" width="31.875" style="1" customWidth="1"/>
     <col min="3" max="4" width="15.375" style="1" customWidth="1"/>
-    <col min="5" max="5" width="118.125" style="38" customWidth="1"/>
+    <col min="5" max="5" width="118.125" style="37" customWidth="1"/>
     <col min="6" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B1" s="40" t="s">
+      <c r="B1" s="39" t="s">
         <v>133</v>
       </c>
-      <c r="C1" s="41"/>
-      <c r="D1" s="40" t="s">
+      <c r="C1" s="40"/>
+      <c r="D1" s="39" t="s">
         <v>91</v>
       </c>
-      <c r="E1" s="41"/>
+      <c r="E1" s="40"/>
     </row>
     <row r="2" spans="2:5" ht="24" x14ac:dyDescent="0.3">
-      <c r="B2" s="42" t="s">
+      <c r="B2" s="43" t="s">
         <v>134</v>
       </c>
-      <c r="C2" s="43"/>
-      <c r="D2" s="35" t="s">
+      <c r="C2" s="44"/>
+      <c r="D2" s="34" t="s">
         <v>136</v>
       </c>
-      <c r="E2" s="39" t="s">
+      <c r="E2" s="38" t="s">
         <v>149</v>
       </c>
     </row>
     <row r="3" spans="2:5" ht="24" x14ac:dyDescent="0.3">
-      <c r="B3" s="44"/>
-      <c r="C3" s="45"/>
-      <c r="D3" s="35" t="s">
+      <c r="B3" s="45"/>
+      <c r="C3" s="46"/>
+      <c r="D3" s="34" t="s">
         <v>137</v>
       </c>
-      <c r="E3" s="36" t="s">
+      <c r="E3" s="35" t="s">
         <v>138</v>
       </c>
     </row>
     <row r="4" spans="2:5" ht="48" x14ac:dyDescent="0.3">
-      <c r="B4" s="42" t="s">
+      <c r="B4" s="43" t="s">
         <v>135</v>
       </c>
-      <c r="C4" s="43"/>
-      <c r="D4" s="35" t="s">
+      <c r="C4" s="44"/>
+      <c r="D4" s="34" t="s">
         <v>136</v>
       </c>
-      <c r="E4" s="39" t="s">
+      <c r="E4" s="38" t="s">
         <v>148</v>
       </c>
     </row>
     <row r="5" spans="2:5" ht="96" x14ac:dyDescent="0.3">
-      <c r="B5" s="44"/>
-      <c r="C5" s="45"/>
-      <c r="D5" s="35" t="s">
+      <c r="B5" s="45"/>
+      <c r="C5" s="46"/>
+      <c r="D5" s="34" t="s">
         <v>137</v>
       </c>
-      <c r="E5" s="36" t="s">
+      <c r="E5" s="35" t="s">
         <v>139</v>
       </c>
     </row>
     <row r="6" spans="2:5" ht="72" x14ac:dyDescent="0.3">
-      <c r="B6" s="42" t="s">
+      <c r="B6" s="43" t="s">
         <v>144</v>
       </c>
-      <c r="C6" s="43"/>
-      <c r="D6" s="35" t="s">
+      <c r="C6" s="44"/>
+      <c r="D6" s="34" t="s">
         <v>136</v>
       </c>
-      <c r="E6" s="39" t="s">
+      <c r="E6" s="38" t="s">
         <v>147</v>
       </c>
     </row>
     <row r="7" spans="2:5" ht="84" x14ac:dyDescent="0.3">
-      <c r="B7" s="44"/>
-      <c r="C7" s="45"/>
-      <c r="D7" s="35" t="s">
+      <c r="B7" s="45"/>
+      <c r="C7" s="46"/>
+      <c r="D7" s="34" t="s">
         <v>137</v>
       </c>
-      <c r="E7" s="36" t="s">
+      <c r="E7" s="35" t="s">
         <v>140</v>
       </c>
     </row>
     <row r="8" spans="2:5" ht="96" x14ac:dyDescent="0.3">
-      <c r="B8" s="48" t="s">
+      <c r="B8" s="47" t="s">
         <v>145</v>
       </c>
-      <c r="C8" s="43"/>
-      <c r="D8" s="35" t="s">
+      <c r="C8" s="44"/>
+      <c r="D8" s="34" t="s">
         <v>136</v>
       </c>
-      <c r="E8" s="39" t="s">
+      <c r="E8" s="38" t="s">
         <v>146</v>
       </c>
     </row>
     <row r="9" spans="2:5" ht="60" x14ac:dyDescent="0.3">
-      <c r="B9" s="44"/>
-      <c r="C9" s="45"/>
-      <c r="D9" s="35" t="s">
+      <c r="B9" s="45"/>
+      <c r="C9" s="46"/>
+      <c r="D9" s="34" t="s">
         <v>137</v>
       </c>
-      <c r="E9" s="36" t="s">
+      <c r="E9" s="35" t="s">
         <v>141</v>
       </c>
     </row>
     <row r="10" spans="2:5" ht="60" x14ac:dyDescent="0.3">
-      <c r="B10" s="42" t="s">
+      <c r="B10" s="43" t="s">
         <v>142</v>
       </c>
-      <c r="C10" s="43"/>
-      <c r="D10" s="35" t="s">
+      <c r="C10" s="44"/>
+      <c r="D10" s="34" t="s">
         <v>136</v>
       </c>
-      <c r="E10" s="39" t="s">
+      <c r="E10" s="38" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="11" spans="2:5" ht="142.15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B11" s="45"/>
+      <c r="C11" s="46"/>
+      <c r="D11" s="34" t="s">
+        <v>137</v>
+      </c>
+      <c r="E11" s="35" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="12" spans="2:5" ht="24" x14ac:dyDescent="0.3">
+      <c r="B12" s="43" t="s">
+        <v>153</v>
+      </c>
+      <c r="C12" s="44"/>
+      <c r="D12" s="34" t="s">
+        <v>136</v>
+      </c>
+      <c r="E12" s="38" t="s">
         <v>155</v>
       </c>
     </row>
-    <row r="11" spans="2:5" ht="142.15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B11" s="44"/>
-      <c r="C11" s="45"/>
-      <c r="D11" s="35" t="s">
+    <row r="13" spans="2:5" ht="36" x14ac:dyDescent="0.3">
+      <c r="B13" s="45"/>
+      <c r="C13" s="46"/>
+      <c r="D13" s="34" t="s">
         <v>137</v>
       </c>
-      <c r="E11" s="36" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="12" spans="2:5" ht="24" x14ac:dyDescent="0.3">
-      <c r="B12" s="42" t="s">
-        <v>154</v>
-      </c>
-      <c r="C12" s="43"/>
-      <c r="D12" s="35" t="s">
-        <v>136</v>
-      </c>
-      <c r="E12" s="39" t="s">
+      <c r="E13" s="35" t="s">
         <v>156</v>
       </c>
     </row>
-    <row r="13" spans="2:5" ht="36" x14ac:dyDescent="0.3">
-      <c r="B13" s="44"/>
-      <c r="C13" s="45"/>
-      <c r="D13" s="35" t="s">
-        <v>137</v>
-      </c>
-      <c r="E13" s="36" t="s">
-        <v>157</v>
-      </c>
-    </row>
     <row r="14" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B14" s="46"/>
-      <c r="C14" s="47"/>
-      <c r="D14" s="34"/>
-      <c r="E14" s="37"/>
+      <c r="B14" s="41"/>
+      <c r="C14" s="42"/>
+      <c r="D14" s="33"/>
+      <c r="E14" s="36"/>
     </row>
     <row r="15" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B15" s="46"/>
-      <c r="C15" s="47"/>
-      <c r="D15" s="34"/>
-      <c r="E15" s="37"/>
+      <c r="B15" s="41"/>
+      <c r="C15" s="42"/>
+      <c r="D15" s="33"/>
+      <c r="E15" s="36"/>
     </row>
     <row r="16" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B16" s="46"/>
-      <c r="C16" s="47"/>
-      <c r="D16" s="34"/>
-      <c r="E16" s="37"/>
+      <c r="B16" s="41"/>
+      <c r="C16" s="42"/>
+      <c r="D16" s="33"/>
+      <c r="E16" s="36"/>
     </row>
     <row r="17" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B17" s="46"/>
-      <c r="C17" s="47"/>
-      <c r="D17" s="34"/>
-      <c r="E17" s="37"/>
+      <c r="B17" s="41"/>
+      <c r="C17" s="42"/>
+      <c r="D17" s="33"/>
+      <c r="E17" s="36"/>
     </row>
     <row r="18" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B18" s="46"/>
-      <c r="C18" s="47"/>
-      <c r="D18" s="34"/>
-      <c r="E18" s="37"/>
+      <c r="B18" s="41"/>
+      <c r="C18" s="42"/>
+      <c r="D18" s="33"/>
+      <c r="E18" s="36"/>
     </row>
     <row r="19" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B19" s="46"/>
-      <c r="C19" s="47"/>
-      <c r="D19" s="34"/>
-      <c r="E19" s="37"/>
+      <c r="B19" s="41"/>
+      <c r="C19" s="42"/>
+      <c r="D19" s="33"/>
+      <c r="E19" s="36"/>
     </row>
     <row r="20" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B20" s="46"/>
-      <c r="C20" s="47"/>
-      <c r="D20" s="34"/>
-      <c r="E20" s="37"/>
+      <c r="B20" s="41"/>
+      <c r="C20" s="42"/>
+      <c r="D20" s="33"/>
+      <c r="E20" s="36"/>
     </row>
     <row r="21" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B21" s="46"/>
-      <c r="C21" s="47"/>
-      <c r="D21" s="34"/>
-      <c r="E21" s="37"/>
+      <c r="B21" s="41"/>
+      <c r="C21" s="42"/>
+      <c r="D21" s="33"/>
+      <c r="E21" s="36"/>
     </row>
     <row r="22" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B22" s="46"/>
-      <c r="C22" s="47"/>
-      <c r="D22" s="34"/>
-      <c r="E22" s="37"/>
+      <c r="B22" s="41"/>
+      <c r="C22" s="42"/>
+      <c r="D22" s="33"/>
+      <c r="E22" s="36"/>
     </row>
     <row r="23" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B23" s="46"/>
-      <c r="C23" s="47"/>
-      <c r="D23" s="34"/>
-      <c r="E23" s="37"/>
+      <c r="B23" s="41"/>
+      <c r="C23" s="42"/>
+      <c r="D23" s="33"/>
+      <c r="E23" s="36"/>
     </row>
     <row r="24" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B24" s="46"/>
-      <c r="C24" s="47"/>
-      <c r="D24" s="34"/>
-      <c r="E24" s="37"/>
+      <c r="B24" s="41"/>
+      <c r="C24" s="42"/>
+      <c r="D24" s="33"/>
+      <c r="E24" s="36"/>
     </row>
     <row r="25" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B25" s="46"/>
-      <c r="C25" s="47"/>
-      <c r="D25" s="34"/>
-      <c r="E25" s="37"/>
+      <c r="B25" s="41"/>
+      <c r="C25" s="42"/>
+      <c r="D25" s="33"/>
+      <c r="E25" s="36"/>
     </row>
     <row r="26" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B26" s="46"/>
-      <c r="C26" s="47"/>
-      <c r="D26" s="34"/>
-      <c r="E26" s="37"/>
+      <c r="B26" s="41"/>
+      <c r="C26" s="42"/>
+      <c r="D26" s="33"/>
+      <c r="E26" s="36"/>
     </row>
     <row r="27" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B27" s="46"/>
-      <c r="C27" s="47"/>
-      <c r="D27" s="34"/>
-      <c r="E27" s="37"/>
+      <c r="B27" s="41"/>
+      <c r="C27" s="42"/>
+      <c r="D27" s="33"/>
+      <c r="E27" s="36"/>
     </row>
     <row r="28" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B28" s="46"/>
-      <c r="C28" s="47"/>
-      <c r="D28" s="34"/>
-      <c r="E28" s="37"/>
+      <c r="B28" s="41"/>
+      <c r="C28" s="42"/>
+      <c r="D28" s="33"/>
+      <c r="E28" s="36"/>
     </row>
     <row r="29" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B29" s="46"/>
-      <c r="C29" s="47"/>
-      <c r="D29" s="34"/>
-      <c r="E29" s="37"/>
+      <c r="B29" s="41"/>
+      <c r="C29" s="42"/>
+      <c r="D29" s="33"/>
+      <c r="E29" s="36"/>
     </row>
     <row r="30" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B30" s="46"/>
-      <c r="C30" s="47"/>
-      <c r="D30" s="34"/>
-      <c r="E30" s="37"/>
+      <c r="B30" s="41"/>
+      <c r="C30" s="42"/>
+      <c r="D30" s="33"/>
+      <c r="E30" s="36"/>
     </row>
     <row r="31" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B31" s="46"/>
-      <c r="C31" s="47"/>
-      <c r="D31" s="34"/>
-      <c r="E31" s="37"/>
+      <c r="B31" s="41"/>
+      <c r="C31" s="42"/>
+      <c r="D31" s="33"/>
+      <c r="E31" s="36"/>
     </row>
     <row r="32" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B32" s="46"/>
-      <c r="C32" s="47"/>
-      <c r="D32" s="34"/>
-      <c r="E32" s="37"/>
+      <c r="B32" s="41"/>
+      <c r="C32" s="42"/>
+      <c r="D32" s="33"/>
+      <c r="E32" s="36"/>
     </row>
     <row r="33" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B33" s="46"/>
-      <c r="C33" s="47"/>
-      <c r="D33" s="34"/>
-      <c r="E33" s="37"/>
+      <c r="B33" s="41"/>
+      <c r="C33" s="42"/>
+      <c r="D33" s="33"/>
+      <c r="E33" s="36"/>
     </row>
     <row r="34" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B34" s="46"/>
-      <c r="C34" s="47"/>
-      <c r="D34" s="34"/>
-      <c r="E34" s="37"/>
+      <c r="B34" s="41"/>
+      <c r="C34" s="42"/>
+      <c r="D34" s="33"/>
+      <c r="E34" s="36"/>
     </row>
     <row r="35" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B35" s="46"/>
-      <c r="C35" s="47"/>
-      <c r="D35" s="34"/>
-      <c r="E35" s="37"/>
+      <c r="B35" s="41"/>
+      <c r="C35" s="42"/>
+      <c r="D35" s="33"/>
+      <c r="E35" s="36"/>
     </row>
     <row r="36" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B36" s="46"/>
-      <c r="C36" s="47"/>
-      <c r="D36" s="34"/>
-      <c r="E36" s="37"/>
+      <c r="B36" s="41"/>
+      <c r="C36" s="42"/>
+      <c r="D36" s="33"/>
+      <c r="E36" s="36"/>
     </row>
     <row r="37" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B37" s="46"/>
-      <c r="C37" s="47"/>
-      <c r="D37" s="34"/>
-      <c r="E37" s="37"/>
+      <c r="B37" s="41"/>
+      <c r="C37" s="42"/>
+      <c r="D37" s="33"/>
+      <c r="E37" s="36"/>
     </row>
     <row r="38" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B38" s="46"/>
-      <c r="C38" s="47"/>
-      <c r="D38" s="34"/>
-      <c r="E38" s="37"/>
+      <c r="B38" s="41"/>
+      <c r="C38" s="42"/>
+      <c r="D38" s="33"/>
+      <c r="E38" s="36"/>
     </row>
     <row r="39" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B39" s="46"/>
-      <c r="C39" s="47"/>
-      <c r="D39" s="34"/>
-      <c r="E39" s="37"/>
+      <c r="B39" s="41"/>
+      <c r="C39" s="42"/>
+      <c r="D39" s="33"/>
+      <c r="E39" s="36"/>
     </row>
     <row r="40" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B40" s="46"/>
-      <c r="C40" s="47"/>
-      <c r="D40" s="34"/>
-      <c r="E40" s="37"/>
+      <c r="B40" s="41"/>
+      <c r="C40" s="42"/>
+      <c r="D40" s="33"/>
+      <c r="E40" s="36"/>
     </row>
     <row r="41" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B41" s="46"/>
-      <c r="C41" s="47"/>
-      <c r="D41" s="34"/>
-      <c r="E41" s="37"/>
+      <c r="B41" s="41"/>
+      <c r="C41" s="42"/>
+      <c r="D41" s="33"/>
+      <c r="E41" s="36"/>
     </row>
     <row r="42" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B42" s="46"/>
-      <c r="C42" s="47"/>
-      <c r="D42" s="34"/>
-      <c r="E42" s="37"/>
+      <c r="B42" s="41"/>
+      <c r="C42" s="42"/>
+      <c r="D42" s="33"/>
+      <c r="E42" s="36"/>
     </row>
     <row r="43" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B43" s="46"/>
-      <c r="C43" s="47"/>
-      <c r="D43" s="34"/>
-      <c r="E43" s="37"/>
+      <c r="B43" s="41"/>
+      <c r="C43" s="42"/>
+      <c r="D43" s="33"/>
+      <c r="E43" s="36"/>
     </row>
   </sheetData>
   <autoFilter ref="B1:E9">
@@ -2576,12 +2612,22 @@
     <filterColumn colId="2" showButton="0"/>
   </autoFilter>
   <mergeCells count="38">
-    <mergeCell ref="B1:C1"/>
-    <mergeCell ref="B20:C20"/>
-    <mergeCell ref="B21:C21"/>
-    <mergeCell ref="B14:C14"/>
-    <mergeCell ref="B15:C15"/>
-    <mergeCell ref="B12:C13"/>
+    <mergeCell ref="D1:E1"/>
+    <mergeCell ref="B10:C11"/>
+    <mergeCell ref="B40:C40"/>
+    <mergeCell ref="B41:C41"/>
+    <mergeCell ref="B42:C42"/>
+    <mergeCell ref="B33:C33"/>
+    <mergeCell ref="B22:C22"/>
+    <mergeCell ref="B23:C23"/>
+    <mergeCell ref="B24:C24"/>
+    <mergeCell ref="B25:C25"/>
+    <mergeCell ref="B26:C26"/>
+    <mergeCell ref="B27:C27"/>
+    <mergeCell ref="B16:C16"/>
+    <mergeCell ref="B17:C17"/>
+    <mergeCell ref="B18:C18"/>
+    <mergeCell ref="B19:C19"/>
     <mergeCell ref="B43:C43"/>
     <mergeCell ref="B2:C3"/>
     <mergeCell ref="B4:C5"/>
@@ -2598,22 +2644,12 @@
     <mergeCell ref="B30:C30"/>
     <mergeCell ref="B31:C31"/>
     <mergeCell ref="B32:C32"/>
-    <mergeCell ref="D1:E1"/>
-    <mergeCell ref="B10:C11"/>
-    <mergeCell ref="B40:C40"/>
-    <mergeCell ref="B41:C41"/>
-    <mergeCell ref="B42:C42"/>
-    <mergeCell ref="B33:C33"/>
-    <mergeCell ref="B22:C22"/>
-    <mergeCell ref="B23:C23"/>
-    <mergeCell ref="B24:C24"/>
-    <mergeCell ref="B25:C25"/>
-    <mergeCell ref="B26:C26"/>
-    <mergeCell ref="B27:C27"/>
-    <mergeCell ref="B16:C16"/>
-    <mergeCell ref="B17:C17"/>
-    <mergeCell ref="B18:C18"/>
-    <mergeCell ref="B19:C19"/>
+    <mergeCell ref="B1:C1"/>
+    <mergeCell ref="B20:C20"/>
+    <mergeCell ref="B21:C21"/>
+    <mergeCell ref="B14:C14"/>
+    <mergeCell ref="B15:C15"/>
+    <mergeCell ref="B12:C13"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2638,8 +2674,8 @@
     <col min="1" max="1" width="2.625" style="18" customWidth="1"/>
     <col min="2" max="2" width="8.375" style="19" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="26" style="19" customWidth="1"/>
-    <col min="4" max="4" width="112.125" style="25" customWidth="1"/>
-    <col min="5" max="5" width="81.75" style="25" customWidth="1"/>
+    <col min="4" max="4" width="112.125" style="24" customWidth="1"/>
+    <col min="5" max="5" width="81.75" style="24" customWidth="1"/>
     <col min="6" max="16384" width="9" style="18"/>
   </cols>
   <sheetData>
@@ -2664,10 +2700,10 @@
       <c r="C3" s="17" t="s">
         <v>99</v>
       </c>
-      <c r="D3" s="26" t="s">
+      <c r="D3" s="25" t="s">
         <v>100</v>
       </c>
-      <c r="E3" s="24"/>
+      <c r="E3" s="23"/>
     </row>
     <row r="4" spans="2:5" ht="72" x14ac:dyDescent="0.3">
       <c r="B4" s="17" t="s">
@@ -2676,10 +2712,10 @@
       <c r="C4" s="17" t="s">
         <v>101</v>
       </c>
-      <c r="D4" s="26" t="s">
+      <c r="D4" s="25" t="s">
         <v>102</v>
       </c>
-      <c r="E4" s="24"/>
+      <c r="E4" s="23"/>
     </row>
     <row r="5" spans="2:5" ht="384" x14ac:dyDescent="0.3">
       <c r="B5" s="17" t="s">
@@ -2688,594 +2724,594 @@
       <c r="C5" s="17" t="s">
         <v>132</v>
       </c>
-      <c r="D5" s="26" t="s">
-        <v>153</v>
-      </c>
-      <c r="E5" s="26"/>
+      <c r="D5" s="25" t="s">
+        <v>152</v>
+      </c>
+      <c r="E5" s="25"/>
     </row>
     <row r="6" spans="2:5" ht="114" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B6" s="17"/>
       <c r="C6" s="17" t="s">
+        <v>158</v>
+      </c>
+      <c r="D6" s="25" t="s">
         <v>159</v>
       </c>
-      <c r="D6" s="26" t="s">
-        <v>160</v>
-      </c>
-      <c r="E6" s="26"/>
+      <c r="E6" s="25"/>
     </row>
     <row r="7" spans="2:5" ht="86.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B7" s="17"/>
       <c r="C7" s="17" t="s">
-        <v>158</v>
-      </c>
-      <c r="D7" s="26" t="s">
-        <v>152</v>
-      </c>
-      <c r="E7" s="26"/>
+        <v>157</v>
+      </c>
+      <c r="D7" s="25" t="s">
+        <v>151</v>
+      </c>
+      <c r="E7" s="25"/>
     </row>
     <row r="8" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B8" s="17"/>
       <c r="C8" s="17"/>
-      <c r="D8" s="24"/>
-      <c r="E8" s="24"/>
+      <c r="D8" s="23"/>
+      <c r="E8" s="23"/>
     </row>
     <row r="9" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B9" s="17"/>
       <c r="C9" s="17"/>
-      <c r="D9" s="24"/>
-      <c r="E9" s="24"/>
+      <c r="D9" s="23"/>
+      <c r="E9" s="23"/>
     </row>
     <row r="10" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B10" s="17"/>
       <c r="C10" s="17"/>
-      <c r="D10" s="24"/>
-      <c r="E10" s="24"/>
+      <c r="D10" s="23"/>
+      <c r="E10" s="23"/>
     </row>
     <row r="11" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B11" s="17"/>
       <c r="C11" s="17"/>
-      <c r="D11" s="24"/>
-      <c r="E11" s="24"/>
+      <c r="D11" s="23"/>
+      <c r="E11" s="23"/>
     </row>
     <row r="12" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B12" s="17"/>
       <c r="C12" s="17"/>
-      <c r="D12" s="24"/>
-      <c r="E12" s="24"/>
+      <c r="D12" s="23"/>
+      <c r="E12" s="23"/>
     </row>
     <row r="13" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B13" s="17"/>
       <c r="C13" s="17"/>
-      <c r="D13" s="24"/>
-      <c r="E13" s="24"/>
+      <c r="D13" s="23"/>
+      <c r="E13" s="23"/>
     </row>
     <row r="14" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B14" s="17"/>
       <c r="C14" s="17"/>
-      <c r="D14" s="24"/>
-      <c r="E14" s="24"/>
+      <c r="D14" s="23"/>
+      <c r="E14" s="23"/>
     </row>
     <row r="15" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B15" s="17"/>
       <c r="C15" s="17"/>
-      <c r="D15" s="24"/>
-      <c r="E15" s="24"/>
+      <c r="D15" s="23"/>
+      <c r="E15" s="23"/>
     </row>
     <row r="16" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B16" s="17"/>
       <c r="C16" s="17"/>
-      <c r="D16" s="24"/>
-      <c r="E16" s="24"/>
+      <c r="D16" s="23"/>
+      <c r="E16" s="23"/>
     </row>
     <row r="17" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B17" s="17"/>
       <c r="C17" s="17"/>
-      <c r="D17" s="24"/>
-      <c r="E17" s="24"/>
+      <c r="D17" s="23"/>
+      <c r="E17" s="23"/>
     </row>
     <row r="18" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B18" s="17"/>
       <c r="C18" s="17"/>
-      <c r="D18" s="24"/>
-      <c r="E18" s="24"/>
+      <c r="D18" s="23"/>
+      <c r="E18" s="23"/>
     </row>
     <row r="19" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B19" s="17"/>
       <c r="C19" s="17"/>
-      <c r="D19" s="24"/>
-      <c r="E19" s="24"/>
+      <c r="D19" s="23"/>
+      <c r="E19" s="23"/>
     </row>
     <row r="20" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B20" s="17"/>
       <c r="C20" s="17"/>
-      <c r="D20" s="24"/>
-      <c r="E20" s="24"/>
+      <c r="D20" s="23"/>
+      <c r="E20" s="23"/>
     </row>
     <row r="21" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B21" s="17"/>
       <c r="C21" s="17"/>
-      <c r="D21" s="24"/>
-      <c r="E21" s="24"/>
+      <c r="D21" s="23"/>
+      <c r="E21" s="23"/>
     </row>
     <row r="22" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B22" s="17"/>
       <c r="C22" s="17"/>
-      <c r="D22" s="24"/>
-      <c r="E22" s="24"/>
+      <c r="D22" s="23"/>
+      <c r="E22" s="23"/>
     </row>
     <row r="23" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B23" s="17"/>
       <c r="C23" s="17"/>
-      <c r="D23" s="24"/>
-      <c r="E23" s="24"/>
+      <c r="D23" s="23"/>
+      <c r="E23" s="23"/>
     </row>
     <row r="24" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B24" s="17"/>
       <c r="C24" s="17"/>
-      <c r="D24" s="24"/>
-      <c r="E24" s="24"/>
+      <c r="D24" s="23"/>
+      <c r="E24" s="23"/>
     </row>
     <row r="25" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B25" s="17"/>
       <c r="C25" s="17"/>
-      <c r="D25" s="24"/>
-      <c r="E25" s="24"/>
+      <c r="D25" s="23"/>
+      <c r="E25" s="23"/>
     </row>
     <row r="26" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B26" s="17"/>
       <c r="C26" s="17"/>
-      <c r="D26" s="24"/>
-      <c r="E26" s="24"/>
+      <c r="D26" s="23"/>
+      <c r="E26" s="23"/>
     </row>
     <row r="27" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B27" s="17"/>
       <c r="C27" s="17"/>
-      <c r="D27" s="24"/>
-      <c r="E27" s="24"/>
+      <c r="D27" s="23"/>
+      <c r="E27" s="23"/>
     </row>
     <row r="28" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B28" s="17"/>
       <c r="C28" s="17"/>
-      <c r="D28" s="24"/>
-      <c r="E28" s="24"/>
+      <c r="D28" s="23"/>
+      <c r="E28" s="23"/>
     </row>
     <row r="29" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B29" s="17"/>
       <c r="C29" s="17"/>
-      <c r="D29" s="24"/>
-      <c r="E29" s="24"/>
+      <c r="D29" s="23"/>
+      <c r="E29" s="23"/>
     </row>
     <row r="30" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B30" s="17"/>
       <c r="C30" s="17"/>
-      <c r="D30" s="24"/>
-      <c r="E30" s="24"/>
+      <c r="D30" s="23"/>
+      <c r="E30" s="23"/>
     </row>
     <row r="31" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B31" s="17"/>
       <c r="C31" s="17"/>
-      <c r="D31" s="24"/>
-      <c r="E31" s="24"/>
+      <c r="D31" s="23"/>
+      <c r="E31" s="23"/>
     </row>
     <row r="32" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B32" s="17"/>
       <c r="C32" s="17"/>
-      <c r="D32" s="24"/>
-      <c r="E32" s="24"/>
+      <c r="D32" s="23"/>
+      <c r="E32" s="23"/>
     </row>
     <row r="33" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B33" s="17"/>
       <c r="C33" s="17"/>
-      <c r="D33" s="24"/>
-      <c r="E33" s="24"/>
+      <c r="D33" s="23"/>
+      <c r="E33" s="23"/>
     </row>
     <row r="34" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B34" s="17"/>
       <c r="C34" s="17"/>
-      <c r="D34" s="24"/>
-      <c r="E34" s="24"/>
+      <c r="D34" s="23"/>
+      <c r="E34" s="23"/>
     </row>
     <row r="35" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B35" s="17"/>
       <c r="C35" s="17"/>
-      <c r="D35" s="24"/>
-      <c r="E35" s="24"/>
+      <c r="D35" s="23"/>
+      <c r="E35" s="23"/>
     </row>
     <row r="36" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B36" s="17"/>
       <c r="C36" s="17"/>
-      <c r="D36" s="24"/>
-      <c r="E36" s="24"/>
+      <c r="D36" s="23"/>
+      <c r="E36" s="23"/>
     </row>
     <row r="37" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B37" s="17"/>
       <c r="C37" s="17"/>
-      <c r="D37" s="24"/>
-      <c r="E37" s="24"/>
+      <c r="D37" s="23"/>
+      <c r="E37" s="23"/>
     </row>
     <row r="38" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B38" s="17"/>
       <c r="C38" s="17"/>
-      <c r="D38" s="24"/>
-      <c r="E38" s="24"/>
+      <c r="D38" s="23"/>
+      <c r="E38" s="23"/>
     </row>
     <row r="39" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B39" s="17"/>
       <c r="C39" s="17"/>
-      <c r="D39" s="24"/>
-      <c r="E39" s="24"/>
+      <c r="D39" s="23"/>
+      <c r="E39" s="23"/>
     </row>
     <row r="40" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B40" s="17"/>
       <c r="C40" s="17"/>
-      <c r="D40" s="24"/>
-      <c r="E40" s="24"/>
+      <c r="D40" s="23"/>
+      <c r="E40" s="23"/>
     </row>
     <row r="41" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B41" s="17"/>
       <c r="C41" s="17"/>
-      <c r="D41" s="24"/>
-      <c r="E41" s="24"/>
+      <c r="D41" s="23"/>
+      <c r="E41" s="23"/>
     </row>
     <row r="42" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B42" s="17"/>
       <c r="C42" s="17"/>
-      <c r="D42" s="24"/>
-      <c r="E42" s="24"/>
+      <c r="D42" s="23"/>
+      <c r="E42" s="23"/>
     </row>
     <row r="43" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B43" s="17"/>
       <c r="C43" s="17"/>
-      <c r="D43" s="24"/>
-      <c r="E43" s="24"/>
+      <c r="D43" s="23"/>
+      <c r="E43" s="23"/>
     </row>
     <row r="44" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B44" s="17"/>
       <c r="C44" s="17"/>
-      <c r="D44" s="24"/>
-      <c r="E44" s="24"/>
+      <c r="D44" s="23"/>
+      <c r="E44" s="23"/>
     </row>
     <row r="45" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B45" s="17"/>
       <c r="C45" s="17"/>
-      <c r="D45" s="24"/>
-      <c r="E45" s="24"/>
+      <c r="D45" s="23"/>
+      <c r="E45" s="23"/>
     </row>
     <row r="46" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B46" s="17"/>
       <c r="C46" s="17"/>
-      <c r="D46" s="24"/>
-      <c r="E46" s="24"/>
+      <c r="D46" s="23"/>
+      <c r="E46" s="23"/>
     </row>
     <row r="47" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B47" s="17"/>
       <c r="C47" s="17"/>
-      <c r="D47" s="24"/>
-      <c r="E47" s="24"/>
+      <c r="D47" s="23"/>
+      <c r="E47" s="23"/>
     </row>
     <row r="48" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B48" s="17"/>
       <c r="C48" s="17"/>
-      <c r="D48" s="24"/>
-      <c r="E48" s="24"/>
+      <c r="D48" s="23"/>
+      <c r="E48" s="23"/>
     </row>
     <row r="49" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B49" s="17"/>
       <c r="C49" s="17"/>
-      <c r="D49" s="24"/>
-      <c r="E49" s="24"/>
+      <c r="D49" s="23"/>
+      <c r="E49" s="23"/>
     </row>
     <row r="50" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B50" s="17"/>
       <c r="C50" s="17"/>
-      <c r="D50" s="24"/>
-      <c r="E50" s="24"/>
+      <c r="D50" s="23"/>
+      <c r="E50" s="23"/>
     </row>
     <row r="51" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B51" s="17"/>
       <c r="C51" s="17"/>
-      <c r="D51" s="24"/>
-      <c r="E51" s="24"/>
+      <c r="D51" s="23"/>
+      <c r="E51" s="23"/>
     </row>
     <row r="52" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B52" s="17"/>
       <c r="C52" s="17"/>
-      <c r="D52" s="24"/>
-      <c r="E52" s="24"/>
+      <c r="D52" s="23"/>
+      <c r="E52" s="23"/>
     </row>
     <row r="53" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B53" s="17"/>
       <c r="C53" s="17"/>
-      <c r="D53" s="24"/>
-      <c r="E53" s="24"/>
+      <c r="D53" s="23"/>
+      <c r="E53" s="23"/>
     </row>
     <row r="54" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B54" s="17"/>
       <c r="C54" s="17"/>
-      <c r="D54" s="24"/>
-      <c r="E54" s="24"/>
+      <c r="D54" s="23"/>
+      <c r="E54" s="23"/>
     </row>
     <row r="55" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B55" s="17"/>
       <c r="C55" s="17"/>
-      <c r="D55" s="24"/>
-      <c r="E55" s="24"/>
+      <c r="D55" s="23"/>
+      <c r="E55" s="23"/>
     </row>
     <row r="56" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B56" s="17"/>
       <c r="C56" s="17"/>
-      <c r="D56" s="24"/>
-      <c r="E56" s="24"/>
+      <c r="D56" s="23"/>
+      <c r="E56" s="23"/>
     </row>
     <row r="57" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B57" s="17"/>
       <c r="C57" s="17"/>
-      <c r="D57" s="24"/>
-      <c r="E57" s="24"/>
+      <c r="D57" s="23"/>
+      <c r="E57" s="23"/>
     </row>
     <row r="58" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B58" s="17"/>
       <c r="C58" s="17"/>
-      <c r="D58" s="24"/>
-      <c r="E58" s="24"/>
+      <c r="D58" s="23"/>
+      <c r="E58" s="23"/>
     </row>
     <row r="59" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B59" s="17"/>
       <c r="C59" s="17"/>
-      <c r="D59" s="24"/>
-      <c r="E59" s="24"/>
+      <c r="D59" s="23"/>
+      <c r="E59" s="23"/>
     </row>
     <row r="60" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B60" s="17"/>
       <c r="C60" s="17"/>
-      <c r="D60" s="24"/>
-      <c r="E60" s="24"/>
+      <c r="D60" s="23"/>
+      <c r="E60" s="23"/>
     </row>
     <row r="61" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B61" s="17"/>
       <c r="C61" s="17"/>
-      <c r="D61" s="24"/>
-      <c r="E61" s="24"/>
+      <c r="D61" s="23"/>
+      <c r="E61" s="23"/>
     </row>
     <row r="62" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B62" s="17"/>
       <c r="C62" s="17"/>
-      <c r="D62" s="24"/>
-      <c r="E62" s="24"/>
+      <c r="D62" s="23"/>
+      <c r="E62" s="23"/>
     </row>
     <row r="63" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B63" s="17"/>
       <c r="C63" s="17"/>
-      <c r="D63" s="24"/>
-      <c r="E63" s="24"/>
+      <c r="D63" s="23"/>
+      <c r="E63" s="23"/>
     </row>
     <row r="64" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B64" s="17"/>
       <c r="C64" s="17"/>
-      <c r="D64" s="24"/>
-      <c r="E64" s="24"/>
+      <c r="D64" s="23"/>
+      <c r="E64" s="23"/>
     </row>
     <row r="65" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B65" s="17"/>
       <c r="C65" s="17"/>
-      <c r="D65" s="24"/>
-      <c r="E65" s="24"/>
+      <c r="D65" s="23"/>
+      <c r="E65" s="23"/>
     </row>
     <row r="66" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B66" s="17"/>
       <c r="C66" s="17"/>
-      <c r="D66" s="24"/>
-      <c r="E66" s="24"/>
+      <c r="D66" s="23"/>
+      <c r="E66" s="23"/>
     </row>
     <row r="67" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B67" s="17"/>
       <c r="C67" s="17"/>
-      <c r="D67" s="24"/>
-      <c r="E67" s="24"/>
+      <c r="D67" s="23"/>
+      <c r="E67" s="23"/>
     </row>
     <row r="68" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B68" s="17"/>
       <c r="C68" s="17"/>
-      <c r="D68" s="24"/>
-      <c r="E68" s="24"/>
+      <c r="D68" s="23"/>
+      <c r="E68" s="23"/>
     </row>
     <row r="69" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B69" s="17"/>
       <c r="C69" s="17"/>
-      <c r="D69" s="24"/>
-      <c r="E69" s="24"/>
+      <c r="D69" s="23"/>
+      <c r="E69" s="23"/>
     </row>
     <row r="70" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B70" s="17"/>
       <c r="C70" s="17"/>
-      <c r="D70" s="24"/>
-      <c r="E70" s="24"/>
+      <c r="D70" s="23"/>
+      <c r="E70" s="23"/>
     </row>
     <row r="71" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B71" s="17"/>
       <c r="C71" s="17"/>
-      <c r="D71" s="24"/>
-      <c r="E71" s="24"/>
+      <c r="D71" s="23"/>
+      <c r="E71" s="23"/>
     </row>
     <row r="72" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B72" s="17"/>
       <c r="C72" s="17"/>
-      <c r="D72" s="24"/>
-      <c r="E72" s="24"/>
+      <c r="D72" s="23"/>
+      <c r="E72" s="23"/>
     </row>
     <row r="73" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B73" s="17"/>
       <c r="C73" s="17"/>
-      <c r="D73" s="24"/>
-      <c r="E73" s="24"/>
+      <c r="D73" s="23"/>
+      <c r="E73" s="23"/>
     </row>
     <row r="74" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B74" s="17"/>
       <c r="C74" s="17"/>
-      <c r="D74" s="24"/>
-      <c r="E74" s="24"/>
+      <c r="D74" s="23"/>
+      <c r="E74" s="23"/>
     </row>
     <row r="75" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B75" s="17"/>
       <c r="C75" s="17"/>
-      <c r="D75" s="24"/>
-      <c r="E75" s="24"/>
+      <c r="D75" s="23"/>
+      <c r="E75" s="23"/>
     </row>
     <row r="76" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B76" s="17"/>
       <c r="C76" s="17"/>
-      <c r="D76" s="24"/>
-      <c r="E76" s="24"/>
+      <c r="D76" s="23"/>
+      <c r="E76" s="23"/>
     </row>
     <row r="77" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B77" s="17"/>
       <c r="C77" s="17"/>
-      <c r="D77" s="24"/>
-      <c r="E77" s="24"/>
+      <c r="D77" s="23"/>
+      <c r="E77" s="23"/>
     </row>
     <row r="78" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B78" s="17"/>
       <c r="C78" s="17"/>
-      <c r="D78" s="24"/>
-      <c r="E78" s="24"/>
+      <c r="D78" s="23"/>
+      <c r="E78" s="23"/>
     </row>
     <row r="79" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B79" s="17"/>
       <c r="C79" s="17"/>
-      <c r="D79" s="24"/>
-      <c r="E79" s="24"/>
+      <c r="D79" s="23"/>
+      <c r="E79" s="23"/>
     </row>
     <row r="80" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B80" s="17"/>
       <c r="C80" s="17"/>
-      <c r="D80" s="24"/>
-      <c r="E80" s="24"/>
+      <c r="D80" s="23"/>
+      <c r="E80" s="23"/>
     </row>
     <row r="81" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B81" s="17"/>
       <c r="C81" s="17"/>
-      <c r="D81" s="24"/>
-      <c r="E81" s="24"/>
+      <c r="D81" s="23"/>
+      <c r="E81" s="23"/>
     </row>
     <row r="82" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B82" s="17"/>
       <c r="C82" s="17"/>
-      <c r="D82" s="24"/>
-      <c r="E82" s="24"/>
+      <c r="D82" s="23"/>
+      <c r="E82" s="23"/>
     </row>
     <row r="83" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B83" s="17"/>
       <c r="C83" s="17"/>
-      <c r="D83" s="24"/>
-      <c r="E83" s="24"/>
+      <c r="D83" s="23"/>
+      <c r="E83" s="23"/>
     </row>
     <row r="84" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B84" s="17"/>
       <c r="C84" s="17"/>
-      <c r="D84" s="24"/>
-      <c r="E84" s="24"/>
+      <c r="D84" s="23"/>
+      <c r="E84" s="23"/>
     </row>
     <row r="85" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B85" s="17"/>
       <c r="C85" s="17"/>
-      <c r="D85" s="24"/>
-      <c r="E85" s="24"/>
+      <c r="D85" s="23"/>
+      <c r="E85" s="23"/>
     </row>
     <row r="86" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B86" s="17"/>
       <c r="C86" s="17"/>
-      <c r="D86" s="24"/>
-      <c r="E86" s="24"/>
+      <c r="D86" s="23"/>
+      <c r="E86" s="23"/>
     </row>
     <row r="87" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B87" s="17"/>
       <c r="C87" s="17"/>
-      <c r="D87" s="24"/>
-      <c r="E87" s="24"/>
+      <c r="D87" s="23"/>
+      <c r="E87" s="23"/>
     </row>
     <row r="88" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B88" s="17"/>
       <c r="C88" s="17"/>
-      <c r="D88" s="24"/>
-      <c r="E88" s="24"/>
+      <c r="D88" s="23"/>
+      <c r="E88" s="23"/>
     </row>
     <row r="89" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B89" s="17"/>
       <c r="C89" s="17"/>
-      <c r="D89" s="24"/>
-      <c r="E89" s="24"/>
+      <c r="D89" s="23"/>
+      <c r="E89" s="23"/>
     </row>
     <row r="90" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B90" s="17"/>
       <c r="C90" s="17"/>
-      <c r="D90" s="24"/>
-      <c r="E90" s="24"/>
+      <c r="D90" s="23"/>
+      <c r="E90" s="23"/>
     </row>
     <row r="91" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B91" s="17"/>
       <c r="C91" s="17"/>
-      <c r="D91" s="24"/>
-      <c r="E91" s="24"/>
+      <c r="D91" s="23"/>
+      <c r="E91" s="23"/>
     </row>
     <row r="92" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B92" s="17"/>
       <c r="C92" s="17"/>
-      <c r="D92" s="24"/>
-      <c r="E92" s="24"/>
+      <c r="D92" s="23"/>
+      <c r="E92" s="23"/>
     </row>
     <row r="93" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B93" s="17"/>
       <c r="C93" s="17"/>
-      <c r="D93" s="24"/>
-      <c r="E93" s="24"/>
+      <c r="D93" s="23"/>
+      <c r="E93" s="23"/>
     </row>
     <row r="94" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B94" s="17"/>
       <c r="C94" s="17"/>
-      <c r="D94" s="24"/>
-      <c r="E94" s="24"/>
+      <c r="D94" s="23"/>
+      <c r="E94" s="23"/>
     </row>
     <row r="95" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B95" s="17"/>
       <c r="C95" s="17"/>
-      <c r="D95" s="24"/>
-      <c r="E95" s="24"/>
+      <c r="D95" s="23"/>
+      <c r="E95" s="23"/>
     </row>
     <row r="96" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B96" s="17"/>
       <c r="C96" s="17"/>
-      <c r="D96" s="24"/>
-      <c r="E96" s="24"/>
+      <c r="D96" s="23"/>
+      <c r="E96" s="23"/>
     </row>
     <row r="97" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B97" s="17"/>
       <c r="C97" s="17"/>
-      <c r="D97" s="24"/>
-      <c r="E97" s="24"/>
+      <c r="D97" s="23"/>
+      <c r="E97" s="23"/>
     </row>
     <row r="98" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B98" s="17"/>
       <c r="C98" s="17"/>
-      <c r="D98" s="24"/>
-      <c r="E98" s="24"/>
+      <c r="D98" s="23"/>
+      <c r="E98" s="23"/>
     </row>
     <row r="99" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B99" s="17"/>
       <c r="C99" s="17"/>
-      <c r="D99" s="24"/>
-      <c r="E99" s="24"/>
+      <c r="D99" s="23"/>
+      <c r="E99" s="23"/>
     </row>
     <row r="100" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B100" s="17"/>
       <c r="C100" s="17"/>
-      <c r="D100" s="24"/>
-      <c r="E100" s="24"/>
+      <c r="D100" s="23"/>
+      <c r="E100" s="23"/>
     </row>
     <row r="101" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B101" s="17"/>
       <c r="C101" s="17"/>
-      <c r="D101" s="24"/>
-      <c r="E101" s="24"/>
+      <c r="D101" s="23"/>
+      <c r="E101" s="23"/>
     </row>
   </sheetData>
   <autoFilter ref="B2:E2"/>
@@ -3289,11 +3325,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:J87"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane xSplit="1" ySplit="2" topLeftCell="B6" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="1" ySplit="2" topLeftCell="B15" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="I36" sqref="I36"/>
+      <selection pane="bottomRight" activeCell="I37" sqref="I37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="12" x14ac:dyDescent="0.3"/>
@@ -4113,7 +4149,7 @@
       <c r="C30" s="12" t="s">
         <v>127</v>
       </c>
-      <c r="D30" s="33" t="s">
+      <c r="D30" s="32" t="s">
         <v>129</v>
       </c>
       <c r="E30" s="12" t="s">
@@ -4141,7 +4177,7 @@
       <c r="C31" s="12" t="s">
         <v>131</v>
       </c>
-      <c r="D31" s="33" t="s">
+      <c r="D31" s="32" t="s">
         <v>130</v>
       </c>
       <c r="E31" s="12" t="s">
@@ -4163,11 +4199,21 @@
       <c r="J31" s="5"/>
     </row>
     <row r="32" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B32" s="4"/>
-      <c r="C32" s="12"/>
-      <c r="D32" s="5"/>
-      <c r="E32" s="12"/>
-      <c r="F32" s="13"/>
+      <c r="B32" s="4" t="s">
+        <v>164</v>
+      </c>
+      <c r="C32" s="12" t="s">
+        <v>165</v>
+      </c>
+      <c r="D32" s="5" t="s">
+        <v>166</v>
+      </c>
+      <c r="E32" s="12" t="s">
+        <v>173</v>
+      </c>
+      <c r="F32" s="13">
+        <v>4275</v>
+      </c>
       <c r="G32" s="12"/>
       <c r="H32" s="13"/>
       <c r="I32" s="14" t="str">
@@ -4177,11 +4223,21 @@
       <c r="J32" s="5"/>
     </row>
     <row r="33" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B33" s="4"/>
-      <c r="C33" s="12"/>
-      <c r="D33" s="5"/>
-      <c r="E33" s="12"/>
-      <c r="F33" s="13"/>
+      <c r="B33" s="4" t="s">
+        <v>164</v>
+      </c>
+      <c r="C33" s="12" t="s">
+        <v>167</v>
+      </c>
+      <c r="D33" s="5" t="s">
+        <v>168</v>
+      </c>
+      <c r="E33" s="12" t="s">
+        <v>173</v>
+      </c>
+      <c r="F33" s="13">
+        <v>27750</v>
+      </c>
       <c r="G33" s="12"/>
       <c r="H33" s="13"/>
       <c r="I33" s="14" t="str">
@@ -4191,11 +4247,21 @@
       <c r="J33" s="5"/>
     </row>
     <row r="34" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B34" s="4"/>
-      <c r="C34" s="12"/>
-      <c r="D34" s="5"/>
-      <c r="E34" s="12"/>
-      <c r="F34" s="13"/>
+      <c r="B34" s="4" t="s">
+        <v>164</v>
+      </c>
+      <c r="C34" s="12" t="s">
+        <v>169</v>
+      </c>
+      <c r="D34" s="5" t="s">
+        <v>170</v>
+      </c>
+      <c r="E34" s="12" t="s">
+        <v>173</v>
+      </c>
+      <c r="F34" s="13">
+        <v>9690</v>
+      </c>
       <c r="G34" s="12"/>
       <c r="H34" s="13"/>
       <c r="I34" s="14" t="str">
@@ -4205,11 +4271,21 @@
       <c r="J34" s="5"/>
     </row>
     <row r="35" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B35" s="4"/>
-      <c r="C35" s="12"/>
-      <c r="D35" s="5"/>
-      <c r="E35" s="12"/>
-      <c r="F35" s="13"/>
+      <c r="B35" s="4" t="s">
+        <v>164</v>
+      </c>
+      <c r="C35" s="12" t="s">
+        <v>171</v>
+      </c>
+      <c r="D35" s="5" t="s">
+        <v>172</v>
+      </c>
+      <c r="E35" s="12" t="s">
+        <v>173</v>
+      </c>
+      <c r="F35" s="13">
+        <v>10088</v>
+      </c>
       <c r="G35" s="12"/>
       <c r="H35" s="13"/>
       <c r="I35" s="14" t="str">
@@ -4975,139 +5051,139 @@
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <sheetData>
     <row r="2" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B2" s="27">
+      <c r="B2" s="26">
         <v>8</v>
       </c>
-      <c r="C2" s="28"/>
-      <c r="D2" s="28"/>
-      <c r="E2" s="28"/>
-      <c r="F2" s="28"/>
-      <c r="G2" s="28"/>
-      <c r="H2" s="28"/>
+      <c r="C2" s="27"/>
+      <c r="D2" s="27"/>
+      <c r="E2" s="27"/>
+      <c r="F2" s="27"/>
+      <c r="G2" s="27"/>
+      <c r="H2" s="27"/>
     </row>
     <row r="3" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B3" s="27">
+      <c r="B3" s="26">
         <v>7</v>
       </c>
-      <c r="C3" s="28"/>
-      <c r="D3" s="28"/>
-      <c r="E3" s="28"/>
-      <c r="F3" s="28"/>
-      <c r="G3" s="28"/>
-      <c r="H3" s="28"/>
+      <c r="C3" s="27"/>
+      <c r="D3" s="27"/>
+      <c r="E3" s="27"/>
+      <c r="F3" s="27"/>
+      <c r="G3" s="27"/>
+      <c r="H3" s="27"/>
     </row>
     <row r="4" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B4" s="27">
+      <c r="B4" s="26">
         <v>6</v>
       </c>
-      <c r="C4" s="28"/>
-      <c r="D4" s="28"/>
-      <c r="E4" s="28"/>
-      <c r="F4" s="28"/>
-      <c r="G4" s="28"/>
-      <c r="H4" s="28"/>
+      <c r="C4" s="27"/>
+      <c r="D4" s="27"/>
+      <c r="E4" s="27"/>
+      <c r="F4" s="27"/>
+      <c r="G4" s="27"/>
+      <c r="H4" s="27"/>
     </row>
     <row r="5" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B5" s="27">
+      <c r="B5" s="26">
         <v>5</v>
       </c>
-      <c r="C5" s="28"/>
-      <c r="D5" s="28"/>
-      <c r="E5" s="28"/>
-      <c r="F5" s="29"/>
-      <c r="G5" s="28"/>
-      <c r="H5" s="28"/>
+      <c r="C5" s="27"/>
+      <c r="D5" s="27"/>
+      <c r="E5" s="27"/>
+      <c r="F5" s="28"/>
+      <c r="G5" s="27"/>
+      <c r="H5" s="27"/>
     </row>
     <row r="6" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B6" s="27">
+      <c r="B6" s="26">
         <v>4</v>
       </c>
-      <c r="C6" s="28"/>
-      <c r="D6" s="28"/>
-      <c r="E6" s="29"/>
-      <c r="F6" s="28"/>
-      <c r="G6" s="29"/>
-      <c r="H6" s="28"/>
+      <c r="C6" s="27"/>
+      <c r="D6" s="27"/>
+      <c r="E6" s="28"/>
+      <c r="F6" s="27"/>
+      <c r="G6" s="28"/>
+      <c r="H6" s="27"/>
     </row>
     <row r="7" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B7" s="27">
+      <c r="B7" s="26">
         <v>3</v>
       </c>
-      <c r="C7" s="28"/>
-      <c r="D7" s="29"/>
-      <c r="E7" s="28"/>
-      <c r="F7" s="28"/>
-      <c r="G7" s="28"/>
-      <c r="H7" s="29"/>
+      <c r="C7" s="27"/>
+      <c r="D7" s="28"/>
+      <c r="E7" s="27"/>
+      <c r="F7" s="27"/>
+      <c r="G7" s="27"/>
+      <c r="H7" s="28"/>
     </row>
     <row r="8" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B8" s="27">
+      <c r="B8" s="26">
         <v>2</v>
       </c>
-      <c r="C8" s="29"/>
-      <c r="D8" s="28"/>
-      <c r="E8" s="28"/>
-      <c r="F8" s="28"/>
-      <c r="G8" s="28"/>
-      <c r="H8" s="28"/>
+      <c r="C8" s="28"/>
+      <c r="D8" s="27"/>
+      <c r="E8" s="27"/>
+      <c r="F8" s="27"/>
+      <c r="G8" s="27"/>
+      <c r="H8" s="27"/>
     </row>
     <row r="9" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B9" s="27">
+      <c r="B9" s="26">
         <v>1</v>
       </c>
-      <c r="C9" s="29"/>
-      <c r="D9" s="28"/>
-      <c r="E9" s="28"/>
-      <c r="F9" s="28"/>
-      <c r="G9" s="28"/>
-      <c r="H9" s="28"/>
+      <c r="C9" s="28"/>
+      <c r="D9" s="27"/>
+      <c r="E9" s="27"/>
+      <c r="F9" s="27"/>
+      <c r="G9" s="27"/>
+      <c r="H9" s="27"/>
     </row>
     <row r="10" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B10" s="30">
+      <c r="B10" s="29">
         <v>-1</v>
       </c>
-      <c r="C10" s="31"/>
-      <c r="D10" s="28"/>
-      <c r="E10" s="28"/>
-      <c r="F10" s="28"/>
-      <c r="G10" s="28"/>
-      <c r="H10" s="28"/>
+      <c r="C10" s="30"/>
+      <c r="D10" s="27"/>
+      <c r="E10" s="27"/>
+      <c r="F10" s="27"/>
+      <c r="G10" s="27"/>
+      <c r="H10" s="27"/>
     </row>
     <row r="11" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B11" s="30">
+      <c r="B11" s="29">
         <v>-2</v>
       </c>
-      <c r="C11" s="31"/>
-      <c r="D11" s="28"/>
-      <c r="E11" s="28"/>
-      <c r="F11" s="28"/>
-      <c r="G11" s="28"/>
-      <c r="H11" s="28"/>
+      <c r="C11" s="30"/>
+      <c r="D11" s="27"/>
+      <c r="E11" s="27"/>
+      <c r="F11" s="27"/>
+      <c r="G11" s="27"/>
+      <c r="H11" s="27"/>
     </row>
     <row r="12" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B12" s="30">
+      <c r="B12" s="29">
         <v>-3</v>
       </c>
-      <c r="C12" s="28"/>
-      <c r="D12" s="28"/>
-      <c r="E12" s="28"/>
-      <c r="F12" s="28"/>
-      <c r="G12" s="28"/>
-      <c r="H12" s="28"/>
+      <c r="C12" s="27"/>
+      <c r="D12" s="27"/>
+      <c r="E12" s="27"/>
+      <c r="F12" s="27"/>
+      <c r="G12" s="27"/>
+      <c r="H12" s="27"/>
     </row>
     <row r="13" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B13" s="30">
+      <c r="B13" s="29">
         <v>-4</v>
       </c>
-      <c r="C13" s="28"/>
-      <c r="D13" s="28"/>
-      <c r="E13" s="28"/>
-      <c r="F13" s="28"/>
-      <c r="G13" s="28"/>
-      <c r="H13" s="28"/>
+      <c r="C13" s="27"/>
+      <c r="D13" s="27"/>
+      <c r="E13" s="27"/>
+      <c r="F13" s="27"/>
+      <c r="G13" s="27"/>
+      <c r="H13" s="27"/>
     </row>
     <row r="16" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B16" s="32" t="s">
+      <c r="B16" s="31" t="s">
         <v>117</v>
       </c>
     </row>
@@ -5122,7 +5198,7 @@
       </c>
     </row>
     <row r="19" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B19" s="32" t="s">
+      <c r="B19" s="31" t="s">
         <v>120</v>
       </c>
     </row>
@@ -5138,7 +5214,7 @@
     </row>
     <row r="22" spans="2:4" x14ac:dyDescent="0.3">
       <c r="D22" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
     <row r="23" spans="2:4" x14ac:dyDescent="0.3">

--- a/WorkShop/01.docs/01.초기학습.xlsx
+++ b/WorkShop/01.docs/01.초기학습.xlsx
@@ -1086,38 +1086,39 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>태림포장</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>에코프로</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>어보브반도체</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>피엔티</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2020-02-11</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>011280</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>태림포장</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>086520</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>에코프로</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>102120</t>
-  </si>
-  <si>
-    <t>어보브반도체</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>137400</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>피엔티</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2020-02-11</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -3329,7 +3330,7 @@
       <pane xSplit="1" ySplit="2" topLeftCell="B15" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="I37" sqref="I37"/>
+      <selection pane="bottomRight" activeCell="A32" sqref="A32:XFD35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="12" x14ac:dyDescent="0.3"/>
@@ -4203,13 +4204,13 @@
         <v>164</v>
       </c>
       <c r="C32" s="12" t="s">
+        <v>170</v>
+      </c>
+      <c r="D32" s="5" t="s">
         <v>165</v>
       </c>
-      <c r="D32" s="5" t="s">
-        <v>166</v>
-      </c>
       <c r="E32" s="12" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="F32" s="13">
         <v>4275</v>
@@ -4227,13 +4228,13 @@
         <v>164</v>
       </c>
       <c r="C33" s="12" t="s">
-        <v>167</v>
+        <v>171</v>
       </c>
       <c r="D33" s="5" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="E33" s="12" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="F33" s="13">
         <v>27750</v>
@@ -4251,13 +4252,13 @@
         <v>164</v>
       </c>
       <c r="C34" s="12" t="s">
+        <v>172</v>
+      </c>
+      <c r="D34" s="5" t="s">
+        <v>167</v>
+      </c>
+      <c r="E34" s="12" t="s">
         <v>169</v>
-      </c>
-      <c r="D34" s="5" t="s">
-        <v>170</v>
-      </c>
-      <c r="E34" s="12" t="s">
-        <v>173</v>
       </c>
       <c r="F34" s="13">
         <v>9690</v>
@@ -4275,13 +4276,13 @@
         <v>164</v>
       </c>
       <c r="C35" s="12" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="D35" s="5" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="E35" s="12" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="F35" s="13">
         <v>10088</v>

--- a/WorkShop/01.docs/01.초기학습.xlsx
+++ b/WorkShop/01.docs/01.초기학습.xlsx
@@ -9,19 +9,20 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11850" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11850" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="00.참고" sheetId="2" r:id="rId1"/>
-    <sheet name="01.지수" sheetId="6" r:id="rId2"/>
-    <sheet name="02.원칙" sheetId="4" r:id="rId3"/>
-    <sheet name="03.모의투자" sheetId="3" r:id="rId4"/>
-    <sheet name="04.스탑로스" sheetId="5" r:id="rId5"/>
+    <sheet name="01-1.지수" sheetId="6" r:id="rId2"/>
+    <sheet name="01-2.차트" sheetId="7" r:id="rId3"/>
+    <sheet name="02.원칙" sheetId="4" r:id="rId4"/>
+    <sheet name="03.모의투자" sheetId="3" r:id="rId5"/>
+    <sheet name="04.스탑로스" sheetId="5" r:id="rId6"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'01.지수'!$B$1:$E$9</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'02.원칙'!$B$2:$E$2</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">'03.모의투자'!$B$2:$J$87</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'01-1.지수'!$B$1:$E$9</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">'02.원칙'!$B$2:$E$2</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">'03.모의투자'!$B$2:$J$87</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
   <extLst>
@@ -33,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="264" uniqueCount="174">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="329" uniqueCount="230">
   <si>
     <t>사이트명</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1121,6 +1122,314 @@
     <t>137400</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>차트명</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>캔들모양</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>실전팁</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>장대양봉</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>상</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>바닥권에서 나타날 때는 추세가 상승으로 전환될 가능성 높음. 단, 급등 후 나타날 경우 세력들이 차익실현을 위해 개인투자자들을 유혹하기 위한 속임수일 수 있으므로 주의할 것</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>아래꼬리양봉
+(망치형)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>중</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>시가 대비 하락했다가 매수세력의 힘으로 재상승해 장마감시 최고가를 기록한 경우 생김.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>시가 최고가이고 종가가 최고가이며 시가보다 높게 상승해 장마감에 최고가를 기록할 경우 생김. 세력들이 강하게 매수하는 경우 생김</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>바닥권에서 나타날 때는 상승 추세로의 전환 가능성 높음.(실전에서 몸통이 짧고 아래꼬리가  길수록 상승전환 가능성 높음)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>위꼬리양봉
+(역망치형, 샅바형)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>하</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>시가 대비 상승했다가 시세차익을 노리는 단기매도세력에 의해 하락시 생김(시가보다는 높게 마감). 참고록 위꼬리가 몸통보가 길면 샅바형, 짧으면 역망치형 이라고 함.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>위아래꼬리양봉
+(팽이형)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>시가 대비 하락했다가 상승 후 재하락할 때 생김(양봉이므로 시가보다 종가는 높게 마감)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>매수세력과 매도세력이 맞붙을 때 나타나며 기존 상승추세의 약화를 의미(상승추세의 약화 내지 지속 등). 일단 관망하는 자세 필요.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>장대음봉</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>(상승/하락)신뢰도</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>시가 최고가이고 종가가 최저가이며 시가보다 낮게 하락해 장마감에 최저가를 기록한 경우 생김. 세력들이 강하게 매도하는 경우 생김.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>천장권에서 나타날 때는 급락 또는 하락추세 가능성 높음. 바닥권에서 나타날 경우도 추가 급락이 이어지는 경우가 많으므로 주의 필요.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>아래꼬리음봉
+(교수형)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">고가권에서 나타날 경우 시세 급락 등 추세하락이 이어질 가능성 높음. </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(매수세력이 약해질 때 생김)</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>바닥권에서 나타날 경우 상승 추세신호로 인식</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(단타성 매물이 장기 투자세력에 의해 소화되는 과정으로 해석)</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>위꼬리음봉
+(유성형)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>하</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>시가보다 상승했다가 매도세력에 의해 시세가 시가보다 낮게 하락해 장마감에 최저가를 기록한 경우 생김.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>시가 대비 하락했다가 매수세력의 힘으로 재상승했으나 시가보다 낮게 상승하여 마감한 경우 생김.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>고점에서 나타날 경우는 상투를 찍고 하락할 가능성이, 바닥권에서 나타날 경우는 지지부진한 시세흐름이 이어질 가능성 높음.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>위아래꼬리음봉
+(팽이형)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>하</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>매수세력에 의해 시가보다 상승했다가 하락 후 재상승하며 마감할 때 생김.(단, 시가보다 종가가 낮게 마감)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">보통 매수세력과 매도세력이 맞붙을 때 나타나며, </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>상승장악형</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>중상</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>전일의 음봉을 당일 양봉이 완전히 압도하며 감싼 패턴.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>바닥권에서 나타날 경우 강한 상승 추세로의 전환신호로 인식</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(매수세력이 이전의 매도세력을 압도하며 시세를 끌어올릴 때 생김)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> 특히 양봉에서 거래량이 급증하며 나타날 경우 신뢰도 높아짐.</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>전일의 종가보다 상승하는 모습의 연속된 3개의 양봉이 이어진 패턴</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>바닥권에서 나타날 경우는 아주 강한 상승추세로의 전환 내지 지속가능성을 나타냄</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(매수세력의 시세끌어올리기 시작으로 판단)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>. 단, 천장권에서 나타날 경우 단기고점인 경우가 많으므로 이 경우는 매도에 대비해야 함.</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>적삼병</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>관통형</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>하락추세에서 나타날 경우, 새로운 매수 세력의 출현을 알리는 강한 반전 신호임.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>샛별형</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>전일종가보다는 낮게 시가가 형성되었지만 전일 음봉 몸통의 50%이상을 당일 양봉 몸통으로 관통하며 상승한 패턴.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>바닥권에서 샛별형 패턴이 나타날 경우, 강력한 상승 반전 신호임.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>흑삼병</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>전일의 종가보다 하락하는 모습의 연속된 3개의 음봉이 이어진 패턴</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>고가권에서 나타날 경우는 추가급락이 이어지는 경우가 많아 매우 강력한 매도신호로 해석됨. 바닥권에서 나타날 경우 역시 추가하락 가능성이 높음.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>흑운형</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>석별형</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>하</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>전일양봉 몸통의 50% 이하에서 당일 종가가 형성된 음봉 패턴</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>흑운형 패턴은 신뢰도는 높지 않으나 향후 하락 가능성에 대비해야 함.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>장대음봉에 이은 갭하락성 십자봉도지(혹은 몸통이 짧은 양봉). 그리고 이어진 양봉(종가가 첫째음봉몸통의 50%이상을 당일 양봉 몸통으로 관통하며 상승한 패턴)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>장대양봉에 이어진 갭상승 십자봉도지(혹은 몸통이 짧은 양봉). 그리고 이어진 음봉(종가가 첫째양봉몸통의 50%이하 가격에서 종가형성)등 3개 봉이 순서대로 이어진 패턴</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>고가권에서 이러한 석별형 패턴이 나타날 경우, 강력한 하락 반전 신호임.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
@@ -1129,7 +1438,7 @@
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="&quot;₩&quot;#,##0"/>
   </numFmts>
-  <fonts count="12" x14ac:knownFonts="1">
+  <fonts count="13" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1225,6 +1534,14 @@
       <b/>
       <sz val="9"/>
       <color rgb="FFFF0000"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color rgb="FF0070C0"/>
       <name val="맑은 고딕"/>
       <family val="3"/>
       <charset val="129"/>
@@ -1356,7 +1673,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="48">
+  <cellXfs count="58">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1480,12 +1797,6 @@
     <xf numFmtId="49" fontId="4" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="10" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="10" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="49" fontId="10" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -1498,8 +1809,44 @@
     <xf numFmtId="49" fontId="10" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="49" fontId="10" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="10" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="49" fontId="10" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="10" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="10" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="11" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="10" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="11" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="11" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="11" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="11" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="12" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1599,6 +1946,3749 @@
 </file>
 
 <file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>952499</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>136958</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>1076325</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>838200</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="16" name="직사각형 15"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2466974" y="289358"/>
+          <a:ext cx="123826" cy="701242"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FF0000"/>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>942975</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>213158</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>1076325</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>771525</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="28" name="그룹 27"/>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="2228850" y="1279958"/>
+          <a:ext cx="133350" cy="558367"/>
+          <a:chOff x="13430250" y="1704975"/>
+          <a:chExt cx="171450" cy="1009650"/>
+        </a:xfrm>
+        <a:solidFill>
+          <a:srgbClr val="FF0000"/>
+        </a:solidFill>
+      </xdr:grpSpPr>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="29" name="직사각형 28"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="13430250" y="1704975"/>
+            <a:ext cx="171450" cy="742950"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:grpFill/>
+          <a:ln>
+            <a:solidFill>
+              <a:srgbClr val="FF0000"/>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:cxnSp macro="">
+        <xdr:nvCxnSpPr>
+          <xdr:cNvPr id="31" name="직선 연결선 30"/>
+          <xdr:cNvCxnSpPr>
+            <a:stCxn id="29" idx="2"/>
+          </xdr:cNvCxnSpPr>
+        </xdr:nvCxnSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="13515975" y="2447925"/>
+            <a:ext cx="0" cy="266700"/>
+          </a:xfrm>
+          <a:prstGeom prst="line">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:grpFill/>
+          <a:ln>
+            <a:solidFill>
+              <a:srgbClr val="FF0000"/>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="tx1"/>
+          </a:fontRef>
+        </xdr:style>
+      </xdr:cxnSp>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>590550</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>723900</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>671656</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="32" name="그룹 31"/>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="1876425" y="2105025"/>
+          <a:ext cx="133350" cy="547831"/>
+          <a:chOff x="13430250" y="1457325"/>
+          <a:chExt cx="171450" cy="990598"/>
+        </a:xfrm>
+        <a:solidFill>
+          <a:srgbClr val="FF0000"/>
+        </a:solidFill>
+      </xdr:grpSpPr>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="33" name="직사각형 32"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="13430250" y="2163478"/>
+            <a:ext cx="171450" cy="284445"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:grpFill/>
+          <a:ln>
+            <a:solidFill>
+              <a:srgbClr val="FF0000"/>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:cxnSp macro="">
+        <xdr:nvCxnSpPr>
+          <xdr:cNvPr id="34" name="직선 연결선 33"/>
+          <xdr:cNvCxnSpPr>
+            <a:stCxn id="33" idx="0"/>
+          </xdr:cNvCxnSpPr>
+        </xdr:nvCxnSpPr>
+        <xdr:spPr>
+          <a:xfrm flipV="1">
+            <a:off x="13515975" y="1457325"/>
+            <a:ext cx="0" cy="706153"/>
+          </a:xfrm>
+          <a:prstGeom prst="line">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:grpFill/>
+          <a:ln>
+            <a:solidFill>
+              <a:srgbClr val="FF0000"/>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="tx1"/>
+          </a:fontRef>
+        </xdr:style>
+      </xdr:cxnSp>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>1238250</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>1371600</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>681182</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="36" name="그룹 35"/>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="2524125" y="2114550"/>
+          <a:ext cx="133350" cy="547832"/>
+          <a:chOff x="13430250" y="1457325"/>
+          <a:chExt cx="171450" cy="990600"/>
+        </a:xfrm>
+        <a:solidFill>
+          <a:srgbClr val="FF0000"/>
+        </a:solidFill>
+      </xdr:grpSpPr>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="37" name="직사각형 36"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="13430250" y="1704975"/>
+            <a:ext cx="171450" cy="742950"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:grpFill/>
+          <a:ln>
+            <a:solidFill>
+              <a:srgbClr val="FF0000"/>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:cxnSp macro="">
+        <xdr:nvCxnSpPr>
+          <xdr:cNvPr id="38" name="직선 연결선 37"/>
+          <xdr:cNvCxnSpPr>
+            <a:stCxn id="37" idx="0"/>
+          </xdr:cNvCxnSpPr>
+        </xdr:nvCxnSpPr>
+        <xdr:spPr>
+          <a:xfrm flipV="1">
+            <a:off x="13515975" y="1457325"/>
+            <a:ext cx="0" cy="247650"/>
+          </a:xfrm>
+          <a:prstGeom prst="line">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:grpFill/>
+          <a:ln>
+            <a:solidFill>
+              <a:srgbClr val="FF0000"/>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="tx1"/>
+          </a:fontRef>
+        </xdr:style>
+      </xdr:cxnSp>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>914400</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>1047750</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>809625</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="40" name="그룹 39"/>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="2200275" y="3009900"/>
+          <a:ext cx="133350" cy="695325"/>
+          <a:chOff x="13430250" y="1457325"/>
+          <a:chExt cx="171450" cy="1257300"/>
+        </a:xfrm>
+        <a:solidFill>
+          <a:srgbClr val="FF0000"/>
+        </a:solidFill>
+      </xdr:grpSpPr>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="41" name="직사각형 40"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="13430250" y="1704975"/>
+            <a:ext cx="171450" cy="742950"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:grpFill/>
+          <a:ln>
+            <a:solidFill>
+              <a:srgbClr val="FF0000"/>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:cxnSp macro="">
+        <xdr:nvCxnSpPr>
+          <xdr:cNvPr id="42" name="직선 연결선 41"/>
+          <xdr:cNvCxnSpPr>
+            <a:stCxn id="41" idx="0"/>
+          </xdr:cNvCxnSpPr>
+        </xdr:nvCxnSpPr>
+        <xdr:spPr>
+          <a:xfrm flipV="1">
+            <a:off x="13515975" y="1457325"/>
+            <a:ext cx="0" cy="247650"/>
+          </a:xfrm>
+          <a:prstGeom prst="line">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:grpFill/>
+          <a:ln>
+            <a:solidFill>
+              <a:srgbClr val="FF0000"/>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="tx1"/>
+          </a:fontRef>
+        </xdr:style>
+      </xdr:cxnSp>
+      <xdr:cxnSp macro="">
+        <xdr:nvCxnSpPr>
+          <xdr:cNvPr id="43" name="직선 연결선 42"/>
+          <xdr:cNvCxnSpPr>
+            <a:stCxn id="41" idx="2"/>
+          </xdr:cNvCxnSpPr>
+        </xdr:nvCxnSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="13515975" y="2447925"/>
+            <a:ext cx="0" cy="266700"/>
+          </a:xfrm>
+          <a:prstGeom prst="line">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:grpFill/>
+          <a:ln>
+            <a:solidFill>
+              <a:srgbClr val="FF0000"/>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="tx1"/>
+          </a:fontRef>
+        </xdr:style>
+      </xdr:cxnSp>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>876300</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>222683</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>1009650</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>781050</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="45" name="그룹 44"/>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="2162175" y="4947083"/>
+          <a:ext cx="133350" cy="558367"/>
+          <a:chOff x="13430250" y="1704975"/>
+          <a:chExt cx="171450" cy="1009650"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="46" name="직사각형 45"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="13430250" y="1704975"/>
+            <a:ext cx="171450" cy="742950"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:cxnSp macro="">
+        <xdr:nvCxnSpPr>
+          <xdr:cNvPr id="48" name="직선 연결선 47"/>
+          <xdr:cNvCxnSpPr>
+            <a:stCxn id="46" idx="2"/>
+          </xdr:cNvCxnSpPr>
+        </xdr:nvCxnSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="13515975" y="2447925"/>
+            <a:ext cx="0" cy="266700"/>
+          </a:xfrm>
+          <a:prstGeom prst="line">
+            <a:avLst/>
+          </a:prstGeom>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="tx1"/>
+          </a:fontRef>
+        </xdr:style>
+      </xdr:cxnSp>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>876299</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>117907</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>1009650</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>828675</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="50" name="직사각형 49"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2162174" y="3927907"/>
+          <a:ext cx="133351" cy="710768"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>819150</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>952500</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>681182</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="52" name="그룹 51"/>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="2105025" y="5772150"/>
+          <a:ext cx="133350" cy="547832"/>
+          <a:chOff x="13430250" y="1457325"/>
+          <a:chExt cx="171450" cy="990600"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="53" name="직사각형 52"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="13430250" y="1704975"/>
+            <a:ext cx="171450" cy="742950"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:cxnSp macro="">
+        <xdr:nvCxnSpPr>
+          <xdr:cNvPr id="54" name="직선 연결선 53"/>
+          <xdr:cNvCxnSpPr>
+            <a:stCxn id="53" idx="0"/>
+          </xdr:cNvCxnSpPr>
+        </xdr:nvCxnSpPr>
+        <xdr:spPr>
+          <a:xfrm flipV="1">
+            <a:off x="13515975" y="1457325"/>
+            <a:ext cx="0" cy="247650"/>
+          </a:xfrm>
+          <a:prstGeom prst="line">
+            <a:avLst/>
+          </a:prstGeom>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="tx1"/>
+          </a:fontRef>
+        </xdr:style>
+      </xdr:cxnSp>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>819150</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>952500</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>800100</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="60" name="그룹 59"/>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="2105025" y="6657975"/>
+          <a:ext cx="133350" cy="695325"/>
+          <a:chOff x="13430250" y="1457325"/>
+          <a:chExt cx="171450" cy="1257300"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="61" name="직사각형 60"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="13430250" y="1704975"/>
+            <a:ext cx="171450" cy="742950"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:cxnSp macro="">
+        <xdr:nvCxnSpPr>
+          <xdr:cNvPr id="62" name="직선 연결선 61"/>
+          <xdr:cNvCxnSpPr>
+            <a:stCxn id="61" idx="0"/>
+          </xdr:cNvCxnSpPr>
+        </xdr:nvCxnSpPr>
+        <xdr:spPr>
+          <a:xfrm flipV="1">
+            <a:off x="13515975" y="1457325"/>
+            <a:ext cx="0" cy="247650"/>
+          </a:xfrm>
+          <a:prstGeom prst="line">
+            <a:avLst/>
+          </a:prstGeom>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="tx1"/>
+          </a:fontRef>
+        </xdr:style>
+      </xdr:cxnSp>
+      <xdr:cxnSp macro="">
+        <xdr:nvCxnSpPr>
+          <xdr:cNvPr id="63" name="직선 연결선 62"/>
+          <xdr:cNvCxnSpPr>
+            <a:stCxn id="61" idx="2"/>
+          </xdr:cNvCxnSpPr>
+        </xdr:nvCxnSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="13515975" y="2447925"/>
+            <a:ext cx="0" cy="266700"/>
+          </a:xfrm>
+          <a:prstGeom prst="line">
+            <a:avLst/>
+          </a:prstGeom>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="tx1"/>
+          </a:fontRef>
+        </xdr:style>
+      </xdr:cxnSp>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>1009650</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>1143000</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>790575</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="64" name="그룹 63"/>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="2295525" y="7562850"/>
+          <a:ext cx="133350" cy="695325"/>
+          <a:chOff x="13430250" y="1457325"/>
+          <a:chExt cx="171450" cy="1257300"/>
+        </a:xfrm>
+        <a:solidFill>
+          <a:srgbClr val="FF0000"/>
+        </a:solidFill>
+      </xdr:grpSpPr>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="65" name="직사각형 64"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="13430250" y="1704975"/>
+            <a:ext cx="171450" cy="742950"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:grpFill/>
+          <a:ln>
+            <a:solidFill>
+              <a:srgbClr val="FF0000"/>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:cxnSp macro="">
+        <xdr:nvCxnSpPr>
+          <xdr:cNvPr id="66" name="직선 연결선 65"/>
+          <xdr:cNvCxnSpPr>
+            <a:stCxn id="65" idx="0"/>
+          </xdr:cNvCxnSpPr>
+        </xdr:nvCxnSpPr>
+        <xdr:spPr>
+          <a:xfrm flipV="1">
+            <a:off x="13515975" y="1457325"/>
+            <a:ext cx="0" cy="247650"/>
+          </a:xfrm>
+          <a:prstGeom prst="line">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:grpFill/>
+          <a:ln>
+            <a:solidFill>
+              <a:srgbClr val="FF0000"/>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="tx1"/>
+          </a:fontRef>
+        </xdr:style>
+      </xdr:cxnSp>
+      <xdr:cxnSp macro="">
+        <xdr:nvCxnSpPr>
+          <xdr:cNvPr id="67" name="직선 연결선 66"/>
+          <xdr:cNvCxnSpPr>
+            <a:stCxn id="65" idx="2"/>
+          </xdr:cNvCxnSpPr>
+        </xdr:nvCxnSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="13515975" y="2447925"/>
+            <a:ext cx="0" cy="266700"/>
+          </a:xfrm>
+          <a:prstGeom prst="line">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:grpFill/>
+          <a:ln>
+            <a:solidFill>
+              <a:srgbClr val="FF0000"/>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="tx1"/>
+          </a:fontRef>
+        </xdr:style>
+      </xdr:cxnSp>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>742950</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>276226</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>876300</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>581026</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="68" name="그룹 67"/>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="2028825" y="7743826"/>
+          <a:ext cx="133350" cy="304800"/>
+          <a:chOff x="13430250" y="1457325"/>
+          <a:chExt cx="171450" cy="1257300"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="69" name="직사각형 68"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="13430250" y="1704975"/>
+            <a:ext cx="171450" cy="742950"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:cxnSp macro="">
+        <xdr:nvCxnSpPr>
+          <xdr:cNvPr id="70" name="직선 연결선 69"/>
+          <xdr:cNvCxnSpPr>
+            <a:stCxn id="69" idx="0"/>
+          </xdr:cNvCxnSpPr>
+        </xdr:nvCxnSpPr>
+        <xdr:spPr>
+          <a:xfrm flipV="1">
+            <a:off x="13515975" y="1457325"/>
+            <a:ext cx="0" cy="247650"/>
+          </a:xfrm>
+          <a:prstGeom prst="line">
+            <a:avLst/>
+          </a:prstGeom>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="tx1"/>
+          </a:fontRef>
+        </xdr:style>
+      </xdr:cxnSp>
+      <xdr:cxnSp macro="">
+        <xdr:nvCxnSpPr>
+          <xdr:cNvPr id="71" name="직선 연결선 70"/>
+          <xdr:cNvCxnSpPr>
+            <a:stCxn id="69" idx="2"/>
+          </xdr:cNvCxnSpPr>
+        </xdr:nvCxnSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="13515975" y="2447925"/>
+            <a:ext cx="0" cy="266700"/>
+          </a:xfrm>
+          <a:prstGeom prst="line">
+            <a:avLst/>
+          </a:prstGeom>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="tx1"/>
+          </a:fontRef>
+        </xdr:style>
+      </xdr:cxnSp>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>485775</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>190500</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>619125</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>885825</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="72" name="그룹 71"/>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="1771650" y="8572500"/>
+          <a:ext cx="133350" cy="695325"/>
+          <a:chOff x="13430250" y="1457325"/>
+          <a:chExt cx="171450" cy="1257300"/>
+        </a:xfrm>
+        <a:solidFill>
+          <a:srgbClr val="FF0000"/>
+        </a:solidFill>
+      </xdr:grpSpPr>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="73" name="직사각형 72"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="13430250" y="1704975"/>
+            <a:ext cx="171450" cy="742950"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:grpFill/>
+          <a:ln>
+            <a:solidFill>
+              <a:srgbClr val="FF0000"/>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:cxnSp macro="">
+        <xdr:nvCxnSpPr>
+          <xdr:cNvPr id="74" name="직선 연결선 73"/>
+          <xdr:cNvCxnSpPr>
+            <a:stCxn id="73" idx="0"/>
+          </xdr:cNvCxnSpPr>
+        </xdr:nvCxnSpPr>
+        <xdr:spPr>
+          <a:xfrm flipV="1">
+            <a:off x="13515975" y="1457325"/>
+            <a:ext cx="0" cy="247650"/>
+          </a:xfrm>
+          <a:prstGeom prst="line">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:grpFill/>
+          <a:ln>
+            <a:solidFill>
+              <a:srgbClr val="FF0000"/>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="tx1"/>
+          </a:fontRef>
+        </xdr:style>
+      </xdr:cxnSp>
+      <xdr:cxnSp macro="">
+        <xdr:nvCxnSpPr>
+          <xdr:cNvPr id="75" name="직선 연결선 74"/>
+          <xdr:cNvCxnSpPr>
+            <a:stCxn id="73" idx="2"/>
+          </xdr:cNvCxnSpPr>
+        </xdr:nvCxnSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="13515975" y="2447925"/>
+            <a:ext cx="0" cy="266700"/>
+          </a:xfrm>
+          <a:prstGeom prst="line">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:grpFill/>
+          <a:ln>
+            <a:solidFill>
+              <a:srgbClr val="FF0000"/>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="tx1"/>
+          </a:fontRef>
+        </xdr:style>
+      </xdr:cxnSp>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>819150</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>952500</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>819150</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="76" name="그룹 75"/>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="2105025" y="8505825"/>
+          <a:ext cx="133350" cy="695325"/>
+          <a:chOff x="13430250" y="1457325"/>
+          <a:chExt cx="171450" cy="1257300"/>
+        </a:xfrm>
+        <a:solidFill>
+          <a:srgbClr val="FF0000"/>
+        </a:solidFill>
+      </xdr:grpSpPr>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="77" name="직사각형 76"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="13430250" y="1704975"/>
+            <a:ext cx="171450" cy="742950"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:grpFill/>
+          <a:ln>
+            <a:solidFill>
+              <a:srgbClr val="FF0000"/>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:cxnSp macro="">
+        <xdr:nvCxnSpPr>
+          <xdr:cNvPr id="78" name="직선 연결선 77"/>
+          <xdr:cNvCxnSpPr>
+            <a:stCxn id="77" idx="0"/>
+          </xdr:cNvCxnSpPr>
+        </xdr:nvCxnSpPr>
+        <xdr:spPr>
+          <a:xfrm flipV="1">
+            <a:off x="13515975" y="1457325"/>
+            <a:ext cx="0" cy="247650"/>
+          </a:xfrm>
+          <a:prstGeom prst="line">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:grpFill/>
+          <a:ln>
+            <a:solidFill>
+              <a:srgbClr val="FF0000"/>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="tx1"/>
+          </a:fontRef>
+        </xdr:style>
+      </xdr:cxnSp>
+      <xdr:cxnSp macro="">
+        <xdr:nvCxnSpPr>
+          <xdr:cNvPr id="79" name="직선 연결선 78"/>
+          <xdr:cNvCxnSpPr>
+            <a:stCxn id="77" idx="2"/>
+          </xdr:cNvCxnSpPr>
+        </xdr:nvCxnSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="13515975" y="2447925"/>
+            <a:ext cx="0" cy="266700"/>
+          </a:xfrm>
+          <a:prstGeom prst="line">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:grpFill/>
+          <a:ln>
+            <a:solidFill>
+              <a:srgbClr val="FF0000"/>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="tx1"/>
+          </a:fontRef>
+        </xdr:style>
+      </xdr:cxnSp>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>1133475</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>1266825</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>733425</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="80" name="그룹 79"/>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="2419350" y="8420100"/>
+          <a:ext cx="133350" cy="695325"/>
+          <a:chOff x="13430250" y="1457325"/>
+          <a:chExt cx="171450" cy="1257300"/>
+        </a:xfrm>
+        <a:solidFill>
+          <a:srgbClr val="FF0000"/>
+        </a:solidFill>
+      </xdr:grpSpPr>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="81" name="직사각형 80"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="13430250" y="1704975"/>
+            <a:ext cx="171450" cy="742950"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:grpFill/>
+          <a:ln>
+            <a:solidFill>
+              <a:srgbClr val="FF0000"/>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:cxnSp macro="">
+        <xdr:nvCxnSpPr>
+          <xdr:cNvPr id="82" name="직선 연결선 81"/>
+          <xdr:cNvCxnSpPr>
+            <a:stCxn id="81" idx="0"/>
+          </xdr:cNvCxnSpPr>
+        </xdr:nvCxnSpPr>
+        <xdr:spPr>
+          <a:xfrm flipV="1">
+            <a:off x="13515975" y="1457325"/>
+            <a:ext cx="0" cy="247650"/>
+          </a:xfrm>
+          <a:prstGeom prst="line">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:grpFill/>
+          <a:ln>
+            <a:solidFill>
+              <a:srgbClr val="FF0000"/>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="tx1"/>
+          </a:fontRef>
+        </xdr:style>
+      </xdr:cxnSp>
+      <xdr:cxnSp macro="">
+        <xdr:nvCxnSpPr>
+          <xdr:cNvPr id="83" name="직선 연결선 82"/>
+          <xdr:cNvCxnSpPr>
+            <a:stCxn id="81" idx="2"/>
+          </xdr:cNvCxnSpPr>
+        </xdr:nvCxnSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="13515975" y="2447925"/>
+            <a:ext cx="0" cy="266700"/>
+          </a:xfrm>
+          <a:prstGeom prst="line">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:grpFill/>
+          <a:ln>
+            <a:solidFill>
+              <a:srgbClr val="FF0000"/>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="tx1"/>
+          </a:fontRef>
+        </xdr:style>
+      </xdr:cxnSp>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>990600</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>180975</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>1123950</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>876300</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="84" name="그룹 83"/>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="2276475" y="9477375"/>
+          <a:ext cx="133350" cy="695325"/>
+          <a:chOff x="13430250" y="1457325"/>
+          <a:chExt cx="171450" cy="1257300"/>
+        </a:xfrm>
+        <a:solidFill>
+          <a:srgbClr val="FF0000"/>
+        </a:solidFill>
+      </xdr:grpSpPr>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="85" name="직사각형 84"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="13430250" y="1704975"/>
+            <a:ext cx="171450" cy="742950"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:grpFill/>
+          <a:ln>
+            <a:solidFill>
+              <a:srgbClr val="FF0000"/>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:cxnSp macro="">
+        <xdr:nvCxnSpPr>
+          <xdr:cNvPr id="86" name="직선 연결선 85"/>
+          <xdr:cNvCxnSpPr>
+            <a:stCxn id="85" idx="0"/>
+          </xdr:cNvCxnSpPr>
+        </xdr:nvCxnSpPr>
+        <xdr:spPr>
+          <a:xfrm flipV="1">
+            <a:off x="13515975" y="1457325"/>
+            <a:ext cx="0" cy="247650"/>
+          </a:xfrm>
+          <a:prstGeom prst="line">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:grpFill/>
+          <a:ln>
+            <a:solidFill>
+              <a:srgbClr val="FF0000"/>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="tx1"/>
+          </a:fontRef>
+        </xdr:style>
+      </xdr:cxnSp>
+      <xdr:cxnSp macro="">
+        <xdr:nvCxnSpPr>
+          <xdr:cNvPr id="87" name="직선 연결선 86"/>
+          <xdr:cNvCxnSpPr>
+            <a:stCxn id="85" idx="2"/>
+          </xdr:cNvCxnSpPr>
+        </xdr:nvCxnSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="13515975" y="2447925"/>
+            <a:ext cx="0" cy="266700"/>
+          </a:xfrm>
+          <a:prstGeom prst="line">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:grpFill/>
+          <a:ln>
+            <a:solidFill>
+              <a:srgbClr val="FF0000"/>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="tx1"/>
+          </a:fontRef>
+        </xdr:style>
+      </xdr:cxnSp>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>704850</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>838200</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>714375</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="88" name="그룹 87"/>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="1990725" y="9315450"/>
+          <a:ext cx="133350" cy="695325"/>
+          <a:chOff x="13430250" y="1457325"/>
+          <a:chExt cx="171450" cy="1257300"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="89" name="직사각형 88"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="13430250" y="1704975"/>
+            <a:ext cx="171450" cy="742950"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:cxnSp macro="">
+        <xdr:nvCxnSpPr>
+          <xdr:cNvPr id="90" name="직선 연결선 89"/>
+          <xdr:cNvCxnSpPr>
+            <a:stCxn id="89" idx="0"/>
+          </xdr:cNvCxnSpPr>
+        </xdr:nvCxnSpPr>
+        <xdr:spPr>
+          <a:xfrm flipV="1">
+            <a:off x="13515975" y="1457325"/>
+            <a:ext cx="0" cy="247650"/>
+          </a:xfrm>
+          <a:prstGeom prst="line">
+            <a:avLst/>
+          </a:prstGeom>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="tx1"/>
+          </a:fontRef>
+        </xdr:style>
+      </xdr:cxnSp>
+      <xdr:cxnSp macro="">
+        <xdr:nvCxnSpPr>
+          <xdr:cNvPr id="91" name="직선 연결선 90"/>
+          <xdr:cNvCxnSpPr>
+            <a:stCxn id="89" idx="2"/>
+          </xdr:cNvCxnSpPr>
+        </xdr:nvCxnSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="13515975" y="2447925"/>
+            <a:ext cx="0" cy="266700"/>
+          </a:xfrm>
+          <a:prstGeom prst="line">
+            <a:avLst/>
+          </a:prstGeom>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="tx1"/>
+          </a:fontRef>
+        </xdr:style>
+      </xdr:cxnSp>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>295275</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>304800</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>1600200</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>323850</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="93" name="직선 연결선 92"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="1581150" y="9601200"/>
+          <a:ext cx="1304925" cy="19050"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:prstDash val="dash"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>1095375</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>180975</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>1228725</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>876300</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="94" name="그룹 93"/>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="2381250" y="10391775"/>
+          <a:ext cx="133350" cy="695325"/>
+          <a:chOff x="13430250" y="1457325"/>
+          <a:chExt cx="171450" cy="1257300"/>
+        </a:xfrm>
+        <a:solidFill>
+          <a:srgbClr val="FF0000"/>
+        </a:solidFill>
+      </xdr:grpSpPr>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="95" name="직사각형 94"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="13430250" y="1704975"/>
+            <a:ext cx="171450" cy="742950"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:grpFill/>
+          <a:ln>
+            <a:solidFill>
+              <a:srgbClr val="FF0000"/>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:cxnSp macro="">
+        <xdr:nvCxnSpPr>
+          <xdr:cNvPr id="96" name="직선 연결선 95"/>
+          <xdr:cNvCxnSpPr>
+            <a:stCxn id="95" idx="0"/>
+          </xdr:cNvCxnSpPr>
+        </xdr:nvCxnSpPr>
+        <xdr:spPr>
+          <a:xfrm flipV="1">
+            <a:off x="13515975" y="1457325"/>
+            <a:ext cx="0" cy="247650"/>
+          </a:xfrm>
+          <a:prstGeom prst="line">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:grpFill/>
+          <a:ln>
+            <a:solidFill>
+              <a:srgbClr val="FF0000"/>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="tx1"/>
+          </a:fontRef>
+        </xdr:style>
+      </xdr:cxnSp>
+      <xdr:cxnSp macro="">
+        <xdr:nvCxnSpPr>
+          <xdr:cNvPr id="97" name="직선 연결선 96"/>
+          <xdr:cNvCxnSpPr>
+            <a:stCxn id="95" idx="2"/>
+          </xdr:cNvCxnSpPr>
+        </xdr:nvCxnSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="13515975" y="2447925"/>
+            <a:ext cx="0" cy="266700"/>
+          </a:xfrm>
+          <a:prstGeom prst="line">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:grpFill/>
+          <a:ln>
+            <a:solidFill>
+              <a:srgbClr val="FF0000"/>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="tx1"/>
+          </a:fontRef>
+        </xdr:style>
+      </xdr:cxnSp>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>504825</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>638175</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>714375</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="98" name="그룹 97"/>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="1790700" y="10229850"/>
+          <a:ext cx="133350" cy="695325"/>
+          <a:chOff x="13430250" y="1457325"/>
+          <a:chExt cx="171450" cy="1257300"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="99" name="직사각형 98"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="13430250" y="1704975"/>
+            <a:ext cx="171450" cy="742950"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:cxnSp macro="">
+        <xdr:nvCxnSpPr>
+          <xdr:cNvPr id="100" name="직선 연결선 99"/>
+          <xdr:cNvCxnSpPr>
+            <a:stCxn id="99" idx="0"/>
+          </xdr:cNvCxnSpPr>
+        </xdr:nvCxnSpPr>
+        <xdr:spPr>
+          <a:xfrm flipV="1">
+            <a:off x="13515975" y="1457325"/>
+            <a:ext cx="0" cy="247650"/>
+          </a:xfrm>
+          <a:prstGeom prst="line">
+            <a:avLst/>
+          </a:prstGeom>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="tx1"/>
+          </a:fontRef>
+        </xdr:style>
+      </xdr:cxnSp>
+      <xdr:cxnSp macro="">
+        <xdr:nvCxnSpPr>
+          <xdr:cNvPr id="101" name="직선 연결선 100"/>
+          <xdr:cNvCxnSpPr>
+            <a:stCxn id="99" idx="2"/>
+          </xdr:cNvCxnSpPr>
+        </xdr:nvCxnSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="13515975" y="2447925"/>
+            <a:ext cx="0" cy="266700"/>
+          </a:xfrm>
+          <a:prstGeom prst="line">
+            <a:avLst/>
+          </a:prstGeom>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="tx1"/>
+          </a:fontRef>
+        </xdr:style>
+      </xdr:cxnSp>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>295275</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>304800</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>1600200</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>323850</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="102" name="직선 연결선 101"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="1581150" y="9601200"/>
+          <a:ext cx="1304925" cy="19050"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:prstDash val="dash"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>781049</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>514351</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>933450</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>723901</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="103" name="그룹 102"/>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="2066924" y="10725151"/>
+          <a:ext cx="152401" cy="209550"/>
+          <a:chOff x="13430250" y="1457325"/>
+          <a:chExt cx="171450" cy="1257300"/>
+        </a:xfrm>
+        <a:solidFill>
+          <a:srgbClr val="FF0000"/>
+        </a:solidFill>
+      </xdr:grpSpPr>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="104" name="직사각형 103"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="13430250" y="1704975"/>
+            <a:ext cx="171450" cy="742950"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:grpFill/>
+          <a:ln>
+            <a:solidFill>
+              <a:srgbClr val="FF0000"/>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:cxnSp macro="">
+        <xdr:nvCxnSpPr>
+          <xdr:cNvPr id="105" name="직선 연결선 104"/>
+          <xdr:cNvCxnSpPr>
+            <a:stCxn id="104" idx="0"/>
+          </xdr:cNvCxnSpPr>
+        </xdr:nvCxnSpPr>
+        <xdr:spPr>
+          <a:xfrm flipV="1">
+            <a:off x="13515975" y="1457325"/>
+            <a:ext cx="0" cy="247650"/>
+          </a:xfrm>
+          <a:prstGeom prst="line">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:grpFill/>
+          <a:ln>
+            <a:solidFill>
+              <a:srgbClr val="FF0000"/>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="tx1"/>
+          </a:fontRef>
+        </xdr:style>
+      </xdr:cxnSp>
+      <xdr:cxnSp macro="">
+        <xdr:nvCxnSpPr>
+          <xdr:cNvPr id="106" name="직선 연결선 105"/>
+          <xdr:cNvCxnSpPr>
+            <a:stCxn id="104" idx="2"/>
+          </xdr:cNvCxnSpPr>
+        </xdr:nvCxnSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="13515975" y="2447925"/>
+            <a:ext cx="0" cy="266700"/>
+          </a:xfrm>
+          <a:prstGeom prst="line">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:grpFill/>
+          <a:ln>
+            <a:solidFill>
+              <a:srgbClr val="FF0000"/>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="tx1"/>
+          </a:fontRef>
+        </xdr:style>
+      </xdr:cxnSp>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>485775</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>619125</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>714375</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="107" name="그룹 106"/>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="1771650" y="11144250"/>
+          <a:ext cx="133350" cy="695325"/>
+          <a:chOff x="13430250" y="1457325"/>
+          <a:chExt cx="171450" cy="1257300"/>
+        </a:xfrm>
+        <a:solidFill>
+          <a:srgbClr val="0070C0"/>
+        </a:solidFill>
+      </xdr:grpSpPr>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="108" name="직사각형 107"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="13430250" y="1704975"/>
+            <a:ext cx="171450" cy="742950"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:grpFill/>
+          <a:ln>
+            <a:solidFill>
+              <a:srgbClr val="0070C0"/>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:cxnSp macro="">
+        <xdr:nvCxnSpPr>
+          <xdr:cNvPr id="109" name="직선 연결선 108"/>
+          <xdr:cNvCxnSpPr>
+            <a:stCxn id="108" idx="0"/>
+          </xdr:cNvCxnSpPr>
+        </xdr:nvCxnSpPr>
+        <xdr:spPr>
+          <a:xfrm flipV="1">
+            <a:off x="13515975" y="1457325"/>
+            <a:ext cx="0" cy="247650"/>
+          </a:xfrm>
+          <a:prstGeom prst="line">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:grpFill/>
+          <a:ln>
+            <a:solidFill>
+              <a:srgbClr val="0070C0"/>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="tx1"/>
+          </a:fontRef>
+        </xdr:style>
+      </xdr:cxnSp>
+      <xdr:cxnSp macro="">
+        <xdr:nvCxnSpPr>
+          <xdr:cNvPr id="110" name="직선 연결선 109"/>
+          <xdr:cNvCxnSpPr>
+            <a:stCxn id="108" idx="2"/>
+          </xdr:cNvCxnSpPr>
+        </xdr:nvCxnSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="13515975" y="2447925"/>
+            <a:ext cx="0" cy="266700"/>
+          </a:xfrm>
+          <a:prstGeom prst="line">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:grpFill/>
+          <a:ln>
+            <a:solidFill>
+              <a:srgbClr val="0070C0"/>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="tx1"/>
+          </a:fontRef>
+        </xdr:style>
+      </xdr:cxnSp>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>819150</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>952500</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>819150</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="111" name="그룹 110"/>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="2105025" y="11249025"/>
+          <a:ext cx="133350" cy="695325"/>
+          <a:chOff x="13430250" y="1457325"/>
+          <a:chExt cx="171450" cy="1257300"/>
+        </a:xfrm>
+        <a:solidFill>
+          <a:srgbClr val="0070C0"/>
+        </a:solidFill>
+      </xdr:grpSpPr>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="112" name="직사각형 111"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="13430250" y="1704975"/>
+            <a:ext cx="171450" cy="742950"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:grpFill/>
+          <a:ln>
+            <a:solidFill>
+              <a:srgbClr val="0070C0"/>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:cxnSp macro="">
+        <xdr:nvCxnSpPr>
+          <xdr:cNvPr id="113" name="직선 연결선 112"/>
+          <xdr:cNvCxnSpPr>
+            <a:stCxn id="112" idx="0"/>
+          </xdr:cNvCxnSpPr>
+        </xdr:nvCxnSpPr>
+        <xdr:spPr>
+          <a:xfrm flipV="1">
+            <a:off x="13515975" y="1457325"/>
+            <a:ext cx="0" cy="247650"/>
+          </a:xfrm>
+          <a:prstGeom prst="line">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:grpFill/>
+          <a:ln>
+            <a:solidFill>
+              <a:srgbClr val="0070C0"/>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="tx1"/>
+          </a:fontRef>
+        </xdr:style>
+      </xdr:cxnSp>
+      <xdr:cxnSp macro="">
+        <xdr:nvCxnSpPr>
+          <xdr:cNvPr id="114" name="직선 연결선 113"/>
+          <xdr:cNvCxnSpPr>
+            <a:stCxn id="112" idx="2"/>
+          </xdr:cNvCxnSpPr>
+        </xdr:nvCxnSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="13515975" y="2447925"/>
+            <a:ext cx="0" cy="266700"/>
+          </a:xfrm>
+          <a:prstGeom prst="line">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:grpFill/>
+          <a:ln>
+            <a:solidFill>
+              <a:srgbClr val="0070C0"/>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="tx1"/>
+          </a:fontRef>
+        </xdr:style>
+      </xdr:cxnSp>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>1133475</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>200025</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>1266825</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>895350</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="115" name="그룹 114"/>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="2419350" y="11325225"/>
+          <a:ext cx="133350" cy="695325"/>
+          <a:chOff x="13430250" y="1457325"/>
+          <a:chExt cx="171450" cy="1257300"/>
+        </a:xfrm>
+        <a:solidFill>
+          <a:srgbClr val="0070C0"/>
+        </a:solidFill>
+      </xdr:grpSpPr>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="116" name="직사각형 115"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="13430250" y="1704975"/>
+            <a:ext cx="171450" cy="742950"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:grpFill/>
+          <a:ln>
+            <a:solidFill>
+              <a:srgbClr val="0070C0"/>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:cxnSp macro="">
+        <xdr:nvCxnSpPr>
+          <xdr:cNvPr id="117" name="직선 연결선 116"/>
+          <xdr:cNvCxnSpPr>
+            <a:stCxn id="116" idx="0"/>
+          </xdr:cNvCxnSpPr>
+        </xdr:nvCxnSpPr>
+        <xdr:spPr>
+          <a:xfrm flipV="1">
+            <a:off x="13515975" y="1457325"/>
+            <a:ext cx="0" cy="247650"/>
+          </a:xfrm>
+          <a:prstGeom prst="line">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:grpFill/>
+          <a:ln>
+            <a:solidFill>
+              <a:srgbClr val="0070C0"/>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="tx1"/>
+          </a:fontRef>
+        </xdr:style>
+      </xdr:cxnSp>
+      <xdr:cxnSp macro="">
+        <xdr:nvCxnSpPr>
+          <xdr:cNvPr id="118" name="직선 연결선 117"/>
+          <xdr:cNvCxnSpPr>
+            <a:stCxn id="116" idx="2"/>
+          </xdr:cNvCxnSpPr>
+        </xdr:nvCxnSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="13515975" y="2447925"/>
+            <a:ext cx="0" cy="266700"/>
+          </a:xfrm>
+          <a:prstGeom prst="line">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:grpFill/>
+          <a:ln>
+            <a:solidFill>
+              <a:srgbClr val="0070C0"/>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="tx1"/>
+          </a:fontRef>
+        </xdr:style>
+      </xdr:cxnSp>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>285750</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>523875</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>1590675</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>542925</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="127" name="직선 연결선 126"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="1571625" y="12563475"/>
+          <a:ext cx="1304925" cy="19050"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:prstDash val="dash"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>533400</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>180975</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>666750</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>876300</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="128" name="그룹 127"/>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="1819275" y="13134975"/>
+          <a:ext cx="133350" cy="695325"/>
+          <a:chOff x="13430250" y="1457325"/>
+          <a:chExt cx="171450" cy="1257300"/>
+        </a:xfrm>
+        <a:solidFill>
+          <a:srgbClr val="FF0000"/>
+        </a:solidFill>
+      </xdr:grpSpPr>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="129" name="직사각형 128"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="13430250" y="1704975"/>
+            <a:ext cx="171450" cy="742950"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:grpFill/>
+          <a:ln>
+            <a:solidFill>
+              <a:srgbClr val="FF0000"/>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:cxnSp macro="">
+        <xdr:nvCxnSpPr>
+          <xdr:cNvPr id="130" name="직선 연결선 129"/>
+          <xdr:cNvCxnSpPr>
+            <a:stCxn id="129" idx="0"/>
+          </xdr:cNvCxnSpPr>
+        </xdr:nvCxnSpPr>
+        <xdr:spPr>
+          <a:xfrm flipV="1">
+            <a:off x="13515975" y="1457325"/>
+            <a:ext cx="0" cy="247650"/>
+          </a:xfrm>
+          <a:prstGeom prst="line">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:grpFill/>
+          <a:ln>
+            <a:solidFill>
+              <a:srgbClr val="FF0000"/>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="tx1"/>
+          </a:fontRef>
+        </xdr:style>
+      </xdr:cxnSp>
+      <xdr:cxnSp macro="">
+        <xdr:nvCxnSpPr>
+          <xdr:cNvPr id="131" name="직선 연결선 130"/>
+          <xdr:cNvCxnSpPr>
+            <a:stCxn id="129" idx="2"/>
+          </xdr:cNvCxnSpPr>
+        </xdr:nvCxnSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="13515975" y="2447925"/>
+            <a:ext cx="0" cy="266700"/>
+          </a:xfrm>
+          <a:prstGeom prst="line">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:grpFill/>
+          <a:ln>
+            <a:solidFill>
+              <a:srgbClr val="FF0000"/>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="tx1"/>
+          </a:fontRef>
+        </xdr:style>
+      </xdr:cxnSp>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>1038225</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>1171575</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>742950</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="132" name="그룹 131"/>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="2324100" y="13001625"/>
+          <a:ext cx="133350" cy="695325"/>
+          <a:chOff x="13430250" y="1457325"/>
+          <a:chExt cx="171450" cy="1257300"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="133" name="직사각형 132"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="13430250" y="1704975"/>
+            <a:ext cx="171450" cy="742950"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:cxnSp macro="">
+        <xdr:nvCxnSpPr>
+          <xdr:cNvPr id="134" name="직선 연결선 133"/>
+          <xdr:cNvCxnSpPr>
+            <a:stCxn id="133" idx="0"/>
+          </xdr:cNvCxnSpPr>
+        </xdr:nvCxnSpPr>
+        <xdr:spPr>
+          <a:xfrm flipV="1">
+            <a:off x="13515975" y="1457325"/>
+            <a:ext cx="0" cy="247650"/>
+          </a:xfrm>
+          <a:prstGeom prst="line">
+            <a:avLst/>
+          </a:prstGeom>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="tx1"/>
+          </a:fontRef>
+        </xdr:style>
+      </xdr:cxnSp>
+      <xdr:cxnSp macro="">
+        <xdr:nvCxnSpPr>
+          <xdr:cNvPr id="135" name="직선 연결선 134"/>
+          <xdr:cNvCxnSpPr>
+            <a:stCxn id="133" idx="2"/>
+          </xdr:cNvCxnSpPr>
+        </xdr:nvCxnSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="13515975" y="2447925"/>
+            <a:ext cx="0" cy="266700"/>
+          </a:xfrm>
+          <a:prstGeom prst="line">
+            <a:avLst/>
+          </a:prstGeom>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="tx1"/>
+          </a:fontRef>
+        </xdr:style>
+      </xdr:cxnSp>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>276225</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>600075</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>1581150</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>619125</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="136" name="직선 연결선 135"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="1562100" y="13554075"/>
+          <a:ext cx="1304925" cy="19050"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:prstDash val="dash"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>771524</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>152401</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>923925</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>361951</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="137" name="그룹 136"/>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="2057399" y="13106401"/>
+          <a:ext cx="152401" cy="209550"/>
+          <a:chOff x="13430250" y="1457325"/>
+          <a:chExt cx="171450" cy="1257300"/>
+        </a:xfrm>
+        <a:solidFill>
+          <a:srgbClr val="FF0000"/>
+        </a:solidFill>
+      </xdr:grpSpPr>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="138" name="직사각형 137"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="13430250" y="1704975"/>
+            <a:ext cx="171450" cy="742950"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:grpFill/>
+          <a:ln>
+            <a:solidFill>
+              <a:srgbClr val="FF0000"/>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:cxnSp macro="">
+        <xdr:nvCxnSpPr>
+          <xdr:cNvPr id="139" name="직선 연결선 138"/>
+          <xdr:cNvCxnSpPr>
+            <a:stCxn id="138" idx="0"/>
+          </xdr:cNvCxnSpPr>
+        </xdr:nvCxnSpPr>
+        <xdr:spPr>
+          <a:xfrm flipV="1">
+            <a:off x="13515975" y="1457325"/>
+            <a:ext cx="0" cy="247650"/>
+          </a:xfrm>
+          <a:prstGeom prst="line">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:grpFill/>
+          <a:ln>
+            <a:solidFill>
+              <a:srgbClr val="FF0000"/>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="tx1"/>
+          </a:fontRef>
+        </xdr:style>
+      </xdr:cxnSp>
+      <xdr:cxnSp macro="">
+        <xdr:nvCxnSpPr>
+          <xdr:cNvPr id="140" name="직선 연결선 139"/>
+          <xdr:cNvCxnSpPr>
+            <a:stCxn id="138" idx="2"/>
+          </xdr:cNvCxnSpPr>
+        </xdr:nvCxnSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="13515975" y="2447925"/>
+            <a:ext cx="0" cy="266700"/>
+          </a:xfrm>
+          <a:prstGeom prst="line">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:grpFill/>
+          <a:ln>
+            <a:solidFill>
+              <a:srgbClr val="FF0000"/>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="tx1"/>
+          </a:fontRef>
+        </xdr:style>
+      </xdr:cxnSp>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>695325</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>828675</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>866775</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="119" name="그룹 118"/>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="1981200" y="12211050"/>
+          <a:ext cx="133350" cy="695325"/>
+          <a:chOff x="13430250" y="1457325"/>
+          <a:chExt cx="171450" cy="1257300"/>
+        </a:xfrm>
+        <a:solidFill>
+          <a:srgbClr val="FF0000"/>
+        </a:solidFill>
+      </xdr:grpSpPr>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="120" name="직사각형 119"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="13430250" y="1704975"/>
+            <a:ext cx="171450" cy="742950"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:grpFill/>
+          <a:ln>
+            <a:solidFill>
+              <a:srgbClr val="FF0000"/>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:cxnSp macro="">
+        <xdr:nvCxnSpPr>
+          <xdr:cNvPr id="121" name="직선 연결선 120"/>
+          <xdr:cNvCxnSpPr>
+            <a:stCxn id="120" idx="0"/>
+          </xdr:cNvCxnSpPr>
+        </xdr:nvCxnSpPr>
+        <xdr:spPr>
+          <a:xfrm flipV="1">
+            <a:off x="13515975" y="1457325"/>
+            <a:ext cx="0" cy="247650"/>
+          </a:xfrm>
+          <a:prstGeom prst="line">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:grpFill/>
+          <a:ln>
+            <a:solidFill>
+              <a:srgbClr val="FF0000"/>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="tx1"/>
+          </a:fontRef>
+        </xdr:style>
+      </xdr:cxnSp>
+      <xdr:cxnSp macro="">
+        <xdr:nvCxnSpPr>
+          <xdr:cNvPr id="122" name="직선 연결선 121"/>
+          <xdr:cNvCxnSpPr>
+            <a:stCxn id="120" idx="2"/>
+          </xdr:cNvCxnSpPr>
+        </xdr:nvCxnSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="13515975" y="2447925"/>
+            <a:ext cx="0" cy="266700"/>
+          </a:xfrm>
+          <a:prstGeom prst="line">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:grpFill/>
+          <a:ln>
+            <a:solidFill>
+              <a:srgbClr val="FF0000"/>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="tx1"/>
+          </a:fontRef>
+        </xdr:style>
+      </xdr:cxnSp>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>1019175</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>1152525</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>723900</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="123" name="그룹 122"/>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="2305050" y="12068175"/>
+          <a:ext cx="133350" cy="695325"/>
+          <a:chOff x="13430250" y="1457325"/>
+          <a:chExt cx="171450" cy="1257300"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="124" name="직사각형 123"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="13430250" y="1704975"/>
+            <a:ext cx="171450" cy="742950"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:cxnSp macro="">
+        <xdr:nvCxnSpPr>
+          <xdr:cNvPr id="125" name="직선 연결선 124"/>
+          <xdr:cNvCxnSpPr>
+            <a:stCxn id="124" idx="0"/>
+          </xdr:cNvCxnSpPr>
+        </xdr:nvCxnSpPr>
+        <xdr:spPr>
+          <a:xfrm flipV="1">
+            <a:off x="13515975" y="1457325"/>
+            <a:ext cx="0" cy="247650"/>
+          </a:xfrm>
+          <a:prstGeom prst="line">
+            <a:avLst/>
+          </a:prstGeom>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="tx1"/>
+          </a:fontRef>
+        </xdr:style>
+      </xdr:cxnSp>
+      <xdr:cxnSp macro="">
+        <xdr:nvCxnSpPr>
+          <xdr:cNvPr id="126" name="직선 연결선 125"/>
+          <xdr:cNvCxnSpPr>
+            <a:stCxn id="124" idx="2"/>
+          </xdr:cNvCxnSpPr>
+        </xdr:nvCxnSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="13515975" y="2447925"/>
+            <a:ext cx="0" cy="266700"/>
+          </a:xfrm>
+          <a:prstGeom prst="line">
+            <a:avLst/>
+          </a:prstGeom>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="tx1"/>
+          </a:fontRef>
+        </xdr:style>
+      </xdr:cxnSp>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -2273,7 +6363,7 @@
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="H8" sqref="H8"/>
+      <selection pane="bottomRight" activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="12" x14ac:dyDescent="0.3"/>
@@ -2296,10 +6386,10 @@
       <c r="E1" s="40"/>
     </row>
     <row r="2" spans="2:5" ht="24" x14ac:dyDescent="0.3">
-      <c r="B2" s="43" t="s">
+      <c r="B2" s="41" t="s">
         <v>134</v>
       </c>
-      <c r="C2" s="44"/>
+      <c r="C2" s="42"/>
       <c r="D2" s="34" t="s">
         <v>136</v>
       </c>
@@ -2308,8 +6398,8 @@
       </c>
     </row>
     <row r="3" spans="2:5" ht="24" x14ac:dyDescent="0.3">
-      <c r="B3" s="45"/>
-      <c r="C3" s="46"/>
+      <c r="B3" s="43"/>
+      <c r="C3" s="44"/>
       <c r="D3" s="34" t="s">
         <v>137</v>
       </c>
@@ -2318,10 +6408,10 @@
       </c>
     </row>
     <row r="4" spans="2:5" ht="48" x14ac:dyDescent="0.3">
-      <c r="B4" s="43" t="s">
+      <c r="B4" s="41" t="s">
         <v>135</v>
       </c>
-      <c r="C4" s="44"/>
+      <c r="C4" s="42"/>
       <c r="D4" s="34" t="s">
         <v>136</v>
       </c>
@@ -2330,8 +6420,8 @@
       </c>
     </row>
     <row r="5" spans="2:5" ht="96" x14ac:dyDescent="0.3">
-      <c r="B5" s="45"/>
-      <c r="C5" s="46"/>
+      <c r="B5" s="43"/>
+      <c r="C5" s="44"/>
       <c r="D5" s="34" t="s">
         <v>137</v>
       </c>
@@ -2340,10 +6430,10 @@
       </c>
     </row>
     <row r="6" spans="2:5" ht="72" x14ac:dyDescent="0.3">
-      <c r="B6" s="43" t="s">
+      <c r="B6" s="41" t="s">
         <v>144</v>
       </c>
-      <c r="C6" s="44"/>
+      <c r="C6" s="42"/>
       <c r="D6" s="34" t="s">
         <v>136</v>
       </c>
@@ -2352,8 +6442,8 @@
       </c>
     </row>
     <row r="7" spans="2:5" ht="84" x14ac:dyDescent="0.3">
-      <c r="B7" s="45"/>
-      <c r="C7" s="46"/>
+      <c r="B7" s="43"/>
+      <c r="C7" s="44"/>
       <c r="D7" s="34" t="s">
         <v>137</v>
       </c>
@@ -2365,7 +6455,7 @@
       <c r="B8" s="47" t="s">
         <v>145</v>
       </c>
-      <c r="C8" s="44"/>
+      <c r="C8" s="42"/>
       <c r="D8" s="34" t="s">
         <v>136</v>
       </c>
@@ -2374,8 +6464,8 @@
       </c>
     </row>
     <row r="9" spans="2:5" ht="60" x14ac:dyDescent="0.3">
-      <c r="B9" s="45"/>
-      <c r="C9" s="46"/>
+      <c r="B9" s="43"/>
+      <c r="C9" s="44"/>
       <c r="D9" s="34" t="s">
         <v>137</v>
       </c>
@@ -2384,10 +6474,10 @@
       </c>
     </row>
     <row r="10" spans="2:5" ht="60" x14ac:dyDescent="0.3">
-      <c r="B10" s="43" t="s">
+      <c r="B10" s="41" t="s">
         <v>142</v>
       </c>
-      <c r="C10" s="44"/>
+      <c r="C10" s="42"/>
       <c r="D10" s="34" t="s">
         <v>136</v>
       </c>
@@ -2396,8 +6486,8 @@
       </c>
     </row>
     <row r="11" spans="2:5" ht="142.15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B11" s="45"/>
-      <c r="C11" s="46"/>
+      <c r="B11" s="43"/>
+      <c r="C11" s="44"/>
       <c r="D11" s="34" t="s">
         <v>137</v>
       </c>
@@ -2406,10 +6496,10 @@
       </c>
     </row>
     <row r="12" spans="2:5" ht="24" x14ac:dyDescent="0.3">
-      <c r="B12" s="43" t="s">
+      <c r="B12" s="41" t="s">
         <v>153</v>
       </c>
-      <c r="C12" s="44"/>
+      <c r="C12" s="42"/>
       <c r="D12" s="34" t="s">
         <v>136</v>
       </c>
@@ -2418,8 +6508,8 @@
       </c>
     </row>
     <row r="13" spans="2:5" ht="36" x14ac:dyDescent="0.3">
-      <c r="B13" s="45"/>
-      <c r="C13" s="46"/>
+      <c r="B13" s="43"/>
+      <c r="C13" s="44"/>
       <c r="D13" s="34" t="s">
         <v>137</v>
       </c>
@@ -2428,182 +6518,182 @@
       </c>
     </row>
     <row r="14" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B14" s="41"/>
-      <c r="C14" s="42"/>
+      <c r="B14" s="45"/>
+      <c r="C14" s="46"/>
       <c r="D14" s="33"/>
       <c r="E14" s="36"/>
     </row>
     <row r="15" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B15" s="41"/>
-      <c r="C15" s="42"/>
+      <c r="B15" s="45"/>
+      <c r="C15" s="46"/>
       <c r="D15" s="33"/>
       <c r="E15" s="36"/>
     </row>
     <row r="16" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B16" s="41"/>
-      <c r="C16" s="42"/>
+      <c r="B16" s="45"/>
+      <c r="C16" s="46"/>
       <c r="D16" s="33"/>
       <c r="E16" s="36"/>
     </row>
     <row r="17" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B17" s="41"/>
-      <c r="C17" s="42"/>
+      <c r="B17" s="45"/>
+      <c r="C17" s="46"/>
       <c r="D17" s="33"/>
       <c r="E17" s="36"/>
     </row>
     <row r="18" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B18" s="41"/>
-      <c r="C18" s="42"/>
+      <c r="B18" s="45"/>
+      <c r="C18" s="46"/>
       <c r="D18" s="33"/>
       <c r="E18" s="36"/>
     </row>
     <row r="19" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B19" s="41"/>
-      <c r="C19" s="42"/>
+      <c r="B19" s="45"/>
+      <c r="C19" s="46"/>
       <c r="D19" s="33"/>
       <c r="E19" s="36"/>
     </row>
     <row r="20" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B20" s="41"/>
-      <c r="C20" s="42"/>
+      <c r="B20" s="45"/>
+      <c r="C20" s="46"/>
       <c r="D20" s="33"/>
       <c r="E20" s="36"/>
     </row>
     <row r="21" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B21" s="41"/>
-      <c r="C21" s="42"/>
+      <c r="B21" s="45"/>
+      <c r="C21" s="46"/>
       <c r="D21" s="33"/>
       <c r="E21" s="36"/>
     </row>
     <row r="22" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B22" s="41"/>
-      <c r="C22" s="42"/>
+      <c r="B22" s="45"/>
+      <c r="C22" s="46"/>
       <c r="D22" s="33"/>
       <c r="E22" s="36"/>
     </row>
     <row r="23" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B23" s="41"/>
-      <c r="C23" s="42"/>
+      <c r="B23" s="45"/>
+      <c r="C23" s="46"/>
       <c r="D23" s="33"/>
       <c r="E23" s="36"/>
     </row>
     <row r="24" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B24" s="41"/>
-      <c r="C24" s="42"/>
+      <c r="B24" s="45"/>
+      <c r="C24" s="46"/>
       <c r="D24" s="33"/>
       <c r="E24" s="36"/>
     </row>
     <row r="25" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B25" s="41"/>
-      <c r="C25" s="42"/>
+      <c r="B25" s="45"/>
+      <c r="C25" s="46"/>
       <c r="D25" s="33"/>
       <c r="E25" s="36"/>
     </row>
     <row r="26" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B26" s="41"/>
-      <c r="C26" s="42"/>
+      <c r="B26" s="45"/>
+      <c r="C26" s="46"/>
       <c r="D26" s="33"/>
       <c r="E26" s="36"/>
     </row>
     <row r="27" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B27" s="41"/>
-      <c r="C27" s="42"/>
+      <c r="B27" s="45"/>
+      <c r="C27" s="46"/>
       <c r="D27" s="33"/>
       <c r="E27" s="36"/>
     </row>
     <row r="28" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B28" s="41"/>
-      <c r="C28" s="42"/>
+      <c r="B28" s="45"/>
+      <c r="C28" s="46"/>
       <c r="D28" s="33"/>
       <c r="E28" s="36"/>
     </row>
     <row r="29" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B29" s="41"/>
-      <c r="C29" s="42"/>
+      <c r="B29" s="45"/>
+      <c r="C29" s="46"/>
       <c r="D29" s="33"/>
       <c r="E29" s="36"/>
     </row>
     <row r="30" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B30" s="41"/>
-      <c r="C30" s="42"/>
+      <c r="B30" s="45"/>
+      <c r="C30" s="46"/>
       <c r="D30" s="33"/>
       <c r="E30" s="36"/>
     </row>
     <row r="31" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B31" s="41"/>
-      <c r="C31" s="42"/>
+      <c r="B31" s="45"/>
+      <c r="C31" s="46"/>
       <c r="D31" s="33"/>
       <c r="E31" s="36"/>
     </row>
     <row r="32" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B32" s="41"/>
-      <c r="C32" s="42"/>
+      <c r="B32" s="45"/>
+      <c r="C32" s="46"/>
       <c r="D32" s="33"/>
       <c r="E32" s="36"/>
     </row>
     <row r="33" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B33" s="41"/>
-      <c r="C33" s="42"/>
+      <c r="B33" s="45"/>
+      <c r="C33" s="46"/>
       <c r="D33" s="33"/>
       <c r="E33" s="36"/>
     </row>
     <row r="34" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B34" s="41"/>
-      <c r="C34" s="42"/>
+      <c r="B34" s="45"/>
+      <c r="C34" s="46"/>
       <c r="D34" s="33"/>
       <c r="E34" s="36"/>
     </row>
     <row r="35" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B35" s="41"/>
-      <c r="C35" s="42"/>
+      <c r="B35" s="45"/>
+      <c r="C35" s="46"/>
       <c r="D35" s="33"/>
       <c r="E35" s="36"/>
     </row>
     <row r="36" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B36" s="41"/>
-      <c r="C36" s="42"/>
+      <c r="B36" s="45"/>
+      <c r="C36" s="46"/>
       <c r="D36" s="33"/>
       <c r="E36" s="36"/>
     </row>
     <row r="37" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B37" s="41"/>
-      <c r="C37" s="42"/>
+      <c r="B37" s="45"/>
+      <c r="C37" s="46"/>
       <c r="D37" s="33"/>
       <c r="E37" s="36"/>
     </row>
     <row r="38" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B38" s="41"/>
-      <c r="C38" s="42"/>
+      <c r="B38" s="45"/>
+      <c r="C38" s="46"/>
       <c r="D38" s="33"/>
       <c r="E38" s="36"/>
     </row>
     <row r="39" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B39" s="41"/>
-      <c r="C39" s="42"/>
+      <c r="B39" s="45"/>
+      <c r="C39" s="46"/>
       <c r="D39" s="33"/>
       <c r="E39" s="36"/>
     </row>
     <row r="40" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B40" s="41"/>
-      <c r="C40" s="42"/>
+      <c r="B40" s="45"/>
+      <c r="C40" s="46"/>
       <c r="D40" s="33"/>
       <c r="E40" s="36"/>
     </row>
     <row r="41" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B41" s="41"/>
-      <c r="C41" s="42"/>
+      <c r="B41" s="45"/>
+      <c r="C41" s="46"/>
       <c r="D41" s="33"/>
       <c r="E41" s="36"/>
     </row>
     <row r="42" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B42" s="41"/>
-      <c r="C42" s="42"/>
+      <c r="B42" s="45"/>
+      <c r="C42" s="46"/>
       <c r="D42" s="33"/>
       <c r="E42" s="36"/>
     </row>
     <row r="43" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B43" s="41"/>
-      <c r="C43" s="42"/>
+      <c r="B43" s="45"/>
+      <c r="C43" s="46"/>
       <c r="D43" s="33"/>
       <c r="E43" s="36"/>
     </row>
@@ -2613,6 +6703,28 @@
     <filterColumn colId="2" showButton="0"/>
   </autoFilter>
   <mergeCells count="38">
+    <mergeCell ref="B1:C1"/>
+    <mergeCell ref="B20:C20"/>
+    <mergeCell ref="B21:C21"/>
+    <mergeCell ref="B14:C14"/>
+    <mergeCell ref="B15:C15"/>
+    <mergeCell ref="B12:C13"/>
+    <mergeCell ref="B43:C43"/>
+    <mergeCell ref="B2:C3"/>
+    <mergeCell ref="B4:C5"/>
+    <mergeCell ref="B6:C7"/>
+    <mergeCell ref="B8:C9"/>
+    <mergeCell ref="B34:C34"/>
+    <mergeCell ref="B35:C35"/>
+    <mergeCell ref="B36:C36"/>
+    <mergeCell ref="B37:C37"/>
+    <mergeCell ref="B38:C38"/>
+    <mergeCell ref="B39:C39"/>
+    <mergeCell ref="B28:C28"/>
+    <mergeCell ref="B29:C29"/>
+    <mergeCell ref="B30:C30"/>
+    <mergeCell ref="B31:C31"/>
+    <mergeCell ref="B32:C32"/>
     <mergeCell ref="D1:E1"/>
     <mergeCell ref="B10:C11"/>
     <mergeCell ref="B40:C40"/>
@@ -2629,28 +6741,6 @@
     <mergeCell ref="B17:C17"/>
     <mergeCell ref="B18:C18"/>
     <mergeCell ref="B19:C19"/>
-    <mergeCell ref="B43:C43"/>
-    <mergeCell ref="B2:C3"/>
-    <mergeCell ref="B4:C5"/>
-    <mergeCell ref="B6:C7"/>
-    <mergeCell ref="B8:C9"/>
-    <mergeCell ref="B34:C34"/>
-    <mergeCell ref="B35:C35"/>
-    <mergeCell ref="B36:C36"/>
-    <mergeCell ref="B37:C37"/>
-    <mergeCell ref="B38:C38"/>
-    <mergeCell ref="B39:C39"/>
-    <mergeCell ref="B28:C28"/>
-    <mergeCell ref="B29:C29"/>
-    <mergeCell ref="B30:C30"/>
-    <mergeCell ref="B31:C31"/>
-    <mergeCell ref="B32:C32"/>
-    <mergeCell ref="B1:C1"/>
-    <mergeCell ref="B20:C20"/>
-    <mergeCell ref="B21:C21"/>
-    <mergeCell ref="B14:C14"/>
-    <mergeCell ref="B15:C15"/>
-    <mergeCell ref="B12:C13"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2660,6 +6750,389 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B1:F32"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="3" ySplit="1" topLeftCell="D11" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="D1" sqref="D1"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
+      <selection pane="bottomRight" activeCell="F16" sqref="F16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="12" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="2.875" style="1" customWidth="1"/>
+    <col min="2" max="2" width="14" style="1" customWidth="1"/>
+    <col min="3" max="3" width="28.125" style="1" customWidth="1"/>
+    <col min="4" max="4" width="15.75" style="8" customWidth="1"/>
+    <col min="5" max="5" width="45.25" style="2" customWidth="1"/>
+    <col min="6" max="6" width="62.375" style="2" customWidth="1"/>
+    <col min="7" max="16384" width="9" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:6" s="8" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B1" s="3" t="s">
+        <v>174</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>175</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>192</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>136</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="2" spans="2:6" ht="72" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B2" s="53" t="s">
+        <v>177</v>
+      </c>
+      <c r="C2" s="4"/>
+      <c r="D2" s="51" t="s">
+        <v>178</v>
+      </c>
+      <c r="E2" s="49" t="s">
+        <v>183</v>
+      </c>
+      <c r="F2" s="49" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="3" spans="2:6" ht="72" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B3" s="54" t="s">
+        <v>180</v>
+      </c>
+      <c r="C3" s="4"/>
+      <c r="D3" s="51" t="s">
+        <v>181</v>
+      </c>
+      <c r="E3" s="49" t="s">
+        <v>182</v>
+      </c>
+      <c r="F3" s="49" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="4" spans="2:6" ht="72" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B4" s="55" t="s">
+        <v>185</v>
+      </c>
+      <c r="C4" s="4"/>
+      <c r="D4" s="51" t="s">
+        <v>186</v>
+      </c>
+      <c r="E4" s="49" t="s">
+        <v>187</v>
+      </c>
+      <c r="F4" s="49" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="5" spans="2:6" ht="72" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B5" s="55" t="s">
+        <v>188</v>
+      </c>
+      <c r="C5" s="4"/>
+      <c r="D5" s="51" t="s">
+        <v>186</v>
+      </c>
+      <c r="E5" s="49" t="s">
+        <v>189</v>
+      </c>
+      <c r="F5" s="49" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="6" spans="2:6" ht="72" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B6" s="48" t="s">
+        <v>191</v>
+      </c>
+      <c r="C6" s="4"/>
+      <c r="D6" s="52" t="s">
+        <v>178</v>
+      </c>
+      <c r="E6" s="49" t="s">
+        <v>193</v>
+      </c>
+      <c r="F6" s="49" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="7" spans="2:6" ht="72" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B7" s="50" t="s">
+        <v>195</v>
+      </c>
+      <c r="C7" s="4"/>
+      <c r="D7" s="52" t="s">
+        <v>181</v>
+      </c>
+      <c r="E7" s="49" t="s">
+        <v>201</v>
+      </c>
+      <c r="F7" s="49" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="8" spans="2:6" ht="72" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B8" s="50" t="s">
+        <v>198</v>
+      </c>
+      <c r="C8" s="4"/>
+      <c r="D8" s="52" t="s">
+        <v>199</v>
+      </c>
+      <c r="E8" s="49" t="s">
+        <v>200</v>
+      </c>
+      <c r="F8" s="49" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="9" spans="2:6" ht="72" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B9" s="50" t="s">
+        <v>203</v>
+      </c>
+      <c r="C9" s="4"/>
+      <c r="D9" s="52" t="s">
+        <v>204</v>
+      </c>
+      <c r="E9" s="49" t="s">
+        <v>205</v>
+      </c>
+      <c r="F9" s="49" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="10" spans="2:6" ht="72" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B10" s="56" t="s">
+        <v>207</v>
+      </c>
+      <c r="C10" s="4"/>
+      <c r="D10" s="51" t="s">
+        <v>208</v>
+      </c>
+      <c r="E10" s="49" t="s">
+        <v>209</v>
+      </c>
+      <c r="F10" s="49" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="11" spans="2:6" ht="72" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B11" s="56" t="s">
+        <v>213</v>
+      </c>
+      <c r="C11" s="4"/>
+      <c r="D11" s="51" t="s">
+        <v>178</v>
+      </c>
+      <c r="E11" s="49" t="s">
+        <v>211</v>
+      </c>
+      <c r="F11" s="49" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="12" spans="2:6" ht="72" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B12" s="56" t="s">
+        <v>214</v>
+      </c>
+      <c r="C12" s="4"/>
+      <c r="D12" s="51" t="s">
+        <v>208</v>
+      </c>
+      <c r="E12" s="49" t="s">
+        <v>217</v>
+      </c>
+      <c r="F12" s="49" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="13" spans="2:6" ht="72" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B13" s="56" t="s">
+        <v>216</v>
+      </c>
+      <c r="C13" s="4"/>
+      <c r="D13" s="51" t="s">
+        <v>208</v>
+      </c>
+      <c r="E13" s="49" t="s">
+        <v>227</v>
+      </c>
+      <c r="F13" s="49" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="14" spans="2:6" ht="72" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B14" s="48" t="s">
+        <v>219</v>
+      </c>
+      <c r="C14" s="57"/>
+      <c r="D14" s="52" t="s">
+        <v>178</v>
+      </c>
+      <c r="E14" s="49" t="s">
+        <v>220</v>
+      </c>
+      <c r="F14" s="49" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="15" spans="2:6" ht="72" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B15" s="48" t="s">
+        <v>222</v>
+      </c>
+      <c r="C15" s="4"/>
+      <c r="D15" s="52" t="s">
+        <v>224</v>
+      </c>
+      <c r="E15" s="49" t="s">
+        <v>225</v>
+      </c>
+      <c r="F15" s="49" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="16" spans="2:6" ht="72" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B16" s="48" t="s">
+        <v>223</v>
+      </c>
+      <c r="C16" s="4"/>
+      <c r="D16" s="52" t="s">
+        <v>208</v>
+      </c>
+      <c r="E16" s="49" t="s">
+        <v>228</v>
+      </c>
+      <c r="F16" s="49" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="17" spans="2:6" ht="72" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B17" s="48"/>
+      <c r="C17" s="4"/>
+      <c r="D17" s="12"/>
+      <c r="E17" s="49"/>
+      <c r="F17" s="49"/>
+    </row>
+    <row r="18" spans="2:6" ht="72" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B18" s="48"/>
+      <c r="C18" s="4"/>
+      <c r="D18" s="12"/>
+      <c r="E18" s="49"/>
+      <c r="F18" s="49"/>
+    </row>
+    <row r="19" spans="2:6" ht="72" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B19" s="48"/>
+      <c r="C19" s="4"/>
+      <c r="D19" s="12"/>
+      <c r="E19" s="49"/>
+      <c r="F19" s="49"/>
+    </row>
+    <row r="20" spans="2:6" ht="72" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B20" s="48"/>
+      <c r="C20" s="4"/>
+      <c r="D20" s="12"/>
+      <c r="E20" s="49"/>
+      <c r="F20" s="49"/>
+    </row>
+    <row r="21" spans="2:6" ht="72" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B21" s="48"/>
+      <c r="C21" s="4"/>
+      <c r="D21" s="12"/>
+      <c r="E21" s="49"/>
+      <c r="F21" s="49"/>
+    </row>
+    <row r="22" spans="2:6" ht="72" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B22" s="48"/>
+      <c r="C22" s="4"/>
+      <c r="D22" s="12"/>
+      <c r="E22" s="49"/>
+      <c r="F22" s="49"/>
+    </row>
+    <row r="23" spans="2:6" ht="72" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B23" s="48"/>
+      <c r="C23" s="4"/>
+      <c r="D23" s="12"/>
+      <c r="E23" s="49"/>
+      <c r="F23" s="49"/>
+    </row>
+    <row r="24" spans="2:6" ht="72" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B24" s="48"/>
+      <c r="C24" s="4"/>
+      <c r="D24" s="12"/>
+      <c r="E24" s="49"/>
+      <c r="F24" s="49"/>
+    </row>
+    <row r="25" spans="2:6" ht="72" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B25" s="48"/>
+      <c r="C25" s="4"/>
+      <c r="D25" s="12"/>
+      <c r="E25" s="49"/>
+      <c r="F25" s="49"/>
+    </row>
+    <row r="26" spans="2:6" ht="72" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B26" s="48"/>
+      <c r="C26" s="4"/>
+      <c r="D26" s="12"/>
+      <c r="E26" s="49"/>
+      <c r="F26" s="49"/>
+    </row>
+    <row r="27" spans="2:6" ht="72" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B27" s="48"/>
+      <c r="C27" s="4"/>
+      <c r="D27" s="12"/>
+      <c r="E27" s="49"/>
+      <c r="F27" s="49"/>
+    </row>
+    <row r="28" spans="2:6" ht="72" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B28" s="48"/>
+      <c r="C28" s="4"/>
+      <c r="D28" s="12"/>
+      <c r="E28" s="49"/>
+      <c r="F28" s="49"/>
+    </row>
+    <row r="29" spans="2:6" ht="72" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B29" s="48"/>
+      <c r="C29" s="4"/>
+      <c r="D29" s="12"/>
+      <c r="E29" s="49"/>
+      <c r="F29" s="49"/>
+    </row>
+    <row r="30" spans="2:6" ht="72" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B30" s="48"/>
+      <c r="C30" s="4"/>
+      <c r="D30" s="12"/>
+      <c r="E30" s="49"/>
+      <c r="F30" s="49"/>
+    </row>
+    <row r="31" spans="2:6" ht="72" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B31" s="48"/>
+      <c r="C31" s="4"/>
+      <c r="D31" s="12"/>
+      <c r="E31" s="49"/>
+      <c r="F31" s="49"/>
+    </row>
+    <row r="32" spans="2:6" ht="72" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B32" s="48"/>
+      <c r="C32" s="4"/>
+      <c r="D32" s="12"/>
+      <c r="E32" s="49"/>
+      <c r="F32" s="49"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:E101"/>
   <sheetViews>
@@ -3322,11 +7795,11 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:J87"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="2" topLeftCell="B15" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
@@ -5041,7 +9514,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:H23"/>
   <sheetViews>

--- a/WorkShop/01.docs/01.초기학습.xlsx
+++ b/WorkShop/01.docs/01.초기학습.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11850" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11850" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="00.참고" sheetId="2" r:id="rId1"/>
@@ -22,7 +22,7 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'01-1.지수'!$B$1:$E$9</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">'02.원칙'!$B$2:$E$2</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">'03.모의투자'!$B$2:$J$87</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">'03.모의투자'!$B$2:$J$79</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
   <extLst>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="329" uniqueCount="230">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="342" uniqueCount="238">
   <si>
     <t>사이트명</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1428,6 +1428,37 @@
   </si>
   <si>
     <t>고가권에서 이러한 석별형 패턴이 나타날 경우, 강력한 하락 반전 신호임.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2020-02-12</t>
+  </si>
+  <si>
+    <t>2020-02-12</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>용식_종가매매_V0.01</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>20일눌림목</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>에치에프알</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>230240</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>피엔티</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>137400</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1791,33 +1822,6 @@
     <xf numFmtId="49" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="4" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="10" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="10" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="10" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="10" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="10" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="10" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="10" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="49" fontId="10" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -1847,6 +1851,33 @@
     </xf>
     <xf numFmtId="49" fontId="12" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="10" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="10" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="10" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="10" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="10" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="10" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="10" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -6376,20 +6407,20 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B1" s="39" t="s">
+      <c r="B1" s="49" t="s">
         <v>133</v>
       </c>
-      <c r="C1" s="40"/>
-      <c r="D1" s="39" t="s">
+      <c r="C1" s="50"/>
+      <c r="D1" s="49" t="s">
         <v>91</v>
       </c>
-      <c r="E1" s="40"/>
+      <c r="E1" s="50"/>
     </row>
     <row r="2" spans="2:5" ht="24" x14ac:dyDescent="0.3">
-      <c r="B2" s="41" t="s">
+      <c r="B2" s="53" t="s">
         <v>134</v>
       </c>
-      <c r="C2" s="42"/>
+      <c r="C2" s="54"/>
       <c r="D2" s="34" t="s">
         <v>136</v>
       </c>
@@ -6398,8 +6429,8 @@
       </c>
     </row>
     <row r="3" spans="2:5" ht="24" x14ac:dyDescent="0.3">
-      <c r="B3" s="43"/>
-      <c r="C3" s="44"/>
+      <c r="B3" s="55"/>
+      <c r="C3" s="56"/>
       <c r="D3" s="34" t="s">
         <v>137</v>
       </c>
@@ -6408,10 +6439,10 @@
       </c>
     </row>
     <row r="4" spans="2:5" ht="48" x14ac:dyDescent="0.3">
-      <c r="B4" s="41" t="s">
+      <c r="B4" s="53" t="s">
         <v>135</v>
       </c>
-      <c r="C4" s="42"/>
+      <c r="C4" s="54"/>
       <c r="D4" s="34" t="s">
         <v>136</v>
       </c>
@@ -6420,8 +6451,8 @@
       </c>
     </row>
     <row r="5" spans="2:5" ht="96" x14ac:dyDescent="0.3">
-      <c r="B5" s="43"/>
-      <c r="C5" s="44"/>
+      <c r="B5" s="55"/>
+      <c r="C5" s="56"/>
       <c r="D5" s="34" t="s">
         <v>137</v>
       </c>
@@ -6430,10 +6461,10 @@
       </c>
     </row>
     <row r="6" spans="2:5" ht="72" x14ac:dyDescent="0.3">
-      <c r="B6" s="41" t="s">
+      <c r="B6" s="53" t="s">
         <v>144</v>
       </c>
-      <c r="C6" s="42"/>
+      <c r="C6" s="54"/>
       <c r="D6" s="34" t="s">
         <v>136</v>
       </c>
@@ -6442,8 +6473,8 @@
       </c>
     </row>
     <row r="7" spans="2:5" ht="84" x14ac:dyDescent="0.3">
-      <c r="B7" s="43"/>
-      <c r="C7" s="44"/>
+      <c r="B7" s="55"/>
+      <c r="C7" s="56"/>
       <c r="D7" s="34" t="s">
         <v>137</v>
       </c>
@@ -6452,10 +6483,10 @@
       </c>
     </row>
     <row r="8" spans="2:5" ht="96" x14ac:dyDescent="0.3">
-      <c r="B8" s="47" t="s">
+      <c r="B8" s="57" t="s">
         <v>145</v>
       </c>
-      <c r="C8" s="42"/>
+      <c r="C8" s="54"/>
       <c r="D8" s="34" t="s">
         <v>136</v>
       </c>
@@ -6464,8 +6495,8 @@
       </c>
     </row>
     <row r="9" spans="2:5" ht="60" x14ac:dyDescent="0.3">
-      <c r="B9" s="43"/>
-      <c r="C9" s="44"/>
+      <c r="B9" s="55"/>
+      <c r="C9" s="56"/>
       <c r="D9" s="34" t="s">
         <v>137</v>
       </c>
@@ -6474,10 +6505,10 @@
       </c>
     </row>
     <row r="10" spans="2:5" ht="60" x14ac:dyDescent="0.3">
-      <c r="B10" s="41" t="s">
+      <c r="B10" s="53" t="s">
         <v>142</v>
       </c>
-      <c r="C10" s="42"/>
+      <c r="C10" s="54"/>
       <c r="D10" s="34" t="s">
         <v>136</v>
       </c>
@@ -6486,8 +6517,8 @@
       </c>
     </row>
     <row r="11" spans="2:5" ht="142.15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B11" s="43"/>
-      <c r="C11" s="44"/>
+      <c r="B11" s="55"/>
+      <c r="C11" s="56"/>
       <c r="D11" s="34" t="s">
         <v>137</v>
       </c>
@@ -6496,10 +6527,10 @@
       </c>
     </row>
     <row r="12" spans="2:5" ht="24" x14ac:dyDescent="0.3">
-      <c r="B12" s="41" t="s">
+      <c r="B12" s="53" t="s">
         <v>153</v>
       </c>
-      <c r="C12" s="42"/>
+      <c r="C12" s="54"/>
       <c r="D12" s="34" t="s">
         <v>136</v>
       </c>
@@ -6508,8 +6539,8 @@
       </c>
     </row>
     <row r="13" spans="2:5" ht="36" x14ac:dyDescent="0.3">
-      <c r="B13" s="43"/>
-      <c r="C13" s="44"/>
+      <c r="B13" s="55"/>
+      <c r="C13" s="56"/>
       <c r="D13" s="34" t="s">
         <v>137</v>
       </c>
@@ -6518,182 +6549,182 @@
       </c>
     </row>
     <row r="14" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B14" s="45"/>
-      <c r="C14" s="46"/>
+      <c r="B14" s="51"/>
+      <c r="C14" s="52"/>
       <c r="D14" s="33"/>
       <c r="E14" s="36"/>
     </row>
     <row r="15" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B15" s="45"/>
-      <c r="C15" s="46"/>
+      <c r="B15" s="51"/>
+      <c r="C15" s="52"/>
       <c r="D15" s="33"/>
       <c r="E15" s="36"/>
     </row>
     <row r="16" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B16" s="45"/>
-      <c r="C16" s="46"/>
+      <c r="B16" s="51"/>
+      <c r="C16" s="52"/>
       <c r="D16" s="33"/>
       <c r="E16" s="36"/>
     </row>
     <row r="17" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B17" s="45"/>
-      <c r="C17" s="46"/>
+      <c r="B17" s="51"/>
+      <c r="C17" s="52"/>
       <c r="D17" s="33"/>
       <c r="E17" s="36"/>
     </row>
     <row r="18" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B18" s="45"/>
-      <c r="C18" s="46"/>
+      <c r="B18" s="51"/>
+      <c r="C18" s="52"/>
       <c r="D18" s="33"/>
       <c r="E18" s="36"/>
     </row>
     <row r="19" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B19" s="45"/>
-      <c r="C19" s="46"/>
+      <c r="B19" s="51"/>
+      <c r="C19" s="52"/>
       <c r="D19" s="33"/>
       <c r="E19" s="36"/>
     </row>
     <row r="20" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B20" s="45"/>
-      <c r="C20" s="46"/>
+      <c r="B20" s="51"/>
+      <c r="C20" s="52"/>
       <c r="D20" s="33"/>
       <c r="E20" s="36"/>
     </row>
     <row r="21" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B21" s="45"/>
-      <c r="C21" s="46"/>
+      <c r="B21" s="51"/>
+      <c r="C21" s="52"/>
       <c r="D21" s="33"/>
       <c r="E21" s="36"/>
     </row>
     <row r="22" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B22" s="45"/>
-      <c r="C22" s="46"/>
+      <c r="B22" s="51"/>
+      <c r="C22" s="52"/>
       <c r="D22" s="33"/>
       <c r="E22" s="36"/>
     </row>
     <row r="23" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B23" s="45"/>
-      <c r="C23" s="46"/>
+      <c r="B23" s="51"/>
+      <c r="C23" s="52"/>
       <c r="D23" s="33"/>
       <c r="E23" s="36"/>
     </row>
     <row r="24" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B24" s="45"/>
-      <c r="C24" s="46"/>
+      <c r="B24" s="51"/>
+      <c r="C24" s="52"/>
       <c r="D24" s="33"/>
       <c r="E24" s="36"/>
     </row>
     <row r="25" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B25" s="45"/>
-      <c r="C25" s="46"/>
+      <c r="B25" s="51"/>
+      <c r="C25" s="52"/>
       <c r="D25" s="33"/>
       <c r="E25" s="36"/>
     </row>
     <row r="26" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B26" s="45"/>
-      <c r="C26" s="46"/>
+      <c r="B26" s="51"/>
+      <c r="C26" s="52"/>
       <c r="D26" s="33"/>
       <c r="E26" s="36"/>
     </row>
     <row r="27" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B27" s="45"/>
-      <c r="C27" s="46"/>
+      <c r="B27" s="51"/>
+      <c r="C27" s="52"/>
       <c r="D27" s="33"/>
       <c r="E27" s="36"/>
     </row>
     <row r="28" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B28" s="45"/>
-      <c r="C28" s="46"/>
+      <c r="B28" s="51"/>
+      <c r="C28" s="52"/>
       <c r="D28" s="33"/>
       <c r="E28" s="36"/>
     </row>
     <row r="29" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B29" s="45"/>
-      <c r="C29" s="46"/>
+      <c r="B29" s="51"/>
+      <c r="C29" s="52"/>
       <c r="D29" s="33"/>
       <c r="E29" s="36"/>
     </row>
     <row r="30" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B30" s="45"/>
-      <c r="C30" s="46"/>
+      <c r="B30" s="51"/>
+      <c r="C30" s="52"/>
       <c r="D30" s="33"/>
       <c r="E30" s="36"/>
     </row>
     <row r="31" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B31" s="45"/>
-      <c r="C31" s="46"/>
+      <c r="B31" s="51"/>
+      <c r="C31" s="52"/>
       <c r="D31" s="33"/>
       <c r="E31" s="36"/>
     </row>
     <row r="32" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B32" s="45"/>
-      <c r="C32" s="46"/>
+      <c r="B32" s="51"/>
+      <c r="C32" s="52"/>
       <c r="D32" s="33"/>
       <c r="E32" s="36"/>
     </row>
     <row r="33" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B33" s="45"/>
-      <c r="C33" s="46"/>
+      <c r="B33" s="51"/>
+      <c r="C33" s="52"/>
       <c r="D33" s="33"/>
       <c r="E33" s="36"/>
     </row>
     <row r="34" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B34" s="45"/>
-      <c r="C34" s="46"/>
+      <c r="B34" s="51"/>
+      <c r="C34" s="52"/>
       <c r="D34" s="33"/>
       <c r="E34" s="36"/>
     </row>
     <row r="35" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B35" s="45"/>
-      <c r="C35" s="46"/>
+      <c r="B35" s="51"/>
+      <c r="C35" s="52"/>
       <c r="D35" s="33"/>
       <c r="E35" s="36"/>
     </row>
     <row r="36" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B36" s="45"/>
-      <c r="C36" s="46"/>
+      <c r="B36" s="51"/>
+      <c r="C36" s="52"/>
       <c r="D36" s="33"/>
       <c r="E36" s="36"/>
     </row>
     <row r="37" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B37" s="45"/>
-      <c r="C37" s="46"/>
+      <c r="B37" s="51"/>
+      <c r="C37" s="52"/>
       <c r="D37" s="33"/>
       <c r="E37" s="36"/>
     </row>
     <row r="38" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B38" s="45"/>
-      <c r="C38" s="46"/>
+      <c r="B38" s="51"/>
+      <c r="C38" s="52"/>
       <c r="D38" s="33"/>
       <c r="E38" s="36"/>
     </row>
     <row r="39" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B39" s="45"/>
-      <c r="C39" s="46"/>
+      <c r="B39" s="51"/>
+      <c r="C39" s="52"/>
       <c r="D39" s="33"/>
       <c r="E39" s="36"/>
     </row>
     <row r="40" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B40" s="45"/>
-      <c r="C40" s="46"/>
+      <c r="B40" s="51"/>
+      <c r="C40" s="52"/>
       <c r="D40" s="33"/>
       <c r="E40" s="36"/>
     </row>
     <row r="41" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B41" s="45"/>
-      <c r="C41" s="46"/>
+      <c r="B41" s="51"/>
+      <c r="C41" s="52"/>
       <c r="D41" s="33"/>
       <c r="E41" s="36"/>
     </row>
     <row r="42" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B42" s="45"/>
-      <c r="C42" s="46"/>
+      <c r="B42" s="51"/>
+      <c r="C42" s="52"/>
       <c r="D42" s="33"/>
       <c r="E42" s="36"/>
     </row>
     <row r="43" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B43" s="45"/>
-      <c r="C43" s="46"/>
+      <c r="B43" s="51"/>
+      <c r="C43" s="52"/>
       <c r="D43" s="33"/>
       <c r="E43" s="36"/>
     </row>
@@ -6703,12 +6734,22 @@
     <filterColumn colId="2" showButton="0"/>
   </autoFilter>
   <mergeCells count="38">
-    <mergeCell ref="B1:C1"/>
-    <mergeCell ref="B20:C20"/>
-    <mergeCell ref="B21:C21"/>
-    <mergeCell ref="B14:C14"/>
-    <mergeCell ref="B15:C15"/>
-    <mergeCell ref="B12:C13"/>
+    <mergeCell ref="D1:E1"/>
+    <mergeCell ref="B10:C11"/>
+    <mergeCell ref="B40:C40"/>
+    <mergeCell ref="B41:C41"/>
+    <mergeCell ref="B42:C42"/>
+    <mergeCell ref="B33:C33"/>
+    <mergeCell ref="B22:C22"/>
+    <mergeCell ref="B23:C23"/>
+    <mergeCell ref="B24:C24"/>
+    <mergeCell ref="B25:C25"/>
+    <mergeCell ref="B26:C26"/>
+    <mergeCell ref="B27:C27"/>
+    <mergeCell ref="B16:C16"/>
+    <mergeCell ref="B17:C17"/>
+    <mergeCell ref="B18:C18"/>
+    <mergeCell ref="B19:C19"/>
     <mergeCell ref="B43:C43"/>
     <mergeCell ref="B2:C3"/>
     <mergeCell ref="B4:C5"/>
@@ -6725,22 +6766,12 @@
     <mergeCell ref="B30:C30"/>
     <mergeCell ref="B31:C31"/>
     <mergeCell ref="B32:C32"/>
-    <mergeCell ref="D1:E1"/>
-    <mergeCell ref="B10:C11"/>
-    <mergeCell ref="B40:C40"/>
-    <mergeCell ref="B41:C41"/>
-    <mergeCell ref="B42:C42"/>
-    <mergeCell ref="B33:C33"/>
-    <mergeCell ref="B22:C22"/>
-    <mergeCell ref="B23:C23"/>
-    <mergeCell ref="B24:C24"/>
-    <mergeCell ref="B25:C25"/>
-    <mergeCell ref="B26:C26"/>
-    <mergeCell ref="B27:C27"/>
-    <mergeCell ref="B16:C16"/>
-    <mergeCell ref="B17:C17"/>
-    <mergeCell ref="B18:C18"/>
-    <mergeCell ref="B19:C19"/>
+    <mergeCell ref="B1:C1"/>
+    <mergeCell ref="B20:C20"/>
+    <mergeCell ref="B21:C21"/>
+    <mergeCell ref="B14:C14"/>
+    <mergeCell ref="B15:C15"/>
+    <mergeCell ref="B12:C13"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -6753,7 +6784,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:F32"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="3" ySplit="1" topLeftCell="D11" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
@@ -6789,341 +6820,341 @@
       </c>
     </row>
     <row r="2" spans="2:6" ht="72" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="53" t="s">
+      <c r="B2" s="44" t="s">
         <v>177</v>
       </c>
       <c r="C2" s="4"/>
-      <c r="D2" s="51" t="s">
+      <c r="D2" s="42" t="s">
         <v>178</v>
       </c>
-      <c r="E2" s="49" t="s">
+      <c r="E2" s="40" t="s">
         <v>183</v>
       </c>
-      <c r="F2" s="49" t="s">
+      <c r="F2" s="40" t="s">
         <v>179</v>
       </c>
     </row>
     <row r="3" spans="2:6" ht="72" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B3" s="54" t="s">
+      <c r="B3" s="45" t="s">
         <v>180</v>
       </c>
       <c r="C3" s="4"/>
-      <c r="D3" s="51" t="s">
+      <c r="D3" s="42" t="s">
         <v>181</v>
       </c>
-      <c r="E3" s="49" t="s">
+      <c r="E3" s="40" t="s">
         <v>182</v>
       </c>
-      <c r="F3" s="49" t="s">
+      <c r="F3" s="40" t="s">
         <v>184</v>
       </c>
     </row>
     <row r="4" spans="2:6" ht="72" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B4" s="55" t="s">
+      <c r="B4" s="46" t="s">
         <v>185</v>
       </c>
       <c r="C4" s="4"/>
-      <c r="D4" s="51" t="s">
+      <c r="D4" s="42" t="s">
         <v>186</v>
       </c>
-      <c r="E4" s="49" t="s">
+      <c r="E4" s="40" t="s">
         <v>187</v>
       </c>
-      <c r="F4" s="49" t="s">
+      <c r="F4" s="40" t="s">
         <v>197</v>
       </c>
     </row>
     <row r="5" spans="2:6" ht="72" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B5" s="55" t="s">
+      <c r="B5" s="46" t="s">
         <v>188</v>
       </c>
       <c r="C5" s="4"/>
-      <c r="D5" s="51" t="s">
+      <c r="D5" s="42" t="s">
         <v>186</v>
       </c>
-      <c r="E5" s="49" t="s">
+      <c r="E5" s="40" t="s">
         <v>189</v>
       </c>
-      <c r="F5" s="49" t="s">
+      <c r="F5" s="40" t="s">
         <v>190</v>
       </c>
     </row>
     <row r="6" spans="2:6" ht="72" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B6" s="48" t="s">
+      <c r="B6" s="39" t="s">
         <v>191</v>
       </c>
       <c r="C6" s="4"/>
-      <c r="D6" s="52" t="s">
+      <c r="D6" s="43" t="s">
         <v>178</v>
       </c>
-      <c r="E6" s="49" t="s">
+      <c r="E6" s="40" t="s">
         <v>193</v>
       </c>
-      <c r="F6" s="49" t="s">
+      <c r="F6" s="40" t="s">
         <v>194</v>
       </c>
     </row>
     <row r="7" spans="2:6" ht="72" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B7" s="50" t="s">
+      <c r="B7" s="41" t="s">
         <v>195</v>
       </c>
       <c r="C7" s="4"/>
-      <c r="D7" s="52" t="s">
+      <c r="D7" s="43" t="s">
         <v>181</v>
       </c>
-      <c r="E7" s="49" t="s">
+      <c r="E7" s="40" t="s">
         <v>201</v>
       </c>
-      <c r="F7" s="49" t="s">
+      <c r="F7" s="40" t="s">
         <v>196</v>
       </c>
     </row>
     <row r="8" spans="2:6" ht="72" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B8" s="50" t="s">
+      <c r="B8" s="41" t="s">
         <v>198</v>
       </c>
       <c r="C8" s="4"/>
-      <c r="D8" s="52" t="s">
+      <c r="D8" s="43" t="s">
         <v>199</v>
       </c>
-      <c r="E8" s="49" t="s">
+      <c r="E8" s="40" t="s">
         <v>200</v>
       </c>
-      <c r="F8" s="49" t="s">
+      <c r="F8" s="40" t="s">
         <v>202</v>
       </c>
     </row>
     <row r="9" spans="2:6" ht="72" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B9" s="50" t="s">
+      <c r="B9" s="41" t="s">
         <v>203</v>
       </c>
       <c r="C9" s="4"/>
-      <c r="D9" s="52" t="s">
+      <c r="D9" s="43" t="s">
         <v>204</v>
       </c>
-      <c r="E9" s="49" t="s">
+      <c r="E9" s="40" t="s">
         <v>205</v>
       </c>
-      <c r="F9" s="49" t="s">
+      <c r="F9" s="40" t="s">
         <v>206</v>
       </c>
     </row>
     <row r="10" spans="2:6" ht="72" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B10" s="56" t="s">
+      <c r="B10" s="47" t="s">
         <v>207</v>
       </c>
       <c r="C10" s="4"/>
-      <c r="D10" s="51" t="s">
+      <c r="D10" s="42" t="s">
         <v>208</v>
       </c>
-      <c r="E10" s="49" t="s">
+      <c r="E10" s="40" t="s">
         <v>209</v>
       </c>
-      <c r="F10" s="49" t="s">
+      <c r="F10" s="40" t="s">
         <v>210</v>
       </c>
     </row>
     <row r="11" spans="2:6" ht="72" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B11" s="56" t="s">
+      <c r="B11" s="47" t="s">
         <v>213</v>
       </c>
       <c r="C11" s="4"/>
-      <c r="D11" s="51" t="s">
+      <c r="D11" s="42" t="s">
         <v>178</v>
       </c>
-      <c r="E11" s="49" t="s">
+      <c r="E11" s="40" t="s">
         <v>211</v>
       </c>
-      <c r="F11" s="49" t="s">
+      <c r="F11" s="40" t="s">
         <v>212</v>
       </c>
     </row>
     <row r="12" spans="2:6" ht="72" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B12" s="56" t="s">
+      <c r="B12" s="47" t="s">
         <v>214</v>
       </c>
       <c r="C12" s="4"/>
-      <c r="D12" s="51" t="s">
+      <c r="D12" s="42" t="s">
         <v>208</v>
       </c>
-      <c r="E12" s="49" t="s">
+      <c r="E12" s="40" t="s">
         <v>217</v>
       </c>
-      <c r="F12" s="49" t="s">
+      <c r="F12" s="40" t="s">
         <v>215</v>
       </c>
     </row>
     <row r="13" spans="2:6" ht="72" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B13" s="56" t="s">
+      <c r="B13" s="47" t="s">
         <v>216</v>
       </c>
       <c r="C13" s="4"/>
-      <c r="D13" s="51" t="s">
+      <c r="D13" s="42" t="s">
         <v>208</v>
       </c>
-      <c r="E13" s="49" t="s">
+      <c r="E13" s="40" t="s">
         <v>227</v>
       </c>
-      <c r="F13" s="49" t="s">
+      <c r="F13" s="40" t="s">
         <v>218</v>
       </c>
     </row>
     <row r="14" spans="2:6" ht="72" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B14" s="48" t="s">
+      <c r="B14" s="39" t="s">
         <v>219</v>
       </c>
-      <c r="C14" s="57"/>
-      <c r="D14" s="52" t="s">
+      <c r="C14" s="48"/>
+      <c r="D14" s="43" t="s">
         <v>178</v>
       </c>
-      <c r="E14" s="49" t="s">
+      <c r="E14" s="40" t="s">
         <v>220</v>
       </c>
-      <c r="F14" s="49" t="s">
+      <c r="F14" s="40" t="s">
         <v>221</v>
       </c>
     </row>
     <row r="15" spans="2:6" ht="72" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B15" s="48" t="s">
+      <c r="B15" s="39" t="s">
         <v>222</v>
       </c>
       <c r="C15" s="4"/>
-      <c r="D15" s="52" t="s">
+      <c r="D15" s="43" t="s">
         <v>224</v>
       </c>
-      <c r="E15" s="49" t="s">
+      <c r="E15" s="40" t="s">
         <v>225</v>
       </c>
-      <c r="F15" s="49" t="s">
+      <c r="F15" s="40" t="s">
         <v>226</v>
       </c>
     </row>
     <row r="16" spans="2:6" ht="72" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B16" s="48" t="s">
+      <c r="B16" s="39" t="s">
         <v>223</v>
       </c>
       <c r="C16" s="4"/>
-      <c r="D16" s="52" t="s">
+      <c r="D16" s="43" t="s">
         <v>208</v>
       </c>
-      <c r="E16" s="49" t="s">
+      <c r="E16" s="40" t="s">
         <v>228</v>
       </c>
-      <c r="F16" s="49" t="s">
+      <c r="F16" s="40" t="s">
         <v>229</v>
       </c>
     </row>
     <row r="17" spans="2:6" ht="72" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B17" s="48"/>
+      <c r="B17" s="39"/>
       <c r="C17" s="4"/>
       <c r="D17" s="12"/>
-      <c r="E17" s="49"/>
-      <c r="F17" s="49"/>
+      <c r="E17" s="40"/>
+      <c r="F17" s="40"/>
     </row>
     <row r="18" spans="2:6" ht="72" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B18" s="48"/>
+      <c r="B18" s="39"/>
       <c r="C18" s="4"/>
       <c r="D18" s="12"/>
-      <c r="E18" s="49"/>
-      <c r="F18" s="49"/>
+      <c r="E18" s="40"/>
+      <c r="F18" s="40"/>
     </row>
     <row r="19" spans="2:6" ht="72" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B19" s="48"/>
+      <c r="B19" s="39"/>
       <c r="C19" s="4"/>
       <c r="D19" s="12"/>
-      <c r="E19" s="49"/>
-      <c r="F19" s="49"/>
+      <c r="E19" s="40"/>
+      <c r="F19" s="40"/>
     </row>
     <row r="20" spans="2:6" ht="72" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B20" s="48"/>
+      <c r="B20" s="39"/>
       <c r="C20" s="4"/>
       <c r="D20" s="12"/>
-      <c r="E20" s="49"/>
-      <c r="F20" s="49"/>
+      <c r="E20" s="40"/>
+      <c r="F20" s="40"/>
     </row>
     <row r="21" spans="2:6" ht="72" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B21" s="48"/>
+      <c r="B21" s="39"/>
       <c r="C21" s="4"/>
       <c r="D21" s="12"/>
-      <c r="E21" s="49"/>
-      <c r="F21" s="49"/>
+      <c r="E21" s="40"/>
+      <c r="F21" s="40"/>
     </row>
     <row r="22" spans="2:6" ht="72" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B22" s="48"/>
+      <c r="B22" s="39"/>
       <c r="C22" s="4"/>
       <c r="D22" s="12"/>
-      <c r="E22" s="49"/>
-      <c r="F22" s="49"/>
+      <c r="E22" s="40"/>
+      <c r="F22" s="40"/>
     </row>
     <row r="23" spans="2:6" ht="72" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B23" s="48"/>
+      <c r="B23" s="39"/>
       <c r="C23" s="4"/>
       <c r="D23" s="12"/>
-      <c r="E23" s="49"/>
-      <c r="F23" s="49"/>
+      <c r="E23" s="40"/>
+      <c r="F23" s="40"/>
     </row>
     <row r="24" spans="2:6" ht="72" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B24" s="48"/>
+      <c r="B24" s="39"/>
       <c r="C24" s="4"/>
       <c r="D24" s="12"/>
-      <c r="E24" s="49"/>
-      <c r="F24" s="49"/>
+      <c r="E24" s="40"/>
+      <c r="F24" s="40"/>
     </row>
     <row r="25" spans="2:6" ht="72" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B25" s="48"/>
+      <c r="B25" s="39"/>
       <c r="C25" s="4"/>
       <c r="D25" s="12"/>
-      <c r="E25" s="49"/>
-      <c r="F25" s="49"/>
+      <c r="E25" s="40"/>
+      <c r="F25" s="40"/>
     </row>
     <row r="26" spans="2:6" ht="72" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B26" s="48"/>
+      <c r="B26" s="39"/>
       <c r="C26" s="4"/>
       <c r="D26" s="12"/>
-      <c r="E26" s="49"/>
-      <c r="F26" s="49"/>
+      <c r="E26" s="40"/>
+      <c r="F26" s="40"/>
     </row>
     <row r="27" spans="2:6" ht="72" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B27" s="48"/>
+      <c r="B27" s="39"/>
       <c r="C27" s="4"/>
       <c r="D27" s="12"/>
-      <c r="E27" s="49"/>
-      <c r="F27" s="49"/>
+      <c r="E27" s="40"/>
+      <c r="F27" s="40"/>
     </row>
     <row r="28" spans="2:6" ht="72" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B28" s="48"/>
+      <c r="B28" s="39"/>
       <c r="C28" s="4"/>
       <c r="D28" s="12"/>
-      <c r="E28" s="49"/>
-      <c r="F28" s="49"/>
+      <c r="E28" s="40"/>
+      <c r="F28" s="40"/>
     </row>
     <row r="29" spans="2:6" ht="72" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B29" s="48"/>
+      <c r="B29" s="39"/>
       <c r="C29" s="4"/>
       <c r="D29" s="12"/>
-      <c r="E29" s="49"/>
-      <c r="F29" s="49"/>
+      <c r="E29" s="40"/>
+      <c r="F29" s="40"/>
     </row>
     <row r="30" spans="2:6" ht="72" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B30" s="48"/>
+      <c r="B30" s="39"/>
       <c r="C30" s="4"/>
       <c r="D30" s="12"/>
-      <c r="E30" s="49"/>
-      <c r="F30" s="49"/>
+      <c r="E30" s="40"/>
+      <c r="F30" s="40"/>
     </row>
     <row r="31" spans="2:6" ht="72" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B31" s="48"/>
+      <c r="B31" s="39"/>
       <c r="C31" s="4"/>
       <c r="D31" s="12"/>
-      <c r="E31" s="49"/>
-      <c r="F31" s="49"/>
+      <c r="E31" s="40"/>
+      <c r="F31" s="40"/>
     </row>
     <row r="32" spans="2:6" ht="72" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B32" s="48"/>
+      <c r="B32" s="39"/>
       <c r="C32" s="4"/>
       <c r="D32" s="12"/>
-      <c r="E32" s="49"/>
-      <c r="F32" s="49"/>
+      <c r="E32" s="40"/>
+      <c r="F32" s="40"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -7140,7 +7171,7 @@
       <pane xSplit="1" ySplit="2" topLeftCell="C6" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="D6" sqref="D6"/>
+      <selection pane="bottomRight" activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="12" x14ac:dyDescent="0.3"/>
@@ -7225,7 +7256,9 @@
     </row>
     <row r="8" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B8" s="17"/>
-      <c r="C8" s="17"/>
+      <c r="C8" s="17" t="s">
+        <v>233</v>
+      </c>
       <c r="D8" s="23"/>
       <c r="E8" s="23"/>
     </row>
@@ -7797,13 +7830,13 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:J87"/>
+  <dimension ref="B2:J79"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane xSplit="1" ySplit="2" topLeftCell="B15" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="1" ySplit="2" topLeftCell="B3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="A32" sqref="A32:XFD35"/>
+      <selection pane="bottomRight" activeCell="J22" sqref="J22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="12" x14ac:dyDescent="0.3"/>
@@ -7873,7 +7906,7 @@
         <v>27200</v>
       </c>
       <c r="I3" s="14">
-        <f t="shared" ref="I3:I54" si="0">IF(H3="", "", IFERROR( ((H3-F3)/F3), ""))</f>
+        <f t="shared" ref="I3:I46" si="0">IF(H3="", "", IFERROR( ((H3-F3)/F3), ""))</f>
         <v>0.1079429735234216</v>
       </c>
       <c r="J3" s="5"/>
@@ -8688,11 +8721,15 @@
       <c r="F32" s="13">
         <v>4275</v>
       </c>
-      <c r="G32" s="12"/>
-      <c r="H32" s="13"/>
-      <c r="I32" s="14" t="str">
+      <c r="G32" s="12" t="s">
+        <v>231</v>
+      </c>
+      <c r="H32" s="13">
+        <v>4190</v>
+      </c>
+      <c r="I32" s="14">
         <f t="shared" si="0"/>
-        <v/>
+        <v>-1.9883040935672516E-2</v>
       </c>
       <c r="J32" s="5"/>
     </row>
@@ -8712,11 +8749,15 @@
       <c r="F33" s="13">
         <v>27750</v>
       </c>
-      <c r="G33" s="12"/>
-      <c r="H33" s="13"/>
-      <c r="I33" s="14" t="str">
+      <c r="G33" s="12" t="s">
+        <v>231</v>
+      </c>
+      <c r="H33" s="13">
+        <v>28368</v>
+      </c>
+      <c r="I33" s="14">
         <f t="shared" si="0"/>
-        <v/>
+        <v>2.227027027027027E-2</v>
       </c>
       <c r="J33" s="5"/>
     </row>
@@ -8736,17 +8777,21 @@
       <c r="F34" s="13">
         <v>9690</v>
       </c>
-      <c r="G34" s="12"/>
-      <c r="H34" s="13"/>
-      <c r="I34" s="14" t="str">
+      <c r="G34" s="12" t="s">
+        <v>231</v>
+      </c>
+      <c r="H34" s="13">
+        <v>9891</v>
+      </c>
+      <c r="I34" s="14">
         <f t="shared" si="0"/>
-        <v/>
+        <v>2.0743034055727555E-2</v>
       </c>
       <c r="J34" s="5"/>
     </row>
     <row r="35" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B35" s="4" t="s">
-        <v>164</v>
+        <v>232</v>
       </c>
       <c r="C35" s="12" t="s">
         <v>173</v>
@@ -8760,20 +8805,34 @@
       <c r="F35" s="13">
         <v>10088</v>
       </c>
-      <c r="G35" s="12"/>
-      <c r="H35" s="13"/>
-      <c r="I35" s="14" t="str">
+      <c r="G35" s="12" t="s">
+        <v>231</v>
+      </c>
+      <c r="H35" s="13">
+        <v>10400</v>
+      </c>
+      <c r="I35" s="14">
         <f t="shared" si="0"/>
-        <v/>
+        <v>3.0927835051546393E-2</v>
       </c>
       <c r="J35" s="5"/>
     </row>
     <row r="36" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B36" s="4"/>
-      <c r="C36" s="12"/>
-      <c r="D36" s="5"/>
-      <c r="E36" s="12"/>
-      <c r="F36" s="13"/>
+      <c r="B36" s="4" t="s">
+        <v>232</v>
+      </c>
+      <c r="C36" s="12" t="s">
+        <v>237</v>
+      </c>
+      <c r="D36" s="5" t="s">
+        <v>236</v>
+      </c>
+      <c r="E36" s="12" t="s">
+        <v>230</v>
+      </c>
+      <c r="F36" s="13">
+        <v>11000</v>
+      </c>
       <c r="G36" s="12"/>
       <c r="H36" s="13"/>
       <c r="I36" s="14" t="str">
@@ -8783,11 +8842,21 @@
       <c r="J36" s="5"/>
     </row>
     <row r="37" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B37" s="4"/>
-      <c r="C37" s="12"/>
-      <c r="D37" s="5"/>
-      <c r="E37" s="12"/>
-      <c r="F37" s="13"/>
+      <c r="B37" s="4" t="s">
+        <v>232</v>
+      </c>
+      <c r="C37" s="12" t="s">
+        <v>235</v>
+      </c>
+      <c r="D37" s="5" t="s">
+        <v>234</v>
+      </c>
+      <c r="E37" s="12" t="s">
+        <v>230</v>
+      </c>
+      <c r="F37" s="13">
+        <v>34205</v>
+      </c>
       <c r="G37" s="12"/>
       <c r="H37" s="13"/>
       <c r="I37" s="14" t="str">
@@ -8931,7 +9000,7 @@
       <c r="G47" s="12"/>
       <c r="H47" s="13"/>
       <c r="I47" s="14" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" ref="I47:I79" si="1">IF(H47="", "", IFERROR( ((H47-F47)/F47), ""))</f>
         <v/>
       </c>
       <c r="J47" s="5"/>
@@ -8945,7 +9014,7 @@
       <c r="G48" s="12"/>
       <c r="H48" s="13"/>
       <c r="I48" s="14" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="J48" s="5"/>
@@ -8959,7 +9028,7 @@
       <c r="G49" s="12"/>
       <c r="H49" s="13"/>
       <c r="I49" s="14" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="J49" s="5"/>
@@ -8973,7 +9042,7 @@
       <c r="G50" s="12"/>
       <c r="H50" s="13"/>
       <c r="I50" s="14" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="J50" s="5"/>
@@ -8987,7 +9056,7 @@
       <c r="G51" s="12"/>
       <c r="H51" s="13"/>
       <c r="I51" s="14" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="J51" s="5"/>
@@ -9001,7 +9070,7 @@
       <c r="G52" s="12"/>
       <c r="H52" s="13"/>
       <c r="I52" s="14" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="J52" s="5"/>
@@ -9015,7 +9084,7 @@
       <c r="G53" s="12"/>
       <c r="H53" s="13"/>
       <c r="I53" s="14" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="J53" s="5"/>
@@ -9029,7 +9098,7 @@
       <c r="G54" s="12"/>
       <c r="H54" s="13"/>
       <c r="I54" s="14" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="J54" s="5"/>
@@ -9043,7 +9112,7 @@
       <c r="G55" s="12"/>
       <c r="H55" s="13"/>
       <c r="I55" s="14" t="str">
-        <f t="shared" ref="I55:I87" si="1">IF(H55="", "", IFERROR( ((H55-F55)/F55), ""))</f>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="J55" s="5"/>
@@ -9384,120 +9453,8 @@
       </c>
       <c r="J79" s="5"/>
     </row>
-    <row r="80" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B80" s="4"/>
-      <c r="C80" s="12"/>
-      <c r="D80" s="5"/>
-      <c r="E80" s="12"/>
-      <c r="F80" s="13"/>
-      <c r="G80" s="12"/>
-      <c r="H80" s="13"/>
-      <c r="I80" s="14" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="J80" s="5"/>
-    </row>
-    <row r="81" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B81" s="4"/>
-      <c r="C81" s="12"/>
-      <c r="D81" s="5"/>
-      <c r="E81" s="12"/>
-      <c r="F81" s="13"/>
-      <c r="G81" s="12"/>
-      <c r="H81" s="13"/>
-      <c r="I81" s="14" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="J81" s="5"/>
-    </row>
-    <row r="82" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B82" s="4"/>
-      <c r="C82" s="12"/>
-      <c r="D82" s="5"/>
-      <c r="E82" s="12"/>
-      <c r="F82" s="13"/>
-      <c r="G82" s="12"/>
-      <c r="H82" s="13"/>
-      <c r="I82" s="14" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="J82" s="5"/>
-    </row>
-    <row r="83" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B83" s="4"/>
-      <c r="C83" s="12"/>
-      <c r="D83" s="5"/>
-      <c r="E83" s="12"/>
-      <c r="F83" s="13"/>
-      <c r="G83" s="12"/>
-      <c r="H83" s="13"/>
-      <c r="I83" s="14" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="J83" s="5"/>
-    </row>
-    <row r="84" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B84" s="4"/>
-      <c r="C84" s="12"/>
-      <c r="D84" s="5"/>
-      <c r="E84" s="12"/>
-      <c r="F84" s="13"/>
-      <c r="G84" s="12"/>
-      <c r="H84" s="13"/>
-      <c r="I84" s="14" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="J84" s="5"/>
-    </row>
-    <row r="85" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B85" s="4"/>
-      <c r="C85" s="12"/>
-      <c r="D85" s="5"/>
-      <c r="E85" s="12"/>
-      <c r="F85" s="13"/>
-      <c r="G85" s="12"/>
-      <c r="H85" s="13"/>
-      <c r="I85" s="14" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="J85" s="5"/>
-    </row>
-    <row r="86" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B86" s="4"/>
-      <c r="C86" s="12"/>
-      <c r="D86" s="5"/>
-      <c r="E86" s="12"/>
-      <c r="F86" s="13"/>
-      <c r="G86" s="12"/>
-      <c r="H86" s="13"/>
-      <c r="I86" s="14" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="J86" s="5"/>
-    </row>
-    <row r="87" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B87" s="4"/>
-      <c r="C87" s="12"/>
-      <c r="D87" s="5"/>
-      <c r="E87" s="12"/>
-      <c r="F87" s="13"/>
-      <c r="G87" s="12"/>
-      <c r="H87" s="13"/>
-      <c r="I87" s="14" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="J87" s="5"/>
-    </row>
   </sheetData>
-  <autoFilter ref="B2:J87"/>
+  <autoFilter ref="B2:J79"/>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="I1 I3:I1048576">
     <cfRule type="cellIs" dxfId="1" priority="4" operator="greaterThan">

--- a/WorkShop/01.docs/01.초기학습.xlsx
+++ b/WorkShop/01.docs/01.초기학습.xlsx
@@ -22,7 +22,7 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'01-1.지수'!$B$1:$E$9</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">'02.원칙'!$B$2:$E$2</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">'03.모의투자'!$B$2:$J$79</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">'03.모의투자'!$B$2:$J$73</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
   <extLst>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="342" uniqueCount="238">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="352" uniqueCount="242">
   <si>
     <t>사이트명</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1107,10 +1107,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>011280</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>086520</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1459,6 +1455,25 @@
   </si>
   <si>
     <t>137400</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2020-02-13</t>
+  </si>
+  <si>
+    <t>아이디스</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>143160</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>용식_이평눌림목매매_V0.01</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>011280</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1704,7 +1719,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="58">
+  <cellXfs count="60">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1878,6 +1893,12 @@
     </xf>
     <xf numFmtId="49" fontId="10" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -6394,7 +6415,7 @@
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="D6" sqref="D6"/>
+      <selection pane="bottomRight" activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="12" x14ac:dyDescent="0.3"/>
@@ -6785,7 +6806,7 @@
   <dimension ref="B1:F32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="3" ySplit="1" topLeftCell="D11" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="1" topLeftCell="D2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
       <selection pane="bottomRight" activeCell="F16" sqref="F16"/>
@@ -6804,244 +6825,244 @@
   <sheetData>
     <row r="1" spans="2:6" s="8" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B1" s="3" t="s">
+        <v>173</v>
+      </c>
+      <c r="C1" s="3" t="s">
         <v>174</v>
       </c>
-      <c r="C1" s="3" t="s">
-        <v>175</v>
-      </c>
       <c r="D1" s="3" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="E1" s="3" t="s">
         <v>136</v>
       </c>
       <c r="F1" s="3" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
     </row>
     <row r="2" spans="2:6" ht="72" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B2" s="44" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="C2" s="4"/>
       <c r="D2" s="42" t="s">
+        <v>177</v>
+      </c>
+      <c r="E2" s="40" t="s">
+        <v>182</v>
+      </c>
+      <c r="F2" s="40" t="s">
         <v>178</v>
-      </c>
-      <c r="E2" s="40" t="s">
-        <v>183</v>
-      </c>
-      <c r="F2" s="40" t="s">
-        <v>179</v>
       </c>
     </row>
     <row r="3" spans="2:6" ht="72" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B3" s="45" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="C3" s="4"/>
       <c r="D3" s="42" t="s">
+        <v>180</v>
+      </c>
+      <c r="E3" s="40" t="s">
         <v>181</v>
       </c>
-      <c r="E3" s="40" t="s">
-        <v>182</v>
-      </c>
       <c r="F3" s="40" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
     </row>
     <row r="4" spans="2:6" ht="72" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B4" s="46" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="C4" s="4"/>
       <c r="D4" s="42" t="s">
+        <v>185</v>
+      </c>
+      <c r="E4" s="40" t="s">
         <v>186</v>
       </c>
-      <c r="E4" s="40" t="s">
-        <v>187</v>
-      </c>
       <c r="F4" s="40" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
     </row>
     <row r="5" spans="2:6" ht="72" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B5" s="46" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="C5" s="4"/>
       <c r="D5" s="42" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="E5" s="40" t="s">
+        <v>188</v>
+      </c>
+      <c r="F5" s="40" t="s">
         <v>189</v>
-      </c>
-      <c r="F5" s="40" t="s">
-        <v>190</v>
       </c>
     </row>
     <row r="6" spans="2:6" ht="72" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B6" s="39" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="C6" s="4"/>
       <c r="D6" s="43" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="E6" s="40" t="s">
+        <v>192</v>
+      </c>
+      <c r="F6" s="40" t="s">
         <v>193</v>
-      </c>
-      <c r="F6" s="40" t="s">
-        <v>194</v>
       </c>
     </row>
     <row r="7" spans="2:6" ht="72" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B7" s="41" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="C7" s="4"/>
       <c r="D7" s="43" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="E7" s="40" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="F7" s="40" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
     </row>
     <row r="8" spans="2:6" ht="72" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B8" s="41" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="C8" s="4"/>
       <c r="D8" s="43" t="s">
+        <v>198</v>
+      </c>
+      <c r="E8" s="40" t="s">
         <v>199</v>
       </c>
-      <c r="E8" s="40" t="s">
-        <v>200</v>
-      </c>
       <c r="F8" s="40" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
     </row>
     <row r="9" spans="2:6" ht="72" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B9" s="41" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="C9" s="4"/>
       <c r="D9" s="43" t="s">
+        <v>203</v>
+      </c>
+      <c r="E9" s="40" t="s">
         <v>204</v>
       </c>
-      <c r="E9" s="40" t="s">
+      <c r="F9" s="40" t="s">
         <v>205</v>
-      </c>
-      <c r="F9" s="40" t="s">
-        <v>206</v>
       </c>
     </row>
     <row r="10" spans="2:6" ht="72" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B10" s="47" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="C10" s="4"/>
       <c r="D10" s="42" t="s">
+        <v>207</v>
+      </c>
+      <c r="E10" s="40" t="s">
         <v>208</v>
       </c>
-      <c r="E10" s="40" t="s">
+      <c r="F10" s="40" t="s">
         <v>209</v>
-      </c>
-      <c r="F10" s="40" t="s">
-        <v>210</v>
       </c>
     </row>
     <row r="11" spans="2:6" ht="72" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B11" s="47" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="C11" s="4"/>
       <c r="D11" s="42" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="E11" s="40" t="s">
+        <v>210</v>
+      </c>
+      <c r="F11" s="40" t="s">
         <v>211</v>
-      </c>
-      <c r="F11" s="40" t="s">
-        <v>212</v>
       </c>
     </row>
     <row r="12" spans="2:6" ht="72" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B12" s="47" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="C12" s="4"/>
       <c r="D12" s="42" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="E12" s="40" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="F12" s="40" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
     </row>
     <row r="13" spans="2:6" ht="72" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B13" s="47" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="C13" s="4"/>
       <c r="D13" s="42" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="E13" s="40" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="F13" s="40" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
     </row>
     <row r="14" spans="2:6" ht="72" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B14" s="39" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="C14" s="48"/>
       <c r="D14" s="43" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="E14" s="40" t="s">
+        <v>219</v>
+      </c>
+      <c r="F14" s="40" t="s">
         <v>220</v>
-      </c>
-      <c r="F14" s="40" t="s">
-        <v>221</v>
       </c>
     </row>
     <row r="15" spans="2:6" ht="72" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B15" s="39" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="C15" s="4"/>
       <c r="D15" s="43" t="s">
+        <v>223</v>
+      </c>
+      <c r="E15" s="40" t="s">
         <v>224</v>
       </c>
-      <c r="E15" s="40" t="s">
+      <c r="F15" s="40" t="s">
         <v>225</v>
-      </c>
-      <c r="F15" s="40" t="s">
-        <v>226</v>
       </c>
     </row>
     <row r="16" spans="2:6" ht="72" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B16" s="39" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="C16" s="4"/>
       <c r="D16" s="43" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="E16" s="40" t="s">
+        <v>227</v>
+      </c>
+      <c r="F16" s="40" t="s">
         <v>228</v>
-      </c>
-      <c r="F16" s="40" t="s">
-        <v>229</v>
       </c>
     </row>
     <row r="17" spans="2:6" ht="72" customHeight="1" x14ac:dyDescent="0.3">
@@ -7257,7 +7278,7 @@
     <row r="8" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B8" s="17"/>
       <c r="C8" s="17" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="D8" s="23"/>
       <c r="E8" s="23"/>
@@ -7830,13 +7851,13 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:J79"/>
+  <dimension ref="B2:O73"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="2" topLeftCell="B3" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="2" topLeftCell="B24" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="J22" sqref="J22"/>
+      <selection pane="bottomRight" activeCell="E44" sqref="E44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="12" x14ac:dyDescent="0.3"/>
@@ -7851,10 +7872,12 @@
     <col min="8" max="8" width="10" style="9" customWidth="1"/>
     <col min="9" max="9" width="10.125" style="10" customWidth="1"/>
     <col min="10" max="10" width="60.125" style="2" customWidth="1"/>
-    <col min="11" max="16384" width="9" style="1"/>
+    <col min="11" max="11" width="9" style="1"/>
+    <col min="12" max="15" width="9" style="59"/>
+    <col min="16" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:10" s="7" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="2:15" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B2" s="3" t="s">
         <v>14</v>
       </c>
@@ -7882,8 +7905,12 @@
       <c r="J2" s="3" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="3" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="L2" s="58"/>
+      <c r="M2" s="58"/>
+      <c r="N2" s="58"/>
+      <c r="O2" s="58"/>
+    </row>
+    <row r="3" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B3" s="4" t="s">
         <v>28</v>
       </c>
@@ -7906,12 +7933,12 @@
         <v>27200</v>
       </c>
       <c r="I3" s="14">
-        <f t="shared" ref="I3:I46" si="0">IF(H3="", "", IFERROR( ((H3-F3)/F3), ""))</f>
+        <f t="shared" ref="I3:I42" si="0">IF(H3="", "", IFERROR( ((H3-F3)/F3), ""))</f>
         <v>0.1079429735234216</v>
       </c>
       <c r="J3" s="5"/>
     </row>
-    <row r="4" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B4" s="4" t="s">
         <v>28</v>
       </c>
@@ -7939,7 +7966,7 @@
       </c>
       <c r="J4" s="5"/>
     </row>
-    <row r="5" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="5" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B5" s="4" t="s">
         <v>28</v>
       </c>
@@ -7969,7 +7996,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="6" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="6" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B6" s="4" t="s">
         <v>28</v>
       </c>
@@ -7999,7 +8026,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="7" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="7" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B7" s="4" t="s">
         <v>29</v>
       </c>
@@ -8029,7 +8056,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="8" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="8" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B8" s="4" t="s">
         <v>29</v>
       </c>
@@ -8057,7 +8084,7 @@
       </c>
       <c r="J8" s="5"/>
     </row>
-    <row r="9" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="9" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B9" s="4" t="s">
         <v>29</v>
       </c>
@@ -8087,7 +8114,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="10" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="10" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B10" s="4" t="s">
         <v>29</v>
       </c>
@@ -8115,7 +8142,7 @@
       </c>
       <c r="J10" s="5"/>
     </row>
-    <row r="11" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="11" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B11" s="4" t="s">
         <v>29</v>
       </c>
@@ -8143,7 +8170,7 @@
       </c>
       <c r="J11" s="5"/>
     </row>
-    <row r="12" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="12" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B12" s="4" t="s">
         <v>29</v>
       </c>
@@ -8171,7 +8198,7 @@
       </c>
       <c r="J12" s="5"/>
     </row>
-    <row r="13" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="13" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B13" s="4" t="s">
         <v>29</v>
       </c>
@@ -8199,7 +8226,7 @@
       </c>
       <c r="J13" s="5"/>
     </row>
-    <row r="14" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="14" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B14" s="4" t="s">
         <v>29</v>
       </c>
@@ -8227,7 +8254,7 @@
       </c>
       <c r="J14" s="5"/>
     </row>
-    <row r="15" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="15" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B15" s="4" t="s">
         <v>29</v>
       </c>
@@ -8255,7 +8282,7 @@
       </c>
       <c r="J15" s="5"/>
     </row>
-    <row r="16" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="16" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B16" s="4" t="s">
         <v>54</v>
       </c>
@@ -8706,31 +8733,14 @@
       <c r="J31" s="5"/>
     </row>
     <row r="32" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B32" s="4" t="s">
-        <v>164</v>
-      </c>
-      <c r="C32" s="12" t="s">
-        <v>170</v>
-      </c>
-      <c r="D32" s="5" t="s">
-        <v>165</v>
-      </c>
-      <c r="E32" s="12" t="s">
-        <v>169</v>
-      </c>
-      <c r="F32" s="13">
-        <v>4275</v>
-      </c>
-      <c r="G32" s="12" t="s">
-        <v>231</v>
-      </c>
-      <c r="H32" s="13">
-        <v>4190</v>
-      </c>
-      <c r="I32" s="14">
-        <f t="shared" si="0"/>
-        <v>-1.9883040935672516E-2</v>
-      </c>
+      <c r="B32" s="4"/>
+      <c r="C32" s="12"/>
+      <c r="D32" s="32"/>
+      <c r="E32" s="12"/>
+      <c r="F32" s="13"/>
+      <c r="G32" s="12"/>
+      <c r="H32" s="13"/>
+      <c r="I32" s="14"/>
       <c r="J32" s="5"/>
     </row>
     <row r="33" spans="2:10" x14ac:dyDescent="0.3">
@@ -8738,26 +8748,26 @@
         <v>164</v>
       </c>
       <c r="C33" s="12" t="s">
-        <v>171</v>
+        <v>241</v>
       </c>
       <c r="D33" s="5" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="E33" s="12" t="s">
         <v>169</v>
       </c>
       <c r="F33" s="13">
-        <v>27750</v>
+        <v>4275</v>
       </c>
       <c r="G33" s="12" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="H33" s="13">
-        <v>28368</v>
+        <v>4190</v>
       </c>
       <c r="I33" s="14">
         <f t="shared" si="0"/>
-        <v>2.227027027027027E-2</v>
+        <v>-1.9883040935672516E-2</v>
       </c>
       <c r="J33" s="5"/>
     </row>
@@ -8766,130 +8776,149 @@
         <v>164</v>
       </c>
       <c r="C34" s="12" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="D34" s="5" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="E34" s="12" t="s">
         <v>169</v>
       </c>
       <c r="F34" s="13">
-        <v>9690</v>
+        <v>27750</v>
       </c>
       <c r="G34" s="12" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="H34" s="13">
-        <v>9891</v>
+        <v>28368</v>
       </c>
       <c r="I34" s="14">
         <f t="shared" si="0"/>
-        <v>2.0743034055727555E-2</v>
+        <v>2.227027027027027E-2</v>
       </c>
       <c r="J34" s="5"/>
     </row>
     <row r="35" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B35" s="4" t="s">
-        <v>232</v>
+        <v>164</v>
       </c>
       <c r="C35" s="12" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="D35" s="5" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="E35" s="12" t="s">
         <v>169</v>
       </c>
       <c r="F35" s="13">
-        <v>10088</v>
+        <v>9690</v>
       </c>
       <c r="G35" s="12" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="H35" s="13">
-        <v>10400</v>
+        <v>9891</v>
       </c>
       <c r="I35" s="14">
         <f t="shared" si="0"/>
-        <v>3.0927835051546393E-2</v>
+        <v>2.0743034055727555E-2</v>
       </c>
       <c r="J35" s="5"/>
     </row>
     <row r="36" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B36" s="4" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="C36" s="12" t="s">
-        <v>237</v>
+        <v>172</v>
       </c>
       <c r="D36" s="5" t="s">
-        <v>236</v>
+        <v>168</v>
       </c>
       <c r="E36" s="12" t="s">
+        <v>169</v>
+      </c>
+      <c r="F36" s="13">
+        <v>10088</v>
+      </c>
+      <c r="G36" s="12" t="s">
         <v>230</v>
       </c>
-      <c r="F36" s="13">
-        <v>11000</v>
-      </c>
-      <c r="G36" s="12"/>
-      <c r="H36" s="13"/>
-      <c r="I36" s="14" t="str">
+      <c r="H36" s="13">
+        <v>10400</v>
+      </c>
+      <c r="I36" s="14">
         <f t="shared" si="0"/>
-        <v/>
+        <v>3.0927835051546393E-2</v>
       </c>
       <c r="J36" s="5"/>
     </row>
     <row r="37" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B37" s="4" t="s">
-        <v>232</v>
-      </c>
-      <c r="C37" s="12" t="s">
-        <v>235</v>
-      </c>
-      <c r="D37" s="5" t="s">
-        <v>234</v>
-      </c>
-      <c r="E37" s="12" t="s">
-        <v>230</v>
-      </c>
-      <c r="F37" s="13">
-        <v>34205</v>
-      </c>
+      <c r="B37" s="4"/>
+      <c r="C37" s="12"/>
+      <c r="D37" s="5"/>
+      <c r="E37" s="12"/>
+      <c r="F37" s="13"/>
       <c r="G37" s="12"/>
       <c r="H37" s="13"/>
-      <c r="I37" s="14" t="str">
+      <c r="I37" s="14"/>
+      <c r="J37" s="5"/>
+    </row>
+    <row r="38" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B38" s="4" t="s">
+        <v>231</v>
+      </c>
+      <c r="C38" s="12" t="s">
+        <v>236</v>
+      </c>
+      <c r="D38" s="5" t="s">
+        <v>235</v>
+      </c>
+      <c r="E38" s="12" t="s">
+        <v>229</v>
+      </c>
+      <c r="F38" s="13">
+        <v>11000</v>
+      </c>
+      <c r="G38" s="12" t="s">
+        <v>237</v>
+      </c>
+      <c r="H38" s="13">
+        <v>11150</v>
+      </c>
+      <c r="I38" s="14">
+        <f>IF(H38="", "", IFERROR( ((H38-F38)/F38), ""))</f>
+        <v>1.3636363636363636E-2</v>
+      </c>
+      <c r="J38" s="5"/>
+    </row>
+    <row r="39" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B39" s="4" t="s">
+        <v>231</v>
+      </c>
+      <c r="C39" s="12" t="s">
+        <v>234</v>
+      </c>
+      <c r="D39" s="5" t="s">
+        <v>233</v>
+      </c>
+      <c r="E39" s="12" t="s">
+        <v>229</v>
+      </c>
+      <c r="F39" s="13">
+        <v>34205</v>
+      </c>
+      <c r="G39" s="12" t="s">
+        <v>237</v>
+      </c>
+      <c r="H39" s="13">
+        <v>37176</v>
+      </c>
+      <c r="I39" s="14">
         <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="J37" s="5"/>
-    </row>
-    <row r="38" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B38" s="4"/>
-      <c r="C38" s="12"/>
-      <c r="D38" s="5"/>
-      <c r="E38" s="12"/>
-      <c r="F38" s="13"/>
-      <c r="G38" s="12"/>
-      <c r="H38" s="13"/>
-      <c r="I38" s="14" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="J38" s="5"/>
-    </row>
-    <row r="39" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B39" s="4"/>
-      <c r="C39" s="12"/>
-      <c r="D39" s="5"/>
-      <c r="E39" s="12"/>
-      <c r="F39" s="13"/>
-      <c r="G39" s="12"/>
-      <c r="H39" s="13"/>
-      <c r="I39" s="14" t="str">
-        <f t="shared" si="0"/>
-        <v/>
+        <v>8.6858646396725622E-2</v>
       </c>
       <c r="J39" s="5"/>
     </row>
@@ -8901,18 +8930,25 @@
       <c r="F40" s="13"/>
       <c r="G40" s="12"/>
       <c r="H40" s="13"/>
-      <c r="I40" s="14" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
+      <c r="I40" s="14"/>
       <c r="J40" s="5"/>
     </row>
     <row r="41" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B41" s="4"/>
-      <c r="C41" s="12"/>
-      <c r="D41" s="5"/>
-      <c r="E41" s="12"/>
-      <c r="F41" s="13"/>
+      <c r="B41" s="4" t="s">
+        <v>231</v>
+      </c>
+      <c r="C41" s="12" t="s">
+        <v>236</v>
+      </c>
+      <c r="D41" s="5" t="s">
+        <v>235</v>
+      </c>
+      <c r="E41" s="12" t="s">
+        <v>237</v>
+      </c>
+      <c r="F41" s="13">
+        <v>11458</v>
+      </c>
       <c r="G41" s="12"/>
       <c r="H41" s="13"/>
       <c r="I41" s="14" t="str">
@@ -8922,11 +8958,21 @@
       <c r="J41" s="5"/>
     </row>
     <row r="42" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B42" s="4"/>
-      <c r="C42" s="12"/>
-      <c r="D42" s="5"/>
-      <c r="E42" s="12"/>
-      <c r="F42" s="13"/>
+      <c r="B42" s="4" t="s">
+        <v>240</v>
+      </c>
+      <c r="C42" s="12" t="s">
+        <v>239</v>
+      </c>
+      <c r="D42" s="5" t="s">
+        <v>238</v>
+      </c>
+      <c r="E42" s="12" t="s">
+        <v>237</v>
+      </c>
+      <c r="F42" s="13">
+        <v>25750</v>
+      </c>
       <c r="G42" s="12"/>
       <c r="H42" s="13"/>
       <c r="I42" s="14" t="str">
@@ -8944,7 +8990,7 @@
       <c r="G43" s="12"/>
       <c r="H43" s="13"/>
       <c r="I43" s="14" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" ref="I43:I73" si="1">IF(H43="", "", IFERROR( ((H43-F43)/F43), ""))</f>
         <v/>
       </c>
       <c r="J43" s="5"/>
@@ -8958,7 +9004,7 @@
       <c r="G44" s="12"/>
       <c r="H44" s="13"/>
       <c r="I44" s="14" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="J44" s="5"/>
@@ -8972,7 +9018,7 @@
       <c r="G45" s="12"/>
       <c r="H45" s="13"/>
       <c r="I45" s="14" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="J45" s="5"/>
@@ -8986,7 +9032,7 @@
       <c r="G46" s="12"/>
       <c r="H46" s="13"/>
       <c r="I46" s="14" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="J46" s="5"/>
@@ -9000,7 +9046,7 @@
       <c r="G47" s="12"/>
       <c r="H47" s="13"/>
       <c r="I47" s="14" t="str">
-        <f t="shared" ref="I47:I79" si="1">IF(H47="", "", IFERROR( ((H47-F47)/F47), ""))</f>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="J47" s="5"/>
@@ -9369,92 +9415,8 @@
       </c>
       <c r="J73" s="5"/>
     </row>
-    <row r="74" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B74" s="4"/>
-      <c r="C74" s="12"/>
-      <c r="D74" s="5"/>
-      <c r="E74" s="12"/>
-      <c r="F74" s="13"/>
-      <c r="G74" s="12"/>
-      <c r="H74" s="13"/>
-      <c r="I74" s="14" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="J74" s="5"/>
-    </row>
-    <row r="75" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B75" s="4"/>
-      <c r="C75" s="12"/>
-      <c r="D75" s="5"/>
-      <c r="E75" s="12"/>
-      <c r="F75" s="13"/>
-      <c r="G75" s="12"/>
-      <c r="H75" s="13"/>
-      <c r="I75" s="14" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="J75" s="5"/>
-    </row>
-    <row r="76" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B76" s="4"/>
-      <c r="C76" s="12"/>
-      <c r="D76" s="5"/>
-      <c r="E76" s="12"/>
-      <c r="F76" s="13"/>
-      <c r="G76" s="12"/>
-      <c r="H76" s="13"/>
-      <c r="I76" s="14" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="J76" s="5"/>
-    </row>
-    <row r="77" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B77" s="4"/>
-      <c r="C77" s="12"/>
-      <c r="D77" s="5"/>
-      <c r="E77" s="12"/>
-      <c r="F77" s="13"/>
-      <c r="G77" s="12"/>
-      <c r="H77" s="13"/>
-      <c r="I77" s="14" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="J77" s="5"/>
-    </row>
-    <row r="78" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B78" s="4"/>
-      <c r="C78" s="12"/>
-      <c r="D78" s="5"/>
-      <c r="E78" s="12"/>
-      <c r="F78" s="13"/>
-      <c r="G78" s="12"/>
-      <c r="H78" s="13"/>
-      <c r="I78" s="14" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="J78" s="5"/>
-    </row>
-    <row r="79" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B79" s="4"/>
-      <c r="C79" s="12"/>
-      <c r="D79" s="5"/>
-      <c r="E79" s="12"/>
-      <c r="F79" s="13"/>
-      <c r="G79" s="12"/>
-      <c r="H79" s="13"/>
-      <c r="I79" s="14" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="J79" s="5"/>
-    </row>
   </sheetData>
-  <autoFilter ref="B2:J79"/>
+  <autoFilter ref="B2:J73"/>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="I1 I3:I1048576">
     <cfRule type="cellIs" dxfId="1" priority="4" operator="greaterThan">

--- a/WorkShop/01.docs/01.초기학습.xlsx
+++ b/WorkShop/01.docs/01.초기학습.xlsx
@@ -22,7 +22,7 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'01-1.지수'!$B$1:$E$9</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">'02.원칙'!$B$2:$E$2</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">'03.모의투자'!$B$2:$J$73</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">'03.모의투자'!$B$2:$J$75</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
   <extLst>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="352" uniqueCount="242">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="409" uniqueCount="254">
   <si>
     <t>사이트명</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -131,31 +131,10 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>장초반 상승갭 30%</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>수익율</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <r>
-      <t xml:space="preserve"> -4% 하락 후 손절. </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>투자주의 기업임.</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>바디텍메드</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -324,10 +303,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t xml:space="preserve"> -5% 하락 후 자동손절.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>https://blog.naver.com/mdew3854</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -398,10 +373,6 @@
   </si>
   <si>
     <t>2020-01-31</t>
-  </si>
-  <si>
-    <t>당일매도하지 못하고 1일 이후 매도.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>내용</t>
@@ -1049,18 +1020,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>용식_종가매매_기본_V0.01</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1. 당일거래량이 높고 최근 시장주도주나 대장주 종목
-2. 당일과 최근5거래일이내 기관/외인의 수급이 좋은 종목
-3. 개인주체의 테마성 제외( 예:반기문주, …..)
-4. 전날 혹은 당일 증권방송 및 증권사 추천종목중 5거래일 기관의 수급이 좋은 종목
-5. 금요일에는 되도록 거래하지 않음.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>https://www.youtube.com/watch?v=258D9JM8CP8</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1438,10 +1397,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>20일눌림목</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>에치에프알</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1474,6 +1429,195 @@
   </si>
   <si>
     <t>011280</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2020-02-14</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>가상투자.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>가상투자.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>가상투자</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> -4% 하락 후 손절. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>투자주의 기업임.</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>가상투자. -5% 하락 후 자동손절.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>가상투자. 장초반 상승갭 30%</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>가상투자. 당일매도하지 못하고 1일 이후 매도.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>모의투자.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>국영지앤엠</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>006050</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>용식_눌림목매매_V0.01</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>&lt;A. 기본조건검색식&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+  1. 당일거래량이 높고 최근 시장주도주나 대장주 종목
+  2. 당일과 최근5거래일이내 기관/외인의 수급이 좋은 종목
+  3. 개인주체의 테마성 제외( 예:반기문주, …..)
+  4. 전날 혹은 당일 증권방송 및 증권사 추천종목중 5거래일 기관의 수급이 좋은 종목
+  </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>* 금요일에는 되도록 거래하지 않음.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">&lt;B. 검색후체크사항&gt;
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">  1. 기업재무현황 - 매출, 영업이익, 당기순이익 체크.
+  2. 외인/기관의 당일 순매수 체크.
+  2. 차트의 모양 체크.
+  3. 지표시뮬레이션 - 절반이상의 지표가 매수를 권장하는지 체크.</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>073490</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>이노와이어리스</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>222080</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>씨아이에스</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>263600</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>덕우전자</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2020-02-15</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1867,17 +2011,17 @@
     <xf numFmtId="49" fontId="12" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="49" fontId="4" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="4" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="10" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="10" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="10" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -1891,14 +2035,14 @@
     <xf numFmtId="49" fontId="10" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="49" fontId="10" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="10" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="49" fontId="10" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -6180,110 +6324,110 @@
     </row>
     <row r="2" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B2" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="C2" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="D2" s="20" t="s">
         <v>55</v>
-      </c>
-      <c r="C2" s="6" t="s">
-        <v>56</v>
-      </c>
-      <c r="D2" s="20" t="s">
-        <v>57</v>
       </c>
     </row>
     <row r="3" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B3" s="21" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="C3" s="6" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="D3" s="20"/>
     </row>
     <row r="4" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B4" s="21" t="s">
+        <v>58</v>
+      </c>
+      <c r="C4" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="D4" s="20" t="s">
         <v>60</v>
-      </c>
-      <c r="C4" s="6" t="s">
-        <v>61</v>
-      </c>
-      <c r="D4" s="20" t="s">
-        <v>62</v>
       </c>
     </row>
     <row r="5" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B5" s="21" t="s">
+        <v>61</v>
+      </c>
+      <c r="C5" s="6" t="s">
+        <v>62</v>
+      </c>
+      <c r="D5" s="20" t="s">
         <v>63</v>
-      </c>
-      <c r="C5" s="6" t="s">
-        <v>64</v>
-      </c>
-      <c r="D5" s="20" t="s">
-        <v>65</v>
       </c>
     </row>
     <row r="6" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B6" s="21" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="C6" s="6" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="D6" s="20" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
     </row>
     <row r="7" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B7" s="21" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="C7" s="22" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="D7" s="20" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
     </row>
     <row r="8" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B8" s="4" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="C8" s="22" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="D8" s="20" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
     </row>
     <row r="9" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B9" s="4" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="C9" s="22" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="D9" s="20" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
     </row>
     <row r="10" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B10" s="4" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="C10" s="22" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="D10" s="20" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
     </row>
     <row r="11" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B11" s="4" t="s">
-        <v>161</v>
+        <v>155</v>
       </c>
       <c r="C11" s="22" t="s">
-        <v>160</v>
+        <v>154</v>
       </c>
       <c r="D11" s="5" t="s">
-        <v>162</v>
+        <v>156</v>
       </c>
     </row>
     <row r="12" spans="2:4" x14ac:dyDescent="0.3">
@@ -6428,324 +6572,324 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B1" s="49" t="s">
-        <v>133</v>
-      </c>
-      <c r="C1" s="50"/>
-      <c r="D1" s="49" t="s">
-        <v>91</v>
-      </c>
-      <c r="E1" s="50"/>
+      <c r="B1" s="51" t="s">
+        <v>129</v>
+      </c>
+      <c r="C1" s="52"/>
+      <c r="D1" s="51" t="s">
+        <v>87</v>
+      </c>
+      <c r="E1" s="52"/>
     </row>
     <row r="2" spans="2:5" ht="24" x14ac:dyDescent="0.3">
       <c r="B2" s="53" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="C2" s="54"/>
       <c r="D2" s="34" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="E2" s="38" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
     </row>
     <row r="3" spans="2:5" ht="24" x14ac:dyDescent="0.3">
       <c r="B3" s="55"/>
       <c r="C3" s="56"/>
       <c r="D3" s="34" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="E3" s="35" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
     </row>
     <row r="4" spans="2:5" ht="48" x14ac:dyDescent="0.3">
       <c r="B4" s="53" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="C4" s="54"/>
       <c r="D4" s="34" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="E4" s="38" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
     </row>
     <row r="5" spans="2:5" ht="96" x14ac:dyDescent="0.3">
       <c r="B5" s="55"/>
       <c r="C5" s="56"/>
       <c r="D5" s="34" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="E5" s="35" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
     </row>
     <row r="6" spans="2:5" ht="72" x14ac:dyDescent="0.3">
       <c r="B6" s="53" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="C6" s="54"/>
       <c r="D6" s="34" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="E6" s="38" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
     </row>
     <row r="7" spans="2:5" ht="84" x14ac:dyDescent="0.3">
       <c r="B7" s="55"/>
       <c r="C7" s="56"/>
       <c r="D7" s="34" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="E7" s="35" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
     </row>
     <row r="8" spans="2:5" ht="96" x14ac:dyDescent="0.3">
-      <c r="B8" s="57" t="s">
-        <v>145</v>
+      <c r="B8" s="59" t="s">
+        <v>141</v>
       </c>
       <c r="C8" s="54"/>
       <c r="D8" s="34" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="E8" s="38" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
     </row>
     <row r="9" spans="2:5" ht="60" x14ac:dyDescent="0.3">
       <c r="B9" s="55"/>
       <c r="C9" s="56"/>
       <c r="D9" s="34" t="s">
+        <v>133</v>
+      </c>
+      <c r="E9" s="35" t="s">
         <v>137</v>
-      </c>
-      <c r="E9" s="35" t="s">
-        <v>141</v>
       </c>
     </row>
     <row r="10" spans="2:5" ht="60" x14ac:dyDescent="0.3">
       <c r="B10" s="53" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="C10" s="54"/>
       <c r="D10" s="34" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="E10" s="38" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
     </row>
     <row r="11" spans="2:5" ht="142.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B11" s="55"/>
       <c r="C11" s="56"/>
       <c r="D11" s="34" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="E11" s="35" t="s">
-        <v>163</v>
+        <v>157</v>
       </c>
     </row>
     <row r="12" spans="2:5" ht="24" x14ac:dyDescent="0.3">
       <c r="B12" s="53" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="C12" s="54"/>
       <c r="D12" s="34" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="E12" s="38" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
     </row>
     <row r="13" spans="2:5" ht="36" x14ac:dyDescent="0.3">
       <c r="B13" s="55"/>
       <c r="C13" s="56"/>
       <c r="D13" s="34" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="E13" s="35" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
     </row>
     <row r="14" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B14" s="51"/>
-      <c r="C14" s="52"/>
+      <c r="B14" s="57"/>
+      <c r="C14" s="58"/>
       <c r="D14" s="33"/>
       <c r="E14" s="36"/>
     </row>
     <row r="15" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B15" s="51"/>
-      <c r="C15" s="52"/>
+      <c r="B15" s="57"/>
+      <c r="C15" s="58"/>
       <c r="D15" s="33"/>
       <c r="E15" s="36"/>
     </row>
     <row r="16" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B16" s="51"/>
-      <c r="C16" s="52"/>
+      <c r="B16" s="57"/>
+      <c r="C16" s="58"/>
       <c r="D16" s="33"/>
       <c r="E16" s="36"/>
     </row>
     <row r="17" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B17" s="51"/>
-      <c r="C17" s="52"/>
+      <c r="B17" s="57"/>
+      <c r="C17" s="58"/>
       <c r="D17" s="33"/>
       <c r="E17" s="36"/>
     </row>
     <row r="18" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B18" s="51"/>
-      <c r="C18" s="52"/>
+      <c r="B18" s="57"/>
+      <c r="C18" s="58"/>
       <c r="D18" s="33"/>
       <c r="E18" s="36"/>
     </row>
     <row r="19" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B19" s="51"/>
-      <c r="C19" s="52"/>
+      <c r="B19" s="57"/>
+      <c r="C19" s="58"/>
       <c r="D19" s="33"/>
       <c r="E19" s="36"/>
     </row>
     <row r="20" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B20" s="51"/>
-      <c r="C20" s="52"/>
+      <c r="B20" s="57"/>
+      <c r="C20" s="58"/>
       <c r="D20" s="33"/>
       <c r="E20" s="36"/>
     </row>
     <row r="21" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B21" s="51"/>
-      <c r="C21" s="52"/>
+      <c r="B21" s="57"/>
+      <c r="C21" s="58"/>
       <c r="D21" s="33"/>
       <c r="E21" s="36"/>
     </row>
     <row r="22" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B22" s="51"/>
-      <c r="C22" s="52"/>
+      <c r="B22" s="57"/>
+      <c r="C22" s="58"/>
       <c r="D22" s="33"/>
       <c r="E22" s="36"/>
     </row>
     <row r="23" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B23" s="51"/>
-      <c r="C23" s="52"/>
+      <c r="B23" s="57"/>
+      <c r="C23" s="58"/>
       <c r="D23" s="33"/>
       <c r="E23" s="36"/>
     </row>
     <row r="24" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B24" s="51"/>
-      <c r="C24" s="52"/>
+      <c r="B24" s="57"/>
+      <c r="C24" s="58"/>
       <c r="D24" s="33"/>
       <c r="E24" s="36"/>
     </row>
     <row r="25" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B25" s="51"/>
-      <c r="C25" s="52"/>
+      <c r="B25" s="57"/>
+      <c r="C25" s="58"/>
       <c r="D25" s="33"/>
       <c r="E25" s="36"/>
     </row>
     <row r="26" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B26" s="51"/>
-      <c r="C26" s="52"/>
+      <c r="B26" s="57"/>
+      <c r="C26" s="58"/>
       <c r="D26" s="33"/>
       <c r="E26" s="36"/>
     </row>
     <row r="27" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B27" s="51"/>
-      <c r="C27" s="52"/>
+      <c r="B27" s="57"/>
+      <c r="C27" s="58"/>
       <c r="D27" s="33"/>
       <c r="E27" s="36"/>
     </row>
     <row r="28" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B28" s="51"/>
-      <c r="C28" s="52"/>
+      <c r="B28" s="57"/>
+      <c r="C28" s="58"/>
       <c r="D28" s="33"/>
       <c r="E28" s="36"/>
     </row>
     <row r="29" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B29" s="51"/>
-      <c r="C29" s="52"/>
+      <c r="B29" s="57"/>
+      <c r="C29" s="58"/>
       <c r="D29" s="33"/>
       <c r="E29" s="36"/>
     </row>
     <row r="30" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B30" s="51"/>
-      <c r="C30" s="52"/>
+      <c r="B30" s="57"/>
+      <c r="C30" s="58"/>
       <c r="D30" s="33"/>
       <c r="E30" s="36"/>
     </row>
     <row r="31" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B31" s="51"/>
-      <c r="C31" s="52"/>
+      <c r="B31" s="57"/>
+      <c r="C31" s="58"/>
       <c r="D31" s="33"/>
       <c r="E31" s="36"/>
     </row>
     <row r="32" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B32" s="51"/>
-      <c r="C32" s="52"/>
+      <c r="B32" s="57"/>
+      <c r="C32" s="58"/>
       <c r="D32" s="33"/>
       <c r="E32" s="36"/>
     </row>
     <row r="33" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B33" s="51"/>
-      <c r="C33" s="52"/>
+      <c r="B33" s="57"/>
+      <c r="C33" s="58"/>
       <c r="D33" s="33"/>
       <c r="E33" s="36"/>
     </row>
     <row r="34" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B34" s="51"/>
-      <c r="C34" s="52"/>
+      <c r="B34" s="57"/>
+      <c r="C34" s="58"/>
       <c r="D34" s="33"/>
       <c r="E34" s="36"/>
     </row>
     <row r="35" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B35" s="51"/>
-      <c r="C35" s="52"/>
+      <c r="B35" s="57"/>
+      <c r="C35" s="58"/>
       <c r="D35" s="33"/>
       <c r="E35" s="36"/>
     </row>
     <row r="36" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B36" s="51"/>
-      <c r="C36" s="52"/>
+      <c r="B36" s="57"/>
+      <c r="C36" s="58"/>
       <c r="D36" s="33"/>
       <c r="E36" s="36"/>
     </row>
     <row r="37" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B37" s="51"/>
-      <c r="C37" s="52"/>
+      <c r="B37" s="57"/>
+      <c r="C37" s="58"/>
       <c r="D37" s="33"/>
       <c r="E37" s="36"/>
     </row>
     <row r="38" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B38" s="51"/>
-      <c r="C38" s="52"/>
+      <c r="B38" s="57"/>
+      <c r="C38" s="58"/>
       <c r="D38" s="33"/>
       <c r="E38" s="36"/>
     </row>
     <row r="39" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B39" s="51"/>
-      <c r="C39" s="52"/>
+      <c r="B39" s="57"/>
+      <c r="C39" s="58"/>
       <c r="D39" s="33"/>
       <c r="E39" s="36"/>
     </row>
     <row r="40" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B40" s="51"/>
-      <c r="C40" s="52"/>
+      <c r="B40" s="57"/>
+      <c r="C40" s="58"/>
       <c r="D40" s="33"/>
       <c r="E40" s="36"/>
     </row>
     <row r="41" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B41" s="51"/>
-      <c r="C41" s="52"/>
+      <c r="B41" s="57"/>
+      <c r="C41" s="58"/>
       <c r="D41" s="33"/>
       <c r="E41" s="36"/>
     </row>
     <row r="42" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B42" s="51"/>
-      <c r="C42" s="52"/>
+      <c r="B42" s="57"/>
+      <c r="C42" s="58"/>
       <c r="D42" s="33"/>
       <c r="E42" s="36"/>
     </row>
     <row r="43" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B43" s="51"/>
-      <c r="C43" s="52"/>
+      <c r="B43" s="57"/>
+      <c r="C43" s="58"/>
       <c r="D43" s="33"/>
       <c r="E43" s="36"/>
     </row>
@@ -6755,6 +6899,28 @@
     <filterColumn colId="2" showButton="0"/>
   </autoFilter>
   <mergeCells count="38">
+    <mergeCell ref="B1:C1"/>
+    <mergeCell ref="B20:C20"/>
+    <mergeCell ref="B21:C21"/>
+    <mergeCell ref="B14:C14"/>
+    <mergeCell ref="B15:C15"/>
+    <mergeCell ref="B12:C13"/>
+    <mergeCell ref="B43:C43"/>
+    <mergeCell ref="B2:C3"/>
+    <mergeCell ref="B4:C5"/>
+    <mergeCell ref="B6:C7"/>
+    <mergeCell ref="B8:C9"/>
+    <mergeCell ref="B34:C34"/>
+    <mergeCell ref="B35:C35"/>
+    <mergeCell ref="B36:C36"/>
+    <mergeCell ref="B37:C37"/>
+    <mergeCell ref="B38:C38"/>
+    <mergeCell ref="B39:C39"/>
+    <mergeCell ref="B28:C28"/>
+    <mergeCell ref="B29:C29"/>
+    <mergeCell ref="B30:C30"/>
+    <mergeCell ref="B31:C31"/>
+    <mergeCell ref="B32:C32"/>
     <mergeCell ref="D1:E1"/>
     <mergeCell ref="B10:C11"/>
     <mergeCell ref="B40:C40"/>
@@ -6771,28 +6937,6 @@
     <mergeCell ref="B17:C17"/>
     <mergeCell ref="B18:C18"/>
     <mergeCell ref="B19:C19"/>
-    <mergeCell ref="B43:C43"/>
-    <mergeCell ref="B2:C3"/>
-    <mergeCell ref="B4:C5"/>
-    <mergeCell ref="B6:C7"/>
-    <mergeCell ref="B8:C9"/>
-    <mergeCell ref="B34:C34"/>
-    <mergeCell ref="B35:C35"/>
-    <mergeCell ref="B36:C36"/>
-    <mergeCell ref="B37:C37"/>
-    <mergeCell ref="B38:C38"/>
-    <mergeCell ref="B39:C39"/>
-    <mergeCell ref="B28:C28"/>
-    <mergeCell ref="B29:C29"/>
-    <mergeCell ref="B30:C30"/>
-    <mergeCell ref="B31:C31"/>
-    <mergeCell ref="B32:C32"/>
-    <mergeCell ref="B1:C1"/>
-    <mergeCell ref="B20:C20"/>
-    <mergeCell ref="B21:C21"/>
-    <mergeCell ref="B14:C14"/>
-    <mergeCell ref="B15:C15"/>
-    <mergeCell ref="B12:C13"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -6825,244 +6969,244 @@
   <sheetData>
     <row r="1" spans="2:6" s="8" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B1" s="3" t="s">
-        <v>173</v>
+        <v>167</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>174</v>
+        <v>168</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>191</v>
+        <v>185</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="F1" s="3" t="s">
-        <v>175</v>
+        <v>169</v>
       </c>
     </row>
     <row r="2" spans="2:6" ht="72" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B2" s="44" t="s">
-        <v>176</v>
+        <v>170</v>
       </c>
       <c r="C2" s="4"/>
       <c r="D2" s="42" t="s">
-        <v>177</v>
+        <v>171</v>
       </c>
       <c r="E2" s="40" t="s">
-        <v>182</v>
+        <v>176</v>
       </c>
       <c r="F2" s="40" t="s">
-        <v>178</v>
+        <v>172</v>
       </c>
     </row>
     <row r="3" spans="2:6" ht="72" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B3" s="45" t="s">
-        <v>179</v>
+        <v>173</v>
       </c>
       <c r="C3" s="4"/>
       <c r="D3" s="42" t="s">
-        <v>180</v>
+        <v>174</v>
       </c>
       <c r="E3" s="40" t="s">
-        <v>181</v>
+        <v>175</v>
       </c>
       <c r="F3" s="40" t="s">
-        <v>183</v>
+        <v>177</v>
       </c>
     </row>
     <row r="4" spans="2:6" ht="72" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B4" s="46" t="s">
-        <v>184</v>
+        <v>178</v>
       </c>
       <c r="C4" s="4"/>
       <c r="D4" s="42" t="s">
-        <v>185</v>
+        <v>179</v>
       </c>
       <c r="E4" s="40" t="s">
-        <v>186</v>
+        <v>180</v>
       </c>
       <c r="F4" s="40" t="s">
-        <v>196</v>
+        <v>190</v>
       </c>
     </row>
     <row r="5" spans="2:6" ht="72" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B5" s="46" t="s">
-        <v>187</v>
+        <v>181</v>
       </c>
       <c r="C5" s="4"/>
       <c r="D5" s="42" t="s">
-        <v>185</v>
+        <v>179</v>
       </c>
       <c r="E5" s="40" t="s">
-        <v>188</v>
+        <v>182</v>
       </c>
       <c r="F5" s="40" t="s">
-        <v>189</v>
+        <v>183</v>
       </c>
     </row>
     <row r="6" spans="2:6" ht="72" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B6" s="39" t="s">
-        <v>190</v>
+        <v>184</v>
       </c>
       <c r="C6" s="4"/>
       <c r="D6" s="43" t="s">
-        <v>177</v>
+        <v>171</v>
       </c>
       <c r="E6" s="40" t="s">
-        <v>192</v>
+        <v>186</v>
       </c>
       <c r="F6" s="40" t="s">
-        <v>193</v>
+        <v>187</v>
       </c>
     </row>
     <row r="7" spans="2:6" ht="72" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B7" s="41" t="s">
-        <v>194</v>
+        <v>188</v>
       </c>
       <c r="C7" s="4"/>
       <c r="D7" s="43" t="s">
-        <v>180</v>
+        <v>174</v>
       </c>
       <c r="E7" s="40" t="s">
-        <v>200</v>
+        <v>194</v>
       </c>
       <c r="F7" s="40" t="s">
-        <v>195</v>
+        <v>189</v>
       </c>
     </row>
     <row r="8" spans="2:6" ht="72" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B8" s="41" t="s">
-        <v>197</v>
+        <v>191</v>
       </c>
       <c r="C8" s="4"/>
       <c r="D8" s="43" t="s">
-        <v>198</v>
+        <v>192</v>
       </c>
       <c r="E8" s="40" t="s">
-        <v>199</v>
+        <v>193</v>
       </c>
       <c r="F8" s="40" t="s">
-        <v>201</v>
+        <v>195</v>
       </c>
     </row>
     <row r="9" spans="2:6" ht="72" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B9" s="41" t="s">
-        <v>202</v>
+        <v>196</v>
       </c>
       <c r="C9" s="4"/>
       <c r="D9" s="43" t="s">
-        <v>203</v>
+        <v>197</v>
       </c>
       <c r="E9" s="40" t="s">
-        <v>204</v>
+        <v>198</v>
       </c>
       <c r="F9" s="40" t="s">
-        <v>205</v>
+        <v>199</v>
       </c>
     </row>
     <row r="10" spans="2:6" ht="72" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B10" s="47" t="s">
-        <v>206</v>
+        <v>200</v>
       </c>
       <c r="C10" s="4"/>
       <c r="D10" s="42" t="s">
-        <v>207</v>
+        <v>201</v>
       </c>
       <c r="E10" s="40" t="s">
-        <v>208</v>
+        <v>202</v>
       </c>
       <c r="F10" s="40" t="s">
-        <v>209</v>
+        <v>203</v>
       </c>
     </row>
     <row r="11" spans="2:6" ht="72" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B11" s="47" t="s">
-        <v>212</v>
+        <v>206</v>
       </c>
       <c r="C11" s="4"/>
       <c r="D11" s="42" t="s">
-        <v>177</v>
+        <v>171</v>
       </c>
       <c r="E11" s="40" t="s">
-        <v>210</v>
+        <v>204</v>
       </c>
       <c r="F11" s="40" t="s">
-        <v>211</v>
+        <v>205</v>
       </c>
     </row>
     <row r="12" spans="2:6" ht="72" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B12" s="47" t="s">
-        <v>213</v>
+        <v>207</v>
       </c>
       <c r="C12" s="4"/>
       <c r="D12" s="42" t="s">
-        <v>207</v>
+        <v>201</v>
       </c>
       <c r="E12" s="40" t="s">
-        <v>216</v>
+        <v>210</v>
       </c>
       <c r="F12" s="40" t="s">
-        <v>214</v>
+        <v>208</v>
       </c>
     </row>
     <row r="13" spans="2:6" ht="72" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B13" s="47" t="s">
-        <v>215</v>
+        <v>209</v>
       </c>
       <c r="C13" s="4"/>
       <c r="D13" s="42" t="s">
-        <v>207</v>
+        <v>201</v>
       </c>
       <c r="E13" s="40" t="s">
-        <v>226</v>
+        <v>220</v>
       </c>
       <c r="F13" s="40" t="s">
-        <v>217</v>
+        <v>211</v>
       </c>
     </row>
     <row r="14" spans="2:6" ht="72" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B14" s="39" t="s">
-        <v>218</v>
+        <v>212</v>
       </c>
       <c r="C14" s="48"/>
       <c r="D14" s="43" t="s">
-        <v>177</v>
+        <v>171</v>
       </c>
       <c r="E14" s="40" t="s">
-        <v>219</v>
+        <v>213</v>
       </c>
       <c r="F14" s="40" t="s">
-        <v>220</v>
+        <v>214</v>
       </c>
     </row>
     <row r="15" spans="2:6" ht="72" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B15" s="39" t="s">
-        <v>221</v>
+        <v>215</v>
       </c>
       <c r="C15" s="4"/>
       <c r="D15" s="43" t="s">
-        <v>223</v>
+        <v>217</v>
       </c>
       <c r="E15" s="40" t="s">
-        <v>224</v>
+        <v>218</v>
       </c>
       <c r="F15" s="40" t="s">
-        <v>225</v>
+        <v>219</v>
       </c>
     </row>
     <row r="16" spans="2:6" ht="72" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B16" s="39" t="s">
-        <v>222</v>
+        <v>216</v>
       </c>
       <c r="C16" s="4"/>
       <c r="D16" s="43" t="s">
-        <v>207</v>
+        <v>201</v>
       </c>
       <c r="E16" s="40" t="s">
-        <v>227</v>
+        <v>221</v>
       </c>
       <c r="F16" s="40" t="s">
-        <v>228</v>
+        <v>222</v>
       </c>
     </row>
     <row r="17" spans="2:6" ht="72" customHeight="1" x14ac:dyDescent="0.3">
@@ -7221,65 +7365,63 @@
     </row>
     <row r="3" spans="2:5" ht="84" x14ac:dyDescent="0.3">
       <c r="B3" s="17" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="C3" s="17" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="D3" s="25" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="E3" s="23"/>
     </row>
     <row r="4" spans="2:5" ht="72" x14ac:dyDescent="0.3">
       <c r="B4" s="17" t="s">
+        <v>94</v>
+      </c>
+      <c r="C4" s="17" t="s">
+        <v>97</v>
+      </c>
+      <c r="D4" s="25" t="s">
         <v>98</v>
-      </c>
-      <c r="C4" s="17" t="s">
-        <v>101</v>
-      </c>
-      <c r="D4" s="25" t="s">
-        <v>102</v>
       </c>
       <c r="E4" s="23"/>
     </row>
     <row r="5" spans="2:5" ht="384" x14ac:dyDescent="0.3">
       <c r="B5" s="17" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="C5" s="17" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="D5" s="25" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
       <c r="E5" s="25"/>
     </row>
-    <row r="6" spans="2:5" ht="114" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="2:5" ht="145.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B6" s="17"/>
       <c r="C6" s="17" t="s">
         <v>158</v>
       </c>
       <c r="D6" s="25" t="s">
-        <v>159</v>
+        <v>246</v>
       </c>
       <c r="E6" s="25"/>
     </row>
     <row r="7" spans="2:5" ht="86.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B7" s="17"/>
       <c r="C7" s="17" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="D7" s="25" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
       <c r="E7" s="25"/>
     </row>
     <row r="8" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B8" s="17"/>
-      <c r="C8" s="17" t="s">
-        <v>232</v>
-      </c>
+      <c r="C8" s="17"/>
       <c r="D8" s="23"/>
       <c r="E8" s="23"/>
     </row>
@@ -7851,13 +7993,13 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:O73"/>
+  <dimension ref="B2:O75"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="2" topLeftCell="B24" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="2" topLeftCell="B21" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="E44" sqref="E44"/>
+      <selection pane="bottomRight" activeCell="J42" sqref="J42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="12" x14ac:dyDescent="0.3"/>
@@ -7873,7 +8015,7 @@
     <col min="9" max="9" width="10.125" style="10" customWidth="1"/>
     <col min="10" max="10" width="60.125" style="2" customWidth="1"/>
     <col min="11" max="11" width="9" style="1"/>
-    <col min="12" max="15" width="9" style="59"/>
+    <col min="12" max="15" width="9" style="50"/>
     <col min="16" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
@@ -7900,19 +8042,19 @@
         <v>9</v>
       </c>
       <c r="I2" s="11" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="J2" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="L2" s="58"/>
-      <c r="M2" s="58"/>
-      <c r="N2" s="58"/>
-      <c r="O2" s="58"/>
+      <c r="L2" s="49"/>
+      <c r="M2" s="49"/>
+      <c r="N2" s="49"/>
+      <c r="O2" s="49"/>
     </row>
     <row r="3" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B3" s="4" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C3" s="12" t="s">
         <v>18</v>
@@ -7933,14 +8075,16 @@
         <v>27200</v>
       </c>
       <c r="I3" s="14">
-        <f t="shared" ref="I3:I42" si="0">IF(H3="", "", IFERROR( ((H3-F3)/F3), ""))</f>
+        <f t="shared" ref="I3:I46" si="0">IF(H3="", "", IFERROR( ((H3-F3)/F3), ""))</f>
         <v>0.1079429735234216</v>
       </c>
-      <c r="J3" s="5"/>
+      <c r="J3" s="5" t="s">
+        <v>236</v>
+      </c>
     </row>
     <row r="4" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B4" s="4" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C4" s="12" t="s">
         <v>19</v>
@@ -7964,11 +8108,13 @@
         <f t="shared" si="0"/>
         <v>0.11757719714964371</v>
       </c>
-      <c r="J4" s="5"/>
+      <c r="J4" s="5" t="s">
+        <v>237</v>
+      </c>
     </row>
     <row r="5" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B5" s="4" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C5" s="12" t="s">
         <v>20</v>
@@ -7993,18 +8139,18 @@
         <v>-4.2904290429042903E-2</v>
       </c>
       <c r="J5" s="5" t="s">
-        <v>26</v>
+        <v>238</v>
       </c>
     </row>
     <row r="6" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B6" s="4" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C6" s="12" t="s">
         <v>21</v>
       </c>
       <c r="D6" s="5" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="E6" s="12" t="s">
         <v>13</v>
@@ -8023,18 +8169,18 @@
         <v>0.3</v>
       </c>
       <c r="J6" s="5" t="s">
-        <v>24</v>
+        <v>240</v>
       </c>
     </row>
     <row r="7" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B7" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="C7" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="D7" s="5" t="s">
         <v>29</v>
-      </c>
-      <c r="C7" s="12" t="s">
-        <v>30</v>
-      </c>
-      <c r="D7" s="5" t="s">
-        <v>31</v>
       </c>
       <c r="E7" s="12" t="s">
         <v>22</v>
@@ -8043,7 +8189,7 @@
         <v>32150</v>
       </c>
       <c r="G7" s="12" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="H7" s="13">
         <v>30450</v>
@@ -8053,18 +8199,18 @@
         <v>-5.2877138413685847E-2</v>
       </c>
       <c r="J7" s="5" t="s">
-        <v>70</v>
+        <v>239</v>
       </c>
     </row>
     <row r="8" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B8" s="4" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C8" s="12" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="D8" s="5" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="E8" s="12" t="s">
         <v>22</v>
@@ -8073,7 +8219,7 @@
         <v>6970</v>
       </c>
       <c r="G8" s="12" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="H8" s="13">
         <v>6760</v>
@@ -8082,17 +8228,19 @@
         <f t="shared" si="0"/>
         <v>-3.0129124820659971E-2</v>
       </c>
-      <c r="J8" s="5"/>
+      <c r="J8" s="5" t="s">
+        <v>237</v>
+      </c>
     </row>
     <row r="9" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B9" s="4" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C9" s="12" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="D9" s="5" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="E9" s="12" t="s">
         <v>22</v>
@@ -8101,7 +8249,7 @@
         <v>7170</v>
       </c>
       <c r="G9" s="12" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="H9" s="13">
         <v>6810</v>
@@ -8111,27 +8259,27 @@
         <v>-5.0209205020920501E-2</v>
       </c>
       <c r="J9" s="5" t="s">
-        <v>70</v>
+        <v>239</v>
       </c>
     </row>
     <row r="10" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B10" s="4" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C10" s="12" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="D10" s="5" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="E10" s="12" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="F10" s="13">
         <v>13650</v>
       </c>
       <c r="G10" s="12" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="H10" s="13">
         <v>13550</v>
@@ -8140,26 +8288,28 @@
         <f t="shared" si="0"/>
         <v>-7.326007326007326E-3</v>
       </c>
-      <c r="J10" s="5"/>
+      <c r="J10" s="5" t="s">
+        <v>237</v>
+      </c>
     </row>
     <row r="11" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B11" s="4" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C11" s="12" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="D11" s="5" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="E11" s="12" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="F11" s="13">
         <v>20000</v>
       </c>
       <c r="G11" s="12" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="H11" s="13">
         <v>20100</v>
@@ -8168,26 +8318,28 @@
         <f t="shared" si="0"/>
         <v>5.0000000000000001E-3</v>
       </c>
-      <c r="J11" s="5"/>
+      <c r="J11" s="5" t="s">
+        <v>237</v>
+      </c>
     </row>
     <row r="12" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B12" s="4" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C12" s="12" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="D12" s="5" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="E12" s="12" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="F12" s="13">
         <v>1350</v>
       </c>
       <c r="G12" s="12" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="H12" s="13">
         <v>1335</v>
@@ -8196,26 +8348,28 @@
         <f t="shared" si="0"/>
         <v>-1.1111111111111112E-2</v>
       </c>
-      <c r="J12" s="5"/>
+      <c r="J12" s="5" t="s">
+        <v>237</v>
+      </c>
     </row>
     <row r="13" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B13" s="4" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C13" s="12" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="D13" s="5" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="E13" s="12" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="F13" s="13">
         <v>6440</v>
       </c>
       <c r="G13" s="12" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="H13" s="13">
         <v>6220</v>
@@ -8224,26 +8378,28 @@
         <f t="shared" si="0"/>
         <v>-3.4161490683229816E-2</v>
       </c>
-      <c r="J13" s="5"/>
+      <c r="J13" s="5" t="s">
+        <v>237</v>
+      </c>
     </row>
     <row r="14" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B14" s="4" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C14" s="12" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="D14" s="5" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="E14" s="12" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="F14" s="13">
         <v>4950</v>
       </c>
       <c r="G14" s="12" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="H14" s="13">
         <v>4990</v>
@@ -8252,26 +8408,28 @@
         <f t="shared" si="0"/>
         <v>8.0808080808080808E-3</v>
       </c>
-      <c r="J14" s="5"/>
+      <c r="J14" s="5" t="s">
+        <v>237</v>
+      </c>
     </row>
     <row r="15" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B15" s="4" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C15" s="12" t="s">
+        <v>44</v>
+      </c>
+      <c r="D15" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="E15" s="12" t="s">
         <v>46</v>
-      </c>
-      <c r="D15" s="5" t="s">
-        <v>47</v>
-      </c>
-      <c r="E15" s="12" t="s">
-        <v>48</v>
       </c>
       <c r="F15" s="13">
         <v>3835</v>
       </c>
       <c r="G15" s="12" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="H15" s="13">
         <v>3930</v>
@@ -8280,26 +8438,28 @@
         <f t="shared" si="0"/>
         <v>2.4771838331160364E-2</v>
       </c>
-      <c r="J15" s="5"/>
+      <c r="J15" s="5" t="s">
+        <v>237</v>
+      </c>
     </row>
     <row r="16" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B16" s="4" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="C16" s="12" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="D16" s="5" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="E16" s="12" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="F16" s="13">
         <v>1025</v>
       </c>
       <c r="G16" s="12" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="H16" s="13">
         <v>1030</v>
@@ -8309,27 +8469,27 @@
         <v>4.8780487804878049E-3</v>
       </c>
       <c r="J16" s="5" t="s">
-        <v>90</v>
+        <v>241</v>
       </c>
     </row>
     <row r="17" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B17" s="4" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="C17" s="12" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="D17" s="5" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="E17" s="12" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="F17" s="13">
         <v>1910</v>
       </c>
       <c r="G17" s="12" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="H17" s="13">
         <v>1590</v>
@@ -8338,26 +8498,28 @@
         <f t="shared" si="0"/>
         <v>-0.16753926701570682</v>
       </c>
-      <c r="J17" s="5"/>
+      <c r="J17" s="5" t="s">
+        <v>237</v>
+      </c>
     </row>
     <row r="18" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B18" s="4" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C18" s="12" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="D18" s="5" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="E18" s="12" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="F18" s="13">
         <v>6850</v>
       </c>
       <c r="G18" s="12" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="H18" s="13">
         <v>6440</v>
@@ -8366,26 +8528,28 @@
         <f t="shared" si="0"/>
         <v>-5.9854014598540145E-2</v>
       </c>
-      <c r="J18" s="5"/>
+      <c r="J18" s="5" t="s">
+        <v>237</v>
+      </c>
     </row>
     <row r="19" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B19" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="C19" s="12" t="s">
         <v>80</v>
       </c>
-      <c r="C19" s="12" t="s">
-        <v>83</v>
-      </c>
       <c r="D19" s="5" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="E19" s="12" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="F19" s="13">
         <v>1155</v>
       </c>
       <c r="G19" s="12" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="H19" s="13">
         <v>1410</v>
@@ -8394,26 +8558,28 @@
         <f t="shared" si="0"/>
         <v>0.22077922077922077</v>
       </c>
-      <c r="J19" s="5"/>
+      <c r="J19" s="5" t="s">
+        <v>237</v>
+      </c>
     </row>
     <row r="20" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B20" s="4" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="C20" s="12" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="D20" s="5" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="E20" s="12" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="F20" s="13">
         <v>29200</v>
       </c>
       <c r="G20" s="12" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="H20" s="13">
         <v>30050</v>
@@ -8422,26 +8588,28 @@
         <f t="shared" si="0"/>
         <v>2.9109589041095889E-2</v>
       </c>
-      <c r="J20" s="5"/>
+      <c r="J20" s="5" t="s">
+        <v>237</v>
+      </c>
     </row>
     <row r="21" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B21" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="C21" s="12" t="s">
         <v>84</v>
       </c>
-      <c r="C21" s="12" t="s">
-        <v>87</v>
-      </c>
       <c r="D21" s="5" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="E21" s="12" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="F21" s="13">
         <v>6290</v>
       </c>
       <c r="G21" s="12" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="H21" s="13">
         <v>5810</v>
@@ -8450,292 +8618,257 @@
         <f t="shared" si="0"/>
         <v>-7.6311605723370424E-2</v>
       </c>
-      <c r="J21" s="5"/>
+      <c r="J21" s="5" t="s">
+        <v>237</v>
+      </c>
     </row>
     <row r="22" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B22" s="4" t="s">
+      <c r="B22" s="4"/>
+      <c r="C22" s="12"/>
+      <c r="D22" s="5"/>
+      <c r="E22" s="12"/>
+      <c r="F22" s="13"/>
+      <c r="G22" s="12"/>
+      <c r="H22" s="13"/>
+      <c r="I22" s="14"/>
+      <c r="J22" s="5"/>
+    </row>
+    <row r="23" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B23" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="C23" s="12" t="s">
         <v>92</v>
       </c>
-      <c r="C22" s="12" t="s">
-        <v>96</v>
-      </c>
-      <c r="D22" s="5" t="s">
-        <v>97</v>
-      </c>
-      <c r="E22" s="12" t="s">
-        <v>95</v>
-      </c>
-      <c r="F22" s="13">
+      <c r="D23" s="5" t="s">
+        <v>93</v>
+      </c>
+      <c r="E23" s="12" t="s">
+        <v>91</v>
+      </c>
+      <c r="F23" s="13">
         <v>3680</v>
       </c>
-      <c r="G22" s="12" t="s">
-        <v>107</v>
-      </c>
-      <c r="H22" s="13">
+      <c r="G23" s="12" t="s">
+        <v>103</v>
+      </c>
+      <c r="H23" s="13">
         <v>3680</v>
       </c>
-      <c r="I22" s="14">
+      <c r="I23" s="14">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="J22" s="5"/>
-    </row>
-    <row r="23" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B23" s="4" t="s">
-        <v>125</v>
-      </c>
-      <c r="C23" s="12" t="s">
-        <v>93</v>
-      </c>
-      <c r="D23" s="5" t="s">
-        <v>94</v>
-      </c>
-      <c r="E23" s="12" t="s">
-        <v>95</v>
-      </c>
-      <c r="F23" s="13">
+      <c r="J23" s="5" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="24" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B24" s="4" t="s">
+        <v>121</v>
+      </c>
+      <c r="C24" s="12" t="s">
+        <v>89</v>
+      </c>
+      <c r="D24" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="E24" s="12" t="s">
+        <v>91</v>
+      </c>
+      <c r="F24" s="13">
         <v>23450</v>
       </c>
-      <c r="G23" s="12" t="s">
-        <v>107</v>
-      </c>
-      <c r="H23" s="13">
+      <c r="G24" s="12" t="s">
+        <v>103</v>
+      </c>
+      <c r="H24" s="13">
         <v>23350</v>
       </c>
-      <c r="I23" s="14">
+      <c r="I24" s="14">
         <f t="shared" si="0"/>
         <v>-4.2643923240938165E-3</v>
       </c>
-      <c r="J23" s="5"/>
-    </row>
-    <row r="24" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B24" s="4" t="s">
-        <v>125</v>
-      </c>
-      <c r="C24" s="12" t="s">
-        <v>105</v>
-      </c>
-      <c r="D24" s="5" t="s">
-        <v>106</v>
-      </c>
-      <c r="E24" s="12" t="s">
-        <v>107</v>
-      </c>
-      <c r="F24" s="13">
+      <c r="J24" s="5" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="25" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B25" s="4"/>
+      <c r="C25" s="12"/>
+      <c r="D25" s="5"/>
+      <c r="E25" s="12"/>
+      <c r="F25" s="13"/>
+      <c r="G25" s="12"/>
+      <c r="H25" s="13"/>
+      <c r="I25" s="14"/>
+      <c r="J25" s="5"/>
+    </row>
+    <row r="26" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B26" s="4" t="s">
+        <v>121</v>
+      </c>
+      <c r="C26" s="12" t="s">
+        <v>101</v>
+      </c>
+      <c r="D26" s="5" t="s">
+        <v>102</v>
+      </c>
+      <c r="E26" s="12" t="s">
+        <v>103</v>
+      </c>
+      <c r="F26" s="13">
         <v>9160</v>
       </c>
-      <c r="G24" s="12" t="s">
-        <v>104</v>
-      </c>
-      <c r="H24" s="13">
+      <c r="G26" s="12" t="s">
+        <v>100</v>
+      </c>
+      <c r="H26" s="13">
         <v>9573</v>
       </c>
-      <c r="I24" s="14">
+      <c r="I26" s="14">
         <f t="shared" si="0"/>
         <v>4.5087336244541483E-2</v>
       </c>
-      <c r="J24" s="5"/>
-    </row>
-    <row r="25" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B25" s="4" t="s">
-        <v>124</v>
-      </c>
-      <c r="C25" s="12" t="s">
-        <v>109</v>
-      </c>
-      <c r="D25" s="5" t="s">
-        <v>108</v>
-      </c>
-      <c r="E25" s="12" t="s">
-        <v>103</v>
-      </c>
-      <c r="F25" s="13">
+      <c r="J26" s="5" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="27" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B27" s="4"/>
+      <c r="C27" s="12"/>
+      <c r="D27" s="5"/>
+      <c r="E27" s="12"/>
+      <c r="F27" s="13"/>
+      <c r="G27" s="12"/>
+      <c r="H27" s="13"/>
+      <c r="I27" s="14"/>
+      <c r="J27" s="5"/>
+    </row>
+    <row r="28" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B28" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="C28" s="12" t="s">
+        <v>105</v>
+      </c>
+      <c r="D28" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="E28" s="12" t="s">
+        <v>99</v>
+      </c>
+      <c r="F28" s="13">
         <v>14221</v>
       </c>
-      <c r="G25" s="12" t="s">
-        <v>116</v>
-      </c>
-      <c r="H25" s="13">
+      <c r="G28" s="12" t="s">
+        <v>112</v>
+      </c>
+      <c r="H28" s="13">
         <v>14321</v>
       </c>
-      <c r="I25" s="14">
+      <c r="I28" s="14">
         <f t="shared" si="0"/>
         <v>7.0318542999789043E-3</v>
       </c>
-      <c r="J25" s="5"/>
-    </row>
-    <row r="26" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B26" s="4" t="s">
-        <v>124</v>
-      </c>
-      <c r="C26" s="12" t="s">
-        <v>111</v>
-      </c>
-      <c r="D26" s="5" t="s">
-        <v>110</v>
-      </c>
-      <c r="E26" s="12" t="s">
-        <v>103</v>
-      </c>
-      <c r="F26" s="13">
+      <c r="J28" s="5" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="29" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B29" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="C29" s="12" t="s">
+        <v>107</v>
+      </c>
+      <c r="D29" s="5" t="s">
+        <v>106</v>
+      </c>
+      <c r="E29" s="12" t="s">
+        <v>99</v>
+      </c>
+      <c r="F29" s="13">
         <v>12682</v>
       </c>
-      <c r="G26" s="12" t="s">
-        <v>116</v>
-      </c>
-      <c r="H26" s="13">
+      <c r="G29" s="12" t="s">
+        <v>112</v>
+      </c>
+      <c r="H29" s="13">
         <v>12500</v>
       </c>
-      <c r="I26" s="14">
+      <c r="I29" s="14">
         <f t="shared" si="0"/>
         <v>-1.4351048730484151E-2</v>
       </c>
-      <c r="J26" s="5"/>
-    </row>
-    <row r="27" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B27" s="4" t="s">
-        <v>124</v>
-      </c>
-      <c r="C27" s="12" t="s">
-        <v>113</v>
-      </c>
-      <c r="D27" s="5" t="s">
+      <c r="J29" s="5" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="30" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B30" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="C30" s="12" t="s">
+        <v>109</v>
+      </c>
+      <c r="D30" s="5" t="s">
+        <v>108</v>
+      </c>
+      <c r="E30" s="12" t="s">
+        <v>99</v>
+      </c>
+      <c r="F30" s="13">
+        <v>10000</v>
+      </c>
+      <c r="G30" s="12" t="s">
         <v>112</v>
       </c>
-      <c r="E27" s="12" t="s">
-        <v>103</v>
-      </c>
-      <c r="F27" s="13">
-        <v>10000</v>
-      </c>
-      <c r="G27" s="12" t="s">
-        <v>116</v>
-      </c>
-      <c r="H27" s="13">
+      <c r="H30" s="13">
         <v>9918</v>
       </c>
-      <c r="I27" s="14">
+      <c r="I30" s="14">
         <f t="shared" si="0"/>
         <v>-8.2000000000000007E-3</v>
       </c>
-      <c r="J27" s="5"/>
-    </row>
-    <row r="28" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B28" s="4" t="s">
-        <v>124</v>
-      </c>
-      <c r="C28" s="12" t="s">
-        <v>114</v>
-      </c>
-      <c r="D28" s="5" t="s">
-        <v>115</v>
-      </c>
-      <c r="E28" s="12" t="s">
-        <v>103</v>
-      </c>
-      <c r="F28" s="13">
+      <c r="J30" s="5" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="31" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B31" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="C31" s="12" t="s">
+        <v>110</v>
+      </c>
+      <c r="D31" s="5" t="s">
+        <v>111</v>
+      </c>
+      <c r="E31" s="12" t="s">
+        <v>99</v>
+      </c>
+      <c r="F31" s="13">
         <v>6981</v>
       </c>
-      <c r="G28" s="12" t="s">
-        <v>116</v>
-      </c>
-      <c r="H28" s="13">
+      <c r="G31" s="12" t="s">
+        <v>112</v>
+      </c>
+      <c r="H31" s="13">
         <v>6930</v>
       </c>
-      <c r="I28" s="14">
+      <c r="I31" s="14">
         <f t="shared" si="0"/>
         <v>-7.30554361839278E-3</v>
       </c>
-      <c r="J28" s="5"/>
-    </row>
-    <row r="29" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B29" s="4" t="s">
-        <v>124</v>
-      </c>
-      <c r="C29" s="12" t="s">
-        <v>128</v>
-      </c>
-      <c r="D29" s="5" t="s">
-        <v>126</v>
-      </c>
-      <c r="E29" s="12" t="s">
-        <v>116</v>
-      </c>
-      <c r="F29" s="13">
-        <v>8765</v>
-      </c>
-      <c r="G29" s="12" t="s">
-        <v>143</v>
-      </c>
-      <c r="H29" s="13">
-        <v>8860</v>
-      </c>
-      <c r="I29" s="14">
-        <f t="shared" si="0"/>
-        <v>1.0838562464346835E-2</v>
-      </c>
-      <c r="J29" s="5"/>
-    </row>
-    <row r="30" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B30" s="4" t="s">
-        <v>124</v>
-      </c>
-      <c r="C30" s="12" t="s">
-        <v>127</v>
-      </c>
-      <c r="D30" s="32" t="s">
-        <v>129</v>
-      </c>
-      <c r="E30" s="12" t="s">
-        <v>116</v>
-      </c>
-      <c r="F30" s="13">
-        <v>2945</v>
-      </c>
-      <c r="G30" s="12" t="s">
-        <v>143</v>
-      </c>
-      <c r="H30" s="13">
-        <v>2905</v>
-      </c>
-      <c r="I30" s="14">
-        <f t="shared" si="0"/>
-        <v>-1.3582342954159592E-2</v>
-      </c>
-      <c r="J30" s="5"/>
-    </row>
-    <row r="31" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B31" s="4" t="s">
-        <v>124</v>
-      </c>
-      <c r="C31" s="12" t="s">
-        <v>131</v>
-      </c>
-      <c r="D31" s="32" t="s">
-        <v>130</v>
-      </c>
-      <c r="E31" s="12" t="s">
-        <v>116</v>
-      </c>
-      <c r="F31" s="13">
-        <v>2475</v>
-      </c>
-      <c r="G31" s="12" t="s">
-        <v>143</v>
-      </c>
-      <c r="H31" s="13">
-        <v>2470</v>
-      </c>
-      <c r="I31" s="14">
-        <f t="shared" si="0"/>
-        <v>-2.0202020202020202E-3</v>
-      </c>
-      <c r="J31" s="5"/>
+      <c r="J31" s="5" t="s">
+        <v>242</v>
+      </c>
     </row>
     <row r="32" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B32" s="4"/>
       <c r="C32" s="12"/>
-      <c r="D32" s="32"/>
+      <c r="D32" s="5"/>
       <c r="E32" s="12"/>
       <c r="F32" s="13"/>
       <c r="G32" s="12"/>
@@ -8745,255 +8878,295 @@
     </row>
     <row r="33" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B33" s="4" t="s">
-        <v>164</v>
+        <v>120</v>
       </c>
       <c r="C33" s="12" t="s">
-        <v>241</v>
+        <v>124</v>
       </c>
       <c r="D33" s="5" t="s">
-        <v>165</v>
+        <v>122</v>
       </c>
       <c r="E33" s="12" t="s">
-        <v>169</v>
+        <v>112</v>
       </c>
       <c r="F33" s="13">
-        <v>4275</v>
+        <v>8765</v>
       </c>
       <c r="G33" s="12" t="s">
-        <v>230</v>
+        <v>139</v>
       </c>
       <c r="H33" s="13">
-        <v>4190</v>
+        <v>8860</v>
       </c>
       <c r="I33" s="14">
         <f t="shared" si="0"/>
-        <v>-1.9883040935672516E-2</v>
-      </c>
-      <c r="J33" s="5"/>
+        <v>1.0838562464346835E-2</v>
+      </c>
+      <c r="J33" s="5" t="s">
+        <v>242</v>
+      </c>
     </row>
     <row r="34" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B34" s="4" t="s">
-        <v>164</v>
+        <v>120</v>
       </c>
       <c r="C34" s="12" t="s">
-        <v>170</v>
-      </c>
-      <c r="D34" s="5" t="s">
-        <v>166</v>
+        <v>123</v>
+      </c>
+      <c r="D34" s="32" t="s">
+        <v>125</v>
       </c>
       <c r="E34" s="12" t="s">
-        <v>169</v>
+        <v>112</v>
       </c>
       <c r="F34" s="13">
-        <v>27750</v>
+        <v>2945</v>
       </c>
       <c r="G34" s="12" t="s">
-        <v>230</v>
+        <v>139</v>
       </c>
       <c r="H34" s="13">
-        <v>28368</v>
+        <v>2905</v>
       </c>
       <c r="I34" s="14">
         <f t="shared" si="0"/>
-        <v>2.227027027027027E-2</v>
-      </c>
-      <c r="J34" s="5"/>
+        <v>-1.3582342954159592E-2</v>
+      </c>
+      <c r="J34" s="5" t="s">
+        <v>242</v>
+      </c>
     </row>
     <row r="35" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B35" s="4" t="s">
-        <v>164</v>
+        <v>120</v>
       </c>
       <c r="C35" s="12" t="s">
-        <v>171</v>
-      </c>
-      <c r="D35" s="5" t="s">
-        <v>167</v>
+        <v>127</v>
+      </c>
+      <c r="D35" s="32" t="s">
+        <v>126</v>
       </c>
       <c r="E35" s="12" t="s">
-        <v>169</v>
+        <v>112</v>
       </c>
       <c r="F35" s="13">
-        <v>9690</v>
+        <v>2475</v>
       </c>
       <c r="G35" s="12" t="s">
-        <v>230</v>
+        <v>139</v>
       </c>
       <c r="H35" s="13">
-        <v>9891</v>
+        <v>2470</v>
       </c>
       <c r="I35" s="14">
         <f t="shared" si="0"/>
+        <v>-2.0202020202020202E-3</v>
+      </c>
+      <c r="J35" s="5" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="36" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B36" s="4"/>
+      <c r="C36" s="12"/>
+      <c r="D36" s="32"/>
+      <c r="E36" s="12"/>
+      <c r="F36" s="13"/>
+      <c r="G36" s="12"/>
+      <c r="H36" s="13"/>
+      <c r="I36" s="14"/>
+      <c r="J36" s="5"/>
+    </row>
+    <row r="37" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B37" s="4" t="s">
+        <v>158</v>
+      </c>
+      <c r="C37" s="12" t="s">
+        <v>234</v>
+      </c>
+      <c r="D37" s="5" t="s">
+        <v>159</v>
+      </c>
+      <c r="E37" s="12" t="s">
+        <v>163</v>
+      </c>
+      <c r="F37" s="13">
+        <v>4275</v>
+      </c>
+      <c r="G37" s="12" t="s">
+        <v>224</v>
+      </c>
+      <c r="H37" s="13">
+        <v>4190</v>
+      </c>
+      <c r="I37" s="14">
+        <f t="shared" si="0"/>
+        <v>-1.9883040935672516E-2</v>
+      </c>
+      <c r="J37" s="5" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="38" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B38" s="4" t="s">
+        <v>158</v>
+      </c>
+      <c r="C38" s="12" t="s">
+        <v>164</v>
+      </c>
+      <c r="D38" s="5" t="s">
+        <v>160</v>
+      </c>
+      <c r="E38" s="12" t="s">
+        <v>163</v>
+      </c>
+      <c r="F38" s="13">
+        <v>27750</v>
+      </c>
+      <c r="G38" s="12" t="s">
+        <v>224</v>
+      </c>
+      <c r="H38" s="13">
+        <v>28368</v>
+      </c>
+      <c r="I38" s="14">
+        <f t="shared" si="0"/>
+        <v>2.227027027027027E-2</v>
+      </c>
+      <c r="J38" s="5" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="39" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B39" s="4" t="s">
+        <v>158</v>
+      </c>
+      <c r="C39" s="12" t="s">
+        <v>165</v>
+      </c>
+      <c r="D39" s="5" t="s">
+        <v>161</v>
+      </c>
+      <c r="E39" s="12" t="s">
+        <v>163</v>
+      </c>
+      <c r="F39" s="13">
+        <v>9690</v>
+      </c>
+      <c r="G39" s="12" t="s">
+        <v>224</v>
+      </c>
+      <c r="H39" s="13">
+        <v>9891</v>
+      </c>
+      <c r="I39" s="14">
+        <f t="shared" si="0"/>
         <v>2.0743034055727555E-2</v>
       </c>
-      <c r="J35" s="5"/>
-    </row>
-    <row r="36" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B36" s="4" t="s">
-        <v>231</v>
-      </c>
-      <c r="C36" s="12" t="s">
-        <v>172</v>
-      </c>
-      <c r="D36" s="5" t="s">
-        <v>168</v>
-      </c>
-      <c r="E36" s="12" t="s">
-        <v>169</v>
-      </c>
-      <c r="F36" s="13">
+      <c r="J39" s="5" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="40" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B40" s="4" t="s">
+        <v>225</v>
+      </c>
+      <c r="C40" s="12" t="s">
+        <v>166</v>
+      </c>
+      <c r="D40" s="5" t="s">
+        <v>162</v>
+      </c>
+      <c r="E40" s="12" t="s">
+        <v>163</v>
+      </c>
+      <c r="F40" s="13">
         <v>10088</v>
       </c>
-      <c r="G36" s="12" t="s">
-        <v>230</v>
-      </c>
-      <c r="H36" s="13">
+      <c r="G40" s="12" t="s">
+        <v>224</v>
+      </c>
+      <c r="H40" s="13">
         <v>10400</v>
       </c>
-      <c r="I36" s="14">
+      <c r="I40" s="14">
         <f t="shared" si="0"/>
         <v>3.0927835051546393E-2</v>
       </c>
-      <c r="J36" s="5"/>
-    </row>
-    <row r="37" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B37" s="4"/>
-      <c r="C37" s="12"/>
-      <c r="D37" s="5"/>
-      <c r="E37" s="12"/>
-      <c r="F37" s="13"/>
-      <c r="G37" s="12"/>
-      <c r="H37" s="13"/>
-      <c r="I37" s="14"/>
-      <c r="J37" s="5"/>
-    </row>
-    <row r="38" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B38" s="4" t="s">
-        <v>231</v>
-      </c>
-      <c r="C38" s="12" t="s">
-        <v>236</v>
-      </c>
-      <c r="D38" s="5" t="s">
-        <v>235</v>
-      </c>
-      <c r="E38" s="12" t="s">
+      <c r="J40" s="5" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="41" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B41" s="4"/>
+      <c r="C41" s="12"/>
+      <c r="D41" s="5"/>
+      <c r="E41" s="12"/>
+      <c r="F41" s="13"/>
+      <c r="G41" s="12"/>
+      <c r="H41" s="13"/>
+      <c r="I41" s="14"/>
+      <c r="J41" s="5"/>
+    </row>
+    <row r="42" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B42" s="4" t="s">
+        <v>225</v>
+      </c>
+      <c r="C42" s="12" t="s">
         <v>229</v>
       </c>
-      <c r="F38" s="13">
+      <c r="D42" s="5" t="s">
+        <v>228</v>
+      </c>
+      <c r="E42" s="12" t="s">
+        <v>223</v>
+      </c>
+      <c r="F42" s="13">
         <v>11000</v>
       </c>
-      <c r="G38" s="12" t="s">
-        <v>237</v>
-      </c>
-      <c r="H38" s="13">
+      <c r="G42" s="12" t="s">
+        <v>230</v>
+      </c>
+      <c r="H42" s="13">
         <v>11150</v>
       </c>
-      <c r="I38" s="14">
-        <f>IF(H38="", "", IFERROR( ((H38-F38)/F38), ""))</f>
+      <c r="I42" s="14">
+        <f>IF(H42="", "", IFERROR( ((H42-F42)/F42), ""))</f>
         <v>1.3636363636363636E-2</v>
       </c>
-      <c r="J38" s="5"/>
-    </row>
-    <row r="39" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B39" s="4" t="s">
-        <v>231</v>
-      </c>
-      <c r="C39" s="12" t="s">
-        <v>234</v>
-      </c>
-      <c r="D39" s="5" t="s">
-        <v>233</v>
-      </c>
-      <c r="E39" s="12" t="s">
-        <v>229</v>
-      </c>
-      <c r="F39" s="13">
+      <c r="J42" s="5" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="43" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B43" s="4" t="s">
+        <v>225</v>
+      </c>
+      <c r="C43" s="12" t="s">
+        <v>227</v>
+      </c>
+      <c r="D43" s="5" t="s">
+        <v>226</v>
+      </c>
+      <c r="E43" s="12" t="s">
+        <v>223</v>
+      </c>
+      <c r="F43" s="13">
         <v>34205</v>
       </c>
-      <c r="G39" s="12" t="s">
-        <v>237</v>
-      </c>
-      <c r="H39" s="13">
+      <c r="G43" s="12" t="s">
+        <v>230</v>
+      </c>
+      <c r="H43" s="13">
         <v>37176</v>
       </c>
-      <c r="I39" s="14">
+      <c r="I43" s="14">
         <f t="shared" si="0"/>
         <v>8.6858646396725622E-2</v>
       </c>
-      <c r="J39" s="5"/>
-    </row>
-    <row r="40" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B40" s="4"/>
-      <c r="C40" s="12"/>
-      <c r="D40" s="5"/>
-      <c r="E40" s="12"/>
-      <c r="F40" s="13"/>
-      <c r="G40" s="12"/>
-      <c r="H40" s="13"/>
-      <c r="I40" s="14"/>
-      <c r="J40" s="5"/>
-    </row>
-    <row r="41" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B41" s="4" t="s">
-        <v>231</v>
-      </c>
-      <c r="C41" s="12" t="s">
-        <v>236</v>
-      </c>
-      <c r="D41" s="5" t="s">
-        <v>235</v>
-      </c>
-      <c r="E41" s="12" t="s">
-        <v>237</v>
-      </c>
-      <c r="F41" s="13">
-        <v>11458</v>
-      </c>
-      <c r="G41" s="12"/>
-      <c r="H41" s="13"/>
-      <c r="I41" s="14" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="J41" s="5"/>
-    </row>
-    <row r="42" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B42" s="4" t="s">
-        <v>240</v>
-      </c>
-      <c r="C42" s="12" t="s">
-        <v>239</v>
-      </c>
-      <c r="D42" s="5" t="s">
-        <v>238</v>
-      </c>
-      <c r="E42" s="12" t="s">
-        <v>237</v>
-      </c>
-      <c r="F42" s="13">
-        <v>25750</v>
-      </c>
-      <c r="G42" s="12"/>
-      <c r="H42" s="13"/>
-      <c r="I42" s="14" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="J42" s="5"/>
-    </row>
-    <row r="43" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B43" s="4"/>
-      <c r="C43" s="12"/>
-      <c r="D43" s="5"/>
-      <c r="E43" s="12"/>
-      <c r="F43" s="13"/>
-      <c r="G43" s="12"/>
-      <c r="H43" s="13"/>
-      <c r="I43" s="14" t="str">
-        <f t="shared" ref="I43:I73" si="1">IF(H43="", "", IFERROR( ((H43-F43)/F43), ""))</f>
-        <v/>
-      </c>
-      <c r="J43" s="5"/>
+      <c r="J43" s="5" t="s">
+        <v>242</v>
+      </c>
     </row>
     <row r="44" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B44" s="4"/>
@@ -9003,39 +9176,68 @@
       <c r="F44" s="13"/>
       <c r="G44" s="12"/>
       <c r="H44" s="13"/>
-      <c r="I44" s="14" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
+      <c r="I44" s="14"/>
       <c r="J44" s="5"/>
     </row>
     <row r="45" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B45" s="4"/>
-      <c r="C45" s="12"/>
-      <c r="D45" s="5"/>
-      <c r="E45" s="12"/>
-      <c r="F45" s="13"/>
-      <c r="G45" s="12"/>
-      <c r="H45" s="13"/>
-      <c r="I45" s="14" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="J45" s="5"/>
+      <c r="B45" s="4" t="s">
+        <v>225</v>
+      </c>
+      <c r="C45" s="12" t="s">
+        <v>229</v>
+      </c>
+      <c r="D45" s="5" t="s">
+        <v>228</v>
+      </c>
+      <c r="E45" s="12" t="s">
+        <v>230</v>
+      </c>
+      <c r="F45" s="13">
+        <v>11458</v>
+      </c>
+      <c r="G45" s="12" t="s">
+        <v>235</v>
+      </c>
+      <c r="H45" s="13">
+        <v>11299</v>
+      </c>
+      <c r="I45" s="14">
+        <f t="shared" si="0"/>
+        <v>-1.3876767324140339E-2</v>
+      </c>
+      <c r="J45" s="5" t="s">
+        <v>242</v>
+      </c>
     </row>
     <row r="46" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B46" s="4"/>
-      <c r="C46" s="12"/>
-      <c r="D46" s="5"/>
-      <c r="E46" s="12"/>
-      <c r="F46" s="13"/>
-      <c r="G46" s="12"/>
-      <c r="H46" s="13"/>
-      <c r="I46" s="14" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="J46" s="5"/>
+      <c r="B46" s="4" t="s">
+        <v>233</v>
+      </c>
+      <c r="C46" s="12" t="s">
+        <v>232</v>
+      </c>
+      <c r="D46" s="5" t="s">
+        <v>231</v>
+      </c>
+      <c r="E46" s="12" t="s">
+        <v>230</v>
+      </c>
+      <c r="F46" s="13">
+        <v>25750</v>
+      </c>
+      <c r="G46" s="12" t="s">
+        <v>235</v>
+      </c>
+      <c r="H46" s="13">
+        <v>24800</v>
+      </c>
+      <c r="I46" s="14">
+        <f t="shared" si="0"/>
+        <v>-3.6893203883495145E-2</v>
+      </c>
+      <c r="J46" s="5" t="s">
+        <v>242</v>
+      </c>
     </row>
     <row r="47" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B47" s="4"/>
@@ -9046,66 +9248,122 @@
       <c r="G47" s="12"/>
       <c r="H47" s="13"/>
       <c r="I47" s="14" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" ref="I47:I75" si="1">IF(H47="", "", IFERROR( ((H47-F47)/F47), ""))</f>
         <v/>
       </c>
       <c r="J47" s="5"/>
     </row>
     <row r="48" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B48" s="4"/>
-      <c r="C48" s="12"/>
-      <c r="D48" s="5"/>
-      <c r="E48" s="12"/>
-      <c r="F48" s="13"/>
-      <c r="G48" s="12"/>
+      <c r="B48" s="4" t="s">
+        <v>158</v>
+      </c>
+      <c r="C48" s="12" t="s">
+        <v>244</v>
+      </c>
+      <c r="D48" s="5" t="s">
+        <v>243</v>
+      </c>
+      <c r="E48" s="12" t="s">
+        <v>235</v>
+      </c>
+      <c r="F48" s="13">
+        <v>2842</v>
+      </c>
+      <c r="G48" s="12" t="s">
+        <v>253</v>
+      </c>
       <c r="H48" s="13"/>
       <c r="I48" s="14" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="J48" s="5"/>
+      <c r="J48" s="5" t="s">
+        <v>242</v>
+      </c>
     </row>
     <row r="49" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B49" s="4"/>
-      <c r="C49" s="12"/>
-      <c r="D49" s="5"/>
-      <c r="E49" s="12"/>
-      <c r="F49" s="13"/>
-      <c r="G49" s="12"/>
+      <c r="B49" s="4" t="s">
+        <v>158</v>
+      </c>
+      <c r="C49" s="12" t="s">
+        <v>247</v>
+      </c>
+      <c r="D49" s="5" t="s">
+        <v>248</v>
+      </c>
+      <c r="E49" s="12" t="s">
+        <v>235</v>
+      </c>
+      <c r="F49" s="13">
+        <v>44350</v>
+      </c>
+      <c r="G49" s="12" t="s">
+        <v>253</v>
+      </c>
       <c r="H49" s="13"/>
       <c r="I49" s="14" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="J49" s="5"/>
+      <c r="J49" s="5" t="s">
+        <v>242</v>
+      </c>
     </row>
     <row r="50" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B50" s="4"/>
-      <c r="C50" s="12"/>
-      <c r="D50" s="5"/>
-      <c r="E50" s="12"/>
-      <c r="F50" s="13"/>
-      <c r="G50" s="12"/>
+      <c r="B50" s="4" t="s">
+        <v>158</v>
+      </c>
+      <c r="C50" s="12" t="s">
+        <v>249</v>
+      </c>
+      <c r="D50" s="5" t="s">
+        <v>250</v>
+      </c>
+      <c r="E50" s="12" t="s">
+        <v>235</v>
+      </c>
+      <c r="F50" s="13">
+        <v>4665</v>
+      </c>
+      <c r="G50" s="12" t="s">
+        <v>253</v>
+      </c>
       <c r="H50" s="13"/>
       <c r="I50" s="14" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="J50" s="5"/>
+      <c r="J50" s="5" t="s">
+        <v>242</v>
+      </c>
     </row>
     <row r="51" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B51" s="4"/>
-      <c r="C51" s="12"/>
-      <c r="D51" s="5"/>
-      <c r="E51" s="12"/>
-      <c r="F51" s="13"/>
-      <c r="G51" s="12"/>
+      <c r="B51" s="4" t="s">
+        <v>245</v>
+      </c>
+      <c r="C51" s="12" t="s">
+        <v>251</v>
+      </c>
+      <c r="D51" s="5" t="s">
+        <v>252</v>
+      </c>
+      <c r="E51" s="12" t="s">
+        <v>235</v>
+      </c>
+      <c r="F51" s="13">
+        <v>9180</v>
+      </c>
+      <c r="G51" s="12" t="s">
+        <v>253</v>
+      </c>
       <c r="H51" s="13"/>
       <c r="I51" s="14" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="J51" s="5"/>
+      <c r="J51" s="5" t="s">
+        <v>242</v>
+      </c>
     </row>
     <row r="52" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B52" s="4"/>
@@ -9415,8 +9673,36 @@
       </c>
       <c r="J73" s="5"/>
     </row>
+    <row r="74" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B74" s="4"/>
+      <c r="C74" s="12"/>
+      <c r="D74" s="5"/>
+      <c r="E74" s="12"/>
+      <c r="F74" s="13"/>
+      <c r="G74" s="12"/>
+      <c r="H74" s="13"/>
+      <c r="I74" s="14" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="J74" s="5"/>
+    </row>
+    <row r="75" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B75" s="4"/>
+      <c r="C75" s="12"/>
+      <c r="D75" s="5"/>
+      <c r="E75" s="12"/>
+      <c r="F75" s="13"/>
+      <c r="G75" s="12"/>
+      <c r="H75" s="13"/>
+      <c r="I75" s="14" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="J75" s="5"/>
+    </row>
   </sheetData>
-  <autoFilter ref="B2:J73"/>
+  <autoFilter ref="B2:J75"/>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="I1 I3:I1048576">
     <cfRule type="cellIs" dxfId="1" priority="4" operator="greaterThan">
@@ -9577,42 +9863,42 @@
     </row>
     <row r="16" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B16" s="31" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
     </row>
     <row r="17" spans="2:4" x14ac:dyDescent="0.3">
       <c r="C17" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
     </row>
     <row r="18" spans="2:4" x14ac:dyDescent="0.3">
       <c r="D18" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
     </row>
     <row r="19" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B19" s="31" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
     </row>
     <row r="20" spans="2:4" x14ac:dyDescent="0.3">
       <c r="C20" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
     </row>
     <row r="21" spans="2:4" x14ac:dyDescent="0.3">
       <c r="D21" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
     </row>
     <row r="22" spans="2:4" x14ac:dyDescent="0.3">
       <c r="D22" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
     </row>
     <row r="23" spans="2:4" x14ac:dyDescent="0.3">
       <c r="D23" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
     </row>
   </sheetData>

--- a/WorkShop/01.docs/01.초기학습.xlsx
+++ b/WorkShop/01.docs/01.초기학습.xlsx
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="409" uniqueCount="254">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="411" uniqueCount="254">
   <si>
     <t>사이트명</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -492,27 +492,7 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>기준가대비 1.5 %</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>손실제한</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>&lt;트레일링스탑&gt;</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>목표가사용</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>감시기준가 : 매입단가</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1.5 % 하락시 스탑주문</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -737,10 +717,6 @@
       <t xml:space="preserve">
   - SAR = 전일SAR + (가속변수 * (최고가혹은최저가 - 전일 SAR))</t>
     </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>목표가 : 15 %</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -1511,6 +1487,34 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>073490</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>이노와이어리스</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>222080</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>씨아이에스</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>263600</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>덕우전자</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2020-02-15</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <r>
       <rPr>
         <b/>
@@ -1587,37 +1591,34 @@
       </rPr>
       <t xml:space="preserve">  1. 기업재무현황 - 매출, 영업이익, 당기순이익 체크.
   2. 외인/기관의 당일 순매수 체크.
-  2. 차트의 모양 체크.
-  3. 지표시뮬레이션 - 절반이상의 지표가 매수를 권장하는지 체크.</t>
+  3. 차트의 모양 체크.
+  4. 지표시뮬레이션 - 절반이상의 지표가 매수를 권장하는지 체크.
+  5. 3분봉차트로 조회하여 상승추세임을 체크.</t>
     </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>073490</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>이노와이어리스</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>222080</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>씨아이에스</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>263600</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>덕우전자</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2020-02-15</t>
+    <t>이익실현</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>매입단가</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>감시기준가</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>기준가대비</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>이익보존</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>손실제한</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1628,7 +1629,7 @@
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="&quot;₩&quot;#,##0"/>
   </numFmts>
-  <fonts count="13" x14ac:knownFonts="1">
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1687,22 +1688,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="맑은 고딕"/>
-      <family val="2"/>
-      <charset val="129"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF0070C0"/>
-      <name val="맑은 고딕"/>
-      <family val="2"/>
-      <charset val="129"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color theme="1"/>
@@ -1738,7 +1723,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1748,18 +1733,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="0" tint="-0.14999847407452621"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF92D050"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1863,7 +1836,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="60">
+  <cellXfs count="56">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1942,28 +1915,13 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="10" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="8" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1981,34 +1939,34 @@
     <xf numFmtId="49" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="10" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="8" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="10" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="8" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="11" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="9" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="10" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="8" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="11" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="9" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="11" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="9" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="11" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="9" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="11" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="9" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="12" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
+    <xf numFmtId="49" fontId="10" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
@@ -2023,26 +1981,29 @@
     <xf numFmtId="49" fontId="4" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="10" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="8" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="10" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="8" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="10" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="8" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="10" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="8" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="10" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="8" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="10" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="8" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="10" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="8" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -5890,14 +5851,14 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>156882</xdr:colOff>
-      <xdr:row>7</xdr:row>
+      <xdr:row>0</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
       <xdr:colOff>11206</xdr:colOff>
-      <xdr:row>7</xdr:row>
-      <xdr:rowOff>11206</xdr:rowOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -5937,14 +5898,14 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>163606</xdr:colOff>
-      <xdr:row>10</xdr:row>
-      <xdr:rowOff>107578</xdr:rowOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
       <xdr:colOff>17930</xdr:colOff>
-      <xdr:row>10</xdr:row>
-      <xdr:rowOff>118784</xdr:rowOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -5972,53 +5933,6 @@
         </a:fillRef>
         <a:effectRef idx="2">
           <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>100853</xdr:colOff>
-      <xdr:row>7</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>681318</xdr:colOff>
-      <xdr:row>7</xdr:row>
-      <xdr:rowOff>11206</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="21" name="직선 화살표 연결선 20"/>
-        <xdr:cNvCxnSpPr/>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm flipH="1">
-          <a:off x="4202206" y="1490382"/>
-          <a:ext cx="1264024" cy="11206"/>
-        </a:xfrm>
-        <a:prstGeom prst="straightConnector1">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln>
-          <a:tailEnd type="triangle"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="3">
-          <a:schemeClr val="accent2"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent2"/>
-        </a:fillRef>
-        <a:effectRef idx="2">
-          <a:schemeClr val="accent2"/>
         </a:effectRef>
         <a:fontRef idx="minor">
           <a:schemeClr val="tx1"/>
@@ -6296,10 +6210,10 @@
   <dimension ref="B1:D34"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B5" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="D26" sqref="D26"/>
+      <selection pane="bottomRight" activeCell="C36" sqref="C36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="12" x14ac:dyDescent="0.3"/>
@@ -6421,13 +6335,13 @@
     </row>
     <row r="11" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B11" s="4" t="s">
-        <v>155</v>
+        <v>149</v>
       </c>
       <c r="C11" s="22" t="s">
-        <v>154</v>
+        <v>148</v>
       </c>
       <c r="D11" s="5" t="s">
-        <v>156</v>
+        <v>150</v>
       </c>
     </row>
     <row r="12" spans="2:4" x14ac:dyDescent="0.3">
@@ -6567,331 +6481,331 @@
     <col min="1" max="1" width="7.25" style="1" customWidth="1"/>
     <col min="2" max="2" width="31.875" style="1" customWidth="1"/>
     <col min="3" max="4" width="15.375" style="1" customWidth="1"/>
-    <col min="5" max="5" width="118.125" style="37" customWidth="1"/>
+    <col min="5" max="5" width="118.125" style="32" customWidth="1"/>
     <col min="6" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B1" s="51" t="s">
+      <c r="B1" s="46" t="s">
+        <v>124</v>
+      </c>
+      <c r="C1" s="47"/>
+      <c r="D1" s="46" t="s">
+        <v>87</v>
+      </c>
+      <c r="E1" s="47"/>
+    </row>
+    <row r="2" spans="2:5" ht="24" x14ac:dyDescent="0.3">
+      <c r="B2" s="50" t="s">
+        <v>125</v>
+      </c>
+      <c r="C2" s="51"/>
+      <c r="D2" s="29" t="s">
+        <v>127</v>
+      </c>
+      <c r="E2" s="33" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="3" spans="2:5" ht="24" x14ac:dyDescent="0.3">
+      <c r="B3" s="52"/>
+      <c r="C3" s="53"/>
+      <c r="D3" s="29" t="s">
+        <v>128</v>
+      </c>
+      <c r="E3" s="30" t="s">
         <v>129</v>
       </c>
-      <c r="C1" s="52"/>
-      <c r="D1" s="51" t="s">
-        <v>87</v>
-      </c>
-      <c r="E1" s="52"/>
-    </row>
-    <row r="2" spans="2:5" ht="24" x14ac:dyDescent="0.3">
-      <c r="B2" s="53" t="s">
+    </row>
+    <row r="4" spans="2:5" ht="48" x14ac:dyDescent="0.3">
+      <c r="B4" s="50" t="s">
+        <v>126</v>
+      </c>
+      <c r="C4" s="51"/>
+      <c r="D4" s="29" t="s">
+        <v>127</v>
+      </c>
+      <c r="E4" s="33" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="5" spans="2:5" ht="96" x14ac:dyDescent="0.3">
+      <c r="B5" s="52"/>
+      <c r="C5" s="53"/>
+      <c r="D5" s="29" t="s">
+        <v>128</v>
+      </c>
+      <c r="E5" s="30" t="s">
         <v>130</v>
       </c>
-      <c r="C2" s="54"/>
-      <c r="D2" s="34" t="s">
+    </row>
+    <row r="6" spans="2:5" ht="72" x14ac:dyDescent="0.3">
+      <c r="B6" s="50" t="s">
+        <v>135</v>
+      </c>
+      <c r="C6" s="51"/>
+      <c r="D6" s="29" t="s">
+        <v>127</v>
+      </c>
+      <c r="E6" s="33" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="7" spans="2:5" ht="84" x14ac:dyDescent="0.3">
+      <c r="B7" s="52"/>
+      <c r="C7" s="53"/>
+      <c r="D7" s="29" t="s">
+        <v>128</v>
+      </c>
+      <c r="E7" s="30" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="8" spans="2:5" ht="96" x14ac:dyDescent="0.3">
+      <c r="B8" s="54" t="s">
+        <v>136</v>
+      </c>
+      <c r="C8" s="51"/>
+      <c r="D8" s="29" t="s">
+        <v>127</v>
+      </c>
+      <c r="E8" s="33" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="9" spans="2:5" ht="60" x14ac:dyDescent="0.3">
+      <c r="B9" s="52"/>
+      <c r="C9" s="53"/>
+      <c r="D9" s="29" t="s">
+        <v>128</v>
+      </c>
+      <c r="E9" s="30" t="s">
         <v>132</v>
       </c>
-      <c r="E2" s="38" t="s">
+    </row>
+    <row r="10" spans="2:5" ht="60" x14ac:dyDescent="0.3">
+      <c r="B10" s="50" t="s">
+        <v>133</v>
+      </c>
+      <c r="C10" s="51"/>
+      <c r="D10" s="29" t="s">
+        <v>127</v>
+      </c>
+      <c r="E10" s="33" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="11" spans="2:5" ht="142.15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B11" s="52"/>
+      <c r="C11" s="53"/>
+      <c r="D11" s="29" t="s">
+        <v>128</v>
+      </c>
+      <c r="E11" s="30" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="12" spans="2:5" ht="24" x14ac:dyDescent="0.3">
+      <c r="B12" s="50" t="s">
+        <v>143</v>
+      </c>
+      <c r="C12" s="51"/>
+      <c r="D12" s="29" t="s">
+        <v>127</v>
+      </c>
+      <c r="E12" s="33" t="s">
         <v>145</v>
       </c>
     </row>
-    <row r="3" spans="2:5" ht="24" x14ac:dyDescent="0.3">
-      <c r="B3" s="55"/>
-      <c r="C3" s="56"/>
-      <c r="D3" s="34" t="s">
-        <v>133</v>
-      </c>
-      <c r="E3" s="35" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="4" spans="2:5" ht="48" x14ac:dyDescent="0.3">
-      <c r="B4" s="53" t="s">
-        <v>131</v>
-      </c>
-      <c r="C4" s="54"/>
-      <c r="D4" s="34" t="s">
-        <v>132</v>
-      </c>
-      <c r="E4" s="38" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="5" spans="2:5" ht="96" x14ac:dyDescent="0.3">
-      <c r="B5" s="55"/>
-      <c r="C5" s="56"/>
-      <c r="D5" s="34" t="s">
-        <v>133</v>
-      </c>
-      <c r="E5" s="35" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="6" spans="2:5" ht="72" x14ac:dyDescent="0.3">
-      <c r="B6" s="53" t="s">
-        <v>140</v>
-      </c>
-      <c r="C6" s="54"/>
-      <c r="D6" s="34" t="s">
-        <v>132</v>
-      </c>
-      <c r="E6" s="38" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="7" spans="2:5" ht="84" x14ac:dyDescent="0.3">
-      <c r="B7" s="55"/>
-      <c r="C7" s="56"/>
-      <c r="D7" s="34" t="s">
-        <v>133</v>
-      </c>
-      <c r="E7" s="35" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="8" spans="2:5" ht="96" x14ac:dyDescent="0.3">
-      <c r="B8" s="59" t="s">
-        <v>141</v>
-      </c>
-      <c r="C8" s="54"/>
-      <c r="D8" s="34" t="s">
-        <v>132</v>
-      </c>
-      <c r="E8" s="38" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="9" spans="2:5" ht="60" x14ac:dyDescent="0.3">
-      <c r="B9" s="55"/>
-      <c r="C9" s="56"/>
-      <c r="D9" s="34" t="s">
-        <v>133</v>
-      </c>
-      <c r="E9" s="35" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="10" spans="2:5" ht="60" x14ac:dyDescent="0.3">
-      <c r="B10" s="53" t="s">
-        <v>138</v>
-      </c>
-      <c r="C10" s="54"/>
-      <c r="D10" s="34" t="s">
-        <v>132</v>
-      </c>
-      <c r="E10" s="38" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="11" spans="2:5" ht="142.15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B11" s="55"/>
-      <c r="C11" s="56"/>
-      <c r="D11" s="34" t="s">
-        <v>133</v>
-      </c>
-      <c r="E11" s="35" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="12" spans="2:5" ht="24" x14ac:dyDescent="0.3">
-      <c r="B12" s="53" t="s">
-        <v>149</v>
-      </c>
-      <c r="C12" s="54"/>
-      <c r="D12" s="34" t="s">
-        <v>132</v>
-      </c>
-      <c r="E12" s="38" t="s">
-        <v>151</v>
-      </c>
-    </row>
     <row r="13" spans="2:5" ht="36" x14ac:dyDescent="0.3">
-      <c r="B13" s="55"/>
-      <c r="C13" s="56"/>
-      <c r="D13" s="34" t="s">
-        <v>133</v>
-      </c>
-      <c r="E13" s="35" t="s">
-        <v>152</v>
+      <c r="B13" s="52"/>
+      <c r="C13" s="53"/>
+      <c r="D13" s="29" t="s">
+        <v>128</v>
+      </c>
+      <c r="E13" s="30" t="s">
+        <v>146</v>
       </c>
     </row>
     <row r="14" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B14" s="57"/>
-      <c r="C14" s="58"/>
-      <c r="D14" s="33"/>
-      <c r="E14" s="36"/>
+      <c r="B14" s="48"/>
+      <c r="C14" s="49"/>
+      <c r="D14" s="28"/>
+      <c r="E14" s="31"/>
     </row>
     <row r="15" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B15" s="57"/>
-      <c r="C15" s="58"/>
-      <c r="D15" s="33"/>
-      <c r="E15" s="36"/>
+      <c r="B15" s="48"/>
+      <c r="C15" s="49"/>
+      <c r="D15" s="28"/>
+      <c r="E15" s="31"/>
     </row>
     <row r="16" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B16" s="57"/>
-      <c r="C16" s="58"/>
-      <c r="D16" s="33"/>
-      <c r="E16" s="36"/>
+      <c r="B16" s="48"/>
+      <c r="C16" s="49"/>
+      <c r="D16" s="28"/>
+      <c r="E16" s="31"/>
     </row>
     <row r="17" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B17" s="57"/>
-      <c r="C17" s="58"/>
-      <c r="D17" s="33"/>
-      <c r="E17" s="36"/>
+      <c r="B17" s="48"/>
+      <c r="C17" s="49"/>
+      <c r="D17" s="28"/>
+      <c r="E17" s="31"/>
     </row>
     <row r="18" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B18" s="57"/>
-      <c r="C18" s="58"/>
-      <c r="D18" s="33"/>
-      <c r="E18" s="36"/>
+      <c r="B18" s="48"/>
+      <c r="C18" s="49"/>
+      <c r="D18" s="28"/>
+      <c r="E18" s="31"/>
     </row>
     <row r="19" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B19" s="57"/>
-      <c r="C19" s="58"/>
-      <c r="D19" s="33"/>
-      <c r="E19" s="36"/>
+      <c r="B19" s="48"/>
+      <c r="C19" s="49"/>
+      <c r="D19" s="28"/>
+      <c r="E19" s="31"/>
     </row>
     <row r="20" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B20" s="57"/>
-      <c r="C20" s="58"/>
-      <c r="D20" s="33"/>
-      <c r="E20" s="36"/>
+      <c r="B20" s="48"/>
+      <c r="C20" s="49"/>
+      <c r="D20" s="28"/>
+      <c r="E20" s="31"/>
     </row>
     <row r="21" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B21" s="57"/>
-      <c r="C21" s="58"/>
-      <c r="D21" s="33"/>
-      <c r="E21" s="36"/>
+      <c r="B21" s="48"/>
+      <c r="C21" s="49"/>
+      <c r="D21" s="28"/>
+      <c r="E21" s="31"/>
     </row>
     <row r="22" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B22" s="57"/>
-      <c r="C22" s="58"/>
-      <c r="D22" s="33"/>
-      <c r="E22" s="36"/>
+      <c r="B22" s="48"/>
+      <c r="C22" s="49"/>
+      <c r="D22" s="28"/>
+      <c r="E22" s="31"/>
     </row>
     <row r="23" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B23" s="57"/>
-      <c r="C23" s="58"/>
-      <c r="D23" s="33"/>
-      <c r="E23" s="36"/>
+      <c r="B23" s="48"/>
+      <c r="C23" s="49"/>
+      <c r="D23" s="28"/>
+      <c r="E23" s="31"/>
     </row>
     <row r="24" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B24" s="57"/>
-      <c r="C24" s="58"/>
-      <c r="D24" s="33"/>
-      <c r="E24" s="36"/>
+      <c r="B24" s="48"/>
+      <c r="C24" s="49"/>
+      <c r="D24" s="28"/>
+      <c r="E24" s="31"/>
     </row>
     <row r="25" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B25" s="57"/>
-      <c r="C25" s="58"/>
-      <c r="D25" s="33"/>
-      <c r="E25" s="36"/>
+      <c r="B25" s="48"/>
+      <c r="C25" s="49"/>
+      <c r="D25" s="28"/>
+      <c r="E25" s="31"/>
     </row>
     <row r="26" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B26" s="57"/>
-      <c r="C26" s="58"/>
-      <c r="D26" s="33"/>
-      <c r="E26" s="36"/>
+      <c r="B26" s="48"/>
+      <c r="C26" s="49"/>
+      <c r="D26" s="28"/>
+      <c r="E26" s="31"/>
     </row>
     <row r="27" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B27" s="57"/>
-      <c r="C27" s="58"/>
-      <c r="D27" s="33"/>
-      <c r="E27" s="36"/>
+      <c r="B27" s="48"/>
+      <c r="C27" s="49"/>
+      <c r="D27" s="28"/>
+      <c r="E27" s="31"/>
     </row>
     <row r="28" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B28" s="57"/>
-      <c r="C28" s="58"/>
-      <c r="D28" s="33"/>
-      <c r="E28" s="36"/>
+      <c r="B28" s="48"/>
+      <c r="C28" s="49"/>
+      <c r="D28" s="28"/>
+      <c r="E28" s="31"/>
     </row>
     <row r="29" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B29" s="57"/>
-      <c r="C29" s="58"/>
-      <c r="D29" s="33"/>
-      <c r="E29" s="36"/>
+      <c r="B29" s="48"/>
+      <c r="C29" s="49"/>
+      <c r="D29" s="28"/>
+      <c r="E29" s="31"/>
     </row>
     <row r="30" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B30" s="57"/>
-      <c r="C30" s="58"/>
-      <c r="D30" s="33"/>
-      <c r="E30" s="36"/>
+      <c r="B30" s="48"/>
+      <c r="C30" s="49"/>
+      <c r="D30" s="28"/>
+      <c r="E30" s="31"/>
     </row>
     <row r="31" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B31" s="57"/>
-      <c r="C31" s="58"/>
-      <c r="D31" s="33"/>
-      <c r="E31" s="36"/>
+      <c r="B31" s="48"/>
+      <c r="C31" s="49"/>
+      <c r="D31" s="28"/>
+      <c r="E31" s="31"/>
     </row>
     <row r="32" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B32" s="57"/>
-      <c r="C32" s="58"/>
-      <c r="D32" s="33"/>
-      <c r="E32" s="36"/>
+      <c r="B32" s="48"/>
+      <c r="C32" s="49"/>
+      <c r="D32" s="28"/>
+      <c r="E32" s="31"/>
     </row>
     <row r="33" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B33" s="57"/>
-      <c r="C33" s="58"/>
-      <c r="D33" s="33"/>
-      <c r="E33" s="36"/>
+      <c r="B33" s="48"/>
+      <c r="C33" s="49"/>
+      <c r="D33" s="28"/>
+      <c r="E33" s="31"/>
     </row>
     <row r="34" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B34" s="57"/>
-      <c r="C34" s="58"/>
-      <c r="D34" s="33"/>
-      <c r="E34" s="36"/>
+      <c r="B34" s="48"/>
+      <c r="C34" s="49"/>
+      <c r="D34" s="28"/>
+      <c r="E34" s="31"/>
     </row>
     <row r="35" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B35" s="57"/>
-      <c r="C35" s="58"/>
-      <c r="D35" s="33"/>
-      <c r="E35" s="36"/>
+      <c r="B35" s="48"/>
+      <c r="C35" s="49"/>
+      <c r="D35" s="28"/>
+      <c r="E35" s="31"/>
     </row>
     <row r="36" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B36" s="57"/>
-      <c r="C36" s="58"/>
-      <c r="D36" s="33"/>
-      <c r="E36" s="36"/>
+      <c r="B36" s="48"/>
+      <c r="C36" s="49"/>
+      <c r="D36" s="28"/>
+      <c r="E36" s="31"/>
     </row>
     <row r="37" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B37" s="57"/>
-      <c r="C37" s="58"/>
-      <c r="D37" s="33"/>
-      <c r="E37" s="36"/>
+      <c r="B37" s="48"/>
+      <c r="C37" s="49"/>
+      <c r="D37" s="28"/>
+      <c r="E37" s="31"/>
     </row>
     <row r="38" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B38" s="57"/>
-      <c r="C38" s="58"/>
-      <c r="D38" s="33"/>
-      <c r="E38" s="36"/>
+      <c r="B38" s="48"/>
+      <c r="C38" s="49"/>
+      <c r="D38" s="28"/>
+      <c r="E38" s="31"/>
     </row>
     <row r="39" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B39" s="57"/>
-      <c r="C39" s="58"/>
-      <c r="D39" s="33"/>
-      <c r="E39" s="36"/>
+      <c r="B39" s="48"/>
+      <c r="C39" s="49"/>
+      <c r="D39" s="28"/>
+      <c r="E39" s="31"/>
     </row>
     <row r="40" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B40" s="57"/>
-      <c r="C40" s="58"/>
-      <c r="D40" s="33"/>
-      <c r="E40" s="36"/>
+      <c r="B40" s="48"/>
+      <c r="C40" s="49"/>
+      <c r="D40" s="28"/>
+      <c r="E40" s="31"/>
     </row>
     <row r="41" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B41" s="57"/>
-      <c r="C41" s="58"/>
-      <c r="D41" s="33"/>
-      <c r="E41" s="36"/>
+      <c r="B41" s="48"/>
+      <c r="C41" s="49"/>
+      <c r="D41" s="28"/>
+      <c r="E41" s="31"/>
     </row>
     <row r="42" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B42" s="57"/>
-      <c r="C42" s="58"/>
-      <c r="D42" s="33"/>
-      <c r="E42" s="36"/>
+      <c r="B42" s="48"/>
+      <c r="C42" s="49"/>
+      <c r="D42" s="28"/>
+      <c r="E42" s="31"/>
     </row>
     <row r="43" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B43" s="57"/>
-      <c r="C43" s="58"/>
-      <c r="D43" s="33"/>
-      <c r="E43" s="36"/>
+      <c r="B43" s="48"/>
+      <c r="C43" s="49"/>
+      <c r="D43" s="28"/>
+      <c r="E43" s="31"/>
     </row>
   </sheetData>
   <autoFilter ref="B1:E9">
@@ -6899,12 +6813,22 @@
     <filterColumn colId="2" showButton="0"/>
   </autoFilter>
   <mergeCells count="38">
-    <mergeCell ref="B1:C1"/>
-    <mergeCell ref="B20:C20"/>
-    <mergeCell ref="B21:C21"/>
-    <mergeCell ref="B14:C14"/>
-    <mergeCell ref="B15:C15"/>
-    <mergeCell ref="B12:C13"/>
+    <mergeCell ref="D1:E1"/>
+    <mergeCell ref="B10:C11"/>
+    <mergeCell ref="B40:C40"/>
+    <mergeCell ref="B41:C41"/>
+    <mergeCell ref="B42:C42"/>
+    <mergeCell ref="B33:C33"/>
+    <mergeCell ref="B22:C22"/>
+    <mergeCell ref="B23:C23"/>
+    <mergeCell ref="B24:C24"/>
+    <mergeCell ref="B25:C25"/>
+    <mergeCell ref="B26:C26"/>
+    <mergeCell ref="B27:C27"/>
+    <mergeCell ref="B16:C16"/>
+    <mergeCell ref="B17:C17"/>
+    <mergeCell ref="B18:C18"/>
+    <mergeCell ref="B19:C19"/>
     <mergeCell ref="B43:C43"/>
     <mergeCell ref="B2:C3"/>
     <mergeCell ref="B4:C5"/>
@@ -6921,22 +6845,12 @@
     <mergeCell ref="B30:C30"/>
     <mergeCell ref="B31:C31"/>
     <mergeCell ref="B32:C32"/>
-    <mergeCell ref="D1:E1"/>
-    <mergeCell ref="B10:C11"/>
-    <mergeCell ref="B40:C40"/>
-    <mergeCell ref="B41:C41"/>
-    <mergeCell ref="B42:C42"/>
-    <mergeCell ref="B33:C33"/>
-    <mergeCell ref="B22:C22"/>
-    <mergeCell ref="B23:C23"/>
-    <mergeCell ref="B24:C24"/>
-    <mergeCell ref="B25:C25"/>
-    <mergeCell ref="B26:C26"/>
-    <mergeCell ref="B27:C27"/>
-    <mergeCell ref="B16:C16"/>
-    <mergeCell ref="B17:C17"/>
-    <mergeCell ref="B18:C18"/>
-    <mergeCell ref="B19:C19"/>
+    <mergeCell ref="B1:C1"/>
+    <mergeCell ref="B20:C20"/>
+    <mergeCell ref="B21:C21"/>
+    <mergeCell ref="B14:C14"/>
+    <mergeCell ref="B15:C15"/>
+    <mergeCell ref="B12:C13"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -6969,357 +6883,357 @@
   <sheetData>
     <row r="1" spans="2:6" s="8" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B1" s="3" t="s">
+        <v>161</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>162</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>179</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>127</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="2" spans="2:6" ht="72" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B2" s="39" t="s">
+        <v>164</v>
+      </c>
+      <c r="C2" s="4"/>
+      <c r="D2" s="37" t="s">
+        <v>165</v>
+      </c>
+      <c r="E2" s="35" t="s">
+        <v>170</v>
+      </c>
+      <c r="F2" s="35" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="3" spans="2:6" ht="72" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B3" s="40" t="s">
         <v>167</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="C3" s="4"/>
+      <c r="D3" s="37" t="s">
         <v>168</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="E3" s="35" t="s">
+        <v>169</v>
+      </c>
+      <c r="F3" s="35" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="4" spans="2:6" ht="72" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B4" s="41" t="s">
+        <v>172</v>
+      </c>
+      <c r="C4" s="4"/>
+      <c r="D4" s="37" t="s">
+        <v>173</v>
+      </c>
+      <c r="E4" s="35" t="s">
+        <v>174</v>
+      </c>
+      <c r="F4" s="35" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="5" spans="2:6" ht="72" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B5" s="41" t="s">
+        <v>175</v>
+      </c>
+      <c r="C5" s="4"/>
+      <c r="D5" s="37" t="s">
+        <v>173</v>
+      </c>
+      <c r="E5" s="35" t="s">
+        <v>176</v>
+      </c>
+      <c r="F5" s="35" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="6" spans="2:6" ht="72" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B6" s="34" t="s">
+        <v>178</v>
+      </c>
+      <c r="C6" s="4"/>
+      <c r="D6" s="38" t="s">
+        <v>165</v>
+      </c>
+      <c r="E6" s="35" t="s">
+        <v>180</v>
+      </c>
+      <c r="F6" s="35" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="7" spans="2:6" ht="72" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B7" s="36" t="s">
+        <v>182</v>
+      </c>
+      <c r="C7" s="4"/>
+      <c r="D7" s="38" t="s">
+        <v>168</v>
+      </c>
+      <c r="E7" s="35" t="s">
+        <v>188</v>
+      </c>
+      <c r="F7" s="35" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="8" spans="2:6" ht="72" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B8" s="36" t="s">
         <v>185</v>
       </c>
-      <c r="E1" s="3" t="s">
-        <v>132</v>
-      </c>
-      <c r="F1" s="3" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="2" spans="2:6" ht="72" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="44" t="s">
-        <v>170</v>
-      </c>
-      <c r="C2" s="4"/>
-      <c r="D2" s="42" t="s">
-        <v>171</v>
-      </c>
-      <c r="E2" s="40" t="s">
-        <v>176</v>
-      </c>
-      <c r="F2" s="40" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="3" spans="2:6" ht="72" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B3" s="45" t="s">
-        <v>173</v>
-      </c>
-      <c r="C3" s="4"/>
-      <c r="D3" s="42" t="s">
-        <v>174</v>
-      </c>
-      <c r="E3" s="40" t="s">
-        <v>175</v>
-      </c>
-      <c r="F3" s="40" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="4" spans="2:6" ht="72" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B4" s="46" t="s">
-        <v>178</v>
-      </c>
-      <c r="C4" s="4"/>
-      <c r="D4" s="42" t="s">
-        <v>179</v>
-      </c>
-      <c r="E4" s="40" t="s">
-        <v>180</v>
-      </c>
-      <c r="F4" s="40" t="s">
+      <c r="C8" s="4"/>
+      <c r="D8" s="38" t="s">
+        <v>186</v>
+      </c>
+      <c r="E8" s="35" t="s">
+        <v>187</v>
+      </c>
+      <c r="F8" s="35" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="9" spans="2:6" ht="72" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B9" s="36" t="s">
         <v>190</v>
       </c>
-    </row>
-    <row r="5" spans="2:6" ht="72" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B5" s="46" t="s">
-        <v>181</v>
-      </c>
-      <c r="C5" s="4"/>
-      <c r="D5" s="42" t="s">
-        <v>179</v>
-      </c>
-      <c r="E5" s="40" t="s">
-        <v>182</v>
-      </c>
-      <c r="F5" s="40" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="6" spans="2:6" ht="72" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B6" s="39" t="s">
-        <v>184</v>
-      </c>
-      <c r="C6" s="4"/>
-      <c r="D6" s="43" t="s">
-        <v>171</v>
-      </c>
-      <c r="E6" s="40" t="s">
-        <v>186</v>
-      </c>
-      <c r="F6" s="40" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="7" spans="2:6" ht="72" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B7" s="41" t="s">
-        <v>188</v>
-      </c>
-      <c r="C7" s="4"/>
-      <c r="D7" s="43" t="s">
-        <v>174</v>
-      </c>
-      <c r="E7" s="40" t="s">
+      <c r="C9" s="4"/>
+      <c r="D9" s="38" t="s">
+        <v>191</v>
+      </c>
+      <c r="E9" s="35" t="s">
+        <v>192</v>
+      </c>
+      <c r="F9" s="35" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="10" spans="2:6" ht="72" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B10" s="42" t="s">
         <v>194</v>
       </c>
-      <c r="F7" s="40" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="8" spans="2:6" ht="72" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B8" s="41" t="s">
-        <v>191</v>
-      </c>
-      <c r="C8" s="4"/>
-      <c r="D8" s="43" t="s">
-        <v>192</v>
-      </c>
-      <c r="E8" s="40" t="s">
-        <v>193</v>
-      </c>
-      <c r="F8" s="40" t="s">
+      <c r="C10" s="4"/>
+      <c r="D10" s="37" t="s">
         <v>195</v>
       </c>
-    </row>
-    <row r="9" spans="2:6" ht="72" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B9" s="41" t="s">
+      <c r="E10" s="35" t="s">
         <v>196</v>
       </c>
-      <c r="C9" s="4"/>
-      <c r="D9" s="43" t="s">
+      <c r="F10" s="35" t="s">
         <v>197</v>
       </c>
-      <c r="E9" s="40" t="s">
+    </row>
+    <row r="11" spans="2:6" ht="72" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B11" s="42" t="s">
+        <v>200</v>
+      </c>
+      <c r="C11" s="4"/>
+      <c r="D11" s="37" t="s">
+        <v>165</v>
+      </c>
+      <c r="E11" s="35" t="s">
         <v>198</v>
       </c>
-      <c r="F9" s="40" t="s">
+      <c r="F11" s="35" t="s">
         <v>199</v>
       </c>
     </row>
-    <row r="10" spans="2:6" ht="72" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B10" s="47" t="s">
-        <v>200</v>
-      </c>
-      <c r="C10" s="4"/>
-      <c r="D10" s="42" t="s">
+    <row r="12" spans="2:6" ht="72" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B12" s="42" t="s">
         <v>201</v>
       </c>
-      <c r="E10" s="40" t="s">
+      <c r="C12" s="4"/>
+      <c r="D12" s="37" t="s">
+        <v>195</v>
+      </c>
+      <c r="E12" s="35" t="s">
+        <v>204</v>
+      </c>
+      <c r="F12" s="35" t="s">
         <v>202</v>
       </c>
-      <c r="F10" s="40" t="s">
+    </row>
+    <row r="13" spans="2:6" ht="72" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B13" s="42" t="s">
         <v>203</v>
       </c>
-    </row>
-    <row r="11" spans="2:6" ht="72" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B11" s="47" t="s">
+      <c r="C13" s="4"/>
+      <c r="D13" s="37" t="s">
+        <v>195</v>
+      </c>
+      <c r="E13" s="35" t="s">
+        <v>214</v>
+      </c>
+      <c r="F13" s="35" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="14" spans="2:6" ht="72" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B14" s="34" t="s">
         <v>206</v>
       </c>
-      <c r="C11" s="4"/>
-      <c r="D11" s="42" t="s">
-        <v>171</v>
-      </c>
-      <c r="E11" s="40" t="s">
-        <v>204</v>
-      </c>
-      <c r="F11" s="40" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="12" spans="2:6" ht="72" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B12" s="47" t="s">
+      <c r="C14" s="43"/>
+      <c r="D14" s="38" t="s">
+        <v>165</v>
+      </c>
+      <c r="E14" s="35" t="s">
         <v>207</v>
       </c>
-      <c r="C12" s="4"/>
-      <c r="D12" s="42" t="s">
-        <v>201</v>
-      </c>
-      <c r="E12" s="40" t="s">
+      <c r="F14" s="35" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="15" spans="2:6" ht="72" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B15" s="34" t="s">
+        <v>209</v>
+      </c>
+      <c r="C15" s="4"/>
+      <c r="D15" s="38" t="s">
+        <v>211</v>
+      </c>
+      <c r="E15" s="35" t="s">
+        <v>212</v>
+      </c>
+      <c r="F15" s="35" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="16" spans="2:6" ht="72" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B16" s="34" t="s">
         <v>210</v>
       </c>
-      <c r="F12" s="40" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="13" spans="2:6" ht="72" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B13" s="47" t="s">
-        <v>209</v>
-      </c>
-      <c r="C13" s="4"/>
-      <c r="D13" s="42" t="s">
-        <v>201</v>
-      </c>
-      <c r="E13" s="40" t="s">
-        <v>220</v>
-      </c>
-      <c r="F13" s="40" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="14" spans="2:6" ht="72" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B14" s="39" t="s">
-        <v>212</v>
-      </c>
-      <c r="C14" s="48"/>
-      <c r="D14" s="43" t="s">
-        <v>171</v>
-      </c>
-      <c r="E14" s="40" t="s">
-        <v>213</v>
-      </c>
-      <c r="F14" s="40" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="15" spans="2:6" ht="72" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B15" s="39" t="s">
+      <c r="C16" s="4"/>
+      <c r="D16" s="38" t="s">
+        <v>195</v>
+      </c>
+      <c r="E16" s="35" t="s">
         <v>215</v>
       </c>
-      <c r="C15" s="4"/>
-      <c r="D15" s="43" t="s">
-        <v>217</v>
-      </c>
-      <c r="E15" s="40" t="s">
-        <v>218</v>
-      </c>
-      <c r="F15" s="40" t="s">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="16" spans="2:6" ht="72" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B16" s="39" t="s">
+      <c r="F16" s="35" t="s">
         <v>216</v>
       </c>
-      <c r="C16" s="4"/>
-      <c r="D16" s="43" t="s">
-        <v>201</v>
-      </c>
-      <c r="E16" s="40" t="s">
-        <v>221</v>
-      </c>
-      <c r="F16" s="40" t="s">
-        <v>222</v>
-      </c>
     </row>
     <row r="17" spans="2:6" ht="72" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B17" s="39"/>
+      <c r="B17" s="34"/>
       <c r="C17" s="4"/>
       <c r="D17" s="12"/>
-      <c r="E17" s="40"/>
-      <c r="F17" s="40"/>
+      <c r="E17" s="35"/>
+      <c r="F17" s="35"/>
     </row>
     <row r="18" spans="2:6" ht="72" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B18" s="39"/>
+      <c r="B18" s="34"/>
       <c r="C18" s="4"/>
       <c r="D18" s="12"/>
-      <c r="E18" s="40"/>
-      <c r="F18" s="40"/>
+      <c r="E18" s="35"/>
+      <c r="F18" s="35"/>
     </row>
     <row r="19" spans="2:6" ht="72" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B19" s="39"/>
+      <c r="B19" s="34"/>
       <c r="C19" s="4"/>
       <c r="D19" s="12"/>
-      <c r="E19" s="40"/>
-      <c r="F19" s="40"/>
+      <c r="E19" s="35"/>
+      <c r="F19" s="35"/>
     </row>
     <row r="20" spans="2:6" ht="72" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B20" s="39"/>
+      <c r="B20" s="34"/>
       <c r="C20" s="4"/>
       <c r="D20" s="12"/>
-      <c r="E20" s="40"/>
-      <c r="F20" s="40"/>
+      <c r="E20" s="35"/>
+      <c r="F20" s="35"/>
     </row>
     <row r="21" spans="2:6" ht="72" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B21" s="39"/>
+      <c r="B21" s="34"/>
       <c r="C21" s="4"/>
       <c r="D21" s="12"/>
-      <c r="E21" s="40"/>
-      <c r="F21" s="40"/>
+      <c r="E21" s="35"/>
+      <c r="F21" s="35"/>
     </row>
     <row r="22" spans="2:6" ht="72" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B22" s="39"/>
+      <c r="B22" s="34"/>
       <c r="C22" s="4"/>
       <c r="D22" s="12"/>
-      <c r="E22" s="40"/>
-      <c r="F22" s="40"/>
+      <c r="E22" s="35"/>
+      <c r="F22" s="35"/>
     </row>
     <row r="23" spans="2:6" ht="72" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B23" s="39"/>
+      <c r="B23" s="34"/>
       <c r="C23" s="4"/>
       <c r="D23" s="12"/>
-      <c r="E23" s="40"/>
-      <c r="F23" s="40"/>
+      <c r="E23" s="35"/>
+      <c r="F23" s="35"/>
     </row>
     <row r="24" spans="2:6" ht="72" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B24" s="39"/>
+      <c r="B24" s="34"/>
       <c r="C24" s="4"/>
       <c r="D24" s="12"/>
-      <c r="E24" s="40"/>
-      <c r="F24" s="40"/>
+      <c r="E24" s="35"/>
+      <c r="F24" s="35"/>
     </row>
     <row r="25" spans="2:6" ht="72" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B25" s="39"/>
+      <c r="B25" s="34"/>
       <c r="C25" s="4"/>
       <c r="D25" s="12"/>
-      <c r="E25" s="40"/>
-      <c r="F25" s="40"/>
+      <c r="E25" s="35"/>
+      <c r="F25" s="35"/>
     </row>
     <row r="26" spans="2:6" ht="72" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B26" s="39"/>
+      <c r="B26" s="34"/>
       <c r="C26" s="4"/>
       <c r="D26" s="12"/>
-      <c r="E26" s="40"/>
-      <c r="F26" s="40"/>
+      <c r="E26" s="35"/>
+      <c r="F26" s="35"/>
     </row>
     <row r="27" spans="2:6" ht="72" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B27" s="39"/>
+      <c r="B27" s="34"/>
       <c r="C27" s="4"/>
       <c r="D27" s="12"/>
-      <c r="E27" s="40"/>
-      <c r="F27" s="40"/>
+      <c r="E27" s="35"/>
+      <c r="F27" s="35"/>
     </row>
     <row r="28" spans="2:6" ht="72" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B28" s="39"/>
+      <c r="B28" s="34"/>
       <c r="C28" s="4"/>
       <c r="D28" s="12"/>
-      <c r="E28" s="40"/>
-      <c r="F28" s="40"/>
+      <c r="E28" s="35"/>
+      <c r="F28" s="35"/>
     </row>
     <row r="29" spans="2:6" ht="72" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B29" s="39"/>
+      <c r="B29" s="34"/>
       <c r="C29" s="4"/>
       <c r="D29" s="12"/>
-      <c r="E29" s="40"/>
-      <c r="F29" s="40"/>
+      <c r="E29" s="35"/>
+      <c r="F29" s="35"/>
     </row>
     <row r="30" spans="2:6" ht="72" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B30" s="39"/>
+      <c r="B30" s="34"/>
       <c r="C30" s="4"/>
       <c r="D30" s="12"/>
-      <c r="E30" s="40"/>
-      <c r="F30" s="40"/>
+      <c r="E30" s="35"/>
+      <c r="F30" s="35"/>
     </row>
     <row r="31" spans="2:6" ht="72" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B31" s="39"/>
+      <c r="B31" s="34"/>
       <c r="C31" s="4"/>
       <c r="D31" s="12"/>
-      <c r="E31" s="40"/>
-      <c r="F31" s="40"/>
+      <c r="E31" s="35"/>
+      <c r="F31" s="35"/>
     </row>
     <row r="32" spans="2:6" ht="72" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B32" s="39"/>
+      <c r="B32" s="34"/>
       <c r="C32" s="4"/>
       <c r="D32" s="12"/>
-      <c r="E32" s="40"/>
-      <c r="F32" s="40"/>
+      <c r="E32" s="35"/>
+      <c r="F32" s="35"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -7333,10 +7247,10 @@
   <dimension ref="B2:E101"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="2" topLeftCell="C6" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="D13" sqref="D13"/>
+      <selection pane="bottomRight" activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="12" x14ac:dyDescent="0.3"/>
@@ -7392,30 +7306,30 @@
         <v>94</v>
       </c>
       <c r="C5" s="17" t="s">
-        <v>128</v>
+        <v>123</v>
       </c>
       <c r="D5" s="25" t="s">
-        <v>148</v>
+        <v>142</v>
       </c>
       <c r="E5" s="25"/>
     </row>
     <row r="6" spans="2:5" ht="145.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B6" s="17"/>
       <c r="C6" s="17" t="s">
-        <v>158</v>
+        <v>152</v>
       </c>
       <c r="D6" s="25" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="E6" s="25"/>
     </row>
     <row r="7" spans="2:5" ht="86.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B7" s="17"/>
       <c r="C7" s="17" t="s">
-        <v>153</v>
+        <v>147</v>
       </c>
       <c r="D7" s="25" t="s">
-        <v>147</v>
+        <v>141</v>
       </c>
       <c r="E7" s="25"/>
     </row>
@@ -7996,10 +7910,10 @@
   <dimension ref="B2:O75"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="2" topLeftCell="B21" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="2" topLeftCell="B16" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="J42" sqref="J42"/>
+      <selection pane="bottomRight" activeCell="D54" sqref="D54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="12" x14ac:dyDescent="0.3"/>
@@ -8015,7 +7929,7 @@
     <col min="9" max="9" width="10.125" style="10" customWidth="1"/>
     <col min="10" max="10" width="60.125" style="2" customWidth="1"/>
     <col min="11" max="11" width="9" style="1"/>
-    <col min="12" max="15" width="9" style="50"/>
+    <col min="12" max="15" width="9" style="45"/>
     <col min="16" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
@@ -8047,10 +7961,10 @@
       <c r="J2" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="L2" s="49"/>
-      <c r="M2" s="49"/>
-      <c r="N2" s="49"/>
-      <c r="O2" s="49"/>
+      <c r="L2" s="44"/>
+      <c r="M2" s="44"/>
+      <c r="N2" s="44"/>
+      <c r="O2" s="44"/>
     </row>
     <row r="3" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B3" s="4" t="s">
@@ -8079,7 +7993,7 @@
         <v>0.1079429735234216</v>
       </c>
       <c r="J3" s="5" t="s">
-        <v>236</v>
+        <v>230</v>
       </c>
     </row>
     <row r="4" spans="2:15" x14ac:dyDescent="0.3">
@@ -8109,7 +8023,7 @@
         <v>0.11757719714964371</v>
       </c>
       <c r="J4" s="5" t="s">
-        <v>237</v>
+        <v>231</v>
       </c>
     </row>
     <row r="5" spans="2:15" x14ac:dyDescent="0.3">
@@ -8139,7 +8053,7 @@
         <v>-4.2904290429042903E-2</v>
       </c>
       <c r="J5" s="5" t="s">
-        <v>238</v>
+        <v>232</v>
       </c>
     </row>
     <row r="6" spans="2:15" x14ac:dyDescent="0.3">
@@ -8169,7 +8083,7 @@
         <v>0.3</v>
       </c>
       <c r="J6" s="5" t="s">
-        <v>240</v>
+        <v>234</v>
       </c>
     </row>
     <row r="7" spans="2:15" x14ac:dyDescent="0.3">
@@ -8199,7 +8113,7 @@
         <v>-5.2877138413685847E-2</v>
       </c>
       <c r="J7" s="5" t="s">
-        <v>239</v>
+        <v>233</v>
       </c>
     </row>
     <row r="8" spans="2:15" x14ac:dyDescent="0.3">
@@ -8229,7 +8143,7 @@
         <v>-3.0129124820659971E-2</v>
       </c>
       <c r="J8" s="5" t="s">
-        <v>237</v>
+        <v>231</v>
       </c>
     </row>
     <row r="9" spans="2:15" x14ac:dyDescent="0.3">
@@ -8259,7 +8173,7 @@
         <v>-5.0209205020920501E-2</v>
       </c>
       <c r="J9" s="5" t="s">
-        <v>239</v>
+        <v>233</v>
       </c>
     </row>
     <row r="10" spans="2:15" x14ac:dyDescent="0.3">
@@ -8289,7 +8203,7 @@
         <v>-7.326007326007326E-3</v>
       </c>
       <c r="J10" s="5" t="s">
-        <v>237</v>
+        <v>231</v>
       </c>
     </row>
     <row r="11" spans="2:15" x14ac:dyDescent="0.3">
@@ -8319,7 +8233,7 @@
         <v>5.0000000000000001E-3</v>
       </c>
       <c r="J11" s="5" t="s">
-        <v>237</v>
+        <v>231</v>
       </c>
     </row>
     <row r="12" spans="2:15" x14ac:dyDescent="0.3">
@@ -8349,7 +8263,7 @@
         <v>-1.1111111111111112E-2</v>
       </c>
       <c r="J12" s="5" t="s">
-        <v>237</v>
+        <v>231</v>
       </c>
     </row>
     <row r="13" spans="2:15" x14ac:dyDescent="0.3">
@@ -8379,7 +8293,7 @@
         <v>-3.4161490683229816E-2</v>
       </c>
       <c r="J13" s="5" t="s">
-        <v>237</v>
+        <v>231</v>
       </c>
     </row>
     <row r="14" spans="2:15" x14ac:dyDescent="0.3">
@@ -8409,7 +8323,7 @@
         <v>8.0808080808080808E-3</v>
       </c>
       <c r="J14" s="5" t="s">
-        <v>237</v>
+        <v>231</v>
       </c>
     </row>
     <row r="15" spans="2:15" x14ac:dyDescent="0.3">
@@ -8439,7 +8353,7 @@
         <v>2.4771838331160364E-2</v>
       </c>
       <c r="J15" s="5" t="s">
-        <v>237</v>
+        <v>231</v>
       </c>
     </row>
     <row r="16" spans="2:15" x14ac:dyDescent="0.3">
@@ -8469,7 +8383,7 @@
         <v>4.8780487804878049E-3</v>
       </c>
       <c r="J16" s="5" t="s">
-        <v>241</v>
+        <v>235</v>
       </c>
     </row>
     <row r="17" spans="2:10" x14ac:dyDescent="0.3">
@@ -8499,7 +8413,7 @@
         <v>-0.16753926701570682</v>
       </c>
       <c r="J17" s="5" t="s">
-        <v>237</v>
+        <v>231</v>
       </c>
     </row>
     <row r="18" spans="2:10" x14ac:dyDescent="0.3">
@@ -8529,7 +8443,7 @@
         <v>-5.9854014598540145E-2</v>
       </c>
       <c r="J18" s="5" t="s">
-        <v>237</v>
+        <v>231</v>
       </c>
     </row>
     <row r="19" spans="2:10" x14ac:dyDescent="0.3">
@@ -8559,7 +8473,7 @@
         <v>0.22077922077922077</v>
       </c>
       <c r="J19" s="5" t="s">
-        <v>237</v>
+        <v>231</v>
       </c>
     </row>
     <row r="20" spans="2:10" x14ac:dyDescent="0.3">
@@ -8589,7 +8503,7 @@
         <v>2.9109589041095889E-2</v>
       </c>
       <c r="J20" s="5" t="s">
-        <v>237</v>
+        <v>231</v>
       </c>
     </row>
     <row r="21" spans="2:10" x14ac:dyDescent="0.3">
@@ -8619,7 +8533,7 @@
         <v>-7.6311605723370424E-2</v>
       </c>
       <c r="J21" s="5" t="s">
-        <v>237</v>
+        <v>231</v>
       </c>
     </row>
     <row r="22" spans="2:10" x14ac:dyDescent="0.3">
@@ -8660,12 +8574,12 @@
         <v>0</v>
       </c>
       <c r="J23" s="5" t="s">
-        <v>242</v>
+        <v>236</v>
       </c>
     </row>
     <row r="24" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B24" s="4" t="s">
-        <v>121</v>
+        <v>116</v>
       </c>
       <c r="C24" s="12" t="s">
         <v>89</v>
@@ -8690,7 +8604,7 @@
         <v>-4.2643923240938165E-3</v>
       </c>
       <c r="J24" s="5" t="s">
-        <v>242</v>
+        <v>236</v>
       </c>
     </row>
     <row r="25" spans="2:10" x14ac:dyDescent="0.3">
@@ -8706,7 +8620,7 @@
     </row>
     <row r="26" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B26" s="4" t="s">
-        <v>121</v>
+        <v>116</v>
       </c>
       <c r="C26" s="12" t="s">
         <v>101</v>
@@ -8731,7 +8645,7 @@
         <v>4.5087336244541483E-2</v>
       </c>
       <c r="J26" s="5" t="s">
-        <v>242</v>
+        <v>236</v>
       </c>
     </row>
     <row r="27" spans="2:10" x14ac:dyDescent="0.3">
@@ -8747,7 +8661,7 @@
     </row>
     <row r="28" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B28" s="4" t="s">
-        <v>120</v>
+        <v>115</v>
       </c>
       <c r="C28" s="12" t="s">
         <v>105</v>
@@ -8772,12 +8686,12 @@
         <v>7.0318542999789043E-3</v>
       </c>
       <c r="J28" s="5" t="s">
-        <v>242</v>
+        <v>236</v>
       </c>
     </row>
     <row r="29" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B29" s="4" t="s">
-        <v>120</v>
+        <v>115</v>
       </c>
       <c r="C29" s="12" t="s">
         <v>107</v>
@@ -8802,12 +8716,12 @@
         <v>-1.4351048730484151E-2</v>
       </c>
       <c r="J29" s="5" t="s">
-        <v>242</v>
+        <v>236</v>
       </c>
     </row>
     <row r="30" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B30" s="4" t="s">
-        <v>120</v>
+        <v>115</v>
       </c>
       <c r="C30" s="12" t="s">
         <v>109</v>
@@ -8832,12 +8746,12 @@
         <v>-8.2000000000000007E-3</v>
       </c>
       <c r="J30" s="5" t="s">
-        <v>242</v>
+        <v>236</v>
       </c>
     </row>
     <row r="31" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B31" s="4" t="s">
-        <v>120</v>
+        <v>115</v>
       </c>
       <c r="C31" s="12" t="s">
         <v>110</v>
@@ -8862,7 +8776,7 @@
         <v>-7.30554361839278E-3</v>
       </c>
       <c r="J31" s="5" t="s">
-        <v>242</v>
+        <v>236</v>
       </c>
     </row>
     <row r="32" spans="2:10" x14ac:dyDescent="0.3">
@@ -8878,13 +8792,13 @@
     </row>
     <row r="33" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B33" s="4" t="s">
-        <v>120</v>
+        <v>115</v>
       </c>
       <c r="C33" s="12" t="s">
-        <v>124</v>
+        <v>119</v>
       </c>
       <c r="D33" s="5" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
       <c r="E33" s="12" t="s">
         <v>112</v>
@@ -8893,7 +8807,7 @@
         <v>8765</v>
       </c>
       <c r="G33" s="12" t="s">
-        <v>139</v>
+        <v>134</v>
       </c>
       <c r="H33" s="13">
         <v>8860</v>
@@ -8903,18 +8817,18 @@
         <v>1.0838562464346835E-2</v>
       </c>
       <c r="J33" s="5" t="s">
-        <v>242</v>
+        <v>236</v>
       </c>
     </row>
     <row r="34" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B34" s="4" t="s">
+        <v>115</v>
+      </c>
+      <c r="C34" s="12" t="s">
+        <v>118</v>
+      </c>
+      <c r="D34" s="27" t="s">
         <v>120</v>
-      </c>
-      <c r="C34" s="12" t="s">
-        <v>123</v>
-      </c>
-      <c r="D34" s="32" t="s">
-        <v>125</v>
       </c>
       <c r="E34" s="12" t="s">
         <v>112</v>
@@ -8923,7 +8837,7 @@
         <v>2945</v>
       </c>
       <c r="G34" s="12" t="s">
-        <v>139</v>
+        <v>134</v>
       </c>
       <c r="H34" s="13">
         <v>2905</v>
@@ -8933,18 +8847,18 @@
         <v>-1.3582342954159592E-2</v>
       </c>
       <c r="J34" s="5" t="s">
-        <v>242</v>
+        <v>236</v>
       </c>
     </row>
     <row r="35" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B35" s="4" t="s">
-        <v>120</v>
+        <v>115</v>
       </c>
       <c r="C35" s="12" t="s">
-        <v>127</v>
-      </c>
-      <c r="D35" s="32" t="s">
-        <v>126</v>
+        <v>122</v>
+      </c>
+      <c r="D35" s="27" t="s">
+        <v>121</v>
       </c>
       <c r="E35" s="12" t="s">
         <v>112</v>
@@ -8953,7 +8867,7 @@
         <v>2475</v>
       </c>
       <c r="G35" s="12" t="s">
-        <v>139</v>
+        <v>134</v>
       </c>
       <c r="H35" s="13">
         <v>2470</v>
@@ -8963,13 +8877,13 @@
         <v>-2.0202020202020202E-3</v>
       </c>
       <c r="J35" s="5" t="s">
-        <v>242</v>
+        <v>236</v>
       </c>
     </row>
     <row r="36" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B36" s="4"/>
       <c r="C36" s="12"/>
-      <c r="D36" s="32"/>
+      <c r="D36" s="27"/>
       <c r="E36" s="12"/>
       <c r="F36" s="13"/>
       <c r="G36" s="12"/>
@@ -8979,22 +8893,22 @@
     </row>
     <row r="37" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B37" s="4" t="s">
-        <v>158</v>
+        <v>152</v>
       </c>
       <c r="C37" s="12" t="s">
-        <v>234</v>
+        <v>228</v>
       </c>
       <c r="D37" s="5" t="s">
-        <v>159</v>
+        <v>153</v>
       </c>
       <c r="E37" s="12" t="s">
-        <v>163</v>
+        <v>157</v>
       </c>
       <c r="F37" s="13">
         <v>4275</v>
       </c>
       <c r="G37" s="12" t="s">
-        <v>224</v>
+        <v>218</v>
       </c>
       <c r="H37" s="13">
         <v>4190</v>
@@ -9004,27 +8918,27 @@
         <v>-1.9883040935672516E-2</v>
       </c>
       <c r="J37" s="5" t="s">
-        <v>242</v>
+        <v>236</v>
       </c>
     </row>
     <row r="38" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B38" s="4" t="s">
+        <v>152</v>
+      </c>
+      <c r="C38" s="12" t="s">
         <v>158</v>
       </c>
-      <c r="C38" s="12" t="s">
-        <v>164</v>
-      </c>
       <c r="D38" s="5" t="s">
-        <v>160</v>
+        <v>154</v>
       </c>
       <c r="E38" s="12" t="s">
-        <v>163</v>
+        <v>157</v>
       </c>
       <c r="F38" s="13">
         <v>27750</v>
       </c>
       <c r="G38" s="12" t="s">
-        <v>224</v>
+        <v>218</v>
       </c>
       <c r="H38" s="13">
         <v>28368</v>
@@ -9034,27 +8948,27 @@
         <v>2.227027027027027E-2</v>
       </c>
       <c r="J38" s="5" t="s">
-        <v>242</v>
+        <v>236</v>
       </c>
     </row>
     <row r="39" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B39" s="4" t="s">
-        <v>158</v>
+        <v>152</v>
       </c>
       <c r="C39" s="12" t="s">
-        <v>165</v>
+        <v>159</v>
       </c>
       <c r="D39" s="5" t="s">
-        <v>161</v>
+        <v>155</v>
       </c>
       <c r="E39" s="12" t="s">
-        <v>163</v>
+        <v>157</v>
       </c>
       <c r="F39" s="13">
         <v>9690</v>
       </c>
       <c r="G39" s="12" t="s">
-        <v>224</v>
+        <v>218</v>
       </c>
       <c r="H39" s="13">
         <v>9891</v>
@@ -9064,27 +8978,27 @@
         <v>2.0743034055727555E-2</v>
       </c>
       <c r="J39" s="5" t="s">
-        <v>242</v>
+        <v>236</v>
       </c>
     </row>
     <row r="40" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B40" s="4" t="s">
-        <v>225</v>
+        <v>219</v>
       </c>
       <c r="C40" s="12" t="s">
-        <v>166</v>
+        <v>160</v>
       </c>
       <c r="D40" s="5" t="s">
-        <v>162</v>
+        <v>156</v>
       </c>
       <c r="E40" s="12" t="s">
-        <v>163</v>
+        <v>157</v>
       </c>
       <c r="F40" s="13">
         <v>10088</v>
       </c>
       <c r="G40" s="12" t="s">
-        <v>224</v>
+        <v>218</v>
       </c>
       <c r="H40" s="13">
         <v>10400</v>
@@ -9094,7 +9008,7 @@
         <v>3.0927835051546393E-2</v>
       </c>
       <c r="J40" s="5" t="s">
-        <v>242</v>
+        <v>236</v>
       </c>
     </row>
     <row r="41" spans="2:10" x14ac:dyDescent="0.3">
@@ -9110,22 +9024,22 @@
     </row>
     <row r="42" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B42" s="4" t="s">
-        <v>225</v>
+        <v>219</v>
       </c>
       <c r="C42" s="12" t="s">
-        <v>229</v>
+        <v>223</v>
       </c>
       <c r="D42" s="5" t="s">
-        <v>228</v>
+        <v>222</v>
       </c>
       <c r="E42" s="12" t="s">
-        <v>223</v>
+        <v>217</v>
       </c>
       <c r="F42" s="13">
         <v>11000</v>
       </c>
       <c r="G42" s="12" t="s">
-        <v>230</v>
+        <v>224</v>
       </c>
       <c r="H42" s="13">
         <v>11150</v>
@@ -9135,27 +9049,27 @@
         <v>1.3636363636363636E-2</v>
       </c>
       <c r="J42" s="5" t="s">
-        <v>242</v>
+        <v>236</v>
       </c>
     </row>
     <row r="43" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B43" s="4" t="s">
-        <v>225</v>
+        <v>219</v>
       </c>
       <c r="C43" s="12" t="s">
-        <v>227</v>
+        <v>221</v>
       </c>
       <c r="D43" s="5" t="s">
-        <v>226</v>
+        <v>220</v>
       </c>
       <c r="E43" s="12" t="s">
-        <v>223</v>
+        <v>217</v>
       </c>
       <c r="F43" s="13">
         <v>34205</v>
       </c>
       <c r="G43" s="12" t="s">
-        <v>230</v>
+        <v>224</v>
       </c>
       <c r="H43" s="13">
         <v>37176</v>
@@ -9165,7 +9079,7 @@
         <v>8.6858646396725622E-2</v>
       </c>
       <c r="J43" s="5" t="s">
-        <v>242</v>
+        <v>236</v>
       </c>
     </row>
     <row r="44" spans="2:10" x14ac:dyDescent="0.3">
@@ -9181,22 +9095,22 @@
     </row>
     <row r="45" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B45" s="4" t="s">
-        <v>225</v>
+        <v>219</v>
       </c>
       <c r="C45" s="12" t="s">
-        <v>229</v>
+        <v>223</v>
       </c>
       <c r="D45" s="5" t="s">
-        <v>228</v>
+        <v>222</v>
       </c>
       <c r="E45" s="12" t="s">
-        <v>230</v>
+        <v>224</v>
       </c>
       <c r="F45" s="13">
         <v>11458</v>
       </c>
       <c r="G45" s="12" t="s">
-        <v>235</v>
+        <v>229</v>
       </c>
       <c r="H45" s="13">
         <v>11299</v>
@@ -9206,27 +9120,27 @@
         <v>-1.3876767324140339E-2</v>
       </c>
       <c r="J45" s="5" t="s">
-        <v>242</v>
+        <v>236</v>
       </c>
     </row>
     <row r="46" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B46" s="4" t="s">
-        <v>233</v>
+        <v>227</v>
       </c>
       <c r="C46" s="12" t="s">
-        <v>232</v>
+        <v>226</v>
       </c>
       <c r="D46" s="5" t="s">
-        <v>231</v>
+        <v>225</v>
       </c>
       <c r="E46" s="12" t="s">
-        <v>230</v>
+        <v>224</v>
       </c>
       <c r="F46" s="13">
         <v>25750</v>
       </c>
       <c r="G46" s="12" t="s">
-        <v>235</v>
+        <v>229</v>
       </c>
       <c r="H46" s="13">
         <v>24800</v>
@@ -9236,7 +9150,7 @@
         <v>-3.6893203883495145E-2</v>
       </c>
       <c r="J46" s="5" t="s">
-        <v>242</v>
+        <v>236</v>
       </c>
     </row>
     <row r="47" spans="2:10" x14ac:dyDescent="0.3">
@@ -9255,22 +9169,22 @@
     </row>
     <row r="48" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B48" s="4" t="s">
-        <v>158</v>
+        <v>152</v>
       </c>
       <c r="C48" s="12" t="s">
-        <v>244</v>
+        <v>238</v>
       </c>
       <c r="D48" s="5" t="s">
-        <v>243</v>
+        <v>237</v>
       </c>
       <c r="E48" s="12" t="s">
-        <v>235</v>
+        <v>229</v>
       </c>
       <c r="F48" s="13">
         <v>2842</v>
       </c>
       <c r="G48" s="12" t="s">
-        <v>253</v>
+        <v>246</v>
       </c>
       <c r="H48" s="13"/>
       <c r="I48" s="14" t="str">
@@ -9278,27 +9192,27 @@
         <v/>
       </c>
       <c r="J48" s="5" t="s">
-        <v>242</v>
+        <v>236</v>
       </c>
     </row>
     <row r="49" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B49" s="4" t="s">
-        <v>158</v>
+        <v>152</v>
       </c>
       <c r="C49" s="12" t="s">
-        <v>247</v>
+        <v>240</v>
       </c>
       <c r="D49" s="5" t="s">
-        <v>248</v>
+        <v>241</v>
       </c>
       <c r="E49" s="12" t="s">
-        <v>235</v>
+        <v>229</v>
       </c>
       <c r="F49" s="13">
         <v>44350</v>
       </c>
       <c r="G49" s="12" t="s">
-        <v>253</v>
+        <v>246</v>
       </c>
       <c r="H49" s="13"/>
       <c r="I49" s="14" t="str">
@@ -9306,27 +9220,27 @@
         <v/>
       </c>
       <c r="J49" s="5" t="s">
-        <v>242</v>
+        <v>236</v>
       </c>
     </row>
     <row r="50" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B50" s="4" t="s">
-        <v>158</v>
+        <v>152</v>
       </c>
       <c r="C50" s="12" t="s">
-        <v>249</v>
+        <v>242</v>
       </c>
       <c r="D50" s="5" t="s">
-        <v>250</v>
+        <v>243</v>
       </c>
       <c r="E50" s="12" t="s">
-        <v>235</v>
+        <v>229</v>
       </c>
       <c r="F50" s="13">
         <v>4665</v>
       </c>
       <c r="G50" s="12" t="s">
-        <v>253</v>
+        <v>246</v>
       </c>
       <c r="H50" s="13"/>
       <c r="I50" s="14" t="str">
@@ -9334,27 +9248,27 @@
         <v/>
       </c>
       <c r="J50" s="5" t="s">
-        <v>242</v>
+        <v>236</v>
       </c>
     </row>
     <row r="51" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B51" s="4" t="s">
+        <v>239</v>
+      </c>
+      <c r="C51" s="12" t="s">
+        <v>244</v>
+      </c>
+      <c r="D51" s="5" t="s">
         <v>245</v>
       </c>
-      <c r="C51" s="12" t="s">
-        <v>251</v>
-      </c>
-      <c r="D51" s="5" t="s">
-        <v>252</v>
-      </c>
       <c r="E51" s="12" t="s">
-        <v>235</v>
+        <v>229</v>
       </c>
       <c r="F51" s="13">
         <v>9180</v>
       </c>
       <c r="G51" s="12" t="s">
-        <v>253</v>
+        <v>246</v>
       </c>
       <c r="H51" s="13"/>
       <c r="I51" s="14" t="str">
@@ -9362,7 +9276,7 @@
         <v/>
       </c>
       <c r="J51" s="5" t="s">
-        <v>242</v>
+        <v>236</v>
       </c>
     </row>
     <row r="52" spans="2:10" x14ac:dyDescent="0.3">
@@ -9721,184 +9635,67 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:H23"/>
+  <dimension ref="B2:E8"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="F17" sqref="F17"/>
+      <selection activeCell="F16" sqref="F16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="3" max="3" width="10.5" customWidth="1"/>
+    <col min="4" max="4" width="9.75" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="2" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B2" s="26">
-        <v>8</v>
-      </c>
-      <c r="C2" s="27"/>
-      <c r="D2" s="27"/>
-      <c r="E2" s="27"/>
-      <c r="F2" s="27"/>
-      <c r="G2" s="27"/>
-      <c r="H2" s="27"/>
-    </row>
-    <row r="3" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B3" s="26">
-        <v>7</v>
-      </c>
-      <c r="C3" s="27"/>
-      <c r="D3" s="27"/>
-      <c r="E3" s="27"/>
-      <c r="F3" s="27"/>
-      <c r="G3" s="27"/>
-      <c r="H3" s="27"/>
-    </row>
-    <row r="4" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B4" s="26">
-        <v>6</v>
-      </c>
-      <c r="C4" s="27"/>
-      <c r="D4" s="27"/>
-      <c r="E4" s="27"/>
-      <c r="F4" s="27"/>
-      <c r="G4" s="27"/>
-      <c r="H4" s="27"/>
-    </row>
-    <row r="5" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B5" s="26">
-        <v>5</v>
-      </c>
-      <c r="C5" s="27"/>
-      <c r="D5" s="27"/>
-      <c r="E5" s="27"/>
-      <c r="F5" s="28"/>
-      <c r="G5" s="27"/>
-      <c r="H5" s="27"/>
-    </row>
-    <row r="6" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B6" s="26">
-        <v>4</v>
-      </c>
-      <c r="C6" s="27"/>
-      <c r="D6" s="27"/>
-      <c r="E6" s="28"/>
-      <c r="F6" s="27"/>
-      <c r="G6" s="28"/>
-      <c r="H6" s="27"/>
-    </row>
-    <row r="7" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B7" s="26">
-        <v>3</v>
-      </c>
-      <c r="C7" s="27"/>
-      <c r="D7" s="28"/>
-      <c r="E7" s="27"/>
-      <c r="F7" s="27"/>
-      <c r="G7" s="27"/>
-      <c r="H7" s="28"/>
-    </row>
-    <row r="8" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B8" s="26">
-        <v>2</v>
-      </c>
-      <c r="C8" s="28"/>
-      <c r="D8" s="27"/>
-      <c r="E8" s="27"/>
-      <c r="F8" s="27"/>
-      <c r="G8" s="27"/>
-      <c r="H8" s="27"/>
-    </row>
-    <row r="9" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B9" s="26">
-        <v>1</v>
-      </c>
-      <c r="C9" s="28"/>
-      <c r="D9" s="27"/>
-      <c r="E9" s="27"/>
-      <c r="F9" s="27"/>
-      <c r="G9" s="27"/>
-      <c r="H9" s="27"/>
-    </row>
-    <row r="10" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B10" s="29">
-        <v>-1</v>
-      </c>
-      <c r="C10" s="30"/>
-      <c r="D10" s="27"/>
-      <c r="E10" s="27"/>
-      <c r="F10" s="27"/>
-      <c r="G10" s="27"/>
-      <c r="H10" s="27"/>
-    </row>
-    <row r="11" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B11" s="29">
-        <v>-2</v>
-      </c>
-      <c r="C11" s="30"/>
-      <c r="D11" s="27"/>
-      <c r="E11" s="27"/>
-      <c r="F11" s="27"/>
-      <c r="G11" s="27"/>
-      <c r="H11" s="27"/>
-    </row>
-    <row r="12" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B12" s="29">
-        <v>-3</v>
-      </c>
-      <c r="C12" s="27"/>
-      <c r="D12" s="27"/>
-      <c r="E12" s="27"/>
-      <c r="F12" s="27"/>
-      <c r="G12" s="27"/>
-      <c r="H12" s="27"/>
-    </row>
-    <row r="13" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B13" s="29">
-        <v>-4</v>
-      </c>
-      <c r="C13" s="27"/>
-      <c r="D13" s="27"/>
-      <c r="E13" s="27"/>
-      <c r="F13" s="27"/>
-      <c r="G13" s="27"/>
-      <c r="H13" s="27"/>
-    </row>
-    <row r="16" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B16" s="31" t="s">
+    <row r="2" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B2" s="26" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="17" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="C17" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="18" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="D18" t="s">
+    <row r="3" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="C3" t="s">
+        <v>250</v>
+      </c>
+      <c r="D3" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="4" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="C4" t="s">
+        <v>248</v>
+      </c>
+      <c r="D4" t="s">
+        <v>251</v>
+      </c>
+      <c r="E4" s="55">
+        <v>0.03</v>
+      </c>
+    </row>
+    <row r="5" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="C5" t="s">
+        <v>252</v>
+      </c>
+      <c r="D5" t="s">
+        <v>251</v>
+      </c>
+      <c r="E5" s="55">
+        <v>0.02</v>
+      </c>
+    </row>
+    <row r="6" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="C6" t="s">
+        <v>253</v>
+      </c>
+      <c r="D6" t="s">
+        <v>251</v>
+      </c>
+      <c r="E6" s="55">
+        <v>0.02</v>
+      </c>
+    </row>
+    <row r="8" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B8" s="26" t="s">
         <v>114</v>
-      </c>
-    </row>
-    <row r="19" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B19" s="31" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="20" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="C20" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="21" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="D21" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="22" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="D22" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="23" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="D23" t="s">
-        <v>119</v>
       </c>
     </row>
   </sheetData>

--- a/WorkShop/01.docs/01.초기학습.xlsx
+++ b/WorkShop/01.docs/01.초기학습.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11850" activeTab="4"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11850" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="00.참고" sheetId="2" r:id="rId1"/>
@@ -18,11 +18,13 @@
     <sheet name="02.원칙" sheetId="4" r:id="rId4"/>
     <sheet name="03.모의투자" sheetId="3" r:id="rId5"/>
     <sheet name="04.스탑로스" sheetId="5" r:id="rId6"/>
+    <sheet name="Sheet1" sheetId="8" r:id="rId7"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'01-1.지수'!$B$1:$E$9</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">'02.원칙'!$B$2:$E$2</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">'02.원칙'!$B$2:$F$7</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">'03.모의투자'!$B$2:$J$75</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="6" hidden="1">Sheet1!$B$4:$G$27</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
   <extLst>
@@ -34,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="411" uniqueCount="254">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="523" uniqueCount="325">
   <si>
     <t>사이트명</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -717,15 +719,6 @@
       <t xml:space="preserve">
   - SAR = 전일SAR + (가속변수 * (최고가혹은최저가 - 전일 SAR))</t>
     </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1. 전고점 돌파
-2. 1봉전 윗꼬리가 달린 장대양봉
-3. 1봉전 장대양봉이 0봉전 캔들을 감싸는 형태
-4. 0봉전 거래량 &lt;= 1봉전 거래량/4
-5. 모멘텀(주가가 상승/하락 하는-움직이는 경향) 존재
-6. 외인/기관 매수량</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -992,10 +985,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>용식_종가매매_눌림목_V0.01</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>https://www.youtube.com/watch?v=258D9JM8CP8</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1515,6 +1504,52 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>이익실현</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>매입단가</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>감시기준가</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>기준가대비</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>이익보존</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>손실제한</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>사용</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>N</t>
+  </si>
+  <si>
+    <t>Y</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>* 기본적으로 세력주중에 모멘텀이 있고 외국인+기관의 매수세가 있는 종목.</t>
+    </r>
     <r>
       <rPr>
         <b/>
@@ -1525,7 +1560,8 @@
         <charset val="129"/>
         <scheme val="minor"/>
       </rPr>
-      <t>&lt;A. 기본조건검색식&gt;</t>
+      <t xml:space="preserve">
+&lt;A. 기본조건검색식&gt;</t>
     </r>
     <r>
       <rPr>
@@ -1537,10 +1573,10 @@
         <scheme val="minor"/>
       </rPr>
       <t xml:space="preserve">
-  1. 당일거래량이 높고 최근 시장주도주나 대장주 종목
-  2. 당일과 최근5거래일이내 기관/외인의 수급이 좋은 종목
-  3. 개인주체의 테마성 제외( 예:반기문주, …..)
-  4. 전날 혹은 당일 증권방송 및 증권사 추천종목중 5거래일 기관의 수급이 좋은 종목
+  1. 시가총액:현재가기준 1000십억원 이하
+  2. 기간내 등락률:[일]0봉전 7봉이내에서 전일종가대비종가 10% 이상
+  3. 기간내 거래대금:[일]0봉전 7봉이내 거래대금 30000이상 1회 이상
+  4. 외국인+기관 순매수[당일 잠정치] 10000주 이상 99999999주 이하
   </t>
     </r>
     <r>
@@ -1598,27 +1634,418 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>이익실현</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>매입단가</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>감시기준가</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>기준가대비</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>이익보존</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>손실제한</t>
+    <t>용식_이평눌림목매매_V0.02</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>* 주가가 이평선 최근5일이내 아래로 떨어졌다 금일 상향돌파한 종목.</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+&lt;A. 기본조건검색식&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+  A. 주가범위:0일전 종가가 1000 이상 99999999 이하 ==&gt;&gt; 동전주 제거.
+  D. 상세이평돌파:[일]1봉전 지수(종가 1 )이평이 지수(종가 5)이평을 5봉이내 데드크로스 1회이상
+  E. 상세이평돌파:[일]0봉전 지수(종가 1 )이평이 지수(종가 5)이평을 1봉이내 골든크로스 1회이상
+  F. 상세이평돌파:[일]1봉전 지수(종가 1 )이평이 지수(종가 20)이평을 5봉이내 데드크로스 1회이상
+  G. 상세이평돌파:[일]0봉전 지수(종가 1 )이평이 지수(종가 20)이평을 1봉이내 골든크로스 1회이상
+  H. 상세이평돌파:[일]1봉전 지수(종가 1 )이평이 지수(종가 60)이평을 5봉이내 데드크로스 1회이상
+  I. 상세이평돌파:[일]0봉전 지수(종가 1 )이평이 지수(종가 60)이평을 1봉이내 골든크로스 1회이상
+  J. 주가등락률:[일]1봉전(중) 종가대비 0봉전 종가등락률 3.5%이상
+  K. 주가돌파:[일]0봉(전) (고+저)/2를 현재가가 상향돌파 ==&gt;&gt; 금일종가에도 힘을 받는중인지 체크.
+  L. 최고종가:[일]0봉전 고가가 5봉중 최고종가
+  M. [일]0봉전 5봉중 신고거래량
+  N. [일]거래량:100000이상 999999999이하
+  O. [일]0봉전 5봉 평균거래량 100000이상 999999999이하 
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">  * A and ((B and C) or (D and E) or (F and G) or (H and I)) and J and K and (L or M) and (N or O) 
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">&lt;B. 검색후체크사항&gt;
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">  1. 기업재무현황 - 매출, 영업이익, 당기순이익 체크.
+  2. 외인/기관의 당일 순매수 체크.
+  3. 차트의 모양 체크.
+  4. 지표시뮬레이션 - 절반이상의 지표가 매수를 권장하는지 체크.
+  5. 3분봉차트로 조회하여 상승추세임을 체크.</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2020-02-17</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2020-02-18</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>와이지엔터테인먼트</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>제로투세븐</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>159580</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>122870</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>064820</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>케이프</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>클리오</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>237880</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>D-2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>D-3</t>
+  </si>
+  <si>
+    <t>D-4</t>
+  </si>
+  <si>
+    <t>D-5</t>
+  </si>
+  <si>
+    <t>미코</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>기법</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>종목</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>고가</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>성공여부</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>저가</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>목표일자</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>지엔코</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>쏠리드</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>에이스테크</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>에이프로젠 KIC</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>에치에프알</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>고가 커트라인</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>성공건수</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>성공률</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>D-6</t>
+  </si>
+  <si>
+    <t>케이피에스</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>셀리버리</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>저가 커트라인</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>목표가</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>D-7</t>
+  </si>
+  <si>
+    <t>남선알미늄</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>코리아서키트</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>티앤알바이오팹</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>신라에스지</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>씨아이에스</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>삼화콘덴서</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>삼화콘덴서</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>쏠리드</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>KH바텍</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>장전시간외매매(종목의 전일종가(기준가)로거래)</t>
+  </si>
+  <si>
+    <t>동시호가(주문만 접수가능)</t>
+  </si>
+  <si>
+    <t>08:00~09:00 (체결은 9시정규 시장부터~)</t>
+  </si>
+  <si>
+    <t>정규시장</t>
+  </si>
+  <si>
+    <t>시간외단일가거래 (10분단위 체결)</t>
+  </si>
+  <si>
+    <t>09:00~15:30 (15:20분부터 동시호가)    (실시간 체결)</t>
+  </si>
+  <si>
+    <t>거래시간</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>15:30~16:00 (당일 종가로 거래) </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>07:30~08:30 (보통 7:20분부터 주문 접수가능) </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>16:00~18:00 정규시장 당일종가 ± 10% 이내. (당일 정규시장 가격제한폭 이내)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>용식_지표조합_A_V0.01</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>용식_지표조합_A_V0.01</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>019170</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>신풍제약</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>214450</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>파마리서치프로덕트</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2020-02-19</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>장후시간외거래 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>D-1</t>
+  </si>
+  <si>
+    <t>D-1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>초록뱀</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>케이사인</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>세원</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>* 기본적인 수급이 받쳐지는 대상건 중에서 각종 지표를 조합하여 종목검색.</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+&lt;A. 기본조건검색식&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+K [일]0봉전 Bollinger Band(20,2) 종가가 상한선 상향돌파
+A [일]0봉전 ROC(10) 0 상향돌파
+B [일]0봉전 Stochastic slow(12,5,5) %K, %D 상향돌파
+C [일]0봉전 Parabolic(0.02,0.2) 종가가 Parabolic을 상향돌파
+D 시가총액:현재가기준 1000십억원 이하
+E 기간내 등락률:[일]0봉전 7봉이내에서 전일종가대비종가 7% 이상
+F 기간내 거래대금:[일]0봉전 7봉이내 거래대금 20000이상 1회 이상
+I 0일전 기준 5일 누적 기관 순매수 100백만원 이상
+J 0일전 기준 5일 누적 외국인 순매수 100백만원 이상
+(K or A or B or C) and D and E and F and (I or J)</t>
+    </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1626,8 +2053,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <numFmts count="1">
+  <numFmts count="2">
     <numFmt numFmtId="176" formatCode="&quot;₩&quot;#,##0"/>
+    <numFmt numFmtId="177" formatCode="0.00_ "/>
   </numFmts>
   <fonts count="11" x14ac:knownFonts="1">
     <font>
@@ -1737,7 +2165,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="8">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -1830,13 +2258,22 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="56">
+  <cellXfs count="67">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1975,17 +2412,47 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="49" fontId="4" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="4" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="8" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="8" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="8" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -1999,17 +2466,163 @@
     <xf numFmtId="49" fontId="8" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="49" fontId="8" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="8" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="49" fontId="8" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="표준" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="2">
+  <dxfs count="25">
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FF0070C0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF0070C0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FF0070C0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF0070C0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF0070C0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF0070C0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FF0070C0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF0070C0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FF0070C0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FF0070C0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FF0070C0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FF0070C0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
     <dxf>
       <font>
         <b/>
@@ -6207,13 +6820,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:D34"/>
+  <dimension ref="B1:G34"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B5" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="C36" sqref="C36"/>
+      <selection pane="bottomRight" activeCell="F17" sqref="F17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="12" x14ac:dyDescent="0.3"/>
@@ -6221,11 +6834,14 @@
     <col min="1" max="1" width="7.25" style="1" customWidth="1"/>
     <col min="2" max="2" width="31.875" style="1" customWidth="1"/>
     <col min="3" max="3" width="31.5" style="1" customWidth="1"/>
-    <col min="4" max="4" width="102.875" style="2" customWidth="1"/>
-    <col min="5" max="16384" width="9" style="1"/>
+    <col min="4" max="4" width="56.125" style="2" customWidth="1"/>
+    <col min="5" max="5" width="4.25" style="1" customWidth="1"/>
+    <col min="6" max="6" width="36.625" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="55.625" style="1" customWidth="1"/>
+    <col min="8" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B1" s="3" t="s">
         <v>0</v>
       </c>
@@ -6235,8 +6851,12 @@
       <c r="D1" s="3" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="F1" s="56" t="s">
+        <v>307</v>
+      </c>
+      <c r="G1" s="57"/>
+    </row>
+    <row r="2" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B2" s="4" t="s">
         <v>53</v>
       </c>
@@ -6246,8 +6866,14 @@
       <c r="D2" s="20" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="3" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="F2" s="4" t="s">
+        <v>301</v>
+      </c>
+      <c r="G2" s="4" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="3" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B3" s="21" t="s">
         <v>56</v>
       </c>
@@ -6255,8 +6881,14 @@
         <v>57</v>
       </c>
       <c r="D3" s="20"/>
-    </row>
-    <row r="4" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="F3" s="4" t="s">
+        <v>302</v>
+      </c>
+      <c r="G3" s="4" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="4" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B4" s="21" t="s">
         <v>58</v>
       </c>
@@ -6266,8 +6898,14 @@
       <c r="D4" s="20" t="s">
         <v>60</v>
       </c>
-    </row>
-    <row r="5" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="F4" s="4" t="s">
+        <v>304</v>
+      </c>
+      <c r="G4" s="4" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="5" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B5" s="21" t="s">
         <v>61</v>
       </c>
@@ -6277,8 +6915,14 @@
       <c r="D5" s="20" t="s">
         <v>63</v>
       </c>
-    </row>
-    <row r="6" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="F5" s="4" t="s">
+        <v>318</v>
+      </c>
+      <c r="G5" s="4" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="6" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B6" s="21" t="s">
         <v>35</v>
       </c>
@@ -6288,8 +6932,14 @@
       <c r="D6" s="20" t="s">
         <v>63</v>
       </c>
-    </row>
-    <row r="7" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="F6" s="4" t="s">
+        <v>305</v>
+      </c>
+      <c r="G6" s="4" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="7" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B7" s="21" t="s">
         <v>64</v>
       </c>
@@ -6300,7 +6950,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="8" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="8" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B8" s="4" t="s">
         <v>66</v>
       </c>
@@ -6311,7 +6961,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="9" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="9" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B9" s="4" t="s">
         <v>69</v>
       </c>
@@ -6322,7 +6972,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="10" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="10" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B10" s="4" t="s">
         <v>71</v>
       </c>
@@ -6333,38 +6983,38 @@
         <v>63</v>
       </c>
     </row>
-    <row r="11" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="11" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B11" s="4" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="C11" s="22" t="s">
+        <v>146</v>
+      </c>
+      <c r="D11" s="5" t="s">
         <v>148</v>
       </c>
-      <c r="D11" s="5" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="12" spans="2:4" x14ac:dyDescent="0.3">
+    </row>
+    <row r="12" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B12" s="4"/>
       <c r="C12" s="4"/>
       <c r="D12" s="5"/>
     </row>
-    <row r="13" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="13" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B13" s="4"/>
       <c r="C13" s="4"/>
       <c r="D13" s="5"/>
     </row>
-    <row r="14" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="14" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B14" s="4"/>
       <c r="C14" s="4"/>
       <c r="D14" s="5"/>
     </row>
-    <row r="15" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="15" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B15" s="4"/>
       <c r="C15" s="4"/>
       <c r="D15" s="5"/>
     </row>
-    <row r="16" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="16" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B16" s="4"/>
       <c r="C16" s="4"/>
       <c r="D16" s="5"/>
@@ -6460,6 +7110,9 @@
       <c r="D34" s="5"/>
     </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="F1:G1"/>
+  </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -6470,7 +7123,7 @@
   <dimension ref="B1:E43"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B17" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
       <selection pane="bottomRight" activeCell="E8" sqref="E8"/>
@@ -6486,20 +7139,20 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B1" s="46" t="s">
+      <c r="B1" s="58" t="s">
         <v>124</v>
       </c>
-      <c r="C1" s="47"/>
-      <c r="D1" s="46" t="s">
+      <c r="C1" s="59"/>
+      <c r="D1" s="58" t="s">
         <v>87</v>
       </c>
-      <c r="E1" s="47"/>
+      <c r="E1" s="59"/>
     </row>
     <row r="2" spans="2:5" ht="24" x14ac:dyDescent="0.3">
-      <c r="B2" s="50" t="s">
+      <c r="B2" s="60" t="s">
         <v>125</v>
       </c>
-      <c r="C2" s="51"/>
+      <c r="C2" s="61"/>
       <c r="D2" s="29" t="s">
         <v>127</v>
       </c>
@@ -6508,8 +7161,8 @@
       </c>
     </row>
     <row r="3" spans="2:5" ht="24" x14ac:dyDescent="0.3">
-      <c r="B3" s="52"/>
-      <c r="C3" s="53"/>
+      <c r="B3" s="62"/>
+      <c r="C3" s="63"/>
       <c r="D3" s="29" t="s">
         <v>128</v>
       </c>
@@ -6518,10 +7171,10 @@
       </c>
     </row>
     <row r="4" spans="2:5" ht="48" x14ac:dyDescent="0.3">
-      <c r="B4" s="50" t="s">
+      <c r="B4" s="60" t="s">
         <v>126</v>
       </c>
-      <c r="C4" s="51"/>
+      <c r="C4" s="61"/>
       <c r="D4" s="29" t="s">
         <v>127</v>
       </c>
@@ -6530,8 +7183,8 @@
       </c>
     </row>
     <row r="5" spans="2:5" ht="96" x14ac:dyDescent="0.3">
-      <c r="B5" s="52"/>
-      <c r="C5" s="53"/>
+      <c r="B5" s="62"/>
+      <c r="C5" s="63"/>
       <c r="D5" s="29" t="s">
         <v>128</v>
       </c>
@@ -6540,10 +7193,10 @@
       </c>
     </row>
     <row r="6" spans="2:5" ht="72" x14ac:dyDescent="0.3">
-      <c r="B6" s="50" t="s">
+      <c r="B6" s="60" t="s">
         <v>135</v>
       </c>
-      <c r="C6" s="51"/>
+      <c r="C6" s="61"/>
       <c r="D6" s="29" t="s">
         <v>127</v>
       </c>
@@ -6552,8 +7205,8 @@
       </c>
     </row>
     <row r="7" spans="2:5" ht="84" x14ac:dyDescent="0.3">
-      <c r="B7" s="52"/>
-      <c r="C7" s="53"/>
+      <c r="B7" s="62"/>
+      <c r="C7" s="63"/>
       <c r="D7" s="29" t="s">
         <v>128</v>
       </c>
@@ -6562,10 +7215,10 @@
       </c>
     </row>
     <row r="8" spans="2:5" ht="96" x14ac:dyDescent="0.3">
-      <c r="B8" s="54" t="s">
+      <c r="B8" s="66" t="s">
         <v>136</v>
       </c>
-      <c r="C8" s="51"/>
+      <c r="C8" s="61"/>
       <c r="D8" s="29" t="s">
         <v>127</v>
       </c>
@@ -6574,8 +7227,8 @@
       </c>
     </row>
     <row r="9" spans="2:5" ht="60" x14ac:dyDescent="0.3">
-      <c r="B9" s="52"/>
-      <c r="C9" s="53"/>
+      <c r="B9" s="62"/>
+      <c r="C9" s="63"/>
       <c r="D9" s="29" t="s">
         <v>128</v>
       </c>
@@ -6584,226 +7237,226 @@
       </c>
     </row>
     <row r="10" spans="2:5" ht="60" x14ac:dyDescent="0.3">
-      <c r="B10" s="50" t="s">
+      <c r="B10" s="60" t="s">
         <v>133</v>
       </c>
-      <c r="C10" s="51"/>
+      <c r="C10" s="61"/>
       <c r="D10" s="29" t="s">
         <v>127</v>
       </c>
       <c r="E10" s="33" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="11" spans="2:5" ht="142.15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B11" s="52"/>
-      <c r="C11" s="53"/>
+      <c r="B11" s="62"/>
+      <c r="C11" s="63"/>
       <c r="D11" s="29" t="s">
         <v>128</v>
       </c>
       <c r="E11" s="30" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
     </row>
     <row r="12" spans="2:5" ht="24" x14ac:dyDescent="0.3">
-      <c r="B12" s="50" t="s">
-        <v>143</v>
-      </c>
-      <c r="C12" s="51"/>
+      <c r="B12" s="60" t="s">
+        <v>142</v>
+      </c>
+      <c r="C12" s="61"/>
       <c r="D12" s="29" t="s">
         <v>127</v>
       </c>
       <c r="E12" s="33" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
     <row r="13" spans="2:5" ht="36" x14ac:dyDescent="0.3">
-      <c r="B13" s="52"/>
-      <c r="C13" s="53"/>
+      <c r="B13" s="62"/>
+      <c r="C13" s="63"/>
       <c r="D13" s="29" t="s">
         <v>128</v>
       </c>
       <c r="E13" s="30" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="14" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B14" s="48"/>
-      <c r="C14" s="49"/>
+      <c r="B14" s="64"/>
+      <c r="C14" s="65"/>
       <c r="D14" s="28"/>
       <c r="E14" s="31"/>
     </row>
     <row r="15" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B15" s="48"/>
-      <c r="C15" s="49"/>
+      <c r="B15" s="64"/>
+      <c r="C15" s="65"/>
       <c r="D15" s="28"/>
       <c r="E15" s="31"/>
     </row>
     <row r="16" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B16" s="48"/>
-      <c r="C16" s="49"/>
+      <c r="B16" s="64"/>
+      <c r="C16" s="65"/>
       <c r="D16" s="28"/>
       <c r="E16" s="31"/>
     </row>
     <row r="17" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B17" s="48"/>
-      <c r="C17" s="49"/>
+      <c r="B17" s="64"/>
+      <c r="C17" s="65"/>
       <c r="D17" s="28"/>
       <c r="E17" s="31"/>
     </row>
     <row r="18" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B18" s="48"/>
-      <c r="C18" s="49"/>
+      <c r="B18" s="64"/>
+      <c r="C18" s="65"/>
       <c r="D18" s="28"/>
       <c r="E18" s="31"/>
     </row>
     <row r="19" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B19" s="48"/>
-      <c r="C19" s="49"/>
+      <c r="B19" s="64"/>
+      <c r="C19" s="65"/>
       <c r="D19" s="28"/>
       <c r="E19" s="31"/>
     </row>
     <row r="20" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B20" s="48"/>
-      <c r="C20" s="49"/>
+      <c r="B20" s="64"/>
+      <c r="C20" s="65"/>
       <c r="D20" s="28"/>
       <c r="E20" s="31"/>
     </row>
     <row r="21" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B21" s="48"/>
-      <c r="C21" s="49"/>
+      <c r="B21" s="64"/>
+      <c r="C21" s="65"/>
       <c r="D21" s="28"/>
       <c r="E21" s="31"/>
     </row>
     <row r="22" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B22" s="48"/>
-      <c r="C22" s="49"/>
+      <c r="B22" s="64"/>
+      <c r="C22" s="65"/>
       <c r="D22" s="28"/>
       <c r="E22" s="31"/>
     </row>
     <row r="23" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B23" s="48"/>
-      <c r="C23" s="49"/>
+      <c r="B23" s="64"/>
+      <c r="C23" s="65"/>
       <c r="D23" s="28"/>
       <c r="E23" s="31"/>
     </row>
     <row r="24" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B24" s="48"/>
-      <c r="C24" s="49"/>
+      <c r="B24" s="64"/>
+      <c r="C24" s="65"/>
       <c r="D24" s="28"/>
       <c r="E24" s="31"/>
     </row>
     <row r="25" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B25" s="48"/>
-      <c r="C25" s="49"/>
+      <c r="B25" s="64"/>
+      <c r="C25" s="65"/>
       <c r="D25" s="28"/>
       <c r="E25" s="31"/>
     </row>
     <row r="26" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B26" s="48"/>
-      <c r="C26" s="49"/>
+      <c r="B26" s="64"/>
+      <c r="C26" s="65"/>
       <c r="D26" s="28"/>
       <c r="E26" s="31"/>
     </row>
     <row r="27" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B27" s="48"/>
-      <c r="C27" s="49"/>
+      <c r="B27" s="64"/>
+      <c r="C27" s="65"/>
       <c r="D27" s="28"/>
       <c r="E27" s="31"/>
     </row>
     <row r="28" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B28" s="48"/>
-      <c r="C28" s="49"/>
+      <c r="B28" s="64"/>
+      <c r="C28" s="65"/>
       <c r="D28" s="28"/>
       <c r="E28" s="31"/>
     </row>
     <row r="29" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B29" s="48"/>
-      <c r="C29" s="49"/>
+      <c r="B29" s="64"/>
+      <c r="C29" s="65"/>
       <c r="D29" s="28"/>
       <c r="E29" s="31"/>
     </row>
     <row r="30" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B30" s="48"/>
-      <c r="C30" s="49"/>
+      <c r="B30" s="64"/>
+      <c r="C30" s="65"/>
       <c r="D30" s="28"/>
       <c r="E30" s="31"/>
     </row>
     <row r="31" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B31" s="48"/>
-      <c r="C31" s="49"/>
+      <c r="B31" s="64"/>
+      <c r="C31" s="65"/>
       <c r="D31" s="28"/>
       <c r="E31" s="31"/>
     </row>
     <row r="32" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B32" s="48"/>
-      <c r="C32" s="49"/>
+      <c r="B32" s="64"/>
+      <c r="C32" s="65"/>
       <c r="D32" s="28"/>
       <c r="E32" s="31"/>
     </row>
     <row r="33" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B33" s="48"/>
-      <c r="C33" s="49"/>
+      <c r="B33" s="64"/>
+      <c r="C33" s="65"/>
       <c r="D33" s="28"/>
       <c r="E33" s="31"/>
     </row>
     <row r="34" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B34" s="48"/>
-      <c r="C34" s="49"/>
+      <c r="B34" s="64"/>
+      <c r="C34" s="65"/>
       <c r="D34" s="28"/>
       <c r="E34" s="31"/>
     </row>
     <row r="35" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B35" s="48"/>
-      <c r="C35" s="49"/>
+      <c r="B35" s="64"/>
+      <c r="C35" s="65"/>
       <c r="D35" s="28"/>
       <c r="E35" s="31"/>
     </row>
     <row r="36" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B36" s="48"/>
-      <c r="C36" s="49"/>
+      <c r="B36" s="64"/>
+      <c r="C36" s="65"/>
       <c r="D36" s="28"/>
       <c r="E36" s="31"/>
     </row>
     <row r="37" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B37" s="48"/>
-      <c r="C37" s="49"/>
+      <c r="B37" s="64"/>
+      <c r="C37" s="65"/>
       <c r="D37" s="28"/>
       <c r="E37" s="31"/>
     </row>
     <row r="38" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B38" s="48"/>
-      <c r="C38" s="49"/>
+      <c r="B38" s="64"/>
+      <c r="C38" s="65"/>
       <c r="D38" s="28"/>
       <c r="E38" s="31"/>
     </row>
     <row r="39" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B39" s="48"/>
-      <c r="C39" s="49"/>
+      <c r="B39" s="64"/>
+      <c r="C39" s="65"/>
       <c r="D39" s="28"/>
       <c r="E39" s="31"/>
     </row>
     <row r="40" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B40" s="48"/>
-      <c r="C40" s="49"/>
+      <c r="B40" s="64"/>
+      <c r="C40" s="65"/>
       <c r="D40" s="28"/>
       <c r="E40" s="31"/>
     </row>
     <row r="41" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B41" s="48"/>
-      <c r="C41" s="49"/>
+      <c r="B41" s="64"/>
+      <c r="C41" s="65"/>
       <c r="D41" s="28"/>
       <c r="E41" s="31"/>
     </row>
     <row r="42" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B42" s="48"/>
-      <c r="C42" s="49"/>
+      <c r="B42" s="64"/>
+      <c r="C42" s="65"/>
       <c r="D42" s="28"/>
       <c r="E42" s="31"/>
     </row>
     <row r="43" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B43" s="48"/>
-      <c r="C43" s="49"/>
+      <c r="B43" s="64"/>
+      <c r="C43" s="65"/>
       <c r="D43" s="28"/>
       <c r="E43" s="31"/>
     </row>
@@ -6813,6 +7466,28 @@
     <filterColumn colId="2" showButton="0"/>
   </autoFilter>
   <mergeCells count="38">
+    <mergeCell ref="B1:C1"/>
+    <mergeCell ref="B20:C20"/>
+    <mergeCell ref="B21:C21"/>
+    <mergeCell ref="B14:C14"/>
+    <mergeCell ref="B15:C15"/>
+    <mergeCell ref="B12:C13"/>
+    <mergeCell ref="B43:C43"/>
+    <mergeCell ref="B2:C3"/>
+    <mergeCell ref="B4:C5"/>
+    <mergeCell ref="B6:C7"/>
+    <mergeCell ref="B8:C9"/>
+    <mergeCell ref="B34:C34"/>
+    <mergeCell ref="B35:C35"/>
+    <mergeCell ref="B36:C36"/>
+    <mergeCell ref="B37:C37"/>
+    <mergeCell ref="B38:C38"/>
+    <mergeCell ref="B39:C39"/>
+    <mergeCell ref="B28:C28"/>
+    <mergeCell ref="B29:C29"/>
+    <mergeCell ref="B30:C30"/>
+    <mergeCell ref="B31:C31"/>
+    <mergeCell ref="B32:C32"/>
     <mergeCell ref="D1:E1"/>
     <mergeCell ref="B10:C11"/>
     <mergeCell ref="B40:C40"/>
@@ -6829,28 +7504,6 @@
     <mergeCell ref="B17:C17"/>
     <mergeCell ref="B18:C18"/>
     <mergeCell ref="B19:C19"/>
-    <mergeCell ref="B43:C43"/>
-    <mergeCell ref="B2:C3"/>
-    <mergeCell ref="B4:C5"/>
-    <mergeCell ref="B6:C7"/>
-    <mergeCell ref="B8:C9"/>
-    <mergeCell ref="B34:C34"/>
-    <mergeCell ref="B35:C35"/>
-    <mergeCell ref="B36:C36"/>
-    <mergeCell ref="B37:C37"/>
-    <mergeCell ref="B38:C38"/>
-    <mergeCell ref="B39:C39"/>
-    <mergeCell ref="B28:C28"/>
-    <mergeCell ref="B29:C29"/>
-    <mergeCell ref="B30:C30"/>
-    <mergeCell ref="B31:C31"/>
-    <mergeCell ref="B32:C32"/>
-    <mergeCell ref="B1:C1"/>
-    <mergeCell ref="B20:C20"/>
-    <mergeCell ref="B21:C21"/>
-    <mergeCell ref="B14:C14"/>
-    <mergeCell ref="B15:C15"/>
-    <mergeCell ref="B12:C13"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -6883,244 +7536,244 @@
   <sheetData>
     <row r="1" spans="2:6" s="8" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B1" s="3" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="E1" s="3" t="s">
         <v>127</v>
       </c>
       <c r="F1" s="3" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
     </row>
     <row r="2" spans="2:6" ht="72" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B2" s="39" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="C2" s="4"/>
       <c r="D2" s="37" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="E2" s="35" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="F2" s="35" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
     </row>
     <row r="3" spans="2:6" ht="72" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B3" s="40" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="C3" s="4"/>
       <c r="D3" s="37" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="E3" s="35" t="s">
+        <v>167</v>
+      </c>
+      <c r="F3" s="35" t="s">
         <v>169</v>
-      </c>
-      <c r="F3" s="35" t="s">
-        <v>171</v>
       </c>
     </row>
     <row r="4" spans="2:6" ht="72" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B4" s="41" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="C4" s="4"/>
       <c r="D4" s="37" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="E4" s="35" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="F4" s="35" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
     </row>
     <row r="5" spans="2:6" ht="72" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B5" s="41" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="C5" s="4"/>
       <c r="D5" s="37" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="E5" s="35" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="F5" s="35" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
     </row>
     <row r="6" spans="2:6" ht="72" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B6" s="34" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="C6" s="4"/>
       <c r="D6" s="38" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="E6" s="35" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="F6" s="35" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
     </row>
     <row r="7" spans="2:6" ht="72" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B7" s="36" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="C7" s="4"/>
       <c r="D7" s="38" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="E7" s="35" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="F7" s="35" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
     </row>
     <row r="8" spans="2:6" ht="72" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B8" s="36" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="C8" s="4"/>
       <c r="D8" s="38" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="E8" s="35" t="s">
+        <v>185</v>
+      </c>
+      <c r="F8" s="35" t="s">
         <v>187</v>
-      </c>
-      <c r="F8" s="35" t="s">
-        <v>189</v>
       </c>
     </row>
     <row r="9" spans="2:6" ht="72" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B9" s="36" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="C9" s="4"/>
       <c r="D9" s="38" t="s">
+        <v>189</v>
+      </c>
+      <c r="E9" s="35" t="s">
+        <v>190</v>
+      </c>
+      <c r="F9" s="35" t="s">
         <v>191</v>
-      </c>
-      <c r="E9" s="35" t="s">
-        <v>192</v>
-      </c>
-      <c r="F9" s="35" t="s">
-        <v>193</v>
       </c>
     </row>
     <row r="10" spans="2:6" ht="72" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B10" s="42" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="C10" s="4"/>
       <c r="D10" s="37" t="s">
+        <v>193</v>
+      </c>
+      <c r="E10" s="35" t="s">
+        <v>194</v>
+      </c>
+      <c r="F10" s="35" t="s">
         <v>195</v>
-      </c>
-      <c r="E10" s="35" t="s">
-        <v>196</v>
-      </c>
-      <c r="F10" s="35" t="s">
-        <v>197</v>
       </c>
     </row>
     <row r="11" spans="2:6" ht="72" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B11" s="42" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="C11" s="4"/>
       <c r="D11" s="37" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="E11" s="35" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="F11" s="35" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
     </row>
     <row r="12" spans="2:6" ht="72" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B12" s="42" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="C12" s="4"/>
       <c r="D12" s="37" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="E12" s="35" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="F12" s="35" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
     </row>
     <row r="13" spans="2:6" ht="72" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B13" s="42" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="C13" s="4"/>
       <c r="D13" s="37" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="E13" s="35" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="F13" s="35" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
     </row>
     <row r="14" spans="2:6" ht="72" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B14" s="34" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="C14" s="43"/>
       <c r="D14" s="38" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="E14" s="35" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="F14" s="35" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
     </row>
     <row r="15" spans="2:6" ht="72" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B15" s="34" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="C15" s="4"/>
       <c r="D15" s="38" t="s">
+        <v>209</v>
+      </c>
+      <c r="E15" s="35" t="s">
+        <v>210</v>
+      </c>
+      <c r="F15" s="35" t="s">
         <v>211</v>
-      </c>
-      <c r="E15" s="35" t="s">
-        <v>212</v>
-      </c>
-      <c r="F15" s="35" t="s">
-        <v>213</v>
       </c>
     </row>
     <row r="16" spans="2:6" ht="72" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B16" s="34" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="C16" s="4"/>
       <c r="D16" s="38" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="E16" s="35" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="F16" s="35" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
     </row>
     <row r="17" spans="2:6" ht="72" customHeight="1" x14ac:dyDescent="0.3">
@@ -7244,13 +7897,14 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:E101"/>
+  <sheetPr filterMode="1"/>
+  <dimension ref="B2:F101"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="2" topLeftCell="B7" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="D6" sqref="D6"/>
+      <selection pane="bottomRight" activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="12" x14ac:dyDescent="0.3"/>
@@ -7258,12 +7912,13 @@
     <col min="1" max="1" width="2.625" style="18" customWidth="1"/>
     <col min="2" max="2" width="8.375" style="19" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="26" style="19" customWidth="1"/>
-    <col min="4" max="4" width="112.125" style="24" customWidth="1"/>
-    <col min="5" max="5" width="81.75" style="24" customWidth="1"/>
-    <col min="6" max="16384" width="9" style="18"/>
+    <col min="4" max="4" width="9" style="19" customWidth="1"/>
+    <col min="5" max="5" width="103" style="24" customWidth="1"/>
+    <col min="6" max="6" width="81.75" style="24" customWidth="1"/>
+    <col min="7" max="16384" width="9" style="18"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:5" s="16" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="2:6" s="16" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B2" s="15" t="s">
         <v>10</v>
       </c>
@@ -7271,635 +7926,764 @@
         <v>11</v>
       </c>
       <c r="D2" s="15" t="s">
+        <v>251</v>
+      </c>
+      <c r="E2" s="15" t="s">
         <v>12</v>
       </c>
-      <c r="E2" s="15" t="s">
+      <c r="F2" s="15" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="2:5" ht="84" x14ac:dyDescent="0.3">
+    <row r="3" spans="2:6" ht="84" hidden="1" x14ac:dyDescent="0.3">
       <c r="B3" s="17" t="s">
         <v>94</v>
       </c>
       <c r="C3" s="17" t="s">
         <v>95</v>
       </c>
-      <c r="D3" s="25" t="s">
+      <c r="D3" s="47" t="s">
+        <v>252</v>
+      </c>
+      <c r="E3" s="25" t="s">
         <v>96</v>
       </c>
-      <c r="E3" s="23"/>
-    </row>
-    <row r="4" spans="2:5" ht="72" x14ac:dyDescent="0.3">
+      <c r="F3" s="23"/>
+    </row>
+    <row r="4" spans="2:6" ht="72" hidden="1" x14ac:dyDescent="0.3">
       <c r="B4" s="17" t="s">
         <v>94</v>
       </c>
       <c r="C4" s="17" t="s">
         <v>97</v>
       </c>
-      <c r="D4" s="25" t="s">
+      <c r="D4" s="47" t="s">
+        <v>252</v>
+      </c>
+      <c r="E4" s="25" t="s">
         <v>98</v>
       </c>
-      <c r="E4" s="23"/>
-    </row>
-    <row r="5" spans="2:5" ht="384" x14ac:dyDescent="0.3">
+      <c r="F4" s="23"/>
+    </row>
+    <row r="5" spans="2:6" ht="384" hidden="1" x14ac:dyDescent="0.3">
       <c r="B5" s="17" t="s">
         <v>94</v>
       </c>
       <c r="C5" s="17" t="s">
         <v>123</v>
       </c>
-      <c r="D5" s="25" t="s">
-        <v>142</v>
-      </c>
-      <c r="E5" s="25"/>
-    </row>
-    <row r="6" spans="2:5" ht="145.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D5" s="47" t="s">
+        <v>252</v>
+      </c>
+      <c r="E5" s="25" t="s">
+        <v>141</v>
+      </c>
+      <c r="F5" s="25"/>
+    </row>
+    <row r="6" spans="2:6" ht="157.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B6" s="17"/>
       <c r="C6" s="17" t="s">
-        <v>152</v>
-      </c>
-      <c r="D6" s="25" t="s">
-        <v>247</v>
-      </c>
-      <c r="E6" s="25"/>
-    </row>
-    <row r="7" spans="2:5" ht="86.25" customHeight="1" x14ac:dyDescent="0.3">
+        <v>150</v>
+      </c>
+      <c r="D6" s="47" t="s">
+        <v>253</v>
+      </c>
+      <c r="E6" s="25" t="s">
+        <v>254</v>
+      </c>
+      <c r="F6" s="25"/>
+    </row>
+    <row r="7" spans="2:6" ht="276" x14ac:dyDescent="0.3">
       <c r="B7" s="17"/>
       <c r="C7" s="17" t="s">
-        <v>147</v>
-      </c>
-      <c r="D7" s="25" t="s">
-        <v>141</v>
-      </c>
-      <c r="E7" s="25"/>
-    </row>
-    <row r="8" spans="2:5" x14ac:dyDescent="0.3">
+        <v>255</v>
+      </c>
+      <c r="D7" s="47" t="s">
+        <v>253</v>
+      </c>
+      <c r="E7" s="25" t="s">
+        <v>256</v>
+      </c>
+      <c r="F7" s="25"/>
+    </row>
+    <row r="8" spans="2:6" ht="156" x14ac:dyDescent="0.3">
       <c r="B8" s="17"/>
-      <c r="C8" s="17"/>
-      <c r="D8" s="23"/>
-      <c r="E8" s="23"/>
-    </row>
-    <row r="9" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="C8" s="17" t="s">
+        <v>311</v>
+      </c>
+      <c r="D8" s="47" t="s">
+        <v>253</v>
+      </c>
+      <c r="E8" s="25" t="s">
+        <v>324</v>
+      </c>
+      <c r="F8" s="23"/>
+    </row>
+    <row r="9" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B9" s="17"/>
       <c r="C9" s="17"/>
-      <c r="D9" s="23"/>
+      <c r="D9" s="17"/>
       <c r="E9" s="23"/>
-    </row>
-    <row r="10" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="F9" s="23"/>
+    </row>
+    <row r="10" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B10" s="17"/>
       <c r="C10" s="17"/>
-      <c r="D10" s="23"/>
+      <c r="D10" s="17"/>
       <c r="E10" s="23"/>
-    </row>
-    <row r="11" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="F10" s="23"/>
+    </row>
+    <row r="11" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B11" s="17"/>
       <c r="C11" s="17"/>
-      <c r="D11" s="23"/>
+      <c r="D11" s="17"/>
       <c r="E11" s="23"/>
-    </row>
-    <row r="12" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="F11" s="23"/>
+    </row>
+    <row r="12" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B12" s="17"/>
       <c r="C12" s="17"/>
-      <c r="D12" s="23"/>
+      <c r="D12" s="17"/>
       <c r="E12" s="23"/>
-    </row>
-    <row r="13" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="F12" s="23"/>
+    </row>
+    <row r="13" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B13" s="17"/>
       <c r="C13" s="17"/>
-      <c r="D13" s="23"/>
+      <c r="D13" s="17"/>
       <c r="E13" s="23"/>
-    </row>
-    <row r="14" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="F13" s="23"/>
+    </row>
+    <row r="14" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B14" s="17"/>
       <c r="C14" s="17"/>
-      <c r="D14" s="23"/>
+      <c r="D14" s="17"/>
       <c r="E14" s="23"/>
-    </row>
-    <row r="15" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="F14" s="23"/>
+    </row>
+    <row r="15" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B15" s="17"/>
       <c r="C15" s="17"/>
-      <c r="D15" s="23"/>
+      <c r="D15" s="17"/>
       <c r="E15" s="23"/>
-    </row>
-    <row r="16" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="F15" s="23"/>
+    </row>
+    <row r="16" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B16" s="17"/>
       <c r="C16" s="17"/>
-      <c r="D16" s="23"/>
+      <c r="D16" s="17"/>
       <c r="E16" s="23"/>
-    </row>
-    <row r="17" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="F16" s="23"/>
+    </row>
+    <row r="17" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B17" s="17"/>
       <c r="C17" s="17"/>
-      <c r="D17" s="23"/>
+      <c r="D17" s="17"/>
       <c r="E17" s="23"/>
-    </row>
-    <row r="18" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="F17" s="23"/>
+    </row>
+    <row r="18" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B18" s="17"/>
       <c r="C18" s="17"/>
-      <c r="D18" s="23"/>
+      <c r="D18" s="17"/>
       <c r="E18" s="23"/>
-    </row>
-    <row r="19" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="F18" s="23"/>
+    </row>
+    <row r="19" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B19" s="17"/>
       <c r="C19" s="17"/>
-      <c r="D19" s="23"/>
+      <c r="D19" s="17"/>
       <c r="E19" s="23"/>
-    </row>
-    <row r="20" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="F19" s="23"/>
+    </row>
+    <row r="20" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B20" s="17"/>
       <c r="C20" s="17"/>
-      <c r="D20" s="23"/>
+      <c r="D20" s="17"/>
       <c r="E20" s="23"/>
-    </row>
-    <row r="21" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="F20" s="23"/>
+    </row>
+    <row r="21" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B21" s="17"/>
       <c r="C21" s="17"/>
-      <c r="D21" s="23"/>
+      <c r="D21" s="17"/>
       <c r="E21" s="23"/>
-    </row>
-    <row r="22" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="F21" s="23"/>
+    </row>
+    <row r="22" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B22" s="17"/>
       <c r="C22" s="17"/>
-      <c r="D22" s="23"/>
+      <c r="D22" s="17"/>
       <c r="E22" s="23"/>
-    </row>
-    <row r="23" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="F22" s="23"/>
+    </row>
+    <row r="23" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B23" s="17"/>
       <c r="C23" s="17"/>
-      <c r="D23" s="23"/>
+      <c r="D23" s="17"/>
       <c r="E23" s="23"/>
-    </row>
-    <row r="24" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="F23" s="23"/>
+    </row>
+    <row r="24" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B24" s="17"/>
       <c r="C24" s="17"/>
-      <c r="D24" s="23"/>
+      <c r="D24" s="17"/>
       <c r="E24" s="23"/>
-    </row>
-    <row r="25" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="F24" s="23"/>
+    </row>
+    <row r="25" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B25" s="17"/>
       <c r="C25" s="17"/>
-      <c r="D25" s="23"/>
+      <c r="D25" s="17"/>
       <c r="E25" s="23"/>
-    </row>
-    <row r="26" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="F25" s="23"/>
+    </row>
+    <row r="26" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B26" s="17"/>
       <c r="C26" s="17"/>
-      <c r="D26" s="23"/>
+      <c r="D26" s="17"/>
       <c r="E26" s="23"/>
-    </row>
-    <row r="27" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="F26" s="23"/>
+    </row>
+    <row r="27" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B27" s="17"/>
       <c r="C27" s="17"/>
-      <c r="D27" s="23"/>
+      <c r="D27" s="17"/>
       <c r="E27" s="23"/>
-    </row>
-    <row r="28" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="F27" s="23"/>
+    </row>
+    <row r="28" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B28" s="17"/>
       <c r="C28" s="17"/>
-      <c r="D28" s="23"/>
+      <c r="D28" s="17"/>
       <c r="E28" s="23"/>
-    </row>
-    <row r="29" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="F28" s="23"/>
+    </row>
+    <row r="29" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B29" s="17"/>
       <c r="C29" s="17"/>
-      <c r="D29" s="23"/>
+      <c r="D29" s="17"/>
       <c r="E29" s="23"/>
-    </row>
-    <row r="30" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="F29" s="23"/>
+    </row>
+    <row r="30" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B30" s="17"/>
       <c r="C30" s="17"/>
-      <c r="D30" s="23"/>
+      <c r="D30" s="17"/>
       <c r="E30" s="23"/>
-    </row>
-    <row r="31" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="F30" s="23"/>
+    </row>
+    <row r="31" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B31" s="17"/>
       <c r="C31" s="17"/>
-      <c r="D31" s="23"/>
+      <c r="D31" s="17"/>
       <c r="E31" s="23"/>
-    </row>
-    <row r="32" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="F31" s="23"/>
+    </row>
+    <row r="32" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B32" s="17"/>
       <c r="C32" s="17"/>
-      <c r="D32" s="23"/>
+      <c r="D32" s="17"/>
       <c r="E32" s="23"/>
-    </row>
-    <row r="33" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="F32" s="23"/>
+    </row>
+    <row r="33" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B33" s="17"/>
       <c r="C33" s="17"/>
-      <c r="D33" s="23"/>
+      <c r="D33" s="17"/>
       <c r="E33" s="23"/>
-    </row>
-    <row r="34" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="F33" s="23"/>
+    </row>
+    <row r="34" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B34" s="17"/>
       <c r="C34" s="17"/>
-      <c r="D34" s="23"/>
+      <c r="D34" s="17"/>
       <c r="E34" s="23"/>
-    </row>
-    <row r="35" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="F34" s="23"/>
+    </row>
+    <row r="35" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B35" s="17"/>
       <c r="C35" s="17"/>
-      <c r="D35" s="23"/>
+      <c r="D35" s="17"/>
       <c r="E35" s="23"/>
-    </row>
-    <row r="36" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="F35" s="23"/>
+    </row>
+    <row r="36" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B36" s="17"/>
       <c r="C36" s="17"/>
-      <c r="D36" s="23"/>
+      <c r="D36" s="17"/>
       <c r="E36" s="23"/>
-    </row>
-    <row r="37" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="F36" s="23"/>
+    </row>
+    <row r="37" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B37" s="17"/>
       <c r="C37" s="17"/>
-      <c r="D37" s="23"/>
+      <c r="D37" s="17"/>
       <c r="E37" s="23"/>
-    </row>
-    <row r="38" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="F37" s="23"/>
+    </row>
+    <row r="38" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B38" s="17"/>
       <c r="C38" s="17"/>
-      <c r="D38" s="23"/>
+      <c r="D38" s="17"/>
       <c r="E38" s="23"/>
-    </row>
-    <row r="39" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="F38" s="23"/>
+    </row>
+    <row r="39" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B39" s="17"/>
       <c r="C39" s="17"/>
-      <c r="D39" s="23"/>
+      <c r="D39" s="17"/>
       <c r="E39" s="23"/>
-    </row>
-    <row r="40" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="F39" s="23"/>
+    </row>
+    <row r="40" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B40" s="17"/>
       <c r="C40" s="17"/>
-      <c r="D40" s="23"/>
+      <c r="D40" s="17"/>
       <c r="E40" s="23"/>
-    </row>
-    <row r="41" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="F40" s="23"/>
+    </row>
+    <row r="41" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B41" s="17"/>
       <c r="C41" s="17"/>
-      <c r="D41" s="23"/>
+      <c r="D41" s="17"/>
       <c r="E41" s="23"/>
-    </row>
-    <row r="42" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="F41" s="23"/>
+    </row>
+    <row r="42" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B42" s="17"/>
       <c r="C42" s="17"/>
-      <c r="D42" s="23"/>
+      <c r="D42" s="17"/>
       <c r="E42" s="23"/>
-    </row>
-    <row r="43" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="F42" s="23"/>
+    </row>
+    <row r="43" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B43" s="17"/>
       <c r="C43" s="17"/>
-      <c r="D43" s="23"/>
+      <c r="D43" s="17"/>
       <c r="E43" s="23"/>
-    </row>
-    <row r="44" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="F43" s="23"/>
+    </row>
+    <row r="44" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B44" s="17"/>
       <c r="C44" s="17"/>
-      <c r="D44" s="23"/>
+      <c r="D44" s="17"/>
       <c r="E44" s="23"/>
-    </row>
-    <row r="45" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="F44" s="23"/>
+    </row>
+    <row r="45" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B45" s="17"/>
       <c r="C45" s="17"/>
-      <c r="D45" s="23"/>
+      <c r="D45" s="17"/>
       <c r="E45" s="23"/>
-    </row>
-    <row r="46" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="F45" s="23"/>
+    </row>
+    <row r="46" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B46" s="17"/>
       <c r="C46" s="17"/>
-      <c r="D46" s="23"/>
+      <c r="D46" s="17"/>
       <c r="E46" s="23"/>
-    </row>
-    <row r="47" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="F46" s="23"/>
+    </row>
+    <row r="47" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B47" s="17"/>
       <c r="C47" s="17"/>
-      <c r="D47" s="23"/>
+      <c r="D47" s="17"/>
       <c r="E47" s="23"/>
-    </row>
-    <row r="48" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="F47" s="23"/>
+    </row>
+    <row r="48" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B48" s="17"/>
       <c r="C48" s="17"/>
-      <c r="D48" s="23"/>
+      <c r="D48" s="17"/>
       <c r="E48" s="23"/>
-    </row>
-    <row r="49" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="F48" s="23"/>
+    </row>
+    <row r="49" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B49" s="17"/>
       <c r="C49" s="17"/>
-      <c r="D49" s="23"/>
+      <c r="D49" s="17"/>
       <c r="E49" s="23"/>
-    </row>
-    <row r="50" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="F49" s="23"/>
+    </row>
+    <row r="50" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B50" s="17"/>
       <c r="C50" s="17"/>
-      <c r="D50" s="23"/>
+      <c r="D50" s="17"/>
       <c r="E50" s="23"/>
-    </row>
-    <row r="51" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="F50" s="23"/>
+    </row>
+    <row r="51" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B51" s="17"/>
       <c r="C51" s="17"/>
-      <c r="D51" s="23"/>
+      <c r="D51" s="17"/>
       <c r="E51" s="23"/>
-    </row>
-    <row r="52" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="F51" s="23"/>
+    </row>
+    <row r="52" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B52" s="17"/>
       <c r="C52" s="17"/>
-      <c r="D52" s="23"/>
+      <c r="D52" s="17"/>
       <c r="E52" s="23"/>
-    </row>
-    <row r="53" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="F52" s="23"/>
+    </row>
+    <row r="53" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B53" s="17"/>
       <c r="C53" s="17"/>
-      <c r="D53" s="23"/>
+      <c r="D53" s="17"/>
       <c r="E53" s="23"/>
-    </row>
-    <row r="54" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="F53" s="23"/>
+    </row>
+    <row r="54" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B54" s="17"/>
       <c r="C54" s="17"/>
-      <c r="D54" s="23"/>
+      <c r="D54" s="17"/>
       <c r="E54" s="23"/>
-    </row>
-    <row r="55" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="F54" s="23"/>
+    </row>
+    <row r="55" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B55" s="17"/>
       <c r="C55" s="17"/>
-      <c r="D55" s="23"/>
+      <c r="D55" s="17"/>
       <c r="E55" s="23"/>
-    </row>
-    <row r="56" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="F55" s="23"/>
+    </row>
+    <row r="56" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B56" s="17"/>
       <c r="C56" s="17"/>
-      <c r="D56" s="23"/>
+      <c r="D56" s="17"/>
       <c r="E56" s="23"/>
-    </row>
-    <row r="57" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="F56" s="23"/>
+    </row>
+    <row r="57" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B57" s="17"/>
       <c r="C57" s="17"/>
-      <c r="D57" s="23"/>
+      <c r="D57" s="17"/>
       <c r="E57" s="23"/>
-    </row>
-    <row r="58" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="F57" s="23"/>
+    </row>
+    <row r="58" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B58" s="17"/>
       <c r="C58" s="17"/>
-      <c r="D58" s="23"/>
+      <c r="D58" s="17"/>
       <c r="E58" s="23"/>
-    </row>
-    <row r="59" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="F58" s="23"/>
+    </row>
+    <row r="59" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B59" s="17"/>
       <c r="C59" s="17"/>
-      <c r="D59" s="23"/>
+      <c r="D59" s="17"/>
       <c r="E59" s="23"/>
-    </row>
-    <row r="60" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="F59" s="23"/>
+    </row>
+    <row r="60" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B60" s="17"/>
       <c r="C60" s="17"/>
-      <c r="D60" s="23"/>
+      <c r="D60" s="17"/>
       <c r="E60" s="23"/>
-    </row>
-    <row r="61" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="F60" s="23"/>
+    </row>
+    <row r="61" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B61" s="17"/>
       <c r="C61" s="17"/>
-      <c r="D61" s="23"/>
+      <c r="D61" s="17"/>
       <c r="E61" s="23"/>
-    </row>
-    <row r="62" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="F61" s="23"/>
+    </row>
+    <row r="62" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B62" s="17"/>
       <c r="C62" s="17"/>
-      <c r="D62" s="23"/>
+      <c r="D62" s="17"/>
       <c r="E62" s="23"/>
-    </row>
-    <row r="63" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="F62" s="23"/>
+    </row>
+    <row r="63" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B63" s="17"/>
       <c r="C63" s="17"/>
-      <c r="D63" s="23"/>
+      <c r="D63" s="17"/>
       <c r="E63" s="23"/>
-    </row>
-    <row r="64" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="F63" s="23"/>
+    </row>
+    <row r="64" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B64" s="17"/>
       <c r="C64" s="17"/>
-      <c r="D64" s="23"/>
+      <c r="D64" s="17"/>
       <c r="E64" s="23"/>
-    </row>
-    <row r="65" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="F64" s="23"/>
+    </row>
+    <row r="65" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B65" s="17"/>
       <c r="C65" s="17"/>
-      <c r="D65" s="23"/>
+      <c r="D65" s="17"/>
       <c r="E65" s="23"/>
-    </row>
-    <row r="66" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="F65" s="23"/>
+    </row>
+    <row r="66" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B66" s="17"/>
       <c r="C66" s="17"/>
-      <c r="D66" s="23"/>
+      <c r="D66" s="17"/>
       <c r="E66" s="23"/>
-    </row>
-    <row r="67" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="F66" s="23"/>
+    </row>
+    <row r="67" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B67" s="17"/>
       <c r="C67" s="17"/>
-      <c r="D67" s="23"/>
+      <c r="D67" s="17"/>
       <c r="E67" s="23"/>
-    </row>
-    <row r="68" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="F67" s="23"/>
+    </row>
+    <row r="68" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B68" s="17"/>
       <c r="C68" s="17"/>
-      <c r="D68" s="23"/>
+      <c r="D68" s="17"/>
       <c r="E68" s="23"/>
-    </row>
-    <row r="69" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="F68" s="23"/>
+    </row>
+    <row r="69" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B69" s="17"/>
       <c r="C69" s="17"/>
-      <c r="D69" s="23"/>
+      <c r="D69" s="17"/>
       <c r="E69" s="23"/>
-    </row>
-    <row r="70" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="F69" s="23"/>
+    </row>
+    <row r="70" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B70" s="17"/>
       <c r="C70" s="17"/>
-      <c r="D70" s="23"/>
+      <c r="D70" s="17"/>
       <c r="E70" s="23"/>
-    </row>
-    <row r="71" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="F70" s="23"/>
+    </row>
+    <row r="71" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B71" s="17"/>
       <c r="C71" s="17"/>
-      <c r="D71" s="23"/>
+      <c r="D71" s="17"/>
       <c r="E71" s="23"/>
-    </row>
-    <row r="72" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="F71" s="23"/>
+    </row>
+    <row r="72" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B72" s="17"/>
       <c r="C72" s="17"/>
-      <c r="D72" s="23"/>
+      <c r="D72" s="17"/>
       <c r="E72" s="23"/>
-    </row>
-    <row r="73" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="F72" s="23"/>
+    </row>
+    <row r="73" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B73" s="17"/>
       <c r="C73" s="17"/>
-      <c r="D73" s="23"/>
+      <c r="D73" s="17"/>
       <c r="E73" s="23"/>
-    </row>
-    <row r="74" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="F73" s="23"/>
+    </row>
+    <row r="74" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B74" s="17"/>
       <c r="C74" s="17"/>
-      <c r="D74" s="23"/>
+      <c r="D74" s="17"/>
       <c r="E74" s="23"/>
-    </row>
-    <row r="75" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="F74" s="23"/>
+    </row>
+    <row r="75" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B75" s="17"/>
       <c r="C75" s="17"/>
-      <c r="D75" s="23"/>
+      <c r="D75" s="17"/>
       <c r="E75" s="23"/>
-    </row>
-    <row r="76" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="F75" s="23"/>
+    </row>
+    <row r="76" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B76" s="17"/>
       <c r="C76" s="17"/>
-      <c r="D76" s="23"/>
+      <c r="D76" s="17"/>
       <c r="E76" s="23"/>
-    </row>
-    <row r="77" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="F76" s="23"/>
+    </row>
+    <row r="77" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B77" s="17"/>
       <c r="C77" s="17"/>
-      <c r="D77" s="23"/>
+      <c r="D77" s="17"/>
       <c r="E77" s="23"/>
-    </row>
-    <row r="78" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="F77" s="23"/>
+    </row>
+    <row r="78" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B78" s="17"/>
       <c r="C78" s="17"/>
-      <c r="D78" s="23"/>
+      <c r="D78" s="17"/>
       <c r="E78" s="23"/>
-    </row>
-    <row r="79" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="F78" s="23"/>
+    </row>
+    <row r="79" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B79" s="17"/>
       <c r="C79" s="17"/>
-      <c r="D79" s="23"/>
+      <c r="D79" s="17"/>
       <c r="E79" s="23"/>
-    </row>
-    <row r="80" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="F79" s="23"/>
+    </row>
+    <row r="80" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B80" s="17"/>
       <c r="C80" s="17"/>
-      <c r="D80" s="23"/>
+      <c r="D80" s="17"/>
       <c r="E80" s="23"/>
-    </row>
-    <row r="81" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="F80" s="23"/>
+    </row>
+    <row r="81" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B81" s="17"/>
       <c r="C81" s="17"/>
-      <c r="D81" s="23"/>
+      <c r="D81" s="17"/>
       <c r="E81" s="23"/>
-    </row>
-    <row r="82" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="F81" s="23"/>
+    </row>
+    <row r="82" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B82" s="17"/>
       <c r="C82" s="17"/>
-      <c r="D82" s="23"/>
+      <c r="D82" s="17"/>
       <c r="E82" s="23"/>
-    </row>
-    <row r="83" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="F82" s="23"/>
+    </row>
+    <row r="83" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B83" s="17"/>
       <c r="C83" s="17"/>
-      <c r="D83" s="23"/>
+      <c r="D83" s="17"/>
       <c r="E83" s="23"/>
-    </row>
-    <row r="84" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="F83" s="23"/>
+    </row>
+    <row r="84" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B84" s="17"/>
       <c r="C84" s="17"/>
-      <c r="D84" s="23"/>
+      <c r="D84" s="17"/>
       <c r="E84" s="23"/>
-    </row>
-    <row r="85" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="F84" s="23"/>
+    </row>
+    <row r="85" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B85" s="17"/>
       <c r="C85" s="17"/>
-      <c r="D85" s="23"/>
+      <c r="D85" s="17"/>
       <c r="E85" s="23"/>
-    </row>
-    <row r="86" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="F85" s="23"/>
+    </row>
+    <row r="86" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B86" s="17"/>
       <c r="C86" s="17"/>
-      <c r="D86" s="23"/>
+      <c r="D86" s="17"/>
       <c r="E86" s="23"/>
-    </row>
-    <row r="87" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="F86" s="23"/>
+    </row>
+    <row r="87" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B87" s="17"/>
       <c r="C87" s="17"/>
-      <c r="D87" s="23"/>
+      <c r="D87" s="17"/>
       <c r="E87" s="23"/>
-    </row>
-    <row r="88" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="F87" s="23"/>
+    </row>
+    <row r="88" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B88" s="17"/>
       <c r="C88" s="17"/>
-      <c r="D88" s="23"/>
+      <c r="D88" s="17"/>
       <c r="E88" s="23"/>
-    </row>
-    <row r="89" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="F88" s="23"/>
+    </row>
+    <row r="89" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B89" s="17"/>
       <c r="C89" s="17"/>
-      <c r="D89" s="23"/>
+      <c r="D89" s="17"/>
       <c r="E89" s="23"/>
-    </row>
-    <row r="90" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="F89" s="23"/>
+    </row>
+    <row r="90" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B90" s="17"/>
       <c r="C90" s="17"/>
-      <c r="D90" s="23"/>
+      <c r="D90" s="17"/>
       <c r="E90" s="23"/>
-    </row>
-    <row r="91" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="F90" s="23"/>
+    </row>
+    <row r="91" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B91" s="17"/>
       <c r="C91" s="17"/>
-      <c r="D91" s="23"/>
+      <c r="D91" s="17"/>
       <c r="E91" s="23"/>
-    </row>
-    <row r="92" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="F91" s="23"/>
+    </row>
+    <row r="92" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B92" s="17"/>
       <c r="C92" s="17"/>
-      <c r="D92" s="23"/>
+      <c r="D92" s="17"/>
       <c r="E92" s="23"/>
-    </row>
-    <row r="93" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="F92" s="23"/>
+    </row>
+    <row r="93" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B93" s="17"/>
       <c r="C93" s="17"/>
-      <c r="D93" s="23"/>
+      <c r="D93" s="17"/>
       <c r="E93" s="23"/>
-    </row>
-    <row r="94" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="F93" s="23"/>
+    </row>
+    <row r="94" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B94" s="17"/>
       <c r="C94" s="17"/>
-      <c r="D94" s="23"/>
+      <c r="D94" s="17"/>
       <c r="E94" s="23"/>
-    </row>
-    <row r="95" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="F94" s="23"/>
+    </row>
+    <row r="95" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B95" s="17"/>
       <c r="C95" s="17"/>
-      <c r="D95" s="23"/>
+      <c r="D95" s="17"/>
       <c r="E95" s="23"/>
-    </row>
-    <row r="96" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="F95" s="23"/>
+    </row>
+    <row r="96" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B96" s="17"/>
       <c r="C96" s="17"/>
-      <c r="D96" s="23"/>
+      <c r="D96" s="17"/>
       <c r="E96" s="23"/>
-    </row>
-    <row r="97" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="F96" s="23"/>
+    </row>
+    <row r="97" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B97" s="17"/>
       <c r="C97" s="17"/>
-      <c r="D97" s="23"/>
+      <c r="D97" s="17"/>
       <c r="E97" s="23"/>
-    </row>
-    <row r="98" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="F97" s="23"/>
+    </row>
+    <row r="98" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B98" s="17"/>
       <c r="C98" s="17"/>
-      <c r="D98" s="23"/>
+      <c r="D98" s="17"/>
       <c r="E98" s="23"/>
-    </row>
-    <row r="99" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="F98" s="23"/>
+    </row>
+    <row r="99" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B99" s="17"/>
       <c r="C99" s="17"/>
-      <c r="D99" s="23"/>
+      <c r="D99" s="17"/>
       <c r="E99" s="23"/>
-    </row>
-    <row r="100" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="F99" s="23"/>
+    </row>
+    <row r="100" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B100" s="17"/>
       <c r="C100" s="17"/>
-      <c r="D100" s="23"/>
+      <c r="D100" s="17"/>
       <c r="E100" s="23"/>
-    </row>
-    <row r="101" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="F100" s="23"/>
+    </row>
+    <row r="101" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B101" s="17"/>
       <c r="C101" s="17"/>
-      <c r="D101" s="23"/>
+      <c r="D101" s="17"/>
       <c r="E101" s="23"/>
+      <c r="F101" s="23"/>
     </row>
   </sheetData>
-  <autoFilter ref="B2:E2"/>
+  <autoFilter ref="B2:F7">
+    <filterColumn colId="2">
+      <filters>
+        <filter val="Y"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
   <phoneticPr fontId="1" type="noConversion"/>
+  <dataValidations count="1">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D3:D101">
+      <formula1>"Y,N"</formula1>
+    </dataValidation>
+  </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
@@ -7909,11 +8693,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:O75"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="2" topLeftCell="B16" activePane="bottomRight" state="frozen"/>
+    <sheetView workbookViewId="0">
+      <pane xSplit="1" ySplit="2" topLeftCell="B33" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="D54" sqref="D54"/>
+      <selection pane="bottomRight" activeCell="H66" sqref="H66"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="12" x14ac:dyDescent="0.3"/>
@@ -7921,7 +8705,7 @@
     <col min="1" max="1" width="4.5" style="1" customWidth="1"/>
     <col min="2" max="2" width="24.75" style="8" customWidth="1"/>
     <col min="3" max="3" width="11.625" style="8" customWidth="1"/>
-    <col min="4" max="4" width="13.5" style="2" customWidth="1"/>
+    <col min="4" max="4" width="16.125" style="2" customWidth="1"/>
     <col min="5" max="5" width="10.75" style="8" customWidth="1"/>
     <col min="6" max="6" width="11" style="9" customWidth="1"/>
     <col min="7" max="7" width="11.375" style="8" customWidth="1"/>
@@ -7993,7 +8777,7 @@
         <v>0.1079429735234216</v>
       </c>
       <c r="J3" s="5" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
     </row>
     <row r="4" spans="2:15" x14ac:dyDescent="0.3">
@@ -8023,7 +8807,7 @@
         <v>0.11757719714964371</v>
       </c>
       <c r="J4" s="5" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
     </row>
     <row r="5" spans="2:15" x14ac:dyDescent="0.3">
@@ -8053,7 +8837,7 @@
         <v>-4.2904290429042903E-2</v>
       </c>
       <c r="J5" s="5" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
     </row>
     <row r="6" spans="2:15" x14ac:dyDescent="0.3">
@@ -8083,7 +8867,7 @@
         <v>0.3</v>
       </c>
       <c r="J6" s="5" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
     </row>
     <row r="7" spans="2:15" x14ac:dyDescent="0.3">
@@ -8113,7 +8897,7 @@
         <v>-5.2877138413685847E-2</v>
       </c>
       <c r="J7" s="5" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
     </row>
     <row r="8" spans="2:15" x14ac:dyDescent="0.3">
@@ -8143,7 +8927,7 @@
         <v>-3.0129124820659971E-2</v>
       </c>
       <c r="J8" s="5" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
     </row>
     <row r="9" spans="2:15" x14ac:dyDescent="0.3">
@@ -8173,7 +8957,7 @@
         <v>-5.0209205020920501E-2</v>
       </c>
       <c r="J9" s="5" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
     </row>
     <row r="10" spans="2:15" x14ac:dyDescent="0.3">
@@ -8203,7 +8987,7 @@
         <v>-7.326007326007326E-3</v>
       </c>
       <c r="J10" s="5" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
     </row>
     <row r="11" spans="2:15" x14ac:dyDescent="0.3">
@@ -8233,7 +9017,7 @@
         <v>5.0000000000000001E-3</v>
       </c>
       <c r="J11" s="5" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
     </row>
     <row r="12" spans="2:15" x14ac:dyDescent="0.3">
@@ -8263,7 +9047,7 @@
         <v>-1.1111111111111112E-2</v>
       </c>
       <c r="J12" s="5" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
     </row>
     <row r="13" spans="2:15" x14ac:dyDescent="0.3">
@@ -8293,7 +9077,7 @@
         <v>-3.4161490683229816E-2</v>
       </c>
       <c r="J13" s="5" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
     </row>
     <row r="14" spans="2:15" x14ac:dyDescent="0.3">
@@ -8323,7 +9107,7 @@
         <v>8.0808080808080808E-3</v>
       </c>
       <c r="J14" s="5" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
     </row>
     <row r="15" spans="2:15" x14ac:dyDescent="0.3">
@@ -8353,7 +9137,7 @@
         <v>2.4771838331160364E-2</v>
       </c>
       <c r="J15" s="5" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
     </row>
     <row r="16" spans="2:15" x14ac:dyDescent="0.3">
@@ -8383,7 +9167,7 @@
         <v>4.8780487804878049E-3</v>
       </c>
       <c r="J16" s="5" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
     </row>
     <row r="17" spans="2:10" x14ac:dyDescent="0.3">
@@ -8413,7 +9197,7 @@
         <v>-0.16753926701570682</v>
       </c>
       <c r="J17" s="5" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
     </row>
     <row r="18" spans="2:10" x14ac:dyDescent="0.3">
@@ -8443,7 +9227,7 @@
         <v>-5.9854014598540145E-2</v>
       </c>
       <c r="J18" s="5" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
     </row>
     <row r="19" spans="2:10" x14ac:dyDescent="0.3">
@@ -8473,7 +9257,7 @@
         <v>0.22077922077922077</v>
       </c>
       <c r="J19" s="5" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
     </row>
     <row r="20" spans="2:10" x14ac:dyDescent="0.3">
@@ -8503,7 +9287,7 @@
         <v>2.9109589041095889E-2</v>
       </c>
       <c r="J20" s="5" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
     </row>
     <row r="21" spans="2:10" x14ac:dyDescent="0.3">
@@ -8533,7 +9317,7 @@
         <v>-7.6311605723370424E-2</v>
       </c>
       <c r="J21" s="5" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
     </row>
     <row r="22" spans="2:10" x14ac:dyDescent="0.3">
@@ -8574,7 +9358,7 @@
         <v>0</v>
       </c>
       <c r="J23" s="5" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
     </row>
     <row r="24" spans="2:10" x14ac:dyDescent="0.3">
@@ -8604,7 +9388,7 @@
         <v>-4.2643923240938165E-3</v>
       </c>
       <c r="J24" s="5" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
     </row>
     <row r="25" spans="2:10" x14ac:dyDescent="0.3">
@@ -8645,7 +9429,7 @@
         <v>4.5087336244541483E-2</v>
       </c>
       <c r="J26" s="5" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
     </row>
     <row r="27" spans="2:10" x14ac:dyDescent="0.3">
@@ -8686,7 +9470,7 @@
         <v>7.0318542999789043E-3</v>
       </c>
       <c r="J28" s="5" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
     </row>
     <row r="29" spans="2:10" x14ac:dyDescent="0.3">
@@ -8716,7 +9500,7 @@
         <v>-1.4351048730484151E-2</v>
       </c>
       <c r="J29" s="5" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
     </row>
     <row r="30" spans="2:10" x14ac:dyDescent="0.3">
@@ -8746,7 +9530,7 @@
         <v>-8.2000000000000007E-3</v>
       </c>
       <c r="J30" s="5" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
     </row>
     <row r="31" spans="2:10" x14ac:dyDescent="0.3">
@@ -8776,7 +9560,7 @@
         <v>-7.30554361839278E-3</v>
       </c>
       <c r="J31" s="5" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
     </row>
     <row r="32" spans="2:10" x14ac:dyDescent="0.3">
@@ -8817,7 +9601,7 @@
         <v>1.0838562464346835E-2</v>
       </c>
       <c r="J33" s="5" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
     </row>
     <row r="34" spans="2:10" x14ac:dyDescent="0.3">
@@ -8847,7 +9631,7 @@
         <v>-1.3582342954159592E-2</v>
       </c>
       <c r="J34" s="5" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
     </row>
     <row r="35" spans="2:10" x14ac:dyDescent="0.3">
@@ -8877,7 +9661,7 @@
         <v>-2.0202020202020202E-3</v>
       </c>
       <c r="J35" s="5" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
     </row>
     <row r="36" spans="2:10" x14ac:dyDescent="0.3">
@@ -8893,22 +9677,22 @@
     </row>
     <row r="37" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B37" s="4" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="C37" s="12" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="D37" s="5" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="E37" s="12" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="F37" s="13">
         <v>4275</v>
       </c>
       <c r="G37" s="12" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="H37" s="13">
         <v>4190</v>
@@ -8918,27 +9702,27 @@
         <v>-1.9883040935672516E-2</v>
       </c>
       <c r="J37" s="5" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
     </row>
     <row r="38" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B38" s="4" t="s">
+        <v>150</v>
+      </c>
+      <c r="C38" s="12" t="s">
+        <v>156</v>
+      </c>
+      <c r="D38" s="5" t="s">
         <v>152</v>
       </c>
-      <c r="C38" s="12" t="s">
-        <v>158</v>
-      </c>
-      <c r="D38" s="5" t="s">
-        <v>154</v>
-      </c>
       <c r="E38" s="12" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="F38" s="13">
         <v>27750</v>
       </c>
       <c r="G38" s="12" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="H38" s="13">
         <v>28368</v>
@@ -8948,27 +9732,27 @@
         <v>2.227027027027027E-2</v>
       </c>
       <c r="J38" s="5" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
     </row>
     <row r="39" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B39" s="4" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="C39" s="12" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="D39" s="5" t="s">
+        <v>153</v>
+      </c>
+      <c r="E39" s="12" t="s">
         <v>155</v>
-      </c>
-      <c r="E39" s="12" t="s">
-        <v>157</v>
       </c>
       <c r="F39" s="13">
         <v>9690</v>
       </c>
       <c r="G39" s="12" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="H39" s="13">
         <v>9891</v>
@@ -8978,27 +9762,27 @@
         <v>2.0743034055727555E-2</v>
       </c>
       <c r="J39" s="5" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
     </row>
     <row r="40" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B40" s="4" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="C40" s="12" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="D40" s="5" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="E40" s="12" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="F40" s="13">
         <v>10088</v>
       </c>
       <c r="G40" s="12" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="H40" s="13">
         <v>10400</v>
@@ -9008,7 +9792,7 @@
         <v>3.0927835051546393E-2</v>
       </c>
       <c r="J40" s="5" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
     </row>
     <row r="41" spans="2:10" x14ac:dyDescent="0.3">
@@ -9024,22 +9808,22 @@
     </row>
     <row r="42" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B42" s="4" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="C42" s="12" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="D42" s="5" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="E42" s="12" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="F42" s="13">
         <v>11000</v>
       </c>
       <c r="G42" s="12" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="H42" s="13">
         <v>11150</v>
@@ -9049,27 +9833,27 @@
         <v>1.3636363636363636E-2</v>
       </c>
       <c r="J42" s="5" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
     </row>
     <row r="43" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B43" s="4" t="s">
+        <v>217</v>
+      </c>
+      <c r="C43" s="12" t="s">
         <v>219</v>
       </c>
-      <c r="C43" s="12" t="s">
-        <v>221</v>
-      </c>
       <c r="D43" s="5" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="E43" s="12" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="F43" s="13">
         <v>34205</v>
       </c>
       <c r="G43" s="12" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="H43" s="13">
         <v>37176</v>
@@ -9079,7 +9863,7 @@
         <v>8.6858646396725622E-2</v>
       </c>
       <c r="J43" s="5" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
     </row>
     <row r="44" spans="2:10" x14ac:dyDescent="0.3">
@@ -9095,22 +9879,22 @@
     </row>
     <row r="45" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B45" s="4" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="C45" s="12" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="D45" s="5" t="s">
+        <v>220</v>
+      </c>
+      <c r="E45" s="12" t="s">
         <v>222</v>
-      </c>
-      <c r="E45" s="12" t="s">
-        <v>224</v>
       </c>
       <c r="F45" s="13">
         <v>11458</v>
       </c>
       <c r="G45" s="12" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="H45" s="13">
         <v>11299</v>
@@ -9120,27 +9904,27 @@
         <v>-1.3876767324140339E-2</v>
       </c>
       <c r="J45" s="5" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
     </row>
     <row r="46" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B46" s="4" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="C46" s="12" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="D46" s="5" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="E46" s="12" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="F46" s="13">
         <v>25750</v>
       </c>
       <c r="G46" s="12" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="H46" s="13">
         <v>24800</v>
@@ -9150,7 +9934,7 @@
         <v>-3.6893203883495145E-2</v>
       </c>
       <c r="J46" s="5" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
     </row>
     <row r="47" spans="2:10" x14ac:dyDescent="0.3">
@@ -9169,114 +9953,122 @@
     </row>
     <row r="48" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B48" s="4" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="C48" s="12" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="D48" s="5" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="E48" s="12" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="F48" s="13">
         <v>2842</v>
       </c>
       <c r="G48" s="12" t="s">
-        <v>246</v>
-      </c>
-      <c r="H48" s="13"/>
-      <c r="I48" s="14" t="str">
+        <v>244</v>
+      </c>
+      <c r="H48" s="13">
+        <v>2796</v>
+      </c>
+      <c r="I48" s="14">
         <f t="shared" si="1"/>
-        <v/>
+        <v>-1.6185784658691062E-2</v>
       </c>
       <c r="J48" s="5" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
     </row>
     <row r="49" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B49" s="4" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="C49" s="12" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="D49" s="5" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="E49" s="12" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="F49" s="13">
         <v>44350</v>
       </c>
       <c r="G49" s="12" t="s">
-        <v>246</v>
-      </c>
-      <c r="H49" s="13"/>
-      <c r="I49" s="14" t="str">
+        <v>244</v>
+      </c>
+      <c r="H49" s="13">
+        <v>45250</v>
+      </c>
+      <c r="I49" s="14">
         <f t="shared" si="1"/>
-        <v/>
+        <v>2.0293122886133032E-2</v>
       </c>
       <c r="J49" s="5" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
     </row>
     <row r="50" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B50" s="4" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="C50" s="12" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="D50" s="5" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="E50" s="12" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="F50" s="13">
         <v>4665</v>
       </c>
       <c r="G50" s="12" t="s">
-        <v>246</v>
-      </c>
-      <c r="H50" s="13"/>
-      <c r="I50" s="14" t="str">
+        <v>244</v>
+      </c>
+      <c r="H50" s="13">
+        <v>4529</v>
+      </c>
+      <c r="I50" s="14">
         <f t="shared" si="1"/>
-        <v/>
+        <v>-2.9153269024651662E-2</v>
       </c>
       <c r="J50" s="5" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
     </row>
     <row r="51" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B51" s="4" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="C51" s="12" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="D51" s="5" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="E51" s="12" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="F51" s="13">
         <v>9180</v>
       </c>
       <c r="G51" s="12" t="s">
-        <v>246</v>
-      </c>
-      <c r="H51" s="13"/>
-      <c r="I51" s="14" t="str">
+        <v>244</v>
+      </c>
+      <c r="H51" s="13">
+        <v>9268</v>
+      </c>
+      <c r="I51" s="14">
         <f t="shared" si="1"/>
-        <v/>
+        <v>9.5860566448801744E-3</v>
       </c>
       <c r="J51" s="5" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
     </row>
     <row r="52" spans="2:10" x14ac:dyDescent="0.3">
@@ -9294,60 +10086,124 @@
       <c r="J52" s="5"/>
     </row>
     <row r="53" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B53" s="4"/>
-      <c r="C53" s="12"/>
-      <c r="D53" s="5"/>
-      <c r="E53" s="12"/>
-      <c r="F53" s="13"/>
-      <c r="G53" s="12"/>
-      <c r="H53" s="13"/>
-      <c r="I53" s="14" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="J53" s="5"/>
+      <c r="B53" s="4" t="s">
+        <v>255</v>
+      </c>
+      <c r="C53" s="12" t="s">
+        <v>262</v>
+      </c>
+      <c r="D53" s="5" t="s">
+        <v>259</v>
+      </c>
+      <c r="E53" s="12" t="s">
+        <v>257</v>
+      </c>
+      <c r="F53" s="13">
+        <v>34641</v>
+      </c>
+      <c r="G53" s="12" t="s">
+        <v>258</v>
+      </c>
+      <c r="H53" s="13">
+        <v>34144</v>
+      </c>
+      <c r="I53" s="14">
+        <f t="shared" ref="I53" si="2">IF(H53="", "", IFERROR( ((H53-F53)/F53), ""))</f>
+        <v>-1.4347160878727519E-2</v>
+      </c>
+      <c r="J53" s="5" t="s">
+        <v>234</v>
+      </c>
     </row>
     <row r="54" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B54" s="4"/>
-      <c r="C54" s="12"/>
-      <c r="D54" s="5"/>
-      <c r="E54" s="12"/>
-      <c r="F54" s="13"/>
-      <c r="G54" s="12"/>
-      <c r="H54" s="13"/>
-      <c r="I54" s="14" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="J54" s="5"/>
+      <c r="B54" s="4" t="s">
+        <v>255</v>
+      </c>
+      <c r="C54" s="12" t="s">
+        <v>261</v>
+      </c>
+      <c r="D54" s="5" t="s">
+        <v>260</v>
+      </c>
+      <c r="E54" s="12" t="s">
+        <v>257</v>
+      </c>
+      <c r="F54" s="13">
+        <v>11550</v>
+      </c>
+      <c r="G54" s="12" t="s">
+        <v>258</v>
+      </c>
+      <c r="H54" s="13">
+        <v>11350</v>
+      </c>
+      <c r="I54" s="14">
+        <f t="shared" ref="I54:I55" si="3">IF(H54="", "", IFERROR( ((H54-F54)/F54), ""))</f>
+        <v>-1.7316017316017316E-2</v>
+      </c>
+      <c r="J54" s="5" t="s">
+        <v>234</v>
+      </c>
     </row>
     <row r="55" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B55" s="4"/>
-      <c r="C55" s="12"/>
-      <c r="D55" s="5"/>
-      <c r="E55" s="12"/>
-      <c r="F55" s="13"/>
-      <c r="G55" s="12"/>
-      <c r="H55" s="13"/>
-      <c r="I55" s="14" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="J55" s="5"/>
+      <c r="B55" s="4" t="s">
+        <v>255</v>
+      </c>
+      <c r="C55" s="12" t="s">
+        <v>263</v>
+      </c>
+      <c r="D55" s="5" t="s">
+        <v>264</v>
+      </c>
+      <c r="E55" s="12" t="s">
+        <v>257</v>
+      </c>
+      <c r="F55" s="13">
+        <v>2998</v>
+      </c>
+      <c r="G55" s="12" t="s">
+        <v>258</v>
+      </c>
+      <c r="H55" s="13">
+        <v>2946</v>
+      </c>
+      <c r="I55" s="14">
+        <f t="shared" si="3"/>
+        <v>-1.7344896597731821E-2</v>
+      </c>
+      <c r="J55" s="5" t="s">
+        <v>234</v>
+      </c>
     </row>
     <row r="56" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B56" s="4"/>
-      <c r="C56" s="12"/>
-      <c r="D56" s="5"/>
-      <c r="E56" s="12"/>
-      <c r="F56" s="13"/>
-      <c r="G56" s="12"/>
-      <c r="H56" s="13"/>
-      <c r="I56" s="14" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="J56" s="5"/>
+      <c r="B56" s="4" t="s">
+        <v>255</v>
+      </c>
+      <c r="C56" s="12" t="s">
+        <v>266</v>
+      </c>
+      <c r="D56" s="5" t="s">
+        <v>265</v>
+      </c>
+      <c r="E56" s="12" t="s">
+        <v>257</v>
+      </c>
+      <c r="F56" s="13">
+        <v>26900</v>
+      </c>
+      <c r="G56" s="12" t="s">
+        <v>258</v>
+      </c>
+      <c r="H56" s="13">
+        <v>26400</v>
+      </c>
+      <c r="I56" s="14">
+        <f t="shared" ref="I56" si="4">IF(H56="", "", IFERROR( ((H56-F56)/F56), ""))</f>
+        <v>-1.858736059479554E-2</v>
+      </c>
+      <c r="J56" s="5" t="s">
+        <v>234</v>
+      </c>
     </row>
     <row r="57" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B57" s="4"/>
@@ -9364,12 +10220,24 @@
       <c r="J57" s="5"/>
     </row>
     <row r="58" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B58" s="4"/>
-      <c r="C58" s="12"/>
-      <c r="D58" s="5"/>
-      <c r="E58" s="12"/>
-      <c r="F58" s="13"/>
-      <c r="G58" s="12"/>
+      <c r="B58" s="4" t="s">
+        <v>312</v>
+      </c>
+      <c r="C58" s="12" t="s">
+        <v>313</v>
+      </c>
+      <c r="D58" s="5" t="s">
+        <v>314</v>
+      </c>
+      <c r="E58" s="12" t="s">
+        <v>258</v>
+      </c>
+      <c r="F58" s="13">
+        <v>8400</v>
+      </c>
+      <c r="G58" s="12" t="s">
+        <v>317</v>
+      </c>
       <c r="H58" s="13"/>
       <c r="I58" s="14" t="str">
         <f t="shared" si="1"/>
@@ -9378,12 +10246,24 @@
       <c r="J58" s="5"/>
     </row>
     <row r="59" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B59" s="4"/>
-      <c r="C59" s="12"/>
-      <c r="D59" s="5"/>
-      <c r="E59" s="12"/>
-      <c r="F59" s="13"/>
-      <c r="G59" s="12"/>
+      <c r="B59" s="4" t="s">
+        <v>312</v>
+      </c>
+      <c r="C59" s="12" t="s">
+        <v>315</v>
+      </c>
+      <c r="D59" s="5" t="s">
+        <v>316</v>
+      </c>
+      <c r="E59" s="12" t="s">
+        <v>258</v>
+      </c>
+      <c r="F59" s="13">
+        <v>43936</v>
+      </c>
+      <c r="G59" s="12" t="s">
+        <v>317</v>
+      </c>
       <c r="H59" s="13"/>
       <c r="I59" s="14" t="str">
         <f t="shared" si="1"/>
@@ -9618,13 +10498,53 @@
   </sheetData>
   <autoFilter ref="B2:J75"/>
   <phoneticPr fontId="1" type="noConversion"/>
-  <conditionalFormatting sqref="I1 I3:I1048576">
-    <cfRule type="cellIs" dxfId="1" priority="4" operator="greaterThan">
+  <conditionalFormatting sqref="I1 I3:I52 I57:I1048576">
+    <cfRule type="cellIs" dxfId="24" priority="12" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I1:I1048576">
-    <cfRule type="cellIs" dxfId="0" priority="3" operator="lessThan">
+  <conditionalFormatting sqref="I1:I52 I57:I1048576">
+    <cfRule type="cellIs" dxfId="23" priority="11" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I53">
+    <cfRule type="cellIs" dxfId="22" priority="8" operator="greaterThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I53">
+    <cfRule type="cellIs" dxfId="21" priority="7" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I54">
+    <cfRule type="cellIs" dxfId="20" priority="6" operator="greaterThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I54">
+    <cfRule type="cellIs" dxfId="19" priority="5" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I55">
+    <cfRule type="cellIs" dxfId="18" priority="4" operator="greaterThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I55">
+    <cfRule type="cellIs" dxfId="17" priority="3" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I56">
+    <cfRule type="cellIs" dxfId="16" priority="2" operator="greaterThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I56">
+    <cfRule type="cellIs" dxfId="15" priority="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -9654,42 +10574,42 @@
     </row>
     <row r="3" spans="2:5" x14ac:dyDescent="0.3">
       <c r="C3" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="D3" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
     </row>
     <row r="4" spans="2:5" x14ac:dyDescent="0.3">
       <c r="C4" t="s">
+        <v>245</v>
+      </c>
+      <c r="D4" t="s">
         <v>248</v>
       </c>
-      <c r="D4" t="s">
-        <v>251</v>
-      </c>
-      <c r="E4" s="55">
+      <c r="E4" s="46">
         <v>0.03</v>
       </c>
     </row>
     <row r="5" spans="2:5" x14ac:dyDescent="0.3">
       <c r="C5" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="D5" t="s">
-        <v>251</v>
-      </c>
-      <c r="E5" s="55">
+        <v>248</v>
+      </c>
+      <c r="E5" s="46">
         <v>0.02</v>
       </c>
     </row>
     <row r="6" spans="2:5" x14ac:dyDescent="0.3">
       <c r="C6" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="D6" t="s">
-        <v>251</v>
-      </c>
-      <c r="E6" s="55">
+        <v>248</v>
+      </c>
+      <c r="E6" s="46">
         <v>0.02</v>
       </c>
     </row>
@@ -9703,4 +10623,659 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B1:K27"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <pane xSplit="1" ySplit="4" topLeftCell="B5" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="B1" sqref="B1"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
+      <selection pane="bottomRight" activeCell="I22" sqref="I22"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="2" max="2" width="12.25" customWidth="1"/>
+    <col min="3" max="3" width="11.75" customWidth="1"/>
+    <col min="4" max="4" width="18" customWidth="1"/>
+    <col min="5" max="5" width="11.75" style="48" customWidth="1"/>
+    <col min="6" max="6" width="15.25" style="48" customWidth="1"/>
+    <col min="7" max="7" width="17.25" style="49" customWidth="1"/>
+    <col min="8" max="8" width="9.875" customWidth="1"/>
+    <col min="9" max="9" width="13.125" customWidth="1"/>
+    <col min="12" max="12" width="37.875" customWidth="1"/>
+    <col min="13" max="13" width="60" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B1" s="51" t="s">
+        <v>290</v>
+      </c>
+      <c r="C1" s="52">
+        <v>4</v>
+      </c>
+      <c r="D1" s="51" t="s">
+        <v>283</v>
+      </c>
+      <c r="E1" s="52">
+        <v>1.5</v>
+      </c>
+      <c r="F1" s="51" t="s">
+        <v>284</v>
+      </c>
+      <c r="G1" s="53">
+        <f>COUNTIF($G$5:G371, "Y")</f>
+        <v>19</v>
+      </c>
+      <c r="H1" s="51" t="s">
+        <v>285</v>
+      </c>
+      <c r="I1" s="53">
+        <f>COUNTIF($G$5:G371, "N")</f>
+        <v>4</v>
+      </c>
+      <c r="J1" s="51" t="s">
+        <v>285</v>
+      </c>
+      <c r="K1" s="54">
+        <f>(G1/(G1+I1))*100</f>
+        <v>82.608695652173907</v>
+      </c>
+    </row>
+    <row r="2" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B2" s="51"/>
+      <c r="C2" s="55"/>
+      <c r="D2" s="51" t="s">
+        <v>289</v>
+      </c>
+      <c r="E2" s="52">
+        <v>-2</v>
+      </c>
+      <c r="F2" s="51"/>
+      <c r="G2" s="53"/>
+      <c r="H2" s="51"/>
+      <c r="I2" s="53"/>
+      <c r="J2" s="51"/>
+      <c r="K2" s="55"/>
+    </row>
+    <row r="4" spans="2:11" s="26" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B4" s="50" t="s">
+        <v>272</v>
+      </c>
+      <c r="C4" s="50" t="s">
+        <v>277</v>
+      </c>
+      <c r="D4" s="50" t="s">
+        <v>273</v>
+      </c>
+      <c r="E4" s="50" t="s">
+        <v>274</v>
+      </c>
+      <c r="F4" s="50" t="s">
+        <v>276</v>
+      </c>
+      <c r="G4" s="50" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="5" spans="2:11" s="26" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B5" t="s">
+        <v>320</v>
+      </c>
+      <c r="C5">
+        <v>18</v>
+      </c>
+      <c r="D5" t="s">
+        <v>321</v>
+      </c>
+      <c r="E5" s="48">
+        <v>25.07</v>
+      </c>
+      <c r="F5" s="48">
+        <v>3.7</v>
+      </c>
+      <c r="G5" s="49" t="str">
+        <f>IF(E5&gt;$E$1, "Y", "N")</f>
+        <v>Y</v>
+      </c>
+    </row>
+    <row r="6" spans="2:11" s="26" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B6" t="s">
+        <v>319</v>
+      </c>
+      <c r="C6">
+        <v>18</v>
+      </c>
+      <c r="D6" t="s">
+        <v>322</v>
+      </c>
+      <c r="E6" s="48">
+        <v>1.08</v>
+      </c>
+      <c r="F6" s="48">
+        <v>-7.53</v>
+      </c>
+      <c r="G6" s="49" t="str">
+        <f t="shared" ref="G6:G7" si="0">IF(E6&gt;$E$1, "Y", "N")</f>
+        <v>N</v>
+      </c>
+    </row>
+    <row r="7" spans="2:11" s="26" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B7" t="s">
+        <v>319</v>
+      </c>
+      <c r="C7">
+        <v>18</v>
+      </c>
+      <c r="D7" t="s">
+        <v>323</v>
+      </c>
+      <c r="E7" s="48">
+        <v>0.59</v>
+      </c>
+      <c r="F7" s="48">
+        <v>-8.75</v>
+      </c>
+      <c r="G7" s="49" t="str">
+        <f t="shared" si="0"/>
+        <v>N</v>
+      </c>
+    </row>
+    <row r="8" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B8" t="s">
+        <v>267</v>
+      </c>
+      <c r="C8">
+        <v>17</v>
+      </c>
+      <c r="D8" t="s">
+        <v>298</v>
+      </c>
+      <c r="E8" s="48">
+        <v>0.73</v>
+      </c>
+      <c r="F8" s="48">
+        <v>-2.2000000000000002</v>
+      </c>
+      <c r="G8" s="49" t="str">
+        <f>IF(E8&gt;$E$1, "Y", "N")</f>
+        <v>N</v>
+      </c>
+    </row>
+    <row r="9" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B9" t="s">
+        <v>267</v>
+      </c>
+      <c r="C9">
+        <v>17</v>
+      </c>
+      <c r="D9" t="s">
+        <v>299</v>
+      </c>
+      <c r="E9" s="48">
+        <v>2.38</v>
+      </c>
+      <c r="F9" s="48">
+        <v>-1.93</v>
+      </c>
+      <c r="G9" s="49" t="str">
+        <f t="shared" ref="G9:G27" si="1">IF(E9&gt;$E$1, "Y", "N")</f>
+        <v>Y</v>
+      </c>
+    </row>
+    <row r="10" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B10" t="s">
+        <v>267</v>
+      </c>
+      <c r="C10">
+        <v>17</v>
+      </c>
+      <c r="D10" t="s">
+        <v>271</v>
+      </c>
+      <c r="E10" s="48">
+        <v>0.4</v>
+      </c>
+      <c r="F10" s="48">
+        <v>-5.0999999999999996</v>
+      </c>
+      <c r="G10" s="49" t="str">
+        <f t="shared" si="1"/>
+        <v>N</v>
+      </c>
+    </row>
+    <row r="11" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B11" t="s">
+        <v>267</v>
+      </c>
+      <c r="C11">
+        <v>17</v>
+      </c>
+      <c r="D11" t="s">
+        <v>300</v>
+      </c>
+      <c r="E11" s="48">
+        <v>10.27</v>
+      </c>
+      <c r="F11" s="48">
+        <v>2.1</v>
+      </c>
+      <c r="G11" s="49" t="str">
+        <f t="shared" si="1"/>
+        <v>Y</v>
+      </c>
+    </row>
+    <row r="12" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B12" t="s">
+        <v>268</v>
+      </c>
+      <c r="C12">
+        <v>14</v>
+      </c>
+      <c r="D12" t="s">
+        <v>278</v>
+      </c>
+      <c r="E12" s="48">
+        <v>21.41</v>
+      </c>
+      <c r="F12" s="48">
+        <v>-13.01</v>
+      </c>
+      <c r="G12" s="49" t="str">
+        <f t="shared" si="1"/>
+        <v>Y</v>
+      </c>
+    </row>
+    <row r="13" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B13" t="s">
+        <v>269</v>
+      </c>
+      <c r="C13">
+        <v>13</v>
+      </c>
+      <c r="D13" t="s">
+        <v>279</v>
+      </c>
+      <c r="E13" s="48">
+        <v>4.84</v>
+      </c>
+      <c r="F13" s="48">
+        <v>-0.8</v>
+      </c>
+      <c r="G13" s="49" t="str">
+        <f t="shared" si="1"/>
+        <v>Y</v>
+      </c>
+    </row>
+    <row r="14" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B14" t="s">
+        <v>269</v>
+      </c>
+      <c r="C14">
+        <v>13</v>
+      </c>
+      <c r="D14" t="s">
+        <v>280</v>
+      </c>
+      <c r="E14" s="48">
+        <v>4.3600000000000003</v>
+      </c>
+      <c r="F14" s="48">
+        <v>-2.44</v>
+      </c>
+      <c r="G14" s="49" t="str">
+        <f t="shared" si="1"/>
+        <v>Y</v>
+      </c>
+    </row>
+    <row r="15" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B15" t="s">
+        <v>269</v>
+      </c>
+      <c r="C15">
+        <v>13</v>
+      </c>
+      <c r="D15" t="s">
+        <v>239</v>
+      </c>
+      <c r="E15" s="48">
+        <v>8.64</v>
+      </c>
+      <c r="F15" s="48">
+        <v>-2.57</v>
+      </c>
+      <c r="G15" s="49" t="str">
+        <f t="shared" si="1"/>
+        <v>Y</v>
+      </c>
+    </row>
+    <row r="16" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B16" t="s">
+        <v>269</v>
+      </c>
+      <c r="C16">
+        <v>13</v>
+      </c>
+      <c r="D16" t="s">
+        <v>294</v>
+      </c>
+      <c r="E16" s="48">
+        <v>3.23</v>
+      </c>
+      <c r="F16" s="48">
+        <v>-2.76</v>
+      </c>
+      <c r="G16" s="49" t="str">
+        <f t="shared" si="1"/>
+        <v>Y</v>
+      </c>
+    </row>
+    <row r="17" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B17" t="s">
+        <v>270</v>
+      </c>
+      <c r="C17">
+        <v>12</v>
+      </c>
+      <c r="D17" t="s">
+        <v>281</v>
+      </c>
+      <c r="E17" s="48">
+        <v>1.78</v>
+      </c>
+      <c r="F17" s="48">
+        <v>-0.89</v>
+      </c>
+      <c r="G17" s="49" t="str">
+        <f t="shared" si="1"/>
+        <v>Y</v>
+      </c>
+    </row>
+    <row r="18" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B18" t="s">
+        <v>270</v>
+      </c>
+      <c r="C18">
+        <v>12</v>
+      </c>
+      <c r="D18" t="s">
+        <v>282</v>
+      </c>
+      <c r="E18" s="48">
+        <v>16.61</v>
+      </c>
+      <c r="F18" s="48">
+        <v>4.28</v>
+      </c>
+      <c r="G18" s="49" t="str">
+        <f t="shared" si="1"/>
+        <v>Y</v>
+      </c>
+    </row>
+    <row r="19" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B19" t="s">
+        <v>270</v>
+      </c>
+      <c r="C19">
+        <v>12</v>
+      </c>
+      <c r="D19" t="s">
+        <v>297</v>
+      </c>
+      <c r="E19" s="48">
+        <v>2.11</v>
+      </c>
+      <c r="F19" s="48">
+        <v>-2.71</v>
+      </c>
+      <c r="G19" s="49" t="str">
+        <f t="shared" si="1"/>
+        <v>Y</v>
+      </c>
+    </row>
+    <row r="20" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B20" t="s">
+        <v>286</v>
+      </c>
+      <c r="C20">
+        <v>11</v>
+      </c>
+      <c r="D20" t="s">
+        <v>287</v>
+      </c>
+      <c r="E20" s="48">
+        <v>9.36</v>
+      </c>
+      <c r="F20" s="48">
+        <v>-2.2200000000000002</v>
+      </c>
+      <c r="G20" s="49" t="str">
+        <f t="shared" si="1"/>
+        <v>Y</v>
+      </c>
+    </row>
+    <row r="21" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B21" t="s">
+        <v>286</v>
+      </c>
+      <c r="C21">
+        <v>11</v>
+      </c>
+      <c r="D21" t="s">
+        <v>288</v>
+      </c>
+      <c r="E21" s="48">
+        <v>2.2599999999999998</v>
+      </c>
+      <c r="F21" s="48">
+        <v>-2.13</v>
+      </c>
+      <c r="G21" s="49" t="str">
+        <f t="shared" si="1"/>
+        <v>Y</v>
+      </c>
+    </row>
+    <row r="22" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B22" t="s">
+        <v>286</v>
+      </c>
+      <c r="C22">
+        <v>11</v>
+      </c>
+      <c r="D22" t="s">
+        <v>295</v>
+      </c>
+      <c r="E22" s="48">
+        <v>7.53</v>
+      </c>
+      <c r="F22" s="48">
+        <v>-9.2100000000000009</v>
+      </c>
+      <c r="G22" s="49" t="str">
+        <f t="shared" si="1"/>
+        <v>Y</v>
+      </c>
+    </row>
+    <row r="23" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B23" t="s">
+        <v>286</v>
+      </c>
+      <c r="C23">
+        <v>11</v>
+      </c>
+      <c r="D23" t="s">
+        <v>296</v>
+      </c>
+      <c r="E23" s="48">
+        <v>8.7799999999999994</v>
+      </c>
+      <c r="F23" s="48">
+        <v>-0.71</v>
+      </c>
+      <c r="G23" s="49" t="str">
+        <f t="shared" si="1"/>
+        <v>Y</v>
+      </c>
+    </row>
+    <row r="24" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B24" t="s">
+        <v>291</v>
+      </c>
+      <c r="C24">
+        <v>10</v>
+      </c>
+      <c r="D24" t="s">
+        <v>281</v>
+      </c>
+      <c r="E24" s="48">
+        <v>4.05</v>
+      </c>
+      <c r="F24" s="48">
+        <v>-1.1000000000000001</v>
+      </c>
+      <c r="G24" s="49" t="str">
+        <f t="shared" si="1"/>
+        <v>Y</v>
+      </c>
+    </row>
+    <row r="25" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B25" t="s">
+        <v>291</v>
+      </c>
+      <c r="C25">
+        <v>10</v>
+      </c>
+      <c r="D25" t="s">
+        <v>292</v>
+      </c>
+      <c r="E25" s="48">
+        <v>5.54</v>
+      </c>
+      <c r="F25" s="48">
+        <v>-1.6</v>
+      </c>
+      <c r="G25" s="49" t="str">
+        <f t="shared" si="1"/>
+        <v>Y</v>
+      </c>
+    </row>
+    <row r="26" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B26" t="s">
+        <v>291</v>
+      </c>
+      <c r="C26">
+        <v>10</v>
+      </c>
+      <c r="D26" t="s">
+        <v>293</v>
+      </c>
+      <c r="E26" s="48">
+        <v>8.94</v>
+      </c>
+      <c r="F26" s="48">
+        <v>-0.81</v>
+      </c>
+      <c r="G26" s="49" t="str">
+        <f t="shared" si="1"/>
+        <v>Y</v>
+      </c>
+    </row>
+    <row r="27" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B27" t="s">
+        <v>291</v>
+      </c>
+      <c r="C27">
+        <v>10</v>
+      </c>
+      <c r="D27" t="s">
+        <v>294</v>
+      </c>
+      <c r="E27" s="48">
+        <v>6.67</v>
+      </c>
+      <c r="F27" s="48">
+        <v>-1.9</v>
+      </c>
+      <c r="G27" s="49" t="str">
+        <f t="shared" si="1"/>
+        <v>Y</v>
+      </c>
+    </row>
+  </sheetData>
+  <autoFilter ref="B4:G27"/>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <conditionalFormatting sqref="E8:F9 E11:F1048576">
+    <cfRule type="cellIs" dxfId="14" priority="17" operator="greaterThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E3:F4 E1:E2 E11:F1048576 E8:F9">
+    <cfRule type="cellIs" dxfId="13" priority="16" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G1 I1 G3:G4 G8:G1048576">
+    <cfRule type="cellIs" dxfId="12" priority="14" operator="equal">
+      <formula>"N"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="11" priority="15" operator="equal">
+      <formula>"Y"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C1">
+    <cfRule type="cellIs" dxfId="10" priority="11" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E10:F10">
+    <cfRule type="cellIs" dxfId="9" priority="10" operator="greaterThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E10:F10">
+    <cfRule type="cellIs" dxfId="8" priority="9" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E6:F6">
+    <cfRule type="cellIs" dxfId="7" priority="8" operator="greaterThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E6:F6">
+    <cfRule type="cellIs" dxfId="6" priority="7" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G6">
+    <cfRule type="cellIs" dxfId="5" priority="5" operator="equal">
+      <formula>"N"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="4" priority="6" operator="equal">
+      <formula>"Y"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E5:F5 E7:F7">
+    <cfRule type="cellIs" dxfId="3" priority="4" operator="greaterThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E5:F5 E7:F7">
+    <cfRule type="cellIs" dxfId="2" priority="3" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G5 G7">
+    <cfRule type="cellIs" dxfId="1" priority="1" operator="equal">
+      <formula>"N"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="0" priority="2" operator="equal">
+      <formula>"Y"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/WorkShop/01.docs/01.초기학습.xlsx
+++ b/WorkShop/01.docs/01.초기학습.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11850" activeTab="6"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11850"/>
   </bookViews>
   <sheets>
     <sheet name="00.참고" sheetId="2" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="523" uniqueCount="325">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="547" uniqueCount="348">
   <si>
     <t>사이트명</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1915,40 +1915,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>장전시간외매매(종목의 전일종가(기준가)로거래)</t>
-  </si>
-  <si>
-    <t>동시호가(주문만 접수가능)</t>
-  </si>
-  <si>
-    <t>08:00~09:00 (체결은 9시정규 시장부터~)</t>
-  </si>
-  <si>
-    <t>정규시장</t>
-  </si>
-  <si>
-    <t>시간외단일가거래 (10분단위 체결)</t>
-  </si>
-  <si>
-    <t>09:00~15:30 (15:20분부터 동시호가)    (실시간 체결)</t>
-  </si>
-  <si>
-    <t>거래시간</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>15:30~16:00 (당일 종가로 거래) </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>07:30~08:30 (보통 7:20분부터 주문 접수가능) </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>16:00~18:00 정규시장 당일종가 ± 10% 이내. (당일 정규시장 가격제한폭 이내)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>용식_지표조합_A_V0.01</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1974,10 +1940,6 @@
   </si>
   <si>
     <t>2020-02-19</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>장후시간외거래 </t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -2046,6 +2008,123 @@
 J 0일전 기준 5일 누적 외국인 순매수 100백만원 이상
 (K or A or B or C) and D and E and F and (I or J)</t>
     </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t> 주문가격</t>
+  </si>
+  <si>
+    <t>체결 우선 순위</t>
+  </si>
+  <si>
+    <t>체결방식 </t>
+  </si>
+  <si>
+    <t> 07:30 ~ 08:30</t>
+  </si>
+  <si>
+    <t>전일 종가</t>
+  </si>
+  <si>
+    <t> 08:00 ~ 09:00</t>
+  </si>
+  <si>
+    <t>지정가 </t>
+  </si>
+  <si>
+    <t>1.가격 2.시간</t>
+  </si>
+  <si>
+    <t>장 개시 시점 일괄 체결 </t>
+  </si>
+  <si>
+    <t> 09:00 ~ 15:30</t>
+  </si>
+  <si>
+    <t>1.가격 2.시간 3.수량 </t>
+  </si>
+  <si>
+    <t>시장가 체결 </t>
+  </si>
+  <si>
+    <t> 15:20 ~ 15:30</t>
+  </si>
+  <si>
+    <t>장 마감 시점 일괄 체결</t>
+  </si>
+  <si>
+    <t> 15:40 ~ 16:00</t>
+  </si>
+  <si>
+    <t> 16:00 ~ 18:00</t>
+  </si>
+  <si>
+    <t>10분에 한번씩 단일가 일괄 체결 </t>
+  </si>
+  <si>
+    <t> 거래시간</t>
+  </si>
+  <si>
+    <t>종류</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>지정가(당일종가 -10% ~ +10%) </t>
+  </si>
+  <si>
+    <t>장전 시간외 종가</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>장 시작 동시호가</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>정규시간</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>장 마감 동시호가</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>장후 시간외 종가</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>시간외 단일가</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>시간우선</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.가격 2.시간</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>시간우선</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>지정가,시장가 등</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>지정가</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>당일 종가</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>즉시체결</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>15:30~15:40 주문만 가능. 15:40~16:00 즉시체결</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2165,7 +2244,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="9">
+  <borders count="8">
     <border>
       <left/>
       <right/>
@@ -2258,22 +2337,13 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="67">
+  <cellXfs count="66">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2442,17 +2512,17 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="4" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="49" fontId="4" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="4" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="8" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="8" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="8" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -2466,14 +2536,11 @@
     <xf numFmtId="49" fontId="8" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="8" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="8" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="49" fontId="8" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -6820,13 +6887,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:G34"/>
+  <dimension ref="B1:J23"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="F17" sqref="F17"/>
+      <selection pane="bottomRight" activeCell="I15" sqref="I15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="12" x14ac:dyDescent="0.3"/>
@@ -6836,12 +6903,15 @@
     <col min="3" max="3" width="31.5" style="1" customWidth="1"/>
     <col min="4" max="4" width="56.125" style="2" customWidth="1"/>
     <col min="5" max="5" width="4.25" style="1" customWidth="1"/>
-    <col min="6" max="6" width="36.625" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="55.625" style="1" customWidth="1"/>
-    <col min="8" max="16384" width="9" style="1"/>
+    <col min="6" max="6" width="13.875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11.875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="25.125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="16.375" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="37.125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B1" s="3" t="s">
         <v>0</v>
       </c>
@@ -6851,12 +6921,23 @@
       <c r="D1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="F1" s="56" t="s">
-        <v>307</v>
-      </c>
-      <c r="G1" s="57"/>
-    </row>
-    <row r="2" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="F1" s="3" t="s">
+        <v>332</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>331</v>
+      </c>
+      <c r="H1" s="3" t="s">
+        <v>314</v>
+      </c>
+      <c r="I1" s="3" t="s">
+        <v>315</v>
+      </c>
+      <c r="J1" s="3" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="2" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B2" s="4" t="s">
         <v>53</v>
       </c>
@@ -6866,14 +6947,23 @@
       <c r="D2" s="20" t="s">
         <v>55</v>
       </c>
-      <c r="F2" s="4" t="s">
-        <v>301</v>
+      <c r="F2" s="5" t="s">
+        <v>334</v>
       </c>
       <c r="G2" s="4" t="s">
-        <v>309</v>
-      </c>
-    </row>
-    <row r="3" spans="2:7" x14ac:dyDescent="0.3">
+        <v>317</v>
+      </c>
+      <c r="H2" s="4" t="s">
+        <v>318</v>
+      </c>
+      <c r="I2" s="4" t="s">
+        <v>340</v>
+      </c>
+      <c r="J2" s="4" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="3" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B3" s="21" t="s">
         <v>56</v>
       </c>
@@ -6881,14 +6971,23 @@
         <v>57</v>
       </c>
       <c r="D3" s="20"/>
-      <c r="F3" s="4" t="s">
-        <v>302</v>
+      <c r="F3" s="5" t="s">
+        <v>335</v>
       </c>
       <c r="G3" s="4" t="s">
-        <v>303</v>
-      </c>
-    </row>
-    <row r="4" spans="2:7" x14ac:dyDescent="0.3">
+        <v>319</v>
+      </c>
+      <c r="H3" s="4" t="s">
+        <v>320</v>
+      </c>
+      <c r="I3" s="4" t="s">
+        <v>321</v>
+      </c>
+      <c r="J3" s="4" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="4" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B4" s="21" t="s">
         <v>58</v>
       </c>
@@ -6898,14 +6997,23 @@
       <c r="D4" s="20" t="s">
         <v>60</v>
       </c>
-      <c r="F4" s="4" t="s">
-        <v>304</v>
+      <c r="F4" s="5" t="s">
+        <v>336</v>
       </c>
       <c r="G4" s="4" t="s">
-        <v>306</v>
-      </c>
-    </row>
-    <row r="5" spans="2:7" x14ac:dyDescent="0.3">
+        <v>323</v>
+      </c>
+      <c r="H4" s="4" t="s">
+        <v>343</v>
+      </c>
+      <c r="I4" s="4" t="s">
+        <v>324</v>
+      </c>
+      <c r="J4" s="4" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="5" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B5" s="21" t="s">
         <v>61</v>
       </c>
@@ -6915,14 +7023,23 @@
       <c r="D5" s="20" t="s">
         <v>63</v>
       </c>
-      <c r="F5" s="4" t="s">
-        <v>318</v>
+      <c r="F5" s="5" t="s">
+        <v>337</v>
       </c>
       <c r="G5" s="4" t="s">
-        <v>308</v>
-      </c>
-    </row>
-    <row r="6" spans="2:7" x14ac:dyDescent="0.3">
+        <v>326</v>
+      </c>
+      <c r="H5" s="4" t="s">
+        <v>344</v>
+      </c>
+      <c r="I5" s="4" t="s">
+        <v>341</v>
+      </c>
+      <c r="J5" s="4" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="6" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B6" s="21" t="s">
         <v>35</v>
       </c>
@@ -6932,14 +7049,23 @@
       <c r="D6" s="20" t="s">
         <v>63</v>
       </c>
-      <c r="F6" s="4" t="s">
-        <v>305</v>
+      <c r="F6" s="5" t="s">
+        <v>338</v>
       </c>
       <c r="G6" s="4" t="s">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="7" spans="2:7" x14ac:dyDescent="0.3">
+        <v>328</v>
+      </c>
+      <c r="H6" s="4" t="s">
+        <v>345</v>
+      </c>
+      <c r="I6" s="4" t="s">
+        <v>342</v>
+      </c>
+      <c r="J6" s="65" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="7" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B7" s="21" t="s">
         <v>64</v>
       </c>
@@ -6949,8 +7075,23 @@
       <c r="D7" s="20" t="s">
         <v>63</v>
       </c>
-    </row>
-    <row r="8" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="F7" s="5" t="s">
+        <v>339</v>
+      </c>
+      <c r="G7" s="4" t="s">
+        <v>329</v>
+      </c>
+      <c r="H7" s="4" t="s">
+        <v>333</v>
+      </c>
+      <c r="I7" s="4" t="s">
+        <v>341</v>
+      </c>
+      <c r="J7" s="4" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="8" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B8" s="4" t="s">
         <v>66</v>
       </c>
@@ -6961,7 +7102,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="9" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="9" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B9" s="4" t="s">
         <v>69</v>
       </c>
@@ -6972,7 +7113,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="10" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="10" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B10" s="4" t="s">
         <v>71</v>
       </c>
@@ -6983,7 +7124,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="11" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="11" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B11" s="4" t="s">
         <v>147</v>
       </c>
@@ -6994,27 +7135,27 @@
         <v>148</v>
       </c>
     </row>
-    <row r="12" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="12" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B12" s="4"/>
       <c r="C12" s="4"/>
       <c r="D12" s="5"/>
     </row>
-    <row r="13" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="13" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B13" s="4"/>
       <c r="C13" s="4"/>
       <c r="D13" s="5"/>
     </row>
-    <row r="14" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="14" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B14" s="4"/>
       <c r="C14" s="4"/>
       <c r="D14" s="5"/>
     </row>
-    <row r="15" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="15" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B15" s="4"/>
       <c r="C15" s="4"/>
       <c r="D15" s="5"/>
     </row>
-    <row r="16" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="16" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B16" s="4"/>
       <c r="C16" s="4"/>
       <c r="D16" s="5"/>
@@ -7054,65 +7195,7 @@
       <c r="C23" s="4"/>
       <c r="D23" s="5"/>
     </row>
-    <row r="24" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B24" s="4"/>
-      <c r="C24" s="4"/>
-      <c r="D24" s="5"/>
-    </row>
-    <row r="25" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B25" s="4"/>
-      <c r="C25" s="4"/>
-      <c r="D25" s="5"/>
-    </row>
-    <row r="26" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B26" s="4"/>
-      <c r="C26" s="4"/>
-      <c r="D26" s="5"/>
-    </row>
-    <row r="27" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B27" s="4"/>
-      <c r="C27" s="4"/>
-      <c r="D27" s="5"/>
-    </row>
-    <row r="28" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B28" s="4"/>
-      <c r="C28" s="4"/>
-      <c r="D28" s="5"/>
-    </row>
-    <row r="29" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B29" s="4"/>
-      <c r="C29" s="4"/>
-      <c r="D29" s="5"/>
-    </row>
-    <row r="30" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B30" s="4"/>
-      <c r="C30" s="4"/>
-      <c r="D30" s="5"/>
-    </row>
-    <row r="31" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B31" s="4"/>
-      <c r="C31" s="4"/>
-      <c r="D31" s="5"/>
-    </row>
-    <row r="32" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B32" s="4"/>
-      <c r="C32" s="4"/>
-      <c r="D32" s="5"/>
-    </row>
-    <row r="33" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B33" s="4"/>
-      <c r="C33" s="4"/>
-      <c r="D33" s="5"/>
-    </row>
-    <row r="34" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B34" s="4"/>
-      <c r="C34" s="4"/>
-      <c r="D34" s="5"/>
-    </row>
   </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="F1:G1"/>
-  </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -7139,14 +7222,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B1" s="58" t="s">
+      <c r="B1" s="56" t="s">
         <v>124</v>
       </c>
-      <c r="C1" s="59"/>
-      <c r="D1" s="58" t="s">
+      <c r="C1" s="57"/>
+      <c r="D1" s="56" t="s">
         <v>87</v>
       </c>
-      <c r="E1" s="59"/>
+      <c r="E1" s="57"/>
     </row>
     <row r="2" spans="2:5" ht="24" x14ac:dyDescent="0.3">
       <c r="B2" s="60" t="s">
@@ -7215,7 +7298,7 @@
       </c>
     </row>
     <row r="8" spans="2:5" ht="96" x14ac:dyDescent="0.3">
-      <c r="B8" s="66" t="s">
+      <c r="B8" s="64" t="s">
         <v>136</v>
       </c>
       <c r="C8" s="61"/>
@@ -7281,182 +7364,182 @@
       </c>
     </row>
     <row r="14" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B14" s="64"/>
-      <c r="C14" s="65"/>
+      <c r="B14" s="58"/>
+      <c r="C14" s="59"/>
       <c r="D14" s="28"/>
       <c r="E14" s="31"/>
     </row>
     <row r="15" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B15" s="64"/>
-      <c r="C15" s="65"/>
+      <c r="B15" s="58"/>
+      <c r="C15" s="59"/>
       <c r="D15" s="28"/>
       <c r="E15" s="31"/>
     </row>
     <row r="16" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B16" s="64"/>
-      <c r="C16" s="65"/>
+      <c r="B16" s="58"/>
+      <c r="C16" s="59"/>
       <c r="D16" s="28"/>
       <c r="E16" s="31"/>
     </row>
     <row r="17" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B17" s="64"/>
-      <c r="C17" s="65"/>
+      <c r="B17" s="58"/>
+      <c r="C17" s="59"/>
       <c r="D17" s="28"/>
       <c r="E17" s="31"/>
     </row>
     <row r="18" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B18" s="64"/>
-      <c r="C18" s="65"/>
+      <c r="B18" s="58"/>
+      <c r="C18" s="59"/>
       <c r="D18" s="28"/>
       <c r="E18" s="31"/>
     </row>
     <row r="19" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B19" s="64"/>
-      <c r="C19" s="65"/>
+      <c r="B19" s="58"/>
+      <c r="C19" s="59"/>
       <c r="D19" s="28"/>
       <c r="E19" s="31"/>
     </row>
     <row r="20" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B20" s="64"/>
-      <c r="C20" s="65"/>
+      <c r="B20" s="58"/>
+      <c r="C20" s="59"/>
       <c r="D20" s="28"/>
       <c r="E20" s="31"/>
     </row>
     <row r="21" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B21" s="64"/>
-      <c r="C21" s="65"/>
+      <c r="B21" s="58"/>
+      <c r="C21" s="59"/>
       <c r="D21" s="28"/>
       <c r="E21" s="31"/>
     </row>
     <row r="22" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B22" s="64"/>
-      <c r="C22" s="65"/>
+      <c r="B22" s="58"/>
+      <c r="C22" s="59"/>
       <c r="D22" s="28"/>
       <c r="E22" s="31"/>
     </row>
     <row r="23" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B23" s="64"/>
-      <c r="C23" s="65"/>
+      <c r="B23" s="58"/>
+      <c r="C23" s="59"/>
       <c r="D23" s="28"/>
       <c r="E23" s="31"/>
     </row>
     <row r="24" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B24" s="64"/>
-      <c r="C24" s="65"/>
+      <c r="B24" s="58"/>
+      <c r="C24" s="59"/>
       <c r="D24" s="28"/>
       <c r="E24" s="31"/>
     </row>
     <row r="25" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B25" s="64"/>
-      <c r="C25" s="65"/>
+      <c r="B25" s="58"/>
+      <c r="C25" s="59"/>
       <c r="D25" s="28"/>
       <c r="E25" s="31"/>
     </row>
     <row r="26" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B26" s="64"/>
-      <c r="C26" s="65"/>
+      <c r="B26" s="58"/>
+      <c r="C26" s="59"/>
       <c r="D26" s="28"/>
       <c r="E26" s="31"/>
     </row>
     <row r="27" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B27" s="64"/>
-      <c r="C27" s="65"/>
+      <c r="B27" s="58"/>
+      <c r="C27" s="59"/>
       <c r="D27" s="28"/>
       <c r="E27" s="31"/>
     </row>
     <row r="28" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B28" s="64"/>
-      <c r="C28" s="65"/>
+      <c r="B28" s="58"/>
+      <c r="C28" s="59"/>
       <c r="D28" s="28"/>
       <c r="E28" s="31"/>
     </row>
     <row r="29" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B29" s="64"/>
-      <c r="C29" s="65"/>
+      <c r="B29" s="58"/>
+      <c r="C29" s="59"/>
       <c r="D29" s="28"/>
       <c r="E29" s="31"/>
     </row>
     <row r="30" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B30" s="64"/>
-      <c r="C30" s="65"/>
+      <c r="B30" s="58"/>
+      <c r="C30" s="59"/>
       <c r="D30" s="28"/>
       <c r="E30" s="31"/>
     </row>
     <row r="31" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B31" s="64"/>
-      <c r="C31" s="65"/>
+      <c r="B31" s="58"/>
+      <c r="C31" s="59"/>
       <c r="D31" s="28"/>
       <c r="E31" s="31"/>
     </row>
     <row r="32" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B32" s="64"/>
-      <c r="C32" s="65"/>
+      <c r="B32" s="58"/>
+      <c r="C32" s="59"/>
       <c r="D32" s="28"/>
       <c r="E32" s="31"/>
     </row>
     <row r="33" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B33" s="64"/>
-      <c r="C33" s="65"/>
+      <c r="B33" s="58"/>
+      <c r="C33" s="59"/>
       <c r="D33" s="28"/>
       <c r="E33" s="31"/>
     </row>
     <row r="34" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B34" s="64"/>
-      <c r="C34" s="65"/>
+      <c r="B34" s="58"/>
+      <c r="C34" s="59"/>
       <c r="D34" s="28"/>
       <c r="E34" s="31"/>
     </row>
     <row r="35" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B35" s="64"/>
-      <c r="C35" s="65"/>
+      <c r="B35" s="58"/>
+      <c r="C35" s="59"/>
       <c r="D35" s="28"/>
       <c r="E35" s="31"/>
     </row>
     <row r="36" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B36" s="64"/>
-      <c r="C36" s="65"/>
+      <c r="B36" s="58"/>
+      <c r="C36" s="59"/>
       <c r="D36" s="28"/>
       <c r="E36" s="31"/>
     </row>
     <row r="37" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B37" s="64"/>
-      <c r="C37" s="65"/>
+      <c r="B37" s="58"/>
+      <c r="C37" s="59"/>
       <c r="D37" s="28"/>
       <c r="E37" s="31"/>
     </row>
     <row r="38" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B38" s="64"/>
-      <c r="C38" s="65"/>
+      <c r="B38" s="58"/>
+      <c r="C38" s="59"/>
       <c r="D38" s="28"/>
       <c r="E38" s="31"/>
     </row>
     <row r="39" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B39" s="64"/>
-      <c r="C39" s="65"/>
+      <c r="B39" s="58"/>
+      <c r="C39" s="59"/>
       <c r="D39" s="28"/>
       <c r="E39" s="31"/>
     </row>
     <row r="40" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B40" s="64"/>
-      <c r="C40" s="65"/>
+      <c r="B40" s="58"/>
+      <c r="C40" s="59"/>
       <c r="D40" s="28"/>
       <c r="E40" s="31"/>
     </row>
     <row r="41" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B41" s="64"/>
-      <c r="C41" s="65"/>
+      <c r="B41" s="58"/>
+      <c r="C41" s="59"/>
       <c r="D41" s="28"/>
       <c r="E41" s="31"/>
     </row>
     <row r="42" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B42" s="64"/>
-      <c r="C42" s="65"/>
+      <c r="B42" s="58"/>
+      <c r="C42" s="59"/>
       <c r="D42" s="28"/>
       <c r="E42" s="31"/>
     </row>
     <row r="43" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B43" s="64"/>
-      <c r="C43" s="65"/>
+      <c r="B43" s="58"/>
+      <c r="C43" s="59"/>
       <c r="D43" s="28"/>
       <c r="E43" s="31"/>
     </row>
@@ -7466,12 +7549,22 @@
     <filterColumn colId="2" showButton="0"/>
   </autoFilter>
   <mergeCells count="38">
-    <mergeCell ref="B1:C1"/>
-    <mergeCell ref="B20:C20"/>
-    <mergeCell ref="B21:C21"/>
-    <mergeCell ref="B14:C14"/>
-    <mergeCell ref="B15:C15"/>
-    <mergeCell ref="B12:C13"/>
+    <mergeCell ref="D1:E1"/>
+    <mergeCell ref="B10:C11"/>
+    <mergeCell ref="B40:C40"/>
+    <mergeCell ref="B41:C41"/>
+    <mergeCell ref="B42:C42"/>
+    <mergeCell ref="B33:C33"/>
+    <mergeCell ref="B22:C22"/>
+    <mergeCell ref="B23:C23"/>
+    <mergeCell ref="B24:C24"/>
+    <mergeCell ref="B25:C25"/>
+    <mergeCell ref="B26:C26"/>
+    <mergeCell ref="B27:C27"/>
+    <mergeCell ref="B16:C16"/>
+    <mergeCell ref="B17:C17"/>
+    <mergeCell ref="B18:C18"/>
+    <mergeCell ref="B19:C19"/>
     <mergeCell ref="B43:C43"/>
     <mergeCell ref="B2:C3"/>
     <mergeCell ref="B4:C5"/>
@@ -7488,22 +7581,12 @@
     <mergeCell ref="B30:C30"/>
     <mergeCell ref="B31:C31"/>
     <mergeCell ref="B32:C32"/>
-    <mergeCell ref="D1:E1"/>
-    <mergeCell ref="B10:C11"/>
-    <mergeCell ref="B40:C40"/>
-    <mergeCell ref="B41:C41"/>
-    <mergeCell ref="B42:C42"/>
-    <mergeCell ref="B33:C33"/>
-    <mergeCell ref="B22:C22"/>
-    <mergeCell ref="B23:C23"/>
-    <mergeCell ref="B24:C24"/>
-    <mergeCell ref="B25:C25"/>
-    <mergeCell ref="B26:C26"/>
-    <mergeCell ref="B27:C27"/>
-    <mergeCell ref="B16:C16"/>
-    <mergeCell ref="B17:C17"/>
-    <mergeCell ref="B18:C18"/>
-    <mergeCell ref="B19:C19"/>
+    <mergeCell ref="B1:C1"/>
+    <mergeCell ref="B20:C20"/>
+    <mergeCell ref="B21:C21"/>
+    <mergeCell ref="B14:C14"/>
+    <mergeCell ref="B15:C15"/>
+    <mergeCell ref="B12:C13"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -8009,13 +8092,13 @@
     <row r="8" spans="2:6" ht="156" x14ac:dyDescent="0.3">
       <c r="B8" s="17"/>
       <c r="C8" s="17" t="s">
-        <v>311</v>
+        <v>301</v>
       </c>
       <c r="D8" s="47" t="s">
         <v>253</v>
       </c>
       <c r="E8" s="25" t="s">
-        <v>324</v>
+        <v>313</v>
       </c>
       <c r="F8" s="23"/>
     </row>
@@ -10221,13 +10304,13 @@
     </row>
     <row r="58" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B58" s="4" t="s">
-        <v>312</v>
+        <v>302</v>
       </c>
       <c r="C58" s="12" t="s">
-        <v>313</v>
+        <v>303</v>
       </c>
       <c r="D58" s="5" t="s">
-        <v>314</v>
+        <v>304</v>
       </c>
       <c r="E58" s="12" t="s">
         <v>258</v>
@@ -10236,7 +10319,7 @@
         <v>8400</v>
       </c>
       <c r="G58" s="12" t="s">
-        <v>317</v>
+        <v>307</v>
       </c>
       <c r="H58" s="13"/>
       <c r="I58" s="14" t="str">
@@ -10247,13 +10330,13 @@
     </row>
     <row r="59" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B59" s="4" t="s">
-        <v>312</v>
+        <v>302</v>
       </c>
       <c r="C59" s="12" t="s">
-        <v>315</v>
+        <v>305</v>
       </c>
       <c r="D59" s="5" t="s">
-        <v>316</v>
+        <v>306</v>
       </c>
       <c r="E59" s="12" t="s">
         <v>258</v>
@@ -10262,7 +10345,7 @@
         <v>43936</v>
       </c>
       <c r="G59" s="12" t="s">
-        <v>317</v>
+        <v>307</v>
       </c>
       <c r="H59" s="13"/>
       <c r="I59" s="14" t="str">
@@ -10629,11 +10712,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:K27"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
       <pane xSplit="1" ySplit="4" topLeftCell="B5" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="I22" sqref="I22"/>
+      <selection pane="bottomRight" activeCell="L32" sqref="L32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -10723,13 +10806,13 @@
     </row>
     <row r="5" spans="2:11" s="26" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B5" t="s">
-        <v>320</v>
+        <v>309</v>
       </c>
       <c r="C5">
         <v>18</v>
       </c>
       <c r="D5" t="s">
-        <v>321</v>
+        <v>310</v>
       </c>
       <c r="E5" s="48">
         <v>25.07</v>
@@ -10744,13 +10827,13 @@
     </row>
     <row r="6" spans="2:11" s="26" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B6" t="s">
-        <v>319</v>
+        <v>308</v>
       </c>
       <c r="C6">
         <v>18</v>
       </c>
       <c r="D6" t="s">
-        <v>322</v>
+        <v>311</v>
       </c>
       <c r="E6" s="48">
         <v>1.08</v>
@@ -10765,13 +10848,13 @@
     </row>
     <row r="7" spans="2:11" s="26" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B7" t="s">
-        <v>319</v>
+        <v>308</v>
       </c>
       <c r="C7">
         <v>18</v>
       </c>
       <c r="D7" t="s">
-        <v>323</v>
+        <v>312</v>
       </c>
       <c r="E7" s="48">
         <v>0.59</v>

--- a/WorkShop/01.docs/01.초기학습.xlsx
+++ b/WorkShop/01.docs/01.초기학습.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11850"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11850" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="00.참고" sheetId="2" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="547" uniqueCount="348">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="547" uniqueCount="349">
   <si>
     <t>사이트명</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -2125,6 +2125,10 @@
   </si>
   <si>
     <t>15:30~15:40 주문만 가능. 15:40~16:00 즉시체결</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>실패건수</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2512,17 +2516,14 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="49" fontId="4" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="4" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="8" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="8" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="8" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -2536,11 +2537,14 @@
     <xf numFmtId="49" fontId="8" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="49" fontId="8" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="8" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="49" fontId="8" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -6889,11 +6893,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:J23"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="I15" sqref="I15"/>
+      <selection pane="bottomRight" activeCell="G15" sqref="G15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="12" x14ac:dyDescent="0.3"/>
@@ -7061,7 +7065,7 @@
       <c r="I6" s="4" t="s">
         <v>342</v>
       </c>
-      <c r="J6" s="65" t="s">
+      <c r="J6" s="56" t="s">
         <v>347</v>
       </c>
     </row>
@@ -7222,20 +7226,20 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B1" s="56" t="s">
+      <c r="B1" s="57" t="s">
         <v>124</v>
       </c>
-      <c r="C1" s="57"/>
-      <c r="D1" s="56" t="s">
+      <c r="C1" s="58"/>
+      <c r="D1" s="57" t="s">
         <v>87</v>
       </c>
-      <c r="E1" s="57"/>
+      <c r="E1" s="58"/>
     </row>
     <row r="2" spans="2:5" ht="24" x14ac:dyDescent="0.3">
-      <c r="B2" s="60" t="s">
+      <c r="B2" s="59" t="s">
         <v>125</v>
       </c>
-      <c r="C2" s="61"/>
+      <c r="C2" s="60"/>
       <c r="D2" s="29" t="s">
         <v>127</v>
       </c>
@@ -7244,8 +7248,8 @@
       </c>
     </row>
     <row r="3" spans="2:5" ht="24" x14ac:dyDescent="0.3">
-      <c r="B3" s="62"/>
-      <c r="C3" s="63"/>
+      <c r="B3" s="61"/>
+      <c r="C3" s="62"/>
       <c r="D3" s="29" t="s">
         <v>128</v>
       </c>
@@ -7254,10 +7258,10 @@
       </c>
     </row>
     <row r="4" spans="2:5" ht="48" x14ac:dyDescent="0.3">
-      <c r="B4" s="60" t="s">
+      <c r="B4" s="59" t="s">
         <v>126</v>
       </c>
-      <c r="C4" s="61"/>
+      <c r="C4" s="60"/>
       <c r="D4" s="29" t="s">
         <v>127</v>
       </c>
@@ -7266,8 +7270,8 @@
       </c>
     </row>
     <row r="5" spans="2:5" ht="96" x14ac:dyDescent="0.3">
-      <c r="B5" s="62"/>
-      <c r="C5" s="63"/>
+      <c r="B5" s="61"/>
+      <c r="C5" s="62"/>
       <c r="D5" s="29" t="s">
         <v>128</v>
       </c>
@@ -7276,10 +7280,10 @@
       </c>
     </row>
     <row r="6" spans="2:5" ht="72" x14ac:dyDescent="0.3">
-      <c r="B6" s="60" t="s">
+      <c r="B6" s="59" t="s">
         <v>135</v>
       </c>
-      <c r="C6" s="61"/>
+      <c r="C6" s="60"/>
       <c r="D6" s="29" t="s">
         <v>127</v>
       </c>
@@ -7288,8 +7292,8 @@
       </c>
     </row>
     <row r="7" spans="2:5" ht="84" x14ac:dyDescent="0.3">
-      <c r="B7" s="62"/>
-      <c r="C7" s="63"/>
+      <c r="B7" s="61"/>
+      <c r="C7" s="62"/>
       <c r="D7" s="29" t="s">
         <v>128</v>
       </c>
@@ -7298,10 +7302,10 @@
       </c>
     </row>
     <row r="8" spans="2:5" ht="96" x14ac:dyDescent="0.3">
-      <c r="B8" s="64" t="s">
+      <c r="B8" s="65" t="s">
         <v>136</v>
       </c>
-      <c r="C8" s="61"/>
+      <c r="C8" s="60"/>
       <c r="D8" s="29" t="s">
         <v>127</v>
       </c>
@@ -7310,8 +7314,8 @@
       </c>
     </row>
     <row r="9" spans="2:5" ht="60" x14ac:dyDescent="0.3">
-      <c r="B9" s="62"/>
-      <c r="C9" s="63"/>
+      <c r="B9" s="61"/>
+      <c r="C9" s="62"/>
       <c r="D9" s="29" t="s">
         <v>128</v>
       </c>
@@ -7320,10 +7324,10 @@
       </c>
     </row>
     <row r="10" spans="2:5" ht="60" x14ac:dyDescent="0.3">
-      <c r="B10" s="60" t="s">
+      <c r="B10" s="59" t="s">
         <v>133</v>
       </c>
-      <c r="C10" s="61"/>
+      <c r="C10" s="60"/>
       <c r="D10" s="29" t="s">
         <v>127</v>
       </c>
@@ -7332,8 +7336,8 @@
       </c>
     </row>
     <row r="11" spans="2:5" ht="142.15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B11" s="62"/>
-      <c r="C11" s="63"/>
+      <c r="B11" s="61"/>
+      <c r="C11" s="62"/>
       <c r="D11" s="29" t="s">
         <v>128</v>
       </c>
@@ -7342,10 +7346,10 @@
       </c>
     </row>
     <row r="12" spans="2:5" ht="24" x14ac:dyDescent="0.3">
-      <c r="B12" s="60" t="s">
+      <c r="B12" s="59" t="s">
         <v>142</v>
       </c>
-      <c r="C12" s="61"/>
+      <c r="C12" s="60"/>
       <c r="D12" s="29" t="s">
         <v>127</v>
       </c>
@@ -7354,8 +7358,8 @@
       </c>
     </row>
     <row r="13" spans="2:5" ht="36" x14ac:dyDescent="0.3">
-      <c r="B13" s="62"/>
-      <c r="C13" s="63"/>
+      <c r="B13" s="61"/>
+      <c r="C13" s="62"/>
       <c r="D13" s="29" t="s">
         <v>128</v>
       </c>
@@ -7364,182 +7368,182 @@
       </c>
     </row>
     <row r="14" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B14" s="58"/>
-      <c r="C14" s="59"/>
+      <c r="B14" s="63"/>
+      <c r="C14" s="64"/>
       <c r="D14" s="28"/>
       <c r="E14" s="31"/>
     </row>
     <row r="15" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B15" s="58"/>
-      <c r="C15" s="59"/>
+      <c r="B15" s="63"/>
+      <c r="C15" s="64"/>
       <c r="D15" s="28"/>
       <c r="E15" s="31"/>
     </row>
     <row r="16" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B16" s="58"/>
-      <c r="C16" s="59"/>
+      <c r="B16" s="63"/>
+      <c r="C16" s="64"/>
       <c r="D16" s="28"/>
       <c r="E16" s="31"/>
     </row>
     <row r="17" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B17" s="58"/>
-      <c r="C17" s="59"/>
+      <c r="B17" s="63"/>
+      <c r="C17" s="64"/>
       <c r="D17" s="28"/>
       <c r="E17" s="31"/>
     </row>
     <row r="18" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B18" s="58"/>
-      <c r="C18" s="59"/>
+      <c r="B18" s="63"/>
+      <c r="C18" s="64"/>
       <c r="D18" s="28"/>
       <c r="E18" s="31"/>
     </row>
     <row r="19" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B19" s="58"/>
-      <c r="C19" s="59"/>
+      <c r="B19" s="63"/>
+      <c r="C19" s="64"/>
       <c r="D19" s="28"/>
       <c r="E19" s="31"/>
     </row>
     <row r="20" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B20" s="58"/>
-      <c r="C20" s="59"/>
+      <c r="B20" s="63"/>
+      <c r="C20" s="64"/>
       <c r="D20" s="28"/>
       <c r="E20" s="31"/>
     </row>
     <row r="21" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B21" s="58"/>
-      <c r="C21" s="59"/>
+      <c r="B21" s="63"/>
+      <c r="C21" s="64"/>
       <c r="D21" s="28"/>
       <c r="E21" s="31"/>
     </row>
     <row r="22" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B22" s="58"/>
-      <c r="C22" s="59"/>
+      <c r="B22" s="63"/>
+      <c r="C22" s="64"/>
       <c r="D22" s="28"/>
       <c r="E22" s="31"/>
     </row>
     <row r="23" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B23" s="58"/>
-      <c r="C23" s="59"/>
+      <c r="B23" s="63"/>
+      <c r="C23" s="64"/>
       <c r="D23" s="28"/>
       <c r="E23" s="31"/>
     </row>
     <row r="24" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B24" s="58"/>
-      <c r="C24" s="59"/>
+      <c r="B24" s="63"/>
+      <c r="C24" s="64"/>
       <c r="D24" s="28"/>
       <c r="E24" s="31"/>
     </row>
     <row r="25" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B25" s="58"/>
-      <c r="C25" s="59"/>
+      <c r="B25" s="63"/>
+      <c r="C25" s="64"/>
       <c r="D25" s="28"/>
       <c r="E25" s="31"/>
     </row>
     <row r="26" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B26" s="58"/>
-      <c r="C26" s="59"/>
+      <c r="B26" s="63"/>
+      <c r="C26" s="64"/>
       <c r="D26" s="28"/>
       <c r="E26" s="31"/>
     </row>
     <row r="27" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B27" s="58"/>
-      <c r="C27" s="59"/>
+      <c r="B27" s="63"/>
+      <c r="C27" s="64"/>
       <c r="D27" s="28"/>
       <c r="E27" s="31"/>
     </row>
     <row r="28" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B28" s="58"/>
-      <c r="C28" s="59"/>
+      <c r="B28" s="63"/>
+      <c r="C28" s="64"/>
       <c r="D28" s="28"/>
       <c r="E28" s="31"/>
     </row>
     <row r="29" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B29" s="58"/>
-      <c r="C29" s="59"/>
+      <c r="B29" s="63"/>
+      <c r="C29" s="64"/>
       <c r="D29" s="28"/>
       <c r="E29" s="31"/>
     </row>
     <row r="30" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B30" s="58"/>
-      <c r="C30" s="59"/>
+      <c r="B30" s="63"/>
+      <c r="C30" s="64"/>
       <c r="D30" s="28"/>
       <c r="E30" s="31"/>
     </row>
     <row r="31" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B31" s="58"/>
-      <c r="C31" s="59"/>
+      <c r="B31" s="63"/>
+      <c r="C31" s="64"/>
       <c r="D31" s="28"/>
       <c r="E31" s="31"/>
     </row>
     <row r="32" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B32" s="58"/>
-      <c r="C32" s="59"/>
+      <c r="B32" s="63"/>
+      <c r="C32" s="64"/>
       <c r="D32" s="28"/>
       <c r="E32" s="31"/>
     </row>
     <row r="33" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B33" s="58"/>
-      <c r="C33" s="59"/>
+      <c r="B33" s="63"/>
+      <c r="C33" s="64"/>
       <c r="D33" s="28"/>
       <c r="E33" s="31"/>
     </row>
     <row r="34" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B34" s="58"/>
-      <c r="C34" s="59"/>
+      <c r="B34" s="63"/>
+      <c r="C34" s="64"/>
       <c r="D34" s="28"/>
       <c r="E34" s="31"/>
     </row>
     <row r="35" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B35" s="58"/>
-      <c r="C35" s="59"/>
+      <c r="B35" s="63"/>
+      <c r="C35" s="64"/>
       <c r="D35" s="28"/>
       <c r="E35" s="31"/>
     </row>
     <row r="36" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B36" s="58"/>
-      <c r="C36" s="59"/>
+      <c r="B36" s="63"/>
+      <c r="C36" s="64"/>
       <c r="D36" s="28"/>
       <c r="E36" s="31"/>
     </row>
     <row r="37" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B37" s="58"/>
-      <c r="C37" s="59"/>
+      <c r="B37" s="63"/>
+      <c r="C37" s="64"/>
       <c r="D37" s="28"/>
       <c r="E37" s="31"/>
     </row>
     <row r="38" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B38" s="58"/>
-      <c r="C38" s="59"/>
+      <c r="B38" s="63"/>
+      <c r="C38" s="64"/>
       <c r="D38" s="28"/>
       <c r="E38" s="31"/>
     </row>
     <row r="39" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B39" s="58"/>
-      <c r="C39" s="59"/>
+      <c r="B39" s="63"/>
+      <c r="C39" s="64"/>
       <c r="D39" s="28"/>
       <c r="E39" s="31"/>
     </row>
     <row r="40" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B40" s="58"/>
-      <c r="C40" s="59"/>
+      <c r="B40" s="63"/>
+      <c r="C40" s="64"/>
       <c r="D40" s="28"/>
       <c r="E40" s="31"/>
     </row>
     <row r="41" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B41" s="58"/>
-      <c r="C41" s="59"/>
+      <c r="B41" s="63"/>
+      <c r="C41" s="64"/>
       <c r="D41" s="28"/>
       <c r="E41" s="31"/>
     </row>
     <row r="42" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B42" s="58"/>
-      <c r="C42" s="59"/>
+      <c r="B42" s="63"/>
+      <c r="C42" s="64"/>
       <c r="D42" s="28"/>
       <c r="E42" s="31"/>
     </row>
     <row r="43" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B43" s="58"/>
-      <c r="C43" s="59"/>
+      <c r="B43" s="63"/>
+      <c r="C43" s="64"/>
       <c r="D43" s="28"/>
       <c r="E43" s="31"/>
     </row>
@@ -7549,6 +7553,28 @@
     <filterColumn colId="2" showButton="0"/>
   </autoFilter>
   <mergeCells count="38">
+    <mergeCell ref="B1:C1"/>
+    <mergeCell ref="B20:C20"/>
+    <mergeCell ref="B21:C21"/>
+    <mergeCell ref="B14:C14"/>
+    <mergeCell ref="B15:C15"/>
+    <mergeCell ref="B12:C13"/>
+    <mergeCell ref="B43:C43"/>
+    <mergeCell ref="B2:C3"/>
+    <mergeCell ref="B4:C5"/>
+    <mergeCell ref="B6:C7"/>
+    <mergeCell ref="B8:C9"/>
+    <mergeCell ref="B34:C34"/>
+    <mergeCell ref="B35:C35"/>
+    <mergeCell ref="B36:C36"/>
+    <mergeCell ref="B37:C37"/>
+    <mergeCell ref="B38:C38"/>
+    <mergeCell ref="B39:C39"/>
+    <mergeCell ref="B28:C28"/>
+    <mergeCell ref="B29:C29"/>
+    <mergeCell ref="B30:C30"/>
+    <mergeCell ref="B31:C31"/>
+    <mergeCell ref="B32:C32"/>
     <mergeCell ref="D1:E1"/>
     <mergeCell ref="B10:C11"/>
     <mergeCell ref="B40:C40"/>
@@ -7565,28 +7591,6 @@
     <mergeCell ref="B17:C17"/>
     <mergeCell ref="B18:C18"/>
     <mergeCell ref="B19:C19"/>
-    <mergeCell ref="B43:C43"/>
-    <mergeCell ref="B2:C3"/>
-    <mergeCell ref="B4:C5"/>
-    <mergeCell ref="B6:C7"/>
-    <mergeCell ref="B8:C9"/>
-    <mergeCell ref="B34:C34"/>
-    <mergeCell ref="B35:C35"/>
-    <mergeCell ref="B36:C36"/>
-    <mergeCell ref="B37:C37"/>
-    <mergeCell ref="B38:C38"/>
-    <mergeCell ref="B39:C39"/>
-    <mergeCell ref="B28:C28"/>
-    <mergeCell ref="B29:C29"/>
-    <mergeCell ref="B30:C30"/>
-    <mergeCell ref="B31:C31"/>
-    <mergeCell ref="B32:C32"/>
-    <mergeCell ref="B1:C1"/>
-    <mergeCell ref="B20:C20"/>
-    <mergeCell ref="B21:C21"/>
-    <mergeCell ref="B14:C14"/>
-    <mergeCell ref="B15:C15"/>
-    <mergeCell ref="B12:C13"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -7983,11 +7987,11 @@
   <sheetPr filterMode="1"/>
   <dimension ref="B2:F101"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="1" ySplit="2" topLeftCell="B7" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="E13" sqref="E13"/>
+      <selection pane="bottomRight" activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="12" x14ac:dyDescent="0.3"/>
@@ -8777,10 +8781,10 @@
   <dimension ref="B2:O75"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="1" ySplit="2" topLeftCell="B33" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="2" topLeftCell="B21" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="H66" sqref="H66"/>
+      <selection pane="bottomRight" activeCell="B59" sqref="B59"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="12" x14ac:dyDescent="0.3"/>
@@ -10716,7 +10720,7 @@
       <pane xSplit="1" ySplit="4" topLeftCell="B5" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="L32" sqref="L32"/>
+      <selection pane="bottomRight" activeCell="I26" sqref="I26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -10754,7 +10758,7 @@
         <v>19</v>
       </c>
       <c r="H1" s="51" t="s">
-        <v>285</v>
+        <v>348</v>
       </c>
       <c r="I1" s="53">
         <f>COUNTIF($G$5:G371, "N")</f>

--- a/WorkShop/01.docs/01.초기학습.xlsx
+++ b/WorkShop/01.docs/01.초기학습.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\ProjectHome\Stocks\WorkShop\01.docs\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\WorkShop\AppHome\Stocks\WorkShop\01.docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11850" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11856" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="00.참고" sheetId="2" r:id="rId1"/>
@@ -2525,6 +2525,12 @@
     <xf numFmtId="49" fontId="4" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="49" fontId="8" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="8" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="49" fontId="8" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -2535,12 +2541,6 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="8" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="8" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="8" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="8" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -6900,22 +6900,22 @@
       <selection pane="bottomRight" activeCell="G15" sqref="G15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="12" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.2" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="7.25" style="1" customWidth="1"/>
-    <col min="2" max="2" width="31.875" style="1" customWidth="1"/>
+    <col min="1" max="1" width="7.19921875" style="1" customWidth="1"/>
+    <col min="2" max="2" width="31.8984375" style="1" customWidth="1"/>
     <col min="3" max="3" width="31.5" style="1" customWidth="1"/>
-    <col min="4" max="4" width="56.125" style="2" customWidth="1"/>
-    <col min="5" max="5" width="4.25" style="1" customWidth="1"/>
-    <col min="6" max="6" width="13.875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="11.875" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="25.125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="16.375" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="37.125" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="56.09765625" style="2" customWidth="1"/>
+    <col min="5" max="5" width="4.19921875" style="1" customWidth="1"/>
+    <col min="6" max="6" width="13.8984375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11.8984375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="25.09765625" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="16.3984375" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="37.09765625" style="1" bestFit="1" customWidth="1"/>
     <col min="11" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="1" spans="2:10" x14ac:dyDescent="0.4">
       <c r="B1" s="3" t="s">
         <v>0</v>
       </c>
@@ -6941,7 +6941,7 @@
         <v>316</v>
       </c>
     </row>
-    <row r="2" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="2" spans="2:10" x14ac:dyDescent="0.4">
       <c r="B2" s="4" t="s">
         <v>53</v>
       </c>
@@ -6967,7 +6967,7 @@
         <v>346</v>
       </c>
     </row>
-    <row r="3" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="3" spans="2:10" x14ac:dyDescent="0.4">
       <c r="B3" s="21" t="s">
         <v>56</v>
       </c>
@@ -6991,7 +6991,7 @@
         <v>322</v>
       </c>
     </row>
-    <row r="4" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:10" x14ac:dyDescent="0.4">
       <c r="B4" s="21" t="s">
         <v>58</v>
       </c>
@@ -7017,7 +7017,7 @@
         <v>325</v>
       </c>
     </row>
-    <row r="5" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="5" spans="2:10" x14ac:dyDescent="0.4">
       <c r="B5" s="21" t="s">
         <v>61</v>
       </c>
@@ -7043,7 +7043,7 @@
         <v>327</v>
       </c>
     </row>
-    <row r="6" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="6" spans="2:10" x14ac:dyDescent="0.4">
       <c r="B6" s="21" t="s">
         <v>35</v>
       </c>
@@ -7069,7 +7069,7 @@
         <v>347</v>
       </c>
     </row>
-    <row r="7" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="7" spans="2:10" x14ac:dyDescent="0.4">
       <c r="B7" s="21" t="s">
         <v>64</v>
       </c>
@@ -7095,7 +7095,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="8" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="8" spans="2:10" x14ac:dyDescent="0.4">
       <c r="B8" s="4" t="s">
         <v>66</v>
       </c>
@@ -7106,7 +7106,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="9" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="9" spans="2:10" x14ac:dyDescent="0.4">
       <c r="B9" s="4" t="s">
         <v>69</v>
       </c>
@@ -7117,7 +7117,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="10" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="10" spans="2:10" x14ac:dyDescent="0.4">
       <c r="B10" s="4" t="s">
         <v>71</v>
       </c>
@@ -7128,7 +7128,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="11" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="11" spans="2:10" x14ac:dyDescent="0.4">
       <c r="B11" s="4" t="s">
         <v>147</v>
       </c>
@@ -7139,62 +7139,62 @@
         <v>148</v>
       </c>
     </row>
-    <row r="12" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="12" spans="2:10" x14ac:dyDescent="0.4">
       <c r="B12" s="4"/>
       <c r="C12" s="4"/>
       <c r="D12" s="5"/>
     </row>
-    <row r="13" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="13" spans="2:10" x14ac:dyDescent="0.4">
       <c r="B13" s="4"/>
       <c r="C13" s="4"/>
       <c r="D13" s="5"/>
     </row>
-    <row r="14" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="14" spans="2:10" x14ac:dyDescent="0.4">
       <c r="B14" s="4"/>
       <c r="C14" s="4"/>
       <c r="D14" s="5"/>
     </row>
-    <row r="15" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="15" spans="2:10" x14ac:dyDescent="0.4">
       <c r="B15" s="4"/>
       <c r="C15" s="4"/>
       <c r="D15" s="5"/>
     </row>
-    <row r="16" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="16" spans="2:10" x14ac:dyDescent="0.4">
       <c r="B16" s="4"/>
       <c r="C16" s="4"/>
       <c r="D16" s="5"/>
     </row>
-    <row r="17" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="17" spans="2:4" x14ac:dyDescent="0.4">
       <c r="B17" s="4"/>
       <c r="C17" s="4"/>
       <c r="D17" s="5"/>
     </row>
-    <row r="18" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="18" spans="2:4" x14ac:dyDescent="0.4">
       <c r="B18" s="4"/>
       <c r="C18" s="4"/>
       <c r="D18" s="5"/>
     </row>
-    <row r="19" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="19" spans="2:4" x14ac:dyDescent="0.4">
       <c r="B19" s="4"/>
       <c r="C19" s="4"/>
       <c r="D19" s="5"/>
     </row>
-    <row r="20" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="20" spans="2:4" x14ac:dyDescent="0.4">
       <c r="B20" s="4"/>
       <c r="C20" s="4"/>
       <c r="D20" s="5"/>
     </row>
-    <row r="21" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="21" spans="2:4" x14ac:dyDescent="0.4">
       <c r="B21" s="4"/>
       <c r="C21" s="4"/>
       <c r="D21" s="5"/>
     </row>
-    <row r="22" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="22" spans="2:4" x14ac:dyDescent="0.4">
       <c r="B22" s="4"/>
       <c r="C22" s="4"/>
       <c r="D22" s="5"/>
     </row>
-    <row r="23" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="23" spans="2:4" x14ac:dyDescent="0.4">
       <c r="B23" s="4"/>
       <c r="C23" s="4"/>
       <c r="D23" s="5"/>
@@ -7216,16 +7216,16 @@
       <selection pane="bottomRight" activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="12" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.2" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="7.25" style="1" customWidth="1"/>
-    <col min="2" max="2" width="31.875" style="1" customWidth="1"/>
-    <col min="3" max="4" width="15.375" style="1" customWidth="1"/>
-    <col min="5" max="5" width="118.125" style="32" customWidth="1"/>
+    <col min="1" max="1" width="7.19921875" style="1" customWidth="1"/>
+    <col min="2" max="2" width="31.8984375" style="1" customWidth="1"/>
+    <col min="3" max="4" width="15.3984375" style="1" customWidth="1"/>
+    <col min="5" max="5" width="118.09765625" style="32" customWidth="1"/>
     <col min="6" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="1" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B1" s="57" t="s">
         <v>124</v>
       </c>
@@ -7235,11 +7235,11 @@
       </c>
       <c r="E1" s="58"/>
     </row>
-    <row r="2" spans="2:5" ht="24" x14ac:dyDescent="0.3">
-      <c r="B2" s="59" t="s">
+    <row r="2" spans="2:5" ht="26.4" x14ac:dyDescent="0.4">
+      <c r="B2" s="61" t="s">
         <v>125</v>
       </c>
-      <c r="C2" s="60"/>
+      <c r="C2" s="62"/>
       <c r="D2" s="29" t="s">
         <v>127</v>
       </c>
@@ -7247,9 +7247,9 @@
         <v>140</v>
       </c>
     </row>
-    <row r="3" spans="2:5" ht="24" x14ac:dyDescent="0.3">
-      <c r="B3" s="61"/>
-      <c r="C3" s="62"/>
+    <row r="3" spans="2:5" ht="26.4" x14ac:dyDescent="0.4">
+      <c r="B3" s="63"/>
+      <c r="C3" s="64"/>
       <c r="D3" s="29" t="s">
         <v>128</v>
       </c>
@@ -7257,11 +7257,11 @@
         <v>129</v>
       </c>
     </row>
-    <row r="4" spans="2:5" ht="48" x14ac:dyDescent="0.3">
-      <c r="B4" s="59" t="s">
+    <row r="4" spans="2:5" ht="52.8" x14ac:dyDescent="0.4">
+      <c r="B4" s="61" t="s">
         <v>126</v>
       </c>
-      <c r="C4" s="60"/>
+      <c r="C4" s="62"/>
       <c r="D4" s="29" t="s">
         <v>127</v>
       </c>
@@ -7269,9 +7269,9 @@
         <v>139</v>
       </c>
     </row>
-    <row r="5" spans="2:5" ht="96" x14ac:dyDescent="0.3">
-      <c r="B5" s="61"/>
-      <c r="C5" s="62"/>
+    <row r="5" spans="2:5" ht="105.6" x14ac:dyDescent="0.4">
+      <c r="B5" s="63"/>
+      <c r="C5" s="64"/>
       <c r="D5" s="29" t="s">
         <v>128</v>
       </c>
@@ -7279,11 +7279,11 @@
         <v>130</v>
       </c>
     </row>
-    <row r="6" spans="2:5" ht="72" x14ac:dyDescent="0.3">
-      <c r="B6" s="59" t="s">
+    <row r="6" spans="2:5" ht="79.2" x14ac:dyDescent="0.4">
+      <c r="B6" s="61" t="s">
         <v>135</v>
       </c>
-      <c r="C6" s="60"/>
+      <c r="C6" s="62"/>
       <c r="D6" s="29" t="s">
         <v>127</v>
       </c>
@@ -7291,9 +7291,9 @@
         <v>138</v>
       </c>
     </row>
-    <row r="7" spans="2:5" ht="84" x14ac:dyDescent="0.3">
-      <c r="B7" s="61"/>
-      <c r="C7" s="62"/>
+    <row r="7" spans="2:5" ht="92.4" x14ac:dyDescent="0.4">
+      <c r="B7" s="63"/>
+      <c r="C7" s="64"/>
       <c r="D7" s="29" t="s">
         <v>128</v>
       </c>
@@ -7301,11 +7301,11 @@
         <v>131</v>
       </c>
     </row>
-    <row r="8" spans="2:5" ht="96" x14ac:dyDescent="0.3">
+    <row r="8" spans="2:5" ht="105.6" x14ac:dyDescent="0.4">
       <c r="B8" s="65" t="s">
         <v>136</v>
       </c>
-      <c r="C8" s="60"/>
+      <c r="C8" s="62"/>
       <c r="D8" s="29" t="s">
         <v>127</v>
       </c>
@@ -7313,9 +7313,9 @@
         <v>137</v>
       </c>
     </row>
-    <row r="9" spans="2:5" ht="60" x14ac:dyDescent="0.3">
-      <c r="B9" s="61"/>
-      <c r="C9" s="62"/>
+    <row r="9" spans="2:5" ht="66" x14ac:dyDescent="0.4">
+      <c r="B9" s="63"/>
+      <c r="C9" s="64"/>
       <c r="D9" s="29" t="s">
         <v>128</v>
       </c>
@@ -7323,11 +7323,11 @@
         <v>132</v>
       </c>
     </row>
-    <row r="10" spans="2:5" ht="60" x14ac:dyDescent="0.3">
-      <c r="B10" s="59" t="s">
+    <row r="10" spans="2:5" ht="66" x14ac:dyDescent="0.4">
+      <c r="B10" s="61" t="s">
         <v>133</v>
       </c>
-      <c r="C10" s="60"/>
+      <c r="C10" s="62"/>
       <c r="D10" s="29" t="s">
         <v>127</v>
       </c>
@@ -7335,9 +7335,9 @@
         <v>143</v>
       </c>
     </row>
-    <row r="11" spans="2:5" ht="142.15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B11" s="61"/>
-      <c r="C11" s="62"/>
+    <row r="11" spans="2:5" ht="142.19999999999999" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B11" s="63"/>
+      <c r="C11" s="64"/>
       <c r="D11" s="29" t="s">
         <v>128</v>
       </c>
@@ -7345,11 +7345,11 @@
         <v>149</v>
       </c>
     </row>
-    <row r="12" spans="2:5" ht="24" x14ac:dyDescent="0.3">
-      <c r="B12" s="59" t="s">
+    <row r="12" spans="2:5" ht="26.4" x14ac:dyDescent="0.4">
+      <c r="B12" s="61" t="s">
         <v>142</v>
       </c>
-      <c r="C12" s="60"/>
+      <c r="C12" s="62"/>
       <c r="D12" s="29" t="s">
         <v>127</v>
       </c>
@@ -7357,9 +7357,9 @@
         <v>144</v>
       </c>
     </row>
-    <row r="13" spans="2:5" ht="36" x14ac:dyDescent="0.3">
-      <c r="B13" s="61"/>
-      <c r="C13" s="62"/>
+    <row r="13" spans="2:5" ht="39.6" x14ac:dyDescent="0.4">
+      <c r="B13" s="63"/>
+      <c r="C13" s="64"/>
       <c r="D13" s="29" t="s">
         <v>128</v>
       </c>
@@ -7367,183 +7367,183 @@
         <v>145</v>
       </c>
     </row>
-    <row r="14" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B14" s="63"/>
-      <c r="C14" s="64"/>
+    <row r="14" spans="2:5" x14ac:dyDescent="0.4">
+      <c r="B14" s="59"/>
+      <c r="C14" s="60"/>
       <c r="D14" s="28"/>
       <c r="E14" s="31"/>
     </row>
-    <row r="15" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B15" s="63"/>
-      <c r="C15" s="64"/>
+    <row r="15" spans="2:5" x14ac:dyDescent="0.4">
+      <c r="B15" s="59"/>
+      <c r="C15" s="60"/>
       <c r="D15" s="28"/>
       <c r="E15" s="31"/>
     </row>
-    <row r="16" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B16" s="63"/>
-      <c r="C16" s="64"/>
+    <row r="16" spans="2:5" x14ac:dyDescent="0.4">
+      <c r="B16" s="59"/>
+      <c r="C16" s="60"/>
       <c r="D16" s="28"/>
       <c r="E16" s="31"/>
     </row>
-    <row r="17" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B17" s="63"/>
-      <c r="C17" s="64"/>
+    <row r="17" spans="2:5" x14ac:dyDescent="0.4">
+      <c r="B17" s="59"/>
+      <c r="C17" s="60"/>
       <c r="D17" s="28"/>
       <c r="E17" s="31"/>
     </row>
-    <row r="18" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B18" s="63"/>
-      <c r="C18" s="64"/>
+    <row r="18" spans="2:5" x14ac:dyDescent="0.4">
+      <c r="B18" s="59"/>
+      <c r="C18" s="60"/>
       <c r="D18" s="28"/>
       <c r="E18" s="31"/>
     </row>
-    <row r="19" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B19" s="63"/>
-      <c r="C19" s="64"/>
+    <row r="19" spans="2:5" x14ac:dyDescent="0.4">
+      <c r="B19" s="59"/>
+      <c r="C19" s="60"/>
       <c r="D19" s="28"/>
       <c r="E19" s="31"/>
     </row>
-    <row r="20" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B20" s="63"/>
-      <c r="C20" s="64"/>
+    <row r="20" spans="2:5" x14ac:dyDescent="0.4">
+      <c r="B20" s="59"/>
+      <c r="C20" s="60"/>
       <c r="D20" s="28"/>
       <c r="E20" s="31"/>
     </row>
-    <row r="21" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B21" s="63"/>
-      <c r="C21" s="64"/>
+    <row r="21" spans="2:5" x14ac:dyDescent="0.4">
+      <c r="B21" s="59"/>
+      <c r="C21" s="60"/>
       <c r="D21" s="28"/>
       <c r="E21" s="31"/>
     </row>
-    <row r="22" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B22" s="63"/>
-      <c r="C22" s="64"/>
+    <row r="22" spans="2:5" x14ac:dyDescent="0.4">
+      <c r="B22" s="59"/>
+      <c r="C22" s="60"/>
       <c r="D22" s="28"/>
       <c r="E22" s="31"/>
     </row>
-    <row r="23" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B23" s="63"/>
-      <c r="C23" s="64"/>
+    <row r="23" spans="2:5" x14ac:dyDescent="0.4">
+      <c r="B23" s="59"/>
+      <c r="C23" s="60"/>
       <c r="D23" s="28"/>
       <c r="E23" s="31"/>
     </row>
-    <row r="24" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B24" s="63"/>
-      <c r="C24" s="64"/>
+    <row r="24" spans="2:5" x14ac:dyDescent="0.4">
+      <c r="B24" s="59"/>
+      <c r="C24" s="60"/>
       <c r="D24" s="28"/>
       <c r="E24" s="31"/>
     </row>
-    <row r="25" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B25" s="63"/>
-      <c r="C25" s="64"/>
+    <row r="25" spans="2:5" x14ac:dyDescent="0.4">
+      <c r="B25" s="59"/>
+      <c r="C25" s="60"/>
       <c r="D25" s="28"/>
       <c r="E25" s="31"/>
     </row>
-    <row r="26" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B26" s="63"/>
-      <c r="C26" s="64"/>
+    <row r="26" spans="2:5" x14ac:dyDescent="0.4">
+      <c r="B26" s="59"/>
+      <c r="C26" s="60"/>
       <c r="D26" s="28"/>
       <c r="E26" s="31"/>
     </row>
-    <row r="27" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B27" s="63"/>
-      <c r="C27" s="64"/>
+    <row r="27" spans="2:5" x14ac:dyDescent="0.4">
+      <c r="B27" s="59"/>
+      <c r="C27" s="60"/>
       <c r="D27" s="28"/>
       <c r="E27" s="31"/>
     </row>
-    <row r="28" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B28" s="63"/>
-      <c r="C28" s="64"/>
+    <row r="28" spans="2:5" x14ac:dyDescent="0.4">
+      <c r="B28" s="59"/>
+      <c r="C28" s="60"/>
       <c r="D28" s="28"/>
       <c r="E28" s="31"/>
     </row>
-    <row r="29" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B29" s="63"/>
-      <c r="C29" s="64"/>
+    <row r="29" spans="2:5" x14ac:dyDescent="0.4">
+      <c r="B29" s="59"/>
+      <c r="C29" s="60"/>
       <c r="D29" s="28"/>
       <c r="E29" s="31"/>
     </row>
-    <row r="30" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B30" s="63"/>
-      <c r="C30" s="64"/>
+    <row r="30" spans="2:5" x14ac:dyDescent="0.4">
+      <c r="B30" s="59"/>
+      <c r="C30" s="60"/>
       <c r="D30" s="28"/>
       <c r="E30" s="31"/>
     </row>
-    <row r="31" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B31" s="63"/>
-      <c r="C31" s="64"/>
+    <row r="31" spans="2:5" x14ac:dyDescent="0.4">
+      <c r="B31" s="59"/>
+      <c r="C31" s="60"/>
       <c r="D31" s="28"/>
       <c r="E31" s="31"/>
     </row>
-    <row r="32" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B32" s="63"/>
-      <c r="C32" s="64"/>
+    <row r="32" spans="2:5" x14ac:dyDescent="0.4">
+      <c r="B32" s="59"/>
+      <c r="C32" s="60"/>
       <c r="D32" s="28"/>
       <c r="E32" s="31"/>
     </row>
-    <row r="33" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B33" s="63"/>
-      <c r="C33" s="64"/>
+    <row r="33" spans="2:5" x14ac:dyDescent="0.4">
+      <c r="B33" s="59"/>
+      <c r="C33" s="60"/>
       <c r="D33" s="28"/>
       <c r="E33" s="31"/>
     </row>
-    <row r="34" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B34" s="63"/>
-      <c r="C34" s="64"/>
+    <row r="34" spans="2:5" x14ac:dyDescent="0.4">
+      <c r="B34" s="59"/>
+      <c r="C34" s="60"/>
       <c r="D34" s="28"/>
       <c r="E34" s="31"/>
     </row>
-    <row r="35" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B35" s="63"/>
-      <c r="C35" s="64"/>
+    <row r="35" spans="2:5" x14ac:dyDescent="0.4">
+      <c r="B35" s="59"/>
+      <c r="C35" s="60"/>
       <c r="D35" s="28"/>
       <c r="E35" s="31"/>
     </row>
-    <row r="36" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B36" s="63"/>
-      <c r="C36" s="64"/>
+    <row r="36" spans="2:5" x14ac:dyDescent="0.4">
+      <c r="B36" s="59"/>
+      <c r="C36" s="60"/>
       <c r="D36" s="28"/>
       <c r="E36" s="31"/>
     </row>
-    <row r="37" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B37" s="63"/>
-      <c r="C37" s="64"/>
+    <row r="37" spans="2:5" x14ac:dyDescent="0.4">
+      <c r="B37" s="59"/>
+      <c r="C37" s="60"/>
       <c r="D37" s="28"/>
       <c r="E37" s="31"/>
     </row>
-    <row r="38" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B38" s="63"/>
-      <c r="C38" s="64"/>
+    <row r="38" spans="2:5" x14ac:dyDescent="0.4">
+      <c r="B38" s="59"/>
+      <c r="C38" s="60"/>
       <c r="D38" s="28"/>
       <c r="E38" s="31"/>
     </row>
-    <row r="39" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B39" s="63"/>
-      <c r="C39" s="64"/>
+    <row r="39" spans="2:5" x14ac:dyDescent="0.4">
+      <c r="B39" s="59"/>
+      <c r="C39" s="60"/>
       <c r="D39" s="28"/>
       <c r="E39" s="31"/>
     </row>
-    <row r="40" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B40" s="63"/>
-      <c r="C40" s="64"/>
+    <row r="40" spans="2:5" x14ac:dyDescent="0.4">
+      <c r="B40" s="59"/>
+      <c r="C40" s="60"/>
       <c r="D40" s="28"/>
       <c r="E40" s="31"/>
     </row>
-    <row r="41" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B41" s="63"/>
-      <c r="C41" s="64"/>
+    <row r="41" spans="2:5" x14ac:dyDescent="0.4">
+      <c r="B41" s="59"/>
+      <c r="C41" s="60"/>
       <c r="D41" s="28"/>
       <c r="E41" s="31"/>
     </row>
-    <row r="42" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B42" s="63"/>
-      <c r="C42" s="64"/>
+    <row r="42" spans="2:5" x14ac:dyDescent="0.4">
+      <c r="B42" s="59"/>
+      <c r="C42" s="60"/>
       <c r="D42" s="28"/>
       <c r="E42" s="31"/>
     </row>
-    <row r="43" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B43" s="63"/>
-      <c r="C43" s="64"/>
+    <row r="43" spans="2:5" x14ac:dyDescent="0.4">
+      <c r="B43" s="59"/>
+      <c r="C43" s="60"/>
       <c r="D43" s="28"/>
       <c r="E43" s="31"/>
     </row>
@@ -7553,12 +7553,22 @@
     <filterColumn colId="2" showButton="0"/>
   </autoFilter>
   <mergeCells count="38">
-    <mergeCell ref="B1:C1"/>
-    <mergeCell ref="B20:C20"/>
-    <mergeCell ref="B21:C21"/>
-    <mergeCell ref="B14:C14"/>
-    <mergeCell ref="B15:C15"/>
-    <mergeCell ref="B12:C13"/>
+    <mergeCell ref="D1:E1"/>
+    <mergeCell ref="B10:C11"/>
+    <mergeCell ref="B40:C40"/>
+    <mergeCell ref="B41:C41"/>
+    <mergeCell ref="B42:C42"/>
+    <mergeCell ref="B33:C33"/>
+    <mergeCell ref="B22:C22"/>
+    <mergeCell ref="B23:C23"/>
+    <mergeCell ref="B24:C24"/>
+    <mergeCell ref="B25:C25"/>
+    <mergeCell ref="B26:C26"/>
+    <mergeCell ref="B27:C27"/>
+    <mergeCell ref="B16:C16"/>
+    <mergeCell ref="B17:C17"/>
+    <mergeCell ref="B18:C18"/>
+    <mergeCell ref="B19:C19"/>
     <mergeCell ref="B43:C43"/>
     <mergeCell ref="B2:C3"/>
     <mergeCell ref="B4:C5"/>
@@ -7575,22 +7585,12 @@
     <mergeCell ref="B30:C30"/>
     <mergeCell ref="B31:C31"/>
     <mergeCell ref="B32:C32"/>
-    <mergeCell ref="D1:E1"/>
-    <mergeCell ref="B10:C11"/>
-    <mergeCell ref="B40:C40"/>
-    <mergeCell ref="B41:C41"/>
-    <mergeCell ref="B42:C42"/>
-    <mergeCell ref="B33:C33"/>
-    <mergeCell ref="B22:C22"/>
-    <mergeCell ref="B23:C23"/>
-    <mergeCell ref="B24:C24"/>
-    <mergeCell ref="B25:C25"/>
-    <mergeCell ref="B26:C26"/>
-    <mergeCell ref="B27:C27"/>
-    <mergeCell ref="B16:C16"/>
-    <mergeCell ref="B17:C17"/>
-    <mergeCell ref="B18:C18"/>
-    <mergeCell ref="B19:C19"/>
+    <mergeCell ref="B1:C1"/>
+    <mergeCell ref="B20:C20"/>
+    <mergeCell ref="B21:C21"/>
+    <mergeCell ref="B14:C14"/>
+    <mergeCell ref="B15:C15"/>
+    <mergeCell ref="B12:C13"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -7610,18 +7610,18 @@
       <selection pane="bottomRight" activeCell="F16" sqref="F16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="12" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.2" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="2.875" style="1" customWidth="1"/>
+    <col min="1" max="1" width="2.8984375" style="1" customWidth="1"/>
     <col min="2" max="2" width="14" style="1" customWidth="1"/>
-    <col min="3" max="3" width="28.125" style="1" customWidth="1"/>
-    <col min="4" max="4" width="15.75" style="8" customWidth="1"/>
-    <col min="5" max="5" width="45.25" style="2" customWidth="1"/>
-    <col min="6" max="6" width="62.375" style="2" customWidth="1"/>
+    <col min="3" max="3" width="28.09765625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="15.69921875" style="8" customWidth="1"/>
+    <col min="5" max="5" width="45.19921875" style="2" customWidth="1"/>
+    <col min="6" max="6" width="62.3984375" style="2" customWidth="1"/>
     <col min="7" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:6" s="8" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="2:6" s="8" customFormat="1" x14ac:dyDescent="0.4">
       <c r="B1" s="3" t="s">
         <v>159</v>
       </c>
@@ -7638,7 +7638,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="2" spans="2:6" ht="72" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="2:6" ht="72" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B2" s="39" t="s">
         <v>162</v>
       </c>
@@ -7653,7 +7653,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="3" spans="2:6" ht="72" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="2:6" ht="72" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B3" s="40" t="s">
         <v>165</v>
       </c>
@@ -7668,7 +7668,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="4" spans="2:6" ht="72" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:6" ht="72" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B4" s="41" t="s">
         <v>170</v>
       </c>
@@ -7683,7 +7683,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="5" spans="2:6" ht="72" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="2:6" ht="72" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B5" s="41" t="s">
         <v>173</v>
       </c>
@@ -7698,7 +7698,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="6" spans="2:6" ht="72" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="2:6" ht="72" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B6" s="34" t="s">
         <v>176</v>
       </c>
@@ -7713,7 +7713,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="7" spans="2:6" ht="72" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="2:6" ht="72" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B7" s="36" t="s">
         <v>180</v>
       </c>
@@ -7728,7 +7728,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="8" spans="2:6" ht="72" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="2:6" ht="72" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B8" s="36" t="s">
         <v>183</v>
       </c>
@@ -7743,7 +7743,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="9" spans="2:6" ht="72" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="2:6" ht="72" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B9" s="36" t="s">
         <v>188</v>
       </c>
@@ -7758,7 +7758,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="10" spans="2:6" ht="72" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="2:6" ht="72" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B10" s="42" t="s">
         <v>192</v>
       </c>
@@ -7773,7 +7773,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="11" spans="2:6" ht="72" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="2:6" ht="72" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B11" s="42" t="s">
         <v>198</v>
       </c>
@@ -7788,7 +7788,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="12" spans="2:6" ht="72" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="2:6" ht="72" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B12" s="42" t="s">
         <v>199</v>
       </c>
@@ -7803,7 +7803,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="13" spans="2:6" ht="72" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="2:6" ht="72" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B13" s="42" t="s">
         <v>201</v>
       </c>
@@ -7818,7 +7818,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="14" spans="2:6" ht="72" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="2:6" ht="72" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B14" s="34" t="s">
         <v>204</v>
       </c>
@@ -7833,7 +7833,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="15" spans="2:6" ht="72" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="2:6" ht="72" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B15" s="34" t="s">
         <v>207</v>
       </c>
@@ -7848,7 +7848,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="16" spans="2:6" ht="72" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="2:6" ht="72" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B16" s="34" t="s">
         <v>208</v>
       </c>
@@ -7863,112 +7863,112 @@
         <v>214</v>
       </c>
     </row>
-    <row r="17" spans="2:6" ht="72" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="2:6" ht="72" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B17" s="34"/>
       <c r="C17" s="4"/>
       <c r="D17" s="12"/>
       <c r="E17" s="35"/>
       <c r="F17" s="35"/>
     </row>
-    <row r="18" spans="2:6" ht="72" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="2:6" ht="72" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B18" s="34"/>
       <c r="C18" s="4"/>
       <c r="D18" s="12"/>
       <c r="E18" s="35"/>
       <c r="F18" s="35"/>
     </row>
-    <row r="19" spans="2:6" ht="72" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="2:6" ht="72" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B19" s="34"/>
       <c r="C19" s="4"/>
       <c r="D19" s="12"/>
       <c r="E19" s="35"/>
       <c r="F19" s="35"/>
     </row>
-    <row r="20" spans="2:6" ht="72" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="2:6" ht="72" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B20" s="34"/>
       <c r="C20" s="4"/>
       <c r="D20" s="12"/>
       <c r="E20" s="35"/>
       <c r="F20" s="35"/>
     </row>
-    <row r="21" spans="2:6" ht="72" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="2:6" ht="72" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B21" s="34"/>
       <c r="C21" s="4"/>
       <c r="D21" s="12"/>
       <c r="E21" s="35"/>
       <c r="F21" s="35"/>
     </row>
-    <row r="22" spans="2:6" ht="72" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="2:6" ht="72" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B22" s="34"/>
       <c r="C22" s="4"/>
       <c r="D22" s="12"/>
       <c r="E22" s="35"/>
       <c r="F22" s="35"/>
     </row>
-    <row r="23" spans="2:6" ht="72" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="2:6" ht="72" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B23" s="34"/>
       <c r="C23" s="4"/>
       <c r="D23" s="12"/>
       <c r="E23" s="35"/>
       <c r="F23" s="35"/>
     </row>
-    <row r="24" spans="2:6" ht="72" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="2:6" ht="72" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B24" s="34"/>
       <c r="C24" s="4"/>
       <c r="D24" s="12"/>
       <c r="E24" s="35"/>
       <c r="F24" s="35"/>
     </row>
-    <row r="25" spans="2:6" ht="72" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="2:6" ht="72" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B25" s="34"/>
       <c r="C25" s="4"/>
       <c r="D25" s="12"/>
       <c r="E25" s="35"/>
       <c r="F25" s="35"/>
     </row>
-    <row r="26" spans="2:6" ht="72" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="2:6" ht="72" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B26" s="34"/>
       <c r="C26" s="4"/>
       <c r="D26" s="12"/>
       <c r="E26" s="35"/>
       <c r="F26" s="35"/>
     </row>
-    <row r="27" spans="2:6" ht="72" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="2:6" ht="72" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B27" s="34"/>
       <c r="C27" s="4"/>
       <c r="D27" s="12"/>
       <c r="E27" s="35"/>
       <c r="F27" s="35"/>
     </row>
-    <row r="28" spans="2:6" ht="72" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="2:6" ht="72" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B28" s="34"/>
       <c r="C28" s="4"/>
       <c r="D28" s="12"/>
       <c r="E28" s="35"/>
       <c r="F28" s="35"/>
     </row>
-    <row r="29" spans="2:6" ht="72" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="2:6" ht="72" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B29" s="34"/>
       <c r="C29" s="4"/>
       <c r="D29" s="12"/>
       <c r="E29" s="35"/>
       <c r="F29" s="35"/>
     </row>
-    <row r="30" spans="2:6" ht="72" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="2:6" ht="72" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B30" s="34"/>
       <c r="C30" s="4"/>
       <c r="D30" s="12"/>
       <c r="E30" s="35"/>
       <c r="F30" s="35"/>
     </row>
-    <row r="31" spans="2:6" ht="72" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="2:6" ht="72" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B31" s="34"/>
       <c r="C31" s="4"/>
       <c r="D31" s="12"/>
       <c r="E31" s="35"/>
       <c r="F31" s="35"/>
     </row>
-    <row r="32" spans="2:6" ht="72" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="2:6" ht="72" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B32" s="34"/>
       <c r="C32" s="4"/>
       <c r="D32" s="12"/>
@@ -7987,25 +7987,25 @@
   <sheetPr filterMode="1"/>
   <dimension ref="B2:F101"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="2" topLeftCell="B7" activePane="bottomRight" state="frozen"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <pane xSplit="1" ySplit="2" topLeftCell="B22" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="E8" sqref="E8"/>
+      <selection pane="bottomRight" activeCell="E42" sqref="E42"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="12" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.2" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="2.625" style="18" customWidth="1"/>
-    <col min="2" max="2" width="8.375" style="19" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="2.59765625" style="18" customWidth="1"/>
+    <col min="2" max="2" width="8.3984375" style="19" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="26" style="19" customWidth="1"/>
     <col min="4" max="4" width="9" style="19" customWidth="1"/>
     <col min="5" max="5" width="103" style="24" customWidth="1"/>
-    <col min="6" max="6" width="81.75" style="24" customWidth="1"/>
+    <col min="6" max="6" width="81.69921875" style="24" customWidth="1"/>
     <col min="7" max="16384" width="9" style="18"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:6" s="16" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="2:6" s="16" customFormat="1" x14ac:dyDescent="0.4">
       <c r="B2" s="15" t="s">
         <v>10</v>
       </c>
@@ -8022,7 +8022,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="2:6" ht="84" hidden="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="2:6" ht="92.4" hidden="1" x14ac:dyDescent="0.4">
       <c r="B3" s="17" t="s">
         <v>94</v>
       </c>
@@ -8037,7 +8037,7 @@
       </c>
       <c r="F3" s="23"/>
     </row>
-    <row r="4" spans="2:6" ht="72" hidden="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:6" ht="79.2" hidden="1" x14ac:dyDescent="0.4">
       <c r="B4" s="17" t="s">
         <v>94</v>
       </c>
@@ -8052,7 +8052,7 @@
       </c>
       <c r="F4" s="23"/>
     </row>
-    <row r="5" spans="2:6" ht="384" hidden="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="2:6" ht="409.6" hidden="1" x14ac:dyDescent="0.4">
       <c r="B5" s="17" t="s">
         <v>94</v>
       </c>
@@ -8067,7 +8067,7 @@
       </c>
       <c r="F5" s="25"/>
     </row>
-    <row r="6" spans="2:6" ht="157.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="2:6" ht="157.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B6" s="17"/>
       <c r="C6" s="17" t="s">
         <v>150</v>
@@ -8080,7 +8080,7 @@
       </c>
       <c r="F6" s="25"/>
     </row>
-    <row r="7" spans="2:6" ht="276" x14ac:dyDescent="0.3">
+    <row r="7" spans="2:6" ht="303.60000000000002" x14ac:dyDescent="0.4">
       <c r="B7" s="17"/>
       <c r="C7" s="17" t="s">
         <v>255</v>
@@ -8093,7 +8093,7 @@
       </c>
       <c r="F7" s="25"/>
     </row>
-    <row r="8" spans="2:6" ht="156" x14ac:dyDescent="0.3">
+    <row r="8" spans="2:6" ht="171.6" x14ac:dyDescent="0.4">
       <c r="B8" s="17"/>
       <c r="C8" s="17" t="s">
         <v>301</v>
@@ -8106,651 +8106,651 @@
       </c>
       <c r="F8" s="23"/>
     </row>
-    <row r="9" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="9" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B9" s="17"/>
       <c r="C9" s="17"/>
       <c r="D9" s="17"/>
       <c r="E9" s="23"/>
       <c r="F9" s="23"/>
     </row>
-    <row r="10" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="10" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B10" s="17"/>
       <c r="C10" s="17"/>
       <c r="D10" s="17"/>
       <c r="E10" s="23"/>
       <c r="F10" s="23"/>
     </row>
-    <row r="11" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="11" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B11" s="17"/>
       <c r="C11" s="17"/>
       <c r="D11" s="17"/>
       <c r="E11" s="23"/>
       <c r="F11" s="23"/>
     </row>
-    <row r="12" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="12" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B12" s="17"/>
       <c r="C12" s="17"/>
       <c r="D12" s="17"/>
       <c r="E12" s="23"/>
       <c r="F12" s="23"/>
     </row>
-    <row r="13" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="13" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B13" s="17"/>
       <c r="C13" s="17"/>
       <c r="D13" s="17"/>
       <c r="E13" s="23"/>
       <c r="F13" s="23"/>
     </row>
-    <row r="14" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="14" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B14" s="17"/>
       <c r="C14" s="17"/>
       <c r="D14" s="17"/>
       <c r="E14" s="23"/>
       <c r="F14" s="23"/>
     </row>
-    <row r="15" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="15" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B15" s="17"/>
       <c r="C15" s="17"/>
       <c r="D15" s="17"/>
       <c r="E15" s="23"/>
       <c r="F15" s="23"/>
     </row>
-    <row r="16" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="16" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B16" s="17"/>
       <c r="C16" s="17"/>
       <c r="D16" s="17"/>
       <c r="E16" s="23"/>
       <c r="F16" s="23"/>
     </row>
-    <row r="17" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="17" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B17" s="17"/>
       <c r="C17" s="17"/>
       <c r="D17" s="17"/>
       <c r="E17" s="23"/>
       <c r="F17" s="23"/>
     </row>
-    <row r="18" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="18" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B18" s="17"/>
       <c r="C18" s="17"/>
       <c r="D18" s="17"/>
       <c r="E18" s="23"/>
       <c r="F18" s="23"/>
     </row>
-    <row r="19" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="19" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B19" s="17"/>
       <c r="C19" s="17"/>
       <c r="D19" s="17"/>
       <c r="E19" s="23"/>
       <c r="F19" s="23"/>
     </row>
-    <row r="20" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="20" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B20" s="17"/>
       <c r="C20" s="17"/>
       <c r="D20" s="17"/>
       <c r="E20" s="23"/>
       <c r="F20" s="23"/>
     </row>
-    <row r="21" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="21" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B21" s="17"/>
       <c r="C21" s="17"/>
       <c r="D21" s="17"/>
       <c r="E21" s="23"/>
       <c r="F21" s="23"/>
     </row>
-    <row r="22" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="22" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B22" s="17"/>
       <c r="C22" s="17"/>
       <c r="D22" s="17"/>
       <c r="E22" s="23"/>
       <c r="F22" s="23"/>
     </row>
-    <row r="23" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="23" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B23" s="17"/>
       <c r="C23" s="17"/>
       <c r="D23" s="17"/>
       <c r="E23" s="23"/>
       <c r="F23" s="23"/>
     </row>
-    <row r="24" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="24" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B24" s="17"/>
       <c r="C24" s="17"/>
       <c r="D24" s="17"/>
       <c r="E24" s="23"/>
       <c r="F24" s="23"/>
     </row>
-    <row r="25" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="25" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B25" s="17"/>
       <c r="C25" s="17"/>
       <c r="D25" s="17"/>
       <c r="E25" s="23"/>
       <c r="F25" s="23"/>
     </row>
-    <row r="26" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="26" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B26" s="17"/>
       <c r="C26" s="17"/>
       <c r="D26" s="17"/>
       <c r="E26" s="23"/>
       <c r="F26" s="23"/>
     </row>
-    <row r="27" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="27" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B27" s="17"/>
       <c r="C27" s="17"/>
       <c r="D27" s="17"/>
       <c r="E27" s="23"/>
       <c r="F27" s="23"/>
     </row>
-    <row r="28" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="28" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B28" s="17"/>
       <c r="C28" s="17"/>
       <c r="D28" s="17"/>
       <c r="E28" s="23"/>
       <c r="F28" s="23"/>
     </row>
-    <row r="29" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="29" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B29" s="17"/>
       <c r="C29" s="17"/>
       <c r="D29" s="17"/>
       <c r="E29" s="23"/>
       <c r="F29" s="23"/>
     </row>
-    <row r="30" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="30" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B30" s="17"/>
       <c r="C30" s="17"/>
       <c r="D30" s="17"/>
       <c r="E30" s="23"/>
       <c r="F30" s="23"/>
     </row>
-    <row r="31" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="31" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B31" s="17"/>
       <c r="C31" s="17"/>
       <c r="D31" s="17"/>
       <c r="E31" s="23"/>
       <c r="F31" s="23"/>
     </row>
-    <row r="32" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="32" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B32" s="17"/>
       <c r="C32" s="17"/>
       <c r="D32" s="17"/>
       <c r="E32" s="23"/>
       <c r="F32" s="23"/>
     </row>
-    <row r="33" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="33" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B33" s="17"/>
       <c r="C33" s="17"/>
       <c r="D33" s="17"/>
       <c r="E33" s="23"/>
       <c r="F33" s="23"/>
     </row>
-    <row r="34" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="34" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B34" s="17"/>
       <c r="C34" s="17"/>
       <c r="D34" s="17"/>
       <c r="E34" s="23"/>
       <c r="F34" s="23"/>
     </row>
-    <row r="35" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="35" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B35" s="17"/>
       <c r="C35" s="17"/>
       <c r="D35" s="17"/>
       <c r="E35" s="23"/>
       <c r="F35" s="23"/>
     </row>
-    <row r="36" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="36" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B36" s="17"/>
       <c r="C36" s="17"/>
       <c r="D36" s="17"/>
       <c r="E36" s="23"/>
       <c r="F36" s="23"/>
     </row>
-    <row r="37" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="37" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B37" s="17"/>
       <c r="C37" s="17"/>
       <c r="D37" s="17"/>
       <c r="E37" s="23"/>
       <c r="F37" s="23"/>
     </row>
-    <row r="38" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="38" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B38" s="17"/>
       <c r="C38" s="17"/>
       <c r="D38" s="17"/>
       <c r="E38" s="23"/>
       <c r="F38" s="23"/>
     </row>
-    <row r="39" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="39" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B39" s="17"/>
       <c r="C39" s="17"/>
       <c r="D39" s="17"/>
       <c r="E39" s="23"/>
       <c r="F39" s="23"/>
     </row>
-    <row r="40" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="40" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B40" s="17"/>
       <c r="C40" s="17"/>
       <c r="D40" s="17"/>
       <c r="E40" s="23"/>
       <c r="F40" s="23"/>
     </row>
-    <row r="41" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="41" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B41" s="17"/>
       <c r="C41" s="17"/>
       <c r="D41" s="17"/>
       <c r="E41" s="23"/>
       <c r="F41" s="23"/>
     </row>
-    <row r="42" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="42" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B42" s="17"/>
       <c r="C42" s="17"/>
       <c r="D42" s="17"/>
       <c r="E42" s="23"/>
       <c r="F42" s="23"/>
     </row>
-    <row r="43" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="43" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B43" s="17"/>
       <c r="C43" s="17"/>
       <c r="D43" s="17"/>
       <c r="E43" s="23"/>
       <c r="F43" s="23"/>
     </row>
-    <row r="44" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="44" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B44" s="17"/>
       <c r="C44" s="17"/>
       <c r="D44" s="17"/>
       <c r="E44" s="23"/>
       <c r="F44" s="23"/>
     </row>
-    <row r="45" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="45" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B45" s="17"/>
       <c r="C45" s="17"/>
       <c r="D45" s="17"/>
       <c r="E45" s="23"/>
       <c r="F45" s="23"/>
     </row>
-    <row r="46" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="46" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B46" s="17"/>
       <c r="C46" s="17"/>
       <c r="D46" s="17"/>
       <c r="E46" s="23"/>
       <c r="F46" s="23"/>
     </row>
-    <row r="47" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="47" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B47" s="17"/>
       <c r="C47" s="17"/>
       <c r="D47" s="17"/>
       <c r="E47" s="23"/>
       <c r="F47" s="23"/>
     </row>
-    <row r="48" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="48" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B48" s="17"/>
       <c r="C48" s="17"/>
       <c r="D48" s="17"/>
       <c r="E48" s="23"/>
       <c r="F48" s="23"/>
     </row>
-    <row r="49" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="49" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B49" s="17"/>
       <c r="C49" s="17"/>
       <c r="D49" s="17"/>
       <c r="E49" s="23"/>
       <c r="F49" s="23"/>
     </row>
-    <row r="50" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="50" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B50" s="17"/>
       <c r="C50" s="17"/>
       <c r="D50" s="17"/>
       <c r="E50" s="23"/>
       <c r="F50" s="23"/>
     </row>
-    <row r="51" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="51" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B51" s="17"/>
       <c r="C51" s="17"/>
       <c r="D51" s="17"/>
       <c r="E51" s="23"/>
       <c r="F51" s="23"/>
     </row>
-    <row r="52" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="52" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B52" s="17"/>
       <c r="C52" s="17"/>
       <c r="D52" s="17"/>
       <c r="E52" s="23"/>
       <c r="F52" s="23"/>
     </row>
-    <row r="53" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="53" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B53" s="17"/>
       <c r="C53" s="17"/>
       <c r="D53" s="17"/>
       <c r="E53" s="23"/>
       <c r="F53" s="23"/>
     </row>
-    <row r="54" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="54" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B54" s="17"/>
       <c r="C54" s="17"/>
       <c r="D54" s="17"/>
       <c r="E54" s="23"/>
       <c r="F54" s="23"/>
     </row>
-    <row r="55" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="55" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B55" s="17"/>
       <c r="C55" s="17"/>
       <c r="D55" s="17"/>
       <c r="E55" s="23"/>
       <c r="F55" s="23"/>
     </row>
-    <row r="56" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="56" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B56" s="17"/>
       <c r="C56" s="17"/>
       <c r="D56" s="17"/>
       <c r="E56" s="23"/>
       <c r="F56" s="23"/>
     </row>
-    <row r="57" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="57" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B57" s="17"/>
       <c r="C57" s="17"/>
       <c r="D57" s="17"/>
       <c r="E57" s="23"/>
       <c r="F57" s="23"/>
     </row>
-    <row r="58" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="58" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B58" s="17"/>
       <c r="C58" s="17"/>
       <c r="D58" s="17"/>
       <c r="E58" s="23"/>
       <c r="F58" s="23"/>
     </row>
-    <row r="59" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="59" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B59" s="17"/>
       <c r="C59" s="17"/>
       <c r="D59" s="17"/>
       <c r="E59" s="23"/>
       <c r="F59" s="23"/>
     </row>
-    <row r="60" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="60" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B60" s="17"/>
       <c r="C60" s="17"/>
       <c r="D60" s="17"/>
       <c r="E60" s="23"/>
       <c r="F60" s="23"/>
     </row>
-    <row r="61" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="61" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B61" s="17"/>
       <c r="C61" s="17"/>
       <c r="D61" s="17"/>
       <c r="E61" s="23"/>
       <c r="F61" s="23"/>
     </row>
-    <row r="62" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="62" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B62" s="17"/>
       <c r="C62" s="17"/>
       <c r="D62" s="17"/>
       <c r="E62" s="23"/>
       <c r="F62" s="23"/>
     </row>
-    <row r="63" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="63" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B63" s="17"/>
       <c r="C63" s="17"/>
       <c r="D63" s="17"/>
       <c r="E63" s="23"/>
       <c r="F63" s="23"/>
     </row>
-    <row r="64" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="64" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B64" s="17"/>
       <c r="C64" s="17"/>
       <c r="D64" s="17"/>
       <c r="E64" s="23"/>
       <c r="F64" s="23"/>
     </row>
-    <row r="65" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="65" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B65" s="17"/>
       <c r="C65" s="17"/>
       <c r="D65" s="17"/>
       <c r="E65" s="23"/>
       <c r="F65" s="23"/>
     </row>
-    <row r="66" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="66" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B66" s="17"/>
       <c r="C66" s="17"/>
       <c r="D66" s="17"/>
       <c r="E66" s="23"/>
       <c r="F66" s="23"/>
     </row>
-    <row r="67" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="67" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B67" s="17"/>
       <c r="C67" s="17"/>
       <c r="D67" s="17"/>
       <c r="E67" s="23"/>
       <c r="F67" s="23"/>
     </row>
-    <row r="68" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="68" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B68" s="17"/>
       <c r="C68" s="17"/>
       <c r="D68" s="17"/>
       <c r="E68" s="23"/>
       <c r="F68" s="23"/>
     </row>
-    <row r="69" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="69" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B69" s="17"/>
       <c r="C69" s="17"/>
       <c r="D69" s="17"/>
       <c r="E69" s="23"/>
       <c r="F69" s="23"/>
     </row>
-    <row r="70" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="70" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B70" s="17"/>
       <c r="C70" s="17"/>
       <c r="D70" s="17"/>
       <c r="E70" s="23"/>
       <c r="F70" s="23"/>
     </row>
-    <row r="71" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="71" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B71" s="17"/>
       <c r="C71" s="17"/>
       <c r="D71" s="17"/>
       <c r="E71" s="23"/>
       <c r="F71" s="23"/>
     </row>
-    <row r="72" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="72" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B72" s="17"/>
       <c r="C72" s="17"/>
       <c r="D72" s="17"/>
       <c r="E72" s="23"/>
       <c r="F72" s="23"/>
     </row>
-    <row r="73" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="73" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B73" s="17"/>
       <c r="C73" s="17"/>
       <c r="D73" s="17"/>
       <c r="E73" s="23"/>
       <c r="F73" s="23"/>
     </row>
-    <row r="74" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="74" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B74" s="17"/>
       <c r="C74" s="17"/>
       <c r="D74" s="17"/>
       <c r="E74" s="23"/>
       <c r="F74" s="23"/>
     </row>
-    <row r="75" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="75" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B75" s="17"/>
       <c r="C75" s="17"/>
       <c r="D75" s="17"/>
       <c r="E75" s="23"/>
       <c r="F75" s="23"/>
     </row>
-    <row r="76" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="76" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B76" s="17"/>
       <c r="C76" s="17"/>
       <c r="D76" s="17"/>
       <c r="E76" s="23"/>
       <c r="F76" s="23"/>
     </row>
-    <row r="77" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="77" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B77" s="17"/>
       <c r="C77" s="17"/>
       <c r="D77" s="17"/>
       <c r="E77" s="23"/>
       <c r="F77" s="23"/>
     </row>
-    <row r="78" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="78" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B78" s="17"/>
       <c r="C78" s="17"/>
       <c r="D78" s="17"/>
       <c r="E78" s="23"/>
       <c r="F78" s="23"/>
     </row>
-    <row r="79" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="79" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B79" s="17"/>
       <c r="C79" s="17"/>
       <c r="D79" s="17"/>
       <c r="E79" s="23"/>
       <c r="F79" s="23"/>
     </row>
-    <row r="80" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="80" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B80" s="17"/>
       <c r="C80" s="17"/>
       <c r="D80" s="17"/>
       <c r="E80" s="23"/>
       <c r="F80" s="23"/>
     </row>
-    <row r="81" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="81" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B81" s="17"/>
       <c r="C81" s="17"/>
       <c r="D81" s="17"/>
       <c r="E81" s="23"/>
       <c r="F81" s="23"/>
     </row>
-    <row r="82" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="82" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B82" s="17"/>
       <c r="C82" s="17"/>
       <c r="D82" s="17"/>
       <c r="E82" s="23"/>
       <c r="F82" s="23"/>
     </row>
-    <row r="83" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="83" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B83" s="17"/>
       <c r="C83" s="17"/>
       <c r="D83" s="17"/>
       <c r="E83" s="23"/>
       <c r="F83" s="23"/>
     </row>
-    <row r="84" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="84" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B84" s="17"/>
       <c r="C84" s="17"/>
       <c r="D84" s="17"/>
       <c r="E84" s="23"/>
       <c r="F84" s="23"/>
     </row>
-    <row r="85" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="85" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B85" s="17"/>
       <c r="C85" s="17"/>
       <c r="D85" s="17"/>
       <c r="E85" s="23"/>
       <c r="F85" s="23"/>
     </row>
-    <row r="86" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="86" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B86" s="17"/>
       <c r="C86" s="17"/>
       <c r="D86" s="17"/>
       <c r="E86" s="23"/>
       <c r="F86" s="23"/>
     </row>
-    <row r="87" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="87" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B87" s="17"/>
       <c r="C87" s="17"/>
       <c r="D87" s="17"/>
       <c r="E87" s="23"/>
       <c r="F87" s="23"/>
     </row>
-    <row r="88" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="88" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B88" s="17"/>
       <c r="C88" s="17"/>
       <c r="D88" s="17"/>
       <c r="E88" s="23"/>
       <c r="F88" s="23"/>
     </row>
-    <row r="89" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="89" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B89" s="17"/>
       <c r="C89" s="17"/>
       <c r="D89" s="17"/>
       <c r="E89" s="23"/>
       <c r="F89" s="23"/>
     </row>
-    <row r="90" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="90" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B90" s="17"/>
       <c r="C90" s="17"/>
       <c r="D90" s="17"/>
       <c r="E90" s="23"/>
       <c r="F90" s="23"/>
     </row>
-    <row r="91" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="91" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B91" s="17"/>
       <c r="C91" s="17"/>
       <c r="D91" s="17"/>
       <c r="E91" s="23"/>
       <c r="F91" s="23"/>
     </row>
-    <row r="92" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="92" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B92" s="17"/>
       <c r="C92" s="17"/>
       <c r="D92" s="17"/>
       <c r="E92" s="23"/>
       <c r="F92" s="23"/>
     </row>
-    <row r="93" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="93" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B93" s="17"/>
       <c r="C93" s="17"/>
       <c r="D93" s="17"/>
       <c r="E93" s="23"/>
       <c r="F93" s="23"/>
     </row>
-    <row r="94" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="94" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B94" s="17"/>
       <c r="C94" s="17"/>
       <c r="D94" s="17"/>
       <c r="E94" s="23"/>
       <c r="F94" s="23"/>
     </row>
-    <row r="95" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="95" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B95" s="17"/>
       <c r="C95" s="17"/>
       <c r="D95" s="17"/>
       <c r="E95" s="23"/>
       <c r="F95" s="23"/>
     </row>
-    <row r="96" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="96" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B96" s="17"/>
       <c r="C96" s="17"/>
       <c r="D96" s="17"/>
       <c r="E96" s="23"/>
       <c r="F96" s="23"/>
     </row>
-    <row r="97" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="97" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B97" s="17"/>
       <c r="C97" s="17"/>
       <c r="D97" s="17"/>
       <c r="E97" s="23"/>
       <c r="F97" s="23"/>
     </row>
-    <row r="98" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="98" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B98" s="17"/>
       <c r="C98" s="17"/>
       <c r="D98" s="17"/>
       <c r="E98" s="23"/>
       <c r="F98" s="23"/>
     </row>
-    <row r="99" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="99" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B99" s="17"/>
       <c r="C99" s="17"/>
       <c r="D99" s="17"/>
       <c r="E99" s="23"/>
       <c r="F99" s="23"/>
     </row>
-    <row r="100" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="100" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B100" s="17"/>
       <c r="C100" s="17"/>
       <c r="D100" s="17"/>
       <c r="E100" s="23"/>
       <c r="F100" s="23"/>
     </row>
-    <row r="101" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="101" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B101" s="17"/>
       <c r="C101" s="17"/>
       <c r="D101" s="17"/>
@@ -8787,24 +8787,24 @@
       <selection pane="bottomRight" activeCell="B59" sqref="B59"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="12" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.2" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="1" max="1" width="4.5" style="1" customWidth="1"/>
-    <col min="2" max="2" width="24.75" style="8" customWidth="1"/>
-    <col min="3" max="3" width="11.625" style="8" customWidth="1"/>
-    <col min="4" max="4" width="16.125" style="2" customWidth="1"/>
-    <col min="5" max="5" width="10.75" style="8" customWidth="1"/>
+    <col min="2" max="2" width="24.69921875" style="8" customWidth="1"/>
+    <col min="3" max="3" width="11.59765625" style="8" customWidth="1"/>
+    <col min="4" max="4" width="16.09765625" style="2" customWidth="1"/>
+    <col min="5" max="5" width="10.69921875" style="8" customWidth="1"/>
     <col min="6" max="6" width="11" style="9" customWidth="1"/>
-    <col min="7" max="7" width="11.375" style="8" customWidth="1"/>
+    <col min="7" max="7" width="11.3984375" style="8" customWidth="1"/>
     <col min="8" max="8" width="10" style="9" customWidth="1"/>
-    <col min="9" max="9" width="10.125" style="10" customWidth="1"/>
-    <col min="10" max="10" width="60.125" style="2" customWidth="1"/>
+    <col min="9" max="9" width="10.09765625" style="10" customWidth="1"/>
+    <col min="10" max="10" width="60.09765625" style="2" customWidth="1"/>
     <col min="11" max="11" width="9" style="1"/>
     <col min="12" max="15" width="9" style="45"/>
     <col min="16" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:15" s="7" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="2:15" s="7" customFormat="1" x14ac:dyDescent="0.4">
       <c r="B2" s="3" t="s">
         <v>14</v>
       </c>
@@ -8837,7 +8837,7 @@
       <c r="N2" s="44"/>
       <c r="O2" s="44"/>
     </row>
-    <row r="3" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="3" spans="2:15" x14ac:dyDescent="0.4">
       <c r="B3" s="4" t="s">
         <v>26</v>
       </c>
@@ -8867,7 +8867,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="4" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:15" x14ac:dyDescent="0.4">
       <c r="B4" s="4" t="s">
         <v>26</v>
       </c>
@@ -8897,7 +8897,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="5" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="5" spans="2:15" x14ac:dyDescent="0.4">
       <c r="B5" s="4" t="s">
         <v>26</v>
       </c>
@@ -8927,7 +8927,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="6" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="6" spans="2:15" x14ac:dyDescent="0.4">
       <c r="B6" s="4" t="s">
         <v>26</v>
       </c>
@@ -8957,7 +8957,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="7" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="7" spans="2:15" x14ac:dyDescent="0.4">
       <c r="B7" s="4" t="s">
         <v>27</v>
       </c>
@@ -8987,7 +8987,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="8" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="8" spans="2:15" x14ac:dyDescent="0.4">
       <c r="B8" s="4" t="s">
         <v>27</v>
       </c>
@@ -9017,7 +9017,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="9" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="9" spans="2:15" x14ac:dyDescent="0.4">
       <c r="B9" s="4" t="s">
         <v>27</v>
       </c>
@@ -9047,7 +9047,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="10" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="10" spans="2:15" x14ac:dyDescent="0.4">
       <c r="B10" s="4" t="s">
         <v>27</v>
       </c>
@@ -9077,7 +9077,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="11" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="11" spans="2:15" x14ac:dyDescent="0.4">
       <c r="B11" s="4" t="s">
         <v>27</v>
       </c>
@@ -9107,7 +9107,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="12" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="12" spans="2:15" x14ac:dyDescent="0.4">
       <c r="B12" s="4" t="s">
         <v>27</v>
       </c>
@@ -9137,7 +9137,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="13" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="13" spans="2:15" x14ac:dyDescent="0.4">
       <c r="B13" s="4" t="s">
         <v>27</v>
       </c>
@@ -9167,7 +9167,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="14" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="14" spans="2:15" x14ac:dyDescent="0.4">
       <c r="B14" s="4" t="s">
         <v>27</v>
       </c>
@@ -9197,7 +9197,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="15" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="15" spans="2:15" x14ac:dyDescent="0.4">
       <c r="B15" s="4" t="s">
         <v>27</v>
       </c>
@@ -9227,7 +9227,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="16" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="16" spans="2:15" x14ac:dyDescent="0.4">
       <c r="B16" s="4" t="s">
         <v>52</v>
       </c>
@@ -9257,7 +9257,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="17" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="17" spans="2:10" x14ac:dyDescent="0.4">
       <c r="B17" s="4" t="s">
         <v>52</v>
       </c>
@@ -9287,7 +9287,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="18" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="18" spans="2:10" x14ac:dyDescent="0.4">
       <c r="B18" s="4" t="s">
         <v>27</v>
       </c>
@@ -9317,7 +9317,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="19" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="19" spans="2:10" x14ac:dyDescent="0.4">
       <c r="B19" s="4" t="s">
         <v>77</v>
       </c>
@@ -9347,7 +9347,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="20" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="20" spans="2:10" x14ac:dyDescent="0.4">
       <c r="B20" s="4" t="s">
         <v>81</v>
       </c>
@@ -9377,7 +9377,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="21" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="21" spans="2:10" x14ac:dyDescent="0.4">
       <c r="B21" s="4" t="s">
         <v>81</v>
       </c>
@@ -9407,7 +9407,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="22" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="22" spans="2:10" x14ac:dyDescent="0.4">
       <c r="B22" s="4"/>
       <c r="C22" s="12"/>
       <c r="D22" s="5"/>
@@ -9418,7 +9418,7 @@
       <c r="I22" s="14"/>
       <c r="J22" s="5"/>
     </row>
-    <row r="23" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="23" spans="2:10" x14ac:dyDescent="0.4">
       <c r="B23" s="4" t="s">
         <v>88</v>
       </c>
@@ -9448,7 +9448,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="24" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="24" spans="2:10" x14ac:dyDescent="0.4">
       <c r="B24" s="4" t="s">
         <v>116</v>
       </c>
@@ -9478,7 +9478,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="25" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="25" spans="2:10" x14ac:dyDescent="0.4">
       <c r="B25" s="4"/>
       <c r="C25" s="12"/>
       <c r="D25" s="5"/>
@@ -9489,7 +9489,7 @@
       <c r="I25" s="14"/>
       <c r="J25" s="5"/>
     </row>
-    <row r="26" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="26" spans="2:10" x14ac:dyDescent="0.4">
       <c r="B26" s="4" t="s">
         <v>116</v>
       </c>
@@ -9519,7 +9519,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="27" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="27" spans="2:10" x14ac:dyDescent="0.4">
       <c r="B27" s="4"/>
       <c r="C27" s="12"/>
       <c r="D27" s="5"/>
@@ -9530,7 +9530,7 @@
       <c r="I27" s="14"/>
       <c r="J27" s="5"/>
     </row>
-    <row r="28" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="28" spans="2:10" x14ac:dyDescent="0.4">
       <c r="B28" s="4" t="s">
         <v>115</v>
       </c>
@@ -9560,7 +9560,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="29" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="29" spans="2:10" x14ac:dyDescent="0.4">
       <c r="B29" s="4" t="s">
         <v>115</v>
       </c>
@@ -9590,7 +9590,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="30" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="30" spans="2:10" x14ac:dyDescent="0.4">
       <c r="B30" s="4" t="s">
         <v>115</v>
       </c>
@@ -9620,7 +9620,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="31" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="31" spans="2:10" x14ac:dyDescent="0.4">
       <c r="B31" s="4" t="s">
         <v>115</v>
       </c>
@@ -9650,7 +9650,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="32" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="32" spans="2:10" x14ac:dyDescent="0.4">
       <c r="B32" s="4"/>
       <c r="C32" s="12"/>
       <c r="D32" s="5"/>
@@ -9661,7 +9661,7 @@
       <c r="I32" s="14"/>
       <c r="J32" s="5"/>
     </row>
-    <row r="33" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="33" spans="2:10" x14ac:dyDescent="0.4">
       <c r="B33" s="4" t="s">
         <v>115</v>
       </c>
@@ -9691,7 +9691,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="34" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="34" spans="2:10" x14ac:dyDescent="0.4">
       <c r="B34" s="4" t="s">
         <v>115</v>
       </c>
@@ -9721,7 +9721,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="35" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="35" spans="2:10" x14ac:dyDescent="0.4">
       <c r="B35" s="4" t="s">
         <v>115</v>
       </c>
@@ -9751,7 +9751,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="36" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="36" spans="2:10" x14ac:dyDescent="0.4">
       <c r="B36" s="4"/>
       <c r="C36" s="12"/>
       <c r="D36" s="27"/>
@@ -9762,7 +9762,7 @@
       <c r="I36" s="14"/>
       <c r="J36" s="5"/>
     </row>
-    <row r="37" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="37" spans="2:10" x14ac:dyDescent="0.4">
       <c r="B37" s="4" t="s">
         <v>150</v>
       </c>
@@ -9792,7 +9792,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="38" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="38" spans="2:10" x14ac:dyDescent="0.4">
       <c r="B38" s="4" t="s">
         <v>150</v>
       </c>
@@ -9822,7 +9822,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="39" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="39" spans="2:10" x14ac:dyDescent="0.4">
       <c r="B39" s="4" t="s">
         <v>150</v>
       </c>
@@ -9852,7 +9852,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="40" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="40" spans="2:10" x14ac:dyDescent="0.4">
       <c r="B40" s="4" t="s">
         <v>217</v>
       </c>
@@ -9882,7 +9882,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="41" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="41" spans="2:10" x14ac:dyDescent="0.4">
       <c r="B41" s="4"/>
       <c r="C41" s="12"/>
       <c r="D41" s="5"/>
@@ -9893,7 +9893,7 @@
       <c r="I41" s="14"/>
       <c r="J41" s="5"/>
     </row>
-    <row r="42" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="42" spans="2:10" x14ac:dyDescent="0.4">
       <c r="B42" s="4" t="s">
         <v>217</v>
       </c>
@@ -9923,7 +9923,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="43" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="43" spans="2:10" x14ac:dyDescent="0.4">
       <c r="B43" s="4" t="s">
         <v>217</v>
       </c>
@@ -9953,7 +9953,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="44" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="44" spans="2:10" x14ac:dyDescent="0.4">
       <c r="B44" s="4"/>
       <c r="C44" s="12"/>
       <c r="D44" s="5"/>
@@ -9964,7 +9964,7 @@
       <c r="I44" s="14"/>
       <c r="J44" s="5"/>
     </row>
-    <row r="45" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="45" spans="2:10" x14ac:dyDescent="0.4">
       <c r="B45" s="4" t="s">
         <v>217</v>
       </c>
@@ -9994,7 +9994,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="46" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="46" spans="2:10" x14ac:dyDescent="0.4">
       <c r="B46" s="4" t="s">
         <v>225</v>
       </c>
@@ -10024,7 +10024,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="47" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="47" spans="2:10" x14ac:dyDescent="0.4">
       <c r="B47" s="4"/>
       <c r="C47" s="12"/>
       <c r="D47" s="5"/>
@@ -10038,7 +10038,7 @@
       </c>
       <c r="J47" s="5"/>
     </row>
-    <row r="48" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="48" spans="2:10" x14ac:dyDescent="0.4">
       <c r="B48" s="4" t="s">
         <v>150</v>
       </c>
@@ -10068,7 +10068,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="49" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="49" spans="2:10" x14ac:dyDescent="0.4">
       <c r="B49" s="4" t="s">
         <v>150</v>
       </c>
@@ -10098,7 +10098,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="50" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="50" spans="2:10" x14ac:dyDescent="0.4">
       <c r="B50" s="4" t="s">
         <v>150</v>
       </c>
@@ -10128,7 +10128,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="51" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="51" spans="2:10" x14ac:dyDescent="0.4">
       <c r="B51" s="4" t="s">
         <v>237</v>
       </c>
@@ -10158,7 +10158,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="52" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="52" spans="2:10" x14ac:dyDescent="0.4">
       <c r="B52" s="4"/>
       <c r="C52" s="12"/>
       <c r="D52" s="5"/>
@@ -10172,7 +10172,7 @@
       </c>
       <c r="J52" s="5"/>
     </row>
-    <row r="53" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="53" spans="2:10" x14ac:dyDescent="0.4">
       <c r="B53" s="4" t="s">
         <v>255</v>
       </c>
@@ -10202,7 +10202,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="54" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="54" spans="2:10" x14ac:dyDescent="0.4">
       <c r="B54" s="4" t="s">
         <v>255</v>
       </c>
@@ -10232,7 +10232,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="55" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="55" spans="2:10" x14ac:dyDescent="0.4">
       <c r="B55" s="4" t="s">
         <v>255</v>
       </c>
@@ -10262,7 +10262,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="56" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="56" spans="2:10" x14ac:dyDescent="0.4">
       <c r="B56" s="4" t="s">
         <v>255</v>
       </c>
@@ -10292,7 +10292,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="57" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="57" spans="2:10" x14ac:dyDescent="0.4">
       <c r="B57" s="4"/>
       <c r="C57" s="12"/>
       <c r="D57" s="5"/>
@@ -10306,7 +10306,7 @@
       </c>
       <c r="J57" s="5"/>
     </row>
-    <row r="58" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="58" spans="2:10" x14ac:dyDescent="0.4">
       <c r="B58" s="4" t="s">
         <v>302</v>
       </c>
@@ -10332,7 +10332,7 @@
       </c>
       <c r="J58" s="5"/>
     </row>
-    <row r="59" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="59" spans="2:10" x14ac:dyDescent="0.4">
       <c r="B59" s="4" t="s">
         <v>302</v>
       </c>
@@ -10358,7 +10358,7 @@
       </c>
       <c r="J59" s="5"/>
     </row>
-    <row r="60" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="60" spans="2:10" x14ac:dyDescent="0.4">
       <c r="B60" s="4"/>
       <c r="C60" s="12"/>
       <c r="D60" s="5"/>
@@ -10372,7 +10372,7 @@
       </c>
       <c r="J60" s="5"/>
     </row>
-    <row r="61" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="61" spans="2:10" x14ac:dyDescent="0.4">
       <c r="B61" s="4"/>
       <c r="C61" s="12"/>
       <c r="D61" s="5"/>
@@ -10386,7 +10386,7 @@
       </c>
       <c r="J61" s="5"/>
     </row>
-    <row r="62" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="62" spans="2:10" x14ac:dyDescent="0.4">
       <c r="B62" s="4"/>
       <c r="C62" s="12"/>
       <c r="D62" s="5"/>
@@ -10400,7 +10400,7 @@
       </c>
       <c r="J62" s="5"/>
     </row>
-    <row r="63" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="63" spans="2:10" x14ac:dyDescent="0.4">
       <c r="B63" s="4"/>
       <c r="C63" s="12"/>
       <c r="D63" s="5"/>
@@ -10414,7 +10414,7 @@
       </c>
       <c r="J63" s="5"/>
     </row>
-    <row r="64" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="64" spans="2:10" x14ac:dyDescent="0.4">
       <c r="B64" s="4"/>
       <c r="C64" s="12"/>
       <c r="D64" s="5"/>
@@ -10428,7 +10428,7 @@
       </c>
       <c r="J64" s="5"/>
     </row>
-    <row r="65" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="65" spans="2:10" x14ac:dyDescent="0.4">
       <c r="B65" s="4"/>
       <c r="C65" s="12"/>
       <c r="D65" s="5"/>
@@ -10442,7 +10442,7 @@
       </c>
       <c r="J65" s="5"/>
     </row>
-    <row r="66" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="66" spans="2:10" x14ac:dyDescent="0.4">
       <c r="B66" s="4"/>
       <c r="C66" s="12"/>
       <c r="D66" s="5"/>
@@ -10456,7 +10456,7 @@
       </c>
       <c r="J66" s="5"/>
     </row>
-    <row r="67" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="67" spans="2:10" x14ac:dyDescent="0.4">
       <c r="B67" s="4"/>
       <c r="C67" s="12"/>
       <c r="D67" s="5"/>
@@ -10470,7 +10470,7 @@
       </c>
       <c r="J67" s="5"/>
     </row>
-    <row r="68" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="68" spans="2:10" x14ac:dyDescent="0.4">
       <c r="B68" s="4"/>
       <c r="C68" s="12"/>
       <c r="D68" s="5"/>
@@ -10484,7 +10484,7 @@
       </c>
       <c r="J68" s="5"/>
     </row>
-    <row r="69" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="69" spans="2:10" x14ac:dyDescent="0.4">
       <c r="B69" s="4"/>
       <c r="C69" s="12"/>
       <c r="D69" s="5"/>
@@ -10498,7 +10498,7 @@
       </c>
       <c r="J69" s="5"/>
     </row>
-    <row r="70" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="70" spans="2:10" x14ac:dyDescent="0.4">
       <c r="B70" s="4"/>
       <c r="C70" s="12"/>
       <c r="D70" s="5"/>
@@ -10512,7 +10512,7 @@
       </c>
       <c r="J70" s="5"/>
     </row>
-    <row r="71" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="71" spans="2:10" x14ac:dyDescent="0.4">
       <c r="B71" s="4"/>
       <c r="C71" s="12"/>
       <c r="D71" s="5"/>
@@ -10526,7 +10526,7 @@
       </c>
       <c r="J71" s="5"/>
     </row>
-    <row r="72" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="72" spans="2:10" x14ac:dyDescent="0.4">
       <c r="B72" s="4"/>
       <c r="C72" s="12"/>
       <c r="D72" s="5"/>
@@ -10540,7 +10540,7 @@
       </c>
       <c r="J72" s="5"/>
     </row>
-    <row r="73" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="73" spans="2:10" x14ac:dyDescent="0.4">
       <c r="B73" s="4"/>
       <c r="C73" s="12"/>
       <c r="D73" s="5"/>
@@ -10554,7 +10554,7 @@
       </c>
       <c r="J73" s="5"/>
     </row>
-    <row r="74" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="74" spans="2:10" x14ac:dyDescent="0.4">
       <c r="B74" s="4"/>
       <c r="C74" s="12"/>
       <c r="D74" s="5"/>
@@ -10568,7 +10568,7 @@
       </c>
       <c r="J74" s="5"/>
     </row>
-    <row r="75" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="75" spans="2:10" x14ac:dyDescent="0.4">
       <c r="B75" s="4"/>
       <c r="C75" s="12"/>
       <c r="D75" s="5"/>
@@ -10648,18 +10648,18 @@
       <selection activeCell="F16" sqref="F16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="3" max="3" width="10.5" customWidth="1"/>
-    <col min="4" max="4" width="9.75" customWidth="1"/>
+    <col min="4" max="4" width="9.69921875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="2" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B2" s="26" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="3" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="3" spans="2:5" x14ac:dyDescent="0.4">
       <c r="C3" t="s">
         <v>247</v>
       </c>
@@ -10667,7 +10667,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="4" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:5" x14ac:dyDescent="0.4">
       <c r="C4" t="s">
         <v>245</v>
       </c>
@@ -10678,7 +10678,7 @@
         <v>0.03</v>
       </c>
     </row>
-    <row r="5" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="5" spans="2:5" x14ac:dyDescent="0.4">
       <c r="C5" t="s">
         <v>249</v>
       </c>
@@ -10689,7 +10689,7 @@
         <v>0.02</v>
       </c>
     </row>
-    <row r="6" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="6" spans="2:5" x14ac:dyDescent="0.4">
       <c r="C6" t="s">
         <v>250</v>
       </c>
@@ -10700,7 +10700,7 @@
         <v>0.02</v>
       </c>
     </row>
-    <row r="8" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="8" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B8" s="26" t="s">
         <v>114</v>
       </c>
@@ -10716,28 +10716,28 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:K27"/>
   <sheetViews>
-    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
       <pane xSplit="1" ySplit="4" topLeftCell="B5" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="I26" sqref="I26"/>
+      <selection pane="bottomRight" activeCell="I16" sqref="I16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="2" max="2" width="12.25" customWidth="1"/>
-    <col min="3" max="3" width="11.75" customWidth="1"/>
+    <col min="2" max="2" width="12.19921875" customWidth="1"/>
+    <col min="3" max="3" width="11.69921875" customWidth="1"/>
     <col min="4" max="4" width="18" customWidth="1"/>
-    <col min="5" max="5" width="11.75" style="48" customWidth="1"/>
-    <col min="6" max="6" width="15.25" style="48" customWidth="1"/>
-    <col min="7" max="7" width="17.25" style="49" customWidth="1"/>
-    <col min="8" max="8" width="9.875" customWidth="1"/>
-    <col min="9" max="9" width="13.125" customWidth="1"/>
-    <col min="12" max="12" width="37.875" customWidth="1"/>
+    <col min="5" max="5" width="11.69921875" style="48" customWidth="1"/>
+    <col min="6" max="6" width="15.19921875" style="48" customWidth="1"/>
+    <col min="7" max="7" width="17.19921875" style="49" customWidth="1"/>
+    <col min="8" max="8" width="9.8984375" customWidth="1"/>
+    <col min="9" max="9" width="13.09765625" customWidth="1"/>
+    <col min="12" max="12" width="37.8984375" customWidth="1"/>
     <col min="13" max="13" width="60" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="1" spans="2:11" x14ac:dyDescent="0.4">
       <c r="B1" s="51" t="s">
         <v>290</v>
       </c>
@@ -10772,7 +10772,7 @@
         <v>82.608695652173907</v>
       </c>
     </row>
-    <row r="2" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="2" spans="2:11" x14ac:dyDescent="0.4">
       <c r="B2" s="51"/>
       <c r="C2" s="55"/>
       <c r="D2" s="51" t="s">
@@ -10788,7 +10788,7 @@
       <c r="J2" s="51"/>
       <c r="K2" s="55"/>
     </row>
-    <row r="4" spans="2:11" s="26" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:11" s="26" customFormat="1" x14ac:dyDescent="0.4">
       <c r="B4" s="50" t="s">
         <v>272</v>
       </c>
@@ -10808,7 +10808,7 @@
         <v>275</v>
       </c>
     </row>
-    <row r="5" spans="2:11" s="26" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="2:11" s="26" customFormat="1" x14ac:dyDescent="0.4">
       <c r="B5" t="s">
         <v>309</v>
       </c>
@@ -10829,7 +10829,7 @@
         <v>Y</v>
       </c>
     </row>
-    <row r="6" spans="2:11" s="26" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="2:11" s="26" customFormat="1" x14ac:dyDescent="0.4">
       <c r="B6" t="s">
         <v>308</v>
       </c>
@@ -10850,7 +10850,7 @@
         <v>N</v>
       </c>
     </row>
-    <row r="7" spans="2:11" s="26" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="2:11" s="26" customFormat="1" x14ac:dyDescent="0.4">
       <c r="B7" t="s">
         <v>308</v>
       </c>
@@ -10871,7 +10871,7 @@
         <v>N</v>
       </c>
     </row>
-    <row r="8" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="8" spans="2:11" x14ac:dyDescent="0.4">
       <c r="B8" t="s">
         <v>267</v>
       </c>
@@ -10892,7 +10892,7 @@
         <v>N</v>
       </c>
     </row>
-    <row r="9" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="9" spans="2:11" x14ac:dyDescent="0.4">
       <c r="B9" t="s">
         <v>267</v>
       </c>
@@ -10913,7 +10913,7 @@
         <v>Y</v>
       </c>
     </row>
-    <row r="10" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="10" spans="2:11" x14ac:dyDescent="0.4">
       <c r="B10" t="s">
         <v>267</v>
       </c>
@@ -10934,7 +10934,7 @@
         <v>N</v>
       </c>
     </row>
-    <row r="11" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="11" spans="2:11" x14ac:dyDescent="0.4">
       <c r="B11" t="s">
         <v>267</v>
       </c>
@@ -10955,7 +10955,7 @@
         <v>Y</v>
       </c>
     </row>
-    <row r="12" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="12" spans="2:11" x14ac:dyDescent="0.4">
       <c r="B12" t="s">
         <v>268</v>
       </c>
@@ -10976,7 +10976,7 @@
         <v>Y</v>
       </c>
     </row>
-    <row r="13" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="13" spans="2:11" x14ac:dyDescent="0.4">
       <c r="B13" t="s">
         <v>269</v>
       </c>
@@ -10997,7 +10997,7 @@
         <v>Y</v>
       </c>
     </row>
-    <row r="14" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="14" spans="2:11" x14ac:dyDescent="0.4">
       <c r="B14" t="s">
         <v>269</v>
       </c>
@@ -11018,7 +11018,7 @@
         <v>Y</v>
       </c>
     </row>
-    <row r="15" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="15" spans="2:11" x14ac:dyDescent="0.4">
       <c r="B15" t="s">
         <v>269</v>
       </c>
@@ -11039,7 +11039,7 @@
         <v>Y</v>
       </c>
     </row>
-    <row r="16" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="16" spans="2:11" x14ac:dyDescent="0.4">
       <c r="B16" t="s">
         <v>269</v>
       </c>
@@ -11060,7 +11060,7 @@
         <v>Y</v>
       </c>
     </row>
-    <row r="17" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="17" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B17" t="s">
         <v>270</v>
       </c>
@@ -11081,7 +11081,7 @@
         <v>Y</v>
       </c>
     </row>
-    <row r="18" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="18" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B18" t="s">
         <v>270</v>
       </c>
@@ -11102,7 +11102,7 @@
         <v>Y</v>
       </c>
     </row>
-    <row r="19" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="19" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B19" t="s">
         <v>270</v>
       </c>
@@ -11123,7 +11123,7 @@
         <v>Y</v>
       </c>
     </row>
-    <row r="20" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="20" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B20" t="s">
         <v>286</v>
       </c>
@@ -11144,7 +11144,7 @@
         <v>Y</v>
       </c>
     </row>
-    <row r="21" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="21" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B21" t="s">
         <v>286</v>
       </c>
@@ -11165,7 +11165,7 @@
         <v>Y</v>
       </c>
     </row>
-    <row r="22" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="22" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B22" t="s">
         <v>286</v>
       </c>
@@ -11186,7 +11186,7 @@
         <v>Y</v>
       </c>
     </row>
-    <row r="23" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="23" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B23" t="s">
         <v>286</v>
       </c>
@@ -11207,7 +11207,7 @@
         <v>Y</v>
       </c>
     </row>
-    <row r="24" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="24" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B24" t="s">
         <v>291</v>
       </c>
@@ -11228,7 +11228,7 @@
         <v>Y</v>
       </c>
     </row>
-    <row r="25" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="25" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B25" t="s">
         <v>291</v>
       </c>
@@ -11249,7 +11249,7 @@
         <v>Y</v>
       </c>
     </row>
-    <row r="26" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="26" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B26" t="s">
         <v>291</v>
       </c>
@@ -11270,7 +11270,7 @@
         <v>Y</v>
       </c>
     </row>
-    <row r="27" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="27" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B27" t="s">
         <v>291</v>
       </c>

--- a/WorkShop/01.docs/01.초기학습.xlsx
+++ b/WorkShop/01.docs/01.초기학습.xlsx
@@ -5,26 +5,26 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\WorkShop\AppHome\Stocks\WorkShop\01.docs\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\ProjectHome\Stocks\WorkShop\01.docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11856" activeTab="6"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11850" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="00.참고" sheetId="2" r:id="rId1"/>
-    <sheet name="01-1.지수" sheetId="6" r:id="rId2"/>
+    <sheet name="01-1.지표" sheetId="6" r:id="rId2"/>
     <sheet name="01-2.차트" sheetId="7" r:id="rId3"/>
     <sheet name="02.원칙" sheetId="4" r:id="rId4"/>
     <sheet name="03.모의투자" sheetId="3" r:id="rId5"/>
     <sheet name="04.스탑로스" sheetId="5" r:id="rId6"/>
-    <sheet name="Sheet1" sheetId="8" r:id="rId7"/>
+    <sheet name="99.시뮬레이션" sheetId="8" r:id="rId7"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'01-1.지수'!$B$1:$E$9</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'01-1.지표'!$B$1:$E$9</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">'02.원칙'!$B$2:$F$7</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">'03.모의투자'!$B$2:$J$75</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="6" hidden="1">Sheet1!$B$4:$G$27</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">'03.모의투자'!$B$2:$J$76</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="6" hidden="1">'99.시뮬레이션'!$B$4:$N$39</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
   <extLst>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="547" uniqueCount="349">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="677" uniqueCount="397">
   <si>
     <t>사이트명</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -91,10 +91,6 @@
   </si>
   <si>
     <t>2020-01-27</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>전략</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -1784,19 +1780,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>D-2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>D-3</t>
-  </si>
-  <si>
-    <t>D-4</t>
-  </si>
-  <si>
-    <t>D-5</t>
-  </si>
-  <si>
     <t>미코</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1813,10 +1796,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>성공여부</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>저가</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1857,9 +1836,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>D-6</t>
-  </si>
-  <si>
     <t>케이피에스</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1876,9 +1852,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>D-7</t>
-  </si>
-  <si>
     <t>남선알미늄</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1915,50 +1888,255 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>019170</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>신풍제약</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>214450</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>파마리서치프로덕트</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2020-02-19</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>초록뱀</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>케이사인</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>세원</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t> 주문가격</t>
+  </si>
+  <si>
+    <t>체결 우선 순위</t>
+  </si>
+  <si>
+    <t>체결방식 </t>
+  </si>
+  <si>
+    <t> 07:30 ~ 08:30</t>
+  </si>
+  <si>
+    <t>전일 종가</t>
+  </si>
+  <si>
+    <t> 08:00 ~ 09:00</t>
+  </si>
+  <si>
+    <t>지정가 </t>
+  </si>
+  <si>
+    <t>1.가격 2.시간</t>
+  </si>
+  <si>
+    <t>장 개시 시점 일괄 체결 </t>
+  </si>
+  <si>
+    <t> 09:00 ~ 15:30</t>
+  </si>
+  <si>
+    <t>1.가격 2.시간 3.수량 </t>
+  </si>
+  <si>
+    <t>시장가 체결 </t>
+  </si>
+  <si>
+    <t> 15:20 ~ 15:30</t>
+  </si>
+  <si>
+    <t>장 마감 시점 일괄 체결</t>
+  </si>
+  <si>
+    <t> 15:40 ~ 16:00</t>
+  </si>
+  <si>
+    <t> 16:00 ~ 18:00</t>
+  </si>
+  <si>
+    <t>10분에 한번씩 단일가 일괄 체결 </t>
+  </si>
+  <si>
+    <t> 거래시간</t>
+  </si>
+  <si>
+    <t>종류</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>지정가(당일종가 -10% ~ +10%) </t>
+  </si>
+  <si>
+    <t>장전 시간외 종가</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>장 시작 동시호가</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>정규시간</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>장 마감 동시호가</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>장후 시간외 종가</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>시간외 단일가</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>시간우선</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.가격 2.시간</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>시간우선</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>지정가,시장가 등</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>지정가</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>당일 종가</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>즉시체결</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>15:30~15:40 주문만 가능. 15:40~16:00 즉시체결</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>실패건수</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>용식_지표조합_A_V0.01</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>용식_지표조합_A_V0.01</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>019170</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>신풍제약</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>214450</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>파마리서치프로덕트</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2020-02-19</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>D-1</t>
-  </si>
-  <si>
-    <t>D-1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>초록뱀</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>케이사인</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>세원</t>
+    <t>기법</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>용식_지표조합_A_V0.01</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>용식_지표조합_A_V0.01</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>목표가도달</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>비고</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ROC</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>볼린저</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>볼린저</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>볼린저</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>볼린저</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>스토캐스틱</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>볼린저</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>파라볼릭</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>볼린저</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>스토캐스틱</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ROC</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>볼린저</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>볼린저</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ROC</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>볼린저</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>볼린저</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ROC</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>스토캐스틱</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -1985,7 +2163,8 @@
         <scheme val="minor"/>
       </rPr>
       <t xml:space="preserve">
-&lt;A. 기본조건검색식&gt;</t>
+&lt;A. 기본조건검색식&gt;
+* 대입지수</t>
     </r>
     <r>
       <rPr>
@@ -2001,134 +2180,197 @@
 A [일]0봉전 ROC(10) 0 상향돌파
 B [일]0봉전 Stochastic slow(12,5,5) %K, %D 상향돌파
 C [일]0봉전 Parabolic(0.02,0.2) 종가가 Parabolic을 상향돌파
-D 시가총액:현재가기준 1000십억원 이하
-E 기간내 등락률:[일]0봉전 7봉이내에서 전일종가대비종가 7% 이상
-F 기간내 거래대금:[일]0봉전 7봉이내 거래대금 20000이상 1회 이상
-I 0일전 기준 5일 누적 기관 순매수 100백만원 이상
-J 0일전 기준 5일 누적 외국인 순매수 100백만원 이상
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+* 기본사항</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+D 시가총액:현재가기준 1000십억원 이하 ==&gt;&gt; 세력주로 한정.
+E 기간내 등락률:[일]0봉전 7봉이내에서 전일종가대비종가 7% 이상 ==&gt;&gt; 모멘텀존재확인
+F 기간내 거래대금:[일]0봉전 7봉이내 거래대금 20000이상 1회 이상 ==&gt;&gt; 거래량확인(수급)
+I 0일전 기준 5일 누적 기관 순매수 100백만원 이상 ==&gt;&gt; 기관참여(수급)
+J 0일전 기준 5일 누적 외국인 순매수 100백만원 이상 ==&gt;&gt; 외국인참여(수급)
 (K or A or B or C) and D and E and F and (I or J)</t>
     </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t> 주문가격</t>
-  </si>
-  <si>
-    <t>체결 우선 순위</t>
-  </si>
-  <si>
-    <t>체결방식 </t>
-  </si>
-  <si>
-    <t> 07:30 ~ 08:30</t>
-  </si>
-  <si>
-    <t>전일 종가</t>
-  </si>
-  <si>
-    <t> 08:00 ~ 09:00</t>
-  </si>
-  <si>
-    <t>지정가 </t>
-  </si>
-  <si>
-    <t>1.가격 2.시간</t>
-  </si>
-  <si>
-    <t>장 개시 시점 일괄 체결 </t>
-  </si>
-  <si>
-    <t> 09:00 ~ 15:30</t>
-  </si>
-  <si>
-    <t>1.가격 2.시간 3.수량 </t>
-  </si>
-  <si>
-    <t>시장가 체결 </t>
-  </si>
-  <si>
-    <t> 15:20 ~ 15:30</t>
-  </si>
-  <si>
-    <t>장 마감 시점 일괄 체결</t>
-  </si>
-  <si>
-    <t> 15:40 ~ 16:00</t>
-  </si>
-  <si>
-    <t> 16:00 ~ 18:00</t>
-  </si>
-  <si>
-    <t>10분에 한번씩 단일가 일괄 체결 </t>
-  </si>
-  <si>
-    <t> 거래시간</t>
-  </si>
-  <si>
-    <t>종류</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>지정가(당일종가 -10% ~ +10%) </t>
-  </si>
-  <si>
-    <t>장전 시간외 종가</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>장 시작 동시호가</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>정규시간</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>장 마감 동시호가</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>장후 시간외 종가</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>시간외 단일가</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>시간우선</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1.가격 2.시간</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>시간우선</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>지정가,시장가 등</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>지정가</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>당일 종가</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>즉시체결</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>15:30~15:40 주문만 가능. 15:40~16:00 즉시체결</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>실패건수</t>
+    <t>* J 외국인 매수참여 조건은 빼는게 확률이 높음.(이해안감…)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>파마리서치프로덕트</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ROC</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">  - ROC가 0값을 기준으로 양의 값이면 상승 추세로, 음의 값이면 하락추세로 인식.
+  - ROC가 높이 올라갈수록 주가는 과다매수 상태를 나타내고, ROC가 낮게 내려갈수록 주가는 과다매도 상태를 나타냄.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">  * 가격변동비율(Rate of Change)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+  - 당일주가와 N일전 주가 사이의 차이.</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>삼천당제약</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>신풍제약</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>삼천당제약</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>000250</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2020-02-20</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>성공여부</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>033640</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>에이디테크놀로지</t>
+  </si>
+  <si>
+    <t>에이디테크놀로지</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>200710</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>네패스</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>네패스</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>신풍제약</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>지표1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>지표2</t>
+  </si>
+  <si>
+    <t>지표3</t>
+  </si>
+  <si>
+    <t>지표4</t>
+  </si>
+  <si>
+    <t>지표5</t>
+  </si>
+  <si>
+    <t>용식_지표조합_A_V0.01</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>코리아서키트</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>오스템임플란트</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>에코프로</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>에이프로젠 H&amp;G</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>심텍</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>알서포트</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>131370</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>미스터블루</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>207760</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>알서포트</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>미스터블루</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2347,7 +2589,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="66">
+  <cellXfs count="68">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2492,30 +2734,6 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -2524,12 +2742,6 @@
     </xf>
     <xf numFmtId="49" fontId="4" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="8" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="8" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="8" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -2543,14 +2755,204 @@
     <xf numFmtId="49" fontId="8" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="49" fontId="8" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="8" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="49" fontId="8" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="표준" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="25">
+  <dxfs count="59">
+    <dxf>
+      <font>
+        <color rgb="FF0070C0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FF0070C0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF0070C0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FF0070C0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF0070C0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FF0070C0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF0070C0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FF0070C0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF0070C0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF0070C0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FF0070C0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF0070C0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FF0070C0"/>
+      </font>
+    </dxf>
     <dxf>
       <font>
         <b/>
@@ -2635,6 +3037,62 @@
     </dxf>
     <dxf>
       <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FF0070C0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FF0070C0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FF0070C0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FF0070C0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
         <color rgb="FFFF0000"/>
       </font>
     </dxf>
@@ -6900,22 +7358,22 @@
       <selection pane="bottomRight" activeCell="G15" sqref="G15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.2" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="12" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="7.19921875" style="1" customWidth="1"/>
-    <col min="2" max="2" width="31.8984375" style="1" customWidth="1"/>
+    <col min="1" max="1" width="7.25" style="1" customWidth="1"/>
+    <col min="2" max="2" width="31.875" style="1" customWidth="1"/>
     <col min="3" max="3" width="31.5" style="1" customWidth="1"/>
-    <col min="4" max="4" width="56.09765625" style="2" customWidth="1"/>
-    <col min="5" max="5" width="4.19921875" style="1" customWidth="1"/>
-    <col min="6" max="6" width="13.8984375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="11.8984375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="25.09765625" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="16.3984375" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="37.09765625" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="56.125" style="2" customWidth="1"/>
+    <col min="5" max="5" width="4.25" style="1" customWidth="1"/>
+    <col min="6" max="6" width="13.875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11.875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="25.125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="16.375" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="37.125" style="1" bestFit="1" customWidth="1"/>
     <col min="11" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:10" x14ac:dyDescent="0.4">
+    <row r="1" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B1" s="3" t="s">
         <v>0</v>
       </c>
@@ -6926,275 +7384,275 @@
         <v>2</v>
       </c>
       <c r="F1" s="3" t="s">
-        <v>332</v>
+        <v>319</v>
       </c>
       <c r="G1" s="3" t="s">
-        <v>331</v>
+        <v>318</v>
       </c>
       <c r="H1" s="3" t="s">
-        <v>314</v>
+        <v>301</v>
       </c>
       <c r="I1" s="3" t="s">
-        <v>315</v>
+        <v>302</v>
       </c>
       <c r="J1" s="3" t="s">
-        <v>316</v>
-      </c>
-    </row>
-    <row r="2" spans="2:10" x14ac:dyDescent="0.4">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="2" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B2" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="C2" s="6" t="s">
         <v>53</v>
       </c>
-      <c r="C2" s="6" t="s">
+      <c r="D2" s="20" t="s">
         <v>54</v>
       </c>
-      <c r="D2" s="20" t="s">
+      <c r="F2" s="5" t="s">
+        <v>321</v>
+      </c>
+      <c r="G2" s="4" t="s">
+        <v>304</v>
+      </c>
+      <c r="H2" s="4" t="s">
+        <v>305</v>
+      </c>
+      <c r="I2" s="4" t="s">
+        <v>327</v>
+      </c>
+      <c r="J2" s="4" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="3" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B3" s="21" t="s">
         <v>55</v>
       </c>
-      <c r="F2" s="5" t="s">
-        <v>334</v>
-      </c>
-      <c r="G2" s="4" t="s">
-        <v>317</v>
-      </c>
-      <c r="H2" s="4" t="s">
-        <v>318</v>
-      </c>
-      <c r="I2" s="4" t="s">
-        <v>340</v>
-      </c>
-      <c r="J2" s="4" t="s">
-        <v>346</v>
-      </c>
-    </row>
-    <row r="3" spans="2:10" x14ac:dyDescent="0.4">
-      <c r="B3" s="21" t="s">
+      <c r="C3" s="6" t="s">
         <v>56</v>
-      </c>
-      <c r="C3" s="6" t="s">
-        <v>57</v>
       </c>
       <c r="D3" s="20"/>
       <c r="F3" s="5" t="s">
-        <v>335</v>
+        <v>322</v>
       </c>
       <c r="G3" s="4" t="s">
-        <v>319</v>
+        <v>306</v>
       </c>
       <c r="H3" s="4" t="s">
+        <v>307</v>
+      </c>
+      <c r="I3" s="4" t="s">
+        <v>308</v>
+      </c>
+      <c r="J3" s="4" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="4" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B4" s="21" t="s">
+        <v>57</v>
+      </c>
+      <c r="C4" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="D4" s="20" t="s">
+        <v>59</v>
+      </c>
+      <c r="F4" s="5" t="s">
+        <v>323</v>
+      </c>
+      <c r="G4" s="4" t="s">
+        <v>310</v>
+      </c>
+      <c r="H4" s="4" t="s">
+        <v>330</v>
+      </c>
+      <c r="I4" s="4" t="s">
+        <v>311</v>
+      </c>
+      <c r="J4" s="4" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="5" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B5" s="21" t="s">
+        <v>60</v>
+      </c>
+      <c r="C5" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="D5" s="20" t="s">
+        <v>62</v>
+      </c>
+      <c r="F5" s="5" t="s">
+        <v>324</v>
+      </c>
+      <c r="G5" s="4" t="s">
+        <v>313</v>
+      </c>
+      <c r="H5" s="4" t="s">
+        <v>331</v>
+      </c>
+      <c r="I5" s="4" t="s">
+        <v>328</v>
+      </c>
+      <c r="J5" s="4" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="6" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B6" s="21" t="s">
+        <v>34</v>
+      </c>
+      <c r="C6" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="D6" s="20" t="s">
+        <v>62</v>
+      </c>
+      <c r="F6" s="5" t="s">
+        <v>325</v>
+      </c>
+      <c r="G6" s="4" t="s">
+        <v>315</v>
+      </c>
+      <c r="H6" s="4" t="s">
+        <v>332</v>
+      </c>
+      <c r="I6" s="4" t="s">
+        <v>329</v>
+      </c>
+      <c r="J6" s="48" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="7" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B7" s="21" t="s">
+        <v>63</v>
+      </c>
+      <c r="C7" s="22" t="s">
+        <v>64</v>
+      </c>
+      <c r="D7" s="20" t="s">
+        <v>62</v>
+      </c>
+      <c r="F7" s="5" t="s">
+        <v>326</v>
+      </c>
+      <c r="G7" s="4" t="s">
+        <v>316</v>
+      </c>
+      <c r="H7" s="4" t="s">
         <v>320</v>
       </c>
-      <c r="I3" s="4" t="s">
-        <v>321</v>
-      </c>
-      <c r="J3" s="4" t="s">
-        <v>322</v>
-      </c>
-    </row>
-    <row r="4" spans="2:10" x14ac:dyDescent="0.4">
-      <c r="B4" s="21" t="s">
-        <v>58</v>
-      </c>
-      <c r="C4" s="6" t="s">
-        <v>59</v>
-      </c>
-      <c r="D4" s="20" t="s">
-        <v>60</v>
-      </c>
-      <c r="F4" s="5" t="s">
-        <v>336</v>
-      </c>
-      <c r="G4" s="4" t="s">
-        <v>323</v>
-      </c>
-      <c r="H4" s="4" t="s">
-        <v>343</v>
-      </c>
-      <c r="I4" s="4" t="s">
-        <v>324</v>
-      </c>
-      <c r="J4" s="4" t="s">
-        <v>325</v>
-      </c>
-    </row>
-    <row r="5" spans="2:10" x14ac:dyDescent="0.4">
-      <c r="B5" s="21" t="s">
-        <v>61</v>
-      </c>
-      <c r="C5" s="6" t="s">
+      <c r="I7" s="4" t="s">
+        <v>328</v>
+      </c>
+      <c r="J7" s="4" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="8" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B8" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="C8" s="22" t="s">
+        <v>66</v>
+      </c>
+      <c r="D8" s="20" t="s">
         <v>62</v>
       </c>
-      <c r="D5" s="20" t="s">
-        <v>63</v>
-      </c>
-      <c r="F5" s="5" t="s">
-        <v>337</v>
-      </c>
-      <c r="G5" s="4" t="s">
-        <v>326</v>
-      </c>
-      <c r="H5" s="4" t="s">
-        <v>344</v>
-      </c>
-      <c r="I5" s="4" t="s">
-        <v>341</v>
-      </c>
-      <c r="J5" s="4" t="s">
-        <v>327</v>
-      </c>
-    </row>
-    <row r="6" spans="2:10" x14ac:dyDescent="0.4">
-      <c r="B6" s="21" t="s">
-        <v>35</v>
-      </c>
-      <c r="C6" s="6" t="s">
-        <v>34</v>
-      </c>
-      <c r="D6" s="20" t="s">
-        <v>63</v>
-      </c>
-      <c r="F6" s="5" t="s">
-        <v>338</v>
-      </c>
-      <c r="G6" s="4" t="s">
-        <v>328</v>
-      </c>
-      <c r="H6" s="4" t="s">
-        <v>345</v>
-      </c>
-      <c r="I6" s="4" t="s">
-        <v>342</v>
-      </c>
-      <c r="J6" s="56" t="s">
-        <v>347</v>
-      </c>
-    </row>
-    <row r="7" spans="2:10" x14ac:dyDescent="0.4">
-      <c r="B7" s="21" t="s">
-        <v>64</v>
-      </c>
-      <c r="C7" s="22" t="s">
-        <v>65</v>
-      </c>
-      <c r="D7" s="20" t="s">
-        <v>63</v>
-      </c>
-      <c r="F7" s="5" t="s">
-        <v>339</v>
-      </c>
-      <c r="G7" s="4" t="s">
-        <v>329</v>
-      </c>
-      <c r="H7" s="4" t="s">
-        <v>333</v>
-      </c>
-      <c r="I7" s="4" t="s">
-        <v>341</v>
-      </c>
-      <c r="J7" s="4" t="s">
-        <v>330</v>
-      </c>
-    </row>
-    <row r="8" spans="2:10" x14ac:dyDescent="0.4">
-      <c r="B8" s="4" t="s">
-        <v>66</v>
-      </c>
-      <c r="C8" s="22" t="s">
+    </row>
+    <row r="9" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B9" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="C9" s="22" t="s">
         <v>67</v>
       </c>
-      <c r="D8" s="20" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="9" spans="2:10" x14ac:dyDescent="0.4">
-      <c r="B9" s="4" t="s">
+      <c r="D9" s="20" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="10" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B10" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="C10" s="22" t="s">
         <v>69</v>
       </c>
-      <c r="C9" s="22" t="s">
-        <v>68</v>
-      </c>
-      <c r="D9" s="20" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="10" spans="2:10" x14ac:dyDescent="0.4">
-      <c r="B10" s="4" t="s">
-        <v>71</v>
-      </c>
-      <c r="C10" s="22" t="s">
-        <v>70</v>
-      </c>
       <c r="D10" s="20" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="11" spans="2:10" x14ac:dyDescent="0.4">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="11" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B11" s="4" t="s">
+        <v>146</v>
+      </c>
+      <c r="C11" s="22" t="s">
+        <v>145</v>
+      </c>
+      <c r="D11" s="5" t="s">
         <v>147</v>
       </c>
-      <c r="C11" s="22" t="s">
-        <v>146</v>
-      </c>
-      <c r="D11" s="5" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="12" spans="2:10" x14ac:dyDescent="0.4">
+    </row>
+    <row r="12" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B12" s="4"/>
       <c r="C12" s="4"/>
       <c r="D12" s="5"/>
     </row>
-    <row r="13" spans="2:10" x14ac:dyDescent="0.4">
+    <row r="13" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B13" s="4"/>
       <c r="C13" s="4"/>
       <c r="D13" s="5"/>
     </row>
-    <row r="14" spans="2:10" x14ac:dyDescent="0.4">
+    <row r="14" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B14" s="4"/>
       <c r="C14" s="4"/>
       <c r="D14" s="5"/>
     </row>
-    <row r="15" spans="2:10" x14ac:dyDescent="0.4">
+    <row r="15" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B15" s="4"/>
       <c r="C15" s="4"/>
       <c r="D15" s="5"/>
     </row>
-    <row r="16" spans="2:10" x14ac:dyDescent="0.4">
+    <row r="16" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B16" s="4"/>
       <c r="C16" s="4"/>
       <c r="D16" s="5"/>
     </row>
-    <row r="17" spans="2:4" x14ac:dyDescent="0.4">
+    <row r="17" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B17" s="4"/>
       <c r="C17" s="4"/>
       <c r="D17" s="5"/>
     </row>
-    <row r="18" spans="2:4" x14ac:dyDescent="0.4">
+    <row r="18" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B18" s="4"/>
       <c r="C18" s="4"/>
       <c r="D18" s="5"/>
     </row>
-    <row r="19" spans="2:4" x14ac:dyDescent="0.4">
+    <row r="19" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B19" s="4"/>
       <c r="C19" s="4"/>
       <c r="D19" s="5"/>
     </row>
-    <row r="20" spans="2:4" x14ac:dyDescent="0.4">
+    <row r="20" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B20" s="4"/>
       <c r="C20" s="4"/>
       <c r="D20" s="5"/>
     </row>
-    <row r="21" spans="2:4" x14ac:dyDescent="0.4">
+    <row r="21" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B21" s="4"/>
       <c r="C21" s="4"/>
       <c r="D21" s="5"/>
     </row>
-    <row r="22" spans="2:4" x14ac:dyDescent="0.4">
+    <row r="22" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B22" s="4"/>
       <c r="C22" s="4"/>
       <c r="D22" s="5"/>
     </row>
-    <row r="23" spans="2:4" x14ac:dyDescent="0.4">
+    <row r="23" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B23" s="4"/>
       <c r="C23" s="4"/>
       <c r="D23" s="5"/>
@@ -7210,340 +7668,350 @@
   <dimension ref="B1:E43"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B17" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="E8" sqref="E8"/>
+      <selection pane="bottomRight" activeCell="B6" sqref="B6:C7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.2" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="12" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="7.19921875" style="1" customWidth="1"/>
-    <col min="2" max="2" width="31.8984375" style="1" customWidth="1"/>
-    <col min="3" max="4" width="15.3984375" style="1" customWidth="1"/>
-    <col min="5" max="5" width="118.09765625" style="32" customWidth="1"/>
+    <col min="1" max="1" width="7.25" style="1" customWidth="1"/>
+    <col min="2" max="2" width="31.875" style="1" customWidth="1"/>
+    <col min="3" max="4" width="15.375" style="1" customWidth="1"/>
+    <col min="5" max="5" width="118.125" style="32" customWidth="1"/>
     <col min="6" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:5" x14ac:dyDescent="0.4">
-      <c r="B1" s="57" t="s">
+    <row r="1" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B1" s="49" t="s">
+        <v>123</v>
+      </c>
+      <c r="C1" s="50"/>
+      <c r="D1" s="49" t="s">
+        <v>86</v>
+      </c>
+      <c r="E1" s="50"/>
+    </row>
+    <row r="2" spans="2:5" ht="24" x14ac:dyDescent="0.3">
+      <c r="B2" s="51" t="s">
         <v>124</v>
       </c>
-      <c r="C1" s="58"/>
-      <c r="D1" s="57" t="s">
-        <v>87</v>
-      </c>
-      <c r="E1" s="58"/>
-    </row>
-    <row r="2" spans="2:5" ht="26.4" x14ac:dyDescent="0.4">
-      <c r="B2" s="61" t="s">
+      <c r="C2" s="52"/>
+      <c r="D2" s="29" t="s">
+        <v>126</v>
+      </c>
+      <c r="E2" s="33" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="3" spans="2:5" ht="24" x14ac:dyDescent="0.3">
+      <c r="B3" s="53"/>
+      <c r="C3" s="54"/>
+      <c r="D3" s="29" t="s">
+        <v>127</v>
+      </c>
+      <c r="E3" s="30" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="4" spans="2:5" ht="48" x14ac:dyDescent="0.3">
+      <c r="B4" s="51" t="s">
         <v>125</v>
       </c>
-      <c r="C2" s="62"/>
-      <c r="D2" s="29" t="s">
+      <c r="C4" s="52"/>
+      <c r="D4" s="29" t="s">
+        <v>126</v>
+      </c>
+      <c r="E4" s="33" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="5" spans="2:5" ht="96" x14ac:dyDescent="0.3">
+      <c r="B5" s="53"/>
+      <c r="C5" s="54"/>
+      <c r="D5" s="29" t="s">
         <v>127</v>
       </c>
-      <c r="E2" s="33" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="3" spans="2:5" ht="26.4" x14ac:dyDescent="0.4">
-      <c r="B3" s="63"/>
-      <c r="C3" s="64"/>
-      <c r="D3" s="29" t="s">
-        <v>128</v>
-      </c>
-      <c r="E3" s="30" t="s">
+      <c r="E5" s="30" t="s">
         <v>129</v>
       </c>
     </row>
-    <row r="4" spans="2:5" ht="52.8" x14ac:dyDescent="0.4">
-      <c r="B4" s="61" t="s">
+    <row r="6" spans="2:5" ht="72" x14ac:dyDescent="0.3">
+      <c r="B6" s="51" t="s">
+        <v>134</v>
+      </c>
+      <c r="C6" s="52"/>
+      <c r="D6" s="29" t="s">
         <v>126</v>
       </c>
-      <c r="C4" s="62"/>
-      <c r="D4" s="29" t="s">
+      <c r="E6" s="33" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="7" spans="2:5" ht="84" x14ac:dyDescent="0.3">
+      <c r="B7" s="53"/>
+      <c r="C7" s="54"/>
+      <c r="D7" s="29" t="s">
         <v>127</v>
       </c>
-      <c r="E4" s="33" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="5" spans="2:5" ht="105.6" x14ac:dyDescent="0.4">
-      <c r="B5" s="63"/>
-      <c r="C5" s="64"/>
-      <c r="D5" s="29" t="s">
-        <v>128</v>
-      </c>
-      <c r="E5" s="30" t="s">
+      <c r="E7" s="30" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="6" spans="2:5" ht="79.2" x14ac:dyDescent="0.4">
-      <c r="B6" s="61" t="s">
+    <row r="8" spans="2:5" ht="96" x14ac:dyDescent="0.3">
+      <c r="B8" s="57" t="s">
         <v>135</v>
       </c>
-      <c r="C6" s="62"/>
-      <c r="D6" s="29" t="s">
+      <c r="C8" s="52"/>
+      <c r="D8" s="29" t="s">
+        <v>126</v>
+      </c>
+      <c r="E8" s="33" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="9" spans="2:5" ht="60" x14ac:dyDescent="0.3">
+      <c r="B9" s="53"/>
+      <c r="C9" s="54"/>
+      <c r="D9" s="29" t="s">
         <v>127</v>
       </c>
-      <c r="E6" s="33" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="7" spans="2:5" ht="92.4" x14ac:dyDescent="0.4">
-      <c r="B7" s="63"/>
-      <c r="C7" s="64"/>
-      <c r="D7" s="29" t="s">
-        <v>128</v>
-      </c>
-      <c r="E7" s="30" t="s">
+      <c r="E9" s="30" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="8" spans="2:5" ht="105.6" x14ac:dyDescent="0.4">
-      <c r="B8" s="65" t="s">
-        <v>136</v>
-      </c>
-      <c r="C8" s="62"/>
-      <c r="D8" s="29" t="s">
+    <row r="10" spans="2:5" ht="60" x14ac:dyDescent="0.3">
+      <c r="B10" s="51" t="s">
+        <v>132</v>
+      </c>
+      <c r="C10" s="52"/>
+      <c r="D10" s="29" t="s">
+        <v>126</v>
+      </c>
+      <c r="E10" s="33" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="11" spans="2:5" ht="142.15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B11" s="53"/>
+      <c r="C11" s="54"/>
+      <c r="D11" s="29" t="s">
         <v>127</v>
       </c>
-      <c r="E8" s="33" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="9" spans="2:5" ht="66" x14ac:dyDescent="0.4">
-      <c r="B9" s="63"/>
-      <c r="C9" s="64"/>
-      <c r="D9" s="29" t="s">
-        <v>128</v>
-      </c>
-      <c r="E9" s="30" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="10" spans="2:5" ht="66" x14ac:dyDescent="0.4">
-      <c r="B10" s="61" t="s">
-        <v>133</v>
-      </c>
-      <c r="C10" s="62"/>
-      <c r="D10" s="29" t="s">
+      <c r="E11" s="30" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="12" spans="2:5" ht="24" x14ac:dyDescent="0.3">
+      <c r="B12" s="51" t="s">
+        <v>141</v>
+      </c>
+      <c r="C12" s="52"/>
+      <c r="D12" s="29" t="s">
+        <v>126</v>
+      </c>
+      <c r="E12" s="33" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="13" spans="2:5" ht="36" x14ac:dyDescent="0.3">
+      <c r="B13" s="53"/>
+      <c r="C13" s="54"/>
+      <c r="D13" s="29" t="s">
         <v>127</v>
       </c>
-      <c r="E10" s="33" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="11" spans="2:5" ht="142.19999999999999" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B11" s="63"/>
-      <c r="C11" s="64"/>
-      <c r="D11" s="29" t="s">
-        <v>128</v>
-      </c>
-      <c r="E11" s="30" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="12" spans="2:5" ht="26.4" x14ac:dyDescent="0.4">
-      <c r="B12" s="61" t="s">
-        <v>142</v>
-      </c>
-      <c r="C12" s="62"/>
-      <c r="D12" s="29" t="s">
+      <c r="E13" s="30" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="14" spans="2:5" ht="24" x14ac:dyDescent="0.3">
+      <c r="B14" s="51" t="s">
+        <v>364</v>
+      </c>
+      <c r="C14" s="52"/>
+      <c r="D14" s="29" t="s">
+        <v>126</v>
+      </c>
+      <c r="E14" s="33" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="15" spans="2:5" ht="24" x14ac:dyDescent="0.3">
+      <c r="B15" s="53"/>
+      <c r="C15" s="54"/>
+      <c r="D15" s="29" t="s">
         <v>127</v>
       </c>
-      <c r="E12" s="33" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="13" spans="2:5" ht="39.6" x14ac:dyDescent="0.4">
-      <c r="B13" s="63"/>
-      <c r="C13" s="64"/>
-      <c r="D13" s="29" t="s">
-        <v>128</v>
-      </c>
-      <c r="E13" s="30" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="14" spans="2:5" x14ac:dyDescent="0.4">
-      <c r="B14" s="59"/>
-      <c r="C14" s="60"/>
-      <c r="D14" s="28"/>
-      <c r="E14" s="31"/>
-    </row>
-    <row r="15" spans="2:5" x14ac:dyDescent="0.4">
-      <c r="B15" s="59"/>
-      <c r="C15" s="60"/>
-      <c r="D15" s="28"/>
-      <c r="E15" s="31"/>
-    </row>
-    <row r="16" spans="2:5" x14ac:dyDescent="0.4">
-      <c r="B16" s="59"/>
-      <c r="C16" s="60"/>
+      <c r="E15" s="30" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="16" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B16" s="55"/>
+      <c r="C16" s="56"/>
       <c r="D16" s="28"/>
       <c r="E16" s="31"/>
     </row>
-    <row r="17" spans="2:5" x14ac:dyDescent="0.4">
-      <c r="B17" s="59"/>
-      <c r="C17" s="60"/>
+    <row r="17" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B17" s="55"/>
+      <c r="C17" s="56"/>
       <c r="D17" s="28"/>
       <c r="E17" s="31"/>
     </row>
-    <row r="18" spans="2:5" x14ac:dyDescent="0.4">
-      <c r="B18" s="59"/>
-      <c r="C18" s="60"/>
+    <row r="18" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B18" s="55"/>
+      <c r="C18" s="56"/>
       <c r="D18" s="28"/>
       <c r="E18" s="31"/>
     </row>
-    <row r="19" spans="2:5" x14ac:dyDescent="0.4">
-      <c r="B19" s="59"/>
-      <c r="C19" s="60"/>
+    <row r="19" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B19" s="55"/>
+      <c r="C19" s="56"/>
       <c r="D19" s="28"/>
       <c r="E19" s="31"/>
     </row>
-    <row r="20" spans="2:5" x14ac:dyDescent="0.4">
-      <c r="B20" s="59"/>
-      <c r="C20" s="60"/>
+    <row r="20" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B20" s="55"/>
+      <c r="C20" s="56"/>
       <c r="D20" s="28"/>
       <c r="E20" s="31"/>
     </row>
-    <row r="21" spans="2:5" x14ac:dyDescent="0.4">
-      <c r="B21" s="59"/>
-      <c r="C21" s="60"/>
+    <row r="21" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B21" s="55"/>
+      <c r="C21" s="56"/>
       <c r="D21" s="28"/>
       <c r="E21" s="31"/>
     </row>
-    <row r="22" spans="2:5" x14ac:dyDescent="0.4">
-      <c r="B22" s="59"/>
-      <c r="C22" s="60"/>
+    <row r="22" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B22" s="55"/>
+      <c r="C22" s="56"/>
       <c r="D22" s="28"/>
       <c r="E22" s="31"/>
     </row>
-    <row r="23" spans="2:5" x14ac:dyDescent="0.4">
-      <c r="B23" s="59"/>
-      <c r="C23" s="60"/>
+    <row r="23" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B23" s="55"/>
+      <c r="C23" s="56"/>
       <c r="D23" s="28"/>
       <c r="E23" s="31"/>
     </row>
-    <row r="24" spans="2:5" x14ac:dyDescent="0.4">
-      <c r="B24" s="59"/>
-      <c r="C24" s="60"/>
+    <row r="24" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B24" s="55"/>
+      <c r="C24" s="56"/>
       <c r="D24" s="28"/>
       <c r="E24" s="31"/>
     </row>
-    <row r="25" spans="2:5" x14ac:dyDescent="0.4">
-      <c r="B25" s="59"/>
-      <c r="C25" s="60"/>
+    <row r="25" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B25" s="55"/>
+      <c r="C25" s="56"/>
       <c r="D25" s="28"/>
       <c r="E25" s="31"/>
     </row>
-    <row r="26" spans="2:5" x14ac:dyDescent="0.4">
-      <c r="B26" s="59"/>
-      <c r="C26" s="60"/>
+    <row r="26" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B26" s="55"/>
+      <c r="C26" s="56"/>
       <c r="D26" s="28"/>
       <c r="E26" s="31"/>
     </row>
-    <row r="27" spans="2:5" x14ac:dyDescent="0.4">
-      <c r="B27" s="59"/>
-      <c r="C27" s="60"/>
+    <row r="27" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B27" s="55"/>
+      <c r="C27" s="56"/>
       <c r="D27" s="28"/>
       <c r="E27" s="31"/>
     </row>
-    <row r="28" spans="2:5" x14ac:dyDescent="0.4">
-      <c r="B28" s="59"/>
-      <c r="C28" s="60"/>
+    <row r="28" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B28" s="55"/>
+      <c r="C28" s="56"/>
       <c r="D28" s="28"/>
       <c r="E28" s="31"/>
     </row>
-    <row r="29" spans="2:5" x14ac:dyDescent="0.4">
-      <c r="B29" s="59"/>
-      <c r="C29" s="60"/>
+    <row r="29" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B29" s="55"/>
+      <c r="C29" s="56"/>
       <c r="D29" s="28"/>
       <c r="E29" s="31"/>
     </row>
-    <row r="30" spans="2:5" x14ac:dyDescent="0.4">
-      <c r="B30" s="59"/>
-      <c r="C30" s="60"/>
+    <row r="30" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B30" s="55"/>
+      <c r="C30" s="56"/>
       <c r="D30" s="28"/>
       <c r="E30" s="31"/>
     </row>
-    <row r="31" spans="2:5" x14ac:dyDescent="0.4">
-      <c r="B31" s="59"/>
-      <c r="C31" s="60"/>
+    <row r="31" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B31" s="55"/>
+      <c r="C31" s="56"/>
       <c r="D31" s="28"/>
       <c r="E31" s="31"/>
     </row>
-    <row r="32" spans="2:5" x14ac:dyDescent="0.4">
-      <c r="B32" s="59"/>
-      <c r="C32" s="60"/>
+    <row r="32" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B32" s="55"/>
+      <c r="C32" s="56"/>
       <c r="D32" s="28"/>
       <c r="E32" s="31"/>
     </row>
-    <row r="33" spans="2:5" x14ac:dyDescent="0.4">
-      <c r="B33" s="59"/>
-      <c r="C33" s="60"/>
+    <row r="33" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B33" s="55"/>
+      <c r="C33" s="56"/>
       <c r="D33" s="28"/>
       <c r="E33" s="31"/>
     </row>
-    <row r="34" spans="2:5" x14ac:dyDescent="0.4">
-      <c r="B34" s="59"/>
-      <c r="C34" s="60"/>
+    <row r="34" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B34" s="55"/>
+      <c r="C34" s="56"/>
       <c r="D34" s="28"/>
       <c r="E34" s="31"/>
     </row>
-    <row r="35" spans="2:5" x14ac:dyDescent="0.4">
-      <c r="B35" s="59"/>
-      <c r="C35" s="60"/>
+    <row r="35" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B35" s="55"/>
+      <c r="C35" s="56"/>
       <c r="D35" s="28"/>
       <c r="E35" s="31"/>
     </row>
-    <row r="36" spans="2:5" x14ac:dyDescent="0.4">
-      <c r="B36" s="59"/>
-      <c r="C36" s="60"/>
+    <row r="36" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B36" s="55"/>
+      <c r="C36" s="56"/>
       <c r="D36" s="28"/>
       <c r="E36" s="31"/>
     </row>
-    <row r="37" spans="2:5" x14ac:dyDescent="0.4">
-      <c r="B37" s="59"/>
-      <c r="C37" s="60"/>
+    <row r="37" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B37" s="55"/>
+      <c r="C37" s="56"/>
       <c r="D37" s="28"/>
       <c r="E37" s="31"/>
     </row>
-    <row r="38" spans="2:5" x14ac:dyDescent="0.4">
-      <c r="B38" s="59"/>
-      <c r="C38" s="60"/>
+    <row r="38" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B38" s="55"/>
+      <c r="C38" s="56"/>
       <c r="D38" s="28"/>
       <c r="E38" s="31"/>
     </row>
-    <row r="39" spans="2:5" x14ac:dyDescent="0.4">
-      <c r="B39" s="59"/>
-      <c r="C39" s="60"/>
+    <row r="39" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B39" s="55"/>
+      <c r="C39" s="56"/>
       <c r="D39" s="28"/>
       <c r="E39" s="31"/>
     </row>
-    <row r="40" spans="2:5" x14ac:dyDescent="0.4">
-      <c r="B40" s="59"/>
-      <c r="C40" s="60"/>
+    <row r="40" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B40" s="55"/>
+      <c r="C40" s="56"/>
       <c r="D40" s="28"/>
       <c r="E40" s="31"/>
     </row>
-    <row r="41" spans="2:5" x14ac:dyDescent="0.4">
-      <c r="B41" s="59"/>
-      <c r="C41" s="60"/>
+    <row r="41" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B41" s="55"/>
+      <c r="C41" s="56"/>
       <c r="D41" s="28"/>
       <c r="E41" s="31"/>
     </row>
-    <row r="42" spans="2:5" x14ac:dyDescent="0.4">
-      <c r="B42" s="59"/>
-      <c r="C42" s="60"/>
+    <row r="42" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B42" s="55"/>
+      <c r="C42" s="56"/>
       <c r="D42" s="28"/>
       <c r="E42" s="31"/>
     </row>
-    <row r="43" spans="2:5" x14ac:dyDescent="0.4">
-      <c r="B43" s="59"/>
-      <c r="C43" s="60"/>
+    <row r="43" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B43" s="55"/>
+      <c r="C43" s="56"/>
       <c r="D43" s="28"/>
       <c r="E43" s="31"/>
     </row>
@@ -7552,7 +8020,28 @@
     <filterColumn colId="0" showButton="0"/>
     <filterColumn colId="2" showButton="0"/>
   </autoFilter>
-  <mergeCells count="38">
+  <mergeCells count="37">
+    <mergeCell ref="B1:C1"/>
+    <mergeCell ref="B20:C20"/>
+    <mergeCell ref="B21:C21"/>
+    <mergeCell ref="B12:C13"/>
+    <mergeCell ref="B14:C15"/>
+    <mergeCell ref="B43:C43"/>
+    <mergeCell ref="B2:C3"/>
+    <mergeCell ref="B4:C5"/>
+    <mergeCell ref="B6:C7"/>
+    <mergeCell ref="B8:C9"/>
+    <mergeCell ref="B34:C34"/>
+    <mergeCell ref="B35:C35"/>
+    <mergeCell ref="B36:C36"/>
+    <mergeCell ref="B37:C37"/>
+    <mergeCell ref="B38:C38"/>
+    <mergeCell ref="B39:C39"/>
+    <mergeCell ref="B28:C28"/>
+    <mergeCell ref="B29:C29"/>
+    <mergeCell ref="B30:C30"/>
+    <mergeCell ref="B31:C31"/>
+    <mergeCell ref="B32:C32"/>
     <mergeCell ref="D1:E1"/>
     <mergeCell ref="B10:C11"/>
     <mergeCell ref="B40:C40"/>
@@ -7569,28 +8058,6 @@
     <mergeCell ref="B17:C17"/>
     <mergeCell ref="B18:C18"/>
     <mergeCell ref="B19:C19"/>
-    <mergeCell ref="B43:C43"/>
-    <mergeCell ref="B2:C3"/>
-    <mergeCell ref="B4:C5"/>
-    <mergeCell ref="B6:C7"/>
-    <mergeCell ref="B8:C9"/>
-    <mergeCell ref="B34:C34"/>
-    <mergeCell ref="B35:C35"/>
-    <mergeCell ref="B36:C36"/>
-    <mergeCell ref="B37:C37"/>
-    <mergeCell ref="B38:C38"/>
-    <mergeCell ref="B39:C39"/>
-    <mergeCell ref="B28:C28"/>
-    <mergeCell ref="B29:C29"/>
-    <mergeCell ref="B30:C30"/>
-    <mergeCell ref="B31:C31"/>
-    <mergeCell ref="B32:C32"/>
-    <mergeCell ref="B1:C1"/>
-    <mergeCell ref="B20:C20"/>
-    <mergeCell ref="B21:C21"/>
-    <mergeCell ref="B14:C14"/>
-    <mergeCell ref="B15:C15"/>
-    <mergeCell ref="B12:C13"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -7610,365 +8077,365 @@
       <selection pane="bottomRight" activeCell="F16" sqref="F16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.2" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="12" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="2.8984375" style="1" customWidth="1"/>
+    <col min="1" max="1" width="2.875" style="1" customWidth="1"/>
     <col min="2" max="2" width="14" style="1" customWidth="1"/>
-    <col min="3" max="3" width="28.09765625" style="1" customWidth="1"/>
-    <col min="4" max="4" width="15.69921875" style="8" customWidth="1"/>
-    <col min="5" max="5" width="45.19921875" style="2" customWidth="1"/>
-    <col min="6" max="6" width="62.3984375" style="2" customWidth="1"/>
+    <col min="3" max="3" width="28.125" style="1" customWidth="1"/>
+    <col min="4" max="4" width="15.75" style="8" customWidth="1"/>
+    <col min="5" max="5" width="45.25" style="2" customWidth="1"/>
+    <col min="6" max="6" width="62.375" style="2" customWidth="1"/>
     <col min="7" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:6" s="8" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="1" spans="2:6" s="8" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B1" s="3" t="s">
+        <v>158</v>
+      </c>
+      <c r="C1" s="3" t="s">
         <v>159</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="D1" s="3" t="s">
+        <v>176</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>126</v>
+      </c>
+      <c r="F1" s="3" t="s">
         <v>160</v>
       </c>
-      <c r="D1" s="3" t="s">
-        <v>177</v>
-      </c>
-      <c r="E1" s="3" t="s">
-        <v>127</v>
-      </c>
-      <c r="F1" s="3" t="s">
+    </row>
+    <row r="2" spans="2:6" ht="72" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B2" s="39" t="s">
         <v>161</v>
-      </c>
-    </row>
-    <row r="2" spans="2:6" ht="72" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B2" s="39" t="s">
-        <v>162</v>
       </c>
       <c r="C2" s="4"/>
       <c r="D2" s="37" t="s">
+        <v>162</v>
+      </c>
+      <c r="E2" s="35" t="s">
+        <v>167</v>
+      </c>
+      <c r="F2" s="35" t="s">
         <v>163</v>
       </c>
-      <c r="E2" s="35" t="s">
-        <v>168</v>
-      </c>
-      <c r="F2" s="35" t="s">
+    </row>
+    <row r="3" spans="2:6" ht="72" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B3" s="40" t="s">
         <v>164</v>
-      </c>
-    </row>
-    <row r="3" spans="2:6" ht="72" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B3" s="40" t="s">
-        <v>165</v>
       </c>
       <c r="C3" s="4"/>
       <c r="D3" s="37" t="s">
+        <v>165</v>
+      </c>
+      <c r="E3" s="35" t="s">
         <v>166</v>
       </c>
-      <c r="E3" s="35" t="s">
-        <v>167</v>
-      </c>
       <c r="F3" s="35" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="4" spans="2:6" ht="72" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B4" s="41" t="s">
         <v>169</v>
-      </c>
-    </row>
-    <row r="4" spans="2:6" ht="72" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B4" s="41" t="s">
-        <v>170</v>
       </c>
       <c r="C4" s="4"/>
       <c r="D4" s="37" t="s">
+        <v>170</v>
+      </c>
+      <c r="E4" s="35" t="s">
         <v>171</v>
       </c>
-      <c r="E4" s="35" t="s">
+      <c r="F4" s="35" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="5" spans="2:6" ht="72" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B5" s="41" t="s">
         <v>172</v>
-      </c>
-      <c r="F4" s="35" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="5" spans="2:6" ht="72" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B5" s="41" t="s">
-        <v>173</v>
       </c>
       <c r="C5" s="4"/>
       <c r="D5" s="37" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="E5" s="35" t="s">
+        <v>173</v>
+      </c>
+      <c r="F5" s="35" t="s">
         <v>174</v>
       </c>
-      <c r="F5" s="35" t="s">
+    </row>
+    <row r="6" spans="2:6" ht="72" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B6" s="34" t="s">
         <v>175</v>
-      </c>
-    </row>
-    <row r="6" spans="2:6" ht="72" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B6" s="34" t="s">
-        <v>176</v>
       </c>
       <c r="C6" s="4"/>
       <c r="D6" s="38" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="E6" s="35" t="s">
+        <v>177</v>
+      </c>
+      <c r="F6" s="35" t="s">
         <v>178</v>
       </c>
-      <c r="F6" s="35" t="s">
+    </row>
+    <row r="7" spans="2:6" ht="72" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B7" s="36" t="s">
         <v>179</v>
-      </c>
-    </row>
-    <row r="7" spans="2:6" ht="72" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B7" s="36" t="s">
-        <v>180</v>
       </c>
       <c r="C7" s="4"/>
       <c r="D7" s="38" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="E7" s="35" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="F7" s="35" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="8" spans="2:6" ht="72" customHeight="1" x14ac:dyDescent="0.4">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="8" spans="2:6" ht="72" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B8" s="36" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="C8" s="4"/>
       <c r="D8" s="38" t="s">
+        <v>183</v>
+      </c>
+      <c r="E8" s="35" t="s">
         <v>184</v>
       </c>
-      <c r="E8" s="35" t="s">
-        <v>185</v>
-      </c>
       <c r="F8" s="35" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="9" spans="2:6" ht="72" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B9" s="36" t="s">
         <v>187</v>
-      </c>
-    </row>
-    <row r="9" spans="2:6" ht="72" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B9" s="36" t="s">
-        <v>188</v>
       </c>
       <c r="C9" s="4"/>
       <c r="D9" s="38" t="s">
+        <v>188</v>
+      </c>
+      <c r="E9" s="35" t="s">
         <v>189</v>
       </c>
-      <c r="E9" s="35" t="s">
+      <c r="F9" s="35" t="s">
         <v>190</v>
       </c>
-      <c r="F9" s="35" t="s">
+    </row>
+    <row r="10" spans="2:6" ht="72" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B10" s="42" t="s">
         <v>191</v>
-      </c>
-    </row>
-    <row r="10" spans="2:6" ht="72" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B10" s="42" t="s">
-        <v>192</v>
       </c>
       <c r="C10" s="4"/>
       <c r="D10" s="37" t="s">
+        <v>192</v>
+      </c>
+      <c r="E10" s="35" t="s">
         <v>193</v>
       </c>
-      <c r="E10" s="35" t="s">
+      <c r="F10" s="35" t="s">
         <v>194</v>
       </c>
-      <c r="F10" s="35" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="11" spans="2:6" ht="72" customHeight="1" x14ac:dyDescent="0.4">
+    </row>
+    <row r="11" spans="2:6" ht="72" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B11" s="42" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="C11" s="4"/>
       <c r="D11" s="37" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="E11" s="35" t="s">
+        <v>195</v>
+      </c>
+      <c r="F11" s="35" t="s">
         <v>196</v>
       </c>
-      <c r="F11" s="35" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="12" spans="2:6" ht="72" customHeight="1" x14ac:dyDescent="0.4">
+    </row>
+    <row r="12" spans="2:6" ht="72" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B12" s="42" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="C12" s="4"/>
       <c r="D12" s="37" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="E12" s="35" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="F12" s="35" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="13" spans="2:6" ht="72" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B13" s="42" t="s">
         <v>200</v>
-      </c>
-    </row>
-    <row r="13" spans="2:6" ht="72" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B13" s="42" t="s">
-        <v>201</v>
       </c>
       <c r="C13" s="4"/>
       <c r="D13" s="37" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="E13" s="35" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="F13" s="35" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="14" spans="2:6" ht="72" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B14" s="34" t="s">
         <v>203</v>
-      </c>
-    </row>
-    <row r="14" spans="2:6" ht="72" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B14" s="34" t="s">
-        <v>204</v>
       </c>
       <c r="C14" s="43"/>
       <c r="D14" s="38" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="E14" s="35" t="s">
+        <v>204</v>
+      </c>
+      <c r="F14" s="35" t="s">
         <v>205</v>
       </c>
-      <c r="F14" s="35" t="s">
+    </row>
+    <row r="15" spans="2:6" ht="72" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B15" s="34" t="s">
         <v>206</v>
-      </c>
-    </row>
-    <row r="15" spans="2:6" ht="72" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B15" s="34" t="s">
-        <v>207</v>
       </c>
       <c r="C15" s="4"/>
       <c r="D15" s="38" t="s">
+        <v>208</v>
+      </c>
+      <c r="E15" s="35" t="s">
         <v>209</v>
       </c>
-      <c r="E15" s="35" t="s">
+      <c r="F15" s="35" t="s">
         <v>210</v>
       </c>
-      <c r="F15" s="35" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="16" spans="2:6" ht="72" customHeight="1" x14ac:dyDescent="0.4">
+    </row>
+    <row r="16" spans="2:6" ht="72" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B16" s="34" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="C16" s="4"/>
       <c r="D16" s="38" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="E16" s="35" t="s">
+        <v>212</v>
+      </c>
+      <c r="F16" s="35" t="s">
         <v>213</v>
       </c>
-      <c r="F16" s="35" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="17" spans="2:6" ht="72" customHeight="1" x14ac:dyDescent="0.4">
+    </row>
+    <row r="17" spans="2:6" ht="72" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B17" s="34"/>
       <c r="C17" s="4"/>
       <c r="D17" s="12"/>
       <c r="E17" s="35"/>
       <c r="F17" s="35"/>
     </row>
-    <row r="18" spans="2:6" ht="72" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="18" spans="2:6" ht="72" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B18" s="34"/>
       <c r="C18" s="4"/>
       <c r="D18" s="12"/>
       <c r="E18" s="35"/>
       <c r="F18" s="35"/>
     </row>
-    <row r="19" spans="2:6" ht="72" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="19" spans="2:6" ht="72" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B19" s="34"/>
       <c r="C19" s="4"/>
       <c r="D19" s="12"/>
       <c r="E19" s="35"/>
       <c r="F19" s="35"/>
     </row>
-    <row r="20" spans="2:6" ht="72" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="20" spans="2:6" ht="72" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B20" s="34"/>
       <c r="C20" s="4"/>
       <c r="D20" s="12"/>
       <c r="E20" s="35"/>
       <c r="F20" s="35"/>
     </row>
-    <row r="21" spans="2:6" ht="72" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="21" spans="2:6" ht="72" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B21" s="34"/>
       <c r="C21" s="4"/>
       <c r="D21" s="12"/>
       <c r="E21" s="35"/>
       <c r="F21" s="35"/>
     </row>
-    <row r="22" spans="2:6" ht="72" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="22" spans="2:6" ht="72" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B22" s="34"/>
       <c r="C22" s="4"/>
       <c r="D22" s="12"/>
       <c r="E22" s="35"/>
       <c r="F22" s="35"/>
     </row>
-    <row r="23" spans="2:6" ht="72" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="23" spans="2:6" ht="72" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B23" s="34"/>
       <c r="C23" s="4"/>
       <c r="D23" s="12"/>
       <c r="E23" s="35"/>
       <c r="F23" s="35"/>
     </row>
-    <row r="24" spans="2:6" ht="72" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="24" spans="2:6" ht="72" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B24" s="34"/>
       <c r="C24" s="4"/>
       <c r="D24" s="12"/>
       <c r="E24" s="35"/>
       <c r="F24" s="35"/>
     </row>
-    <row r="25" spans="2:6" ht="72" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="25" spans="2:6" ht="72" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B25" s="34"/>
       <c r="C25" s="4"/>
       <c r="D25" s="12"/>
       <c r="E25" s="35"/>
       <c r="F25" s="35"/>
     </row>
-    <row r="26" spans="2:6" ht="72" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="26" spans="2:6" ht="72" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B26" s="34"/>
       <c r="C26" s="4"/>
       <c r="D26" s="12"/>
       <c r="E26" s="35"/>
       <c r="F26" s="35"/>
     </row>
-    <row r="27" spans="2:6" ht="72" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="27" spans="2:6" ht="72" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B27" s="34"/>
       <c r="C27" s="4"/>
       <c r="D27" s="12"/>
       <c r="E27" s="35"/>
       <c r="F27" s="35"/>
     </row>
-    <row r="28" spans="2:6" ht="72" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="28" spans="2:6" ht="72" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B28" s="34"/>
       <c r="C28" s="4"/>
       <c r="D28" s="12"/>
       <c r="E28" s="35"/>
       <c r="F28" s="35"/>
     </row>
-    <row r="29" spans="2:6" ht="72" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="29" spans="2:6" ht="72" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B29" s="34"/>
       <c r="C29" s="4"/>
       <c r="D29" s="12"/>
       <c r="E29" s="35"/>
       <c r="F29" s="35"/>
     </row>
-    <row r="30" spans="2:6" ht="72" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="30" spans="2:6" ht="72" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B30" s="34"/>
       <c r="C30" s="4"/>
       <c r="D30" s="12"/>
       <c r="E30" s="35"/>
       <c r="F30" s="35"/>
     </row>
-    <row r="31" spans="2:6" ht="72" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="31" spans="2:6" ht="72" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B31" s="34"/>
       <c r="C31" s="4"/>
       <c r="D31" s="12"/>
       <c r="E31" s="35"/>
       <c r="F31" s="35"/>
     </row>
-    <row r="32" spans="2:6" ht="72" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="32" spans="2:6" ht="72" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B32" s="34"/>
       <c r="C32" s="4"/>
       <c r="D32" s="12"/>
@@ -7988,24 +8455,24 @@
   <dimension ref="B2:F101"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="2" topLeftCell="B22" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="2" topLeftCell="B7" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="E42" sqref="E42"/>
+      <selection pane="bottomRight" activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.2" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="12" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="2.59765625" style="18" customWidth="1"/>
-    <col min="2" max="2" width="8.3984375" style="19" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="2.625" style="18" customWidth="1"/>
+    <col min="2" max="2" width="8.375" style="19" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="26" style="19" customWidth="1"/>
     <col min="4" max="4" width="9" style="19" customWidth="1"/>
     <col min="5" max="5" width="103" style="24" customWidth="1"/>
-    <col min="6" max="6" width="81.69921875" style="24" customWidth="1"/>
+    <col min="6" max="6" width="81.75" style="24" customWidth="1"/>
     <col min="7" max="16384" width="9" style="18"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:6" s="16" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="2" spans="2:6" s="16" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B2" s="15" t="s">
         <v>10</v>
       </c>
@@ -8013,7 +8480,7 @@
         <v>11</v>
       </c>
       <c r="D2" s="15" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="E2" s="15" t="s">
         <v>12</v>
@@ -8022,735 +8489,737 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="2:6" ht="92.4" hidden="1" x14ac:dyDescent="0.4">
+    <row r="3" spans="2:6" ht="84" hidden="1" x14ac:dyDescent="0.3">
       <c r="B3" s="17" t="s">
+        <v>93</v>
+      </c>
+      <c r="C3" s="17" t="s">
         <v>94</v>
       </c>
-      <c r="C3" s="17" t="s">
+      <c r="D3" s="47" t="s">
+        <v>251</v>
+      </c>
+      <c r="E3" s="25" t="s">
         <v>95</v>
       </c>
-      <c r="D3" s="47" t="s">
-        <v>252</v>
-      </c>
-      <c r="E3" s="25" t="s">
+      <c r="F3" s="23"/>
+    </row>
+    <row r="4" spans="2:6" ht="72" hidden="1" x14ac:dyDescent="0.3">
+      <c r="B4" s="17" t="s">
+        <v>93</v>
+      </c>
+      <c r="C4" s="17" t="s">
         <v>96</v>
       </c>
-      <c r="F3" s="23"/>
-    </row>
-    <row r="4" spans="2:6" ht="79.2" hidden="1" x14ac:dyDescent="0.4">
-      <c r="B4" s="17" t="s">
-        <v>94</v>
-      </c>
-      <c r="C4" s="17" t="s">
+      <c r="D4" s="47" t="s">
+        <v>251</v>
+      </c>
+      <c r="E4" s="25" t="s">
         <v>97</v>
       </c>
-      <c r="D4" s="47" t="s">
-        <v>252</v>
-      </c>
-      <c r="E4" s="25" t="s">
-        <v>98</v>
-      </c>
       <c r="F4" s="23"/>
     </row>
-    <row r="5" spans="2:6" ht="409.6" hidden="1" x14ac:dyDescent="0.4">
+    <row r="5" spans="2:6" ht="384" hidden="1" x14ac:dyDescent="0.3">
       <c r="B5" s="17" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C5" s="17" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="D5" s="47" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="E5" s="25" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="F5" s="25"/>
     </row>
-    <row r="6" spans="2:6" ht="157.5" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="6" spans="2:6" ht="157.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B6" s="17"/>
       <c r="C6" s="17" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="D6" s="47" t="s">
+        <v>252</v>
+      </c>
+      <c r="E6" s="25" t="s">
         <v>253</v>
       </c>
-      <c r="E6" s="25" t="s">
-        <v>254</v>
-      </c>
       <c r="F6" s="25"/>
     </row>
-    <row r="7" spans="2:6" ht="303.60000000000002" x14ac:dyDescent="0.4">
+    <row r="7" spans="2:6" ht="276" x14ac:dyDescent="0.3">
       <c r="B7" s="17"/>
       <c r="C7" s="17" t="s">
+        <v>254</v>
+      </c>
+      <c r="D7" s="47" t="s">
+        <v>252</v>
+      </c>
+      <c r="E7" s="25" t="s">
         <v>255</v>
       </c>
-      <c r="D7" s="47" t="s">
-        <v>253</v>
-      </c>
-      <c r="E7" s="25" t="s">
-        <v>256</v>
-      </c>
       <c r="F7" s="25"/>
     </row>
-    <row r="8" spans="2:6" ht="171.6" x14ac:dyDescent="0.4">
+    <row r="8" spans="2:6" ht="192" x14ac:dyDescent="0.3">
       <c r="B8" s="17"/>
       <c r="C8" s="17" t="s">
-        <v>301</v>
+        <v>337</v>
       </c>
       <c r="D8" s="47" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="E8" s="25" t="s">
-        <v>313</v>
-      </c>
-      <c r="F8" s="23"/>
-    </row>
-    <row r="9" spans="2:6" x14ac:dyDescent="0.4">
+        <v>361</v>
+      </c>
+      <c r="F8" s="23" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="9" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B9" s="17"/>
       <c r="C9" s="17"/>
       <c r="D9" s="17"/>
       <c r="E9" s="23"/>
       <c r="F9" s="23"/>
     </row>
-    <row r="10" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="10" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B10" s="17"/>
       <c r="C10" s="17"/>
       <c r="D10" s="17"/>
       <c r="E10" s="23"/>
       <c r="F10" s="23"/>
     </row>
-    <row r="11" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="11" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B11" s="17"/>
       <c r="C11" s="17"/>
       <c r="D11" s="17"/>
       <c r="E11" s="23"/>
       <c r="F11" s="23"/>
     </row>
-    <row r="12" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="12" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B12" s="17"/>
       <c r="C12" s="17"/>
       <c r="D12" s="17"/>
       <c r="E12" s="23"/>
       <c r="F12" s="23"/>
     </row>
-    <row r="13" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="13" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B13" s="17"/>
       <c r="C13" s="17"/>
       <c r="D13" s="17"/>
       <c r="E13" s="23"/>
       <c r="F13" s="23"/>
     </row>
-    <row r="14" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="14" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B14" s="17"/>
       <c r="C14" s="17"/>
       <c r="D14" s="17"/>
       <c r="E14" s="23"/>
       <c r="F14" s="23"/>
     </row>
-    <row r="15" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="15" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B15" s="17"/>
       <c r="C15" s="17"/>
       <c r="D15" s="17"/>
       <c r="E15" s="23"/>
       <c r="F15" s="23"/>
     </row>
-    <row r="16" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="16" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B16" s="17"/>
       <c r="C16" s="17"/>
       <c r="D16" s="17"/>
       <c r="E16" s="23"/>
       <c r="F16" s="23"/>
     </row>
-    <row r="17" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="17" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B17" s="17"/>
       <c r="C17" s="17"/>
       <c r="D17" s="17"/>
       <c r="E17" s="23"/>
       <c r="F17" s="23"/>
     </row>
-    <row r="18" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="18" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B18" s="17"/>
       <c r="C18" s="17"/>
       <c r="D18" s="17"/>
       <c r="E18" s="23"/>
       <c r="F18" s="23"/>
     </row>
-    <row r="19" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="19" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B19" s="17"/>
       <c r="C19" s="17"/>
       <c r="D19" s="17"/>
       <c r="E19" s="23"/>
       <c r="F19" s="23"/>
     </row>
-    <row r="20" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="20" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B20" s="17"/>
       <c r="C20" s="17"/>
       <c r="D20" s="17"/>
       <c r="E20" s="23"/>
       <c r="F20" s="23"/>
     </row>
-    <row r="21" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="21" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B21" s="17"/>
       <c r="C21" s="17"/>
       <c r="D21" s="17"/>
       <c r="E21" s="23"/>
       <c r="F21" s="23"/>
     </row>
-    <row r="22" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="22" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B22" s="17"/>
       <c r="C22" s="17"/>
       <c r="D22" s="17"/>
       <c r="E22" s="23"/>
       <c r="F22" s="23"/>
     </row>
-    <row r="23" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="23" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B23" s="17"/>
       <c r="C23" s="17"/>
       <c r="D23" s="17"/>
       <c r="E23" s="23"/>
       <c r="F23" s="23"/>
     </row>
-    <row r="24" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="24" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B24" s="17"/>
       <c r="C24" s="17"/>
       <c r="D24" s="17"/>
       <c r="E24" s="23"/>
       <c r="F24" s="23"/>
     </row>
-    <row r="25" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="25" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B25" s="17"/>
       <c r="C25" s="17"/>
       <c r="D25" s="17"/>
       <c r="E25" s="23"/>
       <c r="F25" s="23"/>
     </row>
-    <row r="26" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="26" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B26" s="17"/>
       <c r="C26" s="17"/>
       <c r="D26" s="17"/>
       <c r="E26" s="23"/>
       <c r="F26" s="23"/>
     </row>
-    <row r="27" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="27" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B27" s="17"/>
       <c r="C27" s="17"/>
       <c r="D27" s="17"/>
       <c r="E27" s="23"/>
       <c r="F27" s="23"/>
     </row>
-    <row r="28" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="28" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B28" s="17"/>
       <c r="C28" s="17"/>
       <c r="D28" s="17"/>
       <c r="E28" s="23"/>
       <c r="F28" s="23"/>
     </row>
-    <row r="29" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="29" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B29" s="17"/>
       <c r="C29" s="17"/>
       <c r="D29" s="17"/>
       <c r="E29" s="23"/>
       <c r="F29" s="23"/>
     </row>
-    <row r="30" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="30" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B30" s="17"/>
       <c r="C30" s="17"/>
       <c r="D30" s="17"/>
       <c r="E30" s="23"/>
       <c r="F30" s="23"/>
     </row>
-    <row r="31" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="31" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B31" s="17"/>
       <c r="C31" s="17"/>
       <c r="D31" s="17"/>
       <c r="E31" s="23"/>
       <c r="F31" s="23"/>
     </row>
-    <row r="32" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="32" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B32" s="17"/>
       <c r="C32" s="17"/>
       <c r="D32" s="17"/>
       <c r="E32" s="23"/>
       <c r="F32" s="23"/>
     </row>
-    <row r="33" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="33" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B33" s="17"/>
       <c r="C33" s="17"/>
       <c r="D33" s="17"/>
       <c r="E33" s="23"/>
       <c r="F33" s="23"/>
     </row>
-    <row r="34" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="34" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B34" s="17"/>
       <c r="C34" s="17"/>
       <c r="D34" s="17"/>
       <c r="E34" s="23"/>
       <c r="F34" s="23"/>
     </row>
-    <row r="35" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="35" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B35" s="17"/>
       <c r="C35" s="17"/>
       <c r="D35" s="17"/>
       <c r="E35" s="23"/>
       <c r="F35" s="23"/>
     </row>
-    <row r="36" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="36" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B36" s="17"/>
       <c r="C36" s="17"/>
       <c r="D36" s="17"/>
       <c r="E36" s="23"/>
       <c r="F36" s="23"/>
     </row>
-    <row r="37" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="37" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B37" s="17"/>
       <c r="C37" s="17"/>
       <c r="D37" s="17"/>
       <c r="E37" s="23"/>
       <c r="F37" s="23"/>
     </row>
-    <row r="38" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="38" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B38" s="17"/>
       <c r="C38" s="17"/>
       <c r="D38" s="17"/>
       <c r="E38" s="23"/>
       <c r="F38" s="23"/>
     </row>
-    <row r="39" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="39" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B39" s="17"/>
       <c r="C39" s="17"/>
       <c r="D39" s="17"/>
       <c r="E39" s="23"/>
       <c r="F39" s="23"/>
     </row>
-    <row r="40" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="40" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B40" s="17"/>
       <c r="C40" s="17"/>
       <c r="D40" s="17"/>
       <c r="E40" s="23"/>
       <c r="F40" s="23"/>
     </row>
-    <row r="41" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="41" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B41" s="17"/>
       <c r="C41" s="17"/>
       <c r="D41" s="17"/>
       <c r="E41" s="23"/>
       <c r="F41" s="23"/>
     </row>
-    <row r="42" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="42" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B42" s="17"/>
       <c r="C42" s="17"/>
       <c r="D42" s="17"/>
       <c r="E42" s="23"/>
       <c r="F42" s="23"/>
     </row>
-    <row r="43" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="43" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B43" s="17"/>
       <c r="C43" s="17"/>
       <c r="D43" s="17"/>
       <c r="E43" s="23"/>
       <c r="F43" s="23"/>
     </row>
-    <row r="44" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="44" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B44" s="17"/>
       <c r="C44" s="17"/>
       <c r="D44" s="17"/>
       <c r="E44" s="23"/>
       <c r="F44" s="23"/>
     </row>
-    <row r="45" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="45" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B45" s="17"/>
       <c r="C45" s="17"/>
       <c r="D45" s="17"/>
       <c r="E45" s="23"/>
       <c r="F45" s="23"/>
     </row>
-    <row r="46" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="46" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B46" s="17"/>
       <c r="C46" s="17"/>
       <c r="D46" s="17"/>
       <c r="E46" s="23"/>
       <c r="F46" s="23"/>
     </row>
-    <row r="47" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="47" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B47" s="17"/>
       <c r="C47" s="17"/>
       <c r="D47" s="17"/>
       <c r="E47" s="23"/>
       <c r="F47" s="23"/>
     </row>
-    <row r="48" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="48" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B48" s="17"/>
       <c r="C48" s="17"/>
       <c r="D48" s="17"/>
       <c r="E48" s="23"/>
       <c r="F48" s="23"/>
     </row>
-    <row r="49" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="49" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B49" s="17"/>
       <c r="C49" s="17"/>
       <c r="D49" s="17"/>
       <c r="E49" s="23"/>
       <c r="F49" s="23"/>
     </row>
-    <row r="50" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="50" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B50" s="17"/>
       <c r="C50" s="17"/>
       <c r="D50" s="17"/>
       <c r="E50" s="23"/>
       <c r="F50" s="23"/>
     </row>
-    <row r="51" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="51" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B51" s="17"/>
       <c r="C51" s="17"/>
       <c r="D51" s="17"/>
       <c r="E51" s="23"/>
       <c r="F51" s="23"/>
     </row>
-    <row r="52" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="52" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B52" s="17"/>
       <c r="C52" s="17"/>
       <c r="D52" s="17"/>
       <c r="E52" s="23"/>
       <c r="F52" s="23"/>
     </row>
-    <row r="53" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="53" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B53" s="17"/>
       <c r="C53" s="17"/>
       <c r="D53" s="17"/>
       <c r="E53" s="23"/>
       <c r="F53" s="23"/>
     </row>
-    <row r="54" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="54" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B54" s="17"/>
       <c r="C54" s="17"/>
       <c r="D54" s="17"/>
       <c r="E54" s="23"/>
       <c r="F54" s="23"/>
     </row>
-    <row r="55" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="55" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B55" s="17"/>
       <c r="C55" s="17"/>
       <c r="D55" s="17"/>
       <c r="E55" s="23"/>
       <c r="F55" s="23"/>
     </row>
-    <row r="56" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="56" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B56" s="17"/>
       <c r="C56" s="17"/>
       <c r="D56" s="17"/>
       <c r="E56" s="23"/>
       <c r="F56" s="23"/>
     </row>
-    <row r="57" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="57" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B57" s="17"/>
       <c r="C57" s="17"/>
       <c r="D57" s="17"/>
       <c r="E57" s="23"/>
       <c r="F57" s="23"/>
     </row>
-    <row r="58" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="58" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B58" s="17"/>
       <c r="C58" s="17"/>
       <c r="D58" s="17"/>
       <c r="E58" s="23"/>
       <c r="F58" s="23"/>
     </row>
-    <row r="59" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="59" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B59" s="17"/>
       <c r="C59" s="17"/>
       <c r="D59" s="17"/>
       <c r="E59" s="23"/>
       <c r="F59" s="23"/>
     </row>
-    <row r="60" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="60" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B60" s="17"/>
       <c r="C60" s="17"/>
       <c r="D60" s="17"/>
       <c r="E60" s="23"/>
       <c r="F60" s="23"/>
     </row>
-    <row r="61" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="61" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B61" s="17"/>
       <c r="C61" s="17"/>
       <c r="D61" s="17"/>
       <c r="E61" s="23"/>
       <c r="F61" s="23"/>
     </row>
-    <row r="62" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="62" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B62" s="17"/>
       <c r="C62" s="17"/>
       <c r="D62" s="17"/>
       <c r="E62" s="23"/>
       <c r="F62" s="23"/>
     </row>
-    <row r="63" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="63" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B63" s="17"/>
       <c r="C63" s="17"/>
       <c r="D63" s="17"/>
       <c r="E63" s="23"/>
       <c r="F63" s="23"/>
     </row>
-    <row r="64" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="64" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B64" s="17"/>
       <c r="C64" s="17"/>
       <c r="D64" s="17"/>
       <c r="E64" s="23"/>
       <c r="F64" s="23"/>
     </row>
-    <row r="65" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="65" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B65" s="17"/>
       <c r="C65" s="17"/>
       <c r="D65" s="17"/>
       <c r="E65" s="23"/>
       <c r="F65" s="23"/>
     </row>
-    <row r="66" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="66" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B66" s="17"/>
       <c r="C66" s="17"/>
       <c r="D66" s="17"/>
       <c r="E66" s="23"/>
       <c r="F66" s="23"/>
     </row>
-    <row r="67" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="67" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B67" s="17"/>
       <c r="C67" s="17"/>
       <c r="D67" s="17"/>
       <c r="E67" s="23"/>
       <c r="F67" s="23"/>
     </row>
-    <row r="68" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="68" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B68" s="17"/>
       <c r="C68" s="17"/>
       <c r="D68" s="17"/>
       <c r="E68" s="23"/>
       <c r="F68" s="23"/>
     </row>
-    <row r="69" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="69" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B69" s="17"/>
       <c r="C69" s="17"/>
       <c r="D69" s="17"/>
       <c r="E69" s="23"/>
       <c r="F69" s="23"/>
     </row>
-    <row r="70" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="70" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B70" s="17"/>
       <c r="C70" s="17"/>
       <c r="D70" s="17"/>
       <c r="E70" s="23"/>
       <c r="F70" s="23"/>
     </row>
-    <row r="71" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="71" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B71" s="17"/>
       <c r="C71" s="17"/>
       <c r="D71" s="17"/>
       <c r="E71" s="23"/>
       <c r="F71" s="23"/>
     </row>
-    <row r="72" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="72" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B72" s="17"/>
       <c r="C72" s="17"/>
       <c r="D72" s="17"/>
       <c r="E72" s="23"/>
       <c r="F72" s="23"/>
     </row>
-    <row r="73" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="73" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B73" s="17"/>
       <c r="C73" s="17"/>
       <c r="D73" s="17"/>
       <c r="E73" s="23"/>
       <c r="F73" s="23"/>
     </row>
-    <row r="74" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="74" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B74" s="17"/>
       <c r="C74" s="17"/>
       <c r="D74" s="17"/>
       <c r="E74" s="23"/>
       <c r="F74" s="23"/>
     </row>
-    <row r="75" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="75" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B75" s="17"/>
       <c r="C75" s="17"/>
       <c r="D75" s="17"/>
       <c r="E75" s="23"/>
       <c r="F75" s="23"/>
     </row>
-    <row r="76" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="76" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B76" s="17"/>
       <c r="C76" s="17"/>
       <c r="D76" s="17"/>
       <c r="E76" s="23"/>
       <c r="F76" s="23"/>
     </row>
-    <row r="77" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="77" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B77" s="17"/>
       <c r="C77" s="17"/>
       <c r="D77" s="17"/>
       <c r="E77" s="23"/>
       <c r="F77" s="23"/>
     </row>
-    <row r="78" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="78" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B78" s="17"/>
       <c r="C78" s="17"/>
       <c r="D78" s="17"/>
       <c r="E78" s="23"/>
       <c r="F78" s="23"/>
     </row>
-    <row r="79" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="79" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B79" s="17"/>
       <c r="C79" s="17"/>
       <c r="D79" s="17"/>
       <c r="E79" s="23"/>
       <c r="F79" s="23"/>
     </row>
-    <row r="80" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="80" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B80" s="17"/>
       <c r="C80" s="17"/>
       <c r="D80" s="17"/>
       <c r="E80" s="23"/>
       <c r="F80" s="23"/>
     </row>
-    <row r="81" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="81" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B81" s="17"/>
       <c r="C81" s="17"/>
       <c r="D81" s="17"/>
       <c r="E81" s="23"/>
       <c r="F81" s="23"/>
     </row>
-    <row r="82" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="82" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B82" s="17"/>
       <c r="C82" s="17"/>
       <c r="D82" s="17"/>
       <c r="E82" s="23"/>
       <c r="F82" s="23"/>
     </row>
-    <row r="83" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="83" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B83" s="17"/>
       <c r="C83" s="17"/>
       <c r="D83" s="17"/>
       <c r="E83" s="23"/>
       <c r="F83" s="23"/>
     </row>
-    <row r="84" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="84" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B84" s="17"/>
       <c r="C84" s="17"/>
       <c r="D84" s="17"/>
       <c r="E84" s="23"/>
       <c r="F84" s="23"/>
     </row>
-    <row r="85" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="85" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B85" s="17"/>
       <c r="C85" s="17"/>
       <c r="D85" s="17"/>
       <c r="E85" s="23"/>
       <c r="F85" s="23"/>
     </row>
-    <row r="86" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="86" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B86" s="17"/>
       <c r="C86" s="17"/>
       <c r="D86" s="17"/>
       <c r="E86" s="23"/>
       <c r="F86" s="23"/>
     </row>
-    <row r="87" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="87" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B87" s="17"/>
       <c r="C87" s="17"/>
       <c r="D87" s="17"/>
       <c r="E87" s="23"/>
       <c r="F87" s="23"/>
     </row>
-    <row r="88" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="88" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B88" s="17"/>
       <c r="C88" s="17"/>
       <c r="D88" s="17"/>
       <c r="E88" s="23"/>
       <c r="F88" s="23"/>
     </row>
-    <row r="89" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="89" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B89" s="17"/>
       <c r="C89" s="17"/>
       <c r="D89" s="17"/>
       <c r="E89" s="23"/>
       <c r="F89" s="23"/>
     </row>
-    <row r="90" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="90" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B90" s="17"/>
       <c r="C90" s="17"/>
       <c r="D90" s="17"/>
       <c r="E90" s="23"/>
       <c r="F90" s="23"/>
     </row>
-    <row r="91" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="91" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B91" s="17"/>
       <c r="C91" s="17"/>
       <c r="D91" s="17"/>
       <c r="E91" s="23"/>
       <c r="F91" s="23"/>
     </row>
-    <row r="92" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="92" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B92" s="17"/>
       <c r="C92" s="17"/>
       <c r="D92" s="17"/>
       <c r="E92" s="23"/>
       <c r="F92" s="23"/>
     </row>
-    <row r="93" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="93" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B93" s="17"/>
       <c r="C93" s="17"/>
       <c r="D93" s="17"/>
       <c r="E93" s="23"/>
       <c r="F93" s="23"/>
     </row>
-    <row r="94" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="94" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B94" s="17"/>
       <c r="C94" s="17"/>
       <c r="D94" s="17"/>
       <c r="E94" s="23"/>
       <c r="F94" s="23"/>
     </row>
-    <row r="95" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="95" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B95" s="17"/>
       <c r="C95" s="17"/>
       <c r="D95" s="17"/>
       <c r="E95" s="23"/>
       <c r="F95" s="23"/>
     </row>
-    <row r="96" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="96" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B96" s="17"/>
       <c r="C96" s="17"/>
       <c r="D96" s="17"/>
       <c r="E96" s="23"/>
       <c r="F96" s="23"/>
     </row>
-    <row r="97" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="97" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B97" s="17"/>
       <c r="C97" s="17"/>
       <c r="D97" s="17"/>
       <c r="E97" s="23"/>
       <c r="F97" s="23"/>
     </row>
-    <row r="98" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="98" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B98" s="17"/>
       <c r="C98" s="17"/>
       <c r="D98" s="17"/>
       <c r="E98" s="23"/>
       <c r="F98" s="23"/>
     </row>
-    <row r="99" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="99" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B99" s="17"/>
       <c r="C99" s="17"/>
       <c r="D99" s="17"/>
       <c r="E99" s="23"/>
       <c r="F99" s="23"/>
     </row>
-    <row r="100" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="100" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B100" s="17"/>
       <c r="C100" s="17"/>
       <c r="D100" s="17"/>
       <c r="E100" s="23"/>
       <c r="F100" s="23"/>
     </row>
-    <row r="101" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="101" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B101" s="17"/>
       <c r="C101" s="17"/>
       <c r="D101" s="17"/>
@@ -8778,35 +9247,35 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:O75"/>
+  <dimension ref="B2:O76"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="1" ySplit="2" topLeftCell="B21" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="2" topLeftCell="B30" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="B59" sqref="B59"/>
+      <selection pane="bottomRight" activeCell="H71" sqref="H71"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.2" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="12" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="4.5" style="1" customWidth="1"/>
-    <col min="2" max="2" width="24.69921875" style="8" customWidth="1"/>
-    <col min="3" max="3" width="11.59765625" style="8" customWidth="1"/>
-    <col min="4" max="4" width="16.09765625" style="2" customWidth="1"/>
-    <col min="5" max="5" width="10.69921875" style="8" customWidth="1"/>
+    <col min="2" max="2" width="24.75" style="8" customWidth="1"/>
+    <col min="3" max="3" width="11.625" style="8" customWidth="1"/>
+    <col min="4" max="4" width="16.125" style="2" customWidth="1"/>
+    <col min="5" max="5" width="10.75" style="8" customWidth="1"/>
     <col min="6" max="6" width="11" style="9" customWidth="1"/>
-    <col min="7" max="7" width="11.3984375" style="8" customWidth="1"/>
+    <col min="7" max="7" width="11.375" style="8" customWidth="1"/>
     <col min="8" max="8" width="10" style="9" customWidth="1"/>
-    <col min="9" max="9" width="10.09765625" style="10" customWidth="1"/>
-    <col min="10" max="10" width="60.09765625" style="2" customWidth="1"/>
+    <col min="9" max="9" width="10.125" style="10" customWidth="1"/>
+    <col min="10" max="10" width="60.125" style="2" customWidth="1"/>
     <col min="11" max="11" width="9" style="1"/>
     <col min="12" max="15" width="9" style="45"/>
     <col min="16" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:15" s="7" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="2" spans="2:15" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B2" s="3" t="s">
-        <v>14</v>
+        <v>338</v>
       </c>
       <c r="C2" s="3" t="s">
         <v>3</v>
@@ -8827,7 +9296,7 @@
         <v>9</v>
       </c>
       <c r="I2" s="11" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="J2" s="3" t="s">
         <v>7</v>
@@ -8837,15 +9306,15 @@
       <c r="N2" s="44"/>
       <c r="O2" s="44"/>
     </row>
-    <row r="3" spans="2:15" x14ac:dyDescent="0.4">
+    <row r="3" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B3" s="4" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C3" s="12" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D3" s="5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E3" s="12" t="s">
         <v>13</v>
@@ -8854,7 +9323,7 @@
         <v>24550</v>
       </c>
       <c r="G3" s="12" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="H3" s="13">
         <v>27200</v>
@@ -8864,18 +9333,18 @@
         <v>0.1079429735234216</v>
       </c>
       <c r="J3" s="5" t="s">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="4" spans="2:15" x14ac:dyDescent="0.4">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="4" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B4" s="4" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C4" s="12" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D4" s="5" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E4" s="12" t="s">
         <v>13</v>
@@ -8884,7 +9353,7 @@
         <v>4210</v>
       </c>
       <c r="G4" s="12" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="H4" s="13">
         <v>4705</v>
@@ -8894,18 +9363,18 @@
         <v>0.11757719714964371</v>
       </c>
       <c r="J4" s="5" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="5" spans="2:15" x14ac:dyDescent="0.4">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="5" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B5" s="4" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C5" s="12" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D5" s="5" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E5" s="12" t="s">
         <v>13</v>
@@ -8914,7 +9383,7 @@
         <v>1515</v>
       </c>
       <c r="G5" s="12" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="H5" s="13">
         <v>1450</v>
@@ -8924,18 +9393,18 @@
         <v>-4.2904290429042903E-2</v>
       </c>
       <c r="J5" s="5" t="s">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="6" spans="2:15" x14ac:dyDescent="0.4">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="6" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B6" s="4" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C6" s="12" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D6" s="5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E6" s="12" t="s">
         <v>13</v>
@@ -8944,7 +9413,7 @@
         <v>13000</v>
       </c>
       <c r="G6" s="12" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="H6" s="13">
         <v>16900</v>
@@ -8954,27 +9423,27 @@
         <v>0.3</v>
       </c>
       <c r="J6" s="5" t="s">
-        <v>232</v>
-      </c>
-    </row>
-    <row r="7" spans="2:15" x14ac:dyDescent="0.4">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="7" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B7" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="C7" s="12" t="s">
         <v>27</v>
       </c>
-      <c r="C7" s="12" t="s">
+      <c r="D7" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="D7" s="5" t="s">
-        <v>29</v>
-      </c>
       <c r="E7" s="12" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F7" s="13">
         <v>32150</v>
       </c>
       <c r="G7" s="12" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H7" s="13">
         <v>30450</v>
@@ -8984,27 +9453,27 @@
         <v>-5.2877138413685847E-2</v>
       </c>
       <c r="J7" s="5" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="8" spans="2:15" x14ac:dyDescent="0.4">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="8" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B8" s="4" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C8" s="12" t="s">
+        <v>29</v>
+      </c>
+      <c r="D8" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="D8" s="5" t="s">
-        <v>31</v>
-      </c>
       <c r="E8" s="12" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F8" s="13">
         <v>6970</v>
       </c>
       <c r="G8" s="12" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H8" s="13">
         <v>6760</v>
@@ -9014,27 +9483,27 @@
         <v>-3.0129124820659971E-2</v>
       </c>
       <c r="J8" s="5" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="9" spans="2:15" x14ac:dyDescent="0.4">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="9" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B9" s="4" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C9" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="D9" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="D9" s="5" t="s">
-        <v>33</v>
-      </c>
       <c r="E9" s="12" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F9" s="13">
         <v>7170</v>
       </c>
       <c r="G9" s="12" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H9" s="13">
         <v>6810</v>
@@ -9044,27 +9513,27 @@
         <v>-5.0209205020920501E-2</v>
       </c>
       <c r="J9" s="5" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="10" spans="2:15" x14ac:dyDescent="0.4">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="10" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B10" s="4" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C10" s="12" t="s">
+        <v>35</v>
+      </c>
+      <c r="D10" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="D10" s="5" t="s">
-        <v>37</v>
-      </c>
       <c r="E10" s="12" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="F10" s="13">
         <v>13650</v>
       </c>
       <c r="G10" s="12" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="H10" s="13">
         <v>13550</v>
@@ -9074,27 +9543,27 @@
         <v>-7.326007326007326E-3</v>
       </c>
       <c r="J10" s="5" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="11" spans="2:15" x14ac:dyDescent="0.4">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="11" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B11" s="4" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C11" s="12" t="s">
+        <v>37</v>
+      </c>
+      <c r="D11" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="D11" s="5" t="s">
-        <v>39</v>
-      </c>
       <c r="E11" s="12" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="F11" s="13">
         <v>20000</v>
       </c>
       <c r="G11" s="12" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="H11" s="13">
         <v>20100</v>
@@ -9104,27 +9573,27 @@
         <v>5.0000000000000001E-3</v>
       </c>
       <c r="J11" s="5" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="12" spans="2:15" x14ac:dyDescent="0.4">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="12" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B12" s="4" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C12" s="12" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D12" s="5" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E12" s="12" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="F12" s="13">
         <v>1350</v>
       </c>
       <c r="G12" s="12" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="H12" s="13">
         <v>1335</v>
@@ -9134,27 +9603,27 @@
         <v>-1.1111111111111112E-2</v>
       </c>
       <c r="J12" s="5" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="13" spans="2:15" x14ac:dyDescent="0.4">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="13" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B13" s="4" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C13" s="12" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D13" s="5" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E13" s="12" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="F13" s="13">
         <v>6440</v>
       </c>
       <c r="G13" s="12" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="H13" s="13">
         <v>6220</v>
@@ -9164,27 +9633,27 @@
         <v>-3.4161490683229816E-2</v>
       </c>
       <c r="J13" s="5" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="14" spans="2:15" x14ac:dyDescent="0.4">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="14" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B14" s="4" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C14" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="D14" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="D14" s="5" t="s">
-        <v>43</v>
-      </c>
       <c r="E14" s="12" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="F14" s="13">
         <v>4950</v>
       </c>
       <c r="G14" s="12" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="H14" s="13">
         <v>4990</v>
@@ -9194,27 +9663,27 @@
         <v>8.0808080808080808E-3</v>
       </c>
       <c r="J14" s="5" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="15" spans="2:15" x14ac:dyDescent="0.4">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="15" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B15" s="4" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C15" s="12" t="s">
+        <v>43</v>
+      </c>
+      <c r="D15" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="D15" s="5" t="s">
+      <c r="E15" s="12" t="s">
         <v>45</v>
-      </c>
-      <c r="E15" s="12" t="s">
-        <v>46</v>
       </c>
       <c r="F15" s="13">
         <v>3835</v>
       </c>
       <c r="G15" s="12" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="H15" s="13">
         <v>3930</v>
@@ -9224,27 +9693,27 @@
         <v>2.4771838331160364E-2</v>
       </c>
       <c r="J15" s="5" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="16" spans="2:15" x14ac:dyDescent="0.4">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="16" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B16" s="4" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C16" s="12" t="s">
+        <v>47</v>
+      </c>
+      <c r="D16" s="5" t="s">
         <v>48</v>
       </c>
-      <c r="D16" s="5" t="s">
-        <v>49</v>
-      </c>
       <c r="E16" s="12" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="F16" s="13">
         <v>1025</v>
       </c>
       <c r="G16" s="12" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="H16" s="13">
         <v>1030</v>
@@ -9254,27 +9723,27 @@
         <v>4.8780487804878049E-3</v>
       </c>
       <c r="J16" s="5" t="s">
-        <v>233</v>
-      </c>
-    </row>
-    <row r="17" spans="2:10" x14ac:dyDescent="0.4">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="17" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B17" s="4" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C17" s="12" t="s">
+        <v>49</v>
+      </c>
+      <c r="D17" s="5" t="s">
         <v>50</v>
       </c>
-      <c r="D17" s="5" t="s">
-        <v>51</v>
-      </c>
       <c r="E17" s="12" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="F17" s="13">
         <v>1910</v>
       </c>
       <c r="G17" s="12" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="H17" s="13">
         <v>1590</v>
@@ -9284,27 +9753,27 @@
         <v>-0.16753926701570682</v>
       </c>
       <c r="J17" s="5" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="18" spans="2:10" x14ac:dyDescent="0.4">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="18" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B18" s="4" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C18" s="12" t="s">
+        <v>77</v>
+      </c>
+      <c r="D18" s="5" t="s">
         <v>78</v>
       </c>
-      <c r="D18" s="5" t="s">
-        <v>79</v>
-      </c>
       <c r="E18" s="12" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="F18" s="13">
         <v>6850</v>
       </c>
       <c r="G18" s="12" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="H18" s="13">
         <v>6440</v>
@@ -9314,27 +9783,27 @@
         <v>-5.9854014598540145E-2</v>
       </c>
       <c r="J18" s="5" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="19" spans="2:10" x14ac:dyDescent="0.4">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="19" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B19" s="4" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C19" s="12" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D19" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="E19" s="12" t="s">
         <v>75</v>
-      </c>
-      <c r="E19" s="12" t="s">
-        <v>76</v>
       </c>
       <c r="F19" s="13">
         <v>1155</v>
       </c>
       <c r="G19" s="12" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="H19" s="13">
         <v>1410</v>
@@ -9344,27 +9813,27 @@
         <v>0.22077922077922077</v>
       </c>
       <c r="J19" s="5" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="20" spans="2:10" x14ac:dyDescent="0.4">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="20" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B20" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="C20" s="12" t="s">
         <v>81</v>
       </c>
-      <c r="C20" s="12" t="s">
+      <c r="D20" s="5" t="s">
         <v>82</v>
       </c>
-      <c r="D20" s="5" t="s">
-        <v>83</v>
-      </c>
       <c r="E20" s="12" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="F20" s="13">
         <v>29200</v>
       </c>
       <c r="G20" s="12" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="H20" s="13">
         <v>30050</v>
@@ -9374,27 +9843,27 @@
         <v>2.9109589041095889E-2</v>
       </c>
       <c r="J20" s="5" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="21" spans="2:10" x14ac:dyDescent="0.4">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="21" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B21" s="4" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C21" s="12" t="s">
+        <v>83</v>
+      </c>
+      <c r="D21" s="5" t="s">
         <v>84</v>
       </c>
-      <c r="D21" s="5" t="s">
-        <v>85</v>
-      </c>
       <c r="E21" s="12" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="F21" s="13">
         <v>6290</v>
       </c>
       <c r="G21" s="12" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="H21" s="13">
         <v>5810</v>
@@ -9404,10 +9873,10 @@
         <v>-7.6311605723370424E-2</v>
       </c>
       <c r="J21" s="5" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="22" spans="2:10" x14ac:dyDescent="0.4">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="22" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B22" s="4"/>
       <c r="C22" s="12"/>
       <c r="D22" s="5"/>
@@ -9418,24 +9887,24 @@
       <c r="I22" s="14"/>
       <c r="J22" s="5"/>
     </row>
-    <row r="23" spans="2:10" x14ac:dyDescent="0.4">
+    <row r="23" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B23" s="4" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C23" s="12" t="s">
+        <v>91</v>
+      </c>
+      <c r="D23" s="5" t="s">
         <v>92</v>
       </c>
-      <c r="D23" s="5" t="s">
-        <v>93</v>
-      </c>
       <c r="E23" s="12" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="F23" s="13">
         <v>3680</v>
       </c>
       <c r="G23" s="12" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="H23" s="13">
         <v>3680</v>
@@ -9445,27 +9914,27 @@
         <v>0</v>
       </c>
       <c r="J23" s="5" t="s">
-        <v>234</v>
-      </c>
-    </row>
-    <row r="24" spans="2:10" x14ac:dyDescent="0.4">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="24" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B24" s="4" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C24" s="12" t="s">
+        <v>88</v>
+      </c>
+      <c r="D24" s="5" t="s">
         <v>89</v>
       </c>
-      <c r="D24" s="5" t="s">
+      <c r="E24" s="12" t="s">
         <v>90</v>
-      </c>
-      <c r="E24" s="12" t="s">
-        <v>91</v>
       </c>
       <c r="F24" s="13">
         <v>23450</v>
       </c>
       <c r="G24" s="12" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="H24" s="13">
         <v>23350</v>
@@ -9475,10 +9944,10 @@
         <v>-4.2643923240938165E-3</v>
       </c>
       <c r="J24" s="5" t="s">
-        <v>234</v>
-      </c>
-    </row>
-    <row r="25" spans="2:10" x14ac:dyDescent="0.4">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="25" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B25" s="4"/>
       <c r="C25" s="12"/>
       <c r="D25" s="5"/>
@@ -9489,24 +9958,24 @@
       <c r="I25" s="14"/>
       <c r="J25" s="5"/>
     </row>
-    <row r="26" spans="2:10" x14ac:dyDescent="0.4">
+    <row r="26" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B26" s="4" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C26" s="12" t="s">
+        <v>100</v>
+      </c>
+      <c r="D26" s="5" t="s">
         <v>101</v>
       </c>
-      <c r="D26" s="5" t="s">
+      <c r="E26" s="12" t="s">
         <v>102</v>
-      </c>
-      <c r="E26" s="12" t="s">
-        <v>103</v>
       </c>
       <c r="F26" s="13">
         <v>9160</v>
       </c>
       <c r="G26" s="12" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="H26" s="13">
         <v>9573</v>
@@ -9516,10 +9985,10 @@
         <v>4.5087336244541483E-2</v>
       </c>
       <c r="J26" s="5" t="s">
-        <v>234</v>
-      </c>
-    </row>
-    <row r="27" spans="2:10" x14ac:dyDescent="0.4">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="27" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B27" s="4"/>
       <c r="C27" s="12"/>
       <c r="D27" s="5"/>
@@ -9530,24 +9999,24 @@
       <c r="I27" s="14"/>
       <c r="J27" s="5"/>
     </row>
-    <row r="28" spans="2:10" x14ac:dyDescent="0.4">
+    <row r="28" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B28" s="4" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C28" s="12" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D28" s="5" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="E28" s="12" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="F28" s="13">
         <v>14221</v>
       </c>
       <c r="G28" s="12" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="H28" s="13">
         <v>14321</v>
@@ -9557,27 +10026,27 @@
         <v>7.0318542999789043E-3</v>
       </c>
       <c r="J28" s="5" t="s">
-        <v>234</v>
-      </c>
-    </row>
-    <row r="29" spans="2:10" x14ac:dyDescent="0.4">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="29" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B29" s="4" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C29" s="12" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="D29" s="5" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="E29" s="12" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="F29" s="13">
         <v>12682</v>
       </c>
       <c r="G29" s="12" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="H29" s="13">
         <v>12500</v>
@@ -9587,27 +10056,27 @@
         <v>-1.4351048730484151E-2</v>
       </c>
       <c r="J29" s="5" t="s">
-        <v>234</v>
-      </c>
-    </row>
-    <row r="30" spans="2:10" x14ac:dyDescent="0.4">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="30" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B30" s="4" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C30" s="12" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="D30" s="5" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="E30" s="12" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="F30" s="13">
         <v>10000</v>
       </c>
       <c r="G30" s="12" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="H30" s="13">
         <v>9918</v>
@@ -9617,27 +10086,27 @@
         <v>-8.2000000000000007E-3</v>
       </c>
       <c r="J30" s="5" t="s">
-        <v>234</v>
-      </c>
-    </row>
-    <row r="31" spans="2:10" x14ac:dyDescent="0.4">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="31" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B31" s="4" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C31" s="12" t="s">
+        <v>109</v>
+      </c>
+      <c r="D31" s="5" t="s">
         <v>110</v>
       </c>
-      <c r="D31" s="5" t="s">
-        <v>111</v>
-      </c>
       <c r="E31" s="12" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="F31" s="13">
         <v>6981</v>
       </c>
       <c r="G31" s="12" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="H31" s="13">
         <v>6930</v>
@@ -9647,10 +10116,10 @@
         <v>-7.30554361839278E-3</v>
       </c>
       <c r="J31" s="5" t="s">
-        <v>234</v>
-      </c>
-    </row>
-    <row r="32" spans="2:10" x14ac:dyDescent="0.4">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="32" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B32" s="4"/>
       <c r="C32" s="12"/>
       <c r="D32" s="5"/>
@@ -9661,24 +10130,24 @@
       <c r="I32" s="14"/>
       <c r="J32" s="5"/>
     </row>
-    <row r="33" spans="2:10" x14ac:dyDescent="0.4">
+    <row r="33" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B33" s="4" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C33" s="12" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="D33" s="5" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="E33" s="12" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="F33" s="13">
         <v>8765</v>
       </c>
       <c r="G33" s="12" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="H33" s="13">
         <v>8860</v>
@@ -9688,27 +10157,27 @@
         <v>1.0838562464346835E-2</v>
       </c>
       <c r="J33" s="5" t="s">
-        <v>234</v>
-      </c>
-    </row>
-    <row r="34" spans="2:10" x14ac:dyDescent="0.4">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="34" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B34" s="4" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C34" s="12" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="D34" s="27" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="E34" s="12" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="F34" s="13">
         <v>2945</v>
       </c>
       <c r="G34" s="12" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="H34" s="13">
         <v>2905</v>
@@ -9718,27 +10187,27 @@
         <v>-1.3582342954159592E-2</v>
       </c>
       <c r="J34" s="5" t="s">
-        <v>234</v>
-      </c>
-    </row>
-    <row r="35" spans="2:10" x14ac:dyDescent="0.4">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="35" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B35" s="4" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C35" s="12" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="D35" s="27" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="E35" s="12" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="F35" s="13">
         <v>2475</v>
       </c>
       <c r="G35" s="12" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="H35" s="13">
         <v>2470</v>
@@ -9748,10 +10217,10 @@
         <v>-2.0202020202020202E-3</v>
       </c>
       <c r="J35" s="5" t="s">
-        <v>234</v>
-      </c>
-    </row>
-    <row r="36" spans="2:10" x14ac:dyDescent="0.4">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="36" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B36" s="4"/>
       <c r="C36" s="12"/>
       <c r="D36" s="27"/>
@@ -9762,24 +10231,24 @@
       <c r="I36" s="14"/>
       <c r="J36" s="5"/>
     </row>
-    <row r="37" spans="2:10" x14ac:dyDescent="0.4">
+    <row r="37" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B37" s="4" t="s">
+        <v>149</v>
+      </c>
+      <c r="C37" s="12" t="s">
+        <v>225</v>
+      </c>
+      <c r="D37" s="5" t="s">
         <v>150</v>
       </c>
-      <c r="C37" s="12" t="s">
-        <v>226</v>
-      </c>
-      <c r="D37" s="5" t="s">
-        <v>151</v>
-      </c>
       <c r="E37" s="12" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="F37" s="13">
         <v>4275</v>
       </c>
       <c r="G37" s="12" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="H37" s="13">
         <v>4190</v>
@@ -9789,27 +10258,27 @@
         <v>-1.9883040935672516E-2</v>
       </c>
       <c r="J37" s="5" t="s">
-        <v>234</v>
-      </c>
-    </row>
-    <row r="38" spans="2:10" x14ac:dyDescent="0.4">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="38" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B38" s="4" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C38" s="12" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="D38" s="5" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="E38" s="12" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="F38" s="13">
         <v>27750</v>
       </c>
       <c r="G38" s="12" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="H38" s="13">
         <v>28368</v>
@@ -9819,27 +10288,27 @@
         <v>2.227027027027027E-2</v>
       </c>
       <c r="J38" s="5" t="s">
-        <v>234</v>
-      </c>
-    </row>
-    <row r="39" spans="2:10" x14ac:dyDescent="0.4">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="39" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B39" s="4" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C39" s="12" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="D39" s="5" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="E39" s="12" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="F39" s="13">
         <v>9690</v>
       </c>
       <c r="G39" s="12" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="H39" s="13">
         <v>9891</v>
@@ -9849,27 +10318,27 @@
         <v>2.0743034055727555E-2</v>
       </c>
       <c r="J39" s="5" t="s">
-        <v>234</v>
-      </c>
-    </row>
-    <row r="40" spans="2:10" x14ac:dyDescent="0.4">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="40" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B40" s="4" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="C40" s="12" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="D40" s="5" t="s">
+        <v>153</v>
+      </c>
+      <c r="E40" s="12" t="s">
         <v>154</v>
-      </c>
-      <c r="E40" s="12" t="s">
-        <v>155</v>
       </c>
       <c r="F40" s="13">
         <v>10088</v>
       </c>
       <c r="G40" s="12" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="H40" s="13">
         <v>10400</v>
@@ -9879,10 +10348,10 @@
         <v>3.0927835051546393E-2</v>
       </c>
       <c r="J40" s="5" t="s">
-        <v>234</v>
-      </c>
-    </row>
-    <row r="41" spans="2:10" x14ac:dyDescent="0.4">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="41" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B41" s="4"/>
       <c r="C41" s="12"/>
       <c r="D41" s="5"/>
@@ -9893,24 +10362,24 @@
       <c r="I41" s="14"/>
       <c r="J41" s="5"/>
     </row>
-    <row r="42" spans="2:10" x14ac:dyDescent="0.4">
+    <row r="42" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B42" s="4" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="C42" s="12" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="D42" s="5" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="E42" s="12" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="F42" s="13">
         <v>11000</v>
       </c>
       <c r="G42" s="12" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="H42" s="13">
         <v>11150</v>
@@ -9920,27 +10389,27 @@
         <v>1.3636363636363636E-2</v>
       </c>
       <c r="J42" s="5" t="s">
-        <v>234</v>
-      </c>
-    </row>
-    <row r="43" spans="2:10" x14ac:dyDescent="0.4">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="43" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B43" s="4" t="s">
+        <v>216</v>
+      </c>
+      <c r="C43" s="12" t="s">
+        <v>218</v>
+      </c>
+      <c r="D43" s="5" t="s">
         <v>217</v>
       </c>
-      <c r="C43" s="12" t="s">
-        <v>219</v>
-      </c>
-      <c r="D43" s="5" t="s">
-        <v>218</v>
-      </c>
       <c r="E43" s="12" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="F43" s="13">
         <v>34205</v>
       </c>
       <c r="G43" s="12" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="H43" s="13">
         <v>37176</v>
@@ -9950,10 +10419,10 @@
         <v>8.6858646396725622E-2</v>
       </c>
       <c r="J43" s="5" t="s">
-        <v>234</v>
-      </c>
-    </row>
-    <row r="44" spans="2:10" x14ac:dyDescent="0.4">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="44" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B44" s="4"/>
       <c r="C44" s="12"/>
       <c r="D44" s="5"/>
@@ -9964,24 +10433,24 @@
       <c r="I44" s="14"/>
       <c r="J44" s="5"/>
     </row>
-    <row r="45" spans="2:10" x14ac:dyDescent="0.4">
+    <row r="45" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B45" s="4" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="C45" s="12" t="s">
+        <v>220</v>
+      </c>
+      <c r="D45" s="5" t="s">
+        <v>219</v>
+      </c>
+      <c r="E45" s="12" t="s">
         <v>221</v>
-      </c>
-      <c r="D45" s="5" t="s">
-        <v>220</v>
-      </c>
-      <c r="E45" s="12" t="s">
-        <v>222</v>
       </c>
       <c r="F45" s="13">
         <v>11458</v>
       </c>
       <c r="G45" s="12" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="H45" s="13">
         <v>11299</v>
@@ -9991,27 +10460,27 @@
         <v>-1.3876767324140339E-2</v>
       </c>
       <c r="J45" s="5" t="s">
-        <v>234</v>
-      </c>
-    </row>
-    <row r="46" spans="2:10" x14ac:dyDescent="0.4">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="46" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B46" s="4" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="C46" s="12" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="D46" s="5" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="E46" s="12" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="F46" s="13">
         <v>25750</v>
       </c>
       <c r="G46" s="12" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="H46" s="13">
         <v>24800</v>
@@ -10021,10 +10490,10 @@
         <v>-3.6893203883495145E-2</v>
       </c>
       <c r="J46" s="5" t="s">
-        <v>234</v>
-      </c>
-    </row>
-    <row r="47" spans="2:10" x14ac:dyDescent="0.4">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="47" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B47" s="4"/>
       <c r="C47" s="12"/>
       <c r="D47" s="5"/>
@@ -10033,29 +10502,29 @@
       <c r="G47" s="12"/>
       <c r="H47" s="13"/>
       <c r="I47" s="14" t="str">
-        <f t="shared" ref="I47:I75" si="1">IF(H47="", "", IFERROR( ((H47-F47)/F47), ""))</f>
+        <f t="shared" ref="I47:I76" si="1">IF(H47="", "", IFERROR( ((H47-F47)/F47), ""))</f>
         <v/>
       </c>
       <c r="J47" s="5"/>
     </row>
-    <row r="48" spans="2:10" x14ac:dyDescent="0.4">
+    <row r="48" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B48" s="4" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C48" s="12" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="D48" s="5" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="E48" s="12" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="F48" s="13">
         <v>2842</v>
       </c>
       <c r="G48" s="12" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="H48" s="13">
         <v>2796</v>
@@ -10065,27 +10534,27 @@
         <v>-1.6185784658691062E-2</v>
       </c>
       <c r="J48" s="5" t="s">
-        <v>234</v>
-      </c>
-    </row>
-    <row r="49" spans="2:10" x14ac:dyDescent="0.4">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="49" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B49" s="4" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C49" s="12" t="s">
+        <v>237</v>
+      </c>
+      <c r="D49" s="5" t="s">
         <v>238</v>
       </c>
-      <c r="D49" s="5" t="s">
-        <v>239</v>
-      </c>
       <c r="E49" s="12" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="F49" s="13">
         <v>44350</v>
       </c>
       <c r="G49" s="12" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="H49" s="13">
         <v>45250</v>
@@ -10095,27 +10564,27 @@
         <v>2.0293122886133032E-2</v>
       </c>
       <c r="J49" s="5" t="s">
-        <v>234</v>
-      </c>
-    </row>
-    <row r="50" spans="2:10" x14ac:dyDescent="0.4">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="50" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B50" s="4" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C50" s="12" t="s">
+        <v>239</v>
+      </c>
+      <c r="D50" s="5" t="s">
         <v>240</v>
       </c>
-      <c r="D50" s="5" t="s">
-        <v>241</v>
-      </c>
       <c r="E50" s="12" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="F50" s="13">
         <v>4665</v>
       </c>
       <c r="G50" s="12" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="H50" s="13">
         <v>4529</v>
@@ -10125,27 +10594,27 @@
         <v>-2.9153269024651662E-2</v>
       </c>
       <c r="J50" s="5" t="s">
-        <v>234</v>
-      </c>
-    </row>
-    <row r="51" spans="2:10" x14ac:dyDescent="0.4">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="51" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B51" s="4" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="C51" s="12" t="s">
+        <v>241</v>
+      </c>
+      <c r="D51" s="5" t="s">
         <v>242</v>
       </c>
-      <c r="D51" s="5" t="s">
-        <v>243</v>
-      </c>
       <c r="E51" s="12" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="F51" s="13">
         <v>9180</v>
       </c>
       <c r="G51" s="12" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="H51" s="13">
         <v>9268</v>
@@ -10155,10 +10624,10 @@
         <v>9.5860566448801744E-3</v>
       </c>
       <c r="J51" s="5" t="s">
-        <v>234</v>
-      </c>
-    </row>
-    <row r="52" spans="2:10" x14ac:dyDescent="0.4">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="52" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B52" s="4"/>
       <c r="C52" s="12"/>
       <c r="D52" s="5"/>
@@ -10172,24 +10641,24 @@
       </c>
       <c r="J52" s="5"/>
     </row>
-    <row r="53" spans="2:10" x14ac:dyDescent="0.4">
+    <row r="53" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B53" s="4" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="C53" s="12" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="D53" s="5" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="E53" s="12" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="F53" s="13">
         <v>34641</v>
       </c>
       <c r="G53" s="12" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="H53" s="13">
         <v>34144</v>
@@ -10199,27 +10668,27 @@
         <v>-1.4347160878727519E-2</v>
       </c>
       <c r="J53" s="5" t="s">
-        <v>234</v>
-      </c>
-    </row>
-    <row r="54" spans="2:10" x14ac:dyDescent="0.4">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="54" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B54" s="4" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="C54" s="12" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="D54" s="5" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="E54" s="12" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="F54" s="13">
         <v>11550</v>
       </c>
       <c r="G54" s="12" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="H54" s="13">
         <v>11350</v>
@@ -10229,27 +10698,27 @@
         <v>-1.7316017316017316E-2</v>
       </c>
       <c r="J54" s="5" t="s">
-        <v>234</v>
-      </c>
-    </row>
-    <row r="55" spans="2:10" x14ac:dyDescent="0.4">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="55" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B55" s="4" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="C55" s="12" t="s">
+        <v>262</v>
+      </c>
+      <c r="D55" s="5" t="s">
         <v>263</v>
       </c>
-      <c r="D55" s="5" t="s">
-        <v>264</v>
-      </c>
       <c r="E55" s="12" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="F55" s="13">
         <v>2998</v>
       </c>
       <c r="G55" s="12" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="H55" s="13">
         <v>2946</v>
@@ -10259,27 +10728,27 @@
         <v>-1.7344896597731821E-2</v>
       </c>
       <c r="J55" s="5" t="s">
-        <v>234</v>
-      </c>
-    </row>
-    <row r="56" spans="2:10" x14ac:dyDescent="0.4">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="56" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B56" s="4" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="C56" s="12" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="D56" s="5" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="E56" s="12" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="F56" s="13">
         <v>26900</v>
       </c>
       <c r="G56" s="12" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="H56" s="13">
         <v>26400</v>
@@ -10289,10 +10758,10 @@
         <v>-1.858736059479554E-2</v>
       </c>
       <c r="J56" s="5" t="s">
-        <v>234</v>
-      </c>
-    </row>
-    <row r="57" spans="2:10" x14ac:dyDescent="0.4">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="57" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B57" s="4"/>
       <c r="C57" s="12"/>
       <c r="D57" s="5"/>
@@ -10306,59 +10775,65 @@
       </c>
       <c r="J57" s="5"/>
     </row>
-    <row r="58" spans="2:10" x14ac:dyDescent="0.4">
-      <c r="B58" s="4" t="s">
-        <v>302</v>
-      </c>
+    <row r="58" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B58" s="4"/>
       <c r="C58" s="12" t="s">
-        <v>303</v>
+        <v>293</v>
       </c>
       <c r="D58" s="5" t="s">
-        <v>304</v>
+        <v>294</v>
       </c>
       <c r="E58" s="12" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="F58" s="13">
         <v>8400</v>
       </c>
       <c r="G58" s="12" t="s">
-        <v>307</v>
-      </c>
-      <c r="H58" s="13"/>
-      <c r="I58" s="14" t="str">
+        <v>297</v>
+      </c>
+      <c r="H58" s="13">
+        <v>7960</v>
+      </c>
+      <c r="I58" s="14">
         <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="J58" s="5"/>
-    </row>
-    <row r="59" spans="2:10" x14ac:dyDescent="0.4">
+        <v>-5.2380952380952382E-2</v>
+      </c>
+      <c r="J58" s="5" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="59" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B59" s="4" t="s">
-        <v>302</v>
+        <v>339</v>
       </c>
       <c r="C59" s="12" t="s">
-        <v>305</v>
+        <v>295</v>
       </c>
       <c r="D59" s="5" t="s">
-        <v>306</v>
+        <v>296</v>
       </c>
       <c r="E59" s="12" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="F59" s="13">
         <v>43936</v>
       </c>
       <c r="G59" s="12" t="s">
-        <v>307</v>
-      </c>
-      <c r="H59" s="13"/>
-      <c r="I59" s="14" t="str">
+        <v>297</v>
+      </c>
+      <c r="H59" s="13">
+        <v>45800</v>
+      </c>
+      <c r="I59" s="14">
         <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="J59" s="5"/>
-    </row>
-    <row r="60" spans="2:10" x14ac:dyDescent="0.4">
+        <v>4.2425345957756738E-2</v>
+      </c>
+      <c r="J59" s="5" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="60" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B60" s="4"/>
       <c r="C60" s="12"/>
       <c r="D60" s="5"/>
@@ -10372,91 +10847,175 @@
       </c>
       <c r="J60" s="5"/>
     </row>
-    <row r="61" spans="2:10" x14ac:dyDescent="0.4">
-      <c r="B61" s="4"/>
-      <c r="C61" s="12"/>
-      <c r="D61" s="5"/>
-      <c r="E61" s="12"/>
-      <c r="F61" s="13"/>
-      <c r="G61" s="12"/>
+    <row r="61" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B61" s="4" t="s">
+        <v>339</v>
+      </c>
+      <c r="C61" s="12" t="s">
+        <v>370</v>
+      </c>
+      <c r="D61" s="5" t="s">
+        <v>369</v>
+      </c>
+      <c r="E61" s="12" t="s">
+        <v>297</v>
+      </c>
+      <c r="F61" s="13">
+        <v>43696</v>
+      </c>
+      <c r="G61" s="12" t="s">
+        <v>371</v>
+      </c>
       <c r="H61" s="13"/>
       <c r="I61" s="14" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="J61" s="5"/>
-    </row>
-    <row r="62" spans="2:10" x14ac:dyDescent="0.4">
-      <c r="B62" s="4"/>
-      <c r="C62" s="12"/>
-      <c r="D62" s="5"/>
-      <c r="E62" s="12"/>
-      <c r="F62" s="13"/>
-      <c r="G62" s="12"/>
+      <c r="J61" s="5" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="62" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B62" s="4" t="s">
+        <v>339</v>
+      </c>
+      <c r="C62" s="12" t="s">
+        <v>293</v>
+      </c>
+      <c r="D62" s="5" t="s">
+        <v>379</v>
+      </c>
+      <c r="E62" s="12" t="s">
+        <v>297</v>
+      </c>
+      <c r="F62" s="13">
+        <v>9240</v>
+      </c>
+      <c r="G62" s="12" t="s">
+        <v>371</v>
+      </c>
       <c r="H62" s="13"/>
       <c r="I62" s="14" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="J62" s="5"/>
-    </row>
-    <row r="63" spans="2:10" x14ac:dyDescent="0.4">
-      <c r="B63" s="4"/>
-      <c r="C63" s="12"/>
-      <c r="D63" s="5"/>
-      <c r="E63" s="12"/>
-      <c r="F63" s="13"/>
-      <c r="G63" s="12"/>
+      <c r="J62" s="5" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="63" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B63" s="4" t="s">
+        <v>339</v>
+      </c>
+      <c r="C63" s="12" t="s">
+        <v>373</v>
+      </c>
+      <c r="D63" s="5" t="s">
+        <v>378</v>
+      </c>
+      <c r="E63" s="12" t="s">
+        <v>297</v>
+      </c>
+      <c r="F63" s="13">
+        <v>31049</v>
+      </c>
+      <c r="G63" s="12" t="s">
+        <v>371</v>
+      </c>
       <c r="H63" s="13"/>
       <c r="I63" s="14" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="J63" s="5"/>
-    </row>
-    <row r="64" spans="2:10" x14ac:dyDescent="0.4">
-      <c r="B64" s="4"/>
-      <c r="C64" s="12"/>
-      <c r="D64" s="5"/>
-      <c r="E64" s="12"/>
-      <c r="F64" s="13"/>
-      <c r="G64" s="12"/>
+      <c r="J63" s="5" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="64" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B64" s="4" t="s">
+        <v>339</v>
+      </c>
+      <c r="C64" s="12" t="s">
+        <v>392</v>
+      </c>
+      <c r="D64" s="5" t="s">
+        <v>391</v>
+      </c>
+      <c r="E64" s="12" t="s">
+        <v>297</v>
+      </c>
+      <c r="F64" s="13">
+        <v>3429</v>
+      </c>
+      <c r="G64" s="12" t="s">
+        <v>371</v>
+      </c>
       <c r="H64" s="13"/>
       <c r="I64" s="14" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" ref="I64" si="5">IF(H64="", "", IFERROR( ((H64-F64)/F64), ""))</f>
         <v/>
       </c>
-      <c r="J64" s="5"/>
-    </row>
-    <row r="65" spans="2:10" x14ac:dyDescent="0.4">
-      <c r="B65" s="4"/>
-      <c r="C65" s="12"/>
-      <c r="D65" s="5"/>
-      <c r="E65" s="12"/>
-      <c r="F65" s="13"/>
-      <c r="G65" s="12"/>
+      <c r="J64" s="5" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="65" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B65" s="4" t="s">
+        <v>339</v>
+      </c>
+      <c r="C65" s="12" t="s">
+        <v>376</v>
+      </c>
+      <c r="D65" s="5" t="s">
+        <v>374</v>
+      </c>
+      <c r="E65" s="12" t="s">
+        <v>297</v>
+      </c>
+      <c r="F65" s="13">
+        <v>31550</v>
+      </c>
+      <c r="G65" s="12" t="s">
+        <v>371</v>
+      </c>
       <c r="H65" s="13"/>
       <c r="I65" s="14" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" ref="I65" si="6">IF(H65="", "", IFERROR( ((H65-F65)/F65), ""))</f>
         <v/>
       </c>
-      <c r="J65" s="5"/>
-    </row>
-    <row r="66" spans="2:10" x14ac:dyDescent="0.4">
-      <c r="B66" s="4"/>
-      <c r="C66" s="12"/>
-      <c r="D66" s="5"/>
-      <c r="E66" s="12"/>
-      <c r="F66" s="13"/>
-      <c r="G66" s="12"/>
+      <c r="J65" s="5" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="66" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B66" s="4" t="s">
+        <v>339</v>
+      </c>
+      <c r="C66" s="12" t="s">
+        <v>394</v>
+      </c>
+      <c r="D66" s="5" t="s">
+        <v>393</v>
+      </c>
+      <c r="E66" s="12" t="s">
+        <v>297</v>
+      </c>
+      <c r="F66" s="13">
+        <v>8228</v>
+      </c>
+      <c r="G66" s="12" t="s">
+        <v>371</v>
+      </c>
       <c r="H66" s="13"/>
       <c r="I66" s="14" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" ref="I66" si="7">IF(H66="", "", IFERROR( ((H66-F66)/F66), ""))</f>
         <v/>
       </c>
-      <c r="J66" s="5"/>
-    </row>
-    <row r="67" spans="2:10" x14ac:dyDescent="0.4">
+      <c r="J66" s="5" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="67" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B67" s="4"/>
       <c r="C67" s="12"/>
       <c r="D67" s="5"/>
@@ -10470,7 +11029,7 @@
       </c>
       <c r="J67" s="5"/>
     </row>
-    <row r="68" spans="2:10" x14ac:dyDescent="0.4">
+    <row r="68" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B68" s="4"/>
       <c r="C68" s="12"/>
       <c r="D68" s="5"/>
@@ -10484,7 +11043,7 @@
       </c>
       <c r="J68" s="5"/>
     </row>
-    <row r="69" spans="2:10" x14ac:dyDescent="0.4">
+    <row r="69" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B69" s="4"/>
       <c r="C69" s="12"/>
       <c r="D69" s="5"/>
@@ -10498,7 +11057,7 @@
       </c>
       <c r="J69" s="5"/>
     </row>
-    <row r="70" spans="2:10" x14ac:dyDescent="0.4">
+    <row r="70" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B70" s="4"/>
       <c r="C70" s="12"/>
       <c r="D70" s="5"/>
@@ -10512,7 +11071,7 @@
       </c>
       <c r="J70" s="5"/>
     </row>
-    <row r="71" spans="2:10" x14ac:dyDescent="0.4">
+    <row r="71" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B71" s="4"/>
       <c r="C71" s="12"/>
       <c r="D71" s="5"/>
@@ -10526,7 +11085,7 @@
       </c>
       <c r="J71" s="5"/>
     </row>
-    <row r="72" spans="2:10" x14ac:dyDescent="0.4">
+    <row r="72" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B72" s="4"/>
       <c r="C72" s="12"/>
       <c r="D72" s="5"/>
@@ -10540,7 +11099,7 @@
       </c>
       <c r="J72" s="5"/>
     </row>
-    <row r="73" spans="2:10" x14ac:dyDescent="0.4">
+    <row r="73" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B73" s="4"/>
       <c r="C73" s="12"/>
       <c r="D73" s="5"/>
@@ -10554,7 +11113,7 @@
       </c>
       <c r="J73" s="5"/>
     </row>
-    <row r="74" spans="2:10" x14ac:dyDescent="0.4">
+    <row r="74" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B74" s="4"/>
       <c r="C74" s="12"/>
       <c r="D74" s="5"/>
@@ -10568,7 +11127,7 @@
       </c>
       <c r="J74" s="5"/>
     </row>
-    <row r="75" spans="2:10" x14ac:dyDescent="0.4">
+    <row r="75" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B75" s="4"/>
       <c r="C75" s="12"/>
       <c r="D75" s="5"/>
@@ -10582,56 +11141,110 @@
       </c>
       <c r="J75" s="5"/>
     </row>
+    <row r="76" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B76" s="4"/>
+      <c r="C76" s="12"/>
+      <c r="D76" s="5"/>
+      <c r="E76" s="12"/>
+      <c r="F76" s="13"/>
+      <c r="G76" s="12"/>
+      <c r="H76" s="13"/>
+      <c r="I76" s="14" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="J76" s="5"/>
+    </row>
   </sheetData>
-  <autoFilter ref="B2:J75"/>
+  <autoFilter ref="B2:J76"/>
   <phoneticPr fontId="1" type="noConversion"/>
-  <conditionalFormatting sqref="I1 I3:I52 I57:I1048576">
-    <cfRule type="cellIs" dxfId="24" priority="12" operator="greaterThan">
+  <conditionalFormatting sqref="I1 I3:I52 I57:I61 I67:I1048576 I63">
+    <cfRule type="cellIs" dxfId="58" priority="20" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I1:I52 I57:I1048576">
-    <cfRule type="cellIs" dxfId="23" priority="11" operator="lessThan">
+  <conditionalFormatting sqref="I1:I52 I57:I61 I67:I1048576 I63">
+    <cfRule type="cellIs" dxfId="57" priority="19" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I53">
-    <cfRule type="cellIs" dxfId="22" priority="8" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="56" priority="16" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I53">
-    <cfRule type="cellIs" dxfId="21" priority="7" operator="lessThan">
+    <cfRule type="cellIs" dxfId="55" priority="15" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I54">
-    <cfRule type="cellIs" dxfId="20" priority="6" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="54" priority="14" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I54">
-    <cfRule type="cellIs" dxfId="19" priority="5" operator="lessThan">
+    <cfRule type="cellIs" dxfId="53" priority="13" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I55">
-    <cfRule type="cellIs" dxfId="18" priority="4" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="52" priority="12" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I55">
-    <cfRule type="cellIs" dxfId="17" priority="3" operator="lessThan">
+    <cfRule type="cellIs" dxfId="51" priority="11" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I56">
-    <cfRule type="cellIs" dxfId="16" priority="2" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="50" priority="10" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I56">
-    <cfRule type="cellIs" dxfId="15" priority="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="49" priority="9" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I64">
+    <cfRule type="cellIs" dxfId="48" priority="8" operator="greaterThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I64">
+    <cfRule type="cellIs" dxfId="47" priority="7" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I65">
+    <cfRule type="cellIs" dxfId="46" priority="6" operator="greaterThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I65">
+    <cfRule type="cellIs" dxfId="45" priority="5" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I62">
+    <cfRule type="cellIs" dxfId="44" priority="4" operator="greaterThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I62">
+    <cfRule type="cellIs" dxfId="43" priority="3" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I66">
+    <cfRule type="cellIs" dxfId="42" priority="2" operator="greaterThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I66">
+    <cfRule type="cellIs" dxfId="41" priority="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -10648,61 +11261,61 @@
       <selection activeCell="F16" sqref="F16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="3" max="3" width="10.5" customWidth="1"/>
-    <col min="4" max="4" width="9.69921875" customWidth="1"/>
+    <col min="4" max="4" width="9.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:5" x14ac:dyDescent="0.4">
+    <row r="2" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B2" s="26" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="3" spans="2:5" x14ac:dyDescent="0.4">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="3" spans="2:5" x14ac:dyDescent="0.3">
       <c r="C3" t="s">
+        <v>246</v>
+      </c>
+      <c r="D3" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="4" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="C4" t="s">
+        <v>244</v>
+      </c>
+      <c r="D4" t="s">
         <v>247</v>
-      </c>
-      <c r="D3" t="s">
-        <v>246</v>
-      </c>
-    </row>
-    <row r="4" spans="2:5" x14ac:dyDescent="0.4">
-      <c r="C4" t="s">
-        <v>245</v>
-      </c>
-      <c r="D4" t="s">
-        <v>248</v>
       </c>
       <c r="E4" s="46">
         <v>0.03</v>
       </c>
     </row>
-    <row r="5" spans="2:5" x14ac:dyDescent="0.4">
+    <row r="5" spans="2:5" x14ac:dyDescent="0.3">
       <c r="C5" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="D5" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="E5" s="46">
         <v>0.02</v>
       </c>
     </row>
-    <row r="6" spans="2:5" x14ac:dyDescent="0.4">
+    <row r="6" spans="2:5" x14ac:dyDescent="0.3">
       <c r="C6" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="D6" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="E6" s="46">
         <v>0.02</v>
       </c>
     </row>
-    <row r="8" spans="2:5" x14ac:dyDescent="0.4">
+    <row r="8" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B8" s="26" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
   </sheetData>
@@ -10714,607 +11327,1317 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:K27"/>
+  <dimension ref="B1:N39"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
       <pane xSplit="1" ySplit="4" topLeftCell="B5" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="I16" sqref="I16"/>
+      <selection pane="bottomRight" activeCell="K24" sqref="K24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="12" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="12.19921875" customWidth="1"/>
-    <col min="3" max="3" width="11.69921875" customWidth="1"/>
-    <col min="4" max="4" width="18" customWidth="1"/>
-    <col min="5" max="5" width="11.69921875" style="48" customWidth="1"/>
-    <col min="6" max="6" width="15.19921875" style="48" customWidth="1"/>
-    <col min="7" max="7" width="17.19921875" style="49" customWidth="1"/>
-    <col min="8" max="8" width="9.8984375" customWidth="1"/>
-    <col min="9" max="9" width="13.09765625" customWidth="1"/>
-    <col min="12" max="12" width="37.8984375" customWidth="1"/>
-    <col min="13" max="13" width="60" customWidth="1"/>
+    <col min="1" max="1" width="3.75" style="61" customWidth="1"/>
+    <col min="2" max="2" width="17.25" style="61" customWidth="1"/>
+    <col min="3" max="3" width="11.5" style="19" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="17.125" style="19" customWidth="1"/>
+    <col min="5" max="5" width="11.75" style="64" customWidth="1"/>
+    <col min="6" max="6" width="15.25" style="64" customWidth="1"/>
+    <col min="7" max="7" width="17.25" style="19" customWidth="1"/>
+    <col min="8" max="8" width="12" style="19" customWidth="1"/>
+    <col min="9" max="12" width="12.375" style="61" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="12.375" style="61" customWidth="1"/>
+    <col min="14" max="14" width="48.375" style="61" customWidth="1"/>
+    <col min="15" max="15" width="60" style="61" customWidth="1"/>
+    <col min="16" max="16384" width="9" style="61"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:11" x14ac:dyDescent="0.4">
-      <c r="B1" s="51" t="s">
+    <row r="1" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B1" s="15" t="s">
+        <v>283</v>
+      </c>
+      <c r="C1" s="58">
+        <v>4</v>
+      </c>
+      <c r="D1" s="15" t="s">
+        <v>277</v>
+      </c>
+      <c r="E1" s="59">
+        <v>1.5</v>
+      </c>
+      <c r="F1" s="15" t="s">
+        <v>278</v>
+      </c>
+      <c r="G1" s="17">
+        <f>COUNTIF($H$5:$H1005, "Y")</f>
+        <v>25</v>
+      </c>
+      <c r="H1" s="15" t="s">
+        <v>335</v>
+      </c>
+      <c r="I1" s="17">
+        <f>COUNTIF($H$5:$H1005, "N")</f>
+        <v>4</v>
+      </c>
+      <c r="J1" s="15" t="s">
+        <v>279</v>
+      </c>
+      <c r="K1" s="60">
+        <f>(G1/(G1+I1))*100</f>
+        <v>86.206896551724128</v>
+      </c>
+      <c r="L1" s="65"/>
+      <c r="M1" s="65"/>
+      <c r="N1" s="65"/>
+    </row>
+    <row r="2" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B2" s="15"/>
+      <c r="C2" s="17"/>
+      <c r="D2" s="15" t="s">
+        <v>282</v>
+      </c>
+      <c r="E2" s="59">
+        <v>-2</v>
+      </c>
+      <c r="F2" s="15"/>
+      <c r="G2" s="17"/>
+      <c r="H2" s="15"/>
+      <c r="I2" s="17"/>
+      <c r="J2" s="15"/>
+      <c r="K2" s="6"/>
+      <c r="L2" s="66"/>
+      <c r="M2" s="66"/>
+      <c r="N2" s="66"/>
+    </row>
+    <row r="4" spans="2:14" s="63" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B4" s="62" t="s">
+        <v>267</v>
+      </c>
+      <c r="C4" s="62" t="s">
+        <v>271</v>
+      </c>
+      <c r="D4" s="62" t="s">
+        <v>268</v>
+      </c>
+      <c r="E4" s="62" t="s">
+        <v>269</v>
+      </c>
+      <c r="F4" s="62" t="s">
+        <v>270</v>
+      </c>
+      <c r="G4" s="62" t="s">
+        <v>341</v>
+      </c>
+      <c r="H4" s="62" t="s">
+        <v>372</v>
+      </c>
+      <c r="I4" s="62" t="s">
+        <v>380</v>
+      </c>
+      <c r="J4" s="62" t="s">
+        <v>381</v>
+      </c>
+      <c r="K4" s="62" t="s">
+        <v>382</v>
+      </c>
+      <c r="L4" s="62" t="s">
+        <v>383</v>
+      </c>
+      <c r="M4" s="62" t="s">
+        <v>384</v>
+      </c>
+      <c r="N4" s="62" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="5" spans="2:14" s="63" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B5" s="61" t="s">
+        <v>340</v>
+      </c>
+      <c r="C5" s="67">
+        <v>43881</v>
+      </c>
+      <c r="D5" s="61" t="s">
+        <v>367</v>
+      </c>
+      <c r="E5" s="64"/>
+      <c r="F5" s="64"/>
+      <c r="G5" s="19" t="str">
+        <f>IF(E5="", "", IF(E5&gt;=$C$1, "Y", "N"))</f>
+        <v/>
+      </c>
+      <c r="H5" s="19" t="str">
+        <f>IF(E5="", "", IF(E5&gt;$E$1, "Y", "N"))</f>
+        <v/>
+      </c>
+      <c r="I5" s="61" t="s">
+        <v>344</v>
+      </c>
+      <c r="J5" s="61"/>
+      <c r="K5" s="61"/>
+      <c r="L5" s="61"/>
+      <c r="M5" s="61"/>
+    </row>
+    <row r="6" spans="2:14" s="63" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B6" s="61" t="s">
+        <v>340</v>
+      </c>
+      <c r="C6" s="67">
+        <v>43881</v>
+      </c>
+      <c r="D6" s="61" t="s">
+        <v>368</v>
+      </c>
+      <c r="E6" s="64"/>
+      <c r="F6" s="64"/>
+      <c r="G6" s="19" t="str">
+        <f t="shared" ref="G6" si="0">IF(E6="", "", IF(E6&gt;=$C$1, "Y", "N"))</f>
+        <v/>
+      </c>
+      <c r="H6" s="19" t="str">
+        <f t="shared" ref="H6" si="1">IF(E6="", "", IF(E6&gt;$E$1, "Y", "N"))</f>
+        <v/>
+      </c>
+      <c r="I6" s="61"/>
+      <c r="J6" s="61"/>
+      <c r="K6" s="61" t="s">
+        <v>348</v>
+      </c>
+      <c r="L6" s="61"/>
+      <c r="M6" s="61"/>
+    </row>
+    <row r="7" spans="2:14" s="63" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B7" s="61" t="s">
+        <v>340</v>
+      </c>
+      <c r="C7" s="67">
+        <v>43881</v>
+      </c>
+      <c r="D7" s="61" t="s">
+        <v>377</v>
+      </c>
+      <c r="E7" s="64"/>
+      <c r="F7" s="64"/>
+      <c r="G7" s="19" t="str">
+        <f t="shared" ref="G7" si="2">IF(E7="", "", IF(E7&gt;=$C$1, "Y", "N"))</f>
+        <v/>
+      </c>
+      <c r="H7" s="19" t="str">
+        <f t="shared" ref="H7" si="3">IF(E7="", "", IF(E7&gt;$E$1, "Y", "N"))</f>
+        <v/>
+      </c>
+      <c r="I7" s="61" t="s">
+        <v>344</v>
+      </c>
+      <c r="J7" s="61"/>
+      <c r="K7" s="61"/>
+      <c r="L7" s="61"/>
+      <c r="M7" s="61"/>
+    </row>
+    <row r="8" spans="2:14" s="63" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B8" s="61" t="s">
+        <v>340</v>
+      </c>
+      <c r="C8" s="67">
+        <v>43881</v>
+      </c>
+      <c r="D8" s="61" t="s">
+        <v>395</v>
+      </c>
+      <c r="E8" s="64"/>
+      <c r="F8" s="64"/>
+      <c r="G8" s="19" t="str">
+        <f t="shared" ref="G8:G34" si="4">IF(E8="", "", IF(E8&gt;=$C$1, "Y", "N"))</f>
+        <v/>
+      </c>
+      <c r="H8" s="19" t="str">
+        <f t="shared" ref="H8:H34" si="5">IF(E8="", "", IF(E8&gt;$E$1, "Y", "N"))</f>
+        <v/>
+      </c>
+      <c r="I8" s="61"/>
+      <c r="J8" s="61"/>
+      <c r="K8" s="61" t="s">
+        <v>348</v>
+      </c>
+      <c r="L8" s="61"/>
+      <c r="M8" s="61"/>
+    </row>
+    <row r="9" spans="2:14" s="63" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B9" s="61" t="s">
+        <v>340</v>
+      </c>
+      <c r="C9" s="67">
+        <v>43881</v>
+      </c>
+      <c r="D9" s="61" t="s">
+        <v>375</v>
+      </c>
+      <c r="E9" s="64"/>
+      <c r="F9" s="64"/>
+      <c r="G9" s="19" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="H9" s="19" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="I9" s="61"/>
+      <c r="J9" s="61" t="s">
+        <v>343</v>
+      </c>
+      <c r="K9" s="61"/>
+      <c r="L9" s="61"/>
+      <c r="M9" s="61"/>
+    </row>
+    <row r="10" spans="2:14" s="63" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B10" s="61" t="s">
+        <v>340</v>
+      </c>
+      <c r="C10" s="67">
+        <v>43881</v>
+      </c>
+      <c r="D10" s="61" t="s">
+        <v>396</v>
+      </c>
+      <c r="E10" s="64"/>
+      <c r="F10" s="64"/>
+      <c r="G10" s="19" t="str">
+        <f t="shared" ref="G10" si="6">IF(E10="", "", IF(E10&gt;=$C$1, "Y", "N"))</f>
+        <v/>
+      </c>
+      <c r="H10" s="19" t="str">
+        <f t="shared" ref="H10" si="7">IF(E10="", "", IF(E10&gt;$E$1, "Y", "N"))</f>
+        <v/>
+      </c>
+      <c r="I10" s="61"/>
+      <c r="J10" s="61" t="s">
+        <v>343</v>
+      </c>
+      <c r="K10" s="61"/>
+      <c r="L10" s="61"/>
+      <c r="M10" s="61"/>
+    </row>
+    <row r="11" spans="2:14" s="63" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B11" s="61" t="s">
+        <v>340</v>
+      </c>
+      <c r="C11" s="67">
+        <v>43880</v>
+      </c>
+      <c r="D11" s="61" t="s">
+        <v>363</v>
+      </c>
+      <c r="E11" s="64">
+        <v>5.13</v>
+      </c>
+      <c r="F11" s="64">
+        <v>1.1399999999999999</v>
+      </c>
+      <c r="G11" s="19" t="str">
+        <f t="shared" si="4"/>
+        <v>Y</v>
+      </c>
+      <c r="H11" s="19" t="str">
+        <f t="shared" si="5"/>
+        <v>Y</v>
+      </c>
+      <c r="I11" s="61" t="s">
+        <v>344</v>
+      </c>
+      <c r="J11" s="61" t="s">
+        <v>343</v>
+      </c>
+      <c r="K11" s="61" t="s">
+        <v>348</v>
+      </c>
+      <c r="L11" s="61" t="s">
+        <v>350</v>
+      </c>
+      <c r="M11" s="61"/>
+    </row>
+    <row r="12" spans="2:14" s="63" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B12" s="61" t="s">
+        <v>340</v>
+      </c>
+      <c r="C12" s="67">
+        <v>43879</v>
+      </c>
+      <c r="D12" s="61" t="s">
+        <v>298</v>
+      </c>
+      <c r="E12" s="64">
+        <v>25.07</v>
+      </c>
+      <c r="F12" s="64">
+        <v>3.7</v>
+      </c>
+      <c r="G12" s="19" t="str">
+        <f t="shared" si="4"/>
+        <v>Y</v>
+      </c>
+      <c r="H12" s="19" t="str">
+        <f t="shared" si="5"/>
+        <v>Y</v>
+      </c>
+      <c r="I12" s="61" t="s">
+        <v>344</v>
+      </c>
+      <c r="K12" s="61" t="s">
+        <v>348</v>
+      </c>
+      <c r="L12" s="61"/>
+    </row>
+    <row r="13" spans="2:14" s="63" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B13" s="61" t="s">
+        <v>340</v>
+      </c>
+      <c r="C13" s="67">
+        <v>43879</v>
+      </c>
+      <c r="D13" s="61" t="s">
+        <v>299</v>
+      </c>
+      <c r="E13" s="64">
+        <v>1.08</v>
+      </c>
+      <c r="F13" s="64">
+        <v>-7.53</v>
+      </c>
+      <c r="G13" s="19" t="str">
+        <f t="shared" si="4"/>
+        <v>N</v>
+      </c>
+      <c r="H13" s="19" t="str">
+        <f t="shared" si="5"/>
+        <v>N</v>
+      </c>
+      <c r="I13" s="61" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="14" spans="2:14" s="63" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B14" s="61" t="s">
+        <v>336</v>
+      </c>
+      <c r="C14" s="67">
+        <v>43879</v>
+      </c>
+      <c r="D14" s="61" t="s">
+        <v>300</v>
+      </c>
+      <c r="E14" s="64">
+        <v>0.59</v>
+      </c>
+      <c r="F14" s="64">
+        <v>-8.75</v>
+      </c>
+      <c r="G14" s="19" t="str">
+        <f t="shared" si="4"/>
+        <v>N</v>
+      </c>
+      <c r="H14" s="19" t="str">
+        <f t="shared" si="5"/>
+        <v>N</v>
+      </c>
+      <c r="I14" s="61" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="15" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B15" s="61" t="s">
+        <v>336</v>
+      </c>
+      <c r="C15" s="67">
+        <v>43878</v>
+      </c>
+      <c r="D15" s="61" t="s">
         <v>290</v>
       </c>
-      <c r="C1" s="52">
-        <v>4</v>
-      </c>
-      <c r="D1" s="51" t="s">
-        <v>283</v>
-      </c>
-      <c r="E1" s="52">
-        <v>1.5</v>
-      </c>
-      <c r="F1" s="51" t="s">
+      <c r="E15" s="64">
+        <v>0.73</v>
+      </c>
+      <c r="F15" s="64">
+        <v>-2.2000000000000002</v>
+      </c>
+      <c r="G15" s="19" t="str">
+        <f t="shared" si="4"/>
+        <v>N</v>
+      </c>
+      <c r="H15" s="19" t="str">
+        <f t="shared" si="5"/>
+        <v>N</v>
+      </c>
+      <c r="I15" s="61" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="16" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B16" s="61" t="s">
+        <v>336</v>
+      </c>
+      <c r="C16" s="67">
+        <v>43878</v>
+      </c>
+      <c r="D16" s="61" t="s">
+        <v>291</v>
+      </c>
+      <c r="E16" s="64">
+        <v>2.38</v>
+      </c>
+      <c r="F16" s="64">
+        <v>-1.93</v>
+      </c>
+      <c r="G16" s="19" t="str">
+        <f t="shared" si="4"/>
+        <v>N</v>
+      </c>
+      <c r="H16" s="19" t="str">
+        <f t="shared" si="5"/>
+        <v>Y</v>
+      </c>
+      <c r="I16" s="61" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="17" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B17" s="61" t="s">
+        <v>336</v>
+      </c>
+      <c r="C17" s="67">
+        <v>43878</v>
+      </c>
+      <c r="D17" s="61" t="s">
+        <v>266</v>
+      </c>
+      <c r="E17" s="64">
+        <v>0.4</v>
+      </c>
+      <c r="F17" s="64">
+        <v>-5.0999999999999996</v>
+      </c>
+      <c r="G17" s="19" t="str">
+        <f t="shared" si="4"/>
+        <v>N</v>
+      </c>
+      <c r="H17" s="19" t="str">
+        <f t="shared" si="5"/>
+        <v>N</v>
+      </c>
+      <c r="J17" s="61" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="18" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B18" s="61" t="s">
+        <v>336</v>
+      </c>
+      <c r="C18" s="67">
+        <v>43878</v>
+      </c>
+      <c r="D18" s="61" t="s">
+        <v>292</v>
+      </c>
+      <c r="E18" s="64">
+        <v>10.27</v>
+      </c>
+      <c r="F18" s="64">
+        <v>2.1</v>
+      </c>
+      <c r="G18" s="19" t="str">
+        <f t="shared" si="4"/>
+        <v>Y</v>
+      </c>
+      <c r="H18" s="19" t="str">
+        <f t="shared" si="5"/>
+        <v>Y</v>
+      </c>
+      <c r="I18" s="61" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="19" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B19" s="61" t="s">
+        <v>336</v>
+      </c>
+      <c r="C19" s="67">
+        <v>43875</v>
+      </c>
+      <c r="D19" s="61" t="s">
+        <v>272</v>
+      </c>
+      <c r="E19" s="64">
+        <v>21.41</v>
+      </c>
+      <c r="F19" s="64">
+        <v>-13.01</v>
+      </c>
+      <c r="G19" s="19" t="str">
+        <f t="shared" si="4"/>
+        <v>Y</v>
+      </c>
+      <c r="H19" s="19" t="str">
+        <f t="shared" si="5"/>
+        <v>Y</v>
+      </c>
+      <c r="I19" s="61" t="s">
+        <v>349</v>
+      </c>
+      <c r="J19" s="61" t="s">
+        <v>343</v>
+      </c>
+      <c r="K19" s="61" t="s">
+        <v>348</v>
+      </c>
+      <c r="L19" s="61" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="20" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B20" s="61" t="s">
+        <v>336</v>
+      </c>
+      <c r="C20" s="67">
+        <v>43874</v>
+      </c>
+      <c r="D20" s="61" t="s">
+        <v>273</v>
+      </c>
+      <c r="E20" s="64">
+        <v>4.84</v>
+      </c>
+      <c r="F20" s="64">
+        <v>-0.8</v>
+      </c>
+      <c r="G20" s="19" t="str">
+        <f t="shared" si="4"/>
+        <v>Y</v>
+      </c>
+      <c r="H20" s="19" t="str">
+        <f t="shared" si="5"/>
+        <v>Y</v>
+      </c>
+      <c r="J20" s="61" t="s">
+        <v>353</v>
+      </c>
+      <c r="K20" s="61" t="s">
+        <v>352</v>
+      </c>
+      <c r="L20" s="61" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="21" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B21" s="61" t="s">
+        <v>336</v>
+      </c>
+      <c r="C21" s="67">
+        <v>43874</v>
+      </c>
+      <c r="D21" s="61" t="s">
+        <v>274</v>
+      </c>
+      <c r="E21" s="64">
+        <v>4.3600000000000003</v>
+      </c>
+      <c r="F21" s="64">
+        <v>-2.44</v>
+      </c>
+      <c r="G21" s="19" t="str">
+        <f t="shared" si="4"/>
+        <v>Y</v>
+      </c>
+      <c r="H21" s="19" t="str">
+        <f t="shared" si="5"/>
+        <v>Y</v>
+      </c>
+      <c r="J21" s="61" t="s">
+        <v>343</v>
+      </c>
+      <c r="L21" s="61" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="22" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B22" s="61" t="s">
+        <v>336</v>
+      </c>
+      <c r="C22" s="67">
+        <v>43874</v>
+      </c>
+      <c r="D22" s="61" t="s">
+        <v>238</v>
+      </c>
+      <c r="E22" s="64">
+        <v>8.64</v>
+      </c>
+      <c r="F22" s="64">
+        <v>-2.57</v>
+      </c>
+      <c r="G22" s="19" t="str">
+        <f t="shared" si="4"/>
+        <v>Y</v>
+      </c>
+      <c r="H22" s="19" t="str">
+        <f t="shared" si="5"/>
+        <v>Y</v>
+      </c>
+      <c r="I22" s="61" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="23" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B23" s="61" t="s">
+        <v>336</v>
+      </c>
+      <c r="C23" s="67">
+        <v>43874</v>
+      </c>
+      <c r="D23" s="61" t="s">
+        <v>286</v>
+      </c>
+      <c r="E23" s="64">
+        <v>3.23</v>
+      </c>
+      <c r="F23" s="64">
+        <v>-2.76</v>
+      </c>
+      <c r="G23" s="19" t="str">
+        <f t="shared" si="4"/>
+        <v>N</v>
+      </c>
+      <c r="H23" s="19" t="str">
+        <f t="shared" si="5"/>
+        <v>Y</v>
+      </c>
+      <c r="I23" s="61" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="24" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B24" s="61" t="s">
+        <v>336</v>
+      </c>
+      <c r="C24" s="67">
+        <v>43873</v>
+      </c>
+      <c r="D24" s="61" t="s">
+        <v>275</v>
+      </c>
+      <c r="E24" s="64">
+        <v>1.78</v>
+      </c>
+      <c r="F24" s="64">
+        <v>-0.89</v>
+      </c>
+      <c r="G24" s="19" t="str">
+        <f t="shared" si="4"/>
+        <v>N</v>
+      </c>
+      <c r="H24" s="19" t="str">
+        <f t="shared" si="5"/>
+        <v>Y</v>
+      </c>
+      <c r="J24" s="61" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="25" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B25" s="61" t="s">
+        <v>336</v>
+      </c>
+      <c r="C25" s="67">
+        <v>43873</v>
+      </c>
+      <c r="D25" s="61" t="s">
+        <v>276</v>
+      </c>
+      <c r="E25" s="64">
+        <v>16.61</v>
+      </c>
+      <c r="F25" s="64">
+        <v>4.28</v>
+      </c>
+      <c r="G25" s="19" t="str">
+        <f t="shared" si="4"/>
+        <v>Y</v>
+      </c>
+      <c r="H25" s="19" t="str">
+        <f t="shared" si="5"/>
+        <v>Y</v>
+      </c>
+      <c r="I25" s="61" t="s">
+        <v>355</v>
+      </c>
+      <c r="J25" s="61" t="s">
+        <v>343</v>
+      </c>
+      <c r="L25" s="61" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="26" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B26" s="61" t="s">
+        <v>336</v>
+      </c>
+      <c r="C26" s="67">
+        <v>43873</v>
+      </c>
+      <c r="D26" s="61" t="s">
+        <v>289</v>
+      </c>
+      <c r="E26" s="64">
+        <v>2.11</v>
+      </c>
+      <c r="F26" s="64">
+        <v>-2.71</v>
+      </c>
+      <c r="G26" s="19" t="str">
+        <f t="shared" si="4"/>
+        <v>N</v>
+      </c>
+      <c r="H26" s="19" t="str">
+        <f t="shared" si="5"/>
+        <v>Y</v>
+      </c>
+      <c r="I26" s="61" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="27" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B27" s="61" t="s">
+        <v>336</v>
+      </c>
+      <c r="C27" s="67">
+        <v>43872</v>
+      </c>
+      <c r="D27" s="61" t="s">
+        <v>280</v>
+      </c>
+      <c r="E27" s="64">
+        <v>9.36</v>
+      </c>
+      <c r="F27" s="64">
+        <v>-2.2200000000000002</v>
+      </c>
+      <c r="G27" s="19" t="str">
+        <f t="shared" si="4"/>
+        <v>Y</v>
+      </c>
+      <c r="H27" s="19" t="str">
+        <f t="shared" si="5"/>
+        <v>Y</v>
+      </c>
+      <c r="I27" s="61" t="s">
+        <v>344</v>
+      </c>
+      <c r="K27" s="61" t="s">
+        <v>348</v>
+      </c>
+      <c r="L27" s="61" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="28" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B28" s="61" t="s">
+        <v>336</v>
+      </c>
+      <c r="C28" s="67">
+        <v>43872</v>
+      </c>
+      <c r="D28" s="61" t="s">
+        <v>281</v>
+      </c>
+      <c r="E28" s="64">
+        <v>2.2599999999999998</v>
+      </c>
+      <c r="F28" s="64">
+        <v>-2.13</v>
+      </c>
+      <c r="G28" s="19" t="str">
+        <f t="shared" si="4"/>
+        <v>N</v>
+      </c>
+      <c r="H28" s="19" t="str">
+        <f t="shared" si="5"/>
+        <v>Y</v>
+      </c>
+      <c r="J28" s="61" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="29" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B29" s="61" t="s">
+        <v>336</v>
+      </c>
+      <c r="C29" s="67">
+        <v>43872</v>
+      </c>
+      <c r="D29" s="61" t="s">
+        <v>287</v>
+      </c>
+      <c r="E29" s="64">
+        <v>7.53</v>
+      </c>
+      <c r="F29" s="64">
+        <v>-9.2100000000000009</v>
+      </c>
+      <c r="G29" s="19" t="str">
+        <f t="shared" si="4"/>
+        <v>Y</v>
+      </c>
+      <c r="H29" s="19" t="str">
+        <f t="shared" si="5"/>
+        <v>Y</v>
+      </c>
+      <c r="I29" s="61" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="30" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B30" s="61" t="s">
+        <v>385</v>
+      </c>
+      <c r="C30" s="67">
+        <v>43872</v>
+      </c>
+      <c r="D30" s="61" t="s">
+        <v>288</v>
+      </c>
+      <c r="E30" s="64">
+        <v>8.7799999999999994</v>
+      </c>
+      <c r="F30" s="64">
+        <v>-0.71</v>
+      </c>
+      <c r="G30" s="19" t="str">
+        <f t="shared" si="4"/>
+        <v>Y</v>
+      </c>
+      <c r="H30" s="19" t="str">
+        <f t="shared" si="5"/>
+        <v>Y</v>
+      </c>
+      <c r="I30" s="61" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="31" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B31" s="61" t="s">
+        <v>336</v>
+      </c>
+      <c r="C31" s="67">
+        <v>43871</v>
+      </c>
+      <c r="D31" s="61" t="s">
+        <v>275</v>
+      </c>
+      <c r="E31" s="64">
+        <v>4.05</v>
+      </c>
+      <c r="F31" s="64">
+        <v>-1.1000000000000001</v>
+      </c>
+      <c r="G31" s="19" t="str">
+        <f t="shared" si="4"/>
+        <v>Y</v>
+      </c>
+      <c r="H31" s="19" t="str">
+        <f t="shared" si="5"/>
+        <v>Y</v>
+      </c>
+      <c r="K31" s="61" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="32" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B32" s="61" t="s">
+        <v>336</v>
+      </c>
+      <c r="C32" s="67">
+        <v>43871</v>
+      </c>
+      <c r="D32" s="61" t="s">
         <v>284</v>
       </c>
-      <c r="G1" s="53">
-        <f>COUNTIF($G$5:G371, "Y")</f>
-        <v>19</v>
-      </c>
-      <c r="H1" s="51" t="s">
-        <v>348</v>
-      </c>
-      <c r="I1" s="53">
-        <f>COUNTIF($G$5:G371, "N")</f>
-        <v>4</v>
-      </c>
-      <c r="J1" s="51" t="s">
+      <c r="E32" s="64">
+        <v>5.54</v>
+      </c>
+      <c r="F32" s="64">
+        <v>-1.6</v>
+      </c>
+      <c r="G32" s="19" t="str">
+        <f t="shared" si="4"/>
+        <v>Y</v>
+      </c>
+      <c r="H32" s="19" t="str">
+        <f t="shared" si="5"/>
+        <v>Y</v>
+      </c>
+      <c r="K32" s="61" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="33" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B33" s="61" t="s">
+        <v>336</v>
+      </c>
+      <c r="C33" s="67">
+        <v>43871</v>
+      </c>
+      <c r="D33" s="61" t="s">
         <v>285</v>
       </c>
-      <c r="K1" s="54">
-        <f>(G1/(G1+I1))*100</f>
-        <v>82.608695652173907</v>
-      </c>
-    </row>
-    <row r="2" spans="2:11" x14ac:dyDescent="0.4">
-      <c r="B2" s="51"/>
-      <c r="C2" s="55"/>
-      <c r="D2" s="51" t="s">
-        <v>289</v>
-      </c>
-      <c r="E2" s="52">
-        <v>-2</v>
-      </c>
-      <c r="F2" s="51"/>
-      <c r="G2" s="53"/>
-      <c r="H2" s="51"/>
-      <c r="I2" s="53"/>
-      <c r="J2" s="51"/>
-      <c r="K2" s="55"/>
-    </row>
-    <row r="4" spans="2:11" s="26" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="B4" s="50" t="s">
-        <v>272</v>
-      </c>
-      <c r="C4" s="50" t="s">
-        <v>277</v>
-      </c>
-      <c r="D4" s="50" t="s">
-        <v>273</v>
-      </c>
-      <c r="E4" s="50" t="s">
-        <v>274</v>
-      </c>
-      <c r="F4" s="50" t="s">
-        <v>276</v>
-      </c>
-      <c r="G4" s="50" t="s">
-        <v>275</v>
-      </c>
-    </row>
-    <row r="5" spans="2:11" s="26" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="B5" t="s">
-        <v>309</v>
-      </c>
-      <c r="C5">
-        <v>18</v>
-      </c>
-      <c r="D5" t="s">
-        <v>310</v>
-      </c>
-      <c r="E5" s="48">
-        <v>25.07</v>
-      </c>
-      <c r="F5" s="48">
-        <v>3.7</v>
-      </c>
-      <c r="G5" s="49" t="str">
-        <f>IF(E5&gt;$E$1, "Y", "N")</f>
+      <c r="E33" s="64">
+        <v>8.94</v>
+      </c>
+      <c r="F33" s="64">
+        <v>-0.81</v>
+      </c>
+      <c r="G33" s="19" t="str">
+        <f t="shared" si="4"/>
         <v>Y</v>
       </c>
-    </row>
-    <row r="6" spans="2:11" s="26" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="B6" t="s">
-        <v>308</v>
-      </c>
-      <c r="C6">
-        <v>18</v>
-      </c>
-      <c r="D6" t="s">
-        <v>311</v>
-      </c>
-      <c r="E6" s="48">
-        <v>1.08</v>
-      </c>
-      <c r="F6" s="48">
-        <v>-7.53</v>
-      </c>
-      <c r="G6" s="49" t="str">
-        <f t="shared" ref="G6:G7" si="0">IF(E6&gt;$E$1, "Y", "N")</f>
+      <c r="H33" s="19" t="str">
+        <f t="shared" si="5"/>
+        <v>Y</v>
+      </c>
+      <c r="I33" s="61" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="34" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B34" s="61" t="s">
+        <v>336</v>
+      </c>
+      <c r="C34" s="67">
+        <v>43871</v>
+      </c>
+      <c r="D34" s="61" t="s">
+        <v>286</v>
+      </c>
+      <c r="E34" s="64">
+        <v>6.67</v>
+      </c>
+      <c r="F34" s="64">
+        <v>-1.9</v>
+      </c>
+      <c r="G34" s="19" t="str">
+        <f t="shared" si="4"/>
+        <v>Y</v>
+      </c>
+      <c r="H34" s="19" t="str">
+        <f t="shared" si="5"/>
+        <v>Y</v>
+      </c>
+      <c r="I34" s="61" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="35" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B35" s="61" t="s">
+        <v>336</v>
+      </c>
+      <c r="C35" s="67">
+        <v>43868</v>
+      </c>
+      <c r="D35" s="18" t="s">
+        <v>386</v>
+      </c>
+      <c r="E35" s="64">
+        <v>4.17</v>
+      </c>
+      <c r="F35" s="64">
+        <v>-2.5</v>
+      </c>
+      <c r="G35" s="19" t="str">
+        <f t="shared" ref="G35:G39" si="8">IF(E35="", "", IF(E35&gt;=$C$1, "Y", "N"))</f>
+        <v>Y</v>
+      </c>
+      <c r="H35" s="19" t="str">
+        <f t="shared" ref="H35:H39" si="9">IF(E35="", "", IF(E35&gt;$E$1, "Y", "N"))</f>
+        <v>Y</v>
+      </c>
+      <c r="J35" s="61" t="s">
+        <v>359</v>
+      </c>
+      <c r="L35" s="61" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="36" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B36" s="61" t="s">
+        <v>336</v>
+      </c>
+      <c r="C36" s="67">
+        <v>43868</v>
+      </c>
+      <c r="D36" s="18" t="s">
+        <v>387</v>
+      </c>
+      <c r="E36" s="64">
+        <v>1.57</v>
+      </c>
+      <c r="F36" s="64">
+        <v>-1.2</v>
+      </c>
+      <c r="G36" s="19" t="str">
+        <f t="shared" si="8"/>
         <v>N</v>
       </c>
-    </row>
-    <row r="7" spans="2:11" s="26" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="B7" t="s">
-        <v>308</v>
-      </c>
-      <c r="C7">
-        <v>18</v>
-      </c>
-      <c r="D7" t="s">
-        <v>312</v>
-      </c>
-      <c r="E7" s="48">
-        <v>0.59</v>
-      </c>
-      <c r="F7" s="48">
-        <v>-8.75</v>
-      </c>
-      <c r="G7" s="49" t="str">
-        <f t="shared" si="0"/>
+      <c r="H36" s="19" t="str">
+        <f t="shared" si="9"/>
+        <v>Y</v>
+      </c>
+      <c r="J36" s="61" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="37" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B37" s="61" t="s">
+        <v>336</v>
+      </c>
+      <c r="C37" s="67">
+        <v>43868</v>
+      </c>
+      <c r="D37" s="18" t="s">
+        <v>388</v>
+      </c>
+      <c r="E37" s="64">
+        <v>5.84</v>
+      </c>
+      <c r="F37" s="64">
+        <v>-1.6</v>
+      </c>
+      <c r="G37" s="19" t="str">
+        <f t="shared" si="8"/>
+        <v>Y</v>
+      </c>
+      <c r="H37" s="19" t="str">
+        <f t="shared" si="9"/>
+        <v>Y</v>
+      </c>
+      <c r="I37" s="61" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="38" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B38" s="61" t="s">
+        <v>336</v>
+      </c>
+      <c r="C38" s="67">
+        <v>43868</v>
+      </c>
+      <c r="D38" s="18" t="s">
+        <v>389</v>
+      </c>
+      <c r="E38" s="64">
+        <v>11.17</v>
+      </c>
+      <c r="F38" s="64">
+        <v>-13.91</v>
+      </c>
+      <c r="G38" s="19" t="str">
+        <f t="shared" si="8"/>
+        <v>Y</v>
+      </c>
+      <c r="H38" s="19" t="str">
+        <f t="shared" si="9"/>
+        <v>Y</v>
+      </c>
+      <c r="I38" s="61" t="s">
+        <v>344</v>
+      </c>
+      <c r="J38" s="61" t="s">
+        <v>359</v>
+      </c>
+      <c r="K38" s="61" t="s">
+        <v>360</v>
+      </c>
+      <c r="L38" s="61" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="39" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B39" s="61" t="s">
+        <v>336</v>
+      </c>
+      <c r="C39" s="67">
+        <v>43868</v>
+      </c>
+      <c r="D39" s="18" t="s">
+        <v>390</v>
+      </c>
+      <c r="E39" s="64">
+        <v>3.21</v>
+      </c>
+      <c r="F39" s="64">
+        <v>-2.86</v>
+      </c>
+      <c r="G39" s="19" t="str">
+        <f t="shared" si="8"/>
         <v>N</v>
       </c>
-    </row>
-    <row r="8" spans="2:11" x14ac:dyDescent="0.4">
-      <c r="B8" t="s">
-        <v>267</v>
-      </c>
-      <c r="C8">
-        <v>17</v>
-      </c>
-      <c r="D8" t="s">
-        <v>298</v>
-      </c>
-      <c r="E8" s="48">
-        <v>0.73</v>
-      </c>
-      <c r="F8" s="48">
-        <v>-2.2000000000000002</v>
-      </c>
-      <c r="G8" s="49" t="str">
-        <f>IF(E8&gt;$E$1, "Y", "N")</f>
-        <v>N</v>
-      </c>
-    </row>
-    <row r="9" spans="2:11" x14ac:dyDescent="0.4">
-      <c r="B9" t="s">
-        <v>267</v>
-      </c>
-      <c r="C9">
-        <v>17</v>
-      </c>
-      <c r="D9" t="s">
-        <v>299</v>
-      </c>
-      <c r="E9" s="48">
-        <v>2.38</v>
-      </c>
-      <c r="F9" s="48">
-        <v>-1.93</v>
-      </c>
-      <c r="G9" s="49" t="str">
-        <f t="shared" ref="G9:G27" si="1">IF(E9&gt;$E$1, "Y", "N")</f>
+      <c r="H39" s="19" t="str">
+        <f t="shared" si="9"/>
         <v>Y</v>
       </c>
-    </row>
-    <row r="10" spans="2:11" x14ac:dyDescent="0.4">
-      <c r="B10" t="s">
-        <v>267</v>
-      </c>
-      <c r="C10">
-        <v>17</v>
-      </c>
-      <c r="D10" t="s">
-        <v>271</v>
-      </c>
-      <c r="E10" s="48">
-        <v>0.4</v>
-      </c>
-      <c r="F10" s="48">
-        <v>-5.0999999999999996</v>
-      </c>
-      <c r="G10" s="49" t="str">
-        <f t="shared" si="1"/>
-        <v>N</v>
-      </c>
-    </row>
-    <row r="11" spans="2:11" x14ac:dyDescent="0.4">
-      <c r="B11" t="s">
-        <v>267</v>
-      </c>
-      <c r="C11">
-        <v>17</v>
-      </c>
-      <c r="D11" t="s">
-        <v>300</v>
-      </c>
-      <c r="E11" s="48">
-        <v>10.27</v>
-      </c>
-      <c r="F11" s="48">
-        <v>2.1</v>
-      </c>
-      <c r="G11" s="49" t="str">
-        <f t="shared" si="1"/>
-        <v>Y</v>
-      </c>
-    </row>
-    <row r="12" spans="2:11" x14ac:dyDescent="0.4">
-      <c r="B12" t="s">
-        <v>268</v>
-      </c>
-      <c r="C12">
-        <v>14</v>
-      </c>
-      <c r="D12" t="s">
-        <v>278</v>
-      </c>
-      <c r="E12" s="48">
-        <v>21.41</v>
-      </c>
-      <c r="F12" s="48">
-        <v>-13.01</v>
-      </c>
-      <c r="G12" s="49" t="str">
-        <f t="shared" si="1"/>
-        <v>Y</v>
-      </c>
-    </row>
-    <row r="13" spans="2:11" x14ac:dyDescent="0.4">
-      <c r="B13" t="s">
-        <v>269</v>
-      </c>
-      <c r="C13">
-        <v>13</v>
-      </c>
-      <c r="D13" t="s">
-        <v>279</v>
-      </c>
-      <c r="E13" s="48">
-        <v>4.84</v>
-      </c>
-      <c r="F13" s="48">
-        <v>-0.8</v>
-      </c>
-      <c r="G13" s="49" t="str">
-        <f t="shared" si="1"/>
-        <v>Y</v>
-      </c>
-    </row>
-    <row r="14" spans="2:11" x14ac:dyDescent="0.4">
-      <c r="B14" t="s">
-        <v>269</v>
-      </c>
-      <c r="C14">
-        <v>13</v>
-      </c>
-      <c r="D14" t="s">
-        <v>280</v>
-      </c>
-      <c r="E14" s="48">
-        <v>4.3600000000000003</v>
-      </c>
-      <c r="F14" s="48">
-        <v>-2.44</v>
-      </c>
-      <c r="G14" s="49" t="str">
-        <f t="shared" si="1"/>
-        <v>Y</v>
-      </c>
-    </row>
-    <row r="15" spans="2:11" x14ac:dyDescent="0.4">
-      <c r="B15" t="s">
-        <v>269</v>
-      </c>
-      <c r="C15">
-        <v>13</v>
-      </c>
-      <c r="D15" t="s">
-        <v>239</v>
-      </c>
-      <c r="E15" s="48">
-        <v>8.64</v>
-      </c>
-      <c r="F15" s="48">
-        <v>-2.57</v>
-      </c>
-      <c r="G15" s="49" t="str">
-        <f t="shared" si="1"/>
-        <v>Y</v>
-      </c>
-    </row>
-    <row r="16" spans="2:11" x14ac:dyDescent="0.4">
-      <c r="B16" t="s">
-        <v>269</v>
-      </c>
-      <c r="C16">
-        <v>13</v>
-      </c>
-      <c r="D16" t="s">
-        <v>294</v>
-      </c>
-      <c r="E16" s="48">
-        <v>3.23</v>
-      </c>
-      <c r="F16" s="48">
-        <v>-2.76</v>
-      </c>
-      <c r="G16" s="49" t="str">
-        <f t="shared" si="1"/>
-        <v>Y</v>
-      </c>
-    </row>
-    <row r="17" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="B17" t="s">
-        <v>270</v>
-      </c>
-      <c r="C17">
-        <v>12</v>
-      </c>
-      <c r="D17" t="s">
-        <v>281</v>
-      </c>
-      <c r="E17" s="48">
-        <v>1.78</v>
-      </c>
-      <c r="F17" s="48">
-        <v>-0.89</v>
-      </c>
-      <c r="G17" s="49" t="str">
-        <f t="shared" si="1"/>
-        <v>Y</v>
-      </c>
-    </row>
-    <row r="18" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="B18" t="s">
-        <v>270</v>
-      </c>
-      <c r="C18">
-        <v>12</v>
-      </c>
-      <c r="D18" t="s">
-        <v>282</v>
-      </c>
-      <c r="E18" s="48">
-        <v>16.61</v>
-      </c>
-      <c r="F18" s="48">
-        <v>4.28</v>
-      </c>
-      <c r="G18" s="49" t="str">
-        <f t="shared" si="1"/>
-        <v>Y</v>
-      </c>
-    </row>
-    <row r="19" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="B19" t="s">
-        <v>270</v>
-      </c>
-      <c r="C19">
-        <v>12</v>
-      </c>
-      <c r="D19" t="s">
-        <v>297</v>
-      </c>
-      <c r="E19" s="48">
-        <v>2.11</v>
-      </c>
-      <c r="F19" s="48">
-        <v>-2.71</v>
-      </c>
-      <c r="G19" s="49" t="str">
-        <f t="shared" si="1"/>
-        <v>Y</v>
-      </c>
-    </row>
-    <row r="20" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="B20" t="s">
-        <v>286</v>
-      </c>
-      <c r="C20">
-        <v>11</v>
-      </c>
-      <c r="D20" t="s">
-        <v>287</v>
-      </c>
-      <c r="E20" s="48">
-        <v>9.36</v>
-      </c>
-      <c r="F20" s="48">
-        <v>-2.2200000000000002</v>
-      </c>
-      <c r="G20" s="49" t="str">
-        <f t="shared" si="1"/>
-        <v>Y</v>
-      </c>
-    </row>
-    <row r="21" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="B21" t="s">
-        <v>286</v>
-      </c>
-      <c r="C21">
-        <v>11</v>
-      </c>
-      <c r="D21" t="s">
-        <v>288</v>
-      </c>
-      <c r="E21" s="48">
-        <v>2.2599999999999998</v>
-      </c>
-      <c r="F21" s="48">
-        <v>-2.13</v>
-      </c>
-      <c r="G21" s="49" t="str">
-        <f t="shared" si="1"/>
-        <v>Y</v>
-      </c>
-    </row>
-    <row r="22" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="B22" t="s">
-        <v>286</v>
-      </c>
-      <c r="C22">
-        <v>11</v>
-      </c>
-      <c r="D22" t="s">
-        <v>295</v>
-      </c>
-      <c r="E22" s="48">
-        <v>7.53</v>
-      </c>
-      <c r="F22" s="48">
-        <v>-9.2100000000000009</v>
-      </c>
-      <c r="G22" s="49" t="str">
-        <f t="shared" si="1"/>
-        <v>Y</v>
-      </c>
-    </row>
-    <row r="23" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="B23" t="s">
-        <v>286</v>
-      </c>
-      <c r="C23">
-        <v>11</v>
-      </c>
-      <c r="D23" t="s">
-        <v>296</v>
-      </c>
-      <c r="E23" s="48">
-        <v>8.7799999999999994</v>
-      </c>
-      <c r="F23" s="48">
-        <v>-0.71</v>
-      </c>
-      <c r="G23" s="49" t="str">
-        <f t="shared" si="1"/>
-        <v>Y</v>
-      </c>
-    </row>
-    <row r="24" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="B24" t="s">
-        <v>291</v>
-      </c>
-      <c r="C24">
-        <v>10</v>
-      </c>
-      <c r="D24" t="s">
-        <v>281</v>
-      </c>
-      <c r="E24" s="48">
-        <v>4.05</v>
-      </c>
-      <c r="F24" s="48">
-        <v>-1.1000000000000001</v>
-      </c>
-      <c r="G24" s="49" t="str">
-        <f t="shared" si="1"/>
-        <v>Y</v>
-      </c>
-    </row>
-    <row r="25" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="B25" t="s">
-        <v>291</v>
-      </c>
-      <c r="C25">
-        <v>10</v>
-      </c>
-      <c r="D25" t="s">
-        <v>292</v>
-      </c>
-      <c r="E25" s="48">
-        <v>5.54</v>
-      </c>
-      <c r="F25" s="48">
-        <v>-1.6</v>
-      </c>
-      <c r="G25" s="49" t="str">
-        <f t="shared" si="1"/>
-        <v>Y</v>
-      </c>
-    </row>
-    <row r="26" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="B26" t="s">
-        <v>291</v>
-      </c>
-      <c r="C26">
-        <v>10</v>
-      </c>
-      <c r="D26" t="s">
-        <v>293</v>
-      </c>
-      <c r="E26" s="48">
-        <v>8.94</v>
-      </c>
-      <c r="F26" s="48">
-        <v>-0.81</v>
-      </c>
-      <c r="G26" s="49" t="str">
-        <f t="shared" si="1"/>
-        <v>Y</v>
-      </c>
-    </row>
-    <row r="27" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="B27" t="s">
-        <v>291</v>
-      </c>
-      <c r="C27">
-        <v>10</v>
-      </c>
-      <c r="D27" t="s">
-        <v>294</v>
-      </c>
-      <c r="E27" s="48">
-        <v>6.67</v>
-      </c>
-      <c r="F27" s="48">
-        <v>-1.9</v>
-      </c>
-      <c r="G27" s="49" t="str">
-        <f t="shared" si="1"/>
-        <v>Y</v>
+      <c r="I39" s="61" t="s">
+        <v>344</v>
+      </c>
+      <c r="J39" s="61" t="s">
+        <v>359</v>
+      </c>
+      <c r="K39" s="61" t="s">
+        <v>360</v>
+      </c>
+      <c r="L39" s="61" t="s">
+        <v>350</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="B4:G27"/>
+  <autoFilter ref="B4:N39"/>
   <phoneticPr fontId="1" type="noConversion"/>
-  <conditionalFormatting sqref="E8:F9 E11:F1048576">
-    <cfRule type="cellIs" dxfId="14" priority="17" operator="greaterThan">
+  <conditionalFormatting sqref="E15:F16 E18:F1048576">
+    <cfRule type="cellIs" dxfId="40" priority="83" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E3:F4 E1:E2 E11:F1048576 E8:F9">
-    <cfRule type="cellIs" dxfId="13" priority="16" operator="lessThan">
+  <conditionalFormatting sqref="E1:E2 E15:F16 E3:F4 E18:F1048576">
+    <cfRule type="cellIs" dxfId="39" priority="82" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G1 I1 G3:G4 G8:G1048576">
-    <cfRule type="cellIs" dxfId="12" priority="14" operator="equal">
+  <conditionalFormatting sqref="G1 I1 G3 H4 G40:G1048576">
+    <cfRule type="cellIs" dxfId="38" priority="80" operator="equal">
       <formula>"N"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="11" priority="15" operator="equal">
+    <cfRule type="cellIs" dxfId="37" priority="81" operator="equal">
       <formula>"Y"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C1">
-    <cfRule type="cellIs" dxfId="10" priority="11" operator="lessThan">
+    <cfRule type="cellIs" dxfId="36" priority="77" operator="lessThan">
       <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E17:F17">
+    <cfRule type="cellIs" dxfId="35" priority="76" operator="greaterThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E17:F17">
+    <cfRule type="cellIs" dxfId="34" priority="75" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E13:F13">
+    <cfRule type="cellIs" dxfId="33" priority="74" operator="greaterThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E13:F13">
+    <cfRule type="cellIs" dxfId="32" priority="73" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="N4">
+    <cfRule type="cellIs" dxfId="31" priority="63" operator="equal">
+      <formula>"N"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="30" priority="64" operator="equal">
+      <formula>"Y"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E12:F12 E14:F14">
+    <cfRule type="cellIs" dxfId="29" priority="70" operator="greaterThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E12:F12 E14:F14">
+    <cfRule type="cellIs" dxfId="28" priority="69" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G4">
+    <cfRule type="cellIs" dxfId="27" priority="65" operator="equal">
+      <formula>"N"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="26" priority="66" operator="equal">
+      <formula>"Y"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I4:M4">
+    <cfRule type="cellIs" dxfId="25" priority="61" operator="equal">
+      <formula>"N"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="24" priority="62" operator="equal">
+      <formula>"Y"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E11:F11">
+    <cfRule type="cellIs" dxfId="23" priority="60" operator="greaterThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E11:F11">
+    <cfRule type="cellIs" dxfId="22" priority="59" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H5 H8 H11:H39">
+    <cfRule type="cellIs" dxfId="21" priority="53" operator="equal">
+      <formula>"N"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="20" priority="54" operator="equal">
+      <formula>"Y"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E5:F5">
+    <cfRule type="cellIs" dxfId="19" priority="56" operator="greaterThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E5:F5">
+    <cfRule type="cellIs" dxfId="18" priority="55" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E8:F8">
+    <cfRule type="cellIs" dxfId="17" priority="52" operator="greaterThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E8:F8">
+    <cfRule type="cellIs" dxfId="16" priority="51" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H7">
+    <cfRule type="cellIs" dxfId="15" priority="15" operator="equal">
+      <formula>"N"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="14" priority="16" operator="equal">
+      <formula>"Y"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E7:F7">
+    <cfRule type="cellIs" dxfId="13" priority="14" operator="greaterThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E7:F7">
+    <cfRule type="cellIs" dxfId="12" priority="13" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H10">
+    <cfRule type="cellIs" dxfId="11" priority="11" operator="equal">
+      <formula>"N"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="10" priority="12" operator="equal">
+      <formula>"Y"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E10:F10">
@@ -11327,40 +12650,40 @@
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
+  <conditionalFormatting sqref="H6">
+    <cfRule type="cellIs" dxfId="7" priority="7" operator="equal">
+      <formula>"N"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="6" priority="8" operator="equal">
+      <formula>"Y"</formula>
+    </cfRule>
+  </conditionalFormatting>
   <conditionalFormatting sqref="E6:F6">
-    <cfRule type="cellIs" dxfId="7" priority="8" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="5" priority="6" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E6:F6">
-    <cfRule type="cellIs" dxfId="6" priority="7" operator="lessThan">
+    <cfRule type="cellIs" dxfId="4" priority="5" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G6">
-    <cfRule type="cellIs" dxfId="5" priority="5" operator="equal">
+  <conditionalFormatting sqref="H9">
+    <cfRule type="cellIs" dxfId="3" priority="3" operator="equal">
       <formula>"N"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="4" priority="6" operator="equal">
+    <cfRule type="cellIs" dxfId="2" priority="4" operator="equal">
       <formula>"Y"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E5:F5 E7:F7">
-    <cfRule type="cellIs" dxfId="3" priority="4" operator="greaterThan">
+  <conditionalFormatting sqref="E9:F9">
+    <cfRule type="cellIs" dxfId="1" priority="2" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E5:F5 E7:F7">
-    <cfRule type="cellIs" dxfId="2" priority="3" operator="lessThan">
+  <conditionalFormatting sqref="E9:F9">
+    <cfRule type="cellIs" dxfId="0" priority="1" operator="lessThan">
       <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G5 G7">
-    <cfRule type="cellIs" dxfId="1" priority="1" operator="equal">
-      <formula>"N"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="0" priority="2" operator="equal">
-      <formula>"Y"</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/WorkShop/01.docs/01.초기학습.xlsx
+++ b/WorkShop/01.docs/01.초기학습.xlsx
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="677" uniqueCount="397">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="686" uniqueCount="401">
   <si>
     <t>사이트명</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -2373,6 +2373,22 @@
     <t>미스터블루</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>목표가</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>상승시 감시시작</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>감시중</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>하락시 스탑주문</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
@@ -2382,7 +2398,7 @@
     <numFmt numFmtId="176" formatCode="&quot;₩&quot;#,##0"/>
     <numFmt numFmtId="177" formatCode="0.00_ "/>
   </numFmts>
-  <fonts count="11" x14ac:knownFonts="1">
+  <fonts count="12" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2470,6 +2486,14 @@
     <font>
       <sz val="9"/>
       <color rgb="FF0070C0"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="맑은 고딕"/>
       <family val="3"/>
       <charset val="129"/>
@@ -2728,41 +2752,11 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="8" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="8" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="8" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="8" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="8" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="8" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="8" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="2" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
@@ -2794,11 +2788,56 @@
     <xf numFmtId="14" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="49" fontId="4" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="8" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="8" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="8" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="8" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="8" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="8" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="8" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="표준" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="59">
+  <dxfs count="62">
+    <dxf>
+      <font>
+        <color rgb="FF0070C0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF0070C0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF0070C0"/>
+      </font>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FF0070C0"/>
@@ -7523,7 +7562,7 @@
       <c r="I6" s="4" t="s">
         <v>329</v>
       </c>
-      <c r="J6" s="48" t="s">
+      <c r="J6" s="47" t="s">
         <v>334</v>
       </c>
     </row>
@@ -7684,20 +7723,20 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B1" s="49" t="s">
+      <c r="B1" s="58" t="s">
         <v>123</v>
       </c>
-      <c r="C1" s="50"/>
-      <c r="D1" s="49" t="s">
+      <c r="C1" s="59"/>
+      <c r="D1" s="58" t="s">
         <v>86</v>
       </c>
-      <c r="E1" s="50"/>
+      <c r="E1" s="59"/>
     </row>
     <row r="2" spans="2:5" ht="24" x14ac:dyDescent="0.3">
-      <c r="B2" s="51" t="s">
+      <c r="B2" s="62" t="s">
         <v>124</v>
       </c>
-      <c r="C2" s="52"/>
+      <c r="C2" s="63"/>
       <c r="D2" s="29" t="s">
         <v>126</v>
       </c>
@@ -7706,8 +7745,8 @@
       </c>
     </row>
     <row r="3" spans="2:5" ht="24" x14ac:dyDescent="0.3">
-      <c r="B3" s="53"/>
-      <c r="C3" s="54"/>
+      <c r="B3" s="64"/>
+      <c r="C3" s="65"/>
       <c r="D3" s="29" t="s">
         <v>127</v>
       </c>
@@ -7716,10 +7755,10 @@
       </c>
     </row>
     <row r="4" spans="2:5" ht="48" x14ac:dyDescent="0.3">
-      <c r="B4" s="51" t="s">
+      <c r="B4" s="62" t="s">
         <v>125</v>
       </c>
-      <c r="C4" s="52"/>
+      <c r="C4" s="63"/>
       <c r="D4" s="29" t="s">
         <v>126</v>
       </c>
@@ -7728,8 +7767,8 @@
       </c>
     </row>
     <row r="5" spans="2:5" ht="96" x14ac:dyDescent="0.3">
-      <c r="B5" s="53"/>
-      <c r="C5" s="54"/>
+      <c r="B5" s="64"/>
+      <c r="C5" s="65"/>
       <c r="D5" s="29" t="s">
         <v>127</v>
       </c>
@@ -7738,10 +7777,10 @@
       </c>
     </row>
     <row r="6" spans="2:5" ht="72" x14ac:dyDescent="0.3">
-      <c r="B6" s="51" t="s">
+      <c r="B6" s="62" t="s">
         <v>134</v>
       </c>
-      <c r="C6" s="52"/>
+      <c r="C6" s="63"/>
       <c r="D6" s="29" t="s">
         <v>126</v>
       </c>
@@ -7750,8 +7789,8 @@
       </c>
     </row>
     <row r="7" spans="2:5" ht="84" x14ac:dyDescent="0.3">
-      <c r="B7" s="53"/>
-      <c r="C7" s="54"/>
+      <c r="B7" s="64"/>
+      <c r="C7" s="65"/>
       <c r="D7" s="29" t="s">
         <v>127</v>
       </c>
@@ -7760,10 +7799,10 @@
       </c>
     </row>
     <row r="8" spans="2:5" ht="96" x14ac:dyDescent="0.3">
-      <c r="B8" s="57" t="s">
+      <c r="B8" s="66" t="s">
         <v>135</v>
       </c>
-      <c r="C8" s="52"/>
+      <c r="C8" s="63"/>
       <c r="D8" s="29" t="s">
         <v>126</v>
       </c>
@@ -7772,8 +7811,8 @@
       </c>
     </row>
     <row r="9" spans="2:5" ht="60" x14ac:dyDescent="0.3">
-      <c r="B9" s="53"/>
-      <c r="C9" s="54"/>
+      <c r="B9" s="64"/>
+      <c r="C9" s="65"/>
       <c r="D9" s="29" t="s">
         <v>127</v>
       </c>
@@ -7782,10 +7821,10 @@
       </c>
     </row>
     <row r="10" spans="2:5" ht="60" x14ac:dyDescent="0.3">
-      <c r="B10" s="51" t="s">
+      <c r="B10" s="62" t="s">
         <v>132</v>
       </c>
-      <c r="C10" s="52"/>
+      <c r="C10" s="63"/>
       <c r="D10" s="29" t="s">
         <v>126</v>
       </c>
@@ -7794,8 +7833,8 @@
       </c>
     </row>
     <row r="11" spans="2:5" ht="142.15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B11" s="53"/>
-      <c r="C11" s="54"/>
+      <c r="B11" s="64"/>
+      <c r="C11" s="65"/>
       <c r="D11" s="29" t="s">
         <v>127</v>
       </c>
@@ -7804,10 +7843,10 @@
       </c>
     </row>
     <row r="12" spans="2:5" ht="24" x14ac:dyDescent="0.3">
-      <c r="B12" s="51" t="s">
+      <c r="B12" s="62" t="s">
         <v>141</v>
       </c>
-      <c r="C12" s="52"/>
+      <c r="C12" s="63"/>
       <c r="D12" s="29" t="s">
         <v>126</v>
       </c>
@@ -7816,8 +7855,8 @@
       </c>
     </row>
     <row r="13" spans="2:5" ht="36" x14ac:dyDescent="0.3">
-      <c r="B13" s="53"/>
-      <c r="C13" s="54"/>
+      <c r="B13" s="64"/>
+      <c r="C13" s="65"/>
       <c r="D13" s="29" t="s">
         <v>127</v>
       </c>
@@ -7826,10 +7865,10 @@
       </c>
     </row>
     <row r="14" spans="2:5" ht="24" x14ac:dyDescent="0.3">
-      <c r="B14" s="51" t="s">
+      <c r="B14" s="62" t="s">
         <v>364</v>
       </c>
-      <c r="C14" s="52"/>
+      <c r="C14" s="63"/>
       <c r="D14" s="29" t="s">
         <v>126</v>
       </c>
@@ -7838,8 +7877,8 @@
       </c>
     </row>
     <row r="15" spans="2:5" ht="24" x14ac:dyDescent="0.3">
-      <c r="B15" s="53"/>
-      <c r="C15" s="54"/>
+      <c r="B15" s="64"/>
+      <c r="C15" s="65"/>
       <c r="D15" s="29" t="s">
         <v>127</v>
       </c>
@@ -7848,170 +7887,170 @@
       </c>
     </row>
     <row r="16" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B16" s="55"/>
-      <c r="C16" s="56"/>
+      <c r="B16" s="60"/>
+      <c r="C16" s="61"/>
       <c r="D16" s="28"/>
       <c r="E16" s="31"/>
     </row>
     <row r="17" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B17" s="55"/>
-      <c r="C17" s="56"/>
+      <c r="B17" s="60"/>
+      <c r="C17" s="61"/>
       <c r="D17" s="28"/>
       <c r="E17" s="31"/>
     </row>
     <row r="18" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B18" s="55"/>
-      <c r="C18" s="56"/>
+      <c r="B18" s="60"/>
+      <c r="C18" s="61"/>
       <c r="D18" s="28"/>
       <c r="E18" s="31"/>
     </row>
     <row r="19" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B19" s="55"/>
-      <c r="C19" s="56"/>
+      <c r="B19" s="60"/>
+      <c r="C19" s="61"/>
       <c r="D19" s="28"/>
       <c r="E19" s="31"/>
     </row>
     <row r="20" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B20" s="55"/>
-      <c r="C20" s="56"/>
+      <c r="B20" s="60"/>
+      <c r="C20" s="61"/>
       <c r="D20" s="28"/>
       <c r="E20" s="31"/>
     </row>
     <row r="21" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B21" s="55"/>
-      <c r="C21" s="56"/>
+      <c r="B21" s="60"/>
+      <c r="C21" s="61"/>
       <c r="D21" s="28"/>
       <c r="E21" s="31"/>
     </row>
     <row r="22" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B22" s="55"/>
-      <c r="C22" s="56"/>
+      <c r="B22" s="60"/>
+      <c r="C22" s="61"/>
       <c r="D22" s="28"/>
       <c r="E22" s="31"/>
     </row>
     <row r="23" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B23" s="55"/>
-      <c r="C23" s="56"/>
+      <c r="B23" s="60"/>
+      <c r="C23" s="61"/>
       <c r="D23" s="28"/>
       <c r="E23" s="31"/>
     </row>
     <row r="24" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B24" s="55"/>
-      <c r="C24" s="56"/>
+      <c r="B24" s="60"/>
+      <c r="C24" s="61"/>
       <c r="D24" s="28"/>
       <c r="E24" s="31"/>
     </row>
     <row r="25" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B25" s="55"/>
-      <c r="C25" s="56"/>
+      <c r="B25" s="60"/>
+      <c r="C25" s="61"/>
       <c r="D25" s="28"/>
       <c r="E25" s="31"/>
     </row>
     <row r="26" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B26" s="55"/>
-      <c r="C26" s="56"/>
+      <c r="B26" s="60"/>
+      <c r="C26" s="61"/>
       <c r="D26" s="28"/>
       <c r="E26" s="31"/>
     </row>
     <row r="27" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B27" s="55"/>
-      <c r="C27" s="56"/>
+      <c r="B27" s="60"/>
+      <c r="C27" s="61"/>
       <c r="D27" s="28"/>
       <c r="E27" s="31"/>
     </row>
     <row r="28" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B28" s="55"/>
-      <c r="C28" s="56"/>
+      <c r="B28" s="60"/>
+      <c r="C28" s="61"/>
       <c r="D28" s="28"/>
       <c r="E28" s="31"/>
     </row>
     <row r="29" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B29" s="55"/>
-      <c r="C29" s="56"/>
+      <c r="B29" s="60"/>
+      <c r="C29" s="61"/>
       <c r="D29" s="28"/>
       <c r="E29" s="31"/>
     </row>
     <row r="30" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B30" s="55"/>
-      <c r="C30" s="56"/>
+      <c r="B30" s="60"/>
+      <c r="C30" s="61"/>
       <c r="D30" s="28"/>
       <c r="E30" s="31"/>
     </row>
     <row r="31" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B31" s="55"/>
-      <c r="C31" s="56"/>
+      <c r="B31" s="60"/>
+      <c r="C31" s="61"/>
       <c r="D31" s="28"/>
       <c r="E31" s="31"/>
     </row>
     <row r="32" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B32" s="55"/>
-      <c r="C32" s="56"/>
+      <c r="B32" s="60"/>
+      <c r="C32" s="61"/>
       <c r="D32" s="28"/>
       <c r="E32" s="31"/>
     </row>
     <row r="33" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B33" s="55"/>
-      <c r="C33" s="56"/>
+      <c r="B33" s="60"/>
+      <c r="C33" s="61"/>
       <c r="D33" s="28"/>
       <c r="E33" s="31"/>
     </row>
     <row r="34" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B34" s="55"/>
-      <c r="C34" s="56"/>
+      <c r="B34" s="60"/>
+      <c r="C34" s="61"/>
       <c r="D34" s="28"/>
       <c r="E34" s="31"/>
     </row>
     <row r="35" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B35" s="55"/>
-      <c r="C35" s="56"/>
+      <c r="B35" s="60"/>
+      <c r="C35" s="61"/>
       <c r="D35" s="28"/>
       <c r="E35" s="31"/>
     </row>
     <row r="36" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B36" s="55"/>
-      <c r="C36" s="56"/>
+      <c r="B36" s="60"/>
+      <c r="C36" s="61"/>
       <c r="D36" s="28"/>
       <c r="E36" s="31"/>
     </row>
     <row r="37" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B37" s="55"/>
-      <c r="C37" s="56"/>
+      <c r="B37" s="60"/>
+      <c r="C37" s="61"/>
       <c r="D37" s="28"/>
       <c r="E37" s="31"/>
     </row>
     <row r="38" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B38" s="55"/>
-      <c r="C38" s="56"/>
+      <c r="B38" s="60"/>
+      <c r="C38" s="61"/>
       <c r="D38" s="28"/>
       <c r="E38" s="31"/>
     </row>
     <row r="39" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B39" s="55"/>
-      <c r="C39" s="56"/>
+      <c r="B39" s="60"/>
+      <c r="C39" s="61"/>
       <c r="D39" s="28"/>
       <c r="E39" s="31"/>
     </row>
     <row r="40" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B40" s="55"/>
-      <c r="C40" s="56"/>
+      <c r="B40" s="60"/>
+      <c r="C40" s="61"/>
       <c r="D40" s="28"/>
       <c r="E40" s="31"/>
     </row>
     <row r="41" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B41" s="55"/>
-      <c r="C41" s="56"/>
+      <c r="B41" s="60"/>
+      <c r="C41" s="61"/>
       <c r="D41" s="28"/>
       <c r="E41" s="31"/>
     </row>
     <row r="42" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B42" s="55"/>
-      <c r="C42" s="56"/>
+      <c r="B42" s="60"/>
+      <c r="C42" s="61"/>
       <c r="D42" s="28"/>
       <c r="E42" s="31"/>
     </row>
     <row r="43" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B43" s="55"/>
-      <c r="C43" s="56"/>
+      <c r="B43" s="60"/>
+      <c r="C43" s="61"/>
       <c r="D43" s="28"/>
       <c r="E43" s="31"/>
     </row>
@@ -8021,11 +8060,22 @@
     <filterColumn colId="2" showButton="0"/>
   </autoFilter>
   <mergeCells count="37">
-    <mergeCell ref="B1:C1"/>
-    <mergeCell ref="B20:C20"/>
-    <mergeCell ref="B21:C21"/>
-    <mergeCell ref="B12:C13"/>
-    <mergeCell ref="B14:C15"/>
+    <mergeCell ref="D1:E1"/>
+    <mergeCell ref="B10:C11"/>
+    <mergeCell ref="B40:C40"/>
+    <mergeCell ref="B41:C41"/>
+    <mergeCell ref="B42:C42"/>
+    <mergeCell ref="B33:C33"/>
+    <mergeCell ref="B22:C22"/>
+    <mergeCell ref="B23:C23"/>
+    <mergeCell ref="B24:C24"/>
+    <mergeCell ref="B25:C25"/>
+    <mergeCell ref="B26:C26"/>
+    <mergeCell ref="B27:C27"/>
+    <mergeCell ref="B16:C16"/>
+    <mergeCell ref="B17:C17"/>
+    <mergeCell ref="B18:C18"/>
+    <mergeCell ref="B19:C19"/>
     <mergeCell ref="B43:C43"/>
     <mergeCell ref="B2:C3"/>
     <mergeCell ref="B4:C5"/>
@@ -8042,22 +8092,11 @@
     <mergeCell ref="B30:C30"/>
     <mergeCell ref="B31:C31"/>
     <mergeCell ref="B32:C32"/>
-    <mergeCell ref="D1:E1"/>
-    <mergeCell ref="B10:C11"/>
-    <mergeCell ref="B40:C40"/>
-    <mergeCell ref="B41:C41"/>
-    <mergeCell ref="B42:C42"/>
-    <mergeCell ref="B33:C33"/>
-    <mergeCell ref="B22:C22"/>
-    <mergeCell ref="B23:C23"/>
-    <mergeCell ref="B24:C24"/>
-    <mergeCell ref="B25:C25"/>
-    <mergeCell ref="B26:C26"/>
-    <mergeCell ref="B27:C27"/>
-    <mergeCell ref="B16:C16"/>
-    <mergeCell ref="B17:C17"/>
-    <mergeCell ref="B18:C18"/>
-    <mergeCell ref="B19:C19"/>
+    <mergeCell ref="B1:C1"/>
+    <mergeCell ref="B20:C20"/>
+    <mergeCell ref="B21:C21"/>
+    <mergeCell ref="B12:C13"/>
+    <mergeCell ref="B14:C15"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -8496,7 +8535,7 @@
       <c r="C3" s="17" t="s">
         <v>94</v>
       </c>
-      <c r="D3" s="47" t="s">
+      <c r="D3" s="46" t="s">
         <v>251</v>
       </c>
       <c r="E3" s="25" t="s">
@@ -8511,7 +8550,7 @@
       <c r="C4" s="17" t="s">
         <v>96</v>
       </c>
-      <c r="D4" s="47" t="s">
+      <c r="D4" s="46" t="s">
         <v>251</v>
       </c>
       <c r="E4" s="25" t="s">
@@ -8526,7 +8565,7 @@
       <c r="C5" s="17" t="s">
         <v>122</v>
       </c>
-      <c r="D5" s="47" t="s">
+      <c r="D5" s="46" t="s">
         <v>251</v>
       </c>
       <c r="E5" s="25" t="s">
@@ -8539,7 +8578,7 @@
       <c r="C6" s="17" t="s">
         <v>149</v>
       </c>
-      <c r="D6" s="47" t="s">
+      <c r="D6" s="46" t="s">
         <v>252</v>
       </c>
       <c r="E6" s="25" t="s">
@@ -8552,7 +8591,7 @@
       <c r="C7" s="17" t="s">
         <v>254</v>
       </c>
-      <c r="D7" s="47" t="s">
+      <c r="D7" s="46" t="s">
         <v>252</v>
       </c>
       <c r="E7" s="25" t="s">
@@ -8565,7 +8604,7 @@
       <c r="C8" s="17" t="s">
         <v>337</v>
       </c>
-      <c r="D8" s="47" t="s">
+      <c r="D8" s="46" t="s">
         <v>252</v>
       </c>
       <c r="E8" s="25" t="s">
@@ -11159,92 +11198,92 @@
   <autoFilter ref="B2:J76"/>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="I1 I3:I52 I57:I61 I67:I1048576 I63">
-    <cfRule type="cellIs" dxfId="58" priority="20" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="61" priority="20" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I1:I52 I57:I61 I67:I1048576 I63">
-    <cfRule type="cellIs" dxfId="57" priority="19" operator="lessThan">
+    <cfRule type="cellIs" dxfId="60" priority="19" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I53">
-    <cfRule type="cellIs" dxfId="56" priority="16" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="59" priority="16" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I53">
-    <cfRule type="cellIs" dxfId="55" priority="15" operator="lessThan">
+    <cfRule type="cellIs" dxfId="58" priority="15" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I54">
-    <cfRule type="cellIs" dxfId="54" priority="14" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="57" priority="14" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I54">
-    <cfRule type="cellIs" dxfId="53" priority="13" operator="lessThan">
+    <cfRule type="cellIs" dxfId="56" priority="13" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I55">
-    <cfRule type="cellIs" dxfId="52" priority="12" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="55" priority="12" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I55">
-    <cfRule type="cellIs" dxfId="51" priority="11" operator="lessThan">
+    <cfRule type="cellIs" dxfId="54" priority="11" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I56">
-    <cfRule type="cellIs" dxfId="50" priority="10" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="53" priority="10" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I56">
-    <cfRule type="cellIs" dxfId="49" priority="9" operator="lessThan">
+    <cfRule type="cellIs" dxfId="52" priority="9" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I64">
-    <cfRule type="cellIs" dxfId="48" priority="8" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="51" priority="8" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I64">
-    <cfRule type="cellIs" dxfId="47" priority="7" operator="lessThan">
+    <cfRule type="cellIs" dxfId="50" priority="7" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I65">
-    <cfRule type="cellIs" dxfId="46" priority="6" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="49" priority="6" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I65">
-    <cfRule type="cellIs" dxfId="45" priority="5" operator="lessThan">
+    <cfRule type="cellIs" dxfId="48" priority="5" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I62">
-    <cfRule type="cellIs" dxfId="44" priority="4" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="47" priority="4" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I62">
-    <cfRule type="cellIs" dxfId="43" priority="3" operator="lessThan">
+    <cfRule type="cellIs" dxfId="46" priority="3" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I66">
-    <cfRule type="cellIs" dxfId="42" priority="2" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="45" priority="2" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I66">
-    <cfRule type="cellIs" dxfId="41" priority="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="44" priority="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -11255,10 +11294,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:E8"/>
+  <dimension ref="B2:F12"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="F16" sqref="F16"/>
+      <selection activeCell="G21" sqref="G21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -11267,12 +11306,12 @@
     <col min="4" max="4" width="9.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="2" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B2" s="26" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="3" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="3" spans="2:6" x14ac:dyDescent="0.3">
       <c r="C3" t="s">
         <v>246</v>
       </c>
@@ -11280,46 +11319,105 @@
         <v>245</v>
       </c>
     </row>
-    <row r="4" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:6" x14ac:dyDescent="0.3">
       <c r="C4" t="s">
         <v>244</v>
       </c>
       <c r="D4" t="s">
         <v>247</v>
       </c>
-      <c r="E4" s="46">
-        <v>0.03</v>
-      </c>
-    </row>
-    <row r="5" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="E4" s="67">
+        <v>0.28000000000000003</v>
+      </c>
+    </row>
+    <row r="5" spans="2:6" x14ac:dyDescent="0.3">
       <c r="C5" t="s">
         <v>248</v>
       </c>
       <c r="D5" t="s">
         <v>247</v>
       </c>
-      <c r="E5" s="46">
-        <v>0.02</v>
-      </c>
-    </row>
-    <row r="6" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="E5" s="67">
+        <v>1.4999999999999999E-2</v>
+      </c>
+    </row>
+    <row r="6" spans="2:6" x14ac:dyDescent="0.3">
       <c r="C6" t="s">
         <v>249</v>
       </c>
       <c r="D6" t="s">
         <v>247</v>
       </c>
-      <c r="E6" s="46">
+      <c r="E6" s="67">
         <v>0.02</v>
       </c>
     </row>
-    <row r="8" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="8" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B8" s="26" t="s">
         <v>113</v>
       </c>
     </row>
+    <row r="9" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="C9" t="s">
+        <v>246</v>
+      </c>
+      <c r="D9" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="10" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="C10" t="s">
+        <v>397</v>
+      </c>
+      <c r="D10" t="s">
+        <v>247</v>
+      </c>
+      <c r="E10" s="67">
+        <v>3.5000000000000003E-2</v>
+      </c>
+      <c r="F10" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="11" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="D11" t="s">
+        <v>399</v>
+      </c>
+      <c r="E11" s="67">
+        <v>1.9E-2</v>
+      </c>
+      <c r="F11" t="s">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="12" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="C12" t="s">
+        <v>249</v>
+      </c>
+      <c r="D12" t="s">
+        <v>247</v>
+      </c>
+      <c r="E12" s="67">
+        <v>0.02</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
+  <conditionalFormatting sqref="E4:E6">
+    <cfRule type="cellIs" dxfId="2" priority="3" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E10:E11">
+    <cfRule type="cellIs" dxfId="1" priority="2" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E12">
+    <cfRule type="cellIs" dxfId="0" priority="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
@@ -11333,37 +11431,37 @@
       <pane xSplit="1" ySplit="4" topLeftCell="B5" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="K24" sqref="K24"/>
+      <selection pane="bottomRight" activeCell="M25" sqref="M25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="3.75" style="61" customWidth="1"/>
-    <col min="2" max="2" width="17.25" style="61" customWidth="1"/>
+    <col min="1" max="1" width="3.75" style="51" customWidth="1"/>
+    <col min="2" max="2" width="17.25" style="51" customWidth="1"/>
     <col min="3" max="3" width="11.5" style="19" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="17.125" style="19" customWidth="1"/>
-    <col min="5" max="5" width="11.75" style="64" customWidth="1"/>
-    <col min="6" max="6" width="15.25" style="64" customWidth="1"/>
+    <col min="5" max="5" width="11.75" style="54" customWidth="1"/>
+    <col min="6" max="6" width="15.25" style="54" customWidth="1"/>
     <col min="7" max="7" width="17.25" style="19" customWidth="1"/>
     <col min="8" max="8" width="12" style="19" customWidth="1"/>
-    <col min="9" max="12" width="12.375" style="61" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="12.375" style="61" customWidth="1"/>
-    <col min="14" max="14" width="48.375" style="61" customWidth="1"/>
-    <col min="15" max="15" width="60" style="61" customWidth="1"/>
-    <col min="16" max="16384" width="9" style="61"/>
+    <col min="9" max="12" width="12.375" style="51" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="12.375" style="51" customWidth="1"/>
+    <col min="14" max="14" width="48.375" style="51" customWidth="1"/>
+    <col min="15" max="15" width="60" style="51" customWidth="1"/>
+    <col min="16" max="16384" width="9" style="51"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B1" s="15" t="s">
         <v>283</v>
       </c>
-      <c r="C1" s="58">
+      <c r="C1" s="48">
         <v>4</v>
       </c>
       <c r="D1" s="15" t="s">
         <v>277</v>
       </c>
-      <c r="E1" s="59">
+      <c r="E1" s="49">
         <v>1.5</v>
       </c>
       <c r="F1" s="15" t="s">
@@ -11383,13 +11481,13 @@
       <c r="J1" s="15" t="s">
         <v>279</v>
       </c>
-      <c r="K1" s="60">
+      <c r="K1" s="50">
         <f>(G1/(G1+I1))*100</f>
         <v>86.206896551724128</v>
       </c>
-      <c r="L1" s="65"/>
-      <c r="M1" s="65"/>
-      <c r="N1" s="65"/>
+      <c r="L1" s="55"/>
+      <c r="M1" s="55"/>
+      <c r="N1" s="55"/>
     </row>
     <row r="2" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B2" s="15"/>
@@ -11397,7 +11495,7 @@
       <c r="D2" s="15" t="s">
         <v>282</v>
       </c>
-      <c r="E2" s="59">
+      <c r="E2" s="49">
         <v>-2</v>
       </c>
       <c r="F2" s="15"/>
@@ -11406,63 +11504,63 @@
       <c r="I2" s="17"/>
       <c r="J2" s="15"/>
       <c r="K2" s="6"/>
-      <c r="L2" s="66"/>
-      <c r="M2" s="66"/>
-      <c r="N2" s="66"/>
-    </row>
-    <row r="4" spans="2:14" s="63" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B4" s="62" t="s">
+      <c r="L2" s="56"/>
+      <c r="M2" s="56"/>
+      <c r="N2" s="56"/>
+    </row>
+    <row r="4" spans="2:14" s="53" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B4" s="52" t="s">
         <v>267</v>
       </c>
-      <c r="C4" s="62" t="s">
+      <c r="C4" s="52" t="s">
         <v>271</v>
       </c>
-      <c r="D4" s="62" t="s">
+      <c r="D4" s="52" t="s">
         <v>268</v>
       </c>
-      <c r="E4" s="62" t="s">
+      <c r="E4" s="52" t="s">
         <v>269</v>
       </c>
-      <c r="F4" s="62" t="s">
+      <c r="F4" s="52" t="s">
         <v>270</v>
       </c>
-      <c r="G4" s="62" t="s">
+      <c r="G4" s="52" t="s">
         <v>341</v>
       </c>
-      <c r="H4" s="62" t="s">
+      <c r="H4" s="52" t="s">
         <v>372</v>
       </c>
-      <c r="I4" s="62" t="s">
+      <c r="I4" s="52" t="s">
         <v>380</v>
       </c>
-      <c r="J4" s="62" t="s">
+      <c r="J4" s="52" t="s">
         <v>381</v>
       </c>
-      <c r="K4" s="62" t="s">
+      <c r="K4" s="52" t="s">
         <v>382</v>
       </c>
-      <c r="L4" s="62" t="s">
+      <c r="L4" s="52" t="s">
         <v>383</v>
       </c>
-      <c r="M4" s="62" t="s">
+      <c r="M4" s="52" t="s">
         <v>384</v>
       </c>
-      <c r="N4" s="62" t="s">
+      <c r="N4" s="52" t="s">
         <v>342</v>
       </c>
     </row>
-    <row r="5" spans="2:14" s="63" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B5" s="61" t="s">
+    <row r="5" spans="2:14" s="53" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B5" s="51" t="s">
         <v>340</v>
       </c>
-      <c r="C5" s="67">
+      <c r="C5" s="57">
         <v>43881</v>
       </c>
-      <c r="D5" s="61" t="s">
+      <c r="D5" s="51" t="s">
         <v>367</v>
       </c>
-      <c r="E5" s="64"/>
-      <c r="F5" s="64"/>
+      <c r="E5" s="54"/>
+      <c r="F5" s="54"/>
       <c r="G5" s="19" t="str">
         <f>IF(E5="", "", IF(E5&gt;=$C$1, "Y", "N"))</f>
         <v/>
@@ -11471,26 +11569,26 @@
         <f>IF(E5="", "", IF(E5&gt;$E$1, "Y", "N"))</f>
         <v/>
       </c>
-      <c r="I5" s="61" t="s">
+      <c r="I5" s="51" t="s">
         <v>344</v>
       </c>
-      <c r="J5" s="61"/>
-      <c r="K5" s="61"/>
-      <c r="L5" s="61"/>
-      <c r="M5" s="61"/>
-    </row>
-    <row r="6" spans="2:14" s="63" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B6" s="61" t="s">
+      <c r="J5" s="51"/>
+      <c r="K5" s="51"/>
+      <c r="L5" s="51"/>
+      <c r="M5" s="51"/>
+    </row>
+    <row r="6" spans="2:14" s="53" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B6" s="51" t="s">
         <v>340</v>
       </c>
-      <c r="C6" s="67">
+      <c r="C6" s="57">
         <v>43881</v>
       </c>
-      <c r="D6" s="61" t="s">
+      <c r="D6" s="51" t="s">
         <v>368</v>
       </c>
-      <c r="E6" s="64"/>
-      <c r="F6" s="64"/>
+      <c r="E6" s="54"/>
+      <c r="F6" s="54"/>
       <c r="G6" s="19" t="str">
         <f t="shared" ref="G6" si="0">IF(E6="", "", IF(E6&gt;=$C$1, "Y", "N"))</f>
         <v/>
@@ -11499,26 +11597,26 @@
         <f t="shared" ref="H6" si="1">IF(E6="", "", IF(E6&gt;$E$1, "Y", "N"))</f>
         <v/>
       </c>
-      <c r="I6" s="61"/>
-      <c r="J6" s="61"/>
-      <c r="K6" s="61" t="s">
+      <c r="I6" s="51"/>
+      <c r="J6" s="51"/>
+      <c r="K6" s="51" t="s">
         <v>348</v>
       </c>
-      <c r="L6" s="61"/>
-      <c r="M6" s="61"/>
-    </row>
-    <row r="7" spans="2:14" s="63" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B7" s="61" t="s">
+      <c r="L6" s="51"/>
+      <c r="M6" s="51"/>
+    </row>
+    <row r="7" spans="2:14" s="53" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B7" s="51" t="s">
         <v>340</v>
       </c>
-      <c r="C7" s="67">
+      <c r="C7" s="57">
         <v>43881</v>
       </c>
-      <c r="D7" s="61" t="s">
+      <c r="D7" s="51" t="s">
         <v>377</v>
       </c>
-      <c r="E7" s="64"/>
-      <c r="F7" s="64"/>
+      <c r="E7" s="54"/>
+      <c r="F7" s="54"/>
       <c r="G7" s="19" t="str">
         <f t="shared" ref="G7" si="2">IF(E7="", "", IF(E7&gt;=$C$1, "Y", "N"))</f>
         <v/>
@@ -11527,26 +11625,26 @@
         <f t="shared" ref="H7" si="3">IF(E7="", "", IF(E7&gt;$E$1, "Y", "N"))</f>
         <v/>
       </c>
-      <c r="I7" s="61" t="s">
+      <c r="I7" s="51" t="s">
         <v>344</v>
       </c>
-      <c r="J7" s="61"/>
-      <c r="K7" s="61"/>
-      <c r="L7" s="61"/>
-      <c r="M7" s="61"/>
-    </row>
-    <row r="8" spans="2:14" s="63" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B8" s="61" t="s">
+      <c r="J7" s="51"/>
+      <c r="K7" s="51"/>
+      <c r="L7" s="51"/>
+      <c r="M7" s="51"/>
+    </row>
+    <row r="8" spans="2:14" s="53" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B8" s="51" t="s">
         <v>340</v>
       </c>
-      <c r="C8" s="67">
+      <c r="C8" s="57">
         <v>43881</v>
       </c>
-      <c r="D8" s="61" t="s">
+      <c r="D8" s="51" t="s">
         <v>395</v>
       </c>
-      <c r="E8" s="64"/>
-      <c r="F8" s="64"/>
+      <c r="E8" s="54"/>
+      <c r="F8" s="54"/>
       <c r="G8" s="19" t="str">
         <f t="shared" ref="G8:G34" si="4">IF(E8="", "", IF(E8&gt;=$C$1, "Y", "N"))</f>
         <v/>
@@ -11555,26 +11653,26 @@
         <f t="shared" ref="H8:H34" si="5">IF(E8="", "", IF(E8&gt;$E$1, "Y", "N"))</f>
         <v/>
       </c>
-      <c r="I8" s="61"/>
-      <c r="J8" s="61"/>
-      <c r="K8" s="61" t="s">
+      <c r="I8" s="51"/>
+      <c r="J8" s="51"/>
+      <c r="K8" s="51" t="s">
         <v>348</v>
       </c>
-      <c r="L8" s="61"/>
-      <c r="M8" s="61"/>
-    </row>
-    <row r="9" spans="2:14" s="63" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B9" s="61" t="s">
+      <c r="L8" s="51"/>
+      <c r="M8" s="51"/>
+    </row>
+    <row r="9" spans="2:14" s="53" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B9" s="51" t="s">
         <v>340</v>
       </c>
-      <c r="C9" s="67">
+      <c r="C9" s="57">
         <v>43881</v>
       </c>
-      <c r="D9" s="61" t="s">
+      <c r="D9" s="51" t="s">
         <v>375</v>
       </c>
-      <c r="E9" s="64"/>
-      <c r="F9" s="64"/>
+      <c r="E9" s="54"/>
+      <c r="F9" s="54"/>
       <c r="G9" s="19" t="str">
         <f t="shared" si="4"/>
         <v/>
@@ -11583,26 +11681,26 @@
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="I9" s="61"/>
-      <c r="J9" s="61" t="s">
+      <c r="I9" s="51"/>
+      <c r="J9" s="51" t="s">
         <v>343</v>
       </c>
-      <c r="K9" s="61"/>
-      <c r="L9" s="61"/>
-      <c r="M9" s="61"/>
-    </row>
-    <row r="10" spans="2:14" s="63" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B10" s="61" t="s">
+      <c r="K9" s="51"/>
+      <c r="L9" s="51"/>
+      <c r="M9" s="51"/>
+    </row>
+    <row r="10" spans="2:14" s="53" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B10" s="51" t="s">
         <v>340</v>
       </c>
-      <c r="C10" s="67">
+      <c r="C10" s="57">
         <v>43881</v>
       </c>
-      <c r="D10" s="61" t="s">
+      <c r="D10" s="51" t="s">
         <v>396</v>
       </c>
-      <c r="E10" s="64"/>
-      <c r="F10" s="64"/>
+      <c r="E10" s="54"/>
+      <c r="F10" s="54"/>
       <c r="G10" s="19" t="str">
         <f t="shared" ref="G10" si="6">IF(E10="", "", IF(E10&gt;=$C$1, "Y", "N"))</f>
         <v/>
@@ -11611,28 +11709,28 @@
         <f t="shared" ref="H10" si="7">IF(E10="", "", IF(E10&gt;$E$1, "Y", "N"))</f>
         <v/>
       </c>
-      <c r="I10" s="61"/>
-      <c r="J10" s="61" t="s">
+      <c r="I10" s="51"/>
+      <c r="J10" s="51" t="s">
         <v>343</v>
       </c>
-      <c r="K10" s="61"/>
-      <c r="L10" s="61"/>
-      <c r="M10" s="61"/>
-    </row>
-    <row r="11" spans="2:14" s="63" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B11" s="61" t="s">
+      <c r="K10" s="51"/>
+      <c r="L10" s="51"/>
+      <c r="M10" s="51"/>
+    </row>
+    <row r="11" spans="2:14" s="53" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B11" s="51" t="s">
         <v>340</v>
       </c>
-      <c r="C11" s="67">
+      <c r="C11" s="57">
         <v>43880</v>
       </c>
-      <c r="D11" s="61" t="s">
+      <c r="D11" s="51" t="s">
         <v>363</v>
       </c>
-      <c r="E11" s="64">
+      <c r="E11" s="54">
         <v>5.13</v>
       </c>
-      <c r="F11" s="64">
+      <c r="F11" s="54">
         <v>1.1399999999999999</v>
       </c>
       <c r="G11" s="19" t="str">
@@ -11643,34 +11741,34 @@
         <f t="shared" si="5"/>
         <v>Y</v>
       </c>
-      <c r="I11" s="61" t="s">
+      <c r="I11" s="51" t="s">
         <v>344</v>
       </c>
-      <c r="J11" s="61" t="s">
+      <c r="J11" s="51" t="s">
         <v>343</v>
       </c>
-      <c r="K11" s="61" t="s">
+      <c r="K11" s="51" t="s">
         <v>348</v>
       </c>
-      <c r="L11" s="61" t="s">
+      <c r="L11" s="51" t="s">
         <v>350</v>
       </c>
-      <c r="M11" s="61"/>
-    </row>
-    <row r="12" spans="2:14" s="63" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B12" s="61" t="s">
+      <c r="M11" s="51"/>
+    </row>
+    <row r="12" spans="2:14" s="53" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B12" s="51" t="s">
         <v>340</v>
       </c>
-      <c r="C12" s="67">
+      <c r="C12" s="57">
         <v>43879</v>
       </c>
-      <c r="D12" s="61" t="s">
+      <c r="D12" s="51" t="s">
         <v>298</v>
       </c>
-      <c r="E12" s="64">
+      <c r="E12" s="54">
         <v>25.07</v>
       </c>
-      <c r="F12" s="64">
+      <c r="F12" s="54">
         <v>3.7</v>
       </c>
       <c r="G12" s="19" t="str">
@@ -11681,28 +11779,28 @@
         <f t="shared" si="5"/>
         <v>Y</v>
       </c>
-      <c r="I12" s="61" t="s">
+      <c r="I12" s="51" t="s">
         <v>344</v>
       </c>
-      <c r="K12" s="61" t="s">
+      <c r="K12" s="51" t="s">
         <v>348</v>
       </c>
-      <c r="L12" s="61"/>
-    </row>
-    <row r="13" spans="2:14" s="63" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B13" s="61" t="s">
+      <c r="L12" s="51"/>
+    </row>
+    <row r="13" spans="2:14" s="53" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B13" s="51" t="s">
         <v>340</v>
       </c>
-      <c r="C13" s="67">
+      <c r="C13" s="57">
         <v>43879</v>
       </c>
-      <c r="D13" s="61" t="s">
+      <c r="D13" s="51" t="s">
         <v>299</v>
       </c>
-      <c r="E13" s="64">
+      <c r="E13" s="54">
         <v>1.08</v>
       </c>
-      <c r="F13" s="64">
+      <c r="F13" s="54">
         <v>-7.53</v>
       </c>
       <c r="G13" s="19" t="str">
@@ -11713,24 +11811,24 @@
         <f t="shared" si="5"/>
         <v>N</v>
       </c>
-      <c r="I13" s="61" t="s">
+      <c r="I13" s="51" t="s">
         <v>347</v>
       </c>
     </row>
-    <row r="14" spans="2:14" s="63" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B14" s="61" t="s">
+    <row r="14" spans="2:14" s="53" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B14" s="51" t="s">
         <v>336</v>
       </c>
-      <c r="C14" s="67">
+      <c r="C14" s="57">
         <v>43879</v>
       </c>
-      <c r="D14" s="61" t="s">
+      <c r="D14" s="51" t="s">
         <v>300</v>
       </c>
-      <c r="E14" s="64">
+      <c r="E14" s="54">
         <v>0.59</v>
       </c>
-      <c r="F14" s="64">
+      <c r="F14" s="54">
         <v>-8.75</v>
       </c>
       <c r="G14" s="19" t="str">
@@ -11741,24 +11839,24 @@
         <f t="shared" si="5"/>
         <v>N</v>
       </c>
-      <c r="I14" s="61" t="s">
+      <c r="I14" s="51" t="s">
         <v>344</v>
       </c>
     </row>
     <row r="15" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B15" s="61" t="s">
+      <c r="B15" s="51" t="s">
         <v>336</v>
       </c>
-      <c r="C15" s="67">
+      <c r="C15" s="57">
         <v>43878</v>
       </c>
-      <c r="D15" s="61" t="s">
+      <c r="D15" s="51" t="s">
         <v>290</v>
       </c>
-      <c r="E15" s="64">
+      <c r="E15" s="54">
         <v>0.73</v>
       </c>
-      <c r="F15" s="64">
+      <c r="F15" s="54">
         <v>-2.2000000000000002</v>
       </c>
       <c r="G15" s="19" t="str">
@@ -11769,24 +11867,24 @@
         <f t="shared" si="5"/>
         <v>N</v>
       </c>
-      <c r="I15" s="61" t="s">
+      <c r="I15" s="51" t="s">
         <v>345</v>
       </c>
     </row>
     <row r="16" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B16" s="61" t="s">
+      <c r="B16" s="51" t="s">
         <v>336</v>
       </c>
-      <c r="C16" s="67">
+      <c r="C16" s="57">
         <v>43878</v>
       </c>
-      <c r="D16" s="61" t="s">
+      <c r="D16" s="51" t="s">
         <v>291</v>
       </c>
-      <c r="E16" s="64">
+      <c r="E16" s="54">
         <v>2.38</v>
       </c>
-      <c r="F16" s="64">
+      <c r="F16" s="54">
         <v>-1.93</v>
       </c>
       <c r="G16" s="19" t="str">
@@ -11797,24 +11895,24 @@
         <f t="shared" si="5"/>
         <v>Y</v>
       </c>
-      <c r="I16" s="61" t="s">
+      <c r="I16" s="51" t="s">
         <v>344</v>
       </c>
     </row>
     <row r="17" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B17" s="61" t="s">
+      <c r="B17" s="51" t="s">
         <v>336</v>
       </c>
-      <c r="C17" s="67">
+      <c r="C17" s="57">
         <v>43878</v>
       </c>
-      <c r="D17" s="61" t="s">
+      <c r="D17" s="51" t="s">
         <v>266</v>
       </c>
-      <c r="E17" s="64">
+      <c r="E17" s="54">
         <v>0.4</v>
       </c>
-      <c r="F17" s="64">
+      <c r="F17" s="54">
         <v>-5.0999999999999996</v>
       </c>
       <c r="G17" s="19" t="str">
@@ -11825,24 +11923,24 @@
         <f t="shared" si="5"/>
         <v>N</v>
       </c>
-      <c r="J17" s="61" t="s">
+      <c r="J17" s="51" t="s">
         <v>343</v>
       </c>
     </row>
     <row r="18" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B18" s="61" t="s">
+      <c r="B18" s="51" t="s">
         <v>336</v>
       </c>
-      <c r="C18" s="67">
+      <c r="C18" s="57">
         <v>